--- a/fund_list.xlsx
+++ b/fund_list.xlsx
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="D2" s="39" t="n">
-        <v>2115.33</v>
+        <v>2689.26</v>
       </c>
       <c r="E2" s="41" t="n">
         <v>0.38</v>
@@ -1601,8 +1601,8 @@
       <c r="W2" s="41" t="n">
         <v>-0.2</v>
       </c>
-      <c r="X2" s="40" t="n">
-        <v>-0.1</v>
+      <c r="X2" s="41" t="n">
+        <v>-0.03</v>
       </c>
       <c r="Y2" s="39" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         </is>
       </c>
       <c r="D3" s="39" t="n">
-        <v>81.73999999999999</v>
+        <v>105.03</v>
       </c>
       <c r="E3" s="41" t="n">
         <v>0.16</v>
@@ -1685,7 +1685,7 @@
         <v>-0.17</v>
       </c>
       <c r="X3" s="40" t="n">
-        <v>-0.35</v>
+        <v>-0.16</v>
       </c>
       <c r="Y3" s="39" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="D4" s="39" t="n">
-        <v>2976.71</v>
+        <v>3767.95</v>
       </c>
       <c r="E4" s="43" t="n">
         <v>-0.01</v>
@@ -1768,7 +1768,7 @@
         <v>-0.62</v>
       </c>
       <c r="X4" s="41" t="n">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="Y4" s="39" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         </is>
       </c>
       <c r="D5" s="39" t="n">
-        <v>1370.11</v>
+        <v>1724.42</v>
       </c>
       <c r="E5" s="43" t="n">
         <v>-0.09</v>
@@ -1851,7 +1851,7 @@
         <v>-0.65</v>
       </c>
       <c r="X5" s="41" t="n">
-        <v>-0.05</v>
+        <v>0.05</v>
       </c>
       <c r="Y5" s="39" t="inlineStr">
         <is>
@@ -1874,7 +1874,7 @@
         </is>
       </c>
       <c r="D6" s="39" t="n">
-        <v>225.46</v>
+        <v>302.16</v>
       </c>
       <c r="E6" s="40" t="n">
         <v>-0.11</v>
@@ -1934,7 +1934,7 @@
         <v>0.09</v>
       </c>
       <c r="X6" s="40" t="n">
-        <v>-0.27</v>
+        <v>-0.21</v>
       </c>
       <c r="Y6" s="39" t="inlineStr">
         <is>
@@ -1957,7 +1957,7 @@
         </is>
       </c>
       <c r="D7" s="39" t="n">
-        <v>873.64</v>
+        <v>1146.04</v>
       </c>
       <c r="E7" s="40" t="n">
         <v>0.01</v>
@@ -2017,7 +2017,7 @@
         <v>-0.14</v>
       </c>
       <c r="X7" s="40" t="n">
-        <v>-0.21</v>
+        <v>-0.13</v>
       </c>
       <c r="Y7" s="39" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         </is>
       </c>
       <c r="D8" s="39" t="n">
-        <v>789.09</v>
+        <v>1007.05</v>
       </c>
       <c r="E8" s="41" t="n">
         <v>0.6</v>
@@ -2100,7 +2100,7 @@
         <v>-0.51</v>
       </c>
       <c r="X8" s="41" t="n">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
       <c r="Y8" s="39" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         </is>
       </c>
       <c r="D9" s="39" t="n">
-        <v>1663.57</v>
+        <v>2153.09</v>
       </c>
       <c r="E9" s="40" t="n">
         <v>0.16</v>
@@ -2183,7 +2183,7 @@
         <v>-0.24</v>
       </c>
       <c r="X9" s="40" t="n">
-        <v>-0.13</v>
+        <v>-0.06</v>
       </c>
       <c r="Y9" s="39" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         </is>
       </c>
       <c r="D10" s="39" t="n">
-        <v>1103.38</v>
+        <v>1400.51</v>
       </c>
       <c r="E10" s="41" t="n">
         <v>0.53</v>
@@ -2266,7 +2266,7 @@
         <v>-1.05</v>
       </c>
       <c r="X10" s="40" t="n">
-        <v>0.45</v>
+        <v>0.48</v>
       </c>
       <c r="Y10" s="39" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>0.66</v>
       </c>
       <c r="X11" s="42" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.47</v>
       </c>
       <c r="Y11" s="39" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         </is>
       </c>
       <c r="D12" s="39" t="n">
-        <v>8.9</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="E12" s="40" t="n">
         <v>0.25</v>
@@ -2432,7 +2432,7 @@
         <v>0.18</v>
       </c>
       <c r="X12" s="44" t="n">
-        <v>0.31</v>
+        <v>0.12</v>
       </c>
       <c r="Y12" s="39" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>0.17</v>
       </c>
       <c r="X13" s="44" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="Y13" s="39" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
         </is>
       </c>
       <c r="D14" s="39" t="n">
-        <v>240</v>
+        <v>239.79</v>
       </c>
       <c r="E14" s="40" t="n">
         <v>1.78</v>
@@ -2598,7 +2598,7 @@
         <v>0.37</v>
       </c>
       <c r="X14" s="42" t="n">
-        <v>0.73</v>
+        <v>0.55</v>
       </c>
       <c r="Y14" s="39" t="inlineStr">
         <is>
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="D15" s="39" t="n">
-        <v>23.12</v>
+        <v>23.15</v>
       </c>
       <c r="E15" s="40" t="n">
         <v>0.28</v>
@@ -2680,8 +2680,8 @@
       <c r="W15" s="42" t="n">
         <v>2.91</v>
       </c>
-      <c r="X15" s="41" t="n">
-        <v>-0.07000000000000001</v>
+      <c r="X15" s="42" t="n">
+        <v>0.07000000000000001</v>
       </c>
       <c r="Y15" s="39" t="inlineStr">
         <is>
@@ -2704,7 +2704,7 @@
         </is>
       </c>
       <c r="D16" s="39" t="n">
-        <v>178.28</v>
+        <v>178</v>
       </c>
       <c r="E16" s="40" t="n">
         <v>1.57</v>
@@ -2764,7 +2764,7 @@
         <v>0.32</v>
       </c>
       <c r="X16" s="42" t="n">
-        <v>0.16</v>
+        <v>0.05</v>
       </c>
       <c r="Y16" s="39" t="inlineStr">
         <is>
@@ -2847,7 +2847,7 @@
         <v>-0.99</v>
       </c>
       <c r="X17" s="42" t="n">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="Y17" s="39" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="D18" s="39" t="n">
-        <v>347.47</v>
+        <v>346.95</v>
       </c>
       <c r="E18" s="41" t="n">
         <v>1.04</v>
@@ -2930,7 +2930,7 @@
         <v>0.15</v>
       </c>
       <c r="X18" s="42" t="n">
-        <v>0.22</v>
+        <v>0.15</v>
       </c>
       <c r="Y18" s="39" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         </is>
       </c>
       <c r="D19" s="39" t="n">
-        <v>88.98</v>
+        <v>88.84999999999999</v>
       </c>
       <c r="E19" s="40" t="n">
         <v>2.29</v>
@@ -3013,7 +3013,7 @@
         <v>0.36</v>
       </c>
       <c r="X19" s="42" t="n">
-        <v>0.5</v>
+        <v>0.36</v>
       </c>
       <c r="Y19" s="39" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
         </is>
       </c>
       <c r="D20" s="39" t="n">
-        <v>747.36</v>
+        <v>747.37</v>
       </c>
       <c r="E20" s="42" t="n">
         <v>0.02</v>
@@ -3119,7 +3119,7 @@
         </is>
       </c>
       <c r="D21" s="39" t="n">
-        <v>620.48</v>
+        <v>617.03</v>
       </c>
       <c r="E21" s="44" t="n">
         <v>0.63</v>
@@ -3179,7 +3179,7 @@
         <v>-0.86</v>
       </c>
       <c r="X21" s="41" t="n">
-        <v>1.14</v>
+        <v>0.58</v>
       </c>
       <c r="Y21" s="39" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>-0.12</v>
       </c>
       <c r="X22" s="40" t="n">
-        <v>-0.49</v>
+        <v>-0.37</v>
       </c>
       <c r="Y22" s="39" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         </is>
       </c>
       <c r="D24" s="39" t="n">
-        <v>1621.54</v>
+        <v>1622.14</v>
       </c>
       <c r="E24" s="40" t="n">
         <v>-0.15</v>
@@ -3428,7 +3428,7 @@
         <v>0.04</v>
       </c>
       <c r="X24" s="40" t="n">
-        <v>-0.22</v>
+        <v>-0.18</v>
       </c>
       <c r="Y24" s="39" t="inlineStr">
         <is>
@@ -3617,7 +3617,7 @@
         </is>
       </c>
       <c r="D27" s="39" t="n">
-        <v>47.2</v>
+        <v>47.26</v>
       </c>
       <c r="E27" s="40" t="n">
         <v>-0.12</v>
@@ -3676,8 +3676,8 @@
       <c r="W27" s="41" t="n">
         <v>-0.12</v>
       </c>
-      <c r="X27" s="40" t="n">
-        <v>-0.5</v>
+      <c r="X27" s="41" t="n">
+        <v>-0.37</v>
       </c>
       <c r="Y27" s="39" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
         </is>
       </c>
       <c r="D28" s="39" t="n">
-        <v>625.76</v>
+        <v>625.23</v>
       </c>
       <c r="E28" s="41" t="n">
         <v>0.44</v>
@@ -3759,8 +3759,8 @@
       <c r="W28" s="40" t="n">
         <v>-1.05</v>
       </c>
-      <c r="X28" s="41" t="n">
-        <v>0.55</v>
+      <c r="X28" s="40" t="n">
+        <v>0.51</v>
       </c>
       <c r="Y28" s="39" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         </is>
       </c>
       <c r="D29" s="39" t="n">
-        <v>1093.07</v>
+        <v>1092.49</v>
       </c>
       <c r="E29" s="41" t="n">
         <v>0.55</v>
@@ -3843,7 +3843,7 @@
         <v>-0.46</v>
       </c>
       <c r="X29" s="41" t="n">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
       <c r="Y29" s="39" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         </is>
       </c>
       <c r="D30" s="39" t="n">
-        <v>767.96</v>
+        <v>768.6900000000001</v>
       </c>
       <c r="E30" s="41" t="n">
         <v>0.19</v>
@@ -3926,7 +3926,7 @@
         <v>-0.28</v>
       </c>
       <c r="X30" s="40" t="n">
-        <v>-0.29</v>
+        <v>-0.1</v>
       </c>
       <c r="Y30" s="39" t="inlineStr">
         <is>
@@ -3949,7 +3949,7 @@
         </is>
       </c>
       <c r="D31" s="39" t="n">
-        <v>841.33</v>
+        <v>841.77</v>
       </c>
       <c r="E31" s="43" t="n">
         <v>-0.1</v>
@@ -4009,7 +4009,7 @@
         <v>-0.73</v>
       </c>
       <c r="X31" s="41" t="n">
-        <v>-0.05</v>
+        <v>0</v>
       </c>
       <c r="Y31" s="39" t="inlineStr">
         <is>
@@ -4032,7 +4032,7 @@
         </is>
       </c>
       <c r="D32" s="39" t="n">
-        <v>250.6</v>
+        <v>250.89</v>
       </c>
       <c r="E32" s="43" t="n">
         <v>-0.32</v>
@@ -4091,8 +4091,8 @@
       <c r="W32" s="41" t="n">
         <v>-0.7</v>
       </c>
-      <c r="X32" s="41" t="n">
-        <v>-0.12</v>
+      <c r="X32" s="42" t="n">
+        <v>0.12</v>
       </c>
       <c r="Y32" s="39" t="inlineStr">
         <is>
@@ -4281,7 +4281,7 @@
         </is>
       </c>
       <c r="D35" s="39" t="n">
-        <v>4.36</v>
+        <v>4.35</v>
       </c>
       <c r="E35" s="40" t="n">
         <v>0.48</v>
@@ -4341,7 +4341,7 @@
         <v>0.63</v>
       </c>
       <c r="X35" s="40" t="n">
-        <v>-0.49</v>
+        <v>-0.63</v>
       </c>
       <c r="Y35" s="39" t="inlineStr">
         <is>
@@ -4364,7 +4364,7 @@
         </is>
       </c>
       <c r="D36" s="39" t="n">
-        <v>242.26</v>
+        <v>242.42</v>
       </c>
       <c r="E36" s="41" t="n">
         <v>-0.39</v>
@@ -4424,7 +4424,7 @@
         <v>0.26</v>
       </c>
       <c r="X36" s="40" t="n">
-        <v>-0.19</v>
+        <v>-0.06</v>
       </c>
       <c r="Y36" s="39" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         </is>
       </c>
       <c r="D37" s="39" t="n">
-        <v>209.62</v>
+        <v>209.83</v>
       </c>
       <c r="E37" s="41" t="n">
         <v>0.1</v>
@@ -4507,7 +4507,7 @@
         <v>0.1</v>
       </c>
       <c r="X37" s="40" t="n">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="Y37" s="39" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         </is>
       </c>
       <c r="D38" s="39" t="n">
-        <v>237.44</v>
+        <v>237.82</v>
       </c>
       <c r="E38" s="41" t="n">
         <v>0.32</v>
@@ -4590,7 +4590,7 @@
         <v>0.41</v>
       </c>
       <c r="X38" s="40" t="n">
-        <v>-0.16</v>
+        <v>0</v>
       </c>
       <c r="Y38" s="39" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         </is>
       </c>
       <c r="D39" s="39" t="n">
-        <v>277.53</v>
+        <v>276.99</v>
       </c>
       <c r="E39" s="43" t="n">
         <v>-0.18</v>
@@ -4673,7 +4673,7 @@
         <v>-0.77</v>
       </c>
       <c r="X39" s="40" t="n">
-        <v>-0.1</v>
+        <v>-0.19</v>
       </c>
       <c r="Y39" s="39" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="D40" s="39" t="n">
-        <v>63.88</v>
+        <v>63.96</v>
       </c>
       <c r="E40" s="40" t="n">
         <v>0</v>
@@ -4756,7 +4756,7 @@
         <v>-0.41</v>
       </c>
       <c r="X40" s="40" t="n">
-        <v>-0.27</v>
+        <v>-0.14</v>
       </c>
       <c r="Y40" s="39" t="inlineStr">
         <is>
@@ -4922,7 +4922,7 @@
         <v>0.84</v>
       </c>
       <c r="X42" s="41" t="n">
-        <v>-0.32</v>
+        <v>-0.39</v>
       </c>
       <c r="Y42" s="39" t="inlineStr">
         <is>
@@ -4945,7 +4945,7 @@
         </is>
       </c>
       <c r="D43" s="39" t="n">
-        <v>117.25</v>
+        <v>117.41</v>
       </c>
       <c r="E43" s="42" t="n">
         <v>4.19</v>
@@ -5028,7 +5028,7 @@
         </is>
       </c>
       <c r="D44" s="39" t="n">
-        <v>16.22</v>
+        <v>16.15</v>
       </c>
       <c r="E44" s="42" t="n">
         <v>2.7</v>
@@ -5087,8 +5087,8 @@
       <c r="W44" s="43" t="n">
         <v>-1.09</v>
       </c>
-      <c r="X44" s="41" t="n">
-        <v>0.44</v>
+      <c r="X44" s="43" t="n">
+        <v>0</v>
       </c>
       <c r="Y44" s="39" t="inlineStr">
         <is>
@@ -5170,8 +5170,8 @@
       <c r="W45" s="41" t="n">
         <v>-0.29</v>
       </c>
-      <c r="X45" s="41" t="n">
-        <v>0.59</v>
+      <c r="X45" s="42" t="n">
+        <v>0.88</v>
       </c>
       <c r="Y45" s="39" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         </is>
       </c>
       <c r="D47" s="39" t="n">
-        <v>221.17</v>
+        <v>220.54</v>
       </c>
       <c r="E47" s="42" t="n">
         <v>3.31</v>
@@ -5360,7 +5360,7 @@
         </is>
       </c>
       <c r="D48" s="39" t="n">
-        <v>21.6</v>
+        <v>21.66</v>
       </c>
       <c r="E48" s="41" t="n">
         <v>0.9</v>
@@ -5420,7 +5420,7 @@
         <v>-0.87</v>
       </c>
       <c r="X48" s="40" t="n">
-        <v>-0.15</v>
+        <v>0.29</v>
       </c>
       <c r="Y48" s="39" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         </is>
       </c>
       <c r="D49" s="39" t="n">
-        <v>31.78</v>
+        <v>31.94</v>
       </c>
       <c r="E49" s="41" t="n">
         <v>0.88</v>
@@ -5503,7 +5503,7 @@
         <v>-0.85</v>
       </c>
       <c r="X49" s="40" t="n">
-        <v>-0.34</v>
+        <v>0.17</v>
       </c>
       <c r="Y49" s="39" t="inlineStr">
         <is>
@@ -5526,7 +5526,7 @@
         </is>
       </c>
       <c r="D50" s="39" t="n">
-        <v>4.26</v>
+        <v>4.27</v>
       </c>
       <c r="E50" s="40" t="n">
         <v>-0.91</v>
@@ -5586,7 +5586,7 @@
         <v>-1.41</v>
       </c>
       <c r="X50" s="41" t="n">
-        <v>0.24</v>
+        <v>0.4</v>
       </c>
       <c r="Y50" s="39" t="inlineStr">
         <is>
@@ -5609,7 +5609,7 @@
         </is>
       </c>
       <c r="D51" s="39" t="n">
-        <v>126.86</v>
+        <v>126.99</v>
       </c>
       <c r="E51" s="41" t="n">
         <v>1.37</v>
@@ -5775,7 +5775,7 @@
         </is>
       </c>
       <c r="D53" s="39" t="n">
-        <v>26.58</v>
+        <v>26.69</v>
       </c>
       <c r="E53" s="41" t="n">
         <v>-0.25</v>
@@ -5835,7 +5835,7 @@
         <v>0</v>
       </c>
       <c r="X53" s="42" t="n">
-        <v>1.29</v>
+        <v>1.67</v>
       </c>
       <c r="Y53" s="39" t="inlineStr">
         <is>
@@ -5858,7 +5858,7 @@
         </is>
       </c>
       <c r="D54" s="39" t="n">
-        <v>33.38</v>
+        <v>33.34</v>
       </c>
       <c r="E54" s="45" t="n">
         <v>-0.59</v>
@@ -5918,7 +5918,7 @@
         <v>-0.53</v>
       </c>
       <c r="X54" s="41" t="n">
-        <v>0.32</v>
+        <v>0.21</v>
       </c>
       <c r="Y54" s="39" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         </is>
       </c>
       <c r="D56" s="39" t="n">
-        <v>49.07</v>
+        <v>49.03</v>
       </c>
       <c r="E56" s="41" t="n">
         <v>-0.74</v>
@@ -6107,7 +6107,7 @@
         </is>
       </c>
       <c r="D57" s="39" t="n">
-        <v>133.75</v>
+        <v>133.58</v>
       </c>
       <c r="E57" s="43" t="n">
         <v>-0.78</v>
@@ -6190,7 +6190,7 @@
         </is>
       </c>
       <c r="D58" s="39" t="n">
-        <v>28.48</v>
+        <v>28.38</v>
       </c>
       <c r="E58" s="45" t="n">
         <v>-0.98</v>
@@ -6250,7 +6250,7 @@
         <v>-0.47</v>
       </c>
       <c r="X58" s="41" t="n">
-        <v>0.35</v>
+        <v>0.23</v>
       </c>
       <c r="Y58" s="39" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         </is>
       </c>
       <c r="D60" s="39" t="n">
-        <v>15.36</v>
+        <v>15.34</v>
       </c>
       <c r="E60" s="41" t="n">
         <v>-0.48</v>
@@ -6522,7 +6522,7 @@
         </is>
       </c>
       <c r="D62" s="39" t="n">
-        <v>59.59</v>
+        <v>59.65</v>
       </c>
       <c r="E62" s="45" t="n">
         <v>-0.27</v>
@@ -6582,7 +6582,7 @@
         <v>-1.31</v>
       </c>
       <c r="X62" s="41" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Y62" s="39" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         </is>
       </c>
       <c r="D63" s="39" t="n">
-        <v>67.15000000000001</v>
+        <v>67.09</v>
       </c>
       <c r="E63" s="41" t="n">
         <v>-0.09</v>
@@ -6688,7 +6688,7 @@
         </is>
       </c>
       <c r="D64" s="39" t="n">
-        <v>12.9</v>
+        <v>12.88</v>
       </c>
       <c r="E64" s="45" t="n">
         <v>-1.19</v>
@@ -6937,7 +6937,7 @@
         </is>
       </c>
       <c r="D67" s="39" t="n">
-        <v>14.22</v>
+        <v>14.2</v>
       </c>
       <c r="E67" s="40" t="n">
         <v>0.51</v>
@@ -6996,8 +6996,8 @@
       <c r="W67" s="41" t="n">
         <v>-0.9</v>
       </c>
-      <c r="X67" s="42" t="n">
-        <v>0.36</v>
+      <c r="X67" s="41" t="n">
+        <v>0.18</v>
       </c>
       <c r="Y67" s="39" t="inlineStr">
         <is>
@@ -7020,7 +7020,7 @@
         </is>
       </c>
       <c r="D68" s="39" t="n">
-        <v>15.21</v>
+        <v>15.23</v>
       </c>
       <c r="E68" s="43" t="n">
         <v>-0.86</v>
@@ -7080,7 +7080,7 @@
         <v>-0.23</v>
       </c>
       <c r="X68" s="42" t="n">
-        <v>0.31</v>
+        <v>0.46</v>
       </c>
       <c r="Y68" s="39" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         </is>
       </c>
       <c r="D69" s="39" t="n">
-        <v>153.28</v>
+        <v>153.47</v>
       </c>
       <c r="E69" s="40" t="n">
         <v>0.74</v>
@@ -7163,7 +7163,7 @@
         <v>-0.37</v>
       </c>
       <c r="X69" s="43" t="n">
-        <v>-0.37</v>
+        <v>-0.24</v>
       </c>
       <c r="Y69" s="39" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         </is>
       </c>
       <c r="D70" s="39" t="n">
-        <v>108.7</v>
+        <v>108.52</v>
       </c>
       <c r="E70" s="40" t="n">
         <v>0.16</v>
@@ -7246,7 +7246,7 @@
         <v>-0.33</v>
       </c>
       <c r="X70" s="43" t="n">
-        <v>-0.83</v>
+        <v>-1</v>
       </c>
       <c r="Y70" s="39" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         </is>
       </c>
       <c r="D71" s="39" t="n">
-        <v>31.51</v>
+        <v>31.57</v>
       </c>
       <c r="E71" s="40" t="n">
         <v>-0.54</v>
@@ -7329,7 +7329,7 @@
         <v>0.19</v>
       </c>
       <c r="X71" s="40" t="n">
-        <v>-0.37</v>
+        <v>-0.19</v>
       </c>
       <c r="Y71" s="39" t="inlineStr">
         <is>
@@ -7352,7 +7352,7 @@
         </is>
       </c>
       <c r="D72" s="39" t="n">
-        <v>31.48</v>
+        <v>31.39</v>
       </c>
       <c r="E72" s="40" t="n">
         <v>0.9</v>
@@ -7412,7 +7412,7 @@
         <v>-1.46</v>
       </c>
       <c r="X72" s="40" t="n">
-        <v>-0.74</v>
+        <v>-0.89</v>
       </c>
       <c r="Y72" s="39" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="D73" s="39" t="n">
-        <v>6.42</v>
+        <v>6.39</v>
       </c>
       <c r="E73" s="40" t="n">
         <v>-0.37</v>
@@ -7494,8 +7494,8 @@
       <c r="W73" s="41" t="n">
         <v>0.62</v>
       </c>
-      <c r="X73" s="42" t="n">
-        <v>1.02</v>
+      <c r="X73" s="41" t="n">
+        <v>0.61</v>
       </c>
       <c r="Y73" s="39" t="inlineStr">
         <is>
@@ -7518,7 +7518,7 @@
         </is>
       </c>
       <c r="D74" s="39" t="n">
-        <v>219.3</v>
+        <v>219.52</v>
       </c>
       <c r="E74" s="41" t="n">
         <v>0.78</v>
@@ -7578,7 +7578,7 @@
         <v>0.1</v>
       </c>
       <c r="X74" s="40" t="n">
-        <v>-0.36</v>
+        <v>-0.26</v>
       </c>
       <c r="Y74" s="39" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         </is>
       </c>
       <c r="D75" s="39" t="n">
-        <v>158.06</v>
+        <v>158.34</v>
       </c>
       <c r="E75" s="41" t="n">
         <v>0.27</v>
@@ -7661,7 +7661,7 @@
         <v>0.44</v>
       </c>
       <c r="X75" s="41" t="n">
-        <v>-0.27</v>
+        <v>-0.18</v>
       </c>
       <c r="Y75" s="39" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         </is>
       </c>
       <c r="D76" s="39" t="n">
-        <v>45.37</v>
+        <v>45.33</v>
       </c>
       <c r="E76" s="40" t="n">
         <v>0.28</v>
@@ -7744,7 +7744,7 @@
         <v>-0.38</v>
       </c>
       <c r="X76" s="40" t="n">
-        <v>0</v>
+        <v>-0.19</v>
       </c>
       <c r="Y76" s="39" t="inlineStr">
         <is>
@@ -7933,7 +7933,7 @@
         </is>
       </c>
       <c r="D79" s="39" t="n">
-        <v>17.06</v>
+        <v>17.05</v>
       </c>
       <c r="E79" s="41" t="n">
         <v>1.53</v>
@@ -8075,8 +8075,8 @@
       <c r="W80" s="41" t="n">
         <v>-0.11</v>
       </c>
-      <c r="X80" s="41" t="n">
-        <v>0</v>
+      <c r="X80" s="40" t="n">
+        <v>-0.22</v>
       </c>
       <c r="Y80" s="39" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="D82" s="39" t="n">
-        <v>34.51</v>
+        <v>34.58</v>
       </c>
       <c r="E82" s="40" t="n">
         <v>1.48</v>
@@ -8242,7 +8242,7 @@
         <v>-1.22</v>
       </c>
       <c r="X82" s="43" t="n">
-        <v>-0.62</v>
+        <v>-0.51</v>
       </c>
       <c r="Y82" s="39" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         </is>
       </c>
       <c r="D84" s="39" t="n">
-        <v>24.67</v>
+        <v>24.63</v>
       </c>
       <c r="E84" s="40" t="n">
         <v>0.77</v>
@@ -8408,7 +8408,7 @@
         <v>-1.15</v>
       </c>
       <c r="X84" s="40" t="n">
-        <v>0</v>
+        <v>-0.29</v>
       </c>
       <c r="Y84" s="39" t="inlineStr">
         <is>
@@ -8514,7 +8514,7 @@
         </is>
       </c>
       <c r="D86" s="39" t="n">
-        <v>2.92</v>
+        <v>2.91</v>
       </c>
       <c r="E86" s="40" t="n">
         <v>1.08</v>
@@ -8573,8 +8573,8 @@
       <c r="W86" s="42" t="n">
         <v>0.23</v>
       </c>
-      <c r="X86" s="42" t="n">
-        <v>-0.6899999999999999</v>
+      <c r="X86" s="40" t="n">
+        <v>-0.92</v>
       </c>
       <c r="Y86" s="39" t="inlineStr">
         <is>
@@ -8597,7 +8597,7 @@
         </is>
       </c>
       <c r="D87" s="39" t="n">
-        <v>43.94</v>
+        <v>43.91</v>
       </c>
       <c r="E87" s="40" t="n">
         <v>0.42</v>
@@ -8680,7 +8680,7 @@
         </is>
       </c>
       <c r="D88" s="39" t="n">
-        <v>88.8</v>
+        <v>88.67</v>
       </c>
       <c r="E88" s="40" t="n">
         <v>1.26</v>
@@ -8740,7 +8740,7 @@
         <v>0</v>
       </c>
       <c r="X88" s="41" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="Y88" s="39" t="inlineStr">
         <is>
@@ -8763,7 +8763,7 @@
         </is>
       </c>
       <c r="D89" s="39" t="n">
-        <v>33.6</v>
+        <v>33.63</v>
       </c>
       <c r="E89" s="42" t="n">
         <v>1.8</v>
@@ -8823,7 +8823,7 @@
         <v>0.82</v>
       </c>
       <c r="X89" s="41" t="n">
-        <v>-2.04</v>
+        <v>-1.94</v>
       </c>
       <c r="Y89" s="39" t="inlineStr">
         <is>
@@ -9095,7 +9095,7 @@
         </is>
       </c>
       <c r="D93" s="39" t="n">
-        <v>159.07</v>
+        <v>158.61</v>
       </c>
       <c r="E93" s="41" t="n">
         <v>0.84</v>
@@ -9154,8 +9154,8 @@
       <c r="W93" s="42" t="n">
         <v>-0.07000000000000001</v>
       </c>
-      <c r="X93" s="42" t="n">
-        <v>-0.07000000000000001</v>
+      <c r="X93" s="41" t="n">
+        <v>-0.36</v>
       </c>
       <c r="Y93" s="39" t="inlineStr">
         <is>
@@ -9178,7 +9178,7 @@
         </is>
       </c>
       <c r="D94" s="39" t="n">
-        <v>239.02</v>
+        <v>238.5</v>
       </c>
       <c r="E94" s="41" t="n">
         <v>2.01</v>
@@ -9238,7 +9238,7 @@
         <v>0</v>
       </c>
       <c r="X94" s="42" t="n">
-        <v>0.43</v>
+        <v>0.65</v>
       </c>
       <c r="Y94" s="39" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D95" s="39" t="n">
-        <v>107.78</v>
+        <v>107.34</v>
       </c>
       <c r="E95" s="44" t="n">
         <v>4.85</v>
@@ -9320,8 +9320,8 @@
       <c r="W95" s="41" t="n">
         <v>-1.65</v>
       </c>
-      <c r="X95" s="42" t="n">
-        <v>1.67</v>
+      <c r="X95" s="41" t="n">
+        <v>1.26</v>
       </c>
       <c r="Y95" s="39" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         </is>
       </c>
       <c r="D96" s="39" t="n">
-        <v>9.130000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="E96" s="41" t="n">
         <v>0.6899999999999999</v>
@@ -9404,7 +9404,7 @@
         <v>0.12</v>
       </c>
       <c r="X96" s="42" t="n">
-        <v>-0.12</v>
+        <v>-0.36</v>
       </c>
       <c r="Y96" s="39" t="inlineStr">
         <is>
@@ -9427,7 +9427,7 @@
         </is>
       </c>
       <c r="D97" s="39" t="n">
-        <v>111.89</v>
+        <v>110.93</v>
       </c>
       <c r="E97" s="44" t="n">
         <v>6.2</v>
@@ -9487,7 +9487,7 @@
         <v>-2.01</v>
       </c>
       <c r="X97" s="41" t="n">
-        <v>1.19</v>
+        <v>0.32</v>
       </c>
       <c r="Y97" s="39" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         </is>
       </c>
       <c r="D98" s="39" t="n">
-        <v>467.04</v>
+        <v>465.32</v>
       </c>
       <c r="E98" s="41" t="n">
         <v>0.58</v>
@@ -9570,7 +9570,7 @@
         <v>0.37</v>
       </c>
       <c r="X98" s="42" t="n">
-        <v>0.49</v>
+        <v>0.12</v>
       </c>
       <c r="Y98" s="39" t="inlineStr">
         <is>
@@ -9593,7 +9593,7 @@
         </is>
       </c>
       <c r="D99" s="39" t="n">
-        <v>17.63</v>
+        <v>17.61</v>
       </c>
       <c r="E99" s="42" t="n">
         <v>1.53</v>
@@ -9653,7 +9653,7 @@
         <v>0.55</v>
       </c>
       <c r="X99" s="42" t="n">
-        <v>0.33</v>
+        <v>0.22</v>
       </c>
       <c r="Y99" s="39" t="inlineStr">
         <is>
@@ -9676,7 +9676,7 @@
         </is>
       </c>
       <c r="D100" s="39" t="n">
-        <v>71.13</v>
+        <v>71.04000000000001</v>
       </c>
       <c r="E100" s="40" t="n">
         <v>0.72</v>
@@ -9736,7 +9736,7 @@
         <v>-0.62</v>
       </c>
       <c r="X100" s="42" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="Y100" s="39" t="inlineStr">
         <is>
@@ -12092,7 +12092,7 @@
         </is>
       </c>
       <c r="D2" s="39" t="n">
-        <v>81.73999999999999</v>
+        <v>105.03</v>
       </c>
       <c r="E2" s="39" t="n">
         <v>31.1</v>
@@ -12152,7 +12152,7 @@
         <v>17.5</v>
       </c>
       <c r="X2" s="39" t="n">
-        <v>8</v>
+        <v>11.3</v>
       </c>
       <c r="Y2" s="39" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         </is>
       </c>
       <c r="D3" s="39" t="n">
-        <v>2115.33</v>
+        <v>2689.26</v>
       </c>
       <c r="E3" s="39" t="n">
         <v>49.1</v>
@@ -12235,7 +12235,7 @@
         <v>13.9</v>
       </c>
       <c r="X3" s="39" t="n">
-        <v>8.199999999999999</v>
+        <v>11.6</v>
       </c>
       <c r="Y3" s="39" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         </is>
       </c>
       <c r="D4" s="39" t="n">
-        <v>873.64</v>
+        <v>1146.04</v>
       </c>
       <c r="E4" s="39" t="n">
         <v>10.7</v>
@@ -12318,7 +12318,7 @@
         <v>26.2</v>
       </c>
       <c r="X4" s="39" t="n">
-        <v>9</v>
+        <v>11.7</v>
       </c>
       <c r="Y4" s="39" t="inlineStr">
         <is>
@@ -12341,7 +12341,7 @@
         </is>
       </c>
       <c r="D5" s="39" t="n">
-        <v>1663.57</v>
+        <v>2153.09</v>
       </c>
       <c r="E5" s="39" t="n">
         <v>27</v>
@@ -12401,7 +12401,7 @@
         <v>27.3</v>
       </c>
       <c r="X5" s="39" t="n">
-        <v>16.7</v>
+        <v>21.2</v>
       </c>
       <c r="Y5" s="39" t="inlineStr">
         <is>
@@ -12424,7 +12424,7 @@
         </is>
       </c>
       <c r="D6" s="39" t="n">
-        <v>225.46</v>
+        <v>302.16</v>
       </c>
       <c r="E6" s="39" t="n">
         <v>12.4</v>
@@ -12484,7 +12484,7 @@
         <v>50</v>
       </c>
       <c r="X6" s="39" t="n">
-        <v>18.9</v>
+        <v>22.1</v>
       </c>
       <c r="Y6" s="39" t="inlineStr">
         <is>
@@ -12507,7 +12507,7 @@
         </is>
       </c>
       <c r="D7" s="39" t="n">
-        <v>2976.71</v>
+        <v>3767.95</v>
       </c>
       <c r="E7" s="39" t="n">
         <v>4.4</v>
@@ -12567,7 +12567,7 @@
         <v>28.8</v>
       </c>
       <c r="X7" s="39" t="n">
-        <v>28.6</v>
+        <v>38.5</v>
       </c>
       <c r="Y7" s="39" t="inlineStr">
         <is>
@@ -12590,7 +12590,7 @@
         </is>
       </c>
       <c r="D8" s="39" t="n">
-        <v>1370.11</v>
+        <v>1724.42</v>
       </c>
       <c r="E8" s="39" t="n">
         <v>3.4</v>
@@ -12650,7 +12650,7 @@
         <v>35.2</v>
       </c>
       <c r="X8" s="39" t="n">
-        <v>32.8</v>
+        <v>39.3</v>
       </c>
       <c r="Y8" s="39" t="inlineStr">
         <is>
@@ -12673,7 +12673,7 @@
         </is>
       </c>
       <c r="D9" s="39" t="n">
-        <v>789.09</v>
+        <v>1007.05</v>
       </c>
       <c r="E9" s="39" t="n">
         <v>46.9</v>
@@ -12733,7 +12733,7 @@
         <v>28.2</v>
       </c>
       <c r="X9" s="39" t="n">
-        <v>42.5</v>
+        <v>47</v>
       </c>
       <c r="Y9" s="39" t="inlineStr">
         <is>
@@ -12756,7 +12756,7 @@
         </is>
       </c>
       <c r="D10" s="39" t="n">
-        <v>1103.38</v>
+        <v>1400.51</v>
       </c>
       <c r="E10" s="39" t="n">
         <v>46.1</v>
@@ -12816,7 +12816,7 @@
         <v>18.4</v>
       </c>
       <c r="X10" s="39" t="n">
-        <v>47.3</v>
+        <v>48.3</v>
       </c>
       <c r="Y10" s="39" t="inlineStr">
         <is>
@@ -13001,7 +13001,7 @@
         </is>
       </c>
       <c r="D13" s="39" t="n">
-        <v>153.28</v>
+        <v>153.47</v>
       </c>
       <c r="E13" s="39" t="n">
         <v>53.4</v>
@@ -13061,7 +13061,7 @@
         <v>3.2</v>
       </c>
       <c r="X13" s="39" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="Y13" s="39" t="inlineStr">
         <is>
@@ -13082,7 +13082,7 @@
         </is>
       </c>
       <c r="D14" s="39" t="n">
-        <v>34.51</v>
+        <v>34.58</v>
       </c>
       <c r="E14" s="39" t="n">
         <v>55.9</v>
@@ -13142,7 +13142,7 @@
         <v>4</v>
       </c>
       <c r="X14" s="39" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Y14" s="39" t="inlineStr">
         <is>
@@ -13236,79 +13236,79 @@
         <v>14</v>
       </c>
       <c r="B16" s="39" t="n">
-        <v>159745</v>
+        <v>512690</v>
       </c>
       <c r="C16" s="39" t="inlineStr">
         <is>
-          <t>建材ETF</t>
+          <t>酒ETF</t>
         </is>
       </c>
       <c r="D16" s="39" t="n">
-        <v>5.91</v>
+        <v>108.52</v>
       </c>
       <c r="E16" s="39" t="n">
-        <v>49.1</v>
+        <v>24</v>
       </c>
       <c r="F16" s="39" t="n">
-        <v>33.9</v>
+        <v>24</v>
       </c>
       <c r="G16" s="39" t="n">
-        <v>76.8</v>
+        <v>85.7</v>
       </c>
       <c r="H16" s="39" t="n">
-        <v>7</v>
+        <v>12.1</v>
       </c>
       <c r="I16" s="39" t="n">
-        <v>50.3</v>
+        <v>59</v>
       </c>
       <c r="J16" s="39" t="n">
-        <v>69.59999999999999</v>
+        <v>71.3</v>
       </c>
       <c r="K16" s="39" t="n">
-        <v>74.8</v>
+        <v>76.5</v>
       </c>
       <c r="L16" s="39" t="n">
-        <v>59.5</v>
+        <v>41.3</v>
       </c>
       <c r="M16" s="39" t="n">
-        <v>46.7</v>
+        <v>23</v>
       </c>
       <c r="N16" s="39" t="n">
-        <v>25.2</v>
+        <v>23</v>
       </c>
       <c r="O16" s="39" t="n">
-        <v>14.9</v>
+        <v>51.6</v>
       </c>
       <c r="P16" s="39" t="n">
-        <v>75.40000000000001</v>
+        <v>85</v>
       </c>
       <c r="Q16" s="39" t="n">
-        <v>78.7</v>
+        <v>35.7</v>
       </c>
       <c r="R16" s="39" t="n">
-        <v>33.3</v>
+        <v>16.5</v>
       </c>
       <c r="S16" s="39" t="n">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="T16" s="39" t="n">
-        <v>40.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="U16" s="39" t="n">
-        <v>21.7</v>
+        <v>4.1</v>
       </c>
       <c r="V16" s="39" t="n">
-        <v>17.6</v>
+        <v>29.2</v>
       </c>
       <c r="W16" s="39" t="n">
-        <v>4</v>
+        <v>14.3</v>
       </c>
       <c r="X16" s="39" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Y16" s="39" t="inlineStr">
         <is>
-          <t>建材ETF</t>
+          <t>酒ETF</t>
         </is>
       </c>
     </row>
@@ -13317,79 +13317,79 @@
         <v>15</v>
       </c>
       <c r="B17" s="39" t="n">
-        <v>512690</v>
+        <v>159883</v>
       </c>
       <c r="C17" s="39" t="inlineStr">
         <is>
-          <t>酒ETF</t>
+          <t>医疗器械ETF</t>
         </is>
       </c>
       <c r="D17" s="39" t="n">
-        <v>108.7</v>
+        <v>16.15</v>
       </c>
       <c r="E17" s="39" t="n">
-        <v>24</v>
+        <v>72.5</v>
       </c>
       <c r="F17" s="39" t="n">
-        <v>24</v>
+        <v>65.5</v>
       </c>
       <c r="G17" s="39" t="n">
-        <v>85.7</v>
+        <v>33.3</v>
       </c>
       <c r="H17" s="39" t="n">
-        <v>12.1</v>
+        <v>3.1</v>
       </c>
       <c r="I17" s="39" t="n">
-        <v>59</v>
+        <v>31.1</v>
       </c>
       <c r="J17" s="39" t="n">
-        <v>71.3</v>
+        <v>43.1</v>
       </c>
       <c r="K17" s="39" t="n">
-        <v>76.5</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="L17" s="39" t="n">
-        <v>41.3</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="M17" s="39" t="n">
-        <v>23</v>
+        <v>77.8</v>
       </c>
       <c r="N17" s="39" t="n">
-        <v>23</v>
+        <v>77.8</v>
       </c>
       <c r="O17" s="39" t="n">
-        <v>51.6</v>
+        <v>18.3</v>
       </c>
       <c r="P17" s="39" t="n">
-        <v>85</v>
+        <v>45.9</v>
       </c>
       <c r="Q17" s="39" t="n">
-        <v>35.7</v>
+        <v>19.5</v>
       </c>
       <c r="R17" s="39" t="n">
-        <v>16.5</v>
+        <v>70.5</v>
       </c>
       <c r="S17" s="39" t="n">
-        <v>14</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="T17" s="39" t="n">
-        <v>8.699999999999999</v>
+        <v>56.1</v>
       </c>
       <c r="U17" s="39" t="n">
-        <v>4.1</v>
+        <v>18.3</v>
       </c>
       <c r="V17" s="39" t="n">
-        <v>29.2</v>
+        <v>13.7</v>
       </c>
       <c r="W17" s="39" t="n">
-        <v>14.3</v>
+        <v>3.9</v>
       </c>
       <c r="X17" s="39" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Y17" s="39" t="inlineStr">
         <is>
-          <t>酒ETF</t>
+          <t>医疗器械ETF</t>
         </is>
       </c>
     </row>
@@ -13398,79 +13398,79 @@
         <v>16</v>
       </c>
       <c r="B18" s="39" t="n">
-        <v>512200</v>
+        <v>159745</v>
       </c>
       <c r="C18" s="39" t="inlineStr">
         <is>
-          <t>房地产ETF</t>
+          <t>建材ETF</t>
         </is>
       </c>
       <c r="D18" s="39" t="n">
-        <v>64.15000000000001</v>
+        <v>5.91</v>
       </c>
       <c r="E18" s="39" t="n">
-        <v>26.9</v>
+        <v>49.1</v>
       </c>
       <c r="F18" s="39" t="n">
-        <v>22.5</v>
+        <v>33.9</v>
       </c>
       <c r="G18" s="39" t="n">
-        <v>76.2</v>
+        <v>76.8</v>
       </c>
       <c r="H18" s="39" t="n">
-        <v>5.7</v>
+        <v>7</v>
       </c>
       <c r="I18" s="39" t="n">
-        <v>34.5</v>
+        <v>50.3</v>
       </c>
       <c r="J18" s="39" t="n">
-        <v>71.8</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="K18" s="39" t="n">
-        <v>81.8</v>
+        <v>74.8</v>
       </c>
       <c r="L18" s="39" t="n">
-        <v>64.2</v>
+        <v>59.5</v>
       </c>
       <c r="M18" s="39" t="n">
-        <v>64.2</v>
+        <v>46.7</v>
       </c>
       <c r="N18" s="39" t="n">
-        <v>30</v>
+        <v>25.2</v>
       </c>
       <c r="O18" s="39" t="n">
-        <v>54.3</v>
+        <v>14.9</v>
       </c>
       <c r="P18" s="39" t="n">
-        <v>87.59999999999999</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="Q18" s="39" t="n">
-        <v>93.90000000000001</v>
+        <v>78.7</v>
       </c>
       <c r="R18" s="39" t="n">
-        <v>82.5</v>
+        <v>33.3</v>
       </c>
       <c r="S18" s="39" t="n">
-        <v>89.40000000000001</v>
+        <v>72</v>
       </c>
       <c r="T18" s="39" t="n">
-        <v>27.4</v>
+        <v>40.6</v>
       </c>
       <c r="U18" s="39" t="n">
-        <v>48.9</v>
+        <v>21.7</v>
       </c>
       <c r="V18" s="39" t="n">
-        <v>21.5</v>
+        <v>17.6</v>
       </c>
       <c r="W18" s="39" t="n">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="X18" s="39" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="Y18" s="39" t="inlineStr">
         <is>
-          <t>房地产ETF</t>
+          <t>建材ETF</t>
         </is>
       </c>
     </row>
@@ -13479,79 +13479,79 @@
         <v>17</v>
       </c>
       <c r="B19" s="39" t="n">
-        <v>510300</v>
+        <v>512200</v>
       </c>
       <c r="C19" s="39" t="inlineStr">
         <is>
-          <t>沪深300ETF</t>
+          <t>房地产ETF</t>
         </is>
       </c>
       <c r="D19" s="39" t="n">
-        <v>3737.73</v>
+        <v>64.15000000000001</v>
       </c>
       <c r="E19" s="39" t="n">
-        <v>9.4</v>
+        <v>26.9</v>
       </c>
       <c r="F19" s="39" t="n">
-        <v>7.4</v>
+        <v>22.5</v>
       </c>
       <c r="G19" s="39" t="n">
-        <v>2</v>
+        <v>76.2</v>
       </c>
       <c r="H19" s="39" t="n">
-        <v>0.1</v>
+        <v>5.7</v>
       </c>
       <c r="I19" s="39" t="n">
-        <v>20.2</v>
+        <v>34.5</v>
       </c>
       <c r="J19" s="39" t="n">
-        <v>43.6</v>
+        <v>71.8</v>
       </c>
       <c r="K19" s="39" t="n">
-        <v>72.09999999999999</v>
+        <v>81.8</v>
       </c>
       <c r="L19" s="39" t="n">
-        <v>76.3</v>
+        <v>64.2</v>
       </c>
       <c r="M19" s="39" t="n">
-        <v>80.59999999999999</v>
+        <v>64.2</v>
       </c>
       <c r="N19" s="39" t="n">
-        <v>82.90000000000001</v>
+        <v>30</v>
       </c>
       <c r="O19" s="39" t="n">
-        <v>90</v>
+        <v>54.3</v>
       </c>
       <c r="P19" s="39" t="n">
-        <v>92.2</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="Q19" s="39" t="n">
-        <v>96.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="R19" s="39" t="n">
-        <v>97.40000000000001</v>
+        <v>82.5</v>
       </c>
       <c r="S19" s="39" t="n">
-        <v>98.40000000000001</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="T19" s="39" t="n">
-        <v>99.2</v>
+        <v>27.4</v>
       </c>
       <c r="U19" s="39" t="n">
-        <v>99.2</v>
+        <v>48.9</v>
       </c>
       <c r="V19" s="39" t="n">
-        <v>99.2</v>
+        <v>21.5</v>
       </c>
       <c r="W19" s="39" t="n">
-        <v>14.3</v>
+        <v>4.6</v>
       </c>
       <c r="X19" s="39" t="n">
-        <v>5.3</v>
+        <v>4.3</v>
       </c>
       <c r="Y19" s="39" t="inlineStr">
         <is>
-          <t>沪深300ETF</t>
+          <t>房地产ETF</t>
         </is>
       </c>
     </row>
@@ -13559,24 +13559,22 @@
       <c r="A20" s="39" t="n">
         <v>18</v>
       </c>
-      <c r="B20" s="39" t="inlineStr">
-        <is>
-          <t>563000</t>
-        </is>
+      <c r="B20" s="39" t="n">
+        <v>510300</v>
       </c>
       <c r="C20" s="39" t="inlineStr">
         <is>
-          <t>中国A50ETF</t>
+          <t>沪深300ETF</t>
         </is>
       </c>
       <c r="D20" s="39" t="n">
-        <v>39.74</v>
+        <v>3737.73</v>
       </c>
       <c r="E20" s="39" t="n">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="F20" s="39" t="n">
-        <v>5.6</v>
+        <v>7.4</v>
       </c>
       <c r="G20" s="39" t="n">
         <v>2</v>
@@ -13585,56 +13583,56 @@
         <v>0.1</v>
       </c>
       <c r="I20" s="39" t="n">
-        <v>23.2</v>
+        <v>20.2</v>
       </c>
       <c r="J20" s="39" t="n">
-        <v>43.5</v>
+        <v>43.6</v>
       </c>
       <c r="K20" s="39" t="n">
-        <v>69.2</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="L20" s="39" t="n">
-        <v>80.5</v>
+        <v>76.3</v>
       </c>
       <c r="M20" s="39" t="n">
-        <v>87.2</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="N20" s="39" t="n">
-        <v>88.7</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="O20" s="39" t="n">
-        <v>93.5</v>
+        <v>90</v>
       </c>
       <c r="P20" s="39" t="n">
-        <v>95.8</v>
+        <v>92.2</v>
       </c>
       <c r="Q20" s="39" t="n">
-        <v>95.8</v>
+        <v>96.8</v>
       </c>
       <c r="R20" s="39" t="n">
-        <v>98.7</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="S20" s="39" t="n">
-        <v>99.40000000000001</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="T20" s="39" t="n">
-        <v>71.8</v>
+        <v>99.2</v>
       </c>
       <c r="U20" s="39" t="n">
-        <v>81.90000000000001</v>
+        <v>99.2</v>
       </c>
       <c r="V20" s="39" t="n">
-        <v>81.90000000000001</v>
+        <v>99.2</v>
       </c>
       <c r="W20" s="39" t="n">
-        <v>33.7</v>
+        <v>14.3</v>
       </c>
       <c r="X20" s="39" t="n">
-        <v>5.9</v>
+        <v>5.3</v>
       </c>
       <c r="Y20" s="39" t="inlineStr">
         <is>
-          <t>中国A50ETF</t>
+          <t>沪深300ETF</t>
         </is>
       </c>
     </row>
@@ -13643,79 +13641,79 @@
         <v>19</v>
       </c>
       <c r="B21" s="39" t="n">
-        <v>159647</v>
+        <v>159766</v>
       </c>
       <c r="C21" s="39" t="inlineStr">
         <is>
-          <t>中药ETF</t>
+          <t>旅游ETF</t>
         </is>
       </c>
       <c r="D21" s="39" t="n">
-        <v>7.21</v>
+        <v>31.39</v>
       </c>
       <c r="E21" s="39" t="n">
-        <v>78.59999999999999</v>
+        <v>37.5</v>
       </c>
       <c r="F21" s="39" t="n">
-        <v>58.6</v>
+        <v>49</v>
       </c>
       <c r="G21" s="39" t="n">
-        <v>78.40000000000001</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="H21" s="39" t="n">
-        <v>9.699999999999999</v>
+        <v>11.2</v>
       </c>
       <c r="I21" s="39" t="n">
-        <v>40.7</v>
+        <v>52.8</v>
       </c>
       <c r="J21" s="39" t="n">
-        <v>60</v>
+        <v>80.8</v>
       </c>
       <c r="K21" s="39" t="n">
-        <v>71.8</v>
+        <v>85.3</v>
       </c>
       <c r="L21" s="39" t="n">
-        <v>56.9</v>
+        <v>64.3</v>
       </c>
       <c r="M21" s="39" t="n">
-        <v>60.9</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="N21" s="39" t="n">
-        <v>87.3</v>
+        <v>36</v>
       </c>
       <c r="O21" s="39" t="n">
-        <v>50.3</v>
+        <v>73.7</v>
       </c>
       <c r="P21" s="39" t="n">
-        <v>44.1</v>
+        <v>84.3</v>
       </c>
       <c r="Q21" s="39" t="n">
-        <v>29.5</v>
+        <v>29</v>
       </c>
       <c r="R21" s="39" t="n">
-        <v>47</v>
+        <v>22.7</v>
       </c>
       <c r="S21" s="39" t="n">
-        <v>91.09999999999999</v>
+        <v>15.8</v>
       </c>
       <c r="T21" s="39" t="n">
-        <v>30.4</v>
+        <v>6.3</v>
       </c>
       <c r="U21" s="39" t="n">
-        <v>51.8</v>
+        <v>5.1</v>
       </c>
       <c r="V21" s="39" t="n">
-        <v>26.9</v>
+        <v>40</v>
       </c>
       <c r="W21" s="39" t="n">
-        <v>9.800000000000001</v>
+        <v>11.6</v>
       </c>
       <c r="X21" s="39" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="Y21" s="39" t="inlineStr">
         <is>
-          <t>中药ETF</t>
+          <t>旅游ETF</t>
         </is>
       </c>
     </row>
@@ -13724,79 +13722,79 @@
         <v>20</v>
       </c>
       <c r="B22" s="39" t="n">
-        <v>159766</v>
+        <v>159647</v>
       </c>
       <c r="C22" s="39" t="inlineStr">
         <is>
-          <t>旅游ETF</t>
+          <t>中药ETF</t>
         </is>
       </c>
       <c r="D22" s="39" t="n">
-        <v>31.48</v>
+        <v>7.21</v>
       </c>
       <c r="E22" s="39" t="n">
-        <v>37.5</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="F22" s="39" t="n">
-        <v>49</v>
+        <v>58.6</v>
       </c>
       <c r="G22" s="39" t="n">
-        <v>82.09999999999999</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="H22" s="39" t="n">
-        <v>11.2</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="I22" s="39" t="n">
-        <v>52.8</v>
+        <v>40.7</v>
       </c>
       <c r="J22" s="39" t="n">
-        <v>80.8</v>
+        <v>60</v>
       </c>
       <c r="K22" s="39" t="n">
-        <v>85.3</v>
+        <v>71.8</v>
       </c>
       <c r="L22" s="39" t="n">
-        <v>64.3</v>
+        <v>56.9</v>
       </c>
       <c r="M22" s="39" t="n">
-        <v>73.59999999999999</v>
+        <v>60.9</v>
       </c>
       <c r="N22" s="39" t="n">
-        <v>36</v>
+        <v>87.3</v>
       </c>
       <c r="O22" s="39" t="n">
-        <v>73.7</v>
+        <v>50.3</v>
       </c>
       <c r="P22" s="39" t="n">
-        <v>84.3</v>
+        <v>44.1</v>
       </c>
       <c r="Q22" s="39" t="n">
-        <v>29</v>
+        <v>29.5</v>
       </c>
       <c r="R22" s="39" t="n">
-        <v>22.7</v>
+        <v>47</v>
       </c>
       <c r="S22" s="39" t="n">
-        <v>15.8</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="T22" s="39" t="n">
-        <v>6.3</v>
+        <v>30.4</v>
       </c>
       <c r="U22" s="39" t="n">
-        <v>5.1</v>
+        <v>51.8</v>
       </c>
       <c r="V22" s="39" t="n">
-        <v>40</v>
+        <v>26.9</v>
       </c>
       <c r="W22" s="39" t="n">
-        <v>11.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="X22" s="39" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="Y22" s="39" t="inlineStr">
         <is>
-          <t>旅游ETF</t>
+          <t>中药ETF</t>
         </is>
       </c>
     </row>
@@ -13806,80 +13804,80 @@
       </c>
       <c r="B23" s="39" t="inlineStr">
         <is>
-          <t>560050</t>
+          <t>563000</t>
         </is>
       </c>
       <c r="C23" s="39" t="inlineStr">
         <is>
-          <t>MSCI中国A50ETF</t>
+          <t>中国A50ETF</t>
         </is>
       </c>
       <c r="D23" s="39" t="n">
-        <v>47.2</v>
+        <v>39.74</v>
       </c>
       <c r="E23" s="39" t="n">
-        <v>14.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="F23" s="39" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="G23" s="39" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="H23" s="39" t="n">
         <v>0.1</v>
       </c>
       <c r="I23" s="39" t="n">
-        <v>30.2</v>
+        <v>23.2</v>
       </c>
       <c r="J23" s="39" t="n">
-        <v>40.4</v>
+        <v>43.5</v>
       </c>
       <c r="K23" s="39" t="n">
-        <v>70.59999999999999</v>
+        <v>69.2</v>
       </c>
       <c r="L23" s="39" t="n">
         <v>80.5</v>
       </c>
       <c r="M23" s="39" t="n">
-        <v>86.8</v>
+        <v>87.2</v>
       </c>
       <c r="N23" s="39" t="n">
-        <v>88.3</v>
+        <v>88.7</v>
       </c>
       <c r="O23" s="39" t="n">
-        <v>90.5</v>
+        <v>93.5</v>
       </c>
       <c r="P23" s="39" t="n">
-        <v>95.5</v>
+        <v>95.8</v>
       </c>
       <c r="Q23" s="39" t="n">
-        <v>56</v>
+        <v>95.8</v>
       </c>
       <c r="R23" s="39" t="n">
-        <v>85.7</v>
+        <v>98.7</v>
       </c>
       <c r="S23" s="39" t="n">
-        <v>92.09999999999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="T23" s="39" t="n">
-        <v>93.90000000000001</v>
+        <v>71.8</v>
       </c>
       <c r="U23" s="39" t="n">
-        <v>95.8</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="V23" s="39" t="n">
-        <v>58.8</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="W23" s="39" t="n">
-        <v>33.2</v>
+        <v>33.7</v>
       </c>
       <c r="X23" s="39" t="n">
         <v>7.4</v>
       </c>
       <c r="Y23" s="39" t="inlineStr">
         <is>
-          <t>MSCI中国A50ETF</t>
+          <t>中国A50ETF</t>
         </is>
       </c>
     </row>
@@ -13887,80 +13885,82 @@
       <c r="A24" s="39" t="n">
         <v>22</v>
       </c>
-      <c r="B24" s="39" t="n">
-        <v>588000</v>
+      <c r="B24" s="39" t="inlineStr">
+        <is>
+          <t>560050</t>
+        </is>
       </c>
       <c r="C24" s="39" t="inlineStr">
         <is>
-          <t>科创50ETF</t>
+          <t>MSCI中国A50ETF</t>
         </is>
       </c>
       <c r="D24" s="39" t="n">
-        <v>767.96</v>
+        <v>47.26</v>
       </c>
       <c r="E24" s="39" t="n">
-        <v>32.6</v>
+        <v>14.9</v>
       </c>
       <c r="F24" s="39" t="n">
-        <v>23.7</v>
+        <v>5.7</v>
       </c>
       <c r="G24" s="39" t="n">
-        <v>9</v>
+        <v>2.2</v>
       </c>
       <c r="H24" s="39" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="I24" s="39" t="n">
-        <v>24.1</v>
+        <v>30.2</v>
       </c>
       <c r="J24" s="39" t="n">
-        <v>66.2</v>
+        <v>40.4</v>
       </c>
       <c r="K24" s="39" t="n">
-        <v>75.3</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="L24" s="39" t="n">
-        <v>85.8</v>
+        <v>80.5</v>
       </c>
       <c r="M24" s="39" t="n">
-        <v>87.40000000000001</v>
+        <v>86.8</v>
       </c>
       <c r="N24" s="39" t="n">
-        <v>49</v>
+        <v>88.3</v>
       </c>
       <c r="O24" s="39" t="n">
-        <v>68.40000000000001</v>
+        <v>90.5</v>
       </c>
       <c r="P24" s="39" t="n">
-        <v>79.59999999999999</v>
+        <v>95.5</v>
       </c>
       <c r="Q24" s="39" t="n">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="R24" s="39" t="n">
-        <v>76.59999999999999</v>
+        <v>85.7</v>
       </c>
       <c r="S24" s="39" t="n">
-        <v>53.1</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="T24" s="39" t="n">
-        <v>36.3</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="U24" s="39" t="n">
-        <v>11</v>
+        <v>95.8</v>
       </c>
       <c r="V24" s="39" t="n">
-        <v>29</v>
+        <v>58.8</v>
       </c>
       <c r="W24" s="39" t="n">
-        <v>18</v>
+        <v>33.2</v>
       </c>
       <c r="X24" s="39" t="n">
-        <v>10.3</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y24" s="39" t="inlineStr">
         <is>
-          <t>科创50ETF</t>
+          <t>MSCI中国A50ETF</t>
         </is>
       </c>
     </row>
@@ -14052,79 +14052,79 @@
         <v>24</v>
       </c>
       <c r="B26" s="39" t="n">
-        <v>159865</v>
+        <v>562800</v>
       </c>
       <c r="C26" s="39" t="inlineStr">
         <is>
-          <t>养殖ETF</t>
+          <t>稀有金属ETF</t>
         </is>
       </c>
       <c r="D26" s="39" t="n">
-        <v>31.78</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="E26" s="39" t="n">
-        <v>50.8</v>
+        <v>40.5</v>
       </c>
       <c r="F26" s="39" t="n">
-        <v>50.8</v>
+        <v>40.5</v>
       </c>
       <c r="G26" s="39" t="n">
-        <v>89.90000000000001</v>
+        <v>16</v>
       </c>
       <c r="H26" s="39" t="n">
-        <v>29.7</v>
+        <v>1.1</v>
       </c>
       <c r="I26" s="39" t="n">
-        <v>87.40000000000001</v>
+        <v>20.4</v>
       </c>
       <c r="J26" s="39" t="n">
-        <v>81.8</v>
+        <v>47.7</v>
       </c>
       <c r="K26" s="39" t="n">
-        <v>84.8</v>
+        <v>69</v>
       </c>
       <c r="L26" s="39" t="n">
-        <v>28.9</v>
+        <v>69</v>
       </c>
       <c r="M26" s="39" t="n">
-        <v>41.7</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="N26" s="39" t="n">
-        <v>37.2</v>
+        <v>52.7</v>
       </c>
       <c r="O26" s="39" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P26" s="39" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Q26" s="39" t="n">
-        <v>5.2</v>
+        <v>13.1</v>
       </c>
       <c r="R26" s="39" t="n">
-        <v>35.7</v>
+        <v>84.2</v>
       </c>
       <c r="S26" s="39" t="n">
-        <v>80.3</v>
+        <v>71.3</v>
       </c>
       <c r="T26" s="39" t="n">
-        <v>23.8</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="U26" s="39" t="n">
-        <v>52</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="V26" s="39" t="n">
-        <v>36</v>
+        <v>32.7</v>
       </c>
       <c r="W26" s="39" t="n">
-        <v>17.8</v>
+        <v>13.2</v>
       </c>
       <c r="X26" s="39" t="n">
-        <v>12.7</v>
+        <v>13.2</v>
       </c>
       <c r="Y26" s="39" t="inlineStr">
         <is>
-          <t>养殖ETF</t>
+          <t>稀有金属ETF</t>
         </is>
       </c>
     </row>
@@ -14133,79 +14133,79 @@
         <v>25</v>
       </c>
       <c r="B27" s="39" t="n">
-        <v>159825</v>
+        <v>561320</v>
       </c>
       <c r="C27" s="39" t="inlineStr">
         <is>
-          <t>农业ETF</t>
+          <t>交运ETF</t>
         </is>
       </c>
       <c r="D27" s="39" t="n">
-        <v>21.6</v>
+        <v>0.64</v>
       </c>
       <c r="E27" s="39" t="n">
-        <v>52.1</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="F27" s="39" t="n">
-        <v>52.1</v>
+        <v>52</v>
       </c>
       <c r="G27" s="39" t="n">
-        <v>86</v>
+        <v>42.5</v>
       </c>
       <c r="H27" s="39" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="I27" s="39" t="n">
+        <v>53</v>
+      </c>
+      <c r="J27" s="39" t="n">
+        <v>64.2</v>
+      </c>
+      <c r="K27" s="39" t="n">
+        <v>77</v>
+      </c>
+      <c r="L27" s="39" t="n">
+        <v>57.9</v>
+      </c>
+      <c r="M27" s="39" t="n">
+        <v>57.9</v>
+      </c>
+      <c r="N27" s="39" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="O27" s="39" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="P27" s="39" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="Q27" s="39" t="n">
+        <v>71.90000000000001</v>
+      </c>
+      <c r="R27" s="39" t="n">
         <v>21.5</v>
       </c>
-      <c r="I27" s="39" t="n">
-        <v>86.40000000000001</v>
-      </c>
-      <c r="J27" s="39" t="n">
-        <v>77</v>
-      </c>
-      <c r="K27" s="39" t="n">
-        <v>81.90000000000001</v>
-      </c>
-      <c r="L27" s="39" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="M27" s="39" t="n">
-        <v>45.4</v>
-      </c>
-      <c r="N27" s="39" t="n">
-        <v>28</v>
-      </c>
-      <c r="O27" s="39" t="n">
-        <v>22.3</v>
-      </c>
-      <c r="P27" s="39" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="Q27" s="39" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="R27" s="39" t="n">
-        <v>41</v>
-      </c>
       <c r="S27" s="39" t="n">
-        <v>78.59999999999999</v>
+        <v>46.5</v>
       </c>
       <c r="T27" s="39" t="n">
-        <v>27.9</v>
+        <v>23.8</v>
       </c>
       <c r="U27" s="39" t="n">
-        <v>52.4</v>
+        <v>61.4</v>
       </c>
       <c r="V27" s="39" t="n">
-        <v>39.1</v>
+        <v>61.4</v>
       </c>
       <c r="W27" s="39" t="n">
-        <v>15.5</v>
+        <v>37</v>
       </c>
       <c r="X27" s="39" t="n">
-        <v>12.9</v>
+        <v>14.3</v>
       </c>
       <c r="Y27" s="39" t="inlineStr">
         <is>
-          <t>农业ETF</t>
+          <t>交运ETF</t>
         </is>
       </c>
     </row>
@@ -14214,79 +14214,79 @@
         <v>26</v>
       </c>
       <c r="B28" s="39" t="n">
-        <v>562800</v>
+        <v>588000</v>
       </c>
       <c r="C28" s="39" t="inlineStr">
         <is>
-          <t>稀有金属ETF</t>
+          <t>科创50ETF</t>
         </is>
       </c>
       <c r="D28" s="39" t="n">
-        <v>8.880000000000001</v>
+        <v>768.6900000000001</v>
       </c>
       <c r="E28" s="39" t="n">
-        <v>40.5</v>
+        <v>32.6</v>
       </c>
       <c r="F28" s="39" t="n">
-        <v>40.5</v>
+        <v>23.7</v>
       </c>
       <c r="G28" s="39" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H28" s="39" t="n">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="I28" s="39" t="n">
-        <v>20.4</v>
+        <v>24.1</v>
       </c>
       <c r="J28" s="39" t="n">
-        <v>47.7</v>
+        <v>66.2</v>
       </c>
       <c r="K28" s="39" t="n">
-        <v>69</v>
+        <v>75.3</v>
       </c>
       <c r="L28" s="39" t="n">
-        <v>69</v>
+        <v>85.8</v>
       </c>
       <c r="M28" s="39" t="n">
-        <v>84.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="N28" s="39" t="n">
-        <v>52.7</v>
+        <v>49</v>
       </c>
       <c r="O28" s="39" t="n">
-        <v>21</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="P28" s="39" t="n">
-        <v>17.5</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="Q28" s="39" t="n">
-        <v>13.1</v>
+        <v>40</v>
       </c>
       <c r="R28" s="39" t="n">
-        <v>84.2</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="S28" s="39" t="n">
-        <v>71.3</v>
+        <v>53.1</v>
       </c>
       <c r="T28" s="39" t="n">
-        <v>85.09999999999999</v>
+        <v>36.3</v>
       </c>
       <c r="U28" s="39" t="n">
-        <v>64.40000000000001</v>
+        <v>11</v>
       </c>
       <c r="V28" s="39" t="n">
-        <v>32.7</v>
+        <v>29</v>
       </c>
       <c r="W28" s="39" t="n">
-        <v>13.2</v>
+        <v>18</v>
       </c>
       <c r="X28" s="39" t="n">
-        <v>13.2</v>
+        <v>14.4</v>
       </c>
       <c r="Y28" s="39" t="inlineStr">
         <is>
-          <t>稀有金属ETF</t>
+          <t>科创50ETF</t>
         </is>
       </c>
     </row>
@@ -14295,79 +14295,79 @@
         <v>27</v>
       </c>
       <c r="B29" s="39" t="n">
-        <v>512070</v>
+        <v>512400</v>
       </c>
       <c r="C29" s="39" t="inlineStr">
         <is>
-          <t>证券保险ETF</t>
+          <t>有色金属ETF</t>
         </is>
       </c>
       <c r="D29" s="39" t="n">
-        <v>63.88</v>
+        <v>45.33</v>
       </c>
       <c r="E29" s="39" t="n">
-        <v>6.1</v>
+        <v>34.3</v>
       </c>
       <c r="F29" s="39" t="n">
-        <v>49.3</v>
+        <v>10.7</v>
       </c>
       <c r="G29" s="39" t="n">
-        <v>25.7</v>
+        <v>3.6</v>
       </c>
       <c r="H29" s="39" t="n">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="I29" s="39" t="n">
-        <v>28.2</v>
+        <v>18.5</v>
       </c>
       <c r="J29" s="39" t="n">
-        <v>48.4</v>
+        <v>39</v>
       </c>
       <c r="K29" s="39" t="n">
-        <v>67</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="L29" s="39" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="M29" s="39" t="n">
-        <v>71.09999999999999</v>
+        <v>91.8</v>
       </c>
       <c r="N29" s="39" t="n">
-        <v>77</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="O29" s="39" t="n">
-        <v>54.9</v>
+        <v>63.2</v>
       </c>
       <c r="P29" s="39" t="n">
-        <v>71.3</v>
+        <v>38.9</v>
       </c>
       <c r="Q29" s="39" t="n">
-        <v>93.8</v>
+        <v>26.7</v>
       </c>
       <c r="R29" s="39" t="n">
-        <v>96.2</v>
+        <v>92</v>
       </c>
       <c r="S29" s="39" t="n">
-        <v>97.3</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="T29" s="39" t="n">
-        <v>98.7</v>
+        <v>35.4</v>
       </c>
       <c r="U29" s="39" t="n">
-        <v>64.59999999999999</v>
+        <v>23.7</v>
       </c>
       <c r="V29" s="39" t="n">
-        <v>85.09999999999999</v>
+        <v>35.8</v>
       </c>
       <c r="W29" s="39" t="n">
-        <v>31.1</v>
+        <v>21.9</v>
       </c>
       <c r="X29" s="39" t="n">
-        <v>16.8</v>
+        <v>15.8</v>
       </c>
       <c r="Y29" s="39" t="inlineStr">
         <is>
-          <t>证券保险ETF</t>
+          <t>有色金属ETF</t>
         </is>
       </c>
     </row>
@@ -14376,79 +14376,79 @@
         <v>28</v>
       </c>
       <c r="B30" s="39" t="n">
-        <v>510050</v>
+        <v>516970</v>
       </c>
       <c r="C30" s="39" t="inlineStr">
         <is>
-          <t>上证50ETF</t>
+          <t>基建50ETF</t>
         </is>
       </c>
       <c r="D30" s="39" t="n">
-        <v>1621.54</v>
+        <v>24.63</v>
       </c>
       <c r="E30" s="39" t="n">
-        <v>12.2</v>
+        <v>35.5</v>
       </c>
       <c r="F30" s="39" t="n">
-        <v>7.7</v>
+        <v>45</v>
       </c>
       <c r="G30" s="39" t="n">
-        <v>42</v>
+        <v>72.8</v>
       </c>
       <c r="H30" s="39" t="n">
-        <v>1.5</v>
+        <v>5.3</v>
       </c>
       <c r="I30" s="39" t="n">
-        <v>43.3</v>
+        <v>46.2</v>
       </c>
       <c r="J30" s="39" t="n">
-        <v>56.3</v>
+        <v>65.3</v>
       </c>
       <c r="K30" s="39" t="n">
-        <v>71.8</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="L30" s="39" t="n">
-        <v>75.5</v>
+        <v>49.9</v>
       </c>
       <c r="M30" s="39" t="n">
-        <v>82.59999999999999</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="N30" s="39" t="n">
-        <v>87.90000000000001</v>
+        <v>43</v>
       </c>
       <c r="O30" s="39" t="n">
-        <v>96.5</v>
+        <v>50</v>
       </c>
       <c r="P30" s="39" t="n">
-        <v>97</v>
+        <v>71.2</v>
       </c>
       <c r="Q30" s="39" t="n">
-        <v>97.5</v>
+        <v>90.3</v>
       </c>
       <c r="R30" s="39" t="n">
-        <v>38.9</v>
+        <v>65.5</v>
       </c>
       <c r="S30" s="39" t="n">
-        <v>63.4</v>
+        <v>88.2</v>
       </c>
       <c r="T30" s="39" t="n">
-        <v>27.8</v>
+        <v>88.2</v>
       </c>
       <c r="U30" s="39" t="n">
-        <v>63.6</v>
+        <v>41.4</v>
       </c>
       <c r="V30" s="39" t="n">
-        <v>37.2</v>
+        <v>81.2</v>
       </c>
       <c r="W30" s="39" t="n">
-        <v>46.2</v>
+        <v>21.8</v>
       </c>
       <c r="X30" s="39" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y30" s="39" t="inlineStr">
         <is>
-          <t>上证50ETF</t>
+          <t>基建50ETF</t>
         </is>
       </c>
     </row>
@@ -14457,79 +14457,79 @@
         <v>29</v>
       </c>
       <c r="B31" s="39" t="n">
-        <v>159905</v>
+        <v>510050</v>
       </c>
       <c r="C31" s="39" t="inlineStr">
         <is>
-          <t>深红利ETF</t>
+          <t>上证50ETF</t>
         </is>
       </c>
       <c r="D31" s="39" t="n">
-        <v>31.51</v>
+        <v>1622.14</v>
       </c>
       <c r="E31" s="39" t="n">
-        <v>8.9</v>
+        <v>12.2</v>
       </c>
       <c r="F31" s="39" t="n">
-        <v>39.5</v>
+        <v>7.7</v>
       </c>
       <c r="G31" s="39" t="n">
-        <v>10.7</v>
+        <v>42</v>
       </c>
       <c r="H31" s="39" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="I31" s="39" t="n">
-        <v>42.7</v>
+        <v>43.3</v>
       </c>
       <c r="J31" s="39" t="n">
-        <v>53.6</v>
+        <v>56.3</v>
       </c>
       <c r="K31" s="39" t="n">
-        <v>73.09999999999999</v>
+        <v>71.8</v>
       </c>
       <c r="L31" s="39" t="n">
-        <v>57.6</v>
+        <v>75.5</v>
       </c>
       <c r="M31" s="39" t="n">
-        <v>49.7</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="N31" s="39" t="n">
-        <v>73.7</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="O31" s="39" t="n">
-        <v>78</v>
+        <v>96.5</v>
       </c>
       <c r="P31" s="39" t="n">
-        <v>52.6</v>
+        <v>97</v>
       </c>
       <c r="Q31" s="39" t="n">
-        <v>61.1</v>
+        <v>97.5</v>
       </c>
       <c r="R31" s="39" t="n">
-        <v>86</v>
+        <v>38.9</v>
       </c>
       <c r="S31" s="39" t="n">
-        <v>86</v>
+        <v>63.4</v>
       </c>
       <c r="T31" s="39" t="n">
-        <v>24.1</v>
+        <v>27.8</v>
       </c>
       <c r="U31" s="39" t="n">
-        <v>18.8</v>
+        <v>63.6</v>
       </c>
       <c r="V31" s="39" t="n">
-        <v>5.8</v>
+        <v>37.2</v>
       </c>
       <c r="W31" s="39" t="n">
-        <v>48.5</v>
+        <v>46.2</v>
       </c>
       <c r="X31" s="39" t="n">
-        <v>17.2</v>
+        <v>19.1</v>
       </c>
       <c r="Y31" s="39" t="inlineStr">
         <is>
-          <t>深红利ETF</t>
+          <t>上证50ETF</t>
         </is>
       </c>
     </row>
@@ -14538,79 +14538,79 @@
         <v>30</v>
       </c>
       <c r="B32" s="39" t="n">
-        <v>512480</v>
+        <v>512070</v>
       </c>
       <c r="C32" s="39" t="inlineStr">
         <is>
-          <t>半导体ETF</t>
+          <t>证券保险ETF</t>
         </is>
       </c>
       <c r="D32" s="39" t="n">
-        <v>209.62</v>
+        <v>63.96</v>
       </c>
       <c r="E32" s="39" t="n">
-        <v>38.9</v>
+        <v>6.1</v>
       </c>
       <c r="F32" s="39" t="n">
-        <v>22.3</v>
+        <v>49.3</v>
       </c>
       <c r="G32" s="39" t="n">
-        <v>8.199999999999999</v>
+        <v>25.7</v>
       </c>
       <c r="H32" s="39" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="I32" s="39" t="n">
-        <v>4.2</v>
+        <v>28.2</v>
       </c>
       <c r="J32" s="39" t="n">
-        <v>65.5</v>
+        <v>48.4</v>
       </c>
       <c r="K32" s="39" t="n">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="L32" s="39" t="n">
-        <v>91.5</v>
+        <v>67</v>
       </c>
       <c r="M32" s="39" t="n">
-        <v>91.5</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="N32" s="39" t="n">
-        <v>53.8</v>
+        <v>77</v>
       </c>
       <c r="O32" s="39" t="n">
-        <v>68</v>
+        <v>54.9</v>
       </c>
       <c r="P32" s="39" t="n">
-        <v>79</v>
+        <v>71.3</v>
       </c>
       <c r="Q32" s="39" t="n">
-        <v>34.9</v>
+        <v>93.8</v>
       </c>
       <c r="R32" s="39" t="n">
-        <v>69.2</v>
+        <v>96.2</v>
       </c>
       <c r="S32" s="39" t="n">
-        <v>58.1</v>
+        <v>97.3</v>
       </c>
       <c r="T32" s="39" t="n">
-        <v>58.1</v>
+        <v>98.7</v>
       </c>
       <c r="U32" s="39" t="n">
-        <v>10.6</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="V32" s="39" t="n">
-        <v>7.8</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="W32" s="39" t="n">
-        <v>21.4</v>
+        <v>31.1</v>
       </c>
       <c r="X32" s="39" t="n">
-        <v>21.4</v>
+        <v>21.8</v>
       </c>
       <c r="Y32" s="39" t="inlineStr">
         <is>
-          <t>半导体ETF</t>
+          <t>证券保险ETF</t>
         </is>
       </c>
     </row>
@@ -14619,79 +14619,79 @@
         <v>31</v>
       </c>
       <c r="B33" s="39" t="n">
-        <v>510880</v>
+        <v>516910</v>
       </c>
       <c r="C33" s="39" t="inlineStr">
         <is>
-          <t>红利ETF</t>
+          <t>物流ETF</t>
         </is>
       </c>
       <c r="D33" s="39" t="n">
-        <v>219.3</v>
+        <v>0.66</v>
       </c>
       <c r="E33" s="39" t="n">
-        <v>73.5</v>
+        <v>71.3</v>
       </c>
       <c r="F33" s="39" t="n">
-        <v>85.90000000000001</v>
+        <v>71.3</v>
       </c>
       <c r="G33" s="39" t="n">
-        <v>89.2</v>
+        <v>34.6</v>
       </c>
       <c r="H33" s="39" t="n">
-        <v>5</v>
+        <v>1.2</v>
       </c>
       <c r="I33" s="39" t="n">
-        <v>43.6</v>
+        <v>35.6</v>
       </c>
       <c r="J33" s="39" t="n">
-        <v>46.3</v>
+        <v>57.5</v>
       </c>
       <c r="K33" s="39" t="n">
-        <v>69.09999999999999</v>
+        <v>80</v>
       </c>
       <c r="L33" s="39" t="n">
-        <v>49</v>
+        <v>61.4</v>
       </c>
       <c r="M33" s="39" t="n">
-        <v>75.59999999999999</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="N33" s="39" t="n">
-        <v>84.3</v>
+        <v>55.2</v>
       </c>
       <c r="O33" s="39" t="n">
-        <v>91.09999999999999</v>
+        <v>73.8</v>
       </c>
       <c r="P33" s="39" t="n">
-        <v>66.09999999999999</v>
+        <v>80.3</v>
       </c>
       <c r="Q33" s="39" t="n">
-        <v>70.7</v>
+        <v>64.3</v>
       </c>
       <c r="R33" s="39" t="n">
-        <v>30</v>
+        <v>35.8</v>
       </c>
       <c r="S33" s="39" t="n">
-        <v>67.5</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="T33" s="39" t="n">
-        <v>24.9</v>
+        <v>55.5</v>
       </c>
       <c r="U33" s="39" t="n">
-        <v>62.9</v>
+        <v>40.4</v>
       </c>
       <c r="V33" s="39" t="n">
-        <v>51</v>
+        <v>61.4</v>
       </c>
       <c r="W33" s="39" t="n">
-        <v>64.5</v>
+        <v>22.2</v>
       </c>
       <c r="X33" s="39" t="n">
-        <v>21.4</v>
+        <v>22.2</v>
       </c>
       <c r="Y33" s="39" t="inlineStr">
         <is>
-          <t>红利ETF</t>
+          <t>物流ETF</t>
         </is>
       </c>
     </row>
@@ -14699,80 +14699,82 @@
       <c r="A34" s="39" t="n">
         <v>32</v>
       </c>
-      <c r="B34" s="39" t="n">
-        <v>516970</v>
+      <c r="B34" s="39" t="inlineStr">
+        <is>
+          <t>510210</t>
+        </is>
       </c>
       <c r="C34" s="39" t="inlineStr">
         <is>
-          <t>基建50ETF</t>
+          <t>上证指数ETF</t>
         </is>
       </c>
       <c r="D34" s="39" t="n">
-        <v>24.67</v>
+        <v>48.57</v>
       </c>
       <c r="E34" s="39" t="n">
-        <v>35.5</v>
+        <v>55</v>
       </c>
       <c r="F34" s="39" t="n">
-        <v>45</v>
+        <v>63.9</v>
       </c>
       <c r="G34" s="39" t="n">
-        <v>72.8</v>
+        <v>21.4</v>
       </c>
       <c r="H34" s="39" t="n">
-        <v>5.3</v>
+        <v>1.3</v>
       </c>
       <c r="I34" s="39" t="n">
-        <v>46.2</v>
+        <v>24.8</v>
       </c>
       <c r="J34" s="39" t="n">
-        <v>65.3</v>
+        <v>43.7</v>
       </c>
       <c r="K34" s="39" t="n">
-        <v>69.09999999999999</v>
+        <v>64.2</v>
       </c>
       <c r="L34" s="39" t="n">
-        <v>49.9</v>
+        <v>73.7</v>
       </c>
       <c r="M34" s="39" t="n">
-        <v>66.09999999999999</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="N34" s="39" t="n">
-        <v>43</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="O34" s="39" t="n">
-        <v>50</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="P34" s="39" t="n">
-        <v>71.2</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="Q34" s="39" t="n">
-        <v>90.3</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="R34" s="39" t="n">
-        <v>65.5</v>
+        <v>99</v>
       </c>
       <c r="S34" s="39" t="n">
-        <v>88.2</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="T34" s="39" t="n">
-        <v>88.2</v>
+        <v>64</v>
       </c>
       <c r="U34" s="39" t="n">
-        <v>41.4</v>
+        <v>73.5</v>
       </c>
       <c r="V34" s="39" t="n">
-        <v>81.2</v>
+        <v>73.5</v>
       </c>
       <c r="W34" s="39" t="n">
-        <v>21.8</v>
+        <v>23.7</v>
       </c>
       <c r="X34" s="39" t="n">
-        <v>21.8</v>
+        <v>23.7</v>
       </c>
       <c r="Y34" s="39" t="inlineStr">
         <is>
-          <t>基建50ETF</t>
+          <t>上证指数ETF</t>
         </is>
       </c>
     </row>
@@ -14781,79 +14783,79 @@
         <v>33</v>
       </c>
       <c r="B35" s="39" t="n">
-        <v>512400</v>
+        <v>159905</v>
       </c>
       <c r="C35" s="39" t="inlineStr">
         <is>
-          <t>有色金属ETF</t>
+          <t>深红利ETF</t>
         </is>
       </c>
       <c r="D35" s="39" t="n">
-        <v>45.37</v>
+        <v>31.57</v>
       </c>
       <c r="E35" s="39" t="n">
-        <v>34.3</v>
+        <v>8.9</v>
       </c>
       <c r="F35" s="39" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="G35" s="39" t="n">
         <v>10.7</v>
       </c>
-      <c r="G35" s="39" t="n">
-        <v>3.6</v>
-      </c>
       <c r="H35" s="39" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="I35" s="39" t="n">
-        <v>18.5</v>
+        <v>42.7</v>
       </c>
       <c r="J35" s="39" t="n">
-        <v>39</v>
+        <v>53.6</v>
       </c>
       <c r="K35" s="39" t="n">
-        <v>76.09999999999999</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="L35" s="39" t="n">
-        <v>81</v>
+        <v>57.6</v>
       </c>
       <c r="M35" s="39" t="n">
-        <v>91.8</v>
+        <v>49.7</v>
       </c>
       <c r="N35" s="39" t="n">
-        <v>67.40000000000001</v>
+        <v>73.7</v>
       </c>
       <c r="O35" s="39" t="n">
-        <v>63.2</v>
+        <v>78</v>
       </c>
       <c r="P35" s="39" t="n">
-        <v>38.9</v>
+        <v>52.6</v>
       </c>
       <c r="Q35" s="39" t="n">
-        <v>26.7</v>
+        <v>61.1</v>
       </c>
       <c r="R35" s="39" t="n">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="S35" s="39" t="n">
-        <v>74.90000000000001</v>
+        <v>86</v>
       </c>
       <c r="T35" s="39" t="n">
-        <v>35.4</v>
+        <v>24.1</v>
       </c>
       <c r="U35" s="39" t="n">
-        <v>23.7</v>
+        <v>18.8</v>
       </c>
       <c r="V35" s="39" t="n">
-        <v>35.8</v>
+        <v>5.8</v>
       </c>
       <c r="W35" s="39" t="n">
-        <v>21.9</v>
+        <v>48.5</v>
       </c>
       <c r="X35" s="39" t="n">
-        <v>21.9</v>
+        <v>25.4</v>
       </c>
       <c r="Y35" s="39" t="inlineStr">
         <is>
-          <t>有色金属ETF</t>
+          <t>深红利ETF</t>
         </is>
       </c>
     </row>
@@ -14862,79 +14864,79 @@
         <v>34</v>
       </c>
       <c r="B36" s="39" t="n">
-        <v>516910</v>
+        <v>510880</v>
       </c>
       <c r="C36" s="39" t="inlineStr">
         <is>
-          <t>物流ETF</t>
+          <t>红利ETF</t>
         </is>
       </c>
       <c r="D36" s="39" t="n">
-        <v>0.66</v>
+        <v>219.52</v>
       </c>
       <c r="E36" s="39" t="n">
-        <v>71.3</v>
+        <v>73.5</v>
       </c>
       <c r="F36" s="39" t="n">
-        <v>71.3</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="G36" s="39" t="n">
-        <v>34.6</v>
+        <v>89.2</v>
       </c>
       <c r="H36" s="39" t="n">
-        <v>1.2</v>
+        <v>5</v>
       </c>
       <c r="I36" s="39" t="n">
-        <v>35.6</v>
+        <v>43.6</v>
       </c>
       <c r="J36" s="39" t="n">
-        <v>57.5</v>
+        <v>46.3</v>
       </c>
       <c r="K36" s="39" t="n">
-        <v>80</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="L36" s="39" t="n">
-        <v>61.4</v>
+        <v>49</v>
       </c>
       <c r="M36" s="39" t="n">
-        <v>70.09999999999999</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="N36" s="39" t="n">
-        <v>55.2</v>
+        <v>84.3</v>
       </c>
       <c r="O36" s="39" t="n">
-        <v>73.8</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="P36" s="39" t="n">
-        <v>80.3</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="Q36" s="39" t="n">
-        <v>64.3</v>
+        <v>70.7</v>
       </c>
       <c r="R36" s="39" t="n">
-        <v>35.8</v>
+        <v>30</v>
       </c>
       <c r="S36" s="39" t="n">
-        <v>89.09999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="T36" s="39" t="n">
-        <v>55.5</v>
+        <v>24.9</v>
       </c>
       <c r="U36" s="39" t="n">
-        <v>40.4</v>
+        <v>62.9</v>
       </c>
       <c r="V36" s="39" t="n">
-        <v>61.4</v>
+        <v>51</v>
       </c>
       <c r="W36" s="39" t="n">
-        <v>22.2</v>
+        <v>64.5</v>
       </c>
       <c r="X36" s="39" t="n">
-        <v>22.2</v>
+        <v>26.1</v>
       </c>
       <c r="Y36" s="39" t="inlineStr">
         <is>
-          <t>物流ETF</t>
+          <t>红利ETF</t>
         </is>
       </c>
     </row>
@@ -14942,82 +14944,80 @@
       <c r="A37" s="39" t="n">
         <v>35</v>
       </c>
-      <c r="B37" s="39" t="inlineStr">
-        <is>
-          <t>510210</t>
-        </is>
+      <c r="B37" s="39" t="n">
+        <v>512880</v>
       </c>
       <c r="C37" s="39" t="inlineStr">
         <is>
-          <t>上证指数ETF</t>
+          <t>证券ETF</t>
         </is>
       </c>
       <c r="D37" s="39" t="n">
-        <v>48.57</v>
+        <v>276.99</v>
       </c>
       <c r="E37" s="39" t="n">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="F37" s="39" t="n">
-        <v>63.9</v>
+        <v>43.1</v>
       </c>
       <c r="G37" s="39" t="n">
-        <v>21.4</v>
+        <v>43.1</v>
       </c>
       <c r="H37" s="39" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="I37" s="39" t="n">
-        <v>24.8</v>
+        <v>20.9</v>
       </c>
       <c r="J37" s="39" t="n">
-        <v>43.7</v>
+        <v>50.6</v>
       </c>
       <c r="K37" s="39" t="n">
-        <v>64.2</v>
+        <v>66.3</v>
       </c>
       <c r="L37" s="39" t="n">
-        <v>73.7</v>
+        <v>71.8</v>
       </c>
       <c r="M37" s="39" t="n">
-        <v>86.40000000000001</v>
+        <v>71.8</v>
       </c>
       <c r="N37" s="39" t="n">
-        <v>88.09999999999999</v>
+        <v>39.5</v>
       </c>
       <c r="O37" s="39" t="n">
-        <v>90.40000000000001</v>
+        <v>29.1</v>
       </c>
       <c r="P37" s="39" t="n">
-        <v>93.09999999999999</v>
+        <v>29.1</v>
       </c>
       <c r="Q37" s="39" t="n">
-        <v>97.40000000000001</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="R37" s="39" t="n">
-        <v>99</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="S37" s="39" t="n">
-        <v>99.59999999999999</v>
+        <v>67.7</v>
       </c>
       <c r="T37" s="39" t="n">
-        <v>64</v>
+        <v>74.7</v>
       </c>
       <c r="U37" s="39" t="n">
-        <v>73.5</v>
+        <v>27.3</v>
       </c>
       <c r="V37" s="39" t="n">
-        <v>73.5</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="W37" s="39" t="n">
-        <v>23.7</v>
+        <v>35</v>
       </c>
       <c r="X37" s="39" t="n">
-        <v>23.7</v>
+        <v>27.3</v>
       </c>
       <c r="Y37" s="39" t="inlineStr">
         <is>
-          <t>上证指数ETF</t>
+          <t>证券ETF</t>
         </is>
       </c>
     </row>
@@ -15026,79 +15026,79 @@
         <v>36</v>
       </c>
       <c r="B38" s="39" t="n">
-        <v>588200</v>
+        <v>159752</v>
       </c>
       <c r="C38" s="39" t="inlineStr">
         <is>
-          <t>科创芯片ETF</t>
+          <t>新能源龙头ETF</t>
         </is>
       </c>
       <c r="D38" s="39" t="n">
-        <v>242.26</v>
+        <v>2.91</v>
       </c>
       <c r="E38" s="39" t="n">
-        <v>37.9</v>
+        <v>44.2</v>
       </c>
       <c r="F38" s="39" t="n">
-        <v>25.1</v>
+        <v>37.8</v>
       </c>
       <c r="G38" s="39" t="n">
-        <v>11.8</v>
+        <v>11.4</v>
       </c>
       <c r="H38" s="39" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="I38" s="39" t="n">
-        <v>12.7</v>
+        <v>1.1</v>
       </c>
       <c r="J38" s="39" t="n">
-        <v>65.8</v>
+        <v>7.5</v>
       </c>
       <c r="K38" s="39" t="n">
-        <v>74.90000000000001</v>
+        <v>57.3</v>
       </c>
       <c r="L38" s="39" t="n">
-        <v>91.09999999999999</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="M38" s="39" t="n">
-        <v>91.09999999999999</v>
+        <v>78.2</v>
       </c>
       <c r="N38" s="39" t="n">
-        <v>57.9</v>
+        <v>78.2</v>
       </c>
       <c r="O38" s="39" t="n">
-        <v>72.8</v>
+        <v>26.4</v>
       </c>
       <c r="P38" s="39" t="n">
-        <v>85.09999999999999</v>
+        <v>19.9</v>
       </c>
       <c r="Q38" s="39" t="n">
-        <v>44.7</v>
+        <v>46.5</v>
       </c>
       <c r="R38" s="39" t="n">
-        <v>70.59999999999999</v>
+        <v>89.3</v>
       </c>
       <c r="S38" s="39" t="n">
-        <v>44.8</v>
+        <v>70.5</v>
       </c>
       <c r="T38" s="39" t="n">
-        <v>53.3</v>
+        <v>90.5</v>
       </c>
       <c r="U38" s="39" t="n">
-        <v>14.7</v>
+        <v>71.2</v>
       </c>
       <c r="V38" s="39" t="n">
-        <v>9.699999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="W38" s="39" t="n">
-        <v>37.8</v>
+        <v>90.8</v>
       </c>
       <c r="X38" s="39" t="n">
-        <v>25.8</v>
+        <v>28.6</v>
       </c>
       <c r="Y38" s="39" t="inlineStr">
         <is>
-          <t>科创芯片ETF</t>
+          <t>新能源龙头ETF</t>
         </is>
       </c>
     </row>
@@ -15115,7 +15115,7 @@
         </is>
       </c>
       <c r="D39" s="39" t="n">
-        <v>126.86</v>
+        <v>126.99</v>
       </c>
       <c r="E39" s="39" t="n">
         <v>52.4</v>
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="D40" s="39" t="n">
-        <v>33.6</v>
+        <v>33.63</v>
       </c>
       <c r="E40" s="39" t="n">
         <v>86.8</v>
@@ -15256,7 +15256,7 @@
         <v>97</v>
       </c>
       <c r="X40" s="39" t="n">
-        <v>29.1</v>
+        <v>30.1</v>
       </c>
       <c r="Y40" s="39" t="inlineStr">
         <is>
@@ -15268,80 +15268,82 @@
       <c r="A41" s="39" t="n">
         <v>39</v>
       </c>
-      <c r="B41" s="39" t="n">
-        <v>512880</v>
+      <c r="B41" s="39" t="inlineStr">
+        <is>
+          <t>512580</t>
+        </is>
       </c>
       <c r="C41" s="39" t="inlineStr">
         <is>
-          <t>证券ETF</t>
+          <t>环保ETF</t>
         </is>
       </c>
       <c r="D41" s="39" t="n">
-        <v>277.53</v>
+        <v>11.66</v>
       </c>
       <c r="E41" s="39" t="n">
-        <v>1</v>
+        <v>32.1</v>
       </c>
       <c r="F41" s="39" t="n">
-        <v>43.1</v>
+        <v>25.9</v>
       </c>
       <c r="G41" s="39" t="n">
-        <v>43.1</v>
+        <v>11</v>
       </c>
       <c r="H41" s="39" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="I41" s="39" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="J41" s="39" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K41" s="39" t="n">
+        <v>61.2</v>
+      </c>
+      <c r="L41" s="39" t="n">
+        <v>68.90000000000001</v>
+      </c>
+      <c r="M41" s="39" t="n">
+        <v>79.3</v>
+      </c>
+      <c r="N41" s="39" t="n">
+        <v>70</v>
+      </c>
+      <c r="O41" s="39" t="n">
+        <v>36</v>
+      </c>
+      <c r="P41" s="39" t="n">
         <v>20.9</v>
       </c>
-      <c r="J41" s="39" t="n">
-        <v>50.6</v>
-      </c>
-      <c r="K41" s="39" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="L41" s="39" t="n">
-        <v>71.8</v>
-      </c>
-      <c r="M41" s="39" t="n">
-        <v>71.8</v>
-      </c>
-      <c r="N41" s="39" t="n">
-        <v>39.5</v>
-      </c>
-      <c r="O41" s="39" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="P41" s="39" t="n">
-        <v>29.1</v>
-      </c>
       <c r="Q41" s="39" t="n">
-        <v>84.90000000000001</v>
+        <v>57</v>
       </c>
       <c r="R41" s="39" t="n">
-        <v>93.59999999999999</v>
+        <v>86.3</v>
       </c>
       <c r="S41" s="39" t="n">
-        <v>67.7</v>
+        <v>54.5</v>
       </c>
       <c r="T41" s="39" t="n">
+        <v>79.59999999999999</v>
+      </c>
+      <c r="U41" s="39" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="V41" s="39" t="n">
         <v>74.7</v>
       </c>
-      <c r="U41" s="39" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="V41" s="39" t="n">
-        <v>81.09999999999999</v>
-      </c>
       <c r="W41" s="39" t="n">
-        <v>35</v>
+        <v>83.3</v>
       </c>
       <c r="X41" s="39" t="n">
-        <v>30.7</v>
+        <v>30.9</v>
       </c>
       <c r="Y41" s="39" t="inlineStr">
         <is>
-          <t>证券ETF</t>
+          <t>环保ETF</t>
         </is>
       </c>
     </row>
@@ -15349,82 +15351,80 @@
       <c r="A42" s="39" t="n">
         <v>40</v>
       </c>
-      <c r="B42" s="39" t="inlineStr">
-        <is>
-          <t>512580</t>
-        </is>
+      <c r="B42" s="39" t="n">
+        <v>517090</v>
       </c>
       <c r="C42" s="39" t="inlineStr">
         <is>
-          <t>环保ETF</t>
+          <t>央企共赢ETF</t>
         </is>
       </c>
       <c r="D42" s="39" t="n">
-        <v>11.66</v>
+        <v>4.35</v>
       </c>
       <c r="E42" s="39" t="n">
+        <v>49</v>
+      </c>
+      <c r="F42" s="39" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="G42" s="39" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="H42" s="39" t="n">
+        <v>4</v>
+      </c>
+      <c r="I42" s="39" t="n">
+        <v>59.4</v>
+      </c>
+      <c r="J42" s="39" t="n">
+        <v>50</v>
+      </c>
+      <c r="K42" s="39" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="L42" s="39" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="M42" s="39" t="n">
+        <v>64.8</v>
+      </c>
+      <c r="N42" s="39" t="n">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="O42" s="39" t="n">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="P42" s="39" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="Q42" s="39" t="n">
+        <v>94</v>
+      </c>
+      <c r="R42" s="39" t="n">
         <v>32.1</v>
       </c>
-      <c r="F42" s="39" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="G42" s="39" t="n">
-        <v>11</v>
-      </c>
-      <c r="H42" s="39" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="I42" s="39" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="J42" s="39" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K42" s="39" t="n">
-        <v>61.2</v>
-      </c>
-      <c r="L42" s="39" t="n">
-        <v>68.90000000000001</v>
-      </c>
-      <c r="M42" s="39" t="n">
-        <v>79.3</v>
-      </c>
-      <c r="N42" s="39" t="n">
-        <v>70</v>
-      </c>
-      <c r="O42" s="39" t="n">
-        <v>36</v>
-      </c>
-      <c r="P42" s="39" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="Q42" s="39" t="n">
-        <v>57</v>
-      </c>
-      <c r="R42" s="39" t="n">
-        <v>86.3</v>
-      </c>
       <c r="S42" s="39" t="n">
-        <v>54.5</v>
+        <v>68.7</v>
       </c>
       <c r="T42" s="39" t="n">
-        <v>79.59999999999999</v>
+        <v>41</v>
       </c>
       <c r="U42" s="39" t="n">
-        <v>47.9</v>
+        <v>41</v>
       </c>
       <c r="V42" s="39" t="n">
-        <v>74.7</v>
+        <v>17.9</v>
       </c>
       <c r="W42" s="39" t="n">
-        <v>83.3</v>
+        <v>76.8</v>
       </c>
       <c r="X42" s="39" t="n">
-        <v>30.9</v>
+        <v>31.5</v>
       </c>
       <c r="Y42" s="39" t="inlineStr">
         <is>
-          <t>环保ETF</t>
+          <t>央企共赢ETF</t>
         </is>
       </c>
     </row>
@@ -15441,7 +15441,7 @@
         </is>
       </c>
       <c r="D43" s="39" t="n">
-        <v>43.94</v>
+        <v>43.91</v>
       </c>
       <c r="E43" s="39" t="n">
         <v>23.8</v>
@@ -15514,79 +15514,79 @@
         <v>42</v>
       </c>
       <c r="B44" s="39" t="n">
-        <v>159915</v>
+        <v>159865</v>
       </c>
       <c r="C44" s="39" t="inlineStr">
         <is>
-          <t>创业板ETF</t>
+          <t>养殖ETF</t>
         </is>
       </c>
       <c r="D44" s="39" t="n">
-        <v>841.33</v>
+        <v>31.94</v>
       </c>
       <c r="E44" s="39" t="n">
-        <v>3.3</v>
+        <v>50.8</v>
       </c>
       <c r="F44" s="39" t="n">
-        <v>19.6</v>
+        <v>50.8</v>
       </c>
       <c r="G44" s="39" t="n">
-        <v>2.7</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="H44" s="39" t="n">
-        <v>0.2</v>
+        <v>29.7</v>
       </c>
       <c r="I44" s="39" t="n">
-        <v>17.7</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="J44" s="39" t="n">
-        <v>33</v>
+        <v>81.8</v>
       </c>
       <c r="K44" s="39" t="n">
-        <v>62.5</v>
+        <v>84.8</v>
       </c>
       <c r="L44" s="39" t="n">
-        <v>77.09999999999999</v>
+        <v>28.9</v>
       </c>
       <c r="M44" s="39" t="n">
-        <v>78.8</v>
+        <v>41.7</v>
       </c>
       <c r="N44" s="39" t="n">
-        <v>71.7</v>
+        <v>37.2</v>
       </c>
       <c r="O44" s="39" t="n">
-        <v>23.3</v>
+        <v>18</v>
       </c>
       <c r="P44" s="39" t="n">
-        <v>34.8</v>
+        <v>18</v>
       </c>
       <c r="Q44" s="39" t="n">
-        <v>56.5</v>
+        <v>5.2</v>
       </c>
       <c r="R44" s="39" t="n">
-        <v>91.3</v>
+        <v>35.7</v>
       </c>
       <c r="S44" s="39" t="n">
-        <v>61.7</v>
+        <v>80.3</v>
       </c>
       <c r="T44" s="39" t="n">
-        <v>84.3</v>
+        <v>23.8</v>
       </c>
       <c r="U44" s="39" t="n">
-        <v>49.3</v>
+        <v>52</v>
       </c>
       <c r="V44" s="39" t="n">
-        <v>73.3</v>
+        <v>36</v>
       </c>
       <c r="W44" s="39" t="n">
-        <v>36.3</v>
+        <v>17.8</v>
       </c>
       <c r="X44" s="39" t="n">
-        <v>33.9</v>
+        <v>31.6</v>
       </c>
       <c r="Y44" s="39" t="inlineStr">
         <is>
-          <t>创业板ETF</t>
+          <t>养殖ETF</t>
         </is>
       </c>
     </row>
@@ -15595,79 +15595,79 @@
         <v>43</v>
       </c>
       <c r="B45" s="39" t="n">
-        <v>159752</v>
+        <v>588200</v>
       </c>
       <c r="C45" s="39" t="inlineStr">
         <is>
-          <t>新能源龙头ETF</t>
+          <t>科创芯片ETF</t>
         </is>
       </c>
       <c r="D45" s="39" t="n">
-        <v>2.92</v>
+        <v>242.42</v>
       </c>
       <c r="E45" s="39" t="n">
-        <v>44.2</v>
+        <v>37.9</v>
       </c>
       <c r="F45" s="39" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="G45" s="39" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="H45" s="39" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I45" s="39" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="J45" s="39" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="K45" s="39" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="L45" s="39" t="n">
+        <v>91.09999999999999</v>
+      </c>
+      <c r="M45" s="39" t="n">
+        <v>91.09999999999999</v>
+      </c>
+      <c r="N45" s="39" t="n">
+        <v>57.9</v>
+      </c>
+      <c r="O45" s="39" t="n">
+        <v>72.8</v>
+      </c>
+      <c r="P45" s="39" t="n">
+        <v>85.09999999999999</v>
+      </c>
+      <c r="Q45" s="39" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="R45" s="39" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="S45" s="39" t="n">
+        <v>44.8</v>
+      </c>
+      <c r="T45" s="39" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="U45" s="39" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="V45" s="39" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="W45" s="39" t="n">
         <v>37.8</v>
       </c>
-      <c r="G45" s="39" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="H45" s="39" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="I45" s="39" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="J45" s="39" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K45" s="39" t="n">
-        <v>57.3</v>
-      </c>
-      <c r="L45" s="39" t="n">
-        <v>65.59999999999999</v>
-      </c>
-      <c r="M45" s="39" t="n">
-        <v>78.2</v>
-      </c>
-      <c r="N45" s="39" t="n">
-        <v>78.2</v>
-      </c>
-      <c r="O45" s="39" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="P45" s="39" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="Q45" s="39" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="R45" s="39" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="S45" s="39" t="n">
-        <v>70.5</v>
-      </c>
-      <c r="T45" s="39" t="n">
-        <v>90.5</v>
-      </c>
-      <c r="U45" s="39" t="n">
-        <v>71.2</v>
-      </c>
-      <c r="V45" s="39" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="W45" s="39" t="n">
-        <v>90.8</v>
-      </c>
       <c r="X45" s="39" t="n">
-        <v>34.5</v>
+        <v>32.7</v>
       </c>
       <c r="Y45" s="39" t="inlineStr">
         <is>
-          <t>新能源龙头ETF</t>
+          <t>科创芯片ETF</t>
         </is>
       </c>
     </row>
@@ -15676,79 +15676,79 @@
         <v>44</v>
       </c>
       <c r="B46" s="39" t="n">
-        <v>517090</v>
+        <v>159915</v>
       </c>
       <c r="C46" s="39" t="inlineStr">
         <is>
-          <t>央企共赢ETF</t>
+          <t>创业板ETF</t>
         </is>
       </c>
       <c r="D46" s="39" t="n">
-        <v>4.36</v>
+        <v>841.77</v>
       </c>
       <c r="E46" s="39" t="n">
-        <v>49</v>
+        <v>3.3</v>
       </c>
       <c r="F46" s="39" t="n">
-        <v>34.7</v>
+        <v>19.6</v>
       </c>
       <c r="G46" s="39" t="n">
-        <v>76.2</v>
+        <v>2.7</v>
       </c>
       <c r="H46" s="39" t="n">
-        <v>4</v>
+        <v>0.2</v>
       </c>
       <c r="I46" s="39" t="n">
-        <v>59.4</v>
+        <v>17.7</v>
       </c>
       <c r="J46" s="39" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="K46" s="39" t="n">
-        <v>55.6</v>
+        <v>62.5</v>
       </c>
       <c r="L46" s="39" t="n">
-        <v>45.4</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="M46" s="39" t="n">
-        <v>64.8</v>
+        <v>78.8</v>
       </c>
       <c r="N46" s="39" t="n">
-        <v>76.09999999999999</v>
+        <v>71.7</v>
       </c>
       <c r="O46" s="39" t="n">
-        <v>90.40000000000001</v>
+        <v>23.3</v>
       </c>
       <c r="P46" s="39" t="n">
-        <v>91.2</v>
+        <v>34.8</v>
       </c>
       <c r="Q46" s="39" t="n">
-        <v>94</v>
+        <v>56.5</v>
       </c>
       <c r="R46" s="39" t="n">
-        <v>32.1</v>
+        <v>91.3</v>
       </c>
       <c r="S46" s="39" t="n">
-        <v>68.7</v>
+        <v>61.7</v>
       </c>
       <c r="T46" s="39" t="n">
-        <v>41</v>
+        <v>84.3</v>
       </c>
       <c r="U46" s="39" t="n">
-        <v>41</v>
+        <v>49.3</v>
       </c>
       <c r="V46" s="39" t="n">
-        <v>17.9</v>
+        <v>73.3</v>
       </c>
       <c r="W46" s="39" t="n">
-        <v>76.8</v>
+        <v>36.3</v>
       </c>
       <c r="X46" s="39" t="n">
         <v>36.3</v>
       </c>
       <c r="Y46" s="39" t="inlineStr">
         <is>
-          <t>央企共赢ETF</t>
+          <t>创业板ETF</t>
         </is>
       </c>
     </row>
@@ -15757,79 +15757,79 @@
         <v>45</v>
       </c>
       <c r="B47" s="39" t="n">
-        <v>561320</v>
+        <v>159825</v>
       </c>
       <c r="C47" s="39" t="inlineStr">
         <is>
-          <t>交运ETF</t>
+          <t>农业ETF</t>
         </is>
       </c>
       <c r="D47" s="39" t="n">
-        <v>0.64</v>
+        <v>21.66</v>
       </c>
       <c r="E47" s="39" t="n">
-        <v>78.09999999999999</v>
+        <v>52.1</v>
       </c>
       <c r="F47" s="39" t="n">
-        <v>52</v>
+        <v>52.1</v>
       </c>
       <c r="G47" s="39" t="n">
-        <v>42.5</v>
+        <v>86</v>
       </c>
       <c r="H47" s="39" t="n">
-        <v>1.7</v>
+        <v>21.5</v>
       </c>
       <c r="I47" s="39" t="n">
-        <v>53</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="J47" s="39" t="n">
-        <v>64.2</v>
+        <v>77</v>
       </c>
       <c r="K47" s="39" t="n">
-        <v>77</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="L47" s="39" t="n">
-        <v>57.9</v>
+        <v>31.2</v>
       </c>
       <c r="M47" s="39" t="n">
-        <v>57.9</v>
+        <v>45.4</v>
       </c>
       <c r="N47" s="39" t="n">
-        <v>49.6</v>
+        <v>28</v>
       </c>
       <c r="O47" s="39" t="n">
-        <v>89.3</v>
+        <v>22.3</v>
       </c>
       <c r="P47" s="39" t="n">
-        <v>89.3</v>
+        <v>18.5</v>
       </c>
       <c r="Q47" s="39" t="n">
-        <v>71.90000000000001</v>
+        <v>5.5</v>
       </c>
       <c r="R47" s="39" t="n">
-        <v>21.5</v>
+        <v>41</v>
       </c>
       <c r="S47" s="39" t="n">
-        <v>46.5</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="T47" s="39" t="n">
-        <v>23.8</v>
+        <v>27.9</v>
       </c>
       <c r="U47" s="39" t="n">
-        <v>61.4</v>
+        <v>52.4</v>
       </c>
       <c r="V47" s="39" t="n">
-        <v>61.4</v>
+        <v>39.1</v>
       </c>
       <c r="W47" s="39" t="n">
-        <v>37</v>
+        <v>15.5</v>
       </c>
       <c r="X47" s="39" t="n">
-        <v>37</v>
+        <v>39.7</v>
       </c>
       <c r="Y47" s="39" t="inlineStr">
         <is>
-          <t>交运ETF</t>
+          <t>农业ETF</t>
         </is>
       </c>
     </row>
@@ -15838,79 +15838,79 @@
         <v>46</v>
       </c>
       <c r="B48" s="39" t="n">
-        <v>159995</v>
+        <v>159920</v>
       </c>
       <c r="C48" s="39" t="inlineStr">
         <is>
-          <t>芯片ETF</t>
+          <t>恒生ETF</t>
         </is>
       </c>
       <c r="D48" s="39" t="n">
-        <v>237.44</v>
+        <v>158.61</v>
       </c>
       <c r="E48" s="39" t="n">
-        <v>40.1</v>
+        <v>48.8</v>
       </c>
       <c r="F48" s="39" t="n">
-        <v>30.4</v>
+        <v>36.1</v>
       </c>
       <c r="G48" s="39" t="n">
-        <v>53.1</v>
+        <v>11.7</v>
       </c>
       <c r="H48" s="39" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="I48" s="39" t="n">
-        <v>7.8</v>
+        <v>1</v>
       </c>
       <c r="J48" s="39" t="n">
-        <v>68.8</v>
+        <v>0.9</v>
       </c>
       <c r="K48" s="39" t="n">
+        <v>61.3</v>
+      </c>
+      <c r="L48" s="39" t="n">
         <v>74.40000000000001</v>
       </c>
-      <c r="L48" s="39" t="n">
-        <v>91</v>
-      </c>
       <c r="M48" s="39" t="n">
-        <v>88.7</v>
+        <v>86.8</v>
       </c>
       <c r="N48" s="39" t="n">
-        <v>46.9</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="O48" s="39" t="n">
-        <v>71.09999999999999</v>
+        <v>34.5</v>
       </c>
       <c r="P48" s="39" t="n">
-        <v>75.3</v>
+        <v>62</v>
       </c>
       <c r="Q48" s="39" t="n">
-        <v>38.2</v>
+        <v>62</v>
       </c>
       <c r="R48" s="39" t="n">
-        <v>71.7</v>
+        <v>81.3</v>
       </c>
       <c r="S48" s="39" t="n">
-        <v>60.7</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="T48" s="39" t="n">
-        <v>37.7</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="U48" s="39" t="n">
-        <v>10.3</v>
+        <v>56.7</v>
       </c>
       <c r="V48" s="39" t="n">
-        <v>8.5</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="W48" s="39" t="n">
-        <v>50.8</v>
+        <v>70</v>
       </c>
       <c r="X48" s="39" t="n">
-        <v>37.1</v>
+        <v>42.3</v>
       </c>
       <c r="Y48" s="39" t="inlineStr">
         <is>
-          <t>芯片ETF</t>
+          <t>恒生ETF</t>
         </is>
       </c>
     </row>
@@ -15918,82 +15918,80 @@
       <c r="A49" s="39" t="n">
         <v>47</v>
       </c>
-      <c r="B49" s="39" t="inlineStr">
-        <is>
-          <t>159949</t>
-        </is>
+      <c r="B49" s="39" t="n">
+        <v>510500</v>
       </c>
       <c r="C49" s="39" t="inlineStr">
         <is>
-          <t>创业板50ETF</t>
+          <t>中证500ETF</t>
         </is>
       </c>
       <c r="D49" s="39" t="n">
-        <v>250.6</v>
+        <v>1092.49</v>
       </c>
       <c r="E49" s="39" t="n">
-        <v>1.4</v>
+        <v>45.3</v>
       </c>
       <c r="F49" s="39" t="n">
-        <v>36.2</v>
+        <v>53.9</v>
       </c>
       <c r="G49" s="39" t="n">
-        <v>6.1</v>
+        <v>16.4</v>
       </c>
       <c r="H49" s="39" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="I49" s="39" t="n">
-        <v>11.4</v>
+        <v>10.8</v>
       </c>
       <c r="J49" s="39" t="n">
-        <v>22.1</v>
+        <v>47.3</v>
       </c>
       <c r="K49" s="39" t="n">
-        <v>58.2</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="L49" s="39" t="n">
-        <v>75</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="M49" s="39" t="n">
-        <v>78.90000000000001</v>
+        <v>85.2</v>
       </c>
       <c r="N49" s="39" t="n">
-        <v>78.90000000000001</v>
+        <v>62.2</v>
       </c>
       <c r="O49" s="39" t="n">
-        <v>25.6</v>
+        <v>29</v>
       </c>
       <c r="P49" s="39" t="n">
-        <v>34.4</v>
+        <v>33.4</v>
       </c>
       <c r="Q49" s="39" t="n">
-        <v>70.09999999999999</v>
+        <v>38.4</v>
       </c>
       <c r="R49" s="39" t="n">
-        <v>91.7</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="S49" s="39" t="n">
-        <v>73.90000000000001</v>
+        <v>69.5</v>
       </c>
       <c r="T49" s="39" t="n">
-        <v>92.2</v>
+        <v>77.5</v>
       </c>
       <c r="U49" s="39" t="n">
-        <v>50.7</v>
+        <v>37.1</v>
       </c>
       <c r="V49" s="39" t="n">
-        <v>75.7</v>
+        <v>63.5</v>
       </c>
       <c r="W49" s="39" t="n">
-        <v>43</v>
+        <v>26.9</v>
       </c>
       <c r="X49" s="39" t="n">
-        <v>37.6</v>
+        <v>44.2</v>
       </c>
       <c r="Y49" s="39" t="inlineStr">
         <is>
-          <t>创业板50ETF</t>
+          <t>中证500ETF</t>
         </is>
       </c>
     </row>
@@ -16002,79 +16000,79 @@
         <v>48</v>
       </c>
       <c r="B50" s="39" t="n">
-        <v>159883</v>
+        <v>513120</v>
       </c>
       <c r="C50" s="39" t="inlineStr">
         <is>
-          <t>医疗器械ETF</t>
+          <t>港股创新药ETF</t>
         </is>
       </c>
       <c r="D50" s="39" t="n">
-        <v>16.22</v>
+        <v>110.93</v>
       </c>
       <c r="E50" s="39" t="n">
-        <v>72.5</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="F50" s="39" t="n">
-        <v>65.5</v>
+        <v>67.5</v>
       </c>
       <c r="G50" s="39" t="n">
-        <v>33.3</v>
+        <v>39.9</v>
       </c>
       <c r="H50" s="39" t="n">
-        <v>3.1</v>
+        <v>7.2</v>
       </c>
       <c r="I50" s="39" t="n">
-        <v>31.1</v>
+        <v>3.3</v>
       </c>
       <c r="J50" s="39" t="n">
-        <v>43.1</v>
+        <v>9</v>
       </c>
       <c r="K50" s="39" t="n">
-        <v>66.40000000000001</v>
+        <v>55.4</v>
       </c>
       <c r="L50" s="39" t="n">
-        <v>69.59999999999999</v>
+        <v>78.3</v>
       </c>
       <c r="M50" s="39" t="n">
-        <v>77.8</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="N50" s="39" t="n">
-        <v>77.8</v>
+        <v>65</v>
       </c>
       <c r="O50" s="39" t="n">
-        <v>18.3</v>
+        <v>33.9</v>
       </c>
       <c r="P50" s="39" t="n">
-        <v>45.9</v>
+        <v>33.9</v>
       </c>
       <c r="Q50" s="39" t="n">
-        <v>19.5</v>
+        <v>28.9</v>
       </c>
       <c r="R50" s="39" t="n">
-        <v>70.5</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="S50" s="39" t="n">
-        <v>75.59999999999999</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="T50" s="39" t="n">
-        <v>56.1</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="U50" s="39" t="n">
-        <v>18.3</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="V50" s="39" t="n">
-        <v>13.7</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="W50" s="39" t="n">
-        <v>3.9</v>
+        <v>32.6</v>
       </c>
       <c r="X50" s="39" t="n">
-        <v>38.9</v>
+        <v>44.3</v>
       </c>
       <c r="Y50" s="39" t="inlineStr">
         <is>
-          <t>医疗器械ETF</t>
+          <t>港股创新药ETF</t>
         </is>
       </c>
     </row>
@@ -16091,7 +16089,7 @@
         </is>
       </c>
       <c r="D51" s="39" t="n">
-        <v>59.59</v>
+        <v>59.65</v>
       </c>
       <c r="E51" s="39" t="n">
         <v>1.3</v>
@@ -16151,7 +16149,7 @@
         <v>41.4</v>
       </c>
       <c r="X51" s="39" t="n">
-        <v>41.4</v>
+        <v>45</v>
       </c>
       <c r="Y51" s="39" t="inlineStr">
         <is>
@@ -16164,79 +16162,79 @@
         <v>50</v>
       </c>
       <c r="B52" s="39" t="n">
-        <v>516110</v>
+        <v>518880</v>
       </c>
       <c r="C52" s="39" t="inlineStr">
         <is>
-          <t>汽车ETF</t>
+          <t>黄金ETF</t>
         </is>
       </c>
       <c r="D52" s="39" t="n">
-        <v>4.26</v>
+        <v>617.03</v>
       </c>
       <c r="E52" s="39" t="n">
-        <v>14.7</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="F52" s="39" t="n">
-        <v>11.2</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="G52" s="39" t="n">
-        <v>2.6</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="H52" s="39" t="n">
-        <v>0.2</v>
+        <v>17.4</v>
       </c>
       <c r="I52" s="39" t="n">
-        <v>5.5</v>
+        <v>39</v>
       </c>
       <c r="J52" s="39" t="n">
+        <v>68.7</v>
+      </c>
+      <c r="K52" s="39" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="L52" s="39" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="M52" s="39" t="n">
+        <v>95.90000000000001</v>
+      </c>
+      <c r="N52" s="39" t="n">
+        <v>93.59999999999999</v>
+      </c>
+      <c r="O52" s="39" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="P52" s="39" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="Q52" s="39" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="R52" s="39" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="S52" s="39" t="n">
+        <v>100</v>
+      </c>
+      <c r="T52" s="39" t="n">
         <v>26.9</v>
       </c>
-      <c r="K52" s="39" t="n">
-        <v>71</v>
-      </c>
-      <c r="L52" s="39" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="M52" s="39" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="N52" s="39" t="n">
-        <v>70.3</v>
-      </c>
-      <c r="O52" s="39" t="n">
-        <v>42.6</v>
-      </c>
-      <c r="P52" s="39" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="Q52" s="39" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="R52" s="39" t="n">
-        <v>79</v>
-      </c>
-      <c r="S52" s="39" t="n">
-        <v>64</v>
-      </c>
-      <c r="T52" s="39" t="n">
-        <v>93</v>
-      </c>
       <c r="U52" s="39" t="n">
-        <v>60.5</v>
+        <v>41.4</v>
       </c>
       <c r="V52" s="39" t="n">
-        <v>75.90000000000001</v>
+        <v>33.1</v>
       </c>
       <c r="W52" s="39" t="n">
-        <v>31.6</v>
+        <v>22</v>
       </c>
       <c r="X52" s="39" t="n">
-        <v>42.7</v>
+        <v>46</v>
       </c>
       <c r="Y52" s="39" t="inlineStr">
         <is>
-          <t>汽车ETF</t>
+          <t>黄金ETF</t>
         </is>
       </c>
     </row>
@@ -16245,79 +16243,79 @@
         <v>51</v>
       </c>
       <c r="B53" s="39" t="n">
-        <v>510500</v>
+        <v>159850</v>
       </c>
       <c r="C53" s="39" t="inlineStr">
         <is>
-          <t>中证500ETF</t>
+          <t>恒生国企ETF</t>
         </is>
       </c>
       <c r="D53" s="39" t="n">
-        <v>1093.07</v>
+        <v>9.1</v>
       </c>
       <c r="E53" s="39" t="n">
-        <v>45.3</v>
+        <v>47.3</v>
       </c>
       <c r="F53" s="39" t="n">
-        <v>53.9</v>
+        <v>30.7</v>
       </c>
       <c r="G53" s="39" t="n">
-        <v>16.4</v>
+        <v>10.4</v>
       </c>
       <c r="H53" s="39" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="I53" s="39" t="n">
-        <v>10.8</v>
+        <v>0.7</v>
       </c>
       <c r="J53" s="39" t="n">
-        <v>47.3</v>
+        <v>26.1</v>
       </c>
       <c r="K53" s="39" t="n">
-        <v>70.09999999999999</v>
+        <v>62.6</v>
       </c>
       <c r="L53" s="39" t="n">
-        <v>77.09999999999999</v>
+        <v>72.5</v>
       </c>
       <c r="M53" s="39" t="n">
-        <v>85.2</v>
+        <v>88</v>
       </c>
       <c r="N53" s="39" t="n">
-        <v>62.2</v>
+        <v>90</v>
       </c>
       <c r="O53" s="39" t="n">
-        <v>29</v>
+        <v>31.2</v>
       </c>
       <c r="P53" s="39" t="n">
-        <v>33.4</v>
+        <v>55.3</v>
       </c>
       <c r="Q53" s="39" t="n">
-        <v>38.4</v>
+        <v>50.3</v>
       </c>
       <c r="R53" s="39" t="n">
-        <v>91.40000000000001</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="S53" s="39" t="n">
-        <v>69.5</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="T53" s="39" t="n">
-        <v>77.5</v>
+        <v>97</v>
       </c>
       <c r="U53" s="39" t="n">
-        <v>37.1</v>
+        <v>54</v>
       </c>
       <c r="V53" s="39" t="n">
-        <v>63.5</v>
+        <v>74.3</v>
       </c>
       <c r="W53" s="39" t="n">
-        <v>26.9</v>
+        <v>76.8</v>
       </c>
       <c r="X53" s="39" t="n">
-        <v>47.7</v>
+        <v>48.2</v>
       </c>
       <c r="Y53" s="39" t="inlineStr">
         <is>
-          <t>中证500ETF</t>
+          <t>恒生国企ETF</t>
         </is>
       </c>
     </row>
@@ -16325,82 +16323,80 @@
       <c r="A54" s="39" t="n">
         <v>52</v>
       </c>
-      <c r="B54" s="39" t="inlineStr">
-        <is>
-          <t>512010</t>
-        </is>
+      <c r="B54" s="39" t="n">
+        <v>516110</v>
       </c>
       <c r="C54" s="39" t="inlineStr">
         <is>
-          <t>医药ETF</t>
+          <t>汽车ETF</t>
         </is>
       </c>
       <c r="D54" s="39" t="n">
-        <v>221.17</v>
+        <v>4.27</v>
       </c>
       <c r="E54" s="39" t="n">
-        <v>85.8</v>
+        <v>14.7</v>
       </c>
       <c r="F54" s="39" t="n">
-        <v>51.5</v>
+        <v>11.2</v>
       </c>
       <c r="G54" s="39" t="n">
-        <v>34.8</v>
+        <v>2.6</v>
       </c>
       <c r="H54" s="39" t="n">
-        <v>5.6</v>
+        <v>0.2</v>
       </c>
       <c r="I54" s="39" t="n">
-        <v>17.2</v>
+        <v>5.5</v>
       </c>
       <c r="J54" s="39" t="n">
-        <v>15.3</v>
+        <v>26.9</v>
       </c>
       <c r="K54" s="39" t="n">
-        <v>59.5</v>
+        <v>71</v>
       </c>
       <c r="L54" s="39" t="n">
-        <v>66.5</v>
+        <v>85.3</v>
       </c>
       <c r="M54" s="39" t="n">
-        <v>75.09999999999999</v>
+        <v>89.7</v>
       </c>
       <c r="N54" s="39" t="n">
-        <v>29.6</v>
+        <v>70.3</v>
       </c>
       <c r="O54" s="39" t="n">
-        <v>49.8</v>
+        <v>42.6</v>
       </c>
       <c r="P54" s="39" t="n">
-        <v>49.8</v>
+        <v>18.4</v>
       </c>
       <c r="Q54" s="39" t="n">
-        <v>23.2</v>
+        <v>29.1</v>
       </c>
       <c r="R54" s="39" t="n">
-        <v>62.9</v>
+        <v>79</v>
       </c>
       <c r="S54" s="39" t="n">
-        <v>92.8</v>
+        <v>64</v>
       </c>
       <c r="T54" s="39" t="n">
-        <v>66.09999999999999</v>
+        <v>93</v>
       </c>
       <c r="U54" s="39" t="n">
-        <v>78.5</v>
+        <v>60.5</v>
       </c>
       <c r="V54" s="39" t="n">
-        <v>45.4</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="W54" s="39" t="n">
-        <v>16.9</v>
+        <v>31.6</v>
       </c>
       <c r="X54" s="39" t="n">
-        <v>48.9</v>
+        <v>48.3</v>
       </c>
       <c r="Y54" s="39" t="inlineStr">
         <is>
-          <t>医药ETF</t>
+          <t>汽车ETF</t>
         </is>
       </c>
     </row>
@@ -16409,79 +16405,79 @@
         <v>53</v>
       </c>
       <c r="B55" s="39" t="n">
-        <v>510230</v>
+        <v>159998</v>
       </c>
       <c r="C55" s="39" t="inlineStr">
         <is>
-          <t>金融ETF</t>
+          <t>计算机ETF</t>
         </is>
       </c>
       <c r="D55" s="39" t="n">
-        <v>46.04</v>
+        <v>28.38</v>
       </c>
       <c r="E55" s="39" t="n">
-        <v>12.2</v>
+        <v>1.9</v>
       </c>
       <c r="F55" s="39" t="n">
-        <v>64.59999999999999</v>
+        <v>38.5</v>
       </c>
       <c r="G55" s="39" t="n">
-        <v>72.8</v>
+        <v>14.4</v>
       </c>
       <c r="H55" s="39" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="I55" s="39" t="n">
-        <v>24.2</v>
+        <v>1.1</v>
       </c>
       <c r="J55" s="39" t="n">
-        <v>21.3</v>
+        <v>57.8</v>
       </c>
       <c r="K55" s="39" t="n">
-        <v>62.7</v>
+        <v>67</v>
       </c>
       <c r="L55" s="39" t="n">
-        <v>67.5</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="M55" s="39" t="n">
-        <v>81.8</v>
+        <v>81.3</v>
       </c>
       <c r="N55" s="39" t="n">
-        <v>93.40000000000001</v>
+        <v>46.7</v>
       </c>
       <c r="O55" s="39" t="n">
-        <v>96.40000000000001</v>
+        <v>20.5</v>
       </c>
       <c r="P55" s="39" t="n">
-        <v>96.40000000000001</v>
+        <v>36.4</v>
       </c>
       <c r="Q55" s="39" t="n">
-        <v>99</v>
+        <v>30.3</v>
       </c>
       <c r="R55" s="39" t="n">
-        <v>51.8</v>
+        <v>90.5</v>
       </c>
       <c r="S55" s="39" t="n">
-        <v>65.8</v>
+        <v>41.5</v>
       </c>
       <c r="T55" s="39" t="n">
-        <v>47.4</v>
+        <v>58.7</v>
       </c>
       <c r="U55" s="39" t="n">
-        <v>86.09999999999999</v>
+        <v>17.5</v>
       </c>
       <c r="V55" s="39" t="n">
-        <v>59.7</v>
+        <v>47.2</v>
       </c>
       <c r="W55" s="39" t="n">
-        <v>80.09999999999999</v>
+        <v>34.7</v>
       </c>
       <c r="X55" s="39" t="n">
-        <v>49.9</v>
+        <v>48.4</v>
       </c>
       <c r="Y55" s="39" t="inlineStr">
         <is>
-          <t>金融ETF</t>
+          <t>计算机ETF</t>
         </is>
       </c>
     </row>
@@ -16489,80 +16485,82 @@
       <c r="A56" s="39" t="n">
         <v>54</v>
       </c>
-      <c r="B56" s="39" t="n">
-        <v>512100</v>
+      <c r="B56" s="39" t="inlineStr">
+        <is>
+          <t>512010</t>
+        </is>
       </c>
       <c r="C56" s="39" t="inlineStr">
         <is>
-          <t>中证1000ETF</t>
+          <t>医药ETF</t>
         </is>
       </c>
       <c r="D56" s="39" t="n">
-        <v>625.76</v>
+        <v>220.54</v>
       </c>
       <c r="E56" s="39" t="n">
-        <v>42.9</v>
+        <v>85.8</v>
       </c>
       <c r="F56" s="39" t="n">
-        <v>64.2</v>
+        <v>51.5</v>
       </c>
       <c r="G56" s="39" t="n">
-        <v>17.3</v>
+        <v>34.8</v>
       </c>
       <c r="H56" s="39" t="n">
-        <v>1.3</v>
+        <v>5.6</v>
       </c>
       <c r="I56" s="39" t="n">
-        <v>1.2</v>
+        <v>17.2</v>
       </c>
       <c r="J56" s="39" t="n">
-        <v>35.1</v>
+        <v>15.3</v>
       </c>
       <c r="K56" s="39" t="n">
-        <v>67.09999999999999</v>
+        <v>59.5</v>
       </c>
       <c r="L56" s="39" t="n">
-        <v>78.59999999999999</v>
+        <v>66.5</v>
       </c>
       <c r="M56" s="39" t="n">
-        <v>87.59999999999999</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="N56" s="39" t="n">
-        <v>70.40000000000001</v>
+        <v>29.6</v>
       </c>
       <c r="O56" s="39" t="n">
-        <v>30.5</v>
+        <v>49.8</v>
       </c>
       <c r="P56" s="39" t="n">
-        <v>33.1</v>
+        <v>49.8</v>
       </c>
       <c r="Q56" s="39" t="n">
-        <v>25.6</v>
+        <v>23.2</v>
       </c>
       <c r="R56" s="39" t="n">
-        <v>88.40000000000001</v>
+        <v>62.9</v>
       </c>
       <c r="S56" s="39" t="n">
-        <v>88.40000000000001</v>
+        <v>92.8</v>
       </c>
       <c r="T56" s="39" t="n">
-        <v>94.2</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="U56" s="39" t="n">
-        <v>35.8</v>
+        <v>78.5</v>
       </c>
       <c r="V56" s="39" t="n">
-        <v>49.4</v>
+        <v>45.4</v>
       </c>
       <c r="W56" s="39" t="n">
-        <v>15.8</v>
+        <v>16.9</v>
       </c>
       <c r="X56" s="39" t="n">
-        <v>50.7</v>
+        <v>48.9</v>
       </c>
       <c r="Y56" s="39" t="inlineStr">
         <is>
-          <t>中证1000ETF</t>
+          <t>医药ETF</t>
         </is>
       </c>
     </row>
@@ -16570,82 +16568,80 @@
       <c r="A57" s="39" t="n">
         <v>55</v>
       </c>
-      <c r="B57" s="39" t="inlineStr">
-        <is>
-          <t>512890</t>
-        </is>
+      <c r="B57" s="39" t="n">
+        <v>512100</v>
       </c>
       <c r="C57" s="39" t="inlineStr">
         <is>
-          <t>红利低波ETF</t>
+          <t>中证1000ETF</t>
         </is>
       </c>
       <c r="D57" s="39" t="n">
-        <v>158.06</v>
+        <v>625.23</v>
       </c>
       <c r="E57" s="39" t="n">
-        <v>79.2</v>
+        <v>42.9</v>
       </c>
       <c r="F57" s="39" t="n">
+        <v>64.2</v>
+      </c>
+      <c r="G57" s="39" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="H57" s="39" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I57" s="39" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="J57" s="39" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="K57" s="39" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="L57" s="39" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="M57" s="39" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="N57" s="39" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="O57" s="39" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="P57" s="39" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="Q57" s="39" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="R57" s="39" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="S57" s="39" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="T57" s="39" t="n">
         <v>94.2</v>
       </c>
-      <c r="G57" s="39" t="n">
-        <v>97</v>
-      </c>
-      <c r="H57" s="39" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="I57" s="39" t="n">
-        <v>46</v>
-      </c>
-      <c r="J57" s="39" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="K57" s="39" t="n">
-        <v>55.7</v>
-      </c>
-      <c r="L57" s="39" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="M57" s="39" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="N57" s="39" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="O57" s="39" t="n">
-        <v>95.09999999999999</v>
-      </c>
-      <c r="P57" s="39" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="Q57" s="39" t="n">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="R57" s="39" t="n">
-        <v>39.7</v>
-      </c>
-      <c r="S57" s="39" t="n">
-        <v>74.7</v>
-      </c>
-      <c r="T57" s="39" t="n">
-        <v>40.8</v>
-      </c>
       <c r="U57" s="39" t="n">
-        <v>79</v>
+        <v>35.8</v>
       </c>
       <c r="V57" s="39" t="n">
-        <v>69.90000000000001</v>
+        <v>49.4</v>
       </c>
       <c r="W57" s="39" t="n">
-        <v>86</v>
+        <v>15.8</v>
       </c>
       <c r="X57" s="39" t="n">
-        <v>52.4</v>
+        <v>49.1</v>
       </c>
       <c r="Y57" s="39" t="inlineStr">
         <is>
-          <t>红利低波ETF</t>
+          <t>中证1000ETF</t>
         </is>
       </c>
     </row>
@@ -16654,79 +16650,79 @@
         <v>56</v>
       </c>
       <c r="B58" s="39" t="n">
-        <v>515230</v>
+        <v>159870</v>
       </c>
       <c r="C58" s="39" t="inlineStr">
         <is>
-          <t>软件ETF</t>
+          <t>化工ETF</t>
         </is>
       </c>
       <c r="D58" s="39" t="n">
-        <v>12.9</v>
+        <v>14.2</v>
       </c>
       <c r="E58" s="39" t="n">
-        <v>0</v>
+        <v>37.1</v>
       </c>
       <c r="F58" s="39" t="n">
-        <v>42.2</v>
+        <v>48.5</v>
       </c>
       <c r="G58" s="39" t="n">
-        <v>28</v>
+        <v>13.8</v>
       </c>
       <c r="H58" s="39" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="I58" s="39" t="n">
-        <v>1.3</v>
+        <v>31.5</v>
       </c>
       <c r="J58" s="39" t="n">
-        <v>53.7</v>
+        <v>34.4</v>
       </c>
       <c r="K58" s="39" t="n">
-        <v>63.7</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="L58" s="39" t="n">
-        <v>75.7</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="M58" s="39" t="n">
-        <v>79.09999999999999</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="N58" s="39" t="n">
-        <v>34.8</v>
+        <v>33.5</v>
       </c>
       <c r="O58" s="39" t="n">
-        <v>17.4</v>
+        <v>15.9</v>
       </c>
       <c r="P58" s="39" t="n">
-        <v>61.1</v>
+        <v>30.5</v>
       </c>
       <c r="Q58" s="39" t="n">
-        <v>61.1</v>
+        <v>30.5</v>
       </c>
       <c r="R58" s="39" t="n">
-        <v>92.59999999999999</v>
+        <v>84.5</v>
       </c>
       <c r="S58" s="39" t="n">
-        <v>51.2</v>
+        <v>88.2</v>
       </c>
       <c r="T58" s="39" t="n">
-        <v>59.3</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="U58" s="39" t="n">
-        <v>17</v>
+        <v>72.3</v>
       </c>
       <c r="V58" s="39" t="n">
-        <v>55.3</v>
+        <v>92</v>
       </c>
       <c r="W58" s="39" t="n">
-        <v>34.2</v>
+        <v>38</v>
       </c>
       <c r="X58" s="39" t="n">
-        <v>52.4</v>
+        <v>49.8</v>
       </c>
       <c r="Y58" s="39" t="inlineStr">
         <is>
-          <t>软件ETF</t>
+          <t>化工ETF</t>
         </is>
       </c>
     </row>
@@ -16735,79 +16731,79 @@
         <v>57</v>
       </c>
       <c r="B59" s="39" t="n">
-        <v>515030</v>
+        <v>510230</v>
       </c>
       <c r="C59" s="39" t="inlineStr">
         <is>
-          <t>新能源车ETF</t>
+          <t>金融ETF</t>
         </is>
       </c>
       <c r="D59" s="39" t="n">
-        <v>42.68</v>
+        <v>46.04</v>
       </c>
       <c r="E59" s="39" t="n">
-        <v>3.3</v>
+        <v>12.2</v>
       </c>
       <c r="F59" s="39" t="n">
-        <v>18.3</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="G59" s="39" t="n">
-        <v>5</v>
+        <v>72.8</v>
       </c>
       <c r="H59" s="39" t="n">
-        <v>0.4</v>
+        <v>2.3</v>
       </c>
       <c r="I59" s="39" t="n">
-        <v>0.3</v>
+        <v>24.2</v>
       </c>
       <c r="J59" s="39" t="n">
-        <v>12.1</v>
+        <v>21.3</v>
       </c>
       <c r="K59" s="39" t="n">
-        <v>59</v>
+        <v>62.7</v>
       </c>
       <c r="L59" s="39" t="n">
-        <v>77.40000000000001</v>
+        <v>67.5</v>
       </c>
       <c r="M59" s="39" t="n">
-        <v>80.5</v>
+        <v>81.8</v>
       </c>
       <c r="N59" s="39" t="n">
-        <v>83.90000000000001</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="O59" s="39" t="n">
-        <v>27.2</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="P59" s="39" t="n">
-        <v>22.2</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="Q59" s="39" t="n">
+        <v>99</v>
+      </c>
+      <c r="R59" s="39" t="n">
         <v>51.8</v>
       </c>
-      <c r="R59" s="39" t="n">
-        <v>89.3</v>
-      </c>
       <c r="S59" s="39" t="n">
-        <v>66.7</v>
+        <v>65.8</v>
       </c>
       <c r="T59" s="39" t="n">
-        <v>90</v>
+        <v>47.4</v>
       </c>
       <c r="U59" s="39" t="n">
-        <v>69</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="V59" s="39" t="n">
+        <v>59.7</v>
+      </c>
+      <c r="W59" s="39" t="n">
         <v>80.09999999999999</v>
       </c>
-      <c r="W59" s="39" t="n">
-        <v>26.4</v>
-      </c>
       <c r="X59" s="39" t="n">
-        <v>52.6</v>
+        <v>49.9</v>
       </c>
       <c r="Y59" s="39" t="inlineStr">
         <is>
-          <t>新能源车ETF</t>
+          <t>金融ETF</t>
         </is>
       </c>
     </row>
@@ -16815,80 +16811,82 @@
       <c r="A60" s="39" t="n">
         <v>58</v>
       </c>
-      <c r="B60" s="39" t="n">
-        <v>159998</v>
+      <c r="B60" s="39" t="inlineStr">
+        <is>
+          <t>159949</t>
+        </is>
       </c>
       <c r="C60" s="39" t="inlineStr">
         <is>
-          <t>计算机ETF</t>
+          <t>创业板50ETF</t>
         </is>
       </c>
       <c r="D60" s="39" t="n">
-        <v>28.48</v>
+        <v>250.89</v>
       </c>
       <c r="E60" s="39" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="F60" s="39" t="n">
-        <v>38.5</v>
+        <v>36.2</v>
       </c>
       <c r="G60" s="39" t="n">
-        <v>14.4</v>
+        <v>6.1</v>
       </c>
       <c r="H60" s="39" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="I60" s="39" t="n">
-        <v>1.1</v>
+        <v>11.4</v>
       </c>
       <c r="J60" s="39" t="n">
-        <v>57.8</v>
+        <v>22.1</v>
       </c>
       <c r="K60" s="39" t="n">
-        <v>67</v>
+        <v>58.2</v>
       </c>
       <c r="L60" s="39" t="n">
-        <v>78.59999999999999</v>
+        <v>75</v>
       </c>
       <c r="M60" s="39" t="n">
-        <v>81.3</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="N60" s="39" t="n">
-        <v>46.7</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="O60" s="39" t="n">
-        <v>20.5</v>
+        <v>25.6</v>
       </c>
       <c r="P60" s="39" t="n">
-        <v>36.4</v>
+        <v>34.4</v>
       </c>
       <c r="Q60" s="39" t="n">
-        <v>30.3</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="R60" s="39" t="n">
-        <v>90.5</v>
+        <v>91.7</v>
       </c>
       <c r="S60" s="39" t="n">
-        <v>41.5</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="T60" s="39" t="n">
-        <v>58.7</v>
+        <v>92.2</v>
       </c>
       <c r="U60" s="39" t="n">
-        <v>17.5</v>
+        <v>50.7</v>
       </c>
       <c r="V60" s="39" t="n">
-        <v>47.2</v>
+        <v>75.7</v>
       </c>
       <c r="W60" s="39" t="n">
-        <v>34.7</v>
+        <v>43</v>
       </c>
       <c r="X60" s="39" t="n">
-        <v>53.2</v>
+        <v>50.2</v>
       </c>
       <c r="Y60" s="39" t="inlineStr">
         <is>
-          <t>计算机ETF</t>
+          <t>创业板50ETF</t>
         </is>
       </c>
     </row>
@@ -16897,79 +16895,79 @@
         <v>59</v>
       </c>
       <c r="B61" s="39" t="n">
-        <v>159732</v>
+        <v>512480</v>
       </c>
       <c r="C61" s="39" t="inlineStr">
         <is>
-          <t>消费电子ETF</t>
+          <t>半导体ETF</t>
         </is>
       </c>
       <c r="D61" s="39" t="n">
-        <v>15.36</v>
+        <v>209.83</v>
       </c>
       <c r="E61" s="39" t="n">
-        <v>5.4</v>
+        <v>38.9</v>
       </c>
       <c r="F61" s="39" t="n">
-        <v>27.4</v>
+        <v>22.3</v>
       </c>
       <c r="G61" s="39" t="n">
-        <v>1.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H61" s="39" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="I61" s="39" t="n">
-        <v>0.2</v>
+        <v>4.2</v>
       </c>
       <c r="J61" s="39" t="n">
-        <v>24.4</v>
+        <v>65.5</v>
       </c>
       <c r="K61" s="39" t="n">
-        <v>61.7</v>
+        <v>74</v>
       </c>
       <c r="L61" s="39" t="n">
-        <v>80.7</v>
+        <v>91.5</v>
       </c>
       <c r="M61" s="39" t="n">
-        <v>82.09999999999999</v>
+        <v>91.5</v>
       </c>
       <c r="N61" s="39" t="n">
-        <v>54.8</v>
+        <v>53.8</v>
       </c>
       <c r="O61" s="39" t="n">
-        <v>29.6</v>
+        <v>68</v>
       </c>
       <c r="P61" s="39" t="n">
-        <v>29.6</v>
+        <v>79</v>
       </c>
       <c r="Q61" s="39" t="n">
-        <v>68.40000000000001</v>
+        <v>34.9</v>
       </c>
       <c r="R61" s="39" t="n">
-        <v>90.09999999999999</v>
+        <v>69.2</v>
       </c>
       <c r="S61" s="39" t="n">
-        <v>37.9</v>
+        <v>58.1</v>
       </c>
       <c r="T61" s="39" t="n">
-        <v>71.2</v>
+        <v>58.1</v>
       </c>
       <c r="U61" s="39" t="n">
-        <v>41.5</v>
+        <v>10.6</v>
       </c>
       <c r="V61" s="39" t="n">
-        <v>55.5</v>
+        <v>7.8</v>
       </c>
       <c r="W61" s="39" t="n">
-        <v>30.9</v>
+        <v>21.4</v>
       </c>
       <c r="X61" s="39" t="n">
-        <v>54.9</v>
+        <v>50.6</v>
       </c>
       <c r="Y61" s="39" t="inlineStr">
         <is>
-          <t>消费电子ETF</t>
+          <t>半导体ETF</t>
         </is>
       </c>
     </row>
@@ -16978,79 +16976,79 @@
         <v>60</v>
       </c>
       <c r="B62" s="39" t="n">
-        <v>515980</v>
+        <v>159995</v>
       </c>
       <c r="C62" s="39" t="inlineStr">
         <is>
-          <t>人工智能ETF</t>
+          <t>芯片ETF</t>
         </is>
       </c>
       <c r="D62" s="39" t="n">
-        <v>33.38</v>
+        <v>237.82</v>
       </c>
       <c r="E62" s="39" t="n">
-        <v>3.3</v>
+        <v>40.1</v>
       </c>
       <c r="F62" s="39" t="n">
-        <v>31.8</v>
+        <v>30.4</v>
       </c>
       <c r="G62" s="39" t="n">
-        <v>5</v>
+        <v>53.1</v>
       </c>
       <c r="H62" s="39" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="I62" s="39" t="n">
-        <v>0.3</v>
+        <v>7.8</v>
       </c>
       <c r="J62" s="39" t="n">
-        <v>42</v>
+        <v>68.8</v>
       </c>
       <c r="K62" s="39" t="n">
-        <v>62.1</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L62" s="39" t="n">
-        <v>76.59999999999999</v>
+        <v>91</v>
       </c>
       <c r="M62" s="39" t="n">
-        <v>82.8</v>
+        <v>88.7</v>
       </c>
       <c r="N62" s="39" t="n">
-        <v>54.1</v>
+        <v>46.9</v>
       </c>
       <c r="O62" s="39" t="n">
-        <v>32</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="P62" s="39" t="n">
-        <v>57.9</v>
+        <v>75.3</v>
       </c>
       <c r="Q62" s="39" t="n">
-        <v>66.40000000000001</v>
+        <v>38.2</v>
       </c>
       <c r="R62" s="39" t="n">
-        <v>92.8</v>
+        <v>71.7</v>
       </c>
       <c r="S62" s="39" t="n">
-        <v>43.5</v>
+        <v>60.7</v>
       </c>
       <c r="T62" s="39" t="n">
-        <v>72.59999999999999</v>
+        <v>37.7</v>
       </c>
       <c r="U62" s="39" t="n">
-        <v>28.1</v>
+        <v>10.3</v>
       </c>
       <c r="V62" s="39" t="n">
-        <v>57.1</v>
+        <v>8.5</v>
       </c>
       <c r="W62" s="39" t="n">
-        <v>41.8</v>
+        <v>50.8</v>
       </c>
       <c r="X62" s="39" t="n">
-        <v>55.9</v>
+        <v>50.8</v>
       </c>
       <c r="Y62" s="39" t="inlineStr">
         <is>
-          <t>人工智能ETF</t>
+          <t>芯片ETF</t>
         </is>
       </c>
     </row>
@@ -17059,79 +17057,79 @@
         <v>61</v>
       </c>
       <c r="B63" s="39" t="n">
-        <v>512800</v>
+        <v>515980</v>
       </c>
       <c r="C63" s="39" t="inlineStr">
         <is>
-          <t>银行ETF</t>
+          <t>人工智能ETF</t>
         </is>
       </c>
       <c r="D63" s="39" t="n">
-        <v>76.43000000000001</v>
+        <v>33.34</v>
       </c>
       <c r="E63" s="39" t="n">
-        <v>24.5</v>
+        <v>3.3</v>
       </c>
       <c r="F63" s="39" t="n">
-        <v>71.90000000000001</v>
+        <v>31.8</v>
       </c>
       <c r="G63" s="39" t="n">
-        <v>81.09999999999999</v>
+        <v>5</v>
       </c>
       <c r="H63" s="39" t="n">
-        <v>11.2</v>
+        <v>0.5</v>
       </c>
       <c r="I63" s="39" t="n">
-        <v>11.2</v>
+        <v>0.3</v>
       </c>
       <c r="J63" s="39" t="n">
-        <v>5.8</v>
+        <v>42</v>
       </c>
       <c r="K63" s="39" t="n">
-        <v>50.2</v>
+        <v>62.1</v>
       </c>
       <c r="L63" s="39" t="n">
-        <v>62.1</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="M63" s="39" t="n">
-        <v>80.59999999999999</v>
+        <v>82.8</v>
       </c>
       <c r="N63" s="39" t="n">
-        <v>94.7</v>
+        <v>54.1</v>
       </c>
       <c r="O63" s="39" t="n">
-        <v>97.3</v>
+        <v>32</v>
       </c>
       <c r="P63" s="39" t="n">
-        <v>97.5</v>
+        <v>57.9</v>
       </c>
       <c r="Q63" s="39" t="n">
-        <v>99.09999999999999</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="R63" s="39" t="n">
-        <v>36</v>
+        <v>92.8</v>
       </c>
       <c r="S63" s="39" t="n">
-        <v>65</v>
+        <v>43.5</v>
       </c>
       <c r="T63" s="39" t="n">
-        <v>41.7</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="U63" s="39" t="n">
-        <v>76.90000000000001</v>
+        <v>28.1</v>
       </c>
       <c r="V63" s="39" t="n">
-        <v>56.7</v>
+        <v>57.1</v>
       </c>
       <c r="W63" s="39" t="n">
-        <v>81.7</v>
+        <v>41.8</v>
       </c>
       <c r="X63" s="39" t="n">
-        <v>56.6</v>
+        <v>52</v>
       </c>
       <c r="Y63" s="39" t="inlineStr">
         <is>
-          <t>银行ETF</t>
+          <t>人工智能ETF</t>
         </is>
       </c>
     </row>
@@ -17140,79 +17138,79 @@
         <v>62</v>
       </c>
       <c r="B64" s="39" t="n">
-        <v>560800</v>
+        <v>515230</v>
       </c>
       <c r="C64" s="39" t="inlineStr">
         <is>
-          <t>数字经济ETF</t>
+          <t>软件ETF</t>
         </is>
       </c>
       <c r="D64" s="39" t="n">
-        <v>7.42</v>
+        <v>12.88</v>
       </c>
       <c r="E64" s="39" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F64" s="39" t="n">
-        <v>23</v>
+        <v>42.2</v>
       </c>
       <c r="G64" s="39" t="n">
+        <v>28</v>
+      </c>
+      <c r="H64" s="39" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I64" s="39" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="J64" s="39" t="n">
+        <v>53.7</v>
+      </c>
+      <c r="K64" s="39" t="n">
+        <v>63.7</v>
+      </c>
+      <c r="L64" s="39" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="M64" s="39" t="n">
+        <v>79.09999999999999</v>
+      </c>
+      <c r="N64" s="39" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="O64" s="39" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="P64" s="39" t="n">
+        <v>61.1</v>
+      </c>
+      <c r="Q64" s="39" t="n">
+        <v>61.1</v>
+      </c>
+      <c r="R64" s="39" t="n">
+        <v>92.59999999999999</v>
+      </c>
+      <c r="S64" s="39" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="T64" s="39" t="n">
+        <v>59.3</v>
+      </c>
+      <c r="U64" s="39" t="n">
+        <v>17</v>
+      </c>
+      <c r="V64" s="39" t="n">
         <v>55.3</v>
       </c>
-      <c r="H64" s="39" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="I64" s="39" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="J64" s="39" t="n">
-        <v>61.5</v>
-      </c>
-      <c r="K64" s="39" t="n">
-        <v>71.8</v>
-      </c>
-      <c r="L64" s="39" t="n">
-        <v>85.5</v>
-      </c>
-      <c r="M64" s="39" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="N64" s="39" t="n">
-        <v>44</v>
-      </c>
-      <c r="O64" s="39" t="n">
-        <v>61.1</v>
-      </c>
-      <c r="P64" s="39" t="n">
-        <v>53</v>
-      </c>
-      <c r="Q64" s="39" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="R64" s="39" t="n">
-        <v>88.8</v>
-      </c>
-      <c r="S64" s="39" t="n">
-        <v>38.8</v>
-      </c>
-      <c r="T64" s="39" t="n">
-        <v>52.2</v>
-      </c>
-      <c r="U64" s="39" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="V64" s="39" t="n">
-        <v>26.4</v>
-      </c>
       <c r="W64" s="39" t="n">
-        <v>40.8</v>
+        <v>34.2</v>
       </c>
       <c r="X64" s="39" t="n">
-        <v>57.4</v>
+        <v>52.4</v>
       </c>
       <c r="Y64" s="39" t="inlineStr">
         <is>
-          <t>数字经济ETF</t>
+          <t>软件ETF</t>
         </is>
       </c>
     </row>
@@ -17221,79 +17219,79 @@
         <v>63</v>
       </c>
       <c r="B65" s="39" t="n">
-        <v>159870</v>
+        <v>513090</v>
       </c>
       <c r="C65" s="39" t="inlineStr">
         <is>
-          <t>化工ETF</t>
+          <t>香港证券ETF</t>
         </is>
       </c>
       <c r="D65" s="39" t="n">
-        <v>14.22</v>
+        <v>71.04000000000001</v>
       </c>
       <c r="E65" s="39" t="n">
-        <v>37.1</v>
+        <v>29.3</v>
       </c>
       <c r="F65" s="39" t="n">
+        <v>57.7</v>
+      </c>
+      <c r="G65" s="39" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="H65" s="39" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I65" s="39" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="J65" s="39" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="K65" s="39" t="n">
+        <v>58.1</v>
+      </c>
+      <c r="L65" s="39" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="M65" s="39" t="n">
+        <v>85.09999999999999</v>
+      </c>
+      <c r="N65" s="39" t="n">
+        <v>80.2</v>
+      </c>
+      <c r="O65" s="39" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="P65" s="39" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="Q65" s="39" t="n">
         <v>48.5</v>
       </c>
-      <c r="G65" s="39" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="H65" s="39" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="I65" s="39" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="J65" s="39" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="K65" s="39" t="n">
-        <v>64.40000000000001</v>
-      </c>
-      <c r="L65" s="39" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M65" s="39" t="n">
-        <v>75.59999999999999</v>
-      </c>
-      <c r="N65" s="39" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="O65" s="39" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="P65" s="39" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="Q65" s="39" t="n">
-        <v>30.5</v>
-      </c>
       <c r="R65" s="39" t="n">
-        <v>84.5</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="S65" s="39" t="n">
-        <v>88.2</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="T65" s="39" t="n">
-        <v>95.90000000000001</v>
+        <v>96.7</v>
       </c>
       <c r="U65" s="39" t="n">
-        <v>72.3</v>
+        <v>40.2</v>
       </c>
       <c r="V65" s="39" t="n">
-        <v>92</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="W65" s="39" t="n">
-        <v>38</v>
+        <v>52.6</v>
       </c>
       <c r="X65" s="39" t="n">
-        <v>57.8</v>
+        <v>52.6</v>
       </c>
       <c r="Y65" s="39" t="inlineStr">
         <is>
-          <t>化工ETF</t>
+          <t>香港证券ETF</t>
         </is>
       </c>
     </row>
@@ -17302,79 +17300,79 @@
         <v>64</v>
       </c>
       <c r="B66" s="39" t="n">
-        <v>518880</v>
+        <v>515030</v>
       </c>
       <c r="C66" s="39" t="inlineStr">
         <is>
-          <t>黄金ETF</t>
+          <t>新能源车ETF</t>
         </is>
       </c>
       <c r="D66" s="39" t="n">
-        <v>620.48</v>
+        <v>42.68</v>
       </c>
       <c r="E66" s="39" t="n">
-        <v>99.59999999999999</v>
+        <v>3.3</v>
       </c>
       <c r="F66" s="39" t="n">
-        <v>68.09999999999999</v>
+        <v>18.3</v>
       </c>
       <c r="G66" s="39" t="n">
-        <v>87.40000000000001</v>
+        <v>5</v>
       </c>
       <c r="H66" s="39" t="n">
-        <v>17.4</v>
+        <v>0.4</v>
       </c>
       <c r="I66" s="39" t="n">
-        <v>39</v>
+        <v>0.3</v>
       </c>
       <c r="J66" s="39" t="n">
-        <v>68.7</v>
+        <v>12.1</v>
       </c>
       <c r="K66" s="39" t="n">
-        <v>88.40000000000001</v>
+        <v>59</v>
       </c>
       <c r="L66" s="39" t="n">
-        <v>93.90000000000001</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="M66" s="39" t="n">
-        <v>95.90000000000001</v>
+        <v>80.5</v>
       </c>
       <c r="N66" s="39" t="n">
-        <v>93.59999999999999</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="O66" s="39" t="n">
-        <v>98.8</v>
+        <v>27.2</v>
       </c>
       <c r="P66" s="39" t="n">
-        <v>99.2</v>
+        <v>22.2</v>
       </c>
       <c r="Q66" s="39" t="n">
-        <v>99.3</v>
+        <v>51.8</v>
       </c>
       <c r="R66" s="39" t="n">
-        <v>99.8</v>
+        <v>89.3</v>
       </c>
       <c r="S66" s="39" t="n">
-        <v>100</v>
+        <v>66.7</v>
       </c>
       <c r="T66" s="39" t="n">
-        <v>26.9</v>
+        <v>90</v>
       </c>
       <c r="U66" s="39" t="n">
-        <v>41.4</v>
+        <v>69</v>
       </c>
       <c r="V66" s="39" t="n">
-        <v>33.1</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="W66" s="39" t="n">
-        <v>22</v>
+        <v>26.4</v>
       </c>
       <c r="X66" s="39" t="n">
-        <v>58.4</v>
+        <v>52.6</v>
       </c>
       <c r="Y66" s="39" t="inlineStr">
         <is>
-          <t>黄金ETF</t>
+          <t>新能源车ETF</t>
         </is>
       </c>
     </row>
@@ -17383,79 +17381,79 @@
         <v>65</v>
       </c>
       <c r="B67" s="39" t="n">
-        <v>513090</v>
+        <v>512800</v>
       </c>
       <c r="C67" s="39" t="inlineStr">
         <is>
-          <t>香港证券ETF</t>
+          <t>银行ETF</t>
         </is>
       </c>
       <c r="D67" s="39" t="n">
-        <v>71.13</v>
+        <v>76.43000000000001</v>
       </c>
       <c r="E67" s="39" t="n">
-        <v>29.3</v>
+        <v>24.5</v>
       </c>
       <c r="F67" s="39" t="n">
-        <v>57.7</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="G67" s="39" t="n">
-        <v>30.1</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="H67" s="39" t="n">
-        <v>2.9</v>
+        <v>11.2</v>
       </c>
       <c r="I67" s="39" t="n">
-        <v>1.6</v>
+        <v>11.2</v>
       </c>
       <c r="J67" s="39" t="n">
-        <v>24.6</v>
+        <v>5.8</v>
       </c>
       <c r="K67" s="39" t="n">
-        <v>58.1</v>
+        <v>50.2</v>
       </c>
       <c r="L67" s="39" t="n">
-        <v>75.90000000000001</v>
+        <v>62.1</v>
       </c>
       <c r="M67" s="39" t="n">
-        <v>85.09999999999999</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="N67" s="39" t="n">
-        <v>80.2</v>
+        <v>94.7</v>
       </c>
       <c r="O67" s="39" t="n">
-        <v>33.6</v>
+        <v>97.3</v>
       </c>
       <c r="P67" s="39" t="n">
-        <v>44.4</v>
+        <v>97.5</v>
       </c>
       <c r="Q67" s="39" t="n">
-        <v>48.5</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="R67" s="39" t="n">
-        <v>72.90000000000001</v>
+        <v>36</v>
       </c>
       <c r="S67" s="39" t="n">
-        <v>91.09999999999999</v>
+        <v>65</v>
       </c>
       <c r="T67" s="39" t="n">
-        <v>96.7</v>
+        <v>41.7</v>
       </c>
       <c r="U67" s="39" t="n">
-        <v>40.2</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="V67" s="39" t="n">
-        <v>76.59999999999999</v>
+        <v>56.7</v>
       </c>
       <c r="W67" s="39" t="n">
-        <v>52.6</v>
+        <v>81.7</v>
       </c>
       <c r="X67" s="39" t="n">
-        <v>58.4</v>
+        <v>53.3</v>
       </c>
       <c r="Y67" s="39" t="inlineStr">
         <is>
-          <t>香港证券ETF</t>
+          <t>银行ETF</t>
         </is>
       </c>
     </row>
@@ -17464,79 +17462,79 @@
         <v>66</v>
       </c>
       <c r="B68" s="39" t="n">
-        <v>159667</v>
+        <v>159732</v>
       </c>
       <c r="C68" s="39" t="inlineStr">
         <is>
-          <t>工业母机ETF</t>
+          <t>消费电子ETF</t>
         </is>
       </c>
       <c r="D68" s="39" t="n">
-        <v>4.78</v>
+        <v>15.34</v>
       </c>
       <c r="E68" s="39" t="n">
-        <v>7.1</v>
+        <v>5.4</v>
       </c>
       <c r="F68" s="39" t="n">
-        <v>61</v>
+        <v>27.4</v>
       </c>
       <c r="G68" s="39" t="n">
-        <v>15.6</v>
+        <v>1.5</v>
       </c>
       <c r="H68" s="39" t="n">
-        <v>2.4</v>
+        <v>0.3</v>
       </c>
       <c r="I68" s="39" t="n">
-        <v>1.6</v>
+        <v>0.2</v>
       </c>
       <c r="J68" s="39" t="n">
-        <v>26.1</v>
+        <v>24.4</v>
       </c>
       <c r="K68" s="39" t="n">
-        <v>61.2</v>
+        <v>61.7</v>
       </c>
       <c r="L68" s="39" t="n">
-        <v>74.5</v>
+        <v>80.7</v>
       </c>
       <c r="M68" s="39" t="n">
-        <v>83.2</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="N68" s="39" t="n">
-        <v>67.8</v>
+        <v>54.8</v>
       </c>
       <c r="O68" s="39" t="n">
-        <v>23.1</v>
+        <v>29.6</v>
       </c>
       <c r="P68" s="39" t="n">
-        <v>31.6</v>
+        <v>29.6</v>
       </c>
       <c r="Q68" s="39" t="n">
-        <v>38.5</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="R68" s="39" t="n">
-        <v>90.40000000000001</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="S68" s="39" t="n">
-        <v>60.3</v>
+        <v>37.9</v>
       </c>
       <c r="T68" s="39" t="n">
-        <v>87.09999999999999</v>
+        <v>71.2</v>
       </c>
       <c r="U68" s="39" t="n">
-        <v>68.59999999999999</v>
+        <v>41.5</v>
       </c>
       <c r="V68" s="39" t="n">
-        <v>75</v>
+        <v>55.5</v>
       </c>
       <c r="W68" s="39" t="n">
-        <v>23.7</v>
+        <v>30.9</v>
       </c>
       <c r="X68" s="39" t="n">
-        <v>58.9</v>
+        <v>54.9</v>
       </c>
       <c r="Y68" s="39" t="inlineStr">
         <is>
-          <t>工业母机ETF</t>
+          <t>消费电子ETF</t>
         </is>
       </c>
     </row>
@@ -17545,79 +17543,79 @@
         <v>67</v>
       </c>
       <c r="B69" s="39" t="n">
-        <v>159920</v>
+        <v>515790</v>
       </c>
       <c r="C69" s="39" t="inlineStr">
         <is>
-          <t>恒生ETF</t>
+          <t>光伏ETF</t>
         </is>
       </c>
       <c r="D69" s="39" t="n">
-        <v>159.07</v>
+        <v>88.67</v>
       </c>
       <c r="E69" s="39" t="n">
-        <v>48.8</v>
+        <v>40.6</v>
       </c>
       <c r="F69" s="39" t="n">
-        <v>36.1</v>
+        <v>34.8</v>
       </c>
       <c r="G69" s="39" t="n">
-        <v>11.7</v>
+        <v>11.1</v>
       </c>
       <c r="H69" s="39" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="I69" s="39" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="J69" s="39" t="n">
-        <v>0.9</v>
+        <v>17.1</v>
       </c>
       <c r="K69" s="39" t="n">
-        <v>61.3</v>
+        <v>60.5</v>
       </c>
       <c r="L69" s="39" t="n">
-        <v>74.40000000000001</v>
+        <v>64.8</v>
       </c>
       <c r="M69" s="39" t="n">
-        <v>86.8</v>
+        <v>75.5</v>
       </c>
       <c r="N69" s="39" t="n">
-        <v>89.09999999999999</v>
+        <v>51.8</v>
       </c>
       <c r="O69" s="39" t="n">
+        <v>23</v>
+      </c>
+      <c r="P69" s="39" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="Q69" s="39" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="R69" s="39" t="n">
+        <v>59.1</v>
+      </c>
+      <c r="S69" s="39" t="n">
         <v>34.5</v>
       </c>
-      <c r="P69" s="39" t="n">
-        <v>62</v>
-      </c>
-      <c r="Q69" s="39" t="n">
-        <v>62</v>
-      </c>
-      <c r="R69" s="39" t="n">
-        <v>81.3</v>
-      </c>
-      <c r="S69" s="39" t="n">
-        <v>88.59999999999999</v>
-      </c>
       <c r="T69" s="39" t="n">
-        <v>98.09999999999999</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="U69" s="39" t="n">
-        <v>56.7</v>
+        <v>19.7</v>
       </c>
       <c r="V69" s="39" t="n">
-        <v>74.90000000000001</v>
+        <v>56</v>
       </c>
       <c r="W69" s="39" t="n">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="X69" s="39" t="n">
-        <v>61.9</v>
+        <v>56</v>
       </c>
       <c r="Y69" s="39" t="inlineStr">
         <is>
-          <t>恒生ETF</t>
+          <t>光伏ETF</t>
         </is>
       </c>
     </row>
@@ -17626,79 +17624,79 @@
         <v>68</v>
       </c>
       <c r="B70" s="39" t="n">
-        <v>513120</v>
+        <v>560800</v>
       </c>
       <c r="C70" s="39" t="inlineStr">
         <is>
-          <t>港股创新药ETF</t>
+          <t>数字经济ETF</t>
         </is>
       </c>
       <c r="D70" s="39" t="n">
-        <v>111.89</v>
+        <v>7.42</v>
       </c>
       <c r="E70" s="39" t="n">
-        <v>97.40000000000001</v>
+        <v>6</v>
       </c>
       <c r="F70" s="39" t="n">
-        <v>67.5</v>
+        <v>23</v>
       </c>
       <c r="G70" s="39" t="n">
-        <v>39.9</v>
+        <v>55.3</v>
       </c>
       <c r="H70" s="39" t="n">
-        <v>7.2</v>
+        <v>1.7</v>
       </c>
       <c r="I70" s="39" t="n">
-        <v>3.3</v>
+        <v>14.9</v>
       </c>
       <c r="J70" s="39" t="n">
-        <v>9</v>
+        <v>61.5</v>
       </c>
       <c r="K70" s="39" t="n">
-        <v>55.4</v>
+        <v>71.8</v>
       </c>
       <c r="L70" s="39" t="n">
-        <v>78.3</v>
+        <v>85.5</v>
       </c>
       <c r="M70" s="39" t="n">
-        <v>89.09999999999999</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="N70" s="39" t="n">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="O70" s="39" t="n">
-        <v>33.9</v>
+        <v>61.1</v>
       </c>
       <c r="P70" s="39" t="n">
-        <v>33.9</v>
+        <v>53</v>
       </c>
       <c r="Q70" s="39" t="n">
-        <v>28.9</v>
+        <v>41.9</v>
       </c>
       <c r="R70" s="39" t="n">
-        <v>82.09999999999999</v>
+        <v>88.8</v>
       </c>
       <c r="S70" s="39" t="n">
-        <v>95.59999999999999</v>
+        <v>38.8</v>
       </c>
       <c r="T70" s="39" t="n">
-        <v>97.09999999999999</v>
+        <v>52.2</v>
       </c>
       <c r="U70" s="39" t="n">
-        <v>98.09999999999999</v>
+        <v>16.3</v>
       </c>
       <c r="V70" s="39" t="n">
-        <v>98.40000000000001</v>
+        <v>26.4</v>
       </c>
       <c r="W70" s="39" t="n">
-        <v>32.6</v>
+        <v>40.8</v>
       </c>
       <c r="X70" s="39" t="n">
-        <v>62</v>
+        <v>57.4</v>
       </c>
       <c r="Y70" s="39" t="inlineStr">
         <is>
-          <t>港股创新药ETF</t>
+          <t>数字经济ETF</t>
         </is>
       </c>
     </row>
@@ -17706,82 +17704,80 @@
       <c r="A71" s="39" t="n">
         <v>69</v>
       </c>
-      <c r="B71" s="39" t="inlineStr">
-        <is>
-          <t>515070</t>
-        </is>
+      <c r="B71" s="39" t="n">
+        <v>159667</v>
       </c>
       <c r="C71" s="39" t="inlineStr">
         <is>
-          <t>人工智能AIETF</t>
+          <t>工业母机ETF</t>
         </is>
       </c>
       <c r="D71" s="39" t="n">
-        <v>49.07</v>
+        <v>4.78</v>
       </c>
       <c r="E71" s="39" t="n">
-        <v>10.2</v>
+        <v>7.1</v>
       </c>
       <c r="F71" s="39" t="n">
-        <v>38.1</v>
+        <v>61</v>
       </c>
       <c r="G71" s="39" t="n">
-        <v>7.1</v>
+        <v>15.6</v>
       </c>
       <c r="H71" s="39" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="I71" s="39" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="J71" s="39" t="n">
-        <v>43.8</v>
+        <v>26.1</v>
       </c>
       <c r="K71" s="39" t="n">
-        <v>63.5</v>
+        <v>61.2</v>
       </c>
       <c r="L71" s="39" t="n">
-        <v>78.2</v>
+        <v>74.5</v>
       </c>
       <c r="M71" s="39" t="n">
-        <v>83.59999999999999</v>
+        <v>83.2</v>
       </c>
       <c r="N71" s="39" t="n">
-        <v>53.9</v>
+        <v>67.8</v>
       </c>
       <c r="O71" s="39" t="n">
-        <v>34.4</v>
+        <v>23.1</v>
       </c>
       <c r="P71" s="39" t="n">
-        <v>54.8</v>
+        <v>31.6</v>
       </c>
       <c r="Q71" s="39" t="n">
-        <v>63.9</v>
+        <v>38.5</v>
       </c>
       <c r="R71" s="39" t="n">
-        <v>93</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="S71" s="39" t="n">
-        <v>44.8</v>
+        <v>60.3</v>
       </c>
       <c r="T71" s="39" t="n">
-        <v>70.8</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="U71" s="39" t="n">
-        <v>27.6</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="V71" s="39" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="W71" s="39" t="n">
-        <v>47.8</v>
+        <v>23.7</v>
       </c>
       <c r="X71" s="39" t="n">
-        <v>62.6</v>
+        <v>58.9</v>
       </c>
       <c r="Y71" s="39" t="inlineStr">
         <is>
-          <t>人工智能AIETF</t>
+          <t>工业母机ETF</t>
         </is>
       </c>
     </row>
@@ -17789,80 +17785,82 @@
       <c r="A72" s="39" t="n">
         <v>70</v>
       </c>
-      <c r="B72" s="39" t="n">
-        <v>159850</v>
+      <c r="B72" s="39" t="inlineStr">
+        <is>
+          <t>512890</t>
+        </is>
       </c>
       <c r="C72" s="39" t="inlineStr">
         <is>
-          <t>恒生国企ETF</t>
+          <t>红利低波ETF</t>
         </is>
       </c>
       <c r="D72" s="39" t="n">
-        <v>9.130000000000001</v>
+        <v>158.34</v>
       </c>
       <c r="E72" s="39" t="n">
-        <v>47.3</v>
+        <v>79.2</v>
       </c>
       <c r="F72" s="39" t="n">
-        <v>30.7</v>
+        <v>94.2</v>
       </c>
       <c r="G72" s="39" t="n">
-        <v>10.4</v>
+        <v>97</v>
       </c>
       <c r="H72" s="39" t="n">
-        <v>0.9</v>
+        <v>6.1</v>
       </c>
       <c r="I72" s="39" t="n">
-        <v>0.7</v>
+        <v>46</v>
       </c>
       <c r="J72" s="39" t="n">
-        <v>26.1</v>
+        <v>41.5</v>
       </c>
       <c r="K72" s="39" t="n">
-        <v>62.6</v>
+        <v>55.7</v>
       </c>
       <c r="L72" s="39" t="n">
-        <v>72.5</v>
+        <v>43.2</v>
       </c>
       <c r="M72" s="39" t="n">
-        <v>88</v>
+        <v>74.2</v>
       </c>
       <c r="N72" s="39" t="n">
-        <v>90</v>
+        <v>89.7</v>
       </c>
       <c r="O72" s="39" t="n">
-        <v>31.2</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="P72" s="39" t="n">
-        <v>55.3</v>
+        <v>95.5</v>
       </c>
       <c r="Q72" s="39" t="n">
-        <v>50.3</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="R72" s="39" t="n">
-        <v>73.90000000000001</v>
+        <v>39.7</v>
       </c>
       <c r="S72" s="39" t="n">
-        <v>81.09999999999999</v>
+        <v>74.7</v>
       </c>
       <c r="T72" s="39" t="n">
-        <v>97</v>
+        <v>40.8</v>
       </c>
       <c r="U72" s="39" t="n">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="V72" s="39" t="n">
-        <v>74.3</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="W72" s="39" t="n">
-        <v>76.8</v>
+        <v>86</v>
       </c>
       <c r="X72" s="39" t="n">
-        <v>64.09999999999999</v>
+        <v>60.3</v>
       </c>
       <c r="Y72" s="39" t="inlineStr">
         <is>
-          <t>恒生国企ETF</t>
+          <t>红利低波ETF</t>
         </is>
       </c>
     </row>
@@ -17871,79 +17869,79 @@
         <v>71</v>
       </c>
       <c r="B73" s="39" t="n">
-        <v>562500</v>
+        <v>513360</v>
       </c>
       <c r="C73" s="39" t="inlineStr">
         <is>
-          <t>机器人ETF</t>
+          <t>教育ETF</t>
         </is>
       </c>
       <c r="D73" s="39" t="n">
-        <v>133.75</v>
+        <v>6.39</v>
       </c>
       <c r="E73" s="39" t="n">
-        <v>3.5</v>
+        <v>11.7</v>
       </c>
       <c r="F73" s="39" t="n">
-        <v>53.8</v>
+        <v>9.6</v>
       </c>
       <c r="G73" s="39" t="n">
-        <v>17.4</v>
+        <v>4.7</v>
       </c>
       <c r="H73" s="39" t="n">
-        <v>2.5</v>
+        <v>0.2</v>
       </c>
       <c r="I73" s="39" t="n">
-        <v>1.4</v>
+        <v>0.2</v>
       </c>
       <c r="J73" s="39" t="n">
-        <v>31</v>
+        <v>4.4</v>
       </c>
       <c r="K73" s="39" t="n">
-        <v>59.8</v>
+        <v>43.1</v>
       </c>
       <c r="L73" s="39" t="n">
-        <v>73.59999999999999</v>
+        <v>62.3</v>
       </c>
       <c r="M73" s="39" t="n">
-        <v>75.8</v>
+        <v>70.3</v>
       </c>
       <c r="N73" s="39" t="n">
-        <v>53.4</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="O73" s="39" t="n">
-        <v>25.9</v>
+        <v>31.8</v>
       </c>
       <c r="P73" s="39" t="n">
-        <v>19.3</v>
+        <v>72</v>
       </c>
       <c r="Q73" s="39" t="n">
-        <v>19.3</v>
+        <v>60.2</v>
       </c>
       <c r="R73" s="39" t="n">
-        <v>90.09999999999999</v>
+        <v>89</v>
       </c>
       <c r="S73" s="39" t="n">
-        <v>56.9</v>
+        <v>90.7</v>
       </c>
       <c r="T73" s="39" t="n">
-        <v>88.5</v>
+        <v>98.2</v>
       </c>
       <c r="U73" s="39" t="n">
-        <v>58.7</v>
+        <v>54.2</v>
       </c>
       <c r="V73" s="39" t="n">
-        <v>68.2</v>
+        <v>22.5</v>
       </c>
       <c r="W73" s="39" t="n">
-        <v>28.6</v>
+        <v>41.3</v>
       </c>
       <c r="X73" s="39" t="n">
-        <v>65.40000000000001</v>
+        <v>60.4</v>
       </c>
       <c r="Y73" s="39" t="inlineStr">
         <is>
-          <t>机器人ETF</t>
+          <t>教育ETF</t>
         </is>
       </c>
     </row>
@@ -17951,80 +17949,82 @@
       <c r="A74" s="39" t="n">
         <v>72</v>
       </c>
-      <c r="B74" s="39" t="n">
-        <v>513360</v>
+      <c r="B74" s="39" t="inlineStr">
+        <is>
+          <t>515070</t>
+        </is>
       </c>
       <c r="C74" s="39" t="inlineStr">
         <is>
-          <t>教育ETF</t>
+          <t>人工智能AIETF</t>
         </is>
       </c>
       <c r="D74" s="39" t="n">
-        <v>6.42</v>
+        <v>49.03</v>
       </c>
       <c r="E74" s="39" t="n">
-        <v>11.7</v>
+        <v>10.2</v>
       </c>
       <c r="F74" s="39" t="n">
-        <v>9.6</v>
+        <v>38.1</v>
       </c>
       <c r="G74" s="39" t="n">
-        <v>4.7</v>
+        <v>7.1</v>
       </c>
       <c r="H74" s="39" t="n">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="I74" s="39" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="J74" s="39" t="n">
-        <v>4.4</v>
+        <v>43.8</v>
       </c>
       <c r="K74" s="39" t="n">
-        <v>43.1</v>
+        <v>63.5</v>
       </c>
       <c r="L74" s="39" t="n">
-        <v>62.3</v>
+        <v>78.2</v>
       </c>
       <c r="M74" s="39" t="n">
-        <v>70.3</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="N74" s="39" t="n">
-        <v>79.09999999999999</v>
+        <v>53.9</v>
       </c>
       <c r="O74" s="39" t="n">
-        <v>31.8</v>
+        <v>34.4</v>
       </c>
       <c r="P74" s="39" t="n">
-        <v>72</v>
+        <v>54.8</v>
       </c>
       <c r="Q74" s="39" t="n">
-        <v>60.2</v>
+        <v>63.9</v>
       </c>
       <c r="R74" s="39" t="n">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="S74" s="39" t="n">
-        <v>90.7</v>
+        <v>44.8</v>
       </c>
       <c r="T74" s="39" t="n">
-        <v>98.2</v>
+        <v>70.8</v>
       </c>
       <c r="U74" s="39" t="n">
-        <v>54.2</v>
+        <v>27.6</v>
       </c>
       <c r="V74" s="39" t="n">
-        <v>22.5</v>
+        <v>55</v>
       </c>
       <c r="W74" s="39" t="n">
-        <v>41.3</v>
+        <v>47.8</v>
       </c>
       <c r="X74" s="39" t="n">
-        <v>67.5</v>
+        <v>62.6</v>
       </c>
       <c r="Y74" s="39" t="inlineStr">
         <is>
-          <t>教育ETF</t>
+          <t>人工智能AIETF</t>
         </is>
       </c>
     </row>
@@ -18033,79 +18033,79 @@
         <v>73</v>
       </c>
       <c r="B75" s="39" t="n">
-        <v>516780</v>
+        <v>562500</v>
       </c>
       <c r="C75" s="39" t="inlineStr">
         <is>
-          <t>稀土ETF</t>
+          <t>机器人ETF</t>
         </is>
       </c>
       <c r="D75" s="39" t="n">
-        <v>8.69</v>
+        <v>133.58</v>
       </c>
       <c r="E75" s="39" t="n">
-        <v>32.7</v>
+        <v>3.5</v>
       </c>
       <c r="F75" s="39" t="n">
-        <v>44.3</v>
+        <v>53.8</v>
       </c>
       <c r="G75" s="39" t="n">
-        <v>30.4</v>
+        <v>17.4</v>
       </c>
       <c r="H75" s="39" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="I75" s="39" t="n">
-        <v>25.7</v>
+        <v>1.4</v>
       </c>
       <c r="J75" s="39" t="n">
-        <v>48.8</v>
+        <v>31</v>
       </c>
       <c r="K75" s="39" t="n">
-        <v>64.5</v>
+        <v>59.8</v>
       </c>
       <c r="L75" s="39" t="n">
-        <v>64.5</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="M75" s="39" t="n">
-        <v>78</v>
+        <v>75.8</v>
       </c>
       <c r="N75" s="39" t="n">
-        <v>27.6</v>
+        <v>53.4</v>
       </c>
       <c r="O75" s="39" t="n">
-        <v>15.7</v>
+        <v>25.9</v>
       </c>
       <c r="P75" s="39" t="n">
-        <v>10.6</v>
+        <v>19.3</v>
       </c>
       <c r="Q75" s="39" t="n">
-        <v>4.2</v>
+        <v>19.3</v>
       </c>
       <c r="R75" s="39" t="n">
-        <v>69.3</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="S75" s="39" t="n">
-        <v>35.8</v>
+        <v>56.9</v>
       </c>
       <c r="T75" s="39" t="n">
-        <v>77.40000000000001</v>
+        <v>88.5</v>
       </c>
       <c r="U75" s="39" t="n">
-        <v>43</v>
+        <v>58.7</v>
       </c>
       <c r="V75" s="39" t="n">
-        <v>49.8</v>
+        <v>68.2</v>
       </c>
       <c r="W75" s="39" t="n">
-        <v>49.8</v>
+        <v>28.6</v>
       </c>
       <c r="X75" s="39" t="n">
-        <v>70.90000000000001</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="Y75" s="39" t="inlineStr">
         <is>
-          <t>稀土ETF</t>
+          <t>机器人ETF</t>
         </is>
       </c>
     </row>
@@ -18122,7 +18122,7 @@
         </is>
       </c>
       <c r="D76" s="39" t="n">
-        <v>107.78</v>
+        <v>107.34</v>
       </c>
       <c r="E76" s="39" t="n">
         <v>96.40000000000001</v>
@@ -18182,7 +18182,7 @@
         <v>33.7</v>
       </c>
       <c r="X76" s="39" t="n">
-        <v>71.40000000000001</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="Y76" s="39" t="inlineStr">
         <is>
@@ -18195,79 +18195,79 @@
         <v>75</v>
       </c>
       <c r="B77" s="39" t="n">
-        <v>512170</v>
+        <v>516780</v>
       </c>
       <c r="C77" s="39" t="inlineStr">
         <is>
-          <t>医疗ETF</t>
+          <t>稀土ETF</t>
         </is>
       </c>
       <c r="D77" s="39" t="n">
-        <v>258.44</v>
+        <v>8.69</v>
       </c>
       <c r="E77" s="39" t="n">
-        <v>71.3</v>
+        <v>32.7</v>
       </c>
       <c r="F77" s="39" t="n">
-        <v>53.4</v>
+        <v>44.3</v>
       </c>
       <c r="G77" s="39" t="n">
-        <v>23.7</v>
+        <v>30.4</v>
       </c>
       <c r="H77" s="39" t="n">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="I77" s="39" t="n">
-        <v>16.6</v>
+        <v>25.7</v>
       </c>
       <c r="J77" s="39" t="n">
-        <v>23.8</v>
+        <v>48.8</v>
       </c>
       <c r="K77" s="39" t="n">
-        <v>62.5</v>
+        <v>64.5</v>
       </c>
       <c r="L77" s="39" t="n">
-        <v>62.5</v>
+        <v>64.5</v>
       </c>
       <c r="M77" s="39" t="n">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="N77" s="39" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="O77" s="39" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="P77" s="39" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="Q77" s="39" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="R77" s="39" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="S77" s="39" t="n">
         <v>35.8</v>
       </c>
-      <c r="O77" s="39" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="P77" s="39" t="n">
-        <v>33.9</v>
-      </c>
-      <c r="Q77" s="39" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="R77" s="39" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="S77" s="39" t="n">
-        <v>74.2</v>
-      </c>
       <c r="T77" s="39" t="n">
-        <v>74.2</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="U77" s="39" t="n">
-        <v>74.2</v>
+        <v>43</v>
       </c>
       <c r="V77" s="39" t="n">
-        <v>94.3</v>
+        <v>49.8</v>
       </c>
       <c r="W77" s="39" t="n">
-        <v>16.6</v>
+        <v>49.8</v>
       </c>
       <c r="X77" s="39" t="n">
-        <v>73.90000000000001</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="Y77" s="39" t="inlineStr">
         <is>
-          <t>医疗ETF</t>
+          <t>稀土ETF</t>
         </is>
       </c>
     </row>
@@ -18275,82 +18275,80 @@
       <c r="A78" s="39" t="n">
         <v>76</v>
       </c>
-      <c r="B78" s="39" t="inlineStr">
-        <is>
-          <t>164824</t>
-        </is>
+      <c r="B78" s="39" t="n">
+        <v>512170</v>
       </c>
       <c r="C78" s="39" t="inlineStr">
         <is>
-          <t>印度基金LOF</t>
+          <t>医疗ETF</t>
         </is>
       </c>
       <c r="D78" s="39" t="n">
-        <v>23.12</v>
+        <v>258.44</v>
       </c>
       <c r="E78" s="39" t="n">
-        <v>24.8</v>
+        <v>71.3</v>
       </c>
       <c r="F78" s="39" t="n">
-        <v>57</v>
+        <v>53.4</v>
       </c>
       <c r="G78" s="39" t="n">
-        <v>26.6</v>
+        <v>23.7</v>
       </c>
       <c r="H78" s="39" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="I78" s="39" t="n">
-        <v>57</v>
+        <v>16.6</v>
       </c>
       <c r="J78" s="39" t="n">
-        <v>49.4</v>
+        <v>23.8</v>
       </c>
       <c r="K78" s="39" t="n">
-        <v>80</v>
+        <v>62.5</v>
       </c>
       <c r="L78" s="39" t="n">
-        <v>65</v>
+        <v>62.5</v>
       </c>
       <c r="M78" s="39" t="n">
-        <v>76.7</v>
+        <v>72</v>
       </c>
       <c r="N78" s="39" t="n">
-        <v>82.5</v>
+        <v>35.8</v>
       </c>
       <c r="O78" s="39" t="n">
-        <v>48.9</v>
+        <v>11.9</v>
       </c>
       <c r="P78" s="39" t="n">
-        <v>81.09999999999999</v>
+        <v>33.9</v>
       </c>
       <c r="Q78" s="39" t="n">
-        <v>90.5</v>
+        <v>22.6</v>
       </c>
       <c r="R78" s="39" t="n">
-        <v>96.2</v>
+        <v>74.2</v>
       </c>
       <c r="S78" s="39" t="n">
-        <v>66.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="T78" s="39" t="n">
-        <v>66.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="U78" s="39" t="n">
-        <v>41.3</v>
+        <v>74.2</v>
       </c>
       <c r="V78" s="39" t="n">
-        <v>9.800000000000001</v>
+        <v>94.3</v>
       </c>
       <c r="W78" s="39" t="n">
-        <v>78.09999999999999</v>
+        <v>16.6</v>
       </c>
       <c r="X78" s="39" t="n">
-        <v>75.5</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="Y78" s="39" t="inlineStr">
         <is>
-          <t>印度基金LOF</t>
+          <t>医疗ETF</t>
         </is>
       </c>
     </row>
@@ -18359,79 +18357,79 @@
         <v>77</v>
       </c>
       <c r="B79" s="39" t="n">
-        <v>159996</v>
+        <v>517800</v>
       </c>
       <c r="C79" s="39" t="inlineStr">
         <is>
-          <t>家电ETF</t>
+          <t>人工智能50ETF</t>
         </is>
       </c>
       <c r="D79" s="39" t="n">
-        <v>15.21</v>
+        <v>2.78</v>
       </c>
       <c r="E79" s="39" t="n">
-        <v>4.7</v>
+        <v>39.4</v>
       </c>
       <c r="F79" s="39" t="n">
-        <v>43.8</v>
+        <v>28.2</v>
       </c>
       <c r="G79" s="39" t="n">
-        <v>6.5</v>
+        <v>7.3</v>
       </c>
       <c r="H79" s="39" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="I79" s="39" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="J79" s="39" t="n">
-        <v>22.2</v>
+        <v>42.5</v>
       </c>
       <c r="K79" s="39" t="n">
-        <v>70</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="L79" s="39" t="n">
-        <v>71.7</v>
+        <v>72.5</v>
       </c>
       <c r="M79" s="39" t="n">
-        <v>51.4</v>
+        <v>83.7</v>
       </c>
       <c r="N79" s="39" t="n">
-        <v>71.90000000000001</v>
+        <v>61.4</v>
       </c>
       <c r="O79" s="39" t="n">
-        <v>27.7</v>
+        <v>26.3</v>
       </c>
       <c r="P79" s="39" t="n">
-        <v>27.7</v>
+        <v>56.3</v>
       </c>
       <c r="Q79" s="39" t="n">
-        <v>61.3</v>
+        <v>61.5</v>
       </c>
       <c r="R79" s="39" t="n">
-        <v>89.8</v>
+        <v>86.8</v>
       </c>
       <c r="S79" s="39" t="n">
-        <v>72.09999999999999</v>
+        <v>40.4</v>
       </c>
       <c r="T79" s="39" t="n">
-        <v>90.2</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="U79" s="39" t="n">
-        <v>70.59999999999999</v>
+        <v>32.8</v>
       </c>
       <c r="V79" s="39" t="n">
-        <v>81.40000000000001</v>
+        <v>55.8</v>
       </c>
       <c r="W79" s="39" t="n">
-        <v>52.5</v>
+        <v>65.3</v>
       </c>
       <c r="X79" s="39" t="n">
-        <v>75.59999999999999</v>
+        <v>75.7</v>
       </c>
       <c r="Y79" s="39" t="inlineStr">
         <is>
-          <t>家电ETF</t>
+          <t>人工智能50ETF</t>
         </is>
       </c>
     </row>
@@ -18439,80 +18437,82 @@
       <c r="A80" s="39" t="n">
         <v>78</v>
       </c>
-      <c r="B80" s="39" t="n">
-        <v>517800</v>
+      <c r="B80" s="39" t="inlineStr">
+        <is>
+          <t>511880</t>
+        </is>
       </c>
       <c r="C80" s="39" t="inlineStr">
         <is>
-          <t>人工智能50ETF</t>
+          <t>银华日利ETF</t>
         </is>
       </c>
       <c r="D80" s="39" t="n">
-        <v>2.78</v>
+        <v>747.37</v>
       </c>
       <c r="E80" s="39" t="n">
-        <v>39.4</v>
+        <v>89.2</v>
       </c>
       <c r="F80" s="39" t="n">
-        <v>28.2</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="G80" s="39" t="n">
-        <v>7.3</v>
+        <v>95.2</v>
       </c>
       <c r="H80" s="39" t="n">
-        <v>0.6</v>
+        <v>45</v>
       </c>
       <c r="I80" s="39" t="n">
-        <v>0.4</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="J80" s="39" t="n">
-        <v>42.5</v>
+        <v>82.3</v>
       </c>
       <c r="K80" s="39" t="n">
-        <v>65.90000000000001</v>
+        <v>87.8</v>
       </c>
       <c r="L80" s="39" t="n">
-        <v>72.5</v>
+        <v>95</v>
       </c>
       <c r="M80" s="39" t="n">
-        <v>83.7</v>
+        <v>97.7</v>
       </c>
       <c r="N80" s="39" t="n">
-        <v>61.4</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="O80" s="39" t="n">
-        <v>26.3</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="P80" s="39" t="n">
-        <v>56.3</v>
+        <v>61</v>
       </c>
       <c r="Q80" s="39" t="n">
-        <v>61.5</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="R80" s="39" t="n">
-        <v>86.8</v>
+        <v>55.9</v>
       </c>
       <c r="S80" s="39" t="n">
-        <v>40.4</v>
+        <v>79</v>
       </c>
       <c r="T80" s="39" t="n">
-        <v>76.40000000000001</v>
+        <v>79</v>
       </c>
       <c r="U80" s="39" t="n">
-        <v>32.8</v>
+        <v>94.7</v>
       </c>
       <c r="V80" s="39" t="n">
-        <v>55.8</v>
+        <v>97.7</v>
       </c>
       <c r="W80" s="39" t="n">
-        <v>65.3</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="X80" s="39" t="n">
-        <v>75.7</v>
+        <v>77.3</v>
       </c>
       <c r="Y80" s="39" t="inlineStr">
         <is>
-          <t>人工智能50ETF</t>
+          <t>银华日利ETF</t>
         </is>
       </c>
     </row>
@@ -18521,79 +18521,79 @@
         <v>79</v>
       </c>
       <c r="B81" s="39" t="n">
-        <v>515790</v>
+        <v>513290</v>
       </c>
       <c r="C81" s="39" t="inlineStr">
         <is>
-          <t>光伏ETF</t>
+          <t>纳指生物科技ETF</t>
         </is>
       </c>
       <c r="D81" s="39" t="n">
-        <v>88.8</v>
+        <v>12.61</v>
       </c>
       <c r="E81" s="39" t="n">
-        <v>40.6</v>
+        <v>2.9</v>
       </c>
       <c r="F81" s="39" t="n">
-        <v>34.8</v>
+        <v>0.8</v>
       </c>
       <c r="G81" s="39" t="n">
-        <v>11.1</v>
+        <v>0.6</v>
       </c>
       <c r="H81" s="39" t="n">
-        <v>1.5</v>
+        <v>0.1</v>
       </c>
       <c r="I81" s="39" t="n">
-        <v>1.2</v>
+        <v>44.4</v>
       </c>
       <c r="J81" s="39" t="n">
-        <v>17.1</v>
+        <v>23</v>
       </c>
       <c r="K81" s="39" t="n">
-        <v>60.5</v>
+        <v>64.5</v>
       </c>
       <c r="L81" s="39" t="n">
-        <v>64.8</v>
+        <v>40.9</v>
       </c>
       <c r="M81" s="39" t="n">
-        <v>75.5</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="N81" s="39" t="n">
-        <v>51.8</v>
+        <v>80.2</v>
       </c>
       <c r="O81" s="39" t="n">
-        <v>23</v>
+        <v>57.5</v>
       </c>
       <c r="P81" s="39" t="n">
-        <v>19.4</v>
+        <v>48.4</v>
       </c>
       <c r="Q81" s="39" t="n">
-        <v>11.9</v>
+        <v>44.8</v>
       </c>
       <c r="R81" s="39" t="n">
-        <v>59.1</v>
+        <v>22.1</v>
       </c>
       <c r="S81" s="39" t="n">
-        <v>34.5</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="T81" s="39" t="n">
-        <v>70.90000000000001</v>
+        <v>92.8</v>
       </c>
       <c r="U81" s="39" t="n">
-        <v>19.7</v>
+        <v>92.8</v>
       </c>
       <c r="V81" s="39" t="n">
-        <v>56</v>
+        <v>97.5</v>
       </c>
       <c r="W81" s="39" t="n">
-        <v>56</v>
+        <v>54.1</v>
       </c>
       <c r="X81" s="39" t="n">
-        <v>76.90000000000001</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="Y81" s="39" t="inlineStr">
         <is>
-          <t>光伏ETF</t>
+          <t>纳指生物科技ETF</t>
         </is>
       </c>
     </row>
@@ -18601,82 +18601,80 @@
       <c r="A82" s="39" t="n">
         <v>80</v>
       </c>
-      <c r="B82" s="39" t="inlineStr">
-        <is>
-          <t>511880</t>
-        </is>
+      <c r="B82" s="39" t="n">
+        <v>513180</v>
       </c>
       <c r="C82" s="39" t="inlineStr">
         <is>
-          <t>银华日利ETF</t>
+          <t>恒生科技指数ETF</t>
         </is>
       </c>
       <c r="D82" s="39" t="n">
-        <v>747.36</v>
+        <v>269.24</v>
       </c>
       <c r="E82" s="39" t="n">
-        <v>89.2</v>
+        <v>42.5</v>
       </c>
       <c r="F82" s="39" t="n">
-        <v>93.09999999999999</v>
+        <v>38.9</v>
       </c>
       <c r="G82" s="39" t="n">
-        <v>95.2</v>
+        <v>11</v>
       </c>
       <c r="H82" s="39" t="n">
-        <v>45</v>
+        <v>1.4</v>
       </c>
       <c r="I82" s="39" t="n">
-        <v>71.59999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="J82" s="39" t="n">
-        <v>82.3</v>
+        <v>31.7</v>
       </c>
       <c r="K82" s="39" t="n">
-        <v>87.8</v>
+        <v>64</v>
       </c>
       <c r="L82" s="39" t="n">
-        <v>95</v>
+        <v>76.5</v>
       </c>
       <c r="M82" s="39" t="n">
-        <v>97.7</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="N82" s="39" t="n">
-        <v>99.09999999999999</v>
+        <v>64.3</v>
       </c>
       <c r="O82" s="39" t="n">
-        <v>99.40000000000001</v>
+        <v>19.4</v>
       </c>
       <c r="P82" s="39" t="n">
-        <v>61</v>
+        <v>45.9</v>
       </c>
       <c r="Q82" s="39" t="n">
-        <v>83.40000000000001</v>
+        <v>31.2</v>
       </c>
       <c r="R82" s="39" t="n">
-        <v>55.9</v>
+        <v>63.7</v>
       </c>
       <c r="S82" s="39" t="n">
-        <v>79</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="T82" s="39" t="n">
-        <v>79</v>
+        <v>94.8</v>
       </c>
       <c r="U82" s="39" t="n">
-        <v>94.7</v>
+        <v>45.4</v>
       </c>
       <c r="V82" s="39" t="n">
-        <v>97.7</v>
+        <v>65.8</v>
       </c>
       <c r="W82" s="39" t="n">
-        <v>71.09999999999999</v>
+        <v>60.1</v>
       </c>
       <c r="X82" s="39" t="n">
-        <v>77.3</v>
+        <v>78.5</v>
       </c>
       <c r="Y82" s="39" t="inlineStr">
         <is>
-          <t>银华日利ETF</t>
+          <t>恒生科技指数ETF</t>
         </is>
       </c>
     </row>
@@ -18685,79 +18683,79 @@
         <v>81</v>
       </c>
       <c r="B83" s="39" t="n">
-        <v>513330</v>
+        <v>159992</v>
       </c>
       <c r="C83" s="39" t="inlineStr">
         <is>
-          <t>恒生互联网ETF</t>
+          <t>创新药ETF</t>
         </is>
       </c>
       <c r="D83" s="39" t="n">
-        <v>239.02</v>
+        <v>117.41</v>
       </c>
       <c r="E83" s="39" t="n">
-        <v>57.8</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="F83" s="39" t="n">
-        <v>65.3</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="G83" s="39" t="n">
-        <v>22.1</v>
+        <v>58</v>
       </c>
       <c r="H83" s="39" t="n">
-        <v>3.2</v>
+        <v>5.1</v>
       </c>
       <c r="I83" s="39" t="n">
-        <v>2.1</v>
+        <v>22</v>
       </c>
       <c r="J83" s="39" t="n">
-        <v>20.2</v>
+        <v>17.2</v>
       </c>
       <c r="K83" s="39" t="n">
-        <v>60.7</v>
+        <v>60.8</v>
       </c>
       <c r="L83" s="39" t="n">
-        <v>69.59999999999999</v>
+        <v>71</v>
       </c>
       <c r="M83" s="39" t="n">
-        <v>81.8</v>
+        <v>83.7</v>
       </c>
       <c r="N83" s="39" t="n">
-        <v>84</v>
+        <v>60.2</v>
       </c>
       <c r="O83" s="39" t="n">
-        <v>18.4</v>
+        <v>32.7</v>
       </c>
       <c r="P83" s="39" t="n">
-        <v>42.4</v>
+        <v>22.5</v>
       </c>
       <c r="Q83" s="39" t="n">
-        <v>29.4</v>
+        <v>22.5</v>
       </c>
       <c r="R83" s="39" t="n">
-        <v>61.1</v>
+        <v>86.2</v>
       </c>
       <c r="S83" s="39" t="n">
-        <v>42.2</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="T83" s="39" t="n">
-        <v>88.5</v>
+        <v>51.4</v>
       </c>
       <c r="U83" s="39" t="n">
-        <v>39.6</v>
+        <v>72.7</v>
       </c>
       <c r="V83" s="39" t="n">
-        <v>66</v>
+        <v>38.7</v>
       </c>
       <c r="W83" s="39" t="n">
-        <v>66</v>
+        <v>38.7</v>
       </c>
       <c r="X83" s="39" t="n">
-        <v>77.3</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="Y83" s="39" t="inlineStr">
         <is>
-          <t>恒生互联网ETF</t>
+          <t>创新药ETF</t>
         </is>
       </c>
     </row>
@@ -18765,80 +18763,82 @@
       <c r="A84" s="39" t="n">
         <v>82</v>
       </c>
-      <c r="B84" s="39" t="n">
-        <v>513180</v>
+      <c r="B84" s="39" t="inlineStr">
+        <is>
+          <t>164824</t>
+        </is>
       </c>
       <c r="C84" s="39" t="inlineStr">
         <is>
-          <t>恒生科技指数ETF</t>
+          <t>印度基金LOF</t>
         </is>
       </c>
       <c r="D84" s="39" t="n">
-        <v>269.24</v>
+        <v>23.15</v>
       </c>
       <c r="E84" s="39" t="n">
-        <v>42.5</v>
+        <v>24.8</v>
       </c>
       <c r="F84" s="39" t="n">
-        <v>38.9</v>
+        <v>57</v>
       </c>
       <c r="G84" s="39" t="n">
-        <v>11</v>
+        <v>26.6</v>
       </c>
       <c r="H84" s="39" t="n">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="I84" s="39" t="n">
-        <v>0.8</v>
+        <v>57</v>
       </c>
       <c r="J84" s="39" t="n">
-        <v>31.7</v>
+        <v>49.4</v>
       </c>
       <c r="K84" s="39" t="n">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="L84" s="39" t="n">
-        <v>76.5</v>
+        <v>65</v>
       </c>
       <c r="M84" s="39" t="n">
-        <v>83.59999999999999</v>
+        <v>76.7</v>
       </c>
       <c r="N84" s="39" t="n">
-        <v>64.3</v>
+        <v>82.5</v>
       </c>
       <c r="O84" s="39" t="n">
-        <v>19.4</v>
+        <v>48.9</v>
       </c>
       <c r="P84" s="39" t="n">
-        <v>45.9</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="Q84" s="39" t="n">
-        <v>31.2</v>
+        <v>90.5</v>
       </c>
       <c r="R84" s="39" t="n">
-        <v>63.7</v>
+        <v>96.2</v>
       </c>
       <c r="S84" s="39" t="n">
-        <v>71.40000000000001</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="T84" s="39" t="n">
-        <v>94.8</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="U84" s="39" t="n">
-        <v>45.4</v>
+        <v>41.3</v>
       </c>
       <c r="V84" s="39" t="n">
-        <v>65.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="W84" s="39" t="n">
-        <v>60.1</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="X84" s="39" t="n">
-        <v>78.5</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="Y84" s="39" t="inlineStr">
         <is>
-          <t>恒生科技指数ETF</t>
+          <t>印度基金LOF</t>
         </is>
       </c>
     </row>
@@ -18847,79 +18847,79 @@
         <v>83</v>
       </c>
       <c r="B85" s="39" t="n">
-        <v>513290</v>
+        <v>159792</v>
       </c>
       <c r="C85" s="39" t="inlineStr">
         <is>
-          <t>纳指生物科技ETF</t>
+          <t>港股通互联网ETF</t>
         </is>
       </c>
       <c r="D85" s="39" t="n">
-        <v>12.61</v>
+        <v>465.32</v>
       </c>
       <c r="E85" s="39" t="n">
-        <v>2.9</v>
+        <v>29.7</v>
       </c>
       <c r="F85" s="39" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="G85" s="39" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="H85" s="39" t="n">
         <v>0.8</v>
       </c>
-      <c r="G85" s="39" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H85" s="39" t="n">
-        <v>0.1</v>
-      </c>
       <c r="I85" s="39" t="n">
-        <v>44.4</v>
+        <v>0.5</v>
       </c>
       <c r="J85" s="39" t="n">
-        <v>23</v>
+        <v>35.1</v>
       </c>
       <c r="K85" s="39" t="n">
-        <v>64.5</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="L85" s="39" t="n">
-        <v>40.9</v>
+        <v>72.5</v>
       </c>
       <c r="M85" s="39" t="n">
-        <v>65.40000000000001</v>
+        <v>76.5</v>
       </c>
       <c r="N85" s="39" t="n">
-        <v>80.2</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="O85" s="39" t="n">
-        <v>57.5</v>
+        <v>11.6</v>
       </c>
       <c r="P85" s="39" t="n">
-        <v>48.4</v>
+        <v>34.6</v>
       </c>
       <c r="Q85" s="39" t="n">
-        <v>44.8</v>
+        <v>29.5</v>
       </c>
       <c r="R85" s="39" t="n">
-        <v>22.1</v>
+        <v>65.3</v>
       </c>
       <c r="S85" s="39" t="n">
-        <v>71.59999999999999</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="T85" s="39" t="n">
-        <v>92.8</v>
+        <v>96.7</v>
       </c>
       <c r="U85" s="39" t="n">
-        <v>92.8</v>
+        <v>56.4</v>
       </c>
       <c r="V85" s="39" t="n">
-        <v>97.5</v>
+        <v>71.2</v>
       </c>
       <c r="W85" s="39" t="n">
-        <v>54.1</v>
+        <v>77</v>
       </c>
       <c r="X85" s="39" t="n">
-        <v>78.5</v>
+        <v>79.8</v>
       </c>
       <c r="Y85" s="39" t="inlineStr">
         <is>
-          <t>纳指生物科技ETF</t>
+          <t>港股通互联网ETF</t>
         </is>
       </c>
     </row>
@@ -18928,79 +18928,79 @@
         <v>84</v>
       </c>
       <c r="B86" s="39" t="n">
-        <v>159992</v>
+        <v>513050</v>
       </c>
       <c r="C86" s="39" t="inlineStr">
         <is>
-          <t>创新药ETF</t>
+          <t>中概互联网ETF</t>
         </is>
       </c>
       <c r="D86" s="39" t="n">
-        <v>117.25</v>
+        <v>346.95</v>
       </c>
       <c r="E86" s="39" t="n">
-        <v>92.59999999999999</v>
+        <v>45.4</v>
       </c>
       <c r="F86" s="39" t="n">
-        <v>67.09999999999999</v>
+        <v>31.8</v>
       </c>
       <c r="G86" s="39" t="n">
-        <v>58</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H86" s="39" t="n">
-        <v>5.1</v>
+        <v>1.3</v>
       </c>
       <c r="I86" s="39" t="n">
-        <v>22</v>
+        <v>0.9</v>
       </c>
       <c r="J86" s="39" t="n">
-        <v>17.2</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="K86" s="39" t="n">
-        <v>60.8</v>
+        <v>56.6</v>
       </c>
       <c r="L86" s="39" t="n">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="M86" s="39" t="n">
-        <v>83.7</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="N86" s="39" t="n">
-        <v>60.2</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="O86" s="39" t="n">
-        <v>32.7</v>
+        <v>23.7</v>
       </c>
       <c r="P86" s="39" t="n">
-        <v>22.5</v>
+        <v>56.2</v>
       </c>
       <c r="Q86" s="39" t="n">
-        <v>22.5</v>
+        <v>39.4</v>
       </c>
       <c r="R86" s="39" t="n">
-        <v>86.2</v>
+        <v>60.4</v>
       </c>
       <c r="S86" s="39" t="n">
-        <v>94.40000000000001</v>
+        <v>79.7</v>
       </c>
       <c r="T86" s="39" t="n">
-        <v>51.4</v>
+        <v>96.3</v>
       </c>
       <c r="U86" s="39" t="n">
-        <v>72.7</v>
+        <v>52.1</v>
       </c>
       <c r="V86" s="39" t="n">
-        <v>38.7</v>
+        <v>75.5</v>
       </c>
       <c r="W86" s="39" t="n">
-        <v>38.7</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="X86" s="39" t="n">
-        <v>78.59999999999999</v>
+        <v>79.8</v>
       </c>
       <c r="Y86" s="39" t="inlineStr">
         <is>
-          <t>创新药ETF</t>
+          <t>中概互联网ETF</t>
         </is>
       </c>
     </row>
@@ -19009,79 +19009,79 @@
         <v>85</v>
       </c>
       <c r="B87" s="39" t="n">
-        <v>513050</v>
+        <v>159996</v>
       </c>
       <c r="C87" s="39" t="inlineStr">
         <is>
-          <t>中概互联网ETF</t>
+          <t>家电ETF</t>
         </is>
       </c>
       <c r="D87" s="39" t="n">
-        <v>347.47</v>
+        <v>15.23</v>
       </c>
       <c r="E87" s="39" t="n">
-        <v>45.4</v>
+        <v>4.7</v>
       </c>
       <c r="F87" s="39" t="n">
-        <v>31.8</v>
+        <v>43.8</v>
       </c>
       <c r="G87" s="39" t="n">
-        <v>8.800000000000001</v>
+        <v>6.5</v>
       </c>
       <c r="H87" s="39" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="I87" s="39" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="J87" s="39" t="n">
-        <v>8.300000000000001</v>
+        <v>22.2</v>
       </c>
       <c r="K87" s="39" t="n">
-        <v>56.6</v>
+        <v>70</v>
       </c>
       <c r="L87" s="39" t="n">
-        <v>45</v>
+        <v>71.7</v>
       </c>
       <c r="M87" s="39" t="n">
-        <v>68.09999999999999</v>
+        <v>51.4</v>
       </c>
       <c r="N87" s="39" t="n">
-        <v>79.09999999999999</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="O87" s="39" t="n">
-        <v>23.7</v>
+        <v>27.7</v>
       </c>
       <c r="P87" s="39" t="n">
-        <v>56.2</v>
+        <v>27.7</v>
       </c>
       <c r="Q87" s="39" t="n">
-        <v>39.4</v>
+        <v>61.3</v>
       </c>
       <c r="R87" s="39" t="n">
-        <v>60.4</v>
+        <v>89.8</v>
       </c>
       <c r="S87" s="39" t="n">
-        <v>79.7</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="T87" s="39" t="n">
-        <v>96.3</v>
+        <v>90.2</v>
       </c>
       <c r="U87" s="39" t="n">
-        <v>52.1</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="V87" s="39" t="n">
-        <v>75.5</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="W87" s="39" t="n">
-        <v>77.09999999999999</v>
+        <v>52.5</v>
       </c>
       <c r="X87" s="39" t="n">
-        <v>81</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="Y87" s="39" t="inlineStr">
         <is>
-          <t>中概互联网ETF</t>
+          <t>家电ETF</t>
         </is>
       </c>
     </row>
@@ -19090,79 +19090,79 @@
         <v>86</v>
       </c>
       <c r="B88" s="39" t="n">
-        <v>159859</v>
+        <v>513330</v>
       </c>
       <c r="C88" s="39" t="inlineStr">
         <is>
-          <t>生物医药ETF</t>
+          <t>恒生互联网ETF</t>
         </is>
       </c>
       <c r="D88" s="39" t="n">
-        <v>34.38</v>
+        <v>238.5</v>
       </c>
       <c r="E88" s="39" t="n">
-        <v>77.7</v>
+        <v>57.8</v>
       </c>
       <c r="F88" s="39" t="n">
-        <v>46.3</v>
+        <v>65.3</v>
       </c>
       <c r="G88" s="39" t="n">
-        <v>36.5</v>
+        <v>22.1</v>
       </c>
       <c r="H88" s="39" t="n">
-        <v>4.7</v>
+        <v>3.2</v>
       </c>
       <c r="I88" s="39" t="n">
-        <v>25.1</v>
+        <v>2.1</v>
       </c>
       <c r="J88" s="39" t="n">
-        <v>25.1</v>
+        <v>20.2</v>
       </c>
       <c r="K88" s="39" t="n">
-        <v>63.1</v>
+        <v>60.7</v>
       </c>
       <c r="L88" s="39" t="n">
-        <v>53.9</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="M88" s="39" t="n">
-        <v>70.8</v>
+        <v>81.8</v>
       </c>
       <c r="N88" s="39" t="n">
-        <v>40.9</v>
+        <v>84</v>
       </c>
       <c r="O88" s="39" t="n">
-        <v>10.3</v>
+        <v>18.4</v>
       </c>
       <c r="P88" s="39" t="n">
-        <v>10.3</v>
+        <v>42.4</v>
       </c>
       <c r="Q88" s="39" t="n">
-        <v>10.3</v>
+        <v>29.4</v>
       </c>
       <c r="R88" s="39" t="n">
-        <v>51.6</v>
+        <v>61.1</v>
       </c>
       <c r="S88" s="39" t="n">
-        <v>18.2</v>
+        <v>42.2</v>
       </c>
       <c r="T88" s="39" t="n">
-        <v>18.2</v>
+        <v>88.5</v>
       </c>
       <c r="U88" s="39" t="n">
-        <v>64.40000000000001</v>
+        <v>39.6</v>
       </c>
       <c r="V88" s="39" t="n">
-        <v>89.09999999999999</v>
+        <v>66</v>
       </c>
       <c r="W88" s="39" t="n">
-        <v>52.6</v>
+        <v>66</v>
       </c>
       <c r="X88" s="39" t="n">
-        <v>82</v>
+        <v>80.5</v>
       </c>
       <c r="Y88" s="39" t="inlineStr">
         <is>
-          <t>生物医药ETF</t>
+          <t>恒生互联网ETF</t>
         </is>
       </c>
     </row>
@@ -19254,79 +19254,79 @@
         <v>88</v>
       </c>
       <c r="B90" s="39" t="n">
-        <v>512980</v>
+        <v>159869</v>
       </c>
       <c r="C90" s="39" t="inlineStr">
         <is>
-          <t>传媒ETF</t>
+          <t>游戏ETF</t>
         </is>
       </c>
       <c r="D90" s="39" t="n">
-        <v>26.58</v>
+        <v>67.09</v>
       </c>
       <c r="E90" s="39" t="n">
-        <v>10.4</v>
+        <v>8.9</v>
       </c>
       <c r="F90" s="39" t="n">
-        <v>58.7</v>
+        <v>40.4</v>
       </c>
       <c r="G90" s="39" t="n">
-        <v>49.8</v>
+        <v>40.4</v>
       </c>
       <c r="H90" s="39" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="I90" s="39" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="J90" s="39" t="n">
-        <v>45.9</v>
+        <v>42.5</v>
       </c>
       <c r="K90" s="39" t="n">
-        <v>74.09999999999999</v>
+        <v>62.4</v>
       </c>
       <c r="L90" s="39" t="n">
-        <v>65.2</v>
+        <v>60.3</v>
       </c>
       <c r="M90" s="39" t="n">
-        <v>78.8</v>
+        <v>80.8</v>
       </c>
       <c r="N90" s="39" t="n">
-        <v>84.7</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="O90" s="39" t="n">
-        <v>59.6</v>
+        <v>42.6</v>
       </c>
       <c r="P90" s="39" t="n">
-        <v>33.3</v>
+        <v>50.5</v>
       </c>
       <c r="Q90" s="39" t="n">
-        <v>75.90000000000001</v>
+        <v>83</v>
       </c>
       <c r="R90" s="39" t="n">
-        <v>93.2</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="S90" s="39" t="n">
-        <v>51.5</v>
+        <v>51.4</v>
       </c>
       <c r="T90" s="39" t="n">
-        <v>39.7</v>
+        <v>60.1</v>
       </c>
       <c r="U90" s="39" t="n">
-        <v>13.3</v>
+        <v>20.9</v>
       </c>
       <c r="V90" s="39" t="n">
-        <v>33.7</v>
+        <v>36.6</v>
       </c>
       <c r="W90" s="39" t="n">
-        <v>33.7</v>
+        <v>73.5</v>
       </c>
       <c r="X90" s="39" t="n">
-        <v>83.90000000000001</v>
+        <v>85.5</v>
       </c>
       <c r="Y90" s="39" t="inlineStr">
         <is>
-          <t>传媒ETF</t>
+          <t>游戏ETF</t>
         </is>
       </c>
     </row>
@@ -19335,79 +19335,79 @@
         <v>89</v>
       </c>
       <c r="B91" s="39" t="n">
-        <v>159792</v>
+        <v>159859</v>
       </c>
       <c r="C91" s="39" t="inlineStr">
         <is>
-          <t>港股通互联网ETF</t>
+          <t>生物医药ETF</t>
         </is>
       </c>
       <c r="D91" s="39" t="n">
-        <v>467.04</v>
+        <v>34.38</v>
       </c>
       <c r="E91" s="39" t="n">
-        <v>29.7</v>
+        <v>77.7</v>
       </c>
       <c r="F91" s="39" t="n">
-        <v>22.9</v>
+        <v>46.3</v>
       </c>
       <c r="G91" s="39" t="n">
-        <v>9.1</v>
+        <v>36.5</v>
       </c>
       <c r="H91" s="39" t="n">
-        <v>0.8</v>
+        <v>4.7</v>
       </c>
       <c r="I91" s="39" t="n">
-        <v>0.5</v>
+        <v>25.1</v>
       </c>
       <c r="J91" s="39" t="n">
-        <v>35.1</v>
+        <v>25.1</v>
       </c>
       <c r="K91" s="39" t="n">
-        <v>66.90000000000001</v>
+        <v>63.1</v>
       </c>
       <c r="L91" s="39" t="n">
-        <v>72.5</v>
+        <v>53.9</v>
       </c>
       <c r="M91" s="39" t="n">
-        <v>76.5</v>
+        <v>70.8</v>
       </c>
       <c r="N91" s="39" t="n">
-        <v>64.09999999999999</v>
+        <v>40.9</v>
       </c>
       <c r="O91" s="39" t="n">
-        <v>11.6</v>
+        <v>10.3</v>
       </c>
       <c r="P91" s="39" t="n">
-        <v>34.6</v>
+        <v>10.3</v>
       </c>
       <c r="Q91" s="39" t="n">
-        <v>29.5</v>
+        <v>10.3</v>
       </c>
       <c r="R91" s="39" t="n">
-        <v>65.3</v>
+        <v>51.6</v>
       </c>
       <c r="S91" s="39" t="n">
-        <v>85.90000000000001</v>
+        <v>18.2</v>
       </c>
       <c r="T91" s="39" t="n">
-        <v>96.7</v>
+        <v>18.2</v>
       </c>
       <c r="U91" s="39" t="n">
-        <v>56.4</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="V91" s="39" t="n">
-        <v>71.2</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="W91" s="39" t="n">
-        <v>77</v>
+        <v>52.6</v>
       </c>
       <c r="X91" s="39" t="n">
-        <v>85.09999999999999</v>
+        <v>86.3</v>
       </c>
       <c r="Y91" s="39" t="inlineStr">
         <is>
-          <t>港股通互联网ETF</t>
+          <t>生物医药ETF</t>
         </is>
       </c>
     </row>
@@ -19415,80 +19415,82 @@
       <c r="A92" s="39" t="n">
         <v>90</v>
       </c>
-      <c r="B92" s="39" t="n">
-        <v>159869</v>
+      <c r="B92" s="39" t="inlineStr">
+        <is>
+          <t>159509</t>
+        </is>
       </c>
       <c r="C92" s="39" t="inlineStr">
         <is>
-          <t>游戏ETF</t>
+          <t>纳指科技ETF</t>
         </is>
       </c>
       <c r="D92" s="39" t="n">
-        <v>67.15000000000001</v>
+        <v>88.84999999999999</v>
       </c>
       <c r="E92" s="39" t="n">
-        <v>8.9</v>
+        <v>45.2</v>
       </c>
       <c r="F92" s="39" t="n">
-        <v>40.4</v>
+        <v>64.8</v>
       </c>
       <c r="G92" s="39" t="n">
-        <v>40.4</v>
+        <v>27</v>
       </c>
       <c r="H92" s="39" t="n">
-        <v>0.8</v>
+        <v>5.3</v>
       </c>
       <c r="I92" s="39" t="n">
-        <v>0.5</v>
+        <v>27.4</v>
       </c>
       <c r="J92" s="39" t="n">
-        <v>42.5</v>
+        <v>24.8</v>
       </c>
       <c r="K92" s="39" t="n">
-        <v>62.4</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="L92" s="39" t="n">
-        <v>60.3</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="M92" s="39" t="n">
-        <v>80.8</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="N92" s="39" t="n">
-        <v>87.90000000000001</v>
+        <v>52.2</v>
       </c>
       <c r="O92" s="39" t="n">
-        <v>42.6</v>
+        <v>23.6</v>
       </c>
       <c r="P92" s="39" t="n">
-        <v>50.5</v>
+        <v>40</v>
       </c>
       <c r="Q92" s="39" t="n">
-        <v>83</v>
+        <v>24.4</v>
       </c>
       <c r="R92" s="39" t="n">
-        <v>95.40000000000001</v>
+        <v>17.8</v>
       </c>
       <c r="S92" s="39" t="n">
-        <v>51.4</v>
+        <v>23.7</v>
       </c>
       <c r="T92" s="39" t="n">
-        <v>60.1</v>
+        <v>90.7</v>
       </c>
       <c r="U92" s="39" t="n">
-        <v>20.9</v>
+        <v>47.9</v>
       </c>
       <c r="V92" s="39" t="n">
-        <v>36.6</v>
+        <v>81.3</v>
       </c>
       <c r="W92" s="39" t="n">
-        <v>73.5</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="X92" s="39" t="n">
-        <v>85.5</v>
+        <v>86.5</v>
       </c>
       <c r="Y92" s="39" t="inlineStr">
         <is>
-          <t>游戏ETF</t>
+          <t>纳指科技ETF</t>
         </is>
       </c>
     </row>
@@ -19496,82 +19498,80 @@
       <c r="A93" s="39" t="n">
         <v>91</v>
       </c>
-      <c r="B93" s="39" t="inlineStr">
-        <is>
-          <t>159509</t>
-        </is>
+      <c r="B93" s="39" t="n">
+        <v>512980</v>
       </c>
       <c r="C93" s="39" t="inlineStr">
         <is>
-          <t>纳指科技ETF</t>
+          <t>传媒ETF</t>
         </is>
       </c>
       <c r="D93" s="39" t="n">
-        <v>88.98</v>
+        <v>26.69</v>
       </c>
       <c r="E93" s="39" t="n">
-        <v>45.2</v>
+        <v>10.4</v>
       </c>
       <c r="F93" s="39" t="n">
-        <v>64.8</v>
+        <v>58.7</v>
       </c>
       <c r="G93" s="39" t="n">
-        <v>27</v>
+        <v>49.8</v>
       </c>
       <c r="H93" s="39" t="n">
-        <v>5.3</v>
+        <v>1.9</v>
       </c>
       <c r="I93" s="39" t="n">
-        <v>27.4</v>
+        <v>1.8</v>
       </c>
       <c r="J93" s="39" t="n">
-        <v>24.8</v>
+        <v>45.9</v>
       </c>
       <c r="K93" s="39" t="n">
-        <v>85.09999999999999</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="L93" s="39" t="n">
-        <v>71.40000000000001</v>
+        <v>65.2</v>
       </c>
       <c r="M93" s="39" t="n">
-        <v>83.90000000000001</v>
+        <v>78.8</v>
       </c>
       <c r="N93" s="39" t="n">
-        <v>52.2</v>
+        <v>84.7</v>
       </c>
       <c r="O93" s="39" t="n">
-        <v>23.6</v>
+        <v>59.6</v>
       </c>
       <c r="P93" s="39" t="n">
-        <v>40</v>
+        <v>33.3</v>
       </c>
       <c r="Q93" s="39" t="n">
-        <v>24.4</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="R93" s="39" t="n">
-        <v>17.8</v>
+        <v>93.2</v>
       </c>
       <c r="S93" s="39" t="n">
-        <v>23.7</v>
+        <v>51.5</v>
       </c>
       <c r="T93" s="39" t="n">
-        <v>90.7</v>
+        <v>39.7</v>
       </c>
       <c r="U93" s="39" t="n">
-        <v>47.9</v>
+        <v>13.3</v>
       </c>
       <c r="V93" s="39" t="n">
-        <v>81.3</v>
+        <v>33.7</v>
       </c>
       <c r="W93" s="39" t="n">
-        <v>83.40000000000001</v>
+        <v>33.7</v>
       </c>
       <c r="X93" s="39" t="n">
-        <v>87.5</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="Y93" s="39" t="inlineStr">
         <is>
-          <t>纳指科技ETF</t>
+          <t>传媒ETF</t>
         </is>
       </c>
     </row>
@@ -19588,7 +19588,7 @@
         </is>
       </c>
       <c r="D94" s="39" t="n">
-        <v>17.63</v>
+        <v>17.61</v>
       </c>
       <c r="E94" s="39" t="n">
         <v>62.8</v>
@@ -19648,7 +19648,7 @@
         <v>86</v>
       </c>
       <c r="X94" s="39" t="n">
-        <v>90.7</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="Y94" s="39" t="inlineStr">
         <is>
@@ -19669,7 +19669,7 @@
         </is>
       </c>
       <c r="D95" s="39" t="n">
-        <v>240</v>
+        <v>239.79</v>
       </c>
       <c r="E95" s="39" t="n">
         <v>41.7</v>
@@ -19729,7 +19729,7 @@
         <v>85.59999999999999</v>
       </c>
       <c r="X95" s="39" t="n">
-        <v>90.90000000000001</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="Y95" s="39" t="inlineStr">
         <is>
@@ -19750,7 +19750,7 @@
         </is>
       </c>
       <c r="D96" s="39" t="n">
-        <v>178.28</v>
+        <v>178</v>
       </c>
       <c r="E96" s="39" t="n">
         <v>45.7</v>
@@ -19810,7 +19810,7 @@
         <v>91.5</v>
       </c>
       <c r="X96" s="39" t="n">
-        <v>92.59999999999999</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="Y96" s="39" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         <v>90.09999999999999</v>
       </c>
       <c r="X97" s="39" t="n">
-        <v>94.09999999999999</v>
+        <v>93.7</v>
       </c>
       <c r="Y97" s="39" t="inlineStr">
         <is>
@@ -19912,7 +19912,7 @@
         </is>
       </c>
       <c r="D98" s="39" t="n">
-        <v>17.06</v>
+        <v>17.05</v>
       </c>
       <c r="E98" s="39" t="n">
         <v>56.8</v>
@@ -19993,7 +19993,7 @@
         </is>
       </c>
       <c r="D99" s="39" t="n">
-        <v>8.9</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="E99" s="39" t="n">
         <v>20.3</v>
@@ -20053,7 +20053,7 @@
         <v>94.8</v>
       </c>
       <c r="X99" s="39" t="n">
-        <v>96.5</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="Y99" s="39" t="inlineStr">
         <is>
@@ -20134,7 +20134,7 @@
         <v>94.3</v>
       </c>
       <c r="X100" s="39" t="n">
-        <v>97.3</v>
+        <v>97.2</v>
       </c>
       <c r="Y100" s="39" t="inlineStr">
         <is>

--- a/fund_list.xlsx
+++ b/fund_list.xlsx
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="D2" s="39" t="n">
-        <v>2373</v>
+        <v>3111.03</v>
       </c>
       <c r="E2" s="41" t="n">
         <v>0.05</v>
@@ -1602,7 +1602,7 @@
         <v>-0.05</v>
       </c>
       <c r="X2" s="40" t="n">
-        <v>-0.09</v>
+        <v>-0.08</v>
       </c>
       <c r="Y2" s="39" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         </is>
       </c>
       <c r="D3" s="39" t="n">
-        <v>120.98</v>
+        <v>159.91</v>
       </c>
       <c r="E3" s="41" t="n">
         <v>-0.16</v>
@@ -1685,7 +1685,7 @@
         <v>0.1</v>
       </c>
       <c r="X3" s="42" t="n">
-        <v>0.82</v>
+        <v>0.96</v>
       </c>
       <c r="Y3" s="39" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="D4" s="39" t="n">
-        <v>3055.08</v>
+        <v>4029.27</v>
       </c>
       <c r="E4" s="41" t="n">
         <v>0.09</v>
@@ -1768,7 +1768,7 @@
         <v>-0.05</v>
       </c>
       <c r="X4" s="42" t="n">
-        <v>0.66</v>
+        <v>0.73</v>
       </c>
       <c r="Y4" s="39" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         </is>
       </c>
       <c r="D5" s="39" t="n">
-        <v>1315.34</v>
+        <v>1752.45</v>
       </c>
       <c r="E5" s="41" t="n">
         <v>0.13</v>
@@ -1851,7 +1851,7 @@
         <v>-0.13</v>
       </c>
       <c r="X5" s="42" t="n">
-        <v>0.88</v>
+        <v>1.01</v>
       </c>
       <c r="Y5" s="39" t="inlineStr">
         <is>
@@ -1874,7 +1874,7 @@
         </is>
       </c>
       <c r="D6" s="39" t="n">
-        <v>346.2</v>
+        <v>456.91</v>
       </c>
       <c r="E6" s="40" t="n">
         <v>-0.15</v>
@@ -1934,7 +1934,7 @@
         <v>-0.22</v>
       </c>
       <c r="X6" s="40" t="n">
-        <v>-0.24</v>
+        <v>-0.26</v>
       </c>
       <c r="Y6" s="39" t="inlineStr">
         <is>
@@ -1957,7 +1957,7 @@
         </is>
       </c>
       <c r="D7" s="39" t="n">
-        <v>1127.22</v>
+        <v>1506.22</v>
       </c>
       <c r="E7" s="40" t="n">
         <v>-0.08</v>
@@ -2017,7 +2017,7 @@
         <v>-0.17</v>
       </c>
       <c r="X7" s="40" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Y7" s="39" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         </is>
       </c>
       <c r="D8" s="39" t="n">
-        <v>818.16</v>
+        <v>1088.4</v>
       </c>
       <c r="E8" s="41" t="n">
         <v>0.11</v>
@@ -2100,7 +2100,7 @@
         <v>0.12</v>
       </c>
       <c r="X8" s="42" t="n">
-        <v>0.6</v>
+        <v>0.68</v>
       </c>
       <c r="Y8" s="39" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         </is>
       </c>
       <c r="D9" s="39" t="n">
-        <v>1945.39</v>
+        <v>2594.62</v>
       </c>
       <c r="E9" s="41" t="n">
         <v>-0.03</v>
@@ -2183,7 +2183,7 @@
         <v>-0.1</v>
       </c>
       <c r="X9" s="42" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="Y9" s="39" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         </is>
       </c>
       <c r="D10" s="39" t="n">
-        <v>1099.32</v>
+        <v>1463.37</v>
       </c>
       <c r="E10" s="41" t="n">
         <v>0.28</v>
@@ -2266,7 +2266,7 @@
         <v>0.45</v>
       </c>
       <c r="X10" s="42" t="n">
-        <v>0.97</v>
+        <v>1.1</v>
       </c>
       <c r="Y10" s="39" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         </is>
       </c>
       <c r="D11" s="39" t="n">
-        <v>6.62</v>
+        <v>6.6</v>
       </c>
       <c r="E11" s="41" t="n">
         <v>1.73</v>
@@ -2349,7 +2349,7 @@
         <v>0.65</v>
       </c>
       <c r="X11" s="41" t="n">
-        <v>-0.37</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="Y11" s="39" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         </is>
       </c>
       <c r="D13" s="39" t="n">
-        <v>13.02</v>
+        <v>13.01</v>
       </c>
       <c r="E13" s="40" t="n">
         <v>0.29</v>
@@ -2598,7 +2598,7 @@
         <v>-0.09</v>
       </c>
       <c r="X14" s="42" t="n">
-        <v>0.37</v>
+        <v>0.27</v>
       </c>
       <c r="Y14" s="39" t="inlineStr">
         <is>
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="D15" s="39" t="n">
-        <v>22.87</v>
+        <v>22.88</v>
       </c>
       <c r="E15" s="41" t="n">
         <v>0.84</v>
@@ -2681,7 +2681,7 @@
         <v>-0.53</v>
       </c>
       <c r="X15" s="41" t="n">
-        <v>-0.33</v>
+        <v>-0.26</v>
       </c>
       <c r="Y15" s="39" t="inlineStr">
         <is>
@@ -2704,7 +2704,7 @@
         </is>
       </c>
       <c r="D16" s="39" t="n">
-        <v>177.74</v>
+        <v>177.64</v>
       </c>
       <c r="E16" s="40" t="n">
         <v>0</v>
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="D18" s="39" t="n">
-        <v>341.03</v>
+        <v>343.84</v>
       </c>
       <c r="E18" s="41" t="n">
         <v>-0.55</v>
@@ -2930,7 +2930,7 @@
         <v>-0.82</v>
       </c>
       <c r="X18" s="42" t="n">
-        <v>0.22</v>
+        <v>1.05</v>
       </c>
       <c r="Y18" s="39" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         </is>
       </c>
       <c r="D19" s="39" t="n">
-        <v>88.42</v>
+        <v>88.3</v>
       </c>
       <c r="E19" s="41" t="n">
         <v>1.44</v>
@@ -3013,7 +3013,7 @@
         <v>-0.14</v>
       </c>
       <c r="X19" s="41" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-0.14</v>
       </c>
       <c r="Y19" s="39" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
         </is>
       </c>
       <c r="D20" s="39" t="n">
-        <v>747.24</v>
+        <v>747.23</v>
       </c>
       <c r="E20" s="42" t="n">
         <v>0.01</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="X20" s="44" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="Y20" s="39" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
         </is>
       </c>
       <c r="D21" s="39" t="n">
-        <v>602.5599999999999</v>
+        <v>602.08</v>
       </c>
       <c r="E21" s="41" t="n">
         <v>-0.38</v>
@@ -3179,7 +3179,7 @@
         <v>0.7</v>
       </c>
       <c r="X21" s="41" t="n">
-        <v>-0.24</v>
+        <v>-0.32</v>
       </c>
       <c r="Y21" s="39" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D23" s="39" t="n">
-        <v>3738.8</v>
+        <v>3737.84</v>
       </c>
       <c r="E23" s="40" t="n">
         <v>-0.08</v>
@@ -3345,7 +3345,7 @@
         <v>-0.18</v>
       </c>
       <c r="X23" s="40" t="n">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="Y23" s="39" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         </is>
       </c>
       <c r="D24" s="39" t="n">
-        <v>1618.85</v>
+        <v>1618.25</v>
       </c>
       <c r="E24" s="40" t="n">
         <v>-0.18</v>
@@ -3451,7 +3451,7 @@
         </is>
       </c>
       <c r="D25" s="39" t="n">
-        <v>48.27</v>
+        <v>48.33</v>
       </c>
       <c r="E25" s="41" t="n">
         <v>0.12</v>
@@ -3511,7 +3511,7 @@
         <v>-0.12</v>
       </c>
       <c r="X25" s="41" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="Y25" s="39" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         </is>
       </c>
       <c r="D26" s="39" t="n">
-        <v>268.08</v>
+        <v>270.4</v>
       </c>
       <c r="E26" s="41" t="n">
         <v>-0.13</v>
@@ -3594,7 +3594,7 @@
         <v>-0.14</v>
       </c>
       <c r="X26" s="42" t="n">
-        <v>0.58</v>
+        <v>1.3</v>
       </c>
       <c r="Y26" s="39" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
         </is>
       </c>
       <c r="D28" s="39" t="n">
-        <v>632.33</v>
+        <v>633.4</v>
       </c>
       <c r="E28" s="41" t="n">
         <v>0.32</v>
@@ -3760,7 +3760,7 @@
         <v>0.51</v>
       </c>
       <c r="X28" s="42" t="n">
-        <v>0.89</v>
+        <v>1.02</v>
       </c>
       <c r="Y28" s="39" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         </is>
       </c>
       <c r="D29" s="39" t="n">
-        <v>1098.13</v>
+        <v>1098.71</v>
       </c>
       <c r="E29" s="41" t="n">
         <v>0.12</v>
@@ -3843,7 +3843,7 @@
         <v>0.05</v>
       </c>
       <c r="X29" s="42" t="n">
-        <v>0.61</v>
+        <v>0.63</v>
       </c>
       <c r="Y29" s="39" t="inlineStr">
         <is>
@@ -3949,7 +3949,7 @@
         </is>
       </c>
       <c r="D31" s="39" t="n">
-        <v>849.97</v>
+        <v>851.3</v>
       </c>
       <c r="E31" s="41" t="n">
         <v>0.1</v>
@@ -4009,7 +4009,7 @@
         <v>-0.16</v>
       </c>
       <c r="X31" s="42" t="n">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="Y31" s="39" t="inlineStr">
         <is>
@@ -4032,7 +4032,7 @@
         </is>
       </c>
       <c r="D32" s="39" t="n">
-        <v>251.15</v>
+        <v>251.44</v>
       </c>
       <c r="E32" s="41" t="n">
         <v>0.32</v>
@@ -4092,7 +4092,7 @@
         <v>-0.24</v>
       </c>
       <c r="X32" s="42" t="n">
-        <v>0.95</v>
+        <v>1.18</v>
       </c>
       <c r="Y32" s="39" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         </is>
       </c>
       <c r="D33" s="39" t="n">
-        <v>54.69</v>
+        <v>54.64</v>
       </c>
       <c r="E33" s="40" t="n">
         <v>-0.53</v>
@@ -4175,7 +4175,7 @@
         <v>-0.55</v>
       </c>
       <c r="X33" s="43" t="n">
-        <v>0</v>
+        <v>-0.08</v>
       </c>
       <c r="Y33" s="39" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         </is>
       </c>
       <c r="D34" s="39" t="n">
-        <v>32.83</v>
+        <v>32.81</v>
       </c>
       <c r="E34" s="40" t="n">
         <v>-0.28</v>
@@ -4258,7 +4258,7 @@
         <v>-0.57</v>
       </c>
       <c r="X34" s="43" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-0.14</v>
       </c>
       <c r="Y34" s="39" t="inlineStr">
         <is>
@@ -4281,7 +4281,7 @@
         </is>
       </c>
       <c r="D35" s="39" t="n">
-        <v>4.32</v>
+        <v>4.31</v>
       </c>
       <c r="E35" s="40" t="n">
         <v>-0.21</v>
@@ -4341,7 +4341,7 @@
         <v>-0.83</v>
       </c>
       <c r="X35" s="40" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-0.28</v>
       </c>
       <c r="Y35" s="39" t="inlineStr">
         <is>
@@ -4364,7 +4364,7 @@
         </is>
       </c>
       <c r="D36" s="39" t="n">
-        <v>245.63</v>
+        <v>246.1</v>
       </c>
       <c r="E36" s="41" t="n">
         <v>-0.39</v>
@@ -4424,7 +4424,7 @@
         <v>0.52</v>
       </c>
       <c r="X36" s="42" t="n">
-        <v>1.03</v>
+        <v>1.16</v>
       </c>
       <c r="Y36" s="39" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         </is>
       </c>
       <c r="D37" s="39" t="n">
-        <v>212.65</v>
+        <v>213.45</v>
       </c>
       <c r="E37" s="41" t="n">
         <v>-0.29</v>
@@ -4507,7 +4507,7 @@
         <v>0.96</v>
       </c>
       <c r="X37" s="42" t="n">
-        <v>1.05</v>
+        <v>1.43</v>
       </c>
       <c r="Y37" s="39" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         </is>
       </c>
       <c r="D38" s="39" t="n">
-        <v>241.23</v>
+        <v>241.42</v>
       </c>
       <c r="E38" s="41" t="n">
         <v>-0.16</v>
@@ -4590,7 +4590,7 @@
         <v>0.89</v>
       </c>
       <c r="X38" s="42" t="n">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
       <c r="Y38" s="39" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         </is>
       </c>
       <c r="D39" s="39" t="n">
-        <v>279.5</v>
+        <v>279.76</v>
       </c>
       <c r="E39" s="41" t="n">
         <v>0.46</v>
@@ -4672,8 +4672,8 @@
       <c r="W39" s="40" t="n">
         <v>-0.29</v>
       </c>
-      <c r="X39" s="41" t="n">
-        <v>0.58</v>
+      <c r="X39" s="42" t="n">
+        <v>0.68</v>
       </c>
       <c r="Y39" s="39" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="D40" s="39" t="n">
-        <v>63.92</v>
+        <v>63.84</v>
       </c>
       <c r="E40" s="41" t="n">
         <v>0.39</v>
@@ -4756,7 +4756,7 @@
         <v>-0.54</v>
       </c>
       <c r="X40" s="42" t="n">
-        <v>0.68</v>
+        <v>0.55</v>
       </c>
       <c r="Y40" s="39" t="inlineStr">
         <is>
@@ -4779,7 +4779,7 @@
         </is>
       </c>
       <c r="D41" s="39" t="n">
-        <v>45.43</v>
+        <v>45.39</v>
       </c>
       <c r="E41" s="41" t="n">
         <v>0.31</v>
@@ -4839,7 +4839,7 @@
         <v>-0.46</v>
       </c>
       <c r="X41" s="40" t="n">
-        <v>-1.08</v>
+        <v>-1.23</v>
       </c>
       <c r="Y41" s="39" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         </is>
       </c>
       <c r="D42" s="39" t="n">
-        <v>74.64</v>
+        <v>74.54000000000001</v>
       </c>
       <c r="E42" s="42" t="n">
         <v>0.86</v>
@@ -4922,7 +4922,7 @@
         <v>-0.26</v>
       </c>
       <c r="X42" s="40" t="n">
-        <v>-2.19</v>
+        <v>-2.38</v>
       </c>
       <c r="Y42" s="39" t="inlineStr">
         <is>
@@ -4945,7 +4945,7 @@
         </is>
       </c>
       <c r="D43" s="39" t="n">
-        <v>117.35</v>
+        <v>117.99</v>
       </c>
       <c r="E43" s="42" t="n">
         <v>-0.91</v>
@@ -5005,7 +5005,7 @@
         <v>0.55</v>
       </c>
       <c r="X43" s="42" t="n">
-        <v>0.28</v>
+        <v>0.83</v>
       </c>
       <c r="Y43" s="39" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         </is>
       </c>
       <c r="D44" s="39" t="n">
-        <v>16.36</v>
+        <v>16.33</v>
       </c>
       <c r="E44" s="42" t="n">
         <v>-0.2</v>
@@ -5088,7 +5088,7 @@
         <v>0.44</v>
       </c>
       <c r="X44" s="41" t="n">
-        <v>1.1</v>
+        <v>0.88</v>
       </c>
       <c r="Y44" s="39" t="inlineStr">
         <is>
@@ -5111,7 +5111,7 @@
         </is>
       </c>
       <c r="D45" s="39" t="n">
-        <v>34.09</v>
+        <v>33.99</v>
       </c>
       <c r="E45" s="41" t="n">
         <v>-1.6</v>
@@ -5254,7 +5254,7 @@
         <v>1.29</v>
       </c>
       <c r="X46" s="42" t="n">
-        <v>0.63</v>
+        <v>0.95</v>
       </c>
       <c r="Y46" s="39" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         </is>
       </c>
       <c r="D47" s="39" t="n">
-        <v>221.65</v>
+        <v>222.91</v>
       </c>
       <c r="E47" s="42" t="n">
         <v>-1.34</v>
@@ -5337,7 +5337,7 @@
         <v>0.29</v>
       </c>
       <c r="X47" s="42" t="n">
-        <v>0.86</v>
+        <v>1.14</v>
       </c>
       <c r="Y47" s="39" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         </is>
       </c>
       <c r="D48" s="39" t="n">
-        <v>21.61</v>
+        <v>21.58</v>
       </c>
       <c r="E48" s="41" t="n">
         <v>0</v>
@@ -5443,7 +5443,7 @@
         </is>
       </c>
       <c r="D49" s="39" t="n">
-        <v>31.99</v>
+        <v>31.93</v>
       </c>
       <c r="E49" s="41" t="n">
         <v>0</v>
@@ -5526,7 +5526,7 @@
         </is>
       </c>
       <c r="D50" s="39" t="n">
-        <v>4.19</v>
+        <v>4.21</v>
       </c>
       <c r="E50" s="40" t="n">
         <v>-0.23</v>
@@ -5586,7 +5586,7 @@
         <v>-0.08</v>
       </c>
       <c r="X50" s="42" t="n">
-        <v>0.88</v>
+        <v>1.2</v>
       </c>
       <c r="Y50" s="39" t="inlineStr">
         <is>
@@ -5692,7 +5692,7 @@
         </is>
       </c>
       <c r="D52" s="39" t="n">
-        <v>4.81</v>
+        <v>4.84</v>
       </c>
       <c r="E52" s="41" t="n">
         <v>1.06</v>
@@ -5752,7 +5752,7 @@
         <v>1.05</v>
       </c>
       <c r="X52" s="42" t="n">
-        <v>0.76</v>
+        <v>1.42</v>
       </c>
       <c r="Y52" s="39" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         </is>
       </c>
       <c r="D53" s="39" t="n">
-        <v>26.99</v>
+        <v>26.96</v>
       </c>
       <c r="E53" s="41" t="n">
         <v>0.74</v>
@@ -5858,7 +5858,7 @@
         </is>
       </c>
       <c r="D54" s="39" t="n">
-        <v>34.18</v>
+        <v>34.21</v>
       </c>
       <c r="E54" s="41" t="n">
         <v>0.2</v>
@@ -5918,7 +5918,7 @@
         <v>0.64</v>
       </c>
       <c r="X54" s="42" t="n">
-        <v>2.11</v>
+        <v>2.22</v>
       </c>
       <c r="Y54" s="39" t="inlineStr">
         <is>
@@ -5941,7 +5941,7 @@
         </is>
       </c>
       <c r="D55" s="39" t="n">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="E55" s="41" t="n">
         <v>-0.26</v>
@@ -6000,8 +6000,8 @@
       <c r="W55" s="41" t="n">
         <v>0</v>
       </c>
-      <c r="X55" s="42" t="n">
-        <v>1.66</v>
+      <c r="X55" s="44" t="n">
+        <v>1.94</v>
       </c>
       <c r="Y55" s="39" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         </is>
       </c>
       <c r="D56" s="39" t="n">
-        <v>50.26</v>
+        <v>50.39</v>
       </c>
       <c r="E56" s="41" t="n">
         <v>0.25</v>
@@ -6084,7 +6084,7 @@
         <v>0.53</v>
       </c>
       <c r="X56" s="42" t="n">
-        <v>2.29</v>
+        <v>2.47</v>
       </c>
       <c r="Y56" s="39" t="inlineStr">
         <is>
@@ -6107,7 +6107,7 @@
         </is>
       </c>
       <c r="D57" s="39" t="n">
-        <v>135.42</v>
+        <v>136.54</v>
       </c>
       <c r="E57" s="41" t="n">
         <v>1.12</v>
@@ -6167,7 +6167,7 @@
         <v>1.46</v>
       </c>
       <c r="X57" s="42" t="n">
-        <v>1.44</v>
+        <v>2.28</v>
       </c>
       <c r="Y57" s="39" t="inlineStr">
         <is>
@@ -6250,7 +6250,7 @@
         <v>0.59</v>
       </c>
       <c r="X58" s="42" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="Y58" s="39" t="inlineStr">
         <is>
@@ -6273,7 +6273,7 @@
         </is>
       </c>
       <c r="D59" s="39" t="n">
-        <v>7.55</v>
+        <v>7.57</v>
       </c>
       <c r="E59" s="41" t="n">
         <v>0.13</v>
@@ -6332,8 +6332,8 @@
       <c r="W59" s="41" t="n">
         <v>0.53</v>
       </c>
-      <c r="X59" s="42" t="n">
-        <v>1.32</v>
+      <c r="X59" s="44" t="n">
+        <v>1.58</v>
       </c>
       <c r="Y59" s="39" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         </is>
       </c>
       <c r="D60" s="39" t="n">
-        <v>15.57</v>
+        <v>15.61</v>
       </c>
       <c r="E60" s="41" t="n">
         <v>0.12</v>
@@ -6416,7 +6416,7 @@
         <v>0.8</v>
       </c>
       <c r="X60" s="42" t="n">
-        <v>1.72</v>
+        <v>1.85</v>
       </c>
       <c r="Y60" s="39" t="inlineStr">
         <is>
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="D61" s="39" t="n">
-        <v>48.77</v>
+        <v>48.7</v>
       </c>
       <c r="E61" s="40" t="n">
         <v>-0.14</v>
@@ -6499,7 +6499,7 @@
         <v>-0.42</v>
       </c>
       <c r="X61" s="41" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.42</v>
       </c>
       <c r="Y61" s="39" t="inlineStr">
         <is>
@@ -6522,7 +6522,7 @@
         </is>
       </c>
       <c r="D62" s="39" t="n">
-        <v>60.58</v>
+        <v>60.77</v>
       </c>
       <c r="E62" s="41" t="n">
         <v>0.45</v>
@@ -6582,7 +6582,7 @@
         <v>0.2</v>
       </c>
       <c r="X62" s="42" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="Y62" s="39" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         </is>
       </c>
       <c r="D63" s="39" t="n">
-        <v>68.36</v>
+        <v>68.55</v>
       </c>
       <c r="E63" s="41" t="n">
         <v>0.27</v>
@@ -6665,7 +6665,7 @@
         <v>0.74</v>
       </c>
       <c r="X63" s="42" t="n">
-        <v>1.39</v>
+        <v>1.66</v>
       </c>
       <c r="Y63" s="39" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         </is>
       </c>
       <c r="D64" s="39" t="n">
-        <v>13.17</v>
+        <v>13.15</v>
       </c>
       <c r="E64" s="41" t="n">
         <v>0.6</v>
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="D65" s="39" t="n">
-        <v>5.9</v>
+        <v>5.89</v>
       </c>
       <c r="E65" s="40" t="n">
         <v>-0.34</v>
@@ -6830,8 +6830,8 @@
       <c r="W65" s="43" t="n">
         <v>-0.35</v>
       </c>
-      <c r="X65" s="40" t="n">
-        <v>0.18</v>
+      <c r="X65" s="43" t="n">
+        <v>0</v>
       </c>
       <c r="Y65" s="39" t="inlineStr">
         <is>
@@ -6854,7 +6854,7 @@
         </is>
       </c>
       <c r="D66" s="39" t="n">
-        <v>65.15000000000001</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="E66" s="41" t="n">
         <v>-0.14</v>
@@ -6914,7 +6914,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="X66" s="40" t="n">
-        <v>0.89</v>
+        <v>0.96</v>
       </c>
       <c r="Y66" s="39" t="inlineStr">
         <is>
@@ -6937,7 +6937,7 @@
         </is>
       </c>
       <c r="D67" s="39" t="n">
-        <v>14.28</v>
+        <v>14.25</v>
       </c>
       <c r="E67" s="41" t="n">
         <v>0.17</v>
@@ -7103,7 +7103,7 @@
         </is>
       </c>
       <c r="D69" s="39" t="n">
-        <v>153.18</v>
+        <v>152.99</v>
       </c>
       <c r="E69" s="40" t="n">
         <v>-0.37</v>
@@ -7163,7 +7163,7 @@
         <v>-0.24</v>
       </c>
       <c r="X69" s="41" t="n">
-        <v>0.61</v>
+        <v>0.49</v>
       </c>
       <c r="Y69" s="39" t="inlineStr">
         <is>
@@ -7246,7 +7246,7 @@
         <v>-1</v>
       </c>
       <c r="X70" s="41" t="n">
-        <v>0.34</v>
+        <v>0.17</v>
       </c>
       <c r="Y70" s="39" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         </is>
       </c>
       <c r="D71" s="39" t="n">
-        <v>31.6</v>
+        <v>31.58</v>
       </c>
       <c r="E71" s="40" t="n">
         <v>0.18</v>
@@ -7329,7 +7329,7 @@
         <v>-0.19</v>
       </c>
       <c r="X71" s="41" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="Y71" s="39" t="inlineStr">
         <is>
@@ -7352,7 +7352,7 @@
         </is>
       </c>
       <c r="D72" s="39" t="n">
-        <v>31.34</v>
+        <v>31.25</v>
       </c>
       <c r="E72" s="40" t="n">
         <v>0.3</v>
@@ -7411,8 +7411,8 @@
       <c r="W72" s="40" t="n">
         <v>-0.74</v>
       </c>
-      <c r="X72" s="40" t="n">
-        <v>-0.3</v>
+      <c r="X72" s="43" t="n">
+        <v>-0.6</v>
       </c>
       <c r="Y72" s="39" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>0.82</v>
       </c>
       <c r="X73" s="42" t="n">
-        <v>1.42</v>
+        <v>1.22</v>
       </c>
       <c r="Y73" s="39" t="inlineStr">
         <is>
@@ -7518,7 +7518,7 @@
         </is>
       </c>
       <c r="D74" s="39" t="n">
-        <v>218.28</v>
+        <v>218.14</v>
       </c>
       <c r="E74" s="42" t="n">
         <v>0.48</v>
@@ -7578,7 +7578,7 @@
         <v>-0.39</v>
       </c>
       <c r="X74" s="40" t="n">
-        <v>-0.6899999999999999</v>
+        <v>-0.72</v>
       </c>
       <c r="Y74" s="39" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         </is>
       </c>
       <c r="D75" s="39" t="n">
-        <v>156.14</v>
+        <v>155.86</v>
       </c>
       <c r="E75" s="42" t="n">
         <v>0.54</v>
@@ -7661,7 +7661,7 @@
         <v>-0.27</v>
       </c>
       <c r="X75" s="40" t="n">
-        <v>-1.51</v>
+        <v>-1.6</v>
       </c>
       <c r="Y75" s="39" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         </is>
       </c>
       <c r="D76" s="39" t="n">
-        <v>45.36</v>
+        <v>45.32</v>
       </c>
       <c r="E76" s="40" t="n">
         <v>-1.02</v>
@@ -7910,7 +7910,7 @@
         <v>0</v>
       </c>
       <c r="X78" s="42" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="Y78" s="39" t="inlineStr">
         <is>
@@ -7933,7 +7933,7 @@
         </is>
       </c>
       <c r="D79" s="39" t="n">
-        <v>18.7</v>
+        <v>18.67</v>
       </c>
       <c r="E79" s="40" t="n">
         <v>-0.63</v>
@@ -7993,7 +7993,7 @@
         <v>0</v>
       </c>
       <c r="X79" s="41" t="n">
-        <v>-0.74</v>
+        <v>-0.82</v>
       </c>
       <c r="Y79" s="39" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>0.43</v>
       </c>
       <c r="X80" s="40" t="n">
-        <v>-0.97</v>
+        <v>-1.07</v>
       </c>
       <c r="Y80" s="39" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>0.1</v>
       </c>
       <c r="X81" s="40" t="n">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="Y81" s="39" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="D82" s="39" t="n">
-        <v>34.47</v>
+        <v>34.44</v>
       </c>
       <c r="E82" s="40" t="n">
         <v>-0.39</v>
@@ -8242,7 +8242,7 @@
         <v>-0.82</v>
       </c>
       <c r="X82" s="43" t="n">
-        <v>-0.1</v>
+        <v>-0.21</v>
       </c>
       <c r="Y82" s="39" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         </is>
       </c>
       <c r="D83" s="39" t="n">
-        <v>7.29</v>
+        <v>7.3</v>
       </c>
       <c r="E83" s="42" t="n">
         <v>-0.51</v>
@@ -8324,8 +8324,8 @@
       <c r="W83" s="40" t="n">
         <v>-0.21</v>
       </c>
-      <c r="X83" s="40" t="n">
-        <v>0.42</v>
+      <c r="X83" s="41" t="n">
+        <v>0.74</v>
       </c>
       <c r="Y83" s="39" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         </is>
       </c>
       <c r="D84" s="39" t="n">
-        <v>24.57</v>
+        <v>24.55</v>
       </c>
       <c r="E84" s="41" t="n">
         <v>0.19</v>
@@ -8408,7 +8408,7 @@
         <v>-0.19</v>
       </c>
       <c r="X84" s="40" t="n">
-        <v>-0.29</v>
+        <v>-0.39</v>
       </c>
       <c r="Y84" s="39" t="inlineStr">
         <is>
@@ -8431,7 +8431,7 @@
         </is>
       </c>
       <c r="D85" s="39" t="n">
-        <v>42.94</v>
+        <v>43.12</v>
       </c>
       <c r="E85" s="41" t="n">
         <v>0.16</v>
@@ -8491,7 +8491,7 @@
         <v>0.25</v>
       </c>
       <c r="X85" s="42" t="n">
-        <v>0.93</v>
+        <v>1.36</v>
       </c>
       <c r="Y85" s="39" t="inlineStr">
         <is>
@@ -8657,7 +8657,7 @@
         <v>-0.46</v>
       </c>
       <c r="X87" s="41" t="n">
-        <v>0.4</v>
+        <v>0.46</v>
       </c>
       <c r="Y87" s="39" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         </is>
       </c>
       <c r="D88" s="39" t="n">
-        <v>89.05</v>
+        <v>88.91</v>
       </c>
       <c r="E88" s="40" t="n">
         <v>-0.28</v>
@@ -8763,7 +8763,7 @@
         </is>
       </c>
       <c r="D89" s="39" t="n">
-        <v>34.21</v>
+        <v>34.18</v>
       </c>
       <c r="E89" s="41" t="n">
         <v>-1.04</v>
@@ -9012,7 +9012,7 @@
         </is>
       </c>
       <c r="D92" s="39" t="n">
-        <v>11.67</v>
+        <v>11.66</v>
       </c>
       <c r="E92" s="40" t="n">
         <v>-0.21</v>
@@ -9072,7 +9072,7 @@
         <v>-0.78</v>
       </c>
       <c r="X92" s="41" t="n">
-        <v>0.34</v>
+        <v>0.23</v>
       </c>
       <c r="Y92" s="39" t="inlineStr">
         <is>
@@ -9095,7 +9095,7 @@
         </is>
       </c>
       <c r="D93" s="39" t="n">
-        <v>157.59</v>
+        <v>158.17</v>
       </c>
       <c r="E93" s="41" t="n">
         <v>-0.35</v>
@@ -9155,7 +9155,7 @@
         <v>-0.8</v>
       </c>
       <c r="X93" s="41" t="n">
-        <v>0.15</v>
+        <v>0.44</v>
       </c>
       <c r="Y93" s="39" t="inlineStr">
         <is>
@@ -9178,7 +9178,7 @@
         </is>
       </c>
       <c r="D94" s="39" t="n">
-        <v>238.5</v>
+        <v>239.02</v>
       </c>
       <c r="E94" s="41" t="n">
         <v>0.39</v>
@@ -9238,7 +9238,7 @@
         <v>0</v>
       </c>
       <c r="X94" s="42" t="n">
-        <v>0.65</v>
+        <v>0.87</v>
       </c>
       <c r="Y94" s="39" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D95" s="39" t="n">
-        <v>104.69</v>
+        <v>105.12</v>
       </c>
       <c r="E95" s="42" t="n">
         <v>-1.01</v>
@@ -9320,8 +9320,8 @@
       <c r="W95" s="41" t="n">
         <v>1.26</v>
       </c>
-      <c r="X95" s="41" t="n">
-        <v>0.62</v>
+      <c r="X95" s="42" t="n">
+        <v>0.83</v>
       </c>
       <c r="Y95" s="39" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         </is>
       </c>
       <c r="D96" s="39" t="n">
-        <v>8.98</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="E96" s="41" t="n">
         <v>-0.46</v>
@@ -9403,8 +9403,8 @@
       <c r="W96" s="41" t="n">
         <v>-1.08</v>
       </c>
-      <c r="X96" s="40" t="n">
-        <v>-0.48</v>
+      <c r="X96" s="41" t="n">
+        <v>0.12</v>
       </c>
       <c r="Y96" s="39" t="inlineStr">
         <is>
@@ -9427,7 +9427,7 @@
         </is>
       </c>
       <c r="D97" s="39" t="n">
-        <v>109.14</v>
+        <v>109.37</v>
       </c>
       <c r="E97" s="42" t="n">
         <v>-1.54</v>
@@ -9487,7 +9487,7 @@
         <v>0.76</v>
       </c>
       <c r="X97" s="41" t="n">
-        <v>0.11</v>
+        <v>0.21</v>
       </c>
       <c r="Y97" s="39" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         </is>
       </c>
       <c r="D98" s="39" t="n">
-        <v>468.14</v>
+        <v>474.43</v>
       </c>
       <c r="E98" s="41" t="n">
         <v>-0.35</v>
@@ -9570,7 +9570,7 @@
         <v>-0.49</v>
       </c>
       <c r="X98" s="42" t="n">
-        <v>1.11</v>
+        <v>2.47</v>
       </c>
       <c r="Y98" s="39" t="inlineStr">
         <is>
@@ -9593,7 +9593,7 @@
         </is>
       </c>
       <c r="D99" s="39" t="n">
-        <v>17.59</v>
+        <v>17.61</v>
       </c>
       <c r="E99" s="42" t="n">
         <v>0.43</v>
@@ -9653,7 +9653,7 @@
         <v>-0.22</v>
       </c>
       <c r="X99" s="42" t="n">
-        <v>0.33</v>
+        <v>0.44</v>
       </c>
       <c r="Y99" s="39" t="inlineStr">
         <is>
@@ -9736,7 +9736,7 @@
         <v>-0.48</v>
       </c>
       <c r="X100" s="42" t="n">
-        <v>0.83</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Y100" s="39" t="inlineStr">
         <is>
@@ -12092,7 +12092,7 @@
         </is>
       </c>
       <c r="D2" s="39" t="n">
-        <v>2373</v>
+        <v>3111.03</v>
       </c>
       <c r="E2" s="39" t="n">
         <v>54.7</v>
@@ -12152,7 +12152,7 @@
         <v>10.2</v>
       </c>
       <c r="X2" s="39" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="Y2" s="39" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         </is>
       </c>
       <c r="D3" s="39" t="n">
-        <v>346.2</v>
+        <v>456.91</v>
       </c>
       <c r="E3" s="39" t="n">
         <v>8.199999999999999</v>
@@ -12235,7 +12235,7 @@
         <v>21.8</v>
       </c>
       <c r="X3" s="39" t="n">
-        <v>9.699999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="Y3" s="39" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         </is>
       </c>
       <c r="D4" s="39" t="n">
-        <v>1127.22</v>
+        <v>1506.22</v>
       </c>
       <c r="E4" s="39" t="n">
         <v>8.199999999999999</v>
@@ -12318,7 +12318,7 @@
         <v>10.1</v>
       </c>
       <c r="X4" s="39" t="n">
-        <v>41.4</v>
+        <v>40.6</v>
       </c>
       <c r="Y4" s="39" t="inlineStr">
         <is>
@@ -12341,7 +12341,7 @@
         </is>
       </c>
       <c r="D5" s="39" t="n">
-        <v>1945.39</v>
+        <v>2594.62</v>
       </c>
       <c r="E5" s="39" t="n">
         <v>24.7</v>
@@ -12401,7 +12401,7 @@
         <v>18.3</v>
       </c>
       <c r="X5" s="39" t="n">
-        <v>66.59999999999999</v>
+        <v>67.7</v>
       </c>
       <c r="Y5" s="39" t="inlineStr">
         <is>
@@ -12424,7 +12424,7 @@
         </is>
       </c>
       <c r="D6" s="39" t="n">
-        <v>3055.08</v>
+        <v>4029.27</v>
       </c>
       <c r="E6" s="39" t="n">
         <v>23.8</v>
@@ -12484,7 +12484,7 @@
         <v>26.3</v>
       </c>
       <c r="X6" s="39" t="n">
-        <v>76.5</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="Y6" s="39" t="inlineStr">
         <is>
@@ -12507,7 +12507,7 @@
         </is>
       </c>
       <c r="D7" s="39" t="n">
-        <v>1315.34</v>
+        <v>1752.45</v>
       </c>
       <c r="E7" s="39" t="n">
         <v>24.2</v>
@@ -12567,7 +12567,7 @@
         <v>29.6</v>
       </c>
       <c r="X7" s="39" t="n">
-        <v>77.7</v>
+        <v>79.7</v>
       </c>
       <c r="Y7" s="39" t="inlineStr">
         <is>
@@ -12590,7 +12590,7 @@
         </is>
       </c>
       <c r="D8" s="39" t="n">
-        <v>1099.32</v>
+        <v>1463.37</v>
       </c>
       <c r="E8" s="39" t="n">
         <v>63.5</v>
@@ -12650,7 +12650,7 @@
         <v>47.1</v>
       </c>
       <c r="X8" s="39" t="n">
-        <v>79</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="Y8" s="39" t="inlineStr">
         <is>
@@ -12673,7 +12673,7 @@
         </is>
       </c>
       <c r="D9" s="39" t="n">
-        <v>818.16</v>
+        <v>1088.4</v>
       </c>
       <c r="E9" s="39" t="n">
         <v>54.3</v>
@@ -12733,7 +12733,7 @@
         <v>42.7</v>
       </c>
       <c r="X9" s="39" t="n">
-        <v>81.2</v>
+        <v>82.7</v>
       </c>
       <c r="Y9" s="39" t="inlineStr">
         <is>
@@ -12756,7 +12756,7 @@
         </is>
       </c>
       <c r="D10" s="39" t="n">
-        <v>120.98</v>
+        <v>159.91</v>
       </c>
       <c r="E10" s="39" t="n">
         <v>23.6</v>
@@ -12816,7 +12816,7 @@
         <v>39</v>
       </c>
       <c r="X10" s="39" t="n">
-        <v>88.09999999999999</v>
+        <v>89.5</v>
       </c>
       <c r="Y10" s="39" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
         </is>
       </c>
       <c r="D11" s="39" t="n">
-        <v>54.69</v>
+        <v>54.64</v>
       </c>
       <c r="E11" s="39" t="n">
         <v>22.8</v>
@@ -12897,7 +12897,7 @@
         <v>0.4</v>
       </c>
       <c r="X11" s="39" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="Y11" s="39" t="inlineStr">
         <is>
@@ -12918,7 +12918,7 @@
         </is>
       </c>
       <c r="D12" s="39" t="n">
-        <v>34.47</v>
+        <v>34.44</v>
       </c>
       <c r="E12" s="39" t="n">
         <v>43.6</v>
@@ -12978,7 +12978,7 @@
         <v>1.9</v>
       </c>
       <c r="X12" s="39" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="Y12" s="39" t="inlineStr">
         <is>
@@ -12999,7 +12999,7 @@
         </is>
       </c>
       <c r="D13" s="39" t="n">
-        <v>32.83</v>
+        <v>32.81</v>
       </c>
       <c r="E13" s="39" t="n">
         <v>15.5</v>
@@ -13059,7 +13059,7 @@
         <v>3.4</v>
       </c>
       <c r="X13" s="39" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="Y13" s="39" t="inlineStr">
         <is>
@@ -13071,82 +13071,80 @@
       <c r="A14" s="39" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="39" t="inlineStr">
-        <is>
-          <t>563000</t>
-        </is>
+      <c r="B14" s="39" t="n">
+        <v>159745</v>
       </c>
       <c r="C14" s="39" t="inlineStr">
         <is>
-          <t>中国A50ETF</t>
+          <t>建材ETF</t>
         </is>
       </c>
       <c r="D14" s="39" t="n">
-        <v>39.64</v>
+        <v>5.89</v>
       </c>
       <c r="E14" s="39" t="n">
-        <v>5.6</v>
+        <v>33.9</v>
       </c>
       <c r="F14" s="39" t="n">
-        <v>2</v>
+        <v>76.8</v>
       </c>
       <c r="G14" s="39" t="n">
-        <v>0.1</v>
+        <v>7</v>
       </c>
       <c r="H14" s="39" t="n">
-        <v>23.2</v>
+        <v>50.3</v>
       </c>
       <c r="I14" s="39" t="n">
-        <v>43.5</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="J14" s="39" t="n">
-        <v>69.2</v>
+        <v>74.8</v>
       </c>
       <c r="K14" s="39" t="n">
-        <v>80.5</v>
+        <v>59.5</v>
       </c>
       <c r="L14" s="39" t="n">
-        <v>87.2</v>
+        <v>46.7</v>
       </c>
       <c r="M14" s="39" t="n">
-        <v>88.7</v>
+        <v>25.2</v>
       </c>
       <c r="N14" s="39" t="n">
-        <v>93.5</v>
+        <v>14.9</v>
       </c>
       <c r="O14" s="39" t="n">
-        <v>95.8</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="P14" s="39" t="n">
-        <v>95.8</v>
+        <v>78.7</v>
       </c>
       <c r="Q14" s="39" t="n">
-        <v>98.7</v>
+        <v>33.3</v>
       </c>
       <c r="R14" s="39" t="n">
-        <v>99.40000000000001</v>
+        <v>72</v>
       </c>
       <c r="S14" s="39" t="n">
-        <v>71.8</v>
+        <v>40.6</v>
       </c>
       <c r="T14" s="39" t="n">
-        <v>81.90000000000001</v>
+        <v>21.7</v>
       </c>
       <c r="U14" s="39" t="n">
-        <v>81.90000000000001</v>
+        <v>17.6</v>
       </c>
       <c r="V14" s="39" t="n">
-        <v>33.7</v>
+        <v>4</v>
       </c>
       <c r="W14" s="39" t="n">
-        <v>5.9</v>
+        <v>3</v>
       </c>
       <c r="X14" s="39" t="n">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="Y14" s="39" t="inlineStr">
         <is>
-          <t>中国A50ETF</t>
+          <t>建材ETF</t>
         </is>
       </c>
     </row>
@@ -13154,82 +13152,80 @@
       <c r="A15" s="39" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="39" t="inlineStr">
-        <is>
-          <t>512040</t>
-        </is>
+      <c r="B15" s="39" t="n">
+        <v>159766</v>
       </c>
       <c r="C15" s="39" t="inlineStr">
         <is>
-          <t>价值100ETF</t>
+          <t>旅游ETF</t>
         </is>
       </c>
       <c r="D15" s="39" t="n">
-        <v>19.18</v>
+        <v>31.25</v>
       </c>
       <c r="E15" s="39" t="n">
-        <v>66.3</v>
+        <v>49</v>
       </c>
       <c r="F15" s="39" t="n">
-        <v>18.5</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="G15" s="39" t="n">
-        <v>1.6</v>
+        <v>11.2</v>
       </c>
       <c r="H15" s="39" t="n">
-        <v>24.3</v>
+        <v>52.8</v>
       </c>
       <c r="I15" s="39" t="n">
-        <v>31.6</v>
+        <v>80.8</v>
       </c>
       <c r="J15" s="39" t="n">
-        <v>67.3</v>
+        <v>85.3</v>
       </c>
       <c r="K15" s="39" t="n">
-        <v>59.9</v>
+        <v>64.3</v>
       </c>
       <c r="L15" s="39" t="n">
-        <v>75.8</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="M15" s="39" t="n">
-        <v>84.2</v>
+        <v>36</v>
       </c>
       <c r="N15" s="39" t="n">
-        <v>49.8</v>
+        <v>73.7</v>
       </c>
       <c r="O15" s="39" t="n">
-        <v>58.3</v>
+        <v>84.3</v>
       </c>
       <c r="P15" s="39" t="n">
-        <v>58.3</v>
+        <v>29</v>
       </c>
       <c r="Q15" s="39" t="n">
-        <v>90.5</v>
+        <v>22.7</v>
       </c>
       <c r="R15" s="39" t="n">
-        <v>94.09999999999999</v>
+        <v>15.8</v>
       </c>
       <c r="S15" s="39" t="n">
-        <v>98</v>
+        <v>6.3</v>
       </c>
       <c r="T15" s="39" t="n">
-        <v>98</v>
+        <v>5.1</v>
       </c>
       <c r="U15" s="39" t="n">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="V15" s="39" t="n">
-        <v>13.4</v>
+        <v>11.6</v>
       </c>
       <c r="W15" s="39" t="n">
-        <v>10.4</v>
+        <v>6.8</v>
       </c>
       <c r="X15" s="39" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="Y15" s="39" t="inlineStr">
         <is>
-          <t>价值100ETF</t>
+          <t>旅游ETF</t>
         </is>
       </c>
     </row>
@@ -13237,80 +13233,82 @@
       <c r="A16" s="39" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="39" t="n">
-        <v>159766</v>
+      <c r="B16" s="39" t="inlineStr">
+        <is>
+          <t>563000</t>
+        </is>
       </c>
       <c r="C16" s="39" t="inlineStr">
         <is>
-          <t>旅游ETF</t>
+          <t>中国A50ETF</t>
         </is>
       </c>
       <c r="D16" s="39" t="n">
-        <v>31.34</v>
+        <v>39.64</v>
       </c>
       <c r="E16" s="39" t="n">
-        <v>49</v>
+        <v>5.6</v>
       </c>
       <c r="F16" s="39" t="n">
-        <v>82.09999999999999</v>
+        <v>2</v>
       </c>
       <c r="G16" s="39" t="n">
-        <v>11.2</v>
+        <v>0.1</v>
       </c>
       <c r="H16" s="39" t="n">
-        <v>52.8</v>
+        <v>23.2</v>
       </c>
       <c r="I16" s="39" t="n">
-        <v>80.8</v>
+        <v>43.5</v>
       </c>
       <c r="J16" s="39" t="n">
-        <v>85.3</v>
+        <v>69.2</v>
       </c>
       <c r="K16" s="39" t="n">
-        <v>64.3</v>
+        <v>80.5</v>
       </c>
       <c r="L16" s="39" t="n">
-        <v>73.59999999999999</v>
+        <v>87.2</v>
       </c>
       <c r="M16" s="39" t="n">
-        <v>36</v>
+        <v>88.7</v>
       </c>
       <c r="N16" s="39" t="n">
-        <v>73.7</v>
+        <v>93.5</v>
       </c>
       <c r="O16" s="39" t="n">
-        <v>84.3</v>
+        <v>95.8</v>
       </c>
       <c r="P16" s="39" t="n">
-        <v>29</v>
+        <v>95.8</v>
       </c>
       <c r="Q16" s="39" t="n">
-        <v>22.7</v>
+        <v>98.7</v>
       </c>
       <c r="R16" s="39" t="n">
-        <v>15.8</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="S16" s="39" t="n">
-        <v>6.3</v>
+        <v>71.8</v>
       </c>
       <c r="T16" s="39" t="n">
-        <v>5.1</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="U16" s="39" t="n">
-        <v>40</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="V16" s="39" t="n">
-        <v>11.6</v>
+        <v>33.7</v>
       </c>
       <c r="W16" s="39" t="n">
-        <v>6.8</v>
+        <v>5.9</v>
       </c>
       <c r="X16" s="39" t="n">
-        <v>5.1</v>
+        <v>4.2</v>
       </c>
       <c r="Y16" s="39" t="inlineStr">
         <is>
-          <t>旅游ETF</t>
+          <t>中国A50ETF</t>
         </is>
       </c>
     </row>
@@ -13320,80 +13318,80 @@
       </c>
       <c r="B17" s="39" t="inlineStr">
         <is>
-          <t>560050</t>
+          <t>512040</t>
         </is>
       </c>
       <c r="C17" s="39" t="inlineStr">
         <is>
-          <t>MSCI中国A50ETF</t>
+          <t>价值100ETF</t>
         </is>
       </c>
       <c r="D17" s="39" t="n">
-        <v>47.02</v>
+        <v>19.18</v>
       </c>
       <c r="E17" s="39" t="n">
-        <v>5.7</v>
+        <v>66.3</v>
       </c>
       <c r="F17" s="39" t="n">
-        <v>2.2</v>
+        <v>18.5</v>
       </c>
       <c r="G17" s="39" t="n">
-        <v>0.1</v>
+        <v>1.6</v>
       </c>
       <c r="H17" s="39" t="n">
-        <v>30.2</v>
+        <v>24.3</v>
       </c>
       <c r="I17" s="39" t="n">
-        <v>40.4</v>
+        <v>31.6</v>
       </c>
       <c r="J17" s="39" t="n">
-        <v>70.59999999999999</v>
+        <v>67.3</v>
       </c>
       <c r="K17" s="39" t="n">
-        <v>80.5</v>
+        <v>59.9</v>
       </c>
       <c r="L17" s="39" t="n">
-        <v>86.8</v>
+        <v>75.8</v>
       </c>
       <c r="M17" s="39" t="n">
-        <v>88.3</v>
+        <v>84.2</v>
       </c>
       <c r="N17" s="39" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="O17" s="39" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="P17" s="39" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="Q17" s="39" t="n">
         <v>90.5</v>
       </c>
-      <c r="O17" s="39" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="P17" s="39" t="n">
-        <v>56</v>
-      </c>
-      <c r="Q17" s="39" t="n">
-        <v>85.7</v>
-      </c>
       <c r="R17" s="39" t="n">
-        <v>92.09999999999999</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="S17" s="39" t="n">
-        <v>93.90000000000001</v>
+        <v>98</v>
       </c>
       <c r="T17" s="39" t="n">
-        <v>95.8</v>
+        <v>98</v>
       </c>
       <c r="U17" s="39" t="n">
-        <v>58.8</v>
+        <v>98</v>
       </c>
       <c r="V17" s="39" t="n">
-        <v>33.2</v>
+        <v>13.4</v>
       </c>
       <c r="W17" s="39" t="n">
-        <v>7.4</v>
+        <v>10.4</v>
       </c>
       <c r="X17" s="39" t="n">
-        <v>5.3</v>
+        <v>4.5</v>
       </c>
       <c r="Y17" s="39" t="inlineStr">
         <is>
-          <t>MSCI中国A50ETF</t>
+          <t>价值100ETF</t>
         </is>
       </c>
     </row>
@@ -13401,80 +13399,82 @@
       <c r="A18" s="39" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="39" t="n">
-        <v>510880</v>
+      <c r="B18" s="39" t="inlineStr">
+        <is>
+          <t>560050</t>
+        </is>
       </c>
       <c r="C18" s="39" t="inlineStr">
         <is>
-          <t>红利ETF</t>
+          <t>MSCI中国A50ETF</t>
         </is>
       </c>
       <c r="D18" s="39" t="n">
-        <v>218.28</v>
+        <v>47.02</v>
       </c>
       <c r="E18" s="39" t="n">
-        <v>85.90000000000001</v>
+        <v>5.7</v>
       </c>
       <c r="F18" s="39" t="n">
-        <v>89.2</v>
+        <v>2.2</v>
       </c>
       <c r="G18" s="39" t="n">
-        <v>5</v>
+        <v>0.1</v>
       </c>
       <c r="H18" s="39" t="n">
-        <v>43.6</v>
+        <v>30.2</v>
       </c>
       <c r="I18" s="39" t="n">
-        <v>46.3</v>
+        <v>40.4</v>
       </c>
       <c r="J18" s="39" t="n">
-        <v>69.09999999999999</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="K18" s="39" t="n">
-        <v>49</v>
+        <v>80.5</v>
       </c>
       <c r="L18" s="39" t="n">
-        <v>75.59999999999999</v>
+        <v>86.8</v>
       </c>
       <c r="M18" s="39" t="n">
-        <v>84.3</v>
+        <v>88.3</v>
       </c>
       <c r="N18" s="39" t="n">
-        <v>91.09999999999999</v>
+        <v>90.5</v>
       </c>
       <c r="O18" s="39" t="n">
-        <v>66.09999999999999</v>
+        <v>95.5</v>
       </c>
       <c r="P18" s="39" t="n">
-        <v>70.7</v>
+        <v>56</v>
       </c>
       <c r="Q18" s="39" t="n">
-        <v>30</v>
+        <v>85.7</v>
       </c>
       <c r="R18" s="39" t="n">
-        <v>67.5</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="S18" s="39" t="n">
-        <v>24.9</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="T18" s="39" t="n">
-        <v>62.9</v>
+        <v>95.8</v>
       </c>
       <c r="U18" s="39" t="n">
-        <v>51</v>
+        <v>58.8</v>
       </c>
       <c r="V18" s="39" t="n">
-        <v>64.5</v>
+        <v>33.2</v>
       </c>
       <c r="W18" s="39" t="n">
-        <v>20.2</v>
+        <v>7.4</v>
       </c>
       <c r="X18" s="39" t="n">
-        <v>5.9</v>
+        <v>5.3</v>
       </c>
       <c r="Y18" s="39" t="inlineStr">
         <is>
-          <t>红利ETF</t>
+          <t>MSCI中国A50ETF</t>
         </is>
       </c>
     </row>
@@ -13483,79 +13483,79 @@
         <v>17</v>
       </c>
       <c r="B19" s="39" t="n">
-        <v>510050</v>
+        <v>510880</v>
       </c>
       <c r="C19" s="39" t="inlineStr">
         <is>
-          <t>上证50ETF</t>
+          <t>红利ETF</t>
         </is>
       </c>
       <c r="D19" s="39" t="n">
-        <v>1618.85</v>
+        <v>218.14</v>
       </c>
       <c r="E19" s="39" t="n">
-        <v>7.7</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="F19" s="39" t="n">
-        <v>42</v>
+        <v>89.2</v>
       </c>
       <c r="G19" s="39" t="n">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="H19" s="39" t="n">
-        <v>43.3</v>
+        <v>43.6</v>
       </c>
       <c r="I19" s="39" t="n">
-        <v>56.3</v>
+        <v>46.3</v>
       </c>
       <c r="J19" s="39" t="n">
-        <v>71.8</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="K19" s="39" t="n">
-        <v>75.5</v>
+        <v>49</v>
       </c>
       <c r="L19" s="39" t="n">
-        <v>82.59999999999999</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="M19" s="39" t="n">
-        <v>87.90000000000001</v>
+        <v>84.3</v>
       </c>
       <c r="N19" s="39" t="n">
-        <v>96.5</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="O19" s="39" t="n">
-        <v>97</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="P19" s="39" t="n">
-        <v>97.5</v>
+        <v>70.7</v>
       </c>
       <c r="Q19" s="39" t="n">
-        <v>38.9</v>
+        <v>30</v>
       </c>
       <c r="R19" s="39" t="n">
-        <v>63.4</v>
+        <v>67.5</v>
       </c>
       <c r="S19" s="39" t="n">
-        <v>27.8</v>
+        <v>24.9</v>
       </c>
       <c r="T19" s="39" t="n">
-        <v>63.6</v>
+        <v>62.9</v>
       </c>
       <c r="U19" s="39" t="n">
-        <v>37.2</v>
+        <v>51</v>
       </c>
       <c r="V19" s="39" t="n">
-        <v>46.2</v>
+        <v>64.5</v>
       </c>
       <c r="W19" s="39" t="n">
-        <v>19.1</v>
+        <v>20.2</v>
       </c>
       <c r="X19" s="39" t="n">
-        <v>7.9</v>
+        <v>5.7</v>
       </c>
       <c r="Y19" s="39" t="inlineStr">
         <is>
-          <t>上证50ETF</t>
+          <t>红利ETF</t>
         </is>
       </c>
     </row>
@@ -13563,82 +13563,80 @@
       <c r="A20" s="39" t="n">
         <v>18</v>
       </c>
-      <c r="B20" s="39" t="inlineStr">
-        <is>
-          <t>512890</t>
-        </is>
+      <c r="B20" s="39" t="n">
+        <v>510050</v>
       </c>
       <c r="C20" s="39" t="inlineStr">
         <is>
-          <t>红利低波ETF</t>
+          <t>上证50ETF</t>
         </is>
       </c>
       <c r="D20" s="39" t="n">
-        <v>156.14</v>
+        <v>1618.25</v>
       </c>
       <c r="E20" s="39" t="n">
-        <v>94.2</v>
+        <v>7.7</v>
       </c>
       <c r="F20" s="39" t="n">
+        <v>42</v>
+      </c>
+      <c r="G20" s="39" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H20" s="39" t="n">
+        <v>43.3</v>
+      </c>
+      <c r="I20" s="39" t="n">
+        <v>56.3</v>
+      </c>
+      <c r="J20" s="39" t="n">
+        <v>71.8</v>
+      </c>
+      <c r="K20" s="39" t="n">
+        <v>75.5</v>
+      </c>
+      <c r="L20" s="39" t="n">
+        <v>82.59999999999999</v>
+      </c>
+      <c r="M20" s="39" t="n">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="N20" s="39" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="O20" s="39" t="n">
         <v>97</v>
       </c>
-      <c r="G20" s="39" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="H20" s="39" t="n">
-        <v>46</v>
-      </c>
-      <c r="I20" s="39" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="J20" s="39" t="n">
-        <v>55.7</v>
-      </c>
-      <c r="K20" s="39" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="L20" s="39" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="M20" s="39" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="N20" s="39" t="n">
-        <v>95.09999999999999</v>
-      </c>
-      <c r="O20" s="39" t="n">
-        <v>95.5</v>
-      </c>
       <c r="P20" s="39" t="n">
-        <v>97.09999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="Q20" s="39" t="n">
-        <v>39.7</v>
+        <v>38.9</v>
       </c>
       <c r="R20" s="39" t="n">
-        <v>74.7</v>
+        <v>63.4</v>
       </c>
       <c r="S20" s="39" t="n">
-        <v>40.8</v>
+        <v>27.8</v>
       </c>
       <c r="T20" s="39" t="n">
-        <v>79</v>
+        <v>63.6</v>
       </c>
       <c r="U20" s="39" t="n">
-        <v>69.90000000000001</v>
+        <v>37.2</v>
       </c>
       <c r="V20" s="39" t="n">
-        <v>86</v>
+        <v>46.2</v>
       </c>
       <c r="W20" s="39" t="n">
-        <v>52.4</v>
+        <v>19.1</v>
       </c>
       <c r="X20" s="39" t="n">
-        <v>9.699999999999999</v>
+        <v>7.9</v>
       </c>
       <c r="Y20" s="39" t="inlineStr">
         <is>
-          <t>红利低波ETF</t>
+          <t>上证50ETF</t>
         </is>
       </c>
     </row>
@@ -13646,80 +13644,82 @@
       <c r="A21" s="39" t="n">
         <v>19</v>
       </c>
-      <c r="B21" s="39" t="n">
-        <v>510230</v>
+      <c r="B21" s="39" t="inlineStr">
+        <is>
+          <t>512890</t>
+        </is>
       </c>
       <c r="C21" s="39" t="inlineStr">
         <is>
-          <t>金融ETF</t>
+          <t>红利低波ETF</t>
         </is>
       </c>
       <c r="D21" s="39" t="n">
-        <v>45.43</v>
+        <v>155.86</v>
       </c>
       <c r="E21" s="39" t="n">
-        <v>64.59999999999999</v>
+        <v>94.2</v>
       </c>
       <c r="F21" s="39" t="n">
-        <v>72.8</v>
+        <v>97</v>
       </c>
       <c r="G21" s="39" t="n">
-        <v>2.3</v>
+        <v>6.1</v>
       </c>
       <c r="H21" s="39" t="n">
-        <v>24.2</v>
+        <v>46</v>
       </c>
       <c r="I21" s="39" t="n">
-        <v>21.3</v>
+        <v>41.5</v>
       </c>
       <c r="J21" s="39" t="n">
-        <v>62.7</v>
+        <v>55.7</v>
       </c>
       <c r="K21" s="39" t="n">
-        <v>67.5</v>
+        <v>43.2</v>
       </c>
       <c r="L21" s="39" t="n">
-        <v>81.8</v>
+        <v>74.2</v>
       </c>
       <c r="M21" s="39" t="n">
-        <v>93.40000000000001</v>
+        <v>89.7</v>
       </c>
       <c r="N21" s="39" t="n">
-        <v>96.40000000000001</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="O21" s="39" t="n">
-        <v>96.40000000000001</v>
+        <v>95.5</v>
       </c>
       <c r="P21" s="39" t="n">
-        <v>99</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="Q21" s="39" t="n">
-        <v>51.8</v>
+        <v>39.7</v>
       </c>
       <c r="R21" s="39" t="n">
-        <v>65.8</v>
+        <v>74.7</v>
       </c>
       <c r="S21" s="39" t="n">
-        <v>47.4</v>
+        <v>40.8</v>
       </c>
       <c r="T21" s="39" t="n">
-        <v>86.09999999999999</v>
+        <v>79</v>
       </c>
       <c r="U21" s="39" t="n">
-        <v>59.7</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="V21" s="39" t="n">
-        <v>80.09999999999999</v>
+        <v>86</v>
       </c>
       <c r="W21" s="39" t="n">
-        <v>36.2</v>
+        <v>52.4</v>
       </c>
       <c r="X21" s="39" t="n">
-        <v>10.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y21" s="39" t="inlineStr">
         <is>
-          <t>金融ETF</t>
+          <t>红利低波ETF</t>
         </is>
       </c>
     </row>
@@ -13728,79 +13728,79 @@
         <v>20</v>
       </c>
       <c r="B22" s="39" t="n">
-        <v>512800</v>
+        <v>510230</v>
       </c>
       <c r="C22" s="39" t="inlineStr">
         <is>
-          <t>银行ETF</t>
+          <t>金融ETF</t>
         </is>
       </c>
       <c r="D22" s="39" t="n">
-        <v>74.64</v>
+        <v>45.39</v>
       </c>
       <c r="E22" s="39" t="n">
-        <v>71.90000000000001</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="F22" s="39" t="n">
-        <v>81.09999999999999</v>
+        <v>72.8</v>
       </c>
       <c r="G22" s="39" t="n">
-        <v>11.2</v>
+        <v>2.3</v>
       </c>
       <c r="H22" s="39" t="n">
-        <v>11.2</v>
+        <v>24.2</v>
       </c>
       <c r="I22" s="39" t="n">
-        <v>5.8</v>
+        <v>21.3</v>
       </c>
       <c r="J22" s="39" t="n">
-        <v>50.2</v>
+        <v>62.7</v>
       </c>
       <c r="K22" s="39" t="n">
-        <v>62.1</v>
+        <v>67.5</v>
       </c>
       <c r="L22" s="39" t="n">
-        <v>80.59999999999999</v>
+        <v>81.8</v>
       </c>
       <c r="M22" s="39" t="n">
-        <v>94.7</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="N22" s="39" t="n">
-        <v>97.3</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="O22" s="39" t="n">
-        <v>97.5</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="P22" s="39" t="n">
-        <v>99.09999999999999</v>
+        <v>99</v>
       </c>
       <c r="Q22" s="39" t="n">
-        <v>36</v>
+        <v>51.8</v>
       </c>
       <c r="R22" s="39" t="n">
-        <v>65</v>
+        <v>65.8</v>
       </c>
       <c r="S22" s="39" t="n">
-        <v>41.7</v>
+        <v>47.4</v>
       </c>
       <c r="T22" s="39" t="n">
-        <v>76.90000000000001</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="U22" s="39" t="n">
-        <v>56.7</v>
+        <v>59.7</v>
       </c>
       <c r="V22" s="39" t="n">
-        <v>81.7</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="W22" s="39" t="n">
-        <v>60.3</v>
+        <v>36.2</v>
       </c>
       <c r="X22" s="39" t="n">
-        <v>11.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y22" s="39" t="inlineStr">
         <is>
-          <t>银行ETF</t>
+          <t>金融ETF</t>
         </is>
       </c>
     </row>
@@ -13817,7 +13817,7 @@
         </is>
       </c>
       <c r="D23" s="39" t="n">
-        <v>24.57</v>
+        <v>24.55</v>
       </c>
       <c r="E23" s="39" t="n">
         <v>45</v>
@@ -13877,7 +13877,7 @@
         <v>17.6</v>
       </c>
       <c r="X23" s="39" t="n">
-        <v>11.1</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y23" s="39" t="inlineStr">
         <is>
@@ -13889,82 +13889,80 @@
       <c r="A24" s="39" t="n">
         <v>22</v>
       </c>
-      <c r="B24" s="39" t="inlineStr">
-        <is>
-          <t>510210</t>
-        </is>
+      <c r="B24" s="39" t="n">
+        <v>512800</v>
       </c>
       <c r="C24" s="39" t="inlineStr">
         <is>
-          <t>上证指数ETF</t>
+          <t>银行ETF</t>
         </is>
       </c>
       <c r="D24" s="39" t="n">
-        <v>48.27</v>
+        <v>74.54000000000001</v>
       </c>
       <c r="E24" s="39" t="n">
-        <v>63.9</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="F24" s="39" t="n">
-        <v>21.4</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="G24" s="39" t="n">
-        <v>1.3</v>
+        <v>11.2</v>
       </c>
       <c r="H24" s="39" t="n">
-        <v>24.8</v>
+        <v>11.2</v>
       </c>
       <c r="I24" s="39" t="n">
-        <v>43.7</v>
+        <v>5.8</v>
       </c>
       <c r="J24" s="39" t="n">
-        <v>64.2</v>
+        <v>50.2</v>
       </c>
       <c r="K24" s="39" t="n">
-        <v>73.7</v>
+        <v>62.1</v>
       </c>
       <c r="L24" s="39" t="n">
-        <v>86.40000000000001</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="M24" s="39" t="n">
-        <v>88.09999999999999</v>
+        <v>94.7</v>
       </c>
       <c r="N24" s="39" t="n">
-        <v>90.40000000000001</v>
+        <v>97.3</v>
       </c>
       <c r="O24" s="39" t="n">
-        <v>93.09999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="P24" s="39" t="n">
-        <v>97.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="Q24" s="39" t="n">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="R24" s="39" t="n">
-        <v>99.59999999999999</v>
+        <v>65</v>
       </c>
       <c r="S24" s="39" t="n">
-        <v>64</v>
+        <v>41.7</v>
       </c>
       <c r="T24" s="39" t="n">
-        <v>73.5</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="U24" s="39" t="n">
-        <v>73.5</v>
+        <v>56.7</v>
       </c>
       <c r="V24" s="39" t="n">
-        <v>23.7</v>
+        <v>81.7</v>
       </c>
       <c r="W24" s="39" t="n">
-        <v>14.1</v>
+        <v>60.3</v>
       </c>
       <c r="X24" s="39" t="n">
-        <v>14.1</v>
+        <v>10.3</v>
       </c>
       <c r="Y24" s="39" t="inlineStr">
         <is>
-          <t>上证指数ETF</t>
+          <t>银行ETF</t>
         </is>
       </c>
     </row>
@@ -13973,79 +13971,79 @@
         <v>23</v>
       </c>
       <c r="B25" s="39" t="n">
-        <v>159850</v>
+        <v>561320</v>
       </c>
       <c r="C25" s="39" t="inlineStr">
         <is>
-          <t>恒生国企ETF</t>
+          <t>交运ETF</t>
         </is>
       </c>
       <c r="D25" s="39" t="n">
-        <v>8.98</v>
+        <v>0.64</v>
       </c>
       <c r="E25" s="39" t="n">
-        <v>30.7</v>
+        <v>52</v>
       </c>
       <c r="F25" s="39" t="n">
-        <v>10.4</v>
+        <v>42.5</v>
       </c>
       <c r="G25" s="39" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H25" s="39" t="n">
-        <v>0.7</v>
+        <v>53</v>
       </c>
       <c r="I25" s="39" t="n">
-        <v>26.1</v>
+        <v>64.2</v>
       </c>
       <c r="J25" s="39" t="n">
-        <v>62.6</v>
+        <v>77</v>
       </c>
       <c r="K25" s="39" t="n">
-        <v>72.5</v>
+        <v>57.9</v>
       </c>
       <c r="L25" s="39" t="n">
-        <v>88</v>
+        <v>57.9</v>
       </c>
       <c r="M25" s="39" t="n">
-        <v>90</v>
+        <v>49.6</v>
       </c>
       <c r="N25" s="39" t="n">
-        <v>31.2</v>
+        <v>89.3</v>
       </c>
       <c r="O25" s="39" t="n">
-        <v>55.3</v>
+        <v>89.3</v>
       </c>
       <c r="P25" s="39" t="n">
-        <v>50.3</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="Q25" s="39" t="n">
-        <v>73.90000000000001</v>
+        <v>21.5</v>
       </c>
       <c r="R25" s="39" t="n">
-        <v>81.09999999999999</v>
+        <v>46.5</v>
       </c>
       <c r="S25" s="39" t="n">
-        <v>97</v>
+        <v>23.8</v>
       </c>
       <c r="T25" s="39" t="n">
-        <v>54</v>
+        <v>61.4</v>
       </c>
       <c r="U25" s="39" t="n">
-        <v>74.3</v>
+        <v>61.4</v>
       </c>
       <c r="V25" s="39" t="n">
-        <v>76.8</v>
+        <v>37</v>
       </c>
       <c r="W25" s="39" t="n">
-        <v>27.6</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="X25" s="39" t="n">
-        <v>17.6</v>
+        <v>17.7</v>
       </c>
       <c r="Y25" s="39" t="inlineStr">
         <is>
-          <t>恒生国企ETF</t>
+          <t>交运ETF</t>
         </is>
       </c>
     </row>
@@ -14054,79 +14052,79 @@
         <v>24</v>
       </c>
       <c r="B26" s="39" t="n">
-        <v>561320</v>
+        <v>517090</v>
       </c>
       <c r="C26" s="39" t="inlineStr">
         <is>
-          <t>交运ETF</t>
+          <t>央企共赢ETF</t>
         </is>
       </c>
       <c r="D26" s="39" t="n">
-        <v>0.64</v>
+        <v>4.31</v>
       </c>
       <c r="E26" s="39" t="n">
-        <v>52</v>
+        <v>34.7</v>
       </c>
       <c r="F26" s="39" t="n">
-        <v>42.5</v>
+        <v>76.2</v>
       </c>
       <c r="G26" s="39" t="n">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="H26" s="39" t="n">
-        <v>53</v>
+        <v>59.4</v>
       </c>
       <c r="I26" s="39" t="n">
-        <v>64.2</v>
+        <v>50</v>
       </c>
       <c r="J26" s="39" t="n">
-        <v>77</v>
+        <v>55.6</v>
       </c>
       <c r="K26" s="39" t="n">
-        <v>57.9</v>
+        <v>45.4</v>
       </c>
       <c r="L26" s="39" t="n">
-        <v>57.9</v>
+        <v>64.8</v>
       </c>
       <c r="M26" s="39" t="n">
-        <v>49.6</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="N26" s="39" t="n">
-        <v>89.3</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="O26" s="39" t="n">
-        <v>89.3</v>
+        <v>91.2</v>
       </c>
       <c r="P26" s="39" t="n">
-        <v>71.90000000000001</v>
+        <v>94</v>
       </c>
       <c r="Q26" s="39" t="n">
-        <v>21.5</v>
+        <v>32.1</v>
       </c>
       <c r="R26" s="39" t="n">
-        <v>46.5</v>
+        <v>68.7</v>
       </c>
       <c r="S26" s="39" t="n">
-        <v>23.8</v>
+        <v>41</v>
       </c>
       <c r="T26" s="39" t="n">
-        <v>61.4</v>
+        <v>41</v>
       </c>
       <c r="U26" s="39" t="n">
-        <v>61.4</v>
+        <v>17.9</v>
       </c>
       <c r="V26" s="39" t="n">
-        <v>37</v>
+        <v>76.8</v>
       </c>
       <c r="W26" s="39" t="n">
-        <v>84.90000000000001</v>
+        <v>26.4</v>
       </c>
       <c r="X26" s="39" t="n">
-        <v>19.2</v>
+        <v>18.3</v>
       </c>
       <c r="Y26" s="39" t="inlineStr">
         <is>
-          <t>交运ETF</t>
+          <t>央企共赢ETF</t>
         </is>
       </c>
     </row>
@@ -14135,79 +14133,79 @@
         <v>25</v>
       </c>
       <c r="B27" s="39" t="n">
-        <v>159611</v>
+        <v>516910</v>
       </c>
       <c r="C27" s="39" t="inlineStr">
         <is>
-          <t>电力ETF</t>
+          <t>物流ETF</t>
         </is>
       </c>
       <c r="D27" s="39" t="n">
-        <v>34.21</v>
+        <v>0.63</v>
       </c>
       <c r="E27" s="39" t="n">
-        <v>46</v>
+        <v>71.3</v>
       </c>
       <c r="F27" s="39" t="n">
-        <v>77.59999999999999</v>
+        <v>34.6</v>
       </c>
       <c r="G27" s="39" t="n">
-        <v>16.9</v>
+        <v>1.2</v>
       </c>
       <c r="H27" s="39" t="n">
-        <v>47.3</v>
+        <v>35.6</v>
       </c>
       <c r="I27" s="39" t="n">
-        <v>55.1</v>
+        <v>57.5</v>
       </c>
       <c r="J27" s="39" t="n">
-        <v>65.3</v>
+        <v>80</v>
       </c>
       <c r="K27" s="39" t="n">
-        <v>38.8</v>
+        <v>61.4</v>
       </c>
       <c r="L27" s="39" t="n">
-        <v>75.40000000000001</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="M27" s="39" t="n">
-        <v>82.90000000000001</v>
+        <v>55.2</v>
       </c>
       <c r="N27" s="39" t="n">
-        <v>86.8</v>
+        <v>73.8</v>
       </c>
       <c r="O27" s="39" t="n">
-        <v>86.8</v>
+        <v>80.3</v>
       </c>
       <c r="P27" s="39" t="n">
-        <v>26.1</v>
+        <v>64.3</v>
       </c>
       <c r="Q27" s="39" t="n">
-        <v>59.8</v>
+        <v>35.8</v>
       </c>
       <c r="R27" s="39" t="n">
-        <v>45.9</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="S27" s="39" t="n">
-        <v>19.1</v>
+        <v>55.5</v>
       </c>
       <c r="T27" s="39" t="n">
-        <v>80.3</v>
+        <v>40.4</v>
       </c>
       <c r="U27" s="39" t="n">
-        <v>94.3</v>
+        <v>61.4</v>
       </c>
       <c r="V27" s="39" t="n">
-        <v>97</v>
+        <v>22.2</v>
       </c>
       <c r="W27" s="39" t="n">
-        <v>29.1</v>
+        <v>38</v>
       </c>
       <c r="X27" s="39" t="n">
-        <v>21.5</v>
+        <v>21</v>
       </c>
       <c r="Y27" s="39" t="inlineStr">
         <is>
-          <t>电力ETF</t>
+          <t>物流ETF</t>
         </is>
       </c>
     </row>
@@ -14216,79 +14214,79 @@
         <v>26</v>
       </c>
       <c r="B28" s="39" t="n">
-        <v>159745</v>
+        <v>159611</v>
       </c>
       <c r="C28" s="39" t="inlineStr">
         <is>
-          <t>建材ETF</t>
+          <t>电力ETF</t>
         </is>
       </c>
       <c r="D28" s="39" t="n">
-        <v>5.9</v>
+        <v>34.18</v>
       </c>
       <c r="E28" s="39" t="n">
-        <v>33.9</v>
+        <v>46</v>
       </c>
       <c r="F28" s="39" t="n">
-        <v>76.8</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="G28" s="39" t="n">
-        <v>7</v>
+        <v>16.9</v>
       </c>
       <c r="H28" s="39" t="n">
-        <v>50.3</v>
+        <v>47.3</v>
       </c>
       <c r="I28" s="39" t="n">
-        <v>69.59999999999999</v>
+        <v>55.1</v>
       </c>
       <c r="J28" s="39" t="n">
-        <v>74.8</v>
+        <v>65.3</v>
       </c>
       <c r="K28" s="39" t="n">
-        <v>59.5</v>
+        <v>38.8</v>
       </c>
       <c r="L28" s="39" t="n">
-        <v>46.7</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="M28" s="39" t="n">
-        <v>25.2</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="N28" s="39" t="n">
-        <v>14.9</v>
+        <v>86.8</v>
       </c>
       <c r="O28" s="39" t="n">
-        <v>75.40000000000001</v>
+        <v>86.8</v>
       </c>
       <c r="P28" s="39" t="n">
-        <v>78.7</v>
+        <v>26.1</v>
       </c>
       <c r="Q28" s="39" t="n">
-        <v>33.3</v>
+        <v>59.8</v>
       </c>
       <c r="R28" s="39" t="n">
-        <v>72</v>
+        <v>45.9</v>
       </c>
       <c r="S28" s="39" t="n">
-        <v>40.6</v>
+        <v>19.1</v>
       </c>
       <c r="T28" s="39" t="n">
-        <v>21.7</v>
+        <v>80.3</v>
       </c>
       <c r="U28" s="39" t="n">
-        <v>17.6</v>
+        <v>94.3</v>
       </c>
       <c r="V28" s="39" t="n">
-        <v>4</v>
+        <v>97</v>
       </c>
       <c r="W28" s="39" t="n">
-        <v>3</v>
+        <v>29.1</v>
       </c>
       <c r="X28" s="39" t="n">
-        <v>22.7</v>
+        <v>21.5</v>
       </c>
       <c r="Y28" s="39" t="inlineStr">
         <is>
-          <t>建材ETF</t>
+          <t>电力ETF</t>
         </is>
       </c>
     </row>
@@ -14297,79 +14295,79 @@
         <v>27</v>
       </c>
       <c r="B29" s="39" t="n">
-        <v>517090</v>
+        <v>512690</v>
       </c>
       <c r="C29" s="39" t="inlineStr">
         <is>
-          <t>央企共赢ETF</t>
+          <t>酒ETF</t>
         </is>
       </c>
       <c r="D29" s="39" t="n">
-        <v>4.32</v>
+        <v>109.99</v>
       </c>
       <c r="E29" s="39" t="n">
-        <v>34.7</v>
+        <v>24</v>
       </c>
       <c r="F29" s="39" t="n">
-        <v>76.2</v>
+        <v>85.7</v>
       </c>
       <c r="G29" s="39" t="n">
-        <v>4</v>
+        <v>12.1</v>
       </c>
       <c r="H29" s="39" t="n">
-        <v>59.4</v>
+        <v>59</v>
       </c>
       <c r="I29" s="39" t="n">
-        <v>50</v>
+        <v>71.3</v>
       </c>
       <c r="J29" s="39" t="n">
-        <v>55.6</v>
+        <v>76.5</v>
       </c>
       <c r="K29" s="39" t="n">
-        <v>45.4</v>
+        <v>41.3</v>
       </c>
       <c r="L29" s="39" t="n">
-        <v>64.8</v>
+        <v>23</v>
       </c>
       <c r="M29" s="39" t="n">
-        <v>76.09999999999999</v>
+        <v>23</v>
       </c>
       <c r="N29" s="39" t="n">
-        <v>90.40000000000001</v>
+        <v>51.6</v>
       </c>
       <c r="O29" s="39" t="n">
-        <v>91.2</v>
+        <v>85</v>
       </c>
       <c r="P29" s="39" t="n">
-        <v>94</v>
+        <v>35.7</v>
       </c>
       <c r="Q29" s="39" t="n">
-        <v>32.1</v>
+        <v>16.5</v>
       </c>
       <c r="R29" s="39" t="n">
-        <v>68.7</v>
+        <v>14</v>
       </c>
       <c r="S29" s="39" t="n">
-        <v>41</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="T29" s="39" t="n">
-        <v>41</v>
+        <v>4.1</v>
       </c>
       <c r="U29" s="39" t="n">
-        <v>17.9</v>
+        <v>29.2</v>
       </c>
       <c r="V29" s="39" t="n">
-        <v>76.8</v>
+        <v>14.3</v>
       </c>
       <c r="W29" s="39" t="n">
-        <v>26.4</v>
+        <v>3.5</v>
       </c>
       <c r="X29" s="39" t="n">
-        <v>23.8</v>
+        <v>22.9</v>
       </c>
       <c r="Y29" s="39" t="inlineStr">
         <is>
-          <t>央企共赢ETF</t>
+          <t>酒ETF</t>
         </is>
       </c>
     </row>
@@ -14378,79 +14376,79 @@
         <v>28</v>
       </c>
       <c r="B30" s="39" t="n">
-        <v>516910</v>
+        <v>159905</v>
       </c>
       <c r="C30" s="39" t="inlineStr">
         <is>
-          <t>物流ETF</t>
+          <t>深红利ETF</t>
         </is>
       </c>
       <c r="D30" s="39" t="n">
-        <v>0.63</v>
+        <v>31.58</v>
       </c>
       <c r="E30" s="39" t="n">
-        <v>71.3</v>
+        <v>39.5</v>
       </c>
       <c r="F30" s="39" t="n">
-        <v>34.6</v>
+        <v>10.7</v>
       </c>
       <c r="G30" s="39" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H30" s="39" t="n">
-        <v>35.6</v>
+        <v>42.7</v>
       </c>
       <c r="I30" s="39" t="n">
-        <v>57.5</v>
+        <v>53.6</v>
       </c>
       <c r="J30" s="39" t="n">
-        <v>80</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="K30" s="39" t="n">
-        <v>61.4</v>
+        <v>57.6</v>
       </c>
       <c r="L30" s="39" t="n">
-        <v>70.09999999999999</v>
+        <v>49.7</v>
       </c>
       <c r="M30" s="39" t="n">
-        <v>55.2</v>
+        <v>73.7</v>
       </c>
       <c r="N30" s="39" t="n">
-        <v>73.8</v>
+        <v>78</v>
       </c>
       <c r="O30" s="39" t="n">
-        <v>80.3</v>
+        <v>52.6</v>
       </c>
       <c r="P30" s="39" t="n">
-        <v>64.3</v>
+        <v>61.1</v>
       </c>
       <c r="Q30" s="39" t="n">
-        <v>35.8</v>
+        <v>86</v>
       </c>
       <c r="R30" s="39" t="n">
-        <v>89.09999999999999</v>
+        <v>86</v>
       </c>
       <c r="S30" s="39" t="n">
-        <v>55.5</v>
+        <v>24.1</v>
       </c>
       <c r="T30" s="39" t="n">
-        <v>40.4</v>
+        <v>18.8</v>
       </c>
       <c r="U30" s="39" t="n">
-        <v>61.4</v>
+        <v>5.8</v>
       </c>
       <c r="V30" s="39" t="n">
-        <v>22.2</v>
+        <v>48.5</v>
       </c>
       <c r="W30" s="39" t="n">
-        <v>38</v>
+        <v>25.4</v>
       </c>
       <c r="X30" s="39" t="n">
-        <v>27</v>
+        <v>25.4</v>
       </c>
       <c r="Y30" s="39" t="inlineStr">
         <is>
-          <t>物流ETF</t>
+          <t>深红利ETF</t>
         </is>
       </c>
     </row>
@@ -14467,7 +14465,7 @@
         </is>
       </c>
       <c r="D31" s="39" t="n">
-        <v>18.7</v>
+        <v>18.67</v>
       </c>
       <c r="E31" s="39" t="n">
         <v>38.6</v>
@@ -14527,7 +14525,7 @@
         <v>93</v>
       </c>
       <c r="X31" s="39" t="n">
-        <v>33.7</v>
+        <v>31.5</v>
       </c>
       <c r="Y31" s="39" t="inlineStr">
         <is>
@@ -14540,79 +14538,79 @@
         <v>30</v>
       </c>
       <c r="B32" s="39" t="n">
-        <v>512690</v>
+        <v>159850</v>
       </c>
       <c r="C32" s="39" t="inlineStr">
         <is>
-          <t>酒ETF</t>
+          <t>恒生国企ETF</t>
         </is>
       </c>
       <c r="D32" s="39" t="n">
-        <v>109.99</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="E32" s="39" t="n">
-        <v>24</v>
+        <v>30.7</v>
       </c>
       <c r="F32" s="39" t="n">
-        <v>85.7</v>
+        <v>10.4</v>
       </c>
       <c r="G32" s="39" t="n">
-        <v>12.1</v>
+        <v>0.9</v>
       </c>
       <c r="H32" s="39" t="n">
-        <v>59</v>
+        <v>0.7</v>
       </c>
       <c r="I32" s="39" t="n">
-        <v>71.3</v>
+        <v>26.1</v>
       </c>
       <c r="J32" s="39" t="n">
-        <v>76.5</v>
+        <v>62.6</v>
       </c>
       <c r="K32" s="39" t="n">
-        <v>41.3</v>
+        <v>72.5</v>
       </c>
       <c r="L32" s="39" t="n">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="M32" s="39" t="n">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="N32" s="39" t="n">
-        <v>51.6</v>
+        <v>31.2</v>
       </c>
       <c r="O32" s="39" t="n">
-        <v>85</v>
+        <v>55.3</v>
       </c>
       <c r="P32" s="39" t="n">
-        <v>35.7</v>
+        <v>50.3</v>
       </c>
       <c r="Q32" s="39" t="n">
-        <v>16.5</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="R32" s="39" t="n">
-        <v>14</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="S32" s="39" t="n">
-        <v>8.699999999999999</v>
+        <v>97</v>
       </c>
       <c r="T32" s="39" t="n">
-        <v>4.1</v>
+        <v>54</v>
       </c>
       <c r="U32" s="39" t="n">
-        <v>29.2</v>
+        <v>74.3</v>
       </c>
       <c r="V32" s="39" t="n">
-        <v>14.3</v>
+        <v>76.8</v>
       </c>
       <c r="W32" s="39" t="n">
-        <v>3.5</v>
+        <v>27.6</v>
       </c>
       <c r="X32" s="39" t="n">
-        <v>35.8</v>
+        <v>36.6</v>
       </c>
       <c r="Y32" s="39" t="inlineStr">
         <is>
-          <t>酒ETF</t>
+          <t>恒生国企ETF</t>
         </is>
       </c>
     </row>
@@ -14621,79 +14619,79 @@
         <v>31</v>
       </c>
       <c r="B33" s="39" t="n">
-        <v>159865</v>
+        <v>518880</v>
       </c>
       <c r="C33" s="39" t="inlineStr">
         <is>
-          <t>养殖ETF</t>
+          <t>黄金ETF</t>
         </is>
       </c>
       <c r="D33" s="39" t="n">
-        <v>31.99</v>
+        <v>602.08</v>
       </c>
       <c r="E33" s="39" t="n">
-        <v>50.8</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="F33" s="39" t="n">
-        <v>89.90000000000001</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="G33" s="39" t="n">
-        <v>29.7</v>
+        <v>17.4</v>
       </c>
       <c r="H33" s="39" t="n">
-        <v>87.40000000000001</v>
+        <v>39</v>
       </c>
       <c r="I33" s="39" t="n">
-        <v>81.8</v>
+        <v>68.7</v>
       </c>
       <c r="J33" s="39" t="n">
-        <v>84.8</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="K33" s="39" t="n">
-        <v>28.9</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="L33" s="39" t="n">
-        <v>41.7</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="M33" s="39" t="n">
+        <v>93.59999999999999</v>
+      </c>
+      <c r="N33" s="39" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="O33" s="39" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="P33" s="39" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="Q33" s="39" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="R33" s="39" t="n">
+        <v>100</v>
+      </c>
+      <c r="S33" s="39" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="T33" s="39" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="U33" s="39" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="V33" s="39" t="n">
+        <v>22</v>
+      </c>
+      <c r="W33" s="39" t="n">
+        <v>49.2</v>
+      </c>
+      <c r="X33" s="39" t="n">
         <v>37.2</v>
       </c>
-      <c r="N33" s="39" t="n">
-        <v>18</v>
-      </c>
-      <c r="O33" s="39" t="n">
-        <v>18</v>
-      </c>
-      <c r="P33" s="39" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="Q33" s="39" t="n">
-        <v>35.7</v>
-      </c>
-      <c r="R33" s="39" t="n">
-        <v>80.3</v>
-      </c>
-      <c r="S33" s="39" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="T33" s="39" t="n">
-        <v>52</v>
-      </c>
-      <c r="U33" s="39" t="n">
-        <v>36</v>
-      </c>
-      <c r="V33" s="39" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="W33" s="39" t="n">
-        <v>48.8</v>
-      </c>
-      <c r="X33" s="39" t="n">
-        <v>39</v>
-      </c>
       <c r="Y33" s="39" t="inlineStr">
         <is>
-          <t>养殖ETF</t>
+          <t>黄金ETF</t>
         </is>
       </c>
     </row>
@@ -14702,79 +14700,79 @@
         <v>32</v>
       </c>
       <c r="B34" s="39" t="n">
-        <v>518880</v>
+        <v>159865</v>
       </c>
       <c r="C34" s="39" t="inlineStr">
         <is>
-          <t>黄金ETF</t>
+          <t>养殖ETF</t>
         </is>
       </c>
       <c r="D34" s="39" t="n">
-        <v>602.5599999999999</v>
+        <v>31.93</v>
       </c>
       <c r="E34" s="39" t="n">
-        <v>68.09999999999999</v>
+        <v>50.8</v>
       </c>
       <c r="F34" s="39" t="n">
+        <v>89.90000000000001</v>
+      </c>
+      <c r="G34" s="39" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="H34" s="39" t="n">
         <v>87.40000000000001</v>
       </c>
-      <c r="G34" s="39" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="H34" s="39" t="n">
+      <c r="I34" s="39" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="J34" s="39" t="n">
+        <v>84.8</v>
+      </c>
+      <c r="K34" s="39" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="L34" s="39" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="M34" s="39" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="N34" s="39" t="n">
+        <v>18</v>
+      </c>
+      <c r="O34" s="39" t="n">
+        <v>18</v>
+      </c>
+      <c r="P34" s="39" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="Q34" s="39" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="R34" s="39" t="n">
+        <v>80.3</v>
+      </c>
+      <c r="S34" s="39" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="T34" s="39" t="n">
+        <v>52</v>
+      </c>
+      <c r="U34" s="39" t="n">
+        <v>36</v>
+      </c>
+      <c r="V34" s="39" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="W34" s="39" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="X34" s="39" t="n">
         <v>39</v>
       </c>
-      <c r="I34" s="39" t="n">
-        <v>68.7</v>
-      </c>
-      <c r="J34" s="39" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="K34" s="39" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L34" s="39" t="n">
-        <v>95.90000000000001</v>
-      </c>
-      <c r="M34" s="39" t="n">
-        <v>93.59999999999999</v>
-      </c>
-      <c r="N34" s="39" t="n">
-        <v>98.8</v>
-      </c>
-      <c r="O34" s="39" t="n">
-        <v>99.2</v>
-      </c>
-      <c r="P34" s="39" t="n">
-        <v>99.3</v>
-      </c>
-      <c r="Q34" s="39" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="R34" s="39" t="n">
-        <v>100</v>
-      </c>
-      <c r="S34" s="39" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="T34" s="39" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="U34" s="39" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="V34" s="39" t="n">
-        <v>22</v>
-      </c>
-      <c r="W34" s="39" t="n">
-        <v>49.2</v>
-      </c>
-      <c r="X34" s="39" t="n">
-        <v>39.6</v>
-      </c>
       <c r="Y34" s="39" t="inlineStr">
         <is>
-          <t>黄金ETF</t>
+          <t>养殖ETF</t>
         </is>
       </c>
     </row>
@@ -14791,7 +14789,7 @@
         </is>
       </c>
       <c r="D35" s="39" t="n">
-        <v>21.61</v>
+        <v>21.58</v>
       </c>
       <c r="E35" s="39" t="n">
         <v>52.1</v>
@@ -14864,79 +14862,79 @@
         <v>34</v>
       </c>
       <c r="B36" s="39" t="n">
-        <v>159920</v>
+        <v>510300</v>
       </c>
       <c r="C36" s="39" t="inlineStr">
         <is>
-          <t>恒生ETF</t>
+          <t>沪深300ETF</t>
         </is>
       </c>
       <c r="D36" s="39" t="n">
-        <v>157.59</v>
+        <v>3737.84</v>
       </c>
       <c r="E36" s="39" t="n">
-        <v>36.1</v>
+        <v>7.4</v>
       </c>
       <c r="F36" s="39" t="n">
-        <v>11.7</v>
+        <v>2</v>
       </c>
       <c r="G36" s="39" t="n">
-        <v>1.1</v>
+        <v>0.1</v>
       </c>
       <c r="H36" s="39" t="n">
-        <v>1</v>
+        <v>20.2</v>
       </c>
       <c r="I36" s="39" t="n">
-        <v>0.9</v>
+        <v>43.6</v>
       </c>
       <c r="J36" s="39" t="n">
-        <v>61.3</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K36" s="39" t="n">
-        <v>74.40000000000001</v>
+        <v>76.3</v>
       </c>
       <c r="L36" s="39" t="n">
-        <v>86.8</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="M36" s="39" t="n">
-        <v>89.09999999999999</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="N36" s="39" t="n">
-        <v>34.5</v>
+        <v>90</v>
       </c>
       <c r="O36" s="39" t="n">
-        <v>62</v>
+        <v>92.2</v>
       </c>
       <c r="P36" s="39" t="n">
-        <v>62</v>
+        <v>96.8</v>
       </c>
       <c r="Q36" s="39" t="n">
-        <v>81.3</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="R36" s="39" t="n">
-        <v>88.59999999999999</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="S36" s="39" t="n">
-        <v>98.09999999999999</v>
+        <v>99.2</v>
       </c>
       <c r="T36" s="39" t="n">
-        <v>56.7</v>
+        <v>99.2</v>
       </c>
       <c r="U36" s="39" t="n">
-        <v>74.90000000000001</v>
+        <v>99.2</v>
       </c>
       <c r="V36" s="39" t="n">
-        <v>70</v>
+        <v>14.3</v>
       </c>
       <c r="W36" s="39" t="n">
-        <v>28.7</v>
+        <v>4.8</v>
       </c>
       <c r="X36" s="39" t="n">
-        <v>41.3</v>
+        <v>45.9</v>
       </c>
       <c r="Y36" s="39" t="inlineStr">
         <is>
-          <t>恒生ETF</t>
+          <t>沪深300ETF</t>
         </is>
       </c>
     </row>
@@ -14945,79 +14943,79 @@
         <v>35</v>
       </c>
       <c r="B37" s="39" t="n">
-        <v>159905</v>
+        <v>512400</v>
       </c>
       <c r="C37" s="39" t="inlineStr">
         <is>
-          <t>深红利ETF</t>
+          <t>有色金属ETF</t>
         </is>
       </c>
       <c r="D37" s="39" t="n">
-        <v>31.6</v>
+        <v>45.32</v>
       </c>
       <c r="E37" s="39" t="n">
-        <v>39.5</v>
+        <v>10.7</v>
       </c>
       <c r="F37" s="39" t="n">
-        <v>10.7</v>
+        <v>3.6</v>
       </c>
       <c r="G37" s="39" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="H37" s="39" t="n">
-        <v>42.7</v>
+        <v>18.5</v>
       </c>
       <c r="I37" s="39" t="n">
-        <v>53.6</v>
+        <v>39</v>
       </c>
       <c r="J37" s="39" t="n">
-        <v>73.09999999999999</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="K37" s="39" t="n">
-        <v>57.6</v>
+        <v>81</v>
       </c>
       <c r="L37" s="39" t="n">
-        <v>49.7</v>
+        <v>91.8</v>
       </c>
       <c r="M37" s="39" t="n">
-        <v>73.7</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="N37" s="39" t="n">
-        <v>78</v>
+        <v>63.2</v>
       </c>
       <c r="O37" s="39" t="n">
-        <v>52.6</v>
+        <v>38.9</v>
       </c>
       <c r="P37" s="39" t="n">
-        <v>61.1</v>
+        <v>26.7</v>
       </c>
       <c r="Q37" s="39" t="n">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="R37" s="39" t="n">
-        <v>86</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="S37" s="39" t="n">
-        <v>24.1</v>
+        <v>35.4</v>
       </c>
       <c r="T37" s="39" t="n">
-        <v>18.8</v>
+        <v>23.7</v>
       </c>
       <c r="U37" s="39" t="n">
-        <v>5.8</v>
+        <v>35.8</v>
       </c>
       <c r="V37" s="39" t="n">
-        <v>48.5</v>
+        <v>21.9</v>
       </c>
       <c r="W37" s="39" t="n">
-        <v>25.4</v>
+        <v>15.8</v>
       </c>
       <c r="X37" s="39" t="n">
-        <v>43.4</v>
+        <v>46</v>
       </c>
       <c r="Y37" s="39" t="inlineStr">
         <is>
-          <t>深红利ETF</t>
+          <t>有色金属ETF</t>
         </is>
       </c>
     </row>
@@ -15025,80 +15023,82 @@
       <c r="A38" s="39" t="n">
         <v>36</v>
       </c>
-      <c r="B38" s="39" t="n">
-        <v>512400</v>
+      <c r="B38" s="39" t="inlineStr">
+        <is>
+          <t>512580</t>
+        </is>
       </c>
       <c r="C38" s="39" t="inlineStr">
         <is>
-          <t>有色金属ETF</t>
+          <t>环保ETF</t>
         </is>
       </c>
       <c r="D38" s="39" t="n">
-        <v>45.36</v>
+        <v>11.66</v>
       </c>
       <c r="E38" s="39" t="n">
-        <v>10.7</v>
+        <v>25.9</v>
       </c>
       <c r="F38" s="39" t="n">
-        <v>3.6</v>
+        <v>11</v>
       </c>
       <c r="G38" s="39" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H38" s="39" t="n">
-        <v>18.5</v>
+        <v>19.9</v>
       </c>
       <c r="I38" s="39" t="n">
-        <v>39</v>
+        <v>34.6</v>
       </c>
       <c r="J38" s="39" t="n">
-        <v>76.09999999999999</v>
+        <v>61.2</v>
       </c>
       <c r="K38" s="39" t="n">
-        <v>81</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="L38" s="39" t="n">
-        <v>91.8</v>
+        <v>79.3</v>
       </c>
       <c r="M38" s="39" t="n">
-        <v>67.40000000000001</v>
+        <v>70</v>
       </c>
       <c r="N38" s="39" t="n">
-        <v>63.2</v>
+        <v>36</v>
       </c>
       <c r="O38" s="39" t="n">
-        <v>38.9</v>
+        <v>20.9</v>
       </c>
       <c r="P38" s="39" t="n">
-        <v>26.7</v>
+        <v>57</v>
       </c>
       <c r="Q38" s="39" t="n">
-        <v>92</v>
+        <v>86.3</v>
       </c>
       <c r="R38" s="39" t="n">
-        <v>74.90000000000001</v>
+        <v>54.5</v>
       </c>
       <c r="S38" s="39" t="n">
-        <v>35.4</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="T38" s="39" t="n">
-        <v>23.7</v>
+        <v>47.9</v>
       </c>
       <c r="U38" s="39" t="n">
-        <v>35.8</v>
+        <v>74.7</v>
       </c>
       <c r="V38" s="39" t="n">
-        <v>21.9</v>
+        <v>83.3</v>
       </c>
       <c r="W38" s="39" t="n">
-        <v>15.8</v>
+        <v>24.7</v>
       </c>
       <c r="X38" s="39" t="n">
-        <v>46</v>
+        <v>46.3</v>
       </c>
       <c r="Y38" s="39" t="inlineStr">
         <is>
-          <t>有色金属ETF</t>
+          <t>环保ETF</t>
         </is>
       </c>
     </row>
@@ -15187,80 +15187,82 @@
       <c r="A40" s="39" t="n">
         <v>38</v>
       </c>
-      <c r="B40" s="39" t="n">
-        <v>512200</v>
+      <c r="B40" s="39" t="inlineStr">
+        <is>
+          <t>159736</t>
+        </is>
       </c>
       <c r="C40" s="39" t="inlineStr">
         <is>
-          <t>房地产ETF</t>
+          <t>饮食ETF</t>
         </is>
       </c>
       <c r="D40" s="39" t="n">
-        <v>65.15000000000001</v>
+        <v>48.7</v>
       </c>
       <c r="E40" s="39" t="n">
-        <v>22.5</v>
+        <v>37.3</v>
       </c>
       <c r="F40" s="39" t="n">
-        <v>76.2</v>
+        <v>83.8</v>
       </c>
       <c r="G40" s="39" t="n">
-        <v>5.7</v>
+        <v>11.8</v>
       </c>
       <c r="H40" s="39" t="n">
-        <v>34.5</v>
+        <v>59.9</v>
       </c>
       <c r="I40" s="39" t="n">
-        <v>71.8</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="J40" s="39" t="n">
-        <v>81.8</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="K40" s="39" t="n">
-        <v>64.2</v>
+        <v>50.1</v>
       </c>
       <c r="L40" s="39" t="n">
-        <v>64.2</v>
+        <v>46</v>
       </c>
       <c r="M40" s="39" t="n">
-        <v>30</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="N40" s="39" t="n">
-        <v>54.3</v>
+        <v>78.2</v>
       </c>
       <c r="O40" s="39" t="n">
-        <v>87.59999999999999</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="P40" s="39" t="n">
-        <v>93.90000000000001</v>
+        <v>34.9</v>
       </c>
       <c r="Q40" s="39" t="n">
-        <v>82.5</v>
+        <v>18.6</v>
       </c>
       <c r="R40" s="39" t="n">
-        <v>89.40000000000001</v>
+        <v>18.6</v>
       </c>
       <c r="S40" s="39" t="n">
-        <v>27.4</v>
+        <v>7.4</v>
       </c>
       <c r="T40" s="39" t="n">
-        <v>48.9</v>
+        <v>4.7</v>
       </c>
       <c r="U40" s="39" t="n">
-        <v>21.5</v>
+        <v>3.4</v>
       </c>
       <c r="V40" s="39" t="n">
-        <v>4.6</v>
+        <v>0.9</v>
       </c>
       <c r="W40" s="39" t="n">
-        <v>7.6</v>
+        <v>0.5</v>
       </c>
       <c r="X40" s="39" t="n">
-        <v>47.1</v>
+        <v>48.6</v>
       </c>
       <c r="Y40" s="39" t="inlineStr">
         <is>
-          <t>房地产ETF</t>
+          <t>饮食ETF</t>
         </is>
       </c>
     </row>
@@ -15269,79 +15271,79 @@
         <v>39</v>
       </c>
       <c r="B41" s="39" t="n">
-        <v>159647</v>
+        <v>512200</v>
       </c>
       <c r="C41" s="39" t="inlineStr">
         <is>
-          <t>中药ETF</t>
+          <t>房地产ETF</t>
         </is>
       </c>
       <c r="D41" s="39" t="n">
-        <v>7.29</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="E41" s="39" t="n">
-        <v>58.6</v>
+        <v>22.5</v>
       </c>
       <c r="F41" s="39" t="n">
-        <v>78.40000000000001</v>
+        <v>76.2</v>
       </c>
       <c r="G41" s="39" t="n">
-        <v>9.699999999999999</v>
+        <v>5.7</v>
       </c>
       <c r="H41" s="39" t="n">
-        <v>40.7</v>
+        <v>34.5</v>
       </c>
       <c r="I41" s="39" t="n">
-        <v>60</v>
+        <v>71.8</v>
       </c>
       <c r="J41" s="39" t="n">
-        <v>71.8</v>
+        <v>81.8</v>
       </c>
       <c r="K41" s="39" t="n">
-        <v>56.9</v>
+        <v>64.2</v>
       </c>
       <c r="L41" s="39" t="n">
-        <v>60.9</v>
+        <v>64.2</v>
       </c>
       <c r="M41" s="39" t="n">
-        <v>87.3</v>
+        <v>30</v>
       </c>
       <c r="N41" s="39" t="n">
-        <v>50.3</v>
+        <v>54.3</v>
       </c>
       <c r="O41" s="39" t="n">
-        <v>44.1</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="P41" s="39" t="n">
-        <v>29.5</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="Q41" s="39" t="n">
-        <v>47</v>
+        <v>82.5</v>
       </c>
       <c r="R41" s="39" t="n">
-        <v>91.09999999999999</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="S41" s="39" t="n">
-        <v>30.4</v>
+        <v>27.4</v>
       </c>
       <c r="T41" s="39" t="n">
-        <v>51.8</v>
+        <v>48.9</v>
       </c>
       <c r="U41" s="39" t="n">
-        <v>26.9</v>
+        <v>21.5</v>
       </c>
       <c r="V41" s="39" t="n">
-        <v>9.800000000000001</v>
+        <v>4.6</v>
       </c>
       <c r="W41" s="39" t="n">
-        <v>7.9</v>
+        <v>7.6</v>
       </c>
       <c r="X41" s="39" t="n">
-        <v>47.5</v>
+        <v>48.9</v>
       </c>
       <c r="Y41" s="39" t="inlineStr">
         <is>
-          <t>中药ETF</t>
+          <t>房地产ETF</t>
         </is>
       </c>
     </row>
@@ -15360,7 +15362,7 @@
         </is>
       </c>
       <c r="D42" s="39" t="n">
-        <v>22.87</v>
+        <v>22.88</v>
       </c>
       <c r="E42" s="39" t="n">
         <v>57</v>
@@ -15420,7 +15422,7 @@
         <v>60.9</v>
       </c>
       <c r="X42" s="39" t="n">
-        <v>47.8</v>
+        <v>50</v>
       </c>
       <c r="Y42" s="39" t="inlineStr">
         <is>
@@ -15441,7 +15443,7 @@
         </is>
       </c>
       <c r="D43" s="39" t="n">
-        <v>34.09</v>
+        <v>33.99</v>
       </c>
       <c r="E43" s="39" t="n">
         <v>46.3</v>
@@ -15514,79 +15516,79 @@
         <v>42</v>
       </c>
       <c r="B44" s="39" t="n">
-        <v>510300</v>
+        <v>562800</v>
       </c>
       <c r="C44" s="39" t="inlineStr">
         <is>
-          <t>沪深300ETF</t>
+          <t>稀有金属ETF</t>
         </is>
       </c>
       <c r="D44" s="39" t="n">
-        <v>3738.8</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="E44" s="39" t="n">
-        <v>7.4</v>
+        <v>40.5</v>
       </c>
       <c r="F44" s="39" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="G44" s="39" t="n">
-        <v>0.1</v>
+        <v>1.1</v>
       </c>
       <c r="H44" s="39" t="n">
-        <v>20.2</v>
+        <v>20.4</v>
       </c>
       <c r="I44" s="39" t="n">
-        <v>43.6</v>
+        <v>47.7</v>
       </c>
       <c r="J44" s="39" t="n">
-        <v>72.09999999999999</v>
+        <v>69</v>
       </c>
       <c r="K44" s="39" t="n">
-        <v>76.3</v>
+        <v>69</v>
       </c>
       <c r="L44" s="39" t="n">
-        <v>80.59999999999999</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="M44" s="39" t="n">
-        <v>82.90000000000001</v>
+        <v>52.7</v>
       </c>
       <c r="N44" s="39" t="n">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="O44" s="39" t="n">
-        <v>92.2</v>
+        <v>17.5</v>
       </c>
       <c r="P44" s="39" t="n">
-        <v>96.8</v>
+        <v>13.1</v>
       </c>
       <c r="Q44" s="39" t="n">
-        <v>97.40000000000001</v>
+        <v>84.2</v>
       </c>
       <c r="R44" s="39" t="n">
-        <v>98.40000000000001</v>
+        <v>71.3</v>
       </c>
       <c r="S44" s="39" t="n">
-        <v>99.2</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="T44" s="39" t="n">
-        <v>99.2</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="U44" s="39" t="n">
-        <v>99.2</v>
+        <v>32.7</v>
       </c>
       <c r="V44" s="39" t="n">
-        <v>14.3</v>
+        <v>13.2</v>
       </c>
       <c r="W44" s="39" t="n">
-        <v>4.8</v>
+        <v>13.2</v>
       </c>
       <c r="X44" s="39" t="n">
-        <v>51.2</v>
+        <v>51.6</v>
       </c>
       <c r="Y44" s="39" t="inlineStr">
         <is>
-          <t>沪深300ETF</t>
+          <t>稀有金属ETF</t>
         </is>
       </c>
     </row>
@@ -15594,80 +15596,82 @@
       <c r="A45" s="39" t="n">
         <v>43</v>
       </c>
-      <c r="B45" s="39" t="n">
-        <v>562800</v>
+      <c r="B45" s="39" t="inlineStr">
+        <is>
+          <t>510210</t>
+        </is>
       </c>
       <c r="C45" s="39" t="inlineStr">
         <is>
-          <t>稀有金属ETF</t>
+          <t>上证指数ETF</t>
         </is>
       </c>
       <c r="D45" s="39" t="n">
-        <v>8.890000000000001</v>
+        <v>48.33</v>
       </c>
       <c r="E45" s="39" t="n">
-        <v>40.5</v>
+        <v>63.9</v>
       </c>
       <c r="F45" s="39" t="n">
-        <v>16</v>
+        <v>21.4</v>
       </c>
       <c r="G45" s="39" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H45" s="39" t="n">
-        <v>20.4</v>
+        <v>24.8</v>
       </c>
       <c r="I45" s="39" t="n">
-        <v>47.7</v>
+        <v>43.7</v>
       </c>
       <c r="J45" s="39" t="n">
-        <v>69</v>
+        <v>64.2</v>
       </c>
       <c r="K45" s="39" t="n">
-        <v>69</v>
+        <v>73.7</v>
       </c>
       <c r="L45" s="39" t="n">
-        <v>84.59999999999999</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="M45" s="39" t="n">
-        <v>52.7</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="N45" s="39" t="n">
-        <v>21</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="O45" s="39" t="n">
-        <v>17.5</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="P45" s="39" t="n">
-        <v>13.1</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="Q45" s="39" t="n">
-        <v>84.2</v>
+        <v>99</v>
       </c>
       <c r="R45" s="39" t="n">
-        <v>71.3</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="S45" s="39" t="n">
-        <v>85.09999999999999</v>
+        <v>64</v>
       </c>
       <c r="T45" s="39" t="n">
-        <v>64.40000000000001</v>
+        <v>73.5</v>
       </c>
       <c r="U45" s="39" t="n">
-        <v>32.7</v>
+        <v>73.5</v>
       </c>
       <c r="V45" s="39" t="n">
-        <v>13.2</v>
+        <v>23.7</v>
       </c>
       <c r="W45" s="39" t="n">
-        <v>13.2</v>
+        <v>14.1</v>
       </c>
       <c r="X45" s="39" t="n">
-        <v>51.6</v>
+        <v>52.5</v>
       </c>
       <c r="Y45" s="39" t="inlineStr">
         <is>
-          <t>稀有金属ETF</t>
+          <t>上证指数ETF</t>
         </is>
       </c>
     </row>
@@ -15675,82 +15679,80 @@
       <c r="A46" s="39" t="n">
         <v>44</v>
       </c>
-      <c r="B46" s="39" t="inlineStr">
-        <is>
-          <t>512580</t>
-        </is>
+      <c r="B46" s="39" t="n">
+        <v>513080</v>
       </c>
       <c r="C46" s="39" t="inlineStr">
         <is>
-          <t>环保ETF</t>
+          <t>法国CAC40ETF</t>
         </is>
       </c>
       <c r="D46" s="39" t="n">
-        <v>11.67</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="E46" s="39" t="n">
-        <v>25.9</v>
+        <v>15.7</v>
       </c>
       <c r="F46" s="39" t="n">
-        <v>11</v>
+        <v>15.7</v>
       </c>
       <c r="G46" s="39" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="H46" s="39" t="n">
-        <v>19.9</v>
+        <v>30.6</v>
       </c>
       <c r="I46" s="39" t="n">
-        <v>34.6</v>
+        <v>19.7</v>
       </c>
       <c r="J46" s="39" t="n">
-        <v>61.2</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="K46" s="39" t="n">
-        <v>68.90000000000001</v>
+        <v>61.6</v>
       </c>
       <c r="L46" s="39" t="n">
-        <v>79.3</v>
+        <v>77.3</v>
       </c>
       <c r="M46" s="39" t="n">
-        <v>70</v>
+        <v>55.3</v>
       </c>
       <c r="N46" s="39" t="n">
-        <v>36</v>
+        <v>66.2</v>
       </c>
       <c r="O46" s="39" t="n">
-        <v>20.9</v>
+        <v>78</v>
       </c>
       <c r="P46" s="39" t="n">
-        <v>57</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="Q46" s="39" t="n">
-        <v>86.3</v>
+        <v>70.2</v>
       </c>
       <c r="R46" s="39" t="n">
-        <v>54.5</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="S46" s="39" t="n">
-        <v>79.59999999999999</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="T46" s="39" t="n">
-        <v>47.9</v>
+        <v>73.5</v>
       </c>
       <c r="U46" s="39" t="n">
-        <v>74.7</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="V46" s="39" t="n">
-        <v>83.3</v>
+        <v>94.8</v>
       </c>
       <c r="W46" s="39" t="n">
-        <v>24.7</v>
+        <v>94.8</v>
       </c>
       <c r="X46" s="39" t="n">
-        <v>53</v>
+        <v>53.3</v>
       </c>
       <c r="Y46" s="39" t="inlineStr">
         <is>
-          <t>环保ETF</t>
+          <t>法国CAC40ETF</t>
         </is>
       </c>
     </row>
@@ -15759,79 +15761,79 @@
         <v>45</v>
       </c>
       <c r="B47" s="39" t="n">
-        <v>513080</v>
+        <v>159866</v>
       </c>
       <c r="C47" s="39" t="inlineStr">
         <is>
-          <t>法国CAC40ETF</t>
+          <t>日经ETF</t>
         </is>
       </c>
       <c r="D47" s="39" t="n">
-        <v>8.720000000000001</v>
+        <v>6.6</v>
       </c>
       <c r="E47" s="39" t="n">
-        <v>15.7</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="F47" s="39" t="n">
-        <v>15.7</v>
+        <v>20.7</v>
       </c>
       <c r="G47" s="39" t="n">
-        <v>0.4</v>
+        <v>3.6</v>
       </c>
       <c r="H47" s="39" t="n">
-        <v>30.6</v>
+        <v>47.4</v>
       </c>
       <c r="I47" s="39" t="n">
-        <v>19.7</v>
+        <v>37.6</v>
       </c>
       <c r="J47" s="39" t="n">
-        <v>75.90000000000001</v>
+        <v>77</v>
       </c>
       <c r="K47" s="39" t="n">
-        <v>61.6</v>
+        <v>60.9</v>
       </c>
       <c r="L47" s="39" t="n">
-        <v>77.3</v>
+        <v>76.7</v>
       </c>
       <c r="M47" s="39" t="n">
-        <v>55.3</v>
+        <v>76.7</v>
       </c>
       <c r="N47" s="39" t="n">
-        <v>66.2</v>
+        <v>52.5</v>
       </c>
       <c r="O47" s="39" t="n">
         <v>78</v>
       </c>
       <c r="P47" s="39" t="n">
-        <v>79.40000000000001</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="Q47" s="39" t="n">
-        <v>70.2</v>
+        <v>52.9</v>
       </c>
       <c r="R47" s="39" t="n">
-        <v>91.59999999999999</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="S47" s="39" t="n">
-        <v>97.40000000000001</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="T47" s="39" t="n">
-        <v>73.5</v>
+        <v>48.5</v>
       </c>
       <c r="U47" s="39" t="n">
-        <v>93.90000000000001</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="V47" s="39" t="n">
-        <v>94.8</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="W47" s="39" t="n">
-        <v>94.8</v>
+        <v>94.5</v>
       </c>
       <c r="X47" s="39" t="n">
-        <v>53.3</v>
+        <v>53.5</v>
       </c>
       <c r="Y47" s="39" t="inlineStr">
         <is>
-          <t>法国CAC40ETF</t>
+          <t>日经ETF</t>
         </is>
       </c>
     </row>
@@ -15840,79 +15842,79 @@
         <v>46</v>
       </c>
       <c r="B48" s="39" t="n">
-        <v>513050</v>
+        <v>159920</v>
       </c>
       <c r="C48" s="39" t="inlineStr">
         <is>
-          <t>中概互联网ETF</t>
+          <t>恒生ETF</t>
         </is>
       </c>
       <c r="D48" s="39" t="n">
-        <v>341.03</v>
+        <v>158.17</v>
       </c>
       <c r="E48" s="39" t="n">
-        <v>31.8</v>
+        <v>36.1</v>
       </c>
       <c r="F48" s="39" t="n">
-        <v>8.800000000000001</v>
+        <v>11.7</v>
       </c>
       <c r="G48" s="39" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H48" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" s="39" t="n">
         <v>0.9</v>
       </c>
-      <c r="I48" s="39" t="n">
-        <v>8.300000000000001</v>
-      </c>
       <c r="J48" s="39" t="n">
+        <v>61.3</v>
+      </c>
+      <c r="K48" s="39" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="L48" s="39" t="n">
+        <v>86.8</v>
+      </c>
+      <c r="M48" s="39" t="n">
+        <v>89.09999999999999</v>
+      </c>
+      <c r="N48" s="39" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="O48" s="39" t="n">
+        <v>62</v>
+      </c>
+      <c r="P48" s="39" t="n">
+        <v>62</v>
+      </c>
+      <c r="Q48" s="39" t="n">
+        <v>81.3</v>
+      </c>
+      <c r="R48" s="39" t="n">
+        <v>88.59999999999999</v>
+      </c>
+      <c r="S48" s="39" t="n">
+        <v>98.09999999999999</v>
+      </c>
+      <c r="T48" s="39" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="U48" s="39" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="V48" s="39" t="n">
+        <v>70</v>
+      </c>
+      <c r="W48" s="39" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="X48" s="39" t="n">
         <v>56.6</v>
       </c>
-      <c r="K48" s="39" t="n">
-        <v>45</v>
-      </c>
-      <c r="L48" s="39" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="M48" s="39" t="n">
-        <v>79.09999999999999</v>
-      </c>
-      <c r="N48" s="39" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="O48" s="39" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="P48" s="39" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="Q48" s="39" t="n">
-        <v>60.4</v>
-      </c>
-      <c r="R48" s="39" t="n">
-        <v>79.7</v>
-      </c>
-      <c r="S48" s="39" t="n">
-        <v>96.3</v>
-      </c>
-      <c r="T48" s="39" t="n">
-        <v>52.1</v>
-      </c>
-      <c r="U48" s="39" t="n">
-        <v>75.5</v>
-      </c>
-      <c r="V48" s="39" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="W48" s="39" t="n">
-        <v>44.3</v>
-      </c>
-      <c r="X48" s="39" t="n">
-        <v>54.8</v>
-      </c>
       <c r="Y48" s="39" t="inlineStr">
         <is>
-          <t>中概互联网ETF</t>
+          <t>恒生ETF</t>
         </is>
       </c>
     </row>
@@ -15922,80 +15924,80 @@
       </c>
       <c r="B49" s="39" t="inlineStr">
         <is>
-          <t>159736</t>
+          <t>517160</t>
         </is>
       </c>
       <c r="C49" s="39" t="inlineStr">
         <is>
-          <t>饮食ETF</t>
+          <t>长江保护主题ETF</t>
         </is>
       </c>
       <c r="D49" s="39" t="n">
-        <v>48.77</v>
+        <v>12.94</v>
       </c>
       <c r="E49" s="39" t="n">
-        <v>37.3</v>
+        <v>39.9</v>
       </c>
       <c r="F49" s="39" t="n">
-        <v>83.8</v>
+        <v>57.2</v>
       </c>
       <c r="G49" s="39" t="n">
-        <v>11.8</v>
+        <v>2.6</v>
       </c>
       <c r="H49" s="39" t="n">
-        <v>59.9</v>
+        <v>27.3</v>
       </c>
       <c r="I49" s="39" t="n">
-        <v>74.40000000000001</v>
+        <v>46.2</v>
       </c>
       <c r="J49" s="39" t="n">
-        <v>84.09999999999999</v>
+        <v>68.2</v>
       </c>
       <c r="K49" s="39" t="n">
-        <v>50.1</v>
+        <v>60</v>
       </c>
       <c r="L49" s="39" t="n">
-        <v>46</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="M49" s="39" t="n">
-        <v>70.40000000000001</v>
+        <v>58.2</v>
       </c>
       <c r="N49" s="39" t="n">
-        <v>78.2</v>
+        <v>30.7</v>
       </c>
       <c r="O49" s="39" t="n">
-        <v>90.59999999999999</v>
+        <v>55.8</v>
       </c>
       <c r="P49" s="39" t="n">
-        <v>34.9</v>
+        <v>55.8</v>
       </c>
       <c r="Q49" s="39" t="n">
-        <v>18.6</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="R49" s="39" t="n">
-        <v>18.6</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="S49" s="39" t="n">
-        <v>7.4</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="T49" s="39" t="n">
-        <v>4.7</v>
+        <v>64.8</v>
       </c>
       <c r="U49" s="39" t="n">
-        <v>3.4</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="V49" s="39" t="n">
-        <v>0.9</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="W49" s="39" t="n">
-        <v>0.5</v>
+        <v>35.3</v>
       </c>
       <c r="X49" s="39" t="n">
-        <v>55.7</v>
+        <v>58.8</v>
       </c>
       <c r="Y49" s="39" t="inlineStr">
         <is>
-          <t>饮食ETF</t>
+          <t>长江保护主题ETF</t>
         </is>
       </c>
     </row>
@@ -16004,79 +16006,79 @@
         <v>48</v>
       </c>
       <c r="B50" s="39" t="n">
-        <v>513120</v>
+        <v>159647</v>
       </c>
       <c r="C50" s="39" t="inlineStr">
         <is>
-          <t>港股创新药ETF</t>
+          <t>中药ETF</t>
         </is>
       </c>
       <c r="D50" s="39" t="n">
-        <v>109.14</v>
+        <v>7.3</v>
       </c>
       <c r="E50" s="39" t="n">
-        <v>67.5</v>
+        <v>58.6</v>
       </c>
       <c r="F50" s="39" t="n">
-        <v>39.9</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="G50" s="39" t="n">
-        <v>7.2</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H50" s="39" t="n">
-        <v>3.3</v>
+        <v>40.7</v>
       </c>
       <c r="I50" s="39" t="n">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="J50" s="39" t="n">
-        <v>55.4</v>
+        <v>71.8</v>
       </c>
       <c r="K50" s="39" t="n">
-        <v>78.3</v>
+        <v>56.9</v>
       </c>
       <c r="L50" s="39" t="n">
-        <v>89.09999999999999</v>
+        <v>60.9</v>
       </c>
       <c r="M50" s="39" t="n">
-        <v>65</v>
+        <v>87.3</v>
       </c>
       <c r="N50" s="39" t="n">
-        <v>33.9</v>
+        <v>50.3</v>
       </c>
       <c r="O50" s="39" t="n">
-        <v>33.9</v>
+        <v>44.1</v>
       </c>
       <c r="P50" s="39" t="n">
-        <v>28.9</v>
+        <v>29.5</v>
       </c>
       <c r="Q50" s="39" t="n">
-        <v>82.09999999999999</v>
+        <v>47</v>
       </c>
       <c r="R50" s="39" t="n">
-        <v>95.59999999999999</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="S50" s="39" t="n">
-        <v>97.09999999999999</v>
+        <v>30.4</v>
       </c>
       <c r="T50" s="39" t="n">
-        <v>98.09999999999999</v>
+        <v>51.8</v>
       </c>
       <c r="U50" s="39" t="n">
-        <v>98.40000000000001</v>
+        <v>26.9</v>
       </c>
       <c r="V50" s="39" t="n">
-        <v>32.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="W50" s="39" t="n">
-        <v>54.8</v>
+        <v>7.9</v>
       </c>
       <c r="X50" s="39" t="n">
-        <v>58.7</v>
+        <v>60.3</v>
       </c>
       <c r="Y50" s="39" t="inlineStr">
         <is>
-          <t>港股创新药ETF</t>
+          <t>中药ETF</t>
         </is>
       </c>
     </row>
@@ -16084,82 +16086,80 @@
       <c r="A51" s="39" t="n">
         <v>49</v>
       </c>
-      <c r="B51" s="39" t="inlineStr">
-        <is>
-          <t>517160</t>
-        </is>
+      <c r="B51" s="39" t="n">
+        <v>512070</v>
       </c>
       <c r="C51" s="39" t="inlineStr">
         <is>
-          <t>长江保护主题ETF</t>
+          <t>证券保险ETF</t>
         </is>
       </c>
       <c r="D51" s="39" t="n">
-        <v>12.94</v>
+        <v>63.84</v>
       </c>
       <c r="E51" s="39" t="n">
-        <v>39.9</v>
+        <v>49.3</v>
       </c>
       <c r="F51" s="39" t="n">
-        <v>57.2</v>
+        <v>25.7</v>
       </c>
       <c r="G51" s="39" t="n">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="H51" s="39" t="n">
-        <v>27.3</v>
+        <v>28.2</v>
       </c>
       <c r="I51" s="39" t="n">
-        <v>46.2</v>
+        <v>48.4</v>
       </c>
       <c r="J51" s="39" t="n">
-        <v>68.2</v>
+        <v>67</v>
       </c>
       <c r="K51" s="39" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="L51" s="39" t="n">
-        <v>79.59999999999999</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="M51" s="39" t="n">
-        <v>58.2</v>
+        <v>77</v>
       </c>
       <c r="N51" s="39" t="n">
-        <v>30.7</v>
+        <v>54.9</v>
       </c>
       <c r="O51" s="39" t="n">
-        <v>55.8</v>
+        <v>71.3</v>
       </c>
       <c r="P51" s="39" t="n">
-        <v>55.8</v>
+        <v>93.8</v>
       </c>
       <c r="Q51" s="39" t="n">
-        <v>84.90000000000001</v>
+        <v>96.2</v>
       </c>
       <c r="R51" s="39" t="n">
-        <v>88.59999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="S51" s="39" t="n">
-        <v>97.09999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="T51" s="39" t="n">
-        <v>64.8</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="U51" s="39" t="n">
-        <v>73.59999999999999</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="V51" s="39" t="n">
-        <v>82.40000000000001</v>
+        <v>31.1</v>
       </c>
       <c r="W51" s="39" t="n">
-        <v>35.3</v>
+        <v>11.5</v>
       </c>
       <c r="X51" s="39" t="n">
-        <v>58.8</v>
+        <v>60.8</v>
       </c>
       <c r="Y51" s="39" t="inlineStr">
         <is>
-          <t>长江保护主题ETF</t>
+          <t>证券保险ETF</t>
         </is>
       </c>
     </row>
@@ -16168,79 +16168,79 @@
         <v>50</v>
       </c>
       <c r="B52" s="39" t="n">
-        <v>516160</v>
+        <v>513120</v>
       </c>
       <c r="C52" s="39" t="inlineStr">
         <is>
-          <t>新能源ETF</t>
+          <t>港股创新药ETF</t>
         </is>
       </c>
       <c r="D52" s="39" t="n">
-        <v>44.01</v>
+        <v>109.37</v>
       </c>
       <c r="E52" s="39" t="n">
-        <v>20.5</v>
+        <v>67.5</v>
       </c>
       <c r="F52" s="39" t="n">
-        <v>5.6</v>
+        <v>39.9</v>
       </c>
       <c r="G52" s="39" t="n">
-        <v>0.5</v>
+        <v>7.2</v>
       </c>
       <c r="H52" s="39" t="n">
-        <v>0.5</v>
+        <v>3.3</v>
       </c>
       <c r="I52" s="39" t="n">
-        <v>5.8</v>
+        <v>9</v>
       </c>
       <c r="J52" s="39" t="n">
-        <v>57.4</v>
+        <v>55.4</v>
       </c>
       <c r="K52" s="39" t="n">
-        <v>68.5</v>
+        <v>78.3</v>
       </c>
       <c r="L52" s="39" t="n">
-        <v>80.5</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="M52" s="39" t="n">
-        <v>76.09999999999999</v>
+        <v>65</v>
       </c>
       <c r="N52" s="39" t="n">
-        <v>26.3</v>
+        <v>33.9</v>
       </c>
       <c r="O52" s="39" t="n">
-        <v>21.4</v>
+        <v>33.9</v>
       </c>
       <c r="P52" s="39" t="n">
-        <v>51.6</v>
+        <v>28.9</v>
       </c>
       <c r="Q52" s="39" t="n">
-        <v>87.2</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="R52" s="39" t="n">
-        <v>61.9</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="S52" s="39" t="n">
-        <v>82.40000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="T52" s="39" t="n">
-        <v>50.1</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="U52" s="39" t="n">
-        <v>77.09999999999999</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="V52" s="39" t="n">
-        <v>52.1</v>
+        <v>32.6</v>
       </c>
       <c r="W52" s="39" t="n">
-        <v>22.7</v>
+        <v>54.8</v>
       </c>
       <c r="X52" s="39" t="n">
-        <v>61.1</v>
+        <v>62</v>
       </c>
       <c r="Y52" s="39" t="inlineStr">
         <is>
-          <t>新能源ETF</t>
+          <t>港股创新药ETF</t>
         </is>
       </c>
     </row>
@@ -16249,79 +16249,79 @@
         <v>51</v>
       </c>
       <c r="B53" s="39" t="n">
-        <v>159866</v>
+        <v>159928</v>
       </c>
       <c r="C53" s="39" t="inlineStr">
         <is>
-          <t>日经ETF</t>
+          <t>消费ETF</t>
         </is>
       </c>
       <c r="D53" s="39" t="n">
-        <v>6.62</v>
+        <v>152.99</v>
       </c>
       <c r="E53" s="39" t="n">
-        <v>70.40000000000001</v>
+        <v>36.7</v>
       </c>
       <c r="F53" s="39" t="n">
-        <v>20.7</v>
+        <v>80.8</v>
       </c>
       <c r="G53" s="39" t="n">
-        <v>3.6</v>
+        <v>18.8</v>
       </c>
       <c r="H53" s="39" t="n">
-        <v>47.4</v>
+        <v>70.7</v>
       </c>
       <c r="I53" s="39" t="n">
-        <v>37.6</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="J53" s="39" t="n">
-        <v>77</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K53" s="39" t="n">
-        <v>60.9</v>
+        <v>41.6</v>
       </c>
       <c r="L53" s="39" t="n">
-        <v>76.7</v>
+        <v>29</v>
       </c>
       <c r="M53" s="39" t="n">
-        <v>76.7</v>
+        <v>38.4</v>
       </c>
       <c r="N53" s="39" t="n">
-        <v>52.5</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="O53" s="39" t="n">
-        <v>78</v>
+        <v>84.2</v>
       </c>
       <c r="P53" s="39" t="n">
-        <v>87.59999999999999</v>
+        <v>32.1</v>
       </c>
       <c r="Q53" s="39" t="n">
-        <v>52.9</v>
+        <v>15.8</v>
       </c>
       <c r="R53" s="39" t="n">
-        <v>77.09999999999999</v>
+        <v>40.1</v>
       </c>
       <c r="S53" s="39" t="n">
-        <v>87.90000000000001</v>
+        <v>14.7</v>
       </c>
       <c r="T53" s="39" t="n">
-        <v>48.5</v>
+        <v>12.1</v>
       </c>
       <c r="U53" s="39" t="n">
-        <v>83.40000000000001</v>
+        <v>7.1</v>
       </c>
       <c r="V53" s="39" t="n">
-        <v>90.09999999999999</v>
+        <v>3.2</v>
       </c>
       <c r="W53" s="39" t="n">
-        <v>94.5</v>
+        <v>1.8</v>
       </c>
       <c r="X53" s="39" t="n">
-        <v>62.6</v>
+        <v>63.6</v>
       </c>
       <c r="Y53" s="39" t="inlineStr">
         <is>
-          <t>日经ETF</t>
+          <t>消费ETF</t>
         </is>
       </c>
     </row>
@@ -16330,79 +16330,79 @@
         <v>52</v>
       </c>
       <c r="B54" s="39" t="n">
-        <v>512880</v>
+        <v>516160</v>
       </c>
       <c r="C54" s="39" t="inlineStr">
         <is>
-          <t>证券ETF</t>
+          <t>新能源ETF</t>
         </is>
       </c>
       <c r="D54" s="39" t="n">
-        <v>279.5</v>
+        <v>44.01</v>
       </c>
       <c r="E54" s="39" t="n">
-        <v>43.1</v>
+        <v>20.5</v>
       </c>
       <c r="F54" s="39" t="n">
-        <v>43.1</v>
+        <v>5.6</v>
       </c>
       <c r="G54" s="39" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H54" s="39" t="n">
-        <v>20.9</v>
+        <v>0.5</v>
       </c>
       <c r="I54" s="39" t="n">
-        <v>50.6</v>
+        <v>5.8</v>
       </c>
       <c r="J54" s="39" t="n">
-        <v>66.3</v>
+        <v>57.4</v>
       </c>
       <c r="K54" s="39" t="n">
-        <v>71.8</v>
+        <v>68.5</v>
       </c>
       <c r="L54" s="39" t="n">
-        <v>71.8</v>
+        <v>80.5</v>
       </c>
       <c r="M54" s="39" t="n">
-        <v>39.5</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="N54" s="39" t="n">
-        <v>29.1</v>
+        <v>26.3</v>
       </c>
       <c r="O54" s="39" t="n">
-        <v>29.1</v>
+        <v>21.4</v>
       </c>
       <c r="P54" s="39" t="n">
-        <v>84.90000000000001</v>
+        <v>51.6</v>
       </c>
       <c r="Q54" s="39" t="n">
-        <v>93.59999999999999</v>
+        <v>87.2</v>
       </c>
       <c r="R54" s="39" t="n">
-        <v>67.7</v>
+        <v>61.9</v>
       </c>
       <c r="S54" s="39" t="n">
-        <v>74.7</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="T54" s="39" t="n">
-        <v>27.3</v>
+        <v>50.1</v>
       </c>
       <c r="U54" s="39" t="n">
-        <v>81.09999999999999</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="V54" s="39" t="n">
-        <v>35</v>
+        <v>52.1</v>
       </c>
       <c r="W54" s="39" t="n">
-        <v>24.6</v>
+        <v>22.7</v>
       </c>
       <c r="X54" s="39" t="n">
-        <v>65.59999999999999</v>
+        <v>63.7</v>
       </c>
       <c r="Y54" s="39" t="inlineStr">
         <is>
-          <t>证券ETF</t>
+          <t>新能源ETF</t>
         </is>
       </c>
     </row>
@@ -16410,80 +16410,82 @@
       <c r="A55" s="39" t="n">
         <v>53</v>
       </c>
-      <c r="B55" s="39" t="n">
-        <v>512070</v>
+      <c r="B55" s="39" t="inlineStr">
+        <is>
+          <t>159509</t>
+        </is>
       </c>
       <c r="C55" s="39" t="inlineStr">
         <is>
-          <t>证券保险ETF</t>
+          <t>纳指科技ETF</t>
         </is>
       </c>
       <c r="D55" s="39" t="n">
-        <v>63.92</v>
+        <v>88.3</v>
       </c>
       <c r="E55" s="39" t="n">
-        <v>49.3</v>
+        <v>64.8</v>
       </c>
       <c r="F55" s="39" t="n">
-        <v>25.7</v>
+        <v>27</v>
       </c>
       <c r="G55" s="39" t="n">
-        <v>1.1</v>
+        <v>5.3</v>
       </c>
       <c r="H55" s="39" t="n">
-        <v>28.2</v>
+        <v>27.4</v>
       </c>
       <c r="I55" s="39" t="n">
-        <v>48.4</v>
+        <v>24.8</v>
       </c>
       <c r="J55" s="39" t="n">
-        <v>67</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="K55" s="39" t="n">
-        <v>67</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="L55" s="39" t="n">
-        <v>71.09999999999999</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="M55" s="39" t="n">
-        <v>77</v>
+        <v>52.2</v>
       </c>
       <c r="N55" s="39" t="n">
-        <v>54.9</v>
+        <v>23.6</v>
       </c>
       <c r="O55" s="39" t="n">
-        <v>71.3</v>
+        <v>40</v>
       </c>
       <c r="P55" s="39" t="n">
-        <v>93.8</v>
+        <v>24.4</v>
       </c>
       <c r="Q55" s="39" t="n">
-        <v>96.2</v>
+        <v>17.8</v>
       </c>
       <c r="R55" s="39" t="n">
-        <v>97.3</v>
+        <v>23.7</v>
       </c>
       <c r="S55" s="39" t="n">
-        <v>98.7</v>
+        <v>90.7</v>
       </c>
       <c r="T55" s="39" t="n">
-        <v>64.59999999999999</v>
+        <v>47.9</v>
       </c>
       <c r="U55" s="39" t="n">
-        <v>85.09999999999999</v>
+        <v>81.3</v>
       </c>
       <c r="V55" s="39" t="n">
-        <v>31.1</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="W55" s="39" t="n">
-        <v>11.5</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="X55" s="39" t="n">
-        <v>65.59999999999999</v>
+        <v>65.3</v>
       </c>
       <c r="Y55" s="39" t="inlineStr">
         <is>
-          <t>证券保险ETF</t>
+          <t>纳指科技ETF</t>
         </is>
       </c>
     </row>
@@ -16492,79 +16494,79 @@
         <v>54</v>
       </c>
       <c r="B56" s="39" t="n">
-        <v>159928</v>
+        <v>513090</v>
       </c>
       <c r="C56" s="39" t="inlineStr">
         <is>
-          <t>消费ETF</t>
+          <t>香港证券ETF</t>
         </is>
       </c>
       <c r="D56" s="39" t="n">
-        <v>153.18</v>
+        <v>71.18000000000001</v>
       </c>
       <c r="E56" s="39" t="n">
-        <v>36.7</v>
+        <v>57.7</v>
       </c>
       <c r="F56" s="39" t="n">
-        <v>80.8</v>
+        <v>30.1</v>
       </c>
       <c r="G56" s="39" t="n">
-        <v>18.8</v>
+        <v>2.9</v>
       </c>
       <c r="H56" s="39" t="n">
-        <v>70.7</v>
+        <v>1.6</v>
       </c>
       <c r="I56" s="39" t="n">
-        <v>80.59999999999999</v>
+        <v>24.6</v>
       </c>
       <c r="J56" s="39" t="n">
-        <v>81.59999999999999</v>
+        <v>58.1</v>
       </c>
       <c r="K56" s="39" t="n">
-        <v>41.6</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="L56" s="39" t="n">
-        <v>29</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="M56" s="39" t="n">
-        <v>38.4</v>
+        <v>80.2</v>
       </c>
       <c r="N56" s="39" t="n">
-        <v>65.59999999999999</v>
+        <v>33.6</v>
       </c>
       <c r="O56" s="39" t="n">
-        <v>84.2</v>
+        <v>44.4</v>
       </c>
       <c r="P56" s="39" t="n">
-        <v>32.1</v>
+        <v>48.5</v>
       </c>
       <c r="Q56" s="39" t="n">
-        <v>15.8</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="R56" s="39" t="n">
-        <v>40.1</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="S56" s="39" t="n">
-        <v>14.7</v>
+        <v>96.7</v>
       </c>
       <c r="T56" s="39" t="n">
-        <v>12.1</v>
+        <v>40.2</v>
       </c>
       <c r="U56" s="39" t="n">
-        <v>7.1</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="V56" s="39" t="n">
-        <v>3.2</v>
+        <v>52.6</v>
       </c>
       <c r="W56" s="39" t="n">
-        <v>1.8</v>
+        <v>35.4</v>
       </c>
       <c r="X56" s="39" t="n">
-        <v>68.5</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="Y56" s="39" t="inlineStr">
         <is>
-          <t>消费ETF</t>
+          <t>香港证券ETF</t>
         </is>
       </c>
     </row>
@@ -16573,79 +16575,79 @@
         <v>55</v>
       </c>
       <c r="B57" s="39" t="n">
-        <v>513090</v>
+        <v>512880</v>
       </c>
       <c r="C57" s="39" t="inlineStr">
         <is>
-          <t>香港证券ETF</t>
+          <t>证券ETF</t>
         </is>
       </c>
       <c r="D57" s="39" t="n">
-        <v>71.18000000000001</v>
+        <v>279.76</v>
       </c>
       <c r="E57" s="39" t="n">
-        <v>57.7</v>
+        <v>43.1</v>
       </c>
       <c r="F57" s="39" t="n">
-        <v>30.1</v>
+        <v>43.1</v>
       </c>
       <c r="G57" s="39" t="n">
-        <v>2.9</v>
+        <v>1.1</v>
       </c>
       <c r="H57" s="39" t="n">
-        <v>1.6</v>
+        <v>20.9</v>
       </c>
       <c r="I57" s="39" t="n">
+        <v>50.6</v>
+      </c>
+      <c r="J57" s="39" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="K57" s="39" t="n">
+        <v>71.8</v>
+      </c>
+      <c r="L57" s="39" t="n">
+        <v>71.8</v>
+      </c>
+      <c r="M57" s="39" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="N57" s="39" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="O57" s="39" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="P57" s="39" t="n">
+        <v>84.90000000000001</v>
+      </c>
+      <c r="Q57" s="39" t="n">
+        <v>93.59999999999999</v>
+      </c>
+      <c r="R57" s="39" t="n">
+        <v>67.7</v>
+      </c>
+      <c r="S57" s="39" t="n">
+        <v>74.7</v>
+      </c>
+      <c r="T57" s="39" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="U57" s="39" t="n">
+        <v>81.09999999999999</v>
+      </c>
+      <c r="V57" s="39" t="n">
+        <v>35</v>
+      </c>
+      <c r="W57" s="39" t="n">
         <v>24.6</v>
       </c>
-      <c r="J57" s="39" t="n">
-        <v>58.1</v>
-      </c>
-      <c r="K57" s="39" t="n">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="L57" s="39" t="n">
-        <v>85.09999999999999</v>
-      </c>
-      <c r="M57" s="39" t="n">
-        <v>80.2</v>
-      </c>
-      <c r="N57" s="39" t="n">
-        <v>33.6</v>
-      </c>
-      <c r="O57" s="39" t="n">
-        <v>44.4</v>
-      </c>
-      <c r="P57" s="39" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="Q57" s="39" t="n">
-        <v>72.90000000000001</v>
-      </c>
-      <c r="R57" s="39" t="n">
-        <v>91.09999999999999</v>
-      </c>
-      <c r="S57" s="39" t="n">
-        <v>96.7</v>
-      </c>
-      <c r="T57" s="39" t="n">
-        <v>40.2</v>
-      </c>
-      <c r="U57" s="39" t="n">
-        <v>76.59999999999999</v>
-      </c>
-      <c r="V57" s="39" t="n">
-        <v>52.6</v>
-      </c>
-      <c r="W57" s="39" t="n">
-        <v>35.4</v>
-      </c>
       <c r="X57" s="39" t="n">
-        <v>69.59999999999999</v>
+        <v>68.5</v>
       </c>
       <c r="Y57" s="39" t="inlineStr">
         <is>
-          <t>香港证券ETF</t>
+          <t>证券ETF</t>
         </is>
       </c>
     </row>
@@ -16654,79 +16656,79 @@
         <v>56</v>
       </c>
       <c r="B58" s="39" t="n">
-        <v>516110</v>
+        <v>513050</v>
       </c>
       <c r="C58" s="39" t="inlineStr">
         <is>
-          <t>汽车ETF</t>
+          <t>中概互联网ETF</t>
         </is>
       </c>
       <c r="D58" s="39" t="n">
-        <v>4.19</v>
+        <v>343.84</v>
       </c>
       <c r="E58" s="39" t="n">
-        <v>11.2</v>
+        <v>31.8</v>
       </c>
       <c r="F58" s="39" t="n">
-        <v>2.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G58" s="39" t="n">
-        <v>0.2</v>
+        <v>1.3</v>
       </c>
       <c r="H58" s="39" t="n">
-        <v>5.5</v>
+        <v>0.9</v>
       </c>
       <c r="I58" s="39" t="n">
-        <v>26.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J58" s="39" t="n">
-        <v>71</v>
+        <v>56.6</v>
       </c>
       <c r="K58" s="39" t="n">
-        <v>85.3</v>
+        <v>45</v>
       </c>
       <c r="L58" s="39" t="n">
-        <v>89.7</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="M58" s="39" t="n">
-        <v>70.3</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="N58" s="39" t="n">
-        <v>42.6</v>
+        <v>23.7</v>
       </c>
       <c r="O58" s="39" t="n">
-        <v>18.4</v>
+        <v>56.2</v>
       </c>
       <c r="P58" s="39" t="n">
-        <v>29.1</v>
+        <v>39.4</v>
       </c>
       <c r="Q58" s="39" t="n">
-        <v>79</v>
+        <v>60.4</v>
       </c>
       <c r="R58" s="39" t="n">
-        <v>64</v>
+        <v>79.7</v>
       </c>
       <c r="S58" s="39" t="n">
-        <v>93</v>
+        <v>96.3</v>
       </c>
       <c r="T58" s="39" t="n">
-        <v>60.5</v>
+        <v>52.1</v>
       </c>
       <c r="U58" s="39" t="n">
-        <v>75.90000000000001</v>
+        <v>75.5</v>
       </c>
       <c r="V58" s="39" t="n">
-        <v>31.6</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="W58" s="39" t="n">
-        <v>29.7</v>
+        <v>44.3</v>
       </c>
       <c r="X58" s="39" t="n">
-        <v>69.90000000000001</v>
+        <v>73.3</v>
       </c>
       <c r="Y58" s="39" t="inlineStr">
         <is>
-          <t>汽车ETF</t>
+          <t>中概互联网ETF</t>
         </is>
       </c>
     </row>
@@ -16734,82 +16736,80 @@
       <c r="A59" s="39" t="n">
         <v>57</v>
       </c>
-      <c r="B59" s="39" t="inlineStr">
-        <is>
-          <t>159509</t>
-        </is>
+      <c r="B59" s="39" t="n">
+        <v>512660</v>
       </c>
       <c r="C59" s="39" t="inlineStr">
         <is>
-          <t>纳指科技ETF</t>
+          <t>军工ETF</t>
         </is>
       </c>
       <c r="D59" s="39" t="n">
-        <v>88.42</v>
+        <v>128.5</v>
       </c>
       <c r="E59" s="39" t="n">
-        <v>64.8</v>
+        <v>27.6</v>
       </c>
       <c r="F59" s="39" t="n">
-        <v>27</v>
+        <v>22.3</v>
       </c>
       <c r="G59" s="39" t="n">
-        <v>5.3</v>
+        <v>1.7</v>
       </c>
       <c r="H59" s="39" t="n">
-        <v>27.4</v>
+        <v>28.6</v>
       </c>
       <c r="I59" s="39" t="n">
-        <v>24.8</v>
+        <v>71.8</v>
       </c>
       <c r="J59" s="39" t="n">
-        <v>85.09999999999999</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="K59" s="39" t="n">
-        <v>71.40000000000001</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="L59" s="39" t="n">
-        <v>83.90000000000001</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="M59" s="39" t="n">
-        <v>52.2</v>
+        <v>31.7</v>
       </c>
       <c r="N59" s="39" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="O59" s="39" t="n">
-        <v>40</v>
+        <v>30.6</v>
       </c>
       <c r="P59" s="39" t="n">
-        <v>24.4</v>
+        <v>14.4</v>
       </c>
       <c r="Q59" s="39" t="n">
-        <v>17.8</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="R59" s="39" t="n">
-        <v>23.7</v>
+        <v>51.4</v>
       </c>
       <c r="S59" s="39" t="n">
-        <v>90.7</v>
+        <v>46.1</v>
       </c>
       <c r="T59" s="39" t="n">
-        <v>47.9</v>
+        <v>15</v>
       </c>
       <c r="U59" s="39" t="n">
-        <v>81.3</v>
+        <v>39.5</v>
       </c>
       <c r="V59" s="39" t="n">
-        <v>83.40000000000001</v>
+        <v>16.8</v>
       </c>
       <c r="W59" s="39" t="n">
-        <v>76.40000000000001</v>
+        <v>16.8</v>
       </c>
       <c r="X59" s="39" t="n">
-        <v>70.40000000000001</v>
+        <v>74.8</v>
       </c>
       <c r="Y59" s="39" t="inlineStr">
         <is>
-          <t>纳指科技ETF</t>
+          <t>军工ETF</t>
         </is>
       </c>
     </row>
@@ -16818,79 +16818,79 @@
         <v>58</v>
       </c>
       <c r="B60" s="39" t="n">
-        <v>512660</v>
+        <v>516110</v>
       </c>
       <c r="C60" s="39" t="inlineStr">
         <is>
-          <t>军工ETF</t>
+          <t>汽车ETF</t>
         </is>
       </c>
       <c r="D60" s="39" t="n">
-        <v>128.5</v>
+        <v>4.21</v>
       </c>
       <c r="E60" s="39" t="n">
-        <v>27.6</v>
+        <v>11.2</v>
       </c>
       <c r="F60" s="39" t="n">
-        <v>22.3</v>
+        <v>2.6</v>
       </c>
       <c r="G60" s="39" t="n">
-        <v>1.7</v>
+        <v>0.2</v>
       </c>
       <c r="H60" s="39" t="n">
-        <v>28.6</v>
+        <v>5.5</v>
       </c>
       <c r="I60" s="39" t="n">
-        <v>71.8</v>
+        <v>26.9</v>
       </c>
       <c r="J60" s="39" t="n">
-        <v>77.40000000000001</v>
+        <v>71</v>
       </c>
       <c r="K60" s="39" t="n">
-        <v>83.90000000000001</v>
+        <v>85.3</v>
       </c>
       <c r="L60" s="39" t="n">
-        <v>85.40000000000001</v>
+        <v>89.7</v>
       </c>
       <c r="M60" s="39" t="n">
-        <v>31.7</v>
+        <v>70.3</v>
       </c>
       <c r="N60" s="39" t="n">
-        <v>23.5</v>
+        <v>42.6</v>
       </c>
       <c r="O60" s="39" t="n">
-        <v>30.6</v>
+        <v>18.4</v>
       </c>
       <c r="P60" s="39" t="n">
-        <v>14.4</v>
+        <v>29.1</v>
       </c>
       <c r="Q60" s="39" t="n">
-        <v>78.59999999999999</v>
+        <v>79</v>
       </c>
       <c r="R60" s="39" t="n">
-        <v>51.4</v>
+        <v>64</v>
       </c>
       <c r="S60" s="39" t="n">
-        <v>46.1</v>
+        <v>93</v>
       </c>
       <c r="T60" s="39" t="n">
-        <v>15</v>
+        <v>60.5</v>
       </c>
       <c r="U60" s="39" t="n">
-        <v>39.5</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="V60" s="39" t="n">
-        <v>16.8</v>
+        <v>31.6</v>
       </c>
       <c r="W60" s="39" t="n">
-        <v>16.8</v>
+        <v>29.7</v>
       </c>
       <c r="X60" s="39" t="n">
-        <v>74.8</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="Y60" s="39" t="inlineStr">
         <is>
-          <t>军工ETF</t>
+          <t>汽车ETF</t>
         </is>
       </c>
     </row>
@@ -16899,79 +16899,79 @@
         <v>59</v>
       </c>
       <c r="B61" s="39" t="n">
-        <v>515030</v>
+        <v>159883</v>
       </c>
       <c r="C61" s="39" t="inlineStr">
         <is>
-          <t>新能源车ETF</t>
+          <t>医疗器械ETF</t>
         </is>
       </c>
       <c r="D61" s="39" t="n">
-        <v>42.94</v>
+        <v>16.33</v>
       </c>
       <c r="E61" s="39" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="F61" s="39" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="G61" s="39" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H61" s="39" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="I61" s="39" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="J61" s="39" t="n">
+        <v>66.40000000000001</v>
+      </c>
+      <c r="K61" s="39" t="n">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="L61" s="39" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="M61" s="39" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="N61" s="39" t="n">
         <v>18.3</v>
       </c>
-      <c r="F61" s="39" t="n">
-        <v>5</v>
-      </c>
-      <c r="G61" s="39" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H61" s="39" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="I61" s="39" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="J61" s="39" t="n">
-        <v>59</v>
-      </c>
-      <c r="K61" s="39" t="n">
-        <v>77.40000000000001</v>
-      </c>
-      <c r="L61" s="39" t="n">
-        <v>80.5</v>
-      </c>
-      <c r="M61" s="39" t="n">
-        <v>83.90000000000001</v>
-      </c>
-      <c r="N61" s="39" t="n">
-        <v>27.2</v>
-      </c>
       <c r="O61" s="39" t="n">
-        <v>22.2</v>
+        <v>45.9</v>
       </c>
       <c r="P61" s="39" t="n">
-        <v>51.8</v>
+        <v>19.5</v>
       </c>
       <c r="Q61" s="39" t="n">
-        <v>89.3</v>
+        <v>70.5</v>
       </c>
       <c r="R61" s="39" t="n">
-        <v>66.7</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="S61" s="39" t="n">
-        <v>90</v>
+        <v>56.1</v>
       </c>
       <c r="T61" s="39" t="n">
-        <v>69</v>
+        <v>18.3</v>
       </c>
       <c r="U61" s="39" t="n">
-        <v>80.09999999999999</v>
+        <v>13.7</v>
       </c>
       <c r="V61" s="39" t="n">
-        <v>26.4</v>
+        <v>3.9</v>
       </c>
       <c r="W61" s="39" t="n">
-        <v>40.5</v>
+        <v>38.9</v>
       </c>
       <c r="X61" s="39" t="n">
-        <v>75.2</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="Y61" s="39" t="inlineStr">
         <is>
-          <t>新能源车ETF</t>
+          <t>医疗器械ETF</t>
         </is>
       </c>
     </row>
@@ -16979,82 +16979,80 @@
       <c r="A62" s="39" t="n">
         <v>60</v>
       </c>
-      <c r="B62" s="39" t="inlineStr">
-        <is>
-          <t>159949</t>
-        </is>
+      <c r="B62" s="39" t="n">
+        <v>159870</v>
       </c>
       <c r="C62" s="39" t="inlineStr">
         <is>
-          <t>创业板50ETF</t>
+          <t>化工ETF</t>
         </is>
       </c>
       <c r="D62" s="39" t="n">
-        <v>251.15</v>
+        <v>14.25</v>
       </c>
       <c r="E62" s="39" t="n">
-        <v>36.2</v>
+        <v>48.5</v>
       </c>
       <c r="F62" s="39" t="n">
-        <v>6.1</v>
+        <v>13.8</v>
       </c>
       <c r="G62" s="39" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H62" s="39" t="n">
-        <v>11.4</v>
+        <v>31.5</v>
       </c>
       <c r="I62" s="39" t="n">
-        <v>22.1</v>
+        <v>34.4</v>
       </c>
       <c r="J62" s="39" t="n">
-        <v>58.2</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="K62" s="39" t="n">
-        <v>75</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="L62" s="39" t="n">
-        <v>78.90000000000001</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="M62" s="39" t="n">
-        <v>78.90000000000001</v>
+        <v>33.5</v>
       </c>
       <c r="N62" s="39" t="n">
-        <v>25.6</v>
+        <v>15.9</v>
       </c>
       <c r="O62" s="39" t="n">
-        <v>34.4</v>
+        <v>30.5</v>
       </c>
       <c r="P62" s="39" t="n">
-        <v>70.09999999999999</v>
+        <v>30.5</v>
       </c>
       <c r="Q62" s="39" t="n">
-        <v>91.7</v>
+        <v>84.5</v>
       </c>
       <c r="R62" s="39" t="n">
-        <v>73.90000000000001</v>
+        <v>88.2</v>
       </c>
       <c r="S62" s="39" t="n">
-        <v>92.2</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="T62" s="39" t="n">
-        <v>50.7</v>
+        <v>72.3</v>
       </c>
       <c r="U62" s="39" t="n">
-        <v>75.7</v>
+        <v>92</v>
       </c>
       <c r="V62" s="39" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="W62" s="39" t="n">
-        <v>33.4</v>
+        <v>49.8</v>
       </c>
       <c r="X62" s="39" t="n">
-        <v>76.09999999999999</v>
+        <v>76.5</v>
       </c>
       <c r="Y62" s="39" t="inlineStr">
         <is>
-          <t>创业板50ETF</t>
+          <t>化工ETF</t>
         </is>
       </c>
     </row>
@@ -17063,79 +17061,79 @@
         <v>61</v>
       </c>
       <c r="B63" s="39" t="n">
-        <v>159870</v>
+        <v>159915</v>
       </c>
       <c r="C63" s="39" t="inlineStr">
         <is>
-          <t>化工ETF</t>
+          <t>创业板ETF</t>
         </is>
       </c>
       <c r="D63" s="39" t="n">
-        <v>14.28</v>
+        <v>851.3</v>
       </c>
       <c r="E63" s="39" t="n">
-        <v>48.5</v>
+        <v>19.6</v>
       </c>
       <c r="F63" s="39" t="n">
-        <v>13.8</v>
+        <v>2.7</v>
       </c>
       <c r="G63" s="39" t="n">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="H63" s="39" t="n">
-        <v>31.5</v>
+        <v>17.7</v>
       </c>
       <c r="I63" s="39" t="n">
-        <v>34.4</v>
+        <v>33</v>
       </c>
       <c r="J63" s="39" t="n">
-        <v>64.40000000000001</v>
+        <v>62.5</v>
       </c>
       <c r="K63" s="39" t="n">
-        <v>67.40000000000001</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="L63" s="39" t="n">
-        <v>75.59999999999999</v>
+        <v>78.8</v>
       </c>
       <c r="M63" s="39" t="n">
-        <v>33.5</v>
+        <v>71.7</v>
       </c>
       <c r="N63" s="39" t="n">
-        <v>15.9</v>
+        <v>23.3</v>
       </c>
       <c r="O63" s="39" t="n">
-        <v>30.5</v>
+        <v>34.8</v>
       </c>
       <c r="P63" s="39" t="n">
-        <v>30.5</v>
+        <v>56.5</v>
       </c>
       <c r="Q63" s="39" t="n">
-        <v>84.5</v>
+        <v>91.3</v>
       </c>
       <c r="R63" s="39" t="n">
-        <v>88.2</v>
+        <v>61.7</v>
       </c>
       <c r="S63" s="39" t="n">
-        <v>95.90000000000001</v>
+        <v>84.3</v>
       </c>
       <c r="T63" s="39" t="n">
-        <v>72.3</v>
+        <v>49.3</v>
       </c>
       <c r="U63" s="39" t="n">
-        <v>92</v>
+        <v>73.3</v>
       </c>
       <c r="V63" s="39" t="n">
-        <v>38</v>
+        <v>36.3</v>
       </c>
       <c r="W63" s="39" t="n">
-        <v>49.8</v>
+        <v>29.9</v>
       </c>
       <c r="X63" s="39" t="n">
-        <v>76.5</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="Y63" s="39" t="inlineStr">
         <is>
-          <t>化工ETF</t>
+          <t>创业板ETF</t>
         </is>
       </c>
     </row>
@@ -17144,79 +17142,79 @@
         <v>62</v>
       </c>
       <c r="B64" s="39" t="n">
-        <v>159915</v>
+        <v>515790</v>
       </c>
       <c r="C64" s="39" t="inlineStr">
         <is>
-          <t>创业板ETF</t>
+          <t>光伏ETF</t>
         </is>
       </c>
       <c r="D64" s="39" t="n">
-        <v>849.97</v>
+        <v>88.91</v>
       </c>
       <c r="E64" s="39" t="n">
-        <v>19.6</v>
+        <v>34.8</v>
       </c>
       <c r="F64" s="39" t="n">
-        <v>2.7</v>
+        <v>11.1</v>
       </c>
       <c r="G64" s="39" t="n">
-        <v>0.2</v>
+        <v>1.5</v>
       </c>
       <c r="H64" s="39" t="n">
-        <v>17.7</v>
+        <v>1.2</v>
       </c>
       <c r="I64" s="39" t="n">
-        <v>33</v>
+        <v>17.1</v>
       </c>
       <c r="J64" s="39" t="n">
-        <v>62.5</v>
+        <v>60.5</v>
       </c>
       <c r="K64" s="39" t="n">
-        <v>77.09999999999999</v>
+        <v>64.8</v>
       </c>
       <c r="L64" s="39" t="n">
-        <v>78.8</v>
+        <v>75.5</v>
       </c>
       <c r="M64" s="39" t="n">
-        <v>71.7</v>
+        <v>51.8</v>
       </c>
       <c r="N64" s="39" t="n">
-        <v>23.3</v>
+        <v>23</v>
       </c>
       <c r="O64" s="39" t="n">
-        <v>34.8</v>
+        <v>19.4</v>
       </c>
       <c r="P64" s="39" t="n">
-        <v>56.5</v>
+        <v>11.9</v>
       </c>
       <c r="Q64" s="39" t="n">
-        <v>91.3</v>
+        <v>59.1</v>
       </c>
       <c r="R64" s="39" t="n">
-        <v>61.7</v>
+        <v>34.5</v>
       </c>
       <c r="S64" s="39" t="n">
-        <v>84.3</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="T64" s="39" t="n">
-        <v>49.3</v>
+        <v>19.7</v>
       </c>
       <c r="U64" s="39" t="n">
-        <v>73.3</v>
+        <v>56</v>
       </c>
       <c r="V64" s="39" t="n">
-        <v>36.3</v>
+        <v>56</v>
       </c>
       <c r="W64" s="39" t="n">
-        <v>29.9</v>
+        <v>29.4</v>
       </c>
       <c r="X64" s="39" t="n">
-        <v>76.7</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="Y64" s="39" t="inlineStr">
         <is>
-          <t>创业板ETF</t>
+          <t>光伏ETF</t>
         </is>
       </c>
     </row>
@@ -17224,80 +17222,82 @@
       <c r="A65" s="39" t="n">
         <v>63</v>
       </c>
-      <c r="B65" s="39" t="n">
-        <v>159667</v>
+      <c r="B65" s="39" t="inlineStr">
+        <is>
+          <t>159949</t>
+        </is>
       </c>
       <c r="C65" s="39" t="inlineStr">
         <is>
-          <t>工业母机ETF</t>
+          <t>创业板50ETF</t>
         </is>
       </c>
       <c r="D65" s="39" t="n">
-        <v>4.81</v>
+        <v>251.44</v>
       </c>
       <c r="E65" s="39" t="n">
-        <v>61</v>
+        <v>36.2</v>
       </c>
       <c r="F65" s="39" t="n">
-        <v>15.6</v>
+        <v>6.1</v>
       </c>
       <c r="G65" s="39" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H65" s="39" t="n">
-        <v>1.6</v>
+        <v>11.4</v>
       </c>
       <c r="I65" s="39" t="n">
-        <v>26.1</v>
+        <v>22.1</v>
       </c>
       <c r="J65" s="39" t="n">
-        <v>61.2</v>
+        <v>58.2</v>
       </c>
       <c r="K65" s="39" t="n">
-        <v>74.5</v>
+        <v>75</v>
       </c>
       <c r="L65" s="39" t="n">
-        <v>83.2</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="M65" s="39" t="n">
-        <v>67.8</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="N65" s="39" t="n">
-        <v>23.1</v>
+        <v>25.6</v>
       </c>
       <c r="O65" s="39" t="n">
-        <v>31.6</v>
+        <v>34.4</v>
       </c>
       <c r="P65" s="39" t="n">
-        <v>38.5</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="Q65" s="39" t="n">
-        <v>90.40000000000001</v>
+        <v>91.7</v>
       </c>
       <c r="R65" s="39" t="n">
-        <v>60.3</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="S65" s="39" t="n">
-        <v>87.09999999999999</v>
+        <v>92.2</v>
       </c>
       <c r="T65" s="39" t="n">
-        <v>68.59999999999999</v>
+        <v>50.7</v>
       </c>
       <c r="U65" s="39" t="n">
-        <v>75</v>
+        <v>75.7</v>
       </c>
       <c r="V65" s="39" t="n">
-        <v>23.7</v>
+        <v>43</v>
       </c>
       <c r="W65" s="39" t="n">
-        <v>60.7</v>
+        <v>33.4</v>
       </c>
       <c r="X65" s="39" t="n">
-        <v>76.90000000000001</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="Y65" s="39" t="inlineStr">
         <is>
-          <t>工业母机ETF</t>
+          <t>创业板50ETF</t>
         </is>
       </c>
     </row>
@@ -17306,79 +17306,79 @@
         <v>64</v>
       </c>
       <c r="B66" s="39" t="n">
-        <v>513180</v>
+        <v>513500</v>
       </c>
       <c r="C66" s="39" t="inlineStr">
         <is>
-          <t>恒生科技指数ETF</t>
+          <t>标普500ETF</t>
         </is>
       </c>
       <c r="D66" s="39" t="n">
-        <v>268.08</v>
+        <v>177.64</v>
       </c>
       <c r="E66" s="39" t="n">
-        <v>38.9</v>
+        <v>45.7</v>
       </c>
       <c r="F66" s="39" t="n">
-        <v>11</v>
+        <v>13.7</v>
       </c>
       <c r="G66" s="39" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H66" s="39" t="n">
-        <v>0.8</v>
+        <v>39.8</v>
       </c>
       <c r="I66" s="39" t="n">
-        <v>31.7</v>
+        <v>24.8</v>
       </c>
       <c r="J66" s="39" t="n">
-        <v>64</v>
+        <v>77.2</v>
       </c>
       <c r="K66" s="39" t="n">
-        <v>76.5</v>
+        <v>55.8</v>
       </c>
       <c r="L66" s="39" t="n">
-        <v>83.59999999999999</v>
+        <v>68</v>
       </c>
       <c r="M66" s="39" t="n">
-        <v>64.3</v>
+        <v>60.5</v>
       </c>
       <c r="N66" s="39" t="n">
-        <v>19.4</v>
+        <v>35</v>
       </c>
       <c r="O66" s="39" t="n">
-        <v>45.9</v>
+        <v>27.9</v>
       </c>
       <c r="P66" s="39" t="n">
-        <v>31.2</v>
+        <v>20.6</v>
       </c>
       <c r="Q66" s="39" t="n">
-        <v>63.7</v>
+        <v>6.9</v>
       </c>
       <c r="R66" s="39" t="n">
-        <v>71.40000000000001</v>
+        <v>5.9</v>
       </c>
       <c r="S66" s="39" t="n">
-        <v>94.8</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="T66" s="39" t="n">
-        <v>45.4</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="U66" s="39" t="n">
-        <v>65.8</v>
+        <v>90</v>
       </c>
       <c r="V66" s="39" t="n">
-        <v>60.1</v>
+        <v>91.5</v>
       </c>
       <c r="W66" s="39" t="n">
-        <v>51.4</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="X66" s="39" t="n">
-        <v>77.59999999999999</v>
+        <v>79.8</v>
       </c>
       <c r="Y66" s="39" t="inlineStr">
         <is>
-          <t>恒生科技指数ETF</t>
+          <t>标普500ETF</t>
         </is>
       </c>
     </row>
@@ -17395,7 +17395,7 @@
         </is>
       </c>
       <c r="D67" s="39" t="n">
-        <v>104.69</v>
+        <v>105.12</v>
       </c>
       <c r="E67" s="39" t="n">
         <v>70.09999999999999</v>
@@ -17455,7 +17455,7 @@
         <v>66.59999999999999</v>
       </c>
       <c r="X67" s="39" t="n">
-        <v>77.7</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="Y67" s="39" t="inlineStr">
         <is>
@@ -17468,79 +17468,79 @@
         <v>66</v>
       </c>
       <c r="B68" s="39" t="n">
-        <v>159883</v>
+        <v>512100</v>
       </c>
       <c r="C68" s="39" t="inlineStr">
         <is>
-          <t>医疗器械ETF</t>
+          <t>中证1000ETF</t>
         </is>
       </c>
       <c r="D68" s="39" t="n">
-        <v>16.36</v>
+        <v>633.4</v>
       </c>
       <c r="E68" s="39" t="n">
-        <v>65.5</v>
+        <v>64.2</v>
       </c>
       <c r="F68" s="39" t="n">
-        <v>33.3</v>
+        <v>17.3</v>
       </c>
       <c r="G68" s="39" t="n">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="H68" s="39" t="n">
-        <v>31.1</v>
+        <v>1.2</v>
       </c>
       <c r="I68" s="39" t="n">
-        <v>43.1</v>
+        <v>35.1</v>
       </c>
       <c r="J68" s="39" t="n">
-        <v>66.40000000000001</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="K68" s="39" t="n">
-        <v>69.59999999999999</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="L68" s="39" t="n">
-        <v>77.8</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="M68" s="39" t="n">
-        <v>77.8</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="N68" s="39" t="n">
-        <v>18.3</v>
+        <v>30.5</v>
       </c>
       <c r="O68" s="39" t="n">
-        <v>45.9</v>
+        <v>33.1</v>
       </c>
       <c r="P68" s="39" t="n">
-        <v>19.5</v>
+        <v>25.6</v>
       </c>
       <c r="Q68" s="39" t="n">
-        <v>70.5</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="R68" s="39" t="n">
-        <v>75.59999999999999</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="S68" s="39" t="n">
-        <v>56.1</v>
+        <v>94.2</v>
       </c>
       <c r="T68" s="39" t="n">
-        <v>18.3</v>
+        <v>35.8</v>
       </c>
       <c r="U68" s="39" t="n">
-        <v>13.7</v>
+        <v>49.4</v>
       </c>
       <c r="V68" s="39" t="n">
-        <v>3.9</v>
+        <v>15.8</v>
       </c>
       <c r="W68" s="39" t="n">
-        <v>38.9</v>
+        <v>49.1</v>
       </c>
       <c r="X68" s="39" t="n">
-        <v>78.3</v>
+        <v>80.3</v>
       </c>
       <c r="Y68" s="39" t="inlineStr">
         <is>
-          <t>医疗器械ETF</t>
+          <t>中证1000ETF</t>
         </is>
       </c>
     </row>
@@ -17549,79 +17549,79 @@
         <v>67</v>
       </c>
       <c r="B69" s="39" t="n">
-        <v>512100</v>
+        <v>515030</v>
       </c>
       <c r="C69" s="39" t="inlineStr">
         <is>
-          <t>中证1000ETF</t>
+          <t>新能源车ETF</t>
         </is>
       </c>
       <c r="D69" s="39" t="n">
-        <v>632.33</v>
+        <v>43.12</v>
       </c>
       <c r="E69" s="39" t="n">
-        <v>64.2</v>
+        <v>18.3</v>
       </c>
       <c r="F69" s="39" t="n">
-        <v>17.3</v>
+        <v>5</v>
       </c>
       <c r="G69" s="39" t="n">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="H69" s="39" t="n">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="I69" s="39" t="n">
-        <v>35.1</v>
+        <v>12.1</v>
       </c>
       <c r="J69" s="39" t="n">
-        <v>67.09999999999999</v>
+        <v>59</v>
       </c>
       <c r="K69" s="39" t="n">
-        <v>78.59999999999999</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="L69" s="39" t="n">
-        <v>87.59999999999999</v>
+        <v>80.5</v>
       </c>
       <c r="M69" s="39" t="n">
-        <v>70.40000000000001</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="N69" s="39" t="n">
-        <v>30.5</v>
+        <v>27.2</v>
       </c>
       <c r="O69" s="39" t="n">
-        <v>33.1</v>
+        <v>22.2</v>
       </c>
       <c r="P69" s="39" t="n">
-        <v>25.6</v>
+        <v>51.8</v>
       </c>
       <c r="Q69" s="39" t="n">
-        <v>88.40000000000001</v>
+        <v>89.3</v>
       </c>
       <c r="R69" s="39" t="n">
-        <v>88.40000000000001</v>
+        <v>66.7</v>
       </c>
       <c r="S69" s="39" t="n">
-        <v>94.2</v>
+        <v>90</v>
       </c>
       <c r="T69" s="39" t="n">
-        <v>35.8</v>
+        <v>69</v>
       </c>
       <c r="U69" s="39" t="n">
-        <v>49.4</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="V69" s="39" t="n">
-        <v>15.8</v>
+        <v>26.4</v>
       </c>
       <c r="W69" s="39" t="n">
-        <v>49.1</v>
+        <v>40.5</v>
       </c>
       <c r="X69" s="39" t="n">
-        <v>78.59999999999999</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="Y69" s="39" t="inlineStr">
         <is>
-          <t>中证1000ETF</t>
+          <t>新能源车ETF</t>
         </is>
       </c>
     </row>
@@ -17630,79 +17630,79 @@
         <v>68</v>
       </c>
       <c r="B70" s="39" t="n">
-        <v>515790</v>
+        <v>513290</v>
       </c>
       <c r="C70" s="39" t="inlineStr">
         <is>
-          <t>光伏ETF</t>
+          <t>纳指生物科技ETF</t>
         </is>
       </c>
       <c r="D70" s="39" t="n">
-        <v>89.05</v>
+        <v>12.62</v>
       </c>
       <c r="E70" s="39" t="n">
-        <v>34.8</v>
+        <v>0.8</v>
       </c>
       <c r="F70" s="39" t="n">
-        <v>11.1</v>
+        <v>0.6</v>
       </c>
       <c r="G70" s="39" t="n">
-        <v>1.5</v>
+        <v>0.1</v>
       </c>
       <c r="H70" s="39" t="n">
-        <v>1.2</v>
+        <v>44.4</v>
       </c>
       <c r="I70" s="39" t="n">
-        <v>17.1</v>
+        <v>23</v>
       </c>
       <c r="J70" s="39" t="n">
-        <v>60.5</v>
+        <v>64.5</v>
       </c>
       <c r="K70" s="39" t="n">
-        <v>64.8</v>
+        <v>40.9</v>
       </c>
       <c r="L70" s="39" t="n">
-        <v>75.5</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="M70" s="39" t="n">
-        <v>51.8</v>
+        <v>80.2</v>
       </c>
       <c r="N70" s="39" t="n">
-        <v>23</v>
+        <v>57.5</v>
       </c>
       <c r="O70" s="39" t="n">
-        <v>19.4</v>
+        <v>48.4</v>
       </c>
       <c r="P70" s="39" t="n">
-        <v>11.9</v>
+        <v>44.8</v>
       </c>
       <c r="Q70" s="39" t="n">
-        <v>59.1</v>
+        <v>22.1</v>
       </c>
       <c r="R70" s="39" t="n">
-        <v>34.5</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="S70" s="39" t="n">
-        <v>70.90000000000001</v>
+        <v>92.8</v>
       </c>
       <c r="T70" s="39" t="n">
-        <v>19.7</v>
+        <v>92.8</v>
       </c>
       <c r="U70" s="39" t="n">
-        <v>56</v>
+        <v>97.5</v>
       </c>
       <c r="V70" s="39" t="n">
-        <v>56</v>
+        <v>54.1</v>
       </c>
       <c r="W70" s="39" t="n">
-        <v>29.4</v>
+        <v>75.7</v>
       </c>
       <c r="X70" s="39" t="n">
-        <v>79.09999999999999</v>
+        <v>80.7</v>
       </c>
       <c r="Y70" s="39" t="inlineStr">
         <is>
-          <t>光伏ETF</t>
+          <t>纳指生物科技ETF</t>
         </is>
       </c>
     </row>
@@ -17711,79 +17711,79 @@
         <v>69</v>
       </c>
       <c r="B71" s="39" t="n">
-        <v>513970</v>
+        <v>515050</v>
       </c>
       <c r="C71" s="39" t="inlineStr">
         <is>
-          <t>恒生消费ETF</t>
+          <t>5G通信ETF</t>
         </is>
       </c>
       <c r="D71" s="39" t="n">
-        <v>17.59</v>
+        <v>60.77</v>
       </c>
       <c r="E71" s="39" t="n">
-        <v>70.90000000000001</v>
+        <v>59.4</v>
       </c>
       <c r="F71" s="39" t="n">
-        <v>22.3</v>
+        <v>4.9</v>
       </c>
       <c r="G71" s="39" t="n">
-        <v>3.1</v>
+        <v>1</v>
       </c>
       <c r="H71" s="39" t="n">
-        <v>14.4</v>
+        <v>0.5</v>
       </c>
       <c r="I71" s="39" t="n">
-        <v>28.7</v>
+        <v>17.2</v>
       </c>
       <c r="J71" s="39" t="n">
-        <v>74.90000000000001</v>
+        <v>60.4</v>
       </c>
       <c r="K71" s="39" t="n">
-        <v>76.7</v>
+        <v>74.7</v>
       </c>
       <c r="L71" s="39" t="n">
-        <v>86.5</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="M71" s="39" t="n">
-        <v>91.09999999999999</v>
+        <v>44.5</v>
       </c>
       <c r="N71" s="39" t="n">
-        <v>37.1</v>
+        <v>19.1</v>
       </c>
       <c r="O71" s="39" t="n">
-        <v>59.3</v>
+        <v>18.1</v>
       </c>
       <c r="P71" s="39" t="n">
-        <v>37.3</v>
+        <v>64.3</v>
       </c>
       <c r="Q71" s="39" t="n">
-        <v>73.2</v>
+        <v>86.8</v>
       </c>
       <c r="R71" s="39" t="n">
-        <v>78.59999999999999</v>
+        <v>49.1</v>
       </c>
       <c r="S71" s="39" t="n">
-        <v>95.8</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="T71" s="39" t="n">
-        <v>64.7</v>
+        <v>42.8</v>
       </c>
       <c r="U71" s="39" t="n">
-        <v>75.3</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="V71" s="39" t="n">
-        <v>86</v>
+        <v>41.4</v>
       </c>
       <c r="W71" s="39" t="n">
-        <v>63.9</v>
+        <v>48.2</v>
       </c>
       <c r="X71" s="39" t="n">
-        <v>79.59999999999999</v>
+        <v>81</v>
       </c>
       <c r="Y71" s="39" t="inlineStr">
         <is>
-          <t>恒生消费ETF</t>
+          <t>5G通信ETF</t>
         </is>
       </c>
     </row>
@@ -17792,79 +17792,79 @@
         <v>70</v>
       </c>
       <c r="B72" s="39" t="n">
-        <v>513500</v>
+        <v>513970</v>
       </c>
       <c r="C72" s="39" t="inlineStr">
         <is>
-          <t>标普500ETF</t>
+          <t>恒生消费ETF</t>
         </is>
       </c>
       <c r="D72" s="39" t="n">
-        <v>177.74</v>
+        <v>17.61</v>
       </c>
       <c r="E72" s="39" t="n">
-        <v>45.7</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="F72" s="39" t="n">
-        <v>13.7</v>
+        <v>22.3</v>
       </c>
       <c r="G72" s="39" t="n">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="H72" s="39" t="n">
-        <v>39.8</v>
+        <v>14.4</v>
       </c>
       <c r="I72" s="39" t="n">
-        <v>24.8</v>
+        <v>28.7</v>
       </c>
       <c r="J72" s="39" t="n">
-        <v>77.2</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="K72" s="39" t="n">
-        <v>55.8</v>
+        <v>76.7</v>
       </c>
       <c r="L72" s="39" t="n">
-        <v>68</v>
+        <v>86.5</v>
       </c>
       <c r="M72" s="39" t="n">
-        <v>60.5</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="N72" s="39" t="n">
-        <v>35</v>
+        <v>37.1</v>
       </c>
       <c r="O72" s="39" t="n">
-        <v>27.9</v>
+        <v>59.3</v>
       </c>
       <c r="P72" s="39" t="n">
-        <v>20.6</v>
+        <v>37.3</v>
       </c>
       <c r="Q72" s="39" t="n">
-        <v>6.9</v>
+        <v>73.2</v>
       </c>
       <c r="R72" s="39" t="n">
-        <v>5.9</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="S72" s="39" t="n">
-        <v>84.59999999999999</v>
+        <v>95.8</v>
       </c>
       <c r="T72" s="39" t="n">
-        <v>65.59999999999999</v>
+        <v>64.7</v>
       </c>
       <c r="U72" s="39" t="n">
-        <v>90</v>
+        <v>75.3</v>
       </c>
       <c r="V72" s="39" t="n">
-        <v>91.5</v>
+        <v>86</v>
       </c>
       <c r="W72" s="39" t="n">
-        <v>76.40000000000001</v>
+        <v>63.9</v>
       </c>
       <c r="X72" s="39" t="n">
-        <v>79.8</v>
+        <v>82.2</v>
       </c>
       <c r="Y72" s="39" t="inlineStr">
         <is>
-          <t>标普500ETF</t>
+          <t>恒生消费ETF</t>
         </is>
       </c>
     </row>
@@ -17873,79 +17873,79 @@
         <v>71</v>
       </c>
       <c r="B73" s="39" t="n">
-        <v>515050</v>
+        <v>510500</v>
       </c>
       <c r="C73" s="39" t="inlineStr">
         <is>
-          <t>5G通信ETF</t>
+          <t>中证500ETF</t>
         </is>
       </c>
       <c r="D73" s="39" t="n">
-        <v>60.58</v>
+        <v>1098.71</v>
       </c>
       <c r="E73" s="39" t="n">
-        <v>59.4</v>
+        <v>53.9</v>
       </c>
       <c r="F73" s="39" t="n">
-        <v>4.9</v>
+        <v>16.4</v>
       </c>
       <c r="G73" s="39" t="n">
         <v>1</v>
       </c>
       <c r="H73" s="39" t="n">
-        <v>0.5</v>
+        <v>10.8</v>
       </c>
       <c r="I73" s="39" t="n">
-        <v>17.2</v>
+        <v>47.3</v>
       </c>
       <c r="J73" s="39" t="n">
-        <v>60.4</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="K73" s="39" t="n">
-        <v>74.7</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="L73" s="39" t="n">
-        <v>78.40000000000001</v>
+        <v>85.2</v>
       </c>
       <c r="M73" s="39" t="n">
-        <v>44.5</v>
+        <v>62.2</v>
       </c>
       <c r="N73" s="39" t="n">
-        <v>19.1</v>
+        <v>29</v>
       </c>
       <c r="O73" s="39" t="n">
-        <v>18.1</v>
+        <v>33.4</v>
       </c>
       <c r="P73" s="39" t="n">
-        <v>64.3</v>
+        <v>38.4</v>
       </c>
       <c r="Q73" s="39" t="n">
-        <v>86.8</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="R73" s="39" t="n">
-        <v>49.1</v>
+        <v>69.5</v>
       </c>
       <c r="S73" s="39" t="n">
-        <v>82.40000000000001</v>
+        <v>77.5</v>
       </c>
       <c r="T73" s="39" t="n">
-        <v>42.8</v>
+        <v>37.1</v>
       </c>
       <c r="U73" s="39" t="n">
-        <v>71.59999999999999</v>
+        <v>63.5</v>
       </c>
       <c r="V73" s="39" t="n">
-        <v>41.4</v>
+        <v>26.9</v>
       </c>
       <c r="W73" s="39" t="n">
-        <v>48.2</v>
+        <v>35.5</v>
       </c>
       <c r="X73" s="39" t="n">
-        <v>80.09999999999999</v>
+        <v>82.8</v>
       </c>
       <c r="Y73" s="39" t="inlineStr">
         <is>
-          <t>5G通信ETF</t>
+          <t>中证500ETF</t>
         </is>
       </c>
     </row>
@@ -17954,79 +17954,79 @@
         <v>72</v>
       </c>
       <c r="B74" s="39" t="n">
-        <v>159792</v>
+        <v>159667</v>
       </c>
       <c r="C74" s="39" t="inlineStr">
         <is>
-          <t>港股通互联网ETF</t>
+          <t>工业母机ETF</t>
         </is>
       </c>
       <c r="D74" s="39" t="n">
-        <v>468.14</v>
+        <v>4.84</v>
       </c>
       <c r="E74" s="39" t="n">
-        <v>22.9</v>
+        <v>61</v>
       </c>
       <c r="F74" s="39" t="n">
-        <v>9.1</v>
+        <v>15.6</v>
       </c>
       <c r="G74" s="39" t="n">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="H74" s="39" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="I74" s="39" t="n">
-        <v>35.1</v>
+        <v>26.1</v>
       </c>
       <c r="J74" s="39" t="n">
-        <v>66.90000000000001</v>
+        <v>61.2</v>
       </c>
       <c r="K74" s="39" t="n">
-        <v>72.5</v>
+        <v>74.5</v>
       </c>
       <c r="L74" s="39" t="n">
-        <v>76.5</v>
+        <v>83.2</v>
       </c>
       <c r="M74" s="39" t="n">
-        <v>64.09999999999999</v>
+        <v>67.8</v>
       </c>
       <c r="N74" s="39" t="n">
-        <v>11.6</v>
+        <v>23.1</v>
       </c>
       <c r="O74" s="39" t="n">
-        <v>34.6</v>
+        <v>31.6</v>
       </c>
       <c r="P74" s="39" t="n">
-        <v>29.5</v>
+        <v>38.5</v>
       </c>
       <c r="Q74" s="39" t="n">
-        <v>65.3</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="R74" s="39" t="n">
-        <v>85.90000000000001</v>
+        <v>60.3</v>
       </c>
       <c r="S74" s="39" t="n">
-        <v>96.7</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="T74" s="39" t="n">
-        <v>56.4</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="U74" s="39" t="n">
-        <v>71.2</v>
+        <v>75</v>
       </c>
       <c r="V74" s="39" t="n">
-        <v>77</v>
+        <v>23.7</v>
       </c>
       <c r="W74" s="39" t="n">
-        <v>50</v>
+        <v>60.7</v>
       </c>
       <c r="X74" s="39" t="n">
-        <v>80.59999999999999</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="Y74" s="39" t="inlineStr">
         <is>
-          <t>港股通互联网ETF</t>
+          <t>工业母机ETF</t>
         </is>
       </c>
     </row>
@@ -18035,79 +18035,79 @@
         <v>73</v>
       </c>
       <c r="B75" s="39" t="n">
-        <v>513290</v>
+        <v>513360</v>
       </c>
       <c r="C75" s="39" t="inlineStr">
         <is>
-          <t>纳指生物科技ETF</t>
+          <t>教育ETF</t>
         </is>
       </c>
       <c r="D75" s="39" t="n">
-        <v>12.62</v>
+        <v>6.48</v>
       </c>
       <c r="E75" s="39" t="n">
-        <v>0.8</v>
+        <v>9.6</v>
       </c>
       <c r="F75" s="39" t="n">
-        <v>0.6</v>
+        <v>4.7</v>
       </c>
       <c r="G75" s="39" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H75" s="39" t="n">
-        <v>44.4</v>
+        <v>0.2</v>
       </c>
       <c r="I75" s="39" t="n">
-        <v>23</v>
+        <v>4.4</v>
       </c>
       <c r="J75" s="39" t="n">
-        <v>64.5</v>
+        <v>43.1</v>
       </c>
       <c r="K75" s="39" t="n">
-        <v>40.9</v>
+        <v>62.3</v>
       </c>
       <c r="L75" s="39" t="n">
-        <v>65.40000000000001</v>
+        <v>70.3</v>
       </c>
       <c r="M75" s="39" t="n">
-        <v>80.2</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="N75" s="39" t="n">
-        <v>57.5</v>
+        <v>31.8</v>
       </c>
       <c r="O75" s="39" t="n">
-        <v>48.4</v>
+        <v>72</v>
       </c>
       <c r="P75" s="39" t="n">
-        <v>44.8</v>
+        <v>60.2</v>
       </c>
       <c r="Q75" s="39" t="n">
-        <v>22.1</v>
+        <v>89</v>
       </c>
       <c r="R75" s="39" t="n">
-        <v>71.59999999999999</v>
+        <v>90.7</v>
       </c>
       <c r="S75" s="39" t="n">
-        <v>92.8</v>
+        <v>98.2</v>
       </c>
       <c r="T75" s="39" t="n">
-        <v>92.8</v>
+        <v>54.2</v>
       </c>
       <c r="U75" s="39" t="n">
-        <v>97.5</v>
+        <v>22.5</v>
       </c>
       <c r="V75" s="39" t="n">
-        <v>54.1</v>
+        <v>41.3</v>
       </c>
       <c r="W75" s="39" t="n">
-        <v>75.7</v>
+        <v>64.3</v>
       </c>
       <c r="X75" s="39" t="n">
-        <v>80.7</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="Y75" s="39" t="inlineStr">
         <is>
-          <t>纳指生物科技ETF</t>
+          <t>教育ETF</t>
         </is>
       </c>
     </row>
@@ -18116,79 +18116,79 @@
         <v>74</v>
       </c>
       <c r="B76" s="39" t="n">
-        <v>510500</v>
+        <v>159941</v>
       </c>
       <c r="C76" s="39" t="inlineStr">
         <is>
-          <t>中证500ETF</t>
+          <t>纳指ETF</t>
         </is>
       </c>
       <c r="D76" s="39" t="n">
-        <v>1098.13</v>
+        <v>238.93</v>
       </c>
       <c r="E76" s="39" t="n">
-        <v>53.9</v>
+        <v>53.4</v>
       </c>
       <c r="F76" s="39" t="n">
-        <v>16.4</v>
+        <v>20</v>
       </c>
       <c r="G76" s="39" t="n">
-        <v>1</v>
+        <v>3.2</v>
       </c>
       <c r="H76" s="39" t="n">
-        <v>10.8</v>
+        <v>37.8</v>
       </c>
       <c r="I76" s="39" t="n">
-        <v>47.3</v>
+        <v>34.3</v>
       </c>
       <c r="J76" s="39" t="n">
-        <v>70.09999999999999</v>
+        <v>85</v>
       </c>
       <c r="K76" s="39" t="n">
-        <v>77.09999999999999</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="L76" s="39" t="n">
-        <v>85.2</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="M76" s="39" t="n">
-        <v>62.2</v>
+        <v>49.1</v>
       </c>
       <c r="N76" s="39" t="n">
-        <v>29</v>
+        <v>22.3</v>
       </c>
       <c r="O76" s="39" t="n">
-        <v>33.4</v>
+        <v>48.2</v>
       </c>
       <c r="P76" s="39" t="n">
-        <v>38.4</v>
+        <v>31.2</v>
       </c>
       <c r="Q76" s="39" t="n">
-        <v>91.40000000000001</v>
+        <v>21.2</v>
       </c>
       <c r="R76" s="39" t="n">
-        <v>69.5</v>
+        <v>19.2</v>
       </c>
       <c r="S76" s="39" t="n">
-        <v>77.5</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="T76" s="39" t="n">
-        <v>37.1</v>
+        <v>52.8</v>
       </c>
       <c r="U76" s="39" t="n">
-        <v>63.5</v>
+        <v>83.2</v>
       </c>
       <c r="V76" s="39" t="n">
-        <v>26.9</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="W76" s="39" t="n">
-        <v>35.5</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="X76" s="39" t="n">
-        <v>82.40000000000001</v>
+        <v>85.7</v>
       </c>
       <c r="Y76" s="39" t="inlineStr">
         <is>
-          <t>中证500ETF</t>
+          <t>纳指ETF</t>
         </is>
       </c>
     </row>
@@ -18197,79 +18197,79 @@
         <v>75</v>
       </c>
       <c r="B77" s="39" t="n">
-        <v>159992</v>
+        <v>588000</v>
       </c>
       <c r="C77" s="39" t="inlineStr">
         <is>
-          <t>创新药ETF</t>
+          <t>科创50ETF</t>
         </is>
       </c>
       <c r="D77" s="39" t="n">
-        <v>117.35</v>
+        <v>775.8</v>
       </c>
       <c r="E77" s="39" t="n">
-        <v>67.09999999999999</v>
+        <v>23.7</v>
       </c>
       <c r="F77" s="39" t="n">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="G77" s="39" t="n">
-        <v>5.1</v>
+        <v>0.4</v>
       </c>
       <c r="H77" s="39" t="n">
-        <v>22</v>
+        <v>24.1</v>
       </c>
       <c r="I77" s="39" t="n">
-        <v>17.2</v>
+        <v>66.2</v>
       </c>
       <c r="J77" s="39" t="n">
-        <v>60.8</v>
+        <v>75.3</v>
       </c>
       <c r="K77" s="39" t="n">
-        <v>71</v>
+        <v>85.8</v>
       </c>
       <c r="L77" s="39" t="n">
-        <v>83.7</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="M77" s="39" t="n">
-        <v>60.2</v>
+        <v>49</v>
       </c>
       <c r="N77" s="39" t="n">
-        <v>32.7</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="O77" s="39" t="n">
-        <v>22.5</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="P77" s="39" t="n">
-        <v>22.5</v>
+        <v>40</v>
       </c>
       <c r="Q77" s="39" t="n">
-        <v>86.2</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="R77" s="39" t="n">
-        <v>94.40000000000001</v>
+        <v>53.1</v>
       </c>
       <c r="S77" s="39" t="n">
-        <v>51.4</v>
+        <v>36.3</v>
       </c>
       <c r="T77" s="39" t="n">
-        <v>72.7</v>
+        <v>11</v>
       </c>
       <c r="U77" s="39" t="n">
-        <v>38.7</v>
+        <v>29</v>
       </c>
       <c r="V77" s="39" t="n">
-        <v>38.7</v>
+        <v>18</v>
       </c>
       <c r="W77" s="39" t="n">
-        <v>72.7</v>
+        <v>45.5</v>
       </c>
       <c r="X77" s="39" t="n">
-        <v>82.5</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="Y77" s="39" t="inlineStr">
         <is>
-          <t>创新药ETF</t>
+          <t>科创50ETF</t>
         </is>
       </c>
     </row>
@@ -18278,79 +18278,79 @@
         <v>76</v>
       </c>
       <c r="B78" s="39" t="n">
-        <v>562500</v>
+        <v>513180</v>
       </c>
       <c r="C78" s="39" t="inlineStr">
         <is>
-          <t>机器人ETF</t>
+          <t>恒生科技指数ETF</t>
         </is>
       </c>
       <c r="D78" s="39" t="n">
-        <v>135.42</v>
+        <v>270.4</v>
       </c>
       <c r="E78" s="39" t="n">
-        <v>53.8</v>
+        <v>38.9</v>
       </c>
       <c r="F78" s="39" t="n">
-        <v>17.4</v>
+        <v>11</v>
       </c>
       <c r="G78" s="39" t="n">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="H78" s="39" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="I78" s="39" t="n">
-        <v>31</v>
+        <v>31.7</v>
       </c>
       <c r="J78" s="39" t="n">
-        <v>59.8</v>
+        <v>64</v>
       </c>
       <c r="K78" s="39" t="n">
-        <v>73.59999999999999</v>
+        <v>76.5</v>
       </c>
       <c r="L78" s="39" t="n">
-        <v>75.8</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="M78" s="39" t="n">
-        <v>53.4</v>
+        <v>64.3</v>
       </c>
       <c r="N78" s="39" t="n">
-        <v>25.9</v>
+        <v>19.4</v>
       </c>
       <c r="O78" s="39" t="n">
-        <v>19.3</v>
+        <v>45.9</v>
       </c>
       <c r="P78" s="39" t="n">
-        <v>19.3</v>
+        <v>31.2</v>
       </c>
       <c r="Q78" s="39" t="n">
-        <v>90.09999999999999</v>
+        <v>63.7</v>
       </c>
       <c r="R78" s="39" t="n">
-        <v>56.9</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="S78" s="39" t="n">
-        <v>88.5</v>
+        <v>94.8</v>
       </c>
       <c r="T78" s="39" t="n">
-        <v>58.7</v>
+        <v>45.4</v>
       </c>
       <c r="U78" s="39" t="n">
-        <v>68.2</v>
+        <v>65.8</v>
       </c>
       <c r="V78" s="39" t="n">
-        <v>28.6</v>
+        <v>60.1</v>
       </c>
       <c r="W78" s="39" t="n">
-        <v>67</v>
+        <v>51.4</v>
       </c>
       <c r="X78" s="39" t="n">
-        <v>84.09999999999999</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="Y78" s="39" t="inlineStr">
         <is>
-          <t>机器人ETF</t>
+          <t>恒生科技指数ETF</t>
         </is>
       </c>
     </row>
@@ -18427,7 +18427,7 @@
         <v>73.90000000000001</v>
       </c>
       <c r="X79" s="39" t="n">
-        <v>84.5</v>
+        <v>87.2</v>
       </c>
       <c r="Y79" s="39" t="inlineStr">
         <is>
@@ -18450,7 +18450,7 @@
         </is>
       </c>
       <c r="D80" s="39" t="n">
-        <v>221.65</v>
+        <v>222.91</v>
       </c>
       <c r="E80" s="39" t="n">
         <v>51.5</v>
@@ -18510,7 +18510,7 @@
         <v>48.9</v>
       </c>
       <c r="X80" s="39" t="n">
-        <v>84.59999999999999</v>
+        <v>87.5</v>
       </c>
       <c r="Y80" s="39" t="inlineStr">
         <is>
@@ -18523,79 +18523,79 @@
         <v>79</v>
       </c>
       <c r="B81" s="39" t="n">
-        <v>513360</v>
+        <v>562500</v>
       </c>
       <c r="C81" s="39" t="inlineStr">
         <is>
-          <t>教育ETF</t>
+          <t>机器人ETF</t>
         </is>
       </c>
       <c r="D81" s="39" t="n">
-        <v>6.48</v>
+        <v>136.54</v>
       </c>
       <c r="E81" s="39" t="n">
-        <v>9.6</v>
+        <v>53.8</v>
       </c>
       <c r="F81" s="39" t="n">
-        <v>4.7</v>
+        <v>17.4</v>
       </c>
       <c r="G81" s="39" t="n">
-        <v>0.2</v>
+        <v>2.5</v>
       </c>
       <c r="H81" s="39" t="n">
-        <v>0.2</v>
+        <v>1.4</v>
       </c>
       <c r="I81" s="39" t="n">
-        <v>4.4</v>
+        <v>31</v>
       </c>
       <c r="J81" s="39" t="n">
-        <v>43.1</v>
+        <v>59.8</v>
       </c>
       <c r="K81" s="39" t="n">
-        <v>62.3</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="L81" s="39" t="n">
-        <v>70.3</v>
+        <v>75.8</v>
       </c>
       <c r="M81" s="39" t="n">
-        <v>79.09999999999999</v>
+        <v>53.4</v>
       </c>
       <c r="N81" s="39" t="n">
-        <v>31.8</v>
+        <v>25.9</v>
       </c>
       <c r="O81" s="39" t="n">
-        <v>72</v>
+        <v>19.3</v>
       </c>
       <c r="P81" s="39" t="n">
-        <v>60.2</v>
+        <v>19.3</v>
       </c>
       <c r="Q81" s="39" t="n">
-        <v>89</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="R81" s="39" t="n">
-        <v>90.7</v>
+        <v>56.9</v>
       </c>
       <c r="S81" s="39" t="n">
-        <v>98.2</v>
+        <v>88.5</v>
       </c>
       <c r="T81" s="39" t="n">
-        <v>54.2</v>
+        <v>58.7</v>
       </c>
       <c r="U81" s="39" t="n">
-        <v>22.5</v>
+        <v>68.2</v>
       </c>
       <c r="V81" s="39" t="n">
-        <v>41.3</v>
+        <v>28.6</v>
       </c>
       <c r="W81" s="39" t="n">
-        <v>64.3</v>
+        <v>67</v>
       </c>
       <c r="X81" s="39" t="n">
-        <v>84.90000000000001</v>
+        <v>87.8</v>
       </c>
       <c r="Y81" s="39" t="inlineStr">
         <is>
-          <t>教育ETF</t>
+          <t>机器人ETF</t>
         </is>
       </c>
     </row>
@@ -18604,79 +18604,79 @@
         <v>80</v>
       </c>
       <c r="B82" s="39" t="n">
-        <v>588000</v>
+        <v>513330</v>
       </c>
       <c r="C82" s="39" t="inlineStr">
         <is>
-          <t>科创50ETF</t>
+          <t>恒生互联网ETF</t>
         </is>
       </c>
       <c r="D82" s="39" t="n">
-        <v>775.8</v>
+        <v>239.02</v>
       </c>
       <c r="E82" s="39" t="n">
-        <v>23.7</v>
+        <v>65.3</v>
       </c>
       <c r="F82" s="39" t="n">
-        <v>9</v>
+        <v>22.1</v>
       </c>
       <c r="G82" s="39" t="n">
-        <v>0.4</v>
+        <v>3.2</v>
       </c>
       <c r="H82" s="39" t="n">
-        <v>24.1</v>
+        <v>2.1</v>
       </c>
       <c r="I82" s="39" t="n">
-        <v>66.2</v>
+        <v>20.2</v>
       </c>
       <c r="J82" s="39" t="n">
-        <v>75.3</v>
+        <v>60.7</v>
       </c>
       <c r="K82" s="39" t="n">
-        <v>85.8</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="L82" s="39" t="n">
-        <v>87.40000000000001</v>
+        <v>81.8</v>
       </c>
       <c r="M82" s="39" t="n">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="N82" s="39" t="n">
-        <v>68.40000000000001</v>
+        <v>18.4</v>
       </c>
       <c r="O82" s="39" t="n">
-        <v>79.59999999999999</v>
+        <v>42.4</v>
       </c>
       <c r="P82" s="39" t="n">
-        <v>40</v>
+        <v>29.4</v>
       </c>
       <c r="Q82" s="39" t="n">
-        <v>76.59999999999999</v>
+        <v>61.1</v>
       </c>
       <c r="R82" s="39" t="n">
-        <v>53.1</v>
+        <v>42.2</v>
       </c>
       <c r="S82" s="39" t="n">
-        <v>36.3</v>
+        <v>88.5</v>
       </c>
       <c r="T82" s="39" t="n">
-        <v>11</v>
+        <v>39.6</v>
       </c>
       <c r="U82" s="39" t="n">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="V82" s="39" t="n">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="W82" s="39" t="n">
-        <v>45.5</v>
+        <v>66</v>
       </c>
       <c r="X82" s="39" t="n">
-        <v>86.40000000000001</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="Y82" s="39" t="inlineStr">
         <is>
-          <t>科创50ETF</t>
+          <t>恒生互联网ETF</t>
         </is>
       </c>
     </row>
@@ -18685,79 +18685,79 @@
         <v>81</v>
       </c>
       <c r="B83" s="39" t="n">
-        <v>513330</v>
+        <v>159792</v>
       </c>
       <c r="C83" s="39" t="inlineStr">
         <is>
-          <t>恒生互联网ETF</t>
+          <t>港股通互联网ETF</t>
         </is>
       </c>
       <c r="D83" s="39" t="n">
-        <v>238.5</v>
+        <v>474.43</v>
       </c>
       <c r="E83" s="39" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="F83" s="39" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="G83" s="39" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H83" s="39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I83" s="39" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="J83" s="39" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="K83" s="39" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="L83" s="39" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="M83" s="39" t="n">
+        <v>64.09999999999999</v>
+      </c>
+      <c r="N83" s="39" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="O83" s="39" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="P83" s="39" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="Q83" s="39" t="n">
         <v>65.3</v>
       </c>
-      <c r="F83" s="39" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="G83" s="39" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="H83" s="39" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="I83" s="39" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="J83" s="39" t="n">
-        <v>60.7</v>
-      </c>
-      <c r="K83" s="39" t="n">
-        <v>69.59999999999999</v>
-      </c>
-      <c r="L83" s="39" t="n">
-        <v>81.8</v>
-      </c>
-      <c r="M83" s="39" t="n">
-        <v>84</v>
-      </c>
-      <c r="N83" s="39" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="O83" s="39" t="n">
-        <v>42.4</v>
-      </c>
-      <c r="P83" s="39" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="Q83" s="39" t="n">
-        <v>61.1</v>
-      </c>
       <c r="R83" s="39" t="n">
-        <v>42.2</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="S83" s="39" t="n">
-        <v>88.5</v>
+        <v>96.7</v>
       </c>
       <c r="T83" s="39" t="n">
-        <v>39.6</v>
+        <v>56.4</v>
       </c>
       <c r="U83" s="39" t="n">
-        <v>66</v>
+        <v>71.2</v>
       </c>
       <c r="V83" s="39" t="n">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="W83" s="39" t="n">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="X83" s="39" t="n">
-        <v>86.40000000000001</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="Y83" s="39" t="inlineStr">
         <is>
-          <t>恒生互联网ETF</t>
+          <t>港股通互联网ETF</t>
         </is>
       </c>
     </row>
@@ -18766,79 +18766,79 @@
         <v>82</v>
       </c>
       <c r="B84" s="39" t="n">
-        <v>159941</v>
+        <v>515230</v>
       </c>
       <c r="C84" s="39" t="inlineStr">
         <is>
-          <t>纳指ETF</t>
+          <t>软件ETF</t>
         </is>
       </c>
       <c r="D84" s="39" t="n">
-        <v>238.93</v>
+        <v>13.15</v>
       </c>
       <c r="E84" s="39" t="n">
-        <v>53.4</v>
+        <v>42.2</v>
       </c>
       <c r="F84" s="39" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="G84" s="39" t="n">
-        <v>3.2</v>
+        <v>1.4</v>
       </c>
       <c r="H84" s="39" t="n">
-        <v>37.8</v>
+        <v>1.3</v>
       </c>
       <c r="I84" s="39" t="n">
-        <v>34.3</v>
+        <v>53.7</v>
       </c>
       <c r="J84" s="39" t="n">
-        <v>85</v>
+        <v>63.7</v>
       </c>
       <c r="K84" s="39" t="n">
-        <v>70.59999999999999</v>
+        <v>75.7</v>
       </c>
       <c r="L84" s="39" t="n">
-        <v>78.90000000000001</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="M84" s="39" t="n">
-        <v>49.1</v>
+        <v>34.8</v>
       </c>
       <c r="N84" s="39" t="n">
-        <v>22.3</v>
+        <v>17.4</v>
       </c>
       <c r="O84" s="39" t="n">
-        <v>48.2</v>
+        <v>61.1</v>
       </c>
       <c r="P84" s="39" t="n">
-        <v>31.2</v>
+        <v>61.1</v>
       </c>
       <c r="Q84" s="39" t="n">
-        <v>21.2</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="R84" s="39" t="n">
-        <v>19.2</v>
+        <v>51.2</v>
       </c>
       <c r="S84" s="39" t="n">
+        <v>59.3</v>
+      </c>
+      <c r="T84" s="39" t="n">
+        <v>17</v>
+      </c>
+      <c r="U84" s="39" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="V84" s="39" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="W84" s="39" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="X84" s="39" t="n">
         <v>89.59999999999999</v>
       </c>
-      <c r="T84" s="39" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="U84" s="39" t="n">
-        <v>83.2</v>
-      </c>
-      <c r="V84" s="39" t="n">
-        <v>85.59999999999999</v>
-      </c>
-      <c r="W84" s="39" t="n">
-        <v>79.90000000000001</v>
-      </c>
-      <c r="X84" s="39" t="n">
-        <v>86.90000000000001</v>
-      </c>
       <c r="Y84" s="39" t="inlineStr">
         <is>
-          <t>纳指ETF</t>
+          <t>软件ETF</t>
         </is>
       </c>
     </row>
@@ -18847,79 +18847,79 @@
         <v>83</v>
       </c>
       <c r="B85" s="39" t="n">
-        <v>515230</v>
+        <v>516780</v>
       </c>
       <c r="C85" s="39" t="inlineStr">
         <is>
-          <t>软件ETF</t>
+          <t>稀土ETF</t>
         </is>
       </c>
       <c r="D85" s="39" t="n">
-        <v>13.17</v>
+        <v>8.73</v>
       </c>
       <c r="E85" s="39" t="n">
-        <v>42.2</v>
+        <v>44.3</v>
       </c>
       <c r="F85" s="39" t="n">
-        <v>28</v>
+        <v>30.4</v>
       </c>
       <c r="G85" s="39" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="H85" s="39" t="n">
-        <v>1.3</v>
+        <v>25.7</v>
       </c>
       <c r="I85" s="39" t="n">
-        <v>53.7</v>
+        <v>48.8</v>
       </c>
       <c r="J85" s="39" t="n">
-        <v>63.7</v>
+        <v>64.5</v>
       </c>
       <c r="K85" s="39" t="n">
-        <v>75.7</v>
+        <v>64.5</v>
       </c>
       <c r="L85" s="39" t="n">
-        <v>79.09999999999999</v>
+        <v>78</v>
       </c>
       <c r="M85" s="39" t="n">
-        <v>34.8</v>
+        <v>27.6</v>
       </c>
       <c r="N85" s="39" t="n">
-        <v>17.4</v>
+        <v>15.7</v>
       </c>
       <c r="O85" s="39" t="n">
-        <v>61.1</v>
+        <v>10.6</v>
       </c>
       <c r="P85" s="39" t="n">
-        <v>61.1</v>
+        <v>4.2</v>
       </c>
       <c r="Q85" s="39" t="n">
-        <v>92.59999999999999</v>
+        <v>69.3</v>
       </c>
       <c r="R85" s="39" t="n">
-        <v>51.2</v>
+        <v>35.8</v>
       </c>
       <c r="S85" s="39" t="n">
-        <v>59.3</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="T85" s="39" t="n">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="U85" s="39" t="n">
-        <v>55.3</v>
+        <v>49.8</v>
       </c>
       <c r="V85" s="39" t="n">
-        <v>34.2</v>
+        <v>49.8</v>
       </c>
       <c r="W85" s="39" t="n">
-        <v>56.4</v>
+        <v>49.8</v>
       </c>
       <c r="X85" s="39" t="n">
-        <v>89.59999999999999</v>
+        <v>89.7</v>
       </c>
       <c r="Y85" s="39" t="inlineStr">
         <is>
-          <t>软件ETF</t>
+          <t>稀土ETF</t>
         </is>
       </c>
     </row>
@@ -18928,79 +18928,79 @@
         <v>84</v>
       </c>
       <c r="B86" s="39" t="n">
-        <v>159732</v>
+        <v>159992</v>
       </c>
       <c r="C86" s="39" t="inlineStr">
         <is>
-          <t>消费电子ETF</t>
+          <t>创新药ETF</t>
         </is>
       </c>
       <c r="D86" s="39" t="n">
-        <v>15.57</v>
+        <v>117.99</v>
       </c>
       <c r="E86" s="39" t="n">
-        <v>27.4</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="F86" s="39" t="n">
-        <v>1.5</v>
+        <v>58</v>
       </c>
       <c r="G86" s="39" t="n">
-        <v>0.3</v>
+        <v>5.1</v>
       </c>
       <c r="H86" s="39" t="n">
-        <v>0.2</v>
+        <v>22</v>
       </c>
       <c r="I86" s="39" t="n">
-        <v>24.4</v>
+        <v>17.2</v>
       </c>
       <c r="J86" s="39" t="n">
-        <v>61.7</v>
+        <v>60.8</v>
       </c>
       <c r="K86" s="39" t="n">
-        <v>80.7</v>
+        <v>71</v>
       </c>
       <c r="L86" s="39" t="n">
-        <v>82.09999999999999</v>
+        <v>83.7</v>
       </c>
       <c r="M86" s="39" t="n">
-        <v>54.8</v>
+        <v>60.2</v>
       </c>
       <c r="N86" s="39" t="n">
-        <v>29.6</v>
+        <v>32.7</v>
       </c>
       <c r="O86" s="39" t="n">
-        <v>29.6</v>
+        <v>22.5</v>
       </c>
       <c r="P86" s="39" t="n">
-        <v>68.40000000000001</v>
+        <v>22.5</v>
       </c>
       <c r="Q86" s="39" t="n">
-        <v>90.09999999999999</v>
+        <v>86.2</v>
       </c>
       <c r="R86" s="39" t="n">
-        <v>37.9</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="S86" s="39" t="n">
-        <v>71.2</v>
+        <v>51.4</v>
       </c>
       <c r="T86" s="39" t="n">
-        <v>41.5</v>
+        <v>72.7</v>
       </c>
       <c r="U86" s="39" t="n">
-        <v>55.5</v>
+        <v>38.7</v>
       </c>
       <c r="V86" s="39" t="n">
-        <v>30.9</v>
+        <v>38.7</v>
       </c>
       <c r="W86" s="39" t="n">
-        <v>66.5</v>
+        <v>72.7</v>
       </c>
       <c r="X86" s="39" t="n">
-        <v>89.59999999999999</v>
+        <v>89.8</v>
       </c>
       <c r="Y86" s="39" t="inlineStr">
         <is>
-          <t>消费电子ETF</t>
+          <t>创新药ETF</t>
         </is>
       </c>
     </row>
@@ -19009,79 +19009,79 @@
         <v>85</v>
       </c>
       <c r="B87" s="39" t="n">
-        <v>515980</v>
+        <v>159998</v>
       </c>
       <c r="C87" s="39" t="inlineStr">
         <is>
-          <t>人工智能ETF</t>
+          <t>计算机ETF</t>
         </is>
       </c>
       <c r="D87" s="39" t="n">
-        <v>34.18</v>
+        <v>29.1</v>
       </c>
       <c r="E87" s="39" t="n">
-        <v>31.8</v>
+        <v>38.5</v>
       </c>
       <c r="F87" s="39" t="n">
-        <v>5</v>
+        <v>14.4</v>
       </c>
       <c r="G87" s="39" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H87" s="39" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
       <c r="I87" s="39" t="n">
-        <v>42</v>
+        <v>57.8</v>
       </c>
       <c r="J87" s="39" t="n">
-        <v>62.1</v>
+        <v>67</v>
       </c>
       <c r="K87" s="39" t="n">
-        <v>76.59999999999999</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="L87" s="39" t="n">
-        <v>82.8</v>
+        <v>81.3</v>
       </c>
       <c r="M87" s="39" t="n">
-        <v>54.1</v>
+        <v>46.7</v>
       </c>
       <c r="N87" s="39" t="n">
-        <v>32</v>
+        <v>20.5</v>
       </c>
       <c r="O87" s="39" t="n">
-        <v>57.9</v>
+        <v>36.4</v>
       </c>
       <c r="P87" s="39" t="n">
-        <v>66.40000000000001</v>
+        <v>30.3</v>
       </c>
       <c r="Q87" s="39" t="n">
-        <v>92.8</v>
+        <v>90.5</v>
       </c>
       <c r="R87" s="39" t="n">
-        <v>43.5</v>
+        <v>41.5</v>
       </c>
       <c r="S87" s="39" t="n">
-        <v>72.59999999999999</v>
+        <v>58.7</v>
       </c>
       <c r="T87" s="39" t="n">
-        <v>28.1</v>
+        <v>17.5</v>
       </c>
       <c r="U87" s="39" t="n">
-        <v>57.1</v>
+        <v>47.2</v>
       </c>
       <c r="V87" s="39" t="n">
-        <v>41.8</v>
+        <v>34.7</v>
       </c>
       <c r="W87" s="39" t="n">
-        <v>64.59999999999999</v>
+        <v>60.7</v>
       </c>
       <c r="X87" s="39" t="n">
-        <v>90.2</v>
+        <v>89.8</v>
       </c>
       <c r="Y87" s="39" t="inlineStr">
         <is>
-          <t>人工智能ETF</t>
+          <t>计算机ETF</t>
         </is>
       </c>
     </row>
@@ -19090,79 +19090,79 @@
         <v>86</v>
       </c>
       <c r="B88" s="39" t="n">
-        <v>159998</v>
+        <v>159732</v>
       </c>
       <c r="C88" s="39" t="inlineStr">
         <is>
-          <t>计算机ETF</t>
+          <t>消费电子ETF</t>
         </is>
       </c>
       <c r="D88" s="39" t="n">
-        <v>29.1</v>
+        <v>15.61</v>
       </c>
       <c r="E88" s="39" t="n">
-        <v>38.5</v>
+        <v>27.4</v>
       </c>
       <c r="F88" s="39" t="n">
-        <v>14.4</v>
+        <v>1.5</v>
       </c>
       <c r="G88" s="39" t="n">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
       <c r="H88" s="39" t="n">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="I88" s="39" t="n">
-        <v>57.8</v>
+        <v>24.4</v>
       </c>
       <c r="J88" s="39" t="n">
-        <v>67</v>
+        <v>61.7</v>
       </c>
       <c r="K88" s="39" t="n">
-        <v>78.59999999999999</v>
+        <v>80.7</v>
       </c>
       <c r="L88" s="39" t="n">
-        <v>81.3</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="M88" s="39" t="n">
-        <v>46.7</v>
+        <v>54.8</v>
       </c>
       <c r="N88" s="39" t="n">
-        <v>20.5</v>
+        <v>29.6</v>
       </c>
       <c r="O88" s="39" t="n">
-        <v>36.4</v>
+        <v>29.6</v>
       </c>
       <c r="P88" s="39" t="n">
-        <v>30.3</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="Q88" s="39" t="n">
-        <v>90.5</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="R88" s="39" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="S88" s="39" t="n">
+        <v>71.2</v>
+      </c>
+      <c r="T88" s="39" t="n">
         <v>41.5</v>
       </c>
-      <c r="S88" s="39" t="n">
-        <v>58.7</v>
-      </c>
-      <c r="T88" s="39" t="n">
-        <v>17.5</v>
-      </c>
       <c r="U88" s="39" t="n">
-        <v>47.2</v>
+        <v>55.5</v>
       </c>
       <c r="V88" s="39" t="n">
-        <v>34.7</v>
+        <v>30.9</v>
       </c>
       <c r="W88" s="39" t="n">
-        <v>60.7</v>
+        <v>66.5</v>
       </c>
       <c r="X88" s="39" t="n">
         <v>90.2</v>
       </c>
       <c r="Y88" s="39" t="inlineStr">
         <is>
-          <t>计算机ETF</t>
+          <t>消费电子ETF</t>
         </is>
       </c>
     </row>
@@ -19171,79 +19171,79 @@
         <v>87</v>
       </c>
       <c r="B89" s="39" t="n">
-        <v>516780</v>
+        <v>515980</v>
       </c>
       <c r="C89" s="39" t="inlineStr">
         <is>
-          <t>稀土ETF</t>
+          <t>人工智能ETF</t>
         </is>
       </c>
       <c r="D89" s="39" t="n">
-        <v>8.73</v>
+        <v>34.21</v>
       </c>
       <c r="E89" s="39" t="n">
-        <v>44.3</v>
+        <v>31.8</v>
       </c>
       <c r="F89" s="39" t="n">
-        <v>30.4</v>
+        <v>5</v>
       </c>
       <c r="G89" s="39" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H89" s="39" t="n">
-        <v>25.7</v>
+        <v>0.3</v>
       </c>
       <c r="I89" s="39" t="n">
-        <v>48.8</v>
+        <v>42</v>
       </c>
       <c r="J89" s="39" t="n">
-        <v>64.5</v>
+        <v>62.1</v>
       </c>
       <c r="K89" s="39" t="n">
-        <v>64.5</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="L89" s="39" t="n">
-        <v>78</v>
+        <v>82.8</v>
       </c>
       <c r="M89" s="39" t="n">
-        <v>27.6</v>
+        <v>54.1</v>
       </c>
       <c r="N89" s="39" t="n">
-        <v>15.7</v>
+        <v>32</v>
       </c>
       <c r="O89" s="39" t="n">
-        <v>10.6</v>
+        <v>57.9</v>
       </c>
       <c r="P89" s="39" t="n">
-        <v>4.2</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="Q89" s="39" t="n">
-        <v>69.3</v>
+        <v>92.8</v>
       </c>
       <c r="R89" s="39" t="n">
-        <v>35.8</v>
+        <v>43.5</v>
       </c>
       <c r="S89" s="39" t="n">
-        <v>77.40000000000001</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="T89" s="39" t="n">
-        <v>43</v>
+        <v>28.1</v>
       </c>
       <c r="U89" s="39" t="n">
-        <v>49.8</v>
+        <v>57.1</v>
       </c>
       <c r="V89" s="39" t="n">
-        <v>49.8</v>
+        <v>41.8</v>
       </c>
       <c r="W89" s="39" t="n">
-        <v>49.8</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="X89" s="39" t="n">
-        <v>90.59999999999999</v>
+        <v>90.5</v>
       </c>
       <c r="Y89" s="39" t="inlineStr">
         <is>
-          <t>稀土ETF</t>
+          <t>人工智能ETF</t>
         </is>
       </c>
     </row>
@@ -19252,79 +19252,79 @@
         <v>88</v>
       </c>
       <c r="B90" s="39" t="n">
-        <v>588200</v>
+        <v>159996</v>
       </c>
       <c r="C90" s="39" t="inlineStr">
         <is>
-          <t>科创芯片ETF</t>
+          <t>家电ETF</t>
         </is>
       </c>
       <c r="D90" s="39" t="n">
-        <v>245.63</v>
+        <v>15.32</v>
       </c>
       <c r="E90" s="39" t="n">
-        <v>25.1</v>
+        <v>43.8</v>
       </c>
       <c r="F90" s="39" t="n">
-        <v>11.8</v>
+        <v>6.5</v>
       </c>
       <c r="G90" s="39" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H90" s="39" t="n">
-        <v>12.7</v>
+        <v>1</v>
       </c>
       <c r="I90" s="39" t="n">
-        <v>65.8</v>
+        <v>22.2</v>
       </c>
       <c r="J90" s="39" t="n">
-        <v>74.90000000000001</v>
+        <v>70</v>
       </c>
       <c r="K90" s="39" t="n">
-        <v>91.09999999999999</v>
+        <v>71.7</v>
       </c>
       <c r="L90" s="39" t="n">
-        <v>91.09999999999999</v>
+        <v>51.4</v>
       </c>
       <c r="M90" s="39" t="n">
-        <v>57.9</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="N90" s="39" t="n">
-        <v>72.8</v>
+        <v>27.7</v>
       </c>
       <c r="O90" s="39" t="n">
-        <v>85.09999999999999</v>
+        <v>27.7</v>
       </c>
       <c r="P90" s="39" t="n">
-        <v>44.7</v>
+        <v>61.3</v>
       </c>
       <c r="Q90" s="39" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="R90" s="39" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="S90" s="39" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="T90" s="39" t="n">
         <v>70.59999999999999</v>
       </c>
-      <c r="R90" s="39" t="n">
-        <v>44.8</v>
-      </c>
-      <c r="S90" s="39" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="T90" s="39" t="n">
-        <v>14.7</v>
-      </c>
       <c r="U90" s="39" t="n">
-        <v>9.699999999999999</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="V90" s="39" t="n">
-        <v>37.8</v>
+        <v>52.5</v>
       </c>
       <c r="W90" s="39" t="n">
-        <v>72.3</v>
+        <v>78.2</v>
       </c>
       <c r="X90" s="39" t="n">
-        <v>91.40000000000001</v>
+        <v>92</v>
       </c>
       <c r="Y90" s="39" t="inlineStr">
         <is>
-          <t>科创芯片ETF</t>
+          <t>家电ETF</t>
         </is>
       </c>
     </row>
@@ -19333,79 +19333,79 @@
         <v>89</v>
       </c>
       <c r="B91" s="39" t="n">
-        <v>159996</v>
+        <v>588200</v>
       </c>
       <c r="C91" s="39" t="inlineStr">
         <is>
-          <t>家电ETF</t>
+          <t>科创芯片ETF</t>
         </is>
       </c>
       <c r="D91" s="39" t="n">
-        <v>15.32</v>
+        <v>246.1</v>
       </c>
       <c r="E91" s="39" t="n">
-        <v>43.8</v>
+        <v>25.1</v>
       </c>
       <c r="F91" s="39" t="n">
-        <v>6.5</v>
+        <v>11.8</v>
       </c>
       <c r="G91" s="39" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H91" s="39" t="n">
-        <v>1</v>
+        <v>12.7</v>
       </c>
       <c r="I91" s="39" t="n">
-        <v>22.2</v>
+        <v>65.8</v>
       </c>
       <c r="J91" s="39" t="n">
-        <v>70</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="K91" s="39" t="n">
-        <v>71.7</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="L91" s="39" t="n">
-        <v>51.4</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="M91" s="39" t="n">
-        <v>71.90000000000001</v>
+        <v>57.9</v>
       </c>
       <c r="N91" s="39" t="n">
-        <v>27.7</v>
+        <v>72.8</v>
       </c>
       <c r="O91" s="39" t="n">
-        <v>27.7</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="P91" s="39" t="n">
-        <v>61.3</v>
+        <v>44.7</v>
       </c>
       <c r="Q91" s="39" t="n">
-        <v>89.8</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="R91" s="39" t="n">
-        <v>72.09999999999999</v>
+        <v>44.8</v>
       </c>
       <c r="S91" s="39" t="n">
-        <v>90.2</v>
+        <v>53.3</v>
       </c>
       <c r="T91" s="39" t="n">
-        <v>70.59999999999999</v>
+        <v>14.7</v>
       </c>
       <c r="U91" s="39" t="n">
-        <v>81.40000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="V91" s="39" t="n">
-        <v>52.5</v>
+        <v>37.8</v>
       </c>
       <c r="W91" s="39" t="n">
-        <v>78.2</v>
+        <v>72.3</v>
       </c>
       <c r="X91" s="39" t="n">
-        <v>92</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="Y91" s="39" t="inlineStr">
         <is>
-          <t>家电ETF</t>
+          <t>科创芯片ETF</t>
         </is>
       </c>
     </row>
@@ -19414,79 +19414,79 @@
         <v>90</v>
       </c>
       <c r="B92" s="39" t="n">
-        <v>512480</v>
+        <v>159995</v>
       </c>
       <c r="C92" s="39" t="inlineStr">
         <is>
-          <t>半导体ETF</t>
+          <t>芯片ETF</t>
         </is>
       </c>
       <c r="D92" s="39" t="n">
-        <v>212.65</v>
+        <v>241.42</v>
       </c>
       <c r="E92" s="39" t="n">
-        <v>22.3</v>
+        <v>30.4</v>
       </c>
       <c r="F92" s="39" t="n">
-        <v>8.199999999999999</v>
+        <v>53.1</v>
       </c>
       <c r="G92" s="39" t="n">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="H92" s="39" t="n">
-        <v>4.2</v>
+        <v>7.8</v>
       </c>
       <c r="I92" s="39" t="n">
-        <v>65.5</v>
+        <v>68.8</v>
       </c>
       <c r="J92" s="39" t="n">
-        <v>74</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="K92" s="39" t="n">
-        <v>91.5</v>
+        <v>91</v>
       </c>
       <c r="L92" s="39" t="n">
-        <v>91.5</v>
+        <v>88.7</v>
       </c>
       <c r="M92" s="39" t="n">
-        <v>53.8</v>
+        <v>46.9</v>
       </c>
       <c r="N92" s="39" t="n">
-        <v>68</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="O92" s="39" t="n">
-        <v>79</v>
+        <v>75.3</v>
       </c>
       <c r="P92" s="39" t="n">
-        <v>34.9</v>
+        <v>38.2</v>
       </c>
       <c r="Q92" s="39" t="n">
-        <v>69.2</v>
+        <v>71.7</v>
       </c>
       <c r="R92" s="39" t="n">
-        <v>58.1</v>
+        <v>60.7</v>
       </c>
       <c r="S92" s="39" t="n">
-        <v>58.1</v>
+        <v>37.7</v>
       </c>
       <c r="T92" s="39" t="n">
-        <v>10.6</v>
+        <v>10.3</v>
       </c>
       <c r="U92" s="39" t="n">
-        <v>7.8</v>
+        <v>8.5</v>
       </c>
       <c r="V92" s="39" t="n">
-        <v>21.4</v>
+        <v>50.8</v>
       </c>
       <c r="W92" s="39" t="n">
-        <v>80.09999999999999</v>
+        <v>83.8</v>
       </c>
       <c r="X92" s="39" t="n">
-        <v>92.5</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="Y92" s="39" t="inlineStr">
         <is>
-          <t>半导体ETF</t>
+          <t>芯片ETF</t>
         </is>
       </c>
     </row>
@@ -19495,79 +19495,79 @@
         <v>91</v>
       </c>
       <c r="B93" s="39" t="n">
-        <v>159995</v>
+        <v>512480</v>
       </c>
       <c r="C93" s="39" t="inlineStr">
         <is>
-          <t>芯片ETF</t>
+          <t>半导体ETF</t>
         </is>
       </c>
       <c r="D93" s="39" t="n">
-        <v>241.23</v>
+        <v>213.45</v>
       </c>
       <c r="E93" s="39" t="n">
-        <v>30.4</v>
+        <v>22.3</v>
       </c>
       <c r="F93" s="39" t="n">
-        <v>53.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G93" s="39" t="n">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="H93" s="39" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I93" s="39" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="J93" s="39" t="n">
+        <v>74</v>
+      </c>
+      <c r="K93" s="39" t="n">
+        <v>91.5</v>
+      </c>
+      <c r="L93" s="39" t="n">
+        <v>91.5</v>
+      </c>
+      <c r="M93" s="39" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="N93" s="39" t="n">
+        <v>68</v>
+      </c>
+      <c r="O93" s="39" t="n">
+        <v>79</v>
+      </c>
+      <c r="P93" s="39" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="Q93" s="39" t="n">
+        <v>69.2</v>
+      </c>
+      <c r="R93" s="39" t="n">
+        <v>58.1</v>
+      </c>
+      <c r="S93" s="39" t="n">
+        <v>58.1</v>
+      </c>
+      <c r="T93" s="39" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="U93" s="39" t="n">
         <v>7.8</v>
       </c>
-      <c r="I93" s="39" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="J93" s="39" t="n">
-        <v>74.40000000000001</v>
-      </c>
-      <c r="K93" s="39" t="n">
-        <v>91</v>
-      </c>
-      <c r="L93" s="39" t="n">
-        <v>88.7</v>
-      </c>
-      <c r="M93" s="39" t="n">
-        <v>46.9</v>
-      </c>
-      <c r="N93" s="39" t="n">
-        <v>71.09999999999999</v>
-      </c>
-      <c r="O93" s="39" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="P93" s="39" t="n">
-        <v>38.2</v>
-      </c>
-      <c r="Q93" s="39" t="n">
-        <v>71.7</v>
-      </c>
-      <c r="R93" s="39" t="n">
-        <v>60.7</v>
-      </c>
-      <c r="S93" s="39" t="n">
-        <v>37.7</v>
-      </c>
-      <c r="T93" s="39" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="U93" s="39" t="n">
-        <v>8.5</v>
-      </c>
       <c r="V93" s="39" t="n">
-        <v>50.8</v>
+        <v>21.4</v>
       </c>
       <c r="W93" s="39" t="n">
-        <v>83.8</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="X93" s="39" t="n">
-        <v>93.09999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="Y93" s="39" t="inlineStr">
         <is>
-          <t>芯片ETF</t>
+          <t>半导体ETF</t>
         </is>
       </c>
     </row>
@@ -19576,79 +19576,79 @@
         <v>92</v>
       </c>
       <c r="B94" s="39" t="n">
-        <v>159869</v>
+        <v>512980</v>
       </c>
       <c r="C94" s="39" t="inlineStr">
         <is>
-          <t>游戏ETF</t>
+          <t>传媒ETF</t>
         </is>
       </c>
       <c r="D94" s="39" t="n">
-        <v>68.36</v>
+        <v>26.96</v>
       </c>
       <c r="E94" s="39" t="n">
-        <v>40.4</v>
+        <v>58.7</v>
       </c>
       <c r="F94" s="39" t="n">
-        <v>40.4</v>
+        <v>49.8</v>
       </c>
       <c r="G94" s="39" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H94" s="39" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="I94" s="39" t="n">
-        <v>42.5</v>
+        <v>45.9</v>
       </c>
       <c r="J94" s="39" t="n">
-        <v>62.4</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="K94" s="39" t="n">
-        <v>60.3</v>
+        <v>65.2</v>
       </c>
       <c r="L94" s="39" t="n">
-        <v>80.8</v>
+        <v>78.8</v>
       </c>
       <c r="M94" s="39" t="n">
-        <v>87.90000000000001</v>
+        <v>84.7</v>
       </c>
       <c r="N94" s="39" t="n">
-        <v>42.6</v>
+        <v>59.6</v>
       </c>
       <c r="O94" s="39" t="n">
-        <v>50.5</v>
+        <v>33.3</v>
       </c>
       <c r="P94" s="39" t="n">
-        <v>83</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="Q94" s="39" t="n">
-        <v>95.40000000000001</v>
+        <v>93.2</v>
       </c>
       <c r="R94" s="39" t="n">
-        <v>51.4</v>
+        <v>51.5</v>
       </c>
       <c r="S94" s="39" t="n">
-        <v>60.1</v>
+        <v>39.7</v>
       </c>
       <c r="T94" s="39" t="n">
-        <v>20.9</v>
+        <v>13.3</v>
       </c>
       <c r="U94" s="39" t="n">
-        <v>36.6</v>
+        <v>33.7</v>
       </c>
       <c r="V94" s="39" t="n">
-        <v>73.5</v>
+        <v>33.7</v>
       </c>
       <c r="W94" s="39" t="n">
-        <v>84.09999999999999</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="X94" s="39" t="n">
-        <v>93.59999999999999</v>
+        <v>94</v>
       </c>
       <c r="Y94" s="39" t="inlineStr">
         <is>
-          <t>游戏ETF</t>
+          <t>传媒ETF</t>
         </is>
       </c>
     </row>
@@ -19656,80 +19656,82 @@
       <c r="A95" s="39" t="n">
         <v>93</v>
       </c>
-      <c r="B95" s="39" t="n">
-        <v>512980</v>
+      <c r="B95" s="39" t="inlineStr">
+        <is>
+          <t>515070</t>
+        </is>
       </c>
       <c r="C95" s="39" t="inlineStr">
         <is>
-          <t>传媒ETF</t>
+          <t>人工智能AIETF</t>
         </is>
       </c>
       <c r="D95" s="39" t="n">
-        <v>26.99</v>
+        <v>50.39</v>
       </c>
       <c r="E95" s="39" t="n">
-        <v>58.7</v>
+        <v>38.1</v>
       </c>
       <c r="F95" s="39" t="n">
-        <v>49.8</v>
+        <v>7.1</v>
       </c>
       <c r="G95" s="39" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H95" s="39" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="I95" s="39" t="n">
-        <v>45.9</v>
+        <v>43.8</v>
       </c>
       <c r="J95" s="39" t="n">
-        <v>74.09999999999999</v>
+        <v>63.5</v>
       </c>
       <c r="K95" s="39" t="n">
-        <v>65.2</v>
+        <v>78.2</v>
       </c>
       <c r="L95" s="39" t="n">
-        <v>78.8</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="M95" s="39" t="n">
-        <v>84.7</v>
+        <v>53.9</v>
       </c>
       <c r="N95" s="39" t="n">
-        <v>59.6</v>
+        <v>34.4</v>
       </c>
       <c r="O95" s="39" t="n">
-        <v>33.3</v>
+        <v>54.8</v>
       </c>
       <c r="P95" s="39" t="n">
-        <v>75.90000000000001</v>
+        <v>63.9</v>
       </c>
       <c r="Q95" s="39" t="n">
-        <v>93.2</v>
+        <v>93</v>
       </c>
       <c r="R95" s="39" t="n">
-        <v>51.5</v>
+        <v>44.8</v>
       </c>
       <c r="S95" s="39" t="n">
-        <v>39.7</v>
+        <v>70.8</v>
       </c>
       <c r="T95" s="39" t="n">
-        <v>13.3</v>
+        <v>27.6</v>
       </c>
       <c r="U95" s="39" t="n">
-        <v>33.7</v>
+        <v>55</v>
       </c>
       <c r="V95" s="39" t="n">
-        <v>33.7</v>
+        <v>47.8</v>
       </c>
       <c r="W95" s="39" t="n">
-        <v>83.90000000000001</v>
+        <v>70.8</v>
       </c>
       <c r="X95" s="39" t="n">
-        <v>94</v>
+        <v>94.3</v>
       </c>
       <c r="Y95" s="39" t="inlineStr">
         <is>
-          <t>传媒ETF</t>
+          <t>人工智能AIETF</t>
         </is>
       </c>
     </row>
@@ -19737,82 +19739,80 @@
       <c r="A96" s="39" t="n">
         <v>94</v>
       </c>
-      <c r="B96" s="39" t="inlineStr">
-        <is>
-          <t>515070</t>
-        </is>
+      <c r="B96" s="39" t="n">
+        <v>159869</v>
       </c>
       <c r="C96" s="39" t="inlineStr">
         <is>
-          <t>人工智能AIETF</t>
+          <t>游戏ETF</t>
         </is>
       </c>
       <c r="D96" s="39" t="n">
-        <v>50.26</v>
+        <v>68.55</v>
       </c>
       <c r="E96" s="39" t="n">
-        <v>38.1</v>
+        <v>40.4</v>
       </c>
       <c r="F96" s="39" t="n">
-        <v>7.1</v>
+        <v>40.4</v>
       </c>
       <c r="G96" s="39" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H96" s="39" t="n">
         <v>0.5</v>
       </c>
       <c r="I96" s="39" t="n">
-        <v>43.8</v>
+        <v>42.5</v>
       </c>
       <c r="J96" s="39" t="n">
-        <v>63.5</v>
+        <v>62.4</v>
       </c>
       <c r="K96" s="39" t="n">
-        <v>78.2</v>
+        <v>60.3</v>
       </c>
       <c r="L96" s="39" t="n">
-        <v>83.59999999999999</v>
+        <v>80.8</v>
       </c>
       <c r="M96" s="39" t="n">
-        <v>53.9</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="N96" s="39" t="n">
-        <v>34.4</v>
+        <v>42.6</v>
       </c>
       <c r="O96" s="39" t="n">
-        <v>54.8</v>
+        <v>50.5</v>
       </c>
       <c r="P96" s="39" t="n">
-        <v>63.9</v>
+        <v>83</v>
       </c>
       <c r="Q96" s="39" t="n">
-        <v>93</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="R96" s="39" t="n">
-        <v>44.8</v>
+        <v>51.4</v>
       </c>
       <c r="S96" s="39" t="n">
-        <v>70.8</v>
+        <v>60.1</v>
       </c>
       <c r="T96" s="39" t="n">
-        <v>27.6</v>
+        <v>20.9</v>
       </c>
       <c r="U96" s="39" t="n">
-        <v>55</v>
+        <v>36.6</v>
       </c>
       <c r="V96" s="39" t="n">
-        <v>47.8</v>
+        <v>73.5</v>
       </c>
       <c r="W96" s="39" t="n">
-        <v>70.8</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="X96" s="39" t="n">
-        <v>94</v>
+        <v>94.3</v>
       </c>
       <c r="Y96" s="39" t="inlineStr">
         <is>
-          <t>人工智能AIETF</t>
+          <t>游戏ETF</t>
         </is>
       </c>
     </row>
@@ -19829,7 +19829,7 @@
         </is>
       </c>
       <c r="D97" s="39" t="n">
-        <v>7.55</v>
+        <v>7.57</v>
       </c>
       <c r="E97" s="39" t="n">
         <v>23</v>
@@ -19889,7 +19889,7 @@
         <v>76.8</v>
       </c>
       <c r="X97" s="39" t="n">
-        <v>94.3</v>
+        <v>95</v>
       </c>
       <c r="Y97" s="39" t="inlineStr">
         <is>
@@ -19910,7 +19910,7 @@
         </is>
       </c>
       <c r="D98" s="39" t="n">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="E98" s="39" t="n">
         <v>28.2</v>
@@ -19970,7 +19970,7 @@
         <v>65.3</v>
       </c>
       <c r="X98" s="39" t="n">
-        <v>94.40000000000001</v>
+        <v>95</v>
       </c>
       <c r="Y98" s="39" t="inlineStr">
         <is>
@@ -19982,80 +19982,82 @@
       <c r="A99" s="39" t="n">
         <v>97</v>
       </c>
-      <c r="B99" s="39" t="n">
-        <v>513030</v>
+      <c r="B99" s="39" t="inlineStr">
+        <is>
+          <t>511880</t>
+        </is>
       </c>
       <c r="C99" s="39" t="inlineStr">
         <is>
-          <t>德国ETF</t>
+          <t>银华日利ETF</t>
         </is>
       </c>
       <c r="D99" s="39" t="n">
-        <v>13.02</v>
+        <v>747.23</v>
       </c>
       <c r="E99" s="39" t="n">
-        <v>42.8</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="F99" s="39" t="n">
-        <v>13.6</v>
+        <v>95.2</v>
       </c>
       <c r="G99" s="39" t="n">
-        <v>1.4</v>
+        <v>45</v>
       </c>
       <c r="H99" s="39" t="n">
-        <v>30.7</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="I99" s="39" t="n">
-        <v>19.6</v>
+        <v>82.3</v>
       </c>
       <c r="J99" s="39" t="n">
-        <v>74.90000000000001</v>
+        <v>87.8</v>
       </c>
       <c r="K99" s="39" t="n">
-        <v>64.90000000000001</v>
+        <v>95</v>
       </c>
       <c r="L99" s="39" t="n">
-        <v>76.09999999999999</v>
+        <v>97.7</v>
       </c>
       <c r="M99" s="39" t="n">
-        <v>86.8</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="N99" s="39" t="n">
-        <v>84.2</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="O99" s="39" t="n">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="P99" s="39" t="n">
-        <v>73.7</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="Q99" s="39" t="n">
-        <v>73.7</v>
+        <v>55.9</v>
       </c>
       <c r="R99" s="39" t="n">
-        <v>83.3</v>
+        <v>79</v>
       </c>
       <c r="S99" s="39" t="n">
+        <v>79</v>
+      </c>
+      <c r="T99" s="39" t="n">
+        <v>94.7</v>
+      </c>
+      <c r="U99" s="39" t="n">
+        <v>97.7</v>
+      </c>
+      <c r="V99" s="39" t="n">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="W99" s="39" t="n">
+        <v>81.3</v>
+      </c>
+      <c r="X99" s="39" t="n">
         <v>98.09999999999999</v>
       </c>
-      <c r="T99" s="39" t="n">
-        <v>83.90000000000001</v>
-      </c>
-      <c r="U99" s="39" t="n">
-        <v>93.2</v>
-      </c>
-      <c r="V99" s="39" t="n">
-        <v>94.3</v>
-      </c>
-      <c r="W99" s="39" t="n">
-        <v>97</v>
-      </c>
-      <c r="X99" s="39" t="n">
-        <v>98.2</v>
-      </c>
       <c r="Y99" s="39" t="inlineStr">
         <is>
-          <t>德国ETF</t>
+          <t>银华日利ETF</t>
         </is>
       </c>
     </row>
@@ -20063,82 +20065,80 @@
       <c r="A100" s="39" t="n">
         <v>98</v>
       </c>
-      <c r="B100" s="39" t="inlineStr">
-        <is>
-          <t>511880</t>
-        </is>
+      <c r="B100" s="39" t="n">
+        <v>513030</v>
       </c>
       <c r="C100" s="39" t="inlineStr">
         <is>
-          <t>银华日利ETF</t>
+          <t>德国ETF</t>
         </is>
       </c>
       <c r="D100" s="39" t="n">
-        <v>747.24</v>
+        <v>13.01</v>
       </c>
       <c r="E100" s="39" t="n">
-        <v>93.09999999999999</v>
+        <v>42.8</v>
       </c>
       <c r="F100" s="39" t="n">
-        <v>95.2</v>
+        <v>13.6</v>
       </c>
       <c r="G100" s="39" t="n">
-        <v>45</v>
+        <v>1.4</v>
       </c>
       <c r="H100" s="39" t="n">
-        <v>71.59999999999999</v>
+        <v>30.7</v>
       </c>
       <c r="I100" s="39" t="n">
-        <v>82.3</v>
+        <v>19.6</v>
       </c>
       <c r="J100" s="39" t="n">
-        <v>87.8</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="K100" s="39" t="n">
-        <v>95</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="L100" s="39" t="n">
-        <v>97.7</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="M100" s="39" t="n">
-        <v>99.09999999999999</v>
+        <v>86.8</v>
       </c>
       <c r="N100" s="39" t="n">
-        <v>99.40000000000001</v>
+        <v>84.2</v>
       </c>
       <c r="O100" s="39" t="n">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="P100" s="39" t="n">
-        <v>83.40000000000001</v>
+        <v>73.7</v>
       </c>
       <c r="Q100" s="39" t="n">
-        <v>55.9</v>
+        <v>73.7</v>
       </c>
       <c r="R100" s="39" t="n">
-        <v>79</v>
+        <v>83.3</v>
       </c>
       <c r="S100" s="39" t="n">
-        <v>79</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="T100" s="39" t="n">
-        <v>94.7</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="U100" s="39" t="n">
-        <v>97.7</v>
+        <v>93.2</v>
       </c>
       <c r="V100" s="39" t="n">
-        <v>71.09999999999999</v>
+        <v>94.3</v>
       </c>
       <c r="W100" s="39" t="n">
-        <v>81.3</v>
+        <v>97</v>
       </c>
       <c r="X100" s="39" t="n">
         <v>98.2</v>
       </c>
       <c r="Y100" s="39" t="inlineStr">
         <is>
-          <t>银华日利ETF</t>
+          <t>德国ETF</t>
         </is>
       </c>
     </row>

--- a/fund_list.xlsx
+++ b/fund_list.xlsx
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="D2" s="39" t="n">
-        <v>3111.03</v>
+        <v>3646.91</v>
       </c>
       <c r="E2" s="41" t="n">
         <v>0.05</v>
@@ -1601,8 +1601,8 @@
       <c r="W2" s="41" t="n">
         <v>-0.05</v>
       </c>
-      <c r="X2" s="40" t="n">
-        <v>-0.08</v>
+      <c r="X2" s="43" t="n">
+        <v>-0.13</v>
       </c>
       <c r="Y2" s="39" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         </is>
       </c>
       <c r="D3" s="39" t="n">
-        <v>159.91</v>
+        <v>191.01</v>
       </c>
       <c r="E3" s="41" t="n">
         <v>-0.16</v>
@@ -1685,7 +1685,7 @@
         <v>0.1</v>
       </c>
       <c r="X3" s="42" t="n">
-        <v>0.96</v>
+        <v>0.87</v>
       </c>
       <c r="Y3" s="39" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="D4" s="39" t="n">
-        <v>4029.27</v>
+        <v>4721.75</v>
       </c>
       <c r="E4" s="41" t="n">
         <v>0.09</v>
@@ -1768,7 +1768,7 @@
         <v>-0.05</v>
       </c>
       <c r="X4" s="42" t="n">
-        <v>0.73</v>
+        <v>0.6</v>
       </c>
       <c r="Y4" s="39" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         </is>
       </c>
       <c r="D5" s="39" t="n">
-        <v>1752.45</v>
+        <v>2068.24</v>
       </c>
       <c r="E5" s="41" t="n">
         <v>0.13</v>
@@ -1851,7 +1851,7 @@
         <v>-0.13</v>
       </c>
       <c r="X5" s="42" t="n">
-        <v>1.01</v>
+        <v>0.92</v>
       </c>
       <c r="Y5" s="39" t="inlineStr">
         <is>
@@ -1874,7 +1874,7 @@
         </is>
       </c>
       <c r="D6" s="39" t="n">
-        <v>456.91</v>
+        <v>533.02</v>
       </c>
       <c r="E6" s="40" t="n">
         <v>-0.15</v>
@@ -1934,7 +1934,7 @@
         <v>-0.22</v>
       </c>
       <c r="X6" s="40" t="n">
-        <v>-0.26</v>
+        <v>-0.36</v>
       </c>
       <c r="Y6" s="39" t="inlineStr">
         <is>
@@ -1957,7 +1957,7 @@
         </is>
       </c>
       <c r="D7" s="39" t="n">
-        <v>1506.22</v>
+        <v>1762.97</v>
       </c>
       <c r="E7" s="40" t="n">
         <v>-0.08</v>
@@ -2017,7 +2017,7 @@
         <v>-0.17</v>
       </c>
       <c r="X7" s="40" t="n">
-        <v>0.07000000000000001</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="Y7" s="39" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         </is>
       </c>
       <c r="D8" s="39" t="n">
-        <v>1088.4</v>
+        <v>1280.95</v>
       </c>
       <c r="E8" s="41" t="n">
         <v>0.11</v>
@@ -2100,7 +2100,7 @@
         <v>0.12</v>
       </c>
       <c r="X8" s="42" t="n">
-        <v>0.68</v>
+        <v>0.62</v>
       </c>
       <c r="Y8" s="39" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         </is>
       </c>
       <c r="D9" s="39" t="n">
-        <v>2594.62</v>
+        <v>3044.36</v>
       </c>
       <c r="E9" s="41" t="n">
         <v>-0.03</v>
@@ -2182,8 +2182,8 @@
       <c r="W9" s="40" t="n">
         <v>-0.1</v>
       </c>
-      <c r="X9" s="42" t="n">
-        <v>0.23</v>
+      <c r="X9" s="40" t="n">
+        <v>0.11</v>
       </c>
       <c r="Y9" s="39" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         </is>
       </c>
       <c r="D10" s="39" t="n">
-        <v>1463.37</v>
+        <v>1722.65</v>
       </c>
       <c r="E10" s="41" t="n">
         <v>0.28</v>
@@ -2266,7 +2266,7 @@
         <v>0.45</v>
       </c>
       <c r="X10" s="42" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="Y10" s="39" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         </is>
       </c>
       <c r="D11" s="39" t="n">
-        <v>6.6</v>
+        <v>6.62</v>
       </c>
       <c r="E11" s="41" t="n">
         <v>1.73</v>
@@ -2349,7 +2349,7 @@
         <v>0.65</v>
       </c>
       <c r="X11" s="41" t="n">
-        <v>-0.5600000000000001</v>
+        <v>-0.37</v>
       </c>
       <c r="Y11" s="39" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>0.51</v>
       </c>
       <c r="X13" s="48" t="n">
-        <v>0.34</v>
+        <v>0.39</v>
       </c>
       <c r="Y13" s="39" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
         </is>
       </c>
       <c r="D14" s="39" t="n">
-        <v>238.93</v>
+        <v>238.49</v>
       </c>
       <c r="E14" s="40" t="n">
         <v>0.55</v>
@@ -2598,7 +2598,7 @@
         <v>-0.09</v>
       </c>
       <c r="X14" s="42" t="n">
-        <v>0.27</v>
+        <v>0.18</v>
       </c>
       <c r="Y14" s="39" t="inlineStr">
         <is>
@@ -2704,7 +2704,7 @@
         </is>
       </c>
       <c r="D16" s="39" t="n">
-        <v>177.64</v>
+        <v>177.74</v>
       </c>
       <c r="E16" s="40" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>-0.21</v>
       </c>
       <c r="X16" s="42" t="n">
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
       <c r="Y16" s="39" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
         </is>
       </c>
       <c r="D17" s="39" t="n">
-        <v>12.62</v>
+        <v>12.63</v>
       </c>
       <c r="E17" s="43" t="n">
         <v>-2.57</v>
@@ -2847,7 +2847,7 @@
         <v>1</v>
       </c>
       <c r="X17" s="42" t="n">
-        <v>0.27</v>
+        <v>0.36</v>
       </c>
       <c r="Y17" s="39" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="D18" s="39" t="n">
-        <v>343.84</v>
+        <v>343.59</v>
       </c>
       <c r="E18" s="41" t="n">
         <v>-0.55</v>
@@ -2930,7 +2930,7 @@
         <v>-0.82</v>
       </c>
       <c r="X18" s="42" t="n">
-        <v>1.05</v>
+        <v>0.97</v>
       </c>
       <c r="Y18" s="39" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         </is>
       </c>
       <c r="D19" s="39" t="n">
-        <v>88.3</v>
+        <v>88.17</v>
       </c>
       <c r="E19" s="41" t="n">
         <v>1.44</v>
@@ -3013,7 +3013,7 @@
         <v>-0.14</v>
       </c>
       <c r="X19" s="41" t="n">
-        <v>-0.14</v>
+        <v>-0.21</v>
       </c>
       <c r="Y19" s="39" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="X20" s="44" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="Y20" s="39" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
         </is>
       </c>
       <c r="D21" s="39" t="n">
-        <v>602.08</v>
+        <v>601.92</v>
       </c>
       <c r="E21" s="41" t="n">
         <v>-0.38</v>
@@ -3179,7 +3179,7 @@
         <v>0.7</v>
       </c>
       <c r="X21" s="41" t="n">
-        <v>-0.32</v>
+        <v>-0.33</v>
       </c>
       <c r="Y21" s="39" t="inlineStr">
         <is>
@@ -3202,7 +3202,7 @@
         </is>
       </c>
       <c r="D22" s="39" t="n">
-        <v>39.64</v>
+        <v>39.59</v>
       </c>
       <c r="E22" s="40" t="n">
         <v>-0.24</v>
@@ -3262,7 +3262,7 @@
         <v>-0.49</v>
       </c>
       <c r="X22" s="43" t="n">
-        <v>-0.12</v>
+        <v>-0.25</v>
       </c>
       <c r="Y22" s="39" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D23" s="39" t="n">
-        <v>3737.84</v>
+        <v>3733.98</v>
       </c>
       <c r="E23" s="40" t="n">
         <v>-0.08</v>
@@ -3344,8 +3344,8 @@
       <c r="W23" s="43" t="n">
         <v>-0.18</v>
       </c>
-      <c r="X23" s="40" t="n">
-        <v>0.1</v>
+      <c r="X23" s="43" t="n">
+        <v>0</v>
       </c>
       <c r="Y23" s="39" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         </is>
       </c>
       <c r="D24" s="39" t="n">
-        <v>1618.25</v>
+        <v>1615.85</v>
       </c>
       <c r="E24" s="40" t="n">
         <v>-0.18</v>
@@ -3428,7 +3428,7 @@
         <v>-0.18</v>
       </c>
       <c r="X24" s="40" t="n">
-        <v>-0.22</v>
+        <v>-0.37</v>
       </c>
       <c r="Y24" s="39" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         </is>
       </c>
       <c r="D25" s="39" t="n">
-        <v>48.33</v>
+        <v>48.27</v>
       </c>
       <c r="E25" s="41" t="n">
         <v>0.12</v>
@@ -3511,7 +3511,7 @@
         <v>-0.12</v>
       </c>
       <c r="X25" s="41" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="Y25" s="39" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         </is>
       </c>
       <c r="D26" s="39" t="n">
-        <v>270.4</v>
+        <v>268.86</v>
       </c>
       <c r="E26" s="41" t="n">
         <v>-0.13</v>
@@ -3594,7 +3594,7 @@
         <v>-0.14</v>
       </c>
       <c r="X26" s="42" t="n">
-        <v>1.3</v>
+        <v>0.87</v>
       </c>
       <c r="Y26" s="39" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
         </is>
       </c>
       <c r="D28" s="39" t="n">
-        <v>633.4</v>
+        <v>632.86</v>
       </c>
       <c r="E28" s="41" t="n">
         <v>0.32</v>
@@ -3760,7 +3760,7 @@
         <v>0.51</v>
       </c>
       <c r="X28" s="42" t="n">
-        <v>1.02</v>
+        <v>0.93</v>
       </c>
       <c r="Y28" s="39" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         </is>
       </c>
       <c r="D29" s="39" t="n">
-        <v>1098.71</v>
+        <v>1098.32</v>
       </c>
       <c r="E29" s="41" t="n">
         <v>0.12</v>
@@ -3843,7 +3843,7 @@
         <v>0.05</v>
       </c>
       <c r="X29" s="42" t="n">
-        <v>0.63</v>
+        <v>0.61</v>
       </c>
       <c r="Y29" s="39" t="inlineStr">
         <is>
@@ -3949,7 +3949,7 @@
         </is>
       </c>
       <c r="D31" s="39" t="n">
-        <v>851.3</v>
+        <v>850.86</v>
       </c>
       <c r="E31" s="41" t="n">
         <v>0.1</v>
@@ -4009,7 +4009,7 @@
         <v>-0.16</v>
       </c>
       <c r="X31" s="42" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="Y31" s="39" t="inlineStr">
         <is>
@@ -4032,7 +4032,7 @@
         </is>
       </c>
       <c r="D32" s="39" t="n">
-        <v>251.44</v>
+        <v>251.15</v>
       </c>
       <c r="E32" s="41" t="n">
         <v>0.32</v>
@@ -4092,7 +4092,7 @@
         <v>-0.24</v>
       </c>
       <c r="X32" s="42" t="n">
-        <v>1.18</v>
+        <v>1.06</v>
       </c>
       <c r="Y32" s="39" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         </is>
       </c>
       <c r="D33" s="39" t="n">
-        <v>54.64</v>
+        <v>54.56</v>
       </c>
       <c r="E33" s="40" t="n">
         <v>-0.53</v>
@@ -4175,7 +4175,7 @@
         <v>-0.55</v>
       </c>
       <c r="X33" s="43" t="n">
-        <v>-0.08</v>
+        <v>-0.24</v>
       </c>
       <c r="Y33" s="39" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         </is>
       </c>
       <c r="D34" s="39" t="n">
-        <v>32.81</v>
+        <v>32.78</v>
       </c>
       <c r="E34" s="40" t="n">
         <v>-0.28</v>
@@ -4258,7 +4258,7 @@
         <v>-0.57</v>
       </c>
       <c r="X34" s="43" t="n">
-        <v>-0.14</v>
+        <v>-0.21</v>
       </c>
       <c r="Y34" s="39" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         </is>
       </c>
       <c r="D37" s="39" t="n">
-        <v>213.45</v>
+        <v>212.85</v>
       </c>
       <c r="E37" s="41" t="n">
         <v>-0.29</v>
@@ -4507,7 +4507,7 @@
         <v>0.96</v>
       </c>
       <c r="X37" s="42" t="n">
-        <v>1.43</v>
+        <v>1.15</v>
       </c>
       <c r="Y37" s="39" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         </is>
       </c>
       <c r="D38" s="39" t="n">
-        <v>241.42</v>
+        <v>241.23</v>
       </c>
       <c r="E38" s="41" t="n">
         <v>-0.16</v>
@@ -4590,7 +4590,7 @@
         <v>0.89</v>
       </c>
       <c r="X38" s="42" t="n">
-        <v>0.96</v>
+        <v>0.88</v>
       </c>
       <c r="Y38" s="39" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         </is>
       </c>
       <c r="D39" s="39" t="n">
-        <v>279.76</v>
+        <v>278.96</v>
       </c>
       <c r="E39" s="41" t="n">
         <v>0.46</v>
@@ -4672,8 +4672,8 @@
       <c r="W39" s="40" t="n">
         <v>-0.29</v>
       </c>
-      <c r="X39" s="42" t="n">
-        <v>0.68</v>
+      <c r="X39" s="41" t="n">
+        <v>0.49</v>
       </c>
       <c r="Y39" s="39" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="D40" s="39" t="n">
-        <v>63.84</v>
+        <v>63.75</v>
       </c>
       <c r="E40" s="41" t="n">
         <v>0.39</v>
@@ -4755,8 +4755,8 @@
       <c r="W40" s="40" t="n">
         <v>-0.54</v>
       </c>
-      <c r="X40" s="42" t="n">
-        <v>0.55</v>
+      <c r="X40" s="40" t="n">
+        <v>0.27</v>
       </c>
       <c r="Y40" s="39" t="inlineStr">
         <is>
@@ -4779,7 +4779,7 @@
         </is>
       </c>
       <c r="D41" s="39" t="n">
-        <v>45.39</v>
+        <v>45.32</v>
       </c>
       <c r="E41" s="41" t="n">
         <v>0.31</v>
@@ -4839,7 +4839,7 @@
         <v>-0.46</v>
       </c>
       <c r="X41" s="40" t="n">
-        <v>-1.23</v>
+        <v>-1.38</v>
       </c>
       <c r="Y41" s="39" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         </is>
       </c>
       <c r="D42" s="39" t="n">
-        <v>74.54000000000001</v>
+        <v>74.59</v>
       </c>
       <c r="E42" s="42" t="n">
         <v>0.86</v>
@@ -4922,7 +4922,7 @@
         <v>-0.26</v>
       </c>
       <c r="X42" s="40" t="n">
-        <v>-2.38</v>
+        <v>-2.32</v>
       </c>
       <c r="Y42" s="39" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         </is>
       </c>
       <c r="D44" s="39" t="n">
-        <v>16.33</v>
+        <v>16.36</v>
       </c>
       <c r="E44" s="42" t="n">
         <v>-0.2</v>
@@ -5088,7 +5088,7 @@
         <v>0.44</v>
       </c>
       <c r="X44" s="41" t="n">
-        <v>0.88</v>
+        <v>1.1</v>
       </c>
       <c r="Y44" s="39" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         </is>
       </c>
       <c r="D48" s="39" t="n">
-        <v>21.58</v>
+        <v>21.54</v>
       </c>
       <c r="E48" s="41" t="n">
         <v>0</v>
@@ -5419,8 +5419,8 @@
       <c r="W48" s="40" t="n">
         <v>0.29</v>
       </c>
-      <c r="X48" s="41" t="n">
-        <v>0</v>
+      <c r="X48" s="40" t="n">
+        <v>-0.29</v>
       </c>
       <c r="Y48" s="39" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         </is>
       </c>
       <c r="D49" s="39" t="n">
-        <v>31.93</v>
+        <v>31.88</v>
       </c>
       <c r="E49" s="41" t="n">
         <v>0</v>
@@ -5502,8 +5502,8 @@
       <c r="W49" s="40" t="n">
         <v>0.51</v>
       </c>
-      <c r="X49" s="41" t="n">
-        <v>-0.17</v>
+      <c r="X49" s="40" t="n">
+        <v>-0.34</v>
       </c>
       <c r="Y49" s="39" t="inlineStr">
         <is>
@@ -5526,7 +5526,7 @@
         </is>
       </c>
       <c r="D50" s="39" t="n">
-        <v>4.21</v>
+        <v>4.22</v>
       </c>
       <c r="E50" s="40" t="n">
         <v>-0.23</v>
@@ -5586,7 +5586,7 @@
         <v>-0.08</v>
       </c>
       <c r="X50" s="42" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="Y50" s="39" t="inlineStr">
         <is>
@@ -5609,7 +5609,7 @@
         </is>
       </c>
       <c r="D51" s="39" t="n">
-        <v>128.5</v>
+        <v>128.63</v>
       </c>
       <c r="E51" s="40" t="n">
         <v>-1.16</v>
@@ -5669,7 +5669,7 @@
         <v>0</v>
       </c>
       <c r="X51" s="41" t="n">
-        <v>0.71</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="Y51" s="39" t="inlineStr">
         <is>
@@ -5692,7 +5692,7 @@
         </is>
       </c>
       <c r="D52" s="39" t="n">
-        <v>4.84</v>
+        <v>4.86</v>
       </c>
       <c r="E52" s="41" t="n">
         <v>1.06</v>
@@ -5752,7 +5752,7 @@
         <v>1.05</v>
       </c>
       <c r="X52" s="42" t="n">
-        <v>1.42</v>
+        <v>1.8</v>
       </c>
       <c r="Y52" s="39" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         </is>
       </c>
       <c r="D53" s="39" t="n">
-        <v>26.96</v>
+        <v>26.85</v>
       </c>
       <c r="E53" s="41" t="n">
         <v>0.74</v>
@@ -5835,7 +5835,7 @@
         <v>1.29</v>
       </c>
       <c r="X53" s="42" t="n">
-        <v>1.4</v>
+        <v>1.14</v>
       </c>
       <c r="Y53" s="39" t="inlineStr">
         <is>
@@ -5858,7 +5858,7 @@
         </is>
       </c>
       <c r="D54" s="39" t="n">
-        <v>34.21</v>
+        <v>34.25</v>
       </c>
       <c r="E54" s="41" t="n">
         <v>0.2</v>
@@ -5918,7 +5918,7 @@
         <v>0.64</v>
       </c>
       <c r="X54" s="42" t="n">
-        <v>2.22</v>
+        <v>2.33</v>
       </c>
       <c r="Y54" s="39" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         </is>
       </c>
       <c r="D56" s="39" t="n">
-        <v>50.39</v>
+        <v>50.3</v>
       </c>
       <c r="E56" s="41" t="n">
         <v>0.25</v>
@@ -6084,7 +6084,7 @@
         <v>0.53</v>
       </c>
       <c r="X56" s="42" t="n">
-        <v>2.47</v>
+        <v>2.29</v>
       </c>
       <c r="Y56" s="39" t="inlineStr">
         <is>
@@ -6107,7 +6107,7 @@
         </is>
       </c>
       <c r="D57" s="39" t="n">
-        <v>136.54</v>
+        <v>137.19</v>
       </c>
       <c r="E57" s="41" t="n">
         <v>1.12</v>
@@ -6167,7 +6167,7 @@
         <v>1.46</v>
       </c>
       <c r="X57" s="42" t="n">
-        <v>2.28</v>
+        <v>2.64</v>
       </c>
       <c r="Y57" s="39" t="inlineStr">
         <is>
@@ -6190,7 +6190,7 @@
         </is>
       </c>
       <c r="D58" s="39" t="n">
-        <v>29.1</v>
+        <v>29.14</v>
       </c>
       <c r="E58" s="41" t="n">
         <v>0.44</v>
@@ -6273,7 +6273,7 @@
         </is>
       </c>
       <c r="D59" s="39" t="n">
-        <v>7.57</v>
+        <v>7.56</v>
       </c>
       <c r="E59" s="41" t="n">
         <v>0.13</v>
@@ -6332,8 +6332,8 @@
       <c r="W59" s="41" t="n">
         <v>0.53</v>
       </c>
-      <c r="X59" s="44" t="n">
-        <v>1.58</v>
+      <c r="X59" s="42" t="n">
+        <v>1.32</v>
       </c>
       <c r="Y59" s="39" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         </is>
       </c>
       <c r="D60" s="39" t="n">
-        <v>15.61</v>
+        <v>15.57</v>
       </c>
       <c r="E60" s="41" t="n">
         <v>0.12</v>
@@ -6416,7 +6416,7 @@
         <v>0.8</v>
       </c>
       <c r="X60" s="42" t="n">
-        <v>1.85</v>
+        <v>1.59</v>
       </c>
       <c r="Y60" s="39" t="inlineStr">
         <is>
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="D61" s="39" t="n">
-        <v>48.7</v>
+        <v>48.57</v>
       </c>
       <c r="E61" s="40" t="n">
         <v>-0.14</v>
@@ -6498,8 +6498,8 @@
       <c r="W61" s="43" t="n">
         <v>-0.42</v>
       </c>
-      <c r="X61" s="41" t="n">
-        <v>0.42</v>
+      <c r="X61" s="40" t="n">
+        <v>0.14</v>
       </c>
       <c r="Y61" s="39" t="inlineStr">
         <is>
@@ -6522,7 +6522,7 @@
         </is>
       </c>
       <c r="D62" s="39" t="n">
-        <v>60.77</v>
+        <v>60.64</v>
       </c>
       <c r="E62" s="41" t="n">
         <v>0.45</v>
@@ -6582,7 +6582,7 @@
         <v>0.2</v>
       </c>
       <c r="X62" s="42" t="n">
-        <v>1.53</v>
+        <v>1.43</v>
       </c>
       <c r="Y62" s="39" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         </is>
       </c>
       <c r="D63" s="39" t="n">
-        <v>68.55</v>
+        <v>68.18000000000001</v>
       </c>
       <c r="E63" s="41" t="n">
         <v>0.27</v>
@@ -6665,7 +6665,7 @@
         <v>0.74</v>
       </c>
       <c r="X63" s="42" t="n">
-        <v>1.66</v>
+        <v>1.11</v>
       </c>
       <c r="Y63" s="39" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="D65" s="39" t="n">
-        <v>5.89</v>
+        <v>5.87</v>
       </c>
       <c r="E65" s="40" t="n">
         <v>-0.34</v>
@@ -6831,7 +6831,7 @@
         <v>-0.35</v>
       </c>
       <c r="X65" s="43" t="n">
-        <v>0</v>
+        <v>-0.35</v>
       </c>
       <c r="Y65" s="39" t="inlineStr">
         <is>
@@ -6854,7 +6854,7 @@
         </is>
       </c>
       <c r="D66" s="39" t="n">
-        <v>65.09999999999999</v>
+        <v>64.95999999999999</v>
       </c>
       <c r="E66" s="41" t="n">
         <v>-0.14</v>
@@ -6914,7 +6914,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="X66" s="40" t="n">
-        <v>0.96</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="Y66" s="39" t="inlineStr">
         <is>
@@ -7020,7 +7020,7 @@
         </is>
       </c>
       <c r="D68" s="39" t="n">
-        <v>15.32</v>
+        <v>15.33</v>
       </c>
       <c r="E68" s="40" t="n">
         <v>0.43</v>
@@ -7080,7 +7080,7 @@
         <v>0.39</v>
       </c>
       <c r="X68" s="42" t="n">
-        <v>0.62</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Y68" s="39" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         </is>
       </c>
       <c r="D70" s="39" t="n">
-        <v>109.99</v>
+        <v>109.8</v>
       </c>
       <c r="E70" s="40" t="n">
         <v>0</v>
@@ -7245,8 +7245,8 @@
       <c r="W70" s="43" t="n">
         <v>-1</v>
       </c>
-      <c r="X70" s="41" t="n">
-        <v>0.17</v>
+      <c r="X70" s="43" t="n">
+        <v>0</v>
       </c>
       <c r="Y70" s="39" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         </is>
       </c>
       <c r="D71" s="39" t="n">
-        <v>31.58</v>
+        <v>31.54</v>
       </c>
       <c r="E71" s="40" t="n">
         <v>0.18</v>
@@ -7328,8 +7328,8 @@
       <c r="W71" s="40" t="n">
         <v>-0.19</v>
       </c>
-      <c r="X71" s="41" t="n">
-        <v>0</v>
+      <c r="X71" s="40" t="n">
+        <v>-0.12</v>
       </c>
       <c r="Y71" s="39" t="inlineStr">
         <is>
@@ -7352,7 +7352,7 @@
         </is>
       </c>
       <c r="D72" s="39" t="n">
-        <v>31.25</v>
+        <v>31.2</v>
       </c>
       <c r="E72" s="40" t="n">
         <v>0.3</v>
@@ -7412,7 +7412,7 @@
         <v>-0.74</v>
       </c>
       <c r="X72" s="43" t="n">
-        <v>-0.6</v>
+        <v>-0.75</v>
       </c>
       <c r="Y72" s="39" t="inlineStr">
         <is>
@@ -7518,7 +7518,7 @@
         </is>
       </c>
       <c r="D74" s="39" t="n">
-        <v>218.14</v>
+        <v>217.93</v>
       </c>
       <c r="E74" s="42" t="n">
         <v>0.48</v>
@@ -7578,7 +7578,7 @@
         <v>-0.39</v>
       </c>
       <c r="X74" s="40" t="n">
-        <v>-0.72</v>
+        <v>-0.78</v>
       </c>
       <c r="Y74" s="39" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         </is>
       </c>
       <c r="D75" s="39" t="n">
-        <v>155.86</v>
+        <v>155.72</v>
       </c>
       <c r="E75" s="42" t="n">
         <v>0.54</v>
@@ -7684,7 +7684,7 @@
         </is>
       </c>
       <c r="D76" s="39" t="n">
-        <v>45.32</v>
+        <v>45.23</v>
       </c>
       <c r="E76" s="40" t="n">
         <v>-1.02</v>
@@ -7744,7 +7744,7 @@
         <v>-0.19</v>
       </c>
       <c r="X76" s="40" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="Y76" s="39" t="inlineStr">
         <is>
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="D77" s="39" t="n">
-        <v>8.890000000000001</v>
+        <v>8.85</v>
       </c>
       <c r="E77" s="41" t="n">
         <v>0</v>
@@ -7826,8 +7826,8 @@
       <c r="W77" s="40" t="n">
         <v>0</v>
       </c>
-      <c r="X77" s="41" t="n">
-        <v>0.21</v>
+      <c r="X77" s="40" t="n">
+        <v>0</v>
       </c>
       <c r="Y77" s="39" t="inlineStr">
         <is>
@@ -7933,7 +7933,7 @@
         </is>
       </c>
       <c r="D79" s="39" t="n">
-        <v>18.67</v>
+        <v>18.59</v>
       </c>
       <c r="E79" s="40" t="n">
         <v>-0.63</v>
@@ -7993,7 +7993,7 @@
         <v>0</v>
       </c>
       <c r="X79" s="41" t="n">
-        <v>-0.82</v>
+        <v>-1.07</v>
       </c>
       <c r="Y79" s="39" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>0.43</v>
       </c>
       <c r="X80" s="40" t="n">
-        <v>-1.07</v>
+        <v>-1.29</v>
       </c>
       <c r="Y80" s="39" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>0.1</v>
       </c>
       <c r="X81" s="40" t="n">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="Y81" s="39" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         </is>
       </c>
       <c r="D83" s="39" t="n">
-        <v>7.3</v>
+        <v>7.29</v>
       </c>
       <c r="E83" s="42" t="n">
         <v>-0.51</v>
@@ -8324,8 +8324,8 @@
       <c r="W83" s="40" t="n">
         <v>-0.21</v>
       </c>
-      <c r="X83" s="41" t="n">
-        <v>0.74</v>
+      <c r="X83" s="40" t="n">
+        <v>0.53</v>
       </c>
       <c r="Y83" s="39" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         </is>
       </c>
       <c r="D84" s="39" t="n">
-        <v>24.55</v>
+        <v>24.52</v>
       </c>
       <c r="E84" s="41" t="n">
         <v>0.19</v>
@@ -8408,7 +8408,7 @@
         <v>-0.19</v>
       </c>
       <c r="X84" s="40" t="n">
-        <v>-0.39</v>
+        <v>-0.58</v>
       </c>
       <c r="Y84" s="39" t="inlineStr">
         <is>
@@ -8431,7 +8431,7 @@
         </is>
       </c>
       <c r="D85" s="39" t="n">
-        <v>43.12</v>
+        <v>43.19</v>
       </c>
       <c r="E85" s="41" t="n">
         <v>0.16</v>
@@ -8491,7 +8491,7 @@
         <v>0.25</v>
       </c>
       <c r="X85" s="42" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="Y85" s="39" t="inlineStr">
         <is>
@@ -8514,7 +8514,7 @@
         </is>
       </c>
       <c r="D86" s="39" t="n">
-        <v>2.92</v>
+        <v>2.91</v>
       </c>
       <c r="E86" s="40" t="n">
         <v>-0.21</v>
@@ -8573,8 +8573,8 @@
       <c r="W86" s="40" t="n">
         <v>-0.92</v>
       </c>
-      <c r="X86" s="42" t="n">
-        <v>0.23</v>
+      <c r="X86" s="40" t="n">
+        <v>0</v>
       </c>
       <c r="Y86" s="39" t="inlineStr">
         <is>
@@ -8597,7 +8597,7 @@
         </is>
       </c>
       <c r="D87" s="39" t="n">
-        <v>44.01</v>
+        <v>43.89</v>
       </c>
       <c r="E87" s="40" t="n">
         <v>-0.16</v>
@@ -8657,7 +8657,7 @@
         <v>-0.46</v>
       </c>
       <c r="X87" s="41" t="n">
-        <v>0.46</v>
+        <v>0.11</v>
       </c>
       <c r="Y87" s="39" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         </is>
       </c>
       <c r="D88" s="39" t="n">
-        <v>88.91</v>
+        <v>88.64</v>
       </c>
       <c r="E88" s="40" t="n">
         <v>-0.28</v>
@@ -8740,7 +8740,7 @@
         <v>-0.31</v>
       </c>
       <c r="X88" s="41" t="n">
-        <v>0.78</v>
+        <v>0.47</v>
       </c>
       <c r="Y88" s="39" t="inlineStr">
         <is>
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="D90" s="39" t="n">
-        <v>19.18</v>
+        <v>19.16</v>
       </c>
       <c r="E90" s="41" t="n">
         <v>0.31</v>
@@ -9012,7 +9012,7 @@
         </is>
       </c>
       <c r="D92" s="39" t="n">
-        <v>11.66</v>
+        <v>11.65</v>
       </c>
       <c r="E92" s="40" t="n">
         <v>-0.21</v>
@@ -9072,7 +9072,7 @@
         <v>-0.78</v>
       </c>
       <c r="X92" s="41" t="n">
-        <v>0.23</v>
+        <v>0.11</v>
       </c>
       <c r="Y92" s="39" t="inlineStr">
         <is>
@@ -9095,7 +9095,7 @@
         </is>
       </c>
       <c r="D93" s="39" t="n">
-        <v>158.17</v>
+        <v>158.28</v>
       </c>
       <c r="E93" s="41" t="n">
         <v>-0.35</v>
@@ -9238,7 +9238,7 @@
         <v>0</v>
       </c>
       <c r="X94" s="42" t="n">
-        <v>0.87</v>
+        <v>0.65</v>
       </c>
       <c r="Y94" s="39" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         </is>
       </c>
       <c r="D96" s="39" t="n">
-        <v>9.039999999999999</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="E96" s="41" t="n">
         <v>-0.46</v>
@@ -9404,7 +9404,7 @@
         <v>-1.08</v>
       </c>
       <c r="X96" s="41" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="Y96" s="39" t="inlineStr">
         <is>
@@ -9427,7 +9427,7 @@
         </is>
       </c>
       <c r="D97" s="39" t="n">
-        <v>109.37</v>
+        <v>109.72</v>
       </c>
       <c r="E97" s="42" t="n">
         <v>-1.54</v>
@@ -9487,7 +9487,7 @@
         <v>0.76</v>
       </c>
       <c r="X97" s="41" t="n">
-        <v>0.21</v>
+        <v>0.32</v>
       </c>
       <c r="Y97" s="39" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         </is>
       </c>
       <c r="D98" s="39" t="n">
-        <v>474.43</v>
+        <v>473.28</v>
       </c>
       <c r="E98" s="41" t="n">
         <v>-0.35</v>
@@ -9570,7 +9570,7 @@
         <v>-0.49</v>
       </c>
       <c r="X98" s="42" t="n">
-        <v>2.47</v>
+        <v>2.35</v>
       </c>
       <c r="Y98" s="39" t="inlineStr">
         <is>
@@ -9676,7 +9676,7 @@
         </is>
       </c>
       <c r="D100" s="39" t="n">
-        <v>71.18000000000001</v>
+        <v>70.83</v>
       </c>
       <c r="E100" s="41" t="n">
         <v>0.91</v>
@@ -9736,7 +9736,7 @@
         <v>-0.48</v>
       </c>
       <c r="X100" s="42" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.28</v>
       </c>
       <c r="Y100" s="39" t="inlineStr">
         <is>
@@ -12092,7 +12092,7 @@
         </is>
       </c>
       <c r="D2" s="39" t="n">
-        <v>3111.03</v>
+        <v>3646.91</v>
       </c>
       <c r="E2" s="39" t="n">
         <v>54.7</v>
@@ -12152,7 +12152,7 @@
         <v>10.2</v>
       </c>
       <c r="X2" s="39" t="n">
-        <v>5.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y2" s="39" t="inlineStr">
         <is>
@@ -12166,80 +12166,80 @@
       </c>
       <c r="B3" s="39" t="inlineStr">
         <is>
-          <t>sh000016</t>
+          <t>sz399300</t>
         </is>
       </c>
       <c r="C3" s="39" t="inlineStr">
         <is>
-          <t>上证50</t>
+          <t>沪深300</t>
         </is>
       </c>
       <c r="D3" s="39" t="n">
-        <v>456.91</v>
+        <v>1762.97</v>
       </c>
       <c r="E3" s="39" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="F3" s="39" t="n">
-        <v>42.5</v>
+        <v>2</v>
       </c>
       <c r="G3" s="39" t="n">
-        <v>1.4</v>
+        <v>0.1</v>
       </c>
       <c r="H3" s="39" t="n">
-        <v>44.1</v>
+        <v>30</v>
       </c>
       <c r="I3" s="39" t="n">
-        <v>58.4</v>
+        <v>48.2</v>
       </c>
       <c r="J3" s="39" t="n">
-        <v>69.2</v>
+        <v>69.5</v>
       </c>
       <c r="K3" s="39" t="n">
-        <v>75</v>
+        <v>75.8</v>
       </c>
       <c r="L3" s="39" t="n">
-        <v>82.90000000000001</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="M3" s="39" t="n">
-        <v>88.40000000000001</v>
+        <v>82</v>
       </c>
       <c r="N3" s="39" t="n">
-        <v>96.59999999999999</v>
+        <v>90.7</v>
       </c>
       <c r="O3" s="39" t="n">
-        <v>96.8</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="P3" s="39" t="n">
-        <v>77.7</v>
+        <v>87</v>
       </c>
       <c r="Q3" s="39" t="n">
-        <v>42.1</v>
+        <v>97.3</v>
       </c>
       <c r="R3" s="39" t="n">
-        <v>66.09999999999999</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="S3" s="39" t="n">
-        <v>24.4</v>
+        <v>92.2</v>
       </c>
       <c r="T3" s="39" t="n">
-        <v>63.5</v>
+        <v>54.6</v>
       </c>
       <c r="U3" s="39" t="n">
-        <v>31.2</v>
+        <v>75.5</v>
       </c>
       <c r="V3" s="39" t="n">
-        <v>50</v>
+        <v>26.2</v>
       </c>
       <c r="W3" s="39" t="n">
-        <v>21.8</v>
+        <v>10.1</v>
       </c>
       <c r="X3" s="39" t="n">
-        <v>9.300000000000001</v>
+        <v>6.7</v>
       </c>
       <c r="Y3" s="39" t="inlineStr">
         <is>
-          <t>上证50</t>
+          <t>沪深300</t>
         </is>
       </c>
     </row>
@@ -12249,80 +12249,80 @@
       </c>
       <c r="B4" s="39" t="inlineStr">
         <is>
-          <t>sz399300</t>
+          <t>sh000016</t>
         </is>
       </c>
       <c r="C4" s="39" t="inlineStr">
         <is>
-          <t>沪深300</t>
+          <t>上证50</t>
         </is>
       </c>
       <c r="D4" s="39" t="n">
-        <v>1506.22</v>
+        <v>533.02</v>
       </c>
       <c r="E4" s="39" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="F4" s="39" t="n">
-        <v>2</v>
+        <v>42.5</v>
       </c>
       <c r="G4" s="39" t="n">
-        <v>0.1</v>
+        <v>1.4</v>
       </c>
       <c r="H4" s="39" t="n">
-        <v>30</v>
+        <v>44.1</v>
       </c>
       <c r="I4" s="39" t="n">
-        <v>48.2</v>
+        <v>58.4</v>
       </c>
       <c r="J4" s="39" t="n">
-        <v>69.5</v>
+        <v>69.2</v>
       </c>
       <c r="K4" s="39" t="n">
-        <v>75.8</v>
+        <v>75</v>
       </c>
       <c r="L4" s="39" t="n">
-        <v>80.40000000000001</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="M4" s="39" t="n">
-        <v>82</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="N4" s="39" t="n">
-        <v>90.7</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="O4" s="39" t="n">
-        <v>86.40000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="P4" s="39" t="n">
-        <v>87</v>
+        <v>77.7</v>
       </c>
       <c r="Q4" s="39" t="n">
-        <v>97.3</v>
+        <v>42.1</v>
       </c>
       <c r="R4" s="39" t="n">
-        <v>86.90000000000001</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="S4" s="39" t="n">
-        <v>92.2</v>
+        <v>24.4</v>
       </c>
       <c r="T4" s="39" t="n">
-        <v>54.6</v>
+        <v>63.5</v>
       </c>
       <c r="U4" s="39" t="n">
-        <v>75.5</v>
+        <v>31.2</v>
       </c>
       <c r="V4" s="39" t="n">
-        <v>26.2</v>
+        <v>50</v>
       </c>
       <c r="W4" s="39" t="n">
-        <v>10.1</v>
+        <v>21.8</v>
       </c>
       <c r="X4" s="39" t="n">
-        <v>40.6</v>
+        <v>7.5</v>
       </c>
       <c r="Y4" s="39" t="inlineStr">
         <is>
-          <t>沪深300</t>
+          <t>上证50</t>
         </is>
       </c>
     </row>
@@ -12341,7 +12341,7 @@
         </is>
       </c>
       <c r="D5" s="39" t="n">
-        <v>2594.62</v>
+        <v>3044.36</v>
       </c>
       <c r="E5" s="39" t="n">
         <v>24.7</v>
@@ -12401,7 +12401,7 @@
         <v>18.3</v>
       </c>
       <c r="X5" s="39" t="n">
-        <v>67.7</v>
+        <v>52.9</v>
       </c>
       <c r="Y5" s="39" t="inlineStr">
         <is>
@@ -12424,7 +12424,7 @@
         </is>
       </c>
       <c r="D6" s="39" t="n">
-        <v>4029.27</v>
+        <v>4721.75</v>
       </c>
       <c r="E6" s="39" t="n">
         <v>23.8</v>
@@ -12484,7 +12484,7 @@
         <v>26.3</v>
       </c>
       <c r="X6" s="39" t="n">
-        <v>78.09999999999999</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="Y6" s="39" t="inlineStr">
         <is>
@@ -12507,7 +12507,7 @@
         </is>
       </c>
       <c r="D7" s="39" t="n">
-        <v>1752.45</v>
+        <v>2068.24</v>
       </c>
       <c r="E7" s="39" t="n">
         <v>24.2</v>
@@ -12567,7 +12567,7 @@
         <v>29.6</v>
       </c>
       <c r="X7" s="39" t="n">
-        <v>79.7</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="Y7" s="39" t="inlineStr">
         <is>
@@ -12590,7 +12590,7 @@
         </is>
       </c>
       <c r="D8" s="39" t="n">
-        <v>1463.37</v>
+        <v>1722.65</v>
       </c>
       <c r="E8" s="39" t="n">
         <v>63.5</v>
@@ -12650,7 +12650,7 @@
         <v>47.1</v>
       </c>
       <c r="X8" s="39" t="n">
-        <v>80.59999999999999</v>
+        <v>80</v>
       </c>
       <c r="Y8" s="39" t="inlineStr">
         <is>
@@ -12673,7 +12673,7 @@
         </is>
       </c>
       <c r="D9" s="39" t="n">
-        <v>1088.4</v>
+        <v>1280.95</v>
       </c>
       <c r="E9" s="39" t="n">
         <v>54.3</v>
@@ -12733,7 +12733,7 @@
         <v>42.7</v>
       </c>
       <c r="X9" s="39" t="n">
-        <v>82.7</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="Y9" s="39" t="inlineStr">
         <is>
@@ -12756,7 +12756,7 @@
         </is>
       </c>
       <c r="D10" s="39" t="n">
-        <v>159.91</v>
+        <v>191.01</v>
       </c>
       <c r="E10" s="39" t="n">
         <v>23.6</v>
@@ -12816,7 +12816,7 @@
         <v>39</v>
       </c>
       <c r="X10" s="39" t="n">
-        <v>89.5</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="Y10" s="39" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
         </is>
       </c>
       <c r="D11" s="39" t="n">
-        <v>54.64</v>
+        <v>54.56</v>
       </c>
       <c r="E11" s="39" t="n">
         <v>22.8</v>
@@ -12897,7 +12897,7 @@
         <v>0.4</v>
       </c>
       <c r="X11" s="39" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="Y11" s="39" t="inlineStr">
         <is>
@@ -12991,79 +12991,79 @@
         <v>11</v>
       </c>
       <c r="B13" s="39" t="n">
-        <v>515900</v>
+        <v>159745</v>
       </c>
       <c r="C13" s="39" t="inlineStr">
         <is>
-          <t>央企创新驱动ETF</t>
+          <t>建材ETF</t>
         </is>
       </c>
       <c r="D13" s="39" t="n">
-        <v>32.81</v>
+        <v>5.87</v>
       </c>
       <c r="E13" s="39" t="n">
-        <v>15.5</v>
+        <v>33.9</v>
       </c>
       <c r="F13" s="39" t="n">
-        <v>46.4</v>
+        <v>76.8</v>
       </c>
       <c r="G13" s="39" t="n">
-        <v>1.9</v>
+        <v>7</v>
       </c>
       <c r="H13" s="39" t="n">
-        <v>45.8</v>
+        <v>50.3</v>
       </c>
       <c r="I13" s="39" t="n">
-        <v>62.3</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="J13" s="39" t="n">
-        <v>68.09999999999999</v>
+        <v>74.8</v>
       </c>
       <c r="K13" s="39" t="n">
-        <v>54.2</v>
+        <v>59.5</v>
       </c>
       <c r="L13" s="39" t="n">
-        <v>69.3</v>
+        <v>46.7</v>
       </c>
       <c r="M13" s="39" t="n">
-        <v>44.7</v>
+        <v>25.2</v>
       </c>
       <c r="N13" s="39" t="n">
-        <v>51.6</v>
+        <v>14.9</v>
       </c>
       <c r="O13" s="39" t="n">
-        <v>41.3</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="P13" s="39" t="n">
-        <v>86</v>
+        <v>78.7</v>
       </c>
       <c r="Q13" s="39" t="n">
-        <v>62.3</v>
+        <v>33.3</v>
       </c>
       <c r="R13" s="39" t="n">
-        <v>48.8</v>
+        <v>72</v>
       </c>
       <c r="S13" s="39" t="n">
-        <v>34.1</v>
+        <v>40.6</v>
       </c>
       <c r="T13" s="39" t="n">
-        <v>6.5</v>
+        <v>21.7</v>
       </c>
       <c r="U13" s="39" t="n">
-        <v>24.1</v>
+        <v>17.6</v>
       </c>
       <c r="V13" s="39" t="n">
-        <v>24.1</v>
+        <v>4</v>
       </c>
       <c r="W13" s="39" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="X13" s="39" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="Y13" s="39" t="inlineStr">
         <is>
-          <t>央企创新驱动ETF</t>
+          <t>建材ETF</t>
         </is>
       </c>
     </row>
@@ -13072,79 +13072,79 @@
         <v>12</v>
       </c>
       <c r="B14" s="39" t="n">
-        <v>159745</v>
+        <v>515900</v>
       </c>
       <c r="C14" s="39" t="inlineStr">
         <is>
-          <t>建材ETF</t>
+          <t>央企创新驱动ETF</t>
         </is>
       </c>
       <c r="D14" s="39" t="n">
-        <v>5.89</v>
+        <v>32.78</v>
       </c>
       <c r="E14" s="39" t="n">
-        <v>33.9</v>
+        <v>15.5</v>
       </c>
       <c r="F14" s="39" t="n">
-        <v>76.8</v>
+        <v>46.4</v>
       </c>
       <c r="G14" s="39" t="n">
-        <v>7</v>
+        <v>1.9</v>
       </c>
       <c r="H14" s="39" t="n">
-        <v>50.3</v>
+        <v>45.8</v>
       </c>
       <c r="I14" s="39" t="n">
-        <v>69.59999999999999</v>
+        <v>62.3</v>
       </c>
       <c r="J14" s="39" t="n">
-        <v>74.8</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="K14" s="39" t="n">
-        <v>59.5</v>
+        <v>54.2</v>
       </c>
       <c r="L14" s="39" t="n">
-        <v>46.7</v>
+        <v>69.3</v>
       </c>
       <c r="M14" s="39" t="n">
-        <v>25.2</v>
+        <v>44.7</v>
       </c>
       <c r="N14" s="39" t="n">
-        <v>14.9</v>
+        <v>51.6</v>
       </c>
       <c r="O14" s="39" t="n">
-        <v>75.40000000000001</v>
+        <v>41.3</v>
       </c>
       <c r="P14" s="39" t="n">
-        <v>78.7</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="39" t="n">
-        <v>33.3</v>
+        <v>62.3</v>
       </c>
       <c r="R14" s="39" t="n">
-        <v>72</v>
+        <v>48.8</v>
       </c>
       <c r="S14" s="39" t="n">
-        <v>40.6</v>
+        <v>34.1</v>
       </c>
       <c r="T14" s="39" t="n">
-        <v>21.7</v>
+        <v>6.5</v>
       </c>
       <c r="U14" s="39" t="n">
-        <v>17.6</v>
+        <v>24.1</v>
       </c>
       <c r="V14" s="39" t="n">
-        <v>4</v>
+        <v>24.1</v>
       </c>
       <c r="W14" s="39" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="X14" s="39" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="Y14" s="39" t="inlineStr">
         <is>
-          <t>建材ETF</t>
+          <t>央企创新驱动ETF</t>
         </is>
       </c>
     </row>
@@ -13152,80 +13152,82 @@
       <c r="A15" s="39" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="39" t="n">
-        <v>159766</v>
+      <c r="B15" s="39" t="inlineStr">
+        <is>
+          <t>563000</t>
+        </is>
       </c>
       <c r="C15" s="39" t="inlineStr">
         <is>
-          <t>旅游ETF</t>
+          <t>中国A50ETF</t>
         </is>
       </c>
       <c r="D15" s="39" t="n">
-        <v>31.25</v>
+        <v>39.59</v>
       </c>
       <c r="E15" s="39" t="n">
-        <v>49</v>
+        <v>5.6</v>
       </c>
       <c r="F15" s="39" t="n">
-        <v>82.09999999999999</v>
+        <v>2</v>
       </c>
       <c r="G15" s="39" t="n">
-        <v>11.2</v>
+        <v>0.1</v>
       </c>
       <c r="H15" s="39" t="n">
-        <v>52.8</v>
+        <v>23.2</v>
       </c>
       <c r="I15" s="39" t="n">
-        <v>80.8</v>
+        <v>43.5</v>
       </c>
       <c r="J15" s="39" t="n">
-        <v>85.3</v>
+        <v>69.2</v>
       </c>
       <c r="K15" s="39" t="n">
-        <v>64.3</v>
+        <v>80.5</v>
       </c>
       <c r="L15" s="39" t="n">
-        <v>73.59999999999999</v>
+        <v>87.2</v>
       </c>
       <c r="M15" s="39" t="n">
-        <v>36</v>
+        <v>88.7</v>
       </c>
       <c r="N15" s="39" t="n">
-        <v>73.7</v>
+        <v>93.5</v>
       </c>
       <c r="O15" s="39" t="n">
-        <v>84.3</v>
+        <v>95.8</v>
       </c>
       <c r="P15" s="39" t="n">
-        <v>29</v>
+        <v>95.8</v>
       </c>
       <c r="Q15" s="39" t="n">
-        <v>22.7</v>
+        <v>98.7</v>
       </c>
       <c r="R15" s="39" t="n">
-        <v>15.8</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="S15" s="39" t="n">
-        <v>6.3</v>
+        <v>71.8</v>
       </c>
       <c r="T15" s="39" t="n">
-        <v>5.1</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="U15" s="39" t="n">
-        <v>40</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="V15" s="39" t="n">
-        <v>11.6</v>
+        <v>33.7</v>
       </c>
       <c r="W15" s="39" t="n">
-        <v>6.8</v>
+        <v>5.9</v>
       </c>
       <c r="X15" s="39" t="n">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="Y15" s="39" t="inlineStr">
         <is>
-          <t>旅游ETF</t>
+          <t>中国A50ETF</t>
         </is>
       </c>
     </row>
@@ -13233,82 +13235,80 @@
       <c r="A16" s="39" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="39" t="inlineStr">
-        <is>
-          <t>563000</t>
-        </is>
+      <c r="B16" s="39" t="n">
+        <v>512690</v>
       </c>
       <c r="C16" s="39" t="inlineStr">
         <is>
-          <t>中国A50ETF</t>
+          <t>酒ETF</t>
         </is>
       </c>
       <c r="D16" s="39" t="n">
-        <v>39.64</v>
+        <v>109.8</v>
       </c>
       <c r="E16" s="39" t="n">
-        <v>5.6</v>
+        <v>24</v>
       </c>
       <c r="F16" s="39" t="n">
-        <v>2</v>
+        <v>85.7</v>
       </c>
       <c r="G16" s="39" t="n">
-        <v>0.1</v>
+        <v>12.1</v>
       </c>
       <c r="H16" s="39" t="n">
-        <v>23.2</v>
+        <v>59</v>
       </c>
       <c r="I16" s="39" t="n">
-        <v>43.5</v>
+        <v>71.3</v>
       </c>
       <c r="J16" s="39" t="n">
-        <v>69.2</v>
+        <v>76.5</v>
       </c>
       <c r="K16" s="39" t="n">
-        <v>80.5</v>
+        <v>41.3</v>
       </c>
       <c r="L16" s="39" t="n">
-        <v>87.2</v>
+        <v>23</v>
       </c>
       <c r="M16" s="39" t="n">
-        <v>88.7</v>
+        <v>23</v>
       </c>
       <c r="N16" s="39" t="n">
-        <v>93.5</v>
+        <v>51.6</v>
       </c>
       <c r="O16" s="39" t="n">
-        <v>95.8</v>
+        <v>85</v>
       </c>
       <c r="P16" s="39" t="n">
-        <v>95.8</v>
+        <v>35.7</v>
       </c>
       <c r="Q16" s="39" t="n">
-        <v>98.7</v>
+        <v>16.5</v>
       </c>
       <c r="R16" s="39" t="n">
-        <v>99.40000000000001</v>
+        <v>14</v>
       </c>
       <c r="S16" s="39" t="n">
-        <v>71.8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="T16" s="39" t="n">
-        <v>81.90000000000001</v>
+        <v>4.1</v>
       </c>
       <c r="U16" s="39" t="n">
-        <v>81.90000000000001</v>
+        <v>29.2</v>
       </c>
       <c r="V16" s="39" t="n">
-        <v>33.7</v>
+        <v>14.3</v>
       </c>
       <c r="W16" s="39" t="n">
-        <v>5.9</v>
+        <v>3.5</v>
       </c>
       <c r="X16" s="39" t="n">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="Y16" s="39" t="inlineStr">
         <is>
-          <t>中国A50ETF</t>
+          <t>酒ETF</t>
         </is>
       </c>
     </row>
@@ -13316,82 +13316,80 @@
       <c r="A17" s="39" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="39" t="inlineStr">
-        <is>
-          <t>512040</t>
-        </is>
+      <c r="B17" s="39" t="n">
+        <v>159766</v>
       </c>
       <c r="C17" s="39" t="inlineStr">
         <is>
-          <t>价值100ETF</t>
+          <t>旅游ETF</t>
         </is>
       </c>
       <c r="D17" s="39" t="n">
-        <v>19.18</v>
+        <v>31.2</v>
       </c>
       <c r="E17" s="39" t="n">
-        <v>66.3</v>
+        <v>49</v>
       </c>
       <c r="F17" s="39" t="n">
-        <v>18.5</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="G17" s="39" t="n">
-        <v>1.6</v>
+        <v>11.2</v>
       </c>
       <c r="H17" s="39" t="n">
-        <v>24.3</v>
+        <v>52.8</v>
       </c>
       <c r="I17" s="39" t="n">
-        <v>31.6</v>
+        <v>80.8</v>
       </c>
       <c r="J17" s="39" t="n">
-        <v>67.3</v>
+        <v>85.3</v>
       </c>
       <c r="K17" s="39" t="n">
-        <v>59.9</v>
+        <v>64.3</v>
       </c>
       <c r="L17" s="39" t="n">
-        <v>75.8</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="M17" s="39" t="n">
-        <v>84.2</v>
+        <v>36</v>
       </c>
       <c r="N17" s="39" t="n">
-        <v>49.8</v>
+        <v>73.7</v>
       </c>
       <c r="O17" s="39" t="n">
-        <v>58.3</v>
+        <v>84.3</v>
       </c>
       <c r="P17" s="39" t="n">
-        <v>58.3</v>
+        <v>29</v>
       </c>
       <c r="Q17" s="39" t="n">
-        <v>90.5</v>
+        <v>22.7</v>
       </c>
       <c r="R17" s="39" t="n">
-        <v>94.09999999999999</v>
+        <v>15.8</v>
       </c>
       <c r="S17" s="39" t="n">
-        <v>98</v>
+        <v>6.3</v>
       </c>
       <c r="T17" s="39" t="n">
-        <v>98</v>
+        <v>5.1</v>
       </c>
       <c r="U17" s="39" t="n">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="V17" s="39" t="n">
-        <v>13.4</v>
+        <v>11.6</v>
       </c>
       <c r="W17" s="39" t="n">
-        <v>10.4</v>
+        <v>6.8</v>
       </c>
       <c r="X17" s="39" t="n">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="Y17" s="39" t="inlineStr">
         <is>
-          <t>价值100ETF</t>
+          <t>旅游ETF</t>
         </is>
       </c>
     </row>
@@ -13401,80 +13399,80 @@
       </c>
       <c r="B18" s="39" t="inlineStr">
         <is>
-          <t>560050</t>
+          <t>512040</t>
         </is>
       </c>
       <c r="C18" s="39" t="inlineStr">
         <is>
-          <t>MSCI中国A50ETF</t>
+          <t>价值100ETF</t>
         </is>
       </c>
       <c r="D18" s="39" t="n">
-        <v>47.02</v>
+        <v>19.16</v>
       </c>
       <c r="E18" s="39" t="n">
-        <v>5.7</v>
+        <v>66.3</v>
       </c>
       <c r="F18" s="39" t="n">
-        <v>2.2</v>
+        <v>18.5</v>
       </c>
       <c r="G18" s="39" t="n">
-        <v>0.1</v>
+        <v>1.6</v>
       </c>
       <c r="H18" s="39" t="n">
-        <v>30.2</v>
+        <v>24.3</v>
       </c>
       <c r="I18" s="39" t="n">
-        <v>40.4</v>
+        <v>31.6</v>
       </c>
       <c r="J18" s="39" t="n">
-        <v>70.59999999999999</v>
+        <v>67.3</v>
       </c>
       <c r="K18" s="39" t="n">
-        <v>80.5</v>
+        <v>59.9</v>
       </c>
       <c r="L18" s="39" t="n">
-        <v>86.8</v>
+        <v>75.8</v>
       </c>
       <c r="M18" s="39" t="n">
-        <v>88.3</v>
+        <v>84.2</v>
       </c>
       <c r="N18" s="39" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="O18" s="39" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="P18" s="39" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="Q18" s="39" t="n">
         <v>90.5</v>
       </c>
-      <c r="O18" s="39" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="P18" s="39" t="n">
-        <v>56</v>
-      </c>
-      <c r="Q18" s="39" t="n">
-        <v>85.7</v>
-      </c>
       <c r="R18" s="39" t="n">
-        <v>92.09999999999999</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="S18" s="39" t="n">
-        <v>93.90000000000001</v>
+        <v>98</v>
       </c>
       <c r="T18" s="39" t="n">
-        <v>95.8</v>
+        <v>98</v>
       </c>
       <c r="U18" s="39" t="n">
-        <v>58.8</v>
+        <v>98</v>
       </c>
       <c r="V18" s="39" t="n">
-        <v>33.2</v>
+        <v>13.4</v>
       </c>
       <c r="W18" s="39" t="n">
-        <v>7.4</v>
+        <v>10.4</v>
       </c>
       <c r="X18" s="39" t="n">
-        <v>5.3</v>
+        <v>4.5</v>
       </c>
       <c r="Y18" s="39" t="inlineStr">
         <is>
-          <t>MSCI中国A50ETF</t>
+          <t>价值100ETF</t>
         </is>
       </c>
     </row>
@@ -13483,79 +13481,79 @@
         <v>17</v>
       </c>
       <c r="B19" s="39" t="n">
-        <v>510880</v>
+        <v>510300</v>
       </c>
       <c r="C19" s="39" t="inlineStr">
         <is>
-          <t>红利ETF</t>
+          <t>沪深300ETF</t>
         </is>
       </c>
       <c r="D19" s="39" t="n">
-        <v>218.14</v>
+        <v>3733.98</v>
       </c>
       <c r="E19" s="39" t="n">
-        <v>85.90000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="F19" s="39" t="n">
-        <v>89.2</v>
+        <v>2</v>
       </c>
       <c r="G19" s="39" t="n">
-        <v>5</v>
+        <v>0.1</v>
       </c>
       <c r="H19" s="39" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="I19" s="39" t="n">
         <v>43.6</v>
       </c>
-      <c r="I19" s="39" t="n">
-        <v>46.3</v>
-      </c>
       <c r="J19" s="39" t="n">
-        <v>69.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K19" s="39" t="n">
-        <v>49</v>
+        <v>76.3</v>
       </c>
       <c r="L19" s="39" t="n">
-        <v>75.59999999999999</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="M19" s="39" t="n">
-        <v>84.3</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="N19" s="39" t="n">
-        <v>91.09999999999999</v>
+        <v>90</v>
       </c>
       <c r="O19" s="39" t="n">
-        <v>66.09999999999999</v>
+        <v>92.2</v>
       </c>
       <c r="P19" s="39" t="n">
-        <v>70.7</v>
+        <v>96.8</v>
       </c>
       <c r="Q19" s="39" t="n">
-        <v>30</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="R19" s="39" t="n">
-        <v>67.5</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="S19" s="39" t="n">
-        <v>24.9</v>
+        <v>99.2</v>
       </c>
       <c r="T19" s="39" t="n">
-        <v>62.9</v>
+        <v>99.2</v>
       </c>
       <c r="U19" s="39" t="n">
-        <v>51</v>
+        <v>99.2</v>
       </c>
       <c r="V19" s="39" t="n">
-        <v>64.5</v>
+        <v>14.3</v>
       </c>
       <c r="W19" s="39" t="n">
-        <v>20.2</v>
+        <v>4.8</v>
       </c>
       <c r="X19" s="39" t="n">
-        <v>5.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y19" s="39" t="inlineStr">
         <is>
-          <t>红利ETF</t>
+          <t>沪深300ETF</t>
         </is>
       </c>
     </row>
@@ -13563,80 +13561,82 @@
       <c r="A20" s="39" t="n">
         <v>18</v>
       </c>
-      <c r="B20" s="39" t="n">
-        <v>510050</v>
+      <c r="B20" s="39" t="inlineStr">
+        <is>
+          <t>560050</t>
+        </is>
       </c>
       <c r="C20" s="39" t="inlineStr">
         <is>
-          <t>上证50ETF</t>
+          <t>MSCI中国A50ETF</t>
         </is>
       </c>
       <c r="D20" s="39" t="n">
-        <v>1618.25</v>
+        <v>47.02</v>
       </c>
       <c r="E20" s="39" t="n">
-        <v>7.7</v>
+        <v>5.7</v>
       </c>
       <c r="F20" s="39" t="n">
-        <v>42</v>
+        <v>2.2</v>
       </c>
       <c r="G20" s="39" t="n">
-        <v>1.5</v>
+        <v>0.1</v>
       </c>
       <c r="H20" s="39" t="n">
-        <v>43.3</v>
+        <v>30.2</v>
       </c>
       <c r="I20" s="39" t="n">
-        <v>56.3</v>
+        <v>40.4</v>
       </c>
       <c r="J20" s="39" t="n">
-        <v>71.8</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="K20" s="39" t="n">
-        <v>75.5</v>
+        <v>80.5</v>
       </c>
       <c r="L20" s="39" t="n">
-        <v>82.59999999999999</v>
+        <v>86.8</v>
       </c>
       <c r="M20" s="39" t="n">
-        <v>87.90000000000001</v>
+        <v>88.3</v>
       </c>
       <c r="N20" s="39" t="n">
-        <v>96.5</v>
+        <v>90.5</v>
       </c>
       <c r="O20" s="39" t="n">
-        <v>97</v>
+        <v>95.5</v>
       </c>
       <c r="P20" s="39" t="n">
-        <v>97.5</v>
+        <v>56</v>
       </c>
       <c r="Q20" s="39" t="n">
-        <v>38.9</v>
+        <v>85.7</v>
       </c>
       <c r="R20" s="39" t="n">
-        <v>63.4</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="S20" s="39" t="n">
-        <v>27.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="T20" s="39" t="n">
-        <v>63.6</v>
+        <v>95.8</v>
       </c>
       <c r="U20" s="39" t="n">
-        <v>37.2</v>
+        <v>58.8</v>
       </c>
       <c r="V20" s="39" t="n">
-        <v>46.2</v>
+        <v>33.2</v>
       </c>
       <c r="W20" s="39" t="n">
-        <v>19.1</v>
+        <v>7.4</v>
       </c>
       <c r="X20" s="39" t="n">
-        <v>7.9</v>
+        <v>5.3</v>
       </c>
       <c r="Y20" s="39" t="inlineStr">
         <is>
-          <t>上证50ETF</t>
+          <t>MSCI中国A50ETF</t>
         </is>
       </c>
     </row>
@@ -13644,82 +13644,80 @@
       <c r="A21" s="39" t="n">
         <v>19</v>
       </c>
-      <c r="B21" s="39" t="inlineStr">
-        <is>
-          <t>512890</t>
-        </is>
+      <c r="B21" s="39" t="n">
+        <v>510880</v>
       </c>
       <c r="C21" s="39" t="inlineStr">
         <is>
-          <t>红利低波ETF</t>
+          <t>红利ETF</t>
         </is>
       </c>
       <c r="D21" s="39" t="n">
-        <v>155.86</v>
+        <v>217.93</v>
       </c>
       <c r="E21" s="39" t="n">
-        <v>94.2</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="F21" s="39" t="n">
-        <v>97</v>
+        <v>89.2</v>
       </c>
       <c r="G21" s="39" t="n">
-        <v>6.1</v>
+        <v>5</v>
       </c>
       <c r="H21" s="39" t="n">
-        <v>46</v>
+        <v>43.6</v>
       </c>
       <c r="I21" s="39" t="n">
-        <v>41.5</v>
+        <v>46.3</v>
       </c>
       <c r="J21" s="39" t="n">
-        <v>55.7</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="K21" s="39" t="n">
-        <v>43.2</v>
+        <v>49</v>
       </c>
       <c r="L21" s="39" t="n">
-        <v>74.2</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="M21" s="39" t="n">
-        <v>89.7</v>
+        <v>84.3</v>
       </c>
       <c r="N21" s="39" t="n">
-        <v>95.09999999999999</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="O21" s="39" t="n">
-        <v>95.5</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="P21" s="39" t="n">
-        <v>97.09999999999999</v>
+        <v>70.7</v>
       </c>
       <c r="Q21" s="39" t="n">
-        <v>39.7</v>
+        <v>30</v>
       </c>
       <c r="R21" s="39" t="n">
-        <v>74.7</v>
+        <v>67.5</v>
       </c>
       <c r="S21" s="39" t="n">
-        <v>40.8</v>
+        <v>24.9</v>
       </c>
       <c r="T21" s="39" t="n">
-        <v>79</v>
+        <v>62.9</v>
       </c>
       <c r="U21" s="39" t="n">
-        <v>69.90000000000001</v>
+        <v>51</v>
       </c>
       <c r="V21" s="39" t="n">
-        <v>86</v>
+        <v>64.5</v>
       </c>
       <c r="W21" s="39" t="n">
-        <v>52.4</v>
+        <v>20.2</v>
       </c>
       <c r="X21" s="39" t="n">
-        <v>9.199999999999999</v>
+        <v>5.4</v>
       </c>
       <c r="Y21" s="39" t="inlineStr">
         <is>
-          <t>红利低波ETF</t>
+          <t>红利ETF</t>
         </is>
       </c>
     </row>
@@ -13728,79 +13726,79 @@
         <v>20</v>
       </c>
       <c r="B22" s="39" t="n">
-        <v>510230</v>
+        <v>510050</v>
       </c>
       <c r="C22" s="39" t="inlineStr">
         <is>
-          <t>金融ETF</t>
+          <t>上证50ETF</t>
         </is>
       </c>
       <c r="D22" s="39" t="n">
-        <v>45.39</v>
+        <v>1615.85</v>
       </c>
       <c r="E22" s="39" t="n">
-        <v>64.59999999999999</v>
+        <v>7.7</v>
       </c>
       <c r="F22" s="39" t="n">
-        <v>72.8</v>
+        <v>42</v>
       </c>
       <c r="G22" s="39" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="H22" s="39" t="n">
-        <v>24.2</v>
+        <v>43.3</v>
       </c>
       <c r="I22" s="39" t="n">
-        <v>21.3</v>
+        <v>56.3</v>
       </c>
       <c r="J22" s="39" t="n">
-        <v>62.7</v>
+        <v>71.8</v>
       </c>
       <c r="K22" s="39" t="n">
-        <v>67.5</v>
+        <v>75.5</v>
       </c>
       <c r="L22" s="39" t="n">
-        <v>81.8</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="M22" s="39" t="n">
-        <v>93.40000000000001</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="N22" s="39" t="n">
-        <v>96.40000000000001</v>
+        <v>96.5</v>
       </c>
       <c r="O22" s="39" t="n">
-        <v>96.40000000000001</v>
+        <v>97</v>
       </c>
       <c r="P22" s="39" t="n">
-        <v>99</v>
+        <v>97.5</v>
       </c>
       <c r="Q22" s="39" t="n">
-        <v>51.8</v>
+        <v>38.9</v>
       </c>
       <c r="R22" s="39" t="n">
-        <v>65.8</v>
+        <v>63.4</v>
       </c>
       <c r="S22" s="39" t="n">
-        <v>47.4</v>
+        <v>27.8</v>
       </c>
       <c r="T22" s="39" t="n">
-        <v>86.09999999999999</v>
+        <v>63.6</v>
       </c>
       <c r="U22" s="39" t="n">
-        <v>59.7</v>
+        <v>37.2</v>
       </c>
       <c r="V22" s="39" t="n">
-        <v>80.09999999999999</v>
+        <v>46.2</v>
       </c>
       <c r="W22" s="39" t="n">
-        <v>36.2</v>
+        <v>19.1</v>
       </c>
       <c r="X22" s="39" t="n">
-        <v>9.199999999999999</v>
+        <v>5.7</v>
       </c>
       <c r="Y22" s="39" t="inlineStr">
         <is>
-          <t>金融ETF</t>
+          <t>上证50ETF</t>
         </is>
       </c>
     </row>
@@ -13817,7 +13815,7 @@
         </is>
       </c>
       <c r="D23" s="39" t="n">
-        <v>24.55</v>
+        <v>24.52</v>
       </c>
       <c r="E23" s="39" t="n">
         <v>45</v>
@@ -13877,7 +13875,7 @@
         <v>17.6</v>
       </c>
       <c r="X23" s="39" t="n">
-        <v>9.800000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="Y23" s="39" t="inlineStr">
         <is>
@@ -13890,79 +13888,79 @@
         <v>22</v>
       </c>
       <c r="B24" s="39" t="n">
-        <v>512800</v>
+        <v>510230</v>
       </c>
       <c r="C24" s="39" t="inlineStr">
         <is>
-          <t>银行ETF</t>
+          <t>金融ETF</t>
         </is>
       </c>
       <c r="D24" s="39" t="n">
-        <v>74.54000000000001</v>
+        <v>45.32</v>
       </c>
       <c r="E24" s="39" t="n">
-        <v>71.90000000000001</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="F24" s="39" t="n">
-        <v>81.09999999999999</v>
+        <v>72.8</v>
       </c>
       <c r="G24" s="39" t="n">
-        <v>11.2</v>
+        <v>2.3</v>
       </c>
       <c r="H24" s="39" t="n">
-        <v>11.2</v>
+        <v>24.2</v>
       </c>
       <c r="I24" s="39" t="n">
-        <v>5.8</v>
+        <v>21.3</v>
       </c>
       <c r="J24" s="39" t="n">
-        <v>50.2</v>
+        <v>62.7</v>
       </c>
       <c r="K24" s="39" t="n">
-        <v>62.1</v>
+        <v>67.5</v>
       </c>
       <c r="L24" s="39" t="n">
-        <v>80.59999999999999</v>
+        <v>81.8</v>
       </c>
       <c r="M24" s="39" t="n">
-        <v>94.7</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="N24" s="39" t="n">
-        <v>97.3</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="O24" s="39" t="n">
-        <v>97.5</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="P24" s="39" t="n">
-        <v>99.09999999999999</v>
+        <v>99</v>
       </c>
       <c r="Q24" s="39" t="n">
-        <v>36</v>
+        <v>51.8</v>
       </c>
       <c r="R24" s="39" t="n">
-        <v>65</v>
+        <v>65.8</v>
       </c>
       <c r="S24" s="39" t="n">
-        <v>41.7</v>
+        <v>47.4</v>
       </c>
       <c r="T24" s="39" t="n">
-        <v>76.90000000000001</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="U24" s="39" t="n">
-        <v>56.7</v>
+        <v>59.7</v>
       </c>
       <c r="V24" s="39" t="n">
-        <v>81.7</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="W24" s="39" t="n">
-        <v>60.3</v>
+        <v>36.2</v>
       </c>
       <c r="X24" s="39" t="n">
-        <v>10.3</v>
+        <v>8.4</v>
       </c>
       <c r="Y24" s="39" t="inlineStr">
         <is>
-          <t>银行ETF</t>
+          <t>金融ETF</t>
         </is>
       </c>
     </row>
@@ -13970,80 +13968,82 @@
       <c r="A25" s="39" t="n">
         <v>23</v>
       </c>
-      <c r="B25" s="39" t="n">
-        <v>561320</v>
+      <c r="B25" s="39" t="inlineStr">
+        <is>
+          <t>512890</t>
+        </is>
       </c>
       <c r="C25" s="39" t="inlineStr">
         <is>
-          <t>交运ETF</t>
+          <t>红利低波ETF</t>
         </is>
       </c>
       <c r="D25" s="39" t="n">
-        <v>0.64</v>
+        <v>155.72</v>
       </c>
       <c r="E25" s="39" t="n">
-        <v>52</v>
+        <v>94.2</v>
       </c>
       <c r="F25" s="39" t="n">
-        <v>42.5</v>
+        <v>97</v>
       </c>
       <c r="G25" s="39" t="n">
-        <v>1.7</v>
+        <v>6.1</v>
       </c>
       <c r="H25" s="39" t="n">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="I25" s="39" t="n">
-        <v>64.2</v>
+        <v>41.5</v>
       </c>
       <c r="J25" s="39" t="n">
-        <v>77</v>
+        <v>55.7</v>
       </c>
       <c r="K25" s="39" t="n">
-        <v>57.9</v>
+        <v>43.2</v>
       </c>
       <c r="L25" s="39" t="n">
-        <v>57.9</v>
+        <v>74.2</v>
       </c>
       <c r="M25" s="39" t="n">
-        <v>49.6</v>
+        <v>89.7</v>
       </c>
       <c r="N25" s="39" t="n">
-        <v>89.3</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="O25" s="39" t="n">
-        <v>89.3</v>
+        <v>95.5</v>
       </c>
       <c r="P25" s="39" t="n">
-        <v>71.90000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="Q25" s="39" t="n">
-        <v>21.5</v>
+        <v>39.7</v>
       </c>
       <c r="R25" s="39" t="n">
-        <v>46.5</v>
+        <v>74.7</v>
       </c>
       <c r="S25" s="39" t="n">
-        <v>23.8</v>
+        <v>40.8</v>
       </c>
       <c r="T25" s="39" t="n">
-        <v>61.4</v>
+        <v>79</v>
       </c>
       <c r="U25" s="39" t="n">
-        <v>61.4</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="V25" s="39" t="n">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="W25" s="39" t="n">
-        <v>84.90000000000001</v>
+        <v>52.4</v>
       </c>
       <c r="X25" s="39" t="n">
-        <v>17.7</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y25" s="39" t="inlineStr">
         <is>
-          <t>交运ETF</t>
+          <t>红利低波ETF</t>
         </is>
       </c>
     </row>
@@ -14052,79 +14052,79 @@
         <v>24</v>
       </c>
       <c r="B26" s="39" t="n">
-        <v>517090</v>
+        <v>512800</v>
       </c>
       <c r="C26" s="39" t="inlineStr">
         <is>
-          <t>央企共赢ETF</t>
+          <t>银行ETF</t>
         </is>
       </c>
       <c r="D26" s="39" t="n">
-        <v>4.31</v>
+        <v>74.59</v>
       </c>
       <c r="E26" s="39" t="n">
-        <v>34.7</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="F26" s="39" t="n">
-        <v>76.2</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="G26" s="39" t="n">
-        <v>4</v>
+        <v>11.2</v>
       </c>
       <c r="H26" s="39" t="n">
-        <v>59.4</v>
+        <v>11.2</v>
       </c>
       <c r="I26" s="39" t="n">
-        <v>50</v>
+        <v>5.8</v>
       </c>
       <c r="J26" s="39" t="n">
-        <v>55.6</v>
+        <v>50.2</v>
       </c>
       <c r="K26" s="39" t="n">
-        <v>45.4</v>
+        <v>62.1</v>
       </c>
       <c r="L26" s="39" t="n">
-        <v>64.8</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="M26" s="39" t="n">
-        <v>76.09999999999999</v>
+        <v>94.7</v>
       </c>
       <c r="N26" s="39" t="n">
-        <v>90.40000000000001</v>
+        <v>97.3</v>
       </c>
       <c r="O26" s="39" t="n">
-        <v>91.2</v>
+        <v>97.5</v>
       </c>
       <c r="P26" s="39" t="n">
-        <v>94</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="Q26" s="39" t="n">
-        <v>32.1</v>
+        <v>36</v>
       </c>
       <c r="R26" s="39" t="n">
-        <v>68.7</v>
+        <v>65</v>
       </c>
       <c r="S26" s="39" t="n">
-        <v>41</v>
+        <v>41.7</v>
       </c>
       <c r="T26" s="39" t="n">
-        <v>41</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="U26" s="39" t="n">
-        <v>17.9</v>
+        <v>56.7</v>
       </c>
       <c r="V26" s="39" t="n">
-        <v>76.8</v>
+        <v>81.7</v>
       </c>
       <c r="W26" s="39" t="n">
-        <v>26.4</v>
+        <v>60.3</v>
       </c>
       <c r="X26" s="39" t="n">
-        <v>18.3</v>
+        <v>10.6</v>
       </c>
       <c r="Y26" s="39" t="inlineStr">
         <is>
-          <t>央企共赢ETF</t>
+          <t>银行ETF</t>
         </is>
       </c>
     </row>
@@ -14201,7 +14201,7 @@
         <v>38</v>
       </c>
       <c r="X27" s="39" t="n">
-        <v>21</v>
+        <v>12.5</v>
       </c>
       <c r="Y27" s="39" t="inlineStr">
         <is>
@@ -14214,79 +14214,79 @@
         <v>26</v>
       </c>
       <c r="B28" s="39" t="n">
-        <v>159611</v>
+        <v>562800</v>
       </c>
       <c r="C28" s="39" t="inlineStr">
         <is>
-          <t>电力ETF</t>
+          <t>稀有金属ETF</t>
         </is>
       </c>
       <c r="D28" s="39" t="n">
-        <v>34.18</v>
+        <v>8.85</v>
       </c>
       <c r="E28" s="39" t="n">
-        <v>46</v>
+        <v>40.5</v>
       </c>
       <c r="F28" s="39" t="n">
-        <v>77.59999999999999</v>
+        <v>16</v>
       </c>
       <c r="G28" s="39" t="n">
-        <v>16.9</v>
+        <v>1.1</v>
       </c>
       <c r="H28" s="39" t="n">
-        <v>47.3</v>
+        <v>20.4</v>
       </c>
       <c r="I28" s="39" t="n">
-        <v>55.1</v>
+        <v>47.7</v>
       </c>
       <c r="J28" s="39" t="n">
-        <v>65.3</v>
+        <v>69</v>
       </c>
       <c r="K28" s="39" t="n">
-        <v>38.8</v>
+        <v>69</v>
       </c>
       <c r="L28" s="39" t="n">
-        <v>75.40000000000001</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="M28" s="39" t="n">
-        <v>82.90000000000001</v>
+        <v>52.7</v>
       </c>
       <c r="N28" s="39" t="n">
-        <v>86.8</v>
+        <v>21</v>
       </c>
       <c r="O28" s="39" t="n">
-        <v>86.8</v>
+        <v>17.5</v>
       </c>
       <c r="P28" s="39" t="n">
-        <v>26.1</v>
+        <v>13.1</v>
       </c>
       <c r="Q28" s="39" t="n">
-        <v>59.8</v>
+        <v>84.2</v>
       </c>
       <c r="R28" s="39" t="n">
-        <v>45.9</v>
+        <v>71.3</v>
       </c>
       <c r="S28" s="39" t="n">
-        <v>19.1</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="T28" s="39" t="n">
-        <v>80.3</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="U28" s="39" t="n">
-        <v>94.3</v>
+        <v>32.7</v>
       </c>
       <c r="V28" s="39" t="n">
-        <v>97</v>
+        <v>13.2</v>
       </c>
       <c r="W28" s="39" t="n">
-        <v>29.1</v>
+        <v>13.2</v>
       </c>
       <c r="X28" s="39" t="n">
-        <v>21.5</v>
+        <v>13.2</v>
       </c>
       <c r="Y28" s="39" t="inlineStr">
         <is>
-          <t>电力ETF</t>
+          <t>稀有金属ETF</t>
         </is>
       </c>
     </row>
@@ -14294,80 +14294,82 @@
       <c r="A29" s="39" t="n">
         <v>27</v>
       </c>
-      <c r="B29" s="39" t="n">
-        <v>512690</v>
+      <c r="B29" s="39" t="inlineStr">
+        <is>
+          <t>510210</t>
+        </is>
       </c>
       <c r="C29" s="39" t="inlineStr">
         <is>
-          <t>酒ETF</t>
+          <t>上证指数ETF</t>
         </is>
       </c>
       <c r="D29" s="39" t="n">
-        <v>109.99</v>
+        <v>48.27</v>
       </c>
       <c r="E29" s="39" t="n">
-        <v>24</v>
+        <v>63.9</v>
       </c>
       <c r="F29" s="39" t="n">
-        <v>85.7</v>
+        <v>21.4</v>
       </c>
       <c r="G29" s="39" t="n">
-        <v>12.1</v>
+        <v>1.3</v>
       </c>
       <c r="H29" s="39" t="n">
-        <v>59</v>
+        <v>24.8</v>
       </c>
       <c r="I29" s="39" t="n">
-        <v>71.3</v>
+        <v>43.7</v>
       </c>
       <c r="J29" s="39" t="n">
-        <v>76.5</v>
+        <v>64.2</v>
       </c>
       <c r="K29" s="39" t="n">
-        <v>41.3</v>
+        <v>73.7</v>
       </c>
       <c r="L29" s="39" t="n">
-        <v>23</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="M29" s="39" t="n">
-        <v>23</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="N29" s="39" t="n">
-        <v>51.6</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="O29" s="39" t="n">
-        <v>85</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="P29" s="39" t="n">
-        <v>35.7</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="Q29" s="39" t="n">
-        <v>16.5</v>
+        <v>99</v>
       </c>
       <c r="R29" s="39" t="n">
-        <v>14</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="S29" s="39" t="n">
-        <v>8.699999999999999</v>
+        <v>64</v>
       </c>
       <c r="T29" s="39" t="n">
-        <v>4.1</v>
+        <v>73.5</v>
       </c>
       <c r="U29" s="39" t="n">
-        <v>29.2</v>
+        <v>73.5</v>
       </c>
       <c r="V29" s="39" t="n">
-        <v>14.3</v>
+        <v>23.7</v>
       </c>
       <c r="W29" s="39" t="n">
-        <v>3.5</v>
+        <v>14.1</v>
       </c>
       <c r="X29" s="39" t="n">
-        <v>22.9</v>
+        <v>14.1</v>
       </c>
       <c r="Y29" s="39" t="inlineStr">
         <is>
-          <t>酒ETF</t>
+          <t>上证指数ETF</t>
         </is>
       </c>
     </row>
@@ -14376,79 +14378,79 @@
         <v>28</v>
       </c>
       <c r="B30" s="39" t="n">
-        <v>159905</v>
+        <v>561320</v>
       </c>
       <c r="C30" s="39" t="inlineStr">
         <is>
-          <t>深红利ETF</t>
+          <t>交运ETF</t>
         </is>
       </c>
       <c r="D30" s="39" t="n">
-        <v>31.58</v>
+        <v>0.64</v>
       </c>
       <c r="E30" s="39" t="n">
-        <v>39.5</v>
+        <v>52</v>
       </c>
       <c r="F30" s="39" t="n">
-        <v>10.7</v>
+        <v>42.5</v>
       </c>
       <c r="G30" s="39" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H30" s="39" t="n">
-        <v>42.7</v>
+        <v>53</v>
       </c>
       <c r="I30" s="39" t="n">
-        <v>53.6</v>
+        <v>64.2</v>
       </c>
       <c r="J30" s="39" t="n">
-        <v>73.09999999999999</v>
+        <v>77</v>
       </c>
       <c r="K30" s="39" t="n">
-        <v>57.6</v>
+        <v>57.9</v>
       </c>
       <c r="L30" s="39" t="n">
-        <v>49.7</v>
+        <v>57.9</v>
       </c>
       <c r="M30" s="39" t="n">
-        <v>73.7</v>
+        <v>49.6</v>
       </c>
       <c r="N30" s="39" t="n">
-        <v>78</v>
+        <v>89.3</v>
       </c>
       <c r="O30" s="39" t="n">
-        <v>52.6</v>
+        <v>89.3</v>
       </c>
       <c r="P30" s="39" t="n">
-        <v>61.1</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="Q30" s="39" t="n">
-        <v>86</v>
+        <v>21.5</v>
       </c>
       <c r="R30" s="39" t="n">
-        <v>86</v>
+        <v>46.5</v>
       </c>
       <c r="S30" s="39" t="n">
-        <v>24.1</v>
+        <v>23.8</v>
       </c>
       <c r="T30" s="39" t="n">
-        <v>18.8</v>
+        <v>61.4</v>
       </c>
       <c r="U30" s="39" t="n">
-        <v>5.8</v>
+        <v>61.4</v>
       </c>
       <c r="V30" s="39" t="n">
-        <v>48.5</v>
+        <v>37</v>
       </c>
       <c r="W30" s="39" t="n">
-        <v>25.4</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="X30" s="39" t="n">
-        <v>25.4</v>
+        <v>15.3</v>
       </c>
       <c r="Y30" s="39" t="inlineStr">
         <is>
-          <t>深红利ETF</t>
+          <t>交运ETF</t>
         </is>
       </c>
     </row>
@@ -14457,79 +14459,79 @@
         <v>29</v>
       </c>
       <c r="B31" s="39" t="n">
-        <v>515210</v>
+        <v>159905</v>
       </c>
       <c r="C31" s="39" t="inlineStr">
         <is>
-          <t>钢铁ETF</t>
+          <t>深红利ETF</t>
         </is>
       </c>
       <c r="D31" s="39" t="n">
-        <v>18.67</v>
+        <v>31.54</v>
       </c>
       <c r="E31" s="39" t="n">
-        <v>38.6</v>
+        <v>39.5</v>
       </c>
       <c r="F31" s="39" t="n">
-        <v>58.6</v>
+        <v>10.7</v>
       </c>
       <c r="G31" s="39" t="n">
-        <v>4</v>
+        <v>0.7</v>
       </c>
       <c r="H31" s="39" t="n">
-        <v>15.3</v>
+        <v>42.7</v>
       </c>
       <c r="I31" s="39" t="n">
-        <v>35.5</v>
+        <v>53.6</v>
       </c>
       <c r="J31" s="39" t="n">
-        <v>65.59999999999999</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="K31" s="39" t="n">
-        <v>65.59999999999999</v>
+        <v>57.6</v>
       </c>
       <c r="L31" s="39" t="n">
-        <v>85.40000000000001</v>
+        <v>49.7</v>
       </c>
       <c r="M31" s="39" t="n">
-        <v>44.1</v>
+        <v>73.7</v>
       </c>
       <c r="N31" s="39" t="n">
-        <v>27.7</v>
+        <v>78</v>
       </c>
       <c r="O31" s="39" t="n">
-        <v>43.5</v>
+        <v>52.6</v>
       </c>
       <c r="P31" s="39" t="n">
-        <v>67.3</v>
+        <v>61.1</v>
       </c>
       <c r="Q31" s="39" t="n">
-        <v>89.8</v>
+        <v>86</v>
       </c>
       <c r="R31" s="39" t="n">
-        <v>74.09999999999999</v>
+        <v>86</v>
       </c>
       <c r="S31" s="39" t="n">
-        <v>89.2</v>
+        <v>24.1</v>
       </c>
       <c r="T31" s="39" t="n">
-        <v>51.6</v>
+        <v>18.8</v>
       </c>
       <c r="U31" s="39" t="n">
-        <v>84.8</v>
+        <v>5.8</v>
       </c>
       <c r="V31" s="39" t="n">
-        <v>93</v>
+        <v>48.5</v>
       </c>
       <c r="W31" s="39" t="n">
-        <v>93</v>
+        <v>25.4</v>
       </c>
       <c r="X31" s="39" t="n">
-        <v>31.5</v>
+        <v>15.6</v>
       </c>
       <c r="Y31" s="39" t="inlineStr">
         <is>
-          <t>钢铁ETF</t>
+          <t>深红利ETF</t>
         </is>
       </c>
     </row>
@@ -14538,79 +14540,79 @@
         <v>30</v>
       </c>
       <c r="B32" s="39" t="n">
-        <v>159850</v>
+        <v>512400</v>
       </c>
       <c r="C32" s="39" t="inlineStr">
         <is>
-          <t>恒生国企ETF</t>
+          <t>有色金属ETF</t>
         </is>
       </c>
       <c r="D32" s="39" t="n">
-        <v>9.039999999999999</v>
+        <v>45.23</v>
       </c>
       <c r="E32" s="39" t="n">
-        <v>30.7</v>
+        <v>10.7</v>
       </c>
       <c r="F32" s="39" t="n">
-        <v>10.4</v>
+        <v>3.6</v>
       </c>
       <c r="G32" s="39" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="H32" s="39" t="n">
-        <v>0.7</v>
+        <v>18.5</v>
       </c>
       <c r="I32" s="39" t="n">
-        <v>26.1</v>
+        <v>39</v>
       </c>
       <c r="J32" s="39" t="n">
-        <v>62.6</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="K32" s="39" t="n">
-        <v>72.5</v>
+        <v>81</v>
       </c>
       <c r="L32" s="39" t="n">
-        <v>88</v>
+        <v>91.8</v>
       </c>
       <c r="M32" s="39" t="n">
-        <v>90</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="N32" s="39" t="n">
-        <v>31.2</v>
+        <v>63.2</v>
       </c>
       <c r="O32" s="39" t="n">
-        <v>55.3</v>
+        <v>38.9</v>
       </c>
       <c r="P32" s="39" t="n">
-        <v>50.3</v>
+        <v>26.7</v>
       </c>
       <c r="Q32" s="39" t="n">
-        <v>73.90000000000001</v>
+        <v>92</v>
       </c>
       <c r="R32" s="39" t="n">
-        <v>81.09999999999999</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="S32" s="39" t="n">
-        <v>97</v>
+        <v>35.4</v>
       </c>
       <c r="T32" s="39" t="n">
-        <v>54</v>
+        <v>23.7</v>
       </c>
       <c r="U32" s="39" t="n">
-        <v>74.3</v>
+        <v>35.8</v>
       </c>
       <c r="V32" s="39" t="n">
-        <v>76.8</v>
+        <v>21.9</v>
       </c>
       <c r="W32" s="39" t="n">
-        <v>27.6</v>
+        <v>15.8</v>
       </c>
       <c r="X32" s="39" t="n">
-        <v>36.6</v>
+        <v>15.8</v>
       </c>
       <c r="Y32" s="39" t="inlineStr">
         <is>
-          <t>恒生国企ETF</t>
+          <t>有色金属ETF</t>
         </is>
       </c>
     </row>
@@ -14619,79 +14621,79 @@
         <v>31</v>
       </c>
       <c r="B33" s="39" t="n">
-        <v>518880</v>
+        <v>517090</v>
       </c>
       <c r="C33" s="39" t="inlineStr">
         <is>
-          <t>黄金ETF</t>
+          <t>央企共赢ETF</t>
         </is>
       </c>
       <c r="D33" s="39" t="n">
-        <v>602.08</v>
+        <v>4.31</v>
       </c>
       <c r="E33" s="39" t="n">
-        <v>68.09999999999999</v>
+        <v>34.7</v>
       </c>
       <c r="F33" s="39" t="n">
-        <v>87.40000000000001</v>
+        <v>76.2</v>
       </c>
       <c r="G33" s="39" t="n">
-        <v>17.4</v>
+        <v>4</v>
       </c>
       <c r="H33" s="39" t="n">
-        <v>39</v>
+        <v>59.4</v>
       </c>
       <c r="I33" s="39" t="n">
+        <v>50</v>
+      </c>
+      <c r="J33" s="39" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="K33" s="39" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="L33" s="39" t="n">
+        <v>64.8</v>
+      </c>
+      <c r="M33" s="39" t="n">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="N33" s="39" t="n">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="O33" s="39" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="P33" s="39" t="n">
+        <v>94</v>
+      </c>
+      <c r="Q33" s="39" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="R33" s="39" t="n">
         <v>68.7</v>
       </c>
-      <c r="J33" s="39" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="K33" s="39" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L33" s="39" t="n">
-        <v>95.90000000000001</v>
-      </c>
-      <c r="M33" s="39" t="n">
-        <v>93.59999999999999</v>
-      </c>
-      <c r="N33" s="39" t="n">
-        <v>98.8</v>
-      </c>
-      <c r="O33" s="39" t="n">
-        <v>99.2</v>
-      </c>
-      <c r="P33" s="39" t="n">
-        <v>99.3</v>
-      </c>
-      <c r="Q33" s="39" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="R33" s="39" t="n">
-        <v>100</v>
-      </c>
       <c r="S33" s="39" t="n">
-        <v>26.9</v>
+        <v>41</v>
       </c>
       <c r="T33" s="39" t="n">
-        <v>41.4</v>
+        <v>41</v>
       </c>
       <c r="U33" s="39" t="n">
-        <v>33.1</v>
+        <v>17.9</v>
       </c>
       <c r="V33" s="39" t="n">
-        <v>22</v>
+        <v>76.8</v>
       </c>
       <c r="W33" s="39" t="n">
-        <v>49.2</v>
+        <v>26.4</v>
       </c>
       <c r="X33" s="39" t="n">
-        <v>37.2</v>
+        <v>18.3</v>
       </c>
       <c r="Y33" s="39" t="inlineStr">
         <is>
-          <t>黄金ETF</t>
+          <t>央企共赢ETF</t>
         </is>
       </c>
     </row>
@@ -14700,79 +14702,79 @@
         <v>32</v>
       </c>
       <c r="B34" s="39" t="n">
-        <v>159865</v>
+        <v>159611</v>
       </c>
       <c r="C34" s="39" t="inlineStr">
         <is>
-          <t>养殖ETF</t>
+          <t>电力ETF</t>
         </is>
       </c>
       <c r="D34" s="39" t="n">
-        <v>31.93</v>
+        <v>34.18</v>
       </c>
       <c r="E34" s="39" t="n">
-        <v>50.8</v>
+        <v>46</v>
       </c>
       <c r="F34" s="39" t="n">
-        <v>89.90000000000001</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="G34" s="39" t="n">
-        <v>29.7</v>
+        <v>16.9</v>
       </c>
       <c r="H34" s="39" t="n">
-        <v>87.40000000000001</v>
+        <v>47.3</v>
       </c>
       <c r="I34" s="39" t="n">
-        <v>81.8</v>
+        <v>55.1</v>
       </c>
       <c r="J34" s="39" t="n">
-        <v>84.8</v>
+        <v>65.3</v>
       </c>
       <c r="K34" s="39" t="n">
-        <v>28.9</v>
+        <v>38.8</v>
       </c>
       <c r="L34" s="39" t="n">
-        <v>41.7</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="M34" s="39" t="n">
-        <v>37.2</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="N34" s="39" t="n">
-        <v>18</v>
+        <v>86.8</v>
       </c>
       <c r="O34" s="39" t="n">
-        <v>18</v>
+        <v>86.8</v>
       </c>
       <c r="P34" s="39" t="n">
-        <v>5.2</v>
+        <v>26.1</v>
       </c>
       <c r="Q34" s="39" t="n">
-        <v>35.7</v>
+        <v>59.8</v>
       </c>
       <c r="R34" s="39" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="S34" s="39" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="T34" s="39" t="n">
         <v>80.3</v>
       </c>
-      <c r="S34" s="39" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="T34" s="39" t="n">
-        <v>52</v>
-      </c>
       <c r="U34" s="39" t="n">
-        <v>36</v>
+        <v>94.3</v>
       </c>
       <c r="V34" s="39" t="n">
-        <v>17.8</v>
+        <v>97</v>
       </c>
       <c r="W34" s="39" t="n">
-        <v>48.8</v>
+        <v>29.1</v>
       </c>
       <c r="X34" s="39" t="n">
-        <v>39</v>
+        <v>21.5</v>
       </c>
       <c r="Y34" s="39" t="inlineStr">
         <is>
-          <t>养殖ETF</t>
+          <t>电力ETF</t>
         </is>
       </c>
     </row>
@@ -14780,80 +14782,82 @@
       <c r="A35" s="39" t="n">
         <v>33</v>
       </c>
-      <c r="B35" s="39" t="n">
-        <v>159825</v>
+      <c r="B35" s="39" t="inlineStr">
+        <is>
+          <t>159736</t>
+        </is>
       </c>
       <c r="C35" s="39" t="inlineStr">
         <is>
-          <t>农业ETF</t>
+          <t>饮食ETF</t>
         </is>
       </c>
       <c r="D35" s="39" t="n">
-        <v>21.58</v>
+        <v>48.57</v>
       </c>
       <c r="E35" s="39" t="n">
-        <v>52.1</v>
+        <v>37.3</v>
       </c>
       <c r="F35" s="39" t="n">
-        <v>86</v>
+        <v>83.8</v>
       </c>
       <c r="G35" s="39" t="n">
-        <v>21.5</v>
+        <v>11.8</v>
       </c>
       <c r="H35" s="39" t="n">
-        <v>86.40000000000001</v>
+        <v>59.9</v>
       </c>
       <c r="I35" s="39" t="n">
-        <v>77</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="J35" s="39" t="n">
-        <v>81.90000000000001</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="K35" s="39" t="n">
-        <v>31.2</v>
+        <v>50.1</v>
       </c>
       <c r="L35" s="39" t="n">
-        <v>45.4</v>
+        <v>46</v>
       </c>
       <c r="M35" s="39" t="n">
-        <v>28</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="N35" s="39" t="n">
-        <v>22.3</v>
+        <v>78.2</v>
       </c>
       <c r="O35" s="39" t="n">
-        <v>18.5</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="P35" s="39" t="n">
-        <v>5.5</v>
+        <v>34.9</v>
       </c>
       <c r="Q35" s="39" t="n">
-        <v>41</v>
+        <v>18.6</v>
       </c>
       <c r="R35" s="39" t="n">
-        <v>78.59999999999999</v>
+        <v>18.6</v>
       </c>
       <c r="S35" s="39" t="n">
-        <v>27.9</v>
+        <v>7.4</v>
       </c>
       <c r="T35" s="39" t="n">
-        <v>52.4</v>
+        <v>4.7</v>
       </c>
       <c r="U35" s="39" t="n">
-        <v>39.1</v>
+        <v>3.4</v>
       </c>
       <c r="V35" s="39" t="n">
-        <v>15.5</v>
+        <v>0.9</v>
       </c>
       <c r="W35" s="39" t="n">
-        <v>39.7</v>
+        <v>0.5</v>
       </c>
       <c r="X35" s="39" t="n">
-        <v>39.7</v>
+        <v>24.1</v>
       </c>
       <c r="Y35" s="39" t="inlineStr">
         <is>
-          <t>农业ETF</t>
+          <t>饮食ETF</t>
         </is>
       </c>
     </row>
@@ -14862,79 +14866,79 @@
         <v>34</v>
       </c>
       <c r="B36" s="39" t="n">
-        <v>510300</v>
+        <v>159825</v>
       </c>
       <c r="C36" s="39" t="inlineStr">
         <is>
-          <t>沪深300ETF</t>
+          <t>农业ETF</t>
         </is>
       </c>
       <c r="D36" s="39" t="n">
-        <v>3737.84</v>
+        <v>21.54</v>
       </c>
       <c r="E36" s="39" t="n">
-        <v>7.4</v>
+        <v>52.1</v>
       </c>
       <c r="F36" s="39" t="n">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="G36" s="39" t="n">
-        <v>0.1</v>
+        <v>21.5</v>
       </c>
       <c r="H36" s="39" t="n">
-        <v>20.2</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="I36" s="39" t="n">
-        <v>43.6</v>
+        <v>77</v>
       </c>
       <c r="J36" s="39" t="n">
-        <v>72.09999999999999</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K36" s="39" t="n">
-        <v>76.3</v>
+        <v>31.2</v>
       </c>
       <c r="L36" s="39" t="n">
-        <v>80.59999999999999</v>
+        <v>45.4</v>
       </c>
       <c r="M36" s="39" t="n">
-        <v>82.90000000000001</v>
+        <v>28</v>
       </c>
       <c r="N36" s="39" t="n">
-        <v>90</v>
+        <v>22.3</v>
       </c>
       <c r="O36" s="39" t="n">
-        <v>92.2</v>
+        <v>18.5</v>
       </c>
       <c r="P36" s="39" t="n">
-        <v>96.8</v>
+        <v>5.5</v>
       </c>
       <c r="Q36" s="39" t="n">
-        <v>97.40000000000001</v>
+        <v>41</v>
       </c>
       <c r="R36" s="39" t="n">
-        <v>98.40000000000001</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="S36" s="39" t="n">
-        <v>99.2</v>
+        <v>27.9</v>
       </c>
       <c r="T36" s="39" t="n">
-        <v>99.2</v>
+        <v>52.4</v>
       </c>
       <c r="U36" s="39" t="n">
-        <v>99.2</v>
+        <v>39.1</v>
       </c>
       <c r="V36" s="39" t="n">
-        <v>14.3</v>
+        <v>15.5</v>
       </c>
       <c r="W36" s="39" t="n">
-        <v>4.8</v>
+        <v>39.7</v>
       </c>
       <c r="X36" s="39" t="n">
-        <v>45.9</v>
+        <v>25.3</v>
       </c>
       <c r="Y36" s="39" t="inlineStr">
         <is>
-          <t>沪深300ETF</t>
+          <t>农业ETF</t>
         </is>
       </c>
     </row>
@@ -14943,79 +14947,79 @@
         <v>35</v>
       </c>
       <c r="B37" s="39" t="n">
-        <v>512400</v>
+        <v>515210</v>
       </c>
       <c r="C37" s="39" t="inlineStr">
         <is>
-          <t>有色金属ETF</t>
+          <t>钢铁ETF</t>
         </is>
       </c>
       <c r="D37" s="39" t="n">
-        <v>45.32</v>
+        <v>18.59</v>
       </c>
       <c r="E37" s="39" t="n">
-        <v>10.7</v>
+        <v>38.6</v>
       </c>
       <c r="F37" s="39" t="n">
-        <v>3.6</v>
+        <v>58.6</v>
       </c>
       <c r="G37" s="39" t="n">
-        <v>0.4</v>
+        <v>4</v>
       </c>
       <c r="H37" s="39" t="n">
-        <v>18.5</v>
+        <v>15.3</v>
       </c>
       <c r="I37" s="39" t="n">
-        <v>39</v>
+        <v>35.5</v>
       </c>
       <c r="J37" s="39" t="n">
-        <v>76.09999999999999</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="K37" s="39" t="n">
-        <v>81</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="L37" s="39" t="n">
-        <v>91.8</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="M37" s="39" t="n">
-        <v>67.40000000000001</v>
+        <v>44.1</v>
       </c>
       <c r="N37" s="39" t="n">
-        <v>63.2</v>
+        <v>27.7</v>
       </c>
       <c r="O37" s="39" t="n">
-        <v>38.9</v>
+        <v>43.5</v>
       </c>
       <c r="P37" s="39" t="n">
-        <v>26.7</v>
+        <v>67.3</v>
       </c>
       <c r="Q37" s="39" t="n">
-        <v>92</v>
+        <v>89.8</v>
       </c>
       <c r="R37" s="39" t="n">
-        <v>74.90000000000001</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="S37" s="39" t="n">
-        <v>35.4</v>
+        <v>89.2</v>
       </c>
       <c r="T37" s="39" t="n">
-        <v>23.7</v>
+        <v>51.6</v>
       </c>
       <c r="U37" s="39" t="n">
-        <v>35.8</v>
+        <v>84.8</v>
       </c>
       <c r="V37" s="39" t="n">
-        <v>21.9</v>
+        <v>93</v>
       </c>
       <c r="W37" s="39" t="n">
-        <v>15.8</v>
+        <v>93</v>
       </c>
       <c r="X37" s="39" t="n">
-        <v>46</v>
+        <v>26.3</v>
       </c>
       <c r="Y37" s="39" t="inlineStr">
         <is>
-          <t>有色金属ETF</t>
+          <t>钢铁ETF</t>
         </is>
       </c>
     </row>
@@ -15023,82 +15027,80 @@
       <c r="A38" s="39" t="n">
         <v>36</v>
       </c>
-      <c r="B38" s="39" t="inlineStr">
-        <is>
-          <t>512580</t>
-        </is>
+      <c r="B38" s="39" t="n">
+        <v>159850</v>
       </c>
       <c r="C38" s="39" t="inlineStr">
         <is>
-          <t>环保ETF</t>
+          <t>恒生国企ETF</t>
         </is>
       </c>
       <c r="D38" s="39" t="n">
-        <v>11.66</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="E38" s="39" t="n">
-        <v>25.9</v>
+        <v>30.7</v>
       </c>
       <c r="F38" s="39" t="n">
-        <v>11</v>
+        <v>10.4</v>
       </c>
       <c r="G38" s="39" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H38" s="39" t="n">
         <v>0.7</v>
       </c>
-      <c r="H38" s="39" t="n">
-        <v>19.9</v>
-      </c>
       <c r="I38" s="39" t="n">
-        <v>34.6</v>
+        <v>26.1</v>
       </c>
       <c r="J38" s="39" t="n">
-        <v>61.2</v>
+        <v>62.6</v>
       </c>
       <c r="K38" s="39" t="n">
-        <v>68.90000000000001</v>
+        <v>72.5</v>
       </c>
       <c r="L38" s="39" t="n">
-        <v>79.3</v>
+        <v>88</v>
       </c>
       <c r="M38" s="39" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="N38" s="39" t="n">
-        <v>36</v>
+        <v>31.2</v>
       </c>
       <c r="O38" s="39" t="n">
-        <v>20.9</v>
+        <v>55.3</v>
       </c>
       <c r="P38" s="39" t="n">
-        <v>57</v>
+        <v>50.3</v>
       </c>
       <c r="Q38" s="39" t="n">
-        <v>86.3</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="R38" s="39" t="n">
-        <v>54.5</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="S38" s="39" t="n">
-        <v>79.59999999999999</v>
+        <v>97</v>
       </c>
       <c r="T38" s="39" t="n">
-        <v>47.9</v>
+        <v>54</v>
       </c>
       <c r="U38" s="39" t="n">
-        <v>74.7</v>
+        <v>74.3</v>
       </c>
       <c r="V38" s="39" t="n">
-        <v>83.3</v>
+        <v>76.8</v>
       </c>
       <c r="W38" s="39" t="n">
-        <v>24.7</v>
+        <v>27.6</v>
       </c>
       <c r="X38" s="39" t="n">
-        <v>46.3</v>
+        <v>27.6</v>
       </c>
       <c r="Y38" s="39" t="inlineStr">
         <is>
-          <t>环保ETF</t>
+          <t>恒生国企ETF</t>
         </is>
       </c>
     </row>
@@ -15115,7 +15117,7 @@
         </is>
       </c>
       <c r="D39" s="39" t="n">
-        <v>2.92</v>
+        <v>2.91</v>
       </c>
       <c r="E39" s="39" t="n">
         <v>37.8</v>
@@ -15175,7 +15177,7 @@
         <v>28.6</v>
       </c>
       <c r="X39" s="39" t="n">
-        <v>46.8</v>
+        <v>28.6</v>
       </c>
       <c r="Y39" s="39" t="inlineStr">
         <is>
@@ -15187,82 +15189,80 @@
       <c r="A40" s="39" t="n">
         <v>38</v>
       </c>
-      <c r="B40" s="39" t="inlineStr">
-        <is>
-          <t>159736</t>
-        </is>
+      <c r="B40" s="39" t="n">
+        <v>159865</v>
       </c>
       <c r="C40" s="39" t="inlineStr">
         <is>
-          <t>饮食ETF</t>
+          <t>养殖ETF</t>
         </is>
       </c>
       <c r="D40" s="39" t="n">
-        <v>48.7</v>
+        <v>31.88</v>
       </c>
       <c r="E40" s="39" t="n">
-        <v>37.3</v>
+        <v>50.8</v>
       </c>
       <c r="F40" s="39" t="n">
-        <v>83.8</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="G40" s="39" t="n">
-        <v>11.8</v>
+        <v>29.7</v>
       </c>
       <c r="H40" s="39" t="n">
-        <v>59.9</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="I40" s="39" t="n">
-        <v>74.40000000000001</v>
+        <v>81.8</v>
       </c>
       <c r="J40" s="39" t="n">
-        <v>84.09999999999999</v>
+        <v>84.8</v>
       </c>
       <c r="K40" s="39" t="n">
-        <v>50.1</v>
+        <v>28.9</v>
       </c>
       <c r="L40" s="39" t="n">
-        <v>46</v>
+        <v>41.7</v>
       </c>
       <c r="M40" s="39" t="n">
-        <v>70.40000000000001</v>
+        <v>37.2</v>
       </c>
       <c r="N40" s="39" t="n">
-        <v>78.2</v>
+        <v>18</v>
       </c>
       <c r="O40" s="39" t="n">
-        <v>90.59999999999999</v>
+        <v>18</v>
       </c>
       <c r="P40" s="39" t="n">
-        <v>34.9</v>
+        <v>5.2</v>
       </c>
       <c r="Q40" s="39" t="n">
-        <v>18.6</v>
+        <v>35.7</v>
       </c>
       <c r="R40" s="39" t="n">
-        <v>18.6</v>
+        <v>80.3</v>
       </c>
       <c r="S40" s="39" t="n">
-        <v>7.4</v>
+        <v>23.8</v>
       </c>
       <c r="T40" s="39" t="n">
-        <v>4.7</v>
+        <v>52</v>
       </c>
       <c r="U40" s="39" t="n">
-        <v>3.4</v>
+        <v>36</v>
       </c>
       <c r="V40" s="39" t="n">
-        <v>0.9</v>
+        <v>17.8</v>
       </c>
       <c r="W40" s="39" t="n">
-        <v>0.5</v>
+        <v>48.8</v>
       </c>
       <c r="X40" s="39" t="n">
-        <v>48.6</v>
+        <v>32.5</v>
       </c>
       <c r="Y40" s="39" t="inlineStr">
         <is>
-          <t>饮食ETF</t>
+          <t>养殖ETF</t>
         </is>
       </c>
     </row>
@@ -15271,79 +15271,79 @@
         <v>39</v>
       </c>
       <c r="B41" s="39" t="n">
-        <v>512200</v>
+        <v>518880</v>
       </c>
       <c r="C41" s="39" t="inlineStr">
         <is>
-          <t>房地产ETF</t>
+          <t>黄金ETF</t>
         </is>
       </c>
       <c r="D41" s="39" t="n">
-        <v>65.09999999999999</v>
+        <v>601.92</v>
       </c>
       <c r="E41" s="39" t="n">
-        <v>22.5</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="F41" s="39" t="n">
-        <v>76.2</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="G41" s="39" t="n">
-        <v>5.7</v>
+        <v>17.4</v>
       </c>
       <c r="H41" s="39" t="n">
-        <v>34.5</v>
+        <v>39</v>
       </c>
       <c r="I41" s="39" t="n">
-        <v>71.8</v>
+        <v>68.7</v>
       </c>
       <c r="J41" s="39" t="n">
-        <v>81.8</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="K41" s="39" t="n">
-        <v>64.2</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="L41" s="39" t="n">
-        <v>64.2</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="M41" s="39" t="n">
-        <v>30</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="N41" s="39" t="n">
-        <v>54.3</v>
+        <v>98.8</v>
       </c>
       <c r="O41" s="39" t="n">
-        <v>87.59999999999999</v>
+        <v>99.2</v>
       </c>
       <c r="P41" s="39" t="n">
-        <v>93.90000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="Q41" s="39" t="n">
-        <v>82.5</v>
+        <v>99.8</v>
       </c>
       <c r="R41" s="39" t="n">
-        <v>89.40000000000001</v>
+        <v>100</v>
       </c>
       <c r="S41" s="39" t="n">
-        <v>27.4</v>
+        <v>26.9</v>
       </c>
       <c r="T41" s="39" t="n">
-        <v>48.9</v>
+        <v>41.4</v>
       </c>
       <c r="U41" s="39" t="n">
-        <v>21.5</v>
+        <v>33.1</v>
       </c>
       <c r="V41" s="39" t="n">
-        <v>4.6</v>
+        <v>22</v>
       </c>
       <c r="W41" s="39" t="n">
-        <v>7.6</v>
+        <v>49.2</v>
       </c>
       <c r="X41" s="39" t="n">
-        <v>48.9</v>
+        <v>36.9</v>
       </c>
       <c r="Y41" s="39" t="inlineStr">
         <is>
-          <t>房地产ETF</t>
+          <t>黄金ETF</t>
         </is>
       </c>
     </row>
@@ -15353,80 +15353,80 @@
       </c>
       <c r="B42" s="39" t="inlineStr">
         <is>
-          <t>164824</t>
+          <t>512580</t>
         </is>
       </c>
       <c r="C42" s="39" t="inlineStr">
         <is>
-          <t>印度基金LOF</t>
+          <t>环保ETF</t>
         </is>
       </c>
       <c r="D42" s="39" t="n">
-        <v>22.88</v>
+        <v>11.65</v>
       </c>
       <c r="E42" s="39" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="F42" s="39" t="n">
+        <v>11</v>
+      </c>
+      <c r="G42" s="39" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H42" s="39" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="I42" s="39" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="J42" s="39" t="n">
+        <v>61.2</v>
+      </c>
+      <c r="K42" s="39" t="n">
+        <v>68.90000000000001</v>
+      </c>
+      <c r="L42" s="39" t="n">
+        <v>79.3</v>
+      </c>
+      <c r="M42" s="39" t="n">
+        <v>70</v>
+      </c>
+      <c r="N42" s="39" t="n">
+        <v>36</v>
+      </c>
+      <c r="O42" s="39" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="P42" s="39" t="n">
         <v>57</v>
       </c>
-      <c r="F42" s="39" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="G42" s="39" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="H42" s="39" t="n">
-        <v>57</v>
-      </c>
-      <c r="I42" s="39" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="J42" s="39" t="n">
-        <v>80</v>
-      </c>
-      <c r="K42" s="39" t="n">
-        <v>65</v>
-      </c>
-      <c r="L42" s="39" t="n">
-        <v>76.7</v>
-      </c>
-      <c r="M42" s="39" t="n">
-        <v>82.5</v>
-      </c>
-      <c r="N42" s="39" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="O42" s="39" t="n">
-        <v>81.09999999999999</v>
-      </c>
-      <c r="P42" s="39" t="n">
-        <v>90.5</v>
-      </c>
       <c r="Q42" s="39" t="n">
-        <v>96.2</v>
+        <v>86.3</v>
       </c>
       <c r="R42" s="39" t="n">
-        <v>66.59999999999999</v>
+        <v>54.5</v>
       </c>
       <c r="S42" s="39" t="n">
-        <v>66.59999999999999</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="T42" s="39" t="n">
-        <v>41.3</v>
+        <v>47.9</v>
       </c>
       <c r="U42" s="39" t="n">
-        <v>9.800000000000001</v>
+        <v>74.7</v>
       </c>
       <c r="V42" s="39" t="n">
-        <v>78.09999999999999</v>
+        <v>83.3</v>
       </c>
       <c r="W42" s="39" t="n">
-        <v>60.9</v>
+        <v>24.7</v>
       </c>
       <c r="X42" s="39" t="n">
-        <v>50</v>
+        <v>37.3</v>
       </c>
       <c r="Y42" s="39" t="inlineStr">
         <is>
-          <t>印度基金LOF</t>
+          <t>环保ETF</t>
         </is>
       </c>
     </row>
@@ -15435,79 +15435,79 @@
         <v>41</v>
       </c>
       <c r="B43" s="39" t="n">
-        <v>159859</v>
+        <v>516160</v>
       </c>
       <c r="C43" s="39" t="inlineStr">
         <is>
-          <t>生物医药ETF</t>
+          <t>新能源ETF</t>
         </is>
       </c>
       <c r="D43" s="39" t="n">
-        <v>33.99</v>
+        <v>43.89</v>
       </c>
       <c r="E43" s="39" t="n">
-        <v>46.3</v>
+        <v>20.5</v>
       </c>
       <c r="F43" s="39" t="n">
-        <v>36.5</v>
+        <v>5.6</v>
       </c>
       <c r="G43" s="39" t="n">
-        <v>4.7</v>
+        <v>0.5</v>
       </c>
       <c r="H43" s="39" t="n">
-        <v>25.1</v>
+        <v>0.5</v>
       </c>
       <c r="I43" s="39" t="n">
-        <v>25.1</v>
+        <v>5.8</v>
       </c>
       <c r="J43" s="39" t="n">
-        <v>63.1</v>
+        <v>57.4</v>
       </c>
       <c r="K43" s="39" t="n">
-        <v>53.9</v>
+        <v>68.5</v>
       </c>
       <c r="L43" s="39" t="n">
-        <v>70.8</v>
+        <v>80.5</v>
       </c>
       <c r="M43" s="39" t="n">
-        <v>40.9</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="N43" s="39" t="n">
-        <v>10.3</v>
+        <v>26.3</v>
       </c>
       <c r="O43" s="39" t="n">
-        <v>10.3</v>
+        <v>21.4</v>
       </c>
       <c r="P43" s="39" t="n">
-        <v>10.3</v>
+        <v>51.6</v>
       </c>
       <c r="Q43" s="39" t="n">
-        <v>51.6</v>
+        <v>87.2</v>
       </c>
       <c r="R43" s="39" t="n">
-        <v>18.2</v>
+        <v>61.9</v>
       </c>
       <c r="S43" s="39" t="n">
-        <v>18.2</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="T43" s="39" t="n">
-        <v>64.40000000000001</v>
+        <v>50.1</v>
       </c>
       <c r="U43" s="39" t="n">
-        <v>89.09999999999999</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="V43" s="39" t="n">
-        <v>52.6</v>
+        <v>52.1</v>
       </c>
       <c r="W43" s="39" t="n">
-        <v>82</v>
+        <v>22.7</v>
       </c>
       <c r="X43" s="39" t="n">
-        <v>50.6</v>
+        <v>39.7</v>
       </c>
       <c r="Y43" s="39" t="inlineStr">
         <is>
-          <t>生物医药ETF</t>
+          <t>新能源ETF</t>
         </is>
       </c>
     </row>
@@ -15516,79 +15516,79 @@
         <v>42</v>
       </c>
       <c r="B44" s="39" t="n">
-        <v>562800</v>
+        <v>512200</v>
       </c>
       <c r="C44" s="39" t="inlineStr">
         <is>
-          <t>稀有金属ETF</t>
+          <t>房地产ETF</t>
         </is>
       </c>
       <c r="D44" s="39" t="n">
-        <v>8.890000000000001</v>
+        <v>64.95999999999999</v>
       </c>
       <c r="E44" s="39" t="n">
-        <v>40.5</v>
+        <v>22.5</v>
       </c>
       <c r="F44" s="39" t="n">
-        <v>16</v>
+        <v>76.2</v>
       </c>
       <c r="G44" s="39" t="n">
-        <v>1.1</v>
+        <v>5.7</v>
       </c>
       <c r="H44" s="39" t="n">
-        <v>20.4</v>
+        <v>34.5</v>
       </c>
       <c r="I44" s="39" t="n">
-        <v>47.7</v>
+        <v>71.8</v>
       </c>
       <c r="J44" s="39" t="n">
-        <v>69</v>
+        <v>81.8</v>
       </c>
       <c r="K44" s="39" t="n">
-        <v>69</v>
+        <v>64.2</v>
       </c>
       <c r="L44" s="39" t="n">
-        <v>84.59999999999999</v>
+        <v>64.2</v>
       </c>
       <c r="M44" s="39" t="n">
-        <v>52.7</v>
+        <v>30</v>
       </c>
       <c r="N44" s="39" t="n">
-        <v>21</v>
+        <v>54.3</v>
       </c>
       <c r="O44" s="39" t="n">
-        <v>17.5</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="P44" s="39" t="n">
-        <v>13.1</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="Q44" s="39" t="n">
-        <v>84.2</v>
+        <v>82.5</v>
       </c>
       <c r="R44" s="39" t="n">
-        <v>71.3</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="S44" s="39" t="n">
-        <v>85.09999999999999</v>
+        <v>27.4</v>
       </c>
       <c r="T44" s="39" t="n">
-        <v>64.40000000000001</v>
+        <v>48.9</v>
       </c>
       <c r="U44" s="39" t="n">
-        <v>32.7</v>
+        <v>21.5</v>
       </c>
       <c r="V44" s="39" t="n">
-        <v>13.2</v>
+        <v>4.6</v>
       </c>
       <c r="W44" s="39" t="n">
-        <v>13.2</v>
+        <v>7.6</v>
       </c>
       <c r="X44" s="39" t="n">
-        <v>51.6</v>
+        <v>45.1</v>
       </c>
       <c r="Y44" s="39" t="inlineStr">
         <is>
-          <t>稀有金属ETF</t>
+          <t>房地产ETF</t>
         </is>
       </c>
     </row>
@@ -15596,82 +15596,80 @@
       <c r="A45" s="39" t="n">
         <v>43</v>
       </c>
-      <c r="B45" s="39" t="inlineStr">
-        <is>
-          <t>510210</t>
-        </is>
+      <c r="B45" s="39" t="n">
+        <v>512070</v>
       </c>
       <c r="C45" s="39" t="inlineStr">
         <is>
-          <t>上证指数ETF</t>
+          <t>证券保险ETF</t>
         </is>
       </c>
       <c r="D45" s="39" t="n">
-        <v>48.33</v>
+        <v>63.75</v>
       </c>
       <c r="E45" s="39" t="n">
-        <v>63.9</v>
+        <v>49.3</v>
       </c>
       <c r="F45" s="39" t="n">
-        <v>21.4</v>
+        <v>25.7</v>
       </c>
       <c r="G45" s="39" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H45" s="39" t="n">
-        <v>24.8</v>
+        <v>28.2</v>
       </c>
       <c r="I45" s="39" t="n">
-        <v>43.7</v>
+        <v>48.4</v>
       </c>
       <c r="J45" s="39" t="n">
-        <v>64.2</v>
+        <v>67</v>
       </c>
       <c r="K45" s="39" t="n">
-        <v>73.7</v>
+        <v>67</v>
       </c>
       <c r="L45" s="39" t="n">
-        <v>86.40000000000001</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="M45" s="39" t="n">
-        <v>88.09999999999999</v>
+        <v>77</v>
       </c>
       <c r="N45" s="39" t="n">
-        <v>90.40000000000001</v>
+        <v>54.9</v>
       </c>
       <c r="O45" s="39" t="n">
-        <v>93.09999999999999</v>
+        <v>71.3</v>
       </c>
       <c r="P45" s="39" t="n">
-        <v>97.40000000000001</v>
+        <v>93.8</v>
       </c>
       <c r="Q45" s="39" t="n">
-        <v>99</v>
+        <v>96.2</v>
       </c>
       <c r="R45" s="39" t="n">
-        <v>99.59999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="S45" s="39" t="n">
-        <v>64</v>
+        <v>98.7</v>
       </c>
       <c r="T45" s="39" t="n">
-        <v>73.5</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="U45" s="39" t="n">
-        <v>73.5</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="V45" s="39" t="n">
-        <v>23.7</v>
+        <v>31.1</v>
       </c>
       <c r="W45" s="39" t="n">
-        <v>14.1</v>
+        <v>11.5</v>
       </c>
       <c r="X45" s="39" t="n">
-        <v>52.5</v>
+        <v>45.7</v>
       </c>
       <c r="Y45" s="39" t="inlineStr">
         <is>
-          <t>上证指数ETF</t>
+          <t>证券保险ETF</t>
         </is>
       </c>
     </row>
@@ -15679,80 +15677,82 @@
       <c r="A46" s="39" t="n">
         <v>44</v>
       </c>
-      <c r="B46" s="39" t="n">
-        <v>513080</v>
+      <c r="B46" s="39" t="inlineStr">
+        <is>
+          <t>164824</t>
+        </is>
       </c>
       <c r="C46" s="39" t="inlineStr">
         <is>
-          <t>法国CAC40ETF</t>
+          <t>印度基金LOF</t>
         </is>
       </c>
       <c r="D46" s="39" t="n">
-        <v>8.720000000000001</v>
+        <v>22.88</v>
       </c>
       <c r="E46" s="39" t="n">
-        <v>15.7</v>
+        <v>57</v>
       </c>
       <c r="F46" s="39" t="n">
-        <v>15.7</v>
+        <v>26.6</v>
       </c>
       <c r="G46" s="39" t="n">
-        <v>0.4</v>
+        <v>3.2</v>
       </c>
       <c r="H46" s="39" t="n">
-        <v>30.6</v>
+        <v>57</v>
       </c>
       <c r="I46" s="39" t="n">
-        <v>19.7</v>
+        <v>49.4</v>
       </c>
       <c r="J46" s="39" t="n">
-        <v>75.90000000000001</v>
+        <v>80</v>
       </c>
       <c r="K46" s="39" t="n">
-        <v>61.6</v>
+        <v>65</v>
       </c>
       <c r="L46" s="39" t="n">
-        <v>77.3</v>
+        <v>76.7</v>
       </c>
       <c r="M46" s="39" t="n">
-        <v>55.3</v>
+        <v>82.5</v>
       </c>
       <c r="N46" s="39" t="n">
-        <v>66.2</v>
+        <v>48.9</v>
       </c>
       <c r="O46" s="39" t="n">
-        <v>78</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="P46" s="39" t="n">
-        <v>79.40000000000001</v>
+        <v>90.5</v>
       </c>
       <c r="Q46" s="39" t="n">
-        <v>70.2</v>
+        <v>96.2</v>
       </c>
       <c r="R46" s="39" t="n">
-        <v>91.59999999999999</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="S46" s="39" t="n">
-        <v>97.40000000000001</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="T46" s="39" t="n">
-        <v>73.5</v>
+        <v>41.3</v>
       </c>
       <c r="U46" s="39" t="n">
-        <v>93.90000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="V46" s="39" t="n">
-        <v>94.8</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="W46" s="39" t="n">
-        <v>94.8</v>
+        <v>60.9</v>
       </c>
       <c r="X46" s="39" t="n">
-        <v>53.3</v>
+        <v>50</v>
       </c>
       <c r="Y46" s="39" t="inlineStr">
         <is>
-          <t>法国CAC40ETF</t>
+          <t>印度基金LOF</t>
         </is>
       </c>
     </row>
@@ -15761,79 +15761,79 @@
         <v>45</v>
       </c>
       <c r="B47" s="39" t="n">
-        <v>159866</v>
+        <v>159859</v>
       </c>
       <c r="C47" s="39" t="inlineStr">
         <is>
-          <t>日经ETF</t>
+          <t>生物医药ETF</t>
         </is>
       </c>
       <c r="D47" s="39" t="n">
-        <v>6.6</v>
+        <v>33.99</v>
       </c>
       <c r="E47" s="39" t="n">
-        <v>70.40000000000001</v>
+        <v>46.3</v>
       </c>
       <c r="F47" s="39" t="n">
-        <v>20.7</v>
+        <v>36.5</v>
       </c>
       <c r="G47" s="39" t="n">
-        <v>3.6</v>
+        <v>4.7</v>
       </c>
       <c r="H47" s="39" t="n">
-        <v>47.4</v>
+        <v>25.1</v>
       </c>
       <c r="I47" s="39" t="n">
-        <v>37.6</v>
+        <v>25.1</v>
       </c>
       <c r="J47" s="39" t="n">
-        <v>77</v>
+        <v>63.1</v>
       </c>
       <c r="K47" s="39" t="n">
-        <v>60.9</v>
+        <v>53.9</v>
       </c>
       <c r="L47" s="39" t="n">
-        <v>76.7</v>
+        <v>70.8</v>
       </c>
       <c r="M47" s="39" t="n">
-        <v>76.7</v>
+        <v>40.9</v>
       </c>
       <c r="N47" s="39" t="n">
-        <v>52.5</v>
+        <v>10.3</v>
       </c>
       <c r="O47" s="39" t="n">
-        <v>78</v>
+        <v>10.3</v>
       </c>
       <c r="P47" s="39" t="n">
-        <v>87.59999999999999</v>
+        <v>10.3</v>
       </c>
       <c r="Q47" s="39" t="n">
-        <v>52.9</v>
+        <v>51.6</v>
       </c>
       <c r="R47" s="39" t="n">
-        <v>77.09999999999999</v>
+        <v>18.2</v>
       </c>
       <c r="S47" s="39" t="n">
-        <v>87.90000000000001</v>
+        <v>18.2</v>
       </c>
       <c r="T47" s="39" t="n">
-        <v>48.5</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="U47" s="39" t="n">
-        <v>83.40000000000001</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="V47" s="39" t="n">
-        <v>90.09999999999999</v>
+        <v>52.6</v>
       </c>
       <c r="W47" s="39" t="n">
-        <v>94.5</v>
+        <v>82</v>
       </c>
       <c r="X47" s="39" t="n">
-        <v>53.5</v>
+        <v>50.6</v>
       </c>
       <c r="Y47" s="39" t="inlineStr">
         <is>
-          <t>日经ETF</t>
+          <t>生物医药ETF</t>
         </is>
       </c>
     </row>
@@ -15842,79 +15842,79 @@
         <v>46</v>
       </c>
       <c r="B48" s="39" t="n">
-        <v>159920</v>
+        <v>159647</v>
       </c>
       <c r="C48" s="39" t="inlineStr">
         <is>
-          <t>恒生ETF</t>
+          <t>中药ETF</t>
         </is>
       </c>
       <c r="D48" s="39" t="n">
-        <v>158.17</v>
+        <v>7.29</v>
       </c>
       <c r="E48" s="39" t="n">
-        <v>36.1</v>
+        <v>58.6</v>
       </c>
       <c r="F48" s="39" t="n">
-        <v>11.7</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="G48" s="39" t="n">
-        <v>1.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H48" s="39" t="n">
-        <v>1</v>
+        <v>40.7</v>
       </c>
       <c r="I48" s="39" t="n">
-        <v>0.9</v>
+        <v>60</v>
       </c>
       <c r="J48" s="39" t="n">
-        <v>61.3</v>
+        <v>71.8</v>
       </c>
       <c r="K48" s="39" t="n">
-        <v>74.40000000000001</v>
+        <v>56.9</v>
       </c>
       <c r="L48" s="39" t="n">
-        <v>86.8</v>
+        <v>60.9</v>
       </c>
       <c r="M48" s="39" t="n">
-        <v>89.09999999999999</v>
+        <v>87.3</v>
       </c>
       <c r="N48" s="39" t="n">
-        <v>34.5</v>
+        <v>50.3</v>
       </c>
       <c r="O48" s="39" t="n">
-        <v>62</v>
+        <v>44.1</v>
       </c>
       <c r="P48" s="39" t="n">
-        <v>62</v>
+        <v>29.5</v>
       </c>
       <c r="Q48" s="39" t="n">
-        <v>81.3</v>
+        <v>47</v>
       </c>
       <c r="R48" s="39" t="n">
-        <v>88.59999999999999</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="S48" s="39" t="n">
-        <v>98.09999999999999</v>
+        <v>30.4</v>
       </c>
       <c r="T48" s="39" t="n">
-        <v>56.7</v>
+        <v>51.8</v>
       </c>
       <c r="U48" s="39" t="n">
-        <v>74.90000000000001</v>
+        <v>26.9</v>
       </c>
       <c r="V48" s="39" t="n">
-        <v>70</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="W48" s="39" t="n">
-        <v>28.7</v>
+        <v>7.9</v>
       </c>
       <c r="X48" s="39" t="n">
-        <v>56.6</v>
+        <v>52.6</v>
       </c>
       <c r="Y48" s="39" t="inlineStr">
         <is>
-          <t>恒生ETF</t>
+          <t>中药ETF</t>
         </is>
       </c>
     </row>
@@ -15922,82 +15922,80 @@
       <c r="A49" s="39" t="n">
         <v>47</v>
       </c>
-      <c r="B49" s="39" t="inlineStr">
-        <is>
-          <t>517160</t>
-        </is>
+      <c r="B49" s="39" t="n">
+        <v>513090</v>
       </c>
       <c r="C49" s="39" t="inlineStr">
         <is>
-          <t>长江保护主题ETF</t>
+          <t>香港证券ETF</t>
         </is>
       </c>
       <c r="D49" s="39" t="n">
-        <v>12.94</v>
+        <v>70.83</v>
       </c>
       <c r="E49" s="39" t="n">
-        <v>39.9</v>
+        <v>57.7</v>
       </c>
       <c r="F49" s="39" t="n">
-        <v>57.2</v>
+        <v>30.1</v>
       </c>
       <c r="G49" s="39" t="n">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="H49" s="39" t="n">
-        <v>27.3</v>
+        <v>1.6</v>
       </c>
       <c r="I49" s="39" t="n">
-        <v>46.2</v>
+        <v>24.6</v>
       </c>
       <c r="J49" s="39" t="n">
-        <v>68.2</v>
+        <v>58.1</v>
       </c>
       <c r="K49" s="39" t="n">
-        <v>60</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="L49" s="39" t="n">
-        <v>79.59999999999999</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="M49" s="39" t="n">
-        <v>58.2</v>
+        <v>80.2</v>
       </c>
       <c r="N49" s="39" t="n">
-        <v>30.7</v>
+        <v>33.6</v>
       </c>
       <c r="O49" s="39" t="n">
-        <v>55.8</v>
+        <v>44.4</v>
       </c>
       <c r="P49" s="39" t="n">
-        <v>55.8</v>
+        <v>48.5</v>
       </c>
       <c r="Q49" s="39" t="n">
-        <v>84.90000000000001</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="R49" s="39" t="n">
-        <v>88.59999999999999</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="S49" s="39" t="n">
-        <v>97.09999999999999</v>
+        <v>96.7</v>
       </c>
       <c r="T49" s="39" t="n">
-        <v>64.8</v>
+        <v>40.2</v>
       </c>
       <c r="U49" s="39" t="n">
-        <v>73.59999999999999</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="V49" s="39" t="n">
-        <v>82.40000000000001</v>
+        <v>52.6</v>
       </c>
       <c r="W49" s="39" t="n">
-        <v>35.3</v>
+        <v>35.4</v>
       </c>
       <c r="X49" s="39" t="n">
-        <v>58.8</v>
+        <v>53</v>
       </c>
       <c r="Y49" s="39" t="inlineStr">
         <is>
-          <t>长江保护主题ETF</t>
+          <t>香港证券ETF</t>
         </is>
       </c>
     </row>
@@ -16006,79 +16004,79 @@
         <v>48</v>
       </c>
       <c r="B50" s="39" t="n">
-        <v>159647</v>
+        <v>513080</v>
       </c>
       <c r="C50" s="39" t="inlineStr">
         <is>
-          <t>中药ETF</t>
+          <t>法国CAC40ETF</t>
         </is>
       </c>
       <c r="D50" s="39" t="n">
-        <v>7.3</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="E50" s="39" t="n">
-        <v>58.6</v>
+        <v>15.7</v>
       </c>
       <c r="F50" s="39" t="n">
-        <v>78.40000000000001</v>
+        <v>15.7</v>
       </c>
       <c r="G50" s="39" t="n">
-        <v>9.699999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="H50" s="39" t="n">
-        <v>40.7</v>
+        <v>30.6</v>
       </c>
       <c r="I50" s="39" t="n">
-        <v>60</v>
+        <v>19.7</v>
       </c>
       <c r="J50" s="39" t="n">
-        <v>71.8</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="K50" s="39" t="n">
-        <v>56.9</v>
+        <v>61.6</v>
       </c>
       <c r="L50" s="39" t="n">
-        <v>60.9</v>
+        <v>77.3</v>
       </c>
       <c r="M50" s="39" t="n">
-        <v>87.3</v>
+        <v>55.3</v>
       </c>
       <c r="N50" s="39" t="n">
-        <v>50.3</v>
+        <v>66.2</v>
       </c>
       <c r="O50" s="39" t="n">
-        <v>44.1</v>
+        <v>78</v>
       </c>
       <c r="P50" s="39" t="n">
-        <v>29.5</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="Q50" s="39" t="n">
-        <v>47</v>
+        <v>70.2</v>
       </c>
       <c r="R50" s="39" t="n">
-        <v>91.09999999999999</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="S50" s="39" t="n">
-        <v>30.4</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="T50" s="39" t="n">
-        <v>51.8</v>
+        <v>73.5</v>
       </c>
       <c r="U50" s="39" t="n">
-        <v>26.9</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="V50" s="39" t="n">
-        <v>9.800000000000001</v>
+        <v>94.8</v>
       </c>
       <c r="W50" s="39" t="n">
-        <v>7.9</v>
+        <v>94.8</v>
       </c>
       <c r="X50" s="39" t="n">
-        <v>60.3</v>
+        <v>53.3</v>
       </c>
       <c r="Y50" s="39" t="inlineStr">
         <is>
-          <t>中药ETF</t>
+          <t>法国CAC40ETF</t>
         </is>
       </c>
     </row>
@@ -16087,79 +16085,79 @@
         <v>49</v>
       </c>
       <c r="B51" s="39" t="n">
-        <v>512070</v>
+        <v>159920</v>
       </c>
       <c r="C51" s="39" t="inlineStr">
         <is>
-          <t>证券保险ETF</t>
+          <t>恒生ETF</t>
         </is>
       </c>
       <c r="D51" s="39" t="n">
-        <v>63.84</v>
+        <v>158.28</v>
       </c>
       <c r="E51" s="39" t="n">
-        <v>49.3</v>
+        <v>36.1</v>
       </c>
       <c r="F51" s="39" t="n">
-        <v>25.7</v>
+        <v>11.7</v>
       </c>
       <c r="G51" s="39" t="n">
         <v>1.1</v>
       </c>
       <c r="H51" s="39" t="n">
-        <v>28.2</v>
+        <v>1</v>
       </c>
       <c r="I51" s="39" t="n">
-        <v>48.4</v>
+        <v>0.9</v>
       </c>
       <c r="J51" s="39" t="n">
-        <v>67</v>
+        <v>61.3</v>
       </c>
       <c r="K51" s="39" t="n">
-        <v>67</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L51" s="39" t="n">
-        <v>71.09999999999999</v>
+        <v>86.8</v>
       </c>
       <c r="M51" s="39" t="n">
-        <v>77</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="N51" s="39" t="n">
-        <v>54.9</v>
+        <v>34.5</v>
       </c>
       <c r="O51" s="39" t="n">
-        <v>71.3</v>
+        <v>62</v>
       </c>
       <c r="P51" s="39" t="n">
-        <v>93.8</v>
+        <v>62</v>
       </c>
       <c r="Q51" s="39" t="n">
-        <v>96.2</v>
+        <v>81.3</v>
       </c>
       <c r="R51" s="39" t="n">
-        <v>97.3</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="S51" s="39" t="n">
-        <v>98.7</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="T51" s="39" t="n">
-        <v>64.59999999999999</v>
+        <v>56.7</v>
       </c>
       <c r="U51" s="39" t="n">
-        <v>85.09999999999999</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="V51" s="39" t="n">
-        <v>31.1</v>
+        <v>70</v>
       </c>
       <c r="W51" s="39" t="n">
-        <v>11.5</v>
+        <v>28.7</v>
       </c>
       <c r="X51" s="39" t="n">
-        <v>60.8</v>
+        <v>56.6</v>
       </c>
       <c r="Y51" s="39" t="inlineStr">
         <is>
-          <t>证券保险ETF</t>
+          <t>恒生ETF</t>
         </is>
       </c>
     </row>
@@ -16167,80 +16165,82 @@
       <c r="A52" s="39" t="n">
         <v>50</v>
       </c>
-      <c r="B52" s="39" t="n">
-        <v>513120</v>
+      <c r="B52" s="39" t="inlineStr">
+        <is>
+          <t>517160</t>
+        </is>
       </c>
       <c r="C52" s="39" t="inlineStr">
         <is>
-          <t>港股创新药ETF</t>
+          <t>长江保护主题ETF</t>
         </is>
       </c>
       <c r="D52" s="39" t="n">
-        <v>109.37</v>
+        <v>12.94</v>
       </c>
       <c r="E52" s="39" t="n">
-        <v>67.5</v>
+        <v>39.9</v>
       </c>
       <c r="F52" s="39" t="n">
-        <v>39.9</v>
+        <v>57.2</v>
       </c>
       <c r="G52" s="39" t="n">
-        <v>7.2</v>
+        <v>2.6</v>
       </c>
       <c r="H52" s="39" t="n">
-        <v>3.3</v>
+        <v>27.3</v>
       </c>
       <c r="I52" s="39" t="n">
-        <v>9</v>
+        <v>46.2</v>
       </c>
       <c r="J52" s="39" t="n">
-        <v>55.4</v>
+        <v>68.2</v>
       </c>
       <c r="K52" s="39" t="n">
-        <v>78.3</v>
+        <v>60</v>
       </c>
       <c r="L52" s="39" t="n">
-        <v>89.09999999999999</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="M52" s="39" t="n">
-        <v>65</v>
+        <v>58.2</v>
       </c>
       <c r="N52" s="39" t="n">
-        <v>33.9</v>
+        <v>30.7</v>
       </c>
       <c r="O52" s="39" t="n">
-        <v>33.9</v>
+        <v>55.8</v>
       </c>
       <c r="P52" s="39" t="n">
-        <v>28.9</v>
+        <v>55.8</v>
       </c>
       <c r="Q52" s="39" t="n">
-        <v>82.09999999999999</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="R52" s="39" t="n">
-        <v>95.59999999999999</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="S52" s="39" t="n">
         <v>97.09999999999999</v>
       </c>
       <c r="T52" s="39" t="n">
-        <v>98.09999999999999</v>
+        <v>64.8</v>
       </c>
       <c r="U52" s="39" t="n">
-        <v>98.40000000000001</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="V52" s="39" t="n">
-        <v>32.6</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="W52" s="39" t="n">
-        <v>54.8</v>
+        <v>35.3</v>
       </c>
       <c r="X52" s="39" t="n">
-        <v>62</v>
+        <v>58.8</v>
       </c>
       <c r="Y52" s="39" t="inlineStr">
         <is>
-          <t>港股创新药ETF</t>
+          <t>长江保护主题ETF</t>
         </is>
       </c>
     </row>
@@ -16248,80 +16248,82 @@
       <c r="A53" s="39" t="n">
         <v>51</v>
       </c>
-      <c r="B53" s="39" t="n">
-        <v>159928</v>
+      <c r="B53" s="39" t="inlineStr">
+        <is>
+          <t>159509</t>
+        </is>
       </c>
       <c r="C53" s="39" t="inlineStr">
         <is>
-          <t>消费ETF</t>
+          <t>纳指科技ETF</t>
         </is>
       </c>
       <c r="D53" s="39" t="n">
-        <v>152.99</v>
+        <v>88.17</v>
       </c>
       <c r="E53" s="39" t="n">
-        <v>36.7</v>
+        <v>64.8</v>
       </c>
       <c r="F53" s="39" t="n">
-        <v>80.8</v>
+        <v>27</v>
       </c>
       <c r="G53" s="39" t="n">
-        <v>18.8</v>
+        <v>5.3</v>
       </c>
       <c r="H53" s="39" t="n">
-        <v>70.7</v>
+        <v>27.4</v>
       </c>
       <c r="I53" s="39" t="n">
-        <v>80.59999999999999</v>
+        <v>24.8</v>
       </c>
       <c r="J53" s="39" t="n">
-        <v>81.59999999999999</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="K53" s="39" t="n">
-        <v>41.6</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="L53" s="39" t="n">
-        <v>29</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="M53" s="39" t="n">
-        <v>38.4</v>
+        <v>52.2</v>
       </c>
       <c r="N53" s="39" t="n">
-        <v>65.59999999999999</v>
+        <v>23.6</v>
       </c>
       <c r="O53" s="39" t="n">
-        <v>84.2</v>
+        <v>40</v>
       </c>
       <c r="P53" s="39" t="n">
-        <v>32.1</v>
+        <v>24.4</v>
       </c>
       <c r="Q53" s="39" t="n">
-        <v>15.8</v>
+        <v>17.8</v>
       </c>
       <c r="R53" s="39" t="n">
-        <v>40.1</v>
+        <v>23.7</v>
       </c>
       <c r="S53" s="39" t="n">
-        <v>14.7</v>
+        <v>90.7</v>
       </c>
       <c r="T53" s="39" t="n">
-        <v>12.1</v>
+        <v>47.9</v>
       </c>
       <c r="U53" s="39" t="n">
-        <v>7.1</v>
+        <v>81.3</v>
       </c>
       <c r="V53" s="39" t="n">
-        <v>3.2</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="W53" s="39" t="n">
-        <v>1.8</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="X53" s="39" t="n">
-        <v>63.6</v>
+        <v>60.9</v>
       </c>
       <c r="Y53" s="39" t="inlineStr">
         <is>
-          <t>消费ETF</t>
+          <t>纳指科技ETF</t>
         </is>
       </c>
     </row>
@@ -16330,79 +16332,79 @@
         <v>52</v>
       </c>
       <c r="B54" s="39" t="n">
-        <v>516160</v>
+        <v>512880</v>
       </c>
       <c r="C54" s="39" t="inlineStr">
         <is>
-          <t>新能源ETF</t>
+          <t>证券ETF</t>
         </is>
       </c>
       <c r="D54" s="39" t="n">
-        <v>44.01</v>
+        <v>278.96</v>
       </c>
       <c r="E54" s="39" t="n">
-        <v>20.5</v>
+        <v>43.1</v>
       </c>
       <c r="F54" s="39" t="n">
-        <v>5.6</v>
+        <v>43.1</v>
       </c>
       <c r="G54" s="39" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H54" s="39" t="n">
-        <v>0.5</v>
+        <v>20.9</v>
       </c>
       <c r="I54" s="39" t="n">
-        <v>5.8</v>
+        <v>50.6</v>
       </c>
       <c r="J54" s="39" t="n">
-        <v>57.4</v>
+        <v>66.3</v>
       </c>
       <c r="K54" s="39" t="n">
-        <v>68.5</v>
+        <v>71.8</v>
       </c>
       <c r="L54" s="39" t="n">
-        <v>80.5</v>
+        <v>71.8</v>
       </c>
       <c r="M54" s="39" t="n">
-        <v>76.09999999999999</v>
+        <v>39.5</v>
       </c>
       <c r="N54" s="39" t="n">
-        <v>26.3</v>
+        <v>29.1</v>
       </c>
       <c r="O54" s="39" t="n">
-        <v>21.4</v>
+        <v>29.1</v>
       </c>
       <c r="P54" s="39" t="n">
-        <v>51.6</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="Q54" s="39" t="n">
-        <v>87.2</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="R54" s="39" t="n">
-        <v>61.9</v>
+        <v>67.7</v>
       </c>
       <c r="S54" s="39" t="n">
-        <v>82.40000000000001</v>
+        <v>74.7</v>
       </c>
       <c r="T54" s="39" t="n">
-        <v>50.1</v>
+        <v>27.3</v>
       </c>
       <c r="U54" s="39" t="n">
-        <v>77.09999999999999</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="V54" s="39" t="n">
-        <v>52.1</v>
+        <v>35</v>
       </c>
       <c r="W54" s="39" t="n">
-        <v>22.7</v>
+        <v>24.6</v>
       </c>
       <c r="X54" s="39" t="n">
-        <v>63.7</v>
+        <v>62.2</v>
       </c>
       <c r="Y54" s="39" t="inlineStr">
         <is>
-          <t>新能源ETF</t>
+          <t>证券ETF</t>
         </is>
       </c>
     </row>
@@ -16410,82 +16412,80 @@
       <c r="A55" s="39" t="n">
         <v>53</v>
       </c>
-      <c r="B55" s="39" t="inlineStr">
-        <is>
-          <t>159509</t>
-        </is>
+      <c r="B55" s="39" t="n">
+        <v>159866</v>
       </c>
       <c r="C55" s="39" t="inlineStr">
         <is>
-          <t>纳指科技ETF</t>
+          <t>日经ETF</t>
         </is>
       </c>
       <c r="D55" s="39" t="n">
-        <v>88.3</v>
+        <v>6.62</v>
       </c>
       <c r="E55" s="39" t="n">
-        <v>64.8</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="F55" s="39" t="n">
-        <v>27</v>
+        <v>20.7</v>
       </c>
       <c r="G55" s="39" t="n">
-        <v>5.3</v>
+        <v>3.6</v>
       </c>
       <c r="H55" s="39" t="n">
-        <v>27.4</v>
+        <v>47.4</v>
       </c>
       <c r="I55" s="39" t="n">
-        <v>24.8</v>
+        <v>37.6</v>
       </c>
       <c r="J55" s="39" t="n">
-        <v>85.09999999999999</v>
+        <v>77</v>
       </c>
       <c r="K55" s="39" t="n">
-        <v>71.40000000000001</v>
+        <v>60.9</v>
       </c>
       <c r="L55" s="39" t="n">
-        <v>83.90000000000001</v>
+        <v>76.7</v>
       </c>
       <c r="M55" s="39" t="n">
-        <v>52.2</v>
+        <v>76.7</v>
       </c>
       <c r="N55" s="39" t="n">
-        <v>23.6</v>
+        <v>52.5</v>
       </c>
       <c r="O55" s="39" t="n">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="P55" s="39" t="n">
-        <v>24.4</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="Q55" s="39" t="n">
-        <v>17.8</v>
+        <v>52.9</v>
       </c>
       <c r="R55" s="39" t="n">
-        <v>23.7</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="S55" s="39" t="n">
-        <v>90.7</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="T55" s="39" t="n">
-        <v>47.9</v>
+        <v>48.5</v>
       </c>
       <c r="U55" s="39" t="n">
-        <v>81.3</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="V55" s="39" t="n">
-        <v>83.40000000000001</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="W55" s="39" t="n">
-        <v>76.40000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="X55" s="39" t="n">
-        <v>65.3</v>
+        <v>62.6</v>
       </c>
       <c r="Y55" s="39" t="inlineStr">
         <is>
-          <t>纳指科技ETF</t>
+          <t>日经ETF</t>
         </is>
       </c>
     </row>
@@ -16494,79 +16494,79 @@
         <v>54</v>
       </c>
       <c r="B56" s="39" t="n">
-        <v>513090</v>
+        <v>159928</v>
       </c>
       <c r="C56" s="39" t="inlineStr">
         <is>
-          <t>香港证券ETF</t>
+          <t>消费ETF</t>
         </is>
       </c>
       <c r="D56" s="39" t="n">
-        <v>71.18000000000001</v>
+        <v>152.99</v>
       </c>
       <c r="E56" s="39" t="n">
-        <v>57.7</v>
+        <v>36.7</v>
       </c>
       <c r="F56" s="39" t="n">
-        <v>30.1</v>
+        <v>80.8</v>
       </c>
       <c r="G56" s="39" t="n">
-        <v>2.9</v>
+        <v>18.8</v>
       </c>
       <c r="H56" s="39" t="n">
-        <v>1.6</v>
+        <v>70.7</v>
       </c>
       <c r="I56" s="39" t="n">
-        <v>24.6</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="J56" s="39" t="n">
-        <v>58.1</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K56" s="39" t="n">
-        <v>75.90000000000001</v>
+        <v>41.6</v>
       </c>
       <c r="L56" s="39" t="n">
-        <v>85.09999999999999</v>
+        <v>29</v>
       </c>
       <c r="M56" s="39" t="n">
-        <v>80.2</v>
+        <v>38.4</v>
       </c>
       <c r="N56" s="39" t="n">
-        <v>33.6</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="O56" s="39" t="n">
-        <v>44.4</v>
+        <v>84.2</v>
       </c>
       <c r="P56" s="39" t="n">
-        <v>48.5</v>
+        <v>32.1</v>
       </c>
       <c r="Q56" s="39" t="n">
-        <v>72.90000000000001</v>
+        <v>15.8</v>
       </c>
       <c r="R56" s="39" t="n">
-        <v>91.09999999999999</v>
+        <v>40.1</v>
       </c>
       <c r="S56" s="39" t="n">
-        <v>96.7</v>
+        <v>14.7</v>
       </c>
       <c r="T56" s="39" t="n">
-        <v>40.2</v>
+        <v>12.1</v>
       </c>
       <c r="U56" s="39" t="n">
-        <v>76.59999999999999</v>
+        <v>7.1</v>
       </c>
       <c r="V56" s="39" t="n">
-        <v>52.6</v>
+        <v>3.2</v>
       </c>
       <c r="W56" s="39" t="n">
-        <v>35.4</v>
+        <v>1.8</v>
       </c>
       <c r="X56" s="39" t="n">
-        <v>66.59999999999999</v>
+        <v>63.6</v>
       </c>
       <c r="Y56" s="39" t="inlineStr">
         <is>
-          <t>香港证券ETF</t>
+          <t>消费ETF</t>
         </is>
       </c>
     </row>
@@ -16575,79 +16575,79 @@
         <v>55</v>
       </c>
       <c r="B57" s="39" t="n">
-        <v>512880</v>
+        <v>513120</v>
       </c>
       <c r="C57" s="39" t="inlineStr">
         <is>
-          <t>证券ETF</t>
+          <t>港股创新药ETF</t>
         </is>
       </c>
       <c r="D57" s="39" t="n">
-        <v>279.76</v>
+        <v>109.72</v>
       </c>
       <c r="E57" s="39" t="n">
-        <v>43.1</v>
+        <v>67.5</v>
       </c>
       <c r="F57" s="39" t="n">
-        <v>43.1</v>
+        <v>39.9</v>
       </c>
       <c r="G57" s="39" t="n">
-        <v>1.1</v>
+        <v>7.2</v>
       </c>
       <c r="H57" s="39" t="n">
-        <v>20.9</v>
+        <v>3.3</v>
       </c>
       <c r="I57" s="39" t="n">
-        <v>50.6</v>
+        <v>9</v>
       </c>
       <c r="J57" s="39" t="n">
-        <v>66.3</v>
+        <v>55.4</v>
       </c>
       <c r="K57" s="39" t="n">
-        <v>71.8</v>
+        <v>78.3</v>
       </c>
       <c r="L57" s="39" t="n">
-        <v>71.8</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="M57" s="39" t="n">
-        <v>39.5</v>
+        <v>65</v>
       </c>
       <c r="N57" s="39" t="n">
-        <v>29.1</v>
+        <v>33.9</v>
       </c>
       <c r="O57" s="39" t="n">
-        <v>29.1</v>
+        <v>33.9</v>
       </c>
       <c r="P57" s="39" t="n">
-        <v>84.90000000000001</v>
+        <v>28.9</v>
       </c>
       <c r="Q57" s="39" t="n">
-        <v>93.59999999999999</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="R57" s="39" t="n">
-        <v>67.7</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="S57" s="39" t="n">
-        <v>74.7</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="T57" s="39" t="n">
-        <v>27.3</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="U57" s="39" t="n">
-        <v>81.09999999999999</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="V57" s="39" t="n">
-        <v>35</v>
+        <v>32.6</v>
       </c>
       <c r="W57" s="39" t="n">
-        <v>24.6</v>
+        <v>54.8</v>
       </c>
       <c r="X57" s="39" t="n">
-        <v>68.5</v>
+        <v>64.8</v>
       </c>
       <c r="Y57" s="39" t="inlineStr">
         <is>
-          <t>证券ETF</t>
+          <t>港股创新药ETF</t>
         </is>
       </c>
     </row>
@@ -16656,79 +16656,79 @@
         <v>56</v>
       </c>
       <c r="B58" s="39" t="n">
-        <v>513050</v>
+        <v>515790</v>
       </c>
       <c r="C58" s="39" t="inlineStr">
         <is>
-          <t>中概互联网ETF</t>
+          <t>光伏ETF</t>
         </is>
       </c>
       <c r="D58" s="39" t="n">
-        <v>343.84</v>
+        <v>88.64</v>
       </c>
       <c r="E58" s="39" t="n">
-        <v>31.8</v>
+        <v>34.8</v>
       </c>
       <c r="F58" s="39" t="n">
-        <v>8.800000000000001</v>
+        <v>11.1</v>
       </c>
       <c r="G58" s="39" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H58" s="39" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="I58" s="39" t="n">
-        <v>8.300000000000001</v>
+        <v>17.1</v>
       </c>
       <c r="J58" s="39" t="n">
-        <v>56.6</v>
+        <v>60.5</v>
       </c>
       <c r="K58" s="39" t="n">
-        <v>45</v>
+        <v>64.8</v>
       </c>
       <c r="L58" s="39" t="n">
-        <v>68.09999999999999</v>
+        <v>75.5</v>
       </c>
       <c r="M58" s="39" t="n">
-        <v>79.09999999999999</v>
+        <v>51.8</v>
       </c>
       <c r="N58" s="39" t="n">
-        <v>23.7</v>
+        <v>23</v>
       </c>
       <c r="O58" s="39" t="n">
-        <v>56.2</v>
+        <v>19.4</v>
       </c>
       <c r="P58" s="39" t="n">
-        <v>39.4</v>
+        <v>11.9</v>
       </c>
       <c r="Q58" s="39" t="n">
-        <v>60.4</v>
+        <v>59.1</v>
       </c>
       <c r="R58" s="39" t="n">
-        <v>79.7</v>
+        <v>34.5</v>
       </c>
       <c r="S58" s="39" t="n">
-        <v>96.3</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="T58" s="39" t="n">
-        <v>52.1</v>
+        <v>19.7</v>
       </c>
       <c r="U58" s="39" t="n">
-        <v>75.5</v>
+        <v>56</v>
       </c>
       <c r="V58" s="39" t="n">
-        <v>77.09999999999999</v>
+        <v>56</v>
       </c>
       <c r="W58" s="39" t="n">
-        <v>44.3</v>
+        <v>29.4</v>
       </c>
       <c r="X58" s="39" t="n">
-        <v>73.3</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="Y58" s="39" t="inlineStr">
         <is>
-          <t>中概互联网ETF</t>
+          <t>光伏ETF</t>
         </is>
       </c>
     </row>
@@ -16737,79 +16737,79 @@
         <v>57</v>
       </c>
       <c r="B59" s="39" t="n">
-        <v>512660</v>
+        <v>513050</v>
       </c>
       <c r="C59" s="39" t="inlineStr">
         <is>
-          <t>军工ETF</t>
+          <t>中概互联网ETF</t>
         </is>
       </c>
       <c r="D59" s="39" t="n">
-        <v>128.5</v>
+        <v>343.59</v>
       </c>
       <c r="E59" s="39" t="n">
-        <v>27.6</v>
+        <v>31.8</v>
       </c>
       <c r="F59" s="39" t="n">
-        <v>22.3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G59" s="39" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H59" s="39" t="n">
-        <v>28.6</v>
+        <v>0.9</v>
       </c>
       <c r="I59" s="39" t="n">
-        <v>71.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J59" s="39" t="n">
-        <v>77.40000000000001</v>
+        <v>56.6</v>
       </c>
       <c r="K59" s="39" t="n">
-        <v>83.90000000000001</v>
+        <v>45</v>
       </c>
       <c r="L59" s="39" t="n">
-        <v>85.40000000000001</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="M59" s="39" t="n">
-        <v>31.7</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="N59" s="39" t="n">
-        <v>23.5</v>
+        <v>23.7</v>
       </c>
       <c r="O59" s="39" t="n">
-        <v>30.6</v>
+        <v>56.2</v>
       </c>
       <c r="P59" s="39" t="n">
-        <v>14.4</v>
+        <v>39.4</v>
       </c>
       <c r="Q59" s="39" t="n">
-        <v>78.59999999999999</v>
+        <v>60.4</v>
       </c>
       <c r="R59" s="39" t="n">
-        <v>51.4</v>
+        <v>79.7</v>
       </c>
       <c r="S59" s="39" t="n">
-        <v>46.1</v>
+        <v>96.3</v>
       </c>
       <c r="T59" s="39" t="n">
-        <v>15</v>
+        <v>52.1</v>
       </c>
       <c r="U59" s="39" t="n">
-        <v>39.5</v>
+        <v>75.5</v>
       </c>
       <c r="V59" s="39" t="n">
-        <v>16.8</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="W59" s="39" t="n">
-        <v>16.8</v>
+        <v>44.3</v>
       </c>
       <c r="X59" s="39" t="n">
-        <v>74.8</v>
+        <v>72.2</v>
       </c>
       <c r="Y59" s="39" t="inlineStr">
         <is>
-          <t>军工ETF</t>
+          <t>中概互联网ETF</t>
         </is>
       </c>
     </row>
@@ -16818,79 +16818,79 @@
         <v>58</v>
       </c>
       <c r="B60" s="39" t="n">
-        <v>516110</v>
+        <v>159870</v>
       </c>
       <c r="C60" s="39" t="inlineStr">
         <is>
-          <t>汽车ETF</t>
+          <t>化工ETF</t>
         </is>
       </c>
       <c r="D60" s="39" t="n">
-        <v>4.21</v>
+        <v>14.25</v>
       </c>
       <c r="E60" s="39" t="n">
-        <v>11.2</v>
+        <v>48.5</v>
       </c>
       <c r="F60" s="39" t="n">
-        <v>2.6</v>
+        <v>13.8</v>
       </c>
       <c r="G60" s="39" t="n">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="H60" s="39" t="n">
-        <v>5.5</v>
+        <v>31.5</v>
       </c>
       <c r="I60" s="39" t="n">
-        <v>26.9</v>
+        <v>34.4</v>
       </c>
       <c r="J60" s="39" t="n">
-        <v>71</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="K60" s="39" t="n">
-        <v>85.3</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="L60" s="39" t="n">
-        <v>89.7</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="M60" s="39" t="n">
-        <v>70.3</v>
+        <v>33.5</v>
       </c>
       <c r="N60" s="39" t="n">
-        <v>42.6</v>
+        <v>15.9</v>
       </c>
       <c r="O60" s="39" t="n">
-        <v>18.4</v>
+        <v>30.5</v>
       </c>
       <c r="P60" s="39" t="n">
-        <v>29.1</v>
+        <v>30.5</v>
       </c>
       <c r="Q60" s="39" t="n">
-        <v>79</v>
+        <v>84.5</v>
       </c>
       <c r="R60" s="39" t="n">
-        <v>64</v>
+        <v>88.2</v>
       </c>
       <c r="S60" s="39" t="n">
-        <v>93</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="T60" s="39" t="n">
-        <v>60.5</v>
+        <v>72.3</v>
       </c>
       <c r="U60" s="39" t="n">
-        <v>75.90000000000001</v>
+        <v>92</v>
       </c>
       <c r="V60" s="39" t="n">
-        <v>31.6</v>
+        <v>38</v>
       </c>
       <c r="W60" s="39" t="n">
-        <v>29.7</v>
+        <v>49.8</v>
       </c>
       <c r="X60" s="39" t="n">
-        <v>75.09999999999999</v>
+        <v>76.5</v>
       </c>
       <c r="Y60" s="39" t="inlineStr">
         <is>
-          <t>汽车ETF</t>
+          <t>化工ETF</t>
         </is>
       </c>
     </row>
@@ -16899,79 +16899,79 @@
         <v>59</v>
       </c>
       <c r="B61" s="39" t="n">
-        <v>159883</v>
+        <v>512660</v>
       </c>
       <c r="C61" s="39" t="inlineStr">
         <is>
-          <t>医疗器械ETF</t>
+          <t>军工ETF</t>
         </is>
       </c>
       <c r="D61" s="39" t="n">
-        <v>16.33</v>
+        <v>128.63</v>
       </c>
       <c r="E61" s="39" t="n">
-        <v>65.5</v>
+        <v>27.6</v>
       </c>
       <c r="F61" s="39" t="n">
-        <v>33.3</v>
+        <v>22.3</v>
       </c>
       <c r="G61" s="39" t="n">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="H61" s="39" t="n">
-        <v>31.1</v>
+        <v>28.6</v>
       </c>
       <c r="I61" s="39" t="n">
-        <v>43.1</v>
+        <v>71.8</v>
       </c>
       <c r="J61" s="39" t="n">
-        <v>66.40000000000001</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="K61" s="39" t="n">
-        <v>69.59999999999999</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="L61" s="39" t="n">
-        <v>77.8</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="M61" s="39" t="n">
-        <v>77.8</v>
+        <v>31.7</v>
       </c>
       <c r="N61" s="39" t="n">
-        <v>18.3</v>
+        <v>23.5</v>
       </c>
       <c r="O61" s="39" t="n">
-        <v>45.9</v>
+        <v>30.6</v>
       </c>
       <c r="P61" s="39" t="n">
-        <v>19.5</v>
+        <v>14.4</v>
       </c>
       <c r="Q61" s="39" t="n">
-        <v>70.5</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="R61" s="39" t="n">
-        <v>75.59999999999999</v>
+        <v>51.4</v>
       </c>
       <c r="S61" s="39" t="n">
-        <v>56.1</v>
+        <v>46.1</v>
       </c>
       <c r="T61" s="39" t="n">
-        <v>18.3</v>
+        <v>15</v>
       </c>
       <c r="U61" s="39" t="n">
-        <v>13.7</v>
+        <v>39.5</v>
       </c>
       <c r="V61" s="39" t="n">
-        <v>3.9</v>
+        <v>16.8</v>
       </c>
       <c r="W61" s="39" t="n">
-        <v>38.9</v>
+        <v>16.8</v>
       </c>
       <c r="X61" s="39" t="n">
-        <v>75.09999999999999</v>
+        <v>77</v>
       </c>
       <c r="Y61" s="39" t="inlineStr">
         <is>
-          <t>医疗器械ETF</t>
+          <t>军工ETF</t>
         </is>
       </c>
     </row>
@@ -16980,79 +16980,79 @@
         <v>60</v>
       </c>
       <c r="B62" s="39" t="n">
-        <v>159870</v>
+        <v>516110</v>
       </c>
       <c r="C62" s="39" t="inlineStr">
         <is>
-          <t>化工ETF</t>
+          <t>汽车ETF</t>
         </is>
       </c>
       <c r="D62" s="39" t="n">
-        <v>14.25</v>
+        <v>4.22</v>
       </c>
       <c r="E62" s="39" t="n">
-        <v>48.5</v>
+        <v>11.2</v>
       </c>
       <c r="F62" s="39" t="n">
-        <v>13.8</v>
+        <v>2.6</v>
       </c>
       <c r="G62" s="39" t="n">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="H62" s="39" t="n">
-        <v>31.5</v>
+        <v>5.5</v>
       </c>
       <c r="I62" s="39" t="n">
-        <v>34.4</v>
+        <v>26.9</v>
       </c>
       <c r="J62" s="39" t="n">
-        <v>64.40000000000001</v>
+        <v>71</v>
       </c>
       <c r="K62" s="39" t="n">
-        <v>67.40000000000001</v>
+        <v>85.3</v>
       </c>
       <c r="L62" s="39" t="n">
-        <v>75.59999999999999</v>
+        <v>89.7</v>
       </c>
       <c r="M62" s="39" t="n">
-        <v>33.5</v>
+        <v>70.3</v>
       </c>
       <c r="N62" s="39" t="n">
-        <v>15.9</v>
+        <v>42.6</v>
       </c>
       <c r="O62" s="39" t="n">
-        <v>30.5</v>
+        <v>18.4</v>
       </c>
       <c r="P62" s="39" t="n">
-        <v>30.5</v>
+        <v>29.1</v>
       </c>
       <c r="Q62" s="39" t="n">
-        <v>84.5</v>
+        <v>79</v>
       </c>
       <c r="R62" s="39" t="n">
-        <v>88.2</v>
+        <v>64</v>
       </c>
       <c r="S62" s="39" t="n">
-        <v>95.90000000000001</v>
+        <v>93</v>
       </c>
       <c r="T62" s="39" t="n">
-        <v>72.3</v>
+        <v>60.5</v>
       </c>
       <c r="U62" s="39" t="n">
-        <v>92</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="V62" s="39" t="n">
-        <v>38</v>
+        <v>31.6</v>
       </c>
       <c r="W62" s="39" t="n">
-        <v>49.8</v>
+        <v>29.7</v>
       </c>
       <c r="X62" s="39" t="n">
-        <v>76.5</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="Y62" s="39" t="inlineStr">
         <is>
-          <t>化工ETF</t>
+          <t>汽车ETF</t>
         </is>
       </c>
     </row>
@@ -17069,7 +17069,7 @@
         </is>
       </c>
       <c r="D63" s="39" t="n">
-        <v>851.3</v>
+        <v>850.86</v>
       </c>
       <c r="E63" s="39" t="n">
         <v>19.6</v>
@@ -17129,7 +17129,7 @@
         <v>29.9</v>
       </c>
       <c r="X63" s="39" t="n">
-        <v>78.40000000000001</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="Y63" s="39" t="inlineStr">
         <is>
@@ -17141,80 +17141,82 @@
       <c r="A64" s="39" t="n">
         <v>62</v>
       </c>
-      <c r="B64" s="39" t="n">
-        <v>515790</v>
+      <c r="B64" s="39" t="inlineStr">
+        <is>
+          <t>159949</t>
+        </is>
       </c>
       <c r="C64" s="39" t="inlineStr">
         <is>
-          <t>光伏ETF</t>
+          <t>创业板50ETF</t>
         </is>
       </c>
       <c r="D64" s="39" t="n">
-        <v>88.91</v>
+        <v>251.15</v>
       </c>
       <c r="E64" s="39" t="n">
-        <v>34.8</v>
+        <v>36.2</v>
       </c>
       <c r="F64" s="39" t="n">
-        <v>11.1</v>
+        <v>6.1</v>
       </c>
       <c r="G64" s="39" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H64" s="39" t="n">
-        <v>1.2</v>
+        <v>11.4</v>
       </c>
       <c r="I64" s="39" t="n">
-        <v>17.1</v>
+        <v>22.1</v>
       </c>
       <c r="J64" s="39" t="n">
-        <v>60.5</v>
+        <v>58.2</v>
       </c>
       <c r="K64" s="39" t="n">
-        <v>64.8</v>
+        <v>75</v>
       </c>
       <c r="L64" s="39" t="n">
-        <v>75.5</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="M64" s="39" t="n">
-        <v>51.8</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="N64" s="39" t="n">
-        <v>23</v>
+        <v>25.6</v>
       </c>
       <c r="O64" s="39" t="n">
-        <v>19.4</v>
+        <v>34.4</v>
       </c>
       <c r="P64" s="39" t="n">
-        <v>11.9</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="Q64" s="39" t="n">
-        <v>59.1</v>
+        <v>91.7</v>
       </c>
       <c r="R64" s="39" t="n">
-        <v>34.5</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="S64" s="39" t="n">
-        <v>70.90000000000001</v>
+        <v>92.2</v>
       </c>
       <c r="T64" s="39" t="n">
-        <v>19.7</v>
+        <v>50.7</v>
       </c>
       <c r="U64" s="39" t="n">
-        <v>56</v>
+        <v>75.7</v>
       </c>
       <c r="V64" s="39" t="n">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="W64" s="39" t="n">
-        <v>29.4</v>
+        <v>33.4</v>
       </c>
       <c r="X64" s="39" t="n">
-        <v>79.09999999999999</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="Y64" s="39" t="inlineStr">
         <is>
-          <t>光伏ETF</t>
+          <t>创业板50ETF</t>
         </is>
       </c>
     </row>
@@ -17222,82 +17224,80 @@
       <c r="A65" s="39" t="n">
         <v>63</v>
       </c>
-      <c r="B65" s="39" t="inlineStr">
-        <is>
-          <t>159949</t>
-        </is>
+      <c r="B65" s="39" t="n">
+        <v>159883</v>
       </c>
       <c r="C65" s="39" t="inlineStr">
         <is>
-          <t>创业板50ETF</t>
+          <t>医疗器械ETF</t>
         </is>
       </c>
       <c r="D65" s="39" t="n">
-        <v>251.44</v>
+        <v>16.36</v>
       </c>
       <c r="E65" s="39" t="n">
-        <v>36.2</v>
+        <v>65.5</v>
       </c>
       <c r="F65" s="39" t="n">
-        <v>6.1</v>
+        <v>33.3</v>
       </c>
       <c r="G65" s="39" t="n">
-        <v>0.6</v>
+        <v>3.1</v>
       </c>
       <c r="H65" s="39" t="n">
-        <v>11.4</v>
+        <v>31.1</v>
       </c>
       <c r="I65" s="39" t="n">
-        <v>22.1</v>
+        <v>43.1</v>
       </c>
       <c r="J65" s="39" t="n">
-        <v>58.2</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="K65" s="39" t="n">
-        <v>75</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="L65" s="39" t="n">
-        <v>78.90000000000001</v>
+        <v>77.8</v>
       </c>
       <c r="M65" s="39" t="n">
-        <v>78.90000000000001</v>
+        <v>77.8</v>
       </c>
       <c r="N65" s="39" t="n">
-        <v>25.6</v>
+        <v>18.3</v>
       </c>
       <c r="O65" s="39" t="n">
-        <v>34.4</v>
+        <v>45.9</v>
       </c>
       <c r="P65" s="39" t="n">
-        <v>70.09999999999999</v>
+        <v>19.5</v>
       </c>
       <c r="Q65" s="39" t="n">
-        <v>91.7</v>
+        <v>70.5</v>
       </c>
       <c r="R65" s="39" t="n">
-        <v>73.90000000000001</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="S65" s="39" t="n">
-        <v>92.2</v>
+        <v>56.1</v>
       </c>
       <c r="T65" s="39" t="n">
-        <v>50.7</v>
+        <v>18.3</v>
       </c>
       <c r="U65" s="39" t="n">
-        <v>75.7</v>
+        <v>13.7</v>
       </c>
       <c r="V65" s="39" t="n">
-        <v>43</v>
+        <v>3.9</v>
       </c>
       <c r="W65" s="39" t="n">
-        <v>33.4</v>
+        <v>38.9</v>
       </c>
       <c r="X65" s="39" t="n">
-        <v>79.40000000000001</v>
+        <v>78.3</v>
       </c>
       <c r="Y65" s="39" t="inlineStr">
         <is>
-          <t>创业板50ETF</t>
+          <t>医疗器械ETF</t>
         </is>
       </c>
     </row>
@@ -17306,79 +17306,79 @@
         <v>64</v>
       </c>
       <c r="B66" s="39" t="n">
-        <v>513500</v>
+        <v>512100</v>
       </c>
       <c r="C66" s="39" t="inlineStr">
         <is>
-          <t>标普500ETF</t>
+          <t>中证1000ETF</t>
         </is>
       </c>
       <c r="D66" s="39" t="n">
-        <v>177.64</v>
+        <v>632.86</v>
       </c>
       <c r="E66" s="39" t="n">
-        <v>45.7</v>
+        <v>64.2</v>
       </c>
       <c r="F66" s="39" t="n">
-        <v>13.7</v>
+        <v>17.3</v>
       </c>
       <c r="G66" s="39" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H66" s="39" t="n">
-        <v>39.8</v>
+        <v>1.2</v>
       </c>
       <c r="I66" s="39" t="n">
-        <v>24.8</v>
+        <v>35.1</v>
       </c>
       <c r="J66" s="39" t="n">
-        <v>77.2</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="K66" s="39" t="n">
-        <v>55.8</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="L66" s="39" t="n">
-        <v>68</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="M66" s="39" t="n">
-        <v>60.5</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="N66" s="39" t="n">
-        <v>35</v>
+        <v>30.5</v>
       </c>
       <c r="O66" s="39" t="n">
-        <v>27.9</v>
+        <v>33.1</v>
       </c>
       <c r="P66" s="39" t="n">
-        <v>20.6</v>
+        <v>25.6</v>
       </c>
       <c r="Q66" s="39" t="n">
-        <v>6.9</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="R66" s="39" t="n">
-        <v>5.9</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="S66" s="39" t="n">
-        <v>84.59999999999999</v>
+        <v>94.2</v>
       </c>
       <c r="T66" s="39" t="n">
-        <v>65.59999999999999</v>
+        <v>35.8</v>
       </c>
       <c r="U66" s="39" t="n">
-        <v>90</v>
+        <v>49.4</v>
       </c>
       <c r="V66" s="39" t="n">
-        <v>91.5</v>
+        <v>15.8</v>
       </c>
       <c r="W66" s="39" t="n">
-        <v>76.40000000000001</v>
+        <v>49.1</v>
       </c>
       <c r="X66" s="39" t="n">
-        <v>79.8</v>
+        <v>79.2</v>
       </c>
       <c r="Y66" s="39" t="inlineStr">
         <is>
-          <t>标普500ETF</t>
+          <t>中证1000ETF</t>
         </is>
       </c>
     </row>
@@ -17468,79 +17468,79 @@
         <v>66</v>
       </c>
       <c r="B68" s="39" t="n">
-        <v>512100</v>
+        <v>515050</v>
       </c>
       <c r="C68" s="39" t="inlineStr">
         <is>
-          <t>中证1000ETF</t>
+          <t>5G通信ETF</t>
         </is>
       </c>
       <c r="D68" s="39" t="n">
-        <v>633.4</v>
+        <v>60.64</v>
       </c>
       <c r="E68" s="39" t="n">
-        <v>64.2</v>
+        <v>59.4</v>
       </c>
       <c r="F68" s="39" t="n">
-        <v>17.3</v>
+        <v>4.9</v>
       </c>
       <c r="G68" s="39" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H68" s="39" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="I68" s="39" t="n">
-        <v>35.1</v>
+        <v>17.2</v>
       </c>
       <c r="J68" s="39" t="n">
-        <v>67.09999999999999</v>
+        <v>60.4</v>
       </c>
       <c r="K68" s="39" t="n">
-        <v>78.59999999999999</v>
+        <v>74.7</v>
       </c>
       <c r="L68" s="39" t="n">
-        <v>87.59999999999999</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="M68" s="39" t="n">
-        <v>70.40000000000001</v>
+        <v>44.5</v>
       </c>
       <c r="N68" s="39" t="n">
-        <v>30.5</v>
+        <v>19.1</v>
       </c>
       <c r="O68" s="39" t="n">
-        <v>33.1</v>
+        <v>18.1</v>
       </c>
       <c r="P68" s="39" t="n">
-        <v>25.6</v>
+        <v>64.3</v>
       </c>
       <c r="Q68" s="39" t="n">
-        <v>88.40000000000001</v>
+        <v>86.8</v>
       </c>
       <c r="R68" s="39" t="n">
-        <v>88.40000000000001</v>
+        <v>49.1</v>
       </c>
       <c r="S68" s="39" t="n">
-        <v>94.2</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="T68" s="39" t="n">
-        <v>35.8</v>
+        <v>42.8</v>
       </c>
       <c r="U68" s="39" t="n">
-        <v>49.4</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="V68" s="39" t="n">
-        <v>15.8</v>
+        <v>41.4</v>
       </c>
       <c r="W68" s="39" t="n">
-        <v>49.1</v>
+        <v>48.2</v>
       </c>
       <c r="X68" s="39" t="n">
-        <v>80.3</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="Y68" s="39" t="inlineStr">
         <is>
-          <t>中证1000ETF</t>
+          <t>5G通信ETF</t>
         </is>
       </c>
     </row>
@@ -17549,79 +17549,79 @@
         <v>67</v>
       </c>
       <c r="B69" s="39" t="n">
-        <v>515030</v>
+        <v>513500</v>
       </c>
       <c r="C69" s="39" t="inlineStr">
         <is>
-          <t>新能源车ETF</t>
+          <t>标普500ETF</t>
         </is>
       </c>
       <c r="D69" s="39" t="n">
-        <v>43.12</v>
+        <v>177.74</v>
       </c>
       <c r="E69" s="39" t="n">
-        <v>18.3</v>
+        <v>45.7</v>
       </c>
       <c r="F69" s="39" t="n">
-        <v>5</v>
+        <v>13.7</v>
       </c>
       <c r="G69" s="39" t="n">
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="H69" s="39" t="n">
-        <v>0.3</v>
+        <v>39.8</v>
       </c>
       <c r="I69" s="39" t="n">
-        <v>12.1</v>
+        <v>24.8</v>
       </c>
       <c r="J69" s="39" t="n">
-        <v>59</v>
+        <v>77.2</v>
       </c>
       <c r="K69" s="39" t="n">
-        <v>77.40000000000001</v>
+        <v>55.8</v>
       </c>
       <c r="L69" s="39" t="n">
-        <v>80.5</v>
+        <v>68</v>
       </c>
       <c r="M69" s="39" t="n">
-        <v>83.90000000000001</v>
+        <v>60.5</v>
       </c>
       <c r="N69" s="39" t="n">
-        <v>27.2</v>
+        <v>35</v>
       </c>
       <c r="O69" s="39" t="n">
-        <v>22.2</v>
+        <v>27.9</v>
       </c>
       <c r="P69" s="39" t="n">
-        <v>51.8</v>
+        <v>20.6</v>
       </c>
       <c r="Q69" s="39" t="n">
-        <v>89.3</v>
+        <v>6.9</v>
       </c>
       <c r="R69" s="39" t="n">
-        <v>66.7</v>
+        <v>5.9</v>
       </c>
       <c r="S69" s="39" t="n">
+        <v>84.59999999999999</v>
+      </c>
+      <c r="T69" s="39" t="n">
+        <v>65.59999999999999</v>
+      </c>
+      <c r="U69" s="39" t="n">
         <v>90</v>
       </c>
-      <c r="T69" s="39" t="n">
-        <v>69</v>
-      </c>
-      <c r="U69" s="39" t="n">
-        <v>80.09999999999999</v>
-      </c>
       <c r="V69" s="39" t="n">
-        <v>26.4</v>
+        <v>91.5</v>
       </c>
       <c r="W69" s="39" t="n">
-        <v>40.5</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="X69" s="39" t="n">
-        <v>80.40000000000001</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="Y69" s="39" t="inlineStr">
         <is>
-          <t>新能源车ETF</t>
+          <t>标普500ETF</t>
         </is>
       </c>
     </row>
@@ -17630,79 +17630,79 @@
         <v>68</v>
       </c>
       <c r="B70" s="39" t="n">
-        <v>513290</v>
+        <v>515030</v>
       </c>
       <c r="C70" s="39" t="inlineStr">
         <is>
-          <t>纳指生物科技ETF</t>
+          <t>新能源车ETF</t>
         </is>
       </c>
       <c r="D70" s="39" t="n">
-        <v>12.62</v>
+        <v>43.19</v>
       </c>
       <c r="E70" s="39" t="n">
-        <v>0.8</v>
+        <v>18.3</v>
       </c>
       <c r="F70" s="39" t="n">
-        <v>0.6</v>
+        <v>5</v>
       </c>
       <c r="G70" s="39" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="H70" s="39" t="n">
-        <v>44.4</v>
+        <v>0.3</v>
       </c>
       <c r="I70" s="39" t="n">
-        <v>23</v>
+        <v>12.1</v>
       </c>
       <c r="J70" s="39" t="n">
-        <v>64.5</v>
+        <v>59</v>
       </c>
       <c r="K70" s="39" t="n">
-        <v>40.9</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="L70" s="39" t="n">
-        <v>65.40000000000001</v>
+        <v>80.5</v>
       </c>
       <c r="M70" s="39" t="n">
-        <v>80.2</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="N70" s="39" t="n">
-        <v>57.5</v>
+        <v>27.2</v>
       </c>
       <c r="O70" s="39" t="n">
-        <v>48.4</v>
+        <v>22.2</v>
       </c>
       <c r="P70" s="39" t="n">
-        <v>44.8</v>
+        <v>51.8</v>
       </c>
       <c r="Q70" s="39" t="n">
-        <v>22.1</v>
+        <v>89.3</v>
       </c>
       <c r="R70" s="39" t="n">
-        <v>71.59999999999999</v>
+        <v>66.7</v>
       </c>
       <c r="S70" s="39" t="n">
-        <v>92.8</v>
+        <v>90</v>
       </c>
       <c r="T70" s="39" t="n">
-        <v>92.8</v>
+        <v>69</v>
       </c>
       <c r="U70" s="39" t="n">
-        <v>97.5</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="V70" s="39" t="n">
-        <v>54.1</v>
+        <v>26.4</v>
       </c>
       <c r="W70" s="39" t="n">
-        <v>75.7</v>
+        <v>40.5</v>
       </c>
       <c r="X70" s="39" t="n">
-        <v>80.7</v>
+        <v>81.2</v>
       </c>
       <c r="Y70" s="39" t="inlineStr">
         <is>
-          <t>纳指生物科技ETF</t>
+          <t>新能源车ETF</t>
         </is>
       </c>
     </row>
@@ -17711,79 +17711,79 @@
         <v>69</v>
       </c>
       <c r="B71" s="39" t="n">
-        <v>515050</v>
+        <v>513290</v>
       </c>
       <c r="C71" s="39" t="inlineStr">
         <is>
-          <t>5G通信ETF</t>
+          <t>纳指生物科技ETF</t>
         </is>
       </c>
       <c r="D71" s="39" t="n">
-        <v>60.77</v>
+        <v>12.63</v>
       </c>
       <c r="E71" s="39" t="n">
-        <v>59.4</v>
+        <v>0.8</v>
       </c>
       <c r="F71" s="39" t="n">
-        <v>4.9</v>
+        <v>0.6</v>
       </c>
       <c r="G71" s="39" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H71" s="39" t="n">
-        <v>0.5</v>
+        <v>44.4</v>
       </c>
       <c r="I71" s="39" t="n">
-        <v>17.2</v>
+        <v>23</v>
       </c>
       <c r="J71" s="39" t="n">
-        <v>60.4</v>
+        <v>64.5</v>
       </c>
       <c r="K71" s="39" t="n">
-        <v>74.7</v>
+        <v>40.9</v>
       </c>
       <c r="L71" s="39" t="n">
-        <v>78.40000000000001</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="M71" s="39" t="n">
-        <v>44.5</v>
+        <v>80.2</v>
       </c>
       <c r="N71" s="39" t="n">
-        <v>19.1</v>
+        <v>57.5</v>
       </c>
       <c r="O71" s="39" t="n">
-        <v>18.1</v>
+        <v>48.4</v>
       </c>
       <c r="P71" s="39" t="n">
-        <v>64.3</v>
+        <v>44.8</v>
       </c>
       <c r="Q71" s="39" t="n">
-        <v>86.8</v>
+        <v>22.1</v>
       </c>
       <c r="R71" s="39" t="n">
-        <v>49.1</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="S71" s="39" t="n">
-        <v>82.40000000000001</v>
+        <v>92.8</v>
       </c>
       <c r="T71" s="39" t="n">
-        <v>42.8</v>
+        <v>92.8</v>
       </c>
       <c r="U71" s="39" t="n">
-        <v>71.59999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="V71" s="39" t="n">
-        <v>41.4</v>
+        <v>54.1</v>
       </c>
       <c r="W71" s="39" t="n">
-        <v>48.2</v>
+        <v>75.7</v>
       </c>
       <c r="X71" s="39" t="n">
-        <v>81</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="Y71" s="39" t="inlineStr">
         <is>
-          <t>5G通信ETF</t>
+          <t>纳指生物科技ETF</t>
         </is>
       </c>
     </row>
@@ -17873,79 +17873,79 @@
         <v>71</v>
       </c>
       <c r="B73" s="39" t="n">
-        <v>510500</v>
+        <v>513180</v>
       </c>
       <c r="C73" s="39" t="inlineStr">
         <is>
-          <t>中证500ETF</t>
+          <t>恒生科技指数ETF</t>
         </is>
       </c>
       <c r="D73" s="39" t="n">
-        <v>1098.71</v>
+        <v>268.86</v>
       </c>
       <c r="E73" s="39" t="n">
-        <v>53.9</v>
+        <v>38.9</v>
       </c>
       <c r="F73" s="39" t="n">
-        <v>16.4</v>
+        <v>11</v>
       </c>
       <c r="G73" s="39" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H73" s="39" t="n">
-        <v>10.8</v>
+        <v>0.8</v>
       </c>
       <c r="I73" s="39" t="n">
-        <v>47.3</v>
+        <v>31.7</v>
       </c>
       <c r="J73" s="39" t="n">
-        <v>70.09999999999999</v>
+        <v>64</v>
       </c>
       <c r="K73" s="39" t="n">
-        <v>77.09999999999999</v>
+        <v>76.5</v>
       </c>
       <c r="L73" s="39" t="n">
-        <v>85.2</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="M73" s="39" t="n">
-        <v>62.2</v>
+        <v>64.3</v>
       </c>
       <c r="N73" s="39" t="n">
-        <v>29</v>
+        <v>19.4</v>
       </c>
       <c r="O73" s="39" t="n">
-        <v>33.4</v>
+        <v>45.9</v>
       </c>
       <c r="P73" s="39" t="n">
-        <v>38.4</v>
+        <v>31.2</v>
       </c>
       <c r="Q73" s="39" t="n">
-        <v>91.40000000000001</v>
+        <v>63.7</v>
       </c>
       <c r="R73" s="39" t="n">
-        <v>69.5</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="S73" s="39" t="n">
-        <v>77.5</v>
+        <v>94.8</v>
       </c>
       <c r="T73" s="39" t="n">
-        <v>37.1</v>
+        <v>45.4</v>
       </c>
       <c r="U73" s="39" t="n">
-        <v>63.5</v>
+        <v>65.8</v>
       </c>
       <c r="V73" s="39" t="n">
-        <v>26.9</v>
+        <v>60.1</v>
       </c>
       <c r="W73" s="39" t="n">
-        <v>35.5</v>
+        <v>51.4</v>
       </c>
       <c r="X73" s="39" t="n">
-        <v>82.8</v>
+        <v>82.3</v>
       </c>
       <c r="Y73" s="39" t="inlineStr">
         <is>
-          <t>中证500ETF</t>
+          <t>恒生科技指数ETF</t>
         </is>
       </c>
     </row>
@@ -17954,79 +17954,79 @@
         <v>72</v>
       </c>
       <c r="B74" s="39" t="n">
-        <v>159667</v>
+        <v>510500</v>
       </c>
       <c r="C74" s="39" t="inlineStr">
         <is>
-          <t>工业母机ETF</t>
+          <t>中证500ETF</t>
         </is>
       </c>
       <c r="D74" s="39" t="n">
-        <v>4.84</v>
+        <v>1098.32</v>
       </c>
       <c r="E74" s="39" t="n">
-        <v>61</v>
+        <v>53.9</v>
       </c>
       <c r="F74" s="39" t="n">
-        <v>15.6</v>
+        <v>16.4</v>
       </c>
       <c r="G74" s="39" t="n">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="H74" s="39" t="n">
-        <v>1.6</v>
+        <v>10.8</v>
       </c>
       <c r="I74" s="39" t="n">
-        <v>26.1</v>
+        <v>47.3</v>
       </c>
       <c r="J74" s="39" t="n">
-        <v>61.2</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="K74" s="39" t="n">
-        <v>74.5</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="L74" s="39" t="n">
-        <v>83.2</v>
+        <v>85.2</v>
       </c>
       <c r="M74" s="39" t="n">
-        <v>67.8</v>
+        <v>62.2</v>
       </c>
       <c r="N74" s="39" t="n">
-        <v>23.1</v>
+        <v>29</v>
       </c>
       <c r="O74" s="39" t="n">
-        <v>31.6</v>
+        <v>33.4</v>
       </c>
       <c r="P74" s="39" t="n">
-        <v>38.5</v>
+        <v>38.4</v>
       </c>
       <c r="Q74" s="39" t="n">
-        <v>90.40000000000001</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="R74" s="39" t="n">
-        <v>60.3</v>
+        <v>69.5</v>
       </c>
       <c r="S74" s="39" t="n">
-        <v>87.09999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="T74" s="39" t="n">
-        <v>68.59999999999999</v>
+        <v>37.1</v>
       </c>
       <c r="U74" s="39" t="n">
-        <v>75</v>
+        <v>63.5</v>
       </c>
       <c r="V74" s="39" t="n">
-        <v>23.7</v>
+        <v>26.9</v>
       </c>
       <c r="W74" s="39" t="n">
-        <v>60.7</v>
+        <v>35.5</v>
       </c>
       <c r="X74" s="39" t="n">
-        <v>83.09999999999999</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="Y74" s="39" t="inlineStr">
         <is>
-          <t>工业母机ETF</t>
+          <t>中证500ETF</t>
         </is>
       </c>
     </row>
@@ -18124,7 +18124,7 @@
         </is>
       </c>
       <c r="D76" s="39" t="n">
-        <v>238.93</v>
+        <v>238.49</v>
       </c>
       <c r="E76" s="39" t="n">
         <v>53.4</v>
@@ -18184,7 +18184,7 @@
         <v>79.90000000000001</v>
       </c>
       <c r="X76" s="39" t="n">
-        <v>85.7</v>
+        <v>84.2</v>
       </c>
       <c r="Y76" s="39" t="inlineStr">
         <is>
@@ -18197,79 +18197,79 @@
         <v>75</v>
       </c>
       <c r="B77" s="39" t="n">
-        <v>588000</v>
+        <v>159667</v>
       </c>
       <c r="C77" s="39" t="inlineStr">
         <is>
-          <t>科创50ETF</t>
+          <t>工业母机ETF</t>
         </is>
       </c>
       <c r="D77" s="39" t="n">
-        <v>775.8</v>
+        <v>4.86</v>
       </c>
       <c r="E77" s="39" t="n">
+        <v>61</v>
+      </c>
+      <c r="F77" s="39" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="G77" s="39" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H77" s="39" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I77" s="39" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J77" s="39" t="n">
+        <v>61.2</v>
+      </c>
+      <c r="K77" s="39" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="L77" s="39" t="n">
+        <v>83.2</v>
+      </c>
+      <c r="M77" s="39" t="n">
+        <v>67.8</v>
+      </c>
+      <c r="N77" s="39" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="O77" s="39" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="P77" s="39" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="Q77" s="39" t="n">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="R77" s="39" t="n">
+        <v>60.3</v>
+      </c>
+      <c r="S77" s="39" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="T77" s="39" t="n">
+        <v>68.59999999999999</v>
+      </c>
+      <c r="U77" s="39" t="n">
+        <v>75</v>
+      </c>
+      <c r="V77" s="39" t="n">
         <v>23.7</v>
       </c>
-      <c r="F77" s="39" t="n">
-        <v>9</v>
-      </c>
-      <c r="G77" s="39" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H77" s="39" t="n">
-        <v>24.1</v>
-      </c>
-      <c r="I77" s="39" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="J77" s="39" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="K77" s="39" t="n">
-        <v>85.8</v>
-      </c>
-      <c r="L77" s="39" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="M77" s="39" t="n">
-        <v>49</v>
-      </c>
-      <c r="N77" s="39" t="n">
-        <v>68.40000000000001</v>
-      </c>
-      <c r="O77" s="39" t="n">
-        <v>79.59999999999999</v>
-      </c>
-      <c r="P77" s="39" t="n">
-        <v>40</v>
-      </c>
-      <c r="Q77" s="39" t="n">
-        <v>76.59999999999999</v>
-      </c>
-      <c r="R77" s="39" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="S77" s="39" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="T77" s="39" t="n">
-        <v>11</v>
-      </c>
-      <c r="U77" s="39" t="n">
-        <v>29</v>
-      </c>
-      <c r="V77" s="39" t="n">
-        <v>18</v>
-      </c>
       <c r="W77" s="39" t="n">
-        <v>45.5</v>
+        <v>60.7</v>
       </c>
       <c r="X77" s="39" t="n">
-        <v>86.40000000000001</v>
+        <v>85.3</v>
       </c>
       <c r="Y77" s="39" t="inlineStr">
         <is>
-          <t>科创50ETF</t>
+          <t>工业母机ETF</t>
         </is>
       </c>
     </row>
@@ -18278,79 +18278,79 @@
         <v>76</v>
       </c>
       <c r="B78" s="39" t="n">
-        <v>513180</v>
+        <v>513330</v>
       </c>
       <c r="C78" s="39" t="inlineStr">
         <is>
-          <t>恒生科技指数ETF</t>
+          <t>恒生互联网ETF</t>
         </is>
       </c>
       <c r="D78" s="39" t="n">
-        <v>270.4</v>
+        <v>239.02</v>
       </c>
       <c r="E78" s="39" t="n">
-        <v>38.9</v>
+        <v>65.3</v>
       </c>
       <c r="F78" s="39" t="n">
-        <v>11</v>
+        <v>22.1</v>
       </c>
       <c r="G78" s="39" t="n">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="H78" s="39" t="n">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="I78" s="39" t="n">
-        <v>31.7</v>
+        <v>20.2</v>
       </c>
       <c r="J78" s="39" t="n">
-        <v>64</v>
+        <v>60.7</v>
       </c>
       <c r="K78" s="39" t="n">
-        <v>76.5</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="L78" s="39" t="n">
-        <v>83.59999999999999</v>
+        <v>81.8</v>
       </c>
       <c r="M78" s="39" t="n">
-        <v>64.3</v>
+        <v>84</v>
       </c>
       <c r="N78" s="39" t="n">
-        <v>19.4</v>
+        <v>18.4</v>
       </c>
       <c r="O78" s="39" t="n">
-        <v>45.9</v>
+        <v>42.4</v>
       </c>
       <c r="P78" s="39" t="n">
-        <v>31.2</v>
+        <v>29.4</v>
       </c>
       <c r="Q78" s="39" t="n">
-        <v>63.7</v>
+        <v>61.1</v>
       </c>
       <c r="R78" s="39" t="n">
-        <v>71.40000000000001</v>
+        <v>42.2</v>
       </c>
       <c r="S78" s="39" t="n">
-        <v>94.8</v>
+        <v>88.5</v>
       </c>
       <c r="T78" s="39" t="n">
-        <v>45.4</v>
+        <v>39.6</v>
       </c>
       <c r="U78" s="39" t="n">
-        <v>65.8</v>
+        <v>66</v>
       </c>
       <c r="V78" s="39" t="n">
-        <v>60.1</v>
+        <v>66</v>
       </c>
       <c r="W78" s="39" t="n">
-        <v>51.4</v>
+        <v>66</v>
       </c>
       <c r="X78" s="39" t="n">
-        <v>86.59999999999999</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="Y78" s="39" t="inlineStr">
         <is>
-          <t>恒生科技指数ETF</t>
+          <t>恒生互联网ETF</t>
         </is>
       </c>
     </row>
@@ -18359,79 +18359,79 @@
         <v>77</v>
       </c>
       <c r="B79" s="39" t="n">
-        <v>512170</v>
+        <v>588000</v>
       </c>
       <c r="C79" s="39" t="inlineStr">
         <is>
-          <t>医疗ETF</t>
+          <t>科创50ETF</t>
         </is>
       </c>
       <c r="D79" s="39" t="n">
-        <v>258.99</v>
+        <v>775.8</v>
       </c>
       <c r="E79" s="39" t="n">
-        <v>53.4</v>
+        <v>23.7</v>
       </c>
       <c r="F79" s="39" t="n">
-        <v>23.7</v>
+        <v>9</v>
       </c>
       <c r="G79" s="39" t="n">
-        <v>2.9</v>
+        <v>0.4</v>
       </c>
       <c r="H79" s="39" t="n">
-        <v>16.6</v>
+        <v>24.1</v>
       </c>
       <c r="I79" s="39" t="n">
-        <v>23.8</v>
+        <v>66.2</v>
       </c>
       <c r="J79" s="39" t="n">
-        <v>62.5</v>
+        <v>75.3</v>
       </c>
       <c r="K79" s="39" t="n">
-        <v>62.5</v>
+        <v>85.8</v>
       </c>
       <c r="L79" s="39" t="n">
-        <v>72</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="M79" s="39" t="n">
-        <v>35.8</v>
+        <v>49</v>
       </c>
       <c r="N79" s="39" t="n">
-        <v>11.9</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="O79" s="39" t="n">
-        <v>33.9</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="P79" s="39" t="n">
-        <v>22.6</v>
+        <v>40</v>
       </c>
       <c r="Q79" s="39" t="n">
-        <v>74.2</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="R79" s="39" t="n">
-        <v>74.2</v>
+        <v>53.1</v>
       </c>
       <c r="S79" s="39" t="n">
-        <v>74.2</v>
+        <v>36.3</v>
       </c>
       <c r="T79" s="39" t="n">
-        <v>74.2</v>
+        <v>11</v>
       </c>
       <c r="U79" s="39" t="n">
-        <v>94.3</v>
+        <v>29</v>
       </c>
       <c r="V79" s="39" t="n">
-        <v>16.6</v>
+        <v>18</v>
       </c>
       <c r="W79" s="39" t="n">
-        <v>73.90000000000001</v>
+        <v>45.5</v>
       </c>
       <c r="X79" s="39" t="n">
-        <v>87.2</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="Y79" s="39" t="inlineStr">
         <is>
-          <t>医疗ETF</t>
+          <t>科创50ETF</t>
         </is>
       </c>
     </row>
@@ -18439,82 +18439,80 @@
       <c r="A80" s="39" t="n">
         <v>78</v>
       </c>
-      <c r="B80" s="39" t="inlineStr">
-        <is>
-          <t>512010</t>
-        </is>
+      <c r="B80" s="39" t="n">
+        <v>512170</v>
       </c>
       <c r="C80" s="39" t="inlineStr">
         <is>
-          <t>医药ETF</t>
+          <t>医疗ETF</t>
         </is>
       </c>
       <c r="D80" s="39" t="n">
-        <v>222.91</v>
+        <v>258.99</v>
       </c>
       <c r="E80" s="39" t="n">
-        <v>51.5</v>
+        <v>53.4</v>
       </c>
       <c r="F80" s="39" t="n">
-        <v>34.8</v>
+        <v>23.7</v>
       </c>
       <c r="G80" s="39" t="n">
-        <v>5.6</v>
+        <v>2.9</v>
       </c>
       <c r="H80" s="39" t="n">
-        <v>17.2</v>
+        <v>16.6</v>
       </c>
       <c r="I80" s="39" t="n">
-        <v>15.3</v>
+        <v>23.8</v>
       </c>
       <c r="J80" s="39" t="n">
-        <v>59.5</v>
+        <v>62.5</v>
       </c>
       <c r="K80" s="39" t="n">
-        <v>66.5</v>
+        <v>62.5</v>
       </c>
       <c r="L80" s="39" t="n">
-        <v>75.09999999999999</v>
+        <v>72</v>
       </c>
       <c r="M80" s="39" t="n">
-        <v>29.6</v>
+        <v>35.8</v>
       </c>
       <c r="N80" s="39" t="n">
-        <v>49.8</v>
+        <v>11.9</v>
       </c>
       <c r="O80" s="39" t="n">
-        <v>49.8</v>
+        <v>33.9</v>
       </c>
       <c r="P80" s="39" t="n">
-        <v>23.2</v>
+        <v>22.6</v>
       </c>
       <c r="Q80" s="39" t="n">
-        <v>62.9</v>
+        <v>74.2</v>
       </c>
       <c r="R80" s="39" t="n">
-        <v>92.8</v>
+        <v>74.2</v>
       </c>
       <c r="S80" s="39" t="n">
-        <v>66.09999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="T80" s="39" t="n">
-        <v>78.5</v>
+        <v>74.2</v>
       </c>
       <c r="U80" s="39" t="n">
-        <v>45.4</v>
+        <v>94.3</v>
       </c>
       <c r="V80" s="39" t="n">
-        <v>16.9</v>
+        <v>16.6</v>
       </c>
       <c r="W80" s="39" t="n">
-        <v>48.9</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="X80" s="39" t="n">
-        <v>87.5</v>
+        <v>87.2</v>
       </c>
       <c r="Y80" s="39" t="inlineStr">
         <is>
-          <t>医药ETF</t>
+          <t>医疗ETF</t>
         </is>
       </c>
     </row>
@@ -18522,80 +18520,82 @@
       <c r="A81" s="39" t="n">
         <v>79</v>
       </c>
-      <c r="B81" s="39" t="n">
-        <v>562500</v>
+      <c r="B81" s="39" t="inlineStr">
+        <is>
+          <t>512010</t>
+        </is>
       </c>
       <c r="C81" s="39" t="inlineStr">
         <is>
-          <t>机器人ETF</t>
+          <t>医药ETF</t>
         </is>
       </c>
       <c r="D81" s="39" t="n">
-        <v>136.54</v>
+        <v>222.91</v>
       </c>
       <c r="E81" s="39" t="n">
-        <v>53.8</v>
+        <v>51.5</v>
       </c>
       <c r="F81" s="39" t="n">
-        <v>17.4</v>
+        <v>34.8</v>
       </c>
       <c r="G81" s="39" t="n">
-        <v>2.5</v>
+        <v>5.6</v>
       </c>
       <c r="H81" s="39" t="n">
-        <v>1.4</v>
+        <v>17.2</v>
       </c>
       <c r="I81" s="39" t="n">
-        <v>31</v>
+        <v>15.3</v>
       </c>
       <c r="J81" s="39" t="n">
-        <v>59.8</v>
+        <v>59.5</v>
       </c>
       <c r="K81" s="39" t="n">
-        <v>73.59999999999999</v>
+        <v>66.5</v>
       </c>
       <c r="L81" s="39" t="n">
-        <v>75.8</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="M81" s="39" t="n">
-        <v>53.4</v>
+        <v>29.6</v>
       </c>
       <c r="N81" s="39" t="n">
-        <v>25.9</v>
+        <v>49.8</v>
       </c>
       <c r="O81" s="39" t="n">
-        <v>19.3</v>
+        <v>49.8</v>
       </c>
       <c r="P81" s="39" t="n">
-        <v>19.3</v>
+        <v>23.2</v>
       </c>
       <c r="Q81" s="39" t="n">
-        <v>90.09999999999999</v>
+        <v>62.9</v>
       </c>
       <c r="R81" s="39" t="n">
-        <v>56.9</v>
+        <v>92.8</v>
       </c>
       <c r="S81" s="39" t="n">
-        <v>88.5</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="T81" s="39" t="n">
-        <v>58.7</v>
+        <v>78.5</v>
       </c>
       <c r="U81" s="39" t="n">
-        <v>68.2</v>
+        <v>45.4</v>
       </c>
       <c r="V81" s="39" t="n">
-        <v>28.6</v>
+        <v>16.9</v>
       </c>
       <c r="W81" s="39" t="n">
-        <v>67</v>
+        <v>48.9</v>
       </c>
       <c r="X81" s="39" t="n">
-        <v>87.8</v>
+        <v>87.5</v>
       </c>
       <c r="Y81" s="39" t="inlineStr">
         <is>
-          <t>机器人ETF</t>
+          <t>医药ETF</t>
         </is>
       </c>
     </row>
@@ -18604,79 +18604,79 @@
         <v>80</v>
       </c>
       <c r="B82" s="39" t="n">
-        <v>513330</v>
+        <v>159792</v>
       </c>
       <c r="C82" s="39" t="inlineStr">
         <is>
-          <t>恒生互联网ETF</t>
+          <t>港股通互联网ETF</t>
         </is>
       </c>
       <c r="D82" s="39" t="n">
-        <v>239.02</v>
+        <v>473.28</v>
       </c>
       <c r="E82" s="39" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="F82" s="39" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="G82" s="39" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H82" s="39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I82" s="39" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="J82" s="39" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="K82" s="39" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="L82" s="39" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="M82" s="39" t="n">
+        <v>64.09999999999999</v>
+      </c>
+      <c r="N82" s="39" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="O82" s="39" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="P82" s="39" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="Q82" s="39" t="n">
         <v>65.3</v>
       </c>
-      <c r="F82" s="39" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="G82" s="39" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="H82" s="39" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="I82" s="39" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="J82" s="39" t="n">
-        <v>60.7</v>
-      </c>
-      <c r="K82" s="39" t="n">
-        <v>69.59999999999999</v>
-      </c>
-      <c r="L82" s="39" t="n">
-        <v>81.8</v>
-      </c>
-      <c r="M82" s="39" t="n">
-        <v>84</v>
-      </c>
-      <c r="N82" s="39" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="O82" s="39" t="n">
-        <v>42.4</v>
-      </c>
-      <c r="P82" s="39" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="Q82" s="39" t="n">
-        <v>61.1</v>
-      </c>
       <c r="R82" s="39" t="n">
-        <v>42.2</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="S82" s="39" t="n">
+        <v>96.7</v>
+      </c>
+      <c r="T82" s="39" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="U82" s="39" t="n">
+        <v>71.2</v>
+      </c>
+      <c r="V82" s="39" t="n">
+        <v>77</v>
+      </c>
+      <c r="W82" s="39" t="n">
+        <v>50</v>
+      </c>
+      <c r="X82" s="39" t="n">
         <v>88.5</v>
       </c>
-      <c r="T82" s="39" t="n">
-        <v>39.6</v>
-      </c>
-      <c r="U82" s="39" t="n">
-        <v>66</v>
-      </c>
-      <c r="V82" s="39" t="n">
-        <v>66</v>
-      </c>
-      <c r="W82" s="39" t="n">
-        <v>66</v>
-      </c>
-      <c r="X82" s="39" t="n">
-        <v>88.59999999999999</v>
-      </c>
       <c r="Y82" s="39" t="inlineStr">
         <is>
-          <t>恒生互联网ETF</t>
+          <t>港股通互联网ETF</t>
         </is>
       </c>
     </row>
@@ -18685,79 +18685,79 @@
         <v>81</v>
       </c>
       <c r="B83" s="39" t="n">
-        <v>159792</v>
+        <v>562500</v>
       </c>
       <c r="C83" s="39" t="inlineStr">
         <is>
-          <t>港股通互联网ETF</t>
+          <t>机器人ETF</t>
         </is>
       </c>
       <c r="D83" s="39" t="n">
-        <v>474.43</v>
+        <v>137.19</v>
       </c>
       <c r="E83" s="39" t="n">
-        <v>22.9</v>
+        <v>53.8</v>
       </c>
       <c r="F83" s="39" t="n">
-        <v>9.1</v>
+        <v>17.4</v>
       </c>
       <c r="G83" s="39" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="H83" s="39" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="I83" s="39" t="n">
-        <v>35.1</v>
+        <v>31</v>
       </c>
       <c r="J83" s="39" t="n">
-        <v>66.90000000000001</v>
+        <v>59.8</v>
       </c>
       <c r="K83" s="39" t="n">
-        <v>72.5</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="L83" s="39" t="n">
-        <v>76.5</v>
+        <v>75.8</v>
       </c>
       <c r="M83" s="39" t="n">
-        <v>64.09999999999999</v>
+        <v>53.4</v>
       </c>
       <c r="N83" s="39" t="n">
-        <v>11.6</v>
+        <v>25.9</v>
       </c>
       <c r="O83" s="39" t="n">
-        <v>34.6</v>
+        <v>19.3</v>
       </c>
       <c r="P83" s="39" t="n">
-        <v>29.5</v>
+        <v>19.3</v>
       </c>
       <c r="Q83" s="39" t="n">
-        <v>65.3</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="R83" s="39" t="n">
-        <v>85.90000000000001</v>
+        <v>56.9</v>
       </c>
       <c r="S83" s="39" t="n">
-        <v>96.7</v>
+        <v>88.5</v>
       </c>
       <c r="T83" s="39" t="n">
-        <v>56.4</v>
+        <v>58.7</v>
       </c>
       <c r="U83" s="39" t="n">
-        <v>71.2</v>
+        <v>68.2</v>
       </c>
       <c r="V83" s="39" t="n">
-        <v>77</v>
+        <v>28.6</v>
       </c>
       <c r="W83" s="39" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="X83" s="39" t="n">
         <v>88.90000000000001</v>
       </c>
       <c r="Y83" s="39" t="inlineStr">
         <is>
-          <t>港股通互联网ETF</t>
+          <t>机器人ETF</t>
         </is>
       </c>
     </row>
@@ -18766,79 +18766,79 @@
         <v>82</v>
       </c>
       <c r="B84" s="39" t="n">
-        <v>515230</v>
+        <v>159732</v>
       </c>
       <c r="C84" s="39" t="inlineStr">
         <is>
-          <t>软件ETF</t>
+          <t>消费电子ETF</t>
         </is>
       </c>
       <c r="D84" s="39" t="n">
-        <v>13.15</v>
+        <v>15.57</v>
       </c>
       <c r="E84" s="39" t="n">
-        <v>42.2</v>
+        <v>27.4</v>
       </c>
       <c r="F84" s="39" t="n">
-        <v>28</v>
+        <v>1.5</v>
       </c>
       <c r="G84" s="39" t="n">
-        <v>1.4</v>
+        <v>0.3</v>
       </c>
       <c r="H84" s="39" t="n">
-        <v>1.3</v>
+        <v>0.2</v>
       </c>
       <c r="I84" s="39" t="n">
-        <v>53.7</v>
+        <v>24.4</v>
       </c>
       <c r="J84" s="39" t="n">
-        <v>63.7</v>
+        <v>61.7</v>
       </c>
       <c r="K84" s="39" t="n">
-        <v>75.7</v>
+        <v>80.7</v>
       </c>
       <c r="L84" s="39" t="n">
-        <v>79.09999999999999</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="M84" s="39" t="n">
-        <v>34.8</v>
+        <v>54.8</v>
       </c>
       <c r="N84" s="39" t="n">
-        <v>17.4</v>
+        <v>29.6</v>
       </c>
       <c r="O84" s="39" t="n">
-        <v>61.1</v>
+        <v>29.6</v>
       </c>
       <c r="P84" s="39" t="n">
-        <v>61.1</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="Q84" s="39" t="n">
-        <v>92.59999999999999</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="R84" s="39" t="n">
-        <v>51.2</v>
+        <v>37.9</v>
       </c>
       <c r="S84" s="39" t="n">
-        <v>59.3</v>
+        <v>71.2</v>
       </c>
       <c r="T84" s="39" t="n">
-        <v>17</v>
+        <v>41.5</v>
       </c>
       <c r="U84" s="39" t="n">
-        <v>55.3</v>
+        <v>55.5</v>
       </c>
       <c r="V84" s="39" t="n">
-        <v>34.2</v>
+        <v>30.9</v>
       </c>
       <c r="W84" s="39" t="n">
-        <v>56.4</v>
+        <v>66.5</v>
       </c>
       <c r="X84" s="39" t="n">
-        <v>89.59999999999999</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="Y84" s="39" t="inlineStr">
         <is>
-          <t>软件ETF</t>
+          <t>消费电子ETF</t>
         </is>
       </c>
     </row>
@@ -18847,79 +18847,79 @@
         <v>83</v>
       </c>
       <c r="B85" s="39" t="n">
-        <v>516780</v>
+        <v>515230</v>
       </c>
       <c r="C85" s="39" t="inlineStr">
         <is>
-          <t>稀土ETF</t>
+          <t>软件ETF</t>
         </is>
       </c>
       <c r="D85" s="39" t="n">
-        <v>8.73</v>
+        <v>13.15</v>
       </c>
       <c r="E85" s="39" t="n">
-        <v>44.3</v>
+        <v>42.2</v>
       </c>
       <c r="F85" s="39" t="n">
-        <v>30.4</v>
+        <v>28</v>
       </c>
       <c r="G85" s="39" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H85" s="39" t="n">
-        <v>25.7</v>
+        <v>1.3</v>
       </c>
       <c r="I85" s="39" t="n">
-        <v>48.8</v>
+        <v>53.7</v>
       </c>
       <c r="J85" s="39" t="n">
-        <v>64.5</v>
+        <v>63.7</v>
       </c>
       <c r="K85" s="39" t="n">
-        <v>64.5</v>
+        <v>75.7</v>
       </c>
       <c r="L85" s="39" t="n">
-        <v>78</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="M85" s="39" t="n">
-        <v>27.6</v>
+        <v>34.8</v>
       </c>
       <c r="N85" s="39" t="n">
-        <v>15.7</v>
+        <v>17.4</v>
       </c>
       <c r="O85" s="39" t="n">
-        <v>10.6</v>
+        <v>61.1</v>
       </c>
       <c r="P85" s="39" t="n">
-        <v>4.2</v>
+        <v>61.1</v>
       </c>
       <c r="Q85" s="39" t="n">
-        <v>69.3</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="R85" s="39" t="n">
-        <v>35.8</v>
+        <v>51.2</v>
       </c>
       <c r="S85" s="39" t="n">
-        <v>77.40000000000001</v>
+        <v>59.3</v>
       </c>
       <c r="T85" s="39" t="n">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="U85" s="39" t="n">
-        <v>49.8</v>
+        <v>55.3</v>
       </c>
       <c r="V85" s="39" t="n">
-        <v>49.8</v>
+        <v>34.2</v>
       </c>
       <c r="W85" s="39" t="n">
-        <v>49.8</v>
+        <v>56.4</v>
       </c>
       <c r="X85" s="39" t="n">
-        <v>89.7</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="Y85" s="39" t="inlineStr">
         <is>
-          <t>稀土ETF</t>
+          <t>软件ETF</t>
         </is>
       </c>
     </row>
@@ -18928,79 +18928,79 @@
         <v>84</v>
       </c>
       <c r="B86" s="39" t="n">
-        <v>159992</v>
+        <v>516780</v>
       </c>
       <c r="C86" s="39" t="inlineStr">
         <is>
-          <t>创新药ETF</t>
+          <t>稀土ETF</t>
         </is>
       </c>
       <c r="D86" s="39" t="n">
-        <v>117.99</v>
+        <v>8.73</v>
       </c>
       <c r="E86" s="39" t="n">
-        <v>67.09999999999999</v>
+        <v>44.3</v>
       </c>
       <c r="F86" s="39" t="n">
-        <v>58</v>
+        <v>30.4</v>
       </c>
       <c r="G86" s="39" t="n">
-        <v>5.1</v>
+        <v>2</v>
       </c>
       <c r="H86" s="39" t="n">
-        <v>22</v>
+        <v>25.7</v>
       </c>
       <c r="I86" s="39" t="n">
-        <v>17.2</v>
+        <v>48.8</v>
       </c>
       <c r="J86" s="39" t="n">
-        <v>60.8</v>
+        <v>64.5</v>
       </c>
       <c r="K86" s="39" t="n">
-        <v>71</v>
+        <v>64.5</v>
       </c>
       <c r="L86" s="39" t="n">
-        <v>83.7</v>
+        <v>78</v>
       </c>
       <c r="M86" s="39" t="n">
-        <v>60.2</v>
+        <v>27.6</v>
       </c>
       <c r="N86" s="39" t="n">
-        <v>32.7</v>
+        <v>15.7</v>
       </c>
       <c r="O86" s="39" t="n">
-        <v>22.5</v>
+        <v>10.6</v>
       </c>
       <c r="P86" s="39" t="n">
-        <v>22.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q86" s="39" t="n">
-        <v>86.2</v>
+        <v>69.3</v>
       </c>
       <c r="R86" s="39" t="n">
-        <v>94.40000000000001</v>
+        <v>35.8</v>
       </c>
       <c r="S86" s="39" t="n">
-        <v>51.4</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="T86" s="39" t="n">
-        <v>72.7</v>
+        <v>43</v>
       </c>
       <c r="U86" s="39" t="n">
-        <v>38.7</v>
+        <v>49.8</v>
       </c>
       <c r="V86" s="39" t="n">
-        <v>38.7</v>
+        <v>49.8</v>
       </c>
       <c r="W86" s="39" t="n">
-        <v>72.7</v>
+        <v>49.8</v>
       </c>
       <c r="X86" s="39" t="n">
-        <v>89.8</v>
+        <v>89.7</v>
       </c>
       <c r="Y86" s="39" t="inlineStr">
         <is>
-          <t>创新药ETF</t>
+          <t>稀土ETF</t>
         </is>
       </c>
     </row>
@@ -19017,7 +19017,7 @@
         </is>
       </c>
       <c r="D87" s="39" t="n">
-        <v>29.1</v>
+        <v>29.14</v>
       </c>
       <c r="E87" s="39" t="n">
         <v>38.5</v>
@@ -19090,79 +19090,79 @@
         <v>86</v>
       </c>
       <c r="B88" s="39" t="n">
-        <v>159732</v>
+        <v>159992</v>
       </c>
       <c r="C88" s="39" t="inlineStr">
         <is>
-          <t>消费电子ETF</t>
+          <t>创新药ETF</t>
         </is>
       </c>
       <c r="D88" s="39" t="n">
-        <v>15.61</v>
+        <v>117.99</v>
       </c>
       <c r="E88" s="39" t="n">
-        <v>27.4</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="F88" s="39" t="n">
-        <v>1.5</v>
+        <v>58</v>
       </c>
       <c r="G88" s="39" t="n">
-        <v>0.3</v>
+        <v>5.1</v>
       </c>
       <c r="H88" s="39" t="n">
-        <v>0.2</v>
+        <v>22</v>
       </c>
       <c r="I88" s="39" t="n">
-        <v>24.4</v>
+        <v>17.2</v>
       </c>
       <c r="J88" s="39" t="n">
-        <v>61.7</v>
+        <v>60.8</v>
       </c>
       <c r="K88" s="39" t="n">
-        <v>80.7</v>
+        <v>71</v>
       </c>
       <c r="L88" s="39" t="n">
-        <v>82.09999999999999</v>
+        <v>83.7</v>
       </c>
       <c r="M88" s="39" t="n">
-        <v>54.8</v>
+        <v>60.2</v>
       </c>
       <c r="N88" s="39" t="n">
-        <v>29.6</v>
+        <v>32.7</v>
       </c>
       <c r="O88" s="39" t="n">
-        <v>29.6</v>
+        <v>22.5</v>
       </c>
       <c r="P88" s="39" t="n">
-        <v>68.40000000000001</v>
+        <v>22.5</v>
       </c>
       <c r="Q88" s="39" t="n">
-        <v>90.09999999999999</v>
+        <v>86.2</v>
       </c>
       <c r="R88" s="39" t="n">
-        <v>37.9</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="S88" s="39" t="n">
-        <v>71.2</v>
+        <v>51.4</v>
       </c>
       <c r="T88" s="39" t="n">
-        <v>41.5</v>
+        <v>72.7</v>
       </c>
       <c r="U88" s="39" t="n">
-        <v>55.5</v>
+        <v>38.7</v>
       </c>
       <c r="V88" s="39" t="n">
-        <v>30.9</v>
+        <v>38.7</v>
       </c>
       <c r="W88" s="39" t="n">
-        <v>66.5</v>
+        <v>72.7</v>
       </c>
       <c r="X88" s="39" t="n">
-        <v>90.2</v>
+        <v>89.8</v>
       </c>
       <c r="Y88" s="39" t="inlineStr">
         <is>
-          <t>消费电子ETF</t>
+          <t>创新药ETF</t>
         </is>
       </c>
     </row>
@@ -19179,7 +19179,7 @@
         </is>
       </c>
       <c r="D89" s="39" t="n">
-        <v>34.21</v>
+        <v>34.25</v>
       </c>
       <c r="E89" s="39" t="n">
         <v>31.8</v>
@@ -19239,7 +19239,7 @@
         <v>64.59999999999999</v>
       </c>
       <c r="X89" s="39" t="n">
-        <v>90.5</v>
+        <v>90.8</v>
       </c>
       <c r="Y89" s="39" t="inlineStr">
         <is>
@@ -19252,79 +19252,79 @@
         <v>88</v>
       </c>
       <c r="B90" s="39" t="n">
-        <v>159996</v>
+        <v>588200</v>
       </c>
       <c r="C90" s="39" t="inlineStr">
         <is>
-          <t>家电ETF</t>
+          <t>科创芯片ETF</t>
         </is>
       </c>
       <c r="D90" s="39" t="n">
-        <v>15.32</v>
+        <v>246.1</v>
       </c>
       <c r="E90" s="39" t="n">
-        <v>43.8</v>
+        <v>25.1</v>
       </c>
       <c r="F90" s="39" t="n">
-        <v>6.5</v>
+        <v>11.8</v>
       </c>
       <c r="G90" s="39" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H90" s="39" t="n">
-        <v>1</v>
+        <v>12.7</v>
       </c>
       <c r="I90" s="39" t="n">
-        <v>22.2</v>
+        <v>65.8</v>
       </c>
       <c r="J90" s="39" t="n">
-        <v>70</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="K90" s="39" t="n">
-        <v>71.7</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="L90" s="39" t="n">
-        <v>51.4</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="M90" s="39" t="n">
-        <v>71.90000000000001</v>
+        <v>57.9</v>
       </c>
       <c r="N90" s="39" t="n">
-        <v>27.7</v>
+        <v>72.8</v>
       </c>
       <c r="O90" s="39" t="n">
-        <v>27.7</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="P90" s="39" t="n">
-        <v>61.3</v>
+        <v>44.7</v>
       </c>
       <c r="Q90" s="39" t="n">
-        <v>89.8</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="R90" s="39" t="n">
-        <v>72.09999999999999</v>
+        <v>44.8</v>
       </c>
       <c r="S90" s="39" t="n">
-        <v>90.2</v>
+        <v>53.3</v>
       </c>
       <c r="T90" s="39" t="n">
-        <v>70.59999999999999</v>
+        <v>14.7</v>
       </c>
       <c r="U90" s="39" t="n">
-        <v>81.40000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="V90" s="39" t="n">
-        <v>52.5</v>
+        <v>37.8</v>
       </c>
       <c r="W90" s="39" t="n">
-        <v>78.2</v>
+        <v>72.3</v>
       </c>
       <c r="X90" s="39" t="n">
-        <v>92</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="Y90" s="39" t="inlineStr">
         <is>
-          <t>家电ETF</t>
+          <t>科创芯片ETF</t>
         </is>
       </c>
     </row>
@@ -19333,79 +19333,79 @@
         <v>89</v>
       </c>
       <c r="B91" s="39" t="n">
-        <v>588200</v>
+        <v>159996</v>
       </c>
       <c r="C91" s="39" t="inlineStr">
         <is>
-          <t>科创芯片ETF</t>
+          <t>家电ETF</t>
         </is>
       </c>
       <c r="D91" s="39" t="n">
-        <v>246.1</v>
+        <v>15.33</v>
       </c>
       <c r="E91" s="39" t="n">
-        <v>25.1</v>
+        <v>43.8</v>
       </c>
       <c r="F91" s="39" t="n">
-        <v>11.8</v>
+        <v>6.5</v>
       </c>
       <c r="G91" s="39" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H91" s="39" t="n">
-        <v>12.7</v>
+        <v>1</v>
       </c>
       <c r="I91" s="39" t="n">
-        <v>65.8</v>
+        <v>22.2</v>
       </c>
       <c r="J91" s="39" t="n">
-        <v>74.90000000000001</v>
+        <v>70</v>
       </c>
       <c r="K91" s="39" t="n">
-        <v>91.09999999999999</v>
+        <v>71.7</v>
       </c>
       <c r="L91" s="39" t="n">
-        <v>91.09999999999999</v>
+        <v>51.4</v>
       </c>
       <c r="M91" s="39" t="n">
-        <v>57.9</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="N91" s="39" t="n">
-        <v>72.8</v>
+        <v>27.7</v>
       </c>
       <c r="O91" s="39" t="n">
-        <v>85.09999999999999</v>
+        <v>27.7</v>
       </c>
       <c r="P91" s="39" t="n">
-        <v>44.7</v>
+        <v>61.3</v>
       </c>
       <c r="Q91" s="39" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="R91" s="39" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="S91" s="39" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="T91" s="39" t="n">
         <v>70.59999999999999</v>
       </c>
-      <c r="R91" s="39" t="n">
-        <v>44.8</v>
-      </c>
-      <c r="S91" s="39" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="T91" s="39" t="n">
-        <v>14.7</v>
-      </c>
       <c r="U91" s="39" t="n">
-        <v>9.699999999999999</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="V91" s="39" t="n">
-        <v>37.8</v>
+        <v>52.5</v>
       </c>
       <c r="W91" s="39" t="n">
-        <v>72.3</v>
+        <v>78.2</v>
       </c>
       <c r="X91" s="39" t="n">
-        <v>92.09999999999999</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="Y91" s="39" t="inlineStr">
         <is>
-          <t>科创芯片ETF</t>
+          <t>家电ETF</t>
         </is>
       </c>
     </row>
@@ -19414,79 +19414,79 @@
         <v>90</v>
       </c>
       <c r="B92" s="39" t="n">
-        <v>159995</v>
+        <v>159869</v>
       </c>
       <c r="C92" s="39" t="inlineStr">
         <is>
-          <t>芯片ETF</t>
+          <t>游戏ETF</t>
         </is>
       </c>
       <c r="D92" s="39" t="n">
-        <v>241.42</v>
+        <v>68.18000000000001</v>
       </c>
       <c r="E92" s="39" t="n">
-        <v>30.4</v>
+        <v>40.4</v>
       </c>
       <c r="F92" s="39" t="n">
-        <v>53.1</v>
+        <v>40.4</v>
       </c>
       <c r="G92" s="39" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H92" s="39" t="n">
-        <v>7.8</v>
+        <v>0.5</v>
       </c>
       <c r="I92" s="39" t="n">
-        <v>68.8</v>
+        <v>42.5</v>
       </c>
       <c r="J92" s="39" t="n">
-        <v>74.40000000000001</v>
+        <v>62.4</v>
       </c>
       <c r="K92" s="39" t="n">
-        <v>91</v>
+        <v>60.3</v>
       </c>
       <c r="L92" s="39" t="n">
-        <v>88.7</v>
+        <v>80.8</v>
       </c>
       <c r="M92" s="39" t="n">
-        <v>46.9</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="N92" s="39" t="n">
-        <v>71.09999999999999</v>
+        <v>42.6</v>
       </c>
       <c r="O92" s="39" t="n">
-        <v>75.3</v>
+        <v>50.5</v>
       </c>
       <c r="P92" s="39" t="n">
-        <v>38.2</v>
+        <v>83</v>
       </c>
       <c r="Q92" s="39" t="n">
-        <v>71.7</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="R92" s="39" t="n">
-        <v>60.7</v>
+        <v>51.4</v>
       </c>
       <c r="S92" s="39" t="n">
-        <v>37.7</v>
+        <v>60.1</v>
       </c>
       <c r="T92" s="39" t="n">
-        <v>10.3</v>
+        <v>20.9</v>
       </c>
       <c r="U92" s="39" t="n">
-        <v>8.5</v>
+        <v>36.6</v>
       </c>
       <c r="V92" s="39" t="n">
-        <v>50.8</v>
+        <v>73.5</v>
       </c>
       <c r="W92" s="39" t="n">
-        <v>83.8</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="X92" s="39" t="n">
-        <v>93.40000000000001</v>
+        <v>92.8</v>
       </c>
       <c r="Y92" s="39" t="inlineStr">
         <is>
-          <t>芯片ETF</t>
+          <t>游戏ETF</t>
         </is>
       </c>
     </row>
@@ -19503,7 +19503,7 @@
         </is>
       </c>
       <c r="D93" s="39" t="n">
-        <v>213.45</v>
+        <v>212.85</v>
       </c>
       <c r="E93" s="39" t="n">
         <v>22.3</v>
@@ -19563,7 +19563,7 @@
         <v>80.09999999999999</v>
       </c>
       <c r="X93" s="39" t="n">
-        <v>93.90000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="Y93" s="39" t="inlineStr">
         <is>
@@ -19576,79 +19576,79 @@
         <v>92</v>
       </c>
       <c r="B94" s="39" t="n">
-        <v>512980</v>
+        <v>159995</v>
       </c>
       <c r="C94" s="39" t="inlineStr">
         <is>
-          <t>传媒ETF</t>
+          <t>芯片ETF</t>
         </is>
       </c>
       <c r="D94" s="39" t="n">
-        <v>26.96</v>
+        <v>241.23</v>
       </c>
       <c r="E94" s="39" t="n">
-        <v>58.7</v>
+        <v>30.4</v>
       </c>
       <c r="F94" s="39" t="n">
-        <v>49.8</v>
+        <v>53.1</v>
       </c>
       <c r="G94" s="39" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="H94" s="39" t="n">
-        <v>1.8</v>
+        <v>7.8</v>
       </c>
       <c r="I94" s="39" t="n">
-        <v>45.9</v>
+        <v>68.8</v>
       </c>
       <c r="J94" s="39" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="K94" s="39" t="n">
-        <v>65.2</v>
+        <v>91</v>
       </c>
       <c r="L94" s="39" t="n">
-        <v>78.8</v>
+        <v>88.7</v>
       </c>
       <c r="M94" s="39" t="n">
-        <v>84.7</v>
+        <v>46.9</v>
       </c>
       <c r="N94" s="39" t="n">
-        <v>59.6</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="O94" s="39" t="n">
-        <v>33.3</v>
+        <v>75.3</v>
       </c>
       <c r="P94" s="39" t="n">
-        <v>75.90000000000001</v>
+        <v>38.2</v>
       </c>
       <c r="Q94" s="39" t="n">
-        <v>93.2</v>
+        <v>71.7</v>
       </c>
       <c r="R94" s="39" t="n">
-        <v>51.5</v>
+        <v>60.7</v>
       </c>
       <c r="S94" s="39" t="n">
-        <v>39.7</v>
+        <v>37.7</v>
       </c>
       <c r="T94" s="39" t="n">
-        <v>13.3</v>
+        <v>10.3</v>
       </c>
       <c r="U94" s="39" t="n">
-        <v>33.7</v>
+        <v>8.5</v>
       </c>
       <c r="V94" s="39" t="n">
-        <v>33.7</v>
+        <v>50.8</v>
       </c>
       <c r="W94" s="39" t="n">
-        <v>83.90000000000001</v>
+        <v>83.8</v>
       </c>
       <c r="X94" s="39" t="n">
-        <v>94</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="Y94" s="39" t="inlineStr">
         <is>
-          <t>传媒ETF</t>
+          <t>芯片ETF</t>
         </is>
       </c>
     </row>
@@ -19656,82 +19656,80 @@
       <c r="A95" s="39" t="n">
         <v>93</v>
       </c>
-      <c r="B95" s="39" t="inlineStr">
-        <is>
-          <t>515070</t>
-        </is>
+      <c r="B95" s="39" t="n">
+        <v>512980</v>
       </c>
       <c r="C95" s="39" t="inlineStr">
         <is>
-          <t>人工智能AIETF</t>
+          <t>传媒ETF</t>
         </is>
       </c>
       <c r="D95" s="39" t="n">
-        <v>50.39</v>
+        <v>26.85</v>
       </c>
       <c r="E95" s="39" t="n">
-        <v>38.1</v>
+        <v>58.7</v>
       </c>
       <c r="F95" s="39" t="n">
-        <v>7.1</v>
+        <v>49.8</v>
       </c>
       <c r="G95" s="39" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H95" s="39" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="I95" s="39" t="n">
-        <v>43.8</v>
+        <v>45.9</v>
       </c>
       <c r="J95" s="39" t="n">
-        <v>63.5</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="K95" s="39" t="n">
-        <v>78.2</v>
+        <v>65.2</v>
       </c>
       <c r="L95" s="39" t="n">
-        <v>83.59999999999999</v>
+        <v>78.8</v>
       </c>
       <c r="M95" s="39" t="n">
-        <v>53.9</v>
+        <v>84.7</v>
       </c>
       <c r="N95" s="39" t="n">
-        <v>34.4</v>
+        <v>59.6</v>
       </c>
       <c r="O95" s="39" t="n">
-        <v>54.8</v>
+        <v>33.3</v>
       </c>
       <c r="P95" s="39" t="n">
-        <v>63.9</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="Q95" s="39" t="n">
-        <v>93</v>
+        <v>93.2</v>
       </c>
       <c r="R95" s="39" t="n">
-        <v>44.8</v>
+        <v>51.5</v>
       </c>
       <c r="S95" s="39" t="n">
-        <v>70.8</v>
+        <v>39.7</v>
       </c>
       <c r="T95" s="39" t="n">
-        <v>27.6</v>
+        <v>13.3</v>
       </c>
       <c r="U95" s="39" t="n">
-        <v>55</v>
+        <v>33.7</v>
       </c>
       <c r="V95" s="39" t="n">
-        <v>47.8</v>
+        <v>33.7</v>
       </c>
       <c r="W95" s="39" t="n">
-        <v>70.8</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="X95" s="39" t="n">
-        <v>94.3</v>
+        <v>93.2</v>
       </c>
       <c r="Y95" s="39" t="inlineStr">
         <is>
-          <t>人工智能AIETF</t>
+          <t>传媒ETF</t>
         </is>
       </c>
     </row>
@@ -19739,80 +19737,82 @@
       <c r="A96" s="39" t="n">
         <v>94</v>
       </c>
-      <c r="B96" s="39" t="n">
-        <v>159869</v>
+      <c r="B96" s="39" t="inlineStr">
+        <is>
+          <t>515070</t>
+        </is>
       </c>
       <c r="C96" s="39" t="inlineStr">
         <is>
-          <t>游戏ETF</t>
+          <t>人工智能AIETF</t>
         </is>
       </c>
       <c r="D96" s="39" t="n">
-        <v>68.55</v>
+        <v>50.3</v>
       </c>
       <c r="E96" s="39" t="n">
-        <v>40.4</v>
+        <v>38.1</v>
       </c>
       <c r="F96" s="39" t="n">
-        <v>40.4</v>
+        <v>7.1</v>
       </c>
       <c r="G96" s="39" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H96" s="39" t="n">
         <v>0.5</v>
       </c>
       <c r="I96" s="39" t="n">
-        <v>42.5</v>
+        <v>43.8</v>
       </c>
       <c r="J96" s="39" t="n">
-        <v>62.4</v>
+        <v>63.5</v>
       </c>
       <c r="K96" s="39" t="n">
-        <v>60.3</v>
+        <v>78.2</v>
       </c>
       <c r="L96" s="39" t="n">
-        <v>80.8</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="M96" s="39" t="n">
-        <v>87.90000000000001</v>
+        <v>53.9</v>
       </c>
       <c r="N96" s="39" t="n">
-        <v>42.6</v>
+        <v>34.4</v>
       </c>
       <c r="O96" s="39" t="n">
-        <v>50.5</v>
+        <v>54.8</v>
       </c>
       <c r="P96" s="39" t="n">
-        <v>83</v>
+        <v>63.9</v>
       </c>
       <c r="Q96" s="39" t="n">
-        <v>95.40000000000001</v>
+        <v>93</v>
       </c>
       <c r="R96" s="39" t="n">
-        <v>51.4</v>
+        <v>44.8</v>
       </c>
       <c r="S96" s="39" t="n">
-        <v>60.1</v>
+        <v>70.8</v>
       </c>
       <c r="T96" s="39" t="n">
-        <v>20.9</v>
+        <v>27.6</v>
       </c>
       <c r="U96" s="39" t="n">
-        <v>36.6</v>
+        <v>55</v>
       </c>
       <c r="V96" s="39" t="n">
-        <v>73.5</v>
+        <v>47.8</v>
       </c>
       <c r="W96" s="39" t="n">
-        <v>84.09999999999999</v>
+        <v>70.8</v>
       </c>
       <c r="X96" s="39" t="n">
-        <v>94.3</v>
+        <v>94</v>
       </c>
       <c r="Y96" s="39" t="inlineStr">
         <is>
-          <t>游戏ETF</t>
+          <t>人工智能AIETF</t>
         </is>
       </c>
     </row>
@@ -19829,7 +19829,7 @@
         </is>
       </c>
       <c r="D97" s="39" t="n">
-        <v>7.57</v>
+        <v>7.56</v>
       </c>
       <c r="E97" s="39" t="n">
         <v>23</v>
@@ -19889,7 +19889,7 @@
         <v>76.8</v>
       </c>
       <c r="X97" s="39" t="n">
-        <v>95</v>
+        <v>94.3</v>
       </c>
       <c r="Y97" s="39" t="inlineStr">
         <is>
@@ -20053,7 +20053,7 @@
         <v>81.3</v>
       </c>
       <c r="X99" s="39" t="n">
-        <v>98.09999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="Y99" s="39" t="inlineStr">
         <is>
@@ -20134,7 +20134,7 @@
         <v>97</v>
       </c>
       <c r="X100" s="39" t="n">
-        <v>98.2</v>
+        <v>98.3</v>
       </c>
       <c r="Y100" s="39" t="inlineStr">
         <is>

--- a/fund_list.xlsx
+++ b/fund_list.xlsx
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="D2" s="39" t="n">
-        <v>3646.91</v>
+        <v>4474.75</v>
       </c>
       <c r="E2" s="41" t="n">
         <v>0.05</v>
@@ -1602,7 +1602,7 @@
         <v>-0.05</v>
       </c>
       <c r="X2" s="43" t="n">
-        <v>-0.13</v>
+        <v>-0.15</v>
       </c>
       <c r="Y2" s="39" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         </is>
       </c>
       <c r="D3" s="39" t="n">
-        <v>191.01</v>
+        <v>233.58</v>
       </c>
       <c r="E3" s="41" t="n">
         <v>-0.16</v>
@@ -1685,7 +1685,7 @@
         <v>0.1</v>
       </c>
       <c r="X3" s="42" t="n">
-        <v>0.87</v>
+        <v>0.91</v>
       </c>
       <c r="Y3" s="39" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="D4" s="39" t="n">
-        <v>4721.75</v>
+        <v>5823.44</v>
       </c>
       <c r="E4" s="41" t="n">
         <v>0.09</v>
@@ -1768,7 +1768,7 @@
         <v>-0.05</v>
       </c>
       <c r="X4" s="42" t="n">
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
       <c r="Y4" s="39" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         </is>
       </c>
       <c r="D5" s="39" t="n">
-        <v>2068.24</v>
+        <v>2559.16</v>
       </c>
       <c r="E5" s="41" t="n">
         <v>0.13</v>
@@ -1851,7 +1851,7 @@
         <v>-0.13</v>
       </c>
       <c r="X5" s="42" t="n">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="Y5" s="39" t="inlineStr">
         <is>
@@ -1874,7 +1874,7 @@
         </is>
       </c>
       <c r="D6" s="39" t="n">
-        <v>533.02</v>
+        <v>644.13</v>
       </c>
       <c r="E6" s="40" t="n">
         <v>-0.15</v>
@@ -1934,7 +1934,7 @@
         <v>-0.22</v>
       </c>
       <c r="X6" s="40" t="n">
-        <v>-0.36</v>
+        <v>-0.37</v>
       </c>
       <c r="Y6" s="39" t="inlineStr">
         <is>
@@ -1957,7 +1957,7 @@
         </is>
       </c>
       <c r="D7" s="39" t="n">
-        <v>1762.97</v>
+        <v>2160.78</v>
       </c>
       <c r="E7" s="40" t="n">
         <v>-0.08</v>
@@ -2017,7 +2017,7 @@
         <v>-0.17</v>
       </c>
       <c r="X7" s="40" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-0.03</v>
       </c>
       <c r="Y7" s="39" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         </is>
       </c>
       <c r="D8" s="39" t="n">
-        <v>1280.95</v>
+        <v>1595.86</v>
       </c>
       <c r="E8" s="41" t="n">
         <v>0.11</v>
@@ -2100,7 +2100,7 @@
         <v>0.12</v>
       </c>
       <c r="X8" s="42" t="n">
-        <v>0.62</v>
+        <v>0.6</v>
       </c>
       <c r="Y8" s="39" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         </is>
       </c>
       <c r="D9" s="39" t="n">
-        <v>3044.36</v>
+        <v>3757.36</v>
       </c>
       <c r="E9" s="41" t="n">
         <v>-0.03</v>
@@ -2183,7 +2183,7 @@
         <v>-0.1</v>
       </c>
       <c r="X9" s="40" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="Y9" s="39" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         </is>
       </c>
       <c r="D10" s="39" t="n">
-        <v>1722.65</v>
+        <v>2123.71</v>
       </c>
       <c r="E10" s="41" t="n">
         <v>0.28</v>
@@ -2266,7 +2266,7 @@
         <v>0.45</v>
       </c>
       <c r="X10" s="42" t="n">
-        <v>1.05</v>
+        <v>0.92</v>
       </c>
       <c r="Y10" s="39" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         </is>
       </c>
       <c r="D11" s="39" t="n">
-        <v>6.62</v>
+        <v>6.65</v>
       </c>
       <c r="E11" s="41" t="n">
         <v>1.73</v>
@@ -2348,8 +2348,8 @@
       <c r="W11" s="42" t="n">
         <v>0.65</v>
       </c>
-      <c r="X11" s="41" t="n">
-        <v>-0.37</v>
+      <c r="X11" s="48" t="n">
+        <v>0.09</v>
       </c>
       <c r="Y11" s="39" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         </is>
       </c>
       <c r="D12" s="39" t="n">
-        <v>8.720000000000001</v>
+        <v>8.74</v>
       </c>
       <c r="E12" s="40" t="n">
         <v>-0.25</v>
@@ -2432,7 +2432,7 @@
         <v>0</v>
       </c>
       <c r="X12" s="41" t="n">
-        <v>-0.25</v>
+        <v>-0.06</v>
       </c>
       <c r="Y12" s="39" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         </is>
       </c>
       <c r="D13" s="39" t="n">
-        <v>13.01</v>
+        <v>13.02</v>
       </c>
       <c r="E13" s="40" t="n">
         <v>0.29</v>
@@ -2597,8 +2597,8 @@
       <c r="W14" s="42" t="n">
         <v>-0.09</v>
       </c>
-      <c r="X14" s="42" t="n">
-        <v>0.18</v>
+      <c r="X14" s="41" t="n">
+        <v>0</v>
       </c>
       <c r="Y14" s="39" t="inlineStr">
         <is>
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="D15" s="39" t="n">
-        <v>22.88</v>
+        <v>22.87</v>
       </c>
       <c r="E15" s="41" t="n">
         <v>0.84</v>
@@ -2681,7 +2681,7 @@
         <v>-0.53</v>
       </c>
       <c r="X15" s="41" t="n">
-        <v>-0.26</v>
+        <v>-0.33</v>
       </c>
       <c r="Y15" s="39" t="inlineStr">
         <is>
@@ -2704,7 +2704,7 @@
         </is>
       </c>
       <c r="D16" s="39" t="n">
-        <v>177.74</v>
+        <v>177.83</v>
       </c>
       <c r="E16" s="40" t="n">
         <v>0</v>
@@ -2787,7 +2787,7 @@
         </is>
       </c>
       <c r="D17" s="39" t="n">
-        <v>12.63</v>
+        <v>12.66</v>
       </c>
       <c r="E17" s="43" t="n">
         <v>-2.57</v>
@@ -2847,7 +2847,7 @@
         <v>1</v>
       </c>
       <c r="X17" s="42" t="n">
-        <v>0.36</v>
+        <v>0.54</v>
       </c>
       <c r="Y17" s="39" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="D18" s="39" t="n">
-        <v>343.59</v>
+        <v>343.84</v>
       </c>
       <c r="E18" s="41" t="n">
         <v>-0.55</v>
@@ -2930,7 +2930,7 @@
         <v>-0.82</v>
       </c>
       <c r="X18" s="42" t="n">
-        <v>0.97</v>
+        <v>1.12</v>
       </c>
       <c r="Y18" s="39" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         </is>
       </c>
       <c r="D19" s="39" t="n">
-        <v>88.17</v>
+        <v>88.04000000000001</v>
       </c>
       <c r="E19" s="41" t="n">
         <v>1.44</v>
@@ -3013,7 +3013,7 @@
         <v>-0.14</v>
       </c>
       <c r="X19" s="41" t="n">
-        <v>-0.21</v>
+        <v>-0.43</v>
       </c>
       <c r="Y19" s="39" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
         </is>
       </c>
       <c r="D20" s="39" t="n">
-        <v>747.23</v>
+        <v>747.25</v>
       </c>
       <c r="E20" s="42" t="n">
         <v>0.01</v>
@@ -3119,7 +3119,7 @@
         </is>
       </c>
       <c r="D21" s="39" t="n">
-        <v>601.92</v>
+        <v>600.3099999999999</v>
       </c>
       <c r="E21" s="41" t="n">
         <v>-0.38</v>
@@ -3178,8 +3178,8 @@
       <c r="W21" s="41" t="n">
         <v>0.7</v>
       </c>
-      <c r="X21" s="41" t="n">
-        <v>-0.33</v>
+      <c r="X21" s="40" t="n">
+        <v>-0.63</v>
       </c>
       <c r="Y21" s="39" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D23" s="39" t="n">
-        <v>3733.98</v>
+        <v>3734.94</v>
       </c>
       <c r="E23" s="40" t="n">
         <v>-0.08</v>
@@ -3344,8 +3344,8 @@
       <c r="W23" s="43" t="n">
         <v>-0.18</v>
       </c>
-      <c r="X23" s="43" t="n">
-        <v>0</v>
+      <c r="X23" s="40" t="n">
+        <v>0.03</v>
       </c>
       <c r="Y23" s="39" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>-0.12</v>
       </c>
       <c r="X25" s="41" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="Y25" s="39" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         </is>
       </c>
       <c r="D26" s="39" t="n">
-        <v>268.86</v>
+        <v>269.63</v>
       </c>
       <c r="E26" s="41" t="n">
         <v>-0.13</v>
@@ -3594,7 +3594,7 @@
         <v>-0.14</v>
       </c>
       <c r="X26" s="42" t="n">
-        <v>0.87</v>
+        <v>1.01</v>
       </c>
       <c r="Y26" s="39" t="inlineStr">
         <is>
@@ -3617,7 +3617,7 @@
         </is>
       </c>
       <c r="D27" s="39" t="n">
-        <v>47.02</v>
+        <v>46.96</v>
       </c>
       <c r="E27" s="40" t="n">
         <v>-0.49</v>
@@ -3676,8 +3676,8 @@
       <c r="W27" s="40" t="n">
         <v>-0.5</v>
       </c>
-      <c r="X27" s="40" t="n">
-        <v>-0.12</v>
+      <c r="X27" s="43" t="n">
+        <v>-0.25</v>
       </c>
       <c r="Y27" s="39" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>0.51</v>
       </c>
       <c r="X28" s="42" t="n">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="Y28" s="39" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         </is>
       </c>
       <c r="D29" s="39" t="n">
-        <v>1098.32</v>
+        <v>1098.13</v>
       </c>
       <c r="E29" s="41" t="n">
         <v>0.12</v>
@@ -3843,7 +3843,7 @@
         <v>0.05</v>
       </c>
       <c r="X29" s="42" t="n">
-        <v>0.61</v>
+        <v>0.57</v>
       </c>
       <c r="Y29" s="39" t="inlineStr">
         <is>
@@ -3926,7 +3926,7 @@
         <v>0.19</v>
       </c>
       <c r="X30" s="42" t="n">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="Y30" s="39" t="inlineStr">
         <is>
@@ -3949,7 +3949,7 @@
         </is>
       </c>
       <c r="D31" s="39" t="n">
-        <v>850.86</v>
+        <v>851.3</v>
       </c>
       <c r="E31" s="41" t="n">
         <v>0.1</v>
@@ -4009,7 +4009,7 @@
         <v>-0.16</v>
       </c>
       <c r="X31" s="42" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="Y31" s="39" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         </is>
       </c>
       <c r="D34" s="39" t="n">
-        <v>32.78</v>
+        <v>32.76</v>
       </c>
       <c r="E34" s="40" t="n">
         <v>-0.28</v>
@@ -4258,7 +4258,7 @@
         <v>-0.57</v>
       </c>
       <c r="X34" s="43" t="n">
-        <v>-0.21</v>
+        <v>-0.29</v>
       </c>
       <c r="Y34" s="39" t="inlineStr">
         <is>
@@ -4281,7 +4281,7 @@
         </is>
       </c>
       <c r="D35" s="39" t="n">
-        <v>4.31</v>
+        <v>4.32</v>
       </c>
       <c r="E35" s="40" t="n">
         <v>-0.21</v>
@@ -4341,7 +4341,7 @@
         <v>-0.83</v>
       </c>
       <c r="X35" s="40" t="n">
-        <v>-0.28</v>
+        <v>-0.14</v>
       </c>
       <c r="Y35" s="39" t="inlineStr">
         <is>
@@ -4364,7 +4364,7 @@
         </is>
       </c>
       <c r="D36" s="39" t="n">
-        <v>246.1</v>
+        <v>245.94</v>
       </c>
       <c r="E36" s="41" t="n">
         <v>-0.39</v>
@@ -4530,7 +4530,7 @@
         </is>
       </c>
       <c r="D38" s="39" t="n">
-        <v>241.23</v>
+        <v>241.04</v>
       </c>
       <c r="E38" s="41" t="n">
         <v>-0.16</v>
@@ -4590,7 +4590,7 @@
         <v>0.89</v>
       </c>
       <c r="X38" s="42" t="n">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="Y38" s="39" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         </is>
       </c>
       <c r="D39" s="39" t="n">
-        <v>278.96</v>
+        <v>279.23</v>
       </c>
       <c r="E39" s="41" t="n">
         <v>0.46</v>
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="D40" s="39" t="n">
-        <v>63.75</v>
+        <v>63.66</v>
       </c>
       <c r="E40" s="41" t="n">
         <v>0.39</v>
@@ -4779,7 +4779,7 @@
         </is>
       </c>
       <c r="D41" s="39" t="n">
-        <v>45.32</v>
+        <v>45.39</v>
       </c>
       <c r="E41" s="41" t="n">
         <v>0.31</v>
@@ -4839,7 +4839,7 @@
         <v>-0.46</v>
       </c>
       <c r="X41" s="40" t="n">
-        <v>-1.38</v>
+        <v>-1.23</v>
       </c>
       <c r="Y41" s="39" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         </is>
       </c>
       <c r="D42" s="39" t="n">
-        <v>74.59</v>
+        <v>74.64</v>
       </c>
       <c r="E42" s="42" t="n">
         <v>0.86</v>
@@ -4945,7 +4945,7 @@
         </is>
       </c>
       <c r="D43" s="39" t="n">
-        <v>117.99</v>
+        <v>118.15</v>
       </c>
       <c r="E43" s="42" t="n">
         <v>-0.91</v>
@@ -5005,7 +5005,7 @@
         <v>0.55</v>
       </c>
       <c r="X43" s="42" t="n">
-        <v>0.83</v>
+        <v>0.96</v>
       </c>
       <c r="Y43" s="39" t="inlineStr">
         <is>
@@ -5171,7 +5171,7 @@
         <v>0.59</v>
       </c>
       <c r="X45" s="41" t="n">
-        <v>-0.29</v>
+        <v>-0.58</v>
       </c>
       <c r="Y45" s="39" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>0.29</v>
       </c>
       <c r="X47" s="42" t="n">
-        <v>1.14</v>
+        <v>1.43</v>
       </c>
       <c r="Y47" s="39" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         </is>
       </c>
       <c r="D48" s="39" t="n">
-        <v>21.54</v>
+        <v>21.51</v>
       </c>
       <c r="E48" s="41" t="n">
         <v>0</v>
@@ -5526,7 +5526,7 @@
         </is>
       </c>
       <c r="D50" s="39" t="n">
-        <v>4.22</v>
+        <v>4.21</v>
       </c>
       <c r="E50" s="40" t="n">
         <v>-0.23</v>
@@ -5586,7 +5586,7 @@
         <v>-0.08</v>
       </c>
       <c r="X50" s="42" t="n">
-        <v>1.36</v>
+        <v>1.52</v>
       </c>
       <c r="Y50" s="39" t="inlineStr">
         <is>
@@ -5609,7 +5609,7 @@
         </is>
       </c>
       <c r="D51" s="39" t="n">
-        <v>128.63</v>
+        <v>128.5</v>
       </c>
       <c r="E51" s="40" t="n">
         <v>-1.16</v>
@@ -5669,7 +5669,7 @@
         <v>0</v>
       </c>
       <c r="X51" s="41" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="Y51" s="39" t="inlineStr">
         <is>
@@ -6084,7 +6084,7 @@
         <v>0.53</v>
       </c>
       <c r="X56" s="42" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="Y56" s="39" t="inlineStr">
         <is>
@@ -6107,7 +6107,7 @@
         </is>
       </c>
       <c r="D57" s="39" t="n">
-        <v>137.19</v>
+        <v>137.51</v>
       </c>
       <c r="E57" s="41" t="n">
         <v>1.12</v>
@@ -6167,7 +6167,7 @@
         <v>1.46</v>
       </c>
       <c r="X57" s="42" t="n">
-        <v>2.64</v>
+        <v>3</v>
       </c>
       <c r="Y57" s="39" t="inlineStr">
         <is>
@@ -6190,7 +6190,7 @@
         </is>
       </c>
       <c r="D58" s="39" t="n">
-        <v>29.14</v>
+        <v>29.1</v>
       </c>
       <c r="E58" s="41" t="n">
         <v>0.44</v>
@@ -6250,7 +6250,7 @@
         <v>0.59</v>
       </c>
       <c r="X58" s="42" t="n">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="Y58" s="39" t="inlineStr">
         <is>
@@ -6333,7 +6333,7 @@
         <v>0.53</v>
       </c>
       <c r="X59" s="42" t="n">
-        <v>1.32</v>
+        <v>1.45</v>
       </c>
       <c r="Y59" s="39" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         </is>
       </c>
       <c r="D60" s="39" t="n">
-        <v>15.57</v>
+        <v>15.61</v>
       </c>
       <c r="E60" s="41" t="n">
         <v>0.12</v>
@@ -6416,7 +6416,7 @@
         <v>0.8</v>
       </c>
       <c r="X60" s="42" t="n">
-        <v>1.59</v>
+        <v>1.85</v>
       </c>
       <c r="Y60" s="39" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>0.2</v>
       </c>
       <c r="X62" s="42" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="Y62" s="39" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         </is>
       </c>
       <c r="D63" s="39" t="n">
-        <v>68.18000000000001</v>
+        <v>68.11</v>
       </c>
       <c r="E63" s="41" t="n">
         <v>0.27</v>
@@ -6665,7 +6665,7 @@
         <v>0.74</v>
       </c>
       <c r="X63" s="42" t="n">
-        <v>1.11</v>
+        <v>1.02</v>
       </c>
       <c r="Y63" s="39" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
         <v>0.51</v>
       </c>
       <c r="X64" s="42" t="n">
-        <v>2.43</v>
+        <v>2.68</v>
       </c>
       <c r="Y64" s="39" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="D65" s="39" t="n">
-        <v>5.87</v>
+        <v>5.86</v>
       </c>
       <c r="E65" s="40" t="n">
         <v>-0.34</v>
@@ -6831,7 +6831,7 @@
         <v>-0.35</v>
       </c>
       <c r="X65" s="43" t="n">
-        <v>-0.35</v>
+        <v>-0.53</v>
       </c>
       <c r="Y65" s="39" t="inlineStr">
         <is>
@@ -6854,7 +6854,7 @@
         </is>
       </c>
       <c r="D66" s="39" t="n">
-        <v>64.95999999999999</v>
+        <v>64.87</v>
       </c>
       <c r="E66" s="41" t="n">
         <v>-0.14</v>
@@ -6914,7 +6914,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="X66" s="40" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.52</v>
       </c>
       <c r="Y66" s="39" t="inlineStr">
         <is>
@@ -6937,7 +6937,7 @@
         </is>
       </c>
       <c r="D67" s="39" t="n">
-        <v>14.25</v>
+        <v>14.2</v>
       </c>
       <c r="E67" s="41" t="n">
         <v>0.17</v>
@@ -6997,7 +6997,7 @@
         <v>0.18</v>
       </c>
       <c r="X67" s="42" t="n">
-        <v>0.54</v>
+        <v>0.36</v>
       </c>
       <c r="Y67" s="39" t="inlineStr">
         <is>
@@ -7246,7 +7246,7 @@
         <v>-1</v>
       </c>
       <c r="X70" s="43" t="n">
-        <v>0</v>
+        <v>-0.17</v>
       </c>
       <c r="Y70" s="39" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         </is>
       </c>
       <c r="D71" s="39" t="n">
-        <v>31.54</v>
+        <v>31.58</v>
       </c>
       <c r="E71" s="40" t="n">
         <v>0.18</v>
@@ -7328,8 +7328,8 @@
       <c r="W71" s="40" t="n">
         <v>-0.19</v>
       </c>
-      <c r="X71" s="40" t="n">
-        <v>-0.12</v>
+      <c r="X71" s="41" t="n">
+        <v>0</v>
       </c>
       <c r="Y71" s="39" t="inlineStr">
         <is>
@@ -7352,7 +7352,7 @@
         </is>
       </c>
       <c r="D72" s="39" t="n">
-        <v>31.2</v>
+        <v>31.29</v>
       </c>
       <c r="E72" s="40" t="n">
         <v>0.3</v>
@@ -7412,7 +7412,7 @@
         <v>-0.74</v>
       </c>
       <c r="X72" s="43" t="n">
-        <v>-0.75</v>
+        <v>-0.6</v>
       </c>
       <c r="Y72" s="39" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="D73" s="39" t="n">
-        <v>6.48</v>
+        <v>6.49</v>
       </c>
       <c r="E73" s="41" t="n">
         <v>-0.19</v>
@@ -7495,7 +7495,7 @@
         <v>0.82</v>
       </c>
       <c r="X73" s="42" t="n">
-        <v>1.22</v>
+        <v>1.83</v>
       </c>
       <c r="Y73" s="39" t="inlineStr">
         <is>
@@ -7518,7 +7518,7 @@
         </is>
       </c>
       <c r="D74" s="39" t="n">
-        <v>217.93</v>
+        <v>217.85</v>
       </c>
       <c r="E74" s="42" t="n">
         <v>0.48</v>
@@ -7578,7 +7578,7 @@
         <v>-0.39</v>
       </c>
       <c r="X74" s="40" t="n">
-        <v>-0.78</v>
+        <v>-0.85</v>
       </c>
       <c r="Y74" s="39" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         </is>
       </c>
       <c r="D75" s="39" t="n">
-        <v>155.72</v>
+        <v>155.86</v>
       </c>
       <c r="E75" s="42" t="n">
         <v>0.54</v>
@@ -7684,7 +7684,7 @@
         </is>
       </c>
       <c r="D76" s="39" t="n">
-        <v>45.23</v>
+        <v>45.19</v>
       </c>
       <c r="E76" s="40" t="n">
         <v>-1.02</v>
@@ -7744,7 +7744,7 @@
         <v>-0.19</v>
       </c>
       <c r="X76" s="40" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="Y76" s="39" t="inlineStr">
         <is>
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="D77" s="39" t="n">
-        <v>8.85</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="E77" s="41" t="n">
         <v>0</v>
@@ -7910,7 +7910,7 @@
         <v>0</v>
       </c>
       <c r="X78" s="42" t="n">
-        <v>0.8</v>
+        <v>0.89</v>
       </c>
       <c r="Y78" s="39" t="inlineStr">
         <is>
@@ -7933,7 +7933,7 @@
         </is>
       </c>
       <c r="D79" s="39" t="n">
-        <v>18.59</v>
+        <v>18.56</v>
       </c>
       <c r="E79" s="40" t="n">
         <v>-0.63</v>
@@ -7993,7 +7993,7 @@
         <v>0</v>
       </c>
       <c r="X79" s="41" t="n">
-        <v>-1.07</v>
+        <v>-1.23</v>
       </c>
       <c r="Y79" s="39" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>0.43</v>
       </c>
       <c r="X80" s="40" t="n">
-        <v>-1.29</v>
+        <v>-1.18</v>
       </c>
       <c r="Y80" s="39" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="D82" s="39" t="n">
-        <v>34.44</v>
+        <v>34.4</v>
       </c>
       <c r="E82" s="40" t="n">
         <v>-0.39</v>
@@ -8242,7 +8242,7 @@
         <v>-0.82</v>
       </c>
       <c r="X82" s="43" t="n">
-        <v>-0.21</v>
+        <v>-0.31</v>
       </c>
       <c r="Y82" s="39" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         </is>
       </c>
       <c r="D83" s="39" t="n">
-        <v>7.29</v>
+        <v>7.28</v>
       </c>
       <c r="E83" s="42" t="n">
         <v>-0.51</v>
@@ -8325,7 +8325,7 @@
         <v>-0.21</v>
       </c>
       <c r="X83" s="40" t="n">
-        <v>0.53</v>
+        <v>0.32</v>
       </c>
       <c r="Y83" s="39" t="inlineStr">
         <is>
@@ -8408,7 +8408,7 @@
         <v>-0.19</v>
       </c>
       <c r="X84" s="40" t="n">
-        <v>-0.58</v>
+        <v>-0.48</v>
       </c>
       <c r="Y84" s="39" t="inlineStr">
         <is>
@@ -8491,7 +8491,7 @@
         <v>0.25</v>
       </c>
       <c r="X85" s="42" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="Y85" s="39" t="inlineStr">
         <is>
@@ -8657,7 +8657,7 @@
         <v>-0.46</v>
       </c>
       <c r="X87" s="41" t="n">
-        <v>0.11</v>
+        <v>0.23</v>
       </c>
       <c r="Y87" s="39" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         </is>
       </c>
       <c r="D88" s="39" t="n">
-        <v>88.64</v>
+        <v>88.5</v>
       </c>
       <c r="E88" s="40" t="n">
         <v>-0.28</v>
@@ -8740,7 +8740,7 @@
         <v>-0.31</v>
       </c>
       <c r="X88" s="41" t="n">
-        <v>0.47</v>
+        <v>0.31</v>
       </c>
       <c r="Y88" s="39" t="inlineStr">
         <is>
@@ -8763,7 +8763,7 @@
         </is>
       </c>
       <c r="D89" s="39" t="n">
-        <v>34.18</v>
+        <v>34.14</v>
       </c>
       <c r="E89" s="41" t="n">
         <v>-1.04</v>
@@ -8823,7 +8823,7 @@
         <v>-2.04</v>
       </c>
       <c r="X89" s="40" t="n">
-        <v>-0.52</v>
+        <v>-0.62</v>
       </c>
       <c r="Y89" s="39" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>-0.11</v>
       </c>
       <c r="X90" s="43" t="n">
-        <v>-0.33</v>
+        <v>-0.43</v>
       </c>
       <c r="Y90" s="39" t="inlineStr">
         <is>
@@ -9095,7 +9095,7 @@
         </is>
       </c>
       <c r="D93" s="39" t="n">
-        <v>158.28</v>
+        <v>158.51</v>
       </c>
       <c r="E93" s="41" t="n">
         <v>-0.35</v>
@@ -9154,8 +9154,8 @@
       <c r="W93" s="41" t="n">
         <v>-0.8</v>
       </c>
-      <c r="X93" s="41" t="n">
-        <v>0.44</v>
+      <c r="X93" s="42" t="n">
+        <v>0.66</v>
       </c>
       <c r="Y93" s="39" t="inlineStr">
         <is>
@@ -9178,7 +9178,7 @@
         </is>
       </c>
       <c r="D94" s="39" t="n">
-        <v>239.02</v>
+        <v>239.53</v>
       </c>
       <c r="E94" s="41" t="n">
         <v>0.39</v>
@@ -9238,7 +9238,7 @@
         <v>0</v>
       </c>
       <c r="X94" s="42" t="n">
-        <v>0.65</v>
+        <v>1.08</v>
       </c>
       <c r="Y94" s="39" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D95" s="39" t="n">
-        <v>105.12</v>
+        <v>104.9</v>
       </c>
       <c r="E95" s="42" t="n">
         <v>-1.01</v>
@@ -9320,8 +9320,8 @@
       <c r="W95" s="41" t="n">
         <v>1.26</v>
       </c>
-      <c r="X95" s="42" t="n">
-        <v>0.83</v>
+      <c r="X95" s="41" t="n">
+        <v>0.62</v>
       </c>
       <c r="Y95" s="39" t="inlineStr">
         <is>
@@ -9404,7 +9404,7 @@
         <v>-1.08</v>
       </c>
       <c r="X96" s="41" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="Y96" s="39" t="inlineStr">
         <is>
@@ -9427,7 +9427,7 @@
         </is>
       </c>
       <c r="D97" s="39" t="n">
-        <v>109.72</v>
+        <v>109.37</v>
       </c>
       <c r="E97" s="42" t="n">
         <v>-1.54</v>
@@ -9487,7 +9487,7 @@
         <v>0.76</v>
       </c>
       <c r="X97" s="41" t="n">
-        <v>0.32</v>
+        <v>0.21</v>
       </c>
       <c r="Y97" s="39" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         </is>
       </c>
       <c r="D98" s="39" t="n">
-        <v>473.28</v>
+        <v>475</v>
       </c>
       <c r="E98" s="41" t="n">
         <v>-0.35</v>
@@ -9570,7 +9570,7 @@
         <v>-0.49</v>
       </c>
       <c r="X98" s="42" t="n">
-        <v>2.35</v>
+        <v>2.59</v>
       </c>
       <c r="Y98" s="39" t="inlineStr">
         <is>
@@ -9593,7 +9593,7 @@
         </is>
       </c>
       <c r="D99" s="39" t="n">
-        <v>17.61</v>
+        <v>17.59</v>
       </c>
       <c r="E99" s="42" t="n">
         <v>0.43</v>
@@ -9736,7 +9736,7 @@
         <v>-0.48</v>
       </c>
       <c r="X100" s="42" t="n">
-        <v>0.28</v>
+        <v>0.21</v>
       </c>
       <c r="Y100" s="39" t="inlineStr">
         <is>
@@ -12092,7 +12092,7 @@
         </is>
       </c>
       <c r="D2" s="39" t="n">
-        <v>3646.91</v>
+        <v>4474.75</v>
       </c>
       <c r="E2" s="39" t="n">
         <v>54.7</v>
@@ -12152,7 +12152,7 @@
         <v>10.2</v>
       </c>
       <c r="X2" s="39" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Y2" s="39" t="inlineStr">
         <is>
@@ -12166,80 +12166,80 @@
       </c>
       <c r="B3" s="39" t="inlineStr">
         <is>
-          <t>sz399300</t>
+          <t>sh000016</t>
         </is>
       </c>
       <c r="C3" s="39" t="inlineStr">
         <is>
-          <t>沪深300</t>
+          <t>上证50</t>
         </is>
       </c>
       <c r="D3" s="39" t="n">
-        <v>1762.97</v>
+        <v>644.13</v>
       </c>
       <c r="E3" s="39" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="F3" s="39" t="n">
-        <v>2</v>
+        <v>42.5</v>
       </c>
       <c r="G3" s="39" t="n">
-        <v>0.1</v>
+        <v>1.4</v>
       </c>
       <c r="H3" s="39" t="n">
-        <v>30</v>
+        <v>44.1</v>
       </c>
       <c r="I3" s="39" t="n">
-        <v>48.2</v>
+        <v>58.4</v>
       </c>
       <c r="J3" s="39" t="n">
-        <v>69.5</v>
+        <v>69.2</v>
       </c>
       <c r="K3" s="39" t="n">
-        <v>75.8</v>
+        <v>75</v>
       </c>
       <c r="L3" s="39" t="n">
-        <v>80.40000000000001</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="M3" s="39" t="n">
-        <v>82</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="N3" s="39" t="n">
-        <v>90.7</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="O3" s="39" t="n">
-        <v>86.40000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="P3" s="39" t="n">
-        <v>87</v>
+        <v>77.7</v>
       </c>
       <c r="Q3" s="39" t="n">
-        <v>97.3</v>
+        <v>42.1</v>
       </c>
       <c r="R3" s="39" t="n">
-        <v>86.90000000000001</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="S3" s="39" t="n">
-        <v>92.2</v>
+        <v>24.4</v>
       </c>
       <c r="T3" s="39" t="n">
-        <v>54.6</v>
+        <v>63.5</v>
       </c>
       <c r="U3" s="39" t="n">
-        <v>75.5</v>
+        <v>31.2</v>
       </c>
       <c r="V3" s="39" t="n">
-        <v>26.2</v>
+        <v>50</v>
       </c>
       <c r="W3" s="39" t="n">
-        <v>10.1</v>
+        <v>21.8</v>
       </c>
       <c r="X3" s="39" t="n">
-        <v>6.7</v>
+        <v>7.4</v>
       </c>
       <c r="Y3" s="39" t="inlineStr">
         <is>
-          <t>沪深300</t>
+          <t>上证50</t>
         </is>
       </c>
     </row>
@@ -12249,80 +12249,80 @@
       </c>
       <c r="B4" s="39" t="inlineStr">
         <is>
-          <t>sh000016</t>
+          <t>sz399300</t>
         </is>
       </c>
       <c r="C4" s="39" t="inlineStr">
         <is>
-          <t>上证50</t>
+          <t>沪深300</t>
         </is>
       </c>
       <c r="D4" s="39" t="n">
-        <v>533.02</v>
+        <v>2160.78</v>
       </c>
       <c r="E4" s="39" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="F4" s="39" t="n">
-        <v>42.5</v>
+        <v>2</v>
       </c>
       <c r="G4" s="39" t="n">
-        <v>1.4</v>
+        <v>0.1</v>
       </c>
       <c r="H4" s="39" t="n">
-        <v>44.1</v>
+        <v>30</v>
       </c>
       <c r="I4" s="39" t="n">
-        <v>58.4</v>
+        <v>48.2</v>
       </c>
       <c r="J4" s="39" t="n">
-        <v>69.2</v>
+        <v>69.5</v>
       </c>
       <c r="K4" s="39" t="n">
-        <v>75</v>
+        <v>75.8</v>
       </c>
       <c r="L4" s="39" t="n">
-        <v>82.90000000000001</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="M4" s="39" t="n">
-        <v>88.40000000000001</v>
+        <v>82</v>
       </c>
       <c r="N4" s="39" t="n">
-        <v>96.59999999999999</v>
+        <v>90.7</v>
       </c>
       <c r="O4" s="39" t="n">
-        <v>96.8</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="P4" s="39" t="n">
-        <v>77.7</v>
+        <v>87</v>
       </c>
       <c r="Q4" s="39" t="n">
-        <v>42.1</v>
+        <v>97.3</v>
       </c>
       <c r="R4" s="39" t="n">
-        <v>66.09999999999999</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="S4" s="39" t="n">
-        <v>24.4</v>
+        <v>92.2</v>
       </c>
       <c r="T4" s="39" t="n">
-        <v>63.5</v>
+        <v>54.6</v>
       </c>
       <c r="U4" s="39" t="n">
-        <v>31.2</v>
+        <v>75.5</v>
       </c>
       <c r="V4" s="39" t="n">
-        <v>50</v>
+        <v>26.2</v>
       </c>
       <c r="W4" s="39" t="n">
-        <v>21.8</v>
+        <v>10.1</v>
       </c>
       <c r="X4" s="39" t="n">
-        <v>7.5</v>
+        <v>8.4</v>
       </c>
       <c r="Y4" s="39" t="inlineStr">
         <is>
-          <t>上证50</t>
+          <t>沪深300</t>
         </is>
       </c>
     </row>
@@ -12341,7 +12341,7 @@
         </is>
       </c>
       <c r="D5" s="39" t="n">
-        <v>3044.36</v>
+        <v>3757.36</v>
       </c>
       <c r="E5" s="39" t="n">
         <v>24.7</v>
@@ -12401,7 +12401,7 @@
         <v>18.3</v>
       </c>
       <c r="X5" s="39" t="n">
-        <v>52.9</v>
+        <v>56.6</v>
       </c>
       <c r="Y5" s="39" t="inlineStr">
         <is>
@@ -12424,7 +12424,7 @@
         </is>
       </c>
       <c r="D6" s="39" t="n">
-        <v>4721.75</v>
+        <v>5823.44</v>
       </c>
       <c r="E6" s="39" t="n">
         <v>23.8</v>
@@ -12484,7 +12484,7 @@
         <v>26.3</v>
       </c>
       <c r="X6" s="39" t="n">
-        <v>74.90000000000001</v>
+        <v>75.5</v>
       </c>
       <c r="Y6" s="39" t="inlineStr">
         <is>
@@ -12498,80 +12498,80 @@
       </c>
       <c r="B7" s="39" t="inlineStr">
         <is>
-          <t>sz399006</t>
+          <t>sh000852</t>
         </is>
       </c>
       <c r="C7" s="39" t="inlineStr">
         <is>
-          <t>创业板指</t>
+          <t>中证1000</t>
         </is>
       </c>
       <c r="D7" s="39" t="n">
-        <v>2068.24</v>
+        <v>2123.71</v>
       </c>
       <c r="E7" s="39" t="n">
-        <v>24.2</v>
+        <v>63.5</v>
       </c>
       <c r="F7" s="39" t="n">
-        <v>3.4</v>
+        <v>17.2</v>
       </c>
       <c r="G7" s="39" t="n">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="H7" s="39" t="n">
-        <v>19.3</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I7" s="39" t="n">
-        <v>33.2</v>
+        <v>43</v>
       </c>
       <c r="J7" s="39" t="n">
-        <v>63</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="K7" s="39" t="n">
-        <v>76.09999999999999</v>
+        <v>79.3</v>
       </c>
       <c r="L7" s="39" t="n">
-        <v>79.7</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="M7" s="39" t="n">
-        <v>71.40000000000001</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="N7" s="39" t="n">
-        <v>24.3</v>
+        <v>30</v>
       </c>
       <c r="O7" s="39" t="n">
-        <v>30.9</v>
+        <v>34</v>
       </c>
       <c r="P7" s="39" t="n">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="Q7" s="39" t="n">
-        <v>91.2</v>
+        <v>88.8</v>
       </c>
       <c r="R7" s="39" t="n">
-        <v>49.5</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="S7" s="39" t="n">
-        <v>77</v>
+        <v>92.2</v>
       </c>
       <c r="T7" s="39" t="n">
-        <v>45.3</v>
+        <v>33.4</v>
       </c>
       <c r="U7" s="39" t="n">
-        <v>67.8</v>
+        <v>51.7</v>
       </c>
       <c r="V7" s="39" t="n">
-        <v>35.2</v>
+        <v>18.4</v>
       </c>
       <c r="W7" s="39" t="n">
-        <v>29.6</v>
+        <v>47.1</v>
       </c>
       <c r="X7" s="39" t="n">
         <v>78.40000000000001</v>
       </c>
       <c r="Y7" s="39" t="inlineStr">
         <is>
-          <t>创业板指</t>
+          <t>中证1000</t>
         </is>
       </c>
     </row>
@@ -12581,80 +12581,80 @@
       </c>
       <c r="B8" s="39" t="inlineStr">
         <is>
-          <t>sh000852</t>
+          <t>sz399006</t>
         </is>
       </c>
       <c r="C8" s="39" t="inlineStr">
         <is>
-          <t>中证1000</t>
+          <t>创业板指</t>
         </is>
       </c>
       <c r="D8" s="39" t="n">
-        <v>1722.65</v>
+        <v>2559.16</v>
       </c>
       <c r="E8" s="39" t="n">
-        <v>63.5</v>
+        <v>24.2</v>
       </c>
       <c r="F8" s="39" t="n">
-        <v>17.2</v>
+        <v>3.4</v>
       </c>
       <c r="G8" s="39" t="n">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="H8" s="39" t="n">
-        <v>9.199999999999999</v>
+        <v>19.3</v>
       </c>
       <c r="I8" s="39" t="n">
-        <v>43</v>
+        <v>33.2</v>
       </c>
       <c r="J8" s="39" t="n">
-        <v>68.40000000000001</v>
+        <v>63</v>
       </c>
       <c r="K8" s="39" t="n">
-        <v>79.3</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="L8" s="39" t="n">
-        <v>87.59999999999999</v>
+        <v>79.7</v>
       </c>
       <c r="M8" s="39" t="n">
-        <v>69.59999999999999</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="N8" s="39" t="n">
-        <v>30</v>
+        <v>24.3</v>
       </c>
       <c r="O8" s="39" t="n">
-        <v>34</v>
+        <v>30.9</v>
       </c>
       <c r="P8" s="39" t="n">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="Q8" s="39" t="n">
-        <v>88.8</v>
+        <v>91.2</v>
       </c>
       <c r="R8" s="39" t="n">
-        <v>84.90000000000001</v>
+        <v>49.5</v>
       </c>
       <c r="S8" s="39" t="n">
-        <v>92.2</v>
+        <v>77</v>
       </c>
       <c r="T8" s="39" t="n">
-        <v>33.4</v>
+        <v>45.3</v>
       </c>
       <c r="U8" s="39" t="n">
-        <v>51.7</v>
+        <v>67.8</v>
       </c>
       <c r="V8" s="39" t="n">
-        <v>18.4</v>
+        <v>35.2</v>
       </c>
       <c r="W8" s="39" t="n">
-        <v>47.1</v>
+        <v>29.6</v>
       </c>
       <c r="X8" s="39" t="n">
-        <v>80</v>
+        <v>79.5</v>
       </c>
       <c r="Y8" s="39" t="inlineStr">
         <is>
-          <t>中证1000</t>
+          <t>创业板指</t>
         </is>
       </c>
     </row>
@@ -12673,7 +12673,7 @@
         </is>
       </c>
       <c r="D9" s="39" t="n">
-        <v>1280.95</v>
+        <v>1595.86</v>
       </c>
       <c r="E9" s="39" t="n">
         <v>54.3</v>
@@ -12733,7 +12733,7 @@
         <v>42.7</v>
       </c>
       <c r="X9" s="39" t="n">
-        <v>81.59999999999999</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="Y9" s="39" t="inlineStr">
         <is>
@@ -12756,7 +12756,7 @@
         </is>
       </c>
       <c r="D10" s="39" t="n">
-        <v>191.01</v>
+        <v>233.58</v>
       </c>
       <c r="E10" s="39" t="n">
         <v>23.6</v>
@@ -12816,7 +12816,7 @@
         <v>39</v>
       </c>
       <c r="X10" s="39" t="n">
-        <v>88.59999999999999</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="Y10" s="39" t="inlineStr">
         <is>
@@ -12918,7 +12918,7 @@
         </is>
       </c>
       <c r="D12" s="39" t="n">
-        <v>34.44</v>
+        <v>34.4</v>
       </c>
       <c r="E12" s="39" t="n">
         <v>43.6</v>
@@ -12978,7 +12978,7 @@
         <v>1.9</v>
       </c>
       <c r="X12" s="39" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="Y12" s="39" t="inlineStr">
         <is>
@@ -12999,7 +12999,7 @@
         </is>
       </c>
       <c r="D13" s="39" t="n">
-        <v>5.87</v>
+        <v>5.86</v>
       </c>
       <c r="E13" s="39" t="n">
         <v>33.9</v>
@@ -13059,7 +13059,7 @@
         <v>3</v>
       </c>
       <c r="X13" s="39" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="Y13" s="39" t="inlineStr">
         <is>
@@ -13080,7 +13080,7 @@
         </is>
       </c>
       <c r="D14" s="39" t="n">
-        <v>32.78</v>
+        <v>32.76</v>
       </c>
       <c r="E14" s="39" t="n">
         <v>15.5</v>
@@ -13140,7 +13140,7 @@
         <v>3.4</v>
       </c>
       <c r="X14" s="39" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="Y14" s="39" t="inlineStr">
         <is>
@@ -13152,82 +13152,80 @@
       <c r="A15" s="39" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="39" t="inlineStr">
-        <is>
-          <t>563000</t>
-        </is>
+      <c r="B15" s="39" t="n">
+        <v>512690</v>
       </c>
       <c r="C15" s="39" t="inlineStr">
         <is>
-          <t>中国A50ETF</t>
+          <t>酒ETF</t>
         </is>
       </c>
       <c r="D15" s="39" t="n">
-        <v>39.59</v>
+        <v>109.8</v>
       </c>
       <c r="E15" s="39" t="n">
-        <v>5.6</v>
+        <v>24</v>
       </c>
       <c r="F15" s="39" t="n">
-        <v>2</v>
+        <v>85.7</v>
       </c>
       <c r="G15" s="39" t="n">
-        <v>0.1</v>
+        <v>12.1</v>
       </c>
       <c r="H15" s="39" t="n">
-        <v>23.2</v>
+        <v>59</v>
       </c>
       <c r="I15" s="39" t="n">
-        <v>43.5</v>
+        <v>71.3</v>
       </c>
       <c r="J15" s="39" t="n">
-        <v>69.2</v>
+        <v>76.5</v>
       </c>
       <c r="K15" s="39" t="n">
-        <v>80.5</v>
+        <v>41.3</v>
       </c>
       <c r="L15" s="39" t="n">
-        <v>87.2</v>
+        <v>23</v>
       </c>
       <c r="M15" s="39" t="n">
-        <v>88.7</v>
+        <v>23</v>
       </c>
       <c r="N15" s="39" t="n">
-        <v>93.5</v>
+        <v>51.6</v>
       </c>
       <c r="O15" s="39" t="n">
-        <v>95.8</v>
+        <v>85</v>
       </c>
       <c r="P15" s="39" t="n">
-        <v>95.8</v>
+        <v>35.7</v>
       </c>
       <c r="Q15" s="39" t="n">
-        <v>98.7</v>
+        <v>16.5</v>
       </c>
       <c r="R15" s="39" t="n">
-        <v>99.40000000000001</v>
+        <v>14</v>
       </c>
       <c r="S15" s="39" t="n">
-        <v>71.8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="T15" s="39" t="n">
-        <v>81.90000000000001</v>
+        <v>4.1</v>
       </c>
       <c r="U15" s="39" t="n">
-        <v>81.90000000000001</v>
+        <v>29.2</v>
       </c>
       <c r="V15" s="39" t="n">
-        <v>33.7</v>
+        <v>14.3</v>
       </c>
       <c r="W15" s="39" t="n">
-        <v>5.9</v>
+        <v>3.5</v>
       </c>
       <c r="X15" s="39" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="Y15" s="39" t="inlineStr">
         <is>
-          <t>中国A50ETF</t>
+          <t>酒ETF</t>
         </is>
       </c>
     </row>
@@ -13235,80 +13233,82 @@
       <c r="A16" s="39" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="39" t="n">
-        <v>512690</v>
+      <c r="B16" s="39" t="inlineStr">
+        <is>
+          <t>563000</t>
+        </is>
       </c>
       <c r="C16" s="39" t="inlineStr">
         <is>
-          <t>酒ETF</t>
+          <t>中国A50ETF</t>
         </is>
       </c>
       <c r="D16" s="39" t="n">
-        <v>109.8</v>
+        <v>39.59</v>
       </c>
       <c r="E16" s="39" t="n">
-        <v>24</v>
+        <v>5.6</v>
       </c>
       <c r="F16" s="39" t="n">
-        <v>85.7</v>
+        <v>2</v>
       </c>
       <c r="G16" s="39" t="n">
-        <v>12.1</v>
+        <v>0.1</v>
       </c>
       <c r="H16" s="39" t="n">
-        <v>59</v>
+        <v>23.2</v>
       </c>
       <c r="I16" s="39" t="n">
-        <v>71.3</v>
+        <v>43.5</v>
       </c>
       <c r="J16" s="39" t="n">
-        <v>76.5</v>
+        <v>69.2</v>
       </c>
       <c r="K16" s="39" t="n">
-        <v>41.3</v>
+        <v>80.5</v>
       </c>
       <c r="L16" s="39" t="n">
-        <v>23</v>
+        <v>87.2</v>
       </c>
       <c r="M16" s="39" t="n">
-        <v>23</v>
+        <v>88.7</v>
       </c>
       <c r="N16" s="39" t="n">
-        <v>51.6</v>
+        <v>93.5</v>
       </c>
       <c r="O16" s="39" t="n">
-        <v>85</v>
+        <v>95.8</v>
       </c>
       <c r="P16" s="39" t="n">
-        <v>35.7</v>
+        <v>95.8</v>
       </c>
       <c r="Q16" s="39" t="n">
-        <v>16.5</v>
+        <v>98.7</v>
       </c>
       <c r="R16" s="39" t="n">
-        <v>14</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="S16" s="39" t="n">
-        <v>8.699999999999999</v>
+        <v>71.8</v>
       </c>
       <c r="T16" s="39" t="n">
-        <v>4.1</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="U16" s="39" t="n">
-        <v>29.2</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="V16" s="39" t="n">
-        <v>14.3</v>
+        <v>33.7</v>
       </c>
       <c r="W16" s="39" t="n">
-        <v>3.5</v>
+        <v>5.9</v>
       </c>
       <c r="X16" s="39" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="Y16" s="39" t="inlineStr">
         <is>
-          <t>酒ETF</t>
+          <t>中国A50ETF</t>
         </is>
       </c>
     </row>
@@ -13316,80 +13316,82 @@
       <c r="A17" s="39" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="39" t="n">
-        <v>159766</v>
+      <c r="B17" s="39" t="inlineStr">
+        <is>
+          <t>512040</t>
+        </is>
       </c>
       <c r="C17" s="39" t="inlineStr">
         <is>
-          <t>旅游ETF</t>
+          <t>价值100ETF</t>
         </is>
       </c>
       <c r="D17" s="39" t="n">
-        <v>31.2</v>
+        <v>19.16</v>
       </c>
       <c r="E17" s="39" t="n">
-        <v>49</v>
+        <v>66.3</v>
       </c>
       <c r="F17" s="39" t="n">
-        <v>82.09999999999999</v>
+        <v>18.5</v>
       </c>
       <c r="G17" s="39" t="n">
-        <v>11.2</v>
+        <v>1.6</v>
       </c>
       <c r="H17" s="39" t="n">
-        <v>52.8</v>
+        <v>24.3</v>
       </c>
       <c r="I17" s="39" t="n">
-        <v>80.8</v>
+        <v>31.6</v>
       </c>
       <c r="J17" s="39" t="n">
-        <v>85.3</v>
+        <v>67.3</v>
       </c>
       <c r="K17" s="39" t="n">
-        <v>64.3</v>
+        <v>59.9</v>
       </c>
       <c r="L17" s="39" t="n">
-        <v>73.59999999999999</v>
+        <v>75.8</v>
       </c>
       <c r="M17" s="39" t="n">
-        <v>36</v>
+        <v>84.2</v>
       </c>
       <c r="N17" s="39" t="n">
-        <v>73.7</v>
+        <v>49.8</v>
       </c>
       <c r="O17" s="39" t="n">
-        <v>84.3</v>
+        <v>58.3</v>
       </c>
       <c r="P17" s="39" t="n">
-        <v>29</v>
+        <v>58.3</v>
       </c>
       <c r="Q17" s="39" t="n">
-        <v>22.7</v>
+        <v>90.5</v>
       </c>
       <c r="R17" s="39" t="n">
-        <v>15.8</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="S17" s="39" t="n">
-        <v>6.3</v>
+        <v>98</v>
       </c>
       <c r="T17" s="39" t="n">
-        <v>5.1</v>
+        <v>98</v>
       </c>
       <c r="U17" s="39" t="n">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="V17" s="39" t="n">
-        <v>11.6</v>
+        <v>13.4</v>
       </c>
       <c r="W17" s="39" t="n">
-        <v>6.8</v>
+        <v>10.4</v>
       </c>
       <c r="X17" s="39" t="n">
         <v>3.7</v>
       </c>
       <c r="Y17" s="39" t="inlineStr">
         <is>
-          <t>旅游ETF</t>
+          <t>价值100ETF</t>
         </is>
       </c>
     </row>
@@ -13397,82 +13399,80 @@
       <c r="A18" s="39" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="39" t="inlineStr">
-        <is>
-          <t>512040</t>
-        </is>
+      <c r="B18" s="39" t="n">
+        <v>159766</v>
       </c>
       <c r="C18" s="39" t="inlineStr">
         <is>
-          <t>价值100ETF</t>
+          <t>旅游ETF</t>
         </is>
       </c>
       <c r="D18" s="39" t="n">
-        <v>19.16</v>
+        <v>31.29</v>
       </c>
       <c r="E18" s="39" t="n">
-        <v>66.3</v>
+        <v>49</v>
       </c>
       <c r="F18" s="39" t="n">
-        <v>18.5</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="G18" s="39" t="n">
-        <v>1.6</v>
+        <v>11.2</v>
       </c>
       <c r="H18" s="39" t="n">
-        <v>24.3</v>
+        <v>52.8</v>
       </c>
       <c r="I18" s="39" t="n">
-        <v>31.6</v>
+        <v>80.8</v>
       </c>
       <c r="J18" s="39" t="n">
-        <v>67.3</v>
+        <v>85.3</v>
       </c>
       <c r="K18" s="39" t="n">
-        <v>59.9</v>
+        <v>64.3</v>
       </c>
       <c r="L18" s="39" t="n">
-        <v>75.8</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="M18" s="39" t="n">
-        <v>84.2</v>
+        <v>36</v>
       </c>
       <c r="N18" s="39" t="n">
-        <v>49.8</v>
+        <v>73.7</v>
       </c>
       <c r="O18" s="39" t="n">
-        <v>58.3</v>
+        <v>84.3</v>
       </c>
       <c r="P18" s="39" t="n">
-        <v>58.3</v>
+        <v>29</v>
       </c>
       <c r="Q18" s="39" t="n">
-        <v>90.5</v>
+        <v>22.7</v>
       </c>
       <c r="R18" s="39" t="n">
-        <v>94.09999999999999</v>
+        <v>15.8</v>
       </c>
       <c r="S18" s="39" t="n">
-        <v>98</v>
+        <v>6.3</v>
       </c>
       <c r="T18" s="39" t="n">
-        <v>98</v>
+        <v>5.1</v>
       </c>
       <c r="U18" s="39" t="n">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="V18" s="39" t="n">
-        <v>13.4</v>
+        <v>11.6</v>
       </c>
       <c r="W18" s="39" t="n">
-        <v>10.4</v>
+        <v>6.8</v>
       </c>
       <c r="X18" s="39" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="Y18" s="39" t="inlineStr">
         <is>
-          <t>价值100ETF</t>
+          <t>旅游ETF</t>
         </is>
       </c>
     </row>
@@ -13480,80 +13480,82 @@
       <c r="A19" s="39" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="39" t="n">
-        <v>510300</v>
+      <c r="B19" s="39" t="inlineStr">
+        <is>
+          <t>560050</t>
+        </is>
       </c>
       <c r="C19" s="39" t="inlineStr">
         <is>
-          <t>沪深300ETF</t>
+          <t>MSCI中国A50ETF</t>
         </is>
       </c>
       <c r="D19" s="39" t="n">
-        <v>3733.98</v>
+        <v>46.96</v>
       </c>
       <c r="E19" s="39" t="n">
-        <v>7.4</v>
+        <v>5.7</v>
       </c>
       <c r="F19" s="39" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="G19" s="39" t="n">
         <v>0.1</v>
       </c>
       <c r="H19" s="39" t="n">
-        <v>20.2</v>
+        <v>30.2</v>
       </c>
       <c r="I19" s="39" t="n">
-        <v>43.6</v>
+        <v>40.4</v>
       </c>
       <c r="J19" s="39" t="n">
-        <v>72.09999999999999</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="K19" s="39" t="n">
-        <v>76.3</v>
+        <v>80.5</v>
       </c>
       <c r="L19" s="39" t="n">
-        <v>80.59999999999999</v>
+        <v>86.8</v>
       </c>
       <c r="M19" s="39" t="n">
-        <v>82.90000000000001</v>
+        <v>88.3</v>
       </c>
       <c r="N19" s="39" t="n">
-        <v>90</v>
+        <v>90.5</v>
       </c>
       <c r="O19" s="39" t="n">
-        <v>92.2</v>
+        <v>95.5</v>
       </c>
       <c r="P19" s="39" t="n">
-        <v>96.8</v>
+        <v>56</v>
       </c>
       <c r="Q19" s="39" t="n">
-        <v>97.40000000000001</v>
+        <v>85.7</v>
       </c>
       <c r="R19" s="39" t="n">
-        <v>98.40000000000001</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="S19" s="39" t="n">
-        <v>99.2</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="T19" s="39" t="n">
-        <v>99.2</v>
+        <v>95.8</v>
       </c>
       <c r="U19" s="39" t="n">
-        <v>99.2</v>
+        <v>58.8</v>
       </c>
       <c r="V19" s="39" t="n">
-        <v>14.3</v>
+        <v>33.2</v>
       </c>
       <c r="W19" s="39" t="n">
-        <v>4.8</v>
+        <v>7.4</v>
       </c>
       <c r="X19" s="39" t="n">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="Y19" s="39" t="inlineStr">
         <is>
-          <t>沪深300ETF</t>
+          <t>MSCI中国A50ETF</t>
         </is>
       </c>
     </row>
@@ -13561,82 +13563,80 @@
       <c r="A20" s="39" t="n">
         <v>18</v>
       </c>
-      <c r="B20" s="39" t="inlineStr">
-        <is>
-          <t>560050</t>
-        </is>
+      <c r="B20" s="39" t="n">
+        <v>510880</v>
       </c>
       <c r="C20" s="39" t="inlineStr">
         <is>
-          <t>MSCI中国A50ETF</t>
+          <t>红利ETF</t>
         </is>
       </c>
       <c r="D20" s="39" t="n">
-        <v>47.02</v>
+        <v>217.85</v>
       </c>
       <c r="E20" s="39" t="n">
-        <v>5.7</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="F20" s="39" t="n">
-        <v>2.2</v>
+        <v>89.2</v>
       </c>
       <c r="G20" s="39" t="n">
-        <v>0.1</v>
+        <v>5</v>
       </c>
       <c r="H20" s="39" t="n">
-        <v>30.2</v>
+        <v>43.6</v>
       </c>
       <c r="I20" s="39" t="n">
-        <v>40.4</v>
+        <v>46.3</v>
       </c>
       <c r="J20" s="39" t="n">
-        <v>70.59999999999999</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="K20" s="39" t="n">
-        <v>80.5</v>
+        <v>49</v>
       </c>
       <c r="L20" s="39" t="n">
-        <v>86.8</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="M20" s="39" t="n">
-        <v>88.3</v>
+        <v>84.3</v>
       </c>
       <c r="N20" s="39" t="n">
-        <v>90.5</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="O20" s="39" t="n">
-        <v>95.5</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="P20" s="39" t="n">
-        <v>56</v>
+        <v>70.7</v>
       </c>
       <c r="Q20" s="39" t="n">
-        <v>85.7</v>
+        <v>30</v>
       </c>
       <c r="R20" s="39" t="n">
-        <v>92.09999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="S20" s="39" t="n">
-        <v>93.90000000000001</v>
+        <v>24.9</v>
       </c>
       <c r="T20" s="39" t="n">
-        <v>95.8</v>
+        <v>62.9</v>
       </c>
       <c r="U20" s="39" t="n">
-        <v>58.8</v>
+        <v>51</v>
       </c>
       <c r="V20" s="39" t="n">
-        <v>33.2</v>
+        <v>64.5</v>
       </c>
       <c r="W20" s="39" t="n">
-        <v>7.4</v>
+        <v>20.2</v>
       </c>
       <c r="X20" s="39" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="Y20" s="39" t="inlineStr">
         <is>
-          <t>MSCI中国A50ETF</t>
+          <t>红利ETF</t>
         </is>
       </c>
     </row>
@@ -13645,79 +13645,79 @@
         <v>19</v>
       </c>
       <c r="B21" s="39" t="n">
-        <v>510880</v>
+        <v>510050</v>
       </c>
       <c r="C21" s="39" t="inlineStr">
         <is>
-          <t>红利ETF</t>
+          <t>上证50ETF</t>
         </is>
       </c>
       <c r="D21" s="39" t="n">
-        <v>217.93</v>
+        <v>1615.85</v>
       </c>
       <c r="E21" s="39" t="n">
-        <v>85.90000000000001</v>
+        <v>7.7</v>
       </c>
       <c r="F21" s="39" t="n">
-        <v>89.2</v>
+        <v>42</v>
       </c>
       <c r="G21" s="39" t="n">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="H21" s="39" t="n">
-        <v>43.6</v>
+        <v>43.3</v>
       </c>
       <c r="I21" s="39" t="n">
-        <v>46.3</v>
+        <v>56.3</v>
       </c>
       <c r="J21" s="39" t="n">
-        <v>69.09999999999999</v>
+        <v>71.8</v>
       </c>
       <c r="K21" s="39" t="n">
-        <v>49</v>
+        <v>75.5</v>
       </c>
       <c r="L21" s="39" t="n">
-        <v>75.59999999999999</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="M21" s="39" t="n">
-        <v>84.3</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="N21" s="39" t="n">
-        <v>91.09999999999999</v>
+        <v>96.5</v>
       </c>
       <c r="O21" s="39" t="n">
-        <v>66.09999999999999</v>
+        <v>97</v>
       </c>
       <c r="P21" s="39" t="n">
-        <v>70.7</v>
+        <v>97.5</v>
       </c>
       <c r="Q21" s="39" t="n">
-        <v>30</v>
+        <v>38.9</v>
       </c>
       <c r="R21" s="39" t="n">
-        <v>67.5</v>
+        <v>63.4</v>
       </c>
       <c r="S21" s="39" t="n">
-        <v>24.9</v>
+        <v>27.8</v>
       </c>
       <c r="T21" s="39" t="n">
-        <v>62.9</v>
+        <v>63.6</v>
       </c>
       <c r="U21" s="39" t="n">
-        <v>51</v>
+        <v>37.2</v>
       </c>
       <c r="V21" s="39" t="n">
-        <v>64.5</v>
+        <v>46.2</v>
       </c>
       <c r="W21" s="39" t="n">
-        <v>20.2</v>
+        <v>19.1</v>
       </c>
       <c r="X21" s="39" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="Y21" s="39" t="inlineStr">
         <is>
-          <t>红利ETF</t>
+          <t>上证50ETF</t>
         </is>
       </c>
     </row>
@@ -13726,79 +13726,79 @@
         <v>20</v>
       </c>
       <c r="B22" s="39" t="n">
-        <v>510050</v>
+        <v>516970</v>
       </c>
       <c r="C22" s="39" t="inlineStr">
         <is>
-          <t>上证50ETF</t>
+          <t>基建50ETF</t>
         </is>
       </c>
       <c r="D22" s="39" t="n">
-        <v>1615.85</v>
+        <v>24.52</v>
       </c>
       <c r="E22" s="39" t="n">
-        <v>7.7</v>
+        <v>45</v>
       </c>
       <c r="F22" s="39" t="n">
-        <v>42</v>
+        <v>72.8</v>
       </c>
       <c r="G22" s="39" t="n">
-        <v>1.5</v>
+        <v>5.3</v>
       </c>
       <c r="H22" s="39" t="n">
-        <v>43.3</v>
+        <v>46.2</v>
       </c>
       <c r="I22" s="39" t="n">
-        <v>56.3</v>
+        <v>65.3</v>
       </c>
       <c r="J22" s="39" t="n">
-        <v>71.8</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="K22" s="39" t="n">
-        <v>75.5</v>
+        <v>49.9</v>
       </c>
       <c r="L22" s="39" t="n">
-        <v>82.59999999999999</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="M22" s="39" t="n">
-        <v>87.90000000000001</v>
+        <v>43</v>
       </c>
       <c r="N22" s="39" t="n">
-        <v>96.5</v>
+        <v>50</v>
       </c>
       <c r="O22" s="39" t="n">
-        <v>97</v>
+        <v>71.2</v>
       </c>
       <c r="P22" s="39" t="n">
-        <v>97.5</v>
+        <v>90.3</v>
       </c>
       <c r="Q22" s="39" t="n">
-        <v>38.9</v>
+        <v>65.5</v>
       </c>
       <c r="R22" s="39" t="n">
-        <v>63.4</v>
+        <v>88.2</v>
       </c>
       <c r="S22" s="39" t="n">
-        <v>27.8</v>
+        <v>88.2</v>
       </c>
       <c r="T22" s="39" t="n">
-        <v>63.6</v>
+        <v>41.4</v>
       </c>
       <c r="U22" s="39" t="n">
-        <v>37.2</v>
+        <v>81.2</v>
       </c>
       <c r="V22" s="39" t="n">
-        <v>46.2</v>
+        <v>21.8</v>
       </c>
       <c r="W22" s="39" t="n">
-        <v>19.1</v>
+        <v>17.6</v>
       </c>
       <c r="X22" s="39" t="n">
-        <v>5.7</v>
+        <v>8.9</v>
       </c>
       <c r="Y22" s="39" t="inlineStr">
         <is>
-          <t>上证50ETF</t>
+          <t>基建50ETF</t>
         </is>
       </c>
     </row>
@@ -13806,80 +13806,82 @@
       <c r="A23" s="39" t="n">
         <v>21</v>
       </c>
-      <c r="B23" s="39" t="n">
-        <v>516970</v>
+      <c r="B23" s="39" t="inlineStr">
+        <is>
+          <t>512890</t>
+        </is>
       </c>
       <c r="C23" s="39" t="inlineStr">
         <is>
-          <t>基建50ETF</t>
+          <t>红利低波ETF</t>
         </is>
       </c>
       <c r="D23" s="39" t="n">
-        <v>24.52</v>
+        <v>155.86</v>
       </c>
       <c r="E23" s="39" t="n">
-        <v>45</v>
+        <v>94.2</v>
       </c>
       <c r="F23" s="39" t="n">
-        <v>72.8</v>
+        <v>97</v>
       </c>
       <c r="G23" s="39" t="n">
-        <v>5.3</v>
+        <v>6.1</v>
       </c>
       <c r="H23" s="39" t="n">
-        <v>46.2</v>
+        <v>46</v>
       </c>
       <c r="I23" s="39" t="n">
-        <v>65.3</v>
+        <v>41.5</v>
       </c>
       <c r="J23" s="39" t="n">
-        <v>69.09999999999999</v>
+        <v>55.7</v>
       </c>
       <c r="K23" s="39" t="n">
-        <v>49.9</v>
+        <v>43.2</v>
       </c>
       <c r="L23" s="39" t="n">
-        <v>66.09999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="M23" s="39" t="n">
-        <v>43</v>
+        <v>89.7</v>
       </c>
       <c r="N23" s="39" t="n">
-        <v>50</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="O23" s="39" t="n">
-        <v>71.2</v>
+        <v>95.5</v>
       </c>
       <c r="P23" s="39" t="n">
-        <v>90.3</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="Q23" s="39" t="n">
-        <v>65.5</v>
+        <v>39.7</v>
       </c>
       <c r="R23" s="39" t="n">
-        <v>88.2</v>
+        <v>74.7</v>
       </c>
       <c r="S23" s="39" t="n">
-        <v>88.2</v>
+        <v>40.8</v>
       </c>
       <c r="T23" s="39" t="n">
-        <v>41.4</v>
+        <v>79</v>
       </c>
       <c r="U23" s="39" t="n">
-        <v>81.2</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="V23" s="39" t="n">
-        <v>21.8</v>
+        <v>86</v>
       </c>
       <c r="W23" s="39" t="n">
-        <v>17.6</v>
+        <v>52.4</v>
       </c>
       <c r="X23" s="39" t="n">
-        <v>8.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y23" s="39" t="inlineStr">
         <is>
-          <t>基建50ETF</t>
+          <t>红利低波ETF</t>
         </is>
       </c>
     </row>
@@ -13896,7 +13898,7 @@
         </is>
       </c>
       <c r="D24" s="39" t="n">
-        <v>45.32</v>
+        <v>45.39</v>
       </c>
       <c r="E24" s="39" t="n">
         <v>64.59999999999999</v>
@@ -13956,7 +13958,7 @@
         <v>36.2</v>
       </c>
       <c r="X24" s="39" t="n">
-        <v>8.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y24" s="39" t="inlineStr">
         <is>
@@ -13968,82 +13970,80 @@
       <c r="A25" s="39" t="n">
         <v>23</v>
       </c>
-      <c r="B25" s="39" t="inlineStr">
-        <is>
-          <t>512890</t>
-        </is>
+      <c r="B25" s="39" t="n">
+        <v>512800</v>
       </c>
       <c r="C25" s="39" t="inlineStr">
         <is>
-          <t>红利低波ETF</t>
+          <t>银行ETF</t>
         </is>
       </c>
       <c r="D25" s="39" t="n">
-        <v>155.72</v>
+        <v>74.64</v>
       </c>
       <c r="E25" s="39" t="n">
-        <v>94.2</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="F25" s="39" t="n">
-        <v>97</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="G25" s="39" t="n">
-        <v>6.1</v>
+        <v>11.2</v>
       </c>
       <c r="H25" s="39" t="n">
-        <v>46</v>
+        <v>11.2</v>
       </c>
       <c r="I25" s="39" t="n">
-        <v>41.5</v>
+        <v>5.8</v>
       </c>
       <c r="J25" s="39" t="n">
-        <v>55.7</v>
+        <v>50.2</v>
       </c>
       <c r="K25" s="39" t="n">
-        <v>43.2</v>
+        <v>62.1</v>
       </c>
       <c r="L25" s="39" t="n">
-        <v>74.2</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="M25" s="39" t="n">
-        <v>89.7</v>
+        <v>94.7</v>
       </c>
       <c r="N25" s="39" t="n">
-        <v>95.09999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="O25" s="39" t="n">
-        <v>95.5</v>
+        <v>97.5</v>
       </c>
       <c r="P25" s="39" t="n">
-        <v>97.09999999999999</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="Q25" s="39" t="n">
-        <v>39.7</v>
+        <v>36</v>
       </c>
       <c r="R25" s="39" t="n">
-        <v>74.7</v>
+        <v>65</v>
       </c>
       <c r="S25" s="39" t="n">
-        <v>40.8</v>
+        <v>41.7</v>
       </c>
       <c r="T25" s="39" t="n">
-        <v>79</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="U25" s="39" t="n">
-        <v>69.90000000000001</v>
+        <v>56.7</v>
       </c>
       <c r="V25" s="39" t="n">
-        <v>86</v>
+        <v>81.7</v>
       </c>
       <c r="W25" s="39" t="n">
-        <v>52.4</v>
+        <v>60.3</v>
       </c>
       <c r="X25" s="39" t="n">
-        <v>9.199999999999999</v>
+        <v>10.6</v>
       </c>
       <c r="Y25" s="39" t="inlineStr">
         <is>
-          <t>红利低波ETF</t>
+          <t>银行ETF</t>
         </is>
       </c>
     </row>
@@ -14052,79 +14052,79 @@
         <v>24</v>
       </c>
       <c r="B26" s="39" t="n">
-        <v>512800</v>
+        <v>512400</v>
       </c>
       <c r="C26" s="39" t="inlineStr">
         <is>
-          <t>银行ETF</t>
+          <t>有色金属ETF</t>
         </is>
       </c>
       <c r="D26" s="39" t="n">
-        <v>74.59</v>
+        <v>45.19</v>
       </c>
       <c r="E26" s="39" t="n">
-        <v>71.90000000000001</v>
+        <v>10.7</v>
       </c>
       <c r="F26" s="39" t="n">
-        <v>81.09999999999999</v>
+        <v>3.6</v>
       </c>
       <c r="G26" s="39" t="n">
-        <v>11.2</v>
+        <v>0.4</v>
       </c>
       <c r="H26" s="39" t="n">
-        <v>11.2</v>
+        <v>18.5</v>
       </c>
       <c r="I26" s="39" t="n">
-        <v>5.8</v>
+        <v>39</v>
       </c>
       <c r="J26" s="39" t="n">
-        <v>50.2</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="K26" s="39" t="n">
-        <v>62.1</v>
+        <v>81</v>
       </c>
       <c r="L26" s="39" t="n">
-        <v>80.59999999999999</v>
+        <v>91.8</v>
       </c>
       <c r="M26" s="39" t="n">
-        <v>94.7</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="N26" s="39" t="n">
-        <v>97.3</v>
+        <v>63.2</v>
       </c>
       <c r="O26" s="39" t="n">
-        <v>97.5</v>
+        <v>38.9</v>
       </c>
       <c r="P26" s="39" t="n">
-        <v>99.09999999999999</v>
+        <v>26.7</v>
       </c>
       <c r="Q26" s="39" t="n">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="R26" s="39" t="n">
-        <v>65</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="S26" s="39" t="n">
-        <v>41.7</v>
+        <v>35.4</v>
       </c>
       <c r="T26" s="39" t="n">
-        <v>76.90000000000001</v>
+        <v>23.7</v>
       </c>
       <c r="U26" s="39" t="n">
-        <v>56.7</v>
+        <v>35.8</v>
       </c>
       <c r="V26" s="39" t="n">
-        <v>81.7</v>
+        <v>21.9</v>
       </c>
       <c r="W26" s="39" t="n">
-        <v>60.3</v>
+        <v>15.8</v>
       </c>
       <c r="X26" s="39" t="n">
-        <v>10.6</v>
+        <v>12.3</v>
       </c>
       <c r="Y26" s="39" t="inlineStr">
         <is>
-          <t>银行ETF</t>
+          <t>有色金属ETF</t>
         </is>
       </c>
     </row>
@@ -14222,7 +14222,7 @@
         </is>
       </c>
       <c r="D28" s="39" t="n">
-        <v>8.85</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="E28" s="39" t="n">
         <v>40.5</v>
@@ -14294,82 +14294,80 @@
       <c r="A29" s="39" t="n">
         <v>27</v>
       </c>
-      <c r="B29" s="39" t="inlineStr">
-        <is>
-          <t>510210</t>
-        </is>
+      <c r="B29" s="39" t="n">
+        <v>561320</v>
       </c>
       <c r="C29" s="39" t="inlineStr">
         <is>
-          <t>上证指数ETF</t>
+          <t>交运ETF</t>
         </is>
       </c>
       <c r="D29" s="39" t="n">
-        <v>48.27</v>
+        <v>0.64</v>
       </c>
       <c r="E29" s="39" t="n">
-        <v>63.9</v>
+        <v>52</v>
       </c>
       <c r="F29" s="39" t="n">
-        <v>21.4</v>
+        <v>42.5</v>
       </c>
       <c r="G29" s="39" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H29" s="39" t="n">
-        <v>24.8</v>
+        <v>53</v>
       </c>
       <c r="I29" s="39" t="n">
-        <v>43.7</v>
+        <v>64.2</v>
       </c>
       <c r="J29" s="39" t="n">
-        <v>64.2</v>
+        <v>77</v>
       </c>
       <c r="K29" s="39" t="n">
-        <v>73.7</v>
+        <v>57.9</v>
       </c>
       <c r="L29" s="39" t="n">
-        <v>86.40000000000001</v>
+        <v>57.9</v>
       </c>
       <c r="M29" s="39" t="n">
-        <v>88.09999999999999</v>
+        <v>49.6</v>
       </c>
       <c r="N29" s="39" t="n">
-        <v>90.40000000000001</v>
+        <v>89.3</v>
       </c>
       <c r="O29" s="39" t="n">
-        <v>93.09999999999999</v>
+        <v>89.3</v>
       </c>
       <c r="P29" s="39" t="n">
-        <v>97.40000000000001</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="Q29" s="39" t="n">
-        <v>99</v>
+        <v>21.5</v>
       </c>
       <c r="R29" s="39" t="n">
-        <v>99.59999999999999</v>
+        <v>46.5</v>
       </c>
       <c r="S29" s="39" t="n">
-        <v>64</v>
+        <v>23.8</v>
       </c>
       <c r="T29" s="39" t="n">
-        <v>73.5</v>
+        <v>61.4</v>
       </c>
       <c r="U29" s="39" t="n">
-        <v>73.5</v>
+        <v>61.4</v>
       </c>
       <c r="V29" s="39" t="n">
-        <v>23.7</v>
+        <v>37</v>
       </c>
       <c r="W29" s="39" t="n">
-        <v>14.1</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="X29" s="39" t="n">
-        <v>14.1</v>
+        <v>16.4</v>
       </c>
       <c r="Y29" s="39" t="inlineStr">
         <is>
-          <t>上证指数ETF</t>
+          <t>交运ETF</t>
         </is>
       </c>
     </row>
@@ -14378,79 +14376,79 @@
         <v>28</v>
       </c>
       <c r="B30" s="39" t="n">
-        <v>561320</v>
+        <v>510300</v>
       </c>
       <c r="C30" s="39" t="inlineStr">
         <is>
-          <t>交运ETF</t>
+          <t>沪深300ETF</t>
         </is>
       </c>
       <c r="D30" s="39" t="n">
-        <v>0.64</v>
+        <v>3734.94</v>
       </c>
       <c r="E30" s="39" t="n">
-        <v>52</v>
+        <v>7.4</v>
       </c>
       <c r="F30" s="39" t="n">
-        <v>42.5</v>
+        <v>2</v>
       </c>
       <c r="G30" s="39" t="n">
-        <v>1.7</v>
+        <v>0.1</v>
       </c>
       <c r="H30" s="39" t="n">
-        <v>53</v>
+        <v>20.2</v>
       </c>
       <c r="I30" s="39" t="n">
-        <v>64.2</v>
+        <v>43.6</v>
       </c>
       <c r="J30" s="39" t="n">
-        <v>77</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K30" s="39" t="n">
-        <v>57.9</v>
+        <v>76.3</v>
       </c>
       <c r="L30" s="39" t="n">
-        <v>57.9</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="M30" s="39" t="n">
-        <v>49.6</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="N30" s="39" t="n">
-        <v>89.3</v>
+        <v>90</v>
       </c>
       <c r="O30" s="39" t="n">
-        <v>89.3</v>
+        <v>92.2</v>
       </c>
       <c r="P30" s="39" t="n">
-        <v>71.90000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="Q30" s="39" t="n">
-        <v>21.5</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="R30" s="39" t="n">
-        <v>46.5</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="S30" s="39" t="n">
-        <v>23.8</v>
+        <v>99.2</v>
       </c>
       <c r="T30" s="39" t="n">
-        <v>61.4</v>
+        <v>99.2</v>
       </c>
       <c r="U30" s="39" t="n">
-        <v>61.4</v>
+        <v>99.2</v>
       </c>
       <c r="V30" s="39" t="n">
-        <v>37</v>
+        <v>14.3</v>
       </c>
       <c r="W30" s="39" t="n">
-        <v>84.90000000000001</v>
+        <v>4.8</v>
       </c>
       <c r="X30" s="39" t="n">
-        <v>15.3</v>
+        <v>20</v>
       </c>
       <c r="Y30" s="39" t="inlineStr">
         <is>
-          <t>交运ETF</t>
+          <t>沪深300ETF</t>
         </is>
       </c>
     </row>
@@ -14459,79 +14457,79 @@
         <v>29</v>
       </c>
       <c r="B31" s="39" t="n">
-        <v>159905</v>
+        <v>159611</v>
       </c>
       <c r="C31" s="39" t="inlineStr">
         <is>
-          <t>深红利ETF</t>
+          <t>电力ETF</t>
         </is>
       </c>
       <c r="D31" s="39" t="n">
-        <v>31.54</v>
+        <v>34.14</v>
       </c>
       <c r="E31" s="39" t="n">
-        <v>39.5</v>
+        <v>46</v>
       </c>
       <c r="F31" s="39" t="n">
-        <v>10.7</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="G31" s="39" t="n">
-        <v>0.7</v>
+        <v>16.9</v>
       </c>
       <c r="H31" s="39" t="n">
-        <v>42.7</v>
+        <v>47.3</v>
       </c>
       <c r="I31" s="39" t="n">
-        <v>53.6</v>
+        <v>55.1</v>
       </c>
       <c r="J31" s="39" t="n">
-        <v>73.09999999999999</v>
+        <v>65.3</v>
       </c>
       <c r="K31" s="39" t="n">
-        <v>57.6</v>
+        <v>38.8</v>
       </c>
       <c r="L31" s="39" t="n">
-        <v>49.7</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="M31" s="39" t="n">
-        <v>73.7</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="N31" s="39" t="n">
-        <v>78</v>
+        <v>86.8</v>
       </c>
       <c r="O31" s="39" t="n">
-        <v>52.6</v>
+        <v>86.8</v>
       </c>
       <c r="P31" s="39" t="n">
-        <v>61.1</v>
+        <v>26.1</v>
       </c>
       <c r="Q31" s="39" t="n">
-        <v>86</v>
+        <v>59.8</v>
       </c>
       <c r="R31" s="39" t="n">
-        <v>86</v>
+        <v>45.9</v>
       </c>
       <c r="S31" s="39" t="n">
-        <v>24.1</v>
+        <v>19.1</v>
       </c>
       <c r="T31" s="39" t="n">
-        <v>18.8</v>
+        <v>80.3</v>
       </c>
       <c r="U31" s="39" t="n">
-        <v>5.8</v>
+        <v>94.3</v>
       </c>
       <c r="V31" s="39" t="n">
-        <v>48.5</v>
+        <v>97</v>
       </c>
       <c r="W31" s="39" t="n">
-        <v>25.4</v>
+        <v>29.1</v>
       </c>
       <c r="X31" s="39" t="n">
-        <v>15.6</v>
+        <v>20.5</v>
       </c>
       <c r="Y31" s="39" t="inlineStr">
         <is>
-          <t>深红利ETF</t>
+          <t>电力ETF</t>
         </is>
       </c>
     </row>
@@ -14540,79 +14538,79 @@
         <v>30</v>
       </c>
       <c r="B32" s="39" t="n">
-        <v>512400</v>
+        <v>517090</v>
       </c>
       <c r="C32" s="39" t="inlineStr">
         <is>
-          <t>有色金属ETF</t>
+          <t>央企共赢ETF</t>
         </is>
       </c>
       <c r="D32" s="39" t="n">
-        <v>45.23</v>
+        <v>4.32</v>
       </c>
       <c r="E32" s="39" t="n">
-        <v>10.7</v>
+        <v>34.7</v>
       </c>
       <c r="F32" s="39" t="n">
-        <v>3.6</v>
+        <v>76.2</v>
       </c>
       <c r="G32" s="39" t="n">
-        <v>0.4</v>
+        <v>4</v>
       </c>
       <c r="H32" s="39" t="n">
-        <v>18.5</v>
+        <v>59.4</v>
       </c>
       <c r="I32" s="39" t="n">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="J32" s="39" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="K32" s="39" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="L32" s="39" t="n">
+        <v>64.8</v>
+      </c>
+      <c r="M32" s="39" t="n">
         <v>76.09999999999999</v>
       </c>
-      <c r="K32" s="39" t="n">
-        <v>81</v>
-      </c>
-      <c r="L32" s="39" t="n">
-        <v>91.8</v>
-      </c>
-      <c r="M32" s="39" t="n">
-        <v>67.40000000000001</v>
-      </c>
       <c r="N32" s="39" t="n">
-        <v>63.2</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="O32" s="39" t="n">
-        <v>38.9</v>
+        <v>91.2</v>
       </c>
       <c r="P32" s="39" t="n">
-        <v>26.7</v>
+        <v>94</v>
       </c>
       <c r="Q32" s="39" t="n">
-        <v>92</v>
+        <v>32.1</v>
       </c>
       <c r="R32" s="39" t="n">
-        <v>74.90000000000001</v>
+        <v>68.7</v>
       </c>
       <c r="S32" s="39" t="n">
-        <v>35.4</v>
+        <v>41</v>
       </c>
       <c r="T32" s="39" t="n">
-        <v>23.7</v>
+        <v>41</v>
       </c>
       <c r="U32" s="39" t="n">
-        <v>35.8</v>
+        <v>17.9</v>
       </c>
       <c r="V32" s="39" t="n">
-        <v>21.9</v>
+        <v>76.8</v>
       </c>
       <c r="W32" s="39" t="n">
-        <v>15.8</v>
+        <v>26.4</v>
       </c>
       <c r="X32" s="39" t="n">
-        <v>15.8</v>
+        <v>21.6</v>
       </c>
       <c r="Y32" s="39" t="inlineStr">
         <is>
-          <t>有色金属ETF</t>
+          <t>央企共赢ETF</t>
         </is>
       </c>
     </row>
@@ -14621,79 +14619,79 @@
         <v>31</v>
       </c>
       <c r="B33" s="39" t="n">
-        <v>517090</v>
+        <v>515210</v>
       </c>
       <c r="C33" s="39" t="inlineStr">
         <is>
-          <t>央企共赢ETF</t>
+          <t>钢铁ETF</t>
         </is>
       </c>
       <c r="D33" s="39" t="n">
-        <v>4.31</v>
+        <v>18.56</v>
       </c>
       <c r="E33" s="39" t="n">
-        <v>34.7</v>
+        <v>38.6</v>
       </c>
       <c r="F33" s="39" t="n">
-        <v>76.2</v>
+        <v>58.6</v>
       </c>
       <c r="G33" s="39" t="n">
         <v>4</v>
       </c>
       <c r="H33" s="39" t="n">
-        <v>59.4</v>
+        <v>15.3</v>
       </c>
       <c r="I33" s="39" t="n">
-        <v>50</v>
+        <v>35.5</v>
       </c>
       <c r="J33" s="39" t="n">
-        <v>55.6</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="K33" s="39" t="n">
-        <v>45.4</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="L33" s="39" t="n">
-        <v>64.8</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="M33" s="39" t="n">
-        <v>76.09999999999999</v>
+        <v>44.1</v>
       </c>
       <c r="N33" s="39" t="n">
-        <v>90.40000000000001</v>
+        <v>27.7</v>
       </c>
       <c r="O33" s="39" t="n">
-        <v>91.2</v>
+        <v>43.5</v>
       </c>
       <c r="P33" s="39" t="n">
-        <v>94</v>
+        <v>67.3</v>
       </c>
       <c r="Q33" s="39" t="n">
-        <v>32.1</v>
+        <v>89.8</v>
       </c>
       <c r="R33" s="39" t="n">
-        <v>68.7</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="S33" s="39" t="n">
-        <v>41</v>
+        <v>89.2</v>
       </c>
       <c r="T33" s="39" t="n">
-        <v>41</v>
+        <v>51.6</v>
       </c>
       <c r="U33" s="39" t="n">
-        <v>17.9</v>
+        <v>84.8</v>
       </c>
       <c r="V33" s="39" t="n">
-        <v>76.8</v>
+        <v>93</v>
       </c>
       <c r="W33" s="39" t="n">
-        <v>26.4</v>
+        <v>93</v>
       </c>
       <c r="X33" s="39" t="n">
-        <v>18.3</v>
+        <v>23.7</v>
       </c>
       <c r="Y33" s="39" t="inlineStr">
         <is>
-          <t>央企共赢ETF</t>
+          <t>钢铁ETF</t>
         </is>
       </c>
     </row>
@@ -14701,80 +14699,82 @@
       <c r="A34" s="39" t="n">
         <v>32</v>
       </c>
-      <c r="B34" s="39" t="n">
-        <v>159611</v>
+      <c r="B34" s="39" t="inlineStr">
+        <is>
+          <t>159736</t>
+        </is>
       </c>
       <c r="C34" s="39" t="inlineStr">
         <is>
-          <t>电力ETF</t>
+          <t>饮食ETF</t>
         </is>
       </c>
       <c r="D34" s="39" t="n">
-        <v>34.18</v>
+        <v>48.57</v>
       </c>
       <c r="E34" s="39" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="F34" s="39" t="n">
+        <v>83.8</v>
+      </c>
+      <c r="G34" s="39" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="H34" s="39" t="n">
+        <v>59.9</v>
+      </c>
+      <c r="I34" s="39" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="J34" s="39" t="n">
+        <v>84.09999999999999</v>
+      </c>
+      <c r="K34" s="39" t="n">
+        <v>50.1</v>
+      </c>
+      <c r="L34" s="39" t="n">
         <v>46</v>
       </c>
-      <c r="F34" s="39" t="n">
-        <v>77.59999999999999</v>
-      </c>
-      <c r="G34" s="39" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="H34" s="39" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="I34" s="39" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="J34" s="39" t="n">
-        <v>65.3</v>
-      </c>
-      <c r="K34" s="39" t="n">
-        <v>38.8</v>
-      </c>
-      <c r="L34" s="39" t="n">
-        <v>75.40000000000001</v>
-      </c>
       <c r="M34" s="39" t="n">
-        <v>82.90000000000001</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="N34" s="39" t="n">
-        <v>86.8</v>
+        <v>78.2</v>
       </c>
       <c r="O34" s="39" t="n">
-        <v>86.8</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="P34" s="39" t="n">
-        <v>26.1</v>
+        <v>34.9</v>
       </c>
       <c r="Q34" s="39" t="n">
-        <v>59.8</v>
+        <v>18.6</v>
       </c>
       <c r="R34" s="39" t="n">
-        <v>45.9</v>
+        <v>18.6</v>
       </c>
       <c r="S34" s="39" t="n">
-        <v>19.1</v>
+        <v>7.4</v>
       </c>
       <c r="T34" s="39" t="n">
-        <v>80.3</v>
+        <v>4.7</v>
       </c>
       <c r="U34" s="39" t="n">
-        <v>94.3</v>
+        <v>3.4</v>
       </c>
       <c r="V34" s="39" t="n">
-        <v>97</v>
+        <v>0.9</v>
       </c>
       <c r="W34" s="39" t="n">
-        <v>29.1</v>
+        <v>0.5</v>
       </c>
       <c r="X34" s="39" t="n">
-        <v>21.5</v>
+        <v>24.1</v>
       </c>
       <c r="Y34" s="39" t="inlineStr">
         <is>
-          <t>电力ETF</t>
+          <t>饮食ETF</t>
         </is>
       </c>
     </row>
@@ -14782,82 +14782,80 @@
       <c r="A35" s="39" t="n">
         <v>33</v>
       </c>
-      <c r="B35" s="39" t="inlineStr">
-        <is>
-          <t>159736</t>
-        </is>
+      <c r="B35" s="39" t="n">
+        <v>159825</v>
       </c>
       <c r="C35" s="39" t="inlineStr">
         <is>
-          <t>饮食ETF</t>
+          <t>农业ETF</t>
         </is>
       </c>
       <c r="D35" s="39" t="n">
-        <v>48.57</v>
+        <v>21.51</v>
       </c>
       <c r="E35" s="39" t="n">
-        <v>37.3</v>
+        <v>52.1</v>
       </c>
       <c r="F35" s="39" t="n">
-        <v>83.8</v>
+        <v>86</v>
       </c>
       <c r="G35" s="39" t="n">
-        <v>11.8</v>
+        <v>21.5</v>
       </c>
       <c r="H35" s="39" t="n">
-        <v>59.9</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="I35" s="39" t="n">
-        <v>74.40000000000001</v>
+        <v>77</v>
       </c>
       <c r="J35" s="39" t="n">
-        <v>84.09999999999999</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K35" s="39" t="n">
-        <v>50.1</v>
+        <v>31.2</v>
       </c>
       <c r="L35" s="39" t="n">
-        <v>46</v>
+        <v>45.4</v>
       </c>
       <c r="M35" s="39" t="n">
-        <v>70.40000000000001</v>
+        <v>28</v>
       </c>
       <c r="N35" s="39" t="n">
-        <v>78.2</v>
+        <v>22.3</v>
       </c>
       <c r="O35" s="39" t="n">
-        <v>90.59999999999999</v>
+        <v>18.5</v>
       </c>
       <c r="P35" s="39" t="n">
-        <v>34.9</v>
+        <v>5.5</v>
       </c>
       <c r="Q35" s="39" t="n">
-        <v>18.6</v>
+        <v>41</v>
       </c>
       <c r="R35" s="39" t="n">
-        <v>18.6</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="S35" s="39" t="n">
-        <v>7.4</v>
+        <v>27.9</v>
       </c>
       <c r="T35" s="39" t="n">
-        <v>4.7</v>
+        <v>52.4</v>
       </c>
       <c r="U35" s="39" t="n">
-        <v>3.4</v>
+        <v>39.1</v>
       </c>
       <c r="V35" s="39" t="n">
-        <v>0.9</v>
+        <v>15.5</v>
       </c>
       <c r="W35" s="39" t="n">
-        <v>0.5</v>
+        <v>39.7</v>
       </c>
       <c r="X35" s="39" t="n">
-        <v>24.1</v>
+        <v>25.3</v>
       </c>
       <c r="Y35" s="39" t="inlineStr">
         <is>
-          <t>饮食ETF</t>
+          <t>农业ETF</t>
         </is>
       </c>
     </row>
@@ -14866,79 +14864,79 @@
         <v>34</v>
       </c>
       <c r="B36" s="39" t="n">
-        <v>159825</v>
+        <v>159905</v>
       </c>
       <c r="C36" s="39" t="inlineStr">
         <is>
-          <t>农业ETF</t>
+          <t>深红利ETF</t>
         </is>
       </c>
       <c r="D36" s="39" t="n">
-        <v>21.54</v>
+        <v>31.58</v>
       </c>
       <c r="E36" s="39" t="n">
-        <v>52.1</v>
+        <v>39.5</v>
       </c>
       <c r="F36" s="39" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="G36" s="39" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H36" s="39" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="I36" s="39" t="n">
+        <v>53.6</v>
+      </c>
+      <c r="J36" s="39" t="n">
+        <v>73.09999999999999</v>
+      </c>
+      <c r="K36" s="39" t="n">
+        <v>57.6</v>
+      </c>
+      <c r="L36" s="39" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="M36" s="39" t="n">
+        <v>73.7</v>
+      </c>
+      <c r="N36" s="39" t="n">
+        <v>78</v>
+      </c>
+      <c r="O36" s="39" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="P36" s="39" t="n">
+        <v>61.1</v>
+      </c>
+      <c r="Q36" s="39" t="n">
         <v>86</v>
       </c>
-      <c r="G36" s="39" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="H36" s="39" t="n">
-        <v>86.40000000000001</v>
-      </c>
-      <c r="I36" s="39" t="n">
-        <v>77</v>
-      </c>
-      <c r="J36" s="39" t="n">
-        <v>81.90000000000001</v>
-      </c>
-      <c r="K36" s="39" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="L36" s="39" t="n">
-        <v>45.4</v>
-      </c>
-      <c r="M36" s="39" t="n">
-        <v>28</v>
-      </c>
-      <c r="N36" s="39" t="n">
-        <v>22.3</v>
-      </c>
-      <c r="O36" s="39" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="P36" s="39" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q36" s="39" t="n">
-        <v>41</v>
-      </c>
       <c r="R36" s="39" t="n">
-        <v>78.59999999999999</v>
+        <v>86</v>
       </c>
       <c r="S36" s="39" t="n">
-        <v>27.9</v>
+        <v>24.1</v>
       </c>
       <c r="T36" s="39" t="n">
-        <v>52.4</v>
+        <v>18.8</v>
       </c>
       <c r="U36" s="39" t="n">
-        <v>39.1</v>
+        <v>5.8</v>
       </c>
       <c r="V36" s="39" t="n">
-        <v>15.5</v>
+        <v>48.5</v>
       </c>
       <c r="W36" s="39" t="n">
-        <v>39.7</v>
+        <v>25.4</v>
       </c>
       <c r="X36" s="39" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="Y36" s="39" t="inlineStr">
         <is>
-          <t>农业ETF</t>
+          <t>深红利ETF</t>
         </is>
       </c>
     </row>
@@ -14947,79 +14945,79 @@
         <v>35</v>
       </c>
       <c r="B37" s="39" t="n">
-        <v>515210</v>
+        <v>159752</v>
       </c>
       <c r="C37" s="39" t="inlineStr">
         <is>
-          <t>钢铁ETF</t>
+          <t>新能源龙头ETF</t>
         </is>
       </c>
       <c r="D37" s="39" t="n">
-        <v>18.59</v>
+        <v>2.91</v>
       </c>
       <c r="E37" s="39" t="n">
-        <v>38.6</v>
+        <v>37.8</v>
       </c>
       <c r="F37" s="39" t="n">
-        <v>58.6</v>
+        <v>11.4</v>
       </c>
       <c r="G37" s="39" t="n">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="H37" s="39" t="n">
-        <v>15.3</v>
+        <v>1.1</v>
       </c>
       <c r="I37" s="39" t="n">
-        <v>35.5</v>
+        <v>7.5</v>
       </c>
       <c r="J37" s="39" t="n">
-        <v>65.59999999999999</v>
+        <v>57.3</v>
       </c>
       <c r="K37" s="39" t="n">
         <v>65.59999999999999</v>
       </c>
       <c r="L37" s="39" t="n">
-        <v>85.40000000000001</v>
+        <v>78.2</v>
       </c>
       <c r="M37" s="39" t="n">
-        <v>44.1</v>
+        <v>78.2</v>
       </c>
       <c r="N37" s="39" t="n">
-        <v>27.7</v>
+        <v>26.4</v>
       </c>
       <c r="O37" s="39" t="n">
-        <v>43.5</v>
+        <v>19.9</v>
       </c>
       <c r="P37" s="39" t="n">
-        <v>67.3</v>
+        <v>46.5</v>
       </c>
       <c r="Q37" s="39" t="n">
-        <v>89.8</v>
+        <v>89.3</v>
       </c>
       <c r="R37" s="39" t="n">
-        <v>74.09999999999999</v>
+        <v>70.5</v>
       </c>
       <c r="S37" s="39" t="n">
-        <v>89.2</v>
+        <v>90.5</v>
       </c>
       <c r="T37" s="39" t="n">
-        <v>51.6</v>
+        <v>71.2</v>
       </c>
       <c r="U37" s="39" t="n">
-        <v>84.8</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="V37" s="39" t="n">
-        <v>93</v>
+        <v>90.8</v>
       </c>
       <c r="W37" s="39" t="n">
-        <v>93</v>
+        <v>28.6</v>
       </c>
       <c r="X37" s="39" t="n">
-        <v>26.3</v>
+        <v>28.6</v>
       </c>
       <c r="Y37" s="39" t="inlineStr">
         <is>
-          <t>钢铁ETF</t>
+          <t>新能源龙头ETF</t>
         </is>
       </c>
     </row>
@@ -15028,79 +15026,79 @@
         <v>36</v>
       </c>
       <c r="B38" s="39" t="n">
-        <v>159850</v>
+        <v>518880</v>
       </c>
       <c r="C38" s="39" t="inlineStr">
         <is>
-          <t>恒生国企ETF</t>
+          <t>黄金ETF</t>
         </is>
       </c>
       <c r="D38" s="39" t="n">
-        <v>9.029999999999999</v>
+        <v>600.3099999999999</v>
       </c>
       <c r="E38" s="39" t="n">
-        <v>30.7</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="F38" s="39" t="n">
-        <v>10.4</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="G38" s="39" t="n">
-        <v>0.9</v>
+        <v>17.4</v>
       </c>
       <c r="H38" s="39" t="n">
-        <v>0.7</v>
+        <v>39</v>
       </c>
       <c r="I38" s="39" t="n">
-        <v>26.1</v>
+        <v>68.7</v>
       </c>
       <c r="J38" s="39" t="n">
-        <v>62.6</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="K38" s="39" t="n">
-        <v>72.5</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="L38" s="39" t="n">
-        <v>88</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="M38" s="39" t="n">
-        <v>90</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="N38" s="39" t="n">
-        <v>31.2</v>
+        <v>98.8</v>
       </c>
       <c r="O38" s="39" t="n">
-        <v>55.3</v>
+        <v>99.2</v>
       </c>
       <c r="P38" s="39" t="n">
-        <v>50.3</v>
+        <v>99.3</v>
       </c>
       <c r="Q38" s="39" t="n">
-        <v>73.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="R38" s="39" t="n">
-        <v>81.09999999999999</v>
+        <v>100</v>
       </c>
       <c r="S38" s="39" t="n">
-        <v>97</v>
+        <v>26.9</v>
       </c>
       <c r="T38" s="39" t="n">
-        <v>54</v>
+        <v>41.4</v>
       </c>
       <c r="U38" s="39" t="n">
-        <v>74.3</v>
+        <v>33.1</v>
       </c>
       <c r="V38" s="39" t="n">
-        <v>76.8</v>
+        <v>22</v>
       </c>
       <c r="W38" s="39" t="n">
-        <v>27.6</v>
+        <v>49.2</v>
       </c>
       <c r="X38" s="39" t="n">
-        <v>27.6</v>
+        <v>30.2</v>
       </c>
       <c r="Y38" s="39" t="inlineStr">
         <is>
-          <t>恒生国企ETF</t>
+          <t>黄金ETF</t>
         </is>
       </c>
     </row>
@@ -15109,79 +15107,79 @@
         <v>37</v>
       </c>
       <c r="B39" s="39" t="n">
-        <v>159752</v>
+        <v>159865</v>
       </c>
       <c r="C39" s="39" t="inlineStr">
         <is>
-          <t>新能源龙头ETF</t>
+          <t>养殖ETF</t>
         </is>
       </c>
       <c r="D39" s="39" t="n">
-        <v>2.91</v>
+        <v>31.88</v>
       </c>
       <c r="E39" s="39" t="n">
-        <v>37.8</v>
+        <v>50.8</v>
       </c>
       <c r="F39" s="39" t="n">
-        <v>11.4</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="G39" s="39" t="n">
-        <v>1.3</v>
+        <v>29.7</v>
       </c>
       <c r="H39" s="39" t="n">
-        <v>1.1</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="I39" s="39" t="n">
-        <v>7.5</v>
+        <v>81.8</v>
       </c>
       <c r="J39" s="39" t="n">
-        <v>57.3</v>
+        <v>84.8</v>
       </c>
       <c r="K39" s="39" t="n">
-        <v>65.59999999999999</v>
+        <v>28.9</v>
       </c>
       <c r="L39" s="39" t="n">
-        <v>78.2</v>
+        <v>41.7</v>
       </c>
       <c r="M39" s="39" t="n">
-        <v>78.2</v>
+        <v>37.2</v>
       </c>
       <c r="N39" s="39" t="n">
-        <v>26.4</v>
+        <v>18</v>
       </c>
       <c r="O39" s="39" t="n">
-        <v>19.9</v>
+        <v>18</v>
       </c>
       <c r="P39" s="39" t="n">
-        <v>46.5</v>
+        <v>5.2</v>
       </c>
       <c r="Q39" s="39" t="n">
-        <v>89.3</v>
+        <v>35.7</v>
       </c>
       <c r="R39" s="39" t="n">
-        <v>70.5</v>
+        <v>80.3</v>
       </c>
       <c r="S39" s="39" t="n">
-        <v>90.5</v>
+        <v>23.8</v>
       </c>
       <c r="T39" s="39" t="n">
-        <v>71.2</v>
+        <v>52</v>
       </c>
       <c r="U39" s="39" t="n">
-        <v>87.40000000000001</v>
+        <v>36</v>
       </c>
       <c r="V39" s="39" t="n">
-        <v>90.8</v>
+        <v>17.8</v>
       </c>
       <c r="W39" s="39" t="n">
-        <v>28.6</v>
+        <v>48.8</v>
       </c>
       <c r="X39" s="39" t="n">
-        <v>28.6</v>
+        <v>32.5</v>
       </c>
       <c r="Y39" s="39" t="inlineStr">
         <is>
-          <t>新能源龙头ETF</t>
+          <t>养殖ETF</t>
         </is>
       </c>
     </row>
@@ -15190,79 +15188,79 @@
         <v>38</v>
       </c>
       <c r="B40" s="39" t="n">
-        <v>159865</v>
+        <v>512200</v>
       </c>
       <c r="C40" s="39" t="inlineStr">
         <is>
-          <t>养殖ETF</t>
+          <t>房地产ETF</t>
         </is>
       </c>
       <c r="D40" s="39" t="n">
-        <v>31.88</v>
+        <v>64.87</v>
       </c>
       <c r="E40" s="39" t="n">
-        <v>50.8</v>
+        <v>22.5</v>
       </c>
       <c r="F40" s="39" t="n">
-        <v>89.90000000000001</v>
+        <v>76.2</v>
       </c>
       <c r="G40" s="39" t="n">
-        <v>29.7</v>
+        <v>5.7</v>
       </c>
       <c r="H40" s="39" t="n">
-        <v>87.40000000000001</v>
+        <v>34.5</v>
       </c>
       <c r="I40" s="39" t="n">
+        <v>71.8</v>
+      </c>
+      <c r="J40" s="39" t="n">
         <v>81.8</v>
       </c>
-      <c r="J40" s="39" t="n">
-        <v>84.8</v>
-      </c>
       <c r="K40" s="39" t="n">
-        <v>28.9</v>
+        <v>64.2</v>
       </c>
       <c r="L40" s="39" t="n">
-        <v>41.7</v>
+        <v>64.2</v>
       </c>
       <c r="M40" s="39" t="n">
-        <v>37.2</v>
+        <v>30</v>
       </c>
       <c r="N40" s="39" t="n">
-        <v>18</v>
+        <v>54.3</v>
       </c>
       <c r="O40" s="39" t="n">
-        <v>18</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="P40" s="39" t="n">
-        <v>5.2</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="Q40" s="39" t="n">
-        <v>35.7</v>
+        <v>82.5</v>
       </c>
       <c r="R40" s="39" t="n">
-        <v>80.3</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="S40" s="39" t="n">
-        <v>23.8</v>
+        <v>27.4</v>
       </c>
       <c r="T40" s="39" t="n">
-        <v>52</v>
+        <v>48.9</v>
       </c>
       <c r="U40" s="39" t="n">
-        <v>36</v>
+        <v>21.5</v>
       </c>
       <c r="V40" s="39" t="n">
-        <v>17.8</v>
+        <v>4.6</v>
       </c>
       <c r="W40" s="39" t="n">
-        <v>48.8</v>
+        <v>7.6</v>
       </c>
       <c r="X40" s="39" t="n">
-        <v>32.5</v>
+        <v>35.6</v>
       </c>
       <c r="Y40" s="39" t="inlineStr">
         <is>
-          <t>养殖ETF</t>
+          <t>房地产ETF</t>
         </is>
       </c>
     </row>
@@ -15271,79 +15269,79 @@
         <v>39</v>
       </c>
       <c r="B41" s="39" t="n">
-        <v>518880</v>
+        <v>159859</v>
       </c>
       <c r="C41" s="39" t="inlineStr">
         <is>
-          <t>黄金ETF</t>
+          <t>生物医药ETF</t>
         </is>
       </c>
       <c r="D41" s="39" t="n">
-        <v>601.92</v>
+        <v>33.99</v>
       </c>
       <c r="E41" s="39" t="n">
-        <v>68.09999999999999</v>
+        <v>46.3</v>
       </c>
       <c r="F41" s="39" t="n">
-        <v>87.40000000000001</v>
+        <v>36.5</v>
       </c>
       <c r="G41" s="39" t="n">
-        <v>17.4</v>
+        <v>4.7</v>
       </c>
       <c r="H41" s="39" t="n">
-        <v>39</v>
+        <v>25.1</v>
       </c>
       <c r="I41" s="39" t="n">
-        <v>68.7</v>
+        <v>25.1</v>
       </c>
       <c r="J41" s="39" t="n">
-        <v>88.40000000000001</v>
+        <v>63.1</v>
       </c>
       <c r="K41" s="39" t="n">
-        <v>93.90000000000001</v>
+        <v>53.9</v>
       </c>
       <c r="L41" s="39" t="n">
-        <v>95.90000000000001</v>
+        <v>70.8</v>
       </c>
       <c r="M41" s="39" t="n">
-        <v>93.59999999999999</v>
+        <v>40.9</v>
       </c>
       <c r="N41" s="39" t="n">
-        <v>98.8</v>
+        <v>10.3</v>
       </c>
       <c r="O41" s="39" t="n">
-        <v>99.2</v>
+        <v>10.3</v>
       </c>
       <c r="P41" s="39" t="n">
-        <v>99.3</v>
+        <v>10.3</v>
       </c>
       <c r="Q41" s="39" t="n">
-        <v>99.8</v>
+        <v>51.6</v>
       </c>
       <c r="R41" s="39" t="n">
-        <v>100</v>
+        <v>18.2</v>
       </c>
       <c r="S41" s="39" t="n">
-        <v>26.9</v>
+        <v>18.2</v>
       </c>
       <c r="T41" s="39" t="n">
-        <v>41.4</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="U41" s="39" t="n">
-        <v>33.1</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="V41" s="39" t="n">
-        <v>22</v>
+        <v>52.6</v>
       </c>
       <c r="W41" s="39" t="n">
-        <v>49.2</v>
+        <v>82</v>
       </c>
       <c r="X41" s="39" t="n">
-        <v>36.9</v>
+        <v>36.6</v>
       </c>
       <c r="Y41" s="39" t="inlineStr">
         <is>
-          <t>黄金ETF</t>
+          <t>生物医药ETF</t>
         </is>
       </c>
     </row>
@@ -15351,82 +15349,80 @@
       <c r="A42" s="39" t="n">
         <v>40</v>
       </c>
-      <c r="B42" s="39" t="inlineStr">
-        <is>
-          <t>512580</t>
-        </is>
+      <c r="B42" s="39" t="n">
+        <v>159850</v>
       </c>
       <c r="C42" s="39" t="inlineStr">
         <is>
-          <t>环保ETF</t>
+          <t>恒生国企ETF</t>
         </is>
       </c>
       <c r="D42" s="39" t="n">
-        <v>11.65</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="E42" s="39" t="n">
-        <v>25.9</v>
+        <v>30.7</v>
       </c>
       <c r="F42" s="39" t="n">
-        <v>11</v>
+        <v>10.4</v>
       </c>
       <c r="G42" s="39" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H42" s="39" t="n">
         <v>0.7</v>
       </c>
-      <c r="H42" s="39" t="n">
-        <v>19.9</v>
-      </c>
       <c r="I42" s="39" t="n">
-        <v>34.6</v>
+        <v>26.1</v>
       </c>
       <c r="J42" s="39" t="n">
-        <v>61.2</v>
+        <v>62.6</v>
       </c>
       <c r="K42" s="39" t="n">
-        <v>68.90000000000001</v>
+        <v>72.5</v>
       </c>
       <c r="L42" s="39" t="n">
-        <v>79.3</v>
+        <v>88</v>
       </c>
       <c r="M42" s="39" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="N42" s="39" t="n">
-        <v>36</v>
+        <v>31.2</v>
       </c>
       <c r="O42" s="39" t="n">
-        <v>20.9</v>
+        <v>55.3</v>
       </c>
       <c r="P42" s="39" t="n">
-        <v>57</v>
+        <v>50.3</v>
       </c>
       <c r="Q42" s="39" t="n">
-        <v>86.3</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="R42" s="39" t="n">
-        <v>54.5</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="S42" s="39" t="n">
-        <v>79.59999999999999</v>
+        <v>97</v>
       </c>
       <c r="T42" s="39" t="n">
-        <v>47.9</v>
+        <v>54</v>
       </c>
       <c r="U42" s="39" t="n">
-        <v>74.7</v>
+        <v>74.3</v>
       </c>
       <c r="V42" s="39" t="n">
-        <v>83.3</v>
+        <v>76.8</v>
       </c>
       <c r="W42" s="39" t="n">
-        <v>24.7</v>
+        <v>27.6</v>
       </c>
       <c r="X42" s="39" t="n">
-        <v>37.3</v>
+        <v>36.6</v>
       </c>
       <c r="Y42" s="39" t="inlineStr">
         <is>
-          <t>环保ETF</t>
+          <t>恒生国企ETF</t>
         </is>
       </c>
     </row>
@@ -15434,80 +15430,82 @@
       <c r="A43" s="39" t="n">
         <v>41</v>
       </c>
-      <c r="B43" s="39" t="n">
-        <v>516160</v>
+      <c r="B43" s="39" t="inlineStr">
+        <is>
+          <t>512580</t>
+        </is>
       </c>
       <c r="C43" s="39" t="inlineStr">
         <is>
-          <t>新能源ETF</t>
+          <t>环保ETF</t>
         </is>
       </c>
       <c r="D43" s="39" t="n">
-        <v>43.89</v>
+        <v>11.65</v>
       </c>
       <c r="E43" s="39" t="n">
-        <v>20.5</v>
+        <v>25.9</v>
       </c>
       <c r="F43" s="39" t="n">
-        <v>5.6</v>
+        <v>11</v>
       </c>
       <c r="G43" s="39" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H43" s="39" t="n">
-        <v>0.5</v>
+        <v>19.9</v>
       </c>
       <c r="I43" s="39" t="n">
-        <v>5.8</v>
+        <v>34.6</v>
       </c>
       <c r="J43" s="39" t="n">
-        <v>57.4</v>
+        <v>61.2</v>
       </c>
       <c r="K43" s="39" t="n">
-        <v>68.5</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="L43" s="39" t="n">
-        <v>80.5</v>
+        <v>79.3</v>
       </c>
       <c r="M43" s="39" t="n">
-        <v>76.09999999999999</v>
+        <v>70</v>
       </c>
       <c r="N43" s="39" t="n">
-        <v>26.3</v>
+        <v>36</v>
       </c>
       <c r="O43" s="39" t="n">
-        <v>21.4</v>
+        <v>20.9</v>
       </c>
       <c r="P43" s="39" t="n">
-        <v>51.6</v>
+        <v>57</v>
       </c>
       <c r="Q43" s="39" t="n">
-        <v>87.2</v>
+        <v>86.3</v>
       </c>
       <c r="R43" s="39" t="n">
-        <v>61.9</v>
+        <v>54.5</v>
       </c>
       <c r="S43" s="39" t="n">
-        <v>82.40000000000001</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="T43" s="39" t="n">
-        <v>50.1</v>
+        <v>47.9</v>
       </c>
       <c r="U43" s="39" t="n">
-        <v>77.09999999999999</v>
+        <v>74.7</v>
       </c>
       <c r="V43" s="39" t="n">
-        <v>52.1</v>
+        <v>83.3</v>
       </c>
       <c r="W43" s="39" t="n">
-        <v>22.7</v>
+        <v>24.7</v>
       </c>
       <c r="X43" s="39" t="n">
-        <v>39.7</v>
+        <v>37.3</v>
       </c>
       <c r="Y43" s="39" t="inlineStr">
         <is>
-          <t>新能源ETF</t>
+          <t>环保ETF</t>
         </is>
       </c>
     </row>
@@ -15516,79 +15514,79 @@
         <v>42</v>
       </c>
       <c r="B44" s="39" t="n">
-        <v>512200</v>
+        <v>159647</v>
       </c>
       <c r="C44" s="39" t="inlineStr">
         <is>
-          <t>房地产ETF</t>
+          <t>中药ETF</t>
         </is>
       </c>
       <c r="D44" s="39" t="n">
-        <v>64.95999999999999</v>
+        <v>7.28</v>
       </c>
       <c r="E44" s="39" t="n">
-        <v>22.5</v>
+        <v>58.6</v>
       </c>
       <c r="F44" s="39" t="n">
-        <v>76.2</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="G44" s="39" t="n">
-        <v>5.7</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H44" s="39" t="n">
-        <v>34.5</v>
+        <v>40.7</v>
       </c>
       <c r="I44" s="39" t="n">
+        <v>60</v>
+      </c>
+      <c r="J44" s="39" t="n">
         <v>71.8</v>
       </c>
-      <c r="J44" s="39" t="n">
-        <v>81.8</v>
-      </c>
       <c r="K44" s="39" t="n">
-        <v>64.2</v>
+        <v>56.9</v>
       </c>
       <c r="L44" s="39" t="n">
-        <v>64.2</v>
+        <v>60.9</v>
       </c>
       <c r="M44" s="39" t="n">
-        <v>30</v>
+        <v>87.3</v>
       </c>
       <c r="N44" s="39" t="n">
-        <v>54.3</v>
+        <v>50.3</v>
       </c>
       <c r="O44" s="39" t="n">
-        <v>87.59999999999999</v>
+        <v>44.1</v>
       </c>
       <c r="P44" s="39" t="n">
-        <v>93.90000000000001</v>
+        <v>29.5</v>
       </c>
       <c r="Q44" s="39" t="n">
-        <v>82.5</v>
+        <v>47</v>
       </c>
       <c r="R44" s="39" t="n">
-        <v>89.40000000000001</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="S44" s="39" t="n">
-        <v>27.4</v>
+        <v>30.4</v>
       </c>
       <c r="T44" s="39" t="n">
-        <v>48.9</v>
+        <v>51.8</v>
       </c>
       <c r="U44" s="39" t="n">
-        <v>21.5</v>
+        <v>26.9</v>
       </c>
       <c r="V44" s="39" t="n">
-        <v>4.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="W44" s="39" t="n">
-        <v>7.6</v>
+        <v>7.9</v>
       </c>
       <c r="X44" s="39" t="n">
-        <v>45.1</v>
+        <v>41.2</v>
       </c>
       <c r="Y44" s="39" t="inlineStr">
         <is>
-          <t>房地产ETF</t>
+          <t>中药ETF</t>
         </is>
       </c>
     </row>
@@ -15605,7 +15603,7 @@
         </is>
       </c>
       <c r="D45" s="39" t="n">
-        <v>63.75</v>
+        <v>63.66</v>
       </c>
       <c r="E45" s="39" t="n">
         <v>49.3</v>
@@ -15688,7 +15686,7 @@
         </is>
       </c>
       <c r="D46" s="39" t="n">
-        <v>22.88</v>
+        <v>22.87</v>
       </c>
       <c r="E46" s="39" t="n">
         <v>57</v>
@@ -15748,7 +15746,7 @@
         <v>60.9</v>
       </c>
       <c r="X46" s="39" t="n">
-        <v>50</v>
+        <v>47.8</v>
       </c>
       <c r="Y46" s="39" t="inlineStr">
         <is>
@@ -15761,79 +15759,79 @@
         <v>45</v>
       </c>
       <c r="B47" s="39" t="n">
-        <v>159859</v>
+        <v>513090</v>
       </c>
       <c r="C47" s="39" t="inlineStr">
         <is>
-          <t>生物医药ETF</t>
+          <t>香港证券ETF</t>
         </is>
       </c>
       <c r="D47" s="39" t="n">
-        <v>33.99</v>
+        <v>70.83</v>
       </c>
       <c r="E47" s="39" t="n">
-        <v>46.3</v>
+        <v>57.7</v>
       </c>
       <c r="F47" s="39" t="n">
-        <v>36.5</v>
+        <v>30.1</v>
       </c>
       <c r="G47" s="39" t="n">
-        <v>4.7</v>
+        <v>2.9</v>
       </c>
       <c r="H47" s="39" t="n">
-        <v>25.1</v>
+        <v>1.6</v>
       </c>
       <c r="I47" s="39" t="n">
-        <v>25.1</v>
+        <v>24.6</v>
       </c>
       <c r="J47" s="39" t="n">
-        <v>63.1</v>
+        <v>58.1</v>
       </c>
       <c r="K47" s="39" t="n">
-        <v>53.9</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="L47" s="39" t="n">
-        <v>70.8</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="M47" s="39" t="n">
-        <v>40.9</v>
+        <v>80.2</v>
       </c>
       <c r="N47" s="39" t="n">
-        <v>10.3</v>
+        <v>33.6</v>
       </c>
       <c r="O47" s="39" t="n">
-        <v>10.3</v>
+        <v>44.4</v>
       </c>
       <c r="P47" s="39" t="n">
-        <v>10.3</v>
+        <v>48.5</v>
       </c>
       <c r="Q47" s="39" t="n">
-        <v>51.6</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="R47" s="39" t="n">
-        <v>18.2</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="S47" s="39" t="n">
-        <v>18.2</v>
+        <v>96.7</v>
       </c>
       <c r="T47" s="39" t="n">
-        <v>64.40000000000001</v>
+        <v>40.2</v>
       </c>
       <c r="U47" s="39" t="n">
-        <v>89.09999999999999</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="V47" s="39" t="n">
         <v>52.6</v>
       </c>
       <c r="W47" s="39" t="n">
-        <v>82</v>
+        <v>35.4</v>
       </c>
       <c r="X47" s="39" t="n">
-        <v>50.6</v>
+        <v>49.5</v>
       </c>
       <c r="Y47" s="39" t="inlineStr">
         <is>
-          <t>生物医药ETF</t>
+          <t>香港证券ETF</t>
         </is>
       </c>
     </row>
@@ -15841,80 +15839,82 @@
       <c r="A48" s="39" t="n">
         <v>46</v>
       </c>
-      <c r="B48" s="39" t="n">
-        <v>159647</v>
+      <c r="B48" s="39" t="inlineStr">
+        <is>
+          <t>159509</t>
+        </is>
       </c>
       <c r="C48" s="39" t="inlineStr">
         <is>
-          <t>中药ETF</t>
+          <t>纳指科技ETF</t>
         </is>
       </c>
       <c r="D48" s="39" t="n">
-        <v>7.29</v>
+        <v>88.04000000000001</v>
       </c>
       <c r="E48" s="39" t="n">
-        <v>58.6</v>
+        <v>64.8</v>
       </c>
       <c r="F48" s="39" t="n">
-        <v>78.40000000000001</v>
+        <v>27</v>
       </c>
       <c r="G48" s="39" t="n">
-        <v>9.699999999999999</v>
+        <v>5.3</v>
       </c>
       <c r="H48" s="39" t="n">
-        <v>40.7</v>
+        <v>27.4</v>
       </c>
       <c r="I48" s="39" t="n">
-        <v>60</v>
+        <v>24.8</v>
       </c>
       <c r="J48" s="39" t="n">
-        <v>71.8</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="K48" s="39" t="n">
-        <v>56.9</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="L48" s="39" t="n">
-        <v>60.9</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="M48" s="39" t="n">
-        <v>87.3</v>
+        <v>52.2</v>
       </c>
       <c r="N48" s="39" t="n">
-        <v>50.3</v>
+        <v>23.6</v>
       </c>
       <c r="O48" s="39" t="n">
-        <v>44.1</v>
+        <v>40</v>
       </c>
       <c r="P48" s="39" t="n">
-        <v>29.5</v>
+        <v>24.4</v>
       </c>
       <c r="Q48" s="39" t="n">
-        <v>47</v>
+        <v>17.8</v>
       </c>
       <c r="R48" s="39" t="n">
-        <v>91.09999999999999</v>
+        <v>23.7</v>
       </c>
       <c r="S48" s="39" t="n">
-        <v>30.4</v>
+        <v>90.7</v>
       </c>
       <c r="T48" s="39" t="n">
-        <v>51.8</v>
+        <v>47.9</v>
       </c>
       <c r="U48" s="39" t="n">
-        <v>26.9</v>
+        <v>81.3</v>
       </c>
       <c r="V48" s="39" t="n">
-        <v>9.800000000000001</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="W48" s="39" t="n">
-        <v>7.9</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="X48" s="39" t="n">
-        <v>52.6</v>
+        <v>50.6</v>
       </c>
       <c r="Y48" s="39" t="inlineStr">
         <is>
-          <t>中药ETF</t>
+          <t>纳指科技ETF</t>
         </is>
       </c>
     </row>
@@ -15923,79 +15923,79 @@
         <v>47</v>
       </c>
       <c r="B49" s="39" t="n">
-        <v>513090</v>
+        <v>516160</v>
       </c>
       <c r="C49" s="39" t="inlineStr">
         <is>
-          <t>香港证券ETF</t>
+          <t>新能源ETF</t>
         </is>
       </c>
       <c r="D49" s="39" t="n">
-        <v>70.83</v>
+        <v>43.89</v>
       </c>
       <c r="E49" s="39" t="n">
-        <v>57.7</v>
+        <v>20.5</v>
       </c>
       <c r="F49" s="39" t="n">
-        <v>30.1</v>
+        <v>5.6</v>
       </c>
       <c r="G49" s="39" t="n">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="H49" s="39" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="I49" s="39" t="n">
-        <v>24.6</v>
+        <v>5.8</v>
       </c>
       <c r="J49" s="39" t="n">
-        <v>58.1</v>
+        <v>57.4</v>
       </c>
       <c r="K49" s="39" t="n">
-        <v>75.90000000000001</v>
+        <v>68.5</v>
       </c>
       <c r="L49" s="39" t="n">
-        <v>85.09999999999999</v>
+        <v>80.5</v>
       </c>
       <c r="M49" s="39" t="n">
-        <v>80.2</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="N49" s="39" t="n">
-        <v>33.6</v>
+        <v>26.3</v>
       </c>
       <c r="O49" s="39" t="n">
-        <v>44.4</v>
+        <v>21.4</v>
       </c>
       <c r="P49" s="39" t="n">
-        <v>48.5</v>
+        <v>51.6</v>
       </c>
       <c r="Q49" s="39" t="n">
-        <v>72.90000000000001</v>
+        <v>87.2</v>
       </c>
       <c r="R49" s="39" t="n">
-        <v>91.09999999999999</v>
+        <v>61.9</v>
       </c>
       <c r="S49" s="39" t="n">
-        <v>96.7</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="T49" s="39" t="n">
-        <v>40.2</v>
+        <v>50.1</v>
       </c>
       <c r="U49" s="39" t="n">
-        <v>76.59999999999999</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="V49" s="39" t="n">
-        <v>52.6</v>
+        <v>52.1</v>
       </c>
       <c r="W49" s="39" t="n">
-        <v>35.4</v>
+        <v>22.7</v>
       </c>
       <c r="X49" s="39" t="n">
-        <v>53</v>
+        <v>50.6</v>
       </c>
       <c r="Y49" s="39" t="inlineStr">
         <is>
-          <t>香港证券ETF</t>
+          <t>新能源ETF</t>
         </is>
       </c>
     </row>
@@ -16003,80 +16003,82 @@
       <c r="A50" s="39" t="n">
         <v>48</v>
       </c>
-      <c r="B50" s="39" t="n">
-        <v>513080</v>
+      <c r="B50" s="39" t="inlineStr">
+        <is>
+          <t>510210</t>
+        </is>
       </c>
       <c r="C50" s="39" t="inlineStr">
         <is>
-          <t>法国CAC40ETF</t>
+          <t>上证指数ETF</t>
         </is>
       </c>
       <c r="D50" s="39" t="n">
-        <v>8.720000000000001</v>
+        <v>48.27</v>
       </c>
       <c r="E50" s="39" t="n">
-        <v>15.7</v>
+        <v>63.9</v>
       </c>
       <c r="F50" s="39" t="n">
-        <v>15.7</v>
+        <v>21.4</v>
       </c>
       <c r="G50" s="39" t="n">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="H50" s="39" t="n">
-        <v>30.6</v>
+        <v>24.8</v>
       </c>
       <c r="I50" s="39" t="n">
-        <v>19.7</v>
+        <v>43.7</v>
       </c>
       <c r="J50" s="39" t="n">
-        <v>75.90000000000001</v>
+        <v>64.2</v>
       </c>
       <c r="K50" s="39" t="n">
-        <v>61.6</v>
+        <v>73.7</v>
       </c>
       <c r="L50" s="39" t="n">
-        <v>77.3</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="M50" s="39" t="n">
-        <v>55.3</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="N50" s="39" t="n">
-        <v>66.2</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="O50" s="39" t="n">
-        <v>78</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="P50" s="39" t="n">
-        <v>79.40000000000001</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="Q50" s="39" t="n">
-        <v>70.2</v>
+        <v>99</v>
       </c>
       <c r="R50" s="39" t="n">
-        <v>91.59999999999999</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="S50" s="39" t="n">
-        <v>97.40000000000001</v>
+        <v>64</v>
       </c>
       <c r="T50" s="39" t="n">
         <v>73.5</v>
       </c>
       <c r="U50" s="39" t="n">
-        <v>93.90000000000001</v>
+        <v>73.5</v>
       </c>
       <c r="V50" s="39" t="n">
-        <v>94.8</v>
+        <v>23.7</v>
       </c>
       <c r="W50" s="39" t="n">
-        <v>94.8</v>
+        <v>14.1</v>
       </c>
       <c r="X50" s="39" t="n">
-        <v>53.3</v>
+        <v>52.5</v>
       </c>
       <c r="Y50" s="39" t="inlineStr">
         <is>
-          <t>法国CAC40ETF</t>
+          <t>上证指数ETF</t>
         </is>
       </c>
     </row>
@@ -16084,80 +16086,82 @@
       <c r="A51" s="39" t="n">
         <v>49</v>
       </c>
-      <c r="B51" s="39" t="n">
-        <v>159920</v>
+      <c r="B51" s="39" t="inlineStr">
+        <is>
+          <t>517160</t>
+        </is>
       </c>
       <c r="C51" s="39" t="inlineStr">
         <is>
-          <t>恒生ETF</t>
+          <t>长江保护主题ETF</t>
         </is>
       </c>
       <c r="D51" s="39" t="n">
-        <v>158.28</v>
+        <v>12.94</v>
       </c>
       <c r="E51" s="39" t="n">
-        <v>36.1</v>
+        <v>39.9</v>
       </c>
       <c r="F51" s="39" t="n">
-        <v>11.7</v>
+        <v>57.2</v>
       </c>
       <c r="G51" s="39" t="n">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="H51" s="39" t="n">
-        <v>1</v>
+        <v>27.3</v>
       </c>
       <c r="I51" s="39" t="n">
-        <v>0.9</v>
+        <v>46.2</v>
       </c>
       <c r="J51" s="39" t="n">
-        <v>61.3</v>
+        <v>68.2</v>
       </c>
       <c r="K51" s="39" t="n">
-        <v>74.40000000000001</v>
+        <v>60</v>
       </c>
       <c r="L51" s="39" t="n">
-        <v>86.8</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="M51" s="39" t="n">
-        <v>89.09999999999999</v>
+        <v>58.2</v>
       </c>
       <c r="N51" s="39" t="n">
-        <v>34.5</v>
+        <v>30.7</v>
       </c>
       <c r="O51" s="39" t="n">
-        <v>62</v>
+        <v>55.8</v>
       </c>
       <c r="P51" s="39" t="n">
-        <v>62</v>
+        <v>55.8</v>
       </c>
       <c r="Q51" s="39" t="n">
-        <v>81.3</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="R51" s="39" t="n">
         <v>88.59999999999999</v>
       </c>
       <c r="S51" s="39" t="n">
-        <v>98.09999999999999</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="T51" s="39" t="n">
-        <v>56.7</v>
+        <v>64.8</v>
       </c>
       <c r="U51" s="39" t="n">
-        <v>74.90000000000001</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="V51" s="39" t="n">
-        <v>70</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="W51" s="39" t="n">
-        <v>28.7</v>
+        <v>35.3</v>
       </c>
       <c r="X51" s="39" t="n">
-        <v>56.6</v>
+        <v>58.8</v>
       </c>
       <c r="Y51" s="39" t="inlineStr">
         <is>
-          <t>恒生ETF</t>
+          <t>长江保护主题ETF</t>
         </is>
       </c>
     </row>
@@ -16165,82 +16169,80 @@
       <c r="A52" s="39" t="n">
         <v>50</v>
       </c>
-      <c r="B52" s="39" t="inlineStr">
-        <is>
-          <t>517160</t>
-        </is>
+      <c r="B52" s="39" t="n">
+        <v>513120</v>
       </c>
       <c r="C52" s="39" t="inlineStr">
         <is>
-          <t>长江保护主题ETF</t>
+          <t>港股创新药ETF</t>
         </is>
       </c>
       <c r="D52" s="39" t="n">
-        <v>12.94</v>
+        <v>109.37</v>
       </c>
       <c r="E52" s="39" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="F52" s="39" t="n">
         <v>39.9</v>
       </c>
-      <c r="F52" s="39" t="n">
-        <v>57.2</v>
-      </c>
       <c r="G52" s="39" t="n">
-        <v>2.6</v>
+        <v>7.2</v>
       </c>
       <c r="H52" s="39" t="n">
-        <v>27.3</v>
+        <v>3.3</v>
       </c>
       <c r="I52" s="39" t="n">
-        <v>46.2</v>
+        <v>9</v>
       </c>
       <c r="J52" s="39" t="n">
-        <v>68.2</v>
+        <v>55.4</v>
       </c>
       <c r="K52" s="39" t="n">
-        <v>60</v>
+        <v>78.3</v>
       </c>
       <c r="L52" s="39" t="n">
-        <v>79.59999999999999</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="M52" s="39" t="n">
-        <v>58.2</v>
+        <v>65</v>
       </c>
       <c r="N52" s="39" t="n">
-        <v>30.7</v>
+        <v>33.9</v>
       </c>
       <c r="O52" s="39" t="n">
-        <v>55.8</v>
+        <v>33.9</v>
       </c>
       <c r="P52" s="39" t="n">
-        <v>55.8</v>
+        <v>28.9</v>
       </c>
       <c r="Q52" s="39" t="n">
-        <v>84.90000000000001</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="R52" s="39" t="n">
-        <v>88.59999999999999</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="S52" s="39" t="n">
         <v>97.09999999999999</v>
       </c>
       <c r="T52" s="39" t="n">
-        <v>64.8</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="U52" s="39" t="n">
-        <v>73.59999999999999</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="V52" s="39" t="n">
-        <v>82.40000000000001</v>
+        <v>32.6</v>
       </c>
       <c r="W52" s="39" t="n">
-        <v>35.3</v>
+        <v>54.8</v>
       </c>
       <c r="X52" s="39" t="n">
-        <v>58.8</v>
+        <v>62</v>
       </c>
       <c r="Y52" s="39" t="inlineStr">
         <is>
-          <t>长江保护主题ETF</t>
+          <t>港股创新药ETF</t>
         </is>
       </c>
     </row>
@@ -16248,82 +16250,80 @@
       <c r="A53" s="39" t="n">
         <v>51</v>
       </c>
-      <c r="B53" s="39" t="inlineStr">
-        <is>
-          <t>159509</t>
-        </is>
+      <c r="B53" s="39" t="n">
+        <v>512880</v>
       </c>
       <c r="C53" s="39" t="inlineStr">
         <is>
-          <t>纳指科技ETF</t>
+          <t>证券ETF</t>
         </is>
       </c>
       <c r="D53" s="39" t="n">
-        <v>88.17</v>
+        <v>279.23</v>
       </c>
       <c r="E53" s="39" t="n">
-        <v>64.8</v>
+        <v>43.1</v>
       </c>
       <c r="F53" s="39" t="n">
-        <v>27</v>
+        <v>43.1</v>
       </c>
       <c r="G53" s="39" t="n">
-        <v>5.3</v>
+        <v>1.1</v>
       </c>
       <c r="H53" s="39" t="n">
-        <v>27.4</v>
+        <v>20.9</v>
       </c>
       <c r="I53" s="39" t="n">
-        <v>24.8</v>
+        <v>50.6</v>
       </c>
       <c r="J53" s="39" t="n">
-        <v>85.09999999999999</v>
+        <v>66.3</v>
       </c>
       <c r="K53" s="39" t="n">
-        <v>71.40000000000001</v>
+        <v>71.8</v>
       </c>
       <c r="L53" s="39" t="n">
-        <v>83.90000000000001</v>
+        <v>71.8</v>
       </c>
       <c r="M53" s="39" t="n">
-        <v>52.2</v>
+        <v>39.5</v>
       </c>
       <c r="N53" s="39" t="n">
-        <v>23.6</v>
+        <v>29.1</v>
       </c>
       <c r="O53" s="39" t="n">
-        <v>40</v>
+        <v>29.1</v>
       </c>
       <c r="P53" s="39" t="n">
-        <v>24.4</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="Q53" s="39" t="n">
-        <v>17.8</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="R53" s="39" t="n">
-        <v>23.7</v>
+        <v>67.7</v>
       </c>
       <c r="S53" s="39" t="n">
-        <v>90.7</v>
+        <v>74.7</v>
       </c>
       <c r="T53" s="39" t="n">
-        <v>47.9</v>
+        <v>27.3</v>
       </c>
       <c r="U53" s="39" t="n">
-        <v>81.3</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="V53" s="39" t="n">
-        <v>83.40000000000001</v>
+        <v>35</v>
       </c>
       <c r="W53" s="39" t="n">
-        <v>76.40000000000001</v>
+        <v>24.6</v>
       </c>
       <c r="X53" s="39" t="n">
-        <v>60.9</v>
+        <v>62.2</v>
       </c>
       <c r="Y53" s="39" t="inlineStr">
         <is>
-          <t>纳指科技ETF</t>
+          <t>证券ETF</t>
         </is>
       </c>
     </row>
@@ -16332,79 +16332,79 @@
         <v>52</v>
       </c>
       <c r="B54" s="39" t="n">
-        <v>512880</v>
+        <v>159928</v>
       </c>
       <c r="C54" s="39" t="inlineStr">
         <is>
-          <t>证券ETF</t>
+          <t>消费ETF</t>
         </is>
       </c>
       <c r="D54" s="39" t="n">
-        <v>278.96</v>
+        <v>152.99</v>
       </c>
       <c r="E54" s="39" t="n">
-        <v>43.1</v>
+        <v>36.7</v>
       </c>
       <c r="F54" s="39" t="n">
-        <v>43.1</v>
+        <v>80.8</v>
       </c>
       <c r="G54" s="39" t="n">
-        <v>1.1</v>
+        <v>18.8</v>
       </c>
       <c r="H54" s="39" t="n">
-        <v>20.9</v>
+        <v>70.7</v>
       </c>
       <c r="I54" s="39" t="n">
-        <v>50.6</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="J54" s="39" t="n">
-        <v>66.3</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K54" s="39" t="n">
-        <v>71.8</v>
+        <v>41.6</v>
       </c>
       <c r="L54" s="39" t="n">
-        <v>71.8</v>
+        <v>29</v>
       </c>
       <c r="M54" s="39" t="n">
-        <v>39.5</v>
+        <v>38.4</v>
       </c>
       <c r="N54" s="39" t="n">
-        <v>29.1</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="O54" s="39" t="n">
-        <v>29.1</v>
+        <v>84.2</v>
       </c>
       <c r="P54" s="39" t="n">
-        <v>84.90000000000001</v>
+        <v>32.1</v>
       </c>
       <c r="Q54" s="39" t="n">
-        <v>93.59999999999999</v>
+        <v>15.8</v>
       </c>
       <c r="R54" s="39" t="n">
-        <v>67.7</v>
+        <v>40.1</v>
       </c>
       <c r="S54" s="39" t="n">
-        <v>74.7</v>
+        <v>14.7</v>
       </c>
       <c r="T54" s="39" t="n">
-        <v>27.3</v>
+        <v>12.1</v>
       </c>
       <c r="U54" s="39" t="n">
-        <v>81.09999999999999</v>
+        <v>7.1</v>
       </c>
       <c r="V54" s="39" t="n">
-        <v>35</v>
+        <v>3.2</v>
       </c>
       <c r="W54" s="39" t="n">
-        <v>24.6</v>
+        <v>1.8</v>
       </c>
       <c r="X54" s="39" t="n">
-        <v>62.2</v>
+        <v>63.6</v>
       </c>
       <c r="Y54" s="39" t="inlineStr">
         <is>
-          <t>证券ETF</t>
+          <t>消费ETF</t>
         </is>
       </c>
     </row>
@@ -16413,79 +16413,79 @@
         <v>53</v>
       </c>
       <c r="B55" s="39" t="n">
-        <v>159866</v>
+        <v>159920</v>
       </c>
       <c r="C55" s="39" t="inlineStr">
         <is>
-          <t>日经ETF</t>
+          <t>恒生ETF</t>
         </is>
       </c>
       <c r="D55" s="39" t="n">
-        <v>6.62</v>
+        <v>158.51</v>
       </c>
       <c r="E55" s="39" t="n">
-        <v>70.40000000000001</v>
+        <v>36.1</v>
       </c>
       <c r="F55" s="39" t="n">
-        <v>20.7</v>
+        <v>11.7</v>
       </c>
       <c r="G55" s="39" t="n">
-        <v>3.6</v>
+        <v>1.1</v>
       </c>
       <c r="H55" s="39" t="n">
-        <v>47.4</v>
+        <v>1</v>
       </c>
       <c r="I55" s="39" t="n">
-        <v>37.6</v>
+        <v>0.9</v>
       </c>
       <c r="J55" s="39" t="n">
-        <v>77</v>
+        <v>61.3</v>
       </c>
       <c r="K55" s="39" t="n">
-        <v>60.9</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="L55" s="39" t="n">
-        <v>76.7</v>
+        <v>86.8</v>
       </c>
       <c r="M55" s="39" t="n">
-        <v>76.7</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="N55" s="39" t="n">
-        <v>52.5</v>
+        <v>34.5</v>
       </c>
       <c r="O55" s="39" t="n">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="P55" s="39" t="n">
-        <v>87.59999999999999</v>
+        <v>62</v>
       </c>
       <c r="Q55" s="39" t="n">
-        <v>52.9</v>
+        <v>81.3</v>
       </c>
       <c r="R55" s="39" t="n">
-        <v>77.09999999999999</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="S55" s="39" t="n">
-        <v>87.90000000000001</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="T55" s="39" t="n">
-        <v>48.5</v>
+        <v>56.7</v>
       </c>
       <c r="U55" s="39" t="n">
-        <v>83.40000000000001</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="V55" s="39" t="n">
-        <v>90.09999999999999</v>
+        <v>70</v>
       </c>
       <c r="W55" s="39" t="n">
-        <v>94.5</v>
+        <v>28.7</v>
       </c>
       <c r="X55" s="39" t="n">
-        <v>62.6</v>
+        <v>63.7</v>
       </c>
       <c r="Y55" s="39" t="inlineStr">
         <is>
-          <t>日经ETF</t>
+          <t>恒生ETF</t>
         </is>
       </c>
     </row>
@@ -16494,79 +16494,79 @@
         <v>54</v>
       </c>
       <c r="B56" s="39" t="n">
-        <v>159928</v>
+        <v>515790</v>
       </c>
       <c r="C56" s="39" t="inlineStr">
         <is>
-          <t>消费ETF</t>
+          <t>光伏ETF</t>
         </is>
       </c>
       <c r="D56" s="39" t="n">
-        <v>152.99</v>
+        <v>88.5</v>
       </c>
       <c r="E56" s="39" t="n">
-        <v>36.7</v>
+        <v>34.8</v>
       </c>
       <c r="F56" s="39" t="n">
-        <v>80.8</v>
+        <v>11.1</v>
       </c>
       <c r="G56" s="39" t="n">
-        <v>18.8</v>
+        <v>1.5</v>
       </c>
       <c r="H56" s="39" t="n">
-        <v>70.7</v>
+        <v>1.2</v>
       </c>
       <c r="I56" s="39" t="n">
-        <v>80.59999999999999</v>
+        <v>17.1</v>
       </c>
       <c r="J56" s="39" t="n">
-        <v>81.59999999999999</v>
+        <v>60.5</v>
       </c>
       <c r="K56" s="39" t="n">
-        <v>41.6</v>
+        <v>64.8</v>
       </c>
       <c r="L56" s="39" t="n">
-        <v>29</v>
+        <v>75.5</v>
       </c>
       <c r="M56" s="39" t="n">
-        <v>38.4</v>
+        <v>51.8</v>
       </c>
       <c r="N56" s="39" t="n">
-        <v>65.59999999999999</v>
+        <v>23</v>
       </c>
       <c r="O56" s="39" t="n">
-        <v>84.2</v>
+        <v>19.4</v>
       </c>
       <c r="P56" s="39" t="n">
-        <v>32.1</v>
+        <v>11.9</v>
       </c>
       <c r="Q56" s="39" t="n">
-        <v>15.8</v>
+        <v>59.1</v>
       </c>
       <c r="R56" s="39" t="n">
-        <v>40.1</v>
+        <v>34.5</v>
       </c>
       <c r="S56" s="39" t="n">
-        <v>14.7</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="T56" s="39" t="n">
-        <v>12.1</v>
+        <v>19.7</v>
       </c>
       <c r="U56" s="39" t="n">
-        <v>7.1</v>
+        <v>56</v>
       </c>
       <c r="V56" s="39" t="n">
-        <v>3.2</v>
+        <v>56</v>
       </c>
       <c r="W56" s="39" t="n">
-        <v>1.8</v>
+        <v>29.4</v>
       </c>
       <c r="X56" s="39" t="n">
-        <v>63.6</v>
+        <v>63.8</v>
       </c>
       <c r="Y56" s="39" t="inlineStr">
         <is>
-          <t>消费ETF</t>
+          <t>光伏ETF</t>
         </is>
       </c>
     </row>
@@ -16575,79 +16575,79 @@
         <v>55</v>
       </c>
       <c r="B57" s="39" t="n">
-        <v>513120</v>
+        <v>159870</v>
       </c>
       <c r="C57" s="39" t="inlineStr">
         <is>
-          <t>港股创新药ETF</t>
+          <t>化工ETF</t>
         </is>
       </c>
       <c r="D57" s="39" t="n">
-        <v>109.72</v>
+        <v>14.2</v>
       </c>
       <c r="E57" s="39" t="n">
-        <v>67.5</v>
+        <v>48.5</v>
       </c>
       <c r="F57" s="39" t="n">
-        <v>39.9</v>
+        <v>13.8</v>
       </c>
       <c r="G57" s="39" t="n">
-        <v>7.2</v>
+        <v>1.1</v>
       </c>
       <c r="H57" s="39" t="n">
-        <v>3.3</v>
+        <v>31.5</v>
       </c>
       <c r="I57" s="39" t="n">
-        <v>9</v>
+        <v>34.4</v>
       </c>
       <c r="J57" s="39" t="n">
-        <v>55.4</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="K57" s="39" t="n">
-        <v>78.3</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="L57" s="39" t="n">
-        <v>89.09999999999999</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="M57" s="39" t="n">
-        <v>65</v>
+        <v>33.5</v>
       </c>
       <c r="N57" s="39" t="n">
-        <v>33.9</v>
+        <v>15.9</v>
       </c>
       <c r="O57" s="39" t="n">
-        <v>33.9</v>
+        <v>30.5</v>
       </c>
       <c r="P57" s="39" t="n">
-        <v>28.9</v>
+        <v>30.5</v>
       </c>
       <c r="Q57" s="39" t="n">
-        <v>82.09999999999999</v>
+        <v>84.5</v>
       </c>
       <c r="R57" s="39" t="n">
-        <v>95.59999999999999</v>
+        <v>88.2</v>
       </c>
       <c r="S57" s="39" t="n">
-        <v>97.09999999999999</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="T57" s="39" t="n">
-        <v>98.09999999999999</v>
+        <v>72.3</v>
       </c>
       <c r="U57" s="39" t="n">
-        <v>98.40000000000001</v>
+        <v>92</v>
       </c>
       <c r="V57" s="39" t="n">
-        <v>32.6</v>
+        <v>38</v>
       </c>
       <c r="W57" s="39" t="n">
-        <v>54.8</v>
+        <v>49.8</v>
       </c>
       <c r="X57" s="39" t="n">
-        <v>64.8</v>
+        <v>71.5</v>
       </c>
       <c r="Y57" s="39" t="inlineStr">
         <is>
-          <t>港股创新药ETF</t>
+          <t>化工ETF</t>
         </is>
       </c>
     </row>
@@ -16656,79 +16656,79 @@
         <v>56</v>
       </c>
       <c r="B58" s="39" t="n">
-        <v>515790</v>
+        <v>513050</v>
       </c>
       <c r="C58" s="39" t="inlineStr">
         <is>
-          <t>光伏ETF</t>
+          <t>中概互联网ETF</t>
         </is>
       </c>
       <c r="D58" s="39" t="n">
-        <v>88.64</v>
+        <v>343.84</v>
       </c>
       <c r="E58" s="39" t="n">
-        <v>34.8</v>
+        <v>31.8</v>
       </c>
       <c r="F58" s="39" t="n">
-        <v>11.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G58" s="39" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H58" s="39" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="I58" s="39" t="n">
-        <v>17.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J58" s="39" t="n">
-        <v>60.5</v>
+        <v>56.6</v>
       </c>
       <c r="K58" s="39" t="n">
-        <v>64.8</v>
+        <v>45</v>
       </c>
       <c r="L58" s="39" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="M58" s="39" t="n">
+        <v>79.09999999999999</v>
+      </c>
+      <c r="N58" s="39" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="O58" s="39" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="P58" s="39" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="Q58" s="39" t="n">
+        <v>60.4</v>
+      </c>
+      <c r="R58" s="39" t="n">
+        <v>79.7</v>
+      </c>
+      <c r="S58" s="39" t="n">
+        <v>96.3</v>
+      </c>
+      <c r="T58" s="39" t="n">
+        <v>52.1</v>
+      </c>
+      <c r="U58" s="39" t="n">
         <v>75.5</v>
       </c>
-      <c r="M58" s="39" t="n">
-        <v>51.8</v>
-      </c>
-      <c r="N58" s="39" t="n">
-        <v>23</v>
-      </c>
-      <c r="O58" s="39" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="P58" s="39" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="Q58" s="39" t="n">
-        <v>59.1</v>
-      </c>
-      <c r="R58" s="39" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="S58" s="39" t="n">
-        <v>70.90000000000001</v>
-      </c>
-      <c r="T58" s="39" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="U58" s="39" t="n">
-        <v>56</v>
-      </c>
       <c r="V58" s="39" t="n">
-        <v>56</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="W58" s="39" t="n">
-        <v>29.4</v>
+        <v>44.3</v>
       </c>
       <c r="X58" s="39" t="n">
-        <v>70.90000000000001</v>
+        <v>74.2</v>
       </c>
       <c r="Y58" s="39" t="inlineStr">
         <is>
-          <t>光伏ETF</t>
+          <t>中概互联网ETF</t>
         </is>
       </c>
     </row>
@@ -16737,79 +16737,79 @@
         <v>57</v>
       </c>
       <c r="B59" s="39" t="n">
-        <v>513050</v>
+        <v>512660</v>
       </c>
       <c r="C59" s="39" t="inlineStr">
         <is>
-          <t>中概互联网ETF</t>
+          <t>军工ETF</t>
         </is>
       </c>
       <c r="D59" s="39" t="n">
-        <v>343.59</v>
+        <v>128.5</v>
       </c>
       <c r="E59" s="39" t="n">
-        <v>31.8</v>
+        <v>27.6</v>
       </c>
       <c r="F59" s="39" t="n">
-        <v>8.800000000000001</v>
+        <v>22.3</v>
       </c>
       <c r="G59" s="39" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H59" s="39" t="n">
-        <v>0.9</v>
+        <v>28.6</v>
       </c>
       <c r="I59" s="39" t="n">
-        <v>8.300000000000001</v>
+        <v>71.8</v>
       </c>
       <c r="J59" s="39" t="n">
-        <v>56.6</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="K59" s="39" t="n">
-        <v>45</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="L59" s="39" t="n">
-        <v>68.09999999999999</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="M59" s="39" t="n">
-        <v>79.09999999999999</v>
+        <v>31.7</v>
       </c>
       <c r="N59" s="39" t="n">
-        <v>23.7</v>
+        <v>23.5</v>
       </c>
       <c r="O59" s="39" t="n">
-        <v>56.2</v>
+        <v>30.6</v>
       </c>
       <c r="P59" s="39" t="n">
-        <v>39.4</v>
+        <v>14.4</v>
       </c>
       <c r="Q59" s="39" t="n">
-        <v>60.4</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="R59" s="39" t="n">
-        <v>79.7</v>
+        <v>51.4</v>
       </c>
       <c r="S59" s="39" t="n">
-        <v>96.3</v>
+        <v>46.1</v>
       </c>
       <c r="T59" s="39" t="n">
-        <v>52.1</v>
+        <v>15</v>
       </c>
       <c r="U59" s="39" t="n">
-        <v>75.5</v>
+        <v>39.5</v>
       </c>
       <c r="V59" s="39" t="n">
-        <v>77.09999999999999</v>
+        <v>16.8</v>
       </c>
       <c r="W59" s="39" t="n">
-        <v>44.3</v>
+        <v>16.8</v>
       </c>
       <c r="X59" s="39" t="n">
-        <v>72.2</v>
+        <v>74.8</v>
       </c>
       <c r="Y59" s="39" t="inlineStr">
         <is>
-          <t>中概互联网ETF</t>
+          <t>军工ETF</t>
         </is>
       </c>
     </row>
@@ -16818,79 +16818,79 @@
         <v>58</v>
       </c>
       <c r="B60" s="39" t="n">
-        <v>159870</v>
+        <v>513060</v>
       </c>
       <c r="C60" s="39" t="inlineStr">
         <is>
-          <t>化工ETF</t>
+          <t>恒生医疗ETF</t>
         </is>
       </c>
       <c r="D60" s="39" t="n">
-        <v>14.25</v>
+        <v>104.9</v>
       </c>
       <c r="E60" s="39" t="n">
-        <v>48.5</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="F60" s="39" t="n">
-        <v>13.8</v>
+        <v>42.4</v>
       </c>
       <c r="G60" s="39" t="n">
-        <v>1.1</v>
+        <v>5.7</v>
       </c>
       <c r="H60" s="39" t="n">
-        <v>31.5</v>
+        <v>3</v>
       </c>
       <c r="I60" s="39" t="n">
-        <v>34.4</v>
+        <v>15.4</v>
       </c>
       <c r="J60" s="39" t="n">
-        <v>64.40000000000001</v>
+        <v>56.9</v>
       </c>
       <c r="K60" s="39" t="n">
-        <v>67.40000000000001</v>
+        <v>77.5</v>
       </c>
       <c r="L60" s="39" t="n">
-        <v>75.59999999999999</v>
+        <v>90.8</v>
       </c>
       <c r="M60" s="39" t="n">
-        <v>33.5</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="N60" s="39" t="n">
-        <v>15.9</v>
+        <v>32.5</v>
       </c>
       <c r="O60" s="39" t="n">
-        <v>30.5</v>
+        <v>37.5</v>
       </c>
       <c r="P60" s="39" t="n">
-        <v>30.5</v>
+        <v>37.5</v>
       </c>
       <c r="Q60" s="39" t="n">
-        <v>84.5</v>
+        <v>77.5</v>
       </c>
       <c r="R60" s="39" t="n">
-        <v>88.2</v>
+        <v>95.7</v>
       </c>
       <c r="S60" s="39" t="n">
-        <v>95.90000000000001</v>
+        <v>97.3</v>
       </c>
       <c r="T60" s="39" t="n">
-        <v>72.3</v>
+        <v>98.2</v>
       </c>
       <c r="U60" s="39" t="n">
-        <v>92</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="V60" s="39" t="n">
-        <v>38</v>
+        <v>33.7</v>
       </c>
       <c r="W60" s="39" t="n">
-        <v>49.8</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="X60" s="39" t="n">
-        <v>76.5</v>
+        <v>77.7</v>
       </c>
       <c r="Y60" s="39" t="inlineStr">
         <is>
-          <t>化工ETF</t>
+          <t>恒生医疗ETF</t>
         </is>
       </c>
     </row>
@@ -16898,80 +16898,82 @@
       <c r="A61" s="39" t="n">
         <v>59</v>
       </c>
-      <c r="B61" s="39" t="n">
-        <v>512660</v>
+      <c r="B61" s="39" t="inlineStr">
+        <is>
+          <t>159949</t>
+        </is>
       </c>
       <c r="C61" s="39" t="inlineStr">
         <is>
-          <t>军工ETF</t>
+          <t>创业板50ETF</t>
         </is>
       </c>
       <c r="D61" s="39" t="n">
-        <v>128.63</v>
+        <v>251.15</v>
       </c>
       <c r="E61" s="39" t="n">
-        <v>27.6</v>
+        <v>36.2</v>
       </c>
       <c r="F61" s="39" t="n">
-        <v>22.3</v>
+        <v>6.1</v>
       </c>
       <c r="G61" s="39" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H61" s="39" t="n">
-        <v>28.6</v>
+        <v>11.4</v>
       </c>
       <c r="I61" s="39" t="n">
-        <v>71.8</v>
+        <v>22.1</v>
       </c>
       <c r="J61" s="39" t="n">
-        <v>77.40000000000001</v>
+        <v>58.2</v>
       </c>
       <c r="K61" s="39" t="n">
-        <v>83.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="L61" s="39" t="n">
-        <v>85.40000000000001</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="M61" s="39" t="n">
-        <v>31.7</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="N61" s="39" t="n">
-        <v>23.5</v>
+        <v>25.6</v>
       </c>
       <c r="O61" s="39" t="n">
-        <v>30.6</v>
+        <v>34.4</v>
       </c>
       <c r="P61" s="39" t="n">
-        <v>14.4</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="Q61" s="39" t="n">
-        <v>78.59999999999999</v>
+        <v>91.7</v>
       </c>
       <c r="R61" s="39" t="n">
-        <v>51.4</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="S61" s="39" t="n">
-        <v>46.1</v>
+        <v>92.2</v>
       </c>
       <c r="T61" s="39" t="n">
-        <v>15</v>
+        <v>50.7</v>
       </c>
       <c r="U61" s="39" t="n">
-        <v>39.5</v>
+        <v>75.7</v>
       </c>
       <c r="V61" s="39" t="n">
-        <v>16.8</v>
+        <v>43</v>
       </c>
       <c r="W61" s="39" t="n">
-        <v>16.8</v>
+        <v>33.4</v>
       </c>
       <c r="X61" s="39" t="n">
-        <v>77</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="Y61" s="39" t="inlineStr">
         <is>
-          <t>军工ETF</t>
+          <t>创业板50ETF</t>
         </is>
       </c>
     </row>
@@ -16980,79 +16982,79 @@
         <v>60</v>
       </c>
       <c r="B62" s="39" t="n">
-        <v>516110</v>
+        <v>159883</v>
       </c>
       <c r="C62" s="39" t="inlineStr">
         <is>
-          <t>汽车ETF</t>
+          <t>医疗器械ETF</t>
         </is>
       </c>
       <c r="D62" s="39" t="n">
-        <v>4.22</v>
+        <v>16.36</v>
       </c>
       <c r="E62" s="39" t="n">
-        <v>11.2</v>
+        <v>65.5</v>
       </c>
       <c r="F62" s="39" t="n">
-        <v>2.6</v>
+        <v>33.3</v>
       </c>
       <c r="G62" s="39" t="n">
-        <v>0.2</v>
+        <v>3.1</v>
       </c>
       <c r="H62" s="39" t="n">
-        <v>5.5</v>
+        <v>31.1</v>
       </c>
       <c r="I62" s="39" t="n">
-        <v>26.9</v>
+        <v>43.1</v>
       </c>
       <c r="J62" s="39" t="n">
-        <v>71</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="K62" s="39" t="n">
-        <v>85.3</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="L62" s="39" t="n">
-        <v>89.7</v>
+        <v>77.8</v>
       </c>
       <c r="M62" s="39" t="n">
-        <v>70.3</v>
+        <v>77.8</v>
       </c>
       <c r="N62" s="39" t="n">
-        <v>42.6</v>
+        <v>18.3</v>
       </c>
       <c r="O62" s="39" t="n">
-        <v>18.4</v>
+        <v>45.9</v>
       </c>
       <c r="P62" s="39" t="n">
-        <v>29.1</v>
+        <v>19.5</v>
       </c>
       <c r="Q62" s="39" t="n">
-        <v>79</v>
+        <v>70.5</v>
       </c>
       <c r="R62" s="39" t="n">
-        <v>64</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="S62" s="39" t="n">
-        <v>93</v>
+        <v>56.1</v>
       </c>
       <c r="T62" s="39" t="n">
-        <v>60.5</v>
+        <v>18.3</v>
       </c>
       <c r="U62" s="39" t="n">
-        <v>75.90000000000001</v>
+        <v>13.7</v>
       </c>
       <c r="V62" s="39" t="n">
-        <v>31.6</v>
+        <v>3.9</v>
       </c>
       <c r="W62" s="39" t="n">
-        <v>29.7</v>
+        <v>38.9</v>
       </c>
       <c r="X62" s="39" t="n">
-        <v>77.09999999999999</v>
+        <v>78.3</v>
       </c>
       <c r="Y62" s="39" t="inlineStr">
         <is>
-          <t>汽车ETF</t>
+          <t>医疗器械ETF</t>
         </is>
       </c>
     </row>
@@ -17069,7 +17071,7 @@
         </is>
       </c>
       <c r="D63" s="39" t="n">
-        <v>850.86</v>
+        <v>851.3</v>
       </c>
       <c r="E63" s="39" t="n">
         <v>19.6</v>
@@ -17129,7 +17131,7 @@
         <v>29.9</v>
       </c>
       <c r="X63" s="39" t="n">
-        <v>77.59999999999999</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="Y63" s="39" t="inlineStr">
         <is>
@@ -17141,82 +17143,80 @@
       <c r="A64" s="39" t="n">
         <v>62</v>
       </c>
-      <c r="B64" s="39" t="inlineStr">
-        <is>
-          <t>159949</t>
-        </is>
+      <c r="B64" s="39" t="n">
+        <v>512100</v>
       </c>
       <c r="C64" s="39" t="inlineStr">
         <is>
-          <t>创业板50ETF</t>
+          <t>中证1000ETF</t>
         </is>
       </c>
       <c r="D64" s="39" t="n">
-        <v>251.15</v>
+        <v>632.86</v>
       </c>
       <c r="E64" s="39" t="n">
-        <v>36.2</v>
+        <v>64.2</v>
       </c>
       <c r="F64" s="39" t="n">
-        <v>6.1</v>
+        <v>17.3</v>
       </c>
       <c r="G64" s="39" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H64" s="39" t="n">
-        <v>11.4</v>
+        <v>1.2</v>
       </c>
       <c r="I64" s="39" t="n">
-        <v>22.1</v>
+        <v>35.1</v>
       </c>
       <c r="J64" s="39" t="n">
-        <v>58.2</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="K64" s="39" t="n">
-        <v>75</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="L64" s="39" t="n">
-        <v>78.90000000000001</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="M64" s="39" t="n">
-        <v>78.90000000000001</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="N64" s="39" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="O64" s="39" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="P64" s="39" t="n">
         <v>25.6</v>
       </c>
-      <c r="O64" s="39" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="P64" s="39" t="n">
-        <v>70.09999999999999</v>
-      </c>
       <c r="Q64" s="39" t="n">
-        <v>91.7</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="R64" s="39" t="n">
-        <v>73.90000000000001</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="S64" s="39" t="n">
-        <v>92.2</v>
+        <v>94.2</v>
       </c>
       <c r="T64" s="39" t="n">
-        <v>50.7</v>
+        <v>35.8</v>
       </c>
       <c r="U64" s="39" t="n">
-        <v>75.7</v>
+        <v>49.4</v>
       </c>
       <c r="V64" s="39" t="n">
-        <v>43</v>
+        <v>15.8</v>
       </c>
       <c r="W64" s="39" t="n">
-        <v>33.4</v>
+        <v>49.1</v>
       </c>
       <c r="X64" s="39" t="n">
-        <v>77.90000000000001</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="Y64" s="39" t="inlineStr">
         <is>
-          <t>创业板50ETF</t>
+          <t>中证1000ETF</t>
         </is>
       </c>
     </row>
@@ -17225,79 +17225,79 @@
         <v>63</v>
       </c>
       <c r="B65" s="39" t="n">
-        <v>159883</v>
+        <v>516110</v>
       </c>
       <c r="C65" s="39" t="inlineStr">
         <is>
-          <t>医疗器械ETF</t>
+          <t>汽车ETF</t>
         </is>
       </c>
       <c r="D65" s="39" t="n">
-        <v>16.36</v>
+        <v>4.21</v>
       </c>
       <c r="E65" s="39" t="n">
-        <v>65.5</v>
+        <v>11.2</v>
       </c>
       <c r="F65" s="39" t="n">
-        <v>33.3</v>
+        <v>2.6</v>
       </c>
       <c r="G65" s="39" t="n">
-        <v>3.1</v>
+        <v>0.2</v>
       </c>
       <c r="H65" s="39" t="n">
-        <v>31.1</v>
+        <v>5.5</v>
       </c>
       <c r="I65" s="39" t="n">
-        <v>43.1</v>
+        <v>26.9</v>
       </c>
       <c r="J65" s="39" t="n">
-        <v>66.40000000000001</v>
+        <v>71</v>
       </c>
       <c r="K65" s="39" t="n">
-        <v>69.59999999999999</v>
+        <v>85.3</v>
       </c>
       <c r="L65" s="39" t="n">
-        <v>77.8</v>
+        <v>89.7</v>
       </c>
       <c r="M65" s="39" t="n">
-        <v>77.8</v>
+        <v>70.3</v>
       </c>
       <c r="N65" s="39" t="n">
-        <v>18.3</v>
+        <v>42.6</v>
       </c>
       <c r="O65" s="39" t="n">
-        <v>45.9</v>
+        <v>18.4</v>
       </c>
       <c r="P65" s="39" t="n">
-        <v>19.5</v>
+        <v>29.1</v>
       </c>
       <c r="Q65" s="39" t="n">
-        <v>70.5</v>
+        <v>79</v>
       </c>
       <c r="R65" s="39" t="n">
-        <v>75.59999999999999</v>
+        <v>64</v>
       </c>
       <c r="S65" s="39" t="n">
-        <v>56.1</v>
+        <v>93</v>
       </c>
       <c r="T65" s="39" t="n">
-        <v>18.3</v>
+        <v>60.5</v>
       </c>
       <c r="U65" s="39" t="n">
-        <v>13.7</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="V65" s="39" t="n">
-        <v>3.9</v>
+        <v>31.6</v>
       </c>
       <c r="W65" s="39" t="n">
-        <v>38.9</v>
+        <v>29.7</v>
       </c>
       <c r="X65" s="39" t="n">
-        <v>78.3</v>
+        <v>78.8</v>
       </c>
       <c r="Y65" s="39" t="inlineStr">
         <is>
-          <t>医疗器械ETF</t>
+          <t>汽车ETF</t>
         </is>
       </c>
     </row>
@@ -17306,79 +17306,79 @@
         <v>64</v>
       </c>
       <c r="B66" s="39" t="n">
-        <v>512100</v>
+        <v>513080</v>
       </c>
       <c r="C66" s="39" t="inlineStr">
         <is>
-          <t>中证1000ETF</t>
+          <t>法国CAC40ETF</t>
         </is>
       </c>
       <c r="D66" s="39" t="n">
-        <v>632.86</v>
+        <v>8.74</v>
       </c>
       <c r="E66" s="39" t="n">
-        <v>64.2</v>
+        <v>15.7</v>
       </c>
       <c r="F66" s="39" t="n">
-        <v>17.3</v>
+        <v>15.7</v>
       </c>
       <c r="G66" s="39" t="n">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="H66" s="39" t="n">
-        <v>1.2</v>
+        <v>30.6</v>
       </c>
       <c r="I66" s="39" t="n">
-        <v>35.1</v>
+        <v>19.7</v>
       </c>
       <c r="J66" s="39" t="n">
-        <v>67.09999999999999</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="K66" s="39" t="n">
-        <v>78.59999999999999</v>
+        <v>61.6</v>
       </c>
       <c r="L66" s="39" t="n">
-        <v>87.59999999999999</v>
+        <v>77.3</v>
       </c>
       <c r="M66" s="39" t="n">
-        <v>70.40000000000001</v>
+        <v>55.3</v>
       </c>
       <c r="N66" s="39" t="n">
-        <v>30.5</v>
+        <v>66.2</v>
       </c>
       <c r="O66" s="39" t="n">
-        <v>33.1</v>
+        <v>78</v>
       </c>
       <c r="P66" s="39" t="n">
-        <v>25.6</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="Q66" s="39" t="n">
-        <v>88.40000000000001</v>
+        <v>70.2</v>
       </c>
       <c r="R66" s="39" t="n">
-        <v>88.40000000000001</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="S66" s="39" t="n">
-        <v>94.2</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="T66" s="39" t="n">
-        <v>35.8</v>
+        <v>73.5</v>
       </c>
       <c r="U66" s="39" t="n">
-        <v>49.4</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="V66" s="39" t="n">
-        <v>15.8</v>
+        <v>94.8</v>
       </c>
       <c r="W66" s="39" t="n">
-        <v>49.1</v>
+        <v>94.8</v>
       </c>
       <c r="X66" s="39" t="n">
-        <v>79.2</v>
+        <v>79.3</v>
       </c>
       <c r="Y66" s="39" t="inlineStr">
         <is>
-          <t>中证1000ETF</t>
+          <t>法国CAC40ETF</t>
         </is>
       </c>
     </row>
@@ -17387,79 +17387,79 @@
         <v>65</v>
       </c>
       <c r="B67" s="39" t="n">
-        <v>513060</v>
+        <v>159941</v>
       </c>
       <c r="C67" s="39" t="inlineStr">
         <is>
-          <t>恒生医疗ETF</t>
+          <t>纳指ETF</t>
         </is>
       </c>
       <c r="D67" s="39" t="n">
-        <v>105.12</v>
+        <v>238.49</v>
       </c>
       <c r="E67" s="39" t="n">
-        <v>70.09999999999999</v>
+        <v>53.4</v>
       </c>
       <c r="F67" s="39" t="n">
-        <v>42.4</v>
+        <v>20</v>
       </c>
       <c r="G67" s="39" t="n">
-        <v>5.7</v>
+        <v>3.2</v>
       </c>
       <c r="H67" s="39" t="n">
-        <v>3</v>
+        <v>37.8</v>
       </c>
       <c r="I67" s="39" t="n">
-        <v>15.4</v>
+        <v>34.3</v>
       </c>
       <c r="J67" s="39" t="n">
-        <v>56.9</v>
+        <v>85</v>
       </c>
       <c r="K67" s="39" t="n">
-        <v>77.5</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="L67" s="39" t="n">
-        <v>90.8</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="M67" s="39" t="n">
-        <v>67.90000000000001</v>
+        <v>49.1</v>
       </c>
       <c r="N67" s="39" t="n">
-        <v>32.5</v>
+        <v>22.3</v>
       </c>
       <c r="O67" s="39" t="n">
-        <v>37.5</v>
+        <v>48.2</v>
       </c>
       <c r="P67" s="39" t="n">
-        <v>37.5</v>
+        <v>31.2</v>
       </c>
       <c r="Q67" s="39" t="n">
-        <v>77.5</v>
+        <v>21.2</v>
       </c>
       <c r="R67" s="39" t="n">
-        <v>95.7</v>
+        <v>19.2</v>
       </c>
       <c r="S67" s="39" t="n">
-        <v>97.3</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="T67" s="39" t="n">
-        <v>98.2</v>
+        <v>52.8</v>
       </c>
       <c r="U67" s="39" t="n">
-        <v>98.40000000000001</v>
+        <v>83.2</v>
       </c>
       <c r="V67" s="39" t="n">
-        <v>33.7</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="W67" s="39" t="n">
-        <v>66.59999999999999</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="X67" s="39" t="n">
         <v>79.90000000000001</v>
       </c>
       <c r="Y67" s="39" t="inlineStr">
         <is>
-          <t>恒生医疗ETF</t>
+          <t>纳指ETF</t>
         </is>
       </c>
     </row>
@@ -17536,7 +17536,7 @@
         <v>48.2</v>
       </c>
       <c r="X68" s="39" t="n">
-        <v>80.09999999999999</v>
+        <v>81</v>
       </c>
       <c r="Y68" s="39" t="inlineStr">
         <is>
@@ -17557,7 +17557,7 @@
         </is>
       </c>
       <c r="D69" s="39" t="n">
-        <v>177.74</v>
+        <v>177.83</v>
       </c>
       <c r="E69" s="39" t="n">
         <v>45.7</v>
@@ -17630,79 +17630,79 @@
         <v>68</v>
       </c>
       <c r="B70" s="39" t="n">
-        <v>515030</v>
+        <v>510500</v>
       </c>
       <c r="C70" s="39" t="inlineStr">
         <is>
-          <t>新能源车ETF</t>
+          <t>中证500ETF</t>
         </is>
       </c>
       <c r="D70" s="39" t="n">
-        <v>43.19</v>
+        <v>1098.13</v>
       </c>
       <c r="E70" s="39" t="n">
-        <v>18.3</v>
+        <v>53.9</v>
       </c>
       <c r="F70" s="39" t="n">
-        <v>5</v>
+        <v>16.4</v>
       </c>
       <c r="G70" s="39" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="H70" s="39" t="n">
-        <v>0.3</v>
+        <v>10.8</v>
       </c>
       <c r="I70" s="39" t="n">
-        <v>12.1</v>
+        <v>47.3</v>
       </c>
       <c r="J70" s="39" t="n">
-        <v>59</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="K70" s="39" t="n">
-        <v>77.40000000000001</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="L70" s="39" t="n">
-        <v>80.5</v>
+        <v>85.2</v>
       </c>
       <c r="M70" s="39" t="n">
-        <v>83.90000000000001</v>
+        <v>62.2</v>
       </c>
       <c r="N70" s="39" t="n">
-        <v>27.2</v>
+        <v>29</v>
       </c>
       <c r="O70" s="39" t="n">
-        <v>22.2</v>
+        <v>33.4</v>
       </c>
       <c r="P70" s="39" t="n">
-        <v>51.8</v>
+        <v>38.4</v>
       </c>
       <c r="Q70" s="39" t="n">
-        <v>89.3</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="R70" s="39" t="n">
-        <v>66.7</v>
+        <v>69.5</v>
       </c>
       <c r="S70" s="39" t="n">
-        <v>90</v>
+        <v>77.5</v>
       </c>
       <c r="T70" s="39" t="n">
-        <v>69</v>
+        <v>37.1</v>
       </c>
       <c r="U70" s="39" t="n">
-        <v>80.09999999999999</v>
+        <v>63.5</v>
       </c>
       <c r="V70" s="39" t="n">
-        <v>26.4</v>
+        <v>26.9</v>
       </c>
       <c r="W70" s="39" t="n">
-        <v>40.5</v>
+        <v>35.5</v>
       </c>
       <c r="X70" s="39" t="n">
-        <v>81.2</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="Y70" s="39" t="inlineStr">
         <is>
-          <t>新能源车ETF</t>
+          <t>中证500ETF</t>
         </is>
       </c>
     </row>
@@ -17711,79 +17711,79 @@
         <v>69</v>
       </c>
       <c r="B71" s="39" t="n">
-        <v>513290</v>
+        <v>515030</v>
       </c>
       <c r="C71" s="39" t="inlineStr">
         <is>
-          <t>纳指生物科技ETF</t>
+          <t>新能源车ETF</t>
         </is>
       </c>
       <c r="D71" s="39" t="n">
-        <v>12.63</v>
+        <v>43.19</v>
       </c>
       <c r="E71" s="39" t="n">
-        <v>0.8</v>
+        <v>18.3</v>
       </c>
       <c r="F71" s="39" t="n">
-        <v>0.6</v>
+        <v>5</v>
       </c>
       <c r="G71" s="39" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="H71" s="39" t="n">
-        <v>44.4</v>
+        <v>0.3</v>
       </c>
       <c r="I71" s="39" t="n">
-        <v>23</v>
+        <v>12.1</v>
       </c>
       <c r="J71" s="39" t="n">
-        <v>64.5</v>
+        <v>59</v>
       </c>
       <c r="K71" s="39" t="n">
-        <v>40.9</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="L71" s="39" t="n">
-        <v>65.40000000000001</v>
+        <v>80.5</v>
       </c>
       <c r="M71" s="39" t="n">
-        <v>80.2</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="N71" s="39" t="n">
-        <v>57.5</v>
+        <v>27.2</v>
       </c>
       <c r="O71" s="39" t="n">
-        <v>48.4</v>
+        <v>22.2</v>
       </c>
       <c r="P71" s="39" t="n">
-        <v>44.8</v>
+        <v>51.8</v>
       </c>
       <c r="Q71" s="39" t="n">
-        <v>22.1</v>
+        <v>89.3</v>
       </c>
       <c r="R71" s="39" t="n">
-        <v>71.59999999999999</v>
+        <v>66.7</v>
       </c>
       <c r="S71" s="39" t="n">
-        <v>92.8</v>
+        <v>90</v>
       </c>
       <c r="T71" s="39" t="n">
-        <v>92.8</v>
+        <v>69</v>
       </c>
       <c r="U71" s="39" t="n">
-        <v>97.5</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="V71" s="39" t="n">
-        <v>54.1</v>
+        <v>26.4</v>
       </c>
       <c r="W71" s="39" t="n">
-        <v>75.7</v>
+        <v>40.5</v>
       </c>
       <c r="X71" s="39" t="n">
         <v>81.90000000000001</v>
       </c>
       <c r="Y71" s="39" t="inlineStr">
         <is>
-          <t>纳指生物科技ETF</t>
+          <t>新能源车ETF</t>
         </is>
       </c>
     </row>
@@ -17800,7 +17800,7 @@
         </is>
       </c>
       <c r="D72" s="39" t="n">
-        <v>17.61</v>
+        <v>17.59</v>
       </c>
       <c r="E72" s="39" t="n">
         <v>70.90000000000001</v>
@@ -17881,7 +17881,7 @@
         </is>
       </c>
       <c r="D73" s="39" t="n">
-        <v>268.86</v>
+        <v>269.63</v>
       </c>
       <c r="E73" s="39" t="n">
         <v>38.9</v>
@@ -17941,7 +17941,7 @@
         <v>51.4</v>
       </c>
       <c r="X73" s="39" t="n">
-        <v>82.3</v>
+        <v>84</v>
       </c>
       <c r="Y73" s="39" t="inlineStr">
         <is>
@@ -17954,79 +17954,79 @@
         <v>72</v>
       </c>
       <c r="B74" s="39" t="n">
-        <v>510500</v>
+        <v>513290</v>
       </c>
       <c r="C74" s="39" t="inlineStr">
         <is>
-          <t>中证500ETF</t>
+          <t>纳指生物科技ETF</t>
         </is>
       </c>
       <c r="D74" s="39" t="n">
-        <v>1098.32</v>
+        <v>12.66</v>
       </c>
       <c r="E74" s="39" t="n">
-        <v>53.9</v>
+        <v>0.8</v>
       </c>
       <c r="F74" s="39" t="n">
-        <v>16.4</v>
+        <v>0.6</v>
       </c>
       <c r="G74" s="39" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H74" s="39" t="n">
-        <v>10.8</v>
+        <v>44.4</v>
       </c>
       <c r="I74" s="39" t="n">
-        <v>47.3</v>
+        <v>23</v>
       </c>
       <c r="J74" s="39" t="n">
-        <v>70.09999999999999</v>
+        <v>64.5</v>
       </c>
       <c r="K74" s="39" t="n">
-        <v>77.09999999999999</v>
+        <v>40.9</v>
       </c>
       <c r="L74" s="39" t="n">
-        <v>85.2</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="M74" s="39" t="n">
-        <v>62.2</v>
+        <v>80.2</v>
       </c>
       <c r="N74" s="39" t="n">
-        <v>29</v>
+        <v>57.5</v>
       </c>
       <c r="O74" s="39" t="n">
-        <v>33.4</v>
+        <v>48.4</v>
       </c>
       <c r="P74" s="39" t="n">
-        <v>38.4</v>
+        <v>44.8</v>
       </c>
       <c r="Q74" s="39" t="n">
-        <v>91.40000000000001</v>
+        <v>22.1</v>
       </c>
       <c r="R74" s="39" t="n">
-        <v>69.5</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="S74" s="39" t="n">
-        <v>77.5</v>
+        <v>92.8</v>
       </c>
       <c r="T74" s="39" t="n">
-        <v>37.1</v>
+        <v>92.8</v>
       </c>
       <c r="U74" s="39" t="n">
-        <v>63.5</v>
+        <v>97.5</v>
       </c>
       <c r="V74" s="39" t="n">
-        <v>26.9</v>
+        <v>54.1</v>
       </c>
       <c r="W74" s="39" t="n">
-        <v>35.5</v>
+        <v>75.7</v>
       </c>
       <c r="X74" s="39" t="n">
-        <v>82.40000000000001</v>
+        <v>84</v>
       </c>
       <c r="Y74" s="39" t="inlineStr">
         <is>
-          <t>中证500ETF</t>
+          <t>纳指生物科技ETF</t>
         </is>
       </c>
     </row>
@@ -18035,79 +18035,79 @@
         <v>73</v>
       </c>
       <c r="B75" s="39" t="n">
-        <v>513360</v>
+        <v>159667</v>
       </c>
       <c r="C75" s="39" t="inlineStr">
         <is>
-          <t>教育ETF</t>
+          <t>工业母机ETF</t>
         </is>
       </c>
       <c r="D75" s="39" t="n">
-        <v>6.48</v>
+        <v>4.86</v>
       </c>
       <c r="E75" s="39" t="n">
-        <v>9.6</v>
+        <v>61</v>
       </c>
       <c r="F75" s="39" t="n">
-        <v>4.7</v>
+        <v>15.6</v>
       </c>
       <c r="G75" s="39" t="n">
-        <v>0.2</v>
+        <v>2.4</v>
       </c>
       <c r="H75" s="39" t="n">
-        <v>0.2</v>
+        <v>1.6</v>
       </c>
       <c r="I75" s="39" t="n">
-        <v>4.4</v>
+        <v>26.1</v>
       </c>
       <c r="J75" s="39" t="n">
-        <v>43.1</v>
+        <v>61.2</v>
       </c>
       <c r="K75" s="39" t="n">
-        <v>62.3</v>
+        <v>74.5</v>
       </c>
       <c r="L75" s="39" t="n">
-        <v>70.3</v>
+        <v>83.2</v>
       </c>
       <c r="M75" s="39" t="n">
-        <v>79.09999999999999</v>
+        <v>67.8</v>
       </c>
       <c r="N75" s="39" t="n">
-        <v>31.8</v>
+        <v>23.1</v>
       </c>
       <c r="O75" s="39" t="n">
-        <v>72</v>
+        <v>31.6</v>
       </c>
       <c r="P75" s="39" t="n">
-        <v>60.2</v>
+        <v>38.5</v>
       </c>
       <c r="Q75" s="39" t="n">
-        <v>89</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="R75" s="39" t="n">
-        <v>90.7</v>
+        <v>60.3</v>
       </c>
       <c r="S75" s="39" t="n">
-        <v>98.2</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="T75" s="39" t="n">
-        <v>54.2</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="U75" s="39" t="n">
-        <v>22.5</v>
+        <v>75</v>
       </c>
       <c r="V75" s="39" t="n">
-        <v>41.3</v>
+        <v>23.7</v>
       </c>
       <c r="W75" s="39" t="n">
-        <v>64.3</v>
+        <v>60.7</v>
       </c>
       <c r="X75" s="39" t="n">
-        <v>83.59999999999999</v>
+        <v>85.3</v>
       </c>
       <c r="Y75" s="39" t="inlineStr">
         <is>
-          <t>教育ETF</t>
+          <t>工业母机ETF</t>
         </is>
       </c>
     </row>
@@ -18116,79 +18116,79 @@
         <v>74</v>
       </c>
       <c r="B76" s="39" t="n">
-        <v>159941</v>
+        <v>513360</v>
       </c>
       <c r="C76" s="39" t="inlineStr">
         <is>
-          <t>纳指ETF</t>
+          <t>教育ETF</t>
         </is>
       </c>
       <c r="D76" s="39" t="n">
-        <v>238.49</v>
+        <v>6.49</v>
       </c>
       <c r="E76" s="39" t="n">
-        <v>53.4</v>
+        <v>9.6</v>
       </c>
       <c r="F76" s="39" t="n">
-        <v>20</v>
+        <v>4.7</v>
       </c>
       <c r="G76" s="39" t="n">
-        <v>3.2</v>
+        <v>0.2</v>
       </c>
       <c r="H76" s="39" t="n">
-        <v>37.8</v>
+        <v>0.2</v>
       </c>
       <c r="I76" s="39" t="n">
-        <v>34.3</v>
+        <v>4.4</v>
       </c>
       <c r="J76" s="39" t="n">
-        <v>85</v>
+        <v>43.1</v>
       </c>
       <c r="K76" s="39" t="n">
-        <v>70.59999999999999</v>
+        <v>62.3</v>
       </c>
       <c r="L76" s="39" t="n">
-        <v>78.90000000000001</v>
+        <v>70.3</v>
       </c>
       <c r="M76" s="39" t="n">
-        <v>49.1</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="N76" s="39" t="n">
-        <v>22.3</v>
+        <v>31.8</v>
       </c>
       <c r="O76" s="39" t="n">
-        <v>48.2</v>
+        <v>72</v>
       </c>
       <c r="P76" s="39" t="n">
-        <v>31.2</v>
+        <v>60.2</v>
       </c>
       <c r="Q76" s="39" t="n">
-        <v>21.2</v>
+        <v>89</v>
       </c>
       <c r="R76" s="39" t="n">
-        <v>19.2</v>
+        <v>90.7</v>
       </c>
       <c r="S76" s="39" t="n">
-        <v>89.59999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="T76" s="39" t="n">
-        <v>52.8</v>
+        <v>54.2</v>
       </c>
       <c r="U76" s="39" t="n">
-        <v>83.2</v>
+        <v>22.5</v>
       </c>
       <c r="V76" s="39" t="n">
-        <v>85.59999999999999</v>
+        <v>41.3</v>
       </c>
       <c r="W76" s="39" t="n">
-        <v>79.90000000000001</v>
+        <v>64.3</v>
       </c>
       <c r="X76" s="39" t="n">
-        <v>84.2</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="Y76" s="39" t="inlineStr">
         <is>
-          <t>纳指ETF</t>
+          <t>教育ETF</t>
         </is>
       </c>
     </row>
@@ -18197,79 +18197,79 @@
         <v>75</v>
       </c>
       <c r="B77" s="39" t="n">
-        <v>159667</v>
+        <v>512170</v>
       </c>
       <c r="C77" s="39" t="inlineStr">
         <is>
-          <t>工业母机ETF</t>
+          <t>医疗ETF</t>
         </is>
       </c>
       <c r="D77" s="39" t="n">
-        <v>4.86</v>
+        <v>258.99</v>
       </c>
       <c r="E77" s="39" t="n">
-        <v>61</v>
+        <v>53.4</v>
       </c>
       <c r="F77" s="39" t="n">
-        <v>15.6</v>
+        <v>23.7</v>
       </c>
       <c r="G77" s="39" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="H77" s="39" t="n">
-        <v>1.6</v>
+        <v>16.6</v>
       </c>
       <c r="I77" s="39" t="n">
-        <v>26.1</v>
+        <v>23.8</v>
       </c>
       <c r="J77" s="39" t="n">
-        <v>61.2</v>
+        <v>62.5</v>
       </c>
       <c r="K77" s="39" t="n">
-        <v>74.5</v>
+        <v>62.5</v>
       </c>
       <c r="L77" s="39" t="n">
-        <v>83.2</v>
+        <v>72</v>
       </c>
       <c r="M77" s="39" t="n">
-        <v>67.8</v>
+        <v>35.8</v>
       </c>
       <c r="N77" s="39" t="n">
-        <v>23.1</v>
+        <v>11.9</v>
       </c>
       <c r="O77" s="39" t="n">
-        <v>31.6</v>
+        <v>33.9</v>
       </c>
       <c r="P77" s="39" t="n">
-        <v>38.5</v>
+        <v>22.6</v>
       </c>
       <c r="Q77" s="39" t="n">
-        <v>90.40000000000001</v>
+        <v>74.2</v>
       </c>
       <c r="R77" s="39" t="n">
-        <v>60.3</v>
+        <v>74.2</v>
       </c>
       <c r="S77" s="39" t="n">
-        <v>87.09999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="T77" s="39" t="n">
-        <v>68.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="U77" s="39" t="n">
-        <v>75</v>
+        <v>94.3</v>
       </c>
       <c r="V77" s="39" t="n">
-        <v>23.7</v>
+        <v>16.6</v>
       </c>
       <c r="W77" s="39" t="n">
-        <v>60.7</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="X77" s="39" t="n">
-        <v>85.3</v>
+        <v>87.2</v>
       </c>
       <c r="Y77" s="39" t="inlineStr">
         <is>
-          <t>工业母机ETF</t>
+          <t>医疗ETF</t>
         </is>
       </c>
     </row>
@@ -18278,79 +18278,79 @@
         <v>76</v>
       </c>
       <c r="B78" s="39" t="n">
-        <v>513330</v>
+        <v>588000</v>
       </c>
       <c r="C78" s="39" t="inlineStr">
         <is>
-          <t>恒生互联网ETF</t>
+          <t>科创50ETF</t>
         </is>
       </c>
       <c r="D78" s="39" t="n">
-        <v>239.02</v>
+        <v>775.8</v>
       </c>
       <c r="E78" s="39" t="n">
-        <v>65.3</v>
+        <v>23.7</v>
       </c>
       <c r="F78" s="39" t="n">
-        <v>22.1</v>
+        <v>9</v>
       </c>
       <c r="G78" s="39" t="n">
-        <v>3.2</v>
+        <v>0.4</v>
       </c>
       <c r="H78" s="39" t="n">
-        <v>2.1</v>
+        <v>24.1</v>
       </c>
       <c r="I78" s="39" t="n">
-        <v>20.2</v>
+        <v>66.2</v>
       </c>
       <c r="J78" s="39" t="n">
-        <v>60.7</v>
+        <v>75.3</v>
       </c>
       <c r="K78" s="39" t="n">
-        <v>69.59999999999999</v>
+        <v>85.8</v>
       </c>
       <c r="L78" s="39" t="n">
-        <v>81.8</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="M78" s="39" t="n">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="N78" s="39" t="n">
-        <v>18.4</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="O78" s="39" t="n">
-        <v>42.4</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="P78" s="39" t="n">
-        <v>29.4</v>
+        <v>40</v>
       </c>
       <c r="Q78" s="39" t="n">
-        <v>61.1</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="R78" s="39" t="n">
-        <v>42.2</v>
+        <v>53.1</v>
       </c>
       <c r="S78" s="39" t="n">
-        <v>88.5</v>
+        <v>36.3</v>
       </c>
       <c r="T78" s="39" t="n">
-        <v>39.6</v>
+        <v>11</v>
       </c>
       <c r="U78" s="39" t="n">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="V78" s="39" t="n">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="W78" s="39" t="n">
-        <v>66</v>
+        <v>45.5</v>
       </c>
       <c r="X78" s="39" t="n">
-        <v>86.40000000000001</v>
+        <v>87.5</v>
       </c>
       <c r="Y78" s="39" t="inlineStr">
         <is>
-          <t>恒生互联网ETF</t>
+          <t>科创50ETF</t>
         </is>
       </c>
     </row>
@@ -18359,79 +18359,79 @@
         <v>77</v>
       </c>
       <c r="B79" s="39" t="n">
-        <v>588000</v>
+        <v>159792</v>
       </c>
       <c r="C79" s="39" t="inlineStr">
         <is>
-          <t>科创50ETF</t>
+          <t>港股通互联网ETF</t>
         </is>
       </c>
       <c r="D79" s="39" t="n">
-        <v>775.8</v>
+        <v>475</v>
       </c>
       <c r="E79" s="39" t="n">
-        <v>23.7</v>
+        <v>22.9</v>
       </c>
       <c r="F79" s="39" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="G79" s="39" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="H79" s="39" t="n">
-        <v>24.1</v>
+        <v>0.5</v>
       </c>
       <c r="I79" s="39" t="n">
-        <v>66.2</v>
+        <v>35.1</v>
       </c>
       <c r="J79" s="39" t="n">
-        <v>75.3</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="K79" s="39" t="n">
-        <v>85.8</v>
+        <v>72.5</v>
       </c>
       <c r="L79" s="39" t="n">
-        <v>87.40000000000001</v>
+        <v>76.5</v>
       </c>
       <c r="M79" s="39" t="n">
-        <v>49</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="N79" s="39" t="n">
-        <v>68.40000000000001</v>
+        <v>11.6</v>
       </c>
       <c r="O79" s="39" t="n">
-        <v>79.59999999999999</v>
+        <v>34.6</v>
       </c>
       <c r="P79" s="39" t="n">
-        <v>40</v>
+        <v>29.5</v>
       </c>
       <c r="Q79" s="39" t="n">
-        <v>76.59999999999999</v>
+        <v>65.3</v>
       </c>
       <c r="R79" s="39" t="n">
-        <v>53.1</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="S79" s="39" t="n">
-        <v>36.3</v>
+        <v>96.7</v>
       </c>
       <c r="T79" s="39" t="n">
-        <v>11</v>
+        <v>56.4</v>
       </c>
       <c r="U79" s="39" t="n">
-        <v>29</v>
+        <v>71.2</v>
       </c>
       <c r="V79" s="39" t="n">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="W79" s="39" t="n">
-        <v>45.5</v>
+        <v>50</v>
       </c>
       <c r="X79" s="39" t="n">
-        <v>86.40000000000001</v>
+        <v>89.3</v>
       </c>
       <c r="Y79" s="39" t="inlineStr">
         <is>
-          <t>科创50ETF</t>
+          <t>港股通互联网ETF</t>
         </is>
       </c>
     </row>
@@ -18439,80 +18439,82 @@
       <c r="A80" s="39" t="n">
         <v>78</v>
       </c>
-      <c r="B80" s="39" t="n">
-        <v>512170</v>
+      <c r="B80" s="39" t="inlineStr">
+        <is>
+          <t>512010</t>
+        </is>
       </c>
       <c r="C80" s="39" t="inlineStr">
         <is>
-          <t>医疗ETF</t>
+          <t>医药ETF</t>
         </is>
       </c>
       <c r="D80" s="39" t="n">
-        <v>258.99</v>
+        <v>222.91</v>
       </c>
       <c r="E80" s="39" t="n">
-        <v>53.4</v>
+        <v>51.5</v>
       </c>
       <c r="F80" s="39" t="n">
-        <v>23.7</v>
+        <v>34.8</v>
       </c>
       <c r="G80" s="39" t="n">
-        <v>2.9</v>
+        <v>5.6</v>
       </c>
       <c r="H80" s="39" t="n">
-        <v>16.6</v>
+        <v>17.2</v>
       </c>
       <c r="I80" s="39" t="n">
-        <v>23.8</v>
+        <v>15.3</v>
       </c>
       <c r="J80" s="39" t="n">
-        <v>62.5</v>
+        <v>59.5</v>
       </c>
       <c r="K80" s="39" t="n">
-        <v>62.5</v>
+        <v>66.5</v>
       </c>
       <c r="L80" s="39" t="n">
-        <v>72</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="M80" s="39" t="n">
-        <v>35.8</v>
+        <v>29.6</v>
       </c>
       <c r="N80" s="39" t="n">
-        <v>11.9</v>
+        <v>49.8</v>
       </c>
       <c r="O80" s="39" t="n">
-        <v>33.9</v>
+        <v>49.8</v>
       </c>
       <c r="P80" s="39" t="n">
-        <v>22.6</v>
+        <v>23.2</v>
       </c>
       <c r="Q80" s="39" t="n">
-        <v>74.2</v>
+        <v>62.9</v>
       </c>
       <c r="R80" s="39" t="n">
-        <v>74.2</v>
+        <v>92.8</v>
       </c>
       <c r="S80" s="39" t="n">
-        <v>74.2</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="T80" s="39" t="n">
-        <v>74.2</v>
+        <v>78.5</v>
       </c>
       <c r="U80" s="39" t="n">
-        <v>94.3</v>
+        <v>45.4</v>
       </c>
       <c r="V80" s="39" t="n">
-        <v>16.6</v>
+        <v>16.9</v>
       </c>
       <c r="W80" s="39" t="n">
-        <v>73.90000000000001</v>
+        <v>48.9</v>
       </c>
       <c r="X80" s="39" t="n">
-        <v>87.2</v>
+        <v>89.5</v>
       </c>
       <c r="Y80" s="39" t="inlineStr">
         <is>
-          <t>医疗ETF</t>
+          <t>医药ETF</t>
         </is>
       </c>
     </row>
@@ -18520,82 +18522,80 @@
       <c r="A81" s="39" t="n">
         <v>79</v>
       </c>
-      <c r="B81" s="39" t="inlineStr">
-        <is>
-          <t>512010</t>
-        </is>
+      <c r="B81" s="39" t="n">
+        <v>562500</v>
       </c>
       <c r="C81" s="39" t="inlineStr">
         <is>
-          <t>医药ETF</t>
+          <t>机器人ETF</t>
         </is>
       </c>
       <c r="D81" s="39" t="n">
-        <v>222.91</v>
+        <v>137.51</v>
       </c>
       <c r="E81" s="39" t="n">
-        <v>51.5</v>
+        <v>53.8</v>
       </c>
       <c r="F81" s="39" t="n">
-        <v>34.8</v>
+        <v>17.4</v>
       </c>
       <c r="G81" s="39" t="n">
-        <v>5.6</v>
+        <v>2.5</v>
       </c>
       <c r="H81" s="39" t="n">
-        <v>17.2</v>
+        <v>1.4</v>
       </c>
       <c r="I81" s="39" t="n">
-        <v>15.3</v>
+        <v>31</v>
       </c>
       <c r="J81" s="39" t="n">
-        <v>59.5</v>
+        <v>59.8</v>
       </c>
       <c r="K81" s="39" t="n">
-        <v>66.5</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="L81" s="39" t="n">
-        <v>75.09999999999999</v>
+        <v>75.8</v>
       </c>
       <c r="M81" s="39" t="n">
-        <v>29.6</v>
+        <v>53.4</v>
       </c>
       <c r="N81" s="39" t="n">
-        <v>49.8</v>
+        <v>25.9</v>
       </c>
       <c r="O81" s="39" t="n">
-        <v>49.8</v>
+        <v>19.3</v>
       </c>
       <c r="P81" s="39" t="n">
-        <v>23.2</v>
+        <v>19.3</v>
       </c>
       <c r="Q81" s="39" t="n">
-        <v>62.9</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="R81" s="39" t="n">
-        <v>92.8</v>
+        <v>56.9</v>
       </c>
       <c r="S81" s="39" t="n">
-        <v>66.09999999999999</v>
+        <v>88.5</v>
       </c>
       <c r="T81" s="39" t="n">
-        <v>78.5</v>
+        <v>58.7</v>
       </c>
       <c r="U81" s="39" t="n">
-        <v>45.4</v>
+        <v>68.2</v>
       </c>
       <c r="V81" s="39" t="n">
-        <v>16.9</v>
+        <v>28.6</v>
       </c>
       <c r="W81" s="39" t="n">
-        <v>48.9</v>
+        <v>67</v>
       </c>
       <c r="X81" s="39" t="n">
-        <v>87.5</v>
+        <v>89.8</v>
       </c>
       <c r="Y81" s="39" t="inlineStr">
         <is>
-          <t>医药ETF</t>
+          <t>机器人ETF</t>
         </is>
       </c>
     </row>
@@ -18604,79 +18604,79 @@
         <v>80</v>
       </c>
       <c r="B82" s="39" t="n">
-        <v>159792</v>
+        <v>159732</v>
       </c>
       <c r="C82" s="39" t="inlineStr">
         <is>
-          <t>港股通互联网ETF</t>
+          <t>消费电子ETF</t>
         </is>
       </c>
       <c r="D82" s="39" t="n">
-        <v>473.28</v>
+        <v>15.61</v>
       </c>
       <c r="E82" s="39" t="n">
-        <v>22.9</v>
+        <v>27.4</v>
       </c>
       <c r="F82" s="39" t="n">
-        <v>9.1</v>
+        <v>1.5</v>
       </c>
       <c r="G82" s="39" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="H82" s="39" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I82" s="39" t="n">
-        <v>35.1</v>
+        <v>24.4</v>
       </c>
       <c r="J82" s="39" t="n">
-        <v>66.90000000000001</v>
+        <v>61.7</v>
       </c>
       <c r="K82" s="39" t="n">
-        <v>72.5</v>
+        <v>80.7</v>
       </c>
       <c r="L82" s="39" t="n">
-        <v>76.5</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="M82" s="39" t="n">
-        <v>64.09999999999999</v>
+        <v>54.8</v>
       </c>
       <c r="N82" s="39" t="n">
-        <v>11.6</v>
+        <v>29.6</v>
       </c>
       <c r="O82" s="39" t="n">
-        <v>34.6</v>
+        <v>29.6</v>
       </c>
       <c r="P82" s="39" t="n">
-        <v>29.5</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="Q82" s="39" t="n">
-        <v>65.3</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="R82" s="39" t="n">
-        <v>85.90000000000001</v>
+        <v>37.9</v>
       </c>
       <c r="S82" s="39" t="n">
-        <v>96.7</v>
+        <v>71.2</v>
       </c>
       <c r="T82" s="39" t="n">
-        <v>56.4</v>
+        <v>41.5</v>
       </c>
       <c r="U82" s="39" t="n">
-        <v>71.2</v>
+        <v>55.5</v>
       </c>
       <c r="V82" s="39" t="n">
-        <v>77</v>
+        <v>30.9</v>
       </c>
       <c r="W82" s="39" t="n">
-        <v>50</v>
+        <v>66.5</v>
       </c>
       <c r="X82" s="39" t="n">
-        <v>88.5</v>
+        <v>90.2</v>
       </c>
       <c r="Y82" s="39" t="inlineStr">
         <is>
-          <t>港股通互联网ETF</t>
+          <t>消费电子ETF</t>
         </is>
       </c>
     </row>
@@ -18685,79 +18685,79 @@
         <v>81</v>
       </c>
       <c r="B83" s="39" t="n">
-        <v>562500</v>
+        <v>513330</v>
       </c>
       <c r="C83" s="39" t="inlineStr">
         <is>
-          <t>机器人ETF</t>
+          <t>恒生互联网ETF</t>
         </is>
       </c>
       <c r="D83" s="39" t="n">
-        <v>137.19</v>
+        <v>239.53</v>
       </c>
       <c r="E83" s="39" t="n">
-        <v>53.8</v>
+        <v>65.3</v>
       </c>
       <c r="F83" s="39" t="n">
-        <v>17.4</v>
+        <v>22.1</v>
       </c>
       <c r="G83" s="39" t="n">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="H83" s="39" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="I83" s="39" t="n">
-        <v>31</v>
+        <v>20.2</v>
       </c>
       <c r="J83" s="39" t="n">
-        <v>59.8</v>
+        <v>60.7</v>
       </c>
       <c r="K83" s="39" t="n">
-        <v>73.59999999999999</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="L83" s="39" t="n">
-        <v>75.8</v>
+        <v>81.8</v>
       </c>
       <c r="M83" s="39" t="n">
-        <v>53.4</v>
+        <v>84</v>
       </c>
       <c r="N83" s="39" t="n">
-        <v>25.9</v>
+        <v>18.4</v>
       </c>
       <c r="O83" s="39" t="n">
-        <v>19.3</v>
+        <v>42.4</v>
       </c>
       <c r="P83" s="39" t="n">
-        <v>19.3</v>
+        <v>29.4</v>
       </c>
       <c r="Q83" s="39" t="n">
-        <v>90.09999999999999</v>
+        <v>61.1</v>
       </c>
       <c r="R83" s="39" t="n">
-        <v>56.9</v>
+        <v>42.2</v>
       </c>
       <c r="S83" s="39" t="n">
         <v>88.5</v>
       </c>
       <c r="T83" s="39" t="n">
-        <v>58.7</v>
+        <v>39.6</v>
       </c>
       <c r="U83" s="39" t="n">
-        <v>68.2</v>
+        <v>66</v>
       </c>
       <c r="V83" s="39" t="n">
-        <v>28.6</v>
+        <v>66</v>
       </c>
       <c r="W83" s="39" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="X83" s="39" t="n">
-        <v>88.90000000000001</v>
+        <v>90.2</v>
       </c>
       <c r="Y83" s="39" t="inlineStr">
         <is>
-          <t>机器人ETF</t>
+          <t>恒生互联网ETF</t>
         </is>
       </c>
     </row>
@@ -18766,79 +18766,79 @@
         <v>82</v>
       </c>
       <c r="B84" s="39" t="n">
-        <v>159732</v>
+        <v>159998</v>
       </c>
       <c r="C84" s="39" t="inlineStr">
         <is>
-          <t>消费电子ETF</t>
+          <t>计算机ETF</t>
         </is>
       </c>
       <c r="D84" s="39" t="n">
-        <v>15.57</v>
+        <v>29.1</v>
       </c>
       <c r="E84" s="39" t="n">
-        <v>27.4</v>
+        <v>38.5</v>
       </c>
       <c r="F84" s="39" t="n">
-        <v>1.5</v>
+        <v>14.4</v>
       </c>
       <c r="G84" s="39" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
       <c r="H84" s="39" t="n">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="I84" s="39" t="n">
-        <v>24.4</v>
+        <v>57.8</v>
       </c>
       <c r="J84" s="39" t="n">
-        <v>61.7</v>
+        <v>67</v>
       </c>
       <c r="K84" s="39" t="n">
-        <v>80.7</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="L84" s="39" t="n">
-        <v>82.09999999999999</v>
+        <v>81.3</v>
       </c>
       <c r="M84" s="39" t="n">
-        <v>54.8</v>
+        <v>46.7</v>
       </c>
       <c r="N84" s="39" t="n">
-        <v>29.6</v>
+        <v>20.5</v>
       </c>
       <c r="O84" s="39" t="n">
-        <v>29.6</v>
+        <v>36.4</v>
       </c>
       <c r="P84" s="39" t="n">
-        <v>68.40000000000001</v>
+        <v>30.3</v>
       </c>
       <c r="Q84" s="39" t="n">
-        <v>90.09999999999999</v>
+        <v>90.5</v>
       </c>
       <c r="R84" s="39" t="n">
-        <v>37.9</v>
+        <v>41.5</v>
       </c>
       <c r="S84" s="39" t="n">
-        <v>71.2</v>
+        <v>58.7</v>
       </c>
       <c r="T84" s="39" t="n">
-        <v>41.5</v>
+        <v>17.5</v>
       </c>
       <c r="U84" s="39" t="n">
-        <v>55.5</v>
+        <v>47.2</v>
       </c>
       <c r="V84" s="39" t="n">
-        <v>30.9</v>
+        <v>34.7</v>
       </c>
       <c r="W84" s="39" t="n">
-        <v>66.5</v>
+        <v>60.7</v>
       </c>
       <c r="X84" s="39" t="n">
-        <v>89.09999999999999</v>
+        <v>90.2</v>
       </c>
       <c r="Y84" s="39" t="inlineStr">
         <is>
-          <t>消费电子ETF</t>
+          <t>计算机ETF</t>
         </is>
       </c>
     </row>
@@ -18915,7 +18915,7 @@
         <v>56.4</v>
       </c>
       <c r="X85" s="39" t="n">
-        <v>89.59999999999999</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="Y85" s="39" t="inlineStr">
         <is>
@@ -18996,7 +18996,7 @@
         <v>49.8</v>
       </c>
       <c r="X86" s="39" t="n">
-        <v>89.7</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="Y86" s="39" t="inlineStr">
         <is>
@@ -19009,79 +19009,79 @@
         <v>85</v>
       </c>
       <c r="B87" s="39" t="n">
-        <v>159998</v>
+        <v>159992</v>
       </c>
       <c r="C87" s="39" t="inlineStr">
         <is>
-          <t>计算机ETF</t>
+          <t>创新药ETF</t>
         </is>
       </c>
       <c r="D87" s="39" t="n">
-        <v>29.14</v>
+        <v>118.15</v>
       </c>
       <c r="E87" s="39" t="n">
-        <v>38.5</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="F87" s="39" t="n">
-        <v>14.4</v>
+        <v>58</v>
       </c>
       <c r="G87" s="39" t="n">
-        <v>1.1</v>
+        <v>5.1</v>
       </c>
       <c r="H87" s="39" t="n">
-        <v>1.1</v>
+        <v>22</v>
       </c>
       <c r="I87" s="39" t="n">
-        <v>57.8</v>
+        <v>17.2</v>
       </c>
       <c r="J87" s="39" t="n">
-        <v>67</v>
+        <v>60.8</v>
       </c>
       <c r="K87" s="39" t="n">
-        <v>78.59999999999999</v>
+        <v>71</v>
       </c>
       <c r="L87" s="39" t="n">
-        <v>81.3</v>
+        <v>83.7</v>
       </c>
       <c r="M87" s="39" t="n">
-        <v>46.7</v>
+        <v>60.2</v>
       </c>
       <c r="N87" s="39" t="n">
-        <v>20.5</v>
+        <v>32.7</v>
       </c>
       <c r="O87" s="39" t="n">
-        <v>36.4</v>
+        <v>22.5</v>
       </c>
       <c r="P87" s="39" t="n">
-        <v>30.3</v>
+        <v>22.5</v>
       </c>
       <c r="Q87" s="39" t="n">
-        <v>90.5</v>
+        <v>86.2</v>
       </c>
       <c r="R87" s="39" t="n">
-        <v>41.5</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="S87" s="39" t="n">
-        <v>58.7</v>
+        <v>51.4</v>
       </c>
       <c r="T87" s="39" t="n">
-        <v>17.5</v>
+        <v>72.7</v>
       </c>
       <c r="U87" s="39" t="n">
-        <v>47.2</v>
+        <v>38.7</v>
       </c>
       <c r="V87" s="39" t="n">
-        <v>34.7</v>
+        <v>38.7</v>
       </c>
       <c r="W87" s="39" t="n">
-        <v>60.7</v>
+        <v>72.7</v>
       </c>
       <c r="X87" s="39" t="n">
-        <v>89.8</v>
+        <v>90.7</v>
       </c>
       <c r="Y87" s="39" t="inlineStr">
         <is>
-          <t>计算机ETF</t>
+          <t>创新药ETF</t>
         </is>
       </c>
     </row>
@@ -19090,79 +19090,79 @@
         <v>86</v>
       </c>
       <c r="B88" s="39" t="n">
-        <v>159992</v>
+        <v>515980</v>
       </c>
       <c r="C88" s="39" t="inlineStr">
         <is>
-          <t>创新药ETF</t>
+          <t>人工智能ETF</t>
         </is>
       </c>
       <c r="D88" s="39" t="n">
-        <v>117.99</v>
+        <v>34.25</v>
       </c>
       <c r="E88" s="39" t="n">
-        <v>67.09999999999999</v>
+        <v>31.8</v>
       </c>
       <c r="F88" s="39" t="n">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="G88" s="39" t="n">
-        <v>5.1</v>
+        <v>0.5</v>
       </c>
       <c r="H88" s="39" t="n">
-        <v>22</v>
+        <v>0.3</v>
       </c>
       <c r="I88" s="39" t="n">
-        <v>17.2</v>
+        <v>42</v>
       </c>
       <c r="J88" s="39" t="n">
-        <v>60.8</v>
+        <v>62.1</v>
       </c>
       <c r="K88" s="39" t="n">
-        <v>71</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="L88" s="39" t="n">
-        <v>83.7</v>
+        <v>82.8</v>
       </c>
       <c r="M88" s="39" t="n">
-        <v>60.2</v>
+        <v>54.1</v>
       </c>
       <c r="N88" s="39" t="n">
-        <v>32.7</v>
+        <v>32</v>
       </c>
       <c r="O88" s="39" t="n">
-        <v>22.5</v>
+        <v>57.9</v>
       </c>
       <c r="P88" s="39" t="n">
-        <v>22.5</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="Q88" s="39" t="n">
-        <v>86.2</v>
+        <v>92.8</v>
       </c>
       <c r="R88" s="39" t="n">
-        <v>94.40000000000001</v>
+        <v>43.5</v>
       </c>
       <c r="S88" s="39" t="n">
-        <v>51.4</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="T88" s="39" t="n">
-        <v>72.7</v>
+        <v>28.1</v>
       </c>
       <c r="U88" s="39" t="n">
-        <v>38.7</v>
+        <v>57.1</v>
       </c>
       <c r="V88" s="39" t="n">
-        <v>38.7</v>
+        <v>41.8</v>
       </c>
       <c r="W88" s="39" t="n">
-        <v>72.7</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="X88" s="39" t="n">
-        <v>89.8</v>
+        <v>90.8</v>
       </c>
       <c r="Y88" s="39" t="inlineStr">
         <is>
-          <t>创新药ETF</t>
+          <t>人工智能ETF</t>
         </is>
       </c>
     </row>
@@ -19171,79 +19171,79 @@
         <v>87</v>
       </c>
       <c r="B89" s="39" t="n">
-        <v>515980</v>
+        <v>588200</v>
       </c>
       <c r="C89" s="39" t="inlineStr">
         <is>
-          <t>人工智能ETF</t>
+          <t>科创芯片ETF</t>
         </is>
       </c>
       <c r="D89" s="39" t="n">
-        <v>34.25</v>
+        <v>245.94</v>
       </c>
       <c r="E89" s="39" t="n">
-        <v>31.8</v>
+        <v>25.1</v>
       </c>
       <c r="F89" s="39" t="n">
-        <v>5</v>
+        <v>11.8</v>
       </c>
       <c r="G89" s="39" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H89" s="39" t="n">
-        <v>0.3</v>
+        <v>12.7</v>
       </c>
       <c r="I89" s="39" t="n">
-        <v>42</v>
+        <v>65.8</v>
       </c>
       <c r="J89" s="39" t="n">
-        <v>62.1</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="K89" s="39" t="n">
-        <v>76.59999999999999</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="L89" s="39" t="n">
-        <v>82.8</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="M89" s="39" t="n">
-        <v>54.1</v>
+        <v>57.9</v>
       </c>
       <c r="N89" s="39" t="n">
-        <v>32</v>
+        <v>72.8</v>
       </c>
       <c r="O89" s="39" t="n">
-        <v>57.9</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="P89" s="39" t="n">
-        <v>66.40000000000001</v>
+        <v>44.7</v>
       </c>
       <c r="Q89" s="39" t="n">
-        <v>92.8</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="R89" s="39" t="n">
-        <v>43.5</v>
+        <v>44.8</v>
       </c>
       <c r="S89" s="39" t="n">
-        <v>72.59999999999999</v>
+        <v>53.3</v>
       </c>
       <c r="T89" s="39" t="n">
-        <v>28.1</v>
+        <v>14.7</v>
       </c>
       <c r="U89" s="39" t="n">
-        <v>57.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="V89" s="39" t="n">
-        <v>41.8</v>
+        <v>37.8</v>
       </c>
       <c r="W89" s="39" t="n">
-        <v>64.59999999999999</v>
+        <v>72.3</v>
       </c>
       <c r="X89" s="39" t="n">
-        <v>90.8</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="Y89" s="39" t="inlineStr">
         <is>
-          <t>人工智能ETF</t>
+          <t>科创芯片ETF</t>
         </is>
       </c>
     </row>
@@ -19252,79 +19252,79 @@
         <v>88</v>
       </c>
       <c r="B90" s="39" t="n">
-        <v>588200</v>
+        <v>159869</v>
       </c>
       <c r="C90" s="39" t="inlineStr">
         <is>
-          <t>科创芯片ETF</t>
+          <t>游戏ETF</t>
         </is>
       </c>
       <c r="D90" s="39" t="n">
-        <v>246.1</v>
+        <v>68.11</v>
       </c>
       <c r="E90" s="39" t="n">
-        <v>25.1</v>
+        <v>40.4</v>
       </c>
       <c r="F90" s="39" t="n">
-        <v>11.8</v>
+        <v>40.4</v>
       </c>
       <c r="G90" s="39" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H90" s="39" t="n">
-        <v>12.7</v>
+        <v>0.5</v>
       </c>
       <c r="I90" s="39" t="n">
-        <v>65.8</v>
+        <v>42.5</v>
       </c>
       <c r="J90" s="39" t="n">
-        <v>74.90000000000001</v>
+        <v>62.4</v>
       </c>
       <c r="K90" s="39" t="n">
-        <v>91.09999999999999</v>
+        <v>60.3</v>
       </c>
       <c r="L90" s="39" t="n">
-        <v>91.09999999999999</v>
+        <v>80.8</v>
       </c>
       <c r="M90" s="39" t="n">
-        <v>57.9</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="N90" s="39" t="n">
-        <v>72.8</v>
+        <v>42.6</v>
       </c>
       <c r="O90" s="39" t="n">
-        <v>85.09999999999999</v>
+        <v>50.5</v>
       </c>
       <c r="P90" s="39" t="n">
-        <v>44.7</v>
+        <v>83</v>
       </c>
       <c r="Q90" s="39" t="n">
-        <v>70.59999999999999</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="R90" s="39" t="n">
-        <v>44.8</v>
+        <v>51.4</v>
       </c>
       <c r="S90" s="39" t="n">
-        <v>53.3</v>
+        <v>60.1</v>
       </c>
       <c r="T90" s="39" t="n">
-        <v>14.7</v>
+        <v>20.9</v>
       </c>
       <c r="U90" s="39" t="n">
-        <v>9.699999999999999</v>
+        <v>36.6</v>
       </c>
       <c r="V90" s="39" t="n">
-        <v>37.8</v>
+        <v>73.5</v>
       </c>
       <c r="W90" s="39" t="n">
-        <v>72.3</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="X90" s="39" t="n">
-        <v>92.09999999999999</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="Y90" s="39" t="inlineStr">
         <is>
-          <t>科创芯片ETF</t>
+          <t>游戏ETF</t>
         </is>
       </c>
     </row>
@@ -19414,79 +19414,79 @@
         <v>90</v>
       </c>
       <c r="B92" s="39" t="n">
-        <v>159869</v>
+        <v>159995</v>
       </c>
       <c r="C92" s="39" t="inlineStr">
         <is>
-          <t>游戏ETF</t>
+          <t>芯片ETF</t>
         </is>
       </c>
       <c r="D92" s="39" t="n">
-        <v>68.18000000000001</v>
+        <v>241.04</v>
       </c>
       <c r="E92" s="39" t="n">
-        <v>40.4</v>
+        <v>30.4</v>
       </c>
       <c r="F92" s="39" t="n">
-        <v>40.4</v>
+        <v>53.1</v>
       </c>
       <c r="G92" s="39" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H92" s="39" t="n">
-        <v>0.5</v>
+        <v>7.8</v>
       </c>
       <c r="I92" s="39" t="n">
-        <v>42.5</v>
+        <v>68.8</v>
       </c>
       <c r="J92" s="39" t="n">
-        <v>62.4</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="K92" s="39" t="n">
-        <v>60.3</v>
+        <v>91</v>
       </c>
       <c r="L92" s="39" t="n">
-        <v>80.8</v>
+        <v>88.7</v>
       </c>
       <c r="M92" s="39" t="n">
-        <v>87.90000000000001</v>
+        <v>46.9</v>
       </c>
       <c r="N92" s="39" t="n">
-        <v>42.6</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="O92" s="39" t="n">
-        <v>50.5</v>
+        <v>75.3</v>
       </c>
       <c r="P92" s="39" t="n">
-        <v>83</v>
+        <v>38.2</v>
       </c>
       <c r="Q92" s="39" t="n">
-        <v>95.40000000000001</v>
+        <v>71.7</v>
       </c>
       <c r="R92" s="39" t="n">
-        <v>51.4</v>
+        <v>60.7</v>
       </c>
       <c r="S92" s="39" t="n">
-        <v>60.1</v>
+        <v>37.7</v>
       </c>
       <c r="T92" s="39" t="n">
-        <v>20.9</v>
+        <v>10.3</v>
       </c>
       <c r="U92" s="39" t="n">
-        <v>36.6</v>
+        <v>8.5</v>
       </c>
       <c r="V92" s="39" t="n">
-        <v>73.5</v>
+        <v>50.8</v>
       </c>
       <c r="W92" s="39" t="n">
-        <v>84.09999999999999</v>
+        <v>83.8</v>
       </c>
       <c r="X92" s="39" t="n">
-        <v>92.8</v>
+        <v>92.7</v>
       </c>
       <c r="Y92" s="39" t="inlineStr">
         <is>
-          <t>游戏ETF</t>
+          <t>芯片ETF</t>
         </is>
       </c>
     </row>
@@ -19576,79 +19576,79 @@
         <v>92</v>
       </c>
       <c r="B94" s="39" t="n">
-        <v>159995</v>
+        <v>512980</v>
       </c>
       <c r="C94" s="39" t="inlineStr">
         <is>
-          <t>芯片ETF</t>
+          <t>传媒ETF</t>
         </is>
       </c>
       <c r="D94" s="39" t="n">
-        <v>241.23</v>
+        <v>26.85</v>
       </c>
       <c r="E94" s="39" t="n">
-        <v>30.4</v>
+        <v>58.7</v>
       </c>
       <c r="F94" s="39" t="n">
-        <v>53.1</v>
+        <v>49.8</v>
       </c>
       <c r="G94" s="39" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H94" s="39" t="n">
-        <v>7.8</v>
+        <v>1.8</v>
       </c>
       <c r="I94" s="39" t="n">
-        <v>68.8</v>
+        <v>45.9</v>
       </c>
       <c r="J94" s="39" t="n">
-        <v>74.40000000000001</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="K94" s="39" t="n">
-        <v>91</v>
+        <v>65.2</v>
       </c>
       <c r="L94" s="39" t="n">
-        <v>88.7</v>
+        <v>78.8</v>
       </c>
       <c r="M94" s="39" t="n">
-        <v>46.9</v>
+        <v>84.7</v>
       </c>
       <c r="N94" s="39" t="n">
-        <v>71.09999999999999</v>
+        <v>59.6</v>
       </c>
       <c r="O94" s="39" t="n">
-        <v>75.3</v>
+        <v>33.3</v>
       </c>
       <c r="P94" s="39" t="n">
-        <v>38.2</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="Q94" s="39" t="n">
-        <v>71.7</v>
+        <v>93.2</v>
       </c>
       <c r="R94" s="39" t="n">
-        <v>60.7</v>
+        <v>51.5</v>
       </c>
       <c r="S94" s="39" t="n">
-        <v>37.7</v>
+        <v>39.7</v>
       </c>
       <c r="T94" s="39" t="n">
-        <v>10.3</v>
+        <v>13.3</v>
       </c>
       <c r="U94" s="39" t="n">
-        <v>8.5</v>
+        <v>33.7</v>
       </c>
       <c r="V94" s="39" t="n">
-        <v>50.8</v>
+        <v>33.7</v>
       </c>
       <c r="W94" s="39" t="n">
-        <v>83.8</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="X94" s="39" t="n">
-        <v>93.09999999999999</v>
+        <v>93.2</v>
       </c>
       <c r="Y94" s="39" t="inlineStr">
         <is>
-          <t>芯片ETF</t>
+          <t>传媒ETF</t>
         </is>
       </c>
     </row>
@@ -19656,80 +19656,82 @@
       <c r="A95" s="39" t="n">
         <v>93</v>
       </c>
-      <c r="B95" s="39" t="n">
-        <v>512980</v>
+      <c r="B95" s="39" t="inlineStr">
+        <is>
+          <t>515070</t>
+        </is>
       </c>
       <c r="C95" s="39" t="inlineStr">
         <is>
-          <t>传媒ETF</t>
+          <t>人工智能AIETF</t>
         </is>
       </c>
       <c r="D95" s="39" t="n">
-        <v>26.85</v>
+        <v>50.3</v>
       </c>
       <c r="E95" s="39" t="n">
-        <v>58.7</v>
+        <v>38.1</v>
       </c>
       <c r="F95" s="39" t="n">
-        <v>49.8</v>
+        <v>7.1</v>
       </c>
       <c r="G95" s="39" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H95" s="39" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="I95" s="39" t="n">
-        <v>45.9</v>
+        <v>43.8</v>
       </c>
       <c r="J95" s="39" t="n">
-        <v>74.09999999999999</v>
+        <v>63.5</v>
       </c>
       <c r="K95" s="39" t="n">
-        <v>65.2</v>
+        <v>78.2</v>
       </c>
       <c r="L95" s="39" t="n">
-        <v>78.8</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="M95" s="39" t="n">
-        <v>84.7</v>
+        <v>53.9</v>
       </c>
       <c r="N95" s="39" t="n">
-        <v>59.6</v>
+        <v>34.4</v>
       </c>
       <c r="O95" s="39" t="n">
-        <v>33.3</v>
+        <v>54.8</v>
       </c>
       <c r="P95" s="39" t="n">
-        <v>75.90000000000001</v>
+        <v>63.9</v>
       </c>
       <c r="Q95" s="39" t="n">
-        <v>93.2</v>
+        <v>93</v>
       </c>
       <c r="R95" s="39" t="n">
-        <v>51.5</v>
+        <v>44.8</v>
       </c>
       <c r="S95" s="39" t="n">
-        <v>39.7</v>
+        <v>70.8</v>
       </c>
       <c r="T95" s="39" t="n">
-        <v>13.3</v>
+        <v>27.6</v>
       </c>
       <c r="U95" s="39" t="n">
-        <v>33.7</v>
+        <v>55</v>
       </c>
       <c r="V95" s="39" t="n">
-        <v>33.7</v>
+        <v>47.8</v>
       </c>
       <c r="W95" s="39" t="n">
-        <v>83.90000000000001</v>
+        <v>70.8</v>
       </c>
       <c r="X95" s="39" t="n">
-        <v>93.2</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="Y95" s="39" t="inlineStr">
         <is>
-          <t>传媒ETF</t>
+          <t>人工智能AIETF</t>
         </is>
       </c>
     </row>
@@ -19737,82 +19739,80 @@
       <c r="A96" s="39" t="n">
         <v>94</v>
       </c>
-      <c r="B96" s="39" t="inlineStr">
-        <is>
-          <t>515070</t>
-        </is>
+      <c r="B96" s="39" t="n">
+        <v>560800</v>
       </c>
       <c r="C96" s="39" t="inlineStr">
         <is>
-          <t>人工智能AIETF</t>
+          <t>数字经济ETF</t>
         </is>
       </c>
       <c r="D96" s="39" t="n">
-        <v>50.3</v>
+        <v>7.56</v>
       </c>
       <c r="E96" s="39" t="n">
-        <v>38.1</v>
+        <v>23</v>
       </c>
       <c r="F96" s="39" t="n">
-        <v>7.1</v>
+        <v>55.3</v>
       </c>
       <c r="G96" s="39" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H96" s="39" t="n">
-        <v>0.5</v>
+        <v>14.9</v>
       </c>
       <c r="I96" s="39" t="n">
-        <v>43.8</v>
+        <v>61.5</v>
       </c>
       <c r="J96" s="39" t="n">
-        <v>63.5</v>
+        <v>71.8</v>
       </c>
       <c r="K96" s="39" t="n">
-        <v>78.2</v>
+        <v>85.5</v>
       </c>
       <c r="L96" s="39" t="n">
-        <v>83.59999999999999</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="M96" s="39" t="n">
-        <v>53.9</v>
+        <v>44</v>
       </c>
       <c r="N96" s="39" t="n">
-        <v>34.4</v>
+        <v>61.1</v>
       </c>
       <c r="O96" s="39" t="n">
-        <v>54.8</v>
+        <v>53</v>
       </c>
       <c r="P96" s="39" t="n">
-        <v>63.9</v>
+        <v>41.9</v>
       </c>
       <c r="Q96" s="39" t="n">
-        <v>93</v>
+        <v>88.8</v>
       </c>
       <c r="R96" s="39" t="n">
-        <v>44.8</v>
+        <v>38.8</v>
       </c>
       <c r="S96" s="39" t="n">
-        <v>70.8</v>
+        <v>52.2</v>
       </c>
       <c r="T96" s="39" t="n">
-        <v>27.6</v>
+        <v>16.3</v>
       </c>
       <c r="U96" s="39" t="n">
-        <v>55</v>
+        <v>26.4</v>
       </c>
       <c r="V96" s="39" t="n">
-        <v>47.8</v>
+        <v>40.8</v>
       </c>
       <c r="W96" s="39" t="n">
-        <v>70.8</v>
+        <v>76.8</v>
       </c>
       <c r="X96" s="39" t="n">
-        <v>94</v>
+        <v>94.7</v>
       </c>
       <c r="Y96" s="39" t="inlineStr">
         <is>
-          <t>人工智能AIETF</t>
+          <t>数字经济ETF</t>
         </is>
       </c>
     </row>
@@ -19821,79 +19821,79 @@
         <v>95</v>
       </c>
       <c r="B97" s="39" t="n">
-        <v>560800</v>
+        <v>517800</v>
       </c>
       <c r="C97" s="39" t="inlineStr">
         <is>
-          <t>数字经济ETF</t>
+          <t>人工智能50ETF</t>
         </is>
       </c>
       <c r="D97" s="39" t="n">
-        <v>7.56</v>
+        <v>2.83</v>
       </c>
       <c r="E97" s="39" t="n">
-        <v>23</v>
+        <v>28.2</v>
       </c>
       <c r="F97" s="39" t="n">
-        <v>55.3</v>
+        <v>7.3</v>
       </c>
       <c r="G97" s="39" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H97" s="39" t="n">
-        <v>14.9</v>
+        <v>0.4</v>
       </c>
       <c r="I97" s="39" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="J97" s="39" t="n">
+        <v>65.90000000000001</v>
+      </c>
+      <c r="K97" s="39" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="L97" s="39" t="n">
+        <v>83.7</v>
+      </c>
+      <c r="M97" s="39" t="n">
+        <v>61.4</v>
+      </c>
+      <c r="N97" s="39" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="O97" s="39" t="n">
+        <v>56.3</v>
+      </c>
+      <c r="P97" s="39" t="n">
         <v>61.5</v>
       </c>
-      <c r="J97" s="39" t="n">
-        <v>71.8</v>
-      </c>
-      <c r="K97" s="39" t="n">
-        <v>85.5</v>
-      </c>
-      <c r="L97" s="39" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="M97" s="39" t="n">
-        <v>44</v>
-      </c>
-      <c r="N97" s="39" t="n">
-        <v>61.1</v>
-      </c>
-      <c r="O97" s="39" t="n">
-        <v>53</v>
-      </c>
-      <c r="P97" s="39" t="n">
-        <v>41.9</v>
-      </c>
       <c r="Q97" s="39" t="n">
-        <v>88.8</v>
+        <v>86.8</v>
       </c>
       <c r="R97" s="39" t="n">
-        <v>38.8</v>
+        <v>40.4</v>
       </c>
       <c r="S97" s="39" t="n">
-        <v>52.2</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="T97" s="39" t="n">
-        <v>16.3</v>
+        <v>32.8</v>
       </c>
       <c r="U97" s="39" t="n">
-        <v>26.4</v>
+        <v>55.8</v>
       </c>
       <c r="V97" s="39" t="n">
-        <v>40.8</v>
+        <v>65.3</v>
       </c>
       <c r="W97" s="39" t="n">
-        <v>76.8</v>
+        <v>65.3</v>
       </c>
       <c r="X97" s="39" t="n">
-        <v>94.3</v>
+        <v>95</v>
       </c>
       <c r="Y97" s="39" t="inlineStr">
         <is>
-          <t>数字经济ETF</t>
+          <t>人工智能50ETF</t>
         </is>
       </c>
     </row>
@@ -19902,79 +19902,79 @@
         <v>96</v>
       </c>
       <c r="B98" s="39" t="n">
-        <v>517800</v>
+        <v>159866</v>
       </c>
       <c r="C98" s="39" t="inlineStr">
         <is>
-          <t>人工智能50ETF</t>
+          <t>日经ETF</t>
         </is>
       </c>
       <c r="D98" s="39" t="n">
-        <v>2.83</v>
+        <v>6.65</v>
       </c>
       <c r="E98" s="39" t="n">
-        <v>28.2</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="F98" s="39" t="n">
-        <v>7.3</v>
+        <v>20.7</v>
       </c>
       <c r="G98" s="39" t="n">
-        <v>0.6</v>
+        <v>3.6</v>
       </c>
       <c r="H98" s="39" t="n">
-        <v>0.4</v>
+        <v>47.4</v>
       </c>
       <c r="I98" s="39" t="n">
-        <v>42.5</v>
+        <v>37.6</v>
       </c>
       <c r="J98" s="39" t="n">
-        <v>65.90000000000001</v>
+        <v>77</v>
       </c>
       <c r="K98" s="39" t="n">
-        <v>72.5</v>
+        <v>60.9</v>
       </c>
       <c r="L98" s="39" t="n">
-        <v>83.7</v>
+        <v>76.7</v>
       </c>
       <c r="M98" s="39" t="n">
-        <v>61.4</v>
+        <v>76.7</v>
       </c>
       <c r="N98" s="39" t="n">
-        <v>26.3</v>
+        <v>52.5</v>
       </c>
       <c r="O98" s="39" t="n">
-        <v>56.3</v>
+        <v>78</v>
       </c>
       <c r="P98" s="39" t="n">
-        <v>61.5</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="Q98" s="39" t="n">
-        <v>86.8</v>
+        <v>52.9</v>
       </c>
       <c r="R98" s="39" t="n">
-        <v>40.4</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="S98" s="39" t="n">
-        <v>76.40000000000001</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="T98" s="39" t="n">
-        <v>32.8</v>
+        <v>48.5</v>
       </c>
       <c r="U98" s="39" t="n">
-        <v>55.8</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="V98" s="39" t="n">
-        <v>65.3</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="W98" s="39" t="n">
-        <v>65.3</v>
+        <v>94.5</v>
       </c>
       <c r="X98" s="39" t="n">
-        <v>95</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="Y98" s="39" t="inlineStr">
         <is>
-          <t>人工智能50ETF</t>
+          <t>日经ETF</t>
         </is>
       </c>
     </row>
@@ -19993,7 +19993,7 @@
         </is>
       </c>
       <c r="D99" s="39" t="n">
-        <v>747.23</v>
+        <v>747.25</v>
       </c>
       <c r="E99" s="39" t="n">
         <v>93.09999999999999</v>
@@ -20074,7 +20074,7 @@
         </is>
       </c>
       <c r="D100" s="39" t="n">
-        <v>13.01</v>
+        <v>13.02</v>
       </c>
       <c r="E100" s="39" t="n">
         <v>42.8</v>

--- a/fund_list.xlsx
+++ b/fund_list.xlsx
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="D2" s="39" t="n">
-        <v>2695.75</v>
+        <v>3495.9</v>
       </c>
       <c r="E2" s="41" t="n">
         <v>-0.24</v>
@@ -1602,7 +1602,7 @@
         <v>-0.23</v>
       </c>
       <c r="X2" s="42" t="n">
-        <v>0.75</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="Y2" s="39" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         </is>
       </c>
       <c r="D3" s="39" t="n">
-        <v>136.01</v>
+        <v>173.55</v>
       </c>
       <c r="E3" s="41" t="n">
         <v>-0.46</v>
@@ -1685,7 +1685,7 @@
         <v>0.85</v>
       </c>
       <c r="X3" s="44" t="n">
-        <v>1.08</v>
+        <v>1.35</v>
       </c>
       <c r="Y3" s="39" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="D4" s="39" t="n">
-        <v>3904.04</v>
+        <v>4997.04</v>
       </c>
       <c r="E4" s="43" t="n">
         <v>-1.4</v>
@@ -1768,7 +1768,7 @@
         <v>0.51</v>
       </c>
       <c r="X4" s="42" t="n">
-        <v>1.34</v>
+        <v>1.66</v>
       </c>
       <c r="Y4" s="39" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         </is>
       </c>
       <c r="D5" s="39" t="n">
-        <v>1793.37</v>
+        <v>2302.13</v>
       </c>
       <c r="E5" s="43" t="n">
         <v>-1.86</v>
@@ -1851,7 +1851,7 @@
         <v>0.83</v>
       </c>
       <c r="X5" s="42" t="n">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="Y5" s="39" t="inlineStr">
         <is>
@@ -1874,7 +1874,7 @@
         </is>
       </c>
       <c r="D6" s="39" t="n">
-        <v>335.36</v>
+        <v>432.19</v>
       </c>
       <c r="E6" s="41" t="n">
         <v>0.14</v>
@@ -1933,8 +1933,8 @@
       <c r="W6" s="40" t="n">
         <v>-0.47</v>
       </c>
-      <c r="X6" s="41" t="n">
-        <v>0.47</v>
+      <c r="X6" s="42" t="n">
+        <v>0.55</v>
       </c>
       <c r="Y6" s="39" t="inlineStr">
         <is>
@@ -1957,7 +1957,7 @@
         </is>
       </c>
       <c r="D7" s="39" t="n">
-        <v>1282.36</v>
+        <v>1662.13</v>
       </c>
       <c r="E7" s="43" t="n">
         <v>-0.59</v>
@@ -2017,7 +2017,7 @@
         <v>-0.12</v>
       </c>
       <c r="X7" s="42" t="n">
-        <v>0.77</v>
+        <v>0.95</v>
       </c>
       <c r="Y7" s="39" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         </is>
       </c>
       <c r="D8" s="39" t="n">
-        <v>1075.87</v>
+        <v>1382.47</v>
       </c>
       <c r="E8" s="40" t="n">
         <v>-0.91</v>
@@ -2100,7 +2100,7 @@
         <v>0.48</v>
       </c>
       <c r="X8" s="44" t="n">
-        <v>1.39</v>
+        <v>1.68</v>
       </c>
       <c r="Y8" s="39" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         </is>
       </c>
       <c r="D9" s="39" t="n">
-        <v>2357.78</v>
+        <v>3044.61</v>
       </c>
       <c r="E9" s="40" t="n">
         <v>-0.67</v>
@@ -2182,8 +2182,8 @@
       <c r="W9" s="40" t="n">
         <v>0.04</v>
       </c>
-      <c r="X9" s="42" t="n">
-        <v>0.9399999999999999</v>
+      <c r="X9" s="44" t="n">
+        <v>1.14</v>
       </c>
       <c r="Y9" s="39" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         </is>
       </c>
       <c r="D10" s="39" t="n">
-        <v>1394.42</v>
+        <v>1792.3</v>
       </c>
       <c r="E10" s="41" t="n">
         <v>-1.18</v>
@@ -2266,7 +2266,7 @@
         <v>0.79</v>
       </c>
       <c r="X10" s="42" t="n">
-        <v>1.79</v>
+        <v>2.15</v>
       </c>
       <c r="Y10" s="39" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         </is>
       </c>
       <c r="D11" s="39" t="n">
-        <v>6.72</v>
+        <v>6.71</v>
       </c>
       <c r="E11" s="40" t="n">
         <v>-2.92</v>
@@ -2349,7 +2349,7 @@
         <v>0.09</v>
       </c>
       <c r="X11" s="44" t="n">
-        <v>0.93</v>
+        <v>0.83</v>
       </c>
       <c r="Y11" s="39" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         </is>
       </c>
       <c r="D12" s="39" t="n">
-        <v>8.84</v>
+        <v>8.85</v>
       </c>
       <c r="E12" s="40" t="n">
         <v>0</v>
@@ -2432,7 +2432,7 @@
         <v>0.12</v>
       </c>
       <c r="X12" s="44" t="n">
-        <v>0.86</v>
+        <v>1.04</v>
       </c>
       <c r="Y12" s="39" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         </is>
       </c>
       <c r="D13" s="39" t="n">
-        <v>13.35</v>
+        <v>13.37</v>
       </c>
       <c r="E13" s="40" t="n">
         <v>-1.57</v>
@@ -2515,7 +2515,7 @@
         <v>0.51</v>
       </c>
       <c r="X13" s="44" t="n">
-        <v>2.46</v>
+        <v>2.58</v>
       </c>
       <c r="Y13" s="39" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
         </is>
       </c>
       <c r="D14" s="39" t="n">
-        <v>240.69</v>
+        <v>241.34</v>
       </c>
       <c r="E14" s="40" t="n">
         <v>-2.29</v>
@@ -2598,7 +2598,7 @@
         <v>0.09</v>
       </c>
       <c r="X14" s="44" t="n">
-        <v>1.01</v>
+        <v>1.19</v>
       </c>
       <c r="Y14" s="39" t="inlineStr">
         <is>
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="D15" s="39" t="n">
-        <v>22.97</v>
+        <v>22.99</v>
       </c>
       <c r="E15" s="40" t="n">
         <v>-1.11</v>
@@ -2681,7 +2681,7 @@
         <v>-0.2</v>
       </c>
       <c r="X15" s="41" t="n">
-        <v>0.26</v>
+        <v>0.4</v>
       </c>
       <c r="Y15" s="39" t="inlineStr">
         <is>
@@ -2847,7 +2847,7 @@
         <v>0.54</v>
       </c>
       <c r="X17" s="41" t="n">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="Y17" s="39" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="D18" s="39" t="n">
-        <v>354.81</v>
+        <v>356.34</v>
       </c>
       <c r="E18" s="40" t="n">
         <v>-2.4</v>
@@ -2930,7 +2930,7 @@
         <v>1.05</v>
       </c>
       <c r="X18" s="42" t="n">
-        <v>3.19</v>
+        <v>3.64</v>
       </c>
       <c r="Y18" s="39" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         </is>
       </c>
       <c r="D19" s="39" t="n">
-        <v>89.7</v>
+        <v>89.83</v>
       </c>
       <c r="E19" s="40" t="n">
         <v>-2.77</v>
@@ -3013,7 +3013,7 @@
         <v>-0.29</v>
       </c>
       <c r="X19" s="42" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="Y19" s="39" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
         </is>
       </c>
       <c r="D20" s="39" t="n">
-        <v>745.58</v>
+        <v>745.5700000000001</v>
       </c>
       <c r="E20" s="44" t="n">
         <v>0</v>
@@ -3119,7 +3119,7 @@
         </is>
       </c>
       <c r="D21" s="39" t="n">
-        <v>608.47</v>
+        <v>606</v>
       </c>
       <c r="E21" s="42" t="n">
         <v>0.92</v>
@@ -3179,7 +3179,7 @@
         <v>-0.61</v>
       </c>
       <c r="X21" s="42" t="n">
-        <v>2.13</v>
+        <v>1.78</v>
       </c>
       <c r="Y21" s="39" t="inlineStr">
         <is>
@@ -3202,7 +3202,7 @@
         </is>
       </c>
       <c r="D22" s="39" t="n">
-        <v>39.75</v>
+        <v>39.8</v>
       </c>
       <c r="E22" s="43" t="n">
         <v>-0.61</v>
@@ -3262,7 +3262,7 @@
         <v>-0.25</v>
       </c>
       <c r="X22" s="41" t="n">
-        <v>0.5</v>
+        <v>0.62</v>
       </c>
       <c r="Y22" s="39" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D23" s="39" t="n">
-        <v>3760.83</v>
+        <v>3766.61</v>
       </c>
       <c r="E23" s="43" t="n">
         <v>-0.5</v>
@@ -3345,7 +3345,7 @@
         <v>-0.08</v>
       </c>
       <c r="X23" s="42" t="n">
-        <v>0.83</v>
+        <v>1.01</v>
       </c>
       <c r="Y23" s="39" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         </is>
       </c>
       <c r="D24" s="39" t="n">
-        <v>1629.73</v>
+        <v>1630.94</v>
       </c>
       <c r="E24" s="41" t="n">
         <v>0.15</v>
@@ -3427,8 +3427,8 @@
       <c r="W24" s="43" t="n">
         <v>-0.48</v>
       </c>
-      <c r="X24" s="41" t="n">
-        <v>0.52</v>
+      <c r="X24" s="42" t="n">
+        <v>0.59</v>
       </c>
       <c r="Y24" s="39" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         </is>
       </c>
       <c r="D25" s="39" t="n">
-        <v>48.5</v>
+        <v>48.56</v>
       </c>
       <c r="E25" s="40" t="n">
         <v>-0.61</v>
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="X25" s="42" t="n">
-        <v>0.62</v>
+        <v>0.75</v>
       </c>
       <c r="Y25" s="39" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         </is>
       </c>
       <c r="D26" s="39" t="n">
-        <v>276.2</v>
+        <v>277.35</v>
       </c>
       <c r="E26" s="40" t="n">
         <v>-2.01</v>
@@ -3594,7 +3594,7 @@
         <v>1.01</v>
       </c>
       <c r="X26" s="44" t="n">
-        <v>2.44</v>
+        <v>2.87</v>
       </c>
       <c r="Y26" s="39" t="inlineStr">
         <is>
@@ -3617,7 +3617,7 @@
         </is>
       </c>
       <c r="D27" s="39" t="n">
-        <v>47.2</v>
+        <v>47.25</v>
       </c>
       <c r="E27" s="43" t="n">
         <v>-0.61</v>
@@ -3677,7 +3677,7 @@
         <v>-0.37</v>
       </c>
       <c r="X27" s="41" t="n">
-        <v>0.63</v>
+        <v>0.75</v>
       </c>
       <c r="Y27" s="39" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
         </is>
       </c>
       <c r="D28" s="39" t="n">
-        <v>637.24</v>
+        <v>639.34</v>
       </c>
       <c r="E28" s="41" t="n">
         <v>-1.15</v>
@@ -3760,7 +3760,7 @@
         <v>0.76</v>
       </c>
       <c r="X28" s="42" t="n">
-        <v>1.93</v>
+        <v>2.23</v>
       </c>
       <c r="Y28" s="39" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         </is>
       </c>
       <c r="D29" s="39" t="n">
-        <v>1107.77</v>
+        <v>1111.26</v>
       </c>
       <c r="E29" s="40" t="n">
         <v>-0.87</v>
@@ -3843,7 +3843,7 @@
         <v>0.5</v>
       </c>
       <c r="X29" s="44" t="n">
-        <v>1.51</v>
+        <v>1.81</v>
       </c>
       <c r="Y29" s="39" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         </is>
       </c>
       <c r="D30" s="39" t="n">
-        <v>780.41</v>
+        <v>781.14</v>
       </c>
       <c r="E30" s="41" t="n">
         <v>-0.5600000000000001</v>
@@ -3949,7 +3949,7 @@
         </is>
       </c>
       <c r="D31" s="39" t="n">
-        <v>857.26</v>
+        <v>859.01</v>
       </c>
       <c r="E31" s="43" t="n">
         <v>-1.79</v>
@@ -4009,7 +4009,7 @@
         <v>0.95</v>
       </c>
       <c r="X31" s="42" t="n">
-        <v>1.67</v>
+        <v>1.87</v>
       </c>
       <c r="Y31" s="39" t="inlineStr">
         <is>
@@ -4032,7 +4032,7 @@
         </is>
       </c>
       <c r="D32" s="39" t="n">
-        <v>257.16</v>
+        <v>257.75</v>
       </c>
       <c r="E32" s="40" t="n">
         <v>-2.27</v>
@@ -4092,7 +4092,7 @@
         <v>0.95</v>
       </c>
       <c r="X32" s="42" t="n">
-        <v>1.87</v>
+        <v>2.11</v>
       </c>
       <c r="Y32" s="39" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         </is>
       </c>
       <c r="D33" s="39" t="n">
-        <v>54.82</v>
+        <v>54.91</v>
       </c>
       <c r="E33" s="41" t="n">
         <v>0.31</v>
@@ -4175,7 +4175,7 @@
         <v>-0.31</v>
       </c>
       <c r="X33" s="41" t="n">
-        <v>0.63</v>
+        <v>0.87</v>
       </c>
       <c r="Y33" s="39" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         </is>
       </c>
       <c r="D34" s="39" t="n">
-        <v>32.96</v>
+        <v>33.03</v>
       </c>
       <c r="E34" s="41" t="n">
         <v>0.21</v>
@@ -4258,7 +4258,7 @@
         <v>-0.36</v>
       </c>
       <c r="X34" s="41" t="n">
-        <v>0.72</v>
+        <v>0.93</v>
       </c>
       <c r="Y34" s="39" t="inlineStr">
         <is>
@@ -4281,7 +4281,7 @@
         </is>
       </c>
       <c r="D35" s="39" t="n">
-        <v>4.3</v>
+        <v>4.31</v>
       </c>
       <c r="E35" s="42" t="n">
         <v>0.62</v>
@@ -4341,7 +4341,7 @@
         <v>-0.35</v>
       </c>
       <c r="X35" s="40" t="n">
-        <v>0.14</v>
+        <v>0.28</v>
       </c>
       <c r="Y35" s="39" t="inlineStr">
         <is>
@@ -4364,7 +4364,7 @@
         </is>
       </c>
       <c r="D36" s="39" t="n">
-        <v>247.63</v>
+        <v>248.26</v>
       </c>
       <c r="E36" s="41" t="n">
         <v>-0.65</v>
@@ -4424,7 +4424,7 @@
         <v>1.23</v>
       </c>
       <c r="X36" s="44" t="n">
-        <v>0.7</v>
+        <v>0.89</v>
       </c>
       <c r="Y36" s="39" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         </is>
       </c>
       <c r="D37" s="39" t="n">
-        <v>214.25</v>
+        <v>214.85</v>
       </c>
       <c r="E37" s="41" t="n">
         <v>-0.57</v>
@@ -4507,7 +4507,7 @@
         <v>1.24</v>
       </c>
       <c r="X37" s="44" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.32</v>
       </c>
       <c r="Y37" s="39" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         </is>
       </c>
       <c r="D38" s="39" t="n">
-        <v>242.67</v>
+        <v>243.43</v>
       </c>
       <c r="E38" s="41" t="n">
         <v>0.16</v>
@@ -4590,7 +4590,7 @@
         <v>0.8</v>
       </c>
       <c r="X38" s="44" t="n">
-        <v>1.11</v>
+        <v>1.27</v>
       </c>
       <c r="Y38" s="39" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         </is>
       </c>
       <c r="D39" s="39" t="n">
-        <v>281.9</v>
+        <v>282.71</v>
       </c>
       <c r="E39" s="41" t="n">
         <v>0</v>
@@ -4673,7 +4673,7 @@
         <v>0.29</v>
       </c>
       <c r="X39" s="42" t="n">
-        <v>1.36</v>
+        <v>1.55</v>
       </c>
       <c r="Y39" s="39" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="D40" s="39" t="n">
-        <v>64.09999999999999</v>
+        <v>64.27</v>
       </c>
       <c r="E40" s="41" t="n">
         <v>-0.39</v>
@@ -4756,7 +4756,7 @@
         <v>0.27</v>
       </c>
       <c r="X40" s="42" t="n">
-        <v>0.95</v>
+        <v>1.23</v>
       </c>
       <c r="Y40" s="39" t="inlineStr">
         <is>
@@ -4779,7 +4779,7 @@
         </is>
       </c>
       <c r="D41" s="39" t="n">
-        <v>45.53</v>
+        <v>45.5</v>
       </c>
       <c r="E41" s="41" t="n">
         <v>0.08</v>
@@ -4862,7 +4862,7 @@
         </is>
       </c>
       <c r="D42" s="39" t="n">
-        <v>75</v>
+        <v>74.8</v>
       </c>
       <c r="E42" s="42" t="n">
         <v>0.33</v>
@@ -4922,7 +4922,7 @@
         <v>-2.19</v>
       </c>
       <c r="X42" s="40" t="n">
-        <v>-0.13</v>
+        <v>-0.33</v>
       </c>
       <c r="Y42" s="39" t="inlineStr">
         <is>
@@ -4945,7 +4945,7 @@
         </is>
       </c>
       <c r="D43" s="39" t="n">
-        <v>118.02</v>
+        <v>118.5</v>
       </c>
       <c r="E43" s="41" t="n">
         <v>-0.26</v>
@@ -5004,8 +5004,8 @@
       <c r="W43" s="42" t="n">
         <v>0.96</v>
       </c>
-      <c r="X43" s="42" t="n">
-        <v>0.41</v>
+      <c r="X43" s="44" t="n">
+        <v>0.95</v>
       </c>
       <c r="Y43" s="39" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         </is>
       </c>
       <c r="D44" s="39" t="n">
-        <v>16.41</v>
+        <v>16.45</v>
       </c>
       <c r="E44" s="41" t="n">
         <v>-1.01</v>
@@ -5111,7 +5111,7 @@
         </is>
       </c>
       <c r="D45" s="39" t="n">
-        <v>34.6</v>
+        <v>34.7</v>
       </c>
       <c r="E45" s="40" t="n">
         <v>-0.54</v>
@@ -5171,7 +5171,7 @@
         <v>-0.29</v>
       </c>
       <c r="X45" s="42" t="n">
-        <v>1.17</v>
+        <v>1.47</v>
       </c>
       <c r="Y45" s="39" t="inlineStr">
         <is>
@@ -5254,7 +5254,7 @@
         <v>0.63</v>
       </c>
       <c r="X46" s="42" t="n">
-        <v>0.95</v>
+        <v>1.26</v>
       </c>
       <c r="Y46" s="39" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         </is>
       </c>
       <c r="D47" s="39" t="n">
-        <v>221.33</v>
+        <v>221.96</v>
       </c>
       <c r="E47" s="41" t="n">
         <v>-0.8100000000000001</v>
@@ -5360,7 +5360,7 @@
         </is>
       </c>
       <c r="D48" s="39" t="n">
-        <v>21.44</v>
+        <v>21.54</v>
       </c>
       <c r="E48" s="42" t="n">
         <v>1.19</v>
@@ -5420,7 +5420,7 @@
         <v>-0.29</v>
       </c>
       <c r="X48" s="41" t="n">
-        <v>0.15</v>
+        <v>0.59</v>
       </c>
       <c r="Y48" s="39" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         </is>
       </c>
       <c r="D49" s="39" t="n">
-        <v>31.9</v>
+        <v>32.06</v>
       </c>
       <c r="E49" s="42" t="n">
         <v>1.93</v>
@@ -5503,7 +5503,7 @@
         <v>-0.34</v>
       </c>
       <c r="X49" s="41" t="n">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="Y49" s="39" t="inlineStr">
         <is>
@@ -5526,7 +5526,7 @@
         </is>
       </c>
       <c r="D50" s="39" t="n">
-        <v>4.36</v>
+        <v>4.38</v>
       </c>
       <c r="E50" s="43" t="n">
         <v>-1.6</v>
@@ -5586,7 +5586,7 @@
         <v>1.52</v>
       </c>
       <c r="X50" s="42" t="n">
-        <v>0.79</v>
+        <v>1.26</v>
       </c>
       <c r="Y50" s="39" t="inlineStr">
         <is>
@@ -5609,7 +5609,7 @@
         </is>
       </c>
       <c r="D51" s="39" t="n">
-        <v>131.16</v>
+        <v>131.42</v>
       </c>
       <c r="E51" s="41" t="n">
         <v>-0.29</v>
@@ -5669,7 +5669,7 @@
         <v>0.71</v>
       </c>
       <c r="X51" s="42" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="Y51" s="39" t="inlineStr">
         <is>
@@ -5692,7 +5692,7 @@
         </is>
       </c>
       <c r="D52" s="39" t="n">
-        <v>4.93</v>
+        <v>4.96</v>
       </c>
       <c r="E52" s="40" t="n">
         <v>-2.63</v>
@@ -5752,7 +5752,7 @@
         <v>1.7</v>
       </c>
       <c r="X52" s="42" t="n">
-        <v>2.04</v>
+        <v>2.7</v>
       </c>
       <c r="Y52" s="39" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         </is>
       </c>
       <c r="D53" s="39" t="n">
-        <v>27.49</v>
+        <v>27.59</v>
       </c>
       <c r="E53" s="41" t="n">
         <v>-0.12</v>
@@ -5835,7 +5835,7 @@
         <v>1.14</v>
       </c>
       <c r="X53" s="44" t="n">
-        <v>2.14</v>
+        <v>2.51</v>
       </c>
       <c r="Y53" s="39" t="inlineStr">
         <is>
@@ -5858,7 +5858,7 @@
         </is>
       </c>
       <c r="D54" s="39" t="n">
-        <v>34.82</v>
+        <v>34.93</v>
       </c>
       <c r="E54" s="45" t="n">
         <v>-1.77</v>
@@ -5918,7 +5918,7 @@
         <v>2.54</v>
       </c>
       <c r="X54" s="44" t="n">
-        <v>2.27</v>
+        <v>2.47</v>
       </c>
       <c r="Y54" s="39" t="inlineStr">
         <is>
@@ -6001,7 +6001,7 @@
         <v>2.08</v>
       </c>
       <c r="X55" s="44" t="n">
-        <v>2.72</v>
+        <v>2.45</v>
       </c>
       <c r="Y55" s="39" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         </is>
       </c>
       <c r="D56" s="39" t="n">
-        <v>51.22</v>
+        <v>51.35</v>
       </c>
       <c r="E56" s="41" t="n">
         <v>-1.73</v>
@@ -6084,7 +6084,7 @@
         <v>2.56</v>
       </c>
       <c r="X56" s="44" t="n">
-        <v>1.89</v>
+        <v>2.15</v>
       </c>
       <c r="Y56" s="39" t="inlineStr">
         <is>
@@ -6107,7 +6107,7 @@
         </is>
       </c>
       <c r="D57" s="39" t="n">
-        <v>139.14</v>
+        <v>139.78</v>
       </c>
       <c r="E57" s="41" t="n">
         <v>-2.21</v>
@@ -6167,7 +6167,7 @@
         <v>3.13</v>
       </c>
       <c r="X57" s="42" t="n">
-        <v>1.52</v>
+        <v>1.98</v>
       </c>
       <c r="Y57" s="39" t="inlineStr">
         <is>
@@ -6190,7 +6190,7 @@
         </is>
       </c>
       <c r="D58" s="39" t="n">
-        <v>30.35</v>
+        <v>30.45</v>
       </c>
       <c r="E58" s="41" t="n">
         <v>-0.98</v>
@@ -6273,7 +6273,7 @@
         </is>
       </c>
       <c r="D59" s="39" t="n">
-        <v>7.62</v>
+        <v>7.65</v>
       </c>
       <c r="E59" s="41" t="n">
         <v>0.26</v>
@@ -6333,7 +6333,7 @@
         <v>1.45</v>
       </c>
       <c r="X59" s="44" t="n">
-        <v>1.56</v>
+        <v>1.82</v>
       </c>
       <c r="Y59" s="39" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         </is>
       </c>
       <c r="D60" s="39" t="n">
-        <v>15.8</v>
+        <v>15.86</v>
       </c>
       <c r="E60" s="43" t="n">
         <v>-4.53</v>
@@ -6416,7 +6416,7 @@
         <v>1.72</v>
       </c>
       <c r="X60" s="44" t="n">
-        <v>1.69</v>
+        <v>2.08</v>
       </c>
       <c r="Y60" s="39" t="inlineStr">
         <is>
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="D61" s="39" t="n">
-        <v>48.55</v>
+        <v>48.62</v>
       </c>
       <c r="E61" s="42" t="n">
         <v>1.11</v>
@@ -6498,8 +6498,8 @@
       <c r="W61" s="43" t="n">
         <v>0</v>
       </c>
-      <c r="X61" s="45" t="n">
-        <v>0</v>
+      <c r="X61" s="41" t="n">
+        <v>0.28</v>
       </c>
       <c r="Y61" s="39" t="inlineStr">
         <is>
@@ -6522,7 +6522,7 @@
         </is>
       </c>
       <c r="D62" s="39" t="n">
-        <v>62.15</v>
+        <v>62.21</v>
       </c>
       <c r="E62" s="43" t="n">
         <v>-4.23</v>
@@ -6582,7 +6582,7 @@
         <v>1.43</v>
       </c>
       <c r="X62" s="42" t="n">
-        <v>2.62</v>
+        <v>2.52</v>
       </c>
       <c r="Y62" s="39" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         </is>
       </c>
       <c r="D63" s="39" t="n">
-        <v>69.51000000000001</v>
+        <v>69.69</v>
       </c>
       <c r="E63" s="41" t="n">
         <v>0</v>
@@ -6665,7 +6665,7 @@
         <v>0.92</v>
       </c>
       <c r="X63" s="44" t="n">
-        <v>2.38</v>
+        <v>2.56</v>
       </c>
       <c r="Y63" s="39" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         </is>
       </c>
       <c r="D64" s="39" t="n">
-        <v>13.51</v>
+        <v>13.56</v>
       </c>
       <c r="E64" s="41" t="n">
         <v>-0.36</v>
@@ -6748,7 +6748,7 @@
         <v>2.68</v>
       </c>
       <c r="X64" s="44" t="n">
-        <v>3.11</v>
+        <v>3.23</v>
       </c>
       <c r="Y64" s="39" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="D65" s="39" t="n">
-        <v>5.87</v>
+        <v>5.89</v>
       </c>
       <c r="E65" s="42" t="n">
         <v>1.02</v>
@@ -6831,7 +6831,7 @@
         <v>-0.53</v>
       </c>
       <c r="X65" s="41" t="n">
-        <v>0.53</v>
+        <v>0.89</v>
       </c>
       <c r="Y65" s="39" t="inlineStr">
         <is>
@@ -6854,7 +6854,7 @@
         </is>
       </c>
       <c r="D66" s="39" t="n">
-        <v>64.92</v>
+        <v>65.11</v>
       </c>
       <c r="E66" s="41" t="n">
         <v>1.01</v>
@@ -6913,8 +6913,8 @@
       <c r="W66" s="40" t="n">
         <v>0.52</v>
       </c>
-      <c r="X66" s="40" t="n">
-        <v>0.51</v>
+      <c r="X66" s="41" t="n">
+        <v>0.73</v>
       </c>
       <c r="Y66" s="39" t="inlineStr">
         <is>
@@ -6937,7 +6937,7 @@
         </is>
       </c>
       <c r="D67" s="39" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="E67" s="40" t="n">
         <v>-1.19</v>
@@ -6997,7 +6997,7 @@
         <v>0.36</v>
       </c>
       <c r="X67" s="42" t="n">
-        <v>0.72</v>
+        <v>1.27</v>
       </c>
       <c r="Y67" s="39" t="inlineStr">
         <is>
@@ -7020,7 +7020,7 @@
         </is>
       </c>
       <c r="D68" s="39" t="n">
-        <v>15.11</v>
+        <v>15.2</v>
       </c>
       <c r="E68" s="40" t="n">
         <v>-3.01</v>
@@ -7080,7 +7080,7 @@
         <v>0.85</v>
       </c>
       <c r="X68" s="44" t="n">
-        <v>0.84</v>
+        <v>1.45</v>
       </c>
       <c r="Y68" s="39" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         </is>
       </c>
       <c r="D69" s="39" t="n">
-        <v>151.36</v>
+        <v>151.73</v>
       </c>
       <c r="E69" s="42" t="n">
         <v>1.35</v>
@@ -7163,7 +7163,7 @@
         <v>0.25</v>
       </c>
       <c r="X69" s="41" t="n">
-        <v>-0.12</v>
+        <v>0.24</v>
       </c>
       <c r="Y69" s="39" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         </is>
       </c>
       <c r="D71" s="39" t="n">
-        <v>31.72</v>
+        <v>31.83</v>
       </c>
       <c r="E71" s="40" t="n">
         <v>-0.72</v>
@@ -7329,7 +7329,7 @@
         <v>-0.06</v>
       </c>
       <c r="X71" s="42" t="n">
-        <v>0.43</v>
+        <v>0.87</v>
       </c>
       <c r="Y71" s="39" t="inlineStr">
         <is>
@@ -7352,7 +7352,7 @@
         </is>
       </c>
       <c r="D72" s="39" t="n">
-        <v>31.32</v>
+        <v>31.41</v>
       </c>
       <c r="E72" s="42" t="n">
         <v>1.48</v>
@@ -7412,7 +7412,7 @@
         <v>-0.45</v>
       </c>
       <c r="X72" s="41" t="n">
-        <v>0.45</v>
+        <v>0.75</v>
       </c>
       <c r="Y72" s="39" t="inlineStr">
         <is>
@@ -7494,8 +7494,8 @@
       <c r="W73" s="42" t="n">
         <v>1.83</v>
       </c>
-      <c r="X73" s="44" t="n">
-        <v>2.19</v>
+      <c r="X73" s="42" t="n">
+        <v>1.99</v>
       </c>
       <c r="Y73" s="39" t="inlineStr">
         <is>
@@ -7518,7 +7518,7 @@
         </is>
       </c>
       <c r="D74" s="39" t="n">
-        <v>217.98</v>
+        <v>217.76</v>
       </c>
       <c r="E74" s="42" t="n">
         <v>0.16</v>
@@ -7578,7 +7578,7 @@
         <v>-0.78</v>
       </c>
       <c r="X74" s="43" t="n">
-        <v>-0.39</v>
+        <v>-0.43</v>
       </c>
       <c r="Y74" s="39" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         </is>
       </c>
       <c r="D75" s="39" t="n">
-        <v>158.43</v>
+        <v>158.29</v>
       </c>
       <c r="E75" s="44" t="n">
         <v>0.36</v>
@@ -7684,7 +7684,7 @@
         </is>
       </c>
       <c r="D76" s="39" t="n">
-        <v>45.88</v>
+        <v>45.97</v>
       </c>
       <c r="E76" s="43" t="n">
         <v>-1.5</v>
@@ -7744,7 +7744,7 @@
         <v>-0.19</v>
       </c>
       <c r="X76" s="42" t="n">
-        <v>1.94</v>
+        <v>2.03</v>
       </c>
       <c r="Y76" s="39" t="inlineStr">
         <is>
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="D77" s="39" t="n">
-        <v>9.06</v>
+        <v>9.1</v>
       </c>
       <c r="E77" s="40" t="n">
         <v>-0.78</v>
@@ -7827,7 +7827,7 @@
         <v>0</v>
       </c>
       <c r="X77" s="44" t="n">
-        <v>2.47</v>
+        <v>2.89</v>
       </c>
       <c r="Y77" s="39" t="inlineStr">
         <is>
@@ -7850,7 +7850,7 @@
         </is>
       </c>
       <c r="D78" s="39" t="n">
-        <v>9.01</v>
+        <v>9.07</v>
       </c>
       <c r="E78" s="41" t="n">
         <v>-0.37</v>
@@ -7910,7 +7910,7 @@
         <v>0.89</v>
       </c>
       <c r="X78" s="44" t="n">
-        <v>3.35</v>
+        <v>4.14</v>
       </c>
       <c r="Y78" s="39" t="inlineStr">
         <is>
@@ -7933,7 +7933,7 @@
         </is>
       </c>
       <c r="D79" s="39" t="n">
-        <v>19.1</v>
+        <v>19.23</v>
       </c>
       <c r="E79" s="41" t="n">
         <v>0.48</v>
@@ -7993,7 +7993,7 @@
         <v>-1.31</v>
       </c>
       <c r="X79" s="42" t="n">
-        <v>1.08</v>
+        <v>1.75</v>
       </c>
       <c r="Y79" s="39" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>-0.5</v>
       </c>
       <c r="X81" s="42" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="Y81" s="39" t="inlineStr">
         <is>
@@ -8242,7 +8242,7 @@
         <v>-0.52</v>
       </c>
       <c r="X82" s="41" t="n">
-        <v>0.52</v>
+        <v>0.63</v>
       </c>
       <c r="Y82" s="39" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         </is>
       </c>
       <c r="D83" s="39" t="n">
-        <v>7.34</v>
+        <v>7.35</v>
       </c>
       <c r="E83" s="42" t="n">
         <v>0.92</v>
@@ -8325,7 +8325,7 @@
         <v>0.32</v>
       </c>
       <c r="X83" s="41" t="n">
-        <v>0.21</v>
+        <v>0.32</v>
       </c>
       <c r="Y83" s="39" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         </is>
       </c>
       <c r="D84" s="39" t="n">
-        <v>24.61</v>
+        <v>24.63</v>
       </c>
       <c r="E84" s="41" t="n">
         <v>0.66</v>
@@ -8407,8 +8407,8 @@
       <c r="W84" s="40" t="n">
         <v>-0.48</v>
       </c>
-      <c r="X84" s="40" t="n">
-        <v>0.68</v>
+      <c r="X84" s="42" t="n">
+        <v>0.87</v>
       </c>
       <c r="Y84" s="39" t="inlineStr">
         <is>
@@ -8431,7 +8431,7 @@
         </is>
       </c>
       <c r="D85" s="39" t="n">
-        <v>43.59</v>
+        <v>43.77</v>
       </c>
       <c r="E85" s="43" t="n">
         <v>-1.34</v>
@@ -8491,7 +8491,7 @@
         <v>1.53</v>
       </c>
       <c r="X85" s="42" t="n">
-        <v>1.34</v>
+        <v>1.59</v>
       </c>
       <c r="Y85" s="39" t="inlineStr">
         <is>
@@ -8597,7 +8597,7 @@
         </is>
       </c>
       <c r="D87" s="39" t="n">
-        <v>44.45</v>
+        <v>44.58</v>
       </c>
       <c r="E87" s="40" t="n">
         <v>-1.52</v>
@@ -8657,7 +8657,7 @@
         <v>0.11</v>
       </c>
       <c r="X87" s="42" t="n">
-        <v>1.32</v>
+        <v>1.49</v>
       </c>
       <c r="Y87" s="39" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         </is>
       </c>
       <c r="D88" s="39" t="n">
-        <v>89.63</v>
+        <v>89.91</v>
       </c>
       <c r="E88" s="40" t="n">
         <v>-2.07</v>
@@ -8740,7 +8740,7 @@
         <v>0.16</v>
       </c>
       <c r="X88" s="42" t="n">
-        <v>1.71</v>
+        <v>1.87</v>
       </c>
       <c r="Y88" s="39" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>-0.42</v>
       </c>
       <c r="X89" s="40" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Y89" s="39" t="inlineStr">
         <is>
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="D90" s="39" t="n">
-        <v>19.17</v>
+        <v>19.21</v>
       </c>
       <c r="E90" s="40" t="n">
         <v>-1.14</v>
@@ -8906,7 +8906,7 @@
         <v>-0.54</v>
       </c>
       <c r="X90" s="40" t="n">
-        <v>0.33</v>
+        <v>0.44</v>
       </c>
       <c r="Y90" s="39" t="inlineStr">
         <is>
@@ -9012,7 +9012,7 @@
         </is>
       </c>
       <c r="D92" s="39" t="n">
-        <v>11.72</v>
+        <v>11.73</v>
       </c>
       <c r="E92" s="40" t="n">
         <v>-0.74</v>
@@ -9072,7 +9072,7 @@
         <v>0</v>
       </c>
       <c r="X92" s="42" t="n">
-        <v>0.9</v>
+        <v>1.02</v>
       </c>
       <c r="Y92" s="39" t="inlineStr">
         <is>
@@ -9095,7 +9095,7 @@
         </is>
       </c>
       <c r="D93" s="39" t="n">
-        <v>161.46</v>
+        <v>161.81</v>
       </c>
       <c r="E93" s="40" t="n">
         <v>-1.39</v>
@@ -9155,7 +9155,7 @@
         <v>0.59</v>
       </c>
       <c r="X93" s="42" t="n">
-        <v>1.97</v>
+        <v>2.19</v>
       </c>
       <c r="Y93" s="39" t="inlineStr">
         <is>
@@ -9178,7 +9178,7 @@
         </is>
       </c>
       <c r="D94" s="39" t="n">
-        <v>246.19</v>
+        <v>247.22</v>
       </c>
       <c r="E94" s="41" t="n">
         <v>-2.16</v>
@@ -9238,7 +9238,7 @@
         <v>1.3</v>
       </c>
       <c r="X94" s="44" t="n">
-        <v>2.57</v>
+        <v>3</v>
       </c>
       <c r="Y94" s="39" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D95" s="39" t="n">
-        <v>105.13</v>
+        <v>104.92</v>
       </c>
       <c r="E95" s="41" t="n">
         <v>-1.22</v>
@@ -9344,7 +9344,7 @@
         </is>
       </c>
       <c r="D96" s="39" t="n">
-        <v>9.18</v>
+        <v>9.19</v>
       </c>
       <c r="E96" s="40" t="n">
         <v>-1.26</v>
@@ -9404,7 +9404,7 @@
         <v>0.12</v>
       </c>
       <c r="X96" s="42" t="n">
-        <v>1.69</v>
+        <v>1.81</v>
       </c>
       <c r="Y96" s="39" t="inlineStr">
         <is>
@@ -9427,7 +9427,7 @@
         </is>
       </c>
       <c r="D97" s="39" t="n">
-        <v>108.77</v>
+        <v>108.54</v>
       </c>
       <c r="E97" s="41" t="n">
         <v>-1.77</v>
@@ -9487,7 +9487,7 @@
         <v>0.11</v>
       </c>
       <c r="X97" s="41" t="n">
-        <v>0.43</v>
+        <v>0.21</v>
       </c>
       <c r="Y97" s="39" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         </is>
       </c>
       <c r="D98" s="39" t="n">
-        <v>492.46</v>
+        <v>494.19</v>
       </c>
       <c r="E98" s="41" t="n">
         <v>-1.16</v>
@@ -9570,7 +9570,7 @@
         <v>2.59</v>
       </c>
       <c r="X98" s="44" t="n">
-        <v>3.01</v>
+        <v>3.37</v>
       </c>
       <c r="Y98" s="39" t="inlineStr">
         <is>
@@ -9593,7 +9593,7 @@
         </is>
       </c>
       <c r="D99" s="39" t="n">
-        <v>17.97</v>
+        <v>17.99</v>
       </c>
       <c r="E99" s="40" t="n">
         <v>-2.14</v>
@@ -9653,7 +9653,7 @@
         <v>0.33</v>
       </c>
       <c r="X99" s="42" t="n">
-        <v>0.88</v>
+        <v>0.99</v>
       </c>
       <c r="Y99" s="39" t="inlineStr">
         <is>
@@ -9676,7 +9676,7 @@
         </is>
       </c>
       <c r="D100" s="39" t="n">
-        <v>72.44</v>
+        <v>72.54000000000001</v>
       </c>
       <c r="E100" s="41" t="n">
         <v>-1.03</v>
@@ -9736,7 +9736,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="X100" s="42" t="n">
-        <v>2.49</v>
+        <v>2.56</v>
       </c>
       <c r="Y100" s="39" t="inlineStr">
         <is>
@@ -12092,7 +12092,7 @@
         </is>
       </c>
       <c r="D2" s="39" t="n">
-        <v>335.36</v>
+        <v>432.19</v>
       </c>
       <c r="E2" s="39" t="n">
         <v>42.5</v>
@@ -12152,7 +12152,7 @@
         <v>6.3</v>
       </c>
       <c r="X2" s="39" t="n">
-        <v>61.5</v>
+        <v>64.7</v>
       </c>
       <c r="Y2" s="39" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         </is>
       </c>
       <c r="D3" s="39" t="n">
-        <v>2695.75</v>
+        <v>3495.9</v>
       </c>
       <c r="E3" s="39" t="n">
         <v>26.6</v>
@@ -12235,7 +12235,7 @@
         <v>3.1</v>
       </c>
       <c r="X3" s="39" t="n">
-        <v>82.40000000000001</v>
+        <v>85.5</v>
       </c>
       <c r="Y3" s="39" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         </is>
       </c>
       <c r="D4" s="39" t="n">
-        <v>1282.36</v>
+        <v>1662.13</v>
       </c>
       <c r="E4" s="39" t="n">
         <v>2</v>
@@ -12318,7 +12318,7 @@
         <v>5.5</v>
       </c>
       <c r="X4" s="39" t="n">
-        <v>86.40000000000001</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="Y4" s="39" t="inlineStr">
         <is>
@@ -12341,7 +12341,7 @@
         </is>
       </c>
       <c r="D5" s="39" t="n">
-        <v>1394.42</v>
+        <v>1792.3</v>
       </c>
       <c r="E5" s="39" t="n">
         <v>17.2</v>
@@ -12401,7 +12401,7 @@
         <v>76.5</v>
       </c>
       <c r="X5" s="39" t="n">
-        <v>93.3</v>
+        <v>94.2</v>
       </c>
       <c r="Y5" s="39" t="inlineStr">
         <is>
@@ -12424,7 +12424,7 @@
         </is>
       </c>
       <c r="D6" s="39" t="n">
-        <v>3904.04</v>
+        <v>4997.04</v>
       </c>
       <c r="E6" s="39" t="n">
         <v>3.2</v>
@@ -12484,7 +12484,7 @@
         <v>72.09999999999999</v>
       </c>
       <c r="X6" s="39" t="n">
-        <v>93.5</v>
+        <v>94.5</v>
       </c>
       <c r="Y6" s="39" t="inlineStr">
         <is>
@@ -12507,7 +12507,7 @@
         </is>
       </c>
       <c r="D7" s="39" t="n">
-        <v>1793.37</v>
+        <v>2302.13</v>
       </c>
       <c r="E7" s="39" t="n">
         <v>3.4</v>
@@ -12567,7 +12567,7 @@
         <v>76.90000000000001</v>
       </c>
       <c r="X7" s="39" t="n">
-        <v>93.90000000000001</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="Y7" s="39" t="inlineStr">
         <is>
@@ -12590,7 +12590,7 @@
         </is>
       </c>
       <c r="D8" s="39" t="n">
-        <v>2357.78</v>
+        <v>3044.61</v>
       </c>
       <c r="E8" s="39" t="n">
         <v>5.8</v>
@@ -12650,7 +12650,7 @@
         <v>33.9</v>
       </c>
       <c r="X8" s="39" t="n">
-        <v>94.09999999999999</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="Y8" s="39" t="inlineStr">
         <is>
@@ -12673,7 +12673,7 @@
         </is>
       </c>
       <c r="D9" s="39" t="n">
-        <v>1075.87</v>
+        <v>1382.47</v>
       </c>
       <c r="E9" s="39" t="n">
         <v>16</v>
@@ -12733,7 +12733,7 @@
         <v>78.3</v>
       </c>
       <c r="X9" s="39" t="n">
-        <v>95.3</v>
+        <v>96</v>
       </c>
       <c r="Y9" s="39" t="inlineStr">
         <is>
@@ -12756,7 +12756,7 @@
         </is>
       </c>
       <c r="D10" s="39" t="n">
-        <v>136.01</v>
+        <v>173.55</v>
       </c>
       <c r="E10" s="39" t="n">
         <v>9.9</v>
@@ -12816,7 +12816,7 @@
         <v>88.5</v>
       </c>
       <c r="X10" s="39" t="n">
-        <v>96.3</v>
+        <v>96.8</v>
       </c>
       <c r="Y10" s="39" t="inlineStr">
         <is>
@@ -12828,82 +12828,80 @@
       <c r="A11" s="39" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="39" t="inlineStr">
-        <is>
-          <t>159736</t>
-        </is>
+      <c r="B11" s="39" t="n">
+        <v>510880</v>
       </c>
       <c r="C11" s="39" t="inlineStr">
         <is>
-          <t>饮食ETF</t>
+          <t>红利ETF</t>
         </is>
       </c>
       <c r="D11" s="39" t="n">
-        <v>48.55</v>
+        <v>217.76</v>
       </c>
       <c r="E11" s="39" t="n">
-        <v>83.8</v>
+        <v>89.2</v>
       </c>
       <c r="F11" s="39" t="n">
-        <v>11.8</v>
+        <v>5</v>
       </c>
       <c r="G11" s="39" t="n">
-        <v>59.9</v>
+        <v>43.6</v>
       </c>
       <c r="H11" s="39" t="n">
-        <v>74.40000000000001</v>
+        <v>46.3</v>
       </c>
       <c r="I11" s="39" t="n">
-        <v>84.09999999999999</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="J11" s="39" t="n">
-        <v>50.1</v>
+        <v>49</v>
       </c>
       <c r="K11" s="39" t="n">
-        <v>46</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="L11" s="39" t="n">
-        <v>70.40000000000001</v>
+        <v>84.3</v>
       </c>
       <c r="M11" s="39" t="n">
-        <v>78.2</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="N11" s="39" t="n">
-        <v>90.59999999999999</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="O11" s="39" t="n">
-        <v>34.9</v>
+        <v>70.7</v>
       </c>
       <c r="P11" s="39" t="n">
-        <v>18.6</v>
+        <v>30</v>
       </c>
       <c r="Q11" s="39" t="n">
-        <v>18.6</v>
+        <v>67.5</v>
       </c>
       <c r="R11" s="39" t="n">
-        <v>7.4</v>
+        <v>24.9</v>
       </c>
       <c r="S11" s="39" t="n">
-        <v>4.7</v>
+        <v>62.9</v>
       </c>
       <c r="T11" s="39" t="n">
-        <v>3.4</v>
+        <v>51</v>
       </c>
       <c r="U11" s="39" t="n">
-        <v>0.9</v>
+        <v>64.5</v>
       </c>
       <c r="V11" s="39" t="n">
-        <v>0.5</v>
+        <v>20.2</v>
       </c>
       <c r="W11" s="39" t="n">
-        <v>0.5</v>
+        <v>5.4</v>
       </c>
       <c r="X11" s="39" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="Y11" s="39" t="inlineStr">
         <is>
-          <t>饮食ETF</t>
+          <t>红利ETF</t>
         </is>
       </c>
     </row>
@@ -12911,80 +12909,82 @@
       <c r="A12" s="39" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="39" t="n">
-        <v>510880</v>
+      <c r="B12" s="39" t="inlineStr">
+        <is>
+          <t>512890</t>
+        </is>
       </c>
       <c r="C12" s="39" t="inlineStr">
         <is>
-          <t>红利ETF</t>
+          <t>红利低波ETF</t>
         </is>
       </c>
       <c r="D12" s="39" t="n">
-        <v>217.98</v>
+        <v>158.29</v>
       </c>
       <c r="E12" s="39" t="n">
-        <v>89.2</v>
+        <v>97</v>
       </c>
       <c r="F12" s="39" t="n">
-        <v>5</v>
+        <v>6.1</v>
       </c>
       <c r="G12" s="39" t="n">
-        <v>43.6</v>
+        <v>46</v>
       </c>
       <c r="H12" s="39" t="n">
-        <v>46.3</v>
+        <v>41.5</v>
       </c>
       <c r="I12" s="39" t="n">
-        <v>69.09999999999999</v>
+        <v>55.7</v>
       </c>
       <c r="J12" s="39" t="n">
-        <v>49</v>
+        <v>43.2</v>
       </c>
       <c r="K12" s="39" t="n">
-        <v>75.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="L12" s="39" t="n">
-        <v>84.3</v>
+        <v>89.7</v>
       </c>
       <c r="M12" s="39" t="n">
-        <v>91.09999999999999</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="N12" s="39" t="n">
-        <v>66.09999999999999</v>
+        <v>95.5</v>
       </c>
       <c r="O12" s="39" t="n">
-        <v>70.7</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="P12" s="39" t="n">
-        <v>30</v>
+        <v>39.7</v>
       </c>
       <c r="Q12" s="39" t="n">
-        <v>67.5</v>
+        <v>74.7</v>
       </c>
       <c r="R12" s="39" t="n">
-        <v>24.9</v>
+        <v>40.8</v>
       </c>
       <c r="S12" s="39" t="n">
-        <v>62.9</v>
+        <v>79</v>
       </c>
       <c r="T12" s="39" t="n">
-        <v>51</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="U12" s="39" t="n">
-        <v>64.5</v>
+        <v>86</v>
       </c>
       <c r="V12" s="39" t="n">
-        <v>20.2</v>
+        <v>52.4</v>
       </c>
       <c r="W12" s="39" t="n">
-        <v>5.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="X12" s="39" t="n">
-        <v>3.1</v>
+        <v>7.8</v>
       </c>
       <c r="Y12" s="39" t="inlineStr">
         <is>
-          <t>红利ETF</t>
+          <t>红利低波ETF</t>
         </is>
       </c>
     </row>
@@ -12992,82 +12992,80 @@
       <c r="A13" s="39" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="39" t="inlineStr">
-        <is>
-          <t>512890</t>
-        </is>
+      <c r="B13" s="39" t="n">
+        <v>512800</v>
       </c>
       <c r="C13" s="39" t="inlineStr">
         <is>
-          <t>红利低波ETF</t>
+          <t>银行ETF</t>
         </is>
       </c>
       <c r="D13" s="39" t="n">
-        <v>158.43</v>
+        <v>74.8</v>
       </c>
       <c r="E13" s="39" t="n">
-        <v>97</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="F13" s="39" t="n">
-        <v>6.1</v>
+        <v>11.2</v>
       </c>
       <c r="G13" s="39" t="n">
-        <v>46</v>
+        <v>11.2</v>
       </c>
       <c r="H13" s="39" t="n">
-        <v>41.5</v>
+        <v>5.8</v>
       </c>
       <c r="I13" s="39" t="n">
-        <v>55.7</v>
+        <v>50.2</v>
       </c>
       <c r="J13" s="39" t="n">
-        <v>43.2</v>
+        <v>62.1</v>
       </c>
       <c r="K13" s="39" t="n">
-        <v>74.2</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="L13" s="39" t="n">
-        <v>89.7</v>
+        <v>94.7</v>
       </c>
       <c r="M13" s="39" t="n">
-        <v>95.09999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="N13" s="39" t="n">
-        <v>95.5</v>
+        <v>97.5</v>
       </c>
       <c r="O13" s="39" t="n">
-        <v>97.09999999999999</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="P13" s="39" t="n">
-        <v>39.7</v>
+        <v>36</v>
       </c>
       <c r="Q13" s="39" t="n">
-        <v>74.7</v>
+        <v>65</v>
       </c>
       <c r="R13" s="39" t="n">
-        <v>40.8</v>
+        <v>41.7</v>
       </c>
       <c r="S13" s="39" t="n">
-        <v>79</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="T13" s="39" t="n">
-        <v>69.90000000000001</v>
+        <v>56.7</v>
       </c>
       <c r="U13" s="39" t="n">
-        <v>86</v>
+        <v>81.7</v>
       </c>
       <c r="V13" s="39" t="n">
-        <v>52.4</v>
+        <v>60.3</v>
       </c>
       <c r="W13" s="39" t="n">
-        <v>9.199999999999999</v>
+        <v>11.1</v>
       </c>
       <c r="X13" s="39" t="n">
-        <v>7.8</v>
+        <v>8.9</v>
       </c>
       <c r="Y13" s="39" t="inlineStr">
         <is>
-          <t>红利低波ETF</t>
+          <t>银行ETF</t>
         </is>
       </c>
     </row>
@@ -13076,79 +13074,79 @@
         <v>12</v>
       </c>
       <c r="B14" s="39" t="n">
-        <v>512800</v>
+        <v>510230</v>
       </c>
       <c r="C14" s="39" t="inlineStr">
         <is>
-          <t>银行ETF</t>
+          <t>金融ETF</t>
         </is>
       </c>
       <c r="D14" s="39" t="n">
-        <v>75</v>
+        <v>45.5</v>
       </c>
       <c r="E14" s="39" t="n">
-        <v>81.09999999999999</v>
+        <v>72.8</v>
       </c>
       <c r="F14" s="39" t="n">
-        <v>11.2</v>
+        <v>2.3</v>
       </c>
       <c r="G14" s="39" t="n">
-        <v>11.2</v>
+        <v>24.2</v>
       </c>
       <c r="H14" s="39" t="n">
-        <v>5.8</v>
+        <v>21.3</v>
       </c>
       <c r="I14" s="39" t="n">
-        <v>50.2</v>
+        <v>62.7</v>
       </c>
       <c r="J14" s="39" t="n">
-        <v>62.1</v>
+        <v>67.5</v>
       </c>
       <c r="K14" s="39" t="n">
-        <v>80.59999999999999</v>
+        <v>81.8</v>
       </c>
       <c r="L14" s="39" t="n">
-        <v>94.7</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="M14" s="39" t="n">
-        <v>97.3</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="N14" s="39" t="n">
-        <v>97.5</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="O14" s="39" t="n">
-        <v>99.09999999999999</v>
+        <v>99</v>
       </c>
       <c r="P14" s="39" t="n">
-        <v>36</v>
+        <v>51.8</v>
       </c>
       <c r="Q14" s="39" t="n">
-        <v>65</v>
+        <v>65.8</v>
       </c>
       <c r="R14" s="39" t="n">
-        <v>41.7</v>
+        <v>47.4</v>
       </c>
       <c r="S14" s="39" t="n">
-        <v>76.90000000000001</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="T14" s="39" t="n">
-        <v>56.7</v>
+        <v>59.7</v>
       </c>
       <c r="U14" s="39" t="n">
-        <v>81.7</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="V14" s="39" t="n">
-        <v>60.3</v>
+        <v>36.2</v>
       </c>
       <c r="W14" s="39" t="n">
-        <v>11.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="X14" s="39" t="n">
-        <v>10.1</v>
+        <v>24.4</v>
       </c>
       <c r="Y14" s="39" t="inlineStr">
         <is>
-          <t>银行ETF</t>
+          <t>金融ETF</t>
         </is>
       </c>
     </row>
@@ -13225,7 +13223,7 @@
         <v>22.7</v>
       </c>
       <c r="X15" s="39" t="n">
-        <v>22.7</v>
+        <v>30.3</v>
       </c>
       <c r="Y15" s="39" t="inlineStr">
         <is>
@@ -13238,79 +13236,79 @@
         <v>14</v>
       </c>
       <c r="B16" s="39" t="n">
-        <v>510230</v>
+        <v>512690</v>
       </c>
       <c r="C16" s="39" t="inlineStr">
         <is>
-          <t>金融ETF</t>
+          <t>酒ETF</t>
         </is>
       </c>
       <c r="D16" s="39" t="n">
-        <v>45.53</v>
+        <v>110.11</v>
       </c>
       <c r="E16" s="39" t="n">
-        <v>72.8</v>
+        <v>85.7</v>
       </c>
       <c r="F16" s="39" t="n">
-        <v>2.3</v>
+        <v>12.1</v>
       </c>
       <c r="G16" s="39" t="n">
-        <v>24.2</v>
+        <v>59</v>
       </c>
       <c r="H16" s="39" t="n">
-        <v>21.3</v>
+        <v>71.3</v>
       </c>
       <c r="I16" s="39" t="n">
-        <v>62.7</v>
+        <v>76.5</v>
       </c>
       <c r="J16" s="39" t="n">
-        <v>67.5</v>
+        <v>41.3</v>
       </c>
       <c r="K16" s="39" t="n">
-        <v>81.8</v>
+        <v>23</v>
       </c>
       <c r="L16" s="39" t="n">
-        <v>93.40000000000001</v>
+        <v>23</v>
       </c>
       <c r="M16" s="39" t="n">
-        <v>96.40000000000001</v>
+        <v>51.6</v>
       </c>
       <c r="N16" s="39" t="n">
-        <v>96.40000000000001</v>
+        <v>85</v>
       </c>
       <c r="O16" s="39" t="n">
-        <v>99</v>
+        <v>35.7</v>
       </c>
       <c r="P16" s="39" t="n">
-        <v>51.8</v>
+        <v>16.5</v>
       </c>
       <c r="Q16" s="39" t="n">
-        <v>65.8</v>
+        <v>14</v>
       </c>
       <c r="R16" s="39" t="n">
-        <v>47.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="S16" s="39" t="n">
-        <v>86.09999999999999</v>
+        <v>4.1</v>
       </c>
       <c r="T16" s="39" t="n">
-        <v>59.7</v>
+        <v>29.2</v>
       </c>
       <c r="U16" s="39" t="n">
-        <v>80.09999999999999</v>
+        <v>14.3</v>
       </c>
       <c r="V16" s="39" t="n">
-        <v>36.2</v>
+        <v>3.5</v>
       </c>
       <c r="W16" s="39" t="n">
-        <v>9.699999999999999</v>
+        <v>3.5</v>
       </c>
       <c r="X16" s="39" t="n">
-        <v>24.4</v>
+        <v>35.8</v>
       </c>
       <c r="Y16" s="39" t="inlineStr">
         <is>
-          <t>金融ETF</t>
+          <t>酒ETF</t>
         </is>
       </c>
     </row>
@@ -13319,79 +13317,79 @@
         <v>15</v>
       </c>
       <c r="B17" s="39" t="n">
-        <v>159928</v>
+        <v>517090</v>
       </c>
       <c r="C17" s="39" t="inlineStr">
         <is>
-          <t>消费ETF</t>
+          <t>央企共赢ETF</t>
         </is>
       </c>
       <c r="D17" s="39" t="n">
-        <v>151.36</v>
+        <v>4.31</v>
       </c>
       <c r="E17" s="39" t="n">
-        <v>80.8</v>
+        <v>76.2</v>
       </c>
       <c r="F17" s="39" t="n">
-        <v>18.8</v>
+        <v>4</v>
       </c>
       <c r="G17" s="39" t="n">
-        <v>70.7</v>
+        <v>59.4</v>
       </c>
       <c r="H17" s="39" t="n">
-        <v>80.59999999999999</v>
+        <v>50</v>
       </c>
       <c r="I17" s="39" t="n">
-        <v>81.59999999999999</v>
+        <v>55.6</v>
       </c>
       <c r="J17" s="39" t="n">
-        <v>41.6</v>
+        <v>45.4</v>
       </c>
       <c r="K17" s="39" t="n">
-        <v>29</v>
+        <v>64.8</v>
       </c>
       <c r="L17" s="39" t="n">
-        <v>38.4</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="M17" s="39" t="n">
-        <v>65.59999999999999</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="N17" s="39" t="n">
-        <v>84.2</v>
+        <v>91.2</v>
       </c>
       <c r="O17" s="39" t="n">
+        <v>94</v>
+      </c>
+      <c r="P17" s="39" t="n">
         <v>32.1</v>
       </c>
-      <c r="P17" s="39" t="n">
-        <v>15.8</v>
-      </c>
       <c r="Q17" s="39" t="n">
-        <v>40.1</v>
+        <v>68.7</v>
       </c>
       <c r="R17" s="39" t="n">
-        <v>14.7</v>
+        <v>41</v>
       </c>
       <c r="S17" s="39" t="n">
-        <v>12.1</v>
+        <v>41</v>
       </c>
       <c r="T17" s="39" t="n">
-        <v>7.1</v>
+        <v>17.9</v>
       </c>
       <c r="U17" s="39" t="n">
-        <v>3.2</v>
+        <v>76.8</v>
       </c>
       <c r="V17" s="39" t="n">
-        <v>1.8</v>
+        <v>26.4</v>
       </c>
       <c r="W17" s="39" t="n">
-        <v>46.9</v>
+        <v>17</v>
       </c>
       <c r="X17" s="39" t="n">
-        <v>32.1</v>
+        <v>47</v>
       </c>
       <c r="Y17" s="39" t="inlineStr">
         <is>
-          <t>消费ETF</t>
+          <t>央企共赢ETF</t>
         </is>
       </c>
     </row>
@@ -13400,79 +13398,79 @@
         <v>16</v>
       </c>
       <c r="B18" s="39" t="n">
-        <v>159865</v>
+        <v>515220</v>
       </c>
       <c r="C18" s="39" t="inlineStr">
         <is>
-          <t>养殖ETF</t>
+          <t>煤炭ETF</t>
         </is>
       </c>
       <c r="D18" s="39" t="n">
-        <v>31.9</v>
+        <v>34.91</v>
       </c>
       <c r="E18" s="39" t="n">
-        <v>89.90000000000001</v>
+        <v>49.2</v>
       </c>
       <c r="F18" s="39" t="n">
-        <v>29.7</v>
+        <v>2.5</v>
       </c>
       <c r="G18" s="39" t="n">
-        <v>87.40000000000001</v>
+        <v>42.7</v>
       </c>
       <c r="H18" s="39" t="n">
-        <v>81.8</v>
+        <v>44.1</v>
       </c>
       <c r="I18" s="39" t="n">
-        <v>84.8</v>
+        <v>56.4</v>
       </c>
       <c r="J18" s="39" t="n">
-        <v>28.9</v>
+        <v>39.1</v>
       </c>
       <c r="K18" s="39" t="n">
-        <v>41.7</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="L18" s="39" t="n">
-        <v>37.2</v>
+        <v>77.8</v>
       </c>
       <c r="M18" s="39" t="n">
-        <v>18</v>
+        <v>77.8</v>
       </c>
       <c r="N18" s="39" t="n">
-        <v>18</v>
+        <v>63.6</v>
       </c>
       <c r="O18" s="39" t="n">
-        <v>5.2</v>
+        <v>22.5</v>
       </c>
       <c r="P18" s="39" t="n">
-        <v>35.7</v>
+        <v>38.4</v>
       </c>
       <c r="Q18" s="39" t="n">
-        <v>80.3</v>
+        <v>21.1</v>
       </c>
       <c r="R18" s="39" t="n">
-        <v>23.8</v>
+        <v>14.5</v>
       </c>
       <c r="S18" s="39" t="n">
-        <v>52</v>
+        <v>61.9</v>
       </c>
       <c r="T18" s="39" t="n">
-        <v>36</v>
+        <v>29.4</v>
       </c>
       <c r="U18" s="39" t="n">
-        <v>17.8</v>
+        <v>4</v>
       </c>
       <c r="V18" s="39" t="n">
-        <v>48.8</v>
+        <v>1.9</v>
       </c>
       <c r="W18" s="39" t="n">
-        <v>32.5</v>
+        <v>1.1</v>
       </c>
       <c r="X18" s="39" t="n">
-        <v>32.5</v>
+        <v>49.6</v>
       </c>
       <c r="Y18" s="39" t="inlineStr">
         <is>
-          <t>养殖ETF</t>
+          <t>煤炭ETF</t>
         </is>
       </c>
     </row>
@@ -13480,80 +13478,82 @@
       <c r="A19" s="39" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="39" t="n">
-        <v>517090</v>
+      <c r="B19" s="39" t="inlineStr">
+        <is>
+          <t>512040</t>
+        </is>
       </c>
       <c r="C19" s="39" t="inlineStr">
         <is>
-          <t>央企共赢ETF</t>
+          <t>价值100ETF</t>
         </is>
       </c>
       <c r="D19" s="39" t="n">
-        <v>4.3</v>
+        <v>19.21</v>
       </c>
       <c r="E19" s="39" t="n">
-        <v>76.2</v>
+        <v>18.5</v>
       </c>
       <c r="F19" s="39" t="n">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="G19" s="39" t="n">
-        <v>59.4</v>
+        <v>24.3</v>
       </c>
       <c r="H19" s="39" t="n">
-        <v>50</v>
+        <v>31.6</v>
       </c>
       <c r="I19" s="39" t="n">
-        <v>55.6</v>
+        <v>67.3</v>
       </c>
       <c r="J19" s="39" t="n">
-        <v>45.4</v>
+        <v>59.9</v>
       </c>
       <c r="K19" s="39" t="n">
-        <v>64.8</v>
+        <v>75.8</v>
       </c>
       <c r="L19" s="39" t="n">
-        <v>76.09999999999999</v>
+        <v>84.2</v>
       </c>
       <c r="M19" s="39" t="n">
-        <v>90.40000000000001</v>
+        <v>49.8</v>
       </c>
       <c r="N19" s="39" t="n">
-        <v>91.2</v>
+        <v>58.3</v>
       </c>
       <c r="O19" s="39" t="n">
-        <v>94</v>
+        <v>58.3</v>
       </c>
       <c r="P19" s="39" t="n">
-        <v>32.1</v>
+        <v>90.5</v>
       </c>
       <c r="Q19" s="39" t="n">
-        <v>68.7</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="R19" s="39" t="n">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="S19" s="39" t="n">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="T19" s="39" t="n">
-        <v>17.9</v>
+        <v>98</v>
       </c>
       <c r="U19" s="39" t="n">
-        <v>76.8</v>
+        <v>13.4</v>
       </c>
       <c r="V19" s="39" t="n">
-        <v>26.4</v>
+        <v>10.4</v>
       </c>
       <c r="W19" s="39" t="n">
-        <v>17</v>
+        <v>3.2</v>
       </c>
       <c r="X19" s="39" t="n">
-        <v>35.3</v>
+        <v>54</v>
       </c>
       <c r="Y19" s="39" t="inlineStr">
         <is>
-          <t>央企共赢ETF</t>
+          <t>价值100ETF</t>
         </is>
       </c>
     </row>
@@ -13562,79 +13562,79 @@
         <v>18</v>
       </c>
       <c r="B20" s="39" t="n">
-        <v>512690</v>
+        <v>159766</v>
       </c>
       <c r="C20" s="39" t="inlineStr">
         <is>
-          <t>酒ETF</t>
+          <t>旅游ETF</t>
         </is>
       </c>
       <c r="D20" s="39" t="n">
-        <v>110.11</v>
+        <v>31.41</v>
       </c>
       <c r="E20" s="39" t="n">
-        <v>85.7</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="F20" s="39" t="n">
-        <v>12.1</v>
+        <v>11.2</v>
       </c>
       <c r="G20" s="39" t="n">
-        <v>59</v>
+        <v>52.8</v>
       </c>
       <c r="H20" s="39" t="n">
-        <v>71.3</v>
+        <v>80.8</v>
       </c>
       <c r="I20" s="39" t="n">
-        <v>76.5</v>
+        <v>85.3</v>
       </c>
       <c r="J20" s="39" t="n">
-        <v>41.3</v>
+        <v>64.3</v>
       </c>
       <c r="K20" s="39" t="n">
-        <v>23</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="L20" s="39" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M20" s="39" t="n">
-        <v>51.6</v>
+        <v>73.7</v>
       </c>
       <c r="N20" s="39" t="n">
-        <v>85</v>
+        <v>84.3</v>
       </c>
       <c r="O20" s="39" t="n">
-        <v>35.7</v>
+        <v>29</v>
       </c>
       <c r="P20" s="39" t="n">
-        <v>16.5</v>
+        <v>22.7</v>
       </c>
       <c r="Q20" s="39" t="n">
-        <v>14</v>
+        <v>15.8</v>
       </c>
       <c r="R20" s="39" t="n">
-        <v>8.699999999999999</v>
+        <v>6.3</v>
       </c>
       <c r="S20" s="39" t="n">
-        <v>4.1</v>
+        <v>5.1</v>
       </c>
       <c r="T20" s="39" t="n">
-        <v>29.2</v>
+        <v>40</v>
       </c>
       <c r="U20" s="39" t="n">
-        <v>14.3</v>
+        <v>11.6</v>
       </c>
       <c r="V20" s="39" t="n">
-        <v>3.5</v>
+        <v>6.8</v>
       </c>
       <c r="W20" s="39" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="X20" s="39" t="n">
-        <v>35.8</v>
+        <v>54.7</v>
       </c>
       <c r="Y20" s="39" t="inlineStr">
         <is>
-          <t>酒ETF</t>
+          <t>旅游ETF</t>
         </is>
       </c>
     </row>
@@ -13642,80 +13642,82 @@
       <c r="A21" s="39" t="n">
         <v>19</v>
       </c>
-      <c r="B21" s="39" t="n">
-        <v>159766</v>
+      <c r="B21" s="39" t="inlineStr">
+        <is>
+          <t>159736</t>
+        </is>
       </c>
       <c r="C21" s="39" t="inlineStr">
         <is>
-          <t>旅游ETF</t>
+          <t>饮食ETF</t>
         </is>
       </c>
       <c r="D21" s="39" t="n">
-        <v>31.32</v>
+        <v>48.62</v>
       </c>
       <c r="E21" s="39" t="n">
-        <v>82.09999999999999</v>
+        <v>83.8</v>
       </c>
       <c r="F21" s="39" t="n">
-        <v>11.2</v>
+        <v>11.8</v>
       </c>
       <c r="G21" s="39" t="n">
-        <v>52.8</v>
+        <v>59.9</v>
       </c>
       <c r="H21" s="39" t="n">
-        <v>80.8</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="I21" s="39" t="n">
-        <v>85.3</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="J21" s="39" t="n">
-        <v>64.3</v>
+        <v>50.1</v>
       </c>
       <c r="K21" s="39" t="n">
-        <v>73.59999999999999</v>
+        <v>46</v>
       </c>
       <c r="L21" s="39" t="n">
-        <v>36</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="M21" s="39" t="n">
-        <v>73.7</v>
+        <v>78.2</v>
       </c>
       <c r="N21" s="39" t="n">
-        <v>84.3</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="O21" s="39" t="n">
-        <v>29</v>
+        <v>34.9</v>
       </c>
       <c r="P21" s="39" t="n">
-        <v>22.7</v>
+        <v>18.6</v>
       </c>
       <c r="Q21" s="39" t="n">
-        <v>15.8</v>
+        <v>18.6</v>
       </c>
       <c r="R21" s="39" t="n">
-        <v>6.3</v>
+        <v>7.4</v>
       </c>
       <c r="S21" s="39" t="n">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="T21" s="39" t="n">
-        <v>40</v>
+        <v>3.4</v>
       </c>
       <c r="U21" s="39" t="n">
-        <v>11.6</v>
+        <v>0.9</v>
       </c>
       <c r="V21" s="39" t="n">
-        <v>6.8</v>
+        <v>0.5</v>
       </c>
       <c r="W21" s="39" t="n">
-        <v>4.5</v>
+        <v>0.5</v>
       </c>
       <c r="X21" s="39" t="n">
-        <v>42.7</v>
+        <v>55.7</v>
       </c>
       <c r="Y21" s="39" t="inlineStr">
         <is>
-          <t>旅游ETF</t>
+          <t>饮食ETF</t>
         </is>
       </c>
     </row>
@@ -13724,79 +13726,79 @@
         <v>20</v>
       </c>
       <c r="B22" s="39" t="n">
-        <v>515220</v>
+        <v>159745</v>
       </c>
       <c r="C22" s="39" t="inlineStr">
         <is>
-          <t>煤炭ETF</t>
+          <t>建材ETF</t>
         </is>
       </c>
       <c r="D22" s="39" t="n">
-        <v>34.91</v>
+        <v>5.89</v>
       </c>
       <c r="E22" s="39" t="n">
-        <v>49.2</v>
+        <v>76.8</v>
       </c>
       <c r="F22" s="39" t="n">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="G22" s="39" t="n">
-        <v>42.7</v>
+        <v>50.3</v>
       </c>
       <c r="H22" s="39" t="n">
-        <v>44.1</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="I22" s="39" t="n">
-        <v>56.4</v>
+        <v>74.8</v>
       </c>
       <c r="J22" s="39" t="n">
-        <v>39.1</v>
+        <v>59.5</v>
       </c>
       <c r="K22" s="39" t="n">
-        <v>82.40000000000001</v>
+        <v>46.7</v>
       </c>
       <c r="L22" s="39" t="n">
-        <v>77.8</v>
+        <v>25.2</v>
       </c>
       <c r="M22" s="39" t="n">
-        <v>77.8</v>
+        <v>14.9</v>
       </c>
       <c r="N22" s="39" t="n">
-        <v>63.6</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="O22" s="39" t="n">
-        <v>22.5</v>
+        <v>78.7</v>
       </c>
       <c r="P22" s="39" t="n">
-        <v>38.4</v>
+        <v>33.3</v>
       </c>
       <c r="Q22" s="39" t="n">
-        <v>21.1</v>
+        <v>72</v>
       </c>
       <c r="R22" s="39" t="n">
-        <v>14.5</v>
+        <v>40.6</v>
       </c>
       <c r="S22" s="39" t="n">
-        <v>61.9</v>
+        <v>21.7</v>
       </c>
       <c r="T22" s="39" t="n">
-        <v>29.4</v>
+        <v>17.6</v>
       </c>
       <c r="U22" s="39" t="n">
         <v>4</v>
       </c>
       <c r="V22" s="39" t="n">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="W22" s="39" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="X22" s="39" t="n">
-        <v>45.1</v>
+        <v>59.8</v>
       </c>
       <c r="Y22" s="39" t="inlineStr">
         <is>
-          <t>煤炭ETF</t>
+          <t>建材ETF</t>
         </is>
       </c>
     </row>
@@ -13805,79 +13807,79 @@
         <v>21</v>
       </c>
       <c r="B23" s="39" t="n">
-        <v>159825</v>
+        <v>512200</v>
       </c>
       <c r="C23" s="39" t="inlineStr">
         <is>
-          <t>农业ETF</t>
+          <t>房地产ETF</t>
         </is>
       </c>
       <c r="D23" s="39" t="n">
-        <v>21.44</v>
+        <v>65.11</v>
       </c>
       <c r="E23" s="39" t="n">
-        <v>86</v>
+        <v>76.2</v>
       </c>
       <c r="F23" s="39" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="G23" s="39" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="H23" s="39" t="n">
+        <v>71.8</v>
+      </c>
+      <c r="I23" s="39" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="J23" s="39" t="n">
+        <v>64.2</v>
+      </c>
+      <c r="K23" s="39" t="n">
+        <v>64.2</v>
+      </c>
+      <c r="L23" s="39" t="n">
+        <v>30</v>
+      </c>
+      <c r="M23" s="39" t="n">
+        <v>54.3</v>
+      </c>
+      <c r="N23" s="39" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="O23" s="39" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="P23" s="39" t="n">
+        <v>82.5</v>
+      </c>
+      <c r="Q23" s="39" t="n">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="R23" s="39" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="S23" s="39" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="T23" s="39" t="n">
         <v>21.5</v>
       </c>
-      <c r="G23" s="39" t="n">
-        <v>86.40000000000001</v>
-      </c>
-      <c r="H23" s="39" t="n">
-        <v>77</v>
-      </c>
-      <c r="I23" s="39" t="n">
-        <v>81.90000000000001</v>
-      </c>
-      <c r="J23" s="39" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="K23" s="39" t="n">
-        <v>45.4</v>
-      </c>
-      <c r="L23" s="39" t="n">
-        <v>28</v>
-      </c>
-      <c r="M23" s="39" t="n">
-        <v>22.3</v>
-      </c>
-      <c r="N23" s="39" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="O23" s="39" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="P23" s="39" t="n">
-        <v>41</v>
-      </c>
-      <c r="Q23" s="39" t="n">
-        <v>78.59999999999999</v>
-      </c>
-      <c r="R23" s="39" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="S23" s="39" t="n">
-        <v>52.4</v>
-      </c>
-      <c r="T23" s="39" t="n">
-        <v>39.1</v>
-      </c>
       <c r="U23" s="39" t="n">
-        <v>15.5</v>
+        <v>4.6</v>
       </c>
       <c r="V23" s="39" t="n">
-        <v>39.7</v>
+        <v>7.6</v>
       </c>
       <c r="W23" s="39" t="n">
-        <v>25.3</v>
+        <v>35.6</v>
       </c>
       <c r="X23" s="39" t="n">
-        <v>45.2</v>
+        <v>65.5</v>
       </c>
       <c r="Y23" s="39" t="inlineStr">
         <is>
-          <t>农业ETF</t>
+          <t>房地产ETF</t>
         </is>
       </c>
     </row>
@@ -13885,82 +13887,80 @@
       <c r="A24" s="39" t="n">
         <v>22</v>
       </c>
-      <c r="B24" s="39" t="inlineStr">
-        <is>
-          <t>512040</t>
-        </is>
+      <c r="B24" s="39" t="n">
+        <v>159647</v>
       </c>
       <c r="C24" s="39" t="inlineStr">
         <is>
-          <t>价值100ETF</t>
+          <t>中药ETF</t>
         </is>
       </c>
       <c r="D24" s="39" t="n">
-        <v>19.17</v>
+        <v>7.35</v>
       </c>
       <c r="E24" s="39" t="n">
-        <v>18.5</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="F24" s="39" t="n">
-        <v>1.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="G24" s="39" t="n">
-        <v>24.3</v>
+        <v>40.7</v>
       </c>
       <c r="H24" s="39" t="n">
-        <v>31.6</v>
+        <v>60</v>
       </c>
       <c r="I24" s="39" t="n">
-        <v>67.3</v>
+        <v>71.8</v>
       </c>
       <c r="J24" s="39" t="n">
-        <v>59.9</v>
+        <v>56.9</v>
       </c>
       <c r="K24" s="39" t="n">
-        <v>75.8</v>
+        <v>60.9</v>
       </c>
       <c r="L24" s="39" t="n">
-        <v>84.2</v>
+        <v>87.3</v>
       </c>
       <c r="M24" s="39" t="n">
-        <v>49.8</v>
+        <v>50.3</v>
       </c>
       <c r="N24" s="39" t="n">
-        <v>58.3</v>
+        <v>44.1</v>
       </c>
       <c r="O24" s="39" t="n">
-        <v>58.3</v>
+        <v>29.5</v>
       </c>
       <c r="P24" s="39" t="n">
-        <v>90.5</v>
+        <v>47</v>
       </c>
       <c r="Q24" s="39" t="n">
-        <v>94.09999999999999</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="R24" s="39" t="n">
-        <v>98</v>
+        <v>30.4</v>
       </c>
       <c r="S24" s="39" t="n">
-        <v>98</v>
+        <v>51.8</v>
       </c>
       <c r="T24" s="39" t="n">
-        <v>98</v>
+        <v>26.9</v>
       </c>
       <c r="U24" s="39" t="n">
-        <v>13.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="V24" s="39" t="n">
-        <v>10.4</v>
+        <v>7.9</v>
       </c>
       <c r="W24" s="39" t="n">
-        <v>3.2</v>
+        <v>41.2</v>
       </c>
       <c r="X24" s="39" t="n">
-        <v>47.1</v>
+        <v>65.8</v>
       </c>
       <c r="Y24" s="39" t="inlineStr">
         <is>
-          <t>价值100ETF</t>
+          <t>中药ETF</t>
         </is>
       </c>
     </row>
@@ -13969,79 +13969,79 @@
         <v>23</v>
       </c>
       <c r="B25" s="39" t="n">
-        <v>159745</v>
+        <v>561320</v>
       </c>
       <c r="C25" s="39" t="inlineStr">
         <is>
-          <t>建材ETF</t>
+          <t>交运ETF</t>
         </is>
       </c>
       <c r="D25" s="39" t="n">
-        <v>5.87</v>
+        <v>0.65</v>
       </c>
       <c r="E25" s="39" t="n">
-        <v>76.8</v>
+        <v>42.5</v>
       </c>
       <c r="F25" s="39" t="n">
-        <v>7</v>
+        <v>1.7</v>
       </c>
       <c r="G25" s="39" t="n">
-        <v>50.3</v>
+        <v>53</v>
       </c>
       <c r="H25" s="39" t="n">
-        <v>69.59999999999999</v>
+        <v>64.2</v>
       </c>
       <c r="I25" s="39" t="n">
-        <v>74.8</v>
+        <v>77</v>
       </c>
       <c r="J25" s="39" t="n">
-        <v>59.5</v>
+        <v>57.9</v>
       </c>
       <c r="K25" s="39" t="n">
-        <v>46.7</v>
+        <v>57.9</v>
       </c>
       <c r="L25" s="39" t="n">
-        <v>25.2</v>
+        <v>49.6</v>
       </c>
       <c r="M25" s="39" t="n">
-        <v>14.9</v>
+        <v>89.3</v>
       </c>
       <c r="N25" s="39" t="n">
-        <v>75.40000000000001</v>
+        <v>89.3</v>
       </c>
       <c r="O25" s="39" t="n">
-        <v>78.7</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="P25" s="39" t="n">
-        <v>33.3</v>
+        <v>21.5</v>
       </c>
       <c r="Q25" s="39" t="n">
-        <v>72</v>
+        <v>46.5</v>
       </c>
       <c r="R25" s="39" t="n">
-        <v>40.6</v>
+        <v>23.8</v>
       </c>
       <c r="S25" s="39" t="n">
-        <v>21.7</v>
+        <v>61.4</v>
       </c>
       <c r="T25" s="39" t="n">
-        <v>17.6</v>
+        <v>61.4</v>
       </c>
       <c r="U25" s="39" t="n">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="V25" s="39" t="n">
-        <v>3</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="W25" s="39" t="n">
-        <v>1.7</v>
+        <v>17.7</v>
       </c>
       <c r="X25" s="39" t="n">
-        <v>47.4</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="Y25" s="39" t="inlineStr">
         <is>
-          <t>建材ETF</t>
+          <t>交运ETF</t>
         </is>
       </c>
     </row>
@@ -14050,79 +14050,79 @@
         <v>24</v>
       </c>
       <c r="B26" s="39" t="n">
-        <v>512200</v>
+        <v>159865</v>
       </c>
       <c r="C26" s="39" t="inlineStr">
         <is>
-          <t>房地产ETF</t>
+          <t>养殖ETF</t>
         </is>
       </c>
       <c r="D26" s="39" t="n">
-        <v>64.92</v>
+        <v>32.06</v>
       </c>
       <c r="E26" s="39" t="n">
-        <v>76.2</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="F26" s="39" t="n">
-        <v>5.7</v>
+        <v>29.7</v>
       </c>
       <c r="G26" s="39" t="n">
-        <v>34.5</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="H26" s="39" t="n">
-        <v>71.8</v>
+        <v>81.8</v>
       </c>
       <c r="I26" s="39" t="n">
-        <v>81.8</v>
+        <v>84.8</v>
       </c>
       <c r="J26" s="39" t="n">
-        <v>64.2</v>
+        <v>28.9</v>
       </c>
       <c r="K26" s="39" t="n">
-        <v>64.2</v>
+        <v>41.7</v>
       </c>
       <c r="L26" s="39" t="n">
-        <v>30</v>
+        <v>37.2</v>
       </c>
       <c r="M26" s="39" t="n">
-        <v>54.3</v>
+        <v>18</v>
       </c>
       <c r="N26" s="39" t="n">
-        <v>87.59999999999999</v>
+        <v>18</v>
       </c>
       <c r="O26" s="39" t="n">
-        <v>93.90000000000001</v>
+        <v>5.2</v>
       </c>
       <c r="P26" s="39" t="n">
-        <v>82.5</v>
+        <v>35.7</v>
       </c>
       <c r="Q26" s="39" t="n">
-        <v>89.40000000000001</v>
+        <v>80.3</v>
       </c>
       <c r="R26" s="39" t="n">
-        <v>27.4</v>
+        <v>23.8</v>
       </c>
       <c r="S26" s="39" t="n">
-        <v>48.9</v>
+        <v>52</v>
       </c>
       <c r="T26" s="39" t="n">
-        <v>21.5</v>
+        <v>36</v>
       </c>
       <c r="U26" s="39" t="n">
-        <v>4.6</v>
+        <v>17.8</v>
       </c>
       <c r="V26" s="39" t="n">
-        <v>7.6</v>
+        <v>48.8</v>
       </c>
       <c r="W26" s="39" t="n">
-        <v>35.6</v>
+        <v>32.5</v>
       </c>
       <c r="X26" s="39" t="n">
-        <v>59.9</v>
+        <v>66.3</v>
       </c>
       <c r="Y26" s="39" t="inlineStr">
         <is>
-          <t>房地产ETF</t>
+          <t>养殖ETF</t>
         </is>
       </c>
     </row>
@@ -14131,79 +14131,79 @@
         <v>25</v>
       </c>
       <c r="B27" s="39" t="n">
-        <v>159647</v>
+        <v>510050</v>
       </c>
       <c r="C27" s="39" t="inlineStr">
         <is>
-          <t>中药ETF</t>
+          <t>上证50ETF</t>
         </is>
       </c>
       <c r="D27" s="39" t="n">
-        <v>7.34</v>
+        <v>1630.94</v>
       </c>
       <c r="E27" s="39" t="n">
-        <v>78.40000000000001</v>
+        <v>42</v>
       </c>
       <c r="F27" s="39" t="n">
-        <v>9.699999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="G27" s="39" t="n">
-        <v>40.7</v>
+        <v>43.3</v>
       </c>
       <c r="H27" s="39" t="n">
-        <v>60</v>
+        <v>56.3</v>
       </c>
       <c r="I27" s="39" t="n">
         <v>71.8</v>
       </c>
       <c r="J27" s="39" t="n">
-        <v>56.9</v>
+        <v>75.5</v>
       </c>
       <c r="K27" s="39" t="n">
-        <v>60.9</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="L27" s="39" t="n">
-        <v>87.3</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="M27" s="39" t="n">
-        <v>50.3</v>
+        <v>96.5</v>
       </c>
       <c r="N27" s="39" t="n">
-        <v>44.1</v>
+        <v>97</v>
       </c>
       <c r="O27" s="39" t="n">
-        <v>29.5</v>
+        <v>97.5</v>
       </c>
       <c r="P27" s="39" t="n">
-        <v>47</v>
+        <v>38.9</v>
       </c>
       <c r="Q27" s="39" t="n">
-        <v>91.09999999999999</v>
+        <v>63.4</v>
       </c>
       <c r="R27" s="39" t="n">
-        <v>30.4</v>
+        <v>27.8</v>
       </c>
       <c r="S27" s="39" t="n">
-        <v>51.8</v>
+        <v>63.6</v>
       </c>
       <c r="T27" s="39" t="n">
-        <v>26.9</v>
+        <v>37.2</v>
       </c>
       <c r="U27" s="39" t="n">
-        <v>9.800000000000001</v>
+        <v>46.2</v>
       </c>
       <c r="V27" s="39" t="n">
-        <v>7.9</v>
+        <v>19.1</v>
       </c>
       <c r="W27" s="39" t="n">
-        <v>41.2</v>
+        <v>4.7</v>
       </c>
       <c r="X27" s="39" t="n">
-        <v>60.3</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="Y27" s="39" t="inlineStr">
         <is>
-          <t>中药ETF</t>
+          <t>上证50ETF</t>
         </is>
       </c>
     </row>
@@ -14220,7 +14220,7 @@
         </is>
       </c>
       <c r="D28" s="39" t="n">
-        <v>24.61</v>
+        <v>24.63</v>
       </c>
       <c r="E28" s="39" t="n">
         <v>72.8</v>
@@ -14280,7 +14280,7 @@
         <v>8.9</v>
       </c>
       <c r="X28" s="39" t="n">
-        <v>61.8</v>
+        <v>67.2</v>
       </c>
       <c r="Y28" s="39" t="inlineStr">
         <is>
@@ -14293,79 +14293,79 @@
         <v>27</v>
       </c>
       <c r="B29" s="39" t="n">
-        <v>510050</v>
+        <v>513120</v>
       </c>
       <c r="C29" s="39" t="inlineStr">
         <is>
-          <t>上证50ETF</t>
+          <t>港股创新药ETF</t>
         </is>
       </c>
       <c r="D29" s="39" t="n">
-        <v>1629.73</v>
+        <v>108.54</v>
       </c>
       <c r="E29" s="39" t="n">
-        <v>42</v>
+        <v>39.9</v>
       </c>
       <c r="F29" s="39" t="n">
-        <v>1.5</v>
+        <v>7.2</v>
       </c>
       <c r="G29" s="39" t="n">
-        <v>43.3</v>
+        <v>3.3</v>
       </c>
       <c r="H29" s="39" t="n">
-        <v>56.3</v>
+        <v>9</v>
       </c>
       <c r="I29" s="39" t="n">
-        <v>71.8</v>
+        <v>55.4</v>
       </c>
       <c r="J29" s="39" t="n">
-        <v>75.5</v>
+        <v>78.3</v>
       </c>
       <c r="K29" s="39" t="n">
-        <v>82.59999999999999</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="L29" s="39" t="n">
-        <v>87.90000000000001</v>
+        <v>65</v>
       </c>
       <c r="M29" s="39" t="n">
-        <v>96.5</v>
+        <v>33.9</v>
       </c>
       <c r="N29" s="39" t="n">
-        <v>97</v>
+        <v>33.9</v>
       </c>
       <c r="O29" s="39" t="n">
-        <v>97.5</v>
+        <v>28.9</v>
       </c>
       <c r="P29" s="39" t="n">
-        <v>38.9</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="Q29" s="39" t="n">
-        <v>63.4</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="R29" s="39" t="n">
-        <v>27.8</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="S29" s="39" t="n">
-        <v>63.6</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="T29" s="39" t="n">
-        <v>37.2</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="U29" s="39" t="n">
-        <v>46.2</v>
+        <v>32.6</v>
       </c>
       <c r="V29" s="39" t="n">
-        <v>19.1</v>
+        <v>54.8</v>
       </c>
       <c r="W29" s="39" t="n">
-        <v>4.7</v>
+        <v>58.7</v>
       </c>
       <c r="X29" s="39" t="n">
-        <v>63.7</v>
+        <v>69.3</v>
       </c>
       <c r="Y29" s="39" t="inlineStr">
         <is>
-          <t>上证50ETF</t>
+          <t>港股创新药ETF</t>
         </is>
       </c>
     </row>
@@ -14373,80 +14373,82 @@
       <c r="A30" s="39" t="n">
         <v>28</v>
       </c>
-      <c r="B30" s="39" t="n">
-        <v>512950</v>
+      <c r="B30" s="39" t="inlineStr">
+        <is>
+          <t>560050</t>
+        </is>
       </c>
       <c r="C30" s="39" t="inlineStr">
         <is>
-          <t>央企改革ETF</t>
+          <t>MSCI中国A50ETF</t>
         </is>
       </c>
       <c r="D30" s="39" t="n">
-        <v>54.82</v>
+        <v>47.25</v>
       </c>
       <c r="E30" s="39" t="n">
-        <v>51.5</v>
+        <v>2.2</v>
       </c>
       <c r="F30" s="39" t="n">
-        <v>3.1</v>
+        <v>0.1</v>
       </c>
       <c r="G30" s="39" t="n">
-        <v>49.5</v>
+        <v>30.2</v>
       </c>
       <c r="H30" s="39" t="n">
-        <v>69</v>
+        <v>40.4</v>
       </c>
       <c r="I30" s="39" t="n">
-        <v>69.90000000000001</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="J30" s="39" t="n">
-        <v>59.9</v>
+        <v>80.5</v>
       </c>
       <c r="K30" s="39" t="n">
-        <v>72.8</v>
+        <v>86.8</v>
       </c>
       <c r="L30" s="39" t="n">
-        <v>48</v>
+        <v>88.3</v>
       </c>
       <c r="M30" s="39" t="n">
-        <v>76.3</v>
+        <v>90.5</v>
       </c>
       <c r="N30" s="39" t="n">
-        <v>58.2</v>
+        <v>95.5</v>
       </c>
       <c r="O30" s="39" t="n">
-        <v>71.59999999999999</v>
+        <v>56</v>
       </c>
       <c r="P30" s="39" t="n">
-        <v>43.6</v>
+        <v>85.7</v>
       </c>
       <c r="Q30" s="39" t="n">
-        <v>24.5</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="R30" s="39" t="n">
-        <v>6.7</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="S30" s="39" t="n">
+        <v>95.8</v>
+      </c>
+      <c r="T30" s="39" t="n">
+        <v>58.8</v>
+      </c>
+      <c r="U30" s="39" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="V30" s="39" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="W30" s="39" t="n">
         <v>3.4</v>
       </c>
-      <c r="T30" s="39" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U30" s="39" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="V30" s="39" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="W30" s="39" t="n">
-        <v>0.2</v>
-      </c>
       <c r="X30" s="39" t="n">
-        <v>64.7</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="Y30" s="39" t="inlineStr">
         <is>
-          <t>央企改革ETF</t>
+          <t>MSCI中国A50ETF</t>
         </is>
       </c>
     </row>
@@ -14454,80 +14456,82 @@
       <c r="A31" s="39" t="n">
         <v>29</v>
       </c>
-      <c r="B31" s="39" t="n">
-        <v>515210</v>
+      <c r="B31" s="39" t="inlineStr">
+        <is>
+          <t>164824</t>
+        </is>
       </c>
       <c r="C31" s="39" t="inlineStr">
         <is>
-          <t>钢铁ETF</t>
+          <t>印度基金LOF</t>
         </is>
       </c>
       <c r="D31" s="39" t="n">
-        <v>19.1</v>
+        <v>22.99</v>
       </c>
       <c r="E31" s="39" t="n">
-        <v>58.6</v>
+        <v>26.6</v>
       </c>
       <c r="F31" s="39" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="G31" s="39" t="n">
-        <v>15.3</v>
+        <v>57</v>
       </c>
       <c r="H31" s="39" t="n">
-        <v>35.5</v>
+        <v>49.4</v>
       </c>
       <c r="I31" s="39" t="n">
-        <v>65.59999999999999</v>
+        <v>80</v>
       </c>
       <c r="J31" s="39" t="n">
-        <v>65.59999999999999</v>
+        <v>65</v>
       </c>
       <c r="K31" s="39" t="n">
-        <v>85.40000000000001</v>
+        <v>76.7</v>
       </c>
       <c r="L31" s="39" t="n">
-        <v>44.1</v>
+        <v>82.5</v>
       </c>
       <c r="M31" s="39" t="n">
-        <v>27.7</v>
+        <v>48.9</v>
       </c>
       <c r="N31" s="39" t="n">
-        <v>43.5</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="O31" s="39" t="n">
-        <v>67.3</v>
+        <v>90.5</v>
       </c>
       <c r="P31" s="39" t="n">
-        <v>89.8</v>
+        <v>96.2</v>
       </c>
       <c r="Q31" s="39" t="n">
-        <v>74.09999999999999</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="R31" s="39" t="n">
-        <v>89.2</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="S31" s="39" t="n">
-        <v>51.6</v>
+        <v>41.3</v>
       </c>
       <c r="T31" s="39" t="n">
-        <v>84.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="U31" s="39" t="n">
-        <v>93</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="V31" s="39" t="n">
-        <v>93</v>
+        <v>60.9</v>
       </c>
       <c r="W31" s="39" t="n">
-        <v>22.5</v>
+        <v>52.3</v>
       </c>
       <c r="X31" s="39" t="n">
-        <v>65.3</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="Y31" s="39" t="inlineStr">
         <is>
-          <t>钢铁ETF</t>
+          <t>印度基金LOF</t>
         </is>
       </c>
     </row>
@@ -14535,82 +14539,80 @@
       <c r="A32" s="39" t="n">
         <v>30</v>
       </c>
-      <c r="B32" s="39" t="inlineStr">
-        <is>
-          <t>164824</t>
-        </is>
+      <c r="B32" s="39" t="n">
+        <v>159825</v>
       </c>
       <c r="C32" s="39" t="inlineStr">
         <is>
-          <t>印度基金LOF</t>
+          <t>农业ETF</t>
         </is>
       </c>
       <c r="D32" s="39" t="n">
-        <v>22.97</v>
+        <v>21.54</v>
       </c>
       <c r="E32" s="39" t="n">
-        <v>26.6</v>
+        <v>86</v>
       </c>
       <c r="F32" s="39" t="n">
-        <v>3.2</v>
+        <v>21.5</v>
       </c>
       <c r="G32" s="39" t="n">
-        <v>57</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="H32" s="39" t="n">
-        <v>49.4</v>
+        <v>77</v>
       </c>
       <c r="I32" s="39" t="n">
-        <v>80</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="J32" s="39" t="n">
-        <v>65</v>
+        <v>31.2</v>
       </c>
       <c r="K32" s="39" t="n">
-        <v>76.7</v>
+        <v>45.4</v>
       </c>
       <c r="L32" s="39" t="n">
-        <v>82.5</v>
+        <v>28</v>
       </c>
       <c r="M32" s="39" t="n">
-        <v>48.9</v>
+        <v>22.3</v>
       </c>
       <c r="N32" s="39" t="n">
-        <v>81.09999999999999</v>
+        <v>18.5</v>
       </c>
       <c r="O32" s="39" t="n">
-        <v>90.5</v>
+        <v>5.5</v>
       </c>
       <c r="P32" s="39" t="n">
-        <v>96.2</v>
+        <v>41</v>
       </c>
       <c r="Q32" s="39" t="n">
-        <v>66.59999999999999</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="R32" s="39" t="n">
-        <v>66.59999999999999</v>
+        <v>27.9</v>
       </c>
       <c r="S32" s="39" t="n">
-        <v>41.3</v>
+        <v>52.4</v>
       </c>
       <c r="T32" s="39" t="n">
-        <v>9.800000000000001</v>
+        <v>39.1</v>
       </c>
       <c r="U32" s="39" t="n">
-        <v>78.09999999999999</v>
+        <v>15.5</v>
       </c>
       <c r="V32" s="39" t="n">
-        <v>60.9</v>
+        <v>39.7</v>
       </c>
       <c r="W32" s="39" t="n">
-        <v>52.3</v>
+        <v>25.3</v>
       </c>
       <c r="X32" s="39" t="n">
-        <v>65.40000000000001</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="Y32" s="39" t="inlineStr">
         <is>
-          <t>印度基金LOF</t>
+          <t>农业ETF</t>
         </is>
       </c>
     </row>
@@ -14620,80 +14622,80 @@
       </c>
       <c r="B33" s="39" t="inlineStr">
         <is>
-          <t>560050</t>
+          <t>563000</t>
         </is>
       </c>
       <c r="C33" s="39" t="inlineStr">
         <is>
-          <t>MSCI中国A50ETF</t>
+          <t>中国A50ETF</t>
         </is>
       </c>
       <c r="D33" s="39" t="n">
-        <v>47.2</v>
+        <v>39.8</v>
       </c>
       <c r="E33" s="39" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="F33" s="39" t="n">
         <v>0.1</v>
       </c>
       <c r="G33" s="39" t="n">
-        <v>30.2</v>
+        <v>23.2</v>
       </c>
       <c r="H33" s="39" t="n">
-        <v>40.4</v>
+        <v>43.5</v>
       </c>
       <c r="I33" s="39" t="n">
-        <v>70.59999999999999</v>
+        <v>69.2</v>
       </c>
       <c r="J33" s="39" t="n">
         <v>80.5</v>
       </c>
       <c r="K33" s="39" t="n">
-        <v>86.8</v>
+        <v>87.2</v>
       </c>
       <c r="L33" s="39" t="n">
-        <v>88.3</v>
+        <v>88.7</v>
       </c>
       <c r="M33" s="39" t="n">
-        <v>90.5</v>
+        <v>93.5</v>
       </c>
       <c r="N33" s="39" t="n">
-        <v>95.5</v>
+        <v>95.8</v>
       </c>
       <c r="O33" s="39" t="n">
-        <v>56</v>
+        <v>95.8</v>
       </c>
       <c r="P33" s="39" t="n">
-        <v>85.7</v>
+        <v>98.7</v>
       </c>
       <c r="Q33" s="39" t="n">
-        <v>92.09999999999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="R33" s="39" t="n">
-        <v>93.90000000000001</v>
+        <v>71.8</v>
       </c>
       <c r="S33" s="39" t="n">
-        <v>95.8</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="T33" s="39" t="n">
-        <v>58.8</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="U33" s="39" t="n">
-        <v>33.2</v>
+        <v>33.7</v>
       </c>
       <c r="V33" s="39" t="n">
-        <v>7.4</v>
+        <v>5.9</v>
       </c>
       <c r="W33" s="39" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="X33" s="39" t="n">
-        <v>65.40000000000001</v>
+        <v>70.3</v>
       </c>
       <c r="Y33" s="39" t="inlineStr">
         <is>
-          <t>MSCI中国A50ETF</t>
+          <t>中国A50ETF</t>
         </is>
       </c>
     </row>
@@ -14701,82 +14703,80 @@
       <c r="A34" s="39" t="n">
         <v>32</v>
       </c>
-      <c r="B34" s="39" t="inlineStr">
-        <is>
-          <t>563000</t>
-        </is>
+      <c r="B34" s="39" t="n">
+        <v>512950</v>
       </c>
       <c r="C34" s="39" t="inlineStr">
         <is>
-          <t>中国A50ETF</t>
+          <t>央企改革ETF</t>
         </is>
       </c>
       <c r="D34" s="39" t="n">
-        <v>39.75</v>
+        <v>54.91</v>
       </c>
       <c r="E34" s="39" t="n">
-        <v>2</v>
+        <v>51.5</v>
       </c>
       <c r="F34" s="39" t="n">
-        <v>0.1</v>
+        <v>3.1</v>
       </c>
       <c r="G34" s="39" t="n">
-        <v>23.2</v>
+        <v>49.5</v>
       </c>
       <c r="H34" s="39" t="n">
-        <v>43.5</v>
+        <v>69</v>
       </c>
       <c r="I34" s="39" t="n">
-        <v>69.2</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="J34" s="39" t="n">
-        <v>80.5</v>
+        <v>59.9</v>
       </c>
       <c r="K34" s="39" t="n">
-        <v>87.2</v>
+        <v>72.8</v>
       </c>
       <c r="L34" s="39" t="n">
-        <v>88.7</v>
+        <v>48</v>
       </c>
       <c r="M34" s="39" t="n">
-        <v>93.5</v>
+        <v>76.3</v>
       </c>
       <c r="N34" s="39" t="n">
-        <v>95.8</v>
+        <v>58.2</v>
       </c>
       <c r="O34" s="39" t="n">
-        <v>95.8</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="P34" s="39" t="n">
-        <v>98.7</v>
+        <v>43.6</v>
       </c>
       <c r="Q34" s="39" t="n">
-        <v>99.40000000000001</v>
+        <v>24.5</v>
       </c>
       <c r="R34" s="39" t="n">
-        <v>71.8</v>
+        <v>6.7</v>
       </c>
       <c r="S34" s="39" t="n">
-        <v>81.90000000000001</v>
+        <v>3.4</v>
       </c>
       <c r="T34" s="39" t="n">
-        <v>81.90000000000001</v>
+        <v>3.4</v>
       </c>
       <c r="U34" s="39" t="n">
-        <v>33.7</v>
+        <v>1.4</v>
       </c>
       <c r="V34" s="39" t="n">
-        <v>5.9</v>
+        <v>0.4</v>
       </c>
       <c r="W34" s="39" t="n">
-        <v>3.2</v>
+        <v>0.2</v>
       </c>
       <c r="X34" s="39" t="n">
-        <v>65.5</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="Y34" s="39" t="inlineStr">
         <is>
-          <t>中国A50ETF</t>
+          <t>央企改革ETF</t>
         </is>
       </c>
     </row>
@@ -14785,79 +14785,79 @@
         <v>33</v>
       </c>
       <c r="B35" s="39" t="n">
-        <v>561320</v>
+        <v>159928</v>
       </c>
       <c r="C35" s="39" t="inlineStr">
         <is>
-          <t>交运ETF</t>
+          <t>消费ETF</t>
         </is>
       </c>
       <c r="D35" s="39" t="n">
-        <v>0.65</v>
+        <v>151.73</v>
       </c>
       <c r="E35" s="39" t="n">
-        <v>42.5</v>
+        <v>80.8</v>
       </c>
       <c r="F35" s="39" t="n">
-        <v>1.7</v>
+        <v>18.8</v>
       </c>
       <c r="G35" s="39" t="n">
-        <v>53</v>
+        <v>70.7</v>
       </c>
       <c r="H35" s="39" t="n">
-        <v>64.2</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="I35" s="39" t="n">
-        <v>77</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="J35" s="39" t="n">
-        <v>57.9</v>
+        <v>41.6</v>
       </c>
       <c r="K35" s="39" t="n">
-        <v>57.9</v>
+        <v>29</v>
       </c>
       <c r="L35" s="39" t="n">
-        <v>49.6</v>
+        <v>38.4</v>
       </c>
       <c r="M35" s="39" t="n">
-        <v>89.3</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="N35" s="39" t="n">
-        <v>89.3</v>
+        <v>84.2</v>
       </c>
       <c r="O35" s="39" t="n">
-        <v>71.90000000000001</v>
+        <v>32.1</v>
       </c>
       <c r="P35" s="39" t="n">
-        <v>21.5</v>
+        <v>15.8</v>
       </c>
       <c r="Q35" s="39" t="n">
-        <v>46.5</v>
+        <v>40.1</v>
       </c>
       <c r="R35" s="39" t="n">
-        <v>23.8</v>
+        <v>14.7</v>
       </c>
       <c r="S35" s="39" t="n">
-        <v>61.4</v>
+        <v>12.1</v>
       </c>
       <c r="T35" s="39" t="n">
-        <v>61.4</v>
+        <v>7.1</v>
       </c>
       <c r="U35" s="39" t="n">
-        <v>37</v>
+        <v>3.2</v>
       </c>
       <c r="V35" s="39" t="n">
-        <v>84.90000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="W35" s="39" t="n">
-        <v>17.7</v>
+        <v>46.9</v>
       </c>
       <c r="X35" s="39" t="n">
-        <v>66.09999999999999</v>
+        <v>72.3</v>
       </c>
       <c r="Y35" s="39" t="inlineStr">
         <is>
-          <t>交运ETF</t>
+          <t>消费ETF</t>
         </is>
       </c>
     </row>
@@ -14874,7 +14874,7 @@
         </is>
       </c>
       <c r="D36" s="39" t="n">
-        <v>32.96</v>
+        <v>33.03</v>
       </c>
       <c r="E36" s="39" t="n">
         <v>46.4</v>
@@ -14934,7 +14934,7 @@
         <v>1.7</v>
       </c>
       <c r="X36" s="39" t="n">
-        <v>68</v>
+        <v>73.3</v>
       </c>
       <c r="Y36" s="39" t="inlineStr">
         <is>
@@ -14947,79 +14947,79 @@
         <v>35</v>
       </c>
       <c r="B37" s="39" t="n">
-        <v>513120</v>
+        <v>515210</v>
       </c>
       <c r="C37" s="39" t="inlineStr">
         <is>
-          <t>港股创新药ETF</t>
+          <t>钢铁ETF</t>
         </is>
       </c>
       <c r="D37" s="39" t="n">
-        <v>108.77</v>
+        <v>19.23</v>
       </c>
       <c r="E37" s="39" t="n">
-        <v>39.9</v>
+        <v>58.6</v>
       </c>
       <c r="F37" s="39" t="n">
-        <v>7.2</v>
+        <v>4</v>
       </c>
       <c r="G37" s="39" t="n">
-        <v>3.3</v>
+        <v>15.3</v>
       </c>
       <c r="H37" s="39" t="n">
-        <v>9</v>
+        <v>35.5</v>
       </c>
       <c r="I37" s="39" t="n">
-        <v>55.4</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="J37" s="39" t="n">
-        <v>78.3</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="K37" s="39" t="n">
-        <v>89.09999999999999</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="L37" s="39" t="n">
-        <v>65</v>
+        <v>44.1</v>
       </c>
       <c r="M37" s="39" t="n">
-        <v>33.9</v>
+        <v>27.7</v>
       </c>
       <c r="N37" s="39" t="n">
-        <v>33.9</v>
+        <v>43.5</v>
       </c>
       <c r="O37" s="39" t="n">
-        <v>28.9</v>
+        <v>67.3</v>
       </c>
       <c r="P37" s="39" t="n">
-        <v>82.09999999999999</v>
+        <v>89.8</v>
       </c>
       <c r="Q37" s="39" t="n">
-        <v>95.59999999999999</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="R37" s="39" t="n">
-        <v>97.09999999999999</v>
+        <v>89.2</v>
       </c>
       <c r="S37" s="39" t="n">
-        <v>98.09999999999999</v>
+        <v>51.6</v>
       </c>
       <c r="T37" s="39" t="n">
-        <v>98.40000000000001</v>
+        <v>84.8</v>
       </c>
       <c r="U37" s="39" t="n">
-        <v>32.6</v>
+        <v>93</v>
       </c>
       <c r="V37" s="39" t="n">
-        <v>54.8</v>
+        <v>93</v>
       </c>
       <c r="W37" s="39" t="n">
-        <v>58.7</v>
+        <v>22.5</v>
       </c>
       <c r="X37" s="39" t="n">
-        <v>75.59999999999999</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="Y37" s="39" t="inlineStr">
         <is>
-          <t>港股创新药ETF</t>
+          <t>钢铁ETF</t>
         </is>
       </c>
     </row>
@@ -15028,79 +15028,79 @@
         <v>36</v>
       </c>
       <c r="B38" s="39" t="n">
-        <v>516910</v>
+        <v>518880</v>
       </c>
       <c r="C38" s="39" t="inlineStr">
         <is>
-          <t>物流ETF</t>
+          <t>黄金ETF</t>
         </is>
       </c>
       <c r="D38" s="39" t="n">
-        <v>0.5600000000000001</v>
+        <v>606</v>
       </c>
       <c r="E38" s="39" t="n">
-        <v>34.6</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="F38" s="39" t="n">
-        <v>1.2</v>
+        <v>17.4</v>
       </c>
       <c r="G38" s="39" t="n">
-        <v>35.6</v>
+        <v>39</v>
       </c>
       <c r="H38" s="39" t="n">
-        <v>57.5</v>
+        <v>68.7</v>
       </c>
       <c r="I38" s="39" t="n">
-        <v>80</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="J38" s="39" t="n">
-        <v>61.4</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="K38" s="39" t="n">
-        <v>70.09999999999999</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="L38" s="39" t="n">
-        <v>55.2</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="M38" s="39" t="n">
-        <v>73.8</v>
+        <v>98.8</v>
       </c>
       <c r="N38" s="39" t="n">
-        <v>80.3</v>
+        <v>99.2</v>
       </c>
       <c r="O38" s="39" t="n">
-        <v>64.3</v>
+        <v>99.3</v>
       </c>
       <c r="P38" s="39" t="n">
-        <v>35.8</v>
+        <v>99.8</v>
       </c>
       <c r="Q38" s="39" t="n">
-        <v>89.09999999999999</v>
+        <v>100</v>
       </c>
       <c r="R38" s="39" t="n">
-        <v>55.5</v>
+        <v>26.9</v>
       </c>
       <c r="S38" s="39" t="n">
-        <v>40.4</v>
+        <v>41.4</v>
       </c>
       <c r="T38" s="39" t="n">
-        <v>61.4</v>
+        <v>33.1</v>
       </c>
       <c r="U38" s="39" t="n">
-        <v>22.2</v>
+        <v>22</v>
       </c>
       <c r="V38" s="39" t="n">
-        <v>38</v>
+        <v>49.2</v>
       </c>
       <c r="W38" s="39" t="n">
-        <v>12.5</v>
+        <v>30.4</v>
       </c>
       <c r="X38" s="39" t="n">
-        <v>77.90000000000001</v>
+        <v>78.3</v>
       </c>
       <c r="Y38" s="39" t="inlineStr">
         <is>
-          <t>物流ETF</t>
+          <t>黄金ETF</t>
         </is>
       </c>
     </row>
@@ -15109,79 +15109,79 @@
         <v>37</v>
       </c>
       <c r="B39" s="39" t="n">
-        <v>518880</v>
+        <v>516910</v>
       </c>
       <c r="C39" s="39" t="inlineStr">
         <is>
-          <t>黄金ETF</t>
+          <t>物流ETF</t>
         </is>
       </c>
       <c r="D39" s="39" t="n">
-        <v>608.47</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E39" s="39" t="n">
-        <v>87.40000000000001</v>
+        <v>34.6</v>
       </c>
       <c r="F39" s="39" t="n">
-        <v>17.4</v>
+        <v>1.2</v>
       </c>
       <c r="G39" s="39" t="n">
-        <v>39</v>
+        <v>35.6</v>
       </c>
       <c r="H39" s="39" t="n">
-        <v>68.7</v>
+        <v>57.5</v>
       </c>
       <c r="I39" s="39" t="n">
-        <v>88.40000000000001</v>
+        <v>80</v>
       </c>
       <c r="J39" s="39" t="n">
-        <v>93.90000000000001</v>
+        <v>61.4</v>
       </c>
       <c r="K39" s="39" t="n">
-        <v>95.90000000000001</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="L39" s="39" t="n">
-        <v>93.59999999999999</v>
+        <v>55.2</v>
       </c>
       <c r="M39" s="39" t="n">
-        <v>98.8</v>
+        <v>73.8</v>
       </c>
       <c r="N39" s="39" t="n">
-        <v>99.2</v>
+        <v>80.3</v>
       </c>
       <c r="O39" s="39" t="n">
-        <v>99.3</v>
+        <v>64.3</v>
       </c>
       <c r="P39" s="39" t="n">
-        <v>99.8</v>
+        <v>35.8</v>
       </c>
       <c r="Q39" s="39" t="n">
-        <v>100</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="R39" s="39" t="n">
-        <v>26.9</v>
+        <v>55.5</v>
       </c>
       <c r="S39" s="39" t="n">
-        <v>41.4</v>
+        <v>40.4</v>
       </c>
       <c r="T39" s="39" t="n">
-        <v>33.1</v>
+        <v>61.4</v>
       </c>
       <c r="U39" s="39" t="n">
-        <v>22</v>
+        <v>22.2</v>
       </c>
       <c r="V39" s="39" t="n">
-        <v>49.2</v>
+        <v>38</v>
       </c>
       <c r="W39" s="39" t="n">
-        <v>30.4</v>
+        <v>12.5</v>
       </c>
       <c r="X39" s="39" t="n">
-        <v>80.90000000000001</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="Y39" s="39" t="inlineStr">
         <is>
-          <t>黄金ETF</t>
+          <t>物流ETF</t>
         </is>
       </c>
     </row>
@@ -15189,80 +15189,82 @@
       <c r="A40" s="39" t="n">
         <v>38</v>
       </c>
-      <c r="B40" s="39" t="n">
-        <v>159905</v>
+      <c r="B40" s="39" t="inlineStr">
+        <is>
+          <t>512580</t>
+        </is>
       </c>
       <c r="C40" s="39" t="inlineStr">
         <is>
-          <t>深红利ETF</t>
+          <t>环保ETF</t>
         </is>
       </c>
       <c r="D40" s="39" t="n">
-        <v>31.72</v>
+        <v>11.73</v>
       </c>
       <c r="E40" s="39" t="n">
-        <v>10.7</v>
+        <v>11</v>
       </c>
       <c r="F40" s="39" t="n">
         <v>0.7</v>
       </c>
       <c r="G40" s="39" t="n">
-        <v>42.7</v>
+        <v>19.9</v>
       </c>
       <c r="H40" s="39" t="n">
-        <v>53.6</v>
+        <v>34.6</v>
       </c>
       <c r="I40" s="39" t="n">
-        <v>73.09999999999999</v>
+        <v>61.2</v>
       </c>
       <c r="J40" s="39" t="n">
-        <v>57.6</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="K40" s="39" t="n">
-        <v>49.7</v>
+        <v>79.3</v>
       </c>
       <c r="L40" s="39" t="n">
-        <v>73.7</v>
+        <v>70</v>
       </c>
       <c r="M40" s="39" t="n">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="N40" s="39" t="n">
-        <v>52.6</v>
+        <v>20.9</v>
       </c>
       <c r="O40" s="39" t="n">
-        <v>61.1</v>
+        <v>57</v>
       </c>
       <c r="P40" s="39" t="n">
-        <v>86</v>
+        <v>86.3</v>
       </c>
       <c r="Q40" s="39" t="n">
-        <v>86</v>
+        <v>54.5</v>
       </c>
       <c r="R40" s="39" t="n">
-        <v>24.1</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="S40" s="39" t="n">
-        <v>18.8</v>
+        <v>47.9</v>
       </c>
       <c r="T40" s="39" t="n">
-        <v>5.8</v>
+        <v>74.7</v>
       </c>
       <c r="U40" s="39" t="n">
-        <v>48.5</v>
+        <v>83.3</v>
       </c>
       <c r="V40" s="39" t="n">
-        <v>25.4</v>
+        <v>24.7</v>
       </c>
       <c r="W40" s="39" t="n">
-        <v>19.3</v>
+        <v>24.7</v>
       </c>
       <c r="X40" s="39" t="n">
-        <v>81.5</v>
+        <v>83.7</v>
       </c>
       <c r="Y40" s="39" t="inlineStr">
         <is>
-          <t>深红利ETF</t>
+          <t>环保ETF</t>
         </is>
       </c>
     </row>
@@ -15270,82 +15272,80 @@
       <c r="A41" s="39" t="n">
         <v>39</v>
       </c>
-      <c r="B41" s="39" t="inlineStr">
-        <is>
-          <t>512580</t>
-        </is>
+      <c r="B41" s="39" t="n">
+        <v>159752</v>
       </c>
       <c r="C41" s="39" t="inlineStr">
         <is>
-          <t>环保ETF</t>
+          <t>新能源龙头ETF</t>
         </is>
       </c>
       <c r="D41" s="39" t="n">
-        <v>11.72</v>
+        <v>2.94</v>
       </c>
       <c r="E41" s="39" t="n">
-        <v>11</v>
+        <v>11.4</v>
       </c>
       <c r="F41" s="39" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="G41" s="39" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H41" s="39" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="I41" s="39" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="J41" s="39" t="n">
+        <v>65.59999999999999</v>
+      </c>
+      <c r="K41" s="39" t="n">
+        <v>78.2</v>
+      </c>
+      <c r="L41" s="39" t="n">
+        <v>78.2</v>
+      </c>
+      <c r="M41" s="39" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="N41" s="39" t="n">
         <v>19.9</v>
       </c>
-      <c r="H41" s="39" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="I41" s="39" t="n">
-        <v>61.2</v>
-      </c>
-      <c r="J41" s="39" t="n">
-        <v>68.90000000000001</v>
-      </c>
-      <c r="K41" s="39" t="n">
-        <v>79.3</v>
-      </c>
-      <c r="L41" s="39" t="n">
-        <v>70</v>
-      </c>
-      <c r="M41" s="39" t="n">
-        <v>36</v>
-      </c>
-      <c r="N41" s="39" t="n">
-        <v>20.9</v>
-      </c>
       <c r="O41" s="39" t="n">
-        <v>57</v>
+        <v>46.5</v>
       </c>
       <c r="P41" s="39" t="n">
-        <v>86.3</v>
+        <v>89.3</v>
       </c>
       <c r="Q41" s="39" t="n">
-        <v>54.5</v>
+        <v>70.5</v>
       </c>
       <c r="R41" s="39" t="n">
-        <v>79.59999999999999</v>
+        <v>90.5</v>
       </c>
       <c r="S41" s="39" t="n">
-        <v>47.9</v>
+        <v>71.2</v>
       </c>
       <c r="T41" s="39" t="n">
-        <v>74.7</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="U41" s="39" t="n">
-        <v>83.3</v>
+        <v>90.8</v>
       </c>
       <c r="V41" s="39" t="n">
-        <v>24.7</v>
+        <v>28.6</v>
       </c>
       <c r="W41" s="39" t="n">
-        <v>24.7</v>
+        <v>28.6</v>
       </c>
       <c r="X41" s="39" t="n">
-        <v>82.09999999999999</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="Y41" s="39" t="inlineStr">
         <is>
-          <t>环保ETF</t>
+          <t>新能源龙头ETF</t>
         </is>
       </c>
     </row>
@@ -15354,79 +15354,79 @@
         <v>40</v>
       </c>
       <c r="B42" s="39" t="n">
-        <v>159752</v>
+        <v>513290</v>
       </c>
       <c r="C42" s="39" t="inlineStr">
         <is>
-          <t>新能源龙头ETF</t>
+          <t>纳指生物科技ETF</t>
         </is>
       </c>
       <c r="D42" s="39" t="n">
-        <v>2.94</v>
+        <v>12.67</v>
       </c>
       <c r="E42" s="39" t="n">
-        <v>11.4</v>
+        <v>0.6</v>
       </c>
       <c r="F42" s="39" t="n">
-        <v>1.3</v>
+        <v>0.1</v>
       </c>
       <c r="G42" s="39" t="n">
-        <v>1.1</v>
+        <v>44.4</v>
       </c>
       <c r="H42" s="39" t="n">
-        <v>7.5</v>
+        <v>23</v>
       </c>
       <c r="I42" s="39" t="n">
-        <v>57.3</v>
+        <v>64.5</v>
       </c>
       <c r="J42" s="39" t="n">
-        <v>65.59999999999999</v>
+        <v>40.9</v>
       </c>
       <c r="K42" s="39" t="n">
-        <v>78.2</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="L42" s="39" t="n">
-        <v>78.2</v>
+        <v>80.2</v>
       </c>
       <c r="M42" s="39" t="n">
-        <v>26.4</v>
+        <v>57.5</v>
       </c>
       <c r="N42" s="39" t="n">
-        <v>19.9</v>
+        <v>48.4</v>
       </c>
       <c r="O42" s="39" t="n">
-        <v>46.5</v>
+        <v>44.8</v>
       </c>
       <c r="P42" s="39" t="n">
-        <v>89.3</v>
+        <v>22.1</v>
       </c>
       <c r="Q42" s="39" t="n">
-        <v>70.5</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="R42" s="39" t="n">
-        <v>90.5</v>
+        <v>92.8</v>
       </c>
       <c r="S42" s="39" t="n">
-        <v>71.2</v>
+        <v>92.8</v>
       </c>
       <c r="T42" s="39" t="n">
-        <v>87.40000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="U42" s="39" t="n">
-        <v>90.8</v>
+        <v>54.1</v>
       </c>
       <c r="V42" s="39" t="n">
-        <v>28.6</v>
+        <v>75.7</v>
       </c>
       <c r="W42" s="39" t="n">
-        <v>28.6</v>
+        <v>84</v>
       </c>
       <c r="X42" s="39" t="n">
-        <v>83.90000000000001</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="Y42" s="39" t="inlineStr">
         <is>
-          <t>新能源龙头ETF</t>
+          <t>纳指生物科技ETF</t>
         </is>
       </c>
     </row>
@@ -15435,79 +15435,79 @@
         <v>41</v>
       </c>
       <c r="B43" s="39" t="n">
-        <v>513290</v>
+        <v>159850</v>
       </c>
       <c r="C43" s="39" t="inlineStr">
         <is>
-          <t>纳指生物科技ETF</t>
+          <t>恒生国企ETF</t>
         </is>
       </c>
       <c r="D43" s="39" t="n">
-        <v>12.67</v>
+        <v>9.19</v>
       </c>
       <c r="E43" s="39" t="n">
-        <v>0.6</v>
+        <v>10.4</v>
       </c>
       <c r="F43" s="39" t="n">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="G43" s="39" t="n">
-        <v>44.4</v>
+        <v>0.7</v>
       </c>
       <c r="H43" s="39" t="n">
-        <v>23</v>
+        <v>26.1</v>
       </c>
       <c r="I43" s="39" t="n">
-        <v>64.5</v>
+        <v>62.6</v>
       </c>
       <c r="J43" s="39" t="n">
-        <v>40.9</v>
+        <v>72.5</v>
       </c>
       <c r="K43" s="39" t="n">
-        <v>65.40000000000001</v>
+        <v>88</v>
       </c>
       <c r="L43" s="39" t="n">
-        <v>80.2</v>
+        <v>90</v>
       </c>
       <c r="M43" s="39" t="n">
-        <v>57.5</v>
+        <v>31.2</v>
       </c>
       <c r="N43" s="39" t="n">
-        <v>48.4</v>
+        <v>55.3</v>
       </c>
       <c r="O43" s="39" t="n">
-        <v>44.8</v>
+        <v>50.3</v>
       </c>
       <c r="P43" s="39" t="n">
-        <v>22.1</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="Q43" s="39" t="n">
-        <v>71.59999999999999</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="R43" s="39" t="n">
-        <v>92.8</v>
+        <v>97</v>
       </c>
       <c r="S43" s="39" t="n">
-        <v>92.8</v>
+        <v>54</v>
       </c>
       <c r="T43" s="39" t="n">
-        <v>97.5</v>
+        <v>74.3</v>
       </c>
       <c r="U43" s="39" t="n">
-        <v>54.1</v>
+        <v>76.8</v>
       </c>
       <c r="V43" s="39" t="n">
-        <v>75.7</v>
+        <v>27.6</v>
       </c>
       <c r="W43" s="39" t="n">
-        <v>84</v>
+        <v>36.6</v>
       </c>
       <c r="X43" s="39" t="n">
-        <v>84</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="Y43" s="39" t="inlineStr">
         <is>
-          <t>纳指生物科技ETF</t>
+          <t>恒生国企ETF</t>
         </is>
       </c>
     </row>
@@ -15524,7 +15524,7 @@
         </is>
       </c>
       <c r="D44" s="39" t="n">
-        <v>64.09999999999999</v>
+        <v>64.27</v>
       </c>
       <c r="E44" s="39" t="n">
         <v>25.7</v>
@@ -15584,7 +15584,7 @@
         <v>45.7</v>
       </c>
       <c r="X44" s="39" t="n">
-        <v>85.3</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="Y44" s="39" t="inlineStr">
         <is>
@@ -15597,79 +15597,79 @@
         <v>43</v>
       </c>
       <c r="B45" s="39" t="n">
-        <v>159850</v>
+        <v>513060</v>
       </c>
       <c r="C45" s="39" t="inlineStr">
         <is>
-          <t>恒生国企ETF</t>
+          <t>恒生医疗ETF</t>
         </is>
       </c>
       <c r="D45" s="39" t="n">
-        <v>9.18</v>
+        <v>104.92</v>
       </c>
       <c r="E45" s="39" t="n">
-        <v>10.4</v>
+        <v>42.4</v>
       </c>
       <c r="F45" s="39" t="n">
-        <v>0.9</v>
+        <v>5.7</v>
       </c>
       <c r="G45" s="39" t="n">
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="H45" s="39" t="n">
-        <v>26.1</v>
+        <v>15.4</v>
       </c>
       <c r="I45" s="39" t="n">
-        <v>62.6</v>
+        <v>56.9</v>
       </c>
       <c r="J45" s="39" t="n">
-        <v>72.5</v>
+        <v>77.5</v>
       </c>
       <c r="K45" s="39" t="n">
-        <v>88</v>
+        <v>90.8</v>
       </c>
       <c r="L45" s="39" t="n">
-        <v>90</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="M45" s="39" t="n">
-        <v>31.2</v>
+        <v>32.5</v>
       </c>
       <c r="N45" s="39" t="n">
-        <v>55.3</v>
+        <v>37.5</v>
       </c>
       <c r="O45" s="39" t="n">
-        <v>50.3</v>
+        <v>37.5</v>
       </c>
       <c r="P45" s="39" t="n">
-        <v>73.90000000000001</v>
+        <v>77.5</v>
       </c>
       <c r="Q45" s="39" t="n">
-        <v>81.09999999999999</v>
+        <v>95.7</v>
       </c>
       <c r="R45" s="39" t="n">
-        <v>97</v>
+        <v>97.3</v>
       </c>
       <c r="S45" s="39" t="n">
-        <v>54</v>
+        <v>98.2</v>
       </c>
       <c r="T45" s="39" t="n">
-        <v>74.3</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="U45" s="39" t="n">
-        <v>76.8</v>
+        <v>33.7</v>
       </c>
       <c r="V45" s="39" t="n">
-        <v>27.6</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="W45" s="39" t="n">
-        <v>36.6</v>
+        <v>77.7</v>
       </c>
       <c r="X45" s="39" t="n">
-        <v>85.90000000000001</v>
+        <v>88.2</v>
       </c>
       <c r="Y45" s="39" t="inlineStr">
         <is>
-          <t>恒生国企ETF</t>
+          <t>恒生医疗ETF</t>
         </is>
       </c>
     </row>
@@ -15678,79 +15678,79 @@
         <v>44</v>
       </c>
       <c r="B46" s="39" t="n">
-        <v>516110</v>
+        <v>159883</v>
       </c>
       <c r="C46" s="39" t="inlineStr">
         <is>
-          <t>汽车ETF</t>
+          <t>医疗器械ETF</t>
         </is>
       </c>
       <c r="D46" s="39" t="n">
-        <v>4.36</v>
+        <v>16.45</v>
       </c>
       <c r="E46" s="39" t="n">
-        <v>2.6</v>
+        <v>33.3</v>
       </c>
       <c r="F46" s="39" t="n">
-        <v>0.2</v>
+        <v>3.1</v>
       </c>
       <c r="G46" s="39" t="n">
-        <v>5.5</v>
+        <v>31.1</v>
       </c>
       <c r="H46" s="39" t="n">
-        <v>26.9</v>
+        <v>43.1</v>
       </c>
       <c r="I46" s="39" t="n">
-        <v>71</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="J46" s="39" t="n">
-        <v>85.3</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="K46" s="39" t="n">
-        <v>89.7</v>
+        <v>77.8</v>
       </c>
       <c r="L46" s="39" t="n">
-        <v>70.3</v>
+        <v>77.8</v>
       </c>
       <c r="M46" s="39" t="n">
-        <v>42.6</v>
+        <v>18.3</v>
       </c>
       <c r="N46" s="39" t="n">
-        <v>18.4</v>
+        <v>45.9</v>
       </c>
       <c r="O46" s="39" t="n">
-        <v>29.1</v>
+        <v>19.5</v>
       </c>
       <c r="P46" s="39" t="n">
-        <v>79</v>
+        <v>70.5</v>
       </c>
       <c r="Q46" s="39" t="n">
-        <v>64</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="R46" s="39" t="n">
-        <v>93</v>
+        <v>56.1</v>
       </c>
       <c r="S46" s="39" t="n">
-        <v>60.5</v>
+        <v>18.3</v>
       </c>
       <c r="T46" s="39" t="n">
-        <v>75.90000000000001</v>
+        <v>13.7</v>
       </c>
       <c r="U46" s="39" t="n">
-        <v>31.6</v>
+        <v>3.9</v>
       </c>
       <c r="V46" s="39" t="n">
-        <v>29.7</v>
+        <v>38.9</v>
       </c>
       <c r="W46" s="39" t="n">
-        <v>78.8</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="X46" s="39" t="n">
-        <v>87.8</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="Y46" s="39" t="inlineStr">
         <is>
-          <t>汽车ETF</t>
+          <t>医疗器械ETF</t>
         </is>
       </c>
     </row>
@@ -15759,79 +15759,79 @@
         <v>45</v>
       </c>
       <c r="B47" s="39" t="n">
-        <v>159859</v>
+        <v>512400</v>
       </c>
       <c r="C47" s="39" t="inlineStr">
         <is>
-          <t>生物医药ETF</t>
+          <t>有色金属ETF</t>
         </is>
       </c>
       <c r="D47" s="39" t="n">
-        <v>34.6</v>
+        <v>45.97</v>
       </c>
       <c r="E47" s="39" t="n">
-        <v>36.5</v>
+        <v>3.6</v>
       </c>
       <c r="F47" s="39" t="n">
-        <v>4.7</v>
+        <v>0.4</v>
       </c>
       <c r="G47" s="39" t="n">
-        <v>25.1</v>
+        <v>18.5</v>
       </c>
       <c r="H47" s="39" t="n">
-        <v>25.1</v>
+        <v>39</v>
       </c>
       <c r="I47" s="39" t="n">
-        <v>63.1</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="J47" s="39" t="n">
-        <v>53.9</v>
+        <v>81</v>
       </c>
       <c r="K47" s="39" t="n">
-        <v>70.8</v>
+        <v>91.8</v>
       </c>
       <c r="L47" s="39" t="n">
-        <v>40.9</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="M47" s="39" t="n">
-        <v>10.3</v>
+        <v>63.2</v>
       </c>
       <c r="N47" s="39" t="n">
-        <v>10.3</v>
+        <v>38.9</v>
       </c>
       <c r="O47" s="39" t="n">
-        <v>10.3</v>
+        <v>26.7</v>
       </c>
       <c r="P47" s="39" t="n">
-        <v>51.6</v>
+        <v>92</v>
       </c>
       <c r="Q47" s="39" t="n">
-        <v>18.2</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="R47" s="39" t="n">
-        <v>18.2</v>
+        <v>35.4</v>
       </c>
       <c r="S47" s="39" t="n">
-        <v>64.40000000000001</v>
+        <v>23.7</v>
       </c>
       <c r="T47" s="39" t="n">
-        <v>89.09999999999999</v>
+        <v>35.8</v>
       </c>
       <c r="U47" s="39" t="n">
-        <v>52.6</v>
+        <v>21.9</v>
       </c>
       <c r="V47" s="39" t="n">
-        <v>82</v>
+        <v>15.8</v>
       </c>
       <c r="W47" s="39" t="n">
-        <v>50.6</v>
+        <v>10.1</v>
       </c>
       <c r="X47" s="39" t="n">
-        <v>87.8</v>
+        <v>89.5</v>
       </c>
       <c r="Y47" s="39" t="inlineStr">
         <is>
-          <t>生物医药ETF</t>
+          <t>有色金属ETF</t>
         </is>
       </c>
     </row>
@@ -15840,79 +15840,79 @@
         <v>46</v>
       </c>
       <c r="B48" s="39" t="n">
-        <v>513060</v>
+        <v>159905</v>
       </c>
       <c r="C48" s="39" t="inlineStr">
         <is>
-          <t>恒生医疗ETF</t>
+          <t>深红利ETF</t>
         </is>
       </c>
       <c r="D48" s="39" t="n">
-        <v>105.13</v>
+        <v>31.83</v>
       </c>
       <c r="E48" s="39" t="n">
-        <v>42.4</v>
+        <v>10.7</v>
       </c>
       <c r="F48" s="39" t="n">
-        <v>5.7</v>
+        <v>0.7</v>
       </c>
       <c r="G48" s="39" t="n">
-        <v>3</v>
+        <v>42.7</v>
       </c>
       <c r="H48" s="39" t="n">
-        <v>15.4</v>
+        <v>53.6</v>
       </c>
       <c r="I48" s="39" t="n">
-        <v>56.9</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="J48" s="39" t="n">
-        <v>77.5</v>
+        <v>57.6</v>
       </c>
       <c r="K48" s="39" t="n">
-        <v>90.8</v>
+        <v>49.7</v>
       </c>
       <c r="L48" s="39" t="n">
-        <v>67.90000000000001</v>
+        <v>73.7</v>
       </c>
       <c r="M48" s="39" t="n">
-        <v>32.5</v>
+        <v>78</v>
       </c>
       <c r="N48" s="39" t="n">
-        <v>37.5</v>
+        <v>52.6</v>
       </c>
       <c r="O48" s="39" t="n">
-        <v>37.5</v>
+        <v>61.1</v>
       </c>
       <c r="P48" s="39" t="n">
-        <v>77.5</v>
+        <v>86</v>
       </c>
       <c r="Q48" s="39" t="n">
-        <v>95.7</v>
+        <v>86</v>
       </c>
       <c r="R48" s="39" t="n">
-        <v>97.3</v>
+        <v>24.1</v>
       </c>
       <c r="S48" s="39" t="n">
-        <v>98.2</v>
+        <v>18.8</v>
       </c>
       <c r="T48" s="39" t="n">
-        <v>98.40000000000001</v>
+        <v>5.8</v>
       </c>
       <c r="U48" s="39" t="n">
-        <v>33.7</v>
+        <v>48.5</v>
       </c>
       <c r="V48" s="39" t="n">
-        <v>66.59999999999999</v>
+        <v>25.4</v>
       </c>
       <c r="W48" s="39" t="n">
-        <v>77.7</v>
+        <v>19.3</v>
       </c>
       <c r="X48" s="39" t="n">
-        <v>88.2</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="Y48" s="39" t="inlineStr">
         <is>
-          <t>恒生医疗ETF</t>
+          <t>深红利ETF</t>
         </is>
       </c>
     </row>
@@ -15921,79 +15921,79 @@
         <v>47</v>
       </c>
       <c r="B49" s="39" t="n">
-        <v>159883</v>
+        <v>159859</v>
       </c>
       <c r="C49" s="39" t="inlineStr">
         <is>
-          <t>医疗器械ETF</t>
+          <t>生物医药ETF</t>
         </is>
       </c>
       <c r="D49" s="39" t="n">
-        <v>16.41</v>
+        <v>34.7</v>
       </c>
       <c r="E49" s="39" t="n">
-        <v>33.3</v>
+        <v>36.5</v>
       </c>
       <c r="F49" s="39" t="n">
-        <v>3.1</v>
+        <v>4.7</v>
       </c>
       <c r="G49" s="39" t="n">
-        <v>31.1</v>
+        <v>25.1</v>
       </c>
       <c r="H49" s="39" t="n">
-        <v>43.1</v>
+        <v>25.1</v>
       </c>
       <c r="I49" s="39" t="n">
-        <v>66.40000000000001</v>
+        <v>63.1</v>
       </c>
       <c r="J49" s="39" t="n">
-        <v>69.59999999999999</v>
+        <v>53.9</v>
       </c>
       <c r="K49" s="39" t="n">
-        <v>77.8</v>
+        <v>70.8</v>
       </c>
       <c r="L49" s="39" t="n">
-        <v>77.8</v>
+        <v>40.9</v>
       </c>
       <c r="M49" s="39" t="n">
-        <v>18.3</v>
+        <v>10.3</v>
       </c>
       <c r="N49" s="39" t="n">
-        <v>45.9</v>
+        <v>10.3</v>
       </c>
       <c r="O49" s="39" t="n">
-        <v>19.5</v>
+        <v>10.3</v>
       </c>
       <c r="P49" s="39" t="n">
-        <v>70.5</v>
+        <v>51.6</v>
       </c>
       <c r="Q49" s="39" t="n">
-        <v>75.59999999999999</v>
+        <v>18.2</v>
       </c>
       <c r="R49" s="39" t="n">
-        <v>56.1</v>
+        <v>18.2</v>
       </c>
       <c r="S49" s="39" t="n">
-        <v>18.3</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="T49" s="39" t="n">
-        <v>13.7</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="U49" s="39" t="n">
-        <v>3.9</v>
+        <v>52.6</v>
       </c>
       <c r="V49" s="39" t="n">
-        <v>38.9</v>
+        <v>82</v>
       </c>
       <c r="W49" s="39" t="n">
-        <v>75.09999999999999</v>
+        <v>50.6</v>
       </c>
       <c r="X49" s="39" t="n">
-        <v>88.59999999999999</v>
+        <v>89.8</v>
       </c>
       <c r="Y49" s="39" t="inlineStr">
         <is>
-          <t>医疗器械ETF</t>
+          <t>生物医药ETF</t>
         </is>
       </c>
     </row>
@@ -16001,80 +16001,82 @@
       <c r="A50" s="39" t="n">
         <v>48</v>
       </c>
-      <c r="B50" s="39" t="n">
-        <v>510300</v>
+      <c r="B50" s="39" t="inlineStr">
+        <is>
+          <t>159509</t>
+        </is>
       </c>
       <c r="C50" s="39" t="inlineStr">
         <is>
-          <t>沪深300ETF</t>
+          <t>纳指科技ETF</t>
         </is>
       </c>
       <c r="D50" s="39" t="n">
-        <v>3760.83</v>
+        <v>89.83</v>
       </c>
       <c r="E50" s="39" t="n">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="F50" s="39" t="n">
-        <v>0.1</v>
+        <v>5.3</v>
       </c>
       <c r="G50" s="39" t="n">
-        <v>20.2</v>
+        <v>27.4</v>
       </c>
       <c r="H50" s="39" t="n">
-        <v>43.6</v>
+        <v>24.8</v>
       </c>
       <c r="I50" s="39" t="n">
-        <v>72.09999999999999</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="J50" s="39" t="n">
-        <v>76.3</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="K50" s="39" t="n">
-        <v>80.59999999999999</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="L50" s="39" t="n">
-        <v>82.90000000000001</v>
+        <v>52.2</v>
       </c>
       <c r="M50" s="39" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="N50" s="39" t="n">
+        <v>40</v>
+      </c>
+      <c r="O50" s="39" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="P50" s="39" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="Q50" s="39" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="R50" s="39" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="S50" s="39" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="T50" s="39" t="n">
+        <v>81.3</v>
+      </c>
+      <c r="U50" s="39" t="n">
+        <v>83.40000000000001</v>
+      </c>
+      <c r="V50" s="39" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="W50" s="39" t="n">
+        <v>57</v>
+      </c>
+      <c r="X50" s="39" t="n">
         <v>90</v>
       </c>
-      <c r="N50" s="39" t="n">
-        <v>92.2</v>
-      </c>
-      <c r="O50" s="39" t="n">
-        <v>96.8</v>
-      </c>
-      <c r="P50" s="39" t="n">
-        <v>97.40000000000001</v>
-      </c>
-      <c r="Q50" s="39" t="n">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="R50" s="39" t="n">
-        <v>99.2</v>
-      </c>
-      <c r="S50" s="39" t="n">
-        <v>99.2</v>
-      </c>
-      <c r="T50" s="39" t="n">
-        <v>99.2</v>
-      </c>
-      <c r="U50" s="39" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="V50" s="39" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="W50" s="39" t="n">
-        <v>3</v>
-      </c>
-      <c r="X50" s="39" t="n">
-        <v>88.90000000000001</v>
-      </c>
       <c r="Y50" s="39" t="inlineStr">
         <is>
-          <t>沪深300ETF</t>
+          <t>纳指科技ETF</t>
         </is>
       </c>
     </row>
@@ -16083,79 +16085,79 @@
         <v>49</v>
       </c>
       <c r="B51" s="39" t="n">
-        <v>512400</v>
+        <v>516110</v>
       </c>
       <c r="C51" s="39" t="inlineStr">
         <is>
-          <t>有色金属ETF</t>
+          <t>汽车ETF</t>
         </is>
       </c>
       <c r="D51" s="39" t="n">
-        <v>45.88</v>
+        <v>4.38</v>
       </c>
       <c r="E51" s="39" t="n">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="F51" s="39" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="G51" s="39" t="n">
-        <v>18.5</v>
+        <v>5.5</v>
       </c>
       <c r="H51" s="39" t="n">
-        <v>39</v>
+        <v>26.9</v>
       </c>
       <c r="I51" s="39" t="n">
-        <v>76.09999999999999</v>
+        <v>71</v>
       </c>
       <c r="J51" s="39" t="n">
-        <v>81</v>
+        <v>85.3</v>
       </c>
       <c r="K51" s="39" t="n">
-        <v>91.8</v>
+        <v>89.7</v>
       </c>
       <c r="L51" s="39" t="n">
-        <v>67.40000000000001</v>
+        <v>70.3</v>
       </c>
       <c r="M51" s="39" t="n">
-        <v>63.2</v>
+        <v>42.6</v>
       </c>
       <c r="N51" s="39" t="n">
-        <v>38.9</v>
+        <v>18.4</v>
       </c>
       <c r="O51" s="39" t="n">
-        <v>26.7</v>
+        <v>29.1</v>
       </c>
       <c r="P51" s="39" t="n">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="Q51" s="39" t="n">
-        <v>74.90000000000001</v>
+        <v>64</v>
       </c>
       <c r="R51" s="39" t="n">
-        <v>35.4</v>
+        <v>93</v>
       </c>
       <c r="S51" s="39" t="n">
-        <v>23.7</v>
+        <v>60.5</v>
       </c>
       <c r="T51" s="39" t="n">
-        <v>35.8</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="U51" s="39" t="n">
-        <v>21.9</v>
+        <v>31.6</v>
       </c>
       <c r="V51" s="39" t="n">
-        <v>15.8</v>
+        <v>29.7</v>
       </c>
       <c r="W51" s="39" t="n">
-        <v>10.1</v>
+        <v>78.8</v>
       </c>
       <c r="X51" s="39" t="n">
-        <v>89</v>
+        <v>90.2</v>
       </c>
       <c r="Y51" s="39" t="inlineStr">
         <is>
-          <t>有色金属ETF</t>
+          <t>汽车ETF</t>
         </is>
       </c>
     </row>
@@ -16172,7 +16174,7 @@
         </is>
       </c>
       <c r="D52" s="39" t="n">
-        <v>281.9</v>
+        <v>282.71</v>
       </c>
       <c r="E52" s="39" t="n">
         <v>43.1</v>
@@ -16232,7 +16234,7 @@
         <v>52.8</v>
       </c>
       <c r="X52" s="39" t="n">
-        <v>89.5</v>
+        <v>90.5</v>
       </c>
       <c r="Y52" s="39" t="inlineStr">
         <is>
@@ -16245,79 +16247,79 @@
         <v>51</v>
       </c>
       <c r="B53" s="39" t="n">
-        <v>159870</v>
+        <v>510300</v>
       </c>
       <c r="C53" s="39" t="inlineStr">
         <is>
-          <t>化工ETF</t>
+          <t>沪深300ETF</t>
         </is>
       </c>
       <c r="D53" s="39" t="n">
+        <v>3766.61</v>
+      </c>
+      <c r="E53" s="39" t="n">
+        <v>2</v>
+      </c>
+      <c r="F53" s="39" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G53" s="39" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="H53" s="39" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="I53" s="39" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="J53" s="39" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="K53" s="39" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L53" s="39" t="n">
+        <v>82.90000000000001</v>
+      </c>
+      <c r="M53" s="39" t="n">
+        <v>90</v>
+      </c>
+      <c r="N53" s="39" t="n">
+        <v>92.2</v>
+      </c>
+      <c r="O53" s="39" t="n">
+        <v>96.8</v>
+      </c>
+      <c r="P53" s="39" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="Q53" s="39" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="R53" s="39" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="S53" s="39" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="T53" s="39" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="U53" s="39" t="n">
         <v>14.3</v>
       </c>
-      <c r="E53" s="39" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="F53" s="39" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="G53" s="39" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="H53" s="39" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="I53" s="39" t="n">
-        <v>64.40000000000001</v>
-      </c>
-      <c r="J53" s="39" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="K53" s="39" t="n">
-        <v>75.59999999999999</v>
-      </c>
-      <c r="L53" s="39" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="M53" s="39" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="N53" s="39" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="O53" s="39" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="P53" s="39" t="n">
-        <v>84.5</v>
-      </c>
-      <c r="Q53" s="39" t="n">
-        <v>88.2</v>
-      </c>
-      <c r="R53" s="39" t="n">
-        <v>95.90000000000001</v>
-      </c>
-      <c r="S53" s="39" t="n">
-        <v>72.3</v>
-      </c>
-      <c r="T53" s="39" t="n">
-        <v>92</v>
-      </c>
-      <c r="U53" s="39" t="n">
-        <v>38</v>
-      </c>
       <c r="V53" s="39" t="n">
-        <v>49.8</v>
+        <v>4.8</v>
       </c>
       <c r="W53" s="39" t="n">
-        <v>71.5</v>
+        <v>3</v>
       </c>
       <c r="X53" s="39" t="n">
-        <v>89.5</v>
+        <v>90.7</v>
       </c>
       <c r="Y53" s="39" t="inlineStr">
         <is>
-          <t>化工ETF</t>
+          <t>沪深300ETF</t>
         </is>
       </c>
     </row>
@@ -16325,82 +16327,80 @@
       <c r="A54" s="39" t="n">
         <v>52</v>
       </c>
-      <c r="B54" s="39" t="inlineStr">
-        <is>
-          <t>159509</t>
-        </is>
+      <c r="B54" s="39" t="n">
+        <v>516160</v>
       </c>
       <c r="C54" s="39" t="inlineStr">
         <is>
-          <t>纳指科技ETF</t>
+          <t>新能源ETF</t>
         </is>
       </c>
       <c r="D54" s="39" t="n">
-        <v>89.7</v>
+        <v>44.58</v>
       </c>
       <c r="E54" s="39" t="n">
-        <v>27</v>
+        <v>5.6</v>
       </c>
       <c r="F54" s="39" t="n">
-        <v>5.3</v>
+        <v>0.5</v>
       </c>
       <c r="G54" s="39" t="n">
-        <v>27.4</v>
+        <v>0.5</v>
       </c>
       <c r="H54" s="39" t="n">
-        <v>24.8</v>
+        <v>5.8</v>
       </c>
       <c r="I54" s="39" t="n">
-        <v>85.09999999999999</v>
+        <v>57.4</v>
       </c>
       <c r="J54" s="39" t="n">
-        <v>71.40000000000001</v>
+        <v>68.5</v>
       </c>
       <c r="K54" s="39" t="n">
-        <v>83.90000000000001</v>
+        <v>80.5</v>
       </c>
       <c r="L54" s="39" t="n">
-        <v>52.2</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="M54" s="39" t="n">
-        <v>23.6</v>
+        <v>26.3</v>
       </c>
       <c r="N54" s="39" t="n">
-        <v>40</v>
+        <v>21.4</v>
       </c>
       <c r="O54" s="39" t="n">
-        <v>24.4</v>
+        <v>51.6</v>
       </c>
       <c r="P54" s="39" t="n">
-        <v>17.8</v>
+        <v>87.2</v>
       </c>
       <c r="Q54" s="39" t="n">
-        <v>23.7</v>
+        <v>61.9</v>
       </c>
       <c r="R54" s="39" t="n">
-        <v>90.7</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="S54" s="39" t="n">
-        <v>47.9</v>
+        <v>50.1</v>
       </c>
       <c r="T54" s="39" t="n">
-        <v>81.3</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="U54" s="39" t="n">
-        <v>83.40000000000001</v>
+        <v>52.1</v>
       </c>
       <c r="V54" s="39" t="n">
-        <v>76.40000000000001</v>
+        <v>22.7</v>
       </c>
       <c r="W54" s="39" t="n">
-        <v>57</v>
+        <v>39.7</v>
       </c>
       <c r="X54" s="39" t="n">
-        <v>89.7</v>
+        <v>91</v>
       </c>
       <c r="Y54" s="39" t="inlineStr">
         <is>
-          <t>纳指科技ETF</t>
+          <t>新能源ETF</t>
         </is>
       </c>
     </row>
@@ -16409,79 +16409,79 @@
         <v>53</v>
       </c>
       <c r="B55" s="39" t="n">
-        <v>516160</v>
+        <v>159920</v>
       </c>
       <c r="C55" s="39" t="inlineStr">
         <is>
-          <t>新能源ETF</t>
+          <t>恒生ETF</t>
         </is>
       </c>
       <c r="D55" s="39" t="n">
-        <v>44.45</v>
+        <v>161.81</v>
       </c>
       <c r="E55" s="39" t="n">
-        <v>5.6</v>
+        <v>11.7</v>
       </c>
       <c r="F55" s="39" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="G55" s="39" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H55" s="39" t="n">
-        <v>5.8</v>
+        <v>0.9</v>
       </c>
       <c r="I55" s="39" t="n">
-        <v>57.4</v>
+        <v>61.3</v>
       </c>
       <c r="J55" s="39" t="n">
-        <v>68.5</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="K55" s="39" t="n">
-        <v>80.5</v>
+        <v>86.8</v>
       </c>
       <c r="L55" s="39" t="n">
-        <v>76.09999999999999</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="M55" s="39" t="n">
-        <v>26.3</v>
+        <v>34.5</v>
       </c>
       <c r="N55" s="39" t="n">
-        <v>21.4</v>
+        <v>62</v>
       </c>
       <c r="O55" s="39" t="n">
-        <v>51.6</v>
+        <v>62</v>
       </c>
       <c r="P55" s="39" t="n">
-        <v>87.2</v>
+        <v>81.3</v>
       </c>
       <c r="Q55" s="39" t="n">
-        <v>61.9</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="R55" s="39" t="n">
-        <v>82.40000000000001</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="S55" s="39" t="n">
-        <v>50.1</v>
+        <v>56.7</v>
       </c>
       <c r="T55" s="39" t="n">
-        <v>77.09999999999999</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="U55" s="39" t="n">
-        <v>52.1</v>
+        <v>70</v>
       </c>
       <c r="V55" s="39" t="n">
-        <v>22.7</v>
+        <v>28.7</v>
       </c>
       <c r="W55" s="39" t="n">
-        <v>39.7</v>
+        <v>61.6</v>
       </c>
       <c r="X55" s="39" t="n">
-        <v>90.09999999999999</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="Y55" s="39" t="inlineStr">
         <is>
-          <t>新能源ETF</t>
+          <t>恒生ETF</t>
         </is>
       </c>
     </row>
@@ -16489,82 +16489,80 @@
       <c r="A56" s="39" t="n">
         <v>54</v>
       </c>
-      <c r="B56" s="39" t="inlineStr">
-        <is>
-          <t>510210</t>
-        </is>
+      <c r="B56" s="39" t="n">
+        <v>513090</v>
       </c>
       <c r="C56" s="39" t="inlineStr">
         <is>
-          <t>上证指数ETF</t>
+          <t>香港证券ETF</t>
         </is>
       </c>
       <c r="D56" s="39" t="n">
+        <v>72.54000000000001</v>
+      </c>
+      <c r="E56" s="39" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="F56" s="39" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G56" s="39" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H56" s="39" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="I56" s="39" t="n">
+        <v>58.1</v>
+      </c>
+      <c r="J56" s="39" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="K56" s="39" t="n">
+        <v>85.09999999999999</v>
+      </c>
+      <c r="L56" s="39" t="n">
+        <v>80.2</v>
+      </c>
+      <c r="M56" s="39" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="N56" s="39" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="O56" s="39" t="n">
         <v>48.5</v>
       </c>
-      <c r="E56" s="39" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="F56" s="39" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="G56" s="39" t="n">
-        <v>24.8</v>
-      </c>
-      <c r="H56" s="39" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="I56" s="39" t="n">
-        <v>64.2</v>
-      </c>
-      <c r="J56" s="39" t="n">
-        <v>73.7</v>
-      </c>
-      <c r="K56" s="39" t="n">
-        <v>86.40000000000001</v>
-      </c>
-      <c r="L56" s="39" t="n">
-        <v>88.09999999999999</v>
-      </c>
-      <c r="M56" s="39" t="n">
-        <v>90.40000000000001</v>
-      </c>
-      <c r="N56" s="39" t="n">
-        <v>93.09999999999999</v>
-      </c>
-      <c r="O56" s="39" t="n">
-        <v>97.40000000000001</v>
-      </c>
       <c r="P56" s="39" t="n">
-        <v>99</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="Q56" s="39" t="n">
-        <v>99.59999999999999</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="R56" s="39" t="n">
-        <v>64</v>
+        <v>96.7</v>
       </c>
       <c r="S56" s="39" t="n">
-        <v>73.5</v>
+        <v>40.2</v>
       </c>
       <c r="T56" s="39" t="n">
-        <v>73.5</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="U56" s="39" t="n">
-        <v>23.7</v>
+        <v>52.6</v>
       </c>
       <c r="V56" s="39" t="n">
-        <v>14.1</v>
+        <v>35.4</v>
       </c>
       <c r="W56" s="39" t="n">
-        <v>14.1</v>
+        <v>40.9</v>
       </c>
       <c r="X56" s="39" t="n">
-        <v>90.5</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="Y56" s="39" t="inlineStr">
         <is>
-          <t>上证指数ETF</t>
+          <t>香港证券ETF</t>
         </is>
       </c>
     </row>
@@ -16572,80 +16570,82 @@
       <c r="A57" s="39" t="n">
         <v>55</v>
       </c>
-      <c r="B57" s="39" t="n">
-        <v>159920</v>
+      <c r="B57" s="39" t="inlineStr">
+        <is>
+          <t>510210</t>
+        </is>
       </c>
       <c r="C57" s="39" t="inlineStr">
         <is>
-          <t>恒生ETF</t>
+          <t>上证指数ETF</t>
         </is>
       </c>
       <c r="D57" s="39" t="n">
-        <v>161.46</v>
+        <v>48.56</v>
       </c>
       <c r="E57" s="39" t="n">
-        <v>11.7</v>
+        <v>21.4</v>
       </c>
       <c r="F57" s="39" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="G57" s="39" t="n">
-        <v>1</v>
+        <v>24.8</v>
       </c>
       <c r="H57" s="39" t="n">
-        <v>0.9</v>
+        <v>43.7</v>
       </c>
       <c r="I57" s="39" t="n">
-        <v>61.3</v>
+        <v>64.2</v>
       </c>
       <c r="J57" s="39" t="n">
-        <v>74.40000000000001</v>
+        <v>73.7</v>
       </c>
       <c r="K57" s="39" t="n">
-        <v>86.8</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="L57" s="39" t="n">
-        <v>89.09999999999999</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="M57" s="39" t="n">
-        <v>34.5</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="N57" s="39" t="n">
-        <v>62</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="O57" s="39" t="n">
-        <v>62</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="P57" s="39" t="n">
-        <v>81.3</v>
+        <v>99</v>
       </c>
       <c r="Q57" s="39" t="n">
-        <v>88.59999999999999</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="R57" s="39" t="n">
-        <v>98.09999999999999</v>
+        <v>64</v>
       </c>
       <c r="S57" s="39" t="n">
-        <v>56.7</v>
+        <v>73.5</v>
       </c>
       <c r="T57" s="39" t="n">
-        <v>74.90000000000001</v>
+        <v>73.5</v>
       </c>
       <c r="U57" s="39" t="n">
-        <v>70</v>
+        <v>23.7</v>
       </c>
       <c r="V57" s="39" t="n">
-        <v>28.7</v>
+        <v>14.1</v>
       </c>
       <c r="W57" s="39" t="n">
-        <v>61.6</v>
+        <v>14.1</v>
       </c>
       <c r="X57" s="39" t="n">
-        <v>90.7</v>
+        <v>92</v>
       </c>
       <c r="Y57" s="39" t="inlineStr">
         <is>
-          <t>恒生ETF</t>
+          <t>上证指数ETF</t>
         </is>
       </c>
     </row>
@@ -16654,79 +16654,79 @@
         <v>56</v>
       </c>
       <c r="B58" s="39" t="n">
-        <v>513090</v>
+        <v>515030</v>
       </c>
       <c r="C58" s="39" t="inlineStr">
         <is>
-          <t>香港证券ETF</t>
+          <t>新能源车ETF</t>
         </is>
       </c>
       <c r="D58" s="39" t="n">
-        <v>72.44</v>
+        <v>43.77</v>
       </c>
       <c r="E58" s="39" t="n">
-        <v>30.1</v>
+        <v>5</v>
       </c>
       <c r="F58" s="39" t="n">
-        <v>2.9</v>
+        <v>0.4</v>
       </c>
       <c r="G58" s="39" t="n">
-        <v>1.6</v>
+        <v>0.3</v>
       </c>
       <c r="H58" s="39" t="n">
-        <v>24.6</v>
+        <v>12.1</v>
       </c>
       <c r="I58" s="39" t="n">
-        <v>58.1</v>
+        <v>59</v>
       </c>
       <c r="J58" s="39" t="n">
-        <v>75.90000000000001</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="K58" s="39" t="n">
-        <v>85.09999999999999</v>
+        <v>80.5</v>
       </c>
       <c r="L58" s="39" t="n">
-        <v>80.2</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="M58" s="39" t="n">
-        <v>33.6</v>
+        <v>27.2</v>
       </c>
       <c r="N58" s="39" t="n">
-        <v>44.4</v>
+        <v>22.2</v>
       </c>
       <c r="O58" s="39" t="n">
-        <v>48.5</v>
+        <v>51.8</v>
       </c>
       <c r="P58" s="39" t="n">
-        <v>72.90000000000001</v>
+        <v>89.3</v>
       </c>
       <c r="Q58" s="39" t="n">
-        <v>91.09999999999999</v>
+        <v>66.7</v>
       </c>
       <c r="R58" s="39" t="n">
-        <v>96.7</v>
+        <v>90</v>
       </c>
       <c r="S58" s="39" t="n">
-        <v>40.2</v>
+        <v>69</v>
       </c>
       <c r="T58" s="39" t="n">
-        <v>76.59999999999999</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="U58" s="39" t="n">
-        <v>52.6</v>
+        <v>26.4</v>
       </c>
       <c r="V58" s="39" t="n">
-        <v>35.4</v>
+        <v>40.5</v>
       </c>
       <c r="W58" s="39" t="n">
-        <v>40.9</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="X58" s="39" t="n">
-        <v>91.8</v>
+        <v>92.7</v>
       </c>
       <c r="Y58" s="39" t="inlineStr">
         <is>
-          <t>香港证券ETF</t>
+          <t>新能源车ETF</t>
         </is>
       </c>
     </row>
@@ -16735,79 +16735,79 @@
         <v>57</v>
       </c>
       <c r="B59" s="39" t="n">
-        <v>515030</v>
+        <v>159870</v>
       </c>
       <c r="C59" s="39" t="inlineStr">
         <is>
-          <t>新能源车ETF</t>
+          <t>化工ETF</t>
         </is>
       </c>
       <c r="D59" s="39" t="n">
-        <v>43.59</v>
+        <v>14.4</v>
       </c>
       <c r="E59" s="39" t="n">
-        <v>5</v>
+        <v>13.8</v>
       </c>
       <c r="F59" s="39" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="G59" s="39" t="n">
-        <v>0.3</v>
+        <v>31.5</v>
       </c>
       <c r="H59" s="39" t="n">
-        <v>12.1</v>
+        <v>34.4</v>
       </c>
       <c r="I59" s="39" t="n">
-        <v>59</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="J59" s="39" t="n">
-        <v>77.40000000000001</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="K59" s="39" t="n">
-        <v>80.5</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="L59" s="39" t="n">
-        <v>83.90000000000001</v>
+        <v>33.5</v>
       </c>
       <c r="M59" s="39" t="n">
-        <v>27.2</v>
+        <v>15.9</v>
       </c>
       <c r="N59" s="39" t="n">
-        <v>22.2</v>
+        <v>30.5</v>
       </c>
       <c r="O59" s="39" t="n">
-        <v>51.8</v>
+        <v>30.5</v>
       </c>
       <c r="P59" s="39" t="n">
-        <v>89.3</v>
+        <v>84.5</v>
       </c>
       <c r="Q59" s="39" t="n">
-        <v>66.7</v>
+        <v>88.2</v>
       </c>
       <c r="R59" s="39" t="n">
-        <v>90</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="S59" s="39" t="n">
-        <v>69</v>
+        <v>72.3</v>
       </c>
       <c r="T59" s="39" t="n">
-        <v>80.09999999999999</v>
+        <v>92</v>
       </c>
       <c r="U59" s="39" t="n">
-        <v>26.4</v>
+        <v>38</v>
       </c>
       <c r="V59" s="39" t="n">
-        <v>40.5</v>
+        <v>49.8</v>
       </c>
       <c r="W59" s="39" t="n">
-        <v>81.90000000000001</v>
+        <v>71.5</v>
       </c>
       <c r="X59" s="39" t="n">
-        <v>91.90000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="Y59" s="39" t="inlineStr">
         <is>
-          <t>新能源车ETF</t>
+          <t>化工ETF</t>
         </is>
       </c>
     </row>
@@ -16824,7 +16824,7 @@
         </is>
       </c>
       <c r="D60" s="39" t="n">
-        <v>131.16</v>
+        <v>131.42</v>
       </c>
       <c r="E60" s="39" t="n">
         <v>22.3</v>
@@ -16884,7 +16884,7 @@
         <v>74.8</v>
       </c>
       <c r="X60" s="39" t="n">
-        <v>92.5</v>
+        <v>93</v>
       </c>
       <c r="Y60" s="39" t="inlineStr">
         <is>
@@ -16897,79 +16897,79 @@
         <v>59</v>
       </c>
       <c r="B61" s="39" t="n">
-        <v>512170</v>
+        <v>515050</v>
       </c>
       <c r="C61" s="39" t="inlineStr">
         <is>
-          <t>医疗ETF</t>
+          <t>5G通信ETF</t>
         </is>
       </c>
       <c r="D61" s="39" t="n">
-        <v>260.45</v>
+        <v>62.21</v>
       </c>
       <c r="E61" s="39" t="n">
-        <v>23.7</v>
+        <v>4.9</v>
       </c>
       <c r="F61" s="39" t="n">
-        <v>2.9</v>
+        <v>1</v>
       </c>
       <c r="G61" s="39" t="n">
-        <v>16.6</v>
+        <v>0.5</v>
       </c>
       <c r="H61" s="39" t="n">
-        <v>23.8</v>
+        <v>17.2</v>
       </c>
       <c r="I61" s="39" t="n">
-        <v>62.5</v>
+        <v>60.4</v>
       </c>
       <c r="J61" s="39" t="n">
-        <v>62.5</v>
+        <v>74.7</v>
       </c>
       <c r="K61" s="39" t="n">
-        <v>72</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="L61" s="39" t="n">
-        <v>35.8</v>
+        <v>44.5</v>
       </c>
       <c r="M61" s="39" t="n">
-        <v>11.9</v>
+        <v>19.1</v>
       </c>
       <c r="N61" s="39" t="n">
-        <v>33.9</v>
+        <v>18.1</v>
       </c>
       <c r="O61" s="39" t="n">
-        <v>22.6</v>
+        <v>64.3</v>
       </c>
       <c r="P61" s="39" t="n">
-        <v>74.2</v>
+        <v>86.8</v>
       </c>
       <c r="Q61" s="39" t="n">
-        <v>74.2</v>
+        <v>49.1</v>
       </c>
       <c r="R61" s="39" t="n">
-        <v>74.2</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="S61" s="39" t="n">
-        <v>74.2</v>
+        <v>42.8</v>
       </c>
       <c r="T61" s="39" t="n">
-        <v>94.3</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="U61" s="39" t="n">
-        <v>16.6</v>
+        <v>41.4</v>
       </c>
       <c r="V61" s="39" t="n">
-        <v>73.90000000000001</v>
+        <v>48.2</v>
       </c>
       <c r="W61" s="39" t="n">
-        <v>84.5</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="X61" s="39" t="n">
-        <v>93</v>
+        <v>93.8</v>
       </c>
       <c r="Y61" s="39" t="inlineStr">
         <is>
-          <t>医疗ETF</t>
+          <t>5G通信ETF</t>
         </is>
       </c>
     </row>
@@ -16988,7 +16988,7 @@
         </is>
       </c>
       <c r="D62" s="39" t="n">
-        <v>257.16</v>
+        <v>257.75</v>
       </c>
       <c r="E62" s="39" t="n">
         <v>6.1</v>
@@ -17048,7 +17048,7 @@
         <v>76.09999999999999</v>
       </c>
       <c r="X62" s="39" t="n">
-        <v>93.3</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="Y62" s="39" t="inlineStr">
         <is>
@@ -17069,7 +17069,7 @@
         </is>
       </c>
       <c r="D63" s="39" t="n">
-        <v>857.26</v>
+        <v>859.01</v>
       </c>
       <c r="E63" s="39" t="n">
         <v>2.7</v>
@@ -17129,7 +17129,7 @@
         <v>77.59999999999999</v>
       </c>
       <c r="X63" s="39" t="n">
-        <v>93.5</v>
+        <v>94</v>
       </c>
       <c r="Y63" s="39" t="inlineStr">
         <is>
@@ -17141,80 +17141,82 @@
       <c r="A64" s="39" t="n">
         <v>62</v>
       </c>
-      <c r="B64" s="39" t="n">
-        <v>513050</v>
+      <c r="B64" s="39" t="inlineStr">
+        <is>
+          <t>517160</t>
+        </is>
       </c>
       <c r="C64" s="39" t="inlineStr">
         <is>
-          <t>中概互联网ETF</t>
+          <t>长江保护主题ETF</t>
         </is>
       </c>
       <c r="D64" s="39" t="n">
-        <v>354.81</v>
+        <v>13.09</v>
       </c>
       <c r="E64" s="39" t="n">
-        <v>8.800000000000001</v>
+        <v>57.2</v>
       </c>
       <c r="F64" s="39" t="n">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="G64" s="39" t="n">
-        <v>0.9</v>
+        <v>27.3</v>
       </c>
       <c r="H64" s="39" t="n">
-        <v>8.300000000000001</v>
+        <v>46.2</v>
       </c>
       <c r="I64" s="39" t="n">
-        <v>56.6</v>
+        <v>68.2</v>
       </c>
       <c r="J64" s="39" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="K64" s="39" t="n">
-        <v>68.09999999999999</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="L64" s="39" t="n">
-        <v>79.09999999999999</v>
+        <v>58.2</v>
       </c>
       <c r="M64" s="39" t="n">
-        <v>23.7</v>
+        <v>30.7</v>
       </c>
       <c r="N64" s="39" t="n">
-        <v>56.2</v>
+        <v>55.8</v>
       </c>
       <c r="O64" s="39" t="n">
-        <v>39.4</v>
+        <v>55.8</v>
       </c>
       <c r="P64" s="39" t="n">
-        <v>60.4</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="Q64" s="39" t="n">
-        <v>79.7</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="R64" s="39" t="n">
-        <v>96.3</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="S64" s="39" t="n">
-        <v>52.1</v>
+        <v>64.8</v>
       </c>
       <c r="T64" s="39" t="n">
-        <v>75.5</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="U64" s="39" t="n">
-        <v>77.09999999999999</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="V64" s="39" t="n">
-        <v>44.3</v>
+        <v>35.3</v>
       </c>
       <c r="W64" s="39" t="n">
-        <v>73.3</v>
+        <v>58.8</v>
       </c>
       <c r="X64" s="39" t="n">
-        <v>93.59999999999999</v>
+        <v>94</v>
       </c>
       <c r="Y64" s="39" t="inlineStr">
         <is>
-          <t>中概互联网ETF</t>
+          <t>长江保护主题ETF</t>
         </is>
       </c>
     </row>
@@ -17223,79 +17225,79 @@
         <v>63</v>
       </c>
       <c r="B65" s="39" t="n">
-        <v>512100</v>
+        <v>512170</v>
       </c>
       <c r="C65" s="39" t="inlineStr">
         <is>
-          <t>中证1000ETF</t>
+          <t>医疗ETF</t>
         </is>
       </c>
       <c r="D65" s="39" t="n">
-        <v>637.24</v>
+        <v>260.45</v>
       </c>
       <c r="E65" s="39" t="n">
-        <v>17.3</v>
+        <v>23.7</v>
       </c>
       <c r="F65" s="39" t="n">
-        <v>1.3</v>
+        <v>2.9</v>
       </c>
       <c r="G65" s="39" t="n">
-        <v>1.2</v>
+        <v>16.6</v>
       </c>
       <c r="H65" s="39" t="n">
-        <v>35.1</v>
+        <v>23.8</v>
       </c>
       <c r="I65" s="39" t="n">
-        <v>67.09999999999999</v>
+        <v>62.5</v>
       </c>
       <c r="J65" s="39" t="n">
-        <v>78.59999999999999</v>
+        <v>62.5</v>
       </c>
       <c r="K65" s="39" t="n">
-        <v>87.59999999999999</v>
+        <v>72</v>
       </c>
       <c r="L65" s="39" t="n">
-        <v>70.40000000000001</v>
+        <v>35.8</v>
       </c>
       <c r="M65" s="39" t="n">
-        <v>30.5</v>
+        <v>11.9</v>
       </c>
       <c r="N65" s="39" t="n">
-        <v>33.1</v>
+        <v>33.9</v>
       </c>
       <c r="O65" s="39" t="n">
-        <v>25.6</v>
+        <v>22.6</v>
       </c>
       <c r="P65" s="39" t="n">
-        <v>88.40000000000001</v>
+        <v>74.2</v>
       </c>
       <c r="Q65" s="39" t="n">
-        <v>88.40000000000001</v>
+        <v>74.2</v>
       </c>
       <c r="R65" s="39" t="n">
-        <v>94.2</v>
+        <v>74.2</v>
       </c>
       <c r="S65" s="39" t="n">
-        <v>35.8</v>
+        <v>74.2</v>
       </c>
       <c r="T65" s="39" t="n">
-        <v>49.4</v>
+        <v>94.3</v>
       </c>
       <c r="U65" s="39" t="n">
-        <v>15.8</v>
+        <v>16.6</v>
       </c>
       <c r="V65" s="39" t="n">
-        <v>49.1</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="W65" s="39" t="n">
-        <v>76.7</v>
+        <v>84.5</v>
       </c>
       <c r="X65" s="39" t="n">
-        <v>93.8</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="Y65" s="39" t="inlineStr">
         <is>
-          <t>中证1000ETF</t>
+          <t>医疗ETF</t>
         </is>
       </c>
     </row>
@@ -17303,80 +17305,82 @@
       <c r="A66" s="39" t="n">
         <v>64</v>
       </c>
-      <c r="B66" s="39" t="n">
-        <v>513970</v>
+      <c r="B66" s="39" t="inlineStr">
+        <is>
+          <t>512010</t>
+        </is>
       </c>
       <c r="C66" s="39" t="inlineStr">
         <is>
-          <t>恒生消费ETF</t>
+          <t>医药ETF</t>
         </is>
       </c>
       <c r="D66" s="39" t="n">
-        <v>17.97</v>
+        <v>221.96</v>
       </c>
       <c r="E66" s="39" t="n">
-        <v>22.3</v>
+        <v>34.8</v>
       </c>
       <c r="F66" s="39" t="n">
-        <v>3.1</v>
+        <v>5.6</v>
       </c>
       <c r="G66" s="39" t="n">
-        <v>14.4</v>
+        <v>17.2</v>
       </c>
       <c r="H66" s="39" t="n">
-        <v>28.7</v>
+        <v>15.3</v>
       </c>
       <c r="I66" s="39" t="n">
-        <v>74.90000000000001</v>
+        <v>59.5</v>
       </c>
       <c r="J66" s="39" t="n">
-        <v>76.7</v>
+        <v>66.5</v>
       </c>
       <c r="K66" s="39" t="n">
-        <v>86.5</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="L66" s="39" t="n">
-        <v>91.09999999999999</v>
+        <v>29.6</v>
       </c>
       <c r="M66" s="39" t="n">
-        <v>37.1</v>
+        <v>49.8</v>
       </c>
       <c r="N66" s="39" t="n">
-        <v>59.3</v>
+        <v>49.8</v>
       </c>
       <c r="O66" s="39" t="n">
-        <v>37.3</v>
+        <v>23.2</v>
       </c>
       <c r="P66" s="39" t="n">
-        <v>73.2</v>
+        <v>62.9</v>
       </c>
       <c r="Q66" s="39" t="n">
-        <v>78.59999999999999</v>
+        <v>92.8</v>
       </c>
       <c r="R66" s="39" t="n">
-        <v>95.8</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="S66" s="39" t="n">
-        <v>64.7</v>
+        <v>78.5</v>
       </c>
       <c r="T66" s="39" t="n">
-        <v>75.3</v>
+        <v>45.4</v>
       </c>
       <c r="U66" s="39" t="n">
-        <v>86</v>
+        <v>16.9</v>
       </c>
       <c r="V66" s="39" t="n">
-        <v>63.9</v>
+        <v>48.9</v>
       </c>
       <c r="W66" s="39" t="n">
-        <v>79.59999999999999</v>
+        <v>87.5</v>
       </c>
       <c r="X66" s="39" t="n">
-        <v>93.90000000000001</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="Y66" s="39" t="inlineStr">
         <is>
-          <t>恒生消费ETF</t>
+          <t>医药ETF</t>
         </is>
       </c>
     </row>
@@ -17385,79 +17389,79 @@
         <v>65</v>
       </c>
       <c r="B67" s="39" t="n">
-        <v>159667</v>
+        <v>513050</v>
       </c>
       <c r="C67" s="39" t="inlineStr">
         <is>
-          <t>工业母机ETF</t>
+          <t>中概互联网ETF</t>
         </is>
       </c>
       <c r="D67" s="39" t="n">
-        <v>4.93</v>
+        <v>356.34</v>
       </c>
       <c r="E67" s="39" t="n">
-        <v>15.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="F67" s="39" t="n">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="G67" s="39" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H67" s="39" t="n">
-        <v>26.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="I67" s="39" t="n">
-        <v>61.2</v>
+        <v>56.6</v>
       </c>
       <c r="J67" s="39" t="n">
-        <v>74.5</v>
+        <v>45</v>
       </c>
       <c r="K67" s="39" t="n">
-        <v>83.2</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="L67" s="39" t="n">
-        <v>67.8</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="M67" s="39" t="n">
-        <v>23.1</v>
+        <v>23.7</v>
       </c>
       <c r="N67" s="39" t="n">
-        <v>31.6</v>
+        <v>56.2</v>
       </c>
       <c r="O67" s="39" t="n">
-        <v>38.5</v>
+        <v>39.4</v>
       </c>
       <c r="P67" s="39" t="n">
-        <v>90.40000000000001</v>
+        <v>60.4</v>
       </c>
       <c r="Q67" s="39" t="n">
-        <v>60.3</v>
+        <v>79.7</v>
       </c>
       <c r="R67" s="39" t="n">
-        <v>87.09999999999999</v>
+        <v>96.3</v>
       </c>
       <c r="S67" s="39" t="n">
-        <v>68.59999999999999</v>
+        <v>52.1</v>
       </c>
       <c r="T67" s="39" t="n">
-        <v>75</v>
+        <v>75.5</v>
       </c>
       <c r="U67" s="39" t="n">
-        <v>23.7</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="V67" s="39" t="n">
-        <v>60.7</v>
+        <v>44.3</v>
       </c>
       <c r="W67" s="39" t="n">
-        <v>84.8</v>
+        <v>73.3</v>
       </c>
       <c r="X67" s="39" t="n">
-        <v>93.90000000000001</v>
+        <v>94.2</v>
       </c>
       <c r="Y67" s="39" t="inlineStr">
         <is>
-          <t>工业母机ETF</t>
+          <t>中概互联网ETF</t>
         </is>
       </c>
     </row>
@@ -17465,82 +17469,80 @@
       <c r="A68" s="39" t="n">
         <v>66</v>
       </c>
-      <c r="B68" s="39" t="inlineStr">
-        <is>
-          <t>517160</t>
-        </is>
+      <c r="B68" s="39" t="n">
+        <v>513970</v>
       </c>
       <c r="C68" s="39" t="inlineStr">
         <is>
-          <t>长江保护主题ETF</t>
+          <t>恒生消费ETF</t>
         </is>
       </c>
       <c r="D68" s="39" t="n">
-        <v>13.09</v>
+        <v>17.99</v>
       </c>
       <c r="E68" s="39" t="n">
-        <v>57.2</v>
+        <v>22.3</v>
       </c>
       <c r="F68" s="39" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="G68" s="39" t="n">
-        <v>27.3</v>
+        <v>14.4</v>
       </c>
       <c r="H68" s="39" t="n">
-        <v>46.2</v>
+        <v>28.7</v>
       </c>
       <c r="I68" s="39" t="n">
-        <v>68.2</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="J68" s="39" t="n">
-        <v>60</v>
+        <v>76.7</v>
       </c>
       <c r="K68" s="39" t="n">
+        <v>86.5</v>
+      </c>
+      <c r="L68" s="39" t="n">
+        <v>91.09999999999999</v>
+      </c>
+      <c r="M68" s="39" t="n">
+        <v>37.1</v>
+      </c>
+      <c r="N68" s="39" t="n">
+        <v>59.3</v>
+      </c>
+      <c r="O68" s="39" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="P68" s="39" t="n">
+        <v>73.2</v>
+      </c>
+      <c r="Q68" s="39" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="R68" s="39" t="n">
+        <v>95.8</v>
+      </c>
+      <c r="S68" s="39" t="n">
+        <v>64.7</v>
+      </c>
+      <c r="T68" s="39" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="U68" s="39" t="n">
+        <v>86</v>
+      </c>
+      <c r="V68" s="39" t="n">
+        <v>63.9</v>
+      </c>
+      <c r="W68" s="39" t="n">
         <v>79.59999999999999</v>
       </c>
-      <c r="L68" s="39" t="n">
-        <v>58.2</v>
-      </c>
-      <c r="M68" s="39" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="N68" s="39" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="O68" s="39" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="P68" s="39" t="n">
-        <v>84.90000000000001</v>
-      </c>
-      <c r="Q68" s="39" t="n">
-        <v>88.59999999999999</v>
-      </c>
-      <c r="R68" s="39" t="n">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="S68" s="39" t="n">
-        <v>64.8</v>
-      </c>
-      <c r="T68" s="39" t="n">
-        <v>73.59999999999999</v>
-      </c>
-      <c r="U68" s="39" t="n">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="V68" s="39" t="n">
-        <v>35.3</v>
-      </c>
-      <c r="W68" s="39" t="n">
-        <v>58.8</v>
-      </c>
       <c r="X68" s="39" t="n">
-        <v>94</v>
+        <v>94.3</v>
       </c>
       <c r="Y68" s="39" t="inlineStr">
         <is>
-          <t>长江保护主题ETF</t>
+          <t>恒生消费ETF</t>
         </is>
       </c>
     </row>
@@ -17549,79 +17551,79 @@
         <v>67</v>
       </c>
       <c r="B69" s="39" t="n">
-        <v>515050</v>
+        <v>512100</v>
       </c>
       <c r="C69" s="39" t="inlineStr">
         <is>
-          <t>5G通信ETF</t>
+          <t>中证1000ETF</t>
         </is>
       </c>
       <c r="D69" s="39" t="n">
-        <v>62.15</v>
+        <v>639.34</v>
       </c>
       <c r="E69" s="39" t="n">
-        <v>4.9</v>
+        <v>17.3</v>
       </c>
       <c r="F69" s="39" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="G69" s="39" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H69" s="39" t="n">
-        <v>17.2</v>
+        <v>35.1</v>
       </c>
       <c r="I69" s="39" t="n">
-        <v>60.4</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="J69" s="39" t="n">
-        <v>74.7</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="K69" s="39" t="n">
-        <v>78.40000000000001</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="L69" s="39" t="n">
-        <v>44.5</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="M69" s="39" t="n">
-        <v>19.1</v>
+        <v>30.5</v>
       </c>
       <c r="N69" s="39" t="n">
-        <v>18.1</v>
+        <v>33.1</v>
       </c>
       <c r="O69" s="39" t="n">
-        <v>64.3</v>
+        <v>25.6</v>
       </c>
       <c r="P69" s="39" t="n">
-        <v>86.8</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="Q69" s="39" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="R69" s="39" t="n">
+        <v>94.2</v>
+      </c>
+      <c r="S69" s="39" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="T69" s="39" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="U69" s="39" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="V69" s="39" t="n">
         <v>49.1</v>
       </c>
-      <c r="R69" s="39" t="n">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="S69" s="39" t="n">
-        <v>42.8</v>
-      </c>
-      <c r="T69" s="39" t="n">
-        <v>71.59999999999999</v>
-      </c>
-      <c r="U69" s="39" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="V69" s="39" t="n">
-        <v>48.2</v>
-      </c>
       <c r="W69" s="39" t="n">
-        <v>80.09999999999999</v>
+        <v>76.7</v>
       </c>
       <c r="X69" s="39" t="n">
-        <v>94</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="Y69" s="39" t="inlineStr">
         <is>
-          <t>5G通信ETF</t>
+          <t>中证1000ETF</t>
         </is>
       </c>
     </row>
@@ -17638,7 +17640,7 @@
         </is>
       </c>
       <c r="D70" s="39" t="n">
-        <v>89.63</v>
+        <v>89.91</v>
       </c>
       <c r="E70" s="39" t="n">
         <v>11.1</v>
@@ -17698,7 +17700,7 @@
         <v>52.1</v>
       </c>
       <c r="X70" s="39" t="n">
-        <v>94.09999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="Y70" s="39" t="inlineStr">
         <is>
@@ -17710,82 +17712,80 @@
       <c r="A71" s="39" t="n">
         <v>69</v>
       </c>
-      <c r="B71" s="39" t="inlineStr">
-        <is>
-          <t>512010</t>
-        </is>
+      <c r="B71" s="39" t="n">
+        <v>513360</v>
       </c>
       <c r="C71" s="39" t="inlineStr">
         <is>
-          <t>医药ETF</t>
+          <t>教育ETF</t>
         </is>
       </c>
       <c r="D71" s="39" t="n">
-        <v>221.33</v>
+        <v>6.56</v>
       </c>
       <c r="E71" s="39" t="n">
-        <v>34.8</v>
+        <v>4.7</v>
       </c>
       <c r="F71" s="39" t="n">
-        <v>5.6</v>
+        <v>0.2</v>
       </c>
       <c r="G71" s="39" t="n">
-        <v>17.2</v>
+        <v>0.2</v>
       </c>
       <c r="H71" s="39" t="n">
-        <v>15.3</v>
+        <v>4.4</v>
       </c>
       <c r="I71" s="39" t="n">
-        <v>59.5</v>
+        <v>43.1</v>
       </c>
       <c r="J71" s="39" t="n">
-        <v>66.5</v>
+        <v>62.3</v>
       </c>
       <c r="K71" s="39" t="n">
-        <v>75.09999999999999</v>
+        <v>70.3</v>
       </c>
       <c r="L71" s="39" t="n">
-        <v>29.6</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="M71" s="39" t="n">
-        <v>49.8</v>
+        <v>31.8</v>
       </c>
       <c r="N71" s="39" t="n">
-        <v>49.8</v>
+        <v>72</v>
       </c>
       <c r="O71" s="39" t="n">
-        <v>23.2</v>
+        <v>60.2</v>
       </c>
       <c r="P71" s="39" t="n">
-        <v>62.9</v>
+        <v>89</v>
       </c>
       <c r="Q71" s="39" t="n">
-        <v>92.8</v>
+        <v>90.7</v>
       </c>
       <c r="R71" s="39" t="n">
-        <v>66.09999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="S71" s="39" t="n">
-        <v>78.5</v>
+        <v>54.2</v>
       </c>
       <c r="T71" s="39" t="n">
-        <v>45.4</v>
+        <v>22.5</v>
       </c>
       <c r="U71" s="39" t="n">
-        <v>16.9</v>
+        <v>41.3</v>
       </c>
       <c r="V71" s="39" t="n">
-        <v>48.9</v>
+        <v>64.3</v>
       </c>
       <c r="W71" s="39" t="n">
-        <v>87.5</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="X71" s="39" t="n">
-        <v>94.09999999999999</v>
+        <v>94.7</v>
       </c>
       <c r="Y71" s="39" t="inlineStr">
         <is>
-          <t>医药ETF</t>
+          <t>教育ETF</t>
         </is>
       </c>
     </row>
@@ -17794,79 +17794,79 @@
         <v>70</v>
       </c>
       <c r="B72" s="39" t="n">
-        <v>159992</v>
+        <v>562500</v>
       </c>
       <c r="C72" s="39" t="inlineStr">
         <is>
-          <t>创新药ETF</t>
+          <t>机器人ETF</t>
         </is>
       </c>
       <c r="D72" s="39" t="n">
-        <v>118.02</v>
+        <v>139.78</v>
       </c>
       <c r="E72" s="39" t="n">
-        <v>58</v>
+        <v>17.4</v>
       </c>
       <c r="F72" s="39" t="n">
-        <v>5.1</v>
+        <v>2.5</v>
       </c>
       <c r="G72" s="39" t="n">
-        <v>22</v>
+        <v>1.4</v>
       </c>
       <c r="H72" s="39" t="n">
-        <v>17.2</v>
+        <v>31</v>
       </c>
       <c r="I72" s="39" t="n">
-        <v>60.8</v>
+        <v>59.8</v>
       </c>
       <c r="J72" s="39" t="n">
-        <v>71</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="K72" s="39" t="n">
-        <v>83.7</v>
+        <v>75.8</v>
       </c>
       <c r="L72" s="39" t="n">
-        <v>60.2</v>
+        <v>53.4</v>
       </c>
       <c r="M72" s="39" t="n">
-        <v>32.7</v>
+        <v>25.9</v>
       </c>
       <c r="N72" s="39" t="n">
-        <v>22.5</v>
+        <v>19.3</v>
       </c>
       <c r="O72" s="39" t="n">
-        <v>22.5</v>
+        <v>19.3</v>
       </c>
       <c r="P72" s="39" t="n">
-        <v>86.2</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="Q72" s="39" t="n">
-        <v>94.40000000000001</v>
+        <v>56.9</v>
       </c>
       <c r="R72" s="39" t="n">
-        <v>51.4</v>
+        <v>88.5</v>
       </c>
       <c r="S72" s="39" t="n">
-        <v>72.7</v>
+        <v>58.7</v>
       </c>
       <c r="T72" s="39" t="n">
-        <v>38.7</v>
+        <v>68.2</v>
       </c>
       <c r="U72" s="39" t="n">
-        <v>38.7</v>
+        <v>28.6</v>
       </c>
       <c r="V72" s="39" t="n">
-        <v>72.7</v>
+        <v>67</v>
       </c>
       <c r="W72" s="39" t="n">
-        <v>90.7</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="X72" s="39" t="n">
-        <v>94.09999999999999</v>
+        <v>94.8</v>
       </c>
       <c r="Y72" s="39" t="inlineStr">
         <is>
-          <t>创新药ETF</t>
+          <t>机器人ETF</t>
         </is>
       </c>
     </row>
@@ -17875,79 +17875,79 @@
         <v>71</v>
       </c>
       <c r="B73" s="39" t="n">
-        <v>562500</v>
+        <v>513500</v>
       </c>
       <c r="C73" s="39" t="inlineStr">
         <is>
-          <t>机器人ETF</t>
+          <t>标普500ETF</t>
         </is>
       </c>
       <c r="D73" s="39" t="n">
-        <v>139.14</v>
+        <v>179.61</v>
       </c>
       <c r="E73" s="39" t="n">
-        <v>17.4</v>
+        <v>13.7</v>
       </c>
       <c r="F73" s="39" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="G73" s="39" t="n">
-        <v>1.4</v>
+        <v>39.8</v>
       </c>
       <c r="H73" s="39" t="n">
-        <v>31</v>
+        <v>24.8</v>
       </c>
       <c r="I73" s="39" t="n">
-        <v>59.8</v>
+        <v>77.2</v>
       </c>
       <c r="J73" s="39" t="n">
-        <v>73.59999999999999</v>
+        <v>55.8</v>
       </c>
       <c r="K73" s="39" t="n">
-        <v>75.8</v>
+        <v>68</v>
       </c>
       <c r="L73" s="39" t="n">
-        <v>53.4</v>
+        <v>60.5</v>
       </c>
       <c r="M73" s="39" t="n">
-        <v>25.9</v>
+        <v>35</v>
       </c>
       <c r="N73" s="39" t="n">
-        <v>19.3</v>
+        <v>27.9</v>
       </c>
       <c r="O73" s="39" t="n">
-        <v>19.3</v>
+        <v>20.6</v>
       </c>
       <c r="P73" s="39" t="n">
-        <v>90.09999999999999</v>
+        <v>6.9</v>
       </c>
       <c r="Q73" s="39" t="n">
-        <v>56.9</v>
+        <v>5.9</v>
       </c>
       <c r="R73" s="39" t="n">
-        <v>88.5</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="S73" s="39" t="n">
-        <v>58.7</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="T73" s="39" t="n">
-        <v>68.2</v>
+        <v>90</v>
       </c>
       <c r="U73" s="39" t="n">
-        <v>28.6</v>
+        <v>91.5</v>
       </c>
       <c r="V73" s="39" t="n">
-        <v>67</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="W73" s="39" t="n">
-        <v>90.09999999999999</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="X73" s="39" t="n">
-        <v>94.2</v>
+        <v>94.8</v>
       </c>
       <c r="Y73" s="39" t="inlineStr">
         <is>
-          <t>机器人ETF</t>
+          <t>标普500ETF</t>
         </is>
       </c>
     </row>
@@ -17956,79 +17956,79 @@
         <v>72</v>
       </c>
       <c r="B74" s="39" t="n">
-        <v>513500</v>
+        <v>159667</v>
       </c>
       <c r="C74" s="39" t="inlineStr">
         <is>
-          <t>标普500ETF</t>
+          <t>工业母机ETF</t>
         </is>
       </c>
       <c r="D74" s="39" t="n">
-        <v>179.61</v>
+        <v>4.96</v>
       </c>
       <c r="E74" s="39" t="n">
-        <v>13.7</v>
+        <v>15.6</v>
       </c>
       <c r="F74" s="39" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="G74" s="39" t="n">
-        <v>39.8</v>
+        <v>1.6</v>
       </c>
       <c r="H74" s="39" t="n">
-        <v>24.8</v>
+        <v>26.1</v>
       </c>
       <c r="I74" s="39" t="n">
-        <v>77.2</v>
+        <v>61.2</v>
       </c>
       <c r="J74" s="39" t="n">
-        <v>55.8</v>
+        <v>74.5</v>
       </c>
       <c r="K74" s="39" t="n">
-        <v>68</v>
+        <v>83.2</v>
       </c>
       <c r="L74" s="39" t="n">
-        <v>60.5</v>
+        <v>67.8</v>
       </c>
       <c r="M74" s="39" t="n">
-        <v>35</v>
+        <v>23.1</v>
       </c>
       <c r="N74" s="39" t="n">
-        <v>27.9</v>
+        <v>31.6</v>
       </c>
       <c r="O74" s="39" t="n">
-        <v>20.6</v>
+        <v>38.5</v>
       </c>
       <c r="P74" s="39" t="n">
-        <v>6.9</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="Q74" s="39" t="n">
-        <v>5.9</v>
+        <v>60.3</v>
       </c>
       <c r="R74" s="39" t="n">
-        <v>84.59999999999999</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="S74" s="39" t="n">
-        <v>65.59999999999999</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="T74" s="39" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="U74" s="39" t="n">
-        <v>91.5</v>
+        <v>23.7</v>
       </c>
       <c r="V74" s="39" t="n">
-        <v>76.40000000000001</v>
+        <v>60.7</v>
       </c>
       <c r="W74" s="39" t="n">
-        <v>81.09999999999999</v>
+        <v>84.8</v>
       </c>
       <c r="X74" s="39" t="n">
-        <v>94.8</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="Y74" s="39" t="inlineStr">
         <is>
-          <t>标普500ETF</t>
+          <t>工业母机ETF</t>
         </is>
       </c>
     </row>
@@ -18037,79 +18037,79 @@
         <v>73</v>
       </c>
       <c r="B75" s="39" t="n">
-        <v>513360</v>
+        <v>159941</v>
       </c>
       <c r="C75" s="39" t="inlineStr">
         <is>
-          <t>教育ETF</t>
+          <t>纳指ETF</t>
         </is>
       </c>
       <c r="D75" s="39" t="n">
-        <v>6.56</v>
+        <v>241.34</v>
       </c>
       <c r="E75" s="39" t="n">
-        <v>4.7</v>
+        <v>20</v>
       </c>
       <c r="F75" s="39" t="n">
-        <v>0.2</v>
+        <v>3.2</v>
       </c>
       <c r="G75" s="39" t="n">
-        <v>0.2</v>
+        <v>37.8</v>
       </c>
       <c r="H75" s="39" t="n">
-        <v>4.4</v>
+        <v>34.3</v>
       </c>
       <c r="I75" s="39" t="n">
-        <v>43.1</v>
+        <v>85</v>
       </c>
       <c r="J75" s="39" t="n">
-        <v>62.3</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="K75" s="39" t="n">
-        <v>70.3</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="L75" s="39" t="n">
-        <v>79.09999999999999</v>
+        <v>49.1</v>
       </c>
       <c r="M75" s="39" t="n">
-        <v>31.8</v>
+        <v>22.3</v>
       </c>
       <c r="N75" s="39" t="n">
-        <v>72</v>
+        <v>48.2</v>
       </c>
       <c r="O75" s="39" t="n">
-        <v>60.2</v>
+        <v>31.2</v>
       </c>
       <c r="P75" s="39" t="n">
-        <v>89</v>
+        <v>21.2</v>
       </c>
       <c r="Q75" s="39" t="n">
-        <v>90.7</v>
+        <v>19.2</v>
       </c>
       <c r="R75" s="39" t="n">
-        <v>98.2</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="S75" s="39" t="n">
-        <v>54.2</v>
+        <v>52.8</v>
       </c>
       <c r="T75" s="39" t="n">
-        <v>22.5</v>
+        <v>83.2</v>
       </c>
       <c r="U75" s="39" t="n">
-        <v>41.3</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="V75" s="39" t="n">
-        <v>64.3</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="W75" s="39" t="n">
-        <v>87.09999999999999</v>
+        <v>82.3</v>
       </c>
       <c r="X75" s="39" t="n">
-        <v>95</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="Y75" s="39" t="inlineStr">
         <is>
-          <t>教育ETF</t>
+          <t>纳指ETF</t>
         </is>
       </c>
     </row>
@@ -18118,79 +18118,79 @@
         <v>74</v>
       </c>
       <c r="B76" s="39" t="n">
-        <v>159941</v>
+        <v>588000</v>
       </c>
       <c r="C76" s="39" t="inlineStr">
         <is>
-          <t>纳指ETF</t>
+          <t>科创50ETF</t>
         </is>
       </c>
       <c r="D76" s="39" t="n">
-        <v>240.69</v>
+        <v>781.14</v>
       </c>
       <c r="E76" s="39" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F76" s="39" t="n">
-        <v>3.2</v>
+        <v>0.4</v>
       </c>
       <c r="G76" s="39" t="n">
-        <v>37.8</v>
+        <v>24.1</v>
       </c>
       <c r="H76" s="39" t="n">
-        <v>34.3</v>
+        <v>66.2</v>
       </c>
       <c r="I76" s="39" t="n">
-        <v>85</v>
+        <v>75.3</v>
       </c>
       <c r="J76" s="39" t="n">
-        <v>70.59999999999999</v>
+        <v>85.8</v>
       </c>
       <c r="K76" s="39" t="n">
-        <v>78.90000000000001</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="L76" s="39" t="n">
-        <v>49.1</v>
+        <v>49</v>
       </c>
       <c r="M76" s="39" t="n">
-        <v>22.3</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="N76" s="39" t="n">
-        <v>48.2</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="O76" s="39" t="n">
-        <v>31.2</v>
+        <v>40</v>
       </c>
       <c r="P76" s="39" t="n">
-        <v>21.2</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="Q76" s="39" t="n">
-        <v>19.2</v>
+        <v>53.1</v>
       </c>
       <c r="R76" s="39" t="n">
-        <v>89.59999999999999</v>
+        <v>36.3</v>
       </c>
       <c r="S76" s="39" t="n">
-        <v>52.8</v>
+        <v>11</v>
       </c>
       <c r="T76" s="39" t="n">
-        <v>83.2</v>
+        <v>29</v>
       </c>
       <c r="U76" s="39" t="n">
-        <v>85.59999999999999</v>
+        <v>18</v>
       </c>
       <c r="V76" s="39" t="n">
-        <v>79.90000000000001</v>
+        <v>45.5</v>
       </c>
       <c r="W76" s="39" t="n">
-        <v>82.3</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="X76" s="39" t="n">
-        <v>95.09999999999999</v>
+        <v>95.7</v>
       </c>
       <c r="Y76" s="39" t="inlineStr">
         <is>
-          <t>纳指ETF</t>
+          <t>科创50ETF</t>
         </is>
       </c>
     </row>
@@ -18199,79 +18199,79 @@
         <v>75</v>
       </c>
       <c r="B77" s="39" t="n">
-        <v>159732</v>
+        <v>159992</v>
       </c>
       <c r="C77" s="39" t="inlineStr">
         <is>
-          <t>消费电子ETF</t>
+          <t>创新药ETF</t>
         </is>
       </c>
       <c r="D77" s="39" t="n">
-        <v>15.8</v>
+        <v>118.5</v>
       </c>
       <c r="E77" s="39" t="n">
-        <v>1.5</v>
+        <v>58</v>
       </c>
       <c r="F77" s="39" t="n">
-        <v>0.3</v>
+        <v>5.1</v>
       </c>
       <c r="G77" s="39" t="n">
-        <v>0.2</v>
+        <v>22</v>
       </c>
       <c r="H77" s="39" t="n">
-        <v>24.4</v>
+        <v>17.2</v>
       </c>
       <c r="I77" s="39" t="n">
-        <v>61.7</v>
+        <v>60.8</v>
       </c>
       <c r="J77" s="39" t="n">
-        <v>80.7</v>
+        <v>71</v>
       </c>
       <c r="K77" s="39" t="n">
-        <v>82.09999999999999</v>
+        <v>83.7</v>
       </c>
       <c r="L77" s="39" t="n">
-        <v>54.8</v>
+        <v>60.2</v>
       </c>
       <c r="M77" s="39" t="n">
-        <v>29.6</v>
+        <v>32.7</v>
       </c>
       <c r="N77" s="39" t="n">
-        <v>29.6</v>
+        <v>22.5</v>
       </c>
       <c r="O77" s="39" t="n">
-        <v>68.40000000000001</v>
+        <v>22.5</v>
       </c>
       <c r="P77" s="39" t="n">
-        <v>90.09999999999999</v>
+        <v>86.2</v>
       </c>
       <c r="Q77" s="39" t="n">
-        <v>37.9</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="R77" s="39" t="n">
-        <v>71.2</v>
+        <v>51.4</v>
       </c>
       <c r="S77" s="39" t="n">
-        <v>41.5</v>
+        <v>72.7</v>
       </c>
       <c r="T77" s="39" t="n">
-        <v>55.5</v>
+        <v>38.7</v>
       </c>
       <c r="U77" s="39" t="n">
-        <v>30.9</v>
+        <v>38.7</v>
       </c>
       <c r="V77" s="39" t="n">
-        <v>66.5</v>
+        <v>72.7</v>
       </c>
       <c r="W77" s="39" t="n">
-        <v>89.59999999999999</v>
+        <v>90.7</v>
       </c>
       <c r="X77" s="39" t="n">
-        <v>95.59999999999999</v>
+        <v>96</v>
       </c>
       <c r="Y77" s="39" t="inlineStr">
         <is>
-          <t>消费电子ETF</t>
+          <t>创新药ETF</t>
         </is>
       </c>
     </row>
@@ -18280,79 +18280,79 @@
         <v>76</v>
       </c>
       <c r="B78" s="39" t="n">
-        <v>588000</v>
+        <v>159732</v>
       </c>
       <c r="C78" s="39" t="inlineStr">
         <is>
-          <t>科创50ETF</t>
+          <t>消费电子ETF</t>
         </is>
       </c>
       <c r="D78" s="39" t="n">
-        <v>780.41</v>
+        <v>15.86</v>
       </c>
       <c r="E78" s="39" t="n">
-        <v>9</v>
+        <v>1.5</v>
       </c>
       <c r="F78" s="39" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="G78" s="39" t="n">
-        <v>24.1</v>
+        <v>0.2</v>
       </c>
       <c r="H78" s="39" t="n">
-        <v>66.2</v>
+        <v>24.4</v>
       </c>
       <c r="I78" s="39" t="n">
-        <v>75.3</v>
+        <v>61.7</v>
       </c>
       <c r="J78" s="39" t="n">
-        <v>85.8</v>
+        <v>80.7</v>
       </c>
       <c r="K78" s="39" t="n">
-        <v>87.40000000000001</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="L78" s="39" t="n">
-        <v>49</v>
+        <v>54.8</v>
       </c>
       <c r="M78" s="39" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="N78" s="39" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="O78" s="39" t="n">
         <v>68.40000000000001</v>
       </c>
-      <c r="N78" s="39" t="n">
-        <v>79.59999999999999</v>
-      </c>
-      <c r="O78" s="39" t="n">
-        <v>40</v>
-      </c>
       <c r="P78" s="39" t="n">
-        <v>76.59999999999999</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="Q78" s="39" t="n">
-        <v>53.1</v>
+        <v>37.9</v>
       </c>
       <c r="R78" s="39" t="n">
-        <v>36.3</v>
+        <v>71.2</v>
       </c>
       <c r="S78" s="39" t="n">
-        <v>11</v>
+        <v>41.5</v>
       </c>
       <c r="T78" s="39" t="n">
-        <v>29</v>
+        <v>55.5</v>
       </c>
       <c r="U78" s="39" t="n">
-        <v>18</v>
+        <v>30.9</v>
       </c>
       <c r="V78" s="39" t="n">
-        <v>45.5</v>
+        <v>66.5</v>
       </c>
       <c r="W78" s="39" t="n">
-        <v>86.40000000000001</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="X78" s="39" t="n">
-        <v>95.7</v>
+        <v>96.2</v>
       </c>
       <c r="Y78" s="39" t="inlineStr">
         <is>
-          <t>科创50ETF</t>
+          <t>消费电子ETF</t>
         </is>
       </c>
     </row>
@@ -18369,7 +18369,7 @@
         </is>
       </c>
       <c r="D79" s="39" t="n">
-        <v>9.06</v>
+        <v>9.1</v>
       </c>
       <c r="E79" s="39" t="n">
         <v>16</v>
@@ -18429,7 +18429,7 @@
         <v>13.2</v>
       </c>
       <c r="X79" s="39" t="n">
-        <v>95.7</v>
+        <v>96.3</v>
       </c>
       <c r="Y79" s="39" t="inlineStr">
         <is>
@@ -18450,7 +18450,7 @@
         </is>
       </c>
       <c r="D80" s="39" t="n">
-        <v>247.63</v>
+        <v>248.26</v>
       </c>
       <c r="E80" s="39" t="n">
         <v>11.8</v>
@@ -18510,7 +18510,7 @@
         <v>92.40000000000001</v>
       </c>
       <c r="X80" s="39" t="n">
-        <v>95.8</v>
+        <v>96.3</v>
       </c>
       <c r="Y80" s="39" t="inlineStr">
         <is>
@@ -18523,79 +18523,79 @@
         <v>79</v>
       </c>
       <c r="B81" s="39" t="n">
-        <v>510500</v>
+        <v>515980</v>
       </c>
       <c r="C81" s="39" t="inlineStr">
         <is>
-          <t>中证500ETF</t>
+          <t>人工智能ETF</t>
         </is>
       </c>
       <c r="D81" s="39" t="n">
-        <v>1107.77</v>
+        <v>34.93</v>
       </c>
       <c r="E81" s="39" t="n">
-        <v>16.4</v>
+        <v>5</v>
       </c>
       <c r="F81" s="39" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G81" s="39" t="n">
-        <v>10.8</v>
+        <v>0.3</v>
       </c>
       <c r="H81" s="39" t="n">
-        <v>47.3</v>
+        <v>42</v>
       </c>
       <c r="I81" s="39" t="n">
-        <v>70.09999999999999</v>
+        <v>62.1</v>
       </c>
       <c r="J81" s="39" t="n">
-        <v>77.09999999999999</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="K81" s="39" t="n">
-        <v>85.2</v>
+        <v>82.8</v>
       </c>
       <c r="L81" s="39" t="n">
-        <v>62.2</v>
+        <v>54.1</v>
       </c>
       <c r="M81" s="39" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N81" s="39" t="n">
-        <v>33.4</v>
+        <v>57.9</v>
       </c>
       <c r="O81" s="39" t="n">
-        <v>38.4</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="P81" s="39" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="Q81" s="39" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="R81" s="39" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="S81" s="39" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="T81" s="39" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="U81" s="39" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="V81" s="39" t="n">
+        <v>64.59999999999999</v>
+      </c>
+      <c r="W81" s="39" t="n">
         <v>91.40000000000001</v>
       </c>
-      <c r="Q81" s="39" t="n">
-        <v>69.5</v>
-      </c>
-      <c r="R81" s="39" t="n">
-        <v>77.5</v>
-      </c>
-      <c r="S81" s="39" t="n">
-        <v>37.1</v>
-      </c>
-      <c r="T81" s="39" t="n">
-        <v>63.5</v>
-      </c>
-      <c r="U81" s="39" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="V81" s="39" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="W81" s="39" t="n">
-        <v>79.8</v>
-      </c>
       <c r="X81" s="39" t="n">
-        <v>96.09999999999999</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="Y81" s="39" t="inlineStr">
         <is>
-          <t>中证500ETF</t>
+          <t>人工智能ETF</t>
         </is>
       </c>
     </row>
@@ -18604,79 +18604,79 @@
         <v>80</v>
       </c>
       <c r="B82" s="39" t="n">
-        <v>513180</v>
+        <v>159792</v>
       </c>
       <c r="C82" s="39" t="inlineStr">
         <is>
-          <t>恒生科技指数ETF</t>
+          <t>港股通互联网ETF</t>
         </is>
       </c>
       <c r="D82" s="39" t="n">
-        <v>276.2</v>
+        <v>494.19</v>
       </c>
       <c r="E82" s="39" t="n">
-        <v>11</v>
+        <v>9.1</v>
       </c>
       <c r="F82" s="39" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="G82" s="39" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H82" s="39" t="n">
-        <v>31.7</v>
+        <v>35.1</v>
       </c>
       <c r="I82" s="39" t="n">
-        <v>64</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="J82" s="39" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="K82" s="39" t="n">
         <v>76.5</v>
       </c>
-      <c r="K82" s="39" t="n">
-        <v>83.59999999999999</v>
-      </c>
       <c r="L82" s="39" t="n">
-        <v>64.3</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="M82" s="39" t="n">
-        <v>19.4</v>
+        <v>11.6</v>
       </c>
       <c r="N82" s="39" t="n">
-        <v>45.9</v>
+        <v>34.6</v>
       </c>
       <c r="O82" s="39" t="n">
-        <v>31.2</v>
+        <v>29.5</v>
       </c>
       <c r="P82" s="39" t="n">
-        <v>63.7</v>
+        <v>65.3</v>
       </c>
       <c r="Q82" s="39" t="n">
-        <v>71.40000000000001</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="R82" s="39" t="n">
-        <v>94.8</v>
+        <v>96.7</v>
       </c>
       <c r="S82" s="39" t="n">
-        <v>45.4</v>
+        <v>56.4</v>
       </c>
       <c r="T82" s="39" t="n">
-        <v>65.8</v>
+        <v>71.2</v>
       </c>
       <c r="U82" s="39" t="n">
-        <v>60.1</v>
+        <v>77</v>
       </c>
       <c r="V82" s="39" t="n">
-        <v>51.4</v>
+        <v>50</v>
       </c>
       <c r="W82" s="39" t="n">
-        <v>84</v>
+        <v>89.3</v>
       </c>
       <c r="X82" s="39" t="n">
-        <v>96.2</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="Y82" s="39" t="inlineStr">
         <is>
-          <t>恒生科技指数ETF</t>
+          <t>港股通互联网ETF</t>
         </is>
       </c>
     </row>
@@ -18685,79 +18685,79 @@
         <v>81</v>
       </c>
       <c r="B83" s="39" t="n">
-        <v>159792</v>
+        <v>510500</v>
       </c>
       <c r="C83" s="39" t="inlineStr">
         <is>
-          <t>港股通互联网ETF</t>
+          <t>中证500ETF</t>
         </is>
       </c>
       <c r="D83" s="39" t="n">
-        <v>492.46</v>
+        <v>1111.26</v>
       </c>
       <c r="E83" s="39" t="n">
-        <v>9.1</v>
+        <v>16.4</v>
       </c>
       <c r="F83" s="39" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G83" s="39" t="n">
-        <v>0.5</v>
+        <v>10.8</v>
       </c>
       <c r="H83" s="39" t="n">
-        <v>35.1</v>
+        <v>47.3</v>
       </c>
       <c r="I83" s="39" t="n">
-        <v>66.90000000000001</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="J83" s="39" t="n">
-        <v>72.5</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="K83" s="39" t="n">
-        <v>76.5</v>
+        <v>85.2</v>
       </c>
       <c r="L83" s="39" t="n">
-        <v>64.09999999999999</v>
+        <v>62.2</v>
       </c>
       <c r="M83" s="39" t="n">
-        <v>11.6</v>
+        <v>29</v>
       </c>
       <c r="N83" s="39" t="n">
-        <v>34.6</v>
+        <v>33.4</v>
       </c>
       <c r="O83" s="39" t="n">
-        <v>29.5</v>
+        <v>38.4</v>
       </c>
       <c r="P83" s="39" t="n">
-        <v>65.3</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="Q83" s="39" t="n">
-        <v>85.90000000000001</v>
+        <v>69.5</v>
       </c>
       <c r="R83" s="39" t="n">
-        <v>96.7</v>
+        <v>77.5</v>
       </c>
       <c r="S83" s="39" t="n">
-        <v>56.4</v>
+        <v>37.1</v>
       </c>
       <c r="T83" s="39" t="n">
-        <v>71.2</v>
+        <v>63.5</v>
       </c>
       <c r="U83" s="39" t="n">
-        <v>77</v>
+        <v>26.9</v>
       </c>
       <c r="V83" s="39" t="n">
-        <v>50</v>
+        <v>35.5</v>
       </c>
       <c r="W83" s="39" t="n">
-        <v>89.3</v>
+        <v>79.8</v>
       </c>
       <c r="X83" s="39" t="n">
-        <v>96.3</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="Y83" s="39" t="inlineStr">
         <is>
-          <t>港股通互联网ETF</t>
+          <t>中证500ETF</t>
         </is>
       </c>
     </row>
@@ -18766,79 +18766,79 @@
         <v>82</v>
       </c>
       <c r="B84" s="39" t="n">
-        <v>515980</v>
+        <v>513180</v>
       </c>
       <c r="C84" s="39" t="inlineStr">
         <is>
-          <t>人工智能ETF</t>
+          <t>恒生科技指数ETF</t>
         </is>
       </c>
       <c r="D84" s="39" t="n">
-        <v>34.82</v>
+        <v>277.35</v>
       </c>
       <c r="E84" s="39" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F84" s="39" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="G84" s="39" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="H84" s="39" t="n">
-        <v>42</v>
+        <v>31.7</v>
       </c>
       <c r="I84" s="39" t="n">
-        <v>62.1</v>
+        <v>64</v>
       </c>
       <c r="J84" s="39" t="n">
-        <v>76.59999999999999</v>
+        <v>76.5</v>
       </c>
       <c r="K84" s="39" t="n">
-        <v>82.8</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="L84" s="39" t="n">
-        <v>54.1</v>
+        <v>64.3</v>
       </c>
       <c r="M84" s="39" t="n">
-        <v>32</v>
+        <v>19.4</v>
       </c>
       <c r="N84" s="39" t="n">
-        <v>57.9</v>
+        <v>45.9</v>
       </c>
       <c r="O84" s="39" t="n">
-        <v>66.40000000000001</v>
+        <v>31.2</v>
       </c>
       <c r="P84" s="39" t="n">
-        <v>92.8</v>
+        <v>63.7</v>
       </c>
       <c r="Q84" s="39" t="n">
-        <v>43.5</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="R84" s="39" t="n">
-        <v>72.59999999999999</v>
+        <v>94.8</v>
       </c>
       <c r="S84" s="39" t="n">
-        <v>28.1</v>
+        <v>45.4</v>
       </c>
       <c r="T84" s="39" t="n">
-        <v>57.1</v>
+        <v>65.8</v>
       </c>
       <c r="U84" s="39" t="n">
-        <v>41.8</v>
+        <v>60.1</v>
       </c>
       <c r="V84" s="39" t="n">
-        <v>64.59999999999999</v>
+        <v>51.4</v>
       </c>
       <c r="W84" s="39" t="n">
-        <v>91.40000000000001</v>
+        <v>84</v>
       </c>
       <c r="X84" s="39" t="n">
-        <v>96.40000000000001</v>
+        <v>96.7</v>
       </c>
       <c r="Y84" s="39" t="inlineStr">
         <is>
-          <t>人工智能ETF</t>
+          <t>恒生科技指数ETF</t>
         </is>
       </c>
     </row>
@@ -18855,7 +18855,7 @@
         </is>
       </c>
       <c r="D85" s="39" t="n">
-        <v>13.51</v>
+        <v>13.56</v>
       </c>
       <c r="E85" s="39" t="n">
         <v>28</v>
@@ -18915,7 +18915,7 @@
         <v>90.40000000000001</v>
       </c>
       <c r="X85" s="39" t="n">
-        <v>96.59999999999999</v>
+        <v>96.7</v>
       </c>
       <c r="Y85" s="39" t="inlineStr">
         <is>
@@ -18928,79 +18928,79 @@
         <v>84</v>
       </c>
       <c r="B86" s="39" t="n">
-        <v>512480</v>
+        <v>159998</v>
       </c>
       <c r="C86" s="39" t="inlineStr">
         <is>
-          <t>半导体ETF</t>
+          <t>计算机ETF</t>
         </is>
       </c>
       <c r="D86" s="39" t="n">
-        <v>214.25</v>
+        <v>30.45</v>
       </c>
       <c r="E86" s="39" t="n">
-        <v>8.199999999999999</v>
+        <v>14.4</v>
       </c>
       <c r="F86" s="39" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="G86" s="39" t="n">
-        <v>4.2</v>
+        <v>1.1</v>
       </c>
       <c r="H86" s="39" t="n">
-        <v>65.5</v>
+        <v>57.8</v>
       </c>
       <c r="I86" s="39" t="n">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="J86" s="39" t="n">
-        <v>91.5</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="K86" s="39" t="n">
-        <v>91.5</v>
+        <v>81.3</v>
       </c>
       <c r="L86" s="39" t="n">
-        <v>53.8</v>
+        <v>46.7</v>
       </c>
       <c r="M86" s="39" t="n">
-        <v>68</v>
+        <v>20.5</v>
       </c>
       <c r="N86" s="39" t="n">
-        <v>79</v>
+        <v>36.4</v>
       </c>
       <c r="O86" s="39" t="n">
-        <v>34.9</v>
+        <v>30.3</v>
       </c>
       <c r="P86" s="39" t="n">
-        <v>69.2</v>
+        <v>90.5</v>
       </c>
       <c r="Q86" s="39" t="n">
-        <v>58.1</v>
+        <v>41.5</v>
       </c>
       <c r="R86" s="39" t="n">
-        <v>58.1</v>
+        <v>58.7</v>
       </c>
       <c r="S86" s="39" t="n">
-        <v>10.6</v>
+        <v>17.5</v>
       </c>
       <c r="T86" s="39" t="n">
-        <v>7.8</v>
+        <v>47.2</v>
       </c>
       <c r="U86" s="39" t="n">
-        <v>21.4</v>
+        <v>34.7</v>
       </c>
       <c r="V86" s="39" t="n">
-        <v>80.09999999999999</v>
+        <v>60.7</v>
       </c>
       <c r="W86" s="39" t="n">
-        <v>93.2</v>
+        <v>90.2</v>
       </c>
       <c r="X86" s="39" t="n">
-        <v>96.59999999999999</v>
+        <v>96.8</v>
       </c>
       <c r="Y86" s="39" t="inlineStr">
         <is>
-          <t>半导体ETF</t>
+          <t>计算机ETF</t>
         </is>
       </c>
     </row>
@@ -19009,79 +19009,79 @@
         <v>85</v>
       </c>
       <c r="B87" s="39" t="n">
-        <v>159998</v>
+        <v>512480</v>
       </c>
       <c r="C87" s="39" t="inlineStr">
         <is>
-          <t>计算机ETF</t>
+          <t>半导体ETF</t>
         </is>
       </c>
       <c r="D87" s="39" t="n">
-        <v>30.35</v>
+        <v>214.85</v>
       </c>
       <c r="E87" s="39" t="n">
-        <v>14.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="F87" s="39" t="n">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="G87" s="39" t="n">
-        <v>1.1</v>
+        <v>4.2</v>
       </c>
       <c r="H87" s="39" t="n">
-        <v>57.8</v>
+        <v>65.5</v>
       </c>
       <c r="I87" s="39" t="n">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="J87" s="39" t="n">
-        <v>78.59999999999999</v>
+        <v>91.5</v>
       </c>
       <c r="K87" s="39" t="n">
-        <v>81.3</v>
+        <v>91.5</v>
       </c>
       <c r="L87" s="39" t="n">
-        <v>46.7</v>
+        <v>53.8</v>
       </c>
       <c r="M87" s="39" t="n">
-        <v>20.5</v>
+        <v>68</v>
       </c>
       <c r="N87" s="39" t="n">
-        <v>36.4</v>
+        <v>79</v>
       </c>
       <c r="O87" s="39" t="n">
-        <v>30.3</v>
+        <v>34.9</v>
       </c>
       <c r="P87" s="39" t="n">
-        <v>90.5</v>
+        <v>69.2</v>
       </c>
       <c r="Q87" s="39" t="n">
-        <v>41.5</v>
+        <v>58.1</v>
       </c>
       <c r="R87" s="39" t="n">
-        <v>58.7</v>
+        <v>58.1</v>
       </c>
       <c r="S87" s="39" t="n">
-        <v>17.5</v>
+        <v>10.6</v>
       </c>
       <c r="T87" s="39" t="n">
-        <v>47.2</v>
+        <v>7.8</v>
       </c>
       <c r="U87" s="39" t="n">
-        <v>34.7</v>
+        <v>21.4</v>
       </c>
       <c r="V87" s="39" t="n">
-        <v>60.7</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="W87" s="39" t="n">
-        <v>90.2</v>
+        <v>93.2</v>
       </c>
       <c r="X87" s="39" t="n">
-        <v>96.8</v>
+        <v>97.2</v>
       </c>
       <c r="Y87" s="39" t="inlineStr">
         <is>
-          <t>计算机ETF</t>
+          <t>半导体ETF</t>
         </is>
       </c>
     </row>
@@ -19098,7 +19098,7 @@
         </is>
       </c>
       <c r="D88" s="39" t="n">
-        <v>242.67</v>
+        <v>243.43</v>
       </c>
       <c r="E88" s="39" t="n">
         <v>53.1</v>
@@ -19158,7 +19158,7 @@
         <v>92.7</v>
       </c>
       <c r="X88" s="39" t="n">
-        <v>97.09999999999999</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="Y88" s="39" t="inlineStr">
         <is>
@@ -19170,80 +19170,82 @@
       <c r="A89" s="39" t="n">
         <v>87</v>
       </c>
-      <c r="B89" s="39" t="n">
-        <v>159996</v>
+      <c r="B89" s="39" t="inlineStr">
+        <is>
+          <t>515070</t>
+        </is>
       </c>
       <c r="C89" s="39" t="inlineStr">
         <is>
-          <t>家电ETF</t>
+          <t>人工智能AIETF</t>
         </is>
       </c>
       <c r="D89" s="39" t="n">
-        <v>15.11</v>
+        <v>51.35</v>
       </c>
       <c r="E89" s="39" t="n">
-        <v>6.5</v>
+        <v>7.1</v>
       </c>
       <c r="F89" s="39" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="G89" s="39" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H89" s="39" t="n">
-        <v>22.2</v>
+        <v>43.8</v>
       </c>
       <c r="I89" s="39" t="n">
-        <v>70</v>
+        <v>63.5</v>
       </c>
       <c r="J89" s="39" t="n">
-        <v>71.7</v>
+        <v>78.2</v>
       </c>
       <c r="K89" s="39" t="n">
-        <v>51.4</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="L89" s="39" t="n">
-        <v>71.90000000000001</v>
+        <v>53.9</v>
       </c>
       <c r="M89" s="39" t="n">
-        <v>27.7</v>
+        <v>34.4</v>
       </c>
       <c r="N89" s="39" t="n">
-        <v>27.7</v>
+        <v>54.8</v>
       </c>
       <c r="O89" s="39" t="n">
-        <v>61.3</v>
+        <v>63.9</v>
       </c>
       <c r="P89" s="39" t="n">
-        <v>89.8</v>
+        <v>93</v>
       </c>
       <c r="Q89" s="39" t="n">
-        <v>72.09999999999999</v>
+        <v>44.8</v>
       </c>
       <c r="R89" s="39" t="n">
-        <v>90.2</v>
+        <v>70.8</v>
       </c>
       <c r="S89" s="39" t="n">
-        <v>70.59999999999999</v>
+        <v>27.6</v>
       </c>
       <c r="T89" s="39" t="n">
-        <v>81.40000000000001</v>
+        <v>55</v>
       </c>
       <c r="U89" s="39" t="n">
-        <v>52.5</v>
+        <v>47.8</v>
       </c>
       <c r="V89" s="39" t="n">
-        <v>78.2</v>
+        <v>70.8</v>
       </c>
       <c r="W89" s="39" t="n">
-        <v>93.59999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="X89" s="39" t="n">
-        <v>97.3</v>
+        <v>97.7</v>
       </c>
       <c r="Y89" s="39" t="inlineStr">
         <is>
-          <t>家电ETF</t>
+          <t>人工智能AIETF</t>
         </is>
       </c>
     </row>
@@ -19251,82 +19253,80 @@
       <c r="A90" s="39" t="n">
         <v>88</v>
       </c>
-      <c r="B90" s="39" t="inlineStr">
-        <is>
-          <t>515070</t>
-        </is>
+      <c r="B90" s="39" t="n">
+        <v>159869</v>
       </c>
       <c r="C90" s="39" t="inlineStr">
         <is>
-          <t>人工智能AIETF</t>
+          <t>游戏ETF</t>
         </is>
       </c>
       <c r="D90" s="39" t="n">
-        <v>51.22</v>
+        <v>69.69</v>
       </c>
       <c r="E90" s="39" t="n">
-        <v>7.1</v>
+        <v>40.4</v>
       </c>
       <c r="F90" s="39" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="G90" s="39" t="n">
         <v>0.5</v>
       </c>
       <c r="H90" s="39" t="n">
-        <v>43.8</v>
+        <v>42.5</v>
       </c>
       <c r="I90" s="39" t="n">
-        <v>63.5</v>
+        <v>62.4</v>
       </c>
       <c r="J90" s="39" t="n">
-        <v>78.2</v>
+        <v>60.3</v>
       </c>
       <c r="K90" s="39" t="n">
-        <v>83.59999999999999</v>
+        <v>80.8</v>
       </c>
       <c r="L90" s="39" t="n">
-        <v>53.9</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="M90" s="39" t="n">
-        <v>34.4</v>
+        <v>42.6</v>
       </c>
       <c r="N90" s="39" t="n">
-        <v>54.8</v>
+        <v>50.5</v>
       </c>
       <c r="O90" s="39" t="n">
-        <v>63.9</v>
+        <v>83</v>
       </c>
       <c r="P90" s="39" t="n">
-        <v>93</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="Q90" s="39" t="n">
-        <v>44.8</v>
+        <v>51.4</v>
       </c>
       <c r="R90" s="39" t="n">
-        <v>70.8</v>
+        <v>60.1</v>
       </c>
       <c r="S90" s="39" t="n">
-        <v>27.6</v>
+        <v>20.9</v>
       </c>
       <c r="T90" s="39" t="n">
-        <v>55</v>
+        <v>36.6</v>
       </c>
       <c r="U90" s="39" t="n">
-        <v>47.8</v>
+        <v>73.5</v>
       </c>
       <c r="V90" s="39" t="n">
-        <v>70.8</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="W90" s="39" t="n">
-        <v>94.5</v>
+        <v>92</v>
       </c>
       <c r="X90" s="39" t="n">
-        <v>97.5</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="Y90" s="39" t="inlineStr">
         <is>
-          <t>人工智能AIETF</t>
+          <t>游戏ETF</t>
         </is>
       </c>
     </row>
@@ -19335,79 +19335,79 @@
         <v>89</v>
       </c>
       <c r="B91" s="39" t="n">
-        <v>159869</v>
+        <v>159996</v>
       </c>
       <c r="C91" s="39" t="inlineStr">
         <is>
-          <t>游戏ETF</t>
+          <t>家电ETF</t>
         </is>
       </c>
       <c r="D91" s="39" t="n">
-        <v>69.51000000000001</v>
+        <v>15.2</v>
       </c>
       <c r="E91" s="39" t="n">
-        <v>40.4</v>
+        <v>6.5</v>
       </c>
       <c r="F91" s="39" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G91" s="39" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H91" s="39" t="n">
-        <v>42.5</v>
+        <v>22.2</v>
       </c>
       <c r="I91" s="39" t="n">
-        <v>62.4</v>
+        <v>70</v>
       </c>
       <c r="J91" s="39" t="n">
-        <v>60.3</v>
+        <v>71.7</v>
       </c>
       <c r="K91" s="39" t="n">
-        <v>80.8</v>
+        <v>51.4</v>
       </c>
       <c r="L91" s="39" t="n">
-        <v>87.90000000000001</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="M91" s="39" t="n">
-        <v>42.6</v>
+        <v>27.7</v>
       </c>
       <c r="N91" s="39" t="n">
-        <v>50.5</v>
+        <v>27.7</v>
       </c>
       <c r="O91" s="39" t="n">
-        <v>83</v>
+        <v>61.3</v>
       </c>
       <c r="P91" s="39" t="n">
-        <v>95.40000000000001</v>
+        <v>89.8</v>
       </c>
       <c r="Q91" s="39" t="n">
-        <v>51.4</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="R91" s="39" t="n">
-        <v>60.1</v>
+        <v>90.2</v>
       </c>
       <c r="S91" s="39" t="n">
-        <v>20.9</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="T91" s="39" t="n">
-        <v>36.6</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="U91" s="39" t="n">
-        <v>73.5</v>
+        <v>52.5</v>
       </c>
       <c r="V91" s="39" t="n">
-        <v>84.09999999999999</v>
+        <v>78.2</v>
       </c>
       <c r="W91" s="39" t="n">
-        <v>92</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="X91" s="39" t="n">
-        <v>97.8</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="Y91" s="39" t="inlineStr">
         <is>
-          <t>游戏ETF</t>
+          <t>家电ETF</t>
         </is>
       </c>
     </row>
@@ -19416,79 +19416,79 @@
         <v>90</v>
       </c>
       <c r="B92" s="39" t="n">
-        <v>512980</v>
+        <v>513330</v>
       </c>
       <c r="C92" s="39" t="inlineStr">
         <is>
-          <t>传媒ETF</t>
+          <t>恒生互联网ETF</t>
         </is>
       </c>
       <c r="D92" s="39" t="n">
-        <v>27.49</v>
+        <v>247.22</v>
       </c>
       <c r="E92" s="39" t="n">
-        <v>49.8</v>
+        <v>22.1</v>
       </c>
       <c r="F92" s="39" t="n">
-        <v>1.9</v>
+        <v>3.2</v>
       </c>
       <c r="G92" s="39" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H92" s="39" t="n">
-        <v>45.9</v>
+        <v>20.2</v>
       </c>
       <c r="I92" s="39" t="n">
-        <v>74.09999999999999</v>
+        <v>60.7</v>
       </c>
       <c r="J92" s="39" t="n">
-        <v>65.2</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="K92" s="39" t="n">
-        <v>78.8</v>
+        <v>81.8</v>
       </c>
       <c r="L92" s="39" t="n">
-        <v>84.7</v>
+        <v>84</v>
       </c>
       <c r="M92" s="39" t="n">
-        <v>59.6</v>
+        <v>18.4</v>
       </c>
       <c r="N92" s="39" t="n">
-        <v>33.3</v>
+        <v>42.4</v>
       </c>
       <c r="O92" s="39" t="n">
-        <v>75.90000000000001</v>
+        <v>29.4</v>
       </c>
       <c r="P92" s="39" t="n">
-        <v>93.2</v>
+        <v>61.1</v>
       </c>
       <c r="Q92" s="39" t="n">
-        <v>51.5</v>
+        <v>42.2</v>
       </c>
       <c r="R92" s="39" t="n">
-        <v>39.7</v>
+        <v>88.5</v>
       </c>
       <c r="S92" s="39" t="n">
-        <v>13.3</v>
+        <v>39.6</v>
       </c>
       <c r="T92" s="39" t="n">
-        <v>33.7</v>
+        <v>66</v>
       </c>
       <c r="U92" s="39" t="n">
-        <v>33.7</v>
+        <v>66</v>
       </c>
       <c r="V92" s="39" t="n">
-        <v>83.90000000000001</v>
+        <v>66</v>
       </c>
       <c r="W92" s="39" t="n">
-        <v>93.2</v>
+        <v>91.5</v>
       </c>
       <c r="X92" s="39" t="n">
-        <v>97.90000000000001</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="Y92" s="39" t="inlineStr">
         <is>
-          <t>传媒ETF</t>
+          <t>恒生互联网ETF</t>
         </is>
       </c>
     </row>
@@ -19497,79 +19497,79 @@
         <v>91</v>
       </c>
       <c r="B93" s="39" t="n">
-        <v>513330</v>
+        <v>512980</v>
       </c>
       <c r="C93" s="39" t="inlineStr">
         <is>
-          <t>恒生互联网ETF</t>
+          <t>传媒ETF</t>
         </is>
       </c>
       <c r="D93" s="39" t="n">
-        <v>246.19</v>
+        <v>27.59</v>
       </c>
       <c r="E93" s="39" t="n">
-        <v>22.1</v>
+        <v>49.8</v>
       </c>
       <c r="F93" s="39" t="n">
-        <v>3.2</v>
+        <v>1.9</v>
       </c>
       <c r="G93" s="39" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="H93" s="39" t="n">
-        <v>20.2</v>
+        <v>45.9</v>
       </c>
       <c r="I93" s="39" t="n">
-        <v>60.7</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="J93" s="39" t="n">
-        <v>69.59999999999999</v>
+        <v>65.2</v>
       </c>
       <c r="K93" s="39" t="n">
-        <v>81.8</v>
+        <v>78.8</v>
       </c>
       <c r="L93" s="39" t="n">
-        <v>84</v>
+        <v>84.7</v>
       </c>
       <c r="M93" s="39" t="n">
-        <v>18.4</v>
+        <v>59.6</v>
       </c>
       <c r="N93" s="39" t="n">
-        <v>42.4</v>
+        <v>33.3</v>
       </c>
       <c r="O93" s="39" t="n">
-        <v>29.4</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="P93" s="39" t="n">
-        <v>61.1</v>
+        <v>93.2</v>
       </c>
       <c r="Q93" s="39" t="n">
-        <v>42.2</v>
+        <v>51.5</v>
       </c>
       <c r="R93" s="39" t="n">
-        <v>88.5</v>
+        <v>39.7</v>
       </c>
       <c r="S93" s="39" t="n">
-        <v>39.6</v>
+        <v>13.3</v>
       </c>
       <c r="T93" s="39" t="n">
-        <v>66</v>
+        <v>33.7</v>
       </c>
       <c r="U93" s="39" t="n">
-        <v>66</v>
+        <v>33.7</v>
       </c>
       <c r="V93" s="39" t="n">
-        <v>66</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="W93" s="39" t="n">
-        <v>91.5</v>
+        <v>93.2</v>
       </c>
       <c r="X93" s="39" t="n">
-        <v>97.90000000000001</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="Y93" s="39" t="inlineStr">
         <is>
-          <t>恒生互联网ETF</t>
+          <t>传媒ETF</t>
         </is>
       </c>
     </row>
@@ -19586,7 +19586,7 @@
         </is>
       </c>
       <c r="D94" s="39" t="n">
-        <v>7.62</v>
+        <v>7.65</v>
       </c>
       <c r="E94" s="39" t="n">
         <v>55.3</v>
@@ -19646,7 +19646,7 @@
         <v>94.7</v>
       </c>
       <c r="X94" s="39" t="n">
-        <v>98</v>
+        <v>98.2</v>
       </c>
       <c r="Y94" s="39" t="inlineStr">
         <is>
@@ -19669,7 +19669,7 @@
         </is>
       </c>
       <c r="D95" s="39" t="n">
-        <v>745.58</v>
+        <v>745.5700000000001</v>
       </c>
       <c r="E95" s="39" t="n">
         <v>95.2</v>
@@ -19729,7 +19729,7 @@
         <v>98.09999999999999</v>
       </c>
       <c r="X95" s="39" t="n">
-        <v>98.40000000000001</v>
+        <v>98.2</v>
       </c>
       <c r="Y95" s="39" t="inlineStr">
         <is>
@@ -19750,7 +19750,7 @@
         </is>
       </c>
       <c r="D96" s="39" t="n">
-        <v>6.72</v>
+        <v>6.71</v>
       </c>
       <c r="E96" s="39" t="n">
         <v>20.7</v>
@@ -19810,7 +19810,7 @@
         <v>95.09999999999999</v>
       </c>
       <c r="X96" s="39" t="n">
-        <v>98.5</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="Y96" s="39" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         <v>95.3</v>
       </c>
       <c r="X97" s="39" t="n">
-        <v>98.59999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="Y97" s="39" t="inlineStr">
         <is>
@@ -19912,7 +19912,7 @@
         </is>
       </c>
       <c r="D98" s="39" t="n">
-        <v>9.01</v>
+        <v>9.07</v>
       </c>
       <c r="E98" s="39" t="n">
         <v>30.4</v>
@@ -19972,7 +19972,7 @@
         <v>90.59999999999999</v>
       </c>
       <c r="X98" s="39" t="n">
-        <v>98.7</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="Y98" s="39" t="inlineStr">
         <is>
@@ -19993,7 +19993,7 @@
         </is>
       </c>
       <c r="D99" s="39" t="n">
-        <v>8.84</v>
+        <v>8.85</v>
       </c>
       <c r="E99" s="39" t="n">
         <v>15.7</v>
@@ -20053,7 +20053,7 @@
         <v>96.2</v>
       </c>
       <c r="X99" s="39" t="n">
-        <v>99.2</v>
+        <v>99.3</v>
       </c>
       <c r="Y99" s="39" t="inlineStr">
         <is>
@@ -20074,7 +20074,7 @@
         </is>
       </c>
       <c r="D100" s="39" t="n">
-        <v>13.35</v>
+        <v>13.37</v>
       </c>
       <c r="E100" s="39" t="n">
         <v>13.6</v>

--- a/fund_list.xlsx
+++ b/fund_list.xlsx
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="D2" s="39" t="n">
-        <v>3495.9</v>
+        <v>4096.94</v>
       </c>
       <c r="E2" s="41" t="n">
         <v>-0.24</v>
@@ -1602,7 +1602,7 @@
         <v>-0.23</v>
       </c>
       <c r="X2" s="42" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="Y2" s="39" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         </is>
       </c>
       <c r="D3" s="39" t="n">
-        <v>173.55</v>
+        <v>203.79</v>
       </c>
       <c r="E3" s="41" t="n">
         <v>-0.46</v>
@@ -1685,7 +1685,7 @@
         <v>0.85</v>
       </c>
       <c r="X3" s="44" t="n">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="Y3" s="39" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="D4" s="39" t="n">
-        <v>4997.04</v>
+        <v>5780.83</v>
       </c>
       <c r="E4" s="43" t="n">
         <v>-1.4</v>
@@ -1768,7 +1768,7 @@
         <v>0.51</v>
       </c>
       <c r="X4" s="42" t="n">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="Y4" s="39" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         </is>
       </c>
       <c r="D5" s="39" t="n">
-        <v>2302.13</v>
+        <v>2669.88</v>
       </c>
       <c r="E5" s="43" t="n">
         <v>-1.86</v>
@@ -1851,7 +1851,7 @@
         <v>0.83</v>
       </c>
       <c r="X5" s="42" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="Y5" s="39" t="inlineStr">
         <is>
@@ -1874,7 +1874,7 @@
         </is>
       </c>
       <c r="D6" s="39" t="n">
-        <v>432.19</v>
+        <v>512.5599999999999</v>
       </c>
       <c r="E6" s="41" t="n">
         <v>0.14</v>
@@ -1934,7 +1934,7 @@
         <v>-0.47</v>
       </c>
       <c r="X6" s="42" t="n">
-        <v>0.55</v>
+        <v>0.52</v>
       </c>
       <c r="Y6" s="39" t="inlineStr">
         <is>
@@ -1957,7 +1957,7 @@
         </is>
       </c>
       <c r="D7" s="39" t="n">
-        <v>1662.13</v>
+        <v>1955.94</v>
       </c>
       <c r="E7" s="43" t="n">
         <v>-0.59</v>
@@ -2017,7 +2017,7 @@
         <v>-0.12</v>
       </c>
       <c r="X7" s="42" t="n">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="Y7" s="39" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         </is>
       </c>
       <c r="D8" s="39" t="n">
-        <v>1382.47</v>
+        <v>1614.87</v>
       </c>
       <c r="E8" s="40" t="n">
         <v>-0.91</v>
@@ -2100,7 +2100,7 @@
         <v>0.48</v>
       </c>
       <c r="X8" s="44" t="n">
-        <v>1.68</v>
+        <v>1.78</v>
       </c>
       <c r="Y8" s="39" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         </is>
       </c>
       <c r="D9" s="39" t="n">
-        <v>3044.61</v>
+        <v>3571.18</v>
       </c>
       <c r="E9" s="40" t="n">
         <v>-0.67</v>
@@ -2183,7 +2183,7 @@
         <v>0.04</v>
       </c>
       <c r="X9" s="44" t="n">
-        <v>1.14</v>
+        <v>1.19</v>
       </c>
       <c r="Y9" s="39" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         </is>
       </c>
       <c r="D10" s="39" t="n">
-        <v>1792.3</v>
+        <v>2095.42</v>
       </c>
       <c r="E10" s="41" t="n">
         <v>-1.18</v>
@@ -2266,7 +2266,7 @@
         <v>0.79</v>
       </c>
       <c r="X10" s="42" t="n">
-        <v>2.15</v>
+        <v>2.33</v>
       </c>
       <c r="Y10" s="39" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>0.09</v>
       </c>
       <c r="X11" s="44" t="n">
-        <v>0.83</v>
+        <v>0.93</v>
       </c>
       <c r="Y11" s="39" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         </is>
       </c>
       <c r="D12" s="39" t="n">
-        <v>8.85</v>
+        <v>8.84</v>
       </c>
       <c r="E12" s="40" t="n">
         <v>0</v>
@@ -2432,7 +2432,7 @@
         <v>0.12</v>
       </c>
       <c r="X12" s="44" t="n">
-        <v>1.04</v>
+        <v>0.98</v>
       </c>
       <c r="Y12" s="39" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         </is>
       </c>
       <c r="D13" s="39" t="n">
-        <v>13.37</v>
+        <v>13.4</v>
       </c>
       <c r="E13" s="40" t="n">
         <v>-1.57</v>
@@ -2515,7 +2515,7 @@
         <v>0.51</v>
       </c>
       <c r="X13" s="44" t="n">
-        <v>2.58</v>
+        <v>2.74</v>
       </c>
       <c r="Y13" s="39" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
         </is>
       </c>
       <c r="D14" s="39" t="n">
-        <v>241.34</v>
+        <v>240.03</v>
       </c>
       <c r="E14" s="40" t="n">
         <v>-2.29</v>
@@ -2597,8 +2597,8 @@
       <c r="W14" s="42" t="n">
         <v>0.09</v>
       </c>
-      <c r="X14" s="44" t="n">
-        <v>1.19</v>
+      <c r="X14" s="42" t="n">
+        <v>0.73</v>
       </c>
       <c r="Y14" s="39" t="inlineStr">
         <is>
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="D15" s="39" t="n">
-        <v>22.99</v>
+        <v>22.85</v>
       </c>
       <c r="E15" s="40" t="n">
         <v>-1.11</v>
@@ -2681,7 +2681,7 @@
         <v>-0.2</v>
       </c>
       <c r="X15" s="41" t="n">
-        <v>0.4</v>
+        <v>-0.26</v>
       </c>
       <c r="Y15" s="39" t="inlineStr">
         <is>
@@ -2704,7 +2704,7 @@
         </is>
       </c>
       <c r="D16" s="39" t="n">
-        <v>179.61</v>
+        <v>179.42</v>
       </c>
       <c r="E16" s="40" t="n">
         <v>-2.07</v>
@@ -2764,7 +2764,7 @@
         <v>0.16</v>
       </c>
       <c r="X16" s="42" t="n">
-        <v>1.05</v>
+        <v>0.89</v>
       </c>
       <c r="Y16" s="39" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
         </is>
       </c>
       <c r="D17" s="39" t="n">
-        <v>12.67</v>
+        <v>12.64</v>
       </c>
       <c r="E17" s="43" t="n">
         <v>-0.45</v>
@@ -2847,7 +2847,7 @@
         <v>0.54</v>
       </c>
       <c r="X17" s="41" t="n">
-        <v>0.09</v>
+        <v>-0.18</v>
       </c>
       <c r="Y17" s="39" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         </is>
       </c>
       <c r="D19" s="39" t="n">
-        <v>89.83</v>
+        <v>89.64</v>
       </c>
       <c r="E19" s="40" t="n">
         <v>-2.77</v>
@@ -3013,7 +3013,7 @@
         <v>-0.29</v>
       </c>
       <c r="X19" s="42" t="n">
-        <v>1.87</v>
+        <v>1.65</v>
       </c>
       <c r="Y19" s="39" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
         </is>
       </c>
       <c r="D20" s="39" t="n">
-        <v>745.5700000000001</v>
+        <v>745.58</v>
       </c>
       <c r="E20" s="44" t="n">
         <v>0</v>
@@ -3119,7 +3119,7 @@
         </is>
       </c>
       <c r="D21" s="39" t="n">
-        <v>606</v>
+        <v>604.73</v>
       </c>
       <c r="E21" s="42" t="n">
         <v>0.92</v>
@@ -3179,7 +3179,7 @@
         <v>-0.61</v>
       </c>
       <c r="X21" s="42" t="n">
-        <v>1.78</v>
+        <v>1.53</v>
       </c>
       <c r="Y21" s="39" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D23" s="39" t="n">
-        <v>3766.61</v>
+        <v>3764.69</v>
       </c>
       <c r="E23" s="43" t="n">
         <v>-0.5</v>
@@ -3345,7 +3345,7 @@
         <v>-0.08</v>
       </c>
       <c r="X23" s="42" t="n">
-        <v>1.01</v>
+        <v>0.98</v>
       </c>
       <c r="Y23" s="39" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         </is>
       </c>
       <c r="D24" s="39" t="n">
-        <v>1630.94</v>
+        <v>1629.13</v>
       </c>
       <c r="E24" s="41" t="n">
         <v>0.15</v>
@@ -3427,8 +3427,8 @@
       <c r="W24" s="43" t="n">
         <v>-0.48</v>
       </c>
-      <c r="X24" s="42" t="n">
-        <v>0.59</v>
+      <c r="X24" s="41" t="n">
+        <v>0.52</v>
       </c>
       <c r="Y24" s="39" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         </is>
       </c>
       <c r="D25" s="39" t="n">
-        <v>48.56</v>
+        <v>48.62</v>
       </c>
       <c r="E25" s="40" t="n">
         <v>-0.61</v>
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="X25" s="42" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Y25" s="39" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         </is>
       </c>
       <c r="D26" s="39" t="n">
-        <v>277.35</v>
+        <v>276.97</v>
       </c>
       <c r="E26" s="40" t="n">
         <v>-2.01</v>
@@ -3594,7 +3594,7 @@
         <v>1.01</v>
       </c>
       <c r="X26" s="44" t="n">
-        <v>2.87</v>
+        <v>2.72</v>
       </c>
       <c r="Y26" s="39" t="inlineStr">
         <is>
@@ -3617,7 +3617,7 @@
         </is>
       </c>
       <c r="D27" s="39" t="n">
-        <v>47.25</v>
+        <v>47.31</v>
       </c>
       <c r="E27" s="43" t="n">
         <v>-0.61</v>
@@ -3676,8 +3676,8 @@
       <c r="W27" s="43" t="n">
         <v>-0.37</v>
       </c>
-      <c r="X27" s="41" t="n">
-        <v>0.75</v>
+      <c r="X27" s="42" t="n">
+        <v>0.88</v>
       </c>
       <c r="Y27" s="39" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
         </is>
       </c>
       <c r="D28" s="39" t="n">
-        <v>639.34</v>
+        <v>640.13</v>
       </c>
       <c r="E28" s="41" t="n">
         <v>-1.15</v>
@@ -3760,7 +3760,7 @@
         <v>0.76</v>
       </c>
       <c r="X28" s="42" t="n">
-        <v>2.23</v>
+        <v>2.35</v>
       </c>
       <c r="Y28" s="39" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         </is>
       </c>
       <c r="D29" s="39" t="n">
-        <v>1111.26</v>
+        <v>1111.65</v>
       </c>
       <c r="E29" s="40" t="n">
         <v>-0.87</v>
@@ -3843,7 +3843,7 @@
         <v>0.5</v>
       </c>
       <c r="X29" s="44" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="Y29" s="39" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         </is>
       </c>
       <c r="D30" s="39" t="n">
-        <v>781.14</v>
+        <v>782.59</v>
       </c>
       <c r="E30" s="41" t="n">
         <v>-0.5600000000000001</v>
@@ -3926,7 +3926,7 @@
         <v>0.85</v>
       </c>
       <c r="X30" s="44" t="n">
-        <v>1.22</v>
+        <v>1.41</v>
       </c>
       <c r="Y30" s="39" t="inlineStr">
         <is>
@@ -3949,7 +3949,7 @@
         </is>
       </c>
       <c r="D31" s="39" t="n">
-        <v>859.01</v>
+        <v>858.58</v>
       </c>
       <c r="E31" s="43" t="n">
         <v>-1.79</v>
@@ -4009,7 +4009,7 @@
         <v>0.95</v>
       </c>
       <c r="X31" s="42" t="n">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="Y31" s="39" t="inlineStr">
         <is>
@@ -4032,7 +4032,7 @@
         </is>
       </c>
       <c r="D32" s="39" t="n">
-        <v>257.75</v>
+        <v>257.46</v>
       </c>
       <c r="E32" s="40" t="n">
         <v>-2.27</v>
@@ -4092,7 +4092,7 @@
         <v>0.95</v>
       </c>
       <c r="X32" s="42" t="n">
-        <v>2.11</v>
+        <v>1.99</v>
       </c>
       <c r="Y32" s="39" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         </is>
       </c>
       <c r="D33" s="39" t="n">
-        <v>54.91</v>
+        <v>55</v>
       </c>
       <c r="E33" s="41" t="n">
         <v>0.31</v>
@@ -4175,7 +4175,7 @@
         <v>-0.31</v>
       </c>
       <c r="X33" s="41" t="n">
-        <v>0.87</v>
+        <v>1.02</v>
       </c>
       <c r="Y33" s="39" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         </is>
       </c>
       <c r="D34" s="39" t="n">
-        <v>33.03</v>
+        <v>33.1</v>
       </c>
       <c r="E34" s="41" t="n">
         <v>0.21</v>
@@ -4257,8 +4257,8 @@
       <c r="W34" s="43" t="n">
         <v>-0.36</v>
       </c>
-      <c r="X34" s="41" t="n">
-        <v>0.93</v>
+      <c r="X34" s="42" t="n">
+        <v>1.15</v>
       </c>
       <c r="Y34" s="39" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         <v>-0.35</v>
       </c>
       <c r="X35" s="40" t="n">
-        <v>0.28</v>
+        <v>0.42</v>
       </c>
       <c r="Y35" s="39" t="inlineStr">
         <is>
@@ -4364,7 +4364,7 @@
         </is>
       </c>
       <c r="D36" s="39" t="n">
-        <v>248.26</v>
+        <v>248.57</v>
       </c>
       <c r="E36" s="41" t="n">
         <v>-0.65</v>
@@ -4424,7 +4424,7 @@
         <v>1.23</v>
       </c>
       <c r="X36" s="44" t="n">
-        <v>0.89</v>
+        <v>0.96</v>
       </c>
       <c r="Y36" s="39" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         </is>
       </c>
       <c r="D37" s="39" t="n">
-        <v>214.85</v>
+        <v>215.25</v>
       </c>
       <c r="E37" s="41" t="n">
         <v>-0.57</v>
@@ -4507,7 +4507,7 @@
         <v>1.24</v>
       </c>
       <c r="X37" s="44" t="n">
-        <v>1.32</v>
+        <v>1.51</v>
       </c>
       <c r="Y37" s="39" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         </is>
       </c>
       <c r="D38" s="39" t="n">
-        <v>243.43</v>
+        <v>244.01</v>
       </c>
       <c r="E38" s="41" t="n">
         <v>0.16</v>
@@ -4590,7 +4590,7 @@
         <v>0.8</v>
       </c>
       <c r="X38" s="44" t="n">
-        <v>1.27</v>
+        <v>1.51</v>
       </c>
       <c r="Y38" s="39" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         </is>
       </c>
       <c r="D39" s="39" t="n">
-        <v>282.71</v>
+        <v>282.17</v>
       </c>
       <c r="E39" s="41" t="n">
         <v>0</v>
@@ -4673,7 +4673,7 @@
         <v>0.29</v>
       </c>
       <c r="X39" s="42" t="n">
-        <v>1.55</v>
+        <v>1.36</v>
       </c>
       <c r="Y39" s="39" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="D40" s="39" t="n">
-        <v>64.27</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="E40" s="41" t="n">
         <v>-0.39</v>
@@ -4756,7 +4756,7 @@
         <v>0.27</v>
       </c>
       <c r="X40" s="42" t="n">
-        <v>1.23</v>
+        <v>0.95</v>
       </c>
       <c r="Y40" s="39" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         </is>
       </c>
       <c r="D42" s="39" t="n">
-        <v>74.8</v>
+        <v>74.95</v>
       </c>
       <c r="E42" s="42" t="n">
         <v>0.33</v>
@@ -4922,7 +4922,7 @@
         <v>-2.19</v>
       </c>
       <c r="X42" s="40" t="n">
-        <v>-0.33</v>
+        <v>-0.13</v>
       </c>
       <c r="Y42" s="39" t="inlineStr">
         <is>
@@ -4945,7 +4945,7 @@
         </is>
       </c>
       <c r="D43" s="39" t="n">
-        <v>118.5</v>
+        <v>118.18</v>
       </c>
       <c r="E43" s="41" t="n">
         <v>-0.26</v>
@@ -5005,7 +5005,7 @@
         <v>0.96</v>
       </c>
       <c r="X43" s="44" t="n">
-        <v>0.95</v>
+        <v>0.68</v>
       </c>
       <c r="Y43" s="39" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         </is>
       </c>
       <c r="D44" s="39" t="n">
-        <v>16.45</v>
+        <v>16.52</v>
       </c>
       <c r="E44" s="41" t="n">
         <v>-1.01</v>
@@ -5088,7 +5088,7 @@
         <v>0.88</v>
       </c>
       <c r="X44" s="42" t="n">
-        <v>0.87</v>
+        <v>1.09</v>
       </c>
       <c r="Y44" s="39" t="inlineStr">
         <is>
@@ -5111,7 +5111,7 @@
         </is>
       </c>
       <c r="D45" s="39" t="n">
-        <v>34.7</v>
+        <v>34.6</v>
       </c>
       <c r="E45" s="40" t="n">
         <v>-0.54</v>
@@ -5171,7 +5171,7 @@
         <v>-0.29</v>
       </c>
       <c r="X45" s="42" t="n">
-        <v>1.47</v>
+        <v>1.17</v>
       </c>
       <c r="Y45" s="39" t="inlineStr">
         <is>
@@ -5194,7 +5194,7 @@
         </is>
       </c>
       <c r="D46" s="39" t="n">
-        <v>260.45</v>
+        <v>261.26</v>
       </c>
       <c r="E46" s="40" t="n">
         <v>-1.46</v>
@@ -5337,7 +5337,7 @@
         <v>1.14</v>
       </c>
       <c r="X47" s="42" t="n">
-        <v>0.85</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="Y47" s="39" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>-0.29</v>
       </c>
       <c r="X48" s="41" t="n">
-        <v>0.59</v>
+        <v>0.73</v>
       </c>
       <c r="Y48" s="39" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         <v>1.52</v>
       </c>
       <c r="X50" s="42" t="n">
-        <v>1.26</v>
+        <v>1.34</v>
       </c>
       <c r="Y50" s="39" t="inlineStr">
         <is>
@@ -5609,7 +5609,7 @@
         </is>
       </c>
       <c r="D51" s="39" t="n">
-        <v>131.42</v>
+        <v>131.55</v>
       </c>
       <c r="E51" s="41" t="n">
         <v>-0.29</v>
@@ -5669,7 +5669,7 @@
         <v>0.71</v>
       </c>
       <c r="X51" s="42" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="Y51" s="39" t="inlineStr">
         <is>
@@ -5692,7 +5692,7 @@
         </is>
       </c>
       <c r="D52" s="39" t="n">
-        <v>4.96</v>
+        <v>4.97</v>
       </c>
       <c r="E52" s="40" t="n">
         <v>-2.63</v>
@@ -5751,8 +5751,8 @@
       <c r="W52" s="42" t="n">
         <v>1.7</v>
       </c>
-      <c r="X52" s="42" t="n">
-        <v>2.7</v>
+      <c r="X52" s="44" t="n">
+        <v>2.88</v>
       </c>
       <c r="Y52" s="39" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         </is>
       </c>
       <c r="D53" s="39" t="n">
-        <v>27.59</v>
+        <v>27.72</v>
       </c>
       <c r="E53" s="41" t="n">
         <v>-0.12</v>
@@ -5835,7 +5835,7 @@
         <v>1.14</v>
       </c>
       <c r="X53" s="44" t="n">
-        <v>2.51</v>
+        <v>3.02</v>
       </c>
       <c r="Y53" s="39" t="inlineStr">
         <is>
@@ -5858,7 +5858,7 @@
         </is>
       </c>
       <c r="D54" s="39" t="n">
-        <v>34.93</v>
+        <v>34.96</v>
       </c>
       <c r="E54" s="45" t="n">
         <v>-1.77</v>
@@ -5918,7 +5918,7 @@
         <v>2.54</v>
       </c>
       <c r="X54" s="44" t="n">
-        <v>2.47</v>
+        <v>2.58</v>
       </c>
       <c r="Y54" s="39" t="inlineStr">
         <is>
@@ -5941,7 +5941,7 @@
         </is>
       </c>
       <c r="D55" s="39" t="n">
-        <v>2.88</v>
+        <v>2.89</v>
       </c>
       <c r="E55" s="41" t="n">
         <v>-1.3</v>
@@ -6001,7 +6001,7 @@
         <v>2.08</v>
       </c>
       <c r="X55" s="44" t="n">
-        <v>2.45</v>
+        <v>2.85</v>
       </c>
       <c r="Y55" s="39" t="inlineStr">
         <is>
@@ -6084,7 +6084,7 @@
         <v>2.56</v>
       </c>
       <c r="X56" s="44" t="n">
-        <v>2.15</v>
+        <v>2.23</v>
       </c>
       <c r="Y56" s="39" t="inlineStr">
         <is>
@@ -6107,7 +6107,7 @@
         </is>
       </c>
       <c r="D57" s="39" t="n">
-        <v>139.78</v>
+        <v>140.1</v>
       </c>
       <c r="E57" s="41" t="n">
         <v>-2.21</v>
@@ -6166,8 +6166,8 @@
       <c r="W57" s="42" t="n">
         <v>3.13</v>
       </c>
-      <c r="X57" s="42" t="n">
-        <v>1.98</v>
+      <c r="X57" s="44" t="n">
+        <v>2.21</v>
       </c>
       <c r="Y57" s="39" t="inlineStr">
         <is>
@@ -6190,7 +6190,7 @@
         </is>
       </c>
       <c r="D58" s="39" t="n">
-        <v>30.45</v>
+        <v>30.41</v>
       </c>
       <c r="E58" s="41" t="n">
         <v>-0.98</v>
@@ -6250,7 +6250,7 @@
         <v>2.22</v>
       </c>
       <c r="X58" s="44" t="n">
-        <v>2.97</v>
+        <v>2.85</v>
       </c>
       <c r="Y58" s="39" t="inlineStr">
         <is>
@@ -6273,7 +6273,7 @@
         </is>
       </c>
       <c r="D59" s="39" t="n">
-        <v>7.65</v>
+        <v>7.64</v>
       </c>
       <c r="E59" s="41" t="n">
         <v>0.26</v>
@@ -6333,7 +6333,7 @@
         <v>1.45</v>
       </c>
       <c r="X59" s="44" t="n">
-        <v>1.82</v>
+        <v>1.69</v>
       </c>
       <c r="Y59" s="39" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         </is>
       </c>
       <c r="D60" s="39" t="n">
-        <v>15.86</v>
+        <v>15.88</v>
       </c>
       <c r="E60" s="43" t="n">
         <v>-4.53</v>
@@ -6416,7 +6416,7 @@
         <v>1.72</v>
       </c>
       <c r="X60" s="44" t="n">
-        <v>2.08</v>
+        <v>2.34</v>
       </c>
       <c r="Y60" s="39" t="inlineStr">
         <is>
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="D61" s="39" t="n">
-        <v>48.62</v>
+        <v>48.69</v>
       </c>
       <c r="E61" s="42" t="n">
         <v>1.11</v>
@@ -6499,7 +6499,7 @@
         <v>0</v>
       </c>
       <c r="X61" s="41" t="n">
-        <v>0.28</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="Y61" s="39" t="inlineStr">
         <is>
@@ -6522,7 +6522,7 @@
         </is>
       </c>
       <c r="D62" s="39" t="n">
-        <v>62.21</v>
+        <v>62.39</v>
       </c>
       <c r="E62" s="43" t="n">
         <v>-4.23</v>
@@ -6582,7 +6582,7 @@
         <v>1.43</v>
       </c>
       <c r="X62" s="42" t="n">
-        <v>2.52</v>
+        <v>2.92</v>
       </c>
       <c r="Y62" s="39" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         </is>
       </c>
       <c r="D63" s="39" t="n">
-        <v>69.69</v>
+        <v>69.81999999999999</v>
       </c>
       <c r="E63" s="41" t="n">
         <v>0</v>
@@ -6665,7 +6665,7 @@
         <v>0.92</v>
       </c>
       <c r="X63" s="44" t="n">
-        <v>2.56</v>
+        <v>2.65</v>
       </c>
       <c r="Y63" s="39" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         </is>
       </c>
       <c r="D64" s="39" t="n">
-        <v>13.56</v>
+        <v>13.53</v>
       </c>
       <c r="E64" s="41" t="n">
         <v>-0.36</v>
@@ -6748,7 +6748,7 @@
         <v>2.68</v>
       </c>
       <c r="X64" s="44" t="n">
-        <v>3.23</v>
+        <v>3.11</v>
       </c>
       <c r="Y64" s="39" t="inlineStr">
         <is>
@@ -6937,7 +6937,7 @@
         </is>
       </c>
       <c r="D67" s="39" t="n">
-        <v>14.4</v>
+        <v>14.38</v>
       </c>
       <c r="E67" s="40" t="n">
         <v>-1.19</v>
@@ -7020,7 +7020,7 @@
         </is>
       </c>
       <c r="D68" s="39" t="n">
-        <v>15.2</v>
+        <v>15.21</v>
       </c>
       <c r="E68" s="40" t="n">
         <v>-3.01</v>
@@ -7080,7 +7080,7 @@
         <v>0.85</v>
       </c>
       <c r="X68" s="44" t="n">
-        <v>1.45</v>
+        <v>1.68</v>
       </c>
       <c r="Y68" s="39" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         </is>
       </c>
       <c r="D69" s="39" t="n">
-        <v>151.73</v>
+        <v>151.55</v>
       </c>
       <c r="E69" s="42" t="n">
         <v>1.35</v>
@@ -7163,7 +7163,7 @@
         <v>0.25</v>
       </c>
       <c r="X69" s="41" t="n">
-        <v>0.24</v>
+        <v>0.12</v>
       </c>
       <c r="Y69" s="39" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         </is>
       </c>
       <c r="D71" s="39" t="n">
-        <v>31.83</v>
+        <v>31.81</v>
       </c>
       <c r="E71" s="40" t="n">
         <v>-0.72</v>
@@ -7329,7 +7329,7 @@
         <v>-0.06</v>
       </c>
       <c r="X71" s="42" t="n">
-        <v>0.87</v>
+        <v>0.8</v>
       </c>
       <c r="Y71" s="39" t="inlineStr">
         <is>
@@ -7352,7 +7352,7 @@
         </is>
       </c>
       <c r="D72" s="39" t="n">
-        <v>31.41</v>
+        <v>31.46</v>
       </c>
       <c r="E72" s="42" t="n">
         <v>1.48</v>
@@ -7412,7 +7412,7 @@
         <v>-0.45</v>
       </c>
       <c r="X72" s="41" t="n">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
       <c r="Y72" s="39" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="D73" s="39" t="n">
-        <v>6.56</v>
+        <v>6.53</v>
       </c>
       <c r="E73" s="45" t="n">
         <v>-0.5600000000000001</v>
@@ -7495,7 +7495,7 @@
         <v>1.83</v>
       </c>
       <c r="X73" s="42" t="n">
-        <v>1.99</v>
+        <v>1.79</v>
       </c>
       <c r="Y73" s="39" t="inlineStr">
         <is>
@@ -7518,7 +7518,7 @@
         </is>
       </c>
       <c r="D74" s="39" t="n">
-        <v>217.76</v>
+        <v>218.19</v>
       </c>
       <c r="E74" s="42" t="n">
         <v>0.16</v>
@@ -7578,7 +7578,7 @@
         <v>-0.78</v>
       </c>
       <c r="X74" s="43" t="n">
-        <v>-0.43</v>
+        <v>-0.2</v>
       </c>
       <c r="Y74" s="39" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         </is>
       </c>
       <c r="D75" s="39" t="n">
-        <v>158.29</v>
+        <v>158.43</v>
       </c>
       <c r="E75" s="44" t="n">
         <v>0.36</v>
@@ -7661,7 +7661,7 @@
         <v>-1.6</v>
       </c>
       <c r="X75" s="40" t="n">
-        <v>-0.18</v>
+        <v>0</v>
       </c>
       <c r="Y75" s="39" t="inlineStr">
         <is>
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="D77" s="39" t="n">
-        <v>9.1</v>
+        <v>9.08</v>
       </c>
       <c r="E77" s="40" t="n">
         <v>-0.78</v>
@@ -7827,7 +7827,7 @@
         <v>0</v>
       </c>
       <c r="X77" s="44" t="n">
-        <v>2.89</v>
+        <v>2.68</v>
       </c>
       <c r="Y77" s="39" t="inlineStr">
         <is>
@@ -7850,7 +7850,7 @@
         </is>
       </c>
       <c r="D78" s="39" t="n">
-        <v>9.07</v>
+        <v>9.08</v>
       </c>
       <c r="E78" s="41" t="n">
         <v>-0.37</v>
@@ -7910,7 +7910,7 @@
         <v>0.89</v>
       </c>
       <c r="X78" s="44" t="n">
-        <v>4.14</v>
+        <v>4.24</v>
       </c>
       <c r="Y78" s="39" t="inlineStr">
         <is>
@@ -7933,7 +7933,7 @@
         </is>
       </c>
       <c r="D79" s="39" t="n">
-        <v>19.23</v>
+        <v>19.29</v>
       </c>
       <c r="E79" s="41" t="n">
         <v>0.48</v>
@@ -7993,7 +7993,7 @@
         <v>-1.31</v>
       </c>
       <c r="X79" s="42" t="n">
-        <v>1.75</v>
+        <v>2.08</v>
       </c>
       <c r="Y79" s="39" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>-1.07</v>
       </c>
       <c r="X80" s="42" t="n">
-        <v>0.98</v>
+        <v>1.08</v>
       </c>
       <c r="Y80" s="39" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         </is>
       </c>
       <c r="D83" s="39" t="n">
-        <v>7.35</v>
+        <v>7.36</v>
       </c>
       <c r="E83" s="42" t="n">
         <v>0.92</v>
@@ -8325,7 +8325,7 @@
         <v>0.32</v>
       </c>
       <c r="X83" s="41" t="n">
-        <v>0.32</v>
+        <v>0.42</v>
       </c>
       <c r="Y83" s="39" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         </is>
       </c>
       <c r="D84" s="39" t="n">
-        <v>24.63</v>
+        <v>24.68</v>
       </c>
       <c r="E84" s="41" t="n">
         <v>0.66</v>
@@ -8408,7 +8408,7 @@
         <v>-0.48</v>
       </c>
       <c r="X84" s="42" t="n">
-        <v>0.87</v>
+        <v>1.07</v>
       </c>
       <c r="Y84" s="39" t="inlineStr">
         <is>
@@ -8431,7 +8431,7 @@
         </is>
       </c>
       <c r="D85" s="39" t="n">
-        <v>43.77</v>
+        <v>43.73</v>
       </c>
       <c r="E85" s="43" t="n">
         <v>-1.34</v>
@@ -8491,7 +8491,7 @@
         <v>1.53</v>
       </c>
       <c r="X85" s="42" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="Y85" s="39" t="inlineStr">
         <is>
@@ -8574,7 +8574,7 @@
         <v>0</v>
       </c>
       <c r="X86" s="42" t="n">
-        <v>1.17</v>
+        <v>1.4</v>
       </c>
       <c r="Y86" s="39" t="inlineStr">
         <is>
@@ -8597,7 +8597,7 @@
         </is>
       </c>
       <c r="D87" s="39" t="n">
-        <v>44.58</v>
+        <v>44.63</v>
       </c>
       <c r="E87" s="40" t="n">
         <v>-1.52</v>
@@ -8657,7 +8657,7 @@
         <v>0.11</v>
       </c>
       <c r="X87" s="42" t="n">
-        <v>1.49</v>
+        <v>1.6</v>
       </c>
       <c r="Y87" s="39" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         </is>
       </c>
       <c r="D88" s="39" t="n">
-        <v>89.91</v>
+        <v>90.18000000000001</v>
       </c>
       <c r="E88" s="40" t="n">
         <v>-2.07</v>
@@ -8739,8 +8739,8 @@
       <c r="W88" s="41" t="n">
         <v>0.16</v>
       </c>
-      <c r="X88" s="42" t="n">
-        <v>1.87</v>
+      <c r="X88" s="44" t="n">
+        <v>2.18</v>
       </c>
       <c r="Y88" s="39" t="inlineStr">
         <is>
@@ -8763,7 +8763,7 @@
         </is>
       </c>
       <c r="D89" s="39" t="n">
-        <v>34.63</v>
+        <v>34.71</v>
       </c>
       <c r="E89" s="42" t="n">
         <v>1.57</v>
@@ -8822,8 +8822,8 @@
       <c r="W89" s="40" t="n">
         <v>-0.42</v>
       </c>
-      <c r="X89" s="40" t="n">
-        <v>0.1</v>
+      <c r="X89" s="41" t="n">
+        <v>0.42</v>
       </c>
       <c r="Y89" s="39" t="inlineStr">
         <is>
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="D90" s="39" t="n">
-        <v>19.21</v>
+        <v>19.23</v>
       </c>
       <c r="E90" s="40" t="n">
         <v>-1.14</v>
@@ -8905,8 +8905,8 @@
       <c r="W90" s="43" t="n">
         <v>-0.54</v>
       </c>
-      <c r="X90" s="40" t="n">
-        <v>0.44</v>
+      <c r="X90" s="41" t="n">
+        <v>0.55</v>
       </c>
       <c r="Y90" s="39" t="inlineStr">
         <is>
@@ -8929,7 +8929,7 @@
         </is>
       </c>
       <c r="D91" s="39" t="n">
-        <v>13.09</v>
+        <v>13.15</v>
       </c>
       <c r="E91" s="41" t="n">
         <v>0.27</v>
@@ -8988,8 +8988,8 @@
       <c r="W91" s="41" t="n">
         <v>0.14</v>
       </c>
-      <c r="X91" s="42" t="n">
-        <v>1.14</v>
+      <c r="X91" s="44" t="n">
+        <v>1.56</v>
       </c>
       <c r="Y91" s="39" t="inlineStr">
         <is>
@@ -9012,7 +9012,7 @@
         </is>
       </c>
       <c r="D92" s="39" t="n">
-        <v>11.73</v>
+        <v>11.74</v>
       </c>
       <c r="E92" s="40" t="n">
         <v>-0.74</v>
@@ -9072,7 +9072,7 @@
         <v>0</v>
       </c>
       <c r="X92" s="42" t="n">
-        <v>1.02</v>
+        <v>1.13</v>
       </c>
       <c r="Y92" s="39" t="inlineStr">
         <is>
@@ -9095,7 +9095,7 @@
         </is>
       </c>
       <c r="D93" s="39" t="n">
-        <v>161.81</v>
+        <v>161.69</v>
       </c>
       <c r="E93" s="40" t="n">
         <v>-1.39</v>
@@ -9155,7 +9155,7 @@
         <v>0.59</v>
       </c>
       <c r="X93" s="42" t="n">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="Y93" s="39" t="inlineStr">
         <is>
@@ -9178,7 +9178,7 @@
         </is>
       </c>
       <c r="D94" s="39" t="n">
-        <v>247.22</v>
+        <v>247.74</v>
       </c>
       <c r="E94" s="41" t="n">
         <v>-2.16</v>
@@ -9238,7 +9238,7 @@
         <v>1.3</v>
       </c>
       <c r="X94" s="44" t="n">
-        <v>3</v>
+        <v>3.21</v>
       </c>
       <c r="Y94" s="39" t="inlineStr">
         <is>
@@ -9320,8 +9320,8 @@
       <c r="W95" s="41" t="n">
         <v>0.62</v>
       </c>
-      <c r="X95" s="42" t="n">
-        <v>0.82</v>
+      <c r="X95" s="41" t="n">
+        <v>0.62</v>
       </c>
       <c r="Y95" s="39" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         </is>
       </c>
       <c r="D96" s="39" t="n">
-        <v>9.19</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="E96" s="40" t="n">
         <v>-1.26</v>
@@ -9404,7 +9404,7 @@
         <v>0.12</v>
       </c>
       <c r="X96" s="42" t="n">
-        <v>1.81</v>
+        <v>2.05</v>
       </c>
       <c r="Y96" s="39" t="inlineStr">
         <is>
@@ -9593,7 +9593,7 @@
         </is>
       </c>
       <c r="D99" s="39" t="n">
-        <v>17.99</v>
+        <v>18</v>
       </c>
       <c r="E99" s="40" t="n">
         <v>-2.14</v>
@@ -9676,7 +9676,7 @@
         </is>
       </c>
       <c r="D100" s="39" t="n">
-        <v>72.54000000000001</v>
+        <v>72.59</v>
       </c>
       <c r="E100" s="41" t="n">
         <v>-1.03</v>
@@ -9736,7 +9736,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="X100" s="42" t="n">
-        <v>2.56</v>
+        <v>2.63</v>
       </c>
       <c r="Y100" s="39" t="inlineStr">
         <is>
@@ -12092,7 +12092,7 @@
         </is>
       </c>
       <c r="D2" s="39" t="n">
-        <v>432.19</v>
+        <v>512.5599999999999</v>
       </c>
       <c r="E2" s="39" t="n">
         <v>42.5</v>
@@ -12152,7 +12152,7 @@
         <v>6.3</v>
       </c>
       <c r="X2" s="39" t="n">
-        <v>64.7</v>
+        <v>63.7</v>
       </c>
       <c r="Y2" s="39" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         </is>
       </c>
       <c r="D3" s="39" t="n">
-        <v>3495.9</v>
+        <v>4096.94</v>
       </c>
       <c r="E3" s="39" t="n">
         <v>26.6</v>
@@ -12235,7 +12235,7 @@
         <v>3.1</v>
       </c>
       <c r="X3" s="39" t="n">
-        <v>85.5</v>
+        <v>86.8</v>
       </c>
       <c r="Y3" s="39" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         </is>
       </c>
       <c r="D4" s="39" t="n">
-        <v>1662.13</v>
+        <v>1955.94</v>
       </c>
       <c r="E4" s="39" t="n">
         <v>2</v>
@@ -12318,7 +12318,7 @@
         <v>5.5</v>
       </c>
       <c r="X4" s="39" t="n">
-        <v>88.59999999999999</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="Y4" s="39" t="inlineStr">
         <is>
@@ -12332,80 +12332,80 @@
       </c>
       <c r="B5" s="39" t="inlineStr">
         <is>
-          <t>sh000852</t>
+          <t>sz399006</t>
         </is>
       </c>
       <c r="C5" s="39" t="inlineStr">
         <is>
-          <t>中证1000</t>
+          <t>创业板指</t>
         </is>
       </c>
       <c r="D5" s="39" t="n">
-        <v>1792.3</v>
+        <v>2669.88</v>
       </c>
       <c r="E5" s="39" t="n">
-        <v>17.2</v>
+        <v>3.4</v>
       </c>
       <c r="F5" s="39" t="n">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="G5" s="39" t="n">
-        <v>9.199999999999999</v>
+        <v>19.3</v>
       </c>
       <c r="H5" s="39" t="n">
-        <v>43</v>
+        <v>33.2</v>
       </c>
       <c r="I5" s="39" t="n">
-        <v>68.40000000000001</v>
+        <v>63</v>
       </c>
       <c r="J5" s="39" t="n">
-        <v>79.3</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="K5" s="39" t="n">
-        <v>87.59999999999999</v>
+        <v>79.7</v>
       </c>
       <c r="L5" s="39" t="n">
-        <v>69.59999999999999</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="M5" s="39" t="n">
-        <v>30</v>
+        <v>24.3</v>
       </c>
       <c r="N5" s="39" t="n">
-        <v>34</v>
+        <v>30.9</v>
       </c>
       <c r="O5" s="39" t="n">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="P5" s="39" t="n">
-        <v>88.8</v>
+        <v>91.2</v>
       </c>
       <c r="Q5" s="39" t="n">
-        <v>84.90000000000001</v>
+        <v>49.5</v>
       </c>
       <c r="R5" s="39" t="n">
-        <v>92.2</v>
+        <v>77</v>
       </c>
       <c r="S5" s="39" t="n">
-        <v>33.4</v>
+        <v>45.3</v>
       </c>
       <c r="T5" s="39" t="n">
-        <v>51.7</v>
+        <v>67.8</v>
       </c>
       <c r="U5" s="39" t="n">
-        <v>18.4</v>
+        <v>35.2</v>
       </c>
       <c r="V5" s="39" t="n">
-        <v>47.1</v>
+        <v>29.6</v>
       </c>
       <c r="W5" s="39" t="n">
-        <v>76.5</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="X5" s="39" t="n">
-        <v>94.2</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="Y5" s="39" t="inlineStr">
         <is>
-          <t>中证1000</t>
+          <t>创业板指</t>
         </is>
       </c>
     </row>
@@ -12415,80 +12415,80 @@
       </c>
       <c r="B6" s="39" t="inlineStr">
         <is>
-          <t>sz399001</t>
+          <t>sh000852</t>
         </is>
       </c>
       <c r="C6" s="39" t="inlineStr">
         <is>
-          <t>深证成指</t>
+          <t>中证1000</t>
         </is>
       </c>
       <c r="D6" s="39" t="n">
-        <v>4997.04</v>
+        <v>2095.42</v>
       </c>
       <c r="E6" s="39" t="n">
-        <v>3.2</v>
+        <v>17.2</v>
       </c>
       <c r="F6" s="39" t="n">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="G6" s="39" t="n">
-        <v>10.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H6" s="39" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I6" s="39" t="n">
-        <v>68</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="J6" s="39" t="n">
-        <v>76.8</v>
+        <v>79.3</v>
       </c>
       <c r="K6" s="39" t="n">
-        <v>82.7</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="L6" s="39" t="n">
-        <v>65.2</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="M6" s="39" t="n">
-        <v>27.8</v>
+        <v>30</v>
       </c>
       <c r="N6" s="39" t="n">
-        <v>22.9</v>
+        <v>34</v>
       </c>
       <c r="O6" s="39" t="n">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="P6" s="39" t="n">
-        <v>89.2</v>
+        <v>88.8</v>
       </c>
       <c r="Q6" s="39" t="n">
-        <v>61.4</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="R6" s="39" t="n">
-        <v>82.09999999999999</v>
+        <v>92.2</v>
       </c>
       <c r="S6" s="39" t="n">
-        <v>42.4</v>
+        <v>33.4</v>
       </c>
       <c r="T6" s="39" t="n">
-        <v>65.09999999999999</v>
+        <v>51.7</v>
       </c>
       <c r="U6" s="39" t="n">
-        <v>28.8</v>
+        <v>18.4</v>
       </c>
       <c r="V6" s="39" t="n">
-        <v>26.3</v>
+        <v>47.1</v>
       </c>
       <c r="W6" s="39" t="n">
-        <v>72.09999999999999</v>
+        <v>76.5</v>
       </c>
       <c r="X6" s="39" t="n">
         <v>94.5</v>
       </c>
       <c r="Y6" s="39" t="inlineStr">
         <is>
-          <t>深证成指</t>
+          <t>中证1000</t>
         </is>
       </c>
     </row>
@@ -12498,80 +12498,80 @@
       </c>
       <c r="B7" s="39" t="inlineStr">
         <is>
-          <t>sz399006</t>
+          <t>sz399001</t>
         </is>
       </c>
       <c r="C7" s="39" t="inlineStr">
         <is>
-          <t>创业板指</t>
+          <t>深证成指</t>
         </is>
       </c>
       <c r="D7" s="39" t="n">
-        <v>2302.13</v>
+        <v>5780.83</v>
       </c>
       <c r="E7" s="39" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="F7" s="39" t="n">
         <v>0.3</v>
       </c>
       <c r="G7" s="39" t="n">
-        <v>19.3</v>
+        <v>10.2</v>
       </c>
       <c r="H7" s="39" t="n">
-        <v>33.2</v>
+        <v>35</v>
       </c>
       <c r="I7" s="39" t="n">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="J7" s="39" t="n">
-        <v>76.09999999999999</v>
+        <v>76.8</v>
       </c>
       <c r="K7" s="39" t="n">
-        <v>79.7</v>
+        <v>82.7</v>
       </c>
       <c r="L7" s="39" t="n">
-        <v>71.40000000000001</v>
+        <v>65.2</v>
       </c>
       <c r="M7" s="39" t="n">
-        <v>24.3</v>
+        <v>27.8</v>
       </c>
       <c r="N7" s="39" t="n">
-        <v>30.9</v>
+        <v>22.9</v>
       </c>
       <c r="O7" s="39" t="n">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="P7" s="39" t="n">
-        <v>91.2</v>
+        <v>89.2</v>
       </c>
       <c r="Q7" s="39" t="n">
-        <v>49.5</v>
+        <v>61.4</v>
       </c>
       <c r="R7" s="39" t="n">
-        <v>77</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="S7" s="39" t="n">
-        <v>45.3</v>
+        <v>42.4</v>
       </c>
       <c r="T7" s="39" t="n">
-        <v>67.8</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="U7" s="39" t="n">
-        <v>35.2</v>
+        <v>28.8</v>
       </c>
       <c r="V7" s="39" t="n">
-        <v>29.6</v>
+        <v>26.3</v>
       </c>
       <c r="W7" s="39" t="n">
-        <v>76.90000000000001</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="X7" s="39" t="n">
         <v>94.59999999999999</v>
       </c>
       <c r="Y7" s="39" t="inlineStr">
         <is>
-          <t>创业板指</t>
+          <t>深证成指</t>
         </is>
       </c>
     </row>
@@ -12590,7 +12590,7 @@
         </is>
       </c>
       <c r="D8" s="39" t="n">
-        <v>3044.61</v>
+        <v>3571.18</v>
       </c>
       <c r="E8" s="39" t="n">
         <v>5.8</v>
@@ -12650,7 +12650,7 @@
         <v>33.9</v>
       </c>
       <c r="X8" s="39" t="n">
-        <v>95.09999999999999</v>
+        <v>95.2</v>
       </c>
       <c r="Y8" s="39" t="inlineStr">
         <is>
@@ -12673,7 +12673,7 @@
         </is>
       </c>
       <c r="D9" s="39" t="n">
-        <v>1382.47</v>
+        <v>1614.87</v>
       </c>
       <c r="E9" s="39" t="n">
         <v>16</v>
@@ -12733,7 +12733,7 @@
         <v>78.3</v>
       </c>
       <c r="X9" s="39" t="n">
-        <v>96</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="Y9" s="39" t="inlineStr">
         <is>
@@ -12756,7 +12756,7 @@
         </is>
       </c>
       <c r="D10" s="39" t="n">
-        <v>173.55</v>
+        <v>203.79</v>
       </c>
       <c r="E10" s="39" t="n">
         <v>9.9</v>
@@ -12816,7 +12816,7 @@
         <v>88.5</v>
       </c>
       <c r="X10" s="39" t="n">
-        <v>96.8</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="Y10" s="39" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
         </is>
       </c>
       <c r="D11" s="39" t="n">
-        <v>217.76</v>
+        <v>218.19</v>
       </c>
       <c r="E11" s="39" t="n">
         <v>89.2</v>
@@ -12897,7 +12897,7 @@
         <v>5.4</v>
       </c>
       <c r="X11" s="39" t="n">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="Y11" s="39" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         </is>
       </c>
       <c r="D12" s="39" t="n">
-        <v>158.29</v>
+        <v>158.43</v>
       </c>
       <c r="E12" s="39" t="n">
         <v>97</v>
@@ -12980,7 +12980,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="X12" s="39" t="n">
-        <v>7.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y12" s="39" t="inlineStr">
         <is>
@@ -13001,7 +13001,7 @@
         </is>
       </c>
       <c r="D13" s="39" t="n">
-        <v>74.8</v>
+        <v>74.95</v>
       </c>
       <c r="E13" s="39" t="n">
         <v>81.09999999999999</v>
@@ -13061,7 +13061,7 @@
         <v>11.1</v>
       </c>
       <c r="X13" s="39" t="n">
-        <v>8.9</v>
+        <v>10.1</v>
       </c>
       <c r="Y13" s="39" t="inlineStr">
         <is>
@@ -13155,79 +13155,79 @@
         <v>13</v>
       </c>
       <c r="B15" s="39" t="n">
-        <v>159611</v>
+        <v>512690</v>
       </c>
       <c r="C15" s="39" t="inlineStr">
         <is>
-          <t>电力ETF</t>
+          <t>酒ETF</t>
         </is>
       </c>
       <c r="D15" s="39" t="n">
-        <v>34.63</v>
+        <v>110.11</v>
       </c>
       <c r="E15" s="39" t="n">
-        <v>77.59999999999999</v>
+        <v>85.7</v>
       </c>
       <c r="F15" s="39" t="n">
-        <v>16.9</v>
+        <v>12.1</v>
       </c>
       <c r="G15" s="39" t="n">
-        <v>47.3</v>
+        <v>59</v>
       </c>
       <c r="H15" s="39" t="n">
-        <v>55.1</v>
+        <v>71.3</v>
       </c>
       <c r="I15" s="39" t="n">
-        <v>65.3</v>
+        <v>76.5</v>
       </c>
       <c r="J15" s="39" t="n">
-        <v>38.8</v>
+        <v>41.3</v>
       </c>
       <c r="K15" s="39" t="n">
-        <v>75.40000000000001</v>
+        <v>23</v>
       </c>
       <c r="L15" s="39" t="n">
-        <v>82.90000000000001</v>
+        <v>23</v>
       </c>
       <c r="M15" s="39" t="n">
-        <v>86.8</v>
+        <v>51.6</v>
       </c>
       <c r="N15" s="39" t="n">
-        <v>86.8</v>
+        <v>85</v>
       </c>
       <c r="O15" s="39" t="n">
-        <v>26.1</v>
+        <v>35.7</v>
       </c>
       <c r="P15" s="39" t="n">
-        <v>59.8</v>
+        <v>16.5</v>
       </c>
       <c r="Q15" s="39" t="n">
-        <v>45.9</v>
+        <v>14</v>
       </c>
       <c r="R15" s="39" t="n">
-        <v>19.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="S15" s="39" t="n">
-        <v>80.3</v>
+        <v>4.1</v>
       </c>
       <c r="T15" s="39" t="n">
-        <v>94.3</v>
+        <v>29.2</v>
       </c>
       <c r="U15" s="39" t="n">
-        <v>97</v>
+        <v>14.3</v>
       </c>
       <c r="V15" s="39" t="n">
-        <v>29.1</v>
+        <v>3.5</v>
       </c>
       <c r="W15" s="39" t="n">
-        <v>22.7</v>
+        <v>3.5</v>
       </c>
       <c r="X15" s="39" t="n">
-        <v>30.3</v>
+        <v>35.8</v>
       </c>
       <c r="Y15" s="39" t="inlineStr">
         <is>
-          <t>电力ETF</t>
+          <t>酒ETF</t>
         </is>
       </c>
     </row>
@@ -13235,80 +13235,82 @@
       <c r="A16" s="39" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="39" t="n">
-        <v>512690</v>
+      <c r="B16" s="39" t="inlineStr">
+        <is>
+          <t>164824</t>
+        </is>
       </c>
       <c r="C16" s="39" t="inlineStr">
         <is>
-          <t>酒ETF</t>
+          <t>印度基金LOF</t>
         </is>
       </c>
       <c r="D16" s="39" t="n">
-        <v>110.11</v>
+        <v>22.85</v>
       </c>
       <c r="E16" s="39" t="n">
-        <v>85.7</v>
+        <v>26.6</v>
       </c>
       <c r="F16" s="39" t="n">
-        <v>12.1</v>
+        <v>3.2</v>
       </c>
       <c r="G16" s="39" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H16" s="39" t="n">
-        <v>71.3</v>
+        <v>49.4</v>
       </c>
       <c r="I16" s="39" t="n">
-        <v>76.5</v>
+        <v>80</v>
       </c>
       <c r="J16" s="39" t="n">
+        <v>65</v>
+      </c>
+      <c r="K16" s="39" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="L16" s="39" t="n">
+        <v>82.5</v>
+      </c>
+      <c r="M16" s="39" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="N16" s="39" t="n">
+        <v>81.09999999999999</v>
+      </c>
+      <c r="O16" s="39" t="n">
+        <v>90.5</v>
+      </c>
+      <c r="P16" s="39" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="Q16" s="39" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="R16" s="39" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="S16" s="39" t="n">
         <v>41.3</v>
       </c>
-      <c r="K16" s="39" t="n">
-        <v>23</v>
-      </c>
-      <c r="L16" s="39" t="n">
-        <v>23</v>
-      </c>
-      <c r="M16" s="39" t="n">
-        <v>51.6</v>
-      </c>
-      <c r="N16" s="39" t="n">
-        <v>85</v>
-      </c>
-      <c r="O16" s="39" t="n">
-        <v>35.7</v>
-      </c>
-      <c r="P16" s="39" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Q16" s="39" t="n">
-        <v>14</v>
-      </c>
-      <c r="R16" s="39" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="S16" s="39" t="n">
-        <v>4.1</v>
-      </c>
       <c r="T16" s="39" t="n">
-        <v>29.2</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="U16" s="39" t="n">
-        <v>14.3</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="V16" s="39" t="n">
-        <v>3.5</v>
+        <v>60.9</v>
       </c>
       <c r="W16" s="39" t="n">
-        <v>3.5</v>
+        <v>52.3</v>
       </c>
       <c r="X16" s="39" t="n">
-        <v>35.8</v>
+        <v>38</v>
       </c>
       <c r="Y16" s="39" t="inlineStr">
         <is>
-          <t>酒ETF</t>
+          <t>印度基金LOF</t>
         </is>
       </c>
     </row>
@@ -13317,79 +13319,79 @@
         <v>15</v>
       </c>
       <c r="B17" s="39" t="n">
-        <v>517090</v>
+        <v>159611</v>
       </c>
       <c r="C17" s="39" t="inlineStr">
         <is>
-          <t>央企共赢ETF</t>
+          <t>电力ETF</t>
         </is>
       </c>
       <c r="D17" s="39" t="n">
-        <v>4.31</v>
+        <v>34.71</v>
       </c>
       <c r="E17" s="39" t="n">
-        <v>76.2</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="F17" s="39" t="n">
-        <v>4</v>
+        <v>16.9</v>
       </c>
       <c r="G17" s="39" t="n">
-        <v>59.4</v>
+        <v>47.3</v>
       </c>
       <c r="H17" s="39" t="n">
-        <v>50</v>
+        <v>55.1</v>
       </c>
       <c r="I17" s="39" t="n">
-        <v>55.6</v>
+        <v>65.3</v>
       </c>
       <c r="J17" s="39" t="n">
-        <v>45.4</v>
+        <v>38.8</v>
       </c>
       <c r="K17" s="39" t="n">
-        <v>64.8</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="L17" s="39" t="n">
-        <v>76.09999999999999</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="M17" s="39" t="n">
-        <v>90.40000000000001</v>
+        <v>86.8</v>
       </c>
       <c r="N17" s="39" t="n">
-        <v>91.2</v>
+        <v>86.8</v>
       </c>
       <c r="O17" s="39" t="n">
-        <v>94</v>
+        <v>26.1</v>
       </c>
       <c r="P17" s="39" t="n">
-        <v>32.1</v>
+        <v>59.8</v>
       </c>
       <c r="Q17" s="39" t="n">
-        <v>68.7</v>
+        <v>45.9</v>
       </c>
       <c r="R17" s="39" t="n">
-        <v>41</v>
+        <v>19.1</v>
       </c>
       <c r="S17" s="39" t="n">
-        <v>41</v>
+        <v>80.3</v>
       </c>
       <c r="T17" s="39" t="n">
-        <v>17.9</v>
+        <v>94.3</v>
       </c>
       <c r="U17" s="39" t="n">
-        <v>76.8</v>
+        <v>97</v>
       </c>
       <c r="V17" s="39" t="n">
-        <v>26.4</v>
+        <v>29.1</v>
       </c>
       <c r="W17" s="39" t="n">
-        <v>17</v>
+        <v>22.7</v>
       </c>
       <c r="X17" s="39" t="n">
-        <v>47</v>
+        <v>46.2</v>
       </c>
       <c r="Y17" s="39" t="inlineStr">
         <is>
-          <t>央企共赢ETF</t>
+          <t>电力ETF</t>
         </is>
       </c>
     </row>
@@ -13478,82 +13480,80 @@
       <c r="A19" s="39" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="39" t="inlineStr">
-        <is>
-          <t>512040</t>
-        </is>
+      <c r="B19" s="39" t="n">
+        <v>517090</v>
       </c>
       <c r="C19" s="39" t="inlineStr">
         <is>
-          <t>价值100ETF</t>
+          <t>央企共赢ETF</t>
         </is>
       </c>
       <c r="D19" s="39" t="n">
-        <v>19.21</v>
+        <v>4.31</v>
       </c>
       <c r="E19" s="39" t="n">
-        <v>18.5</v>
+        <v>76.2</v>
       </c>
       <c r="F19" s="39" t="n">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="G19" s="39" t="n">
-        <v>24.3</v>
+        <v>59.4</v>
       </c>
       <c r="H19" s="39" t="n">
-        <v>31.6</v>
+        <v>50</v>
       </c>
       <c r="I19" s="39" t="n">
-        <v>67.3</v>
+        <v>55.6</v>
       </c>
       <c r="J19" s="39" t="n">
-        <v>59.9</v>
+        <v>45.4</v>
       </c>
       <c r="K19" s="39" t="n">
-        <v>75.8</v>
+        <v>64.8</v>
       </c>
       <c r="L19" s="39" t="n">
-        <v>84.2</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="M19" s="39" t="n">
-        <v>49.8</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="N19" s="39" t="n">
-        <v>58.3</v>
+        <v>91.2</v>
       </c>
       <c r="O19" s="39" t="n">
-        <v>58.3</v>
+        <v>94</v>
       </c>
       <c r="P19" s="39" t="n">
-        <v>90.5</v>
+        <v>32.1</v>
       </c>
       <c r="Q19" s="39" t="n">
-        <v>94.09999999999999</v>
+        <v>68.7</v>
       </c>
       <c r="R19" s="39" t="n">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="S19" s="39" t="n">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="T19" s="39" t="n">
-        <v>98</v>
+        <v>17.9</v>
       </c>
       <c r="U19" s="39" t="n">
-        <v>13.4</v>
+        <v>76.8</v>
       </c>
       <c r="V19" s="39" t="n">
-        <v>10.4</v>
+        <v>26.4</v>
       </c>
       <c r="W19" s="39" t="n">
-        <v>3.2</v>
+        <v>17</v>
       </c>
       <c r="X19" s="39" t="n">
-        <v>54</v>
+        <v>55.1</v>
       </c>
       <c r="Y19" s="39" t="inlineStr">
         <is>
-          <t>价值100ETF</t>
+          <t>央企共赢ETF</t>
         </is>
       </c>
     </row>
@@ -13570,7 +13570,7 @@
         </is>
       </c>
       <c r="D20" s="39" t="n">
-        <v>31.41</v>
+        <v>31.46</v>
       </c>
       <c r="E20" s="39" t="n">
         <v>82.09999999999999</v>
@@ -13630,7 +13630,7 @@
         <v>4.5</v>
       </c>
       <c r="X20" s="39" t="n">
-        <v>54.7</v>
+        <v>59</v>
       </c>
       <c r="Y20" s="39" t="inlineStr">
         <is>
@@ -13644,80 +13644,80 @@
       </c>
       <c r="B21" s="39" t="inlineStr">
         <is>
-          <t>159736</t>
+          <t>512040</t>
         </is>
       </c>
       <c r="C21" s="39" t="inlineStr">
         <is>
-          <t>饮食ETF</t>
+          <t>价值100ETF</t>
         </is>
       </c>
       <c r="D21" s="39" t="n">
-        <v>48.62</v>
+        <v>19.23</v>
       </c>
       <c r="E21" s="39" t="n">
-        <v>83.8</v>
+        <v>18.5</v>
       </c>
       <c r="F21" s="39" t="n">
-        <v>11.8</v>
+        <v>1.6</v>
       </c>
       <c r="G21" s="39" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="H21" s="39" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="I21" s="39" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="J21" s="39" t="n">
         <v>59.9</v>
       </c>
-      <c r="H21" s="39" t="n">
-        <v>74.40000000000001</v>
-      </c>
-      <c r="I21" s="39" t="n">
-        <v>84.09999999999999</v>
-      </c>
-      <c r="J21" s="39" t="n">
-        <v>50.1</v>
-      </c>
       <c r="K21" s="39" t="n">
-        <v>46</v>
+        <v>75.8</v>
       </c>
       <c r="L21" s="39" t="n">
-        <v>70.40000000000001</v>
+        <v>84.2</v>
       </c>
       <c r="M21" s="39" t="n">
-        <v>78.2</v>
+        <v>49.8</v>
       </c>
       <c r="N21" s="39" t="n">
-        <v>90.59999999999999</v>
+        <v>58.3</v>
       </c>
       <c r="O21" s="39" t="n">
-        <v>34.9</v>
+        <v>58.3</v>
       </c>
       <c r="P21" s="39" t="n">
-        <v>18.6</v>
+        <v>90.5</v>
       </c>
       <c r="Q21" s="39" t="n">
-        <v>18.6</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="R21" s="39" t="n">
-        <v>7.4</v>
+        <v>98</v>
       </c>
       <c r="S21" s="39" t="n">
-        <v>4.7</v>
+        <v>98</v>
       </c>
       <c r="T21" s="39" t="n">
-        <v>3.4</v>
+        <v>98</v>
       </c>
       <c r="U21" s="39" t="n">
-        <v>0.9</v>
+        <v>13.4</v>
       </c>
       <c r="V21" s="39" t="n">
-        <v>0.5</v>
+        <v>10.4</v>
       </c>
       <c r="W21" s="39" t="n">
-        <v>0.5</v>
+        <v>3.2</v>
       </c>
       <c r="X21" s="39" t="n">
-        <v>55.7</v>
+        <v>59.4</v>
       </c>
       <c r="Y21" s="39" t="inlineStr">
         <is>
-          <t>饮食ETF</t>
+          <t>价值100ETF</t>
         </is>
       </c>
     </row>
@@ -13807,79 +13807,79 @@
         <v>21</v>
       </c>
       <c r="B23" s="39" t="n">
-        <v>512200</v>
+        <v>159928</v>
       </c>
       <c r="C23" s="39" t="inlineStr">
         <is>
-          <t>房地产ETF</t>
+          <t>消费ETF</t>
         </is>
       </c>
       <c r="D23" s="39" t="n">
-        <v>65.11</v>
+        <v>151.55</v>
       </c>
       <c r="E23" s="39" t="n">
-        <v>76.2</v>
+        <v>80.8</v>
       </c>
       <c r="F23" s="39" t="n">
-        <v>5.7</v>
+        <v>18.8</v>
       </c>
       <c r="G23" s="39" t="n">
-        <v>34.5</v>
+        <v>70.7</v>
       </c>
       <c r="H23" s="39" t="n">
-        <v>71.8</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="I23" s="39" t="n">
-        <v>81.8</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="J23" s="39" t="n">
-        <v>64.2</v>
+        <v>41.6</v>
       </c>
       <c r="K23" s="39" t="n">
-        <v>64.2</v>
+        <v>29</v>
       </c>
       <c r="L23" s="39" t="n">
-        <v>30</v>
+        <v>38.4</v>
       </c>
       <c r="M23" s="39" t="n">
-        <v>54.3</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="N23" s="39" t="n">
-        <v>87.59999999999999</v>
+        <v>84.2</v>
       </c>
       <c r="O23" s="39" t="n">
-        <v>93.90000000000001</v>
+        <v>32.1</v>
       </c>
       <c r="P23" s="39" t="n">
-        <v>82.5</v>
+        <v>15.8</v>
       </c>
       <c r="Q23" s="39" t="n">
-        <v>89.40000000000001</v>
+        <v>40.1</v>
       </c>
       <c r="R23" s="39" t="n">
-        <v>27.4</v>
+        <v>14.7</v>
       </c>
       <c r="S23" s="39" t="n">
-        <v>48.9</v>
+        <v>12.1</v>
       </c>
       <c r="T23" s="39" t="n">
-        <v>21.5</v>
+        <v>7.1</v>
       </c>
       <c r="U23" s="39" t="n">
-        <v>4.6</v>
+        <v>3.2</v>
       </c>
       <c r="V23" s="39" t="n">
-        <v>7.6</v>
+        <v>1.8</v>
       </c>
       <c r="W23" s="39" t="n">
-        <v>35.6</v>
+        <v>46.9</v>
       </c>
       <c r="X23" s="39" t="n">
-        <v>65.5</v>
+        <v>63.6</v>
       </c>
       <c r="Y23" s="39" t="inlineStr">
         <is>
-          <t>房地产ETF</t>
+          <t>消费ETF</t>
         </is>
       </c>
     </row>
@@ -13888,79 +13888,79 @@
         <v>22</v>
       </c>
       <c r="B24" s="39" t="n">
-        <v>159647</v>
+        <v>510050</v>
       </c>
       <c r="C24" s="39" t="inlineStr">
         <is>
-          <t>中药ETF</t>
+          <t>上证50ETF</t>
         </is>
       </c>
       <c r="D24" s="39" t="n">
-        <v>7.35</v>
+        <v>1629.13</v>
       </c>
       <c r="E24" s="39" t="n">
-        <v>78.40000000000001</v>
+        <v>42</v>
       </c>
       <c r="F24" s="39" t="n">
-        <v>9.699999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="G24" s="39" t="n">
-        <v>40.7</v>
+        <v>43.3</v>
       </c>
       <c r="H24" s="39" t="n">
-        <v>60</v>
+        <v>56.3</v>
       </c>
       <c r="I24" s="39" t="n">
         <v>71.8</v>
       </c>
       <c r="J24" s="39" t="n">
-        <v>56.9</v>
+        <v>75.5</v>
       </c>
       <c r="K24" s="39" t="n">
-        <v>60.9</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="L24" s="39" t="n">
-        <v>87.3</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="M24" s="39" t="n">
-        <v>50.3</v>
+        <v>96.5</v>
       </c>
       <c r="N24" s="39" t="n">
-        <v>44.1</v>
+        <v>97</v>
       </c>
       <c r="O24" s="39" t="n">
-        <v>29.5</v>
+        <v>97.5</v>
       </c>
       <c r="P24" s="39" t="n">
-        <v>47</v>
+        <v>38.9</v>
       </c>
       <c r="Q24" s="39" t="n">
-        <v>91.09999999999999</v>
+        <v>63.4</v>
       </c>
       <c r="R24" s="39" t="n">
-        <v>30.4</v>
+        <v>27.8</v>
       </c>
       <c r="S24" s="39" t="n">
-        <v>51.8</v>
+        <v>63.6</v>
       </c>
       <c r="T24" s="39" t="n">
-        <v>26.9</v>
+        <v>37.2</v>
       </c>
       <c r="U24" s="39" t="n">
-        <v>9.800000000000001</v>
+        <v>46.2</v>
       </c>
       <c r="V24" s="39" t="n">
-        <v>7.9</v>
+        <v>19.1</v>
       </c>
       <c r="W24" s="39" t="n">
-        <v>41.2</v>
+        <v>4.7</v>
       </c>
       <c r="X24" s="39" t="n">
-        <v>65.8</v>
+        <v>63.7</v>
       </c>
       <c r="Y24" s="39" t="inlineStr">
         <is>
-          <t>中药ETF</t>
+          <t>上证50ETF</t>
         </is>
       </c>
     </row>
@@ -13969,79 +13969,79 @@
         <v>23</v>
       </c>
       <c r="B25" s="39" t="n">
-        <v>561320</v>
+        <v>512200</v>
       </c>
       <c r="C25" s="39" t="inlineStr">
         <is>
-          <t>交运ETF</t>
+          <t>房地产ETF</t>
         </is>
       </c>
       <c r="D25" s="39" t="n">
-        <v>0.65</v>
+        <v>65.11</v>
       </c>
       <c r="E25" s="39" t="n">
-        <v>42.5</v>
+        <v>76.2</v>
       </c>
       <c r="F25" s="39" t="n">
-        <v>1.7</v>
+        <v>5.7</v>
       </c>
       <c r="G25" s="39" t="n">
-        <v>53</v>
+        <v>34.5</v>
       </c>
       <c r="H25" s="39" t="n">
+        <v>71.8</v>
+      </c>
+      <c r="I25" s="39" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="J25" s="39" t="n">
         <v>64.2</v>
       </c>
-      <c r="I25" s="39" t="n">
-        <v>77</v>
-      </c>
-      <c r="J25" s="39" t="n">
-        <v>57.9</v>
-      </c>
       <c r="K25" s="39" t="n">
-        <v>57.9</v>
+        <v>64.2</v>
       </c>
       <c r="L25" s="39" t="n">
-        <v>49.6</v>
+        <v>30</v>
       </c>
       <c r="M25" s="39" t="n">
-        <v>89.3</v>
+        <v>54.3</v>
       </c>
       <c r="N25" s="39" t="n">
-        <v>89.3</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="O25" s="39" t="n">
-        <v>71.90000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="P25" s="39" t="n">
+        <v>82.5</v>
+      </c>
+      <c r="Q25" s="39" t="n">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="R25" s="39" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="S25" s="39" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="T25" s="39" t="n">
         <v>21.5</v>
       </c>
-      <c r="Q25" s="39" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="R25" s="39" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="S25" s="39" t="n">
-        <v>61.4</v>
-      </c>
-      <c r="T25" s="39" t="n">
-        <v>61.4</v>
-      </c>
       <c r="U25" s="39" t="n">
-        <v>37</v>
+        <v>4.6</v>
       </c>
       <c r="V25" s="39" t="n">
-        <v>84.90000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="W25" s="39" t="n">
-        <v>17.7</v>
+        <v>35.6</v>
       </c>
       <c r="X25" s="39" t="n">
-        <v>66.09999999999999</v>
+        <v>65.5</v>
       </c>
       <c r="Y25" s="39" t="inlineStr">
         <is>
-          <t>交运ETF</t>
+          <t>房地产ETF</t>
         </is>
       </c>
     </row>
@@ -14131,79 +14131,79 @@
         <v>25</v>
       </c>
       <c r="B27" s="39" t="n">
-        <v>510050</v>
+        <v>561320</v>
       </c>
       <c r="C27" s="39" t="inlineStr">
         <is>
-          <t>上证50ETF</t>
+          <t>交运ETF</t>
         </is>
       </c>
       <c r="D27" s="39" t="n">
-        <v>1630.94</v>
+        <v>0.65</v>
       </c>
       <c r="E27" s="39" t="n">
-        <v>42</v>
+        <v>42.5</v>
       </c>
       <c r="F27" s="39" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="G27" s="39" t="n">
-        <v>43.3</v>
+        <v>53</v>
       </c>
       <c r="H27" s="39" t="n">
-        <v>56.3</v>
+        <v>64.2</v>
       </c>
       <c r="I27" s="39" t="n">
-        <v>71.8</v>
+        <v>77</v>
       </c>
       <c r="J27" s="39" t="n">
-        <v>75.5</v>
+        <v>57.9</v>
       </c>
       <c r="K27" s="39" t="n">
-        <v>82.59999999999999</v>
+        <v>57.9</v>
       </c>
       <c r="L27" s="39" t="n">
-        <v>87.90000000000001</v>
+        <v>49.6</v>
       </c>
       <c r="M27" s="39" t="n">
-        <v>96.5</v>
+        <v>89.3</v>
       </c>
       <c r="N27" s="39" t="n">
-        <v>97</v>
+        <v>89.3</v>
       </c>
       <c r="O27" s="39" t="n">
-        <v>97.5</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="P27" s="39" t="n">
-        <v>38.9</v>
+        <v>21.5</v>
       </c>
       <c r="Q27" s="39" t="n">
-        <v>63.4</v>
+        <v>46.5</v>
       </c>
       <c r="R27" s="39" t="n">
-        <v>27.8</v>
+        <v>23.8</v>
       </c>
       <c r="S27" s="39" t="n">
-        <v>63.6</v>
+        <v>61.4</v>
       </c>
       <c r="T27" s="39" t="n">
-        <v>37.2</v>
+        <v>61.4</v>
       </c>
       <c r="U27" s="39" t="n">
-        <v>46.2</v>
+        <v>37</v>
       </c>
       <c r="V27" s="39" t="n">
-        <v>19.1</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="W27" s="39" t="n">
-        <v>4.7</v>
+        <v>17.7</v>
       </c>
       <c r="X27" s="39" t="n">
-        <v>66.59999999999999</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="Y27" s="39" t="inlineStr">
         <is>
-          <t>上证50ETF</t>
+          <t>交运ETF</t>
         </is>
       </c>
     </row>
@@ -14212,79 +14212,79 @@
         <v>26</v>
       </c>
       <c r="B28" s="39" t="n">
-        <v>516970</v>
+        <v>513290</v>
       </c>
       <c r="C28" s="39" t="inlineStr">
         <is>
-          <t>基建50ETF</t>
+          <t>纳指生物科技ETF</t>
         </is>
       </c>
       <c r="D28" s="39" t="n">
-        <v>24.63</v>
+        <v>12.64</v>
       </c>
       <c r="E28" s="39" t="n">
-        <v>72.8</v>
+        <v>0.6</v>
       </c>
       <c r="F28" s="39" t="n">
-        <v>5.3</v>
+        <v>0.1</v>
       </c>
       <c r="G28" s="39" t="n">
-        <v>46.2</v>
+        <v>44.4</v>
       </c>
       <c r="H28" s="39" t="n">
-        <v>65.3</v>
+        <v>23</v>
       </c>
       <c r="I28" s="39" t="n">
-        <v>69.09999999999999</v>
+        <v>64.5</v>
       </c>
       <c r="J28" s="39" t="n">
-        <v>49.9</v>
+        <v>40.9</v>
       </c>
       <c r="K28" s="39" t="n">
-        <v>66.09999999999999</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="L28" s="39" t="n">
-        <v>43</v>
+        <v>80.2</v>
       </c>
       <c r="M28" s="39" t="n">
-        <v>50</v>
+        <v>57.5</v>
       </c>
       <c r="N28" s="39" t="n">
-        <v>71.2</v>
+        <v>48.4</v>
       </c>
       <c r="O28" s="39" t="n">
-        <v>90.3</v>
+        <v>44.8</v>
       </c>
       <c r="P28" s="39" t="n">
-        <v>65.5</v>
+        <v>22.1</v>
       </c>
       <c r="Q28" s="39" t="n">
-        <v>88.2</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="R28" s="39" t="n">
-        <v>88.2</v>
+        <v>92.8</v>
       </c>
       <c r="S28" s="39" t="n">
-        <v>41.4</v>
+        <v>92.8</v>
       </c>
       <c r="T28" s="39" t="n">
-        <v>81.2</v>
+        <v>97.5</v>
       </c>
       <c r="U28" s="39" t="n">
-        <v>21.8</v>
+        <v>54.1</v>
       </c>
       <c r="V28" s="39" t="n">
-        <v>17.6</v>
+        <v>75.7</v>
       </c>
       <c r="W28" s="39" t="n">
-        <v>8.9</v>
+        <v>84</v>
       </c>
       <c r="X28" s="39" t="n">
-        <v>67.2</v>
+        <v>68.5</v>
       </c>
       <c r="Y28" s="39" t="inlineStr">
         <is>
-          <t>基建50ETF</t>
+          <t>纳指生物科技ETF</t>
         </is>
       </c>
     </row>
@@ -14373,82 +14373,80 @@
       <c r="A30" s="39" t="n">
         <v>28</v>
       </c>
-      <c r="B30" s="39" t="inlineStr">
-        <is>
-          <t>560050</t>
-        </is>
+      <c r="B30" s="39" t="n">
+        <v>159647</v>
       </c>
       <c r="C30" s="39" t="inlineStr">
         <is>
-          <t>MSCI中国A50ETF</t>
+          <t>中药ETF</t>
         </is>
       </c>
       <c r="D30" s="39" t="n">
-        <v>47.25</v>
+        <v>7.36</v>
       </c>
       <c r="E30" s="39" t="n">
-        <v>2.2</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="F30" s="39" t="n">
-        <v>0.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="G30" s="39" t="n">
-        <v>30.2</v>
+        <v>40.7</v>
       </c>
       <c r="H30" s="39" t="n">
-        <v>40.4</v>
+        <v>60</v>
       </c>
       <c r="I30" s="39" t="n">
-        <v>70.59999999999999</v>
+        <v>71.8</v>
       </c>
       <c r="J30" s="39" t="n">
-        <v>80.5</v>
+        <v>56.9</v>
       </c>
       <c r="K30" s="39" t="n">
-        <v>86.8</v>
+        <v>60.9</v>
       </c>
       <c r="L30" s="39" t="n">
-        <v>88.3</v>
+        <v>87.3</v>
       </c>
       <c r="M30" s="39" t="n">
-        <v>90.5</v>
+        <v>50.3</v>
       </c>
       <c r="N30" s="39" t="n">
-        <v>95.5</v>
+        <v>44.1</v>
       </c>
       <c r="O30" s="39" t="n">
-        <v>56</v>
+        <v>29.5</v>
       </c>
       <c r="P30" s="39" t="n">
-        <v>85.7</v>
+        <v>47</v>
       </c>
       <c r="Q30" s="39" t="n">
-        <v>92.09999999999999</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="R30" s="39" t="n">
-        <v>93.90000000000001</v>
+        <v>30.4</v>
       </c>
       <c r="S30" s="39" t="n">
-        <v>95.8</v>
+        <v>51.8</v>
       </c>
       <c r="T30" s="39" t="n">
-        <v>58.8</v>
+        <v>26.9</v>
       </c>
       <c r="U30" s="39" t="n">
-        <v>33.2</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="V30" s="39" t="n">
-        <v>7.4</v>
+        <v>7.9</v>
       </c>
       <c r="W30" s="39" t="n">
-        <v>3.4</v>
+        <v>41.2</v>
       </c>
       <c r="X30" s="39" t="n">
-        <v>69.40000000000001</v>
+        <v>70</v>
       </c>
       <c r="Y30" s="39" t="inlineStr">
         <is>
-          <t>MSCI中国A50ETF</t>
+          <t>中药ETF</t>
         </is>
       </c>
     </row>
@@ -14458,80 +14456,80 @@
       </c>
       <c r="B31" s="39" t="inlineStr">
         <is>
-          <t>164824</t>
+          <t>563000</t>
         </is>
       </c>
       <c r="C31" s="39" t="inlineStr">
         <is>
-          <t>印度基金LOF</t>
+          <t>中国A50ETF</t>
         </is>
       </c>
       <c r="D31" s="39" t="n">
-        <v>22.99</v>
+        <v>39.8</v>
       </c>
       <c r="E31" s="39" t="n">
-        <v>26.6</v>
+        <v>2</v>
       </c>
       <c r="F31" s="39" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G31" s="39" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="H31" s="39" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="I31" s="39" t="n">
+        <v>69.2</v>
+      </c>
+      <c r="J31" s="39" t="n">
+        <v>80.5</v>
+      </c>
+      <c r="K31" s="39" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="L31" s="39" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="M31" s="39" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="N31" s="39" t="n">
+        <v>95.8</v>
+      </c>
+      <c r="O31" s="39" t="n">
+        <v>95.8</v>
+      </c>
+      <c r="P31" s="39" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="Q31" s="39" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="R31" s="39" t="n">
+        <v>71.8</v>
+      </c>
+      <c r="S31" s="39" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="T31" s="39" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="U31" s="39" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="V31" s="39" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="W31" s="39" t="n">
         <v>3.2</v>
       </c>
-      <c r="G31" s="39" t="n">
-        <v>57</v>
-      </c>
-      <c r="H31" s="39" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="I31" s="39" t="n">
-        <v>80</v>
-      </c>
-      <c r="J31" s="39" t="n">
-        <v>65</v>
-      </c>
-      <c r="K31" s="39" t="n">
-        <v>76.7</v>
-      </c>
-      <c r="L31" s="39" t="n">
-        <v>82.5</v>
-      </c>
-      <c r="M31" s="39" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="N31" s="39" t="n">
-        <v>81.09999999999999</v>
-      </c>
-      <c r="O31" s="39" t="n">
-        <v>90.5</v>
-      </c>
-      <c r="P31" s="39" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="Q31" s="39" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="R31" s="39" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="S31" s="39" t="n">
-        <v>41.3</v>
-      </c>
-      <c r="T31" s="39" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="U31" s="39" t="n">
-        <v>78.09999999999999</v>
-      </c>
-      <c r="V31" s="39" t="n">
-        <v>60.9</v>
-      </c>
-      <c r="W31" s="39" t="n">
-        <v>52.3</v>
-      </c>
       <c r="X31" s="39" t="n">
-        <v>69.59999999999999</v>
+        <v>70.3</v>
       </c>
       <c r="Y31" s="39" t="inlineStr">
         <is>
-          <t>印度基金LOF</t>
+          <t>中国A50ETF</t>
         </is>
       </c>
     </row>
@@ -14540,79 +14538,79 @@
         <v>30</v>
       </c>
       <c r="B32" s="39" t="n">
-        <v>159825</v>
+        <v>516970</v>
       </c>
       <c r="C32" s="39" t="inlineStr">
         <is>
-          <t>农业ETF</t>
+          <t>基建50ETF</t>
         </is>
       </c>
       <c r="D32" s="39" t="n">
-        <v>21.54</v>
+        <v>24.68</v>
       </c>
       <c r="E32" s="39" t="n">
-        <v>86</v>
+        <v>72.8</v>
       </c>
       <c r="F32" s="39" t="n">
-        <v>21.5</v>
+        <v>5.3</v>
       </c>
       <c r="G32" s="39" t="n">
-        <v>86.40000000000001</v>
+        <v>46.2</v>
       </c>
       <c r="H32" s="39" t="n">
-        <v>77</v>
+        <v>65.3</v>
       </c>
       <c r="I32" s="39" t="n">
-        <v>81.90000000000001</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="J32" s="39" t="n">
-        <v>31.2</v>
+        <v>49.9</v>
       </c>
       <c r="K32" s="39" t="n">
-        <v>45.4</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="L32" s="39" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="M32" s="39" t="n">
-        <v>22.3</v>
+        <v>50</v>
       </c>
       <c r="N32" s="39" t="n">
-        <v>18.5</v>
+        <v>71.2</v>
       </c>
       <c r="O32" s="39" t="n">
-        <v>5.5</v>
+        <v>90.3</v>
       </c>
       <c r="P32" s="39" t="n">
-        <v>41</v>
+        <v>65.5</v>
       </c>
       <c r="Q32" s="39" t="n">
-        <v>78.59999999999999</v>
+        <v>88.2</v>
       </c>
       <c r="R32" s="39" t="n">
-        <v>27.9</v>
+        <v>88.2</v>
       </c>
       <c r="S32" s="39" t="n">
-        <v>52.4</v>
+        <v>41.4</v>
       </c>
       <c r="T32" s="39" t="n">
-        <v>39.1</v>
+        <v>81.2</v>
       </c>
       <c r="U32" s="39" t="n">
-        <v>15.5</v>
+        <v>21.8</v>
       </c>
       <c r="V32" s="39" t="n">
-        <v>39.7</v>
+        <v>17.6</v>
       </c>
       <c r="W32" s="39" t="n">
-        <v>25.3</v>
+        <v>8.9</v>
       </c>
       <c r="X32" s="39" t="n">
-        <v>69.59999999999999</v>
+        <v>71.3</v>
       </c>
       <c r="Y32" s="39" t="inlineStr">
         <is>
-          <t>农业ETF</t>
+          <t>基建50ETF</t>
         </is>
       </c>
     </row>
@@ -14622,80 +14620,80 @@
       </c>
       <c r="B33" s="39" t="inlineStr">
         <is>
-          <t>563000</t>
+          <t>159736</t>
         </is>
       </c>
       <c r="C33" s="39" t="inlineStr">
         <is>
-          <t>中国A50ETF</t>
+          <t>饮食ETF</t>
         </is>
       </c>
       <c r="D33" s="39" t="n">
-        <v>39.8</v>
+        <v>48.69</v>
       </c>
       <c r="E33" s="39" t="n">
-        <v>2</v>
+        <v>83.8</v>
       </c>
       <c r="F33" s="39" t="n">
-        <v>0.1</v>
+        <v>11.8</v>
       </c>
       <c r="G33" s="39" t="n">
-        <v>23.2</v>
+        <v>59.9</v>
       </c>
       <c r="H33" s="39" t="n">
-        <v>43.5</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="I33" s="39" t="n">
-        <v>69.2</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="J33" s="39" t="n">
-        <v>80.5</v>
+        <v>50.1</v>
       </c>
       <c r="K33" s="39" t="n">
-        <v>87.2</v>
+        <v>46</v>
       </c>
       <c r="L33" s="39" t="n">
-        <v>88.7</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="M33" s="39" t="n">
-        <v>93.5</v>
+        <v>78.2</v>
       </c>
       <c r="N33" s="39" t="n">
-        <v>95.8</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="O33" s="39" t="n">
-        <v>95.8</v>
+        <v>34.9</v>
       </c>
       <c r="P33" s="39" t="n">
-        <v>98.7</v>
+        <v>18.6</v>
       </c>
       <c r="Q33" s="39" t="n">
-        <v>99.40000000000001</v>
+        <v>18.6</v>
       </c>
       <c r="R33" s="39" t="n">
-        <v>71.8</v>
+        <v>7.4</v>
       </c>
       <c r="S33" s="39" t="n">
-        <v>81.90000000000001</v>
+        <v>4.7</v>
       </c>
       <c r="T33" s="39" t="n">
-        <v>81.90000000000001</v>
+        <v>3.4</v>
       </c>
       <c r="U33" s="39" t="n">
-        <v>33.7</v>
+        <v>0.9</v>
       </c>
       <c r="V33" s="39" t="n">
-        <v>5.9</v>
+        <v>0.5</v>
       </c>
       <c r="W33" s="39" t="n">
-        <v>3.2</v>
+        <v>0.5</v>
       </c>
       <c r="X33" s="39" t="n">
-        <v>70.3</v>
+        <v>71.5</v>
       </c>
       <c r="Y33" s="39" t="inlineStr">
         <is>
-          <t>中国A50ETF</t>
+          <t>饮食ETF</t>
         </is>
       </c>
     </row>
@@ -14703,80 +14701,82 @@
       <c r="A34" s="39" t="n">
         <v>32</v>
       </c>
-      <c r="B34" s="39" t="n">
-        <v>512950</v>
+      <c r="B34" s="39" t="inlineStr">
+        <is>
+          <t>560050</t>
+        </is>
       </c>
       <c r="C34" s="39" t="inlineStr">
         <is>
-          <t>央企改革ETF</t>
+          <t>MSCI中国A50ETF</t>
         </is>
       </c>
       <c r="D34" s="39" t="n">
-        <v>54.91</v>
+        <v>47.31</v>
       </c>
       <c r="E34" s="39" t="n">
-        <v>51.5</v>
+        <v>2.2</v>
       </c>
       <c r="F34" s="39" t="n">
-        <v>3.1</v>
+        <v>0.1</v>
       </c>
       <c r="G34" s="39" t="n">
-        <v>49.5</v>
+        <v>30.2</v>
       </c>
       <c r="H34" s="39" t="n">
-        <v>69</v>
+        <v>40.4</v>
       </c>
       <c r="I34" s="39" t="n">
-        <v>69.90000000000001</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="J34" s="39" t="n">
-        <v>59.9</v>
+        <v>80.5</v>
       </c>
       <c r="K34" s="39" t="n">
-        <v>72.8</v>
+        <v>86.8</v>
       </c>
       <c r="L34" s="39" t="n">
-        <v>48</v>
+        <v>88.3</v>
       </c>
       <c r="M34" s="39" t="n">
-        <v>76.3</v>
+        <v>90.5</v>
       </c>
       <c r="N34" s="39" t="n">
-        <v>58.2</v>
+        <v>95.5</v>
       </c>
       <c r="O34" s="39" t="n">
-        <v>71.59999999999999</v>
+        <v>56</v>
       </c>
       <c r="P34" s="39" t="n">
-        <v>43.6</v>
+        <v>85.7</v>
       </c>
       <c r="Q34" s="39" t="n">
-        <v>24.5</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="R34" s="39" t="n">
-        <v>6.7</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="S34" s="39" t="n">
+        <v>95.8</v>
+      </c>
+      <c r="T34" s="39" t="n">
+        <v>58.8</v>
+      </c>
+      <c r="U34" s="39" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="V34" s="39" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="W34" s="39" t="n">
         <v>3.4</v>
       </c>
-      <c r="T34" s="39" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U34" s="39" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="V34" s="39" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="W34" s="39" t="n">
-        <v>0.2</v>
-      </c>
       <c r="X34" s="39" t="n">
-        <v>71.59999999999999</v>
+        <v>72.5</v>
       </c>
       <c r="Y34" s="39" t="inlineStr">
         <is>
-          <t>央企改革ETF</t>
+          <t>MSCI中国A50ETF</t>
         </is>
       </c>
     </row>
@@ -14785,79 +14785,79 @@
         <v>33</v>
       </c>
       <c r="B35" s="39" t="n">
-        <v>159928</v>
+        <v>159825</v>
       </c>
       <c r="C35" s="39" t="inlineStr">
         <is>
-          <t>消费ETF</t>
+          <t>农业ETF</t>
         </is>
       </c>
       <c r="D35" s="39" t="n">
-        <v>151.73</v>
+        <v>21.54</v>
       </c>
       <c r="E35" s="39" t="n">
-        <v>80.8</v>
+        <v>86</v>
       </c>
       <c r="F35" s="39" t="n">
-        <v>18.8</v>
+        <v>21.5</v>
       </c>
       <c r="G35" s="39" t="n">
-        <v>70.7</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="H35" s="39" t="n">
-        <v>80.59999999999999</v>
+        <v>77</v>
       </c>
       <c r="I35" s="39" t="n">
-        <v>81.59999999999999</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="J35" s="39" t="n">
-        <v>41.6</v>
+        <v>31.2</v>
       </c>
       <c r="K35" s="39" t="n">
-        <v>29</v>
+        <v>45.4</v>
       </c>
       <c r="L35" s="39" t="n">
-        <v>38.4</v>
+        <v>28</v>
       </c>
       <c r="M35" s="39" t="n">
-        <v>65.59999999999999</v>
+        <v>22.3</v>
       </c>
       <c r="N35" s="39" t="n">
-        <v>84.2</v>
+        <v>18.5</v>
       </c>
       <c r="O35" s="39" t="n">
-        <v>32.1</v>
+        <v>5.5</v>
       </c>
       <c r="P35" s="39" t="n">
-        <v>15.8</v>
+        <v>41</v>
       </c>
       <c r="Q35" s="39" t="n">
-        <v>40.1</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="R35" s="39" t="n">
-        <v>14.7</v>
+        <v>27.9</v>
       </c>
       <c r="S35" s="39" t="n">
-        <v>12.1</v>
+        <v>52.4</v>
       </c>
       <c r="T35" s="39" t="n">
-        <v>7.1</v>
+        <v>39.1</v>
       </c>
       <c r="U35" s="39" t="n">
-        <v>3.2</v>
+        <v>15.5</v>
       </c>
       <c r="V35" s="39" t="n">
-        <v>1.8</v>
+        <v>39.7</v>
       </c>
       <c r="W35" s="39" t="n">
-        <v>46.9</v>
+        <v>25.3</v>
       </c>
       <c r="X35" s="39" t="n">
-        <v>72.3</v>
+        <v>73.5</v>
       </c>
       <c r="Y35" s="39" t="inlineStr">
         <is>
-          <t>消费ETF</t>
+          <t>农业ETF</t>
         </is>
       </c>
     </row>
@@ -14866,79 +14866,79 @@
         <v>34</v>
       </c>
       <c r="B36" s="39" t="n">
-        <v>515900</v>
+        <v>512950</v>
       </c>
       <c r="C36" s="39" t="inlineStr">
         <is>
-          <t>央企创新驱动ETF</t>
+          <t>央企改革ETF</t>
         </is>
       </c>
       <c r="D36" s="39" t="n">
-        <v>33.03</v>
+        <v>55</v>
       </c>
       <c r="E36" s="39" t="n">
-        <v>46.4</v>
+        <v>51.5</v>
       </c>
       <c r="F36" s="39" t="n">
-        <v>1.9</v>
+        <v>3.1</v>
       </c>
       <c r="G36" s="39" t="n">
-        <v>45.8</v>
+        <v>49.5</v>
       </c>
       <c r="H36" s="39" t="n">
-        <v>62.3</v>
+        <v>69</v>
       </c>
       <c r="I36" s="39" t="n">
-        <v>68.09999999999999</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="J36" s="39" t="n">
-        <v>54.2</v>
+        <v>59.9</v>
       </c>
       <c r="K36" s="39" t="n">
-        <v>69.3</v>
+        <v>72.8</v>
       </c>
       <c r="L36" s="39" t="n">
-        <v>44.7</v>
+        <v>48</v>
       </c>
       <c r="M36" s="39" t="n">
-        <v>51.6</v>
+        <v>76.3</v>
       </c>
       <c r="N36" s="39" t="n">
-        <v>41.3</v>
+        <v>58.2</v>
       </c>
       <c r="O36" s="39" t="n">
-        <v>86</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="P36" s="39" t="n">
-        <v>62.3</v>
+        <v>43.6</v>
       </c>
       <c r="Q36" s="39" t="n">
-        <v>48.8</v>
+        <v>24.5</v>
       </c>
       <c r="R36" s="39" t="n">
-        <v>34.1</v>
+        <v>6.7</v>
       </c>
       <c r="S36" s="39" t="n">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="T36" s="39" t="n">
-        <v>24.1</v>
+        <v>3.4</v>
       </c>
       <c r="U36" s="39" t="n">
-        <v>24.1</v>
+        <v>1.4</v>
       </c>
       <c r="V36" s="39" t="n">
-        <v>3.4</v>
+        <v>0.4</v>
       </c>
       <c r="W36" s="39" t="n">
-        <v>1.7</v>
+        <v>0.2</v>
       </c>
       <c r="X36" s="39" t="n">
-        <v>73.3</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="Y36" s="39" t="inlineStr">
         <is>
-          <t>央企创新驱动ETF</t>
+          <t>央企改革ETF</t>
         </is>
       </c>
     </row>
@@ -14947,79 +14947,79 @@
         <v>35</v>
       </c>
       <c r="B37" s="39" t="n">
-        <v>515210</v>
+        <v>518880</v>
       </c>
       <c r="C37" s="39" t="inlineStr">
         <is>
-          <t>钢铁ETF</t>
+          <t>黄金ETF</t>
         </is>
       </c>
       <c r="D37" s="39" t="n">
-        <v>19.23</v>
+        <v>604.73</v>
       </c>
       <c r="E37" s="39" t="n">
-        <v>58.6</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="F37" s="39" t="n">
-        <v>4</v>
+        <v>17.4</v>
       </c>
       <c r="G37" s="39" t="n">
-        <v>15.3</v>
+        <v>39</v>
       </c>
       <c r="H37" s="39" t="n">
-        <v>35.5</v>
+        <v>68.7</v>
       </c>
       <c r="I37" s="39" t="n">
-        <v>65.59999999999999</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="J37" s="39" t="n">
-        <v>65.59999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="K37" s="39" t="n">
-        <v>85.40000000000001</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="L37" s="39" t="n">
-        <v>44.1</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="M37" s="39" t="n">
-        <v>27.7</v>
+        <v>98.8</v>
       </c>
       <c r="N37" s="39" t="n">
-        <v>43.5</v>
+        <v>99.2</v>
       </c>
       <c r="O37" s="39" t="n">
-        <v>67.3</v>
+        <v>99.3</v>
       </c>
       <c r="P37" s="39" t="n">
-        <v>89.8</v>
+        <v>99.8</v>
       </c>
       <c r="Q37" s="39" t="n">
-        <v>74.09999999999999</v>
+        <v>100</v>
       </c>
       <c r="R37" s="39" t="n">
-        <v>89.2</v>
+        <v>26.9</v>
       </c>
       <c r="S37" s="39" t="n">
-        <v>51.6</v>
+        <v>41.4</v>
       </c>
       <c r="T37" s="39" t="n">
-        <v>84.8</v>
+        <v>33.1</v>
       </c>
       <c r="U37" s="39" t="n">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="V37" s="39" t="n">
-        <v>93</v>
+        <v>49.2</v>
       </c>
       <c r="W37" s="39" t="n">
-        <v>22.5</v>
+        <v>30.4</v>
       </c>
       <c r="X37" s="39" t="n">
-        <v>74.09999999999999</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="Y37" s="39" t="inlineStr">
         <is>
-          <t>钢铁ETF</t>
+          <t>黄金ETF</t>
         </is>
       </c>
     </row>
@@ -15028,79 +15028,79 @@
         <v>36</v>
       </c>
       <c r="B38" s="39" t="n">
-        <v>518880</v>
+        <v>515210</v>
       </c>
       <c r="C38" s="39" t="inlineStr">
         <is>
-          <t>黄金ETF</t>
+          <t>钢铁ETF</t>
         </is>
       </c>
       <c r="D38" s="39" t="n">
-        <v>606</v>
+        <v>19.29</v>
       </c>
       <c r="E38" s="39" t="n">
-        <v>87.40000000000001</v>
+        <v>58.6</v>
       </c>
       <c r="F38" s="39" t="n">
-        <v>17.4</v>
+        <v>4</v>
       </c>
       <c r="G38" s="39" t="n">
-        <v>39</v>
+        <v>15.3</v>
       </c>
       <c r="H38" s="39" t="n">
-        <v>68.7</v>
+        <v>35.5</v>
       </c>
       <c r="I38" s="39" t="n">
-        <v>88.40000000000001</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="J38" s="39" t="n">
-        <v>93.90000000000001</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="K38" s="39" t="n">
-        <v>95.90000000000001</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="L38" s="39" t="n">
-        <v>93.59999999999999</v>
+        <v>44.1</v>
       </c>
       <c r="M38" s="39" t="n">
-        <v>98.8</v>
+        <v>27.7</v>
       </c>
       <c r="N38" s="39" t="n">
-        <v>99.2</v>
+        <v>43.5</v>
       </c>
       <c r="O38" s="39" t="n">
-        <v>99.3</v>
+        <v>67.3</v>
       </c>
       <c r="P38" s="39" t="n">
-        <v>99.8</v>
+        <v>89.8</v>
       </c>
       <c r="Q38" s="39" t="n">
-        <v>100</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="R38" s="39" t="n">
-        <v>26.9</v>
+        <v>89.2</v>
       </c>
       <c r="S38" s="39" t="n">
-        <v>41.4</v>
+        <v>51.6</v>
       </c>
       <c r="T38" s="39" t="n">
-        <v>33.1</v>
+        <v>84.8</v>
       </c>
       <c r="U38" s="39" t="n">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="V38" s="39" t="n">
-        <v>49.2</v>
+        <v>93</v>
       </c>
       <c r="W38" s="39" t="n">
-        <v>30.4</v>
+        <v>22.5</v>
       </c>
       <c r="X38" s="39" t="n">
-        <v>78.3</v>
+        <v>77</v>
       </c>
       <c r="Y38" s="39" t="inlineStr">
         <is>
-          <t>黄金ETF</t>
+          <t>钢铁ETF</t>
         </is>
       </c>
     </row>
@@ -15109,79 +15109,79 @@
         <v>37</v>
       </c>
       <c r="B39" s="39" t="n">
-        <v>516910</v>
+        <v>515900</v>
       </c>
       <c r="C39" s="39" t="inlineStr">
         <is>
-          <t>物流ETF</t>
+          <t>央企创新驱动ETF</t>
         </is>
       </c>
       <c r="D39" s="39" t="n">
-        <v>0.5600000000000001</v>
+        <v>33.1</v>
       </c>
       <c r="E39" s="39" t="n">
-        <v>34.6</v>
+        <v>46.4</v>
       </c>
       <c r="F39" s="39" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="G39" s="39" t="n">
-        <v>35.6</v>
+        <v>45.8</v>
       </c>
       <c r="H39" s="39" t="n">
-        <v>57.5</v>
+        <v>62.3</v>
       </c>
       <c r="I39" s="39" t="n">
-        <v>80</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="J39" s="39" t="n">
-        <v>61.4</v>
+        <v>54.2</v>
       </c>
       <c r="K39" s="39" t="n">
-        <v>70.09999999999999</v>
+        <v>69.3</v>
       </c>
       <c r="L39" s="39" t="n">
-        <v>55.2</v>
+        <v>44.7</v>
       </c>
       <c r="M39" s="39" t="n">
-        <v>73.8</v>
+        <v>51.6</v>
       </c>
       <c r="N39" s="39" t="n">
-        <v>80.3</v>
+        <v>41.3</v>
       </c>
       <c r="O39" s="39" t="n">
-        <v>64.3</v>
+        <v>86</v>
       </c>
       <c r="P39" s="39" t="n">
-        <v>35.8</v>
+        <v>62.3</v>
       </c>
       <c r="Q39" s="39" t="n">
-        <v>89.09999999999999</v>
+        <v>48.8</v>
       </c>
       <c r="R39" s="39" t="n">
-        <v>55.5</v>
+        <v>34.1</v>
       </c>
       <c r="S39" s="39" t="n">
-        <v>40.4</v>
+        <v>6.5</v>
       </c>
       <c r="T39" s="39" t="n">
-        <v>61.4</v>
+        <v>24.1</v>
       </c>
       <c r="U39" s="39" t="n">
-        <v>22.2</v>
+        <v>24.1</v>
       </c>
       <c r="V39" s="39" t="n">
-        <v>38</v>
+        <v>3.4</v>
       </c>
       <c r="W39" s="39" t="n">
-        <v>12.5</v>
+        <v>1.7</v>
       </c>
       <c r="X39" s="39" t="n">
-        <v>81.59999999999999</v>
+        <v>77.2</v>
       </c>
       <c r="Y39" s="39" t="inlineStr">
         <is>
-          <t>物流ETF</t>
+          <t>央企创新驱动ETF</t>
         </is>
       </c>
     </row>
@@ -15189,82 +15189,80 @@
       <c r="A40" s="39" t="n">
         <v>38</v>
       </c>
-      <c r="B40" s="39" t="inlineStr">
-        <is>
-          <t>512580</t>
-        </is>
+      <c r="B40" s="39" t="n">
+        <v>516910</v>
       </c>
       <c r="C40" s="39" t="inlineStr">
         <is>
-          <t>环保ETF</t>
+          <t>物流ETF</t>
         </is>
       </c>
       <c r="D40" s="39" t="n">
-        <v>11.73</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E40" s="39" t="n">
-        <v>11</v>
+        <v>34.6</v>
       </c>
       <c r="F40" s="39" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="G40" s="39" t="n">
-        <v>19.9</v>
+        <v>35.6</v>
       </c>
       <c r="H40" s="39" t="n">
-        <v>34.6</v>
+        <v>57.5</v>
       </c>
       <c r="I40" s="39" t="n">
-        <v>61.2</v>
+        <v>80</v>
       </c>
       <c r="J40" s="39" t="n">
-        <v>68.90000000000001</v>
+        <v>61.4</v>
       </c>
       <c r="K40" s="39" t="n">
-        <v>79.3</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="L40" s="39" t="n">
-        <v>70</v>
+        <v>55.2</v>
       </c>
       <c r="M40" s="39" t="n">
-        <v>36</v>
+        <v>73.8</v>
       </c>
       <c r="N40" s="39" t="n">
-        <v>20.9</v>
+        <v>80.3</v>
       </c>
       <c r="O40" s="39" t="n">
-        <v>57</v>
+        <v>64.3</v>
       </c>
       <c r="P40" s="39" t="n">
-        <v>86.3</v>
+        <v>35.8</v>
       </c>
       <c r="Q40" s="39" t="n">
-        <v>54.5</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="R40" s="39" t="n">
-        <v>79.59999999999999</v>
+        <v>55.5</v>
       </c>
       <c r="S40" s="39" t="n">
-        <v>47.9</v>
+        <v>40.4</v>
       </c>
       <c r="T40" s="39" t="n">
-        <v>74.7</v>
+        <v>61.4</v>
       </c>
       <c r="U40" s="39" t="n">
-        <v>83.3</v>
+        <v>22.2</v>
       </c>
       <c r="V40" s="39" t="n">
-        <v>24.7</v>
+        <v>38</v>
       </c>
       <c r="W40" s="39" t="n">
-        <v>24.7</v>
+        <v>12.5</v>
       </c>
       <c r="X40" s="39" t="n">
-        <v>83.7</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="Y40" s="39" t="inlineStr">
         <is>
-          <t>环保ETF</t>
+          <t>物流ETF</t>
         </is>
       </c>
     </row>
@@ -15272,80 +15270,82 @@
       <c r="A41" s="39" t="n">
         <v>39</v>
       </c>
-      <c r="B41" s="39" t="n">
-        <v>159752</v>
+      <c r="B41" s="39" t="inlineStr">
+        <is>
+          <t>512580</t>
+        </is>
       </c>
       <c r="C41" s="39" t="inlineStr">
         <is>
-          <t>新能源龙头ETF</t>
+          <t>环保ETF</t>
         </is>
       </c>
       <c r="D41" s="39" t="n">
-        <v>2.94</v>
+        <v>11.74</v>
       </c>
       <c r="E41" s="39" t="n">
-        <v>11.4</v>
+        <v>11</v>
       </c>
       <c r="F41" s="39" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="G41" s="39" t="n">
-        <v>1.1</v>
+        <v>19.9</v>
       </c>
       <c r="H41" s="39" t="n">
-        <v>7.5</v>
+        <v>34.6</v>
       </c>
       <c r="I41" s="39" t="n">
-        <v>57.3</v>
+        <v>61.2</v>
       </c>
       <c r="J41" s="39" t="n">
-        <v>65.59999999999999</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="K41" s="39" t="n">
-        <v>78.2</v>
+        <v>79.3</v>
       </c>
       <c r="L41" s="39" t="n">
-        <v>78.2</v>
+        <v>70</v>
       </c>
       <c r="M41" s="39" t="n">
-        <v>26.4</v>
+        <v>36</v>
       </c>
       <c r="N41" s="39" t="n">
-        <v>19.9</v>
+        <v>20.9</v>
       </c>
       <c r="O41" s="39" t="n">
-        <v>46.5</v>
+        <v>57</v>
       </c>
       <c r="P41" s="39" t="n">
-        <v>89.3</v>
+        <v>86.3</v>
       </c>
       <c r="Q41" s="39" t="n">
-        <v>70.5</v>
+        <v>54.5</v>
       </c>
       <c r="R41" s="39" t="n">
-        <v>90.5</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="S41" s="39" t="n">
-        <v>71.2</v>
+        <v>47.9</v>
       </c>
       <c r="T41" s="39" t="n">
-        <v>87.40000000000001</v>
+        <v>74.7</v>
       </c>
       <c r="U41" s="39" t="n">
-        <v>90.8</v>
+        <v>83.3</v>
       </c>
       <c r="V41" s="39" t="n">
-        <v>28.6</v>
+        <v>24.7</v>
       </c>
       <c r="W41" s="39" t="n">
-        <v>28.6</v>
+        <v>24.7</v>
       </c>
       <c r="X41" s="39" t="n">
-        <v>83.90000000000001</v>
+        <v>85</v>
       </c>
       <c r="Y41" s="39" t="inlineStr">
         <is>
-          <t>新能源龙头ETF</t>
+          <t>环保ETF</t>
         </is>
       </c>
     </row>
@@ -15354,79 +15354,79 @@
         <v>40</v>
       </c>
       <c r="B42" s="39" t="n">
-        <v>513290</v>
+        <v>512070</v>
       </c>
       <c r="C42" s="39" t="inlineStr">
         <is>
-          <t>纳指生物科技ETF</t>
+          <t>证券保险ETF</t>
         </is>
       </c>
       <c r="D42" s="39" t="n">
-        <v>12.67</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="E42" s="39" t="n">
-        <v>0.6</v>
+        <v>25.7</v>
       </c>
       <c r="F42" s="39" t="n">
-        <v>0.1</v>
+        <v>1.1</v>
       </c>
       <c r="G42" s="39" t="n">
-        <v>44.4</v>
+        <v>28.2</v>
       </c>
       <c r="H42" s="39" t="n">
-        <v>23</v>
+        <v>48.4</v>
       </c>
       <c r="I42" s="39" t="n">
-        <v>64.5</v>
+        <v>67</v>
       </c>
       <c r="J42" s="39" t="n">
-        <v>40.9</v>
+        <v>67</v>
       </c>
       <c r="K42" s="39" t="n">
-        <v>65.40000000000001</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="L42" s="39" t="n">
-        <v>80.2</v>
+        <v>77</v>
       </c>
       <c r="M42" s="39" t="n">
-        <v>57.5</v>
+        <v>54.9</v>
       </c>
       <c r="N42" s="39" t="n">
-        <v>48.4</v>
+        <v>71.3</v>
       </c>
       <c r="O42" s="39" t="n">
-        <v>44.8</v>
+        <v>93.8</v>
       </c>
       <c r="P42" s="39" t="n">
-        <v>22.1</v>
+        <v>96.2</v>
       </c>
       <c r="Q42" s="39" t="n">
-        <v>71.59999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="R42" s="39" t="n">
-        <v>92.8</v>
+        <v>98.7</v>
       </c>
       <c r="S42" s="39" t="n">
-        <v>92.8</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="T42" s="39" t="n">
-        <v>97.5</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="U42" s="39" t="n">
-        <v>54.1</v>
+        <v>31.1</v>
       </c>
       <c r="V42" s="39" t="n">
-        <v>75.7</v>
+        <v>11.5</v>
       </c>
       <c r="W42" s="39" t="n">
-        <v>84</v>
+        <v>45.7</v>
       </c>
       <c r="X42" s="39" t="n">
-        <v>85.59999999999999</v>
+        <v>85.3</v>
       </c>
       <c r="Y42" s="39" t="inlineStr">
         <is>
-          <t>纳指生物科技ETF</t>
+          <t>证券保险ETF</t>
         </is>
       </c>
     </row>
@@ -15435,79 +15435,79 @@
         <v>41</v>
       </c>
       <c r="B43" s="39" t="n">
-        <v>159850</v>
+        <v>159752</v>
       </c>
       <c r="C43" s="39" t="inlineStr">
         <is>
-          <t>恒生国企ETF</t>
+          <t>新能源龙头ETF</t>
         </is>
       </c>
       <c r="D43" s="39" t="n">
-        <v>9.19</v>
+        <v>2.94</v>
       </c>
       <c r="E43" s="39" t="n">
-        <v>10.4</v>
+        <v>11.4</v>
       </c>
       <c r="F43" s="39" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="G43" s="39" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H43" s="39" t="n">
-        <v>26.1</v>
+        <v>7.5</v>
       </c>
       <c r="I43" s="39" t="n">
-        <v>62.6</v>
+        <v>57.3</v>
       </c>
       <c r="J43" s="39" t="n">
-        <v>72.5</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="K43" s="39" t="n">
-        <v>88</v>
+        <v>78.2</v>
       </c>
       <c r="L43" s="39" t="n">
-        <v>90</v>
+        <v>78.2</v>
       </c>
       <c r="M43" s="39" t="n">
-        <v>31.2</v>
+        <v>26.4</v>
       </c>
       <c r="N43" s="39" t="n">
-        <v>55.3</v>
+        <v>19.9</v>
       </c>
       <c r="O43" s="39" t="n">
-        <v>50.3</v>
+        <v>46.5</v>
       </c>
       <c r="P43" s="39" t="n">
-        <v>73.90000000000001</v>
+        <v>89.3</v>
       </c>
       <c r="Q43" s="39" t="n">
-        <v>81.09999999999999</v>
+        <v>70.5</v>
       </c>
       <c r="R43" s="39" t="n">
-        <v>97</v>
+        <v>90.5</v>
       </c>
       <c r="S43" s="39" t="n">
-        <v>54</v>
+        <v>71.2</v>
       </c>
       <c r="T43" s="39" t="n">
-        <v>74.3</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="U43" s="39" t="n">
-        <v>76.8</v>
+        <v>90.8</v>
       </c>
       <c r="V43" s="39" t="n">
-        <v>27.6</v>
+        <v>28.6</v>
       </c>
       <c r="W43" s="39" t="n">
-        <v>36.6</v>
+        <v>28.6</v>
       </c>
       <c r="X43" s="39" t="n">
-        <v>86.59999999999999</v>
+        <v>86</v>
       </c>
       <c r="Y43" s="39" t="inlineStr">
         <is>
-          <t>恒生国企ETF</t>
+          <t>新能源龙头ETF</t>
         </is>
       </c>
     </row>
@@ -15516,79 +15516,79 @@
         <v>42</v>
       </c>
       <c r="B44" s="39" t="n">
-        <v>512070</v>
+        <v>513060</v>
       </c>
       <c r="C44" s="39" t="inlineStr">
         <is>
-          <t>证券保险ETF</t>
+          <t>恒生医疗ETF</t>
         </is>
       </c>
       <c r="D44" s="39" t="n">
-        <v>64.27</v>
+        <v>104.92</v>
       </c>
       <c r="E44" s="39" t="n">
-        <v>25.7</v>
+        <v>42.4</v>
       </c>
       <c r="F44" s="39" t="n">
-        <v>1.1</v>
+        <v>5.7</v>
       </c>
       <c r="G44" s="39" t="n">
-        <v>28.2</v>
+        <v>3</v>
       </c>
       <c r="H44" s="39" t="n">
-        <v>48.4</v>
+        <v>15.4</v>
       </c>
       <c r="I44" s="39" t="n">
-        <v>67</v>
+        <v>56.9</v>
       </c>
       <c r="J44" s="39" t="n">
-        <v>67</v>
+        <v>77.5</v>
       </c>
       <c r="K44" s="39" t="n">
-        <v>71.09999999999999</v>
+        <v>90.8</v>
       </c>
       <c r="L44" s="39" t="n">
-        <v>77</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="M44" s="39" t="n">
-        <v>54.9</v>
+        <v>32.5</v>
       </c>
       <c r="N44" s="39" t="n">
-        <v>71.3</v>
+        <v>37.5</v>
       </c>
       <c r="O44" s="39" t="n">
-        <v>93.8</v>
+        <v>37.5</v>
       </c>
       <c r="P44" s="39" t="n">
-        <v>96.2</v>
+        <v>77.5</v>
       </c>
       <c r="Q44" s="39" t="n">
+        <v>95.7</v>
+      </c>
+      <c r="R44" s="39" t="n">
         <v>97.3</v>
       </c>
-      <c r="R44" s="39" t="n">
-        <v>98.7</v>
-      </c>
       <c r="S44" s="39" t="n">
-        <v>64.59999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="T44" s="39" t="n">
-        <v>85.09999999999999</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="U44" s="39" t="n">
-        <v>31.1</v>
+        <v>33.7</v>
       </c>
       <c r="V44" s="39" t="n">
-        <v>11.5</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="W44" s="39" t="n">
-        <v>45.7</v>
+        <v>77.7</v>
       </c>
       <c r="X44" s="39" t="n">
-        <v>87.90000000000001</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="Y44" s="39" t="inlineStr">
         <is>
-          <t>证券保险ETF</t>
+          <t>恒生医疗ETF</t>
         </is>
       </c>
     </row>
@@ -15597,79 +15597,79 @@
         <v>43</v>
       </c>
       <c r="B45" s="39" t="n">
-        <v>513060</v>
+        <v>159859</v>
       </c>
       <c r="C45" s="39" t="inlineStr">
         <is>
-          <t>恒生医疗ETF</t>
+          <t>生物医药ETF</t>
         </is>
       </c>
       <c r="D45" s="39" t="n">
-        <v>104.92</v>
+        <v>34.6</v>
       </c>
       <c r="E45" s="39" t="n">
-        <v>42.4</v>
+        <v>36.5</v>
       </c>
       <c r="F45" s="39" t="n">
-        <v>5.7</v>
+        <v>4.7</v>
       </c>
       <c r="G45" s="39" t="n">
-        <v>3</v>
+        <v>25.1</v>
       </c>
       <c r="H45" s="39" t="n">
-        <v>15.4</v>
+        <v>25.1</v>
       </c>
       <c r="I45" s="39" t="n">
-        <v>56.9</v>
+        <v>63.1</v>
       </c>
       <c r="J45" s="39" t="n">
-        <v>77.5</v>
+        <v>53.9</v>
       </c>
       <c r="K45" s="39" t="n">
-        <v>90.8</v>
+        <v>70.8</v>
       </c>
       <c r="L45" s="39" t="n">
-        <v>67.90000000000001</v>
+        <v>40.9</v>
       </c>
       <c r="M45" s="39" t="n">
-        <v>32.5</v>
+        <v>10.3</v>
       </c>
       <c r="N45" s="39" t="n">
-        <v>37.5</v>
+        <v>10.3</v>
       </c>
       <c r="O45" s="39" t="n">
-        <v>37.5</v>
+        <v>10.3</v>
       </c>
       <c r="P45" s="39" t="n">
-        <v>77.5</v>
+        <v>51.6</v>
       </c>
       <c r="Q45" s="39" t="n">
-        <v>95.7</v>
+        <v>18.2</v>
       </c>
       <c r="R45" s="39" t="n">
-        <v>97.3</v>
+        <v>18.2</v>
       </c>
       <c r="S45" s="39" t="n">
-        <v>98.2</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="T45" s="39" t="n">
-        <v>98.40000000000001</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="U45" s="39" t="n">
-        <v>33.7</v>
+        <v>52.6</v>
       </c>
       <c r="V45" s="39" t="n">
-        <v>66.59999999999999</v>
+        <v>82</v>
       </c>
       <c r="W45" s="39" t="n">
-        <v>77.7</v>
+        <v>50.6</v>
       </c>
       <c r="X45" s="39" t="n">
-        <v>88.2</v>
+        <v>87.8</v>
       </c>
       <c r="Y45" s="39" t="inlineStr">
         <is>
-          <t>恒生医疗ETF</t>
+          <t>生物医药ETF</t>
         </is>
       </c>
     </row>
@@ -15678,79 +15678,79 @@
         <v>44</v>
       </c>
       <c r="B46" s="39" t="n">
-        <v>159883</v>
+        <v>159850</v>
       </c>
       <c r="C46" s="39" t="inlineStr">
         <is>
-          <t>医疗器械ETF</t>
+          <t>恒生国企ETF</t>
         </is>
       </c>
       <c r="D46" s="39" t="n">
-        <v>16.45</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="E46" s="39" t="n">
-        <v>33.3</v>
+        <v>10.4</v>
       </c>
       <c r="F46" s="39" t="n">
-        <v>3.1</v>
+        <v>0.9</v>
       </c>
       <c r="G46" s="39" t="n">
-        <v>31.1</v>
+        <v>0.7</v>
       </c>
       <c r="H46" s="39" t="n">
-        <v>43.1</v>
+        <v>26.1</v>
       </c>
       <c r="I46" s="39" t="n">
-        <v>66.40000000000001</v>
+        <v>62.6</v>
       </c>
       <c r="J46" s="39" t="n">
-        <v>69.59999999999999</v>
+        <v>72.5</v>
       </c>
       <c r="K46" s="39" t="n">
-        <v>77.8</v>
+        <v>88</v>
       </c>
       <c r="L46" s="39" t="n">
-        <v>77.8</v>
+        <v>90</v>
       </c>
       <c r="M46" s="39" t="n">
-        <v>18.3</v>
+        <v>31.2</v>
       </c>
       <c r="N46" s="39" t="n">
-        <v>45.9</v>
+        <v>55.3</v>
       </c>
       <c r="O46" s="39" t="n">
-        <v>19.5</v>
+        <v>50.3</v>
       </c>
       <c r="P46" s="39" t="n">
-        <v>70.5</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="Q46" s="39" t="n">
-        <v>75.59999999999999</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="R46" s="39" t="n">
-        <v>56.1</v>
+        <v>97</v>
       </c>
       <c r="S46" s="39" t="n">
-        <v>18.3</v>
+        <v>54</v>
       </c>
       <c r="T46" s="39" t="n">
-        <v>13.7</v>
+        <v>74.3</v>
       </c>
       <c r="U46" s="39" t="n">
-        <v>3.9</v>
+        <v>76.8</v>
       </c>
       <c r="V46" s="39" t="n">
-        <v>38.9</v>
+        <v>27.6</v>
       </c>
       <c r="W46" s="39" t="n">
-        <v>75.09999999999999</v>
+        <v>36.6</v>
       </c>
       <c r="X46" s="39" t="n">
-        <v>88.59999999999999</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="Y46" s="39" t="inlineStr">
         <is>
-          <t>医疗器械ETF</t>
+          <t>恒生国企ETF</t>
         </is>
       </c>
     </row>
@@ -15759,79 +15759,79 @@
         <v>45</v>
       </c>
       <c r="B47" s="39" t="n">
-        <v>512400</v>
+        <v>159905</v>
       </c>
       <c r="C47" s="39" t="inlineStr">
         <is>
-          <t>有色金属ETF</t>
+          <t>深红利ETF</t>
         </is>
       </c>
       <c r="D47" s="39" t="n">
-        <v>45.97</v>
+        <v>31.81</v>
       </c>
       <c r="E47" s="39" t="n">
-        <v>3.6</v>
+        <v>10.7</v>
       </c>
       <c r="F47" s="39" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="G47" s="39" t="n">
-        <v>18.5</v>
+        <v>42.7</v>
       </c>
       <c r="H47" s="39" t="n">
-        <v>39</v>
+        <v>53.6</v>
       </c>
       <c r="I47" s="39" t="n">
-        <v>76.09999999999999</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="J47" s="39" t="n">
-        <v>81</v>
+        <v>57.6</v>
       </c>
       <c r="K47" s="39" t="n">
-        <v>91.8</v>
+        <v>49.7</v>
       </c>
       <c r="L47" s="39" t="n">
-        <v>67.40000000000001</v>
+        <v>73.7</v>
       </c>
       <c r="M47" s="39" t="n">
-        <v>63.2</v>
+        <v>78</v>
       </c>
       <c r="N47" s="39" t="n">
-        <v>38.9</v>
+        <v>52.6</v>
       </c>
       <c r="O47" s="39" t="n">
-        <v>26.7</v>
+        <v>61.1</v>
       </c>
       <c r="P47" s="39" t="n">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="Q47" s="39" t="n">
-        <v>74.90000000000001</v>
+        <v>86</v>
       </c>
       <c r="R47" s="39" t="n">
-        <v>35.4</v>
+        <v>24.1</v>
       </c>
       <c r="S47" s="39" t="n">
-        <v>23.7</v>
+        <v>18.8</v>
       </c>
       <c r="T47" s="39" t="n">
-        <v>35.8</v>
+        <v>5.8</v>
       </c>
       <c r="U47" s="39" t="n">
-        <v>21.9</v>
+        <v>48.5</v>
       </c>
       <c r="V47" s="39" t="n">
-        <v>15.8</v>
+        <v>25.4</v>
       </c>
       <c r="W47" s="39" t="n">
-        <v>10.1</v>
+        <v>19.3</v>
       </c>
       <c r="X47" s="39" t="n">
-        <v>89.5</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="Y47" s="39" t="inlineStr">
         <is>
-          <t>有色金属ETF</t>
+          <t>深红利ETF</t>
         </is>
       </c>
     </row>
@@ -15839,80 +15839,82 @@
       <c r="A48" s="39" t="n">
         <v>46</v>
       </c>
-      <c r="B48" s="39" t="n">
-        <v>159905</v>
+      <c r="B48" s="39" t="inlineStr">
+        <is>
+          <t>159509</t>
+        </is>
       </c>
       <c r="C48" s="39" t="inlineStr">
         <is>
-          <t>深红利ETF</t>
+          <t>纳指科技ETF</t>
         </is>
       </c>
       <c r="D48" s="39" t="n">
-        <v>31.83</v>
+        <v>89.64</v>
       </c>
       <c r="E48" s="39" t="n">
-        <v>10.7</v>
+        <v>27</v>
       </c>
       <c r="F48" s="39" t="n">
-        <v>0.7</v>
+        <v>5.3</v>
       </c>
       <c r="G48" s="39" t="n">
-        <v>42.7</v>
+        <v>27.4</v>
       </c>
       <c r="H48" s="39" t="n">
-        <v>53.6</v>
+        <v>24.8</v>
       </c>
       <c r="I48" s="39" t="n">
-        <v>73.09999999999999</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="J48" s="39" t="n">
-        <v>57.6</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="K48" s="39" t="n">
-        <v>49.7</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="L48" s="39" t="n">
-        <v>73.7</v>
+        <v>52.2</v>
       </c>
       <c r="M48" s="39" t="n">
-        <v>78</v>
+        <v>23.6</v>
       </c>
       <c r="N48" s="39" t="n">
-        <v>52.6</v>
+        <v>40</v>
       </c>
       <c r="O48" s="39" t="n">
-        <v>61.1</v>
+        <v>24.4</v>
       </c>
       <c r="P48" s="39" t="n">
-        <v>86</v>
+        <v>17.8</v>
       </c>
       <c r="Q48" s="39" t="n">
-        <v>86</v>
+        <v>23.7</v>
       </c>
       <c r="R48" s="39" t="n">
-        <v>24.1</v>
+        <v>90.7</v>
       </c>
       <c r="S48" s="39" t="n">
-        <v>18.8</v>
+        <v>47.9</v>
       </c>
       <c r="T48" s="39" t="n">
-        <v>5.8</v>
+        <v>81.3</v>
       </c>
       <c r="U48" s="39" t="n">
-        <v>48.5</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="V48" s="39" t="n">
-        <v>25.4</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="W48" s="39" t="n">
-        <v>19.3</v>
+        <v>57</v>
       </c>
       <c r="X48" s="39" t="n">
-        <v>89.59999999999999</v>
+        <v>89</v>
       </c>
       <c r="Y48" s="39" t="inlineStr">
         <is>
-          <t>深红利ETF</t>
+          <t>纳指科技ETF</t>
         </is>
       </c>
     </row>
@@ -15921,79 +15923,79 @@
         <v>47</v>
       </c>
       <c r="B49" s="39" t="n">
-        <v>159859</v>
+        <v>512400</v>
       </c>
       <c r="C49" s="39" t="inlineStr">
         <is>
-          <t>生物医药ETF</t>
+          <t>有色金属ETF</t>
         </is>
       </c>
       <c r="D49" s="39" t="n">
-        <v>34.7</v>
+        <v>45.97</v>
       </c>
       <c r="E49" s="39" t="n">
-        <v>36.5</v>
+        <v>3.6</v>
       </c>
       <c r="F49" s="39" t="n">
-        <v>4.7</v>
+        <v>0.4</v>
       </c>
       <c r="G49" s="39" t="n">
-        <v>25.1</v>
+        <v>18.5</v>
       </c>
       <c r="H49" s="39" t="n">
-        <v>25.1</v>
+        <v>39</v>
       </c>
       <c r="I49" s="39" t="n">
-        <v>63.1</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="J49" s="39" t="n">
-        <v>53.9</v>
+        <v>81</v>
       </c>
       <c r="K49" s="39" t="n">
-        <v>70.8</v>
+        <v>91.8</v>
       </c>
       <c r="L49" s="39" t="n">
-        <v>40.9</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="M49" s="39" t="n">
-        <v>10.3</v>
+        <v>63.2</v>
       </c>
       <c r="N49" s="39" t="n">
-        <v>10.3</v>
+        <v>38.9</v>
       </c>
       <c r="O49" s="39" t="n">
-        <v>10.3</v>
+        <v>26.7</v>
       </c>
       <c r="P49" s="39" t="n">
-        <v>51.6</v>
+        <v>92</v>
       </c>
       <c r="Q49" s="39" t="n">
-        <v>18.2</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="R49" s="39" t="n">
-        <v>18.2</v>
+        <v>35.4</v>
       </c>
       <c r="S49" s="39" t="n">
-        <v>64.40000000000001</v>
+        <v>23.7</v>
       </c>
       <c r="T49" s="39" t="n">
-        <v>89.09999999999999</v>
+        <v>35.8</v>
       </c>
       <c r="U49" s="39" t="n">
-        <v>52.6</v>
+        <v>21.9</v>
       </c>
       <c r="V49" s="39" t="n">
-        <v>82</v>
+        <v>15.8</v>
       </c>
       <c r="W49" s="39" t="n">
-        <v>50.6</v>
+        <v>10.1</v>
       </c>
       <c r="X49" s="39" t="n">
-        <v>89.8</v>
+        <v>89.5</v>
       </c>
       <c r="Y49" s="39" t="inlineStr">
         <is>
-          <t>生物医药ETF</t>
+          <t>有色金属ETF</t>
         </is>
       </c>
     </row>
@@ -16001,82 +16003,80 @@
       <c r="A50" s="39" t="n">
         <v>48</v>
       </c>
-      <c r="B50" s="39" t="inlineStr">
-        <is>
-          <t>159509</t>
-        </is>
+      <c r="B50" s="39" t="n">
+        <v>512880</v>
       </c>
       <c r="C50" s="39" t="inlineStr">
         <is>
-          <t>纳指科技ETF</t>
+          <t>证券ETF</t>
         </is>
       </c>
       <c r="D50" s="39" t="n">
-        <v>89.83</v>
+        <v>282.17</v>
       </c>
       <c r="E50" s="39" t="n">
-        <v>27</v>
+        <v>43.1</v>
       </c>
       <c r="F50" s="39" t="n">
-        <v>5.3</v>
+        <v>1.1</v>
       </c>
       <c r="G50" s="39" t="n">
-        <v>27.4</v>
+        <v>20.9</v>
       </c>
       <c r="H50" s="39" t="n">
-        <v>24.8</v>
+        <v>50.6</v>
       </c>
       <c r="I50" s="39" t="n">
-        <v>85.09999999999999</v>
+        <v>66.3</v>
       </c>
       <c r="J50" s="39" t="n">
-        <v>71.40000000000001</v>
+        <v>71.8</v>
       </c>
       <c r="K50" s="39" t="n">
-        <v>83.90000000000001</v>
+        <v>71.8</v>
       </c>
       <c r="L50" s="39" t="n">
-        <v>52.2</v>
+        <v>39.5</v>
       </c>
       <c r="M50" s="39" t="n">
-        <v>23.6</v>
+        <v>29.1</v>
       </c>
       <c r="N50" s="39" t="n">
-        <v>40</v>
+        <v>29.1</v>
       </c>
       <c r="O50" s="39" t="n">
-        <v>24.4</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="P50" s="39" t="n">
-        <v>17.8</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="Q50" s="39" t="n">
-        <v>23.7</v>
+        <v>67.7</v>
       </c>
       <c r="R50" s="39" t="n">
-        <v>90.7</v>
+        <v>74.7</v>
       </c>
       <c r="S50" s="39" t="n">
-        <v>47.9</v>
+        <v>27.3</v>
       </c>
       <c r="T50" s="39" t="n">
-        <v>81.3</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="U50" s="39" t="n">
-        <v>83.40000000000001</v>
+        <v>35</v>
       </c>
       <c r="V50" s="39" t="n">
-        <v>76.40000000000001</v>
+        <v>24.6</v>
       </c>
       <c r="W50" s="39" t="n">
-        <v>57</v>
+        <v>52.8</v>
       </c>
       <c r="X50" s="39" t="n">
-        <v>90</v>
+        <v>89.5</v>
       </c>
       <c r="Y50" s="39" t="inlineStr">
         <is>
-          <t>纳指科技ETF</t>
+          <t>证券ETF</t>
         </is>
       </c>
     </row>
@@ -16085,79 +16085,79 @@
         <v>49</v>
       </c>
       <c r="B51" s="39" t="n">
-        <v>516110</v>
+        <v>159883</v>
       </c>
       <c r="C51" s="39" t="inlineStr">
         <is>
-          <t>汽车ETF</t>
+          <t>医疗器械ETF</t>
         </is>
       </c>
       <c r="D51" s="39" t="n">
-        <v>4.38</v>
+        <v>16.52</v>
       </c>
       <c r="E51" s="39" t="n">
-        <v>2.6</v>
+        <v>33.3</v>
       </c>
       <c r="F51" s="39" t="n">
-        <v>0.2</v>
+        <v>3.1</v>
       </c>
       <c r="G51" s="39" t="n">
-        <v>5.5</v>
+        <v>31.1</v>
       </c>
       <c r="H51" s="39" t="n">
-        <v>26.9</v>
+        <v>43.1</v>
       </c>
       <c r="I51" s="39" t="n">
-        <v>71</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="J51" s="39" t="n">
-        <v>85.3</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="K51" s="39" t="n">
-        <v>89.7</v>
+        <v>77.8</v>
       </c>
       <c r="L51" s="39" t="n">
-        <v>70.3</v>
+        <v>77.8</v>
       </c>
       <c r="M51" s="39" t="n">
-        <v>42.6</v>
+        <v>18.3</v>
       </c>
       <c r="N51" s="39" t="n">
-        <v>18.4</v>
+        <v>45.9</v>
       </c>
       <c r="O51" s="39" t="n">
-        <v>29.1</v>
+        <v>19.5</v>
       </c>
       <c r="P51" s="39" t="n">
-        <v>79</v>
+        <v>70.5</v>
       </c>
       <c r="Q51" s="39" t="n">
-        <v>64</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="R51" s="39" t="n">
-        <v>93</v>
+        <v>56.1</v>
       </c>
       <c r="S51" s="39" t="n">
-        <v>60.5</v>
+        <v>18.3</v>
       </c>
       <c r="T51" s="39" t="n">
-        <v>75.90000000000001</v>
+        <v>13.7</v>
       </c>
       <c r="U51" s="39" t="n">
-        <v>31.6</v>
+        <v>3.9</v>
       </c>
       <c r="V51" s="39" t="n">
-        <v>29.7</v>
+        <v>38.9</v>
       </c>
       <c r="W51" s="39" t="n">
-        <v>78.8</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="X51" s="39" t="n">
-        <v>90.2</v>
+        <v>90</v>
       </c>
       <c r="Y51" s="39" t="inlineStr">
         <is>
-          <t>汽车ETF</t>
+          <t>医疗器械ETF</t>
         </is>
       </c>
     </row>
@@ -16166,79 +16166,79 @@
         <v>50</v>
       </c>
       <c r="B52" s="39" t="n">
-        <v>512880</v>
+        <v>510300</v>
       </c>
       <c r="C52" s="39" t="inlineStr">
         <is>
-          <t>证券ETF</t>
+          <t>沪深300ETF</t>
         </is>
       </c>
       <c r="D52" s="39" t="n">
-        <v>282.71</v>
+        <v>3764.69</v>
       </c>
       <c r="E52" s="39" t="n">
-        <v>43.1</v>
+        <v>2</v>
       </c>
       <c r="F52" s="39" t="n">
-        <v>1.1</v>
+        <v>0.1</v>
       </c>
       <c r="G52" s="39" t="n">
-        <v>20.9</v>
+        <v>20.2</v>
       </c>
       <c r="H52" s="39" t="n">
-        <v>50.6</v>
+        <v>43.6</v>
       </c>
       <c r="I52" s="39" t="n">
-        <v>66.3</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="J52" s="39" t="n">
-        <v>71.8</v>
+        <v>76.3</v>
       </c>
       <c r="K52" s="39" t="n">
-        <v>71.8</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="L52" s="39" t="n">
-        <v>39.5</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="M52" s="39" t="n">
-        <v>29.1</v>
+        <v>90</v>
       </c>
       <c r="N52" s="39" t="n">
-        <v>29.1</v>
+        <v>92.2</v>
       </c>
       <c r="O52" s="39" t="n">
-        <v>84.90000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="P52" s="39" t="n">
-        <v>93.59999999999999</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="Q52" s="39" t="n">
-        <v>67.7</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="R52" s="39" t="n">
-        <v>74.7</v>
+        <v>99.2</v>
       </c>
       <c r="S52" s="39" t="n">
-        <v>27.3</v>
+        <v>99.2</v>
       </c>
       <c r="T52" s="39" t="n">
-        <v>81.09999999999999</v>
+        <v>99.2</v>
       </c>
       <c r="U52" s="39" t="n">
-        <v>35</v>
+        <v>14.3</v>
       </c>
       <c r="V52" s="39" t="n">
-        <v>24.6</v>
+        <v>4.8</v>
       </c>
       <c r="W52" s="39" t="n">
-        <v>52.8</v>
+        <v>3</v>
       </c>
       <c r="X52" s="39" t="n">
         <v>90.5</v>
       </c>
       <c r="Y52" s="39" t="inlineStr">
         <is>
-          <t>证券ETF</t>
+          <t>沪深300ETF</t>
         </is>
       </c>
     </row>
@@ -16247,79 +16247,79 @@
         <v>51</v>
       </c>
       <c r="B53" s="39" t="n">
-        <v>510300</v>
+        <v>516110</v>
       </c>
       <c r="C53" s="39" t="inlineStr">
         <is>
-          <t>沪深300ETF</t>
+          <t>汽车ETF</t>
         </is>
       </c>
       <c r="D53" s="39" t="n">
-        <v>3766.61</v>
+        <v>4.38</v>
       </c>
       <c r="E53" s="39" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="F53" s="39" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G53" s="39" t="n">
-        <v>20.2</v>
+        <v>5.5</v>
       </c>
       <c r="H53" s="39" t="n">
-        <v>43.6</v>
+        <v>26.9</v>
       </c>
       <c r="I53" s="39" t="n">
-        <v>72.09999999999999</v>
+        <v>71</v>
       </c>
       <c r="J53" s="39" t="n">
-        <v>76.3</v>
+        <v>85.3</v>
       </c>
       <c r="K53" s="39" t="n">
-        <v>80.59999999999999</v>
+        <v>89.7</v>
       </c>
       <c r="L53" s="39" t="n">
-        <v>82.90000000000001</v>
+        <v>70.3</v>
       </c>
       <c r="M53" s="39" t="n">
-        <v>90</v>
+        <v>42.6</v>
       </c>
       <c r="N53" s="39" t="n">
-        <v>92.2</v>
+        <v>18.4</v>
       </c>
       <c r="O53" s="39" t="n">
-        <v>96.8</v>
+        <v>29.1</v>
       </c>
       <c r="P53" s="39" t="n">
-        <v>97.40000000000001</v>
+        <v>79</v>
       </c>
       <c r="Q53" s="39" t="n">
-        <v>98.40000000000001</v>
+        <v>64</v>
       </c>
       <c r="R53" s="39" t="n">
-        <v>99.2</v>
+        <v>93</v>
       </c>
       <c r="S53" s="39" t="n">
-        <v>99.2</v>
+        <v>60.5</v>
       </c>
       <c r="T53" s="39" t="n">
-        <v>99.2</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="U53" s="39" t="n">
-        <v>14.3</v>
+        <v>31.6</v>
       </c>
       <c r="V53" s="39" t="n">
-        <v>4.8</v>
+        <v>29.7</v>
       </c>
       <c r="W53" s="39" t="n">
-        <v>3</v>
+        <v>78.8</v>
       </c>
       <c r="X53" s="39" t="n">
-        <v>90.7</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="Y53" s="39" t="inlineStr">
         <is>
-          <t>沪深300ETF</t>
+          <t>汽车ETF</t>
         </is>
       </c>
     </row>
@@ -16328,79 +16328,79 @@
         <v>52</v>
       </c>
       <c r="B54" s="39" t="n">
-        <v>516160</v>
+        <v>159920</v>
       </c>
       <c r="C54" s="39" t="inlineStr">
         <is>
-          <t>新能源ETF</t>
+          <t>恒生ETF</t>
         </is>
       </c>
       <c r="D54" s="39" t="n">
-        <v>44.58</v>
+        <v>161.69</v>
       </c>
       <c r="E54" s="39" t="n">
-        <v>5.6</v>
+        <v>11.7</v>
       </c>
       <c r="F54" s="39" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="G54" s="39" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H54" s="39" t="n">
-        <v>5.8</v>
+        <v>0.9</v>
       </c>
       <c r="I54" s="39" t="n">
-        <v>57.4</v>
+        <v>61.3</v>
       </c>
       <c r="J54" s="39" t="n">
-        <v>68.5</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="K54" s="39" t="n">
-        <v>80.5</v>
+        <v>86.8</v>
       </c>
       <c r="L54" s="39" t="n">
-        <v>76.09999999999999</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="M54" s="39" t="n">
-        <v>26.3</v>
+        <v>34.5</v>
       </c>
       <c r="N54" s="39" t="n">
-        <v>21.4</v>
+        <v>62</v>
       </c>
       <c r="O54" s="39" t="n">
-        <v>51.6</v>
+        <v>62</v>
       </c>
       <c r="P54" s="39" t="n">
-        <v>87.2</v>
+        <v>81.3</v>
       </c>
       <c r="Q54" s="39" t="n">
-        <v>61.9</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="R54" s="39" t="n">
-        <v>82.40000000000001</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="S54" s="39" t="n">
-        <v>50.1</v>
+        <v>56.7</v>
       </c>
       <c r="T54" s="39" t="n">
-        <v>77.09999999999999</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="U54" s="39" t="n">
-        <v>52.1</v>
+        <v>70</v>
       </c>
       <c r="V54" s="39" t="n">
-        <v>22.7</v>
+        <v>28.7</v>
       </c>
       <c r="W54" s="39" t="n">
-        <v>39.7</v>
+        <v>61.6</v>
       </c>
       <c r="X54" s="39" t="n">
-        <v>91</v>
+        <v>91.2</v>
       </c>
       <c r="Y54" s="39" t="inlineStr">
         <is>
-          <t>新能源ETF</t>
+          <t>恒生ETF</t>
         </is>
       </c>
     </row>
@@ -16409,79 +16409,79 @@
         <v>53</v>
       </c>
       <c r="B55" s="39" t="n">
-        <v>159920</v>
+        <v>516160</v>
       </c>
       <c r="C55" s="39" t="inlineStr">
         <is>
-          <t>恒生ETF</t>
+          <t>新能源ETF</t>
         </is>
       </c>
       <c r="D55" s="39" t="n">
-        <v>161.81</v>
+        <v>44.63</v>
       </c>
       <c r="E55" s="39" t="n">
-        <v>11.7</v>
+        <v>5.6</v>
       </c>
       <c r="F55" s="39" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="G55" s="39" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H55" s="39" t="n">
-        <v>0.9</v>
+        <v>5.8</v>
       </c>
       <c r="I55" s="39" t="n">
-        <v>61.3</v>
+        <v>57.4</v>
       </c>
       <c r="J55" s="39" t="n">
-        <v>74.40000000000001</v>
+        <v>68.5</v>
       </c>
       <c r="K55" s="39" t="n">
-        <v>86.8</v>
+        <v>80.5</v>
       </c>
       <c r="L55" s="39" t="n">
-        <v>89.09999999999999</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="M55" s="39" t="n">
-        <v>34.5</v>
+        <v>26.3</v>
       </c>
       <c r="N55" s="39" t="n">
-        <v>62</v>
+        <v>21.4</v>
       </c>
       <c r="O55" s="39" t="n">
-        <v>62</v>
+        <v>51.6</v>
       </c>
       <c r="P55" s="39" t="n">
-        <v>81.3</v>
+        <v>87.2</v>
       </c>
       <c r="Q55" s="39" t="n">
-        <v>88.59999999999999</v>
+        <v>61.9</v>
       </c>
       <c r="R55" s="39" t="n">
-        <v>98.09999999999999</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="S55" s="39" t="n">
-        <v>56.7</v>
+        <v>50.1</v>
       </c>
       <c r="T55" s="39" t="n">
-        <v>74.90000000000001</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="U55" s="39" t="n">
-        <v>70</v>
+        <v>52.1</v>
       </c>
       <c r="V55" s="39" t="n">
-        <v>28.7</v>
+        <v>22.7</v>
       </c>
       <c r="W55" s="39" t="n">
-        <v>61.6</v>
+        <v>39.7</v>
       </c>
       <c r="X55" s="39" t="n">
-        <v>91.40000000000001</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="Y55" s="39" t="inlineStr">
         <is>
-          <t>恒生ETF</t>
+          <t>新能源ETF</t>
         </is>
       </c>
     </row>
@@ -16498,7 +16498,7 @@
         </is>
       </c>
       <c r="D56" s="39" t="n">
-        <v>72.54000000000001</v>
+        <v>72.59</v>
       </c>
       <c r="E56" s="39" t="n">
         <v>30.1</v>
@@ -16558,7 +16558,7 @@
         <v>40.9</v>
       </c>
       <c r="X56" s="39" t="n">
-        <v>91.90000000000001</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="Y56" s="39" t="inlineStr">
         <is>
@@ -16570,82 +16570,80 @@
       <c r="A57" s="39" t="n">
         <v>55</v>
       </c>
-      <c r="B57" s="39" t="inlineStr">
-        <is>
-          <t>510210</t>
-        </is>
+      <c r="B57" s="39" t="n">
+        <v>515030</v>
       </c>
       <c r="C57" s="39" t="inlineStr">
         <is>
-          <t>上证指数ETF</t>
+          <t>新能源车ETF</t>
         </is>
       </c>
       <c r="D57" s="39" t="n">
-        <v>48.56</v>
+        <v>43.73</v>
       </c>
       <c r="E57" s="39" t="n">
-        <v>21.4</v>
+        <v>5</v>
       </c>
       <c r="F57" s="39" t="n">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="G57" s="39" t="n">
-        <v>24.8</v>
+        <v>0.3</v>
       </c>
       <c r="H57" s="39" t="n">
-        <v>43.7</v>
+        <v>12.1</v>
       </c>
       <c r="I57" s="39" t="n">
-        <v>64.2</v>
+        <v>59</v>
       </c>
       <c r="J57" s="39" t="n">
-        <v>73.7</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="K57" s="39" t="n">
-        <v>86.40000000000001</v>
+        <v>80.5</v>
       </c>
       <c r="L57" s="39" t="n">
-        <v>88.09999999999999</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="M57" s="39" t="n">
-        <v>90.40000000000001</v>
+        <v>27.2</v>
       </c>
       <c r="N57" s="39" t="n">
-        <v>93.09999999999999</v>
+        <v>22.2</v>
       </c>
       <c r="O57" s="39" t="n">
-        <v>97.40000000000001</v>
+        <v>51.8</v>
       </c>
       <c r="P57" s="39" t="n">
-        <v>99</v>
+        <v>89.3</v>
       </c>
       <c r="Q57" s="39" t="n">
-        <v>99.59999999999999</v>
+        <v>66.7</v>
       </c>
       <c r="R57" s="39" t="n">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="S57" s="39" t="n">
-        <v>73.5</v>
+        <v>69</v>
       </c>
       <c r="T57" s="39" t="n">
-        <v>73.5</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="U57" s="39" t="n">
-        <v>23.7</v>
+        <v>26.4</v>
       </c>
       <c r="V57" s="39" t="n">
-        <v>14.1</v>
+        <v>40.5</v>
       </c>
       <c r="W57" s="39" t="n">
-        <v>14.1</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="X57" s="39" t="n">
-        <v>92</v>
+        <v>92.5</v>
       </c>
       <c r="Y57" s="39" t="inlineStr">
         <is>
-          <t>上证指数ETF</t>
+          <t>新能源车ETF</t>
         </is>
       </c>
     </row>
@@ -16653,80 +16651,82 @@
       <c r="A58" s="39" t="n">
         <v>56</v>
       </c>
-      <c r="B58" s="39" t="n">
-        <v>515030</v>
+      <c r="B58" s="39" t="inlineStr">
+        <is>
+          <t>512010</t>
+        </is>
       </c>
       <c r="C58" s="39" t="inlineStr">
         <is>
-          <t>新能源车ETF</t>
+          <t>医药ETF</t>
         </is>
       </c>
       <c r="D58" s="39" t="n">
-        <v>43.77</v>
+        <v>221.96</v>
       </c>
       <c r="E58" s="39" t="n">
-        <v>5</v>
+        <v>34.8</v>
       </c>
       <c r="F58" s="39" t="n">
-        <v>0.4</v>
+        <v>5.6</v>
       </c>
       <c r="G58" s="39" t="n">
-        <v>0.3</v>
+        <v>17.2</v>
       </c>
       <c r="H58" s="39" t="n">
-        <v>12.1</v>
+        <v>15.3</v>
       </c>
       <c r="I58" s="39" t="n">
-        <v>59</v>
+        <v>59.5</v>
       </c>
       <c r="J58" s="39" t="n">
-        <v>77.40000000000001</v>
+        <v>66.5</v>
       </c>
       <c r="K58" s="39" t="n">
-        <v>80.5</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="L58" s="39" t="n">
-        <v>83.90000000000001</v>
+        <v>29.6</v>
       </c>
       <c r="M58" s="39" t="n">
-        <v>27.2</v>
+        <v>49.8</v>
       </c>
       <c r="N58" s="39" t="n">
-        <v>22.2</v>
+        <v>49.8</v>
       </c>
       <c r="O58" s="39" t="n">
-        <v>51.8</v>
+        <v>23.2</v>
       </c>
       <c r="P58" s="39" t="n">
-        <v>89.3</v>
+        <v>62.9</v>
       </c>
       <c r="Q58" s="39" t="n">
-        <v>66.7</v>
+        <v>92.8</v>
       </c>
       <c r="R58" s="39" t="n">
-        <v>90</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="S58" s="39" t="n">
-        <v>69</v>
+        <v>78.5</v>
       </c>
       <c r="T58" s="39" t="n">
-        <v>80.09999999999999</v>
+        <v>45.4</v>
       </c>
       <c r="U58" s="39" t="n">
-        <v>26.4</v>
+        <v>16.9</v>
       </c>
       <c r="V58" s="39" t="n">
-        <v>40.5</v>
+        <v>48.9</v>
       </c>
       <c r="W58" s="39" t="n">
-        <v>81.90000000000001</v>
+        <v>87.5</v>
       </c>
       <c r="X58" s="39" t="n">
-        <v>92.7</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="Y58" s="39" t="inlineStr">
         <is>
-          <t>新能源车ETF</t>
+          <t>医药ETF</t>
         </is>
       </c>
     </row>
@@ -16743,7 +16743,7 @@
         </is>
       </c>
       <c r="D59" s="39" t="n">
-        <v>14.4</v>
+        <v>14.38</v>
       </c>
       <c r="E59" s="39" t="n">
         <v>13.8</v>
@@ -16815,80 +16815,82 @@
       <c r="A60" s="39" t="n">
         <v>58</v>
       </c>
-      <c r="B60" s="39" t="n">
-        <v>512660</v>
+      <c r="B60" s="39" t="inlineStr">
+        <is>
+          <t>159949</t>
+        </is>
       </c>
       <c r="C60" s="39" t="inlineStr">
         <is>
-          <t>军工ETF</t>
+          <t>创业板50ETF</t>
         </is>
       </c>
       <c r="D60" s="39" t="n">
-        <v>131.42</v>
+        <v>257.46</v>
       </c>
       <c r="E60" s="39" t="n">
-        <v>22.3</v>
+        <v>6.1</v>
       </c>
       <c r="F60" s="39" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="G60" s="39" t="n">
-        <v>28.6</v>
+        <v>11.4</v>
       </c>
       <c r="H60" s="39" t="n">
-        <v>71.8</v>
+        <v>22.1</v>
       </c>
       <c r="I60" s="39" t="n">
-        <v>77.40000000000001</v>
+        <v>58.2</v>
       </c>
       <c r="J60" s="39" t="n">
-        <v>83.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K60" s="39" t="n">
-        <v>85.40000000000001</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="L60" s="39" t="n">
-        <v>31.7</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="M60" s="39" t="n">
-        <v>23.5</v>
+        <v>25.6</v>
       </c>
       <c r="N60" s="39" t="n">
-        <v>30.6</v>
+        <v>34.4</v>
       </c>
       <c r="O60" s="39" t="n">
-        <v>14.4</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="P60" s="39" t="n">
-        <v>78.59999999999999</v>
+        <v>91.7</v>
       </c>
       <c r="Q60" s="39" t="n">
-        <v>51.4</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="R60" s="39" t="n">
-        <v>46.1</v>
+        <v>92.2</v>
       </c>
       <c r="S60" s="39" t="n">
-        <v>15</v>
+        <v>50.7</v>
       </c>
       <c r="T60" s="39" t="n">
-        <v>39.5</v>
+        <v>75.7</v>
       </c>
       <c r="U60" s="39" t="n">
-        <v>16.8</v>
+        <v>43</v>
       </c>
       <c r="V60" s="39" t="n">
-        <v>16.8</v>
+        <v>33.4</v>
       </c>
       <c r="W60" s="39" t="n">
-        <v>74.8</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="X60" s="39" t="n">
-        <v>93</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="Y60" s="39" t="inlineStr">
         <is>
-          <t>军工ETF</t>
+          <t>创业板50ETF</t>
         </is>
       </c>
     </row>
@@ -16897,79 +16899,79 @@
         <v>59</v>
       </c>
       <c r="B61" s="39" t="n">
-        <v>515050</v>
+        <v>512660</v>
       </c>
       <c r="C61" s="39" t="inlineStr">
         <is>
-          <t>5G通信ETF</t>
+          <t>军工ETF</t>
         </is>
       </c>
       <c r="D61" s="39" t="n">
-        <v>62.21</v>
+        <v>131.55</v>
       </c>
       <c r="E61" s="39" t="n">
-        <v>4.9</v>
+        <v>22.3</v>
       </c>
       <c r="F61" s="39" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="G61" s="39" t="n">
-        <v>0.5</v>
+        <v>28.6</v>
       </c>
       <c r="H61" s="39" t="n">
-        <v>17.2</v>
+        <v>71.8</v>
       </c>
       <c r="I61" s="39" t="n">
-        <v>60.4</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="J61" s="39" t="n">
-        <v>74.7</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K61" s="39" t="n">
-        <v>78.40000000000001</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="L61" s="39" t="n">
-        <v>44.5</v>
+        <v>31.7</v>
       </c>
       <c r="M61" s="39" t="n">
-        <v>19.1</v>
+        <v>23.5</v>
       </c>
       <c r="N61" s="39" t="n">
-        <v>18.1</v>
+        <v>30.6</v>
       </c>
       <c r="O61" s="39" t="n">
-        <v>64.3</v>
+        <v>14.4</v>
       </c>
       <c r="P61" s="39" t="n">
-        <v>86.8</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="Q61" s="39" t="n">
-        <v>49.1</v>
+        <v>51.4</v>
       </c>
       <c r="R61" s="39" t="n">
-        <v>82.40000000000001</v>
+        <v>46.1</v>
       </c>
       <c r="S61" s="39" t="n">
-        <v>42.8</v>
+        <v>15</v>
       </c>
       <c r="T61" s="39" t="n">
-        <v>71.59999999999999</v>
+        <v>39.5</v>
       </c>
       <c r="U61" s="39" t="n">
-        <v>41.4</v>
+        <v>16.8</v>
       </c>
       <c r="V61" s="39" t="n">
-        <v>48.2</v>
+        <v>16.8</v>
       </c>
       <c r="W61" s="39" t="n">
-        <v>80.09999999999999</v>
+        <v>74.8</v>
       </c>
       <c r="X61" s="39" t="n">
-        <v>93.8</v>
+        <v>93.7</v>
       </c>
       <c r="Y61" s="39" t="inlineStr">
         <is>
-          <t>5G通信ETF</t>
+          <t>军工ETF</t>
         </is>
       </c>
     </row>
@@ -16979,80 +16981,80 @@
       </c>
       <c r="B62" s="39" t="inlineStr">
         <is>
-          <t>159949</t>
+          <t>510210</t>
         </is>
       </c>
       <c r="C62" s="39" t="inlineStr">
         <is>
-          <t>创业板50ETF</t>
+          <t>上证指数ETF</t>
         </is>
       </c>
       <c r="D62" s="39" t="n">
-        <v>257.75</v>
+        <v>48.62</v>
       </c>
       <c r="E62" s="39" t="n">
-        <v>6.1</v>
+        <v>21.4</v>
       </c>
       <c r="F62" s="39" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="G62" s="39" t="n">
-        <v>11.4</v>
+        <v>24.8</v>
       </c>
       <c r="H62" s="39" t="n">
-        <v>22.1</v>
+        <v>43.7</v>
       </c>
       <c r="I62" s="39" t="n">
-        <v>58.2</v>
+        <v>64.2</v>
       </c>
       <c r="J62" s="39" t="n">
-        <v>75</v>
+        <v>73.7</v>
       </c>
       <c r="K62" s="39" t="n">
-        <v>78.90000000000001</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="L62" s="39" t="n">
-        <v>78.90000000000001</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="M62" s="39" t="n">
-        <v>25.6</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="N62" s="39" t="n">
-        <v>34.4</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="O62" s="39" t="n">
-        <v>70.09999999999999</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="P62" s="39" t="n">
-        <v>91.7</v>
+        <v>99</v>
       </c>
       <c r="Q62" s="39" t="n">
-        <v>73.90000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="R62" s="39" t="n">
-        <v>92.2</v>
+        <v>64</v>
       </c>
       <c r="S62" s="39" t="n">
-        <v>50.7</v>
+        <v>73.5</v>
       </c>
       <c r="T62" s="39" t="n">
-        <v>75.7</v>
+        <v>73.5</v>
       </c>
       <c r="U62" s="39" t="n">
-        <v>43</v>
+        <v>23.7</v>
       </c>
       <c r="V62" s="39" t="n">
-        <v>33.4</v>
+        <v>14.1</v>
       </c>
       <c r="W62" s="39" t="n">
-        <v>76.09999999999999</v>
+        <v>14.1</v>
       </c>
       <c r="X62" s="39" t="n">
-        <v>93.90000000000001</v>
+        <v>93.8</v>
       </c>
       <c r="Y62" s="39" t="inlineStr">
         <is>
-          <t>创业板50ETF</t>
+          <t>上证指数ETF</t>
         </is>
       </c>
     </row>
@@ -17061,79 +17063,79 @@
         <v>61</v>
       </c>
       <c r="B63" s="39" t="n">
-        <v>159915</v>
+        <v>159941</v>
       </c>
       <c r="C63" s="39" t="inlineStr">
         <is>
-          <t>创业板ETF</t>
+          <t>纳指ETF</t>
         </is>
       </c>
       <c r="D63" s="39" t="n">
-        <v>859.01</v>
+        <v>240.03</v>
       </c>
       <c r="E63" s="39" t="n">
-        <v>2.7</v>
+        <v>20</v>
       </c>
       <c r="F63" s="39" t="n">
-        <v>0.2</v>
+        <v>3.2</v>
       </c>
       <c r="G63" s="39" t="n">
-        <v>17.7</v>
+        <v>37.8</v>
       </c>
       <c r="H63" s="39" t="n">
-        <v>33</v>
+        <v>34.3</v>
       </c>
       <c r="I63" s="39" t="n">
-        <v>62.5</v>
+        <v>85</v>
       </c>
       <c r="J63" s="39" t="n">
-        <v>77.09999999999999</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="K63" s="39" t="n">
-        <v>78.8</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="L63" s="39" t="n">
-        <v>71.7</v>
+        <v>49.1</v>
       </c>
       <c r="M63" s="39" t="n">
-        <v>23.3</v>
+        <v>22.3</v>
       </c>
       <c r="N63" s="39" t="n">
-        <v>34.8</v>
+        <v>48.2</v>
       </c>
       <c r="O63" s="39" t="n">
-        <v>56.5</v>
+        <v>31.2</v>
       </c>
       <c r="P63" s="39" t="n">
-        <v>91.3</v>
+        <v>21.2</v>
       </c>
       <c r="Q63" s="39" t="n">
-        <v>61.7</v>
+        <v>19.2</v>
       </c>
       <c r="R63" s="39" t="n">
-        <v>84.3</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="S63" s="39" t="n">
-        <v>49.3</v>
+        <v>52.8</v>
       </c>
       <c r="T63" s="39" t="n">
-        <v>73.3</v>
+        <v>83.2</v>
       </c>
       <c r="U63" s="39" t="n">
-        <v>36.3</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="V63" s="39" t="n">
-        <v>29.9</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="W63" s="39" t="n">
-        <v>77.59999999999999</v>
+        <v>82.3</v>
       </c>
       <c r="X63" s="39" t="n">
-        <v>94</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="Y63" s="39" t="inlineStr">
         <is>
-          <t>创业板ETF</t>
+          <t>纳指ETF</t>
         </is>
       </c>
     </row>
@@ -17141,82 +17143,80 @@
       <c r="A64" s="39" t="n">
         <v>62</v>
       </c>
-      <c r="B64" s="39" t="inlineStr">
-        <is>
-          <t>517160</t>
-        </is>
+      <c r="B64" s="39" t="n">
+        <v>159915</v>
       </c>
       <c r="C64" s="39" t="inlineStr">
         <is>
-          <t>长江保护主题ETF</t>
+          <t>创业板ETF</t>
         </is>
       </c>
       <c r="D64" s="39" t="n">
-        <v>13.09</v>
+        <v>858.58</v>
       </c>
       <c r="E64" s="39" t="n">
-        <v>57.2</v>
+        <v>2.7</v>
       </c>
       <c r="F64" s="39" t="n">
-        <v>2.6</v>
+        <v>0.2</v>
       </c>
       <c r="G64" s="39" t="n">
-        <v>27.3</v>
+        <v>17.7</v>
       </c>
       <c r="H64" s="39" t="n">
-        <v>46.2</v>
+        <v>33</v>
       </c>
       <c r="I64" s="39" t="n">
-        <v>68.2</v>
+        <v>62.5</v>
       </c>
       <c r="J64" s="39" t="n">
-        <v>60</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="K64" s="39" t="n">
-        <v>79.59999999999999</v>
+        <v>78.8</v>
       </c>
       <c r="L64" s="39" t="n">
-        <v>58.2</v>
+        <v>71.7</v>
       </c>
       <c r="M64" s="39" t="n">
-        <v>30.7</v>
+        <v>23.3</v>
       </c>
       <c r="N64" s="39" t="n">
-        <v>55.8</v>
+        <v>34.8</v>
       </c>
       <c r="O64" s="39" t="n">
-        <v>55.8</v>
+        <v>56.5</v>
       </c>
       <c r="P64" s="39" t="n">
-        <v>84.90000000000001</v>
+        <v>91.3</v>
       </c>
       <c r="Q64" s="39" t="n">
-        <v>88.59999999999999</v>
+        <v>61.7</v>
       </c>
       <c r="R64" s="39" t="n">
-        <v>97.09999999999999</v>
+        <v>84.3</v>
       </c>
       <c r="S64" s="39" t="n">
-        <v>64.8</v>
+        <v>49.3</v>
       </c>
       <c r="T64" s="39" t="n">
-        <v>73.59999999999999</v>
+        <v>73.3</v>
       </c>
       <c r="U64" s="39" t="n">
-        <v>82.40000000000001</v>
+        <v>36.3</v>
       </c>
       <c r="V64" s="39" t="n">
-        <v>35.3</v>
+        <v>29.9</v>
       </c>
       <c r="W64" s="39" t="n">
-        <v>58.8</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="X64" s="39" t="n">
-        <v>94</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="Y64" s="39" t="inlineStr">
         <is>
-          <t>长江保护主题ETF</t>
+          <t>创业板ETF</t>
         </is>
       </c>
     </row>
@@ -17233,7 +17233,7 @@
         </is>
       </c>
       <c r="D65" s="39" t="n">
-        <v>260.45</v>
+        <v>261.26</v>
       </c>
       <c r="E65" s="39" t="n">
         <v>23.7</v>
@@ -17305,82 +17305,80 @@
       <c r="A66" s="39" t="n">
         <v>64</v>
       </c>
-      <c r="B66" s="39" t="inlineStr">
-        <is>
-          <t>512010</t>
-        </is>
+      <c r="B66" s="39" t="n">
+        <v>513050</v>
       </c>
       <c r="C66" s="39" t="inlineStr">
         <is>
-          <t>医药ETF</t>
+          <t>中概互联网ETF</t>
         </is>
       </c>
       <c r="D66" s="39" t="n">
-        <v>221.96</v>
+        <v>356.34</v>
       </c>
       <c r="E66" s="39" t="n">
-        <v>34.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="F66" s="39" t="n">
-        <v>5.6</v>
+        <v>1.3</v>
       </c>
       <c r="G66" s="39" t="n">
-        <v>17.2</v>
+        <v>0.9</v>
       </c>
       <c r="H66" s="39" t="n">
-        <v>15.3</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="I66" s="39" t="n">
-        <v>59.5</v>
+        <v>56.6</v>
       </c>
       <c r="J66" s="39" t="n">
-        <v>66.5</v>
+        <v>45</v>
       </c>
       <c r="K66" s="39" t="n">
-        <v>75.09999999999999</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="L66" s="39" t="n">
-        <v>29.6</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="M66" s="39" t="n">
-        <v>49.8</v>
+        <v>23.7</v>
       </c>
       <c r="N66" s="39" t="n">
-        <v>49.8</v>
+        <v>56.2</v>
       </c>
       <c r="O66" s="39" t="n">
-        <v>23.2</v>
+        <v>39.4</v>
       </c>
       <c r="P66" s="39" t="n">
-        <v>62.9</v>
+        <v>60.4</v>
       </c>
       <c r="Q66" s="39" t="n">
-        <v>92.8</v>
+        <v>79.7</v>
       </c>
       <c r="R66" s="39" t="n">
-        <v>66.09999999999999</v>
+        <v>96.3</v>
       </c>
       <c r="S66" s="39" t="n">
-        <v>78.5</v>
+        <v>52.1</v>
       </c>
       <c r="T66" s="39" t="n">
-        <v>45.4</v>
+        <v>75.5</v>
       </c>
       <c r="U66" s="39" t="n">
-        <v>16.9</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="V66" s="39" t="n">
-        <v>48.9</v>
+        <v>44.3</v>
       </c>
       <c r="W66" s="39" t="n">
-        <v>87.5</v>
+        <v>73.3</v>
       </c>
       <c r="X66" s="39" t="n">
-        <v>94.09999999999999</v>
+        <v>94.2</v>
       </c>
       <c r="Y66" s="39" t="inlineStr">
         <is>
-          <t>医药ETF</t>
+          <t>中概互联网ETF</t>
         </is>
       </c>
     </row>
@@ -17389,79 +17387,79 @@
         <v>65</v>
       </c>
       <c r="B67" s="39" t="n">
-        <v>513050</v>
+        <v>513500</v>
       </c>
       <c r="C67" s="39" t="inlineStr">
         <is>
-          <t>中概互联网ETF</t>
+          <t>标普500ETF</t>
         </is>
       </c>
       <c r="D67" s="39" t="n">
-        <v>356.34</v>
+        <v>179.42</v>
       </c>
       <c r="E67" s="39" t="n">
-        <v>8.800000000000001</v>
+        <v>13.7</v>
       </c>
       <c r="F67" s="39" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="G67" s="39" t="n">
-        <v>0.9</v>
+        <v>39.8</v>
       </c>
       <c r="H67" s="39" t="n">
-        <v>8.300000000000001</v>
+        <v>24.8</v>
       </c>
       <c r="I67" s="39" t="n">
-        <v>56.6</v>
+        <v>77.2</v>
       </c>
       <c r="J67" s="39" t="n">
-        <v>45</v>
+        <v>55.8</v>
       </c>
       <c r="K67" s="39" t="n">
-        <v>68.09999999999999</v>
+        <v>68</v>
       </c>
       <c r="L67" s="39" t="n">
-        <v>79.09999999999999</v>
+        <v>60.5</v>
       </c>
       <c r="M67" s="39" t="n">
-        <v>23.7</v>
+        <v>35</v>
       </c>
       <c r="N67" s="39" t="n">
-        <v>56.2</v>
+        <v>27.9</v>
       </c>
       <c r="O67" s="39" t="n">
-        <v>39.4</v>
+        <v>20.6</v>
       </c>
       <c r="P67" s="39" t="n">
-        <v>60.4</v>
+        <v>6.9</v>
       </c>
       <c r="Q67" s="39" t="n">
-        <v>79.7</v>
+        <v>5.9</v>
       </c>
       <c r="R67" s="39" t="n">
-        <v>96.3</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="S67" s="39" t="n">
-        <v>52.1</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="T67" s="39" t="n">
-        <v>75.5</v>
+        <v>90</v>
       </c>
       <c r="U67" s="39" t="n">
-        <v>77.09999999999999</v>
+        <v>91.5</v>
       </c>
       <c r="V67" s="39" t="n">
-        <v>44.3</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="W67" s="39" t="n">
-        <v>73.3</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="X67" s="39" t="n">
         <v>94.2</v>
       </c>
       <c r="Y67" s="39" t="inlineStr">
         <is>
-          <t>中概互联网ETF</t>
+          <t>标普500ETF</t>
         </is>
       </c>
     </row>
@@ -17478,7 +17476,7 @@
         </is>
       </c>
       <c r="D68" s="39" t="n">
-        <v>17.99</v>
+        <v>18</v>
       </c>
       <c r="E68" s="39" t="n">
         <v>22.3</v>
@@ -17551,79 +17549,79 @@
         <v>67</v>
       </c>
       <c r="B69" s="39" t="n">
-        <v>512100</v>
+        <v>513360</v>
       </c>
       <c r="C69" s="39" t="inlineStr">
         <is>
-          <t>中证1000ETF</t>
+          <t>教育ETF</t>
         </is>
       </c>
       <c r="D69" s="39" t="n">
-        <v>639.34</v>
+        <v>6.53</v>
       </c>
       <c r="E69" s="39" t="n">
-        <v>17.3</v>
+        <v>4.7</v>
       </c>
       <c r="F69" s="39" t="n">
-        <v>1.3</v>
+        <v>0.2</v>
       </c>
       <c r="G69" s="39" t="n">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="H69" s="39" t="n">
-        <v>35.1</v>
+        <v>4.4</v>
       </c>
       <c r="I69" s="39" t="n">
-        <v>67.09999999999999</v>
+        <v>43.1</v>
       </c>
       <c r="J69" s="39" t="n">
-        <v>78.59999999999999</v>
+        <v>62.3</v>
       </c>
       <c r="K69" s="39" t="n">
-        <v>87.59999999999999</v>
+        <v>70.3</v>
       </c>
       <c r="L69" s="39" t="n">
-        <v>70.40000000000001</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="M69" s="39" t="n">
-        <v>30.5</v>
+        <v>31.8</v>
       </c>
       <c r="N69" s="39" t="n">
-        <v>33.1</v>
+        <v>72</v>
       </c>
       <c r="O69" s="39" t="n">
-        <v>25.6</v>
+        <v>60.2</v>
       </c>
       <c r="P69" s="39" t="n">
-        <v>88.40000000000001</v>
+        <v>89</v>
       </c>
       <c r="Q69" s="39" t="n">
-        <v>88.40000000000001</v>
+        <v>90.7</v>
       </c>
       <c r="R69" s="39" t="n">
-        <v>94.2</v>
+        <v>98.2</v>
       </c>
       <c r="S69" s="39" t="n">
-        <v>35.8</v>
+        <v>54.2</v>
       </c>
       <c r="T69" s="39" t="n">
-        <v>49.4</v>
+        <v>22.5</v>
       </c>
       <c r="U69" s="39" t="n">
-        <v>15.8</v>
+        <v>41.3</v>
       </c>
       <c r="V69" s="39" t="n">
-        <v>49.1</v>
+        <v>64.3</v>
       </c>
       <c r="W69" s="39" t="n">
-        <v>76.7</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="X69" s="39" t="n">
-        <v>94.40000000000001</v>
+        <v>94.3</v>
       </c>
       <c r="Y69" s="39" t="inlineStr">
         <is>
-          <t>中证1000ETF</t>
+          <t>教育ETF</t>
         </is>
       </c>
     </row>
@@ -17632,79 +17630,79 @@
         <v>68</v>
       </c>
       <c r="B70" s="39" t="n">
-        <v>515790</v>
+        <v>515050</v>
       </c>
       <c r="C70" s="39" t="inlineStr">
         <is>
-          <t>光伏ETF</t>
+          <t>5G通信ETF</t>
         </is>
       </c>
       <c r="D70" s="39" t="n">
-        <v>89.91</v>
+        <v>62.39</v>
       </c>
       <c r="E70" s="39" t="n">
-        <v>11.1</v>
+        <v>4.9</v>
       </c>
       <c r="F70" s="39" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G70" s="39" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H70" s="39" t="n">
-        <v>17.1</v>
+        <v>17.2</v>
       </c>
       <c r="I70" s="39" t="n">
-        <v>60.5</v>
+        <v>60.4</v>
       </c>
       <c r="J70" s="39" t="n">
-        <v>64.8</v>
+        <v>74.7</v>
       </c>
       <c r="K70" s="39" t="n">
-        <v>75.5</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="L70" s="39" t="n">
-        <v>51.8</v>
+        <v>44.5</v>
       </c>
       <c r="M70" s="39" t="n">
-        <v>23</v>
+        <v>19.1</v>
       </c>
       <c r="N70" s="39" t="n">
-        <v>19.4</v>
+        <v>18.1</v>
       </c>
       <c r="O70" s="39" t="n">
-        <v>11.9</v>
+        <v>64.3</v>
       </c>
       <c r="P70" s="39" t="n">
-        <v>59.1</v>
+        <v>86.8</v>
       </c>
       <c r="Q70" s="39" t="n">
-        <v>34.5</v>
+        <v>49.1</v>
       </c>
       <c r="R70" s="39" t="n">
-        <v>70.90000000000001</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="S70" s="39" t="n">
-        <v>19.7</v>
+        <v>42.8</v>
       </c>
       <c r="T70" s="39" t="n">
-        <v>56</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="U70" s="39" t="n">
-        <v>56</v>
+        <v>41.4</v>
       </c>
       <c r="V70" s="39" t="n">
-        <v>29.4</v>
+        <v>48.2</v>
       </c>
       <c r="W70" s="39" t="n">
-        <v>52.1</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="X70" s="39" t="n">
-        <v>94.5</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="Y70" s="39" t="inlineStr">
         <is>
-          <t>光伏ETF</t>
+          <t>5G通信ETF</t>
         </is>
       </c>
     </row>
@@ -17713,79 +17711,79 @@
         <v>69</v>
       </c>
       <c r="B71" s="39" t="n">
-        <v>513360</v>
+        <v>512100</v>
       </c>
       <c r="C71" s="39" t="inlineStr">
         <is>
-          <t>教育ETF</t>
+          <t>中证1000ETF</t>
         </is>
       </c>
       <c r="D71" s="39" t="n">
-        <v>6.56</v>
+        <v>640.13</v>
       </c>
       <c r="E71" s="39" t="n">
-        <v>4.7</v>
+        <v>17.3</v>
       </c>
       <c r="F71" s="39" t="n">
-        <v>0.2</v>
+        <v>1.3</v>
       </c>
       <c r="G71" s="39" t="n">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
       <c r="H71" s="39" t="n">
-        <v>4.4</v>
+        <v>35.1</v>
       </c>
       <c r="I71" s="39" t="n">
-        <v>43.1</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="J71" s="39" t="n">
-        <v>62.3</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="K71" s="39" t="n">
-        <v>70.3</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="L71" s="39" t="n">
-        <v>79.09999999999999</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="M71" s="39" t="n">
-        <v>31.8</v>
+        <v>30.5</v>
       </c>
       <c r="N71" s="39" t="n">
-        <v>72</v>
+        <v>33.1</v>
       </c>
       <c r="O71" s="39" t="n">
-        <v>60.2</v>
+        <v>25.6</v>
       </c>
       <c r="P71" s="39" t="n">
-        <v>89</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="Q71" s="39" t="n">
-        <v>90.7</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="R71" s="39" t="n">
-        <v>98.2</v>
+        <v>94.2</v>
       </c>
       <c r="S71" s="39" t="n">
-        <v>54.2</v>
+        <v>35.8</v>
       </c>
       <c r="T71" s="39" t="n">
-        <v>22.5</v>
+        <v>49.4</v>
       </c>
       <c r="U71" s="39" t="n">
-        <v>41.3</v>
+        <v>15.8</v>
       </c>
       <c r="V71" s="39" t="n">
-        <v>64.3</v>
+        <v>49.1</v>
       </c>
       <c r="W71" s="39" t="n">
-        <v>87.09999999999999</v>
+        <v>76.7</v>
       </c>
       <c r="X71" s="39" t="n">
         <v>94.7</v>
       </c>
       <c r="Y71" s="39" t="inlineStr">
         <is>
-          <t>教育ETF</t>
+          <t>中证1000ETF</t>
         </is>
       </c>
     </row>
@@ -17802,7 +17800,7 @@
         </is>
       </c>
       <c r="D72" s="39" t="n">
-        <v>139.78</v>
+        <v>140.1</v>
       </c>
       <c r="E72" s="39" t="n">
         <v>17.4</v>
@@ -17862,7 +17860,7 @@
         <v>90.09999999999999</v>
       </c>
       <c r="X72" s="39" t="n">
-        <v>94.8</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="Y72" s="39" t="inlineStr">
         <is>
@@ -17875,79 +17873,79 @@
         <v>71</v>
       </c>
       <c r="B73" s="39" t="n">
-        <v>513500</v>
+        <v>159667</v>
       </c>
       <c r="C73" s="39" t="inlineStr">
         <is>
-          <t>标普500ETF</t>
+          <t>工业母机ETF</t>
         </is>
       </c>
       <c r="D73" s="39" t="n">
-        <v>179.61</v>
+        <v>4.97</v>
       </c>
       <c r="E73" s="39" t="n">
-        <v>13.7</v>
+        <v>15.6</v>
       </c>
       <c r="F73" s="39" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="G73" s="39" t="n">
-        <v>39.8</v>
+        <v>1.6</v>
       </c>
       <c r="H73" s="39" t="n">
-        <v>24.8</v>
+        <v>26.1</v>
       </c>
       <c r="I73" s="39" t="n">
-        <v>77.2</v>
+        <v>61.2</v>
       </c>
       <c r="J73" s="39" t="n">
-        <v>55.8</v>
+        <v>74.5</v>
       </c>
       <c r="K73" s="39" t="n">
-        <v>68</v>
+        <v>83.2</v>
       </c>
       <c r="L73" s="39" t="n">
-        <v>60.5</v>
+        <v>67.8</v>
       </c>
       <c r="M73" s="39" t="n">
-        <v>35</v>
+        <v>23.1</v>
       </c>
       <c r="N73" s="39" t="n">
-        <v>27.9</v>
+        <v>31.6</v>
       </c>
       <c r="O73" s="39" t="n">
-        <v>20.6</v>
+        <v>38.5</v>
       </c>
       <c r="P73" s="39" t="n">
-        <v>6.9</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="Q73" s="39" t="n">
-        <v>5.9</v>
+        <v>60.3</v>
       </c>
       <c r="R73" s="39" t="n">
-        <v>84.59999999999999</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="S73" s="39" t="n">
-        <v>65.59999999999999</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="T73" s="39" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="U73" s="39" t="n">
-        <v>91.5</v>
+        <v>23.7</v>
       </c>
       <c r="V73" s="39" t="n">
-        <v>76.40000000000001</v>
+        <v>60.7</v>
       </c>
       <c r="W73" s="39" t="n">
-        <v>81.09999999999999</v>
+        <v>84.8</v>
       </c>
       <c r="X73" s="39" t="n">
-        <v>94.8</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="Y73" s="39" t="inlineStr">
         <is>
-          <t>标普500ETF</t>
+          <t>工业母机ETF</t>
         </is>
       </c>
     </row>
@@ -17956,79 +17954,79 @@
         <v>72</v>
       </c>
       <c r="B74" s="39" t="n">
-        <v>159667</v>
+        <v>515790</v>
       </c>
       <c r="C74" s="39" t="inlineStr">
         <is>
-          <t>工业母机ETF</t>
+          <t>光伏ETF</t>
         </is>
       </c>
       <c r="D74" s="39" t="n">
-        <v>4.96</v>
+        <v>90.18000000000001</v>
       </c>
       <c r="E74" s="39" t="n">
-        <v>15.6</v>
+        <v>11.1</v>
       </c>
       <c r="F74" s="39" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="G74" s="39" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H74" s="39" t="n">
-        <v>26.1</v>
+        <v>17.1</v>
       </c>
       <c r="I74" s="39" t="n">
-        <v>61.2</v>
+        <v>60.5</v>
       </c>
       <c r="J74" s="39" t="n">
-        <v>74.5</v>
+        <v>64.8</v>
       </c>
       <c r="K74" s="39" t="n">
-        <v>83.2</v>
+        <v>75.5</v>
       </c>
       <c r="L74" s="39" t="n">
-        <v>67.8</v>
+        <v>51.8</v>
       </c>
       <c r="M74" s="39" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="N74" s="39" t="n">
-        <v>31.6</v>
+        <v>19.4</v>
       </c>
       <c r="O74" s="39" t="n">
-        <v>38.5</v>
+        <v>11.9</v>
       </c>
       <c r="P74" s="39" t="n">
-        <v>90.40000000000001</v>
+        <v>59.1</v>
       </c>
       <c r="Q74" s="39" t="n">
-        <v>60.3</v>
+        <v>34.5</v>
       </c>
       <c r="R74" s="39" t="n">
-        <v>87.09999999999999</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="S74" s="39" t="n">
-        <v>68.59999999999999</v>
+        <v>19.7</v>
       </c>
       <c r="T74" s="39" t="n">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="U74" s="39" t="n">
-        <v>23.7</v>
+        <v>56</v>
       </c>
       <c r="V74" s="39" t="n">
-        <v>60.7</v>
+        <v>29.4</v>
       </c>
       <c r="W74" s="39" t="n">
-        <v>84.8</v>
+        <v>52.1</v>
       </c>
       <c r="X74" s="39" t="n">
-        <v>94.90000000000001</v>
+        <v>95.2</v>
       </c>
       <c r="Y74" s="39" t="inlineStr">
         <is>
-          <t>工业母机ETF</t>
+          <t>光伏ETF</t>
         </is>
       </c>
     </row>
@@ -18037,79 +18035,79 @@
         <v>73</v>
       </c>
       <c r="B75" s="39" t="n">
-        <v>159941</v>
+        <v>159992</v>
       </c>
       <c r="C75" s="39" t="inlineStr">
         <is>
-          <t>纳指ETF</t>
+          <t>创新药ETF</t>
         </is>
       </c>
       <c r="D75" s="39" t="n">
-        <v>241.34</v>
+        <v>118.18</v>
       </c>
       <c r="E75" s="39" t="n">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="F75" s="39" t="n">
-        <v>3.2</v>
+        <v>5.1</v>
       </c>
       <c r="G75" s="39" t="n">
-        <v>37.8</v>
+        <v>22</v>
       </c>
       <c r="H75" s="39" t="n">
-        <v>34.3</v>
+        <v>17.2</v>
       </c>
       <c r="I75" s="39" t="n">
-        <v>85</v>
+        <v>60.8</v>
       </c>
       <c r="J75" s="39" t="n">
-        <v>70.59999999999999</v>
+        <v>71</v>
       </c>
       <c r="K75" s="39" t="n">
-        <v>78.90000000000001</v>
+        <v>83.7</v>
       </c>
       <c r="L75" s="39" t="n">
-        <v>49.1</v>
+        <v>60.2</v>
       </c>
       <c r="M75" s="39" t="n">
-        <v>22.3</v>
+        <v>32.7</v>
       </c>
       <c r="N75" s="39" t="n">
-        <v>48.2</v>
+        <v>22.5</v>
       </c>
       <c r="O75" s="39" t="n">
-        <v>31.2</v>
+        <v>22.5</v>
       </c>
       <c r="P75" s="39" t="n">
-        <v>21.2</v>
+        <v>86.2</v>
       </c>
       <c r="Q75" s="39" t="n">
-        <v>19.2</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="R75" s="39" t="n">
-        <v>89.59999999999999</v>
+        <v>51.4</v>
       </c>
       <c r="S75" s="39" t="n">
-        <v>52.8</v>
+        <v>72.7</v>
       </c>
       <c r="T75" s="39" t="n">
-        <v>83.2</v>
+        <v>38.7</v>
       </c>
       <c r="U75" s="39" t="n">
-        <v>85.59999999999999</v>
+        <v>38.7</v>
       </c>
       <c r="V75" s="39" t="n">
-        <v>79.90000000000001</v>
+        <v>72.7</v>
       </c>
       <c r="W75" s="39" t="n">
-        <v>82.3</v>
+        <v>90.7</v>
       </c>
       <c r="X75" s="39" t="n">
-        <v>95.59999999999999</v>
+        <v>95.2</v>
       </c>
       <c r="Y75" s="39" t="inlineStr">
         <is>
-          <t>纳指ETF</t>
+          <t>创新药ETF</t>
         </is>
       </c>
     </row>
@@ -18117,80 +18115,82 @@
       <c r="A76" s="39" t="n">
         <v>74</v>
       </c>
-      <c r="B76" s="39" t="n">
-        <v>588000</v>
+      <c r="B76" s="39" t="inlineStr">
+        <is>
+          <t>517160</t>
+        </is>
       </c>
       <c r="C76" s="39" t="inlineStr">
         <is>
-          <t>科创50ETF</t>
+          <t>长江保护主题ETF</t>
         </is>
       </c>
       <c r="D76" s="39" t="n">
-        <v>781.14</v>
+        <v>13.15</v>
       </c>
       <c r="E76" s="39" t="n">
-        <v>9</v>
+        <v>57.2</v>
       </c>
       <c r="F76" s="39" t="n">
-        <v>0.4</v>
+        <v>2.6</v>
       </c>
       <c r="G76" s="39" t="n">
-        <v>24.1</v>
+        <v>27.3</v>
       </c>
       <c r="H76" s="39" t="n">
-        <v>66.2</v>
+        <v>46.2</v>
       </c>
       <c r="I76" s="39" t="n">
-        <v>75.3</v>
+        <v>68.2</v>
       </c>
       <c r="J76" s="39" t="n">
-        <v>85.8</v>
+        <v>60</v>
       </c>
       <c r="K76" s="39" t="n">
-        <v>87.40000000000001</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="L76" s="39" t="n">
-        <v>49</v>
+        <v>58.2</v>
       </c>
       <c r="M76" s="39" t="n">
-        <v>68.40000000000001</v>
+        <v>30.7</v>
       </c>
       <c r="N76" s="39" t="n">
-        <v>79.59999999999999</v>
+        <v>55.8</v>
       </c>
       <c r="O76" s="39" t="n">
-        <v>40</v>
+        <v>55.8</v>
       </c>
       <c r="P76" s="39" t="n">
-        <v>76.59999999999999</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="Q76" s="39" t="n">
-        <v>53.1</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="R76" s="39" t="n">
-        <v>36.3</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="S76" s="39" t="n">
-        <v>11</v>
+        <v>64.8</v>
       </c>
       <c r="T76" s="39" t="n">
-        <v>29</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="U76" s="39" t="n">
-        <v>18</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="V76" s="39" t="n">
-        <v>45.5</v>
+        <v>35.3</v>
       </c>
       <c r="W76" s="39" t="n">
-        <v>86.40000000000001</v>
+        <v>58.8</v>
       </c>
       <c r="X76" s="39" t="n">
-        <v>95.7</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="Y76" s="39" t="inlineStr">
         <is>
-          <t>科创50ETF</t>
+          <t>长江保护主题ETF</t>
         </is>
       </c>
     </row>
@@ -18199,79 +18199,79 @@
         <v>75</v>
       </c>
       <c r="B77" s="39" t="n">
-        <v>159992</v>
+        <v>562800</v>
       </c>
       <c r="C77" s="39" t="inlineStr">
         <is>
-          <t>创新药ETF</t>
+          <t>稀有金属ETF</t>
         </is>
       </c>
       <c r="D77" s="39" t="n">
-        <v>118.5</v>
+        <v>9.08</v>
       </c>
       <c r="E77" s="39" t="n">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="F77" s="39" t="n">
-        <v>5.1</v>
+        <v>1.1</v>
       </c>
       <c r="G77" s="39" t="n">
-        <v>22</v>
+        <v>20.4</v>
       </c>
       <c r="H77" s="39" t="n">
-        <v>17.2</v>
+        <v>47.7</v>
       </c>
       <c r="I77" s="39" t="n">
-        <v>60.8</v>
+        <v>69</v>
       </c>
       <c r="J77" s="39" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K77" s="39" t="n">
-        <v>83.7</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="L77" s="39" t="n">
-        <v>60.2</v>
+        <v>52.7</v>
       </c>
       <c r="M77" s="39" t="n">
+        <v>21</v>
+      </c>
+      <c r="N77" s="39" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="O77" s="39" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="P77" s="39" t="n">
+        <v>84.2</v>
+      </c>
+      <c r="Q77" s="39" t="n">
+        <v>71.3</v>
+      </c>
+      <c r="R77" s="39" t="n">
+        <v>85.09999999999999</v>
+      </c>
+      <c r="S77" s="39" t="n">
+        <v>64.40000000000001</v>
+      </c>
+      <c r="T77" s="39" t="n">
         <v>32.7</v>
       </c>
-      <c r="N77" s="39" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="O77" s="39" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="P77" s="39" t="n">
-        <v>86.2</v>
-      </c>
-      <c r="Q77" s="39" t="n">
-        <v>94.40000000000001</v>
-      </c>
-      <c r="R77" s="39" t="n">
-        <v>51.4</v>
-      </c>
-      <c r="S77" s="39" t="n">
-        <v>72.7</v>
-      </c>
-      <c r="T77" s="39" t="n">
-        <v>38.7</v>
-      </c>
       <c r="U77" s="39" t="n">
-        <v>38.7</v>
+        <v>13.2</v>
       </c>
       <c r="V77" s="39" t="n">
-        <v>72.7</v>
+        <v>13.2</v>
       </c>
       <c r="W77" s="39" t="n">
-        <v>90.7</v>
+        <v>13.2</v>
       </c>
       <c r="X77" s="39" t="n">
         <v>96</v>
       </c>
       <c r="Y77" s="39" t="inlineStr">
         <is>
-          <t>创新药ETF</t>
+          <t>稀有金属ETF</t>
         </is>
       </c>
     </row>
@@ -18280,79 +18280,79 @@
         <v>76</v>
       </c>
       <c r="B78" s="39" t="n">
-        <v>159732</v>
+        <v>588000</v>
       </c>
       <c r="C78" s="39" t="inlineStr">
         <is>
-          <t>消费电子ETF</t>
+          <t>科创50ETF</t>
         </is>
       </c>
       <c r="D78" s="39" t="n">
-        <v>15.86</v>
+        <v>782.59</v>
       </c>
       <c r="E78" s="39" t="n">
-        <v>1.5</v>
+        <v>9</v>
       </c>
       <c r="F78" s="39" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="G78" s="39" t="n">
-        <v>0.2</v>
+        <v>24.1</v>
       </c>
       <c r="H78" s="39" t="n">
-        <v>24.4</v>
+        <v>66.2</v>
       </c>
       <c r="I78" s="39" t="n">
-        <v>61.7</v>
+        <v>75.3</v>
       </c>
       <c r="J78" s="39" t="n">
-        <v>80.7</v>
+        <v>85.8</v>
       </c>
       <c r="K78" s="39" t="n">
-        <v>82.09999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="L78" s="39" t="n">
-        <v>54.8</v>
+        <v>49</v>
       </c>
       <c r="M78" s="39" t="n">
-        <v>29.6</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="N78" s="39" t="n">
-        <v>29.6</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="O78" s="39" t="n">
-        <v>68.40000000000001</v>
+        <v>40</v>
       </c>
       <c r="P78" s="39" t="n">
-        <v>90.09999999999999</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="Q78" s="39" t="n">
-        <v>37.9</v>
+        <v>53.1</v>
       </c>
       <c r="R78" s="39" t="n">
-        <v>71.2</v>
+        <v>36.3</v>
       </c>
       <c r="S78" s="39" t="n">
-        <v>41.5</v>
+        <v>11</v>
       </c>
       <c r="T78" s="39" t="n">
-        <v>55.5</v>
+        <v>29</v>
       </c>
       <c r="U78" s="39" t="n">
-        <v>30.9</v>
+        <v>18</v>
       </c>
       <c r="V78" s="39" t="n">
-        <v>66.5</v>
+        <v>45.5</v>
       </c>
       <c r="W78" s="39" t="n">
-        <v>89.59999999999999</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="X78" s="39" t="n">
-        <v>96.2</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="Y78" s="39" t="inlineStr">
         <is>
-          <t>消费电子ETF</t>
+          <t>科创50ETF</t>
         </is>
       </c>
     </row>
@@ -18361,79 +18361,79 @@
         <v>77</v>
       </c>
       <c r="B79" s="39" t="n">
-        <v>562800</v>
+        <v>159732</v>
       </c>
       <c r="C79" s="39" t="inlineStr">
         <is>
-          <t>稀有金属ETF</t>
+          <t>消费电子ETF</t>
         </is>
       </c>
       <c r="D79" s="39" t="n">
-        <v>9.1</v>
+        <v>15.88</v>
       </c>
       <c r="E79" s="39" t="n">
-        <v>16</v>
+        <v>1.5</v>
       </c>
       <c r="F79" s="39" t="n">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
       <c r="G79" s="39" t="n">
-        <v>20.4</v>
+        <v>0.2</v>
       </c>
       <c r="H79" s="39" t="n">
-        <v>47.7</v>
+        <v>24.4</v>
       </c>
       <c r="I79" s="39" t="n">
-        <v>69</v>
+        <v>61.7</v>
       </c>
       <c r="J79" s="39" t="n">
-        <v>69</v>
+        <v>80.7</v>
       </c>
       <c r="K79" s="39" t="n">
-        <v>84.59999999999999</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="L79" s="39" t="n">
-        <v>52.7</v>
+        <v>54.8</v>
       </c>
       <c r="M79" s="39" t="n">
-        <v>21</v>
+        <v>29.6</v>
       </c>
       <c r="N79" s="39" t="n">
-        <v>17.5</v>
+        <v>29.6</v>
       </c>
       <c r="O79" s="39" t="n">
-        <v>13.1</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="P79" s="39" t="n">
-        <v>84.2</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="Q79" s="39" t="n">
-        <v>71.3</v>
+        <v>37.9</v>
       </c>
       <c r="R79" s="39" t="n">
-        <v>85.09999999999999</v>
+        <v>71.2</v>
       </c>
       <c r="S79" s="39" t="n">
-        <v>64.40000000000001</v>
+        <v>41.5</v>
       </c>
       <c r="T79" s="39" t="n">
-        <v>32.7</v>
+        <v>55.5</v>
       </c>
       <c r="U79" s="39" t="n">
-        <v>13.2</v>
+        <v>30.9</v>
       </c>
       <c r="V79" s="39" t="n">
-        <v>13.2</v>
+        <v>66.5</v>
       </c>
       <c r="W79" s="39" t="n">
-        <v>13.2</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="X79" s="39" t="n">
-        <v>96.3</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="Y79" s="39" t="inlineStr">
         <is>
-          <t>稀有金属ETF</t>
+          <t>消费电子ETF</t>
         </is>
       </c>
     </row>
@@ -18450,7 +18450,7 @@
         </is>
       </c>
       <c r="D80" s="39" t="n">
-        <v>248.26</v>
+        <v>248.57</v>
       </c>
       <c r="E80" s="39" t="n">
         <v>11.8</v>
@@ -18510,7 +18510,7 @@
         <v>92.40000000000001</v>
       </c>
       <c r="X80" s="39" t="n">
-        <v>96.3</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="Y80" s="39" t="inlineStr">
         <is>
@@ -18523,79 +18523,79 @@
         <v>79</v>
       </c>
       <c r="B81" s="39" t="n">
-        <v>515980</v>
+        <v>510500</v>
       </c>
       <c r="C81" s="39" t="inlineStr">
         <is>
-          <t>人工智能ETF</t>
+          <t>中证500ETF</t>
         </is>
       </c>
       <c r="D81" s="39" t="n">
-        <v>34.93</v>
+        <v>1111.65</v>
       </c>
       <c r="E81" s="39" t="n">
-        <v>5</v>
+        <v>16.4</v>
       </c>
       <c r="F81" s="39" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G81" s="39" t="n">
-        <v>0.3</v>
+        <v>10.8</v>
       </c>
       <c r="H81" s="39" t="n">
-        <v>42</v>
+        <v>47.3</v>
       </c>
       <c r="I81" s="39" t="n">
-        <v>62.1</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="J81" s="39" t="n">
-        <v>76.59999999999999</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="K81" s="39" t="n">
-        <v>82.8</v>
+        <v>85.2</v>
       </c>
       <c r="L81" s="39" t="n">
-        <v>54.1</v>
+        <v>62.2</v>
       </c>
       <c r="M81" s="39" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N81" s="39" t="n">
-        <v>57.9</v>
+        <v>33.4</v>
       </c>
       <c r="O81" s="39" t="n">
-        <v>66.40000000000001</v>
+        <v>38.4</v>
       </c>
       <c r="P81" s="39" t="n">
-        <v>92.8</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="Q81" s="39" t="n">
-        <v>43.5</v>
+        <v>69.5</v>
       </c>
       <c r="R81" s="39" t="n">
-        <v>72.59999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="S81" s="39" t="n">
-        <v>28.1</v>
+        <v>37.1</v>
       </c>
       <c r="T81" s="39" t="n">
-        <v>57.1</v>
+        <v>63.5</v>
       </c>
       <c r="U81" s="39" t="n">
-        <v>41.8</v>
+        <v>26.9</v>
       </c>
       <c r="V81" s="39" t="n">
-        <v>64.59999999999999</v>
+        <v>35.5</v>
       </c>
       <c r="W81" s="39" t="n">
-        <v>91.40000000000001</v>
+        <v>79.8</v>
       </c>
       <c r="X81" s="39" t="n">
         <v>96.59999999999999</v>
       </c>
       <c r="Y81" s="39" t="inlineStr">
         <is>
-          <t>人工智能ETF</t>
+          <t>中证500ETF</t>
         </is>
       </c>
     </row>
@@ -18604,79 +18604,79 @@
         <v>80</v>
       </c>
       <c r="B82" s="39" t="n">
-        <v>159792</v>
+        <v>515230</v>
       </c>
       <c r="C82" s="39" t="inlineStr">
         <is>
-          <t>港股通互联网ETF</t>
+          <t>软件ETF</t>
         </is>
       </c>
       <c r="D82" s="39" t="n">
-        <v>494.19</v>
+        <v>13.53</v>
       </c>
       <c r="E82" s="39" t="n">
-        <v>9.1</v>
+        <v>28</v>
       </c>
       <c r="F82" s="39" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="G82" s="39" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H82" s="39" t="n">
-        <v>35.1</v>
+        <v>53.7</v>
       </c>
       <c r="I82" s="39" t="n">
-        <v>66.90000000000001</v>
+        <v>63.7</v>
       </c>
       <c r="J82" s="39" t="n">
-        <v>72.5</v>
+        <v>75.7</v>
       </c>
       <c r="K82" s="39" t="n">
-        <v>76.5</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="L82" s="39" t="n">
-        <v>64.09999999999999</v>
+        <v>34.8</v>
       </c>
       <c r="M82" s="39" t="n">
-        <v>11.6</v>
+        <v>17.4</v>
       </c>
       <c r="N82" s="39" t="n">
-        <v>34.6</v>
+        <v>61.1</v>
       </c>
       <c r="O82" s="39" t="n">
-        <v>29.5</v>
+        <v>61.1</v>
       </c>
       <c r="P82" s="39" t="n">
-        <v>65.3</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="Q82" s="39" t="n">
-        <v>85.90000000000001</v>
+        <v>51.2</v>
       </c>
       <c r="R82" s="39" t="n">
-        <v>96.7</v>
+        <v>59.3</v>
       </c>
       <c r="S82" s="39" t="n">
+        <v>17</v>
+      </c>
+      <c r="T82" s="39" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="U82" s="39" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="V82" s="39" t="n">
         <v>56.4</v>
       </c>
-      <c r="T82" s="39" t="n">
-        <v>71.2</v>
-      </c>
-      <c r="U82" s="39" t="n">
-        <v>77</v>
-      </c>
-      <c r="V82" s="39" t="n">
-        <v>50</v>
-      </c>
       <c r="W82" s="39" t="n">
-        <v>89.3</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="X82" s="39" t="n">
         <v>96.59999999999999</v>
       </c>
       <c r="Y82" s="39" t="inlineStr">
         <is>
-          <t>港股通互联网ETF</t>
+          <t>软件ETF</t>
         </is>
       </c>
     </row>
@@ -18685,79 +18685,79 @@
         <v>81</v>
       </c>
       <c r="B83" s="39" t="n">
-        <v>510500</v>
+        <v>513180</v>
       </c>
       <c r="C83" s="39" t="inlineStr">
         <is>
-          <t>中证500ETF</t>
+          <t>恒生科技指数ETF</t>
         </is>
       </c>
       <c r="D83" s="39" t="n">
-        <v>1111.26</v>
+        <v>276.97</v>
       </c>
       <c r="E83" s="39" t="n">
-        <v>16.4</v>
+        <v>11</v>
       </c>
       <c r="F83" s="39" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="G83" s="39" t="n">
-        <v>10.8</v>
+        <v>0.8</v>
       </c>
       <c r="H83" s="39" t="n">
-        <v>47.3</v>
+        <v>31.7</v>
       </c>
       <c r="I83" s="39" t="n">
-        <v>70.09999999999999</v>
+        <v>64</v>
       </c>
       <c r="J83" s="39" t="n">
-        <v>77.09999999999999</v>
+        <v>76.5</v>
       </c>
       <c r="K83" s="39" t="n">
-        <v>85.2</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="L83" s="39" t="n">
-        <v>62.2</v>
+        <v>64.3</v>
       </c>
       <c r="M83" s="39" t="n">
-        <v>29</v>
+        <v>19.4</v>
       </c>
       <c r="N83" s="39" t="n">
-        <v>33.4</v>
+        <v>45.9</v>
       </c>
       <c r="O83" s="39" t="n">
-        <v>38.4</v>
+        <v>31.2</v>
       </c>
       <c r="P83" s="39" t="n">
-        <v>91.40000000000001</v>
+        <v>63.7</v>
       </c>
       <c r="Q83" s="39" t="n">
-        <v>69.5</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="R83" s="39" t="n">
-        <v>77.5</v>
+        <v>94.8</v>
       </c>
       <c r="S83" s="39" t="n">
-        <v>37.1</v>
+        <v>45.4</v>
       </c>
       <c r="T83" s="39" t="n">
-        <v>63.5</v>
+        <v>65.8</v>
       </c>
       <c r="U83" s="39" t="n">
-        <v>26.9</v>
+        <v>60.1</v>
       </c>
       <c r="V83" s="39" t="n">
-        <v>35.5</v>
+        <v>51.4</v>
       </c>
       <c r="W83" s="39" t="n">
-        <v>79.8</v>
+        <v>84</v>
       </c>
       <c r="X83" s="39" t="n">
         <v>96.59999999999999</v>
       </c>
       <c r="Y83" s="39" t="inlineStr">
         <is>
-          <t>中证500ETF</t>
+          <t>恒生科技指数ETF</t>
         </is>
       </c>
     </row>
@@ -18766,79 +18766,79 @@
         <v>82</v>
       </c>
       <c r="B84" s="39" t="n">
-        <v>513180</v>
+        <v>159792</v>
       </c>
       <c r="C84" s="39" t="inlineStr">
         <is>
-          <t>恒生科技指数ETF</t>
+          <t>港股通互联网ETF</t>
         </is>
       </c>
       <c r="D84" s="39" t="n">
-        <v>277.35</v>
+        <v>494.19</v>
       </c>
       <c r="E84" s="39" t="n">
-        <v>11</v>
+        <v>9.1</v>
       </c>
       <c r="F84" s="39" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="G84" s="39" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H84" s="39" t="n">
-        <v>31.7</v>
+        <v>35.1</v>
       </c>
       <c r="I84" s="39" t="n">
-        <v>64</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="J84" s="39" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="K84" s="39" t="n">
         <v>76.5</v>
       </c>
-      <c r="K84" s="39" t="n">
-        <v>83.59999999999999</v>
-      </c>
       <c r="L84" s="39" t="n">
-        <v>64.3</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="M84" s="39" t="n">
-        <v>19.4</v>
+        <v>11.6</v>
       </c>
       <c r="N84" s="39" t="n">
-        <v>45.9</v>
+        <v>34.6</v>
       </c>
       <c r="O84" s="39" t="n">
-        <v>31.2</v>
+        <v>29.5</v>
       </c>
       <c r="P84" s="39" t="n">
-        <v>63.7</v>
+        <v>65.3</v>
       </c>
       <c r="Q84" s="39" t="n">
-        <v>71.40000000000001</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="R84" s="39" t="n">
-        <v>94.8</v>
+        <v>96.7</v>
       </c>
       <c r="S84" s="39" t="n">
-        <v>45.4</v>
+        <v>56.4</v>
       </c>
       <c r="T84" s="39" t="n">
-        <v>65.8</v>
+        <v>71.2</v>
       </c>
       <c r="U84" s="39" t="n">
-        <v>60.1</v>
+        <v>77</v>
       </c>
       <c r="V84" s="39" t="n">
-        <v>51.4</v>
+        <v>50</v>
       </c>
       <c r="W84" s="39" t="n">
-        <v>84</v>
+        <v>89.3</v>
       </c>
       <c r="X84" s="39" t="n">
-        <v>96.7</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="Y84" s="39" t="inlineStr">
         <is>
-          <t>恒生科技指数ETF</t>
+          <t>港股通互联网ETF</t>
         </is>
       </c>
     </row>
@@ -18847,79 +18847,79 @@
         <v>83</v>
       </c>
       <c r="B85" s="39" t="n">
-        <v>515230</v>
+        <v>159998</v>
       </c>
       <c r="C85" s="39" t="inlineStr">
         <is>
-          <t>软件ETF</t>
+          <t>计算机ETF</t>
         </is>
       </c>
       <c r="D85" s="39" t="n">
-        <v>13.56</v>
+        <v>30.41</v>
       </c>
       <c r="E85" s="39" t="n">
-        <v>28</v>
+        <v>14.4</v>
       </c>
       <c r="F85" s="39" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="G85" s="39" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H85" s="39" t="n">
-        <v>53.7</v>
+        <v>57.8</v>
       </c>
       <c r="I85" s="39" t="n">
-        <v>63.7</v>
+        <v>67</v>
       </c>
       <c r="J85" s="39" t="n">
-        <v>75.7</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="K85" s="39" t="n">
-        <v>79.09999999999999</v>
+        <v>81.3</v>
       </c>
       <c r="L85" s="39" t="n">
-        <v>34.8</v>
+        <v>46.7</v>
       </c>
       <c r="M85" s="39" t="n">
-        <v>17.4</v>
+        <v>20.5</v>
       </c>
       <c r="N85" s="39" t="n">
-        <v>61.1</v>
+        <v>36.4</v>
       </c>
       <c r="O85" s="39" t="n">
-        <v>61.1</v>
+        <v>30.3</v>
       </c>
       <c r="P85" s="39" t="n">
-        <v>92.59999999999999</v>
+        <v>90.5</v>
       </c>
       <c r="Q85" s="39" t="n">
-        <v>51.2</v>
+        <v>41.5</v>
       </c>
       <c r="R85" s="39" t="n">
-        <v>59.3</v>
+        <v>58.7</v>
       </c>
       <c r="S85" s="39" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="T85" s="39" t="n">
-        <v>55.3</v>
+        <v>47.2</v>
       </c>
       <c r="U85" s="39" t="n">
-        <v>34.2</v>
+        <v>34.7</v>
       </c>
       <c r="V85" s="39" t="n">
-        <v>56.4</v>
+        <v>60.7</v>
       </c>
       <c r="W85" s="39" t="n">
-        <v>90.40000000000001</v>
+        <v>90.2</v>
       </c>
       <c r="X85" s="39" t="n">
         <v>96.7</v>
       </c>
       <c r="Y85" s="39" t="inlineStr">
         <is>
-          <t>软件ETF</t>
+          <t>计算机ETF</t>
         </is>
       </c>
     </row>
@@ -18928,79 +18928,79 @@
         <v>84</v>
       </c>
       <c r="B86" s="39" t="n">
-        <v>159998</v>
+        <v>515980</v>
       </c>
       <c r="C86" s="39" t="inlineStr">
         <is>
-          <t>计算机ETF</t>
+          <t>人工智能ETF</t>
         </is>
       </c>
       <c r="D86" s="39" t="n">
-        <v>30.45</v>
+        <v>34.96</v>
       </c>
       <c r="E86" s="39" t="n">
-        <v>14.4</v>
+        <v>5</v>
       </c>
       <c r="F86" s="39" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="G86" s="39" t="n">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
       <c r="H86" s="39" t="n">
-        <v>57.8</v>
+        <v>42</v>
       </c>
       <c r="I86" s="39" t="n">
-        <v>67</v>
+        <v>62.1</v>
       </c>
       <c r="J86" s="39" t="n">
-        <v>78.59999999999999</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="K86" s="39" t="n">
-        <v>81.3</v>
+        <v>82.8</v>
       </c>
       <c r="L86" s="39" t="n">
-        <v>46.7</v>
+        <v>54.1</v>
       </c>
       <c r="M86" s="39" t="n">
-        <v>20.5</v>
+        <v>32</v>
       </c>
       <c r="N86" s="39" t="n">
-        <v>36.4</v>
+        <v>57.9</v>
       </c>
       <c r="O86" s="39" t="n">
-        <v>30.3</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="P86" s="39" t="n">
-        <v>90.5</v>
+        <v>92.8</v>
       </c>
       <c r="Q86" s="39" t="n">
-        <v>41.5</v>
+        <v>43.5</v>
       </c>
       <c r="R86" s="39" t="n">
-        <v>58.7</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="S86" s="39" t="n">
-        <v>17.5</v>
+        <v>28.1</v>
       </c>
       <c r="T86" s="39" t="n">
-        <v>47.2</v>
+        <v>57.1</v>
       </c>
       <c r="U86" s="39" t="n">
-        <v>34.7</v>
+        <v>41.8</v>
       </c>
       <c r="V86" s="39" t="n">
-        <v>60.7</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="W86" s="39" t="n">
-        <v>90.2</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="X86" s="39" t="n">
-        <v>96.8</v>
+        <v>96.7</v>
       </c>
       <c r="Y86" s="39" t="inlineStr">
         <is>
-          <t>计算机ETF</t>
+          <t>人工智能ETF</t>
         </is>
       </c>
     </row>
@@ -19017,7 +19017,7 @@
         </is>
       </c>
       <c r="D87" s="39" t="n">
-        <v>214.85</v>
+        <v>215.25</v>
       </c>
       <c r="E87" s="39" t="n">
         <v>8.199999999999999</v>
@@ -19077,7 +19077,7 @@
         <v>93.2</v>
       </c>
       <c r="X87" s="39" t="n">
-        <v>97.2</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="Y87" s="39" t="inlineStr">
         <is>
@@ -19098,7 +19098,7 @@
         </is>
       </c>
       <c r="D88" s="39" t="n">
-        <v>243.43</v>
+        <v>244.01</v>
       </c>
       <c r="E88" s="39" t="n">
         <v>53.1</v>
@@ -19158,7 +19158,7 @@
         <v>92.7</v>
       </c>
       <c r="X88" s="39" t="n">
-        <v>97.40000000000001</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="Y88" s="39" t="inlineStr">
         <is>
@@ -19262,7 +19262,7 @@
         </is>
       </c>
       <c r="D90" s="39" t="n">
-        <v>69.69</v>
+        <v>69.81999999999999</v>
       </c>
       <c r="E90" s="39" t="n">
         <v>40.4</v>
@@ -19322,7 +19322,7 @@
         <v>92</v>
       </c>
       <c r="X90" s="39" t="n">
-        <v>97.90000000000001</v>
+        <v>98</v>
       </c>
       <c r="Y90" s="39" t="inlineStr">
         <is>
@@ -19335,79 +19335,79 @@
         <v>89</v>
       </c>
       <c r="B91" s="39" t="n">
-        <v>159996</v>
+        <v>560800</v>
       </c>
       <c r="C91" s="39" t="inlineStr">
         <is>
-          <t>家电ETF</t>
+          <t>数字经济ETF</t>
         </is>
       </c>
       <c r="D91" s="39" t="n">
-        <v>15.2</v>
+        <v>7.64</v>
       </c>
       <c r="E91" s="39" t="n">
-        <v>6.5</v>
+        <v>55.3</v>
       </c>
       <c r="F91" s="39" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="G91" s="39" t="n">
-        <v>1</v>
+        <v>14.9</v>
       </c>
       <c r="H91" s="39" t="n">
-        <v>22.2</v>
+        <v>61.5</v>
       </c>
       <c r="I91" s="39" t="n">
-        <v>70</v>
+        <v>71.8</v>
       </c>
       <c r="J91" s="39" t="n">
-        <v>71.7</v>
+        <v>85.5</v>
       </c>
       <c r="K91" s="39" t="n">
-        <v>51.4</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="L91" s="39" t="n">
-        <v>71.90000000000001</v>
+        <v>44</v>
       </c>
       <c r="M91" s="39" t="n">
-        <v>27.7</v>
+        <v>61.1</v>
       </c>
       <c r="N91" s="39" t="n">
-        <v>27.7</v>
+        <v>53</v>
       </c>
       <c r="O91" s="39" t="n">
-        <v>61.3</v>
+        <v>41.9</v>
       </c>
       <c r="P91" s="39" t="n">
-        <v>89.8</v>
+        <v>88.8</v>
       </c>
       <c r="Q91" s="39" t="n">
-        <v>72.09999999999999</v>
+        <v>38.8</v>
       </c>
       <c r="R91" s="39" t="n">
-        <v>90.2</v>
+        <v>52.2</v>
       </c>
       <c r="S91" s="39" t="n">
-        <v>70.59999999999999</v>
+        <v>16.3</v>
       </c>
       <c r="T91" s="39" t="n">
-        <v>81.40000000000001</v>
+        <v>26.4</v>
       </c>
       <c r="U91" s="39" t="n">
-        <v>52.5</v>
+        <v>40.8</v>
       </c>
       <c r="V91" s="39" t="n">
-        <v>78.2</v>
+        <v>76.8</v>
       </c>
       <c r="W91" s="39" t="n">
-        <v>93.59999999999999</v>
+        <v>94.7</v>
       </c>
       <c r="X91" s="39" t="n">
         <v>98.09999999999999</v>
       </c>
       <c r="Y91" s="39" t="inlineStr">
         <is>
-          <t>家电ETF</t>
+          <t>数字经济ETF</t>
         </is>
       </c>
     </row>
@@ -19424,7 +19424,7 @@
         </is>
       </c>
       <c r="D92" s="39" t="n">
-        <v>247.22</v>
+        <v>247.74</v>
       </c>
       <c r="E92" s="39" t="n">
         <v>22.1</v>
@@ -19484,7 +19484,7 @@
         <v>91.5</v>
       </c>
       <c r="X92" s="39" t="n">
-        <v>98.09999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="Y92" s="39" t="inlineStr">
         <is>
@@ -19496,80 +19496,82 @@
       <c r="A93" s="39" t="n">
         <v>91</v>
       </c>
-      <c r="B93" s="39" t="n">
-        <v>512980</v>
+      <c r="B93" s="39" t="inlineStr">
+        <is>
+          <t>511880</t>
+        </is>
       </c>
       <c r="C93" s="39" t="inlineStr">
         <is>
-          <t>传媒ETF</t>
+          <t>银华日利ETF</t>
         </is>
       </c>
       <c r="D93" s="39" t="n">
-        <v>27.59</v>
+        <v>745.58</v>
       </c>
       <c r="E93" s="39" t="n">
-        <v>49.8</v>
+        <v>95.2</v>
       </c>
       <c r="F93" s="39" t="n">
-        <v>1.9</v>
+        <v>45</v>
       </c>
       <c r="G93" s="39" t="n">
-        <v>1.8</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="H93" s="39" t="n">
-        <v>45.9</v>
+        <v>82.3</v>
       </c>
       <c r="I93" s="39" t="n">
-        <v>74.09999999999999</v>
+        <v>87.8</v>
       </c>
       <c r="J93" s="39" t="n">
-        <v>65.2</v>
+        <v>95</v>
       </c>
       <c r="K93" s="39" t="n">
-        <v>78.8</v>
+        <v>97.7</v>
       </c>
       <c r="L93" s="39" t="n">
-        <v>84.7</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="M93" s="39" t="n">
-        <v>59.6</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="N93" s="39" t="n">
-        <v>33.3</v>
+        <v>61</v>
       </c>
       <c r="O93" s="39" t="n">
-        <v>75.90000000000001</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="P93" s="39" t="n">
-        <v>93.2</v>
+        <v>55.9</v>
       </c>
       <c r="Q93" s="39" t="n">
-        <v>51.5</v>
+        <v>79</v>
       </c>
       <c r="R93" s="39" t="n">
-        <v>39.7</v>
+        <v>79</v>
       </c>
       <c r="S93" s="39" t="n">
-        <v>13.3</v>
+        <v>94.7</v>
       </c>
       <c r="T93" s="39" t="n">
-        <v>33.7</v>
+        <v>97.7</v>
       </c>
       <c r="U93" s="39" t="n">
-        <v>33.7</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="V93" s="39" t="n">
-        <v>83.90000000000001</v>
+        <v>81.3</v>
       </c>
       <c r="W93" s="39" t="n">
-        <v>93.2</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="X93" s="39" t="n">
-        <v>98.09999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="Y93" s="39" t="inlineStr">
         <is>
-          <t>传媒ETF</t>
+          <t>银华日利ETF</t>
         </is>
       </c>
     </row>
@@ -19578,79 +19580,79 @@
         <v>92</v>
       </c>
       <c r="B94" s="39" t="n">
-        <v>560800</v>
+        <v>159996</v>
       </c>
       <c r="C94" s="39" t="inlineStr">
         <is>
-          <t>数字经济ETF</t>
+          <t>家电ETF</t>
         </is>
       </c>
       <c r="D94" s="39" t="n">
-        <v>7.65</v>
+        <v>15.21</v>
       </c>
       <c r="E94" s="39" t="n">
-        <v>55.3</v>
+        <v>6.5</v>
       </c>
       <c r="F94" s="39" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="G94" s="39" t="n">
-        <v>14.9</v>
+        <v>1</v>
       </c>
       <c r="H94" s="39" t="n">
-        <v>61.5</v>
+        <v>22.2</v>
       </c>
       <c r="I94" s="39" t="n">
-        <v>71.8</v>
+        <v>70</v>
       </c>
       <c r="J94" s="39" t="n">
-        <v>85.5</v>
+        <v>71.7</v>
       </c>
       <c r="K94" s="39" t="n">
-        <v>87.09999999999999</v>
+        <v>51.4</v>
       </c>
       <c r="L94" s="39" t="n">
-        <v>44</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="M94" s="39" t="n">
-        <v>61.1</v>
+        <v>27.7</v>
       </c>
       <c r="N94" s="39" t="n">
-        <v>53</v>
+        <v>27.7</v>
       </c>
       <c r="O94" s="39" t="n">
-        <v>41.9</v>
+        <v>61.3</v>
       </c>
       <c r="P94" s="39" t="n">
-        <v>88.8</v>
+        <v>89.8</v>
       </c>
       <c r="Q94" s="39" t="n">
-        <v>38.8</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="R94" s="39" t="n">
-        <v>52.2</v>
+        <v>90.2</v>
       </c>
       <c r="S94" s="39" t="n">
-        <v>16.3</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="T94" s="39" t="n">
-        <v>26.4</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="U94" s="39" t="n">
-        <v>40.8</v>
+        <v>52.5</v>
       </c>
       <c r="V94" s="39" t="n">
-        <v>76.8</v>
+        <v>78.2</v>
       </c>
       <c r="W94" s="39" t="n">
-        <v>94.7</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="X94" s="39" t="n">
-        <v>98.2</v>
+        <v>98.3</v>
       </c>
       <c r="Y94" s="39" t="inlineStr">
         <is>
-          <t>数字经济ETF</t>
+          <t>家电ETF</t>
         </is>
       </c>
     </row>
@@ -19658,82 +19660,80 @@
       <c r="A95" s="39" t="n">
         <v>93</v>
       </c>
-      <c r="B95" s="39" t="inlineStr">
-        <is>
-          <t>511880</t>
-        </is>
+      <c r="B95" s="39" t="n">
+        <v>512980</v>
       </c>
       <c r="C95" s="39" t="inlineStr">
         <is>
-          <t>银华日利ETF</t>
+          <t>传媒ETF</t>
         </is>
       </c>
       <c r="D95" s="39" t="n">
-        <v>745.5700000000001</v>
+        <v>27.72</v>
       </c>
       <c r="E95" s="39" t="n">
-        <v>95.2</v>
+        <v>49.8</v>
       </c>
       <c r="F95" s="39" t="n">
-        <v>45</v>
+        <v>1.9</v>
       </c>
       <c r="G95" s="39" t="n">
-        <v>71.59999999999999</v>
+        <v>1.8</v>
       </c>
       <c r="H95" s="39" t="n">
-        <v>82.3</v>
+        <v>45.9</v>
       </c>
       <c r="I95" s="39" t="n">
-        <v>87.8</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="J95" s="39" t="n">
-        <v>95</v>
+        <v>65.2</v>
       </c>
       <c r="K95" s="39" t="n">
-        <v>97.7</v>
+        <v>78.8</v>
       </c>
       <c r="L95" s="39" t="n">
-        <v>99.09999999999999</v>
+        <v>84.7</v>
       </c>
       <c r="M95" s="39" t="n">
-        <v>99.40000000000001</v>
+        <v>59.6</v>
       </c>
       <c r="N95" s="39" t="n">
-        <v>61</v>
+        <v>33.3</v>
       </c>
       <c r="O95" s="39" t="n">
-        <v>83.40000000000001</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="P95" s="39" t="n">
-        <v>55.9</v>
+        <v>93.2</v>
       </c>
       <c r="Q95" s="39" t="n">
-        <v>79</v>
+        <v>51.5</v>
       </c>
       <c r="R95" s="39" t="n">
-        <v>79</v>
+        <v>39.7</v>
       </c>
       <c r="S95" s="39" t="n">
-        <v>94.7</v>
+        <v>13.3</v>
       </c>
       <c r="T95" s="39" t="n">
-        <v>97.7</v>
+        <v>33.7</v>
       </c>
       <c r="U95" s="39" t="n">
-        <v>71.09999999999999</v>
+        <v>33.7</v>
       </c>
       <c r="V95" s="39" t="n">
-        <v>81.3</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="W95" s="39" t="n">
-        <v>98.09999999999999</v>
+        <v>93.2</v>
       </c>
       <c r="X95" s="39" t="n">
-        <v>98.2</v>
+        <v>98.3</v>
       </c>
       <c r="Y95" s="39" t="inlineStr">
         <is>
-          <t>银华日利ETF</t>
+          <t>传媒ETF</t>
         </is>
       </c>
     </row>
@@ -19810,7 +19810,7 @@
         <v>95.09999999999999</v>
       </c>
       <c r="X96" s="39" t="n">
-        <v>98.40000000000001</v>
+        <v>98.5</v>
       </c>
       <c r="Y96" s="39" t="inlineStr">
         <is>
@@ -19831,7 +19831,7 @@
         </is>
       </c>
       <c r="D97" s="39" t="n">
-        <v>2.88</v>
+        <v>2.89</v>
       </c>
       <c r="E97" s="39" t="n">
         <v>7.3</v>
@@ -19891,7 +19891,7 @@
         <v>95.3</v>
       </c>
       <c r="X97" s="39" t="n">
-        <v>98.5</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="Y97" s="39" t="inlineStr">
         <is>
@@ -19912,7 +19912,7 @@
         </is>
       </c>
       <c r="D98" s="39" t="n">
-        <v>9.07</v>
+        <v>9.08</v>
       </c>
       <c r="E98" s="39" t="n">
         <v>30.4</v>
@@ -19993,7 +19993,7 @@
         </is>
       </c>
       <c r="D99" s="39" t="n">
-        <v>8.85</v>
+        <v>8.84</v>
       </c>
       <c r="E99" s="39" t="n">
         <v>15.7</v>
@@ -20074,7 +20074,7 @@
         </is>
       </c>
       <c r="D100" s="39" t="n">
-        <v>13.37</v>
+        <v>13.4</v>
       </c>
       <c r="E100" s="39" t="n">
         <v>13.6</v>
@@ -20134,7 +20134,7 @@
         <v>98.5</v>
       </c>
       <c r="X100" s="39" t="n">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="Y100" s="39" t="inlineStr">
         <is>

--- a/fund_list.xlsx
+++ b/fund_list.xlsx
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="D2" s="39" t="n">
-        <v>4096.94</v>
+        <v>4916.61</v>
       </c>
       <c r="E2" s="41" t="n">
         <v>-0.24</v>
@@ -1602,7 +1602,7 @@
         <v>-0.23</v>
       </c>
       <c r="X2" s="42" t="n">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="Y2" s="39" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         </is>
       </c>
       <c r="D3" s="39" t="n">
-        <v>203.79</v>
+        <v>245.97</v>
       </c>
       <c r="E3" s="41" t="n">
         <v>-0.46</v>
@@ -1685,7 +1685,7 @@
         <v>0.85</v>
       </c>
       <c r="X3" s="44" t="n">
-        <v>1.42</v>
+        <v>1.21</v>
       </c>
       <c r="Y3" s="39" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="D4" s="39" t="n">
-        <v>5780.83</v>
+        <v>6917.3</v>
       </c>
       <c r="E4" s="43" t="n">
         <v>-1.4</v>
@@ -1768,7 +1768,7 @@
         <v>0.51</v>
       </c>
       <c r="X4" s="42" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="Y4" s="39" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         </is>
       </c>
       <c r="D5" s="39" t="n">
-        <v>2669.88</v>
+        <v>3191.96</v>
       </c>
       <c r="E5" s="43" t="n">
         <v>-1.86</v>
@@ -1851,7 +1851,7 @@
         <v>0.83</v>
       </c>
       <c r="X5" s="42" t="n">
-        <v>1.92</v>
+        <v>1.71</v>
       </c>
       <c r="Y5" s="39" t="inlineStr">
         <is>
@@ -1874,7 +1874,7 @@
         </is>
       </c>
       <c r="D6" s="39" t="n">
-        <v>512.5599999999999</v>
+        <v>618.45</v>
       </c>
       <c r="E6" s="41" t="n">
         <v>0.14</v>
@@ -1933,8 +1933,8 @@
       <c r="W6" s="40" t="n">
         <v>-0.47</v>
       </c>
-      <c r="X6" s="42" t="n">
-        <v>0.52</v>
+      <c r="X6" s="40" t="n">
+        <v>0.44</v>
       </c>
       <c r="Y6" s="39" t="inlineStr">
         <is>
@@ -1957,7 +1957,7 @@
         </is>
       </c>
       <c r="D7" s="39" t="n">
-        <v>1955.94</v>
+        <v>2363.39</v>
       </c>
       <c r="E7" s="43" t="n">
         <v>-0.59</v>
@@ -2017,7 +2017,7 @@
         <v>-0.12</v>
       </c>
       <c r="X7" s="42" t="n">
-        <v>0.98</v>
+        <v>0.86</v>
       </c>
       <c r="Y7" s="39" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         </is>
       </c>
       <c r="D8" s="39" t="n">
-        <v>1614.87</v>
+        <v>1931.87</v>
       </c>
       <c r="E8" s="40" t="n">
         <v>-0.91</v>
@@ -2100,7 +2100,7 @@
         <v>0.48</v>
       </c>
       <c r="X8" s="44" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="Y8" s="39" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         </is>
       </c>
       <c r="D9" s="39" t="n">
-        <v>3571.18</v>
+        <v>4295.99</v>
       </c>
       <c r="E9" s="40" t="n">
         <v>-0.67</v>
@@ -2182,8 +2182,8 @@
       <c r="W9" s="40" t="n">
         <v>0.04</v>
       </c>
-      <c r="X9" s="44" t="n">
-        <v>1.19</v>
+      <c r="X9" s="42" t="n">
+        <v>1.07</v>
       </c>
       <c r="Y9" s="39" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         </is>
       </c>
       <c r="D10" s="39" t="n">
-        <v>2095.42</v>
+        <v>2519.45</v>
       </c>
       <c r="E10" s="41" t="n">
         <v>-1.18</v>
@@ -2266,7 +2266,7 @@
         <v>0.79</v>
       </c>
       <c r="X10" s="42" t="n">
-        <v>2.33</v>
+        <v>2.26</v>
       </c>
       <c r="Y10" s="39" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         </is>
       </c>
       <c r="D12" s="39" t="n">
-        <v>8.84</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="E12" s="40" t="n">
         <v>0</v>
@@ -2432,7 +2432,7 @@
         <v>0.12</v>
       </c>
       <c r="X12" s="44" t="n">
-        <v>0.98</v>
+        <v>1.35</v>
       </c>
       <c r="Y12" s="39" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         </is>
       </c>
       <c r="D13" s="39" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="E13" s="40" t="n">
         <v>-1.57</v>
@@ -2515,7 +2515,7 @@
         <v>0.51</v>
       </c>
       <c r="X13" s="44" t="n">
-        <v>2.74</v>
+        <v>4.2</v>
       </c>
       <c r="Y13" s="39" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
         </is>
       </c>
       <c r="D14" s="39" t="n">
-        <v>240.03</v>
+        <v>240.47</v>
       </c>
       <c r="E14" s="40" t="n">
         <v>-2.29</v>
@@ -2598,7 +2598,7 @@
         <v>0.09</v>
       </c>
       <c r="X14" s="42" t="n">
-        <v>0.73</v>
+        <v>0.82</v>
       </c>
       <c r="Y14" s="39" t="inlineStr">
         <is>
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="D15" s="39" t="n">
-        <v>22.85</v>
+        <v>22.87</v>
       </c>
       <c r="E15" s="40" t="n">
         <v>-1.11</v>
@@ -2681,7 +2681,7 @@
         <v>-0.2</v>
       </c>
       <c r="X15" s="41" t="n">
-        <v>-0.26</v>
+        <v>-0.13</v>
       </c>
       <c r="Y15" s="39" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
         </is>
       </c>
       <c r="D17" s="39" t="n">
-        <v>12.64</v>
+        <v>12.61</v>
       </c>
       <c r="E17" s="43" t="n">
         <v>-0.45</v>
@@ -2847,7 +2847,7 @@
         <v>0.54</v>
       </c>
       <c r="X17" s="41" t="n">
-        <v>-0.18</v>
+        <v>-0.36</v>
       </c>
       <c r="Y17" s="39" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="D18" s="39" t="n">
-        <v>356.34</v>
+        <v>356.85</v>
       </c>
       <c r="E18" s="40" t="n">
         <v>-2.4</v>
@@ -2930,7 +2930,7 @@
         <v>1.05</v>
       </c>
       <c r="X18" s="42" t="n">
-        <v>3.64</v>
+        <v>3.78</v>
       </c>
       <c r="Y18" s="39" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         </is>
       </c>
       <c r="D19" s="39" t="n">
-        <v>89.64</v>
+        <v>89.7</v>
       </c>
       <c r="E19" s="40" t="n">
         <v>-2.77</v>
@@ -3013,7 +3013,7 @@
         <v>-0.29</v>
       </c>
       <c r="X19" s="42" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="Y19" s="39" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
         </is>
       </c>
       <c r="D20" s="39" t="n">
-        <v>745.58</v>
+        <v>745.5700000000001</v>
       </c>
       <c r="E20" s="44" t="n">
         <v>0</v>
@@ -3119,7 +3119,7 @@
         </is>
       </c>
       <c r="D21" s="39" t="n">
-        <v>604.73</v>
+        <v>606.16</v>
       </c>
       <c r="E21" s="42" t="n">
         <v>0.92</v>
@@ -3179,7 +3179,7 @@
         <v>-0.61</v>
       </c>
       <c r="X21" s="42" t="n">
-        <v>1.53</v>
+        <v>1.83</v>
       </c>
       <c r="Y21" s="39" t="inlineStr">
         <is>
@@ -3202,7 +3202,7 @@
         </is>
       </c>
       <c r="D22" s="39" t="n">
-        <v>39.8</v>
+        <v>39.75</v>
       </c>
       <c r="E22" s="43" t="n">
         <v>-0.61</v>
@@ -3262,7 +3262,7 @@
         <v>-0.25</v>
       </c>
       <c r="X22" s="41" t="n">
-        <v>0.62</v>
+        <v>0.5</v>
       </c>
       <c r="Y22" s="39" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D23" s="39" t="n">
-        <v>3764.69</v>
+        <v>3761.79</v>
       </c>
       <c r="E23" s="43" t="n">
         <v>-0.5</v>
@@ -3345,7 +3345,7 @@
         <v>-0.08</v>
       </c>
       <c r="X23" s="42" t="n">
-        <v>0.98</v>
+        <v>0.88</v>
       </c>
       <c r="Y23" s="39" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         </is>
       </c>
       <c r="D24" s="39" t="n">
-        <v>1629.13</v>
+        <v>1628.53</v>
       </c>
       <c r="E24" s="41" t="n">
         <v>0.15</v>
@@ -3428,7 +3428,7 @@
         <v>-0.48</v>
       </c>
       <c r="X24" s="41" t="n">
-        <v>0.52</v>
+        <v>0.45</v>
       </c>
       <c r="Y24" s="39" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         </is>
       </c>
       <c r="D25" s="39" t="n">
-        <v>48.62</v>
+        <v>48.68</v>
       </c>
       <c r="E25" s="40" t="n">
         <v>-0.61</v>
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="X25" s="42" t="n">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="Y25" s="39" t="inlineStr">
         <is>
@@ -3617,7 +3617,7 @@
         </is>
       </c>
       <c r="D27" s="39" t="n">
-        <v>47.31</v>
+        <v>47.25</v>
       </c>
       <c r="E27" s="43" t="n">
         <v>-0.61</v>
@@ -3676,8 +3676,8 @@
       <c r="W27" s="43" t="n">
         <v>-0.37</v>
       </c>
-      <c r="X27" s="42" t="n">
-        <v>0.88</v>
+      <c r="X27" s="41" t="n">
+        <v>0.75</v>
       </c>
       <c r="Y27" s="39" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
         </is>
       </c>
       <c r="D28" s="39" t="n">
-        <v>640.13</v>
+        <v>639.87</v>
       </c>
       <c r="E28" s="41" t="n">
         <v>-1.15</v>
@@ -3760,7 +3760,7 @@
         <v>0.76</v>
       </c>
       <c r="X28" s="42" t="n">
-        <v>2.35</v>
+        <v>2.27</v>
       </c>
       <c r="Y28" s="39" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         </is>
       </c>
       <c r="D29" s="39" t="n">
-        <v>1111.65</v>
+        <v>1110.49</v>
       </c>
       <c r="E29" s="40" t="n">
         <v>-0.87</v>
@@ -3843,7 +3843,7 @@
         <v>0.5</v>
       </c>
       <c r="X29" s="44" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="Y29" s="39" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         </is>
       </c>
       <c r="D30" s="39" t="n">
-        <v>782.59</v>
+        <v>781.14</v>
       </c>
       <c r="E30" s="41" t="n">
         <v>-0.5600000000000001</v>
@@ -3926,7 +3926,7 @@
         <v>0.85</v>
       </c>
       <c r="X30" s="44" t="n">
-        <v>1.41</v>
+        <v>1.32</v>
       </c>
       <c r="Y30" s="39" t="inlineStr">
         <is>
@@ -3949,7 +3949,7 @@
         </is>
       </c>
       <c r="D31" s="39" t="n">
-        <v>858.58</v>
+        <v>857.26</v>
       </c>
       <c r="E31" s="43" t="n">
         <v>-1.79</v>
@@ -4009,7 +4009,7 @@
         <v>0.95</v>
       </c>
       <c r="X31" s="42" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="Y31" s="39" t="inlineStr">
         <is>
@@ -4032,7 +4032,7 @@
         </is>
       </c>
       <c r="D32" s="39" t="n">
-        <v>257.46</v>
+        <v>256.57</v>
       </c>
       <c r="E32" s="40" t="n">
         <v>-2.27</v>
@@ -4092,7 +4092,7 @@
         <v>0.95</v>
       </c>
       <c r="X32" s="42" t="n">
-        <v>1.99</v>
+        <v>1.76</v>
       </c>
       <c r="Y32" s="39" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>-0.31</v>
       </c>
       <c r="X33" s="41" t="n">
-        <v>1.02</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="Y33" s="39" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         <v>-0.35</v>
       </c>
       <c r="X35" s="40" t="n">
-        <v>0.42</v>
+        <v>0.28</v>
       </c>
       <c r="Y35" s="39" t="inlineStr">
         <is>
@@ -4364,7 +4364,7 @@
         </is>
       </c>
       <c r="D36" s="39" t="n">
-        <v>248.57</v>
+        <v>247.95</v>
       </c>
       <c r="E36" s="41" t="n">
         <v>-0.65</v>
@@ -4424,7 +4424,7 @@
         <v>1.23</v>
       </c>
       <c r="X36" s="44" t="n">
-        <v>0.96</v>
+        <v>0.83</v>
       </c>
       <c r="Y36" s="39" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         </is>
       </c>
       <c r="D37" s="39" t="n">
-        <v>215.25</v>
+        <v>214.65</v>
       </c>
       <c r="E37" s="41" t="n">
         <v>-0.57</v>
@@ -4507,7 +4507,7 @@
         <v>1.24</v>
       </c>
       <c r="X37" s="44" t="n">
-        <v>1.51</v>
+        <v>1.32</v>
       </c>
       <c r="Y37" s="39" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         </is>
       </c>
       <c r="D38" s="39" t="n">
-        <v>244.01</v>
+        <v>243.43</v>
       </c>
       <c r="E38" s="41" t="n">
         <v>0.16</v>
@@ -4590,7 +4590,7 @@
         <v>0.8</v>
       </c>
       <c r="X38" s="44" t="n">
-        <v>1.51</v>
+        <v>1.27</v>
       </c>
       <c r="Y38" s="39" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         </is>
       </c>
       <c r="D39" s="39" t="n">
-        <v>282.17</v>
+        <v>281.9</v>
       </c>
       <c r="E39" s="41" t="n">
         <v>0</v>
@@ -4673,7 +4673,7 @@
         <v>0.29</v>
       </c>
       <c r="X39" s="42" t="n">
-        <v>1.36</v>
+        <v>1.26</v>
       </c>
       <c r="Y39" s="39" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="D40" s="39" t="n">
-        <v>64.09999999999999</v>
+        <v>64.01000000000001</v>
       </c>
       <c r="E40" s="41" t="n">
         <v>-0.39</v>
@@ -4756,7 +4756,7 @@
         <v>0.27</v>
       </c>
       <c r="X40" s="42" t="n">
-        <v>0.95</v>
+        <v>0.68</v>
       </c>
       <c r="Y40" s="39" t="inlineStr">
         <is>
@@ -4779,7 +4779,7 @@
         </is>
       </c>
       <c r="D41" s="39" t="n">
-        <v>45.5</v>
+        <v>45.46</v>
       </c>
       <c r="E41" s="41" t="n">
         <v>0.08</v>
@@ -4839,7 +4839,7 @@
         <v>-1.15</v>
       </c>
       <c r="X41" s="40" t="n">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="Y41" s="39" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         </is>
       </c>
       <c r="D42" s="39" t="n">
-        <v>74.95</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="E42" s="42" t="n">
         <v>0.33</v>
@@ -4922,7 +4922,7 @@
         <v>-2.19</v>
       </c>
       <c r="X42" s="40" t="n">
-        <v>-0.13</v>
+        <v>-0.26</v>
       </c>
       <c r="Y42" s="39" t="inlineStr">
         <is>
@@ -4945,7 +4945,7 @@
         </is>
       </c>
       <c r="D43" s="39" t="n">
-        <v>118.18</v>
+        <v>118.02</v>
       </c>
       <c r="E43" s="41" t="n">
         <v>-0.26</v>
@@ -5004,8 +5004,8 @@
       <c r="W43" s="42" t="n">
         <v>0.96</v>
       </c>
-      <c r="X43" s="44" t="n">
-        <v>0.68</v>
+      <c r="X43" s="42" t="n">
+        <v>0.55</v>
       </c>
       <c r="Y43" s="39" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>0.88</v>
       </c>
       <c r="X44" s="42" t="n">
-        <v>1.09</v>
+        <v>1.3</v>
       </c>
       <c r="Y44" s="39" t="inlineStr">
         <is>
@@ -5254,7 +5254,7 @@
         <v>0.63</v>
       </c>
       <c r="X46" s="42" t="n">
-        <v>1.26</v>
+        <v>1.58</v>
       </c>
       <c r="Y46" s="39" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>1.14</v>
       </c>
       <c r="X47" s="42" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="Y47" s="39" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         </is>
       </c>
       <c r="D48" s="39" t="n">
-        <v>21.54</v>
+        <v>21.57</v>
       </c>
       <c r="E48" s="42" t="n">
         <v>1.19</v>
@@ -5443,7 +5443,7 @@
         </is>
       </c>
       <c r="D49" s="39" t="n">
-        <v>32.06</v>
+        <v>32.01</v>
       </c>
       <c r="E49" s="42" t="n">
         <v>1.93</v>
@@ -5503,7 +5503,7 @@
         <v>-0.34</v>
       </c>
       <c r="X49" s="41" t="n">
-        <v>0.51</v>
+        <v>0.34</v>
       </c>
       <c r="Y49" s="39" t="inlineStr">
         <is>
@@ -5526,7 +5526,7 @@
         </is>
       </c>
       <c r="D50" s="39" t="n">
-        <v>4.38</v>
+        <v>4.37</v>
       </c>
       <c r="E50" s="43" t="n">
         <v>-1.6</v>
@@ -5586,7 +5586,7 @@
         <v>1.52</v>
       </c>
       <c r="X50" s="42" t="n">
-        <v>1.34</v>
+        <v>1.02</v>
       </c>
       <c r="Y50" s="39" t="inlineStr">
         <is>
@@ -5669,7 +5669,7 @@
         <v>0.71</v>
       </c>
       <c r="X51" s="42" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="Y51" s="39" t="inlineStr">
         <is>
@@ -5692,7 +5692,7 @@
         </is>
       </c>
       <c r="D52" s="39" t="n">
-        <v>4.97</v>
+        <v>4.96</v>
       </c>
       <c r="E52" s="40" t="n">
         <v>-2.63</v>
@@ -5751,8 +5751,8 @@
       <c r="W52" s="42" t="n">
         <v>1.7</v>
       </c>
-      <c r="X52" s="44" t="n">
-        <v>2.88</v>
+      <c r="X52" s="42" t="n">
+        <v>2.7</v>
       </c>
       <c r="Y52" s="39" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         </is>
       </c>
       <c r="D53" s="39" t="n">
-        <v>27.72</v>
+        <v>27.62</v>
       </c>
       <c r="E53" s="41" t="n">
         <v>-0.12</v>
@@ -5835,7 +5835,7 @@
         <v>1.14</v>
       </c>
       <c r="X53" s="44" t="n">
-        <v>3.02</v>
+        <v>2.89</v>
       </c>
       <c r="Y53" s="39" t="inlineStr">
         <is>
@@ -5858,7 +5858,7 @@
         </is>
       </c>
       <c r="D54" s="39" t="n">
-        <v>34.96</v>
+        <v>34.86</v>
       </c>
       <c r="E54" s="45" t="n">
         <v>-1.77</v>
@@ -5918,7 +5918,7 @@
         <v>2.54</v>
       </c>
       <c r="X54" s="44" t="n">
-        <v>2.58</v>
+        <v>2.27</v>
       </c>
       <c r="Y54" s="39" t="inlineStr">
         <is>
@@ -5941,7 +5941,7 @@
         </is>
       </c>
       <c r="D55" s="39" t="n">
-        <v>2.89</v>
+        <v>2.88</v>
       </c>
       <c r="E55" s="41" t="n">
         <v>-1.3</v>
@@ -6001,7 +6001,7 @@
         <v>2.08</v>
       </c>
       <c r="X55" s="44" t="n">
-        <v>2.85</v>
+        <v>2.72</v>
       </c>
       <c r="Y55" s="39" t="inlineStr">
         <is>
@@ -6084,7 +6084,7 @@
         <v>2.56</v>
       </c>
       <c r="X56" s="44" t="n">
-        <v>2.23</v>
+        <v>2.15</v>
       </c>
       <c r="Y56" s="39" t="inlineStr">
         <is>
@@ -6107,7 +6107,7 @@
         </is>
       </c>
       <c r="D57" s="39" t="n">
-        <v>140.1</v>
+        <v>139.78</v>
       </c>
       <c r="E57" s="41" t="n">
         <v>-2.21</v>
@@ -6166,8 +6166,8 @@
       <c r="W57" s="42" t="n">
         <v>3.13</v>
       </c>
-      <c r="X57" s="44" t="n">
-        <v>2.21</v>
+      <c r="X57" s="42" t="n">
+        <v>1.98</v>
       </c>
       <c r="Y57" s="39" t="inlineStr">
         <is>
@@ -6190,7 +6190,7 @@
         </is>
       </c>
       <c r="D58" s="39" t="n">
-        <v>30.41</v>
+        <v>30.38</v>
       </c>
       <c r="E58" s="41" t="n">
         <v>-0.98</v>
@@ -6250,7 +6250,7 @@
         <v>2.22</v>
       </c>
       <c r="X58" s="44" t="n">
-        <v>2.85</v>
+        <v>2.74</v>
       </c>
       <c r="Y58" s="39" t="inlineStr">
         <is>
@@ -6273,7 +6273,7 @@
         </is>
       </c>
       <c r="D59" s="39" t="n">
-        <v>7.64</v>
+        <v>7.63</v>
       </c>
       <c r="E59" s="41" t="n">
         <v>0.26</v>
@@ -6333,7 +6333,7 @@
         <v>1.45</v>
       </c>
       <c r="X59" s="44" t="n">
-        <v>1.69</v>
+        <v>1.56</v>
       </c>
       <c r="Y59" s="39" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         </is>
       </c>
       <c r="D60" s="39" t="n">
-        <v>15.88</v>
+        <v>15.9</v>
       </c>
       <c r="E60" s="43" t="n">
         <v>-4.53</v>
@@ -6499,7 +6499,7 @@
         <v>0</v>
       </c>
       <c r="X61" s="41" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.42</v>
       </c>
       <c r="Y61" s="39" t="inlineStr">
         <is>
@@ -6522,7 +6522,7 @@
         </is>
       </c>
       <c r="D62" s="39" t="n">
-        <v>62.39</v>
+        <v>62.33</v>
       </c>
       <c r="E62" s="43" t="n">
         <v>-4.23</v>
@@ -6582,7 +6582,7 @@
         <v>1.43</v>
       </c>
       <c r="X62" s="42" t="n">
-        <v>2.92</v>
+        <v>2.82</v>
       </c>
       <c r="Y62" s="39" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         </is>
       </c>
       <c r="D63" s="39" t="n">
-        <v>69.81999999999999</v>
+        <v>69.63</v>
       </c>
       <c r="E63" s="41" t="n">
         <v>0</v>
@@ -6665,7 +6665,7 @@
         <v>0.92</v>
       </c>
       <c r="X63" s="44" t="n">
-        <v>2.65</v>
+        <v>2.47</v>
       </c>
       <c r="Y63" s="39" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         </is>
       </c>
       <c r="D64" s="39" t="n">
-        <v>13.53</v>
+        <v>13.51</v>
       </c>
       <c r="E64" s="41" t="n">
         <v>-0.36</v>
@@ -6748,7 +6748,7 @@
         <v>2.68</v>
       </c>
       <c r="X64" s="44" t="n">
-        <v>3.11</v>
+        <v>2.86</v>
       </c>
       <c r="Y64" s="39" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>-0.53</v>
       </c>
       <c r="X65" s="41" t="n">
-        <v>0.89</v>
+        <v>1.06</v>
       </c>
       <c r="Y65" s="39" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>0.52</v>
       </c>
       <c r="X66" s="41" t="n">
-        <v>0.73</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="Y66" s="39" t="inlineStr">
         <is>
@@ -6937,7 +6937,7 @@
         </is>
       </c>
       <c r="D67" s="39" t="n">
-        <v>14.38</v>
+        <v>14.4</v>
       </c>
       <c r="E67" s="40" t="n">
         <v>-1.19</v>
@@ -6997,7 +6997,7 @@
         <v>0.36</v>
       </c>
       <c r="X67" s="42" t="n">
-        <v>1.27</v>
+        <v>1.08</v>
       </c>
       <c r="Y67" s="39" t="inlineStr">
         <is>
@@ -7020,7 +7020,7 @@
         </is>
       </c>
       <c r="D68" s="39" t="n">
-        <v>15.21</v>
+        <v>15.18</v>
       </c>
       <c r="E68" s="40" t="n">
         <v>-3.01</v>
@@ -7080,7 +7080,7 @@
         <v>0.85</v>
       </c>
       <c r="X68" s="44" t="n">
-        <v>1.68</v>
+        <v>1.38</v>
       </c>
       <c r="Y68" s="39" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         </is>
       </c>
       <c r="D70" s="39" t="n">
-        <v>110.11</v>
+        <v>110.29</v>
       </c>
       <c r="E70" s="42" t="n">
         <v>1.3</v>
@@ -7269,7 +7269,7 @@
         </is>
       </c>
       <c r="D71" s="39" t="n">
-        <v>31.81</v>
+        <v>31.79</v>
       </c>
       <c r="E71" s="40" t="n">
         <v>-0.72</v>
@@ -7329,7 +7329,7 @@
         <v>-0.06</v>
       </c>
       <c r="X71" s="42" t="n">
-        <v>0.8</v>
+        <v>0.74</v>
       </c>
       <c r="Y71" s="39" t="inlineStr">
         <is>
@@ -7352,7 +7352,7 @@
         </is>
       </c>
       <c r="D72" s="39" t="n">
-        <v>31.46</v>
+        <v>31.5</v>
       </c>
       <c r="E72" s="42" t="n">
         <v>1.48</v>
@@ -7412,7 +7412,7 @@
         <v>-0.45</v>
       </c>
       <c r="X72" s="41" t="n">
-        <v>0.9</v>
+        <v>1.05</v>
       </c>
       <c r="Y72" s="39" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>1.83</v>
       </c>
       <c r="X73" s="42" t="n">
-        <v>1.79</v>
+        <v>1.59</v>
       </c>
       <c r="Y73" s="39" t="inlineStr">
         <is>
@@ -7518,7 +7518,7 @@
         </is>
       </c>
       <c r="D74" s="39" t="n">
-        <v>218.19</v>
+        <v>218.12</v>
       </c>
       <c r="E74" s="42" t="n">
         <v>0.16</v>
@@ -7578,7 +7578,7 @@
         <v>-0.78</v>
       </c>
       <c r="X74" s="43" t="n">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="Y74" s="39" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         </is>
       </c>
       <c r="D75" s="39" t="n">
-        <v>158.43</v>
+        <v>158.29</v>
       </c>
       <c r="E75" s="44" t="n">
         <v>0.36</v>
@@ -7661,7 +7661,7 @@
         <v>-1.6</v>
       </c>
       <c r="X75" s="40" t="n">
-        <v>0</v>
+        <v>-0.18</v>
       </c>
       <c r="Y75" s="39" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         <v>-0.19</v>
       </c>
       <c r="X76" s="42" t="n">
-        <v>2.03</v>
+        <v>2.13</v>
       </c>
       <c r="Y76" s="39" t="inlineStr">
         <is>
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="D77" s="39" t="n">
-        <v>9.08</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="E77" s="40" t="n">
         <v>-0.78</v>
@@ -7827,7 +7827,7 @@
         <v>0</v>
       </c>
       <c r="X77" s="44" t="n">
-        <v>2.68</v>
+        <v>3.09</v>
       </c>
       <c r="Y77" s="39" t="inlineStr">
         <is>
@@ -7850,7 +7850,7 @@
         </is>
       </c>
       <c r="D78" s="39" t="n">
-        <v>9.08</v>
+        <v>9.1</v>
       </c>
       <c r="E78" s="41" t="n">
         <v>-0.37</v>
@@ -7910,7 +7910,7 @@
         <v>0.89</v>
       </c>
       <c r="X78" s="44" t="n">
-        <v>4.24</v>
+        <v>4.43</v>
       </c>
       <c r="Y78" s="39" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>-0.5</v>
       </c>
       <c r="X81" s="42" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="Y81" s="39" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="D82" s="39" t="n">
-        <v>34.91</v>
+        <v>34.99</v>
       </c>
       <c r="E82" s="40" t="n">
         <v>0.1</v>
@@ -8242,7 +8242,7 @@
         <v>-0.52</v>
       </c>
       <c r="X82" s="41" t="n">
-        <v>0.63</v>
+        <v>0.84</v>
       </c>
       <c r="Y82" s="39" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         </is>
       </c>
       <c r="D84" s="39" t="n">
-        <v>24.68</v>
+        <v>24.63</v>
       </c>
       <c r="E84" s="41" t="n">
         <v>0.66</v>
@@ -8408,7 +8408,7 @@
         <v>-0.48</v>
       </c>
       <c r="X84" s="42" t="n">
-        <v>1.07</v>
+        <v>0.87</v>
       </c>
       <c r="Y84" s="39" t="inlineStr">
         <is>
@@ -8491,7 +8491,7 @@
         <v>1.53</v>
       </c>
       <c r="X85" s="42" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="Y85" s="39" t="inlineStr">
         <is>
@@ -8597,7 +8597,7 @@
         </is>
       </c>
       <c r="D87" s="39" t="n">
-        <v>44.63</v>
+        <v>44.55</v>
       </c>
       <c r="E87" s="40" t="n">
         <v>-1.52</v>
@@ -8657,7 +8657,7 @@
         <v>0.11</v>
       </c>
       <c r="X87" s="42" t="n">
-        <v>1.6</v>
+        <v>1.43</v>
       </c>
       <c r="Y87" s="39" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         </is>
       </c>
       <c r="D88" s="39" t="n">
-        <v>90.18000000000001</v>
+        <v>90.05</v>
       </c>
       <c r="E88" s="40" t="n">
         <v>-2.07</v>
@@ -8739,8 +8739,8 @@
       <c r="W88" s="41" t="n">
         <v>0.16</v>
       </c>
-      <c r="X88" s="44" t="n">
-        <v>2.18</v>
+      <c r="X88" s="42" t="n">
+        <v>2.02</v>
       </c>
       <c r="Y88" s="39" t="inlineStr">
         <is>
@@ -8929,7 +8929,7 @@
         </is>
       </c>
       <c r="D91" s="39" t="n">
-        <v>13.15</v>
+        <v>13.13</v>
       </c>
       <c r="E91" s="41" t="n">
         <v>0.27</v>
@@ -8989,7 +8989,7 @@
         <v>0.14</v>
       </c>
       <c r="X91" s="44" t="n">
-        <v>1.56</v>
+        <v>1.42</v>
       </c>
       <c r="Y91" s="39" t="inlineStr">
         <is>
@@ -9012,7 +9012,7 @@
         </is>
       </c>
       <c r="D92" s="39" t="n">
-        <v>11.74</v>
+        <v>11.72</v>
       </c>
       <c r="E92" s="40" t="n">
         <v>-0.74</v>
@@ -9095,7 +9095,7 @@
         </is>
       </c>
       <c r="D93" s="39" t="n">
-        <v>161.69</v>
+        <v>161.81</v>
       </c>
       <c r="E93" s="40" t="n">
         <v>-1.39</v>
@@ -9155,7 +9155,7 @@
         <v>0.59</v>
       </c>
       <c r="X93" s="42" t="n">
-        <v>2.12</v>
+        <v>2.26</v>
       </c>
       <c r="Y93" s="39" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D95" s="39" t="n">
-        <v>104.92</v>
+        <v>104.49</v>
       </c>
       <c r="E95" s="41" t="n">
         <v>-1.22</v>
@@ -9344,7 +9344,7 @@
         </is>
       </c>
       <c r="D96" s="39" t="n">
-        <v>9.210000000000001</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="E96" s="40" t="n">
         <v>-1.26</v>
@@ -9404,7 +9404,7 @@
         <v>0.12</v>
       </c>
       <c r="X96" s="42" t="n">
-        <v>2.05</v>
+        <v>2.29</v>
       </c>
       <c r="Y96" s="39" t="inlineStr">
         <is>
@@ -9427,7 +9427,7 @@
         </is>
       </c>
       <c r="D97" s="39" t="n">
-        <v>108.54</v>
+        <v>108.19</v>
       </c>
       <c r="E97" s="41" t="n">
         <v>-1.77</v>
@@ -9487,7 +9487,7 @@
         <v>0.11</v>
       </c>
       <c r="X97" s="41" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="Y97" s="39" t="inlineStr">
         <is>
@@ -9570,7 +9570,7 @@
         <v>2.59</v>
       </c>
       <c r="X98" s="44" t="n">
-        <v>3.37</v>
+        <v>3.49</v>
       </c>
       <c r="Y98" s="39" t="inlineStr">
         <is>
@@ -9593,7 +9593,7 @@
         </is>
       </c>
       <c r="D99" s="39" t="n">
-        <v>18</v>
+        <v>17.97</v>
       </c>
       <c r="E99" s="40" t="n">
         <v>-2.14</v>
@@ -9653,7 +9653,7 @@
         <v>0.33</v>
       </c>
       <c r="X99" s="42" t="n">
-        <v>0.99</v>
+        <v>0.88</v>
       </c>
       <c r="Y99" s="39" t="inlineStr">
         <is>
@@ -9676,7 +9676,7 @@
         </is>
       </c>
       <c r="D100" s="39" t="n">
-        <v>72.59</v>
+        <v>72.39</v>
       </c>
       <c r="E100" s="41" t="n">
         <v>-1.03</v>
@@ -9736,7 +9736,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="X100" s="42" t="n">
-        <v>2.63</v>
+        <v>2.42</v>
       </c>
       <c r="Y100" s="39" t="inlineStr">
         <is>
@@ -12092,7 +12092,7 @@
         </is>
       </c>
       <c r="D2" s="39" t="n">
-        <v>512.5599999999999</v>
+        <v>618.45</v>
       </c>
       <c r="E2" s="39" t="n">
         <v>42.5</v>
@@ -12152,7 +12152,7 @@
         <v>6.3</v>
       </c>
       <c r="X2" s="39" t="n">
-        <v>63.7</v>
+        <v>60</v>
       </c>
       <c r="Y2" s="39" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         </is>
       </c>
       <c r="D3" s="39" t="n">
-        <v>4096.94</v>
+        <v>4916.61</v>
       </c>
       <c r="E3" s="39" t="n">
         <v>26.6</v>
@@ -12235,7 +12235,7 @@
         <v>3.1</v>
       </c>
       <c r="X3" s="39" t="n">
-        <v>86.8</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="Y3" s="39" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         </is>
       </c>
       <c r="D4" s="39" t="n">
-        <v>1955.94</v>
+        <v>2363.39</v>
       </c>
       <c r="E4" s="39" t="n">
         <v>2</v>
@@ -12318,7 +12318,7 @@
         <v>5.5</v>
       </c>
       <c r="X4" s="39" t="n">
-        <v>88.90000000000001</v>
+        <v>87.5</v>
       </c>
       <c r="Y4" s="39" t="inlineStr">
         <is>
@@ -12341,7 +12341,7 @@
         </is>
       </c>
       <c r="D5" s="39" t="n">
-        <v>2669.88</v>
+        <v>3191.96</v>
       </c>
       <c r="E5" s="39" t="n">
         <v>3.4</v>
@@ -12401,7 +12401,7 @@
         <v>76.90000000000001</v>
       </c>
       <c r="X5" s="39" t="n">
-        <v>94.40000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="Y5" s="39" t="inlineStr">
         <is>
@@ -12415,80 +12415,80 @@
       </c>
       <c r="B6" s="39" t="inlineStr">
         <is>
-          <t>sh000852</t>
+          <t>sz399001</t>
         </is>
       </c>
       <c r="C6" s="39" t="inlineStr">
         <is>
-          <t>中证1000</t>
+          <t>深证成指</t>
         </is>
       </c>
       <c r="D6" s="39" t="n">
-        <v>2095.42</v>
+        <v>6917.3</v>
       </c>
       <c r="E6" s="39" t="n">
-        <v>17.2</v>
+        <v>3.2</v>
       </c>
       <c r="F6" s="39" t="n">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="G6" s="39" t="n">
-        <v>9.199999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="H6" s="39" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="I6" s="39" t="n">
-        <v>68.40000000000001</v>
+        <v>68</v>
       </c>
       <c r="J6" s="39" t="n">
-        <v>79.3</v>
+        <v>76.8</v>
       </c>
       <c r="K6" s="39" t="n">
-        <v>87.59999999999999</v>
+        <v>82.7</v>
       </c>
       <c r="L6" s="39" t="n">
-        <v>69.59999999999999</v>
+        <v>65.2</v>
       </c>
       <c r="M6" s="39" t="n">
-        <v>30</v>
+        <v>27.8</v>
       </c>
       <c r="N6" s="39" t="n">
-        <v>34</v>
+        <v>22.9</v>
       </c>
       <c r="O6" s="39" t="n">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="P6" s="39" t="n">
-        <v>88.8</v>
+        <v>89.2</v>
       </c>
       <c r="Q6" s="39" t="n">
-        <v>84.90000000000001</v>
+        <v>61.4</v>
       </c>
       <c r="R6" s="39" t="n">
-        <v>92.2</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="S6" s="39" t="n">
-        <v>33.4</v>
+        <v>42.4</v>
       </c>
       <c r="T6" s="39" t="n">
-        <v>51.7</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="U6" s="39" t="n">
-        <v>18.4</v>
+        <v>28.8</v>
       </c>
       <c r="V6" s="39" t="n">
-        <v>47.1</v>
+        <v>26.3</v>
       </c>
       <c r="W6" s="39" t="n">
-        <v>76.5</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="X6" s="39" t="n">
-        <v>94.5</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="Y6" s="39" t="inlineStr">
         <is>
-          <t>中证1000</t>
+          <t>深证成指</t>
         </is>
       </c>
     </row>
@@ -12498,80 +12498,80 @@
       </c>
       <c r="B7" s="39" t="inlineStr">
         <is>
-          <t>sz399001</t>
+          <t>sh000852</t>
         </is>
       </c>
       <c r="C7" s="39" t="inlineStr">
         <is>
-          <t>深证成指</t>
+          <t>中证1000</t>
         </is>
       </c>
       <c r="D7" s="39" t="n">
-        <v>5780.83</v>
+        <v>2519.45</v>
       </c>
       <c r="E7" s="39" t="n">
-        <v>3.2</v>
+        <v>17.2</v>
       </c>
       <c r="F7" s="39" t="n">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="G7" s="39" t="n">
-        <v>10.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H7" s="39" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I7" s="39" t="n">
-        <v>68</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="J7" s="39" t="n">
-        <v>76.8</v>
+        <v>79.3</v>
       </c>
       <c r="K7" s="39" t="n">
-        <v>82.7</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="L7" s="39" t="n">
-        <v>65.2</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="M7" s="39" t="n">
-        <v>27.8</v>
+        <v>30</v>
       </c>
       <c r="N7" s="39" t="n">
-        <v>22.9</v>
+        <v>34</v>
       </c>
       <c r="O7" s="39" t="n">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="P7" s="39" t="n">
-        <v>89.2</v>
+        <v>88.8</v>
       </c>
       <c r="Q7" s="39" t="n">
-        <v>61.4</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="R7" s="39" t="n">
-        <v>82.09999999999999</v>
+        <v>92.2</v>
       </c>
       <c r="S7" s="39" t="n">
-        <v>42.4</v>
+        <v>33.4</v>
       </c>
       <c r="T7" s="39" t="n">
-        <v>65.09999999999999</v>
+        <v>51.7</v>
       </c>
       <c r="U7" s="39" t="n">
-        <v>28.8</v>
+        <v>18.4</v>
       </c>
       <c r="V7" s="39" t="n">
-        <v>26.3</v>
+        <v>47.1</v>
       </c>
       <c r="W7" s="39" t="n">
-        <v>72.09999999999999</v>
+        <v>76.5</v>
       </c>
       <c r="X7" s="39" t="n">
-        <v>94.59999999999999</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="Y7" s="39" t="inlineStr">
         <is>
-          <t>深证成指</t>
+          <t>中证1000</t>
         </is>
       </c>
     </row>
@@ -12590,7 +12590,7 @@
         </is>
       </c>
       <c r="D8" s="39" t="n">
-        <v>3571.18</v>
+        <v>4295.99</v>
       </c>
       <c r="E8" s="39" t="n">
         <v>5.8</v>
@@ -12650,7 +12650,7 @@
         <v>33.9</v>
       </c>
       <c r="X8" s="39" t="n">
-        <v>95.2</v>
+        <v>94.7</v>
       </c>
       <c r="Y8" s="39" t="inlineStr">
         <is>
@@ -12673,7 +12673,7 @@
         </is>
       </c>
       <c r="D9" s="39" t="n">
-        <v>1614.87</v>
+        <v>1931.87</v>
       </c>
       <c r="E9" s="39" t="n">
         <v>16</v>
@@ -12733,7 +12733,7 @@
         <v>78.3</v>
       </c>
       <c r="X9" s="39" t="n">
-        <v>96.09999999999999</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="Y9" s="39" t="inlineStr">
         <is>
@@ -12756,7 +12756,7 @@
         </is>
       </c>
       <c r="D10" s="39" t="n">
-        <v>203.79</v>
+        <v>245.97</v>
       </c>
       <c r="E10" s="39" t="n">
         <v>9.9</v>
@@ -12816,7 +12816,7 @@
         <v>88.5</v>
       </c>
       <c r="X10" s="39" t="n">
-        <v>96.90000000000001</v>
+        <v>96.5</v>
       </c>
       <c r="Y10" s="39" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
         </is>
       </c>
       <c r="D11" s="39" t="n">
-        <v>218.19</v>
+        <v>218.12</v>
       </c>
       <c r="E11" s="39" t="n">
         <v>89.2</v>
@@ -12897,7 +12897,7 @@
         <v>5.4</v>
       </c>
       <c r="X11" s="39" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="Y11" s="39" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         </is>
       </c>
       <c r="D12" s="39" t="n">
-        <v>158.43</v>
+        <v>158.29</v>
       </c>
       <c r="E12" s="39" t="n">
         <v>97</v>
@@ -12980,7 +12980,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="X12" s="39" t="n">
-        <v>9.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="Y12" s="39" t="inlineStr">
         <is>
@@ -13001,7 +13001,7 @@
         </is>
       </c>
       <c r="D13" s="39" t="n">
-        <v>74.95</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="E13" s="39" t="n">
         <v>81.09999999999999</v>
@@ -13061,7 +13061,7 @@
         <v>11.1</v>
       </c>
       <c r="X13" s="39" t="n">
-        <v>10.1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="Y13" s="39" t="inlineStr">
         <is>
@@ -13082,7 +13082,7 @@
         </is>
       </c>
       <c r="D14" s="39" t="n">
-        <v>45.5</v>
+        <v>45.46</v>
       </c>
       <c r="E14" s="39" t="n">
         <v>72.8</v>
@@ -13142,7 +13142,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="X14" s="39" t="n">
-        <v>24.4</v>
+        <v>17.7</v>
       </c>
       <c r="Y14" s="39" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         </is>
       </c>
       <c r="D15" s="39" t="n">
-        <v>110.11</v>
+        <v>110.29</v>
       </c>
       <c r="E15" s="39" t="n">
         <v>85.7</v>
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="D16" s="39" t="n">
-        <v>22.85</v>
+        <v>22.87</v>
       </c>
       <c r="E16" s="39" t="n">
         <v>26.6</v>
@@ -13306,7 +13306,7 @@
         <v>52.3</v>
       </c>
       <c r="X16" s="39" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="Y16" s="39" t="inlineStr">
         <is>
@@ -13400,79 +13400,79 @@
         <v>16</v>
       </c>
       <c r="B18" s="39" t="n">
-        <v>515220</v>
+        <v>517090</v>
       </c>
       <c r="C18" s="39" t="inlineStr">
         <is>
-          <t>煤炭ETF</t>
+          <t>央企共赢ETF</t>
         </is>
       </c>
       <c r="D18" s="39" t="n">
-        <v>34.91</v>
+        <v>4.31</v>
       </c>
       <c r="E18" s="39" t="n">
-        <v>49.2</v>
+        <v>76.2</v>
       </c>
       <c r="F18" s="39" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="G18" s="39" t="n">
-        <v>42.7</v>
+        <v>59.4</v>
       </c>
       <c r="H18" s="39" t="n">
-        <v>44.1</v>
+        <v>50</v>
       </c>
       <c r="I18" s="39" t="n">
-        <v>56.4</v>
+        <v>55.6</v>
       </c>
       <c r="J18" s="39" t="n">
-        <v>39.1</v>
+        <v>45.4</v>
       </c>
       <c r="K18" s="39" t="n">
-        <v>82.40000000000001</v>
+        <v>64.8</v>
       </c>
       <c r="L18" s="39" t="n">
-        <v>77.8</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="M18" s="39" t="n">
-        <v>77.8</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="N18" s="39" t="n">
-        <v>63.6</v>
+        <v>91.2</v>
       </c>
       <c r="O18" s="39" t="n">
-        <v>22.5</v>
+        <v>94</v>
       </c>
       <c r="P18" s="39" t="n">
-        <v>38.4</v>
+        <v>32.1</v>
       </c>
       <c r="Q18" s="39" t="n">
-        <v>21.1</v>
+        <v>68.7</v>
       </c>
       <c r="R18" s="39" t="n">
-        <v>14.5</v>
+        <v>41</v>
       </c>
       <c r="S18" s="39" t="n">
-        <v>61.9</v>
+        <v>41</v>
       </c>
       <c r="T18" s="39" t="n">
-        <v>29.4</v>
+        <v>17.9</v>
       </c>
       <c r="U18" s="39" t="n">
-        <v>4</v>
+        <v>76.8</v>
       </c>
       <c r="V18" s="39" t="n">
-        <v>1.9</v>
+        <v>26.4</v>
       </c>
       <c r="W18" s="39" t="n">
-        <v>1.1</v>
+        <v>17</v>
       </c>
       <c r="X18" s="39" t="n">
-        <v>49.6</v>
+        <v>47</v>
       </c>
       <c r="Y18" s="39" t="inlineStr">
         <is>
-          <t>煤炭ETF</t>
+          <t>央企共赢ETF</t>
         </is>
       </c>
     </row>
@@ -13481,79 +13481,79 @@
         <v>17</v>
       </c>
       <c r="B19" s="39" t="n">
-        <v>517090</v>
+        <v>515220</v>
       </c>
       <c r="C19" s="39" t="inlineStr">
         <is>
-          <t>央企共赢ETF</t>
+          <t>煤炭ETF</t>
         </is>
       </c>
       <c r="D19" s="39" t="n">
-        <v>4.31</v>
+        <v>34.99</v>
       </c>
       <c r="E19" s="39" t="n">
-        <v>76.2</v>
+        <v>49.2</v>
       </c>
       <c r="F19" s="39" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G19" s="39" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="H19" s="39" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="I19" s="39" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="J19" s="39" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="K19" s="39" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="L19" s="39" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="M19" s="39" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="N19" s="39" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="O19" s="39" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="P19" s="39" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="Q19" s="39" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="R19" s="39" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="S19" s="39" t="n">
+        <v>61.9</v>
+      </c>
+      <c r="T19" s="39" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="U19" s="39" t="n">
         <v>4</v>
       </c>
-      <c r="G19" s="39" t="n">
-        <v>59.4</v>
-      </c>
-      <c r="H19" s="39" t="n">
-        <v>50</v>
-      </c>
-      <c r="I19" s="39" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="J19" s="39" t="n">
-        <v>45.4</v>
-      </c>
-      <c r="K19" s="39" t="n">
-        <v>64.8</v>
-      </c>
-      <c r="L19" s="39" t="n">
-        <v>76.09999999999999</v>
-      </c>
-      <c r="M19" s="39" t="n">
-        <v>90.40000000000001</v>
-      </c>
-      <c r="N19" s="39" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="O19" s="39" t="n">
-        <v>94</v>
-      </c>
-      <c r="P19" s="39" t="n">
-        <v>32.1</v>
-      </c>
-      <c r="Q19" s="39" t="n">
-        <v>68.7</v>
-      </c>
-      <c r="R19" s="39" t="n">
-        <v>41</v>
-      </c>
-      <c r="S19" s="39" t="n">
-        <v>41</v>
-      </c>
-      <c r="T19" s="39" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="U19" s="39" t="n">
-        <v>76.8</v>
-      </c>
       <c r="V19" s="39" t="n">
-        <v>26.4</v>
+        <v>1.9</v>
       </c>
       <c r="W19" s="39" t="n">
-        <v>17</v>
+        <v>1.1</v>
       </c>
       <c r="X19" s="39" t="n">
-        <v>55.1</v>
+        <v>56.7</v>
       </c>
       <c r="Y19" s="39" t="inlineStr">
         <is>
-          <t>央企共赢ETF</t>
+          <t>煤炭ETF</t>
         </is>
       </c>
     </row>
@@ -13562,79 +13562,79 @@
         <v>18</v>
       </c>
       <c r="B20" s="39" t="n">
-        <v>159766</v>
+        <v>513290</v>
       </c>
       <c r="C20" s="39" t="inlineStr">
         <is>
-          <t>旅游ETF</t>
+          <t>纳指生物科技ETF</t>
         </is>
       </c>
       <c r="D20" s="39" t="n">
-        <v>31.46</v>
+        <v>12.61</v>
       </c>
       <c r="E20" s="39" t="n">
-        <v>82.09999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="F20" s="39" t="n">
-        <v>11.2</v>
+        <v>0.1</v>
       </c>
       <c r="G20" s="39" t="n">
-        <v>52.8</v>
+        <v>44.4</v>
       </c>
       <c r="H20" s="39" t="n">
-        <v>80.8</v>
+        <v>23</v>
       </c>
       <c r="I20" s="39" t="n">
-        <v>85.3</v>
+        <v>64.5</v>
       </c>
       <c r="J20" s="39" t="n">
-        <v>64.3</v>
+        <v>40.9</v>
       </c>
       <c r="K20" s="39" t="n">
-        <v>73.59999999999999</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="L20" s="39" t="n">
-        <v>36</v>
+        <v>80.2</v>
       </c>
       <c r="M20" s="39" t="n">
-        <v>73.7</v>
+        <v>57.5</v>
       </c>
       <c r="N20" s="39" t="n">
-        <v>84.3</v>
+        <v>48.4</v>
       </c>
       <c r="O20" s="39" t="n">
-        <v>29</v>
+        <v>44.8</v>
       </c>
       <c r="P20" s="39" t="n">
-        <v>22.7</v>
+        <v>22.1</v>
       </c>
       <c r="Q20" s="39" t="n">
-        <v>15.8</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="R20" s="39" t="n">
-        <v>6.3</v>
+        <v>92.8</v>
       </c>
       <c r="S20" s="39" t="n">
-        <v>5.1</v>
+        <v>92.8</v>
       </c>
       <c r="T20" s="39" t="n">
-        <v>40</v>
+        <v>97.5</v>
       </c>
       <c r="U20" s="39" t="n">
-        <v>11.6</v>
+        <v>54.1</v>
       </c>
       <c r="V20" s="39" t="n">
-        <v>6.8</v>
+        <v>75.7</v>
       </c>
       <c r="W20" s="39" t="n">
-        <v>4.5</v>
+        <v>84</v>
       </c>
       <c r="X20" s="39" t="n">
-        <v>59</v>
+        <v>57.8</v>
       </c>
       <c r="Y20" s="39" t="inlineStr">
         <is>
-          <t>旅游ETF</t>
+          <t>纳指生物科技ETF</t>
         </is>
       </c>
     </row>
@@ -13642,82 +13642,80 @@
       <c r="A21" s="39" t="n">
         <v>19</v>
       </c>
-      <c r="B21" s="39" t="inlineStr">
-        <is>
-          <t>512040</t>
-        </is>
+      <c r="B21" s="39" t="n">
+        <v>513120</v>
       </c>
       <c r="C21" s="39" t="inlineStr">
         <is>
-          <t>价值100ETF</t>
+          <t>港股创新药ETF</t>
         </is>
       </c>
       <c r="D21" s="39" t="n">
-        <v>19.23</v>
+        <v>108.19</v>
       </c>
       <c r="E21" s="39" t="n">
-        <v>18.5</v>
+        <v>39.9</v>
       </c>
       <c r="F21" s="39" t="n">
-        <v>1.6</v>
+        <v>7.2</v>
       </c>
       <c r="G21" s="39" t="n">
-        <v>24.3</v>
+        <v>3.3</v>
       </c>
       <c r="H21" s="39" t="n">
-        <v>31.6</v>
+        <v>9</v>
       </c>
       <c r="I21" s="39" t="n">
-        <v>67.3</v>
+        <v>55.4</v>
       </c>
       <c r="J21" s="39" t="n">
-        <v>59.9</v>
+        <v>78.3</v>
       </c>
       <c r="K21" s="39" t="n">
-        <v>75.8</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="L21" s="39" t="n">
-        <v>84.2</v>
+        <v>65</v>
       </c>
       <c r="M21" s="39" t="n">
-        <v>49.8</v>
+        <v>33.9</v>
       </c>
       <c r="N21" s="39" t="n">
-        <v>58.3</v>
+        <v>33.9</v>
       </c>
       <c r="O21" s="39" t="n">
-        <v>58.3</v>
+        <v>28.9</v>
       </c>
       <c r="P21" s="39" t="n">
-        <v>90.5</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="Q21" s="39" t="n">
-        <v>94.09999999999999</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="R21" s="39" t="n">
-        <v>98</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="S21" s="39" t="n">
-        <v>98</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="T21" s="39" t="n">
-        <v>98</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="U21" s="39" t="n">
-        <v>13.4</v>
+        <v>32.6</v>
       </c>
       <c r="V21" s="39" t="n">
-        <v>10.4</v>
+        <v>54.8</v>
       </c>
       <c r="W21" s="39" t="n">
-        <v>3.2</v>
+        <v>58.7</v>
       </c>
       <c r="X21" s="39" t="n">
-        <v>59.4</v>
+        <v>58.7</v>
       </c>
       <c r="Y21" s="39" t="inlineStr">
         <is>
-          <t>价值100ETF</t>
+          <t>港股创新药ETF</t>
         </is>
       </c>
     </row>
@@ -13725,80 +13723,82 @@
       <c r="A22" s="39" t="n">
         <v>20</v>
       </c>
-      <c r="B22" s="39" t="n">
-        <v>159745</v>
+      <c r="B22" s="39" t="inlineStr">
+        <is>
+          <t>512040</t>
+        </is>
       </c>
       <c r="C22" s="39" t="inlineStr">
         <is>
-          <t>建材ETF</t>
+          <t>价值100ETF</t>
         </is>
       </c>
       <c r="D22" s="39" t="n">
-        <v>5.89</v>
+        <v>19.23</v>
       </c>
       <c r="E22" s="39" t="n">
-        <v>76.8</v>
+        <v>18.5</v>
       </c>
       <c r="F22" s="39" t="n">
-        <v>7</v>
+        <v>1.6</v>
       </c>
       <c r="G22" s="39" t="n">
-        <v>50.3</v>
+        <v>24.3</v>
       </c>
       <c r="H22" s="39" t="n">
-        <v>69.59999999999999</v>
+        <v>31.6</v>
       </c>
       <c r="I22" s="39" t="n">
-        <v>74.8</v>
+        <v>67.3</v>
       </c>
       <c r="J22" s="39" t="n">
-        <v>59.5</v>
+        <v>59.9</v>
       </c>
       <c r="K22" s="39" t="n">
-        <v>46.7</v>
+        <v>75.8</v>
       </c>
       <c r="L22" s="39" t="n">
-        <v>25.2</v>
+        <v>84.2</v>
       </c>
       <c r="M22" s="39" t="n">
-        <v>14.9</v>
+        <v>49.8</v>
       </c>
       <c r="N22" s="39" t="n">
-        <v>75.40000000000001</v>
+        <v>58.3</v>
       </c>
       <c r="O22" s="39" t="n">
-        <v>78.7</v>
+        <v>58.3</v>
       </c>
       <c r="P22" s="39" t="n">
-        <v>33.3</v>
+        <v>90.5</v>
       </c>
       <c r="Q22" s="39" t="n">
-        <v>72</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="R22" s="39" t="n">
-        <v>40.6</v>
+        <v>98</v>
       </c>
       <c r="S22" s="39" t="n">
-        <v>21.7</v>
+        <v>98</v>
       </c>
       <c r="T22" s="39" t="n">
-        <v>17.6</v>
+        <v>98</v>
       </c>
       <c r="U22" s="39" t="n">
-        <v>4</v>
+        <v>13.4</v>
       </c>
       <c r="V22" s="39" t="n">
-        <v>3</v>
+        <v>10.4</v>
       </c>
       <c r="W22" s="39" t="n">
-        <v>1.7</v>
+        <v>3.2</v>
       </c>
       <c r="X22" s="39" t="n">
-        <v>59.8</v>
+        <v>59.4</v>
       </c>
       <c r="Y22" s="39" t="inlineStr">
         <is>
-          <t>建材ETF</t>
+          <t>价值100ETF</t>
         </is>
       </c>
     </row>
@@ -13807,79 +13807,79 @@
         <v>21</v>
       </c>
       <c r="B23" s="39" t="n">
-        <v>159928</v>
+        <v>159865</v>
       </c>
       <c r="C23" s="39" t="inlineStr">
         <is>
-          <t>消费ETF</t>
+          <t>养殖ETF</t>
         </is>
       </c>
       <c r="D23" s="39" t="n">
-        <v>151.55</v>
+        <v>32.01</v>
       </c>
       <c r="E23" s="39" t="n">
-        <v>80.8</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="F23" s="39" t="n">
-        <v>18.8</v>
+        <v>29.7</v>
       </c>
       <c r="G23" s="39" t="n">
-        <v>70.7</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="H23" s="39" t="n">
-        <v>80.59999999999999</v>
+        <v>81.8</v>
       </c>
       <c r="I23" s="39" t="n">
-        <v>81.59999999999999</v>
+        <v>84.8</v>
       </c>
       <c r="J23" s="39" t="n">
-        <v>41.6</v>
+        <v>28.9</v>
       </c>
       <c r="K23" s="39" t="n">
-        <v>29</v>
+        <v>41.7</v>
       </c>
       <c r="L23" s="39" t="n">
-        <v>38.4</v>
+        <v>37.2</v>
       </c>
       <c r="M23" s="39" t="n">
-        <v>65.59999999999999</v>
+        <v>18</v>
       </c>
       <c r="N23" s="39" t="n">
-        <v>84.2</v>
+        <v>18</v>
       </c>
       <c r="O23" s="39" t="n">
-        <v>32.1</v>
+        <v>5.2</v>
       </c>
       <c r="P23" s="39" t="n">
-        <v>15.8</v>
+        <v>35.7</v>
       </c>
       <c r="Q23" s="39" t="n">
-        <v>40.1</v>
+        <v>80.3</v>
       </c>
       <c r="R23" s="39" t="n">
-        <v>14.7</v>
+        <v>23.8</v>
       </c>
       <c r="S23" s="39" t="n">
-        <v>12.1</v>
+        <v>52</v>
       </c>
       <c r="T23" s="39" t="n">
-        <v>7.1</v>
+        <v>36</v>
       </c>
       <c r="U23" s="39" t="n">
-        <v>3.2</v>
+        <v>17.8</v>
       </c>
       <c r="V23" s="39" t="n">
-        <v>1.8</v>
+        <v>48.8</v>
       </c>
       <c r="W23" s="39" t="n">
-        <v>46.9</v>
+        <v>32.5</v>
       </c>
       <c r="X23" s="39" t="n">
-        <v>63.6</v>
+        <v>59.6</v>
       </c>
       <c r="Y23" s="39" t="inlineStr">
         <is>
-          <t>消费ETF</t>
+          <t>养殖ETF</t>
         </is>
       </c>
     </row>
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="D24" s="39" t="n">
-        <v>1629.13</v>
+        <v>1628.53</v>
       </c>
       <c r="E24" s="39" t="n">
         <v>42</v>
@@ -13956,7 +13956,7 @@
         <v>4.7</v>
       </c>
       <c r="X24" s="39" t="n">
-        <v>63.7</v>
+        <v>60.1</v>
       </c>
       <c r="Y24" s="39" t="inlineStr">
         <is>
@@ -13969,79 +13969,79 @@
         <v>23</v>
       </c>
       <c r="B25" s="39" t="n">
-        <v>512200</v>
+        <v>159766</v>
       </c>
       <c r="C25" s="39" t="inlineStr">
         <is>
-          <t>房地产ETF</t>
+          <t>旅游ETF</t>
         </is>
       </c>
       <c r="D25" s="39" t="n">
-        <v>65.11</v>
+        <v>31.5</v>
       </c>
       <c r="E25" s="39" t="n">
-        <v>76.2</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="F25" s="39" t="n">
-        <v>5.7</v>
+        <v>11.2</v>
       </c>
       <c r="G25" s="39" t="n">
-        <v>34.5</v>
+        <v>52.8</v>
       </c>
       <c r="H25" s="39" t="n">
-        <v>71.8</v>
+        <v>80.8</v>
       </c>
       <c r="I25" s="39" t="n">
-        <v>81.8</v>
+        <v>85.3</v>
       </c>
       <c r="J25" s="39" t="n">
-        <v>64.2</v>
+        <v>64.3</v>
       </c>
       <c r="K25" s="39" t="n">
-        <v>64.2</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="L25" s="39" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M25" s="39" t="n">
-        <v>54.3</v>
+        <v>73.7</v>
       </c>
       <c r="N25" s="39" t="n">
-        <v>87.59999999999999</v>
+        <v>84.3</v>
       </c>
       <c r="O25" s="39" t="n">
-        <v>93.90000000000001</v>
+        <v>29</v>
       </c>
       <c r="P25" s="39" t="n">
-        <v>82.5</v>
+        <v>22.7</v>
       </c>
       <c r="Q25" s="39" t="n">
-        <v>89.40000000000001</v>
+        <v>15.8</v>
       </c>
       <c r="R25" s="39" t="n">
-        <v>27.4</v>
+        <v>6.3</v>
       </c>
       <c r="S25" s="39" t="n">
-        <v>48.9</v>
+        <v>5.1</v>
       </c>
       <c r="T25" s="39" t="n">
-        <v>21.5</v>
+        <v>40</v>
       </c>
       <c r="U25" s="39" t="n">
-        <v>4.6</v>
+        <v>11.6</v>
       </c>
       <c r="V25" s="39" t="n">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="W25" s="39" t="n">
-        <v>35.6</v>
+        <v>4.5</v>
       </c>
       <c r="X25" s="39" t="n">
-        <v>65.5</v>
+        <v>62.6</v>
       </c>
       <c r="Y25" s="39" t="inlineStr">
         <is>
-          <t>房地产ETF</t>
+          <t>旅游ETF</t>
         </is>
       </c>
     </row>
@@ -14050,79 +14050,79 @@
         <v>24</v>
       </c>
       <c r="B26" s="39" t="n">
-        <v>159865</v>
+        <v>159928</v>
       </c>
       <c r="C26" s="39" t="inlineStr">
         <is>
-          <t>养殖ETF</t>
+          <t>消费ETF</t>
         </is>
       </c>
       <c r="D26" s="39" t="n">
-        <v>32.06</v>
+        <v>151.55</v>
       </c>
       <c r="E26" s="39" t="n">
-        <v>89.90000000000001</v>
+        <v>80.8</v>
       </c>
       <c r="F26" s="39" t="n">
-        <v>29.7</v>
+        <v>18.8</v>
       </c>
       <c r="G26" s="39" t="n">
-        <v>87.40000000000001</v>
+        <v>70.7</v>
       </c>
       <c r="H26" s="39" t="n">
-        <v>81.8</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="I26" s="39" t="n">
-        <v>84.8</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="J26" s="39" t="n">
-        <v>28.9</v>
+        <v>41.6</v>
       </c>
       <c r="K26" s="39" t="n">
-        <v>41.7</v>
+        <v>29</v>
       </c>
       <c r="L26" s="39" t="n">
-        <v>37.2</v>
+        <v>38.4</v>
       </c>
       <c r="M26" s="39" t="n">
-        <v>18</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="N26" s="39" t="n">
-        <v>18</v>
+        <v>84.2</v>
       </c>
       <c r="O26" s="39" t="n">
-        <v>5.2</v>
+        <v>32.1</v>
       </c>
       <c r="P26" s="39" t="n">
-        <v>35.7</v>
+        <v>15.8</v>
       </c>
       <c r="Q26" s="39" t="n">
-        <v>80.3</v>
+        <v>40.1</v>
       </c>
       <c r="R26" s="39" t="n">
-        <v>23.8</v>
+        <v>14.7</v>
       </c>
       <c r="S26" s="39" t="n">
-        <v>52</v>
+        <v>12.1</v>
       </c>
       <c r="T26" s="39" t="n">
-        <v>36</v>
+        <v>7.1</v>
       </c>
       <c r="U26" s="39" t="n">
-        <v>17.8</v>
+        <v>3.2</v>
       </c>
       <c r="V26" s="39" t="n">
-        <v>48.8</v>
+        <v>1.8</v>
       </c>
       <c r="W26" s="39" t="n">
-        <v>32.5</v>
+        <v>46.9</v>
       </c>
       <c r="X26" s="39" t="n">
-        <v>66.3</v>
+        <v>63.6</v>
       </c>
       <c r="Y26" s="39" t="inlineStr">
         <is>
-          <t>养殖ETF</t>
+          <t>消费ETF</t>
         </is>
       </c>
     </row>
@@ -14131,79 +14131,79 @@
         <v>25</v>
       </c>
       <c r="B27" s="39" t="n">
-        <v>561320</v>
+        <v>159745</v>
       </c>
       <c r="C27" s="39" t="inlineStr">
         <is>
-          <t>交运ETF</t>
+          <t>建材ETF</t>
         </is>
       </c>
       <c r="D27" s="39" t="n">
-        <v>0.65</v>
+        <v>5.89</v>
       </c>
       <c r="E27" s="39" t="n">
-        <v>42.5</v>
+        <v>76.8</v>
       </c>
       <c r="F27" s="39" t="n">
+        <v>7</v>
+      </c>
+      <c r="G27" s="39" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="H27" s="39" t="n">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="I27" s="39" t="n">
+        <v>74.8</v>
+      </c>
+      <c r="J27" s="39" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="K27" s="39" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="L27" s="39" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M27" s="39" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="N27" s="39" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="O27" s="39" t="n">
+        <v>78.7</v>
+      </c>
+      <c r="P27" s="39" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="Q27" s="39" t="n">
+        <v>72</v>
+      </c>
+      <c r="R27" s="39" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="S27" s="39" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="T27" s="39" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="U27" s="39" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" s="39" t="n">
+        <v>3</v>
+      </c>
+      <c r="W27" s="39" t="n">
         <v>1.7</v>
       </c>
-      <c r="G27" s="39" t="n">
-        <v>53</v>
-      </c>
-      <c r="H27" s="39" t="n">
-        <v>64.2</v>
-      </c>
-      <c r="I27" s="39" t="n">
-        <v>77</v>
-      </c>
-      <c r="J27" s="39" t="n">
-        <v>57.9</v>
-      </c>
-      <c r="K27" s="39" t="n">
-        <v>57.9</v>
-      </c>
-      <c r="L27" s="39" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="M27" s="39" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="N27" s="39" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="O27" s="39" t="n">
-        <v>71.90000000000001</v>
-      </c>
-      <c r="P27" s="39" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="Q27" s="39" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="R27" s="39" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="S27" s="39" t="n">
-        <v>61.4</v>
-      </c>
-      <c r="T27" s="39" t="n">
-        <v>61.4</v>
-      </c>
-      <c r="U27" s="39" t="n">
-        <v>37</v>
-      </c>
-      <c r="V27" s="39" t="n">
-        <v>84.90000000000001</v>
-      </c>
-      <c r="W27" s="39" t="n">
-        <v>17.7</v>
-      </c>
       <c r="X27" s="39" t="n">
-        <v>68.09999999999999</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="Y27" s="39" t="inlineStr">
         <is>
-          <t>交运ETF</t>
+          <t>建材ETF</t>
         </is>
       </c>
     </row>
@@ -14211,80 +14211,82 @@
       <c r="A28" s="39" t="n">
         <v>26</v>
       </c>
-      <c r="B28" s="39" t="n">
-        <v>513290</v>
+      <c r="B28" s="39" t="inlineStr">
+        <is>
+          <t>159736</t>
+        </is>
       </c>
       <c r="C28" s="39" t="inlineStr">
         <is>
-          <t>纳指生物科技ETF</t>
+          <t>饮食ETF</t>
         </is>
       </c>
       <c r="D28" s="39" t="n">
-        <v>12.64</v>
+        <v>48.69</v>
       </c>
       <c r="E28" s="39" t="n">
-        <v>0.6</v>
+        <v>83.8</v>
       </c>
       <c r="F28" s="39" t="n">
-        <v>0.1</v>
+        <v>11.8</v>
       </c>
       <c r="G28" s="39" t="n">
-        <v>44.4</v>
+        <v>59.9</v>
       </c>
       <c r="H28" s="39" t="n">
-        <v>23</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="I28" s="39" t="n">
-        <v>64.5</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="J28" s="39" t="n">
-        <v>40.9</v>
+        <v>50.1</v>
       </c>
       <c r="K28" s="39" t="n">
-        <v>65.40000000000001</v>
+        <v>46</v>
       </c>
       <c r="L28" s="39" t="n">
-        <v>80.2</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="M28" s="39" t="n">
-        <v>57.5</v>
+        <v>78.2</v>
       </c>
       <c r="N28" s="39" t="n">
-        <v>48.4</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="O28" s="39" t="n">
-        <v>44.8</v>
+        <v>34.9</v>
       </c>
       <c r="P28" s="39" t="n">
-        <v>22.1</v>
+        <v>18.6</v>
       </c>
       <c r="Q28" s="39" t="n">
-        <v>71.59999999999999</v>
+        <v>18.6</v>
       </c>
       <c r="R28" s="39" t="n">
-        <v>92.8</v>
+        <v>7.4</v>
       </c>
       <c r="S28" s="39" t="n">
-        <v>92.8</v>
+        <v>4.7</v>
       </c>
       <c r="T28" s="39" t="n">
-        <v>97.5</v>
+        <v>3.4</v>
       </c>
       <c r="U28" s="39" t="n">
-        <v>54.1</v>
+        <v>0.9</v>
       </c>
       <c r="V28" s="39" t="n">
-        <v>75.7</v>
+        <v>0.5</v>
       </c>
       <c r="W28" s="39" t="n">
-        <v>84</v>
+        <v>0.5</v>
       </c>
       <c r="X28" s="39" t="n">
-        <v>68.5</v>
+        <v>65.3</v>
       </c>
       <c r="Y28" s="39" t="inlineStr">
         <is>
-          <t>纳指生物科技ETF</t>
+          <t>饮食ETF</t>
         </is>
       </c>
     </row>
@@ -14292,80 +14294,82 @@
       <c r="A29" s="39" t="n">
         <v>27</v>
       </c>
-      <c r="B29" s="39" t="n">
-        <v>513120</v>
+      <c r="B29" s="39" t="inlineStr">
+        <is>
+          <t>563000</t>
+        </is>
       </c>
       <c r="C29" s="39" t="inlineStr">
         <is>
-          <t>港股创新药ETF</t>
+          <t>中国A50ETF</t>
         </is>
       </c>
       <c r="D29" s="39" t="n">
-        <v>108.54</v>
+        <v>39.75</v>
       </c>
       <c r="E29" s="39" t="n">
-        <v>39.9</v>
+        <v>2</v>
       </c>
       <c r="F29" s="39" t="n">
-        <v>7.2</v>
+        <v>0.1</v>
       </c>
       <c r="G29" s="39" t="n">
-        <v>3.3</v>
+        <v>23.2</v>
       </c>
       <c r="H29" s="39" t="n">
-        <v>9</v>
+        <v>43.5</v>
       </c>
       <c r="I29" s="39" t="n">
-        <v>55.4</v>
+        <v>69.2</v>
       </c>
       <c r="J29" s="39" t="n">
-        <v>78.3</v>
+        <v>80.5</v>
       </c>
       <c r="K29" s="39" t="n">
-        <v>89.09999999999999</v>
+        <v>87.2</v>
       </c>
       <c r="L29" s="39" t="n">
-        <v>65</v>
+        <v>88.7</v>
       </c>
       <c r="M29" s="39" t="n">
-        <v>33.9</v>
+        <v>93.5</v>
       </c>
       <c r="N29" s="39" t="n">
-        <v>33.9</v>
+        <v>95.8</v>
       </c>
       <c r="O29" s="39" t="n">
-        <v>28.9</v>
+        <v>95.8</v>
       </c>
       <c r="P29" s="39" t="n">
-        <v>82.09999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="Q29" s="39" t="n">
-        <v>95.59999999999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="R29" s="39" t="n">
-        <v>97.09999999999999</v>
+        <v>71.8</v>
       </c>
       <c r="S29" s="39" t="n">
-        <v>98.09999999999999</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="T29" s="39" t="n">
-        <v>98.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="U29" s="39" t="n">
-        <v>32.6</v>
+        <v>33.7</v>
       </c>
       <c r="V29" s="39" t="n">
-        <v>54.8</v>
+        <v>5.9</v>
       </c>
       <c r="W29" s="39" t="n">
-        <v>58.7</v>
+        <v>3.2</v>
       </c>
       <c r="X29" s="39" t="n">
-        <v>69.3</v>
+        <v>65.5</v>
       </c>
       <c r="Y29" s="39" t="inlineStr">
         <is>
-          <t>港股创新药ETF</t>
+          <t>中国A50ETF</t>
         </is>
       </c>
     </row>
@@ -14374,79 +14378,79 @@
         <v>28</v>
       </c>
       <c r="B30" s="39" t="n">
-        <v>159647</v>
+        <v>512200</v>
       </c>
       <c r="C30" s="39" t="inlineStr">
         <is>
-          <t>中药ETF</t>
+          <t>房地产ETF</t>
         </is>
       </c>
       <c r="D30" s="39" t="n">
-        <v>7.36</v>
+        <v>65.11</v>
       </c>
       <c r="E30" s="39" t="n">
-        <v>78.40000000000001</v>
+        <v>76.2</v>
       </c>
       <c r="F30" s="39" t="n">
-        <v>9.699999999999999</v>
+        <v>5.7</v>
       </c>
       <c r="G30" s="39" t="n">
-        <v>40.7</v>
+        <v>34.5</v>
       </c>
       <c r="H30" s="39" t="n">
-        <v>60</v>
+        <v>71.8</v>
       </c>
       <c r="I30" s="39" t="n">
-        <v>71.8</v>
+        <v>81.8</v>
       </c>
       <c r="J30" s="39" t="n">
-        <v>56.9</v>
+        <v>64.2</v>
       </c>
       <c r="K30" s="39" t="n">
-        <v>60.9</v>
+        <v>64.2</v>
       </c>
       <c r="L30" s="39" t="n">
-        <v>87.3</v>
+        <v>30</v>
       </c>
       <c r="M30" s="39" t="n">
-        <v>50.3</v>
+        <v>54.3</v>
       </c>
       <c r="N30" s="39" t="n">
-        <v>44.1</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="O30" s="39" t="n">
-        <v>29.5</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="P30" s="39" t="n">
-        <v>47</v>
+        <v>82.5</v>
       </c>
       <c r="Q30" s="39" t="n">
-        <v>91.09999999999999</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="R30" s="39" t="n">
-        <v>30.4</v>
+        <v>27.4</v>
       </c>
       <c r="S30" s="39" t="n">
-        <v>51.8</v>
+        <v>48.9</v>
       </c>
       <c r="T30" s="39" t="n">
-        <v>26.9</v>
+        <v>21.5</v>
       </c>
       <c r="U30" s="39" t="n">
-        <v>9.800000000000001</v>
+        <v>4.6</v>
       </c>
       <c r="V30" s="39" t="n">
-        <v>7.9</v>
+        <v>7.6</v>
       </c>
       <c r="W30" s="39" t="n">
-        <v>41.2</v>
+        <v>35.6</v>
       </c>
       <c r="X30" s="39" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Y30" s="39" t="inlineStr">
         <is>
-          <t>中药ETF</t>
+          <t>房地产ETF</t>
         </is>
       </c>
     </row>
@@ -14454,82 +14458,80 @@
       <c r="A31" s="39" t="n">
         <v>29</v>
       </c>
-      <c r="B31" s="39" t="inlineStr">
-        <is>
-          <t>563000</t>
-        </is>
+      <c r="B31" s="39" t="n">
+        <v>516970</v>
       </c>
       <c r="C31" s="39" t="inlineStr">
         <is>
-          <t>中国A50ETF</t>
+          <t>基建50ETF</t>
         </is>
       </c>
       <c r="D31" s="39" t="n">
-        <v>39.8</v>
+        <v>24.63</v>
       </c>
       <c r="E31" s="39" t="n">
-        <v>2</v>
+        <v>72.8</v>
       </c>
       <c r="F31" s="39" t="n">
-        <v>0.1</v>
+        <v>5.3</v>
       </c>
       <c r="G31" s="39" t="n">
-        <v>23.2</v>
+        <v>46.2</v>
       </c>
       <c r="H31" s="39" t="n">
-        <v>43.5</v>
+        <v>65.3</v>
       </c>
       <c r="I31" s="39" t="n">
-        <v>69.2</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="J31" s="39" t="n">
-        <v>80.5</v>
+        <v>49.9</v>
       </c>
       <c r="K31" s="39" t="n">
-        <v>87.2</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="L31" s="39" t="n">
-        <v>88.7</v>
+        <v>43</v>
       </c>
       <c r="M31" s="39" t="n">
-        <v>93.5</v>
+        <v>50</v>
       </c>
       <c r="N31" s="39" t="n">
-        <v>95.8</v>
+        <v>71.2</v>
       </c>
       <c r="O31" s="39" t="n">
-        <v>95.8</v>
+        <v>90.3</v>
       </c>
       <c r="P31" s="39" t="n">
-        <v>98.7</v>
+        <v>65.5</v>
       </c>
       <c r="Q31" s="39" t="n">
-        <v>99.40000000000001</v>
+        <v>88.2</v>
       </c>
       <c r="R31" s="39" t="n">
-        <v>71.8</v>
+        <v>88.2</v>
       </c>
       <c r="S31" s="39" t="n">
-        <v>81.90000000000001</v>
+        <v>41.4</v>
       </c>
       <c r="T31" s="39" t="n">
-        <v>81.90000000000001</v>
+        <v>81.2</v>
       </c>
       <c r="U31" s="39" t="n">
-        <v>33.7</v>
+        <v>21.8</v>
       </c>
       <c r="V31" s="39" t="n">
-        <v>5.9</v>
+        <v>17.6</v>
       </c>
       <c r="W31" s="39" t="n">
-        <v>3.2</v>
+        <v>8.9</v>
       </c>
       <c r="X31" s="39" t="n">
-        <v>70.3</v>
+        <v>67.2</v>
       </c>
       <c r="Y31" s="39" t="inlineStr">
         <is>
-          <t>中国A50ETF</t>
+          <t>基建50ETF</t>
         </is>
       </c>
     </row>
@@ -14538,79 +14540,79 @@
         <v>30</v>
       </c>
       <c r="B32" s="39" t="n">
-        <v>516970</v>
+        <v>561320</v>
       </c>
       <c r="C32" s="39" t="inlineStr">
         <is>
-          <t>基建50ETF</t>
+          <t>交运ETF</t>
         </is>
       </c>
       <c r="D32" s="39" t="n">
-        <v>24.68</v>
+        <v>0.65</v>
       </c>
       <c r="E32" s="39" t="n">
-        <v>72.8</v>
+        <v>42.5</v>
       </c>
       <c r="F32" s="39" t="n">
-        <v>5.3</v>
+        <v>1.7</v>
       </c>
       <c r="G32" s="39" t="n">
-        <v>46.2</v>
+        <v>53</v>
       </c>
       <c r="H32" s="39" t="n">
-        <v>65.3</v>
+        <v>64.2</v>
       </c>
       <c r="I32" s="39" t="n">
-        <v>69.09999999999999</v>
+        <v>77</v>
       </c>
       <c r="J32" s="39" t="n">
-        <v>49.9</v>
+        <v>57.9</v>
       </c>
       <c r="K32" s="39" t="n">
-        <v>66.09999999999999</v>
+        <v>57.9</v>
       </c>
       <c r="L32" s="39" t="n">
-        <v>43</v>
+        <v>49.6</v>
       </c>
       <c r="M32" s="39" t="n">
-        <v>50</v>
+        <v>89.3</v>
       </c>
       <c r="N32" s="39" t="n">
-        <v>71.2</v>
+        <v>89.3</v>
       </c>
       <c r="O32" s="39" t="n">
-        <v>90.3</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="P32" s="39" t="n">
-        <v>65.5</v>
+        <v>21.5</v>
       </c>
       <c r="Q32" s="39" t="n">
-        <v>88.2</v>
+        <v>46.5</v>
       </c>
       <c r="R32" s="39" t="n">
-        <v>88.2</v>
+        <v>23.8</v>
       </c>
       <c r="S32" s="39" t="n">
-        <v>41.4</v>
+        <v>61.4</v>
       </c>
       <c r="T32" s="39" t="n">
-        <v>81.2</v>
+        <v>61.4</v>
       </c>
       <c r="U32" s="39" t="n">
-        <v>21.8</v>
+        <v>37</v>
       </c>
       <c r="V32" s="39" t="n">
-        <v>17.6</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="W32" s="39" t="n">
-        <v>8.9</v>
+        <v>17.7</v>
       </c>
       <c r="X32" s="39" t="n">
-        <v>71.3</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="Y32" s="39" t="inlineStr">
         <is>
-          <t>基建50ETF</t>
+          <t>交运ETF</t>
         </is>
       </c>
     </row>
@@ -14620,80 +14622,80 @@
       </c>
       <c r="B33" s="39" t="inlineStr">
         <is>
-          <t>159736</t>
+          <t>560050</t>
         </is>
       </c>
       <c r="C33" s="39" t="inlineStr">
         <is>
-          <t>饮食ETF</t>
+          <t>MSCI中国A50ETF</t>
         </is>
       </c>
       <c r="D33" s="39" t="n">
-        <v>48.69</v>
+        <v>47.25</v>
       </c>
       <c r="E33" s="39" t="n">
-        <v>83.8</v>
+        <v>2.2</v>
       </c>
       <c r="F33" s="39" t="n">
-        <v>11.8</v>
+        <v>0.1</v>
       </c>
       <c r="G33" s="39" t="n">
-        <v>59.9</v>
+        <v>30.2</v>
       </c>
       <c r="H33" s="39" t="n">
-        <v>74.40000000000001</v>
+        <v>40.4</v>
       </c>
       <c r="I33" s="39" t="n">
-        <v>84.09999999999999</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="J33" s="39" t="n">
-        <v>50.1</v>
+        <v>80.5</v>
       </c>
       <c r="K33" s="39" t="n">
-        <v>46</v>
+        <v>86.8</v>
       </c>
       <c r="L33" s="39" t="n">
-        <v>70.40000000000001</v>
+        <v>88.3</v>
       </c>
       <c r="M33" s="39" t="n">
-        <v>78.2</v>
+        <v>90.5</v>
       </c>
       <c r="N33" s="39" t="n">
-        <v>90.59999999999999</v>
+        <v>95.5</v>
       </c>
       <c r="O33" s="39" t="n">
-        <v>34.9</v>
+        <v>56</v>
       </c>
       <c r="P33" s="39" t="n">
-        <v>18.6</v>
+        <v>85.7</v>
       </c>
       <c r="Q33" s="39" t="n">
-        <v>18.6</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="R33" s="39" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="S33" s="39" t="n">
+        <v>95.8</v>
+      </c>
+      <c r="T33" s="39" t="n">
+        <v>58.8</v>
+      </c>
+      <c r="U33" s="39" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="V33" s="39" t="n">
         <v>7.4</v>
       </c>
-      <c r="S33" s="39" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="T33" s="39" t="n">
+      <c r="W33" s="39" t="n">
         <v>3.4</v>
       </c>
-      <c r="U33" s="39" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="V33" s="39" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="W33" s="39" t="n">
-        <v>0.5</v>
-      </c>
       <c r="X33" s="39" t="n">
-        <v>71.5</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="Y33" s="39" t="inlineStr">
         <is>
-          <t>饮食ETF</t>
+          <t>MSCI中国A50ETF</t>
         </is>
       </c>
     </row>
@@ -14701,82 +14703,80 @@
       <c r="A34" s="39" t="n">
         <v>32</v>
       </c>
-      <c r="B34" s="39" t="inlineStr">
-        <is>
-          <t>560050</t>
-        </is>
+      <c r="B34" s="39" t="n">
+        <v>159647</v>
       </c>
       <c r="C34" s="39" t="inlineStr">
         <is>
-          <t>MSCI中国A50ETF</t>
+          <t>中药ETF</t>
         </is>
       </c>
       <c r="D34" s="39" t="n">
-        <v>47.31</v>
+        <v>7.36</v>
       </c>
       <c r="E34" s="39" t="n">
-        <v>2.2</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="F34" s="39" t="n">
-        <v>0.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="G34" s="39" t="n">
-        <v>30.2</v>
+        <v>40.7</v>
       </c>
       <c r="H34" s="39" t="n">
-        <v>40.4</v>
+        <v>60</v>
       </c>
       <c r="I34" s="39" t="n">
-        <v>70.59999999999999</v>
+        <v>71.8</v>
       </c>
       <c r="J34" s="39" t="n">
-        <v>80.5</v>
+        <v>56.9</v>
       </c>
       <c r="K34" s="39" t="n">
-        <v>86.8</v>
+        <v>60.9</v>
       </c>
       <c r="L34" s="39" t="n">
-        <v>88.3</v>
+        <v>87.3</v>
       </c>
       <c r="M34" s="39" t="n">
-        <v>90.5</v>
+        <v>50.3</v>
       </c>
       <c r="N34" s="39" t="n">
-        <v>95.5</v>
+        <v>44.1</v>
       </c>
       <c r="O34" s="39" t="n">
-        <v>56</v>
+        <v>29.5</v>
       </c>
       <c r="P34" s="39" t="n">
-        <v>85.7</v>
+        <v>47</v>
       </c>
       <c r="Q34" s="39" t="n">
-        <v>92.09999999999999</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="R34" s="39" t="n">
-        <v>93.90000000000001</v>
+        <v>30.4</v>
       </c>
       <c r="S34" s="39" t="n">
-        <v>95.8</v>
+        <v>51.8</v>
       </c>
       <c r="T34" s="39" t="n">
-        <v>58.8</v>
+        <v>26.9</v>
       </c>
       <c r="U34" s="39" t="n">
-        <v>33.2</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="V34" s="39" t="n">
-        <v>7.4</v>
+        <v>7.9</v>
       </c>
       <c r="W34" s="39" t="n">
-        <v>3.4</v>
+        <v>41.2</v>
       </c>
       <c r="X34" s="39" t="n">
-        <v>72.5</v>
+        <v>70</v>
       </c>
       <c r="Y34" s="39" t="inlineStr">
         <is>
-          <t>MSCI中国A50ETF</t>
+          <t>中药ETF</t>
         </is>
       </c>
     </row>
@@ -14785,79 +14785,79 @@
         <v>33</v>
       </c>
       <c r="B35" s="39" t="n">
-        <v>159825</v>
+        <v>512950</v>
       </c>
       <c r="C35" s="39" t="inlineStr">
         <is>
-          <t>农业ETF</t>
+          <t>央企改革ETF</t>
         </is>
       </c>
       <c r="D35" s="39" t="n">
-        <v>21.54</v>
+        <v>55</v>
       </c>
       <c r="E35" s="39" t="n">
-        <v>86</v>
+        <v>51.5</v>
       </c>
       <c r="F35" s="39" t="n">
-        <v>21.5</v>
+        <v>3.1</v>
       </c>
       <c r="G35" s="39" t="n">
-        <v>86.40000000000001</v>
+        <v>49.5</v>
       </c>
       <c r="H35" s="39" t="n">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="I35" s="39" t="n">
-        <v>81.90000000000001</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="J35" s="39" t="n">
-        <v>31.2</v>
+        <v>59.9</v>
       </c>
       <c r="K35" s="39" t="n">
-        <v>45.4</v>
+        <v>72.8</v>
       </c>
       <c r="L35" s="39" t="n">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="M35" s="39" t="n">
-        <v>22.3</v>
+        <v>76.3</v>
       </c>
       <c r="N35" s="39" t="n">
-        <v>18.5</v>
+        <v>58.2</v>
       </c>
       <c r="O35" s="39" t="n">
-        <v>5.5</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="P35" s="39" t="n">
-        <v>41</v>
+        <v>43.6</v>
       </c>
       <c r="Q35" s="39" t="n">
-        <v>78.59999999999999</v>
+        <v>24.5</v>
       </c>
       <c r="R35" s="39" t="n">
-        <v>27.9</v>
+        <v>6.7</v>
       </c>
       <c r="S35" s="39" t="n">
-        <v>52.4</v>
+        <v>3.4</v>
       </c>
       <c r="T35" s="39" t="n">
-        <v>39.1</v>
+        <v>3.4</v>
       </c>
       <c r="U35" s="39" t="n">
-        <v>15.5</v>
+        <v>1.4</v>
       </c>
       <c r="V35" s="39" t="n">
-        <v>39.7</v>
+        <v>0.4</v>
       </c>
       <c r="W35" s="39" t="n">
-        <v>25.3</v>
+        <v>0.2</v>
       </c>
       <c r="X35" s="39" t="n">
-        <v>73.5</v>
+        <v>73.3</v>
       </c>
       <c r="Y35" s="39" t="inlineStr">
         <is>
-          <t>农业ETF</t>
+          <t>央企改革ETF</t>
         </is>
       </c>
     </row>
@@ -14866,79 +14866,79 @@
         <v>34</v>
       </c>
       <c r="B36" s="39" t="n">
-        <v>512950</v>
+        <v>159825</v>
       </c>
       <c r="C36" s="39" t="inlineStr">
         <is>
-          <t>央企改革ETF</t>
+          <t>农业ETF</t>
         </is>
       </c>
       <c r="D36" s="39" t="n">
-        <v>55</v>
+        <v>21.57</v>
       </c>
       <c r="E36" s="39" t="n">
-        <v>51.5</v>
+        <v>86</v>
       </c>
       <c r="F36" s="39" t="n">
-        <v>3.1</v>
+        <v>21.5</v>
       </c>
       <c r="G36" s="39" t="n">
-        <v>49.5</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="H36" s="39" t="n">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="I36" s="39" t="n">
-        <v>69.90000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="J36" s="39" t="n">
-        <v>59.9</v>
+        <v>31.2</v>
       </c>
       <c r="K36" s="39" t="n">
-        <v>72.8</v>
+        <v>45.4</v>
       </c>
       <c r="L36" s="39" t="n">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="M36" s="39" t="n">
-        <v>76.3</v>
+        <v>22.3</v>
       </c>
       <c r="N36" s="39" t="n">
-        <v>58.2</v>
+        <v>18.5</v>
       </c>
       <c r="O36" s="39" t="n">
-        <v>71.59999999999999</v>
+        <v>5.5</v>
       </c>
       <c r="P36" s="39" t="n">
-        <v>43.6</v>
+        <v>41</v>
       </c>
       <c r="Q36" s="39" t="n">
-        <v>24.5</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="R36" s="39" t="n">
-        <v>6.7</v>
+        <v>27.9</v>
       </c>
       <c r="S36" s="39" t="n">
-        <v>3.4</v>
+        <v>52.4</v>
       </c>
       <c r="T36" s="39" t="n">
-        <v>3.4</v>
+        <v>39.1</v>
       </c>
       <c r="U36" s="39" t="n">
-        <v>1.4</v>
+        <v>15.5</v>
       </c>
       <c r="V36" s="39" t="n">
-        <v>0.4</v>
+        <v>39.7</v>
       </c>
       <c r="W36" s="39" t="n">
-        <v>0.2</v>
+        <v>25.3</v>
       </c>
       <c r="X36" s="39" t="n">
-        <v>74.90000000000001</v>
+        <v>73.5</v>
       </c>
       <c r="Y36" s="39" t="inlineStr">
         <is>
-          <t>央企改革ETF</t>
+          <t>农业ETF</t>
         </is>
       </c>
     </row>
@@ -14947,79 +14947,79 @@
         <v>35</v>
       </c>
       <c r="B37" s="39" t="n">
-        <v>518880</v>
+        <v>515210</v>
       </c>
       <c r="C37" s="39" t="inlineStr">
         <is>
-          <t>黄金ETF</t>
+          <t>钢铁ETF</t>
         </is>
       </c>
       <c r="D37" s="39" t="n">
-        <v>604.73</v>
+        <v>19.29</v>
       </c>
       <c r="E37" s="39" t="n">
-        <v>87.40000000000001</v>
+        <v>58.6</v>
       </c>
       <c r="F37" s="39" t="n">
-        <v>17.4</v>
+        <v>4</v>
       </c>
       <c r="G37" s="39" t="n">
-        <v>39</v>
+        <v>15.3</v>
       </c>
       <c r="H37" s="39" t="n">
-        <v>68.7</v>
+        <v>35.5</v>
       </c>
       <c r="I37" s="39" t="n">
-        <v>88.40000000000001</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="J37" s="39" t="n">
-        <v>93.90000000000001</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="K37" s="39" t="n">
-        <v>95.90000000000001</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="L37" s="39" t="n">
-        <v>93.59999999999999</v>
+        <v>44.1</v>
       </c>
       <c r="M37" s="39" t="n">
-        <v>98.8</v>
+        <v>27.7</v>
       </c>
       <c r="N37" s="39" t="n">
-        <v>99.2</v>
+        <v>43.5</v>
       </c>
       <c r="O37" s="39" t="n">
-        <v>99.3</v>
+        <v>67.3</v>
       </c>
       <c r="P37" s="39" t="n">
-        <v>99.8</v>
+        <v>89.8</v>
       </c>
       <c r="Q37" s="39" t="n">
-        <v>100</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="R37" s="39" t="n">
-        <v>26.9</v>
+        <v>89.2</v>
       </c>
       <c r="S37" s="39" t="n">
-        <v>41.4</v>
+        <v>51.6</v>
       </c>
       <c r="T37" s="39" t="n">
-        <v>33.1</v>
+        <v>84.8</v>
       </c>
       <c r="U37" s="39" t="n">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="V37" s="39" t="n">
-        <v>49.2</v>
+        <v>93</v>
       </c>
       <c r="W37" s="39" t="n">
-        <v>30.4</v>
+        <v>22.5</v>
       </c>
       <c r="X37" s="39" t="n">
-        <v>75.90000000000001</v>
+        <v>77</v>
       </c>
       <c r="Y37" s="39" t="inlineStr">
         <is>
-          <t>黄金ETF</t>
+          <t>钢铁ETF</t>
         </is>
       </c>
     </row>
@@ -15028,79 +15028,79 @@
         <v>36</v>
       </c>
       <c r="B38" s="39" t="n">
-        <v>515210</v>
+        <v>515900</v>
       </c>
       <c r="C38" s="39" t="inlineStr">
         <is>
-          <t>钢铁ETF</t>
+          <t>央企创新驱动ETF</t>
         </is>
       </c>
       <c r="D38" s="39" t="n">
-        <v>19.29</v>
+        <v>33.1</v>
       </c>
       <c r="E38" s="39" t="n">
-        <v>58.6</v>
+        <v>46.4</v>
       </c>
       <c r="F38" s="39" t="n">
-        <v>4</v>
+        <v>1.9</v>
       </c>
       <c r="G38" s="39" t="n">
-        <v>15.3</v>
+        <v>45.8</v>
       </c>
       <c r="H38" s="39" t="n">
-        <v>35.5</v>
+        <v>62.3</v>
       </c>
       <c r="I38" s="39" t="n">
-        <v>65.59999999999999</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="J38" s="39" t="n">
-        <v>65.59999999999999</v>
+        <v>54.2</v>
       </c>
       <c r="K38" s="39" t="n">
-        <v>85.40000000000001</v>
+        <v>69.3</v>
       </c>
       <c r="L38" s="39" t="n">
-        <v>44.1</v>
+        <v>44.7</v>
       </c>
       <c r="M38" s="39" t="n">
-        <v>27.7</v>
+        <v>51.6</v>
       </c>
       <c r="N38" s="39" t="n">
-        <v>43.5</v>
+        <v>41.3</v>
       </c>
       <c r="O38" s="39" t="n">
-        <v>67.3</v>
+        <v>86</v>
       </c>
       <c r="P38" s="39" t="n">
-        <v>89.8</v>
+        <v>62.3</v>
       </c>
       <c r="Q38" s="39" t="n">
-        <v>74.09999999999999</v>
+        <v>48.8</v>
       </c>
       <c r="R38" s="39" t="n">
-        <v>89.2</v>
+        <v>34.1</v>
       </c>
       <c r="S38" s="39" t="n">
-        <v>51.6</v>
+        <v>6.5</v>
       </c>
       <c r="T38" s="39" t="n">
-        <v>84.8</v>
+        <v>24.1</v>
       </c>
       <c r="U38" s="39" t="n">
-        <v>93</v>
+        <v>24.1</v>
       </c>
       <c r="V38" s="39" t="n">
-        <v>93</v>
+        <v>3.4</v>
       </c>
       <c r="W38" s="39" t="n">
-        <v>22.5</v>
+        <v>1.7</v>
       </c>
       <c r="X38" s="39" t="n">
-        <v>77</v>
+        <v>77.2</v>
       </c>
       <c r="Y38" s="39" t="inlineStr">
         <is>
-          <t>钢铁ETF</t>
+          <t>央企创新驱动ETF</t>
         </is>
       </c>
     </row>
@@ -15109,79 +15109,79 @@
         <v>37</v>
       </c>
       <c r="B39" s="39" t="n">
-        <v>515900</v>
+        <v>518880</v>
       </c>
       <c r="C39" s="39" t="inlineStr">
         <is>
-          <t>央企创新驱动ETF</t>
+          <t>黄金ETF</t>
         </is>
       </c>
       <c r="D39" s="39" t="n">
+        <v>606.16</v>
+      </c>
+      <c r="E39" s="39" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="F39" s="39" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="G39" s="39" t="n">
+        <v>39</v>
+      </c>
+      <c r="H39" s="39" t="n">
+        <v>68.7</v>
+      </c>
+      <c r="I39" s="39" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="J39" s="39" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K39" s="39" t="n">
+        <v>95.90000000000001</v>
+      </c>
+      <c r="L39" s="39" t="n">
+        <v>93.59999999999999</v>
+      </c>
+      <c r="M39" s="39" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="N39" s="39" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="O39" s="39" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="P39" s="39" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="Q39" s="39" t="n">
+        <v>100</v>
+      </c>
+      <c r="R39" s="39" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="S39" s="39" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="T39" s="39" t="n">
         <v>33.1</v>
       </c>
-      <c r="E39" s="39" t="n">
-        <v>46.4</v>
-      </c>
-      <c r="F39" s="39" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="G39" s="39" t="n">
-        <v>45.8</v>
-      </c>
-      <c r="H39" s="39" t="n">
-        <v>62.3</v>
-      </c>
-      <c r="I39" s="39" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="J39" s="39" t="n">
-        <v>54.2</v>
-      </c>
-      <c r="K39" s="39" t="n">
-        <v>69.3</v>
-      </c>
-      <c r="L39" s="39" t="n">
-        <v>44.7</v>
-      </c>
-      <c r="M39" s="39" t="n">
-        <v>51.6</v>
-      </c>
-      <c r="N39" s="39" t="n">
-        <v>41.3</v>
-      </c>
-      <c r="O39" s="39" t="n">
-        <v>86</v>
-      </c>
-      <c r="P39" s="39" t="n">
-        <v>62.3</v>
-      </c>
-      <c r="Q39" s="39" t="n">
-        <v>48.8</v>
-      </c>
-      <c r="R39" s="39" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="S39" s="39" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="T39" s="39" t="n">
-        <v>24.1</v>
-      </c>
       <c r="U39" s="39" t="n">
-        <v>24.1</v>
+        <v>22</v>
       </c>
       <c r="V39" s="39" t="n">
-        <v>3.4</v>
+        <v>49.2</v>
       </c>
       <c r="W39" s="39" t="n">
-        <v>1.7</v>
+        <v>30.4</v>
       </c>
       <c r="X39" s="39" t="n">
-        <v>77.2</v>
+        <v>78.8</v>
       </c>
       <c r="Y39" s="39" t="inlineStr">
         <is>
-          <t>央企创新驱动ETF</t>
+          <t>黄金ETF</t>
         </is>
       </c>
     </row>
@@ -15258,7 +15258,7 @@
         <v>12.5</v>
       </c>
       <c r="X40" s="39" t="n">
-        <v>81.59999999999999</v>
+        <v>80.5</v>
       </c>
       <c r="Y40" s="39" t="inlineStr">
         <is>
@@ -15270,82 +15270,80 @@
       <c r="A41" s="39" t="n">
         <v>39</v>
       </c>
-      <c r="B41" s="39" t="inlineStr">
-        <is>
-          <t>512580</t>
-        </is>
+      <c r="B41" s="39" t="n">
+        <v>512070</v>
       </c>
       <c r="C41" s="39" t="inlineStr">
         <is>
-          <t>环保ETF</t>
+          <t>证券保险ETF</t>
         </is>
       </c>
       <c r="D41" s="39" t="n">
-        <v>11.74</v>
+        <v>64.01000000000001</v>
       </c>
       <c r="E41" s="39" t="n">
-        <v>11</v>
+        <v>25.7</v>
       </c>
       <c r="F41" s="39" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="G41" s="39" t="n">
-        <v>19.9</v>
+        <v>28.2</v>
       </c>
       <c r="H41" s="39" t="n">
-        <v>34.6</v>
+        <v>48.4</v>
       </c>
       <c r="I41" s="39" t="n">
-        <v>61.2</v>
+        <v>67</v>
       </c>
       <c r="J41" s="39" t="n">
-        <v>68.90000000000001</v>
+        <v>67</v>
       </c>
       <c r="K41" s="39" t="n">
-        <v>79.3</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="L41" s="39" t="n">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="M41" s="39" t="n">
-        <v>36</v>
+        <v>54.9</v>
       </c>
       <c r="N41" s="39" t="n">
-        <v>20.9</v>
+        <v>71.3</v>
       </c>
       <c r="O41" s="39" t="n">
-        <v>57</v>
+        <v>93.8</v>
       </c>
       <c r="P41" s="39" t="n">
-        <v>86.3</v>
+        <v>96.2</v>
       </c>
       <c r="Q41" s="39" t="n">
-        <v>54.5</v>
+        <v>97.3</v>
       </c>
       <c r="R41" s="39" t="n">
-        <v>79.59999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="S41" s="39" t="n">
-        <v>47.9</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="T41" s="39" t="n">
-        <v>74.7</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="U41" s="39" t="n">
-        <v>83.3</v>
+        <v>31.1</v>
       </c>
       <c r="V41" s="39" t="n">
-        <v>24.7</v>
+        <v>11.5</v>
       </c>
       <c r="W41" s="39" t="n">
-        <v>24.7</v>
+        <v>45.7</v>
       </c>
       <c r="X41" s="39" t="n">
-        <v>85</v>
+        <v>81.5</v>
       </c>
       <c r="Y41" s="39" t="inlineStr">
         <is>
-          <t>环保ETF</t>
+          <t>证券保险ETF</t>
         </is>
       </c>
     </row>
@@ -15353,80 +15351,82 @@
       <c r="A42" s="39" t="n">
         <v>40</v>
       </c>
-      <c r="B42" s="39" t="n">
-        <v>512070</v>
+      <c r="B42" s="39" t="inlineStr">
+        <is>
+          <t>512580</t>
+        </is>
       </c>
       <c r="C42" s="39" t="inlineStr">
         <is>
-          <t>证券保险ETF</t>
+          <t>环保ETF</t>
         </is>
       </c>
       <c r="D42" s="39" t="n">
-        <v>64.09999999999999</v>
+        <v>11.72</v>
       </c>
       <c r="E42" s="39" t="n">
-        <v>25.7</v>
+        <v>11</v>
       </c>
       <c r="F42" s="39" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="G42" s="39" t="n">
-        <v>28.2</v>
+        <v>19.9</v>
       </c>
       <c r="H42" s="39" t="n">
-        <v>48.4</v>
+        <v>34.6</v>
       </c>
       <c r="I42" s="39" t="n">
-        <v>67</v>
+        <v>61.2</v>
       </c>
       <c r="J42" s="39" t="n">
-        <v>67</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="K42" s="39" t="n">
-        <v>71.09999999999999</v>
+        <v>79.3</v>
       </c>
       <c r="L42" s="39" t="n">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="M42" s="39" t="n">
-        <v>54.9</v>
+        <v>36</v>
       </c>
       <c r="N42" s="39" t="n">
-        <v>71.3</v>
+        <v>20.9</v>
       </c>
       <c r="O42" s="39" t="n">
-        <v>93.8</v>
+        <v>57</v>
       </c>
       <c r="P42" s="39" t="n">
-        <v>96.2</v>
+        <v>86.3</v>
       </c>
       <c r="Q42" s="39" t="n">
-        <v>97.3</v>
+        <v>54.5</v>
       </c>
       <c r="R42" s="39" t="n">
-        <v>98.7</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="S42" s="39" t="n">
-        <v>64.59999999999999</v>
+        <v>47.9</v>
       </c>
       <c r="T42" s="39" t="n">
-        <v>85.09999999999999</v>
+        <v>74.7</v>
       </c>
       <c r="U42" s="39" t="n">
-        <v>31.1</v>
+        <v>83.3</v>
       </c>
       <c r="V42" s="39" t="n">
-        <v>11.5</v>
+        <v>24.7</v>
       </c>
       <c r="W42" s="39" t="n">
-        <v>45.7</v>
+        <v>24.7</v>
       </c>
       <c r="X42" s="39" t="n">
-        <v>85.3</v>
+        <v>85</v>
       </c>
       <c r="Y42" s="39" t="inlineStr">
         <is>
-          <t>证券保险ETF</t>
+          <t>环保ETF</t>
         </is>
       </c>
     </row>
@@ -15524,7 +15524,7 @@
         </is>
       </c>
       <c r="D44" s="39" t="n">
-        <v>104.92</v>
+        <v>104.49</v>
       </c>
       <c r="E44" s="39" t="n">
         <v>42.4</v>
@@ -15678,79 +15678,79 @@
         <v>44</v>
       </c>
       <c r="B46" s="39" t="n">
-        <v>159850</v>
+        <v>159905</v>
       </c>
       <c r="C46" s="39" t="inlineStr">
         <is>
-          <t>恒生国企ETF</t>
+          <t>深红利ETF</t>
         </is>
       </c>
       <c r="D46" s="39" t="n">
-        <v>9.210000000000001</v>
+        <v>31.79</v>
       </c>
       <c r="E46" s="39" t="n">
-        <v>10.4</v>
+        <v>10.7</v>
       </c>
       <c r="F46" s="39" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="G46" s="39" t="n">
-        <v>0.7</v>
+        <v>42.7</v>
       </c>
       <c r="H46" s="39" t="n">
-        <v>26.1</v>
+        <v>53.6</v>
       </c>
       <c r="I46" s="39" t="n">
-        <v>62.6</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="J46" s="39" t="n">
-        <v>72.5</v>
+        <v>57.6</v>
       </c>
       <c r="K46" s="39" t="n">
-        <v>88</v>
+        <v>49.7</v>
       </c>
       <c r="L46" s="39" t="n">
-        <v>90</v>
+        <v>73.7</v>
       </c>
       <c r="M46" s="39" t="n">
-        <v>31.2</v>
+        <v>78</v>
       </c>
       <c r="N46" s="39" t="n">
-        <v>55.3</v>
+        <v>52.6</v>
       </c>
       <c r="O46" s="39" t="n">
-        <v>50.3</v>
+        <v>61.1</v>
       </c>
       <c r="P46" s="39" t="n">
-        <v>73.90000000000001</v>
+        <v>86</v>
       </c>
       <c r="Q46" s="39" t="n">
-        <v>81.09999999999999</v>
+        <v>86</v>
       </c>
       <c r="R46" s="39" t="n">
-        <v>97</v>
+        <v>24.1</v>
       </c>
       <c r="S46" s="39" t="n">
-        <v>54</v>
+        <v>18.8</v>
       </c>
       <c r="T46" s="39" t="n">
-        <v>74.3</v>
+        <v>5.8</v>
       </c>
       <c r="U46" s="39" t="n">
-        <v>76.8</v>
+        <v>48.5</v>
       </c>
       <c r="V46" s="39" t="n">
-        <v>27.6</v>
+        <v>25.4</v>
       </c>
       <c r="W46" s="39" t="n">
-        <v>36.6</v>
+        <v>19.3</v>
       </c>
       <c r="X46" s="39" t="n">
-        <v>87.90000000000001</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="Y46" s="39" t="inlineStr">
         <is>
-          <t>恒生国企ETF</t>
+          <t>深红利ETF</t>
         </is>
       </c>
     </row>
@@ -15759,79 +15759,79 @@
         <v>45</v>
       </c>
       <c r="B47" s="39" t="n">
-        <v>159905</v>
+        <v>512880</v>
       </c>
       <c r="C47" s="39" t="inlineStr">
         <is>
-          <t>深红利ETF</t>
+          <t>证券ETF</t>
         </is>
       </c>
       <c r="D47" s="39" t="n">
-        <v>31.81</v>
+        <v>281.9</v>
       </c>
       <c r="E47" s="39" t="n">
-        <v>10.7</v>
+        <v>43.1</v>
       </c>
       <c r="F47" s="39" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="G47" s="39" t="n">
-        <v>42.7</v>
+        <v>20.9</v>
       </c>
       <c r="H47" s="39" t="n">
-        <v>53.6</v>
+        <v>50.6</v>
       </c>
       <c r="I47" s="39" t="n">
-        <v>73.09999999999999</v>
+        <v>66.3</v>
       </c>
       <c r="J47" s="39" t="n">
-        <v>57.6</v>
+        <v>71.8</v>
       </c>
       <c r="K47" s="39" t="n">
-        <v>49.7</v>
+        <v>71.8</v>
       </c>
       <c r="L47" s="39" t="n">
-        <v>73.7</v>
+        <v>39.5</v>
       </c>
       <c r="M47" s="39" t="n">
-        <v>78</v>
+        <v>29.1</v>
       </c>
       <c r="N47" s="39" t="n">
-        <v>52.6</v>
+        <v>29.1</v>
       </c>
       <c r="O47" s="39" t="n">
-        <v>61.1</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="P47" s="39" t="n">
-        <v>86</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="Q47" s="39" t="n">
-        <v>86</v>
+        <v>67.7</v>
       </c>
       <c r="R47" s="39" t="n">
-        <v>24.1</v>
+        <v>74.7</v>
       </c>
       <c r="S47" s="39" t="n">
-        <v>18.8</v>
+        <v>27.3</v>
       </c>
       <c r="T47" s="39" t="n">
-        <v>5.8</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="U47" s="39" t="n">
-        <v>48.5</v>
+        <v>35</v>
       </c>
       <c r="V47" s="39" t="n">
-        <v>25.4</v>
+        <v>24.6</v>
       </c>
       <c r="W47" s="39" t="n">
-        <v>19.3</v>
+        <v>52.8</v>
       </c>
       <c r="X47" s="39" t="n">
         <v>88.90000000000001</v>
       </c>
       <c r="Y47" s="39" t="inlineStr">
         <is>
-          <t>深红利ETF</t>
+          <t>证券ETF</t>
         </is>
       </c>
     </row>
@@ -15839,82 +15839,80 @@
       <c r="A48" s="39" t="n">
         <v>46</v>
       </c>
-      <c r="B48" s="39" t="inlineStr">
-        <is>
-          <t>159509</t>
-        </is>
+      <c r="B48" s="39" t="n">
+        <v>159850</v>
       </c>
       <c r="C48" s="39" t="inlineStr">
         <is>
-          <t>纳指科技ETF</t>
+          <t>恒生国企ETF</t>
         </is>
       </c>
       <c r="D48" s="39" t="n">
-        <v>89.64</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="E48" s="39" t="n">
-        <v>27</v>
+        <v>10.4</v>
       </c>
       <c r="F48" s="39" t="n">
-        <v>5.3</v>
+        <v>0.9</v>
       </c>
       <c r="G48" s="39" t="n">
-        <v>27.4</v>
+        <v>0.7</v>
       </c>
       <c r="H48" s="39" t="n">
-        <v>24.8</v>
+        <v>26.1</v>
       </c>
       <c r="I48" s="39" t="n">
-        <v>85.09999999999999</v>
+        <v>62.6</v>
       </c>
       <c r="J48" s="39" t="n">
-        <v>71.40000000000001</v>
+        <v>72.5</v>
       </c>
       <c r="K48" s="39" t="n">
-        <v>83.90000000000001</v>
+        <v>88</v>
       </c>
       <c r="L48" s="39" t="n">
-        <v>52.2</v>
+        <v>90</v>
       </c>
       <c r="M48" s="39" t="n">
-        <v>23.6</v>
+        <v>31.2</v>
       </c>
       <c r="N48" s="39" t="n">
-        <v>40</v>
+        <v>55.3</v>
       </c>
       <c r="O48" s="39" t="n">
-        <v>24.4</v>
+        <v>50.3</v>
       </c>
       <c r="P48" s="39" t="n">
-        <v>17.8</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="Q48" s="39" t="n">
-        <v>23.7</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="R48" s="39" t="n">
-        <v>90.7</v>
+        <v>97</v>
       </c>
       <c r="S48" s="39" t="n">
-        <v>47.9</v>
+        <v>54</v>
       </c>
       <c r="T48" s="39" t="n">
-        <v>81.3</v>
+        <v>74.3</v>
       </c>
       <c r="U48" s="39" t="n">
-        <v>83.40000000000001</v>
+        <v>76.8</v>
       </c>
       <c r="V48" s="39" t="n">
-        <v>76.40000000000001</v>
+        <v>27.6</v>
       </c>
       <c r="W48" s="39" t="n">
-        <v>57</v>
+        <v>36.6</v>
       </c>
       <c r="X48" s="39" t="n">
         <v>89</v>
       </c>
       <c r="Y48" s="39" t="inlineStr">
         <is>
-          <t>纳指科技ETF</t>
+          <t>恒生国企ETF</t>
         </is>
       </c>
     </row>
@@ -15923,79 +15921,79 @@
         <v>47</v>
       </c>
       <c r="B49" s="39" t="n">
-        <v>512400</v>
+        <v>516110</v>
       </c>
       <c r="C49" s="39" t="inlineStr">
         <is>
-          <t>有色金属ETF</t>
+          <t>汽车ETF</t>
         </is>
       </c>
       <c r="D49" s="39" t="n">
-        <v>45.97</v>
+        <v>4.37</v>
       </c>
       <c r="E49" s="39" t="n">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="F49" s="39" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="G49" s="39" t="n">
-        <v>18.5</v>
+        <v>5.5</v>
       </c>
       <c r="H49" s="39" t="n">
-        <v>39</v>
+        <v>26.9</v>
       </c>
       <c r="I49" s="39" t="n">
-        <v>76.09999999999999</v>
+        <v>71</v>
       </c>
       <c r="J49" s="39" t="n">
-        <v>81</v>
+        <v>85.3</v>
       </c>
       <c r="K49" s="39" t="n">
-        <v>91.8</v>
+        <v>89.7</v>
       </c>
       <c r="L49" s="39" t="n">
-        <v>67.40000000000001</v>
+        <v>70.3</v>
       </c>
       <c r="M49" s="39" t="n">
-        <v>63.2</v>
+        <v>42.6</v>
       </c>
       <c r="N49" s="39" t="n">
-        <v>38.9</v>
+        <v>18.4</v>
       </c>
       <c r="O49" s="39" t="n">
-        <v>26.7</v>
+        <v>29.1</v>
       </c>
       <c r="P49" s="39" t="n">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="Q49" s="39" t="n">
-        <v>74.90000000000001</v>
+        <v>64</v>
       </c>
       <c r="R49" s="39" t="n">
-        <v>35.4</v>
+        <v>93</v>
       </c>
       <c r="S49" s="39" t="n">
-        <v>23.7</v>
+        <v>60.5</v>
       </c>
       <c r="T49" s="39" t="n">
-        <v>35.8</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="U49" s="39" t="n">
-        <v>21.9</v>
+        <v>31.6</v>
       </c>
       <c r="V49" s="39" t="n">
-        <v>15.8</v>
+        <v>29.7</v>
       </c>
       <c r="W49" s="39" t="n">
-        <v>10.1</v>
+        <v>78.8</v>
       </c>
       <c r="X49" s="39" t="n">
-        <v>89.5</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="Y49" s="39" t="inlineStr">
         <is>
-          <t>有色金属ETF</t>
+          <t>汽车ETF</t>
         </is>
       </c>
     </row>
@@ -16003,80 +16001,82 @@
       <c r="A50" s="39" t="n">
         <v>48</v>
       </c>
-      <c r="B50" s="39" t="n">
-        <v>512880</v>
+      <c r="B50" s="39" t="inlineStr">
+        <is>
+          <t>159509</t>
+        </is>
       </c>
       <c r="C50" s="39" t="inlineStr">
         <is>
-          <t>证券ETF</t>
+          <t>纳指科技ETF</t>
         </is>
       </c>
       <c r="D50" s="39" t="n">
-        <v>282.17</v>
+        <v>89.7</v>
       </c>
       <c r="E50" s="39" t="n">
-        <v>43.1</v>
+        <v>27</v>
       </c>
       <c r="F50" s="39" t="n">
-        <v>1.1</v>
+        <v>5.3</v>
       </c>
       <c r="G50" s="39" t="n">
-        <v>20.9</v>
+        <v>27.4</v>
       </c>
       <c r="H50" s="39" t="n">
-        <v>50.6</v>
+        <v>24.8</v>
       </c>
       <c r="I50" s="39" t="n">
-        <v>66.3</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="J50" s="39" t="n">
-        <v>71.8</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="K50" s="39" t="n">
-        <v>71.8</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="L50" s="39" t="n">
-        <v>39.5</v>
+        <v>52.2</v>
       </c>
       <c r="M50" s="39" t="n">
-        <v>29.1</v>
+        <v>23.6</v>
       </c>
       <c r="N50" s="39" t="n">
-        <v>29.1</v>
+        <v>40</v>
       </c>
       <c r="O50" s="39" t="n">
-        <v>84.90000000000001</v>
+        <v>24.4</v>
       </c>
       <c r="P50" s="39" t="n">
-        <v>93.59999999999999</v>
+        <v>17.8</v>
       </c>
       <c r="Q50" s="39" t="n">
-        <v>67.7</v>
+        <v>23.7</v>
       </c>
       <c r="R50" s="39" t="n">
-        <v>74.7</v>
+        <v>90.7</v>
       </c>
       <c r="S50" s="39" t="n">
-        <v>27.3</v>
+        <v>47.9</v>
       </c>
       <c r="T50" s="39" t="n">
-        <v>81.09999999999999</v>
+        <v>81.3</v>
       </c>
       <c r="U50" s="39" t="n">
-        <v>35</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="V50" s="39" t="n">
-        <v>24.6</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="W50" s="39" t="n">
-        <v>52.8</v>
+        <v>57</v>
       </c>
       <c r="X50" s="39" t="n">
-        <v>89.5</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="Y50" s="39" t="inlineStr">
         <is>
-          <t>证券ETF</t>
+          <t>纳指科技ETF</t>
         </is>
       </c>
     </row>
@@ -16085,79 +16085,79 @@
         <v>49</v>
       </c>
       <c r="B51" s="39" t="n">
-        <v>159883</v>
+        <v>510300</v>
       </c>
       <c r="C51" s="39" t="inlineStr">
         <is>
-          <t>医疗器械ETF</t>
+          <t>沪深300ETF</t>
         </is>
       </c>
       <c r="D51" s="39" t="n">
-        <v>16.52</v>
+        <v>3761.79</v>
       </c>
       <c r="E51" s="39" t="n">
-        <v>33.3</v>
+        <v>2</v>
       </c>
       <c r="F51" s="39" t="n">
-        <v>3.1</v>
+        <v>0.1</v>
       </c>
       <c r="G51" s="39" t="n">
-        <v>31.1</v>
+        <v>20.2</v>
       </c>
       <c r="H51" s="39" t="n">
-        <v>43.1</v>
+        <v>43.6</v>
       </c>
       <c r="I51" s="39" t="n">
-        <v>66.40000000000001</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="J51" s="39" t="n">
-        <v>69.59999999999999</v>
+        <v>76.3</v>
       </c>
       <c r="K51" s="39" t="n">
-        <v>77.8</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="L51" s="39" t="n">
-        <v>77.8</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="M51" s="39" t="n">
-        <v>18.3</v>
+        <v>90</v>
       </c>
       <c r="N51" s="39" t="n">
-        <v>45.9</v>
+        <v>92.2</v>
       </c>
       <c r="O51" s="39" t="n">
-        <v>19.5</v>
+        <v>96.8</v>
       </c>
       <c r="P51" s="39" t="n">
-        <v>70.5</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="Q51" s="39" t="n">
-        <v>75.59999999999999</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="R51" s="39" t="n">
-        <v>56.1</v>
+        <v>99.2</v>
       </c>
       <c r="S51" s="39" t="n">
-        <v>18.3</v>
+        <v>99.2</v>
       </c>
       <c r="T51" s="39" t="n">
-        <v>13.7</v>
+        <v>99.2</v>
       </c>
       <c r="U51" s="39" t="n">
-        <v>3.9</v>
+        <v>14.3</v>
       </c>
       <c r="V51" s="39" t="n">
-        <v>38.9</v>
+        <v>4.8</v>
       </c>
       <c r="W51" s="39" t="n">
-        <v>75.09999999999999</v>
+        <v>3</v>
       </c>
       <c r="X51" s="39" t="n">
-        <v>90</v>
+        <v>89.5</v>
       </c>
       <c r="Y51" s="39" t="inlineStr">
         <is>
-          <t>医疗器械ETF</t>
+          <t>沪深300ETF</t>
         </is>
       </c>
     </row>
@@ -16166,79 +16166,79 @@
         <v>50</v>
       </c>
       <c r="B52" s="39" t="n">
-        <v>510300</v>
+        <v>512400</v>
       </c>
       <c r="C52" s="39" t="inlineStr">
         <is>
-          <t>沪深300ETF</t>
+          <t>有色金属ETF</t>
         </is>
       </c>
       <c r="D52" s="39" t="n">
-        <v>3764.69</v>
+        <v>45.97</v>
       </c>
       <c r="E52" s="39" t="n">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="F52" s="39" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="G52" s="39" t="n">
-        <v>20.2</v>
+        <v>18.5</v>
       </c>
       <c r="H52" s="39" t="n">
-        <v>43.6</v>
+        <v>39</v>
       </c>
       <c r="I52" s="39" t="n">
-        <v>72.09999999999999</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="J52" s="39" t="n">
-        <v>76.3</v>
+        <v>81</v>
       </c>
       <c r="K52" s="39" t="n">
-        <v>80.59999999999999</v>
+        <v>91.8</v>
       </c>
       <c r="L52" s="39" t="n">
-        <v>82.90000000000001</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="M52" s="39" t="n">
-        <v>90</v>
+        <v>63.2</v>
       </c>
       <c r="N52" s="39" t="n">
-        <v>92.2</v>
+        <v>38.9</v>
       </c>
       <c r="O52" s="39" t="n">
-        <v>96.8</v>
+        <v>26.7</v>
       </c>
       <c r="P52" s="39" t="n">
-        <v>97.40000000000001</v>
+        <v>92</v>
       </c>
       <c r="Q52" s="39" t="n">
-        <v>98.40000000000001</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="R52" s="39" t="n">
-        <v>99.2</v>
+        <v>35.4</v>
       </c>
       <c r="S52" s="39" t="n">
-        <v>99.2</v>
+        <v>23.7</v>
       </c>
       <c r="T52" s="39" t="n">
-        <v>99.2</v>
+        <v>35.8</v>
       </c>
       <c r="U52" s="39" t="n">
-        <v>14.3</v>
+        <v>21.9</v>
       </c>
       <c r="V52" s="39" t="n">
-        <v>4.8</v>
+        <v>15.8</v>
       </c>
       <c r="W52" s="39" t="n">
-        <v>3</v>
+        <v>10.1</v>
       </c>
       <c r="X52" s="39" t="n">
-        <v>90.5</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="Y52" s="39" t="inlineStr">
         <is>
-          <t>沪深300ETF</t>
+          <t>有色金属ETF</t>
         </is>
       </c>
     </row>
@@ -16247,79 +16247,79 @@
         <v>51</v>
       </c>
       <c r="B53" s="39" t="n">
-        <v>516110</v>
+        <v>516160</v>
       </c>
       <c r="C53" s="39" t="inlineStr">
         <is>
-          <t>汽车ETF</t>
+          <t>新能源ETF</t>
         </is>
       </c>
       <c r="D53" s="39" t="n">
-        <v>4.38</v>
+        <v>44.55</v>
       </c>
       <c r="E53" s="39" t="n">
-        <v>2.6</v>
+        <v>5.6</v>
       </c>
       <c r="F53" s="39" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G53" s="39" t="n">
-        <v>5.5</v>
+        <v>0.5</v>
       </c>
       <c r="H53" s="39" t="n">
-        <v>26.9</v>
+        <v>5.8</v>
       </c>
       <c r="I53" s="39" t="n">
-        <v>71</v>
+        <v>57.4</v>
       </c>
       <c r="J53" s="39" t="n">
-        <v>85.3</v>
+        <v>68.5</v>
       </c>
       <c r="K53" s="39" t="n">
-        <v>89.7</v>
+        <v>80.5</v>
       </c>
       <c r="L53" s="39" t="n">
-        <v>70.3</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="M53" s="39" t="n">
-        <v>42.6</v>
+        <v>26.3</v>
       </c>
       <c r="N53" s="39" t="n">
-        <v>18.4</v>
+        <v>21.4</v>
       </c>
       <c r="O53" s="39" t="n">
-        <v>29.1</v>
+        <v>51.6</v>
       </c>
       <c r="P53" s="39" t="n">
-        <v>79</v>
+        <v>87.2</v>
       </c>
       <c r="Q53" s="39" t="n">
-        <v>64</v>
+        <v>61.9</v>
       </c>
       <c r="R53" s="39" t="n">
-        <v>93</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="S53" s="39" t="n">
-        <v>60.5</v>
+        <v>50.1</v>
       </c>
       <c r="T53" s="39" t="n">
-        <v>75.90000000000001</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="U53" s="39" t="n">
-        <v>31.6</v>
+        <v>52.1</v>
       </c>
       <c r="V53" s="39" t="n">
-        <v>29.7</v>
+        <v>22.7</v>
       </c>
       <c r="W53" s="39" t="n">
-        <v>78.8</v>
+        <v>39.7</v>
       </c>
       <c r="X53" s="39" t="n">
-        <v>90.59999999999999</v>
+        <v>90.7</v>
       </c>
       <c r="Y53" s="39" t="inlineStr">
         <is>
-          <t>汽车ETF</t>
+          <t>新能源ETF</t>
         </is>
       </c>
     </row>
@@ -16328,79 +16328,79 @@
         <v>52</v>
       </c>
       <c r="B54" s="39" t="n">
-        <v>159920</v>
+        <v>159883</v>
       </c>
       <c r="C54" s="39" t="inlineStr">
         <is>
-          <t>恒生ETF</t>
+          <t>医疗器械ETF</t>
         </is>
       </c>
       <c r="D54" s="39" t="n">
-        <v>161.69</v>
+        <v>16.52</v>
       </c>
       <c r="E54" s="39" t="n">
-        <v>11.7</v>
+        <v>33.3</v>
       </c>
       <c r="F54" s="39" t="n">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="G54" s="39" t="n">
-        <v>1</v>
+        <v>31.1</v>
       </c>
       <c r="H54" s="39" t="n">
-        <v>0.9</v>
+        <v>43.1</v>
       </c>
       <c r="I54" s="39" t="n">
-        <v>61.3</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="J54" s="39" t="n">
-        <v>74.40000000000001</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="K54" s="39" t="n">
-        <v>86.8</v>
+        <v>77.8</v>
       </c>
       <c r="L54" s="39" t="n">
-        <v>89.09999999999999</v>
+        <v>77.8</v>
       </c>
       <c r="M54" s="39" t="n">
-        <v>34.5</v>
+        <v>18.3</v>
       </c>
       <c r="N54" s="39" t="n">
-        <v>62</v>
+        <v>45.9</v>
       </c>
       <c r="O54" s="39" t="n">
-        <v>62</v>
+        <v>19.5</v>
       </c>
       <c r="P54" s="39" t="n">
-        <v>81.3</v>
+        <v>70.5</v>
       </c>
       <c r="Q54" s="39" t="n">
-        <v>88.59999999999999</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="R54" s="39" t="n">
-        <v>98.09999999999999</v>
+        <v>56.1</v>
       </c>
       <c r="S54" s="39" t="n">
-        <v>56.7</v>
+        <v>18.3</v>
       </c>
       <c r="T54" s="39" t="n">
-        <v>74.90000000000001</v>
+        <v>13.7</v>
       </c>
       <c r="U54" s="39" t="n">
-        <v>70</v>
+        <v>3.9</v>
       </c>
       <c r="V54" s="39" t="n">
-        <v>28.7</v>
+        <v>38.9</v>
       </c>
       <c r="W54" s="39" t="n">
-        <v>61.6</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="X54" s="39" t="n">
-        <v>91.2</v>
+        <v>91</v>
       </c>
       <c r="Y54" s="39" t="inlineStr">
         <is>
-          <t>恒生ETF</t>
+          <t>医疗器械ETF</t>
         </is>
       </c>
     </row>
@@ -16409,79 +16409,79 @@
         <v>53</v>
       </c>
       <c r="B55" s="39" t="n">
-        <v>516160</v>
+        <v>159920</v>
       </c>
       <c r="C55" s="39" t="inlineStr">
         <is>
-          <t>新能源ETF</t>
+          <t>恒生ETF</t>
         </is>
       </c>
       <c r="D55" s="39" t="n">
-        <v>44.63</v>
+        <v>161.81</v>
       </c>
       <c r="E55" s="39" t="n">
-        <v>5.6</v>
+        <v>11.7</v>
       </c>
       <c r="F55" s="39" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="G55" s="39" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H55" s="39" t="n">
-        <v>5.8</v>
+        <v>0.9</v>
       </c>
       <c r="I55" s="39" t="n">
-        <v>57.4</v>
+        <v>61.3</v>
       </c>
       <c r="J55" s="39" t="n">
-        <v>68.5</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="K55" s="39" t="n">
-        <v>80.5</v>
+        <v>86.8</v>
       </c>
       <c r="L55" s="39" t="n">
-        <v>76.09999999999999</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="M55" s="39" t="n">
-        <v>26.3</v>
+        <v>34.5</v>
       </c>
       <c r="N55" s="39" t="n">
-        <v>21.4</v>
+        <v>62</v>
       </c>
       <c r="O55" s="39" t="n">
-        <v>51.6</v>
+        <v>62</v>
       </c>
       <c r="P55" s="39" t="n">
-        <v>87.2</v>
+        <v>81.3</v>
       </c>
       <c r="Q55" s="39" t="n">
-        <v>61.9</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="R55" s="39" t="n">
-        <v>82.40000000000001</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="S55" s="39" t="n">
-        <v>50.1</v>
+        <v>56.7</v>
       </c>
       <c r="T55" s="39" t="n">
-        <v>77.09999999999999</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="U55" s="39" t="n">
-        <v>52.1</v>
+        <v>70</v>
       </c>
       <c r="V55" s="39" t="n">
-        <v>22.7</v>
+        <v>28.7</v>
       </c>
       <c r="W55" s="39" t="n">
-        <v>39.7</v>
+        <v>61.6</v>
       </c>
       <c r="X55" s="39" t="n">
         <v>91.59999999999999</v>
       </c>
       <c r="Y55" s="39" t="inlineStr">
         <is>
-          <t>新能源ETF</t>
+          <t>恒生ETF</t>
         </is>
       </c>
     </row>
@@ -16498,7 +16498,7 @@
         </is>
       </c>
       <c r="D56" s="39" t="n">
-        <v>72.59</v>
+        <v>72.39</v>
       </c>
       <c r="E56" s="39" t="n">
         <v>30.1</v>
@@ -16558,7 +16558,7 @@
         <v>40.9</v>
       </c>
       <c r="X56" s="39" t="n">
-        <v>92.09999999999999</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="Y56" s="39" t="inlineStr">
         <is>
@@ -16571,79 +16571,79 @@
         <v>55</v>
       </c>
       <c r="B57" s="39" t="n">
-        <v>515030</v>
+        <v>159870</v>
       </c>
       <c r="C57" s="39" t="inlineStr">
         <is>
-          <t>新能源车ETF</t>
+          <t>化工ETF</t>
         </is>
       </c>
       <c r="D57" s="39" t="n">
-        <v>43.73</v>
+        <v>14.4</v>
       </c>
       <c r="E57" s="39" t="n">
-        <v>5</v>
+        <v>13.8</v>
       </c>
       <c r="F57" s="39" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="G57" s="39" t="n">
-        <v>0.3</v>
+        <v>31.5</v>
       </c>
       <c r="H57" s="39" t="n">
-        <v>12.1</v>
+        <v>34.4</v>
       </c>
       <c r="I57" s="39" t="n">
-        <v>59</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="J57" s="39" t="n">
-        <v>77.40000000000001</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="K57" s="39" t="n">
-        <v>80.5</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="L57" s="39" t="n">
-        <v>83.90000000000001</v>
+        <v>33.5</v>
       </c>
       <c r="M57" s="39" t="n">
-        <v>27.2</v>
+        <v>15.9</v>
       </c>
       <c r="N57" s="39" t="n">
-        <v>22.2</v>
+        <v>30.5</v>
       </c>
       <c r="O57" s="39" t="n">
-        <v>51.8</v>
+        <v>30.5</v>
       </c>
       <c r="P57" s="39" t="n">
-        <v>89.3</v>
+        <v>84.5</v>
       </c>
       <c r="Q57" s="39" t="n">
-        <v>66.7</v>
+        <v>88.2</v>
       </c>
       <c r="R57" s="39" t="n">
-        <v>90</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="S57" s="39" t="n">
-        <v>69</v>
+        <v>72.3</v>
       </c>
       <c r="T57" s="39" t="n">
-        <v>80.09999999999999</v>
+        <v>92</v>
       </c>
       <c r="U57" s="39" t="n">
-        <v>26.4</v>
+        <v>38</v>
       </c>
       <c r="V57" s="39" t="n">
-        <v>40.5</v>
+        <v>49.8</v>
       </c>
       <c r="W57" s="39" t="n">
-        <v>81.90000000000001</v>
+        <v>71.5</v>
       </c>
       <c r="X57" s="39" t="n">
-        <v>92.5</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="Y57" s="39" t="inlineStr">
         <is>
-          <t>新能源车ETF</t>
+          <t>化工ETF</t>
         </is>
       </c>
     </row>
@@ -16651,82 +16651,80 @@
       <c r="A58" s="39" t="n">
         <v>56</v>
       </c>
-      <c r="B58" s="39" t="inlineStr">
-        <is>
-          <t>512010</t>
-        </is>
+      <c r="B58" s="39" t="n">
+        <v>515030</v>
       </c>
       <c r="C58" s="39" t="inlineStr">
         <is>
-          <t>医药ETF</t>
+          <t>新能源车ETF</t>
         </is>
       </c>
       <c r="D58" s="39" t="n">
-        <v>221.96</v>
+        <v>43.73</v>
       </c>
       <c r="E58" s="39" t="n">
-        <v>34.8</v>
+        <v>5</v>
       </c>
       <c r="F58" s="39" t="n">
-        <v>5.6</v>
+        <v>0.4</v>
       </c>
       <c r="G58" s="39" t="n">
-        <v>17.2</v>
+        <v>0.3</v>
       </c>
       <c r="H58" s="39" t="n">
-        <v>15.3</v>
+        <v>12.1</v>
       </c>
       <c r="I58" s="39" t="n">
-        <v>59.5</v>
+        <v>59</v>
       </c>
       <c r="J58" s="39" t="n">
-        <v>66.5</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="K58" s="39" t="n">
-        <v>75.09999999999999</v>
+        <v>80.5</v>
       </c>
       <c r="L58" s="39" t="n">
-        <v>29.6</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="M58" s="39" t="n">
-        <v>49.8</v>
+        <v>27.2</v>
       </c>
       <c r="N58" s="39" t="n">
-        <v>49.8</v>
+        <v>22.2</v>
       </c>
       <c r="O58" s="39" t="n">
-        <v>23.2</v>
+        <v>51.8</v>
       </c>
       <c r="P58" s="39" t="n">
-        <v>62.9</v>
+        <v>89.3</v>
       </c>
       <c r="Q58" s="39" t="n">
-        <v>92.8</v>
+        <v>66.7</v>
       </c>
       <c r="R58" s="39" t="n">
-        <v>66.09999999999999</v>
+        <v>90</v>
       </c>
       <c r="S58" s="39" t="n">
-        <v>78.5</v>
+        <v>69</v>
       </c>
       <c r="T58" s="39" t="n">
-        <v>45.4</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="U58" s="39" t="n">
-        <v>16.9</v>
+        <v>26.4</v>
       </c>
       <c r="V58" s="39" t="n">
-        <v>48.9</v>
+        <v>40.5</v>
       </c>
       <c r="W58" s="39" t="n">
-        <v>87.5</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="X58" s="39" t="n">
-        <v>92.90000000000001</v>
+        <v>92.2</v>
       </c>
       <c r="Y58" s="39" t="inlineStr">
         <is>
-          <t>医药ETF</t>
+          <t>新能源车ETF</t>
         </is>
       </c>
     </row>
@@ -16734,80 +16732,82 @@
       <c r="A59" s="39" t="n">
         <v>57</v>
       </c>
-      <c r="B59" s="39" t="n">
-        <v>159870</v>
+      <c r="B59" s="39" t="inlineStr">
+        <is>
+          <t>510210</t>
+        </is>
       </c>
       <c r="C59" s="39" t="inlineStr">
         <is>
-          <t>化工ETF</t>
+          <t>上证指数ETF</t>
         </is>
       </c>
       <c r="D59" s="39" t="n">
-        <v>14.38</v>
+        <v>48.68</v>
       </c>
       <c r="E59" s="39" t="n">
-        <v>13.8</v>
+        <v>21.4</v>
       </c>
       <c r="F59" s="39" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="G59" s="39" t="n">
-        <v>31.5</v>
+        <v>24.8</v>
       </c>
       <c r="H59" s="39" t="n">
-        <v>34.4</v>
+        <v>43.7</v>
       </c>
       <c r="I59" s="39" t="n">
-        <v>64.40000000000001</v>
+        <v>64.2</v>
       </c>
       <c r="J59" s="39" t="n">
-        <v>67.40000000000001</v>
+        <v>73.7</v>
       </c>
       <c r="K59" s="39" t="n">
-        <v>75.59999999999999</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="L59" s="39" t="n">
-        <v>33.5</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="M59" s="39" t="n">
-        <v>15.9</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="N59" s="39" t="n">
-        <v>30.5</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="O59" s="39" t="n">
-        <v>30.5</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="P59" s="39" t="n">
-        <v>84.5</v>
+        <v>99</v>
       </c>
       <c r="Q59" s="39" t="n">
-        <v>88.2</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="R59" s="39" t="n">
-        <v>95.90000000000001</v>
+        <v>64</v>
       </c>
       <c r="S59" s="39" t="n">
-        <v>72.3</v>
+        <v>73.5</v>
       </c>
       <c r="T59" s="39" t="n">
-        <v>92</v>
+        <v>73.5</v>
       </c>
       <c r="U59" s="39" t="n">
-        <v>38</v>
+        <v>23.7</v>
       </c>
       <c r="V59" s="39" t="n">
-        <v>49.8</v>
+        <v>14.1</v>
       </c>
       <c r="W59" s="39" t="n">
-        <v>71.5</v>
+        <v>14.1</v>
       </c>
       <c r="X59" s="39" t="n">
-        <v>92.90000000000001</v>
+        <v>93</v>
       </c>
       <c r="Y59" s="39" t="inlineStr">
         <is>
-          <t>化工ETF</t>
+          <t>上证指数ETF</t>
         </is>
       </c>
     </row>
@@ -16826,7 +16826,7 @@
         </is>
       </c>
       <c r="D60" s="39" t="n">
-        <v>257.46</v>
+        <v>256.57</v>
       </c>
       <c r="E60" s="39" t="n">
         <v>6.1</v>
@@ -16886,7 +16886,7 @@
         <v>76.09999999999999</v>
       </c>
       <c r="X60" s="39" t="n">
-        <v>93.59999999999999</v>
+        <v>93</v>
       </c>
       <c r="Y60" s="39" t="inlineStr">
         <is>
@@ -16967,7 +16967,7 @@
         <v>74.8</v>
       </c>
       <c r="X61" s="39" t="n">
-        <v>93.7</v>
+        <v>93.3</v>
       </c>
       <c r="Y61" s="39" t="inlineStr">
         <is>
@@ -16979,82 +16979,80 @@
       <c r="A62" s="39" t="n">
         <v>60</v>
       </c>
-      <c r="B62" s="39" t="inlineStr">
-        <is>
-          <t>510210</t>
-        </is>
+      <c r="B62" s="39" t="n">
+        <v>159915</v>
       </c>
       <c r="C62" s="39" t="inlineStr">
         <is>
-          <t>上证指数ETF</t>
+          <t>创业板ETF</t>
         </is>
       </c>
       <c r="D62" s="39" t="n">
-        <v>48.62</v>
+        <v>857.26</v>
       </c>
       <c r="E62" s="39" t="n">
-        <v>21.4</v>
+        <v>2.7</v>
       </c>
       <c r="F62" s="39" t="n">
-        <v>1.3</v>
+        <v>0.2</v>
       </c>
       <c r="G62" s="39" t="n">
-        <v>24.8</v>
+        <v>17.7</v>
       </c>
       <c r="H62" s="39" t="n">
-        <v>43.7</v>
+        <v>33</v>
       </c>
       <c r="I62" s="39" t="n">
-        <v>64.2</v>
+        <v>62.5</v>
       </c>
       <c r="J62" s="39" t="n">
-        <v>73.7</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="K62" s="39" t="n">
-        <v>86.40000000000001</v>
+        <v>78.8</v>
       </c>
       <c r="L62" s="39" t="n">
-        <v>88.09999999999999</v>
+        <v>71.7</v>
       </c>
       <c r="M62" s="39" t="n">
-        <v>90.40000000000001</v>
+        <v>23.3</v>
       </c>
       <c r="N62" s="39" t="n">
-        <v>93.09999999999999</v>
+        <v>34.8</v>
       </c>
       <c r="O62" s="39" t="n">
-        <v>97.40000000000001</v>
+        <v>56.5</v>
       </c>
       <c r="P62" s="39" t="n">
-        <v>99</v>
+        <v>91.3</v>
       </c>
       <c r="Q62" s="39" t="n">
-        <v>99.59999999999999</v>
+        <v>61.7</v>
       </c>
       <c r="R62" s="39" t="n">
-        <v>64</v>
+        <v>84.3</v>
       </c>
       <c r="S62" s="39" t="n">
-        <v>73.5</v>
+        <v>49.3</v>
       </c>
       <c r="T62" s="39" t="n">
-        <v>73.5</v>
+        <v>73.3</v>
       </c>
       <c r="U62" s="39" t="n">
-        <v>23.7</v>
+        <v>36.3</v>
       </c>
       <c r="V62" s="39" t="n">
-        <v>14.1</v>
+        <v>29.9</v>
       </c>
       <c r="W62" s="39" t="n">
-        <v>14.1</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="X62" s="39" t="n">
-        <v>93.8</v>
+        <v>93.5</v>
       </c>
       <c r="Y62" s="39" t="inlineStr">
         <is>
-          <t>上证指数ETF</t>
+          <t>创业板ETF</t>
         </is>
       </c>
     </row>
@@ -17063,79 +17061,79 @@
         <v>61</v>
       </c>
       <c r="B63" s="39" t="n">
-        <v>159941</v>
+        <v>513360</v>
       </c>
       <c r="C63" s="39" t="inlineStr">
         <is>
-          <t>纳指ETF</t>
+          <t>教育ETF</t>
         </is>
       </c>
       <c r="D63" s="39" t="n">
-        <v>240.03</v>
+        <v>6.53</v>
       </c>
       <c r="E63" s="39" t="n">
-        <v>20</v>
+        <v>4.7</v>
       </c>
       <c r="F63" s="39" t="n">
-        <v>3.2</v>
+        <v>0.2</v>
       </c>
       <c r="G63" s="39" t="n">
-        <v>37.8</v>
+        <v>0.2</v>
       </c>
       <c r="H63" s="39" t="n">
-        <v>34.3</v>
+        <v>4.4</v>
       </c>
       <c r="I63" s="39" t="n">
-        <v>85</v>
+        <v>43.1</v>
       </c>
       <c r="J63" s="39" t="n">
-        <v>70.59999999999999</v>
+        <v>62.3</v>
       </c>
       <c r="K63" s="39" t="n">
-        <v>78.90000000000001</v>
+        <v>70.3</v>
       </c>
       <c r="L63" s="39" t="n">
-        <v>49.1</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="M63" s="39" t="n">
-        <v>22.3</v>
+        <v>31.8</v>
       </c>
       <c r="N63" s="39" t="n">
-        <v>48.2</v>
+        <v>72</v>
       </c>
       <c r="O63" s="39" t="n">
-        <v>31.2</v>
+        <v>60.2</v>
       </c>
       <c r="P63" s="39" t="n">
-        <v>21.2</v>
+        <v>89</v>
       </c>
       <c r="Q63" s="39" t="n">
-        <v>19.2</v>
+        <v>90.7</v>
       </c>
       <c r="R63" s="39" t="n">
-        <v>89.59999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="S63" s="39" t="n">
-        <v>52.8</v>
+        <v>54.2</v>
       </c>
       <c r="T63" s="39" t="n">
-        <v>83.2</v>
+        <v>22.5</v>
       </c>
       <c r="U63" s="39" t="n">
-        <v>85.59999999999999</v>
+        <v>41.3</v>
       </c>
       <c r="V63" s="39" t="n">
-        <v>79.90000000000001</v>
+        <v>64.3</v>
       </c>
       <c r="W63" s="39" t="n">
-        <v>82.3</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="X63" s="39" t="n">
         <v>93.90000000000001</v>
       </c>
       <c r="Y63" s="39" t="inlineStr">
         <is>
-          <t>纳指ETF</t>
+          <t>教育ETF</t>
         </is>
       </c>
     </row>
@@ -17144,79 +17142,79 @@
         <v>62</v>
       </c>
       <c r="B64" s="39" t="n">
-        <v>159915</v>
+        <v>513970</v>
       </c>
       <c r="C64" s="39" t="inlineStr">
         <is>
-          <t>创业板ETF</t>
+          <t>恒生消费ETF</t>
         </is>
       </c>
       <c r="D64" s="39" t="n">
-        <v>858.58</v>
+        <v>17.97</v>
       </c>
       <c r="E64" s="39" t="n">
-        <v>2.7</v>
+        <v>22.3</v>
       </c>
       <c r="F64" s="39" t="n">
-        <v>0.2</v>
+        <v>3.1</v>
       </c>
       <c r="G64" s="39" t="n">
-        <v>17.7</v>
+        <v>14.4</v>
       </c>
       <c r="H64" s="39" t="n">
-        <v>33</v>
+        <v>28.7</v>
       </c>
       <c r="I64" s="39" t="n">
-        <v>62.5</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="J64" s="39" t="n">
-        <v>77.09999999999999</v>
+        <v>76.7</v>
       </c>
       <c r="K64" s="39" t="n">
-        <v>78.8</v>
+        <v>86.5</v>
       </c>
       <c r="L64" s="39" t="n">
-        <v>71.7</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="M64" s="39" t="n">
-        <v>23.3</v>
+        <v>37.1</v>
       </c>
       <c r="N64" s="39" t="n">
-        <v>34.8</v>
+        <v>59.3</v>
       </c>
       <c r="O64" s="39" t="n">
-        <v>56.5</v>
+        <v>37.3</v>
       </c>
       <c r="P64" s="39" t="n">
-        <v>91.3</v>
+        <v>73.2</v>
       </c>
       <c r="Q64" s="39" t="n">
-        <v>61.7</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="R64" s="39" t="n">
-        <v>84.3</v>
+        <v>95.8</v>
       </c>
       <c r="S64" s="39" t="n">
-        <v>49.3</v>
+        <v>64.7</v>
       </c>
       <c r="T64" s="39" t="n">
-        <v>73.3</v>
+        <v>75.3</v>
       </c>
       <c r="U64" s="39" t="n">
-        <v>36.3</v>
+        <v>86</v>
       </c>
       <c r="V64" s="39" t="n">
-        <v>29.9</v>
+        <v>63.9</v>
       </c>
       <c r="W64" s="39" t="n">
-        <v>77.59999999999999</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="X64" s="39" t="n">
         <v>93.90000000000001</v>
       </c>
       <c r="Y64" s="39" t="inlineStr">
         <is>
-          <t>创业板ETF</t>
+          <t>恒生消费ETF</t>
         </is>
       </c>
     </row>
@@ -17224,80 +17222,82 @@
       <c r="A65" s="39" t="n">
         <v>63</v>
       </c>
-      <c r="B65" s="39" t="n">
-        <v>512170</v>
+      <c r="B65" s="39" t="inlineStr">
+        <is>
+          <t>512010</t>
+        </is>
       </c>
       <c r="C65" s="39" t="inlineStr">
         <is>
-          <t>医疗ETF</t>
+          <t>医药ETF</t>
         </is>
       </c>
       <c r="D65" s="39" t="n">
-        <v>261.26</v>
+        <v>221.96</v>
       </c>
       <c r="E65" s="39" t="n">
-        <v>23.7</v>
+        <v>34.8</v>
       </c>
       <c r="F65" s="39" t="n">
-        <v>2.9</v>
+        <v>5.6</v>
       </c>
       <c r="G65" s="39" t="n">
-        <v>16.6</v>
+        <v>17.2</v>
       </c>
       <c r="H65" s="39" t="n">
-        <v>23.8</v>
+        <v>15.3</v>
       </c>
       <c r="I65" s="39" t="n">
-        <v>62.5</v>
+        <v>59.5</v>
       </c>
       <c r="J65" s="39" t="n">
-        <v>62.5</v>
+        <v>66.5</v>
       </c>
       <c r="K65" s="39" t="n">
-        <v>72</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="L65" s="39" t="n">
-        <v>35.8</v>
+        <v>29.6</v>
       </c>
       <c r="M65" s="39" t="n">
-        <v>11.9</v>
+        <v>49.8</v>
       </c>
       <c r="N65" s="39" t="n">
-        <v>33.9</v>
+        <v>49.8</v>
       </c>
       <c r="O65" s="39" t="n">
-        <v>22.6</v>
+        <v>23.2</v>
       </c>
       <c r="P65" s="39" t="n">
-        <v>74.2</v>
+        <v>62.9</v>
       </c>
       <c r="Q65" s="39" t="n">
-        <v>74.2</v>
+        <v>92.8</v>
       </c>
       <c r="R65" s="39" t="n">
-        <v>74.2</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="S65" s="39" t="n">
-        <v>74.2</v>
+        <v>78.5</v>
       </c>
       <c r="T65" s="39" t="n">
-        <v>94.3</v>
+        <v>45.4</v>
       </c>
       <c r="U65" s="39" t="n">
-        <v>16.6</v>
+        <v>16.9</v>
       </c>
       <c r="V65" s="39" t="n">
-        <v>73.90000000000001</v>
+        <v>48.9</v>
       </c>
       <c r="W65" s="39" t="n">
-        <v>84.5</v>
+        <v>87.5</v>
       </c>
       <c r="X65" s="39" t="n">
         <v>94.09999999999999</v>
       </c>
       <c r="Y65" s="39" t="inlineStr">
         <is>
-          <t>医疗ETF</t>
+          <t>医药ETF</t>
         </is>
       </c>
     </row>
@@ -17306,79 +17306,79 @@
         <v>64</v>
       </c>
       <c r="B66" s="39" t="n">
-        <v>513050</v>
+        <v>513500</v>
       </c>
       <c r="C66" s="39" t="inlineStr">
         <is>
-          <t>中概互联网ETF</t>
+          <t>标普500ETF</t>
         </is>
       </c>
       <c r="D66" s="39" t="n">
-        <v>356.34</v>
+        <v>179.42</v>
       </c>
       <c r="E66" s="39" t="n">
-        <v>8.800000000000001</v>
+        <v>13.7</v>
       </c>
       <c r="F66" s="39" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="G66" s="39" t="n">
-        <v>0.9</v>
+        <v>39.8</v>
       </c>
       <c r="H66" s="39" t="n">
-        <v>8.300000000000001</v>
+        <v>24.8</v>
       </c>
       <c r="I66" s="39" t="n">
-        <v>56.6</v>
+        <v>77.2</v>
       </c>
       <c r="J66" s="39" t="n">
-        <v>45</v>
+        <v>55.8</v>
       </c>
       <c r="K66" s="39" t="n">
-        <v>68.09999999999999</v>
+        <v>68</v>
       </c>
       <c r="L66" s="39" t="n">
-        <v>79.09999999999999</v>
+        <v>60.5</v>
       </c>
       <c r="M66" s="39" t="n">
-        <v>23.7</v>
+        <v>35</v>
       </c>
       <c r="N66" s="39" t="n">
-        <v>56.2</v>
+        <v>27.9</v>
       </c>
       <c r="O66" s="39" t="n">
-        <v>39.4</v>
+        <v>20.6</v>
       </c>
       <c r="P66" s="39" t="n">
-        <v>60.4</v>
+        <v>6.9</v>
       </c>
       <c r="Q66" s="39" t="n">
-        <v>79.7</v>
+        <v>5.9</v>
       </c>
       <c r="R66" s="39" t="n">
-        <v>96.3</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="S66" s="39" t="n">
-        <v>52.1</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="T66" s="39" t="n">
-        <v>75.5</v>
+        <v>90</v>
       </c>
       <c r="U66" s="39" t="n">
-        <v>77.09999999999999</v>
+        <v>91.5</v>
       </c>
       <c r="V66" s="39" t="n">
-        <v>44.3</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="W66" s="39" t="n">
-        <v>73.3</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="X66" s="39" t="n">
         <v>94.2</v>
       </c>
       <c r="Y66" s="39" t="inlineStr">
         <is>
-          <t>中概互联网ETF</t>
+          <t>标普500ETF</t>
         </is>
       </c>
     </row>
@@ -17387,79 +17387,79 @@
         <v>65</v>
       </c>
       <c r="B67" s="39" t="n">
-        <v>513500</v>
+        <v>159941</v>
       </c>
       <c r="C67" s="39" t="inlineStr">
         <is>
-          <t>标普500ETF</t>
+          <t>纳指ETF</t>
         </is>
       </c>
       <c r="D67" s="39" t="n">
-        <v>179.42</v>
+        <v>240.47</v>
       </c>
       <c r="E67" s="39" t="n">
-        <v>13.7</v>
+        <v>20</v>
       </c>
       <c r="F67" s="39" t="n">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="G67" s="39" t="n">
-        <v>39.8</v>
+        <v>37.8</v>
       </c>
       <c r="H67" s="39" t="n">
-        <v>24.8</v>
+        <v>34.3</v>
       </c>
       <c r="I67" s="39" t="n">
-        <v>77.2</v>
+        <v>85</v>
       </c>
       <c r="J67" s="39" t="n">
-        <v>55.8</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="K67" s="39" t="n">
-        <v>68</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="L67" s="39" t="n">
-        <v>60.5</v>
+        <v>49.1</v>
       </c>
       <c r="M67" s="39" t="n">
-        <v>35</v>
+        <v>22.3</v>
       </c>
       <c r="N67" s="39" t="n">
-        <v>27.9</v>
+        <v>48.2</v>
       </c>
       <c r="O67" s="39" t="n">
-        <v>20.6</v>
+        <v>31.2</v>
       </c>
       <c r="P67" s="39" t="n">
-        <v>6.9</v>
+        <v>21.2</v>
       </c>
       <c r="Q67" s="39" t="n">
-        <v>5.9</v>
+        <v>19.2</v>
       </c>
       <c r="R67" s="39" t="n">
-        <v>84.59999999999999</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="S67" s="39" t="n">
-        <v>65.59999999999999</v>
+        <v>52.8</v>
       </c>
       <c r="T67" s="39" t="n">
-        <v>90</v>
+        <v>83.2</v>
       </c>
       <c r="U67" s="39" t="n">
-        <v>91.5</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="V67" s="39" t="n">
-        <v>76.40000000000001</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="W67" s="39" t="n">
-        <v>81.09999999999999</v>
+        <v>82.3</v>
       </c>
       <c r="X67" s="39" t="n">
-        <v>94.2</v>
+        <v>94.3</v>
       </c>
       <c r="Y67" s="39" t="inlineStr">
         <is>
-          <t>标普500ETF</t>
+          <t>纳指ETF</t>
         </is>
       </c>
     </row>
@@ -17468,79 +17468,79 @@
         <v>66</v>
       </c>
       <c r="B68" s="39" t="n">
-        <v>513970</v>
+        <v>515050</v>
       </c>
       <c r="C68" s="39" t="inlineStr">
         <is>
-          <t>恒生消费ETF</t>
+          <t>5G通信ETF</t>
         </is>
       </c>
       <c r="D68" s="39" t="n">
-        <v>18</v>
+        <v>62.33</v>
       </c>
       <c r="E68" s="39" t="n">
-        <v>22.3</v>
+        <v>4.9</v>
       </c>
       <c r="F68" s="39" t="n">
-        <v>3.1</v>
+        <v>1</v>
       </c>
       <c r="G68" s="39" t="n">
-        <v>14.4</v>
+        <v>0.5</v>
       </c>
       <c r="H68" s="39" t="n">
-        <v>28.7</v>
+        <v>17.2</v>
       </c>
       <c r="I68" s="39" t="n">
-        <v>74.90000000000001</v>
+        <v>60.4</v>
       </c>
       <c r="J68" s="39" t="n">
-        <v>76.7</v>
+        <v>74.7</v>
       </c>
       <c r="K68" s="39" t="n">
-        <v>86.5</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="L68" s="39" t="n">
-        <v>91.09999999999999</v>
+        <v>44.5</v>
       </c>
       <c r="M68" s="39" t="n">
-        <v>37.1</v>
+        <v>19.1</v>
       </c>
       <c r="N68" s="39" t="n">
-        <v>59.3</v>
+        <v>18.1</v>
       </c>
       <c r="O68" s="39" t="n">
-        <v>37.3</v>
+        <v>64.3</v>
       </c>
       <c r="P68" s="39" t="n">
-        <v>73.2</v>
+        <v>86.8</v>
       </c>
       <c r="Q68" s="39" t="n">
-        <v>78.59999999999999</v>
+        <v>49.1</v>
       </c>
       <c r="R68" s="39" t="n">
-        <v>95.8</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="S68" s="39" t="n">
-        <v>64.7</v>
+        <v>42.8</v>
       </c>
       <c r="T68" s="39" t="n">
-        <v>75.3</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="U68" s="39" t="n">
-        <v>86</v>
+        <v>41.4</v>
       </c>
       <c r="V68" s="39" t="n">
-        <v>63.9</v>
+        <v>48.2</v>
       </c>
       <c r="W68" s="39" t="n">
-        <v>79.59999999999999</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="X68" s="39" t="n">
         <v>94.3</v>
       </c>
       <c r="Y68" s="39" t="inlineStr">
         <is>
-          <t>恒生消费ETF</t>
+          <t>5G通信ETF</t>
         </is>
       </c>
     </row>
@@ -17549,79 +17549,79 @@
         <v>67</v>
       </c>
       <c r="B69" s="39" t="n">
-        <v>513360</v>
+        <v>513050</v>
       </c>
       <c r="C69" s="39" t="inlineStr">
         <is>
-          <t>教育ETF</t>
+          <t>中概互联网ETF</t>
         </is>
       </c>
       <c r="D69" s="39" t="n">
-        <v>6.53</v>
+        <v>356.85</v>
       </c>
       <c r="E69" s="39" t="n">
-        <v>4.7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="F69" s="39" t="n">
-        <v>0.2</v>
+        <v>1.3</v>
       </c>
       <c r="G69" s="39" t="n">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="H69" s="39" t="n">
-        <v>4.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="I69" s="39" t="n">
-        <v>43.1</v>
+        <v>56.6</v>
       </c>
       <c r="J69" s="39" t="n">
-        <v>62.3</v>
+        <v>45</v>
       </c>
       <c r="K69" s="39" t="n">
-        <v>70.3</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="L69" s="39" t="n">
         <v>79.09999999999999</v>
       </c>
       <c r="M69" s="39" t="n">
-        <v>31.8</v>
+        <v>23.7</v>
       </c>
       <c r="N69" s="39" t="n">
-        <v>72</v>
+        <v>56.2</v>
       </c>
       <c r="O69" s="39" t="n">
-        <v>60.2</v>
+        <v>39.4</v>
       </c>
       <c r="P69" s="39" t="n">
-        <v>89</v>
+        <v>60.4</v>
       </c>
       <c r="Q69" s="39" t="n">
-        <v>90.7</v>
+        <v>79.7</v>
       </c>
       <c r="R69" s="39" t="n">
-        <v>98.2</v>
+        <v>96.3</v>
       </c>
       <c r="S69" s="39" t="n">
-        <v>54.2</v>
+        <v>52.1</v>
       </c>
       <c r="T69" s="39" t="n">
-        <v>22.5</v>
+        <v>75.5</v>
       </c>
       <c r="U69" s="39" t="n">
-        <v>41.3</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="V69" s="39" t="n">
-        <v>64.3</v>
+        <v>44.3</v>
       </c>
       <c r="W69" s="39" t="n">
-        <v>87.09999999999999</v>
+        <v>73.3</v>
       </c>
       <c r="X69" s="39" t="n">
-        <v>94.3</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="Y69" s="39" t="inlineStr">
         <is>
-          <t>教育ETF</t>
+          <t>中概互联网ETF</t>
         </is>
       </c>
     </row>
@@ -17630,79 +17630,79 @@
         <v>68</v>
       </c>
       <c r="B70" s="39" t="n">
-        <v>515050</v>
+        <v>512100</v>
       </c>
       <c r="C70" s="39" t="inlineStr">
         <is>
-          <t>5G通信ETF</t>
+          <t>中证1000ETF</t>
         </is>
       </c>
       <c r="D70" s="39" t="n">
-        <v>62.39</v>
+        <v>639.87</v>
       </c>
       <c r="E70" s="39" t="n">
-        <v>4.9</v>
+        <v>17.3</v>
       </c>
       <c r="F70" s="39" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="G70" s="39" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H70" s="39" t="n">
-        <v>17.2</v>
+        <v>35.1</v>
       </c>
       <c r="I70" s="39" t="n">
-        <v>60.4</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="J70" s="39" t="n">
-        <v>74.7</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="K70" s="39" t="n">
-        <v>78.40000000000001</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="L70" s="39" t="n">
-        <v>44.5</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="M70" s="39" t="n">
-        <v>19.1</v>
+        <v>30.5</v>
       </c>
       <c r="N70" s="39" t="n">
-        <v>18.1</v>
+        <v>33.1</v>
       </c>
       <c r="O70" s="39" t="n">
-        <v>64.3</v>
+        <v>25.6</v>
       </c>
       <c r="P70" s="39" t="n">
-        <v>86.8</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="Q70" s="39" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="R70" s="39" t="n">
+        <v>94.2</v>
+      </c>
+      <c r="S70" s="39" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="T70" s="39" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="U70" s="39" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="V70" s="39" t="n">
         <v>49.1</v>
       </c>
-      <c r="R70" s="39" t="n">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="S70" s="39" t="n">
-        <v>42.8</v>
-      </c>
-      <c r="T70" s="39" t="n">
-        <v>71.59999999999999</v>
-      </c>
-      <c r="U70" s="39" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="V70" s="39" t="n">
-        <v>48.2</v>
-      </c>
       <c r="W70" s="39" t="n">
-        <v>80.09999999999999</v>
+        <v>76.7</v>
       </c>
       <c r="X70" s="39" t="n">
-        <v>94.40000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="Y70" s="39" t="inlineStr">
         <is>
-          <t>5G通信ETF</t>
+          <t>中证1000ETF</t>
         </is>
       </c>
     </row>
@@ -17711,79 +17711,79 @@
         <v>69</v>
       </c>
       <c r="B71" s="39" t="n">
-        <v>512100</v>
+        <v>159992</v>
       </c>
       <c r="C71" s="39" t="inlineStr">
         <is>
-          <t>中证1000ETF</t>
+          <t>创新药ETF</t>
         </is>
       </c>
       <c r="D71" s="39" t="n">
-        <v>640.13</v>
+        <v>118.02</v>
       </c>
       <c r="E71" s="39" t="n">
-        <v>17.3</v>
+        <v>58</v>
       </c>
       <c r="F71" s="39" t="n">
-        <v>1.3</v>
+        <v>5.1</v>
       </c>
       <c r="G71" s="39" t="n">
-        <v>1.2</v>
+        <v>22</v>
       </c>
       <c r="H71" s="39" t="n">
-        <v>35.1</v>
+        <v>17.2</v>
       </c>
       <c r="I71" s="39" t="n">
-        <v>67.09999999999999</v>
+        <v>60.8</v>
       </c>
       <c r="J71" s="39" t="n">
-        <v>78.59999999999999</v>
+        <v>71</v>
       </c>
       <c r="K71" s="39" t="n">
-        <v>87.59999999999999</v>
+        <v>83.7</v>
       </c>
       <c r="L71" s="39" t="n">
-        <v>70.40000000000001</v>
+        <v>60.2</v>
       </c>
       <c r="M71" s="39" t="n">
-        <v>30.5</v>
+        <v>32.7</v>
       </c>
       <c r="N71" s="39" t="n">
-        <v>33.1</v>
+        <v>22.5</v>
       </c>
       <c r="O71" s="39" t="n">
-        <v>25.6</v>
+        <v>22.5</v>
       </c>
       <c r="P71" s="39" t="n">
-        <v>88.40000000000001</v>
+        <v>86.2</v>
       </c>
       <c r="Q71" s="39" t="n">
-        <v>88.40000000000001</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="R71" s="39" t="n">
-        <v>94.2</v>
+        <v>51.4</v>
       </c>
       <c r="S71" s="39" t="n">
-        <v>35.8</v>
+        <v>72.7</v>
       </c>
       <c r="T71" s="39" t="n">
-        <v>49.4</v>
+        <v>38.7</v>
       </c>
       <c r="U71" s="39" t="n">
-        <v>15.8</v>
+        <v>38.7</v>
       </c>
       <c r="V71" s="39" t="n">
-        <v>49.1</v>
+        <v>72.7</v>
       </c>
       <c r="W71" s="39" t="n">
-        <v>76.7</v>
+        <v>90.7</v>
       </c>
       <c r="X71" s="39" t="n">
         <v>94.7</v>
       </c>
       <c r="Y71" s="39" t="inlineStr">
         <is>
-          <t>中证1000ETF</t>
+          <t>创新药ETF</t>
         </is>
       </c>
     </row>
@@ -17800,7 +17800,7 @@
         </is>
       </c>
       <c r="D72" s="39" t="n">
-        <v>140.1</v>
+        <v>139.78</v>
       </c>
       <c r="E72" s="39" t="n">
         <v>17.4</v>
@@ -17860,7 +17860,7 @@
         <v>90.09999999999999</v>
       </c>
       <c r="X72" s="39" t="n">
-        <v>95.09999999999999</v>
+        <v>94.8</v>
       </c>
       <c r="Y72" s="39" t="inlineStr">
         <is>
@@ -17873,79 +17873,79 @@
         <v>71</v>
       </c>
       <c r="B73" s="39" t="n">
-        <v>159667</v>
+        <v>515790</v>
       </c>
       <c r="C73" s="39" t="inlineStr">
         <is>
-          <t>工业母机ETF</t>
+          <t>光伏ETF</t>
         </is>
       </c>
       <c r="D73" s="39" t="n">
-        <v>4.97</v>
+        <v>90.05</v>
       </c>
       <c r="E73" s="39" t="n">
-        <v>15.6</v>
+        <v>11.1</v>
       </c>
       <c r="F73" s="39" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="G73" s="39" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H73" s="39" t="n">
-        <v>26.1</v>
+        <v>17.1</v>
       </c>
       <c r="I73" s="39" t="n">
-        <v>61.2</v>
+        <v>60.5</v>
       </c>
       <c r="J73" s="39" t="n">
-        <v>74.5</v>
+        <v>64.8</v>
       </c>
       <c r="K73" s="39" t="n">
-        <v>83.2</v>
+        <v>75.5</v>
       </c>
       <c r="L73" s="39" t="n">
-        <v>67.8</v>
+        <v>51.8</v>
       </c>
       <c r="M73" s="39" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="N73" s="39" t="n">
-        <v>31.6</v>
+        <v>19.4</v>
       </c>
       <c r="O73" s="39" t="n">
-        <v>38.5</v>
+        <v>11.9</v>
       </c>
       <c r="P73" s="39" t="n">
-        <v>90.40000000000001</v>
+        <v>59.1</v>
       </c>
       <c r="Q73" s="39" t="n">
-        <v>60.3</v>
+        <v>34.5</v>
       </c>
       <c r="R73" s="39" t="n">
-        <v>87.09999999999999</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="S73" s="39" t="n">
-        <v>68.59999999999999</v>
+        <v>19.7</v>
       </c>
       <c r="T73" s="39" t="n">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="U73" s="39" t="n">
-        <v>23.7</v>
+        <v>56</v>
       </c>
       <c r="V73" s="39" t="n">
-        <v>60.7</v>
+        <v>29.4</v>
       </c>
       <c r="W73" s="39" t="n">
-        <v>84.8</v>
+        <v>52.1</v>
       </c>
       <c r="X73" s="39" t="n">
-        <v>95.09999999999999</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="Y73" s="39" t="inlineStr">
         <is>
-          <t>工业母机ETF</t>
+          <t>光伏ETF</t>
         </is>
       </c>
     </row>
@@ -17954,79 +17954,79 @@
         <v>72</v>
       </c>
       <c r="B74" s="39" t="n">
-        <v>515790</v>
+        <v>512170</v>
       </c>
       <c r="C74" s="39" t="inlineStr">
         <is>
-          <t>光伏ETF</t>
+          <t>医疗ETF</t>
         </is>
       </c>
       <c r="D74" s="39" t="n">
-        <v>90.18000000000001</v>
+        <v>261.26</v>
       </c>
       <c r="E74" s="39" t="n">
-        <v>11.1</v>
+        <v>23.7</v>
       </c>
       <c r="F74" s="39" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="G74" s="39" t="n">
-        <v>1.2</v>
+        <v>16.6</v>
       </c>
       <c r="H74" s="39" t="n">
-        <v>17.1</v>
+        <v>23.8</v>
       </c>
       <c r="I74" s="39" t="n">
-        <v>60.5</v>
+        <v>62.5</v>
       </c>
       <c r="J74" s="39" t="n">
-        <v>64.8</v>
+        <v>62.5</v>
       </c>
       <c r="K74" s="39" t="n">
-        <v>75.5</v>
+        <v>72</v>
       </c>
       <c r="L74" s="39" t="n">
-        <v>51.8</v>
+        <v>35.8</v>
       </c>
       <c r="M74" s="39" t="n">
-        <v>23</v>
+        <v>11.9</v>
       </c>
       <c r="N74" s="39" t="n">
-        <v>19.4</v>
+        <v>33.9</v>
       </c>
       <c r="O74" s="39" t="n">
-        <v>11.9</v>
+        <v>22.6</v>
       </c>
       <c r="P74" s="39" t="n">
-        <v>59.1</v>
+        <v>74.2</v>
       </c>
       <c r="Q74" s="39" t="n">
-        <v>34.5</v>
+        <v>74.2</v>
       </c>
       <c r="R74" s="39" t="n">
-        <v>70.90000000000001</v>
+        <v>74.2</v>
       </c>
       <c r="S74" s="39" t="n">
-        <v>19.7</v>
+        <v>74.2</v>
       </c>
       <c r="T74" s="39" t="n">
-        <v>56</v>
+        <v>94.3</v>
       </c>
       <c r="U74" s="39" t="n">
-        <v>56</v>
+        <v>16.6</v>
       </c>
       <c r="V74" s="39" t="n">
-        <v>29.4</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="W74" s="39" t="n">
-        <v>52.1</v>
+        <v>84.5</v>
       </c>
       <c r="X74" s="39" t="n">
-        <v>95.2</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="Y74" s="39" t="inlineStr">
         <is>
-          <t>光伏ETF</t>
+          <t>医疗ETF</t>
         </is>
       </c>
     </row>
@@ -18035,79 +18035,79 @@
         <v>73</v>
       </c>
       <c r="B75" s="39" t="n">
-        <v>159992</v>
+        <v>159667</v>
       </c>
       <c r="C75" s="39" t="inlineStr">
         <is>
-          <t>创新药ETF</t>
+          <t>工业母机ETF</t>
         </is>
       </c>
       <c r="D75" s="39" t="n">
-        <v>118.18</v>
+        <v>4.96</v>
       </c>
       <c r="E75" s="39" t="n">
-        <v>58</v>
+        <v>15.6</v>
       </c>
       <c r="F75" s="39" t="n">
-        <v>5.1</v>
+        <v>2.4</v>
       </c>
       <c r="G75" s="39" t="n">
-        <v>22</v>
+        <v>1.6</v>
       </c>
       <c r="H75" s="39" t="n">
-        <v>17.2</v>
+        <v>26.1</v>
       </c>
       <c r="I75" s="39" t="n">
-        <v>60.8</v>
+        <v>61.2</v>
       </c>
       <c r="J75" s="39" t="n">
-        <v>71</v>
+        <v>74.5</v>
       </c>
       <c r="K75" s="39" t="n">
-        <v>83.7</v>
+        <v>83.2</v>
       </c>
       <c r="L75" s="39" t="n">
-        <v>60.2</v>
+        <v>67.8</v>
       </c>
       <c r="M75" s="39" t="n">
-        <v>32.7</v>
+        <v>23.1</v>
       </c>
       <c r="N75" s="39" t="n">
-        <v>22.5</v>
+        <v>31.6</v>
       </c>
       <c r="O75" s="39" t="n">
-        <v>22.5</v>
+        <v>38.5</v>
       </c>
       <c r="P75" s="39" t="n">
-        <v>86.2</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="Q75" s="39" t="n">
-        <v>94.40000000000001</v>
+        <v>60.3</v>
       </c>
       <c r="R75" s="39" t="n">
-        <v>51.4</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="S75" s="39" t="n">
-        <v>72.7</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="T75" s="39" t="n">
-        <v>38.7</v>
+        <v>75</v>
       </c>
       <c r="U75" s="39" t="n">
-        <v>38.7</v>
+        <v>23.7</v>
       </c>
       <c r="V75" s="39" t="n">
-        <v>72.7</v>
+        <v>60.7</v>
       </c>
       <c r="W75" s="39" t="n">
-        <v>90.7</v>
+        <v>84.8</v>
       </c>
       <c r="X75" s="39" t="n">
-        <v>95.2</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="Y75" s="39" t="inlineStr">
         <is>
-          <t>创新药ETF</t>
+          <t>工业母机ETF</t>
         </is>
       </c>
     </row>
@@ -18126,7 +18126,7 @@
         </is>
       </c>
       <c r="D76" s="39" t="n">
-        <v>13.15</v>
+        <v>13.13</v>
       </c>
       <c r="E76" s="39" t="n">
         <v>57.2</v>
@@ -18186,7 +18186,7 @@
         <v>58.8</v>
       </c>
       <c r="X76" s="39" t="n">
-        <v>95.40000000000001</v>
+        <v>95</v>
       </c>
       <c r="Y76" s="39" t="inlineStr">
         <is>
@@ -18199,79 +18199,79 @@
         <v>75</v>
       </c>
       <c r="B77" s="39" t="n">
-        <v>562800</v>
+        <v>588000</v>
       </c>
       <c r="C77" s="39" t="inlineStr">
         <is>
-          <t>稀有金属ETF</t>
+          <t>科创50ETF</t>
         </is>
       </c>
       <c r="D77" s="39" t="n">
-        <v>9.08</v>
+        <v>781.14</v>
       </c>
       <c r="E77" s="39" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F77" s="39" t="n">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="G77" s="39" t="n">
-        <v>20.4</v>
+        <v>24.1</v>
       </c>
       <c r="H77" s="39" t="n">
-        <v>47.7</v>
+        <v>66.2</v>
       </c>
       <c r="I77" s="39" t="n">
-        <v>69</v>
+        <v>75.3</v>
       </c>
       <c r="J77" s="39" t="n">
-        <v>69</v>
+        <v>85.8</v>
       </c>
       <c r="K77" s="39" t="n">
-        <v>84.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="L77" s="39" t="n">
-        <v>52.7</v>
+        <v>49</v>
       </c>
       <c r="M77" s="39" t="n">
-        <v>21</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="N77" s="39" t="n">
-        <v>17.5</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="O77" s="39" t="n">
-        <v>13.1</v>
+        <v>40</v>
       </c>
       <c r="P77" s="39" t="n">
-        <v>84.2</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="Q77" s="39" t="n">
-        <v>71.3</v>
+        <v>53.1</v>
       </c>
       <c r="R77" s="39" t="n">
-        <v>85.09999999999999</v>
+        <v>36.3</v>
       </c>
       <c r="S77" s="39" t="n">
-        <v>64.40000000000001</v>
+        <v>11</v>
       </c>
       <c r="T77" s="39" t="n">
-        <v>32.7</v>
+        <v>29</v>
       </c>
       <c r="U77" s="39" t="n">
-        <v>13.2</v>
+        <v>18</v>
       </c>
       <c r="V77" s="39" t="n">
-        <v>13.2</v>
+        <v>45.5</v>
       </c>
       <c r="W77" s="39" t="n">
-        <v>13.2</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="X77" s="39" t="n">
-        <v>96</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="Y77" s="39" t="inlineStr">
         <is>
-          <t>稀有金属ETF</t>
+          <t>科创50ETF</t>
         </is>
       </c>
     </row>
@@ -18280,79 +18280,79 @@
         <v>76</v>
       </c>
       <c r="B78" s="39" t="n">
-        <v>588000</v>
+        <v>588200</v>
       </c>
       <c r="C78" s="39" t="inlineStr">
         <is>
-          <t>科创50ETF</t>
+          <t>科创芯片ETF</t>
         </is>
       </c>
       <c r="D78" s="39" t="n">
-        <v>782.59</v>
+        <v>247.95</v>
       </c>
       <c r="E78" s="39" t="n">
-        <v>9</v>
+        <v>11.8</v>
       </c>
       <c r="F78" s="39" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="G78" s="39" t="n">
-        <v>24.1</v>
+        <v>12.7</v>
       </c>
       <c r="H78" s="39" t="n">
-        <v>66.2</v>
+        <v>65.8</v>
       </c>
       <c r="I78" s="39" t="n">
-        <v>75.3</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="J78" s="39" t="n">
-        <v>85.8</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="K78" s="39" t="n">
-        <v>87.40000000000001</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="L78" s="39" t="n">
-        <v>49</v>
+        <v>57.9</v>
       </c>
       <c r="M78" s="39" t="n">
-        <v>68.40000000000001</v>
+        <v>72.8</v>
       </c>
       <c r="N78" s="39" t="n">
-        <v>79.59999999999999</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="O78" s="39" t="n">
-        <v>40</v>
+        <v>44.7</v>
       </c>
       <c r="P78" s="39" t="n">
-        <v>76.59999999999999</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="Q78" s="39" t="n">
-        <v>53.1</v>
+        <v>44.8</v>
       </c>
       <c r="R78" s="39" t="n">
-        <v>36.3</v>
+        <v>53.3</v>
       </c>
       <c r="S78" s="39" t="n">
-        <v>11</v>
+        <v>14.7</v>
       </c>
       <c r="T78" s="39" t="n">
-        <v>29</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="U78" s="39" t="n">
-        <v>18</v>
+        <v>37.8</v>
       </c>
       <c r="V78" s="39" t="n">
-        <v>45.5</v>
+        <v>72.3</v>
       </c>
       <c r="W78" s="39" t="n">
-        <v>86.40000000000001</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="X78" s="39" t="n">
-        <v>96.09999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="Y78" s="39" t="inlineStr">
         <is>
-          <t>科创50ETF</t>
+          <t>科创芯片ETF</t>
         </is>
       </c>
     </row>
@@ -18361,79 +18361,79 @@
         <v>77</v>
       </c>
       <c r="B79" s="39" t="n">
-        <v>159732</v>
+        <v>515980</v>
       </c>
       <c r="C79" s="39" t="inlineStr">
         <is>
-          <t>消费电子ETF</t>
+          <t>人工智能ETF</t>
         </is>
       </c>
       <c r="D79" s="39" t="n">
-        <v>15.88</v>
+        <v>34.86</v>
       </c>
       <c r="E79" s="39" t="n">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="F79" s="39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G79" s="39" t="n">
         <v>0.3</v>
       </c>
-      <c r="G79" s="39" t="n">
-        <v>0.2</v>
-      </c>
       <c r="H79" s="39" t="n">
-        <v>24.4</v>
+        <v>42</v>
       </c>
       <c r="I79" s="39" t="n">
-        <v>61.7</v>
+        <v>62.1</v>
       </c>
       <c r="J79" s="39" t="n">
-        <v>80.7</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="K79" s="39" t="n">
-        <v>82.09999999999999</v>
+        <v>82.8</v>
       </c>
       <c r="L79" s="39" t="n">
-        <v>54.8</v>
+        <v>54.1</v>
       </c>
       <c r="M79" s="39" t="n">
-        <v>29.6</v>
+        <v>32</v>
       </c>
       <c r="N79" s="39" t="n">
-        <v>29.6</v>
+        <v>57.9</v>
       </c>
       <c r="O79" s="39" t="n">
-        <v>68.40000000000001</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="P79" s="39" t="n">
-        <v>90.09999999999999</v>
+        <v>92.8</v>
       </c>
       <c r="Q79" s="39" t="n">
-        <v>37.9</v>
+        <v>43.5</v>
       </c>
       <c r="R79" s="39" t="n">
-        <v>71.2</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="S79" s="39" t="n">
-        <v>41.5</v>
+        <v>28.1</v>
       </c>
       <c r="T79" s="39" t="n">
-        <v>55.5</v>
+        <v>57.1</v>
       </c>
       <c r="U79" s="39" t="n">
-        <v>30.9</v>
+        <v>41.8</v>
       </c>
       <c r="V79" s="39" t="n">
-        <v>66.5</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="W79" s="39" t="n">
-        <v>89.59999999999999</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="X79" s="39" t="n">
         <v>96.40000000000001</v>
       </c>
       <c r="Y79" s="39" t="inlineStr">
         <is>
-          <t>消费电子ETF</t>
+          <t>人工智能ETF</t>
         </is>
       </c>
     </row>
@@ -18442,79 +18442,79 @@
         <v>78</v>
       </c>
       <c r="B80" s="39" t="n">
-        <v>588200</v>
+        <v>515230</v>
       </c>
       <c r="C80" s="39" t="inlineStr">
         <is>
-          <t>科创芯片ETF</t>
+          <t>软件ETF</t>
         </is>
       </c>
       <c r="D80" s="39" t="n">
-        <v>248.57</v>
+        <v>13.51</v>
       </c>
       <c r="E80" s="39" t="n">
-        <v>11.8</v>
+        <v>28</v>
       </c>
       <c r="F80" s="39" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="G80" s="39" t="n">
-        <v>12.7</v>
+        <v>1.3</v>
       </c>
       <c r="H80" s="39" t="n">
-        <v>65.8</v>
+        <v>53.7</v>
       </c>
       <c r="I80" s="39" t="n">
-        <v>74.90000000000001</v>
+        <v>63.7</v>
       </c>
       <c r="J80" s="39" t="n">
-        <v>91.09999999999999</v>
+        <v>75.7</v>
       </c>
       <c r="K80" s="39" t="n">
-        <v>91.09999999999999</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="L80" s="39" t="n">
-        <v>57.9</v>
+        <v>34.8</v>
       </c>
       <c r="M80" s="39" t="n">
-        <v>72.8</v>
+        <v>17.4</v>
       </c>
       <c r="N80" s="39" t="n">
-        <v>85.09999999999999</v>
+        <v>61.1</v>
       </c>
       <c r="O80" s="39" t="n">
-        <v>44.7</v>
+        <v>61.1</v>
       </c>
       <c r="P80" s="39" t="n">
-        <v>70.59999999999999</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="Q80" s="39" t="n">
-        <v>44.8</v>
+        <v>51.2</v>
       </c>
       <c r="R80" s="39" t="n">
-        <v>53.3</v>
+        <v>59.3</v>
       </c>
       <c r="S80" s="39" t="n">
-        <v>14.7</v>
+        <v>17</v>
       </c>
       <c r="T80" s="39" t="n">
-        <v>9.699999999999999</v>
+        <v>55.3</v>
       </c>
       <c r="U80" s="39" t="n">
-        <v>37.8</v>
+        <v>34.2</v>
       </c>
       <c r="V80" s="39" t="n">
-        <v>72.3</v>
+        <v>56.4</v>
       </c>
       <c r="W80" s="39" t="n">
-        <v>92.40000000000001</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="X80" s="39" t="n">
         <v>96.40000000000001</v>
       </c>
       <c r="Y80" s="39" t="inlineStr">
         <is>
-          <t>科创芯片ETF</t>
+          <t>软件ETF</t>
         </is>
       </c>
     </row>
@@ -18523,79 +18523,79 @@
         <v>79</v>
       </c>
       <c r="B81" s="39" t="n">
-        <v>510500</v>
+        <v>159732</v>
       </c>
       <c r="C81" s="39" t="inlineStr">
         <is>
-          <t>中证500ETF</t>
+          <t>消费电子ETF</t>
         </is>
       </c>
       <c r="D81" s="39" t="n">
-        <v>1111.65</v>
+        <v>15.9</v>
       </c>
       <c r="E81" s="39" t="n">
-        <v>16.4</v>
+        <v>1.5</v>
       </c>
       <c r="F81" s="39" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="G81" s="39" t="n">
-        <v>10.8</v>
+        <v>0.2</v>
       </c>
       <c r="H81" s="39" t="n">
-        <v>47.3</v>
+        <v>24.4</v>
       </c>
       <c r="I81" s="39" t="n">
-        <v>70.09999999999999</v>
+        <v>61.7</v>
       </c>
       <c r="J81" s="39" t="n">
-        <v>77.09999999999999</v>
+        <v>80.7</v>
       </c>
       <c r="K81" s="39" t="n">
-        <v>85.2</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="L81" s="39" t="n">
-        <v>62.2</v>
+        <v>54.8</v>
       </c>
       <c r="M81" s="39" t="n">
-        <v>29</v>
+        <v>29.6</v>
       </c>
       <c r="N81" s="39" t="n">
-        <v>33.4</v>
+        <v>29.6</v>
       </c>
       <c r="O81" s="39" t="n">
-        <v>38.4</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="P81" s="39" t="n">
-        <v>91.40000000000001</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="Q81" s="39" t="n">
-        <v>69.5</v>
+        <v>37.9</v>
       </c>
       <c r="R81" s="39" t="n">
-        <v>77.5</v>
+        <v>71.2</v>
       </c>
       <c r="S81" s="39" t="n">
-        <v>37.1</v>
+        <v>41.5</v>
       </c>
       <c r="T81" s="39" t="n">
-        <v>63.5</v>
+        <v>55.5</v>
       </c>
       <c r="U81" s="39" t="n">
-        <v>26.9</v>
+        <v>30.9</v>
       </c>
       <c r="V81" s="39" t="n">
-        <v>35.5</v>
+        <v>66.5</v>
       </c>
       <c r="W81" s="39" t="n">
-        <v>79.8</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="X81" s="39" t="n">
-        <v>96.59999999999999</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="Y81" s="39" t="inlineStr">
         <is>
-          <t>中证500ETF</t>
+          <t>消费电子ETF</t>
         </is>
       </c>
     </row>
@@ -18604,79 +18604,79 @@
         <v>80</v>
       </c>
       <c r="B82" s="39" t="n">
-        <v>515230</v>
+        <v>562800</v>
       </c>
       <c r="C82" s="39" t="inlineStr">
         <is>
-          <t>软件ETF</t>
+          <t>稀有金属ETF</t>
         </is>
       </c>
       <c r="D82" s="39" t="n">
-        <v>13.53</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="E82" s="39" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F82" s="39" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="G82" s="39" t="n">
-        <v>1.3</v>
+        <v>20.4</v>
       </c>
       <c r="H82" s="39" t="n">
-        <v>53.7</v>
+        <v>47.7</v>
       </c>
       <c r="I82" s="39" t="n">
-        <v>63.7</v>
+        <v>69</v>
       </c>
       <c r="J82" s="39" t="n">
-        <v>75.7</v>
+        <v>69</v>
       </c>
       <c r="K82" s="39" t="n">
-        <v>79.09999999999999</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="L82" s="39" t="n">
-        <v>34.8</v>
+        <v>52.7</v>
       </c>
       <c r="M82" s="39" t="n">
-        <v>17.4</v>
+        <v>21</v>
       </c>
       <c r="N82" s="39" t="n">
-        <v>61.1</v>
+        <v>17.5</v>
       </c>
       <c r="O82" s="39" t="n">
-        <v>61.1</v>
+        <v>13.1</v>
       </c>
       <c r="P82" s="39" t="n">
-        <v>92.59999999999999</v>
+        <v>84.2</v>
       </c>
       <c r="Q82" s="39" t="n">
-        <v>51.2</v>
+        <v>71.3</v>
       </c>
       <c r="R82" s="39" t="n">
-        <v>59.3</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="S82" s="39" t="n">
-        <v>17</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="T82" s="39" t="n">
-        <v>55.3</v>
+        <v>32.7</v>
       </c>
       <c r="U82" s="39" t="n">
-        <v>34.2</v>
+        <v>13.2</v>
       </c>
       <c r="V82" s="39" t="n">
-        <v>56.4</v>
+        <v>13.2</v>
       </c>
       <c r="W82" s="39" t="n">
-        <v>90.40000000000001</v>
+        <v>13.2</v>
       </c>
       <c r="X82" s="39" t="n">
-        <v>96.59999999999999</v>
+        <v>96.5</v>
       </c>
       <c r="Y82" s="39" t="inlineStr">
         <is>
-          <t>软件ETF</t>
+          <t>稀有金属ETF</t>
         </is>
       </c>
     </row>
@@ -18685,79 +18685,79 @@
         <v>81</v>
       </c>
       <c r="B83" s="39" t="n">
-        <v>513180</v>
+        <v>510500</v>
       </c>
       <c r="C83" s="39" t="inlineStr">
         <is>
-          <t>恒生科技指数ETF</t>
+          <t>中证500ETF</t>
         </is>
       </c>
       <c r="D83" s="39" t="n">
-        <v>276.97</v>
+        <v>1110.49</v>
       </c>
       <c r="E83" s="39" t="n">
-        <v>11</v>
+        <v>16.4</v>
       </c>
       <c r="F83" s="39" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="G83" s="39" t="n">
-        <v>0.8</v>
+        <v>10.8</v>
       </c>
       <c r="H83" s="39" t="n">
-        <v>31.7</v>
+        <v>47.3</v>
       </c>
       <c r="I83" s="39" t="n">
-        <v>64</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="J83" s="39" t="n">
-        <v>76.5</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="K83" s="39" t="n">
-        <v>83.59999999999999</v>
+        <v>85.2</v>
       </c>
       <c r="L83" s="39" t="n">
-        <v>64.3</v>
+        <v>62.2</v>
       </c>
       <c r="M83" s="39" t="n">
-        <v>19.4</v>
+        <v>29</v>
       </c>
       <c r="N83" s="39" t="n">
-        <v>45.9</v>
+        <v>33.4</v>
       </c>
       <c r="O83" s="39" t="n">
-        <v>31.2</v>
+        <v>38.4</v>
       </c>
       <c r="P83" s="39" t="n">
-        <v>63.7</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="Q83" s="39" t="n">
-        <v>71.40000000000001</v>
+        <v>69.5</v>
       </c>
       <c r="R83" s="39" t="n">
-        <v>94.8</v>
+        <v>77.5</v>
       </c>
       <c r="S83" s="39" t="n">
-        <v>45.4</v>
+        <v>37.1</v>
       </c>
       <c r="T83" s="39" t="n">
-        <v>65.8</v>
+        <v>63.5</v>
       </c>
       <c r="U83" s="39" t="n">
-        <v>60.1</v>
+        <v>26.9</v>
       </c>
       <c r="V83" s="39" t="n">
-        <v>51.4</v>
+        <v>35.5</v>
       </c>
       <c r="W83" s="39" t="n">
-        <v>84</v>
+        <v>79.8</v>
       </c>
       <c r="X83" s="39" t="n">
-        <v>96.59999999999999</v>
+        <v>96.5</v>
       </c>
       <c r="Y83" s="39" t="inlineStr">
         <is>
-          <t>恒生科技指数ETF</t>
+          <t>中证500ETF</t>
         </is>
       </c>
     </row>
@@ -18855,7 +18855,7 @@
         </is>
       </c>
       <c r="D85" s="39" t="n">
-        <v>30.41</v>
+        <v>30.38</v>
       </c>
       <c r="E85" s="39" t="n">
         <v>14.4</v>
@@ -18915,7 +18915,7 @@
         <v>90.2</v>
       </c>
       <c r="X85" s="39" t="n">
-        <v>96.7</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="Y85" s="39" t="inlineStr">
         <is>
@@ -18928,79 +18928,79 @@
         <v>84</v>
       </c>
       <c r="B86" s="39" t="n">
-        <v>515980</v>
+        <v>513180</v>
       </c>
       <c r="C86" s="39" t="inlineStr">
         <is>
-          <t>人工智能ETF</t>
+          <t>恒生科技指数ETF</t>
         </is>
       </c>
       <c r="D86" s="39" t="n">
-        <v>34.96</v>
+        <v>276.97</v>
       </c>
       <c r="E86" s="39" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F86" s="39" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="G86" s="39" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="H86" s="39" t="n">
-        <v>42</v>
+        <v>31.7</v>
       </c>
       <c r="I86" s="39" t="n">
-        <v>62.1</v>
+        <v>64</v>
       </c>
       <c r="J86" s="39" t="n">
-        <v>76.59999999999999</v>
+        <v>76.5</v>
       </c>
       <c r="K86" s="39" t="n">
-        <v>82.8</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="L86" s="39" t="n">
-        <v>54.1</v>
+        <v>64.3</v>
       </c>
       <c r="M86" s="39" t="n">
-        <v>32</v>
+        <v>19.4</v>
       </c>
       <c r="N86" s="39" t="n">
-        <v>57.9</v>
+        <v>45.9</v>
       </c>
       <c r="O86" s="39" t="n">
-        <v>66.40000000000001</v>
+        <v>31.2</v>
       </c>
       <c r="P86" s="39" t="n">
-        <v>92.8</v>
+        <v>63.7</v>
       </c>
       <c r="Q86" s="39" t="n">
-        <v>43.5</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="R86" s="39" t="n">
-        <v>72.59999999999999</v>
+        <v>94.8</v>
       </c>
       <c r="S86" s="39" t="n">
-        <v>28.1</v>
+        <v>45.4</v>
       </c>
       <c r="T86" s="39" t="n">
-        <v>57.1</v>
+        <v>65.8</v>
       </c>
       <c r="U86" s="39" t="n">
-        <v>41.8</v>
+        <v>60.1</v>
       </c>
       <c r="V86" s="39" t="n">
-        <v>64.59999999999999</v>
+        <v>51.4</v>
       </c>
       <c r="W86" s="39" t="n">
-        <v>91.40000000000001</v>
+        <v>84</v>
       </c>
       <c r="X86" s="39" t="n">
-        <v>96.7</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="Y86" s="39" t="inlineStr">
         <is>
-          <t>人工智能ETF</t>
+          <t>恒生科技指数ETF</t>
         </is>
       </c>
     </row>
@@ -19017,7 +19017,7 @@
         </is>
       </c>
       <c r="D87" s="39" t="n">
-        <v>215.25</v>
+        <v>214.65</v>
       </c>
       <c r="E87" s="39" t="n">
         <v>8.199999999999999</v>
@@ -19077,7 +19077,7 @@
         <v>93.2</v>
       </c>
       <c r="X87" s="39" t="n">
-        <v>97.40000000000001</v>
+        <v>97.2</v>
       </c>
       <c r="Y87" s="39" t="inlineStr">
         <is>
@@ -19098,7 +19098,7 @@
         </is>
       </c>
       <c r="D88" s="39" t="n">
-        <v>244.01</v>
+        <v>243.43</v>
       </c>
       <c r="E88" s="39" t="n">
         <v>53.1</v>
@@ -19158,7 +19158,7 @@
         <v>92.7</v>
       </c>
       <c r="X88" s="39" t="n">
-        <v>97.59999999999999</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="Y88" s="39" t="inlineStr">
         <is>
@@ -19262,7 +19262,7 @@
         </is>
       </c>
       <c r="D90" s="39" t="n">
-        <v>69.81999999999999</v>
+        <v>69.63</v>
       </c>
       <c r="E90" s="39" t="n">
         <v>40.4</v>
@@ -19322,7 +19322,7 @@
         <v>92</v>
       </c>
       <c r="X90" s="39" t="n">
-        <v>98</v>
+        <v>97.8</v>
       </c>
       <c r="Y90" s="39" t="inlineStr">
         <is>
@@ -19343,7 +19343,7 @@
         </is>
       </c>
       <c r="D91" s="39" t="n">
-        <v>7.64</v>
+        <v>7.63</v>
       </c>
       <c r="E91" s="39" t="n">
         <v>55.3</v>
@@ -19403,7 +19403,7 @@
         <v>94.7</v>
       </c>
       <c r="X91" s="39" t="n">
-        <v>98.09999999999999</v>
+        <v>98</v>
       </c>
       <c r="Y91" s="39" t="inlineStr">
         <is>
@@ -19416,79 +19416,79 @@
         <v>90</v>
       </c>
       <c r="B92" s="39" t="n">
-        <v>513330</v>
+        <v>159996</v>
       </c>
       <c r="C92" s="39" t="inlineStr">
         <is>
-          <t>恒生互联网ETF</t>
+          <t>家电ETF</t>
         </is>
       </c>
       <c r="D92" s="39" t="n">
-        <v>247.74</v>
+        <v>15.18</v>
       </c>
       <c r="E92" s="39" t="n">
-        <v>22.1</v>
+        <v>6.5</v>
       </c>
       <c r="F92" s="39" t="n">
-        <v>3.2</v>
+        <v>1</v>
       </c>
       <c r="G92" s="39" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H92" s="39" t="n">
-        <v>20.2</v>
+        <v>22.2</v>
       </c>
       <c r="I92" s="39" t="n">
-        <v>60.7</v>
+        <v>70</v>
       </c>
       <c r="J92" s="39" t="n">
-        <v>69.59999999999999</v>
+        <v>71.7</v>
       </c>
       <c r="K92" s="39" t="n">
-        <v>81.8</v>
+        <v>51.4</v>
       </c>
       <c r="L92" s="39" t="n">
-        <v>84</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="M92" s="39" t="n">
-        <v>18.4</v>
+        <v>27.7</v>
       </c>
       <c r="N92" s="39" t="n">
-        <v>42.4</v>
+        <v>27.7</v>
       </c>
       <c r="O92" s="39" t="n">
-        <v>29.4</v>
+        <v>61.3</v>
       </c>
       <c r="P92" s="39" t="n">
-        <v>61.1</v>
+        <v>89.8</v>
       </c>
       <c r="Q92" s="39" t="n">
-        <v>42.2</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="R92" s="39" t="n">
-        <v>88.5</v>
+        <v>90.2</v>
       </c>
       <c r="S92" s="39" t="n">
-        <v>39.6</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="T92" s="39" t="n">
-        <v>66</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="U92" s="39" t="n">
-        <v>66</v>
+        <v>52.5</v>
       </c>
       <c r="V92" s="39" t="n">
-        <v>66</v>
+        <v>78.2</v>
       </c>
       <c r="W92" s="39" t="n">
-        <v>91.5</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="X92" s="39" t="n">
-        <v>98.2</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="Y92" s="39" t="inlineStr">
         <is>
-          <t>恒生互联网ETF</t>
+          <t>家电ETF</t>
         </is>
       </c>
     </row>
@@ -19496,82 +19496,80 @@
       <c r="A93" s="39" t="n">
         <v>91</v>
       </c>
-      <c r="B93" s="39" t="inlineStr">
-        <is>
-          <t>511880</t>
-        </is>
+      <c r="B93" s="39" t="n">
+        <v>513330</v>
       </c>
       <c r="C93" s="39" t="inlineStr">
         <is>
-          <t>银华日利ETF</t>
+          <t>恒生互联网ETF</t>
         </is>
       </c>
       <c r="D93" s="39" t="n">
-        <v>745.58</v>
+        <v>247.74</v>
       </c>
       <c r="E93" s="39" t="n">
-        <v>95.2</v>
+        <v>22.1</v>
       </c>
       <c r="F93" s="39" t="n">
-        <v>45</v>
+        <v>3.2</v>
       </c>
       <c r="G93" s="39" t="n">
-        <v>71.59999999999999</v>
+        <v>2.1</v>
       </c>
       <c r="H93" s="39" t="n">
-        <v>82.3</v>
+        <v>20.2</v>
       </c>
       <c r="I93" s="39" t="n">
-        <v>87.8</v>
+        <v>60.7</v>
       </c>
       <c r="J93" s="39" t="n">
-        <v>95</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="K93" s="39" t="n">
-        <v>97.7</v>
+        <v>81.8</v>
       </c>
       <c r="L93" s="39" t="n">
-        <v>99.09999999999999</v>
+        <v>84</v>
       </c>
       <c r="M93" s="39" t="n">
-        <v>99.40000000000001</v>
+        <v>18.4</v>
       </c>
       <c r="N93" s="39" t="n">
-        <v>61</v>
+        <v>42.4</v>
       </c>
       <c r="O93" s="39" t="n">
-        <v>83.40000000000001</v>
+        <v>29.4</v>
       </c>
       <c r="P93" s="39" t="n">
-        <v>55.9</v>
+        <v>61.1</v>
       </c>
       <c r="Q93" s="39" t="n">
-        <v>79</v>
+        <v>42.2</v>
       </c>
       <c r="R93" s="39" t="n">
-        <v>79</v>
+        <v>88.5</v>
       </c>
       <c r="S93" s="39" t="n">
-        <v>94.7</v>
+        <v>39.6</v>
       </c>
       <c r="T93" s="39" t="n">
-        <v>97.7</v>
+        <v>66</v>
       </c>
       <c r="U93" s="39" t="n">
-        <v>71.09999999999999</v>
+        <v>66</v>
       </c>
       <c r="V93" s="39" t="n">
-        <v>81.3</v>
+        <v>66</v>
       </c>
       <c r="W93" s="39" t="n">
-        <v>98.09999999999999</v>
+        <v>91.5</v>
       </c>
       <c r="X93" s="39" t="n">
         <v>98.2</v>
       </c>
       <c r="Y93" s="39" t="inlineStr">
         <is>
-          <t>银华日利ETF</t>
+          <t>恒生互联网ETF</t>
         </is>
       </c>
     </row>
@@ -19579,80 +19577,82 @@
       <c r="A94" s="39" t="n">
         <v>92</v>
       </c>
-      <c r="B94" s="39" t="n">
-        <v>159996</v>
+      <c r="B94" s="39" t="inlineStr">
+        <is>
+          <t>511880</t>
+        </is>
       </c>
       <c r="C94" s="39" t="inlineStr">
         <is>
-          <t>家电ETF</t>
+          <t>银华日利ETF</t>
         </is>
       </c>
       <c r="D94" s="39" t="n">
-        <v>15.21</v>
+        <v>745.5700000000001</v>
       </c>
       <c r="E94" s="39" t="n">
-        <v>6.5</v>
+        <v>95.2</v>
       </c>
       <c r="F94" s="39" t="n">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="G94" s="39" t="n">
-        <v>1</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="H94" s="39" t="n">
-        <v>22.2</v>
+        <v>82.3</v>
       </c>
       <c r="I94" s="39" t="n">
-        <v>70</v>
+        <v>87.8</v>
       </c>
       <c r="J94" s="39" t="n">
-        <v>71.7</v>
+        <v>95</v>
       </c>
       <c r="K94" s="39" t="n">
-        <v>51.4</v>
+        <v>97.7</v>
       </c>
       <c r="L94" s="39" t="n">
-        <v>71.90000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="M94" s="39" t="n">
-        <v>27.7</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="N94" s="39" t="n">
-        <v>27.7</v>
+        <v>61</v>
       </c>
       <c r="O94" s="39" t="n">
-        <v>61.3</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="P94" s="39" t="n">
-        <v>89.8</v>
+        <v>55.9</v>
       </c>
       <c r="Q94" s="39" t="n">
-        <v>72.09999999999999</v>
+        <v>79</v>
       </c>
       <c r="R94" s="39" t="n">
-        <v>90.2</v>
+        <v>79</v>
       </c>
       <c r="S94" s="39" t="n">
-        <v>70.59999999999999</v>
+        <v>94.7</v>
       </c>
       <c r="T94" s="39" t="n">
-        <v>81.40000000000001</v>
+        <v>97.7</v>
       </c>
       <c r="U94" s="39" t="n">
-        <v>52.5</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="V94" s="39" t="n">
-        <v>78.2</v>
+        <v>81.3</v>
       </c>
       <c r="W94" s="39" t="n">
-        <v>93.59999999999999</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="X94" s="39" t="n">
         <v>98.3</v>
       </c>
       <c r="Y94" s="39" t="inlineStr">
         <is>
-          <t>家电ETF</t>
+          <t>银华日利ETF</t>
         </is>
       </c>
     </row>
@@ -19669,7 +19669,7 @@
         </is>
       </c>
       <c r="D95" s="39" t="n">
-        <v>27.72</v>
+        <v>27.62</v>
       </c>
       <c r="E95" s="39" t="n">
         <v>49.8</v>
@@ -19831,7 +19831,7 @@
         </is>
       </c>
       <c r="D97" s="39" t="n">
-        <v>2.89</v>
+        <v>2.88</v>
       </c>
       <c r="E97" s="39" t="n">
         <v>7.3</v>
@@ -19912,7 +19912,7 @@
         </is>
       </c>
       <c r="D98" s="39" t="n">
-        <v>9.08</v>
+        <v>9.1</v>
       </c>
       <c r="E98" s="39" t="n">
         <v>30.4</v>
@@ -19972,7 +19972,7 @@
         <v>90.59999999999999</v>
       </c>
       <c r="X98" s="39" t="n">
-        <v>98.90000000000001</v>
+        <v>99</v>
       </c>
       <c r="Y98" s="39" t="inlineStr">
         <is>
@@ -19993,7 +19993,7 @@
         </is>
       </c>
       <c r="D99" s="39" t="n">
-        <v>8.84</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="E99" s="39" t="n">
         <v>15.7</v>
@@ -20053,7 +20053,7 @@
         <v>96.2</v>
       </c>
       <c r="X99" s="39" t="n">
-        <v>99.3</v>
+        <v>99.5</v>
       </c>
       <c r="Y99" s="39" t="inlineStr">
         <is>
@@ -20074,7 +20074,7 @@
         </is>
       </c>
       <c r="D100" s="39" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="E100" s="39" t="n">
         <v>13.6</v>

--- a/fund_list.xlsx
+++ b/fund_list.xlsx
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="D2" s="39" t="n">
-        <v>3101.91</v>
+        <v>3623.83</v>
       </c>
       <c r="E2" s="40" t="n">
         <v>1.58</v>
@@ -1602,7 +1602,7 @@
         <v>0.8</v>
       </c>
       <c r="X2" s="44" t="n">
-        <v>0.38</v>
+        <v>0.13</v>
       </c>
       <c r="Y2" s="39" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         </is>
       </c>
       <c r="D3" s="39" t="n">
-        <v>136.61</v>
+        <v>156.83</v>
       </c>
       <c r="E3" s="40" t="n">
         <v>1.72</v>
@@ -1684,8 +1684,8 @@
       <c r="W3" s="44" t="n">
         <v>0.36</v>
       </c>
-      <c r="X3" s="42" t="n">
-        <v>-0.28</v>
+      <c r="X3" s="41" t="n">
+        <v>-0.65</v>
       </c>
       <c r="Y3" s="39" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="D4" s="39" t="n">
-        <v>4993.99</v>
+        <v>5808.51</v>
       </c>
       <c r="E4" s="40" t="n">
         <v>0.64</v>
@@ -1768,7 +1768,7 @@
         <v>0.22</v>
       </c>
       <c r="X4" s="44" t="n">
-        <v>1.03</v>
+        <v>0.72</v>
       </c>
       <c r="Y4" s="39" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         </is>
       </c>
       <c r="D5" s="39" t="n">
-        <v>2385.74</v>
+        <v>2763.28</v>
       </c>
       <c r="E5" s="40" t="n">
         <v>1.83</v>
@@ -1851,7 +1851,7 @@
         <v>0.51</v>
       </c>
       <c r="X5" s="44" t="n">
-        <v>1.74</v>
+        <v>1.34</v>
       </c>
       <c r="Y5" s="39" t="inlineStr">
         <is>
@@ -1874,7 +1874,7 @@
         </is>
       </c>
       <c r="D6" s="39" t="n">
-        <v>399.77</v>
+        <v>464.2</v>
       </c>
       <c r="E6" s="40" t="n">
         <v>2.28</v>
@@ -1934,7 +1934,7 @@
         <v>0.87</v>
       </c>
       <c r="X6" s="42" t="n">
-        <v>0.71</v>
+        <v>0.4</v>
       </c>
       <c r="Y6" s="39" t="inlineStr">
         <is>
@@ -1957,7 +1957,7 @@
         </is>
       </c>
       <c r="D7" s="39" t="n">
-        <v>1528.14</v>
+        <v>1800.26</v>
       </c>
       <c r="E7" s="40" t="n">
         <v>1.71</v>
@@ -2017,7 +2017,7 @@
         <v>0.61</v>
       </c>
       <c r="X7" s="44" t="n">
-        <v>0.75</v>
+        <v>0.48</v>
       </c>
       <c r="Y7" s="39" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         </is>
       </c>
       <c r="D8" s="39" t="n">
-        <v>1153.85</v>
+        <v>1348.9</v>
       </c>
       <c r="E8" s="40" t="n">
         <v>0.75</v>
@@ -2100,7 +2100,7 @@
         <v>0.17</v>
       </c>
       <c r="X8" s="44" t="n">
-        <v>0.39</v>
+        <v>0.15</v>
       </c>
       <c r="Y8" s="39" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         </is>
       </c>
       <c r="D9" s="39" t="n">
-        <v>2681.99</v>
+        <v>3149.39</v>
       </c>
       <c r="E9" s="40" t="n">
         <v>1.46</v>
@@ -2183,7 +2183,7 @@
         <v>0.49</v>
       </c>
       <c r="X9" s="44" t="n">
-        <v>0.66</v>
+        <v>0.39</v>
       </c>
       <c r="Y9" s="39" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         </is>
       </c>
       <c r="D10" s="39" t="n">
-        <v>1610.62</v>
+        <v>1901.62</v>
       </c>
       <c r="E10" s="40" t="n">
         <v>0.61</v>
@@ -2266,7 +2266,7 @@
         <v>0.14</v>
       </c>
       <c r="X10" s="44" t="n">
-        <v>0.76</v>
+        <v>0.45</v>
       </c>
       <c r="Y10" s="39" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         </is>
       </c>
       <c r="D11" s="39" t="n">
-        <v>6.73</v>
+        <v>6.72</v>
       </c>
       <c r="E11" s="40" t="n">
         <v>5.61</v>
@@ -2349,7 +2349,7 @@
         <v>-0.18</v>
       </c>
       <c r="X11" s="41" t="n">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="Y11" s="39" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         </is>
       </c>
       <c r="D12" s="39" t="n">
-        <v>8.82</v>
+        <v>8.83</v>
       </c>
       <c r="E12" s="40" t="n">
         <v>2.48</v>
@@ -2432,7 +2432,7 @@
         <v>-0.3</v>
       </c>
       <c r="X12" s="41" t="n">
-        <v>-0.24</v>
+        <v>-0.18</v>
       </c>
       <c r="Y12" s="39" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         </is>
       </c>
       <c r="D13" s="39" t="n">
-        <v>13.52</v>
+        <v>13.54</v>
       </c>
       <c r="E13" s="40" t="n">
         <v>2.62</v>
@@ -2514,8 +2514,8 @@
       <c r="W13" s="42" t="n">
         <v>-0.22</v>
       </c>
-      <c r="X13" s="41" t="n">
-        <v>0.43</v>
+      <c r="X13" s="42" t="n">
+        <v>0.54</v>
       </c>
       <c r="Y13" s="39" t="inlineStr">
         <is>
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="D15" s="39" t="n">
-        <v>22.66</v>
+        <v>22.64</v>
       </c>
       <c r="E15" s="41" t="n">
         <v>6.01</v>
@@ -2681,7 +2681,7 @@
         <v>-1.13</v>
       </c>
       <c r="X15" s="41" t="n">
-        <v>0.27</v>
+        <v>0.2</v>
       </c>
       <c r="Y15" s="39" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
         </is>
       </c>
       <c r="D17" s="39" t="n">
-        <v>12.08</v>
+        <v>12.1</v>
       </c>
       <c r="E17" s="40" t="n">
         <v>4.42</v>
@@ -2847,7 +2847,7 @@
         <v>-4.23</v>
       </c>
       <c r="X17" s="40" t="n">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="Y17" s="39" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="D18" s="39" t="n">
-        <v>359.14</v>
+        <v>356.85</v>
       </c>
       <c r="E18" s="43" t="n">
         <v>-3.13</v>
@@ -2930,7 +2930,7 @@
         <v>-0.78</v>
       </c>
       <c r="X18" s="42" t="n">
-        <v>0.93</v>
+        <v>0.22</v>
       </c>
       <c r="Y18" s="39" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         <v>0.35</v>
       </c>
       <c r="X19" s="44" t="n">
-        <v>0.85</v>
+        <v>0.92</v>
       </c>
       <c r="Y19" s="39" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
         </is>
       </c>
       <c r="D21" s="39" t="n">
-        <v>620.85</v>
+        <v>617.87</v>
       </c>
       <c r="E21" s="41" t="n">
         <v>0.7</v>
@@ -3179,7 +3179,7 @@
         <v>0.78</v>
       </c>
       <c r="X21" s="42" t="n">
-        <v>0.31</v>
+        <v>-0.17</v>
       </c>
       <c r="Y21" s="39" t="inlineStr">
         <is>
@@ -3202,7 +3202,7 @@
         </is>
       </c>
       <c r="D22" s="39" t="n">
-        <v>40.41</v>
+        <v>40.27</v>
       </c>
       <c r="E22" s="40" t="n">
         <v>1.18</v>
@@ -3261,8 +3261,8 @@
       <c r="W22" s="42" t="n">
         <v>0.74</v>
       </c>
-      <c r="X22" s="44" t="n">
-        <v>0.98</v>
+      <c r="X22" s="42" t="n">
+        <v>0.61</v>
       </c>
       <c r="Y22" s="39" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D23" s="39" t="n">
-        <v>3801.35</v>
+        <v>3788.86</v>
       </c>
       <c r="E23" s="40" t="n">
         <v>0.95</v>
@@ -3345,7 +3345,7 @@
         <v>0.61</v>
       </c>
       <c r="X23" s="44" t="n">
-        <v>0.79</v>
+        <v>0.48</v>
       </c>
       <c r="Y23" s="39" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         </is>
       </c>
       <c r="D24" s="39" t="n">
-        <v>1644.44</v>
+        <v>1638.46</v>
       </c>
       <c r="E24" s="40" t="n">
         <v>2.22</v>
@@ -3428,7 +3428,7 @@
         <v>0.89</v>
       </c>
       <c r="X24" s="42" t="n">
-        <v>0.73</v>
+        <v>0.37</v>
       </c>
       <c r="Y24" s="39" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         </is>
       </c>
       <c r="D25" s="39" t="n">
-        <v>47.87</v>
+        <v>47.81</v>
       </c>
       <c r="E25" s="40" t="n">
         <v>1.32</v>
@@ -3510,8 +3510,8 @@
       <c r="W25" s="44" t="n">
         <v>0.86</v>
       </c>
-      <c r="X25" s="44" t="n">
-        <v>0.12</v>
+      <c r="X25" s="42" t="n">
+        <v>-0.12</v>
       </c>
       <c r="Y25" s="39" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         </is>
       </c>
       <c r="D26" s="39" t="n">
-        <v>277.83</v>
+        <v>275.91</v>
       </c>
       <c r="E26" s="43" t="n">
         <v>-4.39</v>
@@ -3594,7 +3594,7 @@
         <v>-0.42</v>
       </c>
       <c r="X26" s="42" t="n">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="39" t="inlineStr">
         <is>
@@ -3617,7 +3617,7 @@
         </is>
       </c>
       <c r="D27" s="39" t="n">
-        <v>47.85</v>
+        <v>47.74</v>
       </c>
       <c r="E27" s="40" t="n">
         <v>1.87</v>
@@ -3677,7 +3677,7 @@
         <v>0.75</v>
       </c>
       <c r="X27" s="42" t="n">
-        <v>0.86</v>
+        <v>0.49</v>
       </c>
       <c r="Y27" s="39" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
         </is>
       </c>
       <c r="D28" s="39" t="n">
-        <v>654.89</v>
+        <v>651.97</v>
       </c>
       <c r="E28" s="43" t="n">
         <v>-0.67</v>
@@ -3760,7 +3760,7 @@
         <v>0.08</v>
       </c>
       <c r="X28" s="44" t="n">
-        <v>0.98</v>
+        <v>0.57</v>
       </c>
       <c r="Y28" s="39" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         </is>
       </c>
       <c r="D29" s="39" t="n">
-        <v>1119.71</v>
+        <v>1116.02</v>
       </c>
       <c r="E29" s="40" t="n">
         <v>0.63</v>
@@ -3843,7 +3843,7 @@
         <v>0.17</v>
       </c>
       <c r="X29" s="44" t="n">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="Y29" s="39" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         </is>
       </c>
       <c r="D30" s="39" t="n">
-        <v>787.59</v>
+        <v>784.67</v>
       </c>
       <c r="E30" s="40" t="n">
         <v>1.65</v>
@@ -3925,8 +3925,8 @@
       <c r="W30" s="44" t="n">
         <v>0.28</v>
       </c>
-      <c r="X30" s="42" t="n">
-        <v>-0.28</v>
+      <c r="X30" s="41" t="n">
+        <v>-0.65</v>
       </c>
       <c r="Y30" s="39" t="inlineStr">
         <is>
@@ -3949,7 +3949,7 @@
         </is>
       </c>
       <c r="D31" s="39" t="n">
-        <v>881.5700000000001</v>
+        <v>878.48</v>
       </c>
       <c r="E31" s="40" t="n">
         <v>1.63</v>
@@ -4009,7 +4009,7 @@
         <v>0.46</v>
       </c>
       <c r="X31" s="44" t="n">
-        <v>1.68</v>
+        <v>1.32</v>
       </c>
       <c r="Y31" s="39" t="inlineStr">
         <is>
@@ -4032,7 +4032,7 @@
         </is>
       </c>
       <c r="D32" s="39" t="n">
-        <v>264.43</v>
+        <v>263.25</v>
       </c>
       <c r="E32" s="40" t="n">
         <v>1.02</v>
@@ -4092,7 +4092,7 @@
         <v>0.57</v>
       </c>
       <c r="X32" s="44" t="n">
-        <v>2.28</v>
+        <v>1.83</v>
       </c>
       <c r="Y32" s="39" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         </is>
       </c>
       <c r="D33" s="39" t="n">
-        <v>55.35</v>
+        <v>55.22</v>
       </c>
       <c r="E33" s="40" t="n">
         <v>3.35</v>
@@ -4175,7 +4175,7 @@
         <v>0.93</v>
       </c>
       <c r="X33" s="42" t="n">
-        <v>0.39</v>
+        <v>0.23</v>
       </c>
       <c r="Y33" s="39" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         </is>
       </c>
       <c r="D34" s="39" t="n">
-        <v>33.17</v>
+        <v>33.12</v>
       </c>
       <c r="E34" s="40" t="n">
         <v>3.05</v>
@@ -4258,7 +4258,7 @@
         <v>0.78</v>
       </c>
       <c r="X34" s="42" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.42</v>
       </c>
       <c r="Y34" s="39" t="inlineStr">
         <is>
@@ -4281,7 +4281,7 @@
         </is>
       </c>
       <c r="D35" s="39" t="n">
-        <v>3.83</v>
+        <v>3.81</v>
       </c>
       <c r="E35" s="41" t="n">
         <v>6.92</v>
@@ -4341,7 +4341,7 @@
         <v>0.91</v>
       </c>
       <c r="X35" s="42" t="n">
-        <v>0.28</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="Y35" s="39" t="inlineStr">
         <is>
@@ -4364,7 +4364,7 @@
         </is>
       </c>
       <c r="D36" s="39" t="n">
-        <v>253.81</v>
+        <v>252.85</v>
       </c>
       <c r="E36" s="40" t="n">
         <v>0.79</v>
@@ -4424,7 +4424,7 @@
         <v>-0.13</v>
       </c>
       <c r="X36" s="41" t="n">
-        <v>-0.6899999999999999</v>
+        <v>-1.07</v>
       </c>
       <c r="Y36" s="39" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         </is>
       </c>
       <c r="D37" s="39" t="n">
-        <v>212.75</v>
+        <v>212.15</v>
       </c>
       <c r="E37" s="43" t="n">
         <v>0.21</v>
@@ -4507,7 +4507,7 @@
         <v>-0.5600000000000001</v>
       </c>
       <c r="X37" s="41" t="n">
-        <v>-0.47</v>
+        <v>-0.84</v>
       </c>
       <c r="Y37" s="39" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         </is>
       </c>
       <c r="D38" s="39" t="n">
-        <v>242.09</v>
+        <v>241.33</v>
       </c>
       <c r="E38" s="40" t="n">
         <v>0.36</v>
@@ -4590,7 +4590,7 @@
         <v>-0.16</v>
       </c>
       <c r="X38" s="41" t="n">
-        <v>-0.63</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="Y38" s="39" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         </is>
       </c>
       <c r="D39" s="39" t="n">
-        <v>286.76</v>
+        <v>285.95</v>
       </c>
       <c r="E39" s="40" t="n">
         <v>1.43</v>
@@ -4673,7 +4673,7 @@
         <v>0.67</v>
       </c>
       <c r="X39" s="44" t="n">
-        <v>0.38</v>
+        <v>0.19</v>
       </c>
       <c r="Y39" s="39" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="D40" s="39" t="n">
-        <v>65.79000000000001</v>
+        <v>65.7</v>
       </c>
       <c r="E40" s="40" t="n">
         <v>2.02</v>
@@ -4756,7 +4756,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="X40" s="44" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="Y40" s="39" t="inlineStr">
         <is>
@@ -4779,7 +4779,7 @@
         </is>
       </c>
       <c r="D41" s="39" t="n">
-        <v>46.59</v>
+        <v>46.48</v>
       </c>
       <c r="E41" s="40" t="n">
         <v>0.8100000000000001</v>
@@ -4839,7 +4839,7 @@
         <v>0.93</v>
       </c>
       <c r="X41" s="42" t="n">
-        <v>1.61</v>
+        <v>1.3</v>
       </c>
       <c r="Y41" s="39" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         </is>
       </c>
       <c r="D42" s="39" t="n">
-        <v>77.58</v>
+        <v>77.53</v>
       </c>
       <c r="E42" s="40" t="n">
         <v>0</v>
@@ -4945,7 +4945,7 @@
         </is>
       </c>
       <c r="D43" s="39" t="n">
-        <v>114.03</v>
+        <v>113.72</v>
       </c>
       <c r="E43" s="40" t="n">
         <v>1.31</v>
@@ -5005,7 +5005,7 @@
         <v>-1.35</v>
       </c>
       <c r="X43" s="41" t="n">
-        <v>0.14</v>
+        <v>-0.14</v>
       </c>
       <c r="Y43" s="39" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         </is>
       </c>
       <c r="D44" s="39" t="n">
-        <v>16.5</v>
+        <v>16.47</v>
       </c>
       <c r="E44" s="40" t="n">
         <v>2.5</v>
@@ -5087,8 +5087,8 @@
       <c r="W44" s="42" t="n">
         <v>0.21</v>
       </c>
-      <c r="X44" s="44" t="n">
-        <v>0.43</v>
+      <c r="X44" s="42" t="n">
+        <v>0.21</v>
       </c>
       <c r="Y44" s="39" t="inlineStr">
         <is>
@@ -5194,7 +5194,7 @@
         </is>
       </c>
       <c r="D46" s="39" t="n">
-        <v>259.79</v>
+        <v>260.6</v>
       </c>
       <c r="E46" s="40" t="n">
         <v>0.98</v>
@@ -5526,7 +5526,7 @@
         </is>
       </c>
       <c r="D50" s="39" t="n">
-        <v>4.4</v>
+        <v>4.39</v>
       </c>
       <c r="E50" s="40" t="n">
         <v>0.35</v>
@@ -5586,7 +5586,7 @@
         <v>-0.23</v>
       </c>
       <c r="X50" s="41" t="n">
-        <v>0.16</v>
+        <v>-0.08</v>
       </c>
       <c r="Y50" s="39" t="inlineStr">
         <is>
@@ -5692,7 +5692,7 @@
         </is>
       </c>
       <c r="D52" s="39" t="n">
-        <v>5.09</v>
+        <v>5.08</v>
       </c>
       <c r="E52" s="43" t="n">
         <v>-3.1</v>
@@ -5752,7 +5752,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="X52" s="44" t="n">
-        <v>0.89</v>
+        <v>0.63</v>
       </c>
       <c r="Y52" s="39" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         </is>
       </c>
       <c r="D53" s="39" t="n">
-        <v>28.56</v>
+        <v>28.46</v>
       </c>
       <c r="E53" s="43" t="n">
         <v>-0.54</v>
@@ -5835,7 +5835,7 @@
         <v>-0.73</v>
       </c>
       <c r="X53" s="42" t="n">
-        <v>0.74</v>
+        <v>0.37</v>
       </c>
       <c r="Y53" s="39" t="inlineStr">
         <is>
@@ -5858,7 +5858,7 @@
         </is>
       </c>
       <c r="D54" s="39" t="n">
-        <v>36.24</v>
+        <v>36.17</v>
       </c>
       <c r="E54" s="43" t="n">
         <v>-3.12</v>
@@ -5918,7 +5918,7 @@
         <v>-0.6</v>
       </c>
       <c r="X54" s="42" t="n">
-        <v>1.01</v>
+        <v>0.91</v>
       </c>
       <c r="Y54" s="39" t="inlineStr">
         <is>
@@ -5941,7 +5941,7 @@
         </is>
       </c>
       <c r="D55" s="39" t="n">
-        <v>2.91</v>
+        <v>2.9</v>
       </c>
       <c r="E55" s="43" t="n">
         <v>-2.34</v>
@@ -6001,7 +6001,7 @@
         <v>0.13</v>
       </c>
       <c r="X55" s="44" t="n">
-        <v>0.26</v>
+        <v>0.13</v>
       </c>
       <c r="Y55" s="39" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         </is>
       </c>
       <c r="D56" s="39" t="n">
-        <v>52.54</v>
+        <v>52.5</v>
       </c>
       <c r="E56" s="43" t="n">
         <v>-2.8</v>
@@ -6084,7 +6084,7 @@
         <v>-0.59</v>
       </c>
       <c r="X56" s="42" t="n">
-        <v>0.84</v>
+        <v>0.76</v>
       </c>
       <c r="Y56" s="39" t="inlineStr">
         <is>
@@ -6107,7 +6107,7 @@
         </is>
       </c>
       <c r="D57" s="39" t="n">
-        <v>145.61</v>
+        <v>145.12</v>
       </c>
       <c r="E57" s="43" t="n">
         <v>-5.28</v>
@@ -6167,7 +6167,7 @@
         <v>-0.11</v>
       </c>
       <c r="X57" s="42" t="n">
-        <v>0.68</v>
+        <v>0.34</v>
       </c>
       <c r="Y57" s="39" t="inlineStr">
         <is>
@@ -6273,7 +6273,7 @@
         </is>
       </c>
       <c r="D59" s="39" t="n">
-        <v>7.59</v>
+        <v>7.57</v>
       </c>
       <c r="E59" s="40" t="n">
         <v>0.85</v>
@@ -6332,8 +6332,8 @@
       <c r="W59" s="42" t="n">
         <v>-0.51</v>
       </c>
-      <c r="X59" s="42" t="n">
-        <v>-0.13</v>
+      <c r="X59" s="41" t="n">
+        <v>-0.38</v>
       </c>
       <c r="Y59" s="39" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         </is>
       </c>
       <c r="D60" s="39" t="n">
-        <v>17.11</v>
+        <v>17.01</v>
       </c>
       <c r="E60" s="43" t="n">
         <v>-4.3</v>
@@ -6416,7 +6416,7 @@
         <v>-0.89</v>
       </c>
       <c r="X60" s="42" t="n">
-        <v>1.28</v>
+        <v>0.77</v>
       </c>
       <c r="Y60" s="39" t="inlineStr">
         <is>
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="D61" s="39" t="n">
-        <v>48.76</v>
+        <v>48.55</v>
       </c>
       <c r="E61" s="41" t="n">
         <v>3.31</v>
@@ -6499,7 +6499,7 @@
         <v>0</v>
       </c>
       <c r="X61" s="42" t="n">
-        <v>0.7</v>
+        <v>0.42</v>
       </c>
       <c r="Y61" s="39" t="inlineStr">
         <is>
@@ -6522,7 +6522,7 @@
         </is>
       </c>
       <c r="D62" s="39" t="n">
-        <v>63.31</v>
+        <v>63.25</v>
       </c>
       <c r="E62" s="43" t="n">
         <v>-5.54</v>
@@ -6582,7 +6582,7 @@
         <v>-0.2</v>
       </c>
       <c r="X62" s="44" t="n">
-        <v>2.54</v>
+        <v>2.64</v>
       </c>
       <c r="Y62" s="39" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         </is>
       </c>
       <c r="D63" s="39" t="n">
-        <v>69.26000000000001</v>
+        <v>68.88</v>
       </c>
       <c r="E63" s="43" t="n">
         <v>-2.96</v>
@@ -6664,8 +6664,8 @@
       <c r="W63" s="42" t="n">
         <v>-1.25</v>
       </c>
-      <c r="X63" s="42" t="n">
-        <v>0.9</v>
+      <c r="X63" s="41" t="n">
+        <v>0.36</v>
       </c>
       <c r="Y63" s="39" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         </is>
       </c>
       <c r="D64" s="39" t="n">
-        <v>13.99</v>
+        <v>13.92</v>
       </c>
       <c r="E64" s="43" t="n">
         <v>-0.53</v>
@@ -6748,7 +6748,7 @@
         <v>-0.84</v>
       </c>
       <c r="X64" s="42" t="n">
-        <v>0.61</v>
+        <v>0.12</v>
       </c>
       <c r="Y64" s="39" t="inlineStr">
         <is>
@@ -6854,7 +6854,7 @@
         </is>
       </c>
       <c r="D66" s="39" t="n">
-        <v>65.39</v>
+        <v>65.25</v>
       </c>
       <c r="E66" s="40" t="n">
         <v>2.36</v>
@@ -6913,8 +6913,8 @@
       <c r="W66" s="42" t="n">
         <v>1.02</v>
       </c>
-      <c r="X66" s="42" t="n">
-        <v>-0.07000000000000001</v>
+      <c r="X66" s="41" t="n">
+        <v>-0.29</v>
       </c>
       <c r="Y66" s="39" t="inlineStr">
         <is>
@@ -6937,7 +6937,7 @@
         </is>
       </c>
       <c r="D67" s="39" t="n">
-        <v>14.36</v>
+        <v>14.31</v>
       </c>
       <c r="E67" s="40" t="n">
         <v>2.68</v>
@@ -6997,7 +6997,7 @@
         <v>0.71</v>
       </c>
       <c r="X67" s="42" t="n">
-        <v>-0.18</v>
+        <v>-0.53</v>
       </c>
       <c r="Y67" s="39" t="inlineStr">
         <is>
@@ -7020,7 +7020,7 @@
         </is>
       </c>
       <c r="D68" s="39" t="n">
-        <v>15.23</v>
+        <v>15.21</v>
       </c>
       <c r="E68" s="43" t="n">
         <v>-0.08</v>
@@ -7080,7 +7080,7 @@
         <v>0.38</v>
       </c>
       <c r="X68" s="44" t="n">
-        <v>0.82</v>
+        <v>0.67</v>
       </c>
       <c r="Y68" s="39" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         </is>
       </c>
       <c r="D69" s="39" t="n">
-        <v>149.87</v>
+        <v>149.51</v>
       </c>
       <c r="E69" s="42" t="n">
         <v>3.75</v>
@@ -7163,7 +7163,7 @@
         <v>0.12</v>
       </c>
       <c r="X69" s="42" t="n">
-        <v>0.49</v>
+        <v>0.24</v>
       </c>
       <c r="Y69" s="39" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         </is>
       </c>
       <c r="D70" s="39" t="n">
-        <v>115.2</v>
+        <v>114.82</v>
       </c>
       <c r="E70" s="41" t="n">
         <v>3.37</v>
@@ -7245,8 +7245,8 @@
       <c r="W70" s="41" t="n">
         <v>0.34</v>
       </c>
-      <c r="X70" s="42" t="n">
-        <v>1</v>
+      <c r="X70" s="41" t="n">
+        <v>0.67</v>
       </c>
       <c r="Y70" s="39" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         </is>
       </c>
       <c r="D71" s="39" t="n">
-        <v>31.95</v>
+        <v>31.89</v>
       </c>
       <c r="E71" s="40" t="n">
         <v>3.05</v>
@@ -7329,7 +7329,7 @@
         <v>0.25</v>
       </c>
       <c r="X71" s="44" t="n">
-        <v>0.37</v>
+        <v>0.18</v>
       </c>
       <c r="Y71" s="39" t="inlineStr">
         <is>
@@ -7352,7 +7352,7 @@
         </is>
       </c>
       <c r="D72" s="39" t="n">
-        <v>30.23</v>
+        <v>30.14</v>
       </c>
       <c r="E72" s="41" t="n">
         <v>3.92</v>
@@ -7412,7 +7412,7 @@
         <v>-0.59</v>
       </c>
       <c r="X72" s="41" t="n">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="Y72" s="39" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="D73" s="39" t="n">
-        <v>6.41</v>
+        <v>6.37</v>
       </c>
       <c r="E73" s="43" t="n">
         <v>-3.54</v>
@@ -7494,8 +7494,8 @@
       <c r="W73" s="42" t="n">
         <v>-0.39</v>
       </c>
-      <c r="X73" s="42" t="n">
-        <v>0.2</v>
+      <c r="X73" s="41" t="n">
+        <v>-0.39</v>
       </c>
       <c r="Y73" s="39" t="inlineStr">
         <is>
@@ -7518,7 +7518,7 @@
         </is>
       </c>
       <c r="D74" s="39" t="n">
-        <v>217.12</v>
+        <v>216.98</v>
       </c>
       <c r="E74" s="40" t="n">
         <v>2.21</v>
@@ -7578,7 +7578,7 @@
         <v>0.63</v>
       </c>
       <c r="X74" s="41" t="n">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="Y74" s="39" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         </is>
       </c>
       <c r="D75" s="39" t="n">
-        <v>161.07</v>
+        <v>161.22</v>
       </c>
       <c r="E75" s="40" t="n">
         <v>2.26</v>
@@ -7661,7 +7661,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="X75" s="42" t="n">
-        <v>0.45</v>
+        <v>0.54</v>
       </c>
       <c r="Y75" s="39" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         </is>
       </c>
       <c r="D76" s="39" t="n">
-        <v>46.09</v>
+        <v>45.87</v>
       </c>
       <c r="E76" s="40" t="n">
         <v>1.37</v>
@@ -7743,8 +7743,8 @@
       <c r="W76" s="42" t="n">
         <v>0.28</v>
       </c>
-      <c r="X76" s="42" t="n">
-        <v>-0.28</v>
+      <c r="X76" s="41" t="n">
+        <v>-0.75</v>
       </c>
       <c r="Y76" s="39" t="inlineStr">
         <is>
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="D77" s="39" t="n">
-        <v>9</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="E77" s="40" t="n">
         <v>1.29</v>
@@ -7827,7 +7827,7 @@
         <v>-0.2</v>
       </c>
       <c r="X77" s="42" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Y77" s="39" t="inlineStr">
         <is>
@@ -7850,7 +7850,7 @@
         </is>
       </c>
       <c r="D78" s="39" t="n">
-        <v>9.19</v>
+        <v>9.16</v>
       </c>
       <c r="E78" s="40" t="n">
         <v>1.53</v>
@@ -7910,7 +7910,7 @@
         <v>-0.5600000000000001</v>
       </c>
       <c r="X78" s="42" t="n">
-        <v>0.57</v>
+        <v>0.28</v>
       </c>
       <c r="Y78" s="39" t="inlineStr">
         <is>
@@ -7933,7 +7933,7 @@
         </is>
       </c>
       <c r="D79" s="39" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="E79" s="40" t="n">
         <v>0.79</v>
@@ -7992,8 +7992,8 @@
       <c r="W79" s="42" t="n">
         <v>0.57</v>
       </c>
-      <c r="X79" s="42" t="n">
-        <v>0</v>
+      <c r="X79" s="41" t="n">
+        <v>-0.49</v>
       </c>
       <c r="Y79" s="39" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>0.89</v>
       </c>
       <c r="X81" s="42" t="n">
-        <v>-0.39</v>
+        <v>-0.59</v>
       </c>
       <c r="Y81" s="39" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="D82" s="39" t="n">
-        <v>34.96</v>
+        <v>34.89</v>
       </c>
       <c r="E82" s="40" t="n">
         <v>3.64</v>
@@ -8348,7 +8348,7 @@
         </is>
       </c>
       <c r="D84" s="39" t="n">
-        <v>24.75</v>
+        <v>24.7</v>
       </c>
       <c r="E84" s="40" t="n">
         <v>3.7</v>
@@ -8408,7 +8408,7 @@
         <v>0.38</v>
       </c>
       <c r="X84" s="42" t="n">
-        <v>0.29</v>
+        <v>0.1</v>
       </c>
       <c r="Y84" s="39" t="inlineStr">
         <is>
@@ -8431,7 +8431,7 @@
         </is>
       </c>
       <c r="D85" s="39" t="n">
-        <v>43.83</v>
+        <v>43.58</v>
       </c>
       <c r="E85" s="43" t="n">
         <v>-1.87</v>
@@ -8491,7 +8491,7 @@
         <v>-0.25</v>
       </c>
       <c r="X85" s="42" t="n">
-        <v>1.23</v>
+        <v>0.74</v>
       </c>
       <c r="Y85" s="39" t="inlineStr">
         <is>
@@ -8514,7 +8514,7 @@
         </is>
       </c>
       <c r="D86" s="39" t="n">
-        <v>3.03</v>
+        <v>3.02</v>
       </c>
       <c r="E86" s="43" t="n">
         <v>-0.73</v>
@@ -8574,7 +8574,7 @@
         <v>0.46</v>
       </c>
       <c r="X86" s="44" t="n">
-        <v>1.83</v>
+        <v>1.6</v>
       </c>
       <c r="Y86" s="39" t="inlineStr">
         <is>
@@ -8597,7 +8597,7 @@
         </is>
       </c>
       <c r="D87" s="39" t="n">
-        <v>45.49</v>
+        <v>45.26</v>
       </c>
       <c r="E87" s="43" t="n">
         <v>-0.18</v>
@@ -8657,7 +8657,7 @@
         <v>0.28</v>
       </c>
       <c r="X87" s="44" t="n">
-        <v>1.8</v>
+        <v>1.35</v>
       </c>
       <c r="Y87" s="39" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         </is>
       </c>
       <c r="D88" s="39" t="n">
-        <v>91.3</v>
+        <v>91.03</v>
       </c>
       <c r="E88" s="43" t="n">
         <v>-1.73</v>
@@ -8740,7 +8740,7 @@
         <v>0</v>
       </c>
       <c r="X88" s="44" t="n">
-        <v>1.82</v>
+        <v>1.52</v>
       </c>
       <c r="Y88" s="39" t="inlineStr">
         <is>
@@ -8822,8 +8822,8 @@
       <c r="W89" s="41" t="n">
         <v>0.21</v>
       </c>
-      <c r="X89" s="41" t="n">
-        <v>0.1</v>
+      <c r="X89" s="42" t="n">
+        <v>0.31</v>
       </c>
       <c r="Y89" s="39" t="inlineStr">
         <is>
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="D90" s="39" t="n">
-        <v>18.86</v>
+        <v>18.82</v>
       </c>
       <c r="E90" s="40" t="n">
         <v>1.48</v>
@@ -8906,7 +8906,7 @@
         <v>0.65</v>
       </c>
       <c r="X90" s="42" t="n">
-        <v>0.43</v>
+        <v>0.32</v>
       </c>
       <c r="Y90" s="39" t="inlineStr">
         <is>
@@ -9012,7 +9012,7 @@
         </is>
       </c>
       <c r="D92" s="39" t="n">
-        <v>11.98</v>
+        <v>11.92</v>
       </c>
       <c r="E92" s="40" t="n">
         <v>1.42</v>
@@ -9072,7 +9072,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="X92" s="44" t="n">
-        <v>1.44</v>
+        <v>1.11</v>
       </c>
       <c r="Y92" s="39" t="inlineStr">
         <is>
@@ -9095,7 +9095,7 @@
         </is>
       </c>
       <c r="D93" s="39" t="n">
-        <v>159.69</v>
+        <v>158.9</v>
       </c>
       <c r="E93" s="43" t="n">
         <v>-0.86</v>
@@ -9154,8 +9154,8 @@
       <c r="W93" s="42" t="n">
         <v>0.36</v>
       </c>
-      <c r="X93" s="44" t="n">
-        <v>0.64</v>
+      <c r="X93" s="42" t="n">
+        <v>0.21</v>
       </c>
       <c r="Y93" s="39" t="inlineStr">
         <is>
@@ -9178,7 +9178,7 @@
         </is>
       </c>
       <c r="D94" s="39" t="n">
-        <v>245.22</v>
+        <v>243.69</v>
       </c>
       <c r="E94" s="43" t="n">
         <v>-3.35</v>
@@ -9238,7 +9238,7 @@
         <v>-0.82</v>
       </c>
       <c r="X94" s="42" t="n">
-        <v>0.42</v>
+        <v>-0.21</v>
       </c>
       <c r="Y94" s="39" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D95" s="39" t="n">
-        <v>99.62</v>
+        <v>99.41</v>
       </c>
       <c r="E95" s="43" t="n">
         <v>-5.95</v>
@@ -9320,8 +9320,8 @@
       <c r="W95" s="41" t="n">
         <v>-2.65</v>
       </c>
-      <c r="X95" s="41" t="n">
-        <v>-0.21</v>
+      <c r="X95" s="40" t="n">
+        <v>-0.63</v>
       </c>
       <c r="Y95" s="39" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         </is>
       </c>
       <c r="D96" s="39" t="n">
-        <v>9.02</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="E96" s="43" t="n">
         <v>-1.42</v>
@@ -9404,7 +9404,7 @@
         <v>-0.35</v>
       </c>
       <c r="X96" s="42" t="n">
-        <v>1.18</v>
+        <v>0.59</v>
       </c>
       <c r="Y96" s="39" t="inlineStr">
         <is>
@@ -9427,7 +9427,7 @@
         </is>
       </c>
       <c r="D97" s="39" t="n">
-        <v>105.67</v>
+        <v>105.2</v>
       </c>
       <c r="E97" s="43" t="n">
         <v>-8.109999999999999</v>
@@ -9486,8 +9486,8 @@
       <c r="W97" s="40" t="n">
         <v>-3.75</v>
       </c>
-      <c r="X97" s="40" t="n">
-        <v>-0.22</v>
+      <c r="X97" s="43" t="n">
+        <v>-0.5600000000000001</v>
       </c>
       <c r="Y97" s="39" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         </is>
       </c>
       <c r="D98" s="39" t="n">
-        <v>494.96</v>
+        <v>491.5</v>
       </c>
       <c r="E98" s="43" t="n">
         <v>-4.16</v>
@@ -9570,7 +9570,7 @@
         <v>-1.39</v>
       </c>
       <c r="X98" s="42" t="n">
-        <v>0.82</v>
+        <v>0.24</v>
       </c>
       <c r="Y98" s="39" t="inlineStr">
         <is>
@@ -9593,7 +9593,7 @@
         </is>
       </c>
       <c r="D99" s="39" t="n">
-        <v>18.02</v>
+        <v>17.92</v>
       </c>
       <c r="E99" s="40" t="n">
         <v>0.85</v>
@@ -9653,7 +9653,7 @@
         <v>-0.33</v>
       </c>
       <c r="X99" s="41" t="n">
-        <v>0</v>
+        <v>-0.44</v>
       </c>
       <c r="Y99" s="39" t="inlineStr">
         <is>
@@ -9676,7 +9676,7 @@
         </is>
       </c>
       <c r="D100" s="39" t="n">
-        <v>73.7</v>
+        <v>73.17</v>
       </c>
       <c r="E100" s="43" t="n">
         <v>-5.19</v>
@@ -9736,7 +9736,7 @@
         <v>1.42</v>
       </c>
       <c r="X100" s="44" t="n">
-        <v>0.8</v>
+        <v>0.13</v>
       </c>
       <c r="Y100" s="39" t="inlineStr">
         <is>
@@ -12092,7 +12092,7 @@
         </is>
       </c>
       <c r="D2" s="39" t="n">
-        <v>136.61</v>
+        <v>156.83</v>
       </c>
       <c r="E2" s="39" t="n">
         <v>24.8</v>
@@ -12152,7 +12152,7 @@
         <v>97.7</v>
       </c>
       <c r="X2" s="39" t="n">
-        <v>68.09999999999999</v>
+        <v>48.7</v>
       </c>
       <c r="Y2" s="39" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         </is>
       </c>
       <c r="D3" s="39" t="n">
-        <v>399.77</v>
+        <v>464.2</v>
       </c>
       <c r="E3" s="39" t="n">
         <v>44.1</v>
@@ -12235,7 +12235,7 @@
         <v>88.2</v>
       </c>
       <c r="X3" s="39" t="n">
-        <v>94.40000000000001</v>
+        <v>92.7</v>
       </c>
       <c r="Y3" s="39" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         </is>
       </c>
       <c r="D4" s="39" t="n">
-        <v>3101.91</v>
+        <v>3623.83</v>
       </c>
       <c r="E4" s="39" t="n">
         <v>28.5</v>
@@ -12318,7 +12318,7 @@
         <v>94.5</v>
       </c>
       <c r="X4" s="39" t="n">
-        <v>96.40000000000001</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="Y4" s="39" t="inlineStr">
         <is>
@@ -12341,7 +12341,7 @@
         </is>
       </c>
       <c r="D5" s="39" t="n">
-        <v>1610.62</v>
+        <v>1901.62</v>
       </c>
       <c r="E5" s="39" t="n">
         <v>9.199999999999999</v>
@@ -12401,7 +12401,7 @@
         <v>95.3</v>
       </c>
       <c r="X5" s="39" t="n">
-        <v>97.5</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="Y5" s="39" t="inlineStr">
         <is>
@@ -12424,7 +12424,7 @@
         </is>
       </c>
       <c r="D6" s="39" t="n">
-        <v>1528.14</v>
+        <v>1800.26</v>
       </c>
       <c r="E6" s="39" t="n">
         <v>30</v>
@@ -12484,7 +12484,7 @@
         <v>94.8</v>
       </c>
       <c r="X6" s="39" t="n">
-        <v>97.7</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="Y6" s="39" t="inlineStr">
         <is>
@@ -12507,7 +12507,7 @@
         </is>
       </c>
       <c r="D7" s="39" t="n">
-        <v>1153.85</v>
+        <v>1348.9</v>
       </c>
       <c r="E7" s="39" t="n">
         <v>12.7</v>
@@ -12567,7 +12567,7 @@
         <v>96.90000000000001</v>
       </c>
       <c r="X7" s="39" t="n">
-        <v>98</v>
+        <v>97.5</v>
       </c>
       <c r="Y7" s="39" t="inlineStr">
         <is>
@@ -12590,7 +12590,7 @@
         </is>
       </c>
       <c r="D8" s="39" t="n">
-        <v>4993.99</v>
+        <v>5808.51</v>
       </c>
       <c r="E8" s="39" t="n">
         <v>10.2</v>
@@ -12650,7 +12650,7 @@
         <v>95.8</v>
       </c>
       <c r="X8" s="39" t="n">
-        <v>98.40000000000001</v>
+        <v>98</v>
       </c>
       <c r="Y8" s="39" t="inlineStr">
         <is>
@@ -12673,7 +12673,7 @@
         </is>
       </c>
       <c r="D9" s="39" t="n">
-        <v>2385.74</v>
+        <v>2763.28</v>
       </c>
       <c r="E9" s="39" t="n">
         <v>19.3</v>
@@ -12733,7 +12733,7 @@
         <v>96.09999999999999</v>
       </c>
       <c r="X9" s="39" t="n">
-        <v>98.7</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="Y9" s="39" t="inlineStr">
         <is>
@@ -12756,7 +12756,7 @@
         </is>
       </c>
       <c r="D10" s="39" t="n">
-        <v>2681.99</v>
+        <v>3149.39</v>
       </c>
       <c r="E10" s="39" t="n">
         <v>25.2</v>
@@ -12816,7 +12816,7 @@
         <v>97.40000000000001</v>
       </c>
       <c r="X10" s="39" t="n">
-        <v>98.8</v>
+        <v>98.5</v>
       </c>
       <c r="Y10" s="39" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
         </is>
       </c>
       <c r="D11" s="39" t="n">
-        <v>105.67</v>
+        <v>105.2</v>
       </c>
       <c r="E11" s="39" t="n">
         <v>3.3</v>
@@ -12897,7 +12897,7 @@
         <v>5.7</v>
       </c>
       <c r="X11" s="39" t="n">
-        <v>5.2</v>
+        <v>4.6</v>
       </c>
       <c r="Y11" s="39" t="inlineStr">
         <is>
@@ -12918,7 +12918,7 @@
         </is>
       </c>
       <c r="D12" s="39" t="n">
-        <v>12.08</v>
+        <v>12.1</v>
       </c>
       <c r="E12" s="39" t="n">
         <v>44.4</v>
@@ -12978,7 +12978,7 @@
         <v>6.9</v>
       </c>
       <c r="X12" s="39" t="n">
-        <v>6.9</v>
+        <v>13.4</v>
       </c>
       <c r="Y12" s="39" t="inlineStr">
         <is>
@@ -12999,7 +12999,7 @@
         </is>
       </c>
       <c r="D13" s="39" t="n">
-        <v>99.62</v>
+        <v>99.41</v>
       </c>
       <c r="E13" s="39" t="n">
         <v>3</v>
@@ -13059,7 +13059,7 @@
         <v>21.8</v>
       </c>
       <c r="X13" s="39" t="n">
-        <v>19.5</v>
+        <v>16.1</v>
       </c>
       <c r="Y13" s="39" t="inlineStr">
         <is>
@@ -13082,7 +13082,7 @@
         </is>
       </c>
       <c r="D14" s="39" t="n">
-        <v>22.66</v>
+        <v>22.64</v>
       </c>
       <c r="E14" s="39" t="n">
         <v>57</v>
@@ -13142,7 +13142,7 @@
         <v>11.6</v>
       </c>
       <c r="X14" s="39" t="n">
-        <v>33.9</v>
+        <v>29.4</v>
       </c>
       <c r="Y14" s="39" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         </is>
       </c>
       <c r="D15" s="39" t="n">
-        <v>253.81</v>
+        <v>252.85</v>
       </c>
       <c r="E15" s="39" t="n">
         <v>12.7</v>
@@ -13223,7 +13223,7 @@
         <v>86.2</v>
       </c>
       <c r="X15" s="39" t="n">
-        <v>38.8</v>
+        <v>29.9</v>
       </c>
       <c r="Y15" s="39" t="inlineStr">
         <is>
@@ -13236,79 +13236,79 @@
         <v>14</v>
       </c>
       <c r="B16" s="39" t="n">
-        <v>159865</v>
+        <v>159992</v>
       </c>
       <c r="C16" s="39" t="inlineStr">
         <is>
-          <t>养殖ETF</t>
+          <t>创新药ETF</t>
         </is>
       </c>
       <c r="D16" s="39" t="n">
-        <v>32.05</v>
+        <v>113.72</v>
       </c>
       <c r="E16" s="39" t="n">
-        <v>87.40000000000001</v>
+        <v>22</v>
       </c>
       <c r="F16" s="39" t="n">
-        <v>81.8</v>
+        <v>17.2</v>
       </c>
       <c r="G16" s="39" t="n">
-        <v>84.8</v>
+        <v>60.8</v>
       </c>
       <c r="H16" s="39" t="n">
-        <v>28.9</v>
+        <v>71</v>
       </c>
       <c r="I16" s="39" t="n">
-        <v>41.7</v>
+        <v>83.7</v>
       </c>
       <c r="J16" s="39" t="n">
-        <v>37.2</v>
+        <v>60.2</v>
       </c>
       <c r="K16" s="39" t="n">
-        <v>18</v>
+        <v>32.7</v>
       </c>
       <c r="L16" s="39" t="n">
-        <v>18</v>
+        <v>22.5</v>
       </c>
       <c r="M16" s="39" t="n">
-        <v>5.2</v>
+        <v>22.5</v>
       </c>
       <c r="N16" s="39" t="n">
-        <v>35.7</v>
+        <v>86.2</v>
       </c>
       <c r="O16" s="39" t="n">
-        <v>80.3</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="P16" s="39" t="n">
-        <v>23.8</v>
+        <v>51.4</v>
       </c>
       <c r="Q16" s="39" t="n">
-        <v>52</v>
+        <v>72.7</v>
       </c>
       <c r="R16" s="39" t="n">
-        <v>36</v>
+        <v>38.7</v>
       </c>
       <c r="S16" s="39" t="n">
-        <v>17.8</v>
+        <v>38.7</v>
       </c>
       <c r="T16" s="39" t="n">
-        <v>48.8</v>
+        <v>72.7</v>
       </c>
       <c r="U16" s="39" t="n">
-        <v>32.5</v>
+        <v>90.7</v>
       </c>
       <c r="V16" s="39" t="n">
-        <v>71.09999999999999</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="W16" s="39" t="n">
-        <v>77.59999999999999</v>
+        <v>34.5</v>
       </c>
       <c r="X16" s="39" t="n">
-        <v>41</v>
+        <v>30.6</v>
       </c>
       <c r="Y16" s="39" t="inlineStr">
         <is>
-          <t>养殖ETF</t>
+          <t>创新药ETF</t>
         </is>
       </c>
     </row>
@@ -13317,79 +13317,79 @@
         <v>15</v>
       </c>
       <c r="B17" s="39" t="n">
-        <v>159825</v>
+        <v>159766</v>
       </c>
       <c r="C17" s="39" t="inlineStr">
         <is>
-          <t>农业ETF</t>
+          <t>旅游ETF</t>
         </is>
       </c>
       <c r="D17" s="39" t="n">
-        <v>21.28</v>
+        <v>30.14</v>
       </c>
       <c r="E17" s="39" t="n">
-        <v>86.40000000000001</v>
+        <v>52.8</v>
       </c>
       <c r="F17" s="39" t="n">
-        <v>77</v>
+        <v>80.8</v>
       </c>
       <c r="G17" s="39" t="n">
-        <v>81.90000000000001</v>
+        <v>85.3</v>
       </c>
       <c r="H17" s="39" t="n">
+        <v>64.3</v>
+      </c>
+      <c r="I17" s="39" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="J17" s="39" t="n">
+        <v>36</v>
+      </c>
+      <c r="K17" s="39" t="n">
+        <v>73.7</v>
+      </c>
+      <c r="L17" s="39" t="n">
+        <v>84.3</v>
+      </c>
+      <c r="M17" s="39" t="n">
+        <v>29</v>
+      </c>
+      <c r="N17" s="39" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="O17" s="39" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="P17" s="39" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="Q17" s="39" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="R17" s="39" t="n">
+        <v>40</v>
+      </c>
+      <c r="S17" s="39" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="T17" s="39" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="U17" s="39" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="V17" s="39" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="W17" s="39" t="n">
+        <v>42.8</v>
+      </c>
+      <c r="X17" s="39" t="n">
         <v>31.2</v>
       </c>
-      <c r="I17" s="39" t="n">
-        <v>45.4</v>
-      </c>
-      <c r="J17" s="39" t="n">
-        <v>28</v>
-      </c>
-      <c r="K17" s="39" t="n">
-        <v>22.3</v>
-      </c>
-      <c r="L17" s="39" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="M17" s="39" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="N17" s="39" t="n">
-        <v>41</v>
-      </c>
-      <c r="O17" s="39" t="n">
-        <v>78.59999999999999</v>
-      </c>
-      <c r="P17" s="39" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="Q17" s="39" t="n">
-        <v>52.4</v>
-      </c>
-      <c r="R17" s="39" t="n">
-        <v>39.1</v>
-      </c>
-      <c r="S17" s="39" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="T17" s="39" t="n">
-        <v>39.7</v>
-      </c>
-      <c r="U17" s="39" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="V17" s="39" t="n">
-        <v>76.59999999999999</v>
-      </c>
-      <c r="W17" s="39" t="n">
-        <v>86.09999999999999</v>
-      </c>
-      <c r="X17" s="39" t="n">
-        <v>41.3</v>
-      </c>
       <c r="Y17" s="39" t="inlineStr">
         <is>
-          <t>农业ETF</t>
+          <t>旅游ETF</t>
         </is>
       </c>
     </row>
@@ -13398,79 +13398,79 @@
         <v>16</v>
       </c>
       <c r="B18" s="39" t="n">
-        <v>159992</v>
+        <v>513970</v>
       </c>
       <c r="C18" s="39" t="inlineStr">
         <is>
-          <t>创新药ETF</t>
+          <t>恒生消费ETF</t>
         </is>
       </c>
       <c r="D18" s="39" t="n">
-        <v>114.03</v>
+        <v>17.92</v>
       </c>
       <c r="E18" s="39" t="n">
-        <v>22</v>
+        <v>14.4</v>
       </c>
       <c r="F18" s="39" t="n">
-        <v>17.2</v>
+        <v>28.7</v>
       </c>
       <c r="G18" s="39" t="n">
-        <v>60.8</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="H18" s="39" t="n">
-        <v>71</v>
+        <v>76.7</v>
       </c>
       <c r="I18" s="39" t="n">
-        <v>83.7</v>
+        <v>86.5</v>
       </c>
       <c r="J18" s="39" t="n">
-        <v>60.2</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="K18" s="39" t="n">
-        <v>32.7</v>
+        <v>37.1</v>
       </c>
       <c r="L18" s="39" t="n">
-        <v>22.5</v>
+        <v>59.3</v>
       </c>
       <c r="M18" s="39" t="n">
-        <v>22.5</v>
+        <v>37.3</v>
       </c>
       <c r="N18" s="39" t="n">
-        <v>86.2</v>
+        <v>73.2</v>
       </c>
       <c r="O18" s="39" t="n">
-        <v>94.40000000000001</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="P18" s="39" t="n">
-        <v>51.4</v>
+        <v>95.8</v>
       </c>
       <c r="Q18" s="39" t="n">
-        <v>72.7</v>
+        <v>64.7</v>
       </c>
       <c r="R18" s="39" t="n">
-        <v>38.7</v>
+        <v>75.3</v>
       </c>
       <c r="S18" s="39" t="n">
-        <v>38.7</v>
+        <v>86</v>
       </c>
       <c r="T18" s="39" t="n">
-        <v>72.7</v>
+        <v>63.9</v>
       </c>
       <c r="U18" s="39" t="n">
-        <v>90.7</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="V18" s="39" t="n">
-        <v>95.59999999999999</v>
+        <v>94.3</v>
       </c>
       <c r="W18" s="39" t="n">
-        <v>34.5</v>
+        <v>63.7</v>
       </c>
       <c r="X18" s="39" t="n">
-        <v>42</v>
+        <v>34.1</v>
       </c>
       <c r="Y18" s="39" t="inlineStr">
         <is>
-          <t>创新药ETF</t>
+          <t>恒生消费ETF</t>
         </is>
       </c>
     </row>
@@ -13487,7 +13487,7 @@
         </is>
       </c>
       <c r="D19" s="39" t="n">
-        <v>242.09</v>
+        <v>241.33</v>
       </c>
       <c r="E19" s="39" t="n">
         <v>7.8</v>
@@ -13547,7 +13547,7 @@
         <v>85.5</v>
       </c>
       <c r="X19" s="39" t="n">
-        <v>42.8</v>
+        <v>34.3</v>
       </c>
       <c r="Y19" s="39" t="inlineStr">
         <is>
@@ -13560,79 +13560,79 @@
         <v>18</v>
       </c>
       <c r="B20" s="39" t="n">
-        <v>159766</v>
+        <v>512480</v>
       </c>
       <c r="C20" s="39" t="inlineStr">
         <is>
-          <t>旅游ETF</t>
+          <t>半导体ETF</t>
         </is>
       </c>
       <c r="D20" s="39" t="n">
-        <v>30.23</v>
+        <v>212.15</v>
       </c>
       <c r="E20" s="39" t="n">
-        <v>52.8</v>
+        <v>4.2</v>
       </c>
       <c r="F20" s="39" t="n">
-        <v>80.8</v>
+        <v>65.5</v>
       </c>
       <c r="G20" s="39" t="n">
-        <v>85.3</v>
+        <v>74</v>
       </c>
       <c r="H20" s="39" t="n">
-        <v>64.3</v>
+        <v>91.5</v>
       </c>
       <c r="I20" s="39" t="n">
-        <v>73.59999999999999</v>
+        <v>91.5</v>
       </c>
       <c r="J20" s="39" t="n">
-        <v>36</v>
+        <v>53.8</v>
       </c>
       <c r="K20" s="39" t="n">
-        <v>73.7</v>
+        <v>68</v>
       </c>
       <c r="L20" s="39" t="n">
-        <v>84.3</v>
+        <v>79</v>
       </c>
       <c r="M20" s="39" t="n">
-        <v>29</v>
+        <v>34.9</v>
       </c>
       <c r="N20" s="39" t="n">
-        <v>22.7</v>
+        <v>69.2</v>
       </c>
       <c r="O20" s="39" t="n">
-        <v>15.8</v>
+        <v>58.1</v>
       </c>
       <c r="P20" s="39" t="n">
-        <v>6.3</v>
+        <v>58.1</v>
       </c>
       <c r="Q20" s="39" t="n">
-        <v>5.1</v>
+        <v>10.6</v>
       </c>
       <c r="R20" s="39" t="n">
-        <v>40</v>
+        <v>7.8</v>
       </c>
       <c r="S20" s="39" t="n">
-        <v>11.6</v>
+        <v>21.4</v>
       </c>
       <c r="T20" s="39" t="n">
-        <v>6.8</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="U20" s="39" t="n">
-        <v>4.5</v>
+        <v>93.2</v>
       </c>
       <c r="V20" s="39" t="n">
-        <v>68.09999999999999</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="W20" s="39" t="n">
-        <v>42.8</v>
+        <v>68.2</v>
       </c>
       <c r="X20" s="39" t="n">
-        <v>42.8</v>
+        <v>35.8</v>
       </c>
       <c r="Y20" s="39" t="inlineStr">
         <is>
-          <t>旅游ETF</t>
+          <t>半导体ETF</t>
         </is>
       </c>
     </row>
@@ -13641,79 +13641,79 @@
         <v>19</v>
       </c>
       <c r="B21" s="39" t="n">
-        <v>512480</v>
+        <v>159865</v>
       </c>
       <c r="C21" s="39" t="inlineStr">
         <is>
-          <t>半导体ETF</t>
+          <t>养殖ETF</t>
         </is>
       </c>
       <c r="D21" s="39" t="n">
-        <v>212.75</v>
+        <v>32.05</v>
       </c>
       <c r="E21" s="39" t="n">
-        <v>4.2</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="F21" s="39" t="n">
-        <v>65.5</v>
+        <v>81.8</v>
       </c>
       <c r="G21" s="39" t="n">
-        <v>74</v>
+        <v>84.8</v>
       </c>
       <c r="H21" s="39" t="n">
-        <v>91.5</v>
+        <v>28.9</v>
       </c>
       <c r="I21" s="39" t="n">
-        <v>91.5</v>
+        <v>41.7</v>
       </c>
       <c r="J21" s="39" t="n">
-        <v>53.8</v>
+        <v>37.2</v>
       </c>
       <c r="K21" s="39" t="n">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="L21" s="39" t="n">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="M21" s="39" t="n">
-        <v>34.9</v>
+        <v>5.2</v>
       </c>
       <c r="N21" s="39" t="n">
-        <v>69.2</v>
+        <v>35.7</v>
       </c>
       <c r="O21" s="39" t="n">
-        <v>58.1</v>
+        <v>80.3</v>
       </c>
       <c r="P21" s="39" t="n">
-        <v>58.1</v>
+        <v>23.8</v>
       </c>
       <c r="Q21" s="39" t="n">
-        <v>10.6</v>
+        <v>52</v>
       </c>
       <c r="R21" s="39" t="n">
-        <v>7.8</v>
+        <v>36</v>
       </c>
       <c r="S21" s="39" t="n">
-        <v>21.4</v>
+        <v>17.8</v>
       </c>
       <c r="T21" s="39" t="n">
-        <v>80.09999999999999</v>
+        <v>48.8</v>
       </c>
       <c r="U21" s="39" t="n">
-        <v>93.2</v>
+        <v>32.5</v>
       </c>
       <c r="V21" s="39" t="n">
-        <v>97.59999999999999</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="W21" s="39" t="n">
-        <v>68.2</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="X21" s="39" t="n">
-        <v>45.4</v>
+        <v>41</v>
       </c>
       <c r="Y21" s="39" t="inlineStr">
         <is>
-          <t>半导体ETF</t>
+          <t>养殖ETF</t>
         </is>
       </c>
     </row>
@@ -13722,79 +13722,79 @@
         <v>20</v>
       </c>
       <c r="B22" s="39" t="n">
-        <v>513080</v>
+        <v>159825</v>
       </c>
       <c r="C22" s="39" t="inlineStr">
         <is>
-          <t>法国CAC40ETF</t>
+          <t>农业ETF</t>
         </is>
       </c>
       <c r="D22" s="39" t="n">
-        <v>8.82</v>
+        <v>21.28</v>
       </c>
       <c r="E22" s="39" t="n">
-        <v>30.6</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="F22" s="39" t="n">
-        <v>19.7</v>
+        <v>77</v>
       </c>
       <c r="G22" s="39" t="n">
-        <v>75.90000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="H22" s="39" t="n">
-        <v>61.6</v>
+        <v>31.2</v>
       </c>
       <c r="I22" s="39" t="n">
-        <v>77.3</v>
+        <v>45.4</v>
       </c>
       <c r="J22" s="39" t="n">
-        <v>55.3</v>
+        <v>28</v>
       </c>
       <c r="K22" s="39" t="n">
-        <v>66.2</v>
+        <v>22.3</v>
       </c>
       <c r="L22" s="39" t="n">
-        <v>78</v>
+        <v>18.5</v>
       </c>
       <c r="M22" s="39" t="n">
-        <v>79.40000000000001</v>
+        <v>5.5</v>
       </c>
       <c r="N22" s="39" t="n">
-        <v>70.2</v>
+        <v>41</v>
       </c>
       <c r="O22" s="39" t="n">
-        <v>91.59999999999999</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="P22" s="39" t="n">
-        <v>97.40000000000001</v>
+        <v>27.9</v>
       </c>
       <c r="Q22" s="39" t="n">
-        <v>73.5</v>
+        <v>52.4</v>
       </c>
       <c r="R22" s="39" t="n">
-        <v>93.90000000000001</v>
+        <v>39.1</v>
       </c>
       <c r="S22" s="39" t="n">
-        <v>94.8</v>
+        <v>15.5</v>
       </c>
       <c r="T22" s="39" t="n">
-        <v>94.8</v>
+        <v>39.7</v>
       </c>
       <c r="U22" s="39" t="n">
-        <v>96.2</v>
+        <v>25.3</v>
       </c>
       <c r="V22" s="39" t="n">
-        <v>99.40000000000001</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="W22" s="39" t="n">
-        <v>70.7</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="X22" s="39" t="n">
-        <v>48.3</v>
+        <v>41.3</v>
       </c>
       <c r="Y22" s="39" t="inlineStr">
         <is>
-          <t>法国CAC40ETF</t>
+          <t>农业ETF</t>
         </is>
       </c>
     </row>
@@ -13803,79 +13803,79 @@
         <v>21</v>
       </c>
       <c r="B23" s="39" t="n">
-        <v>159859</v>
+        <v>512400</v>
       </c>
       <c r="C23" s="39" t="inlineStr">
         <is>
-          <t>生物医药ETF</t>
+          <t>有色金属ETF</t>
         </is>
       </c>
       <c r="D23" s="39" t="n">
-        <v>35.02</v>
+        <v>45.87</v>
       </c>
       <c r="E23" s="39" t="n">
-        <v>25.1</v>
+        <v>18.5</v>
       </c>
       <c r="F23" s="39" t="n">
-        <v>25.1</v>
+        <v>39</v>
       </c>
       <c r="G23" s="39" t="n">
-        <v>63.1</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="H23" s="39" t="n">
-        <v>53.9</v>
+        <v>81</v>
       </c>
       <c r="I23" s="39" t="n">
-        <v>70.8</v>
+        <v>91.8</v>
       </c>
       <c r="J23" s="39" t="n">
-        <v>40.9</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="K23" s="39" t="n">
-        <v>10.3</v>
+        <v>63.2</v>
       </c>
       <c r="L23" s="39" t="n">
-        <v>10.3</v>
+        <v>38.9</v>
       </c>
       <c r="M23" s="39" t="n">
-        <v>10.3</v>
+        <v>26.7</v>
       </c>
       <c r="N23" s="39" t="n">
-        <v>51.6</v>
+        <v>92</v>
       </c>
       <c r="O23" s="39" t="n">
-        <v>18.2</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="P23" s="39" t="n">
-        <v>18.2</v>
+        <v>35.4</v>
       </c>
       <c r="Q23" s="39" t="n">
-        <v>64.40000000000001</v>
+        <v>23.7</v>
       </c>
       <c r="R23" s="39" t="n">
-        <v>89.09999999999999</v>
+        <v>35.8</v>
       </c>
       <c r="S23" s="39" t="n">
-        <v>52.6</v>
+        <v>21.9</v>
       </c>
       <c r="T23" s="39" t="n">
-        <v>82</v>
+        <v>15.8</v>
       </c>
       <c r="U23" s="39" t="n">
-        <v>50.6</v>
+        <v>10.1</v>
       </c>
       <c r="V23" s="39" t="n">
-        <v>89.8</v>
+        <v>91</v>
       </c>
       <c r="W23" s="39" t="n">
-        <v>46</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="X23" s="39" t="n">
-        <v>59.2</v>
+        <v>47.6</v>
       </c>
       <c r="Y23" s="39" t="inlineStr">
         <is>
-          <t>生物医药ETF</t>
+          <t>有色金属ETF</t>
         </is>
       </c>
     </row>
@@ -13884,79 +13884,79 @@
         <v>22</v>
       </c>
       <c r="B24" s="39" t="n">
-        <v>516910</v>
+        <v>588000</v>
       </c>
       <c r="C24" s="39" t="inlineStr">
         <is>
-          <t>物流ETF</t>
+          <t>科创50ETF</t>
         </is>
       </c>
       <c r="D24" s="39" t="n">
-        <v>0.55</v>
+        <v>784.67</v>
       </c>
       <c r="E24" s="39" t="n">
-        <v>35.6</v>
+        <v>24.1</v>
       </c>
       <c r="F24" s="39" t="n">
-        <v>57.5</v>
+        <v>66.2</v>
       </c>
       <c r="G24" s="39" t="n">
-        <v>80</v>
+        <v>75.3</v>
       </c>
       <c r="H24" s="39" t="n">
-        <v>61.4</v>
+        <v>85.8</v>
       </c>
       <c r="I24" s="39" t="n">
-        <v>70.09999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="J24" s="39" t="n">
-        <v>55.2</v>
+        <v>49</v>
       </c>
       <c r="K24" s="39" t="n">
-        <v>73.8</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="L24" s="39" t="n">
-        <v>80.3</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="M24" s="39" t="n">
-        <v>64.3</v>
+        <v>40</v>
       </c>
       <c r="N24" s="39" t="n">
-        <v>35.8</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="O24" s="39" t="n">
-        <v>89.09999999999999</v>
+        <v>53.1</v>
       </c>
       <c r="P24" s="39" t="n">
-        <v>55.5</v>
+        <v>36.3</v>
       </c>
       <c r="Q24" s="39" t="n">
-        <v>40.4</v>
+        <v>11</v>
       </c>
       <c r="R24" s="39" t="n">
-        <v>61.4</v>
+        <v>29</v>
       </c>
       <c r="S24" s="39" t="n">
-        <v>22.2</v>
+        <v>18</v>
       </c>
       <c r="T24" s="39" t="n">
-        <v>38</v>
+        <v>45.5</v>
       </c>
       <c r="U24" s="39" t="n">
-        <v>12.5</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="V24" s="39" t="n">
-        <v>82.59999999999999</v>
+        <v>96.3</v>
       </c>
       <c r="W24" s="39" t="n">
-        <v>91.09999999999999</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="X24" s="39" t="n">
-        <v>63.5</v>
+        <v>48.5</v>
       </c>
       <c r="Y24" s="39" t="inlineStr">
         <is>
-          <t>物流ETF</t>
+          <t>科创50ETF</t>
         </is>
       </c>
     </row>
@@ -13965,79 +13965,79 @@
         <v>23</v>
       </c>
       <c r="B25" s="39" t="n">
-        <v>513970</v>
+        <v>513080</v>
       </c>
       <c r="C25" s="39" t="inlineStr">
         <is>
-          <t>恒生消费ETF</t>
+          <t>法国CAC40ETF</t>
         </is>
       </c>
       <c r="D25" s="39" t="n">
-        <v>18.02</v>
+        <v>8.83</v>
       </c>
       <c r="E25" s="39" t="n">
-        <v>14.4</v>
+        <v>30.6</v>
       </c>
       <c r="F25" s="39" t="n">
-        <v>28.7</v>
+        <v>19.7</v>
       </c>
       <c r="G25" s="39" t="n">
-        <v>74.90000000000001</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="H25" s="39" t="n">
-        <v>76.7</v>
+        <v>61.6</v>
       </c>
       <c r="I25" s="39" t="n">
-        <v>86.5</v>
+        <v>77.3</v>
       </c>
       <c r="J25" s="39" t="n">
-        <v>91.09999999999999</v>
+        <v>55.3</v>
       </c>
       <c r="K25" s="39" t="n">
-        <v>37.1</v>
+        <v>66.2</v>
       </c>
       <c r="L25" s="39" t="n">
-        <v>59.3</v>
+        <v>78</v>
       </c>
       <c r="M25" s="39" t="n">
-        <v>37.3</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="N25" s="39" t="n">
-        <v>73.2</v>
+        <v>70.2</v>
       </c>
       <c r="O25" s="39" t="n">
-        <v>78.59999999999999</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="P25" s="39" t="n">
-        <v>95.8</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="Q25" s="39" t="n">
-        <v>64.7</v>
+        <v>73.5</v>
       </c>
       <c r="R25" s="39" t="n">
-        <v>75.3</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="S25" s="39" t="n">
-        <v>86</v>
+        <v>94.8</v>
       </c>
       <c r="T25" s="39" t="n">
-        <v>63.9</v>
+        <v>94.8</v>
       </c>
       <c r="U25" s="39" t="n">
-        <v>79.59999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="V25" s="39" t="n">
-        <v>94.3</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="W25" s="39" t="n">
-        <v>63.7</v>
+        <v>70.7</v>
       </c>
       <c r="X25" s="39" t="n">
-        <v>63.7</v>
+        <v>52.5</v>
       </c>
       <c r="Y25" s="39" t="inlineStr">
         <is>
-          <t>恒生消费ETF</t>
+          <t>法国CAC40ETF</t>
         </is>
       </c>
     </row>
@@ -14054,7 +14054,7 @@
         </is>
       </c>
       <c r="D26" s="39" t="n">
-        <v>7.59</v>
+        <v>7.57</v>
       </c>
       <c r="E26" s="39" t="n">
         <v>14.9</v>
@@ -14114,7 +14114,7 @@
         <v>73.90000000000001</v>
       </c>
       <c r="X26" s="39" t="n">
-        <v>65.7</v>
+        <v>53.8</v>
       </c>
       <c r="Y26" s="39" t="inlineStr">
         <is>
@@ -14127,79 +14127,79 @@
         <v>25</v>
       </c>
       <c r="B27" s="39" t="n">
-        <v>561320</v>
+        <v>513360</v>
       </c>
       <c r="C27" s="39" t="inlineStr">
         <is>
-          <t>交运ETF</t>
+          <t>教育ETF</t>
         </is>
       </c>
       <c r="D27" s="39" t="n">
-        <v>0.65</v>
+        <v>6.37</v>
       </c>
       <c r="E27" s="39" t="n">
-        <v>53</v>
+        <v>0.2</v>
       </c>
       <c r="F27" s="39" t="n">
-        <v>64.2</v>
+        <v>4.4</v>
       </c>
       <c r="G27" s="39" t="n">
-        <v>77</v>
+        <v>43.1</v>
       </c>
       <c r="H27" s="39" t="n">
-        <v>57.9</v>
+        <v>62.3</v>
       </c>
       <c r="I27" s="39" t="n">
-        <v>57.9</v>
+        <v>70.3</v>
       </c>
       <c r="J27" s="39" t="n">
-        <v>49.6</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="K27" s="39" t="n">
-        <v>89.3</v>
+        <v>31.8</v>
       </c>
       <c r="L27" s="39" t="n">
-        <v>89.3</v>
+        <v>72</v>
       </c>
       <c r="M27" s="39" t="n">
-        <v>71.90000000000001</v>
+        <v>60.2</v>
       </c>
       <c r="N27" s="39" t="n">
-        <v>21.5</v>
+        <v>89</v>
       </c>
       <c r="O27" s="39" t="n">
-        <v>46.5</v>
+        <v>90.7</v>
       </c>
       <c r="P27" s="39" t="n">
-        <v>23.8</v>
+        <v>98.2</v>
       </c>
       <c r="Q27" s="39" t="n">
-        <v>61.4</v>
+        <v>54.2</v>
       </c>
       <c r="R27" s="39" t="n">
-        <v>61.4</v>
+        <v>22.5</v>
       </c>
       <c r="S27" s="39" t="n">
-        <v>37</v>
+        <v>41.3</v>
       </c>
       <c r="T27" s="39" t="n">
-        <v>84.90000000000001</v>
+        <v>64.3</v>
       </c>
       <c r="U27" s="39" t="n">
-        <v>17.7</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="V27" s="39" t="n">
-        <v>70</v>
+        <v>94.3</v>
       </c>
       <c r="W27" s="39" t="n">
-        <v>77.7</v>
+        <v>75.5</v>
       </c>
       <c r="X27" s="39" t="n">
-        <v>66.3</v>
+        <v>54</v>
       </c>
       <c r="Y27" s="39" t="inlineStr">
         <is>
-          <t>交运ETF</t>
+          <t>教育ETF</t>
         </is>
       </c>
     </row>
@@ -14208,79 +14208,79 @@
         <v>26</v>
       </c>
       <c r="B28" s="39" t="n">
-        <v>588000</v>
+        <v>516910</v>
       </c>
       <c r="C28" s="39" t="inlineStr">
         <is>
-          <t>科创50ETF</t>
+          <t>物流ETF</t>
         </is>
       </c>
       <c r="D28" s="39" t="n">
-        <v>787.59</v>
+        <v>0.55</v>
       </c>
       <c r="E28" s="39" t="n">
-        <v>24.1</v>
+        <v>35.6</v>
       </c>
       <c r="F28" s="39" t="n">
-        <v>66.2</v>
+        <v>57.5</v>
       </c>
       <c r="G28" s="39" t="n">
-        <v>75.3</v>
+        <v>80</v>
       </c>
       <c r="H28" s="39" t="n">
-        <v>85.8</v>
+        <v>61.4</v>
       </c>
       <c r="I28" s="39" t="n">
-        <v>87.40000000000001</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="J28" s="39" t="n">
-        <v>49</v>
+        <v>55.2</v>
       </c>
       <c r="K28" s="39" t="n">
-        <v>68.40000000000001</v>
+        <v>73.8</v>
       </c>
       <c r="L28" s="39" t="n">
-        <v>79.59999999999999</v>
+        <v>80.3</v>
       </c>
       <c r="M28" s="39" t="n">
-        <v>40</v>
+        <v>64.3</v>
       </c>
       <c r="N28" s="39" t="n">
-        <v>76.59999999999999</v>
+        <v>35.8</v>
       </c>
       <c r="O28" s="39" t="n">
-        <v>53.1</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="P28" s="39" t="n">
-        <v>36.3</v>
+        <v>55.5</v>
       </c>
       <c r="Q28" s="39" t="n">
-        <v>11</v>
+        <v>40.4</v>
       </c>
       <c r="R28" s="39" t="n">
-        <v>29</v>
+        <v>61.4</v>
       </c>
       <c r="S28" s="39" t="n">
-        <v>18</v>
+        <v>22.2</v>
       </c>
       <c r="T28" s="39" t="n">
-        <v>45.5</v>
+        <v>38</v>
       </c>
       <c r="U28" s="39" t="n">
-        <v>86.40000000000001</v>
+        <v>12.5</v>
       </c>
       <c r="V28" s="39" t="n">
-        <v>96.3</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="W28" s="39" t="n">
-        <v>97.09999999999999</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="X28" s="39" t="n">
-        <v>68</v>
+        <v>55.1</v>
       </c>
       <c r="Y28" s="39" t="inlineStr">
         <is>
-          <t>科创50ETF</t>
+          <t>物流ETF</t>
         </is>
       </c>
     </row>
@@ -14289,79 +14289,79 @@
         <v>27</v>
       </c>
       <c r="B29" s="39" t="n">
-        <v>512400</v>
+        <v>515210</v>
       </c>
       <c r="C29" s="39" t="inlineStr">
         <is>
-          <t>有色金属ETF</t>
+          <t>钢铁ETF</t>
         </is>
       </c>
       <c r="D29" s="39" t="n">
-        <v>46.09</v>
+        <v>19.3</v>
       </c>
       <c r="E29" s="39" t="n">
-        <v>18.5</v>
+        <v>15.3</v>
       </c>
       <c r="F29" s="39" t="n">
-        <v>39</v>
+        <v>35.5</v>
       </c>
       <c r="G29" s="39" t="n">
-        <v>76.09999999999999</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="H29" s="39" t="n">
-        <v>81</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="I29" s="39" t="n">
-        <v>91.8</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="J29" s="39" t="n">
-        <v>67.40000000000001</v>
+        <v>44.1</v>
       </c>
       <c r="K29" s="39" t="n">
-        <v>63.2</v>
+        <v>27.7</v>
       </c>
       <c r="L29" s="39" t="n">
-        <v>38.9</v>
+        <v>43.5</v>
       </c>
       <c r="M29" s="39" t="n">
-        <v>26.7</v>
+        <v>67.3</v>
       </c>
       <c r="N29" s="39" t="n">
-        <v>92</v>
+        <v>89.8</v>
       </c>
       <c r="O29" s="39" t="n">
-        <v>74.90000000000001</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="P29" s="39" t="n">
-        <v>35.4</v>
+        <v>89.2</v>
       </c>
       <c r="Q29" s="39" t="n">
-        <v>23.7</v>
+        <v>51.6</v>
       </c>
       <c r="R29" s="39" t="n">
-        <v>35.8</v>
+        <v>84.8</v>
       </c>
       <c r="S29" s="39" t="n">
-        <v>21.9</v>
+        <v>93</v>
       </c>
       <c r="T29" s="39" t="n">
-        <v>15.8</v>
+        <v>93</v>
       </c>
       <c r="U29" s="39" t="n">
-        <v>10.1</v>
+        <v>22.5</v>
       </c>
       <c r="V29" s="39" t="n">
-        <v>91</v>
+        <v>78.2</v>
       </c>
       <c r="W29" s="39" t="n">
-        <v>92.59999999999999</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="X29" s="39" t="n">
-        <v>68.3</v>
+        <v>57.4</v>
       </c>
       <c r="Y29" s="39" t="inlineStr">
         <is>
-          <t>有色金属ETF</t>
+          <t>钢铁ETF</t>
         </is>
       </c>
     </row>
@@ -14370,79 +14370,79 @@
         <v>28</v>
       </c>
       <c r="B30" s="39" t="n">
-        <v>159611</v>
+        <v>159870</v>
       </c>
       <c r="C30" s="39" t="inlineStr">
         <is>
-          <t>电力ETF</t>
+          <t>化工ETF</t>
         </is>
       </c>
       <c r="D30" s="39" t="n">
-        <v>35.7</v>
+        <v>14.31</v>
       </c>
       <c r="E30" s="39" t="n">
-        <v>47.3</v>
+        <v>31.5</v>
       </c>
       <c r="F30" s="39" t="n">
-        <v>55.1</v>
+        <v>34.4</v>
       </c>
       <c r="G30" s="39" t="n">
-        <v>65.3</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="H30" s="39" t="n">
-        <v>38.8</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="I30" s="39" t="n">
-        <v>75.40000000000001</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="J30" s="39" t="n">
-        <v>82.90000000000001</v>
+        <v>33.5</v>
       </c>
       <c r="K30" s="39" t="n">
-        <v>86.8</v>
+        <v>15.9</v>
       </c>
       <c r="L30" s="39" t="n">
-        <v>86.8</v>
+        <v>30.5</v>
       </c>
       <c r="M30" s="39" t="n">
-        <v>26.1</v>
+        <v>30.5</v>
       </c>
       <c r="N30" s="39" t="n">
-        <v>59.8</v>
+        <v>84.5</v>
       </c>
       <c r="O30" s="39" t="n">
-        <v>45.9</v>
+        <v>88.2</v>
       </c>
       <c r="P30" s="39" t="n">
-        <v>19.1</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="Q30" s="39" t="n">
-        <v>80.3</v>
+        <v>72.3</v>
       </c>
       <c r="R30" s="39" t="n">
-        <v>94.3</v>
+        <v>92</v>
       </c>
       <c r="S30" s="39" t="n">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="T30" s="39" t="n">
-        <v>29.1</v>
+        <v>49.8</v>
       </c>
       <c r="U30" s="39" t="n">
-        <v>22.7</v>
+        <v>71.5</v>
       </c>
       <c r="V30" s="39" t="n">
-        <v>53.3</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="W30" s="39" t="n">
-        <v>63.1</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="X30" s="39" t="n">
-        <v>69.5</v>
+        <v>58.2</v>
       </c>
       <c r="Y30" s="39" t="inlineStr">
         <is>
-          <t>电力ETF</t>
+          <t>化工ETF</t>
         </is>
       </c>
     </row>
@@ -14451,79 +14451,79 @@
         <v>29</v>
       </c>
       <c r="B31" s="39" t="n">
-        <v>510880</v>
+        <v>159859</v>
       </c>
       <c r="C31" s="39" t="inlineStr">
         <is>
-          <t>红利ETF</t>
+          <t>生物医药ETF</t>
         </is>
       </c>
       <c r="D31" s="39" t="n">
-        <v>217.12</v>
+        <v>35.02</v>
       </c>
       <c r="E31" s="39" t="n">
-        <v>43.6</v>
+        <v>25.1</v>
       </c>
       <c r="F31" s="39" t="n">
-        <v>46.3</v>
+        <v>25.1</v>
       </c>
       <c r="G31" s="39" t="n">
-        <v>69.09999999999999</v>
+        <v>63.1</v>
       </c>
       <c r="H31" s="39" t="n">
-        <v>49</v>
+        <v>53.9</v>
       </c>
       <c r="I31" s="39" t="n">
-        <v>75.59999999999999</v>
+        <v>70.8</v>
       </c>
       <c r="J31" s="39" t="n">
-        <v>84.3</v>
+        <v>40.9</v>
       </c>
       <c r="K31" s="39" t="n">
-        <v>91.09999999999999</v>
+        <v>10.3</v>
       </c>
       <c r="L31" s="39" t="n">
-        <v>66.09999999999999</v>
+        <v>10.3</v>
       </c>
       <c r="M31" s="39" t="n">
-        <v>70.7</v>
+        <v>10.3</v>
       </c>
       <c r="N31" s="39" t="n">
-        <v>30</v>
+        <v>51.6</v>
       </c>
       <c r="O31" s="39" t="n">
-        <v>67.5</v>
+        <v>18.2</v>
       </c>
       <c r="P31" s="39" t="n">
-        <v>24.9</v>
+        <v>18.2</v>
       </c>
       <c r="Q31" s="39" t="n">
-        <v>62.9</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="R31" s="39" t="n">
-        <v>51</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="S31" s="39" t="n">
-        <v>64.5</v>
+        <v>52.6</v>
       </c>
       <c r="T31" s="39" t="n">
-        <v>20.2</v>
+        <v>82</v>
       </c>
       <c r="U31" s="39" t="n">
-        <v>5.4</v>
+        <v>50.6</v>
       </c>
       <c r="V31" s="39" t="n">
-        <v>3.6</v>
+        <v>89.8</v>
       </c>
       <c r="W31" s="39" t="n">
-        <v>62.3</v>
+        <v>46</v>
       </c>
       <c r="X31" s="39" t="n">
-        <v>70</v>
+        <v>59.2</v>
       </c>
       <c r="Y31" s="39" t="inlineStr">
         <is>
-          <t>红利ETF</t>
+          <t>生物医药ETF</t>
         </is>
       </c>
     </row>
@@ -14532,79 +14532,79 @@
         <v>30</v>
       </c>
       <c r="B32" s="39" t="n">
-        <v>159869</v>
+        <v>513330</v>
       </c>
       <c r="C32" s="39" t="inlineStr">
         <is>
-          <t>游戏ETF</t>
+          <t>恒生互联网ETF</t>
         </is>
       </c>
       <c r="D32" s="39" t="n">
-        <v>69.26000000000001</v>
+        <v>243.69</v>
       </c>
       <c r="E32" s="39" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="F32" s="39" t="n">
-        <v>42.5</v>
+        <v>20.2</v>
       </c>
       <c r="G32" s="39" t="n">
-        <v>62.4</v>
+        <v>60.7</v>
       </c>
       <c r="H32" s="39" t="n">
-        <v>60.3</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="I32" s="39" t="n">
-        <v>80.8</v>
+        <v>81.8</v>
       </c>
       <c r="J32" s="39" t="n">
-        <v>87.90000000000001</v>
+        <v>84</v>
       </c>
       <c r="K32" s="39" t="n">
-        <v>42.6</v>
+        <v>18.4</v>
       </c>
       <c r="L32" s="39" t="n">
-        <v>50.5</v>
+        <v>42.4</v>
       </c>
       <c r="M32" s="39" t="n">
-        <v>83</v>
+        <v>29.4</v>
       </c>
       <c r="N32" s="39" t="n">
-        <v>95.40000000000001</v>
+        <v>61.1</v>
       </c>
       <c r="O32" s="39" t="n">
-        <v>51.4</v>
+        <v>42.2</v>
       </c>
       <c r="P32" s="39" t="n">
-        <v>60.1</v>
+        <v>88.5</v>
       </c>
       <c r="Q32" s="39" t="n">
-        <v>20.9</v>
+        <v>39.6</v>
       </c>
       <c r="R32" s="39" t="n">
-        <v>36.6</v>
+        <v>66</v>
       </c>
       <c r="S32" s="39" t="n">
-        <v>73.5</v>
+        <v>66</v>
       </c>
       <c r="T32" s="39" t="n">
-        <v>84.09999999999999</v>
+        <v>66</v>
       </c>
       <c r="U32" s="39" t="n">
-        <v>92</v>
+        <v>91.5</v>
       </c>
       <c r="V32" s="39" t="n">
-        <v>98</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="W32" s="39" t="n">
-        <v>57.7</v>
+        <v>72.2</v>
       </c>
       <c r="X32" s="39" t="n">
-        <v>73.3</v>
+        <v>63.7</v>
       </c>
       <c r="Y32" s="39" t="inlineStr">
         <is>
-          <t>游戏ETF</t>
+          <t>恒生互联网ETF</t>
         </is>
       </c>
     </row>
@@ -14613,79 +14613,79 @@
         <v>31</v>
       </c>
       <c r="B33" s="39" t="n">
-        <v>159792</v>
+        <v>512200</v>
       </c>
       <c r="C33" s="39" t="inlineStr">
         <is>
-          <t>港股通互联网ETF</t>
+          <t>房地产ETF</t>
         </is>
       </c>
       <c r="D33" s="39" t="n">
-        <v>494.96</v>
+        <v>65.25</v>
       </c>
       <c r="E33" s="39" t="n">
-        <v>0.5</v>
+        <v>34.5</v>
       </c>
       <c r="F33" s="39" t="n">
-        <v>35.1</v>
+        <v>71.8</v>
       </c>
       <c r="G33" s="39" t="n">
-        <v>66.90000000000001</v>
+        <v>81.8</v>
       </c>
       <c r="H33" s="39" t="n">
-        <v>72.5</v>
+        <v>64.2</v>
       </c>
       <c r="I33" s="39" t="n">
-        <v>76.5</v>
+        <v>64.2</v>
       </c>
       <c r="J33" s="39" t="n">
-        <v>64.09999999999999</v>
+        <v>30</v>
       </c>
       <c r="K33" s="39" t="n">
-        <v>11.6</v>
+        <v>54.3</v>
       </c>
       <c r="L33" s="39" t="n">
-        <v>34.6</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="M33" s="39" t="n">
-        <v>29.5</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="N33" s="39" t="n">
+        <v>82.5</v>
+      </c>
+      <c r="O33" s="39" t="n">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="P33" s="39" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="Q33" s="39" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="R33" s="39" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="S33" s="39" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="T33" s="39" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="U33" s="39" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="V33" s="39" t="n">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="W33" s="39" t="n">
+        <v>85.59999999999999</v>
+      </c>
+      <c r="X33" s="39" t="n">
         <v>65.3</v>
       </c>
-      <c r="O33" s="39" t="n">
-        <v>85.90000000000001</v>
-      </c>
-      <c r="P33" s="39" t="n">
-        <v>96.7</v>
-      </c>
-      <c r="Q33" s="39" t="n">
-        <v>56.4</v>
-      </c>
-      <c r="R33" s="39" t="n">
-        <v>71.2</v>
-      </c>
-      <c r="S33" s="39" t="n">
-        <v>77</v>
-      </c>
-      <c r="T33" s="39" t="n">
-        <v>50</v>
-      </c>
-      <c r="U33" s="39" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="V33" s="39" t="n">
-        <v>96.90000000000001</v>
-      </c>
-      <c r="W33" s="39" t="n">
-        <v>63.3</v>
-      </c>
-      <c r="X33" s="39" t="n">
-        <v>73.90000000000001</v>
-      </c>
       <c r="Y33" s="39" t="inlineStr">
         <is>
-          <t>港股通互联网ETF</t>
+          <t>房地产ETF</t>
         </is>
       </c>
     </row>
@@ -14694,79 +14694,79 @@
         <v>32</v>
       </c>
       <c r="B34" s="39" t="n">
-        <v>512170</v>
+        <v>159869</v>
       </c>
       <c r="C34" s="39" t="inlineStr">
         <is>
-          <t>医疗ETF</t>
+          <t>游戏ETF</t>
         </is>
       </c>
       <c r="D34" s="39" t="n">
-        <v>259.79</v>
+        <v>68.88</v>
       </c>
       <c r="E34" s="39" t="n">
-        <v>16.6</v>
+        <v>0.5</v>
       </c>
       <c r="F34" s="39" t="n">
-        <v>23.8</v>
+        <v>42.5</v>
       </c>
       <c r="G34" s="39" t="n">
-        <v>62.5</v>
+        <v>62.4</v>
       </c>
       <c r="H34" s="39" t="n">
-        <v>62.5</v>
+        <v>60.3</v>
       </c>
       <c r="I34" s="39" t="n">
-        <v>72</v>
+        <v>80.8</v>
       </c>
       <c r="J34" s="39" t="n">
-        <v>35.8</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="K34" s="39" t="n">
-        <v>11.9</v>
+        <v>42.6</v>
       </c>
       <c r="L34" s="39" t="n">
-        <v>33.9</v>
+        <v>50.5</v>
       </c>
       <c r="M34" s="39" t="n">
-        <v>22.6</v>
+        <v>83</v>
       </c>
       <c r="N34" s="39" t="n">
-        <v>74.2</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="O34" s="39" t="n">
-        <v>74.2</v>
+        <v>51.4</v>
       </c>
       <c r="P34" s="39" t="n">
-        <v>74.2</v>
+        <v>60.1</v>
       </c>
       <c r="Q34" s="39" t="n">
-        <v>74.2</v>
+        <v>20.9</v>
       </c>
       <c r="R34" s="39" t="n">
-        <v>94.3</v>
+        <v>36.6</v>
       </c>
       <c r="S34" s="39" t="n">
-        <v>16.6</v>
+        <v>73.5</v>
       </c>
       <c r="T34" s="39" t="n">
-        <v>73.90000000000001</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="U34" s="39" t="n">
-        <v>84.5</v>
+        <v>92</v>
       </c>
       <c r="V34" s="39" t="n">
-        <v>94.90000000000001</v>
+        <v>98</v>
       </c>
       <c r="W34" s="39" t="n">
-        <v>74.8</v>
+        <v>57.7</v>
       </c>
       <c r="X34" s="39" t="n">
-        <v>74.8</v>
+        <v>65.7</v>
       </c>
       <c r="Y34" s="39" t="inlineStr">
         <is>
-          <t>医疗ETF</t>
+          <t>游戏ETF</t>
         </is>
       </c>
     </row>
@@ -14775,79 +14775,79 @@
         <v>33</v>
       </c>
       <c r="B35" s="39" t="n">
-        <v>513330</v>
+        <v>561320</v>
       </c>
       <c r="C35" s="39" t="inlineStr">
         <is>
-          <t>恒生互联网ETF</t>
+          <t>交运ETF</t>
         </is>
       </c>
       <c r="D35" s="39" t="n">
-        <v>245.22</v>
+        <v>0.65</v>
       </c>
       <c r="E35" s="39" t="n">
-        <v>2.1</v>
+        <v>53</v>
       </c>
       <c r="F35" s="39" t="n">
-        <v>20.2</v>
+        <v>64.2</v>
       </c>
       <c r="G35" s="39" t="n">
-        <v>60.7</v>
+        <v>77</v>
       </c>
       <c r="H35" s="39" t="n">
-        <v>69.59999999999999</v>
+        <v>57.9</v>
       </c>
       <c r="I35" s="39" t="n">
-        <v>81.8</v>
+        <v>57.9</v>
       </c>
       <c r="J35" s="39" t="n">
-        <v>84</v>
+        <v>49.6</v>
       </c>
       <c r="K35" s="39" t="n">
-        <v>18.4</v>
+        <v>89.3</v>
       </c>
       <c r="L35" s="39" t="n">
-        <v>42.4</v>
+        <v>89.3</v>
       </c>
       <c r="M35" s="39" t="n">
-        <v>29.4</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="N35" s="39" t="n">
-        <v>61.1</v>
+        <v>21.5</v>
       </c>
       <c r="O35" s="39" t="n">
-        <v>42.2</v>
+        <v>46.5</v>
       </c>
       <c r="P35" s="39" t="n">
-        <v>88.5</v>
+        <v>23.8</v>
       </c>
       <c r="Q35" s="39" t="n">
-        <v>39.6</v>
+        <v>61.4</v>
       </c>
       <c r="R35" s="39" t="n">
-        <v>66</v>
+        <v>61.4</v>
       </c>
       <c r="S35" s="39" t="n">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="T35" s="39" t="n">
-        <v>66</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="U35" s="39" t="n">
-        <v>91.5</v>
+        <v>17.7</v>
       </c>
       <c r="V35" s="39" t="n">
-        <v>98.40000000000001</v>
+        <v>70</v>
       </c>
       <c r="W35" s="39" t="n">
-        <v>72.2</v>
+        <v>77.7</v>
       </c>
       <c r="X35" s="39" t="n">
-        <v>78</v>
+        <v>66.3</v>
       </c>
       <c r="Y35" s="39" t="inlineStr">
         <is>
-          <t>恒生互联网ETF</t>
+          <t>交运ETF</t>
         </is>
       </c>
     </row>
@@ -14856,79 +14856,79 @@
         <v>34</v>
       </c>
       <c r="B36" s="39" t="n">
-        <v>159870</v>
+        <v>159792</v>
       </c>
       <c r="C36" s="39" t="inlineStr">
         <is>
-          <t>化工ETF</t>
+          <t>港股通互联网ETF</t>
         </is>
       </c>
       <c r="D36" s="39" t="n">
-        <v>14.36</v>
+        <v>491.5</v>
       </c>
       <c r="E36" s="39" t="n">
-        <v>31.5</v>
+        <v>0.5</v>
       </c>
       <c r="F36" s="39" t="n">
-        <v>34.4</v>
+        <v>35.1</v>
       </c>
       <c r="G36" s="39" t="n">
-        <v>64.40000000000001</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="H36" s="39" t="n">
-        <v>67.40000000000001</v>
+        <v>72.5</v>
       </c>
       <c r="I36" s="39" t="n">
-        <v>75.59999999999999</v>
+        <v>76.5</v>
       </c>
       <c r="J36" s="39" t="n">
-        <v>33.5</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="K36" s="39" t="n">
-        <v>15.9</v>
+        <v>11.6</v>
       </c>
       <c r="L36" s="39" t="n">
-        <v>30.5</v>
+        <v>34.6</v>
       </c>
       <c r="M36" s="39" t="n">
-        <v>30.5</v>
+        <v>29.5</v>
       </c>
       <c r="N36" s="39" t="n">
-        <v>84.5</v>
+        <v>65.3</v>
       </c>
       <c r="O36" s="39" t="n">
-        <v>88.2</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="P36" s="39" t="n">
-        <v>95.90000000000001</v>
+        <v>96.7</v>
       </c>
       <c r="Q36" s="39" t="n">
-        <v>72.3</v>
+        <v>56.4</v>
       </c>
       <c r="R36" s="39" t="n">
-        <v>92</v>
+        <v>71.2</v>
       </c>
       <c r="S36" s="39" t="n">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="T36" s="39" t="n">
-        <v>49.8</v>
+        <v>50</v>
       </c>
       <c r="U36" s="39" t="n">
-        <v>71.5</v>
+        <v>89.3</v>
       </c>
       <c r="V36" s="39" t="n">
-        <v>93.59999999999999</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="W36" s="39" t="n">
-        <v>96.40000000000001</v>
+        <v>63.3</v>
       </c>
       <c r="X36" s="39" t="n">
-        <v>79.09999999999999</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="Y36" s="39" t="inlineStr">
         <is>
-          <t>化工ETF</t>
+          <t>港股通互联网ETF</t>
         </is>
       </c>
     </row>
@@ -14937,79 +14937,79 @@
         <v>35</v>
       </c>
       <c r="B37" s="39" t="n">
-        <v>512200</v>
+        <v>516110</v>
       </c>
       <c r="C37" s="39" t="inlineStr">
         <is>
-          <t>房地产ETF</t>
+          <t>汽车ETF</t>
         </is>
       </c>
       <c r="D37" s="39" t="n">
-        <v>65.39</v>
+        <v>4.39</v>
       </c>
       <c r="E37" s="39" t="n">
-        <v>34.5</v>
+        <v>5.5</v>
       </c>
       <c r="F37" s="39" t="n">
-        <v>71.8</v>
+        <v>26.9</v>
       </c>
       <c r="G37" s="39" t="n">
-        <v>81.8</v>
+        <v>71</v>
       </c>
       <c r="H37" s="39" t="n">
-        <v>64.2</v>
+        <v>85.3</v>
       </c>
       <c r="I37" s="39" t="n">
-        <v>64.2</v>
+        <v>89.7</v>
       </c>
       <c r="J37" s="39" t="n">
-        <v>30</v>
+        <v>70.3</v>
       </c>
       <c r="K37" s="39" t="n">
-        <v>54.3</v>
+        <v>42.6</v>
       </c>
       <c r="L37" s="39" t="n">
-        <v>87.59999999999999</v>
+        <v>18.4</v>
       </c>
       <c r="M37" s="39" t="n">
-        <v>93.90000000000001</v>
+        <v>29.1</v>
       </c>
       <c r="N37" s="39" t="n">
-        <v>82.5</v>
+        <v>79</v>
       </c>
       <c r="O37" s="39" t="n">
-        <v>89.40000000000001</v>
+        <v>64</v>
       </c>
       <c r="P37" s="39" t="n">
-        <v>27.4</v>
+        <v>93</v>
       </c>
       <c r="Q37" s="39" t="n">
-        <v>48.9</v>
+        <v>60.5</v>
       </c>
       <c r="R37" s="39" t="n">
-        <v>21.5</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="S37" s="39" t="n">
-        <v>4.6</v>
+        <v>31.6</v>
       </c>
       <c r="T37" s="39" t="n">
-        <v>7.6</v>
+        <v>29.7</v>
       </c>
       <c r="U37" s="39" t="n">
-        <v>35.6</v>
+        <v>78.8</v>
       </c>
       <c r="V37" s="39" t="n">
-        <v>68.40000000000001</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="W37" s="39" t="n">
-        <v>85.59999999999999</v>
+        <v>75.7</v>
       </c>
       <c r="X37" s="39" t="n">
-        <v>79.40000000000001</v>
+        <v>68.3</v>
       </c>
       <c r="Y37" s="39" t="inlineStr">
         <is>
-          <t>房地产ETF</t>
+          <t>汽车ETF</t>
         </is>
       </c>
     </row>
@@ -15018,79 +15018,79 @@
         <v>36</v>
       </c>
       <c r="B38" s="39" t="n">
-        <v>159998</v>
+        <v>510880</v>
       </c>
       <c r="C38" s="39" t="inlineStr">
         <is>
-          <t>计算机ETF</t>
+          <t>红利ETF</t>
         </is>
       </c>
       <c r="D38" s="39" t="n">
-        <v>30.63</v>
+        <v>216.98</v>
       </c>
       <c r="E38" s="39" t="n">
-        <v>1.1</v>
+        <v>43.6</v>
       </c>
       <c r="F38" s="39" t="n">
-        <v>57.8</v>
+        <v>46.3</v>
       </c>
       <c r="G38" s="39" t="n">
-        <v>67</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="H38" s="39" t="n">
-        <v>78.59999999999999</v>
+        <v>49</v>
       </c>
       <c r="I38" s="39" t="n">
-        <v>81.3</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="J38" s="39" t="n">
-        <v>46.7</v>
+        <v>84.3</v>
       </c>
       <c r="K38" s="39" t="n">
-        <v>20.5</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="L38" s="39" t="n">
-        <v>36.4</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="M38" s="39" t="n">
-        <v>30.3</v>
+        <v>70.7</v>
       </c>
       <c r="N38" s="39" t="n">
-        <v>90.5</v>
+        <v>30</v>
       </c>
       <c r="O38" s="39" t="n">
-        <v>41.5</v>
+        <v>67.5</v>
       </c>
       <c r="P38" s="39" t="n">
-        <v>58.7</v>
+        <v>24.9</v>
       </c>
       <c r="Q38" s="39" t="n">
-        <v>17.5</v>
+        <v>62.9</v>
       </c>
       <c r="R38" s="39" t="n">
-        <v>47.2</v>
+        <v>51</v>
       </c>
       <c r="S38" s="39" t="n">
-        <v>34.7</v>
+        <v>64.5</v>
       </c>
       <c r="T38" s="39" t="n">
-        <v>60.7</v>
+        <v>20.2</v>
       </c>
       <c r="U38" s="39" t="n">
-        <v>90.2</v>
+        <v>5.4</v>
       </c>
       <c r="V38" s="39" t="n">
-        <v>97</v>
+        <v>3.6</v>
       </c>
       <c r="W38" s="39" t="n">
-        <v>74.90000000000001</v>
+        <v>62.3</v>
       </c>
       <c r="X38" s="39" t="n">
-        <v>79.5</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="Y38" s="39" t="inlineStr">
         <is>
-          <t>计算机ETF</t>
+          <t>红利ETF</t>
         </is>
       </c>
     </row>
@@ -15099,79 +15099,79 @@
         <v>37</v>
       </c>
       <c r="B39" s="39" t="n">
-        <v>513360</v>
+        <v>515230</v>
       </c>
       <c r="C39" s="39" t="inlineStr">
         <is>
-          <t>教育ETF</t>
+          <t>软件ETF</t>
         </is>
       </c>
       <c r="D39" s="39" t="n">
-        <v>6.41</v>
+        <v>13.92</v>
       </c>
       <c r="E39" s="39" t="n">
-        <v>0.2</v>
+        <v>1.3</v>
       </c>
       <c r="F39" s="39" t="n">
-        <v>4.4</v>
+        <v>53.7</v>
       </c>
       <c r="G39" s="39" t="n">
-        <v>43.1</v>
+        <v>63.7</v>
       </c>
       <c r="H39" s="39" t="n">
-        <v>62.3</v>
+        <v>75.7</v>
       </c>
       <c r="I39" s="39" t="n">
-        <v>70.3</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="J39" s="39" t="n">
-        <v>79.09999999999999</v>
+        <v>34.8</v>
       </c>
       <c r="K39" s="39" t="n">
-        <v>31.8</v>
+        <v>17.4</v>
       </c>
       <c r="L39" s="39" t="n">
-        <v>72</v>
+        <v>61.1</v>
       </c>
       <c r="M39" s="39" t="n">
-        <v>60.2</v>
+        <v>61.1</v>
       </c>
       <c r="N39" s="39" t="n">
-        <v>89</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="O39" s="39" t="n">
-        <v>90.7</v>
+        <v>51.2</v>
       </c>
       <c r="P39" s="39" t="n">
-        <v>98.2</v>
+        <v>59.3</v>
       </c>
       <c r="Q39" s="39" t="n">
-        <v>54.2</v>
+        <v>17</v>
       </c>
       <c r="R39" s="39" t="n">
-        <v>22.5</v>
+        <v>55.3</v>
       </c>
       <c r="S39" s="39" t="n">
-        <v>41.3</v>
+        <v>34.2</v>
       </c>
       <c r="T39" s="39" t="n">
-        <v>64.3</v>
+        <v>56.4</v>
       </c>
       <c r="U39" s="39" t="n">
-        <v>87.09999999999999</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="V39" s="39" t="n">
-        <v>94.3</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="W39" s="39" t="n">
-        <v>75.5</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="X39" s="39" t="n">
-        <v>79.59999999999999</v>
+        <v>74.3</v>
       </c>
       <c r="Y39" s="39" t="inlineStr">
         <is>
-          <t>教育ETF</t>
+          <t>软件ETF</t>
         </is>
       </c>
     </row>
@@ -15179,82 +15179,80 @@
       <c r="A40" s="39" t="n">
         <v>38</v>
       </c>
-      <c r="B40" s="39" t="inlineStr">
-        <is>
-          <t>512890</t>
-        </is>
+      <c r="B40" s="39" t="n">
+        <v>518880</v>
       </c>
       <c r="C40" s="39" t="inlineStr">
         <is>
-          <t>红利低波ETF</t>
+          <t>黄金ETF</t>
         </is>
       </c>
       <c r="D40" s="39" t="n">
-        <v>161.07</v>
+        <v>617.87</v>
       </c>
       <c r="E40" s="39" t="n">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F40" s="39" t="n">
-        <v>41.5</v>
+        <v>68.7</v>
       </c>
       <c r="G40" s="39" t="n">
-        <v>55.7</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="H40" s="39" t="n">
-        <v>43.2</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="I40" s="39" t="n">
-        <v>74.2</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="J40" s="39" t="n">
-        <v>89.7</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="K40" s="39" t="n">
-        <v>95.09999999999999</v>
+        <v>98.8</v>
       </c>
       <c r="L40" s="39" t="n">
-        <v>95.5</v>
+        <v>99.2</v>
       </c>
       <c r="M40" s="39" t="n">
-        <v>97.09999999999999</v>
+        <v>99.3</v>
       </c>
       <c r="N40" s="39" t="n">
-        <v>39.7</v>
+        <v>99.8</v>
       </c>
       <c r="O40" s="39" t="n">
+        <v>100</v>
+      </c>
+      <c r="P40" s="39" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="Q40" s="39" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="R40" s="39" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="S40" s="39" t="n">
+        <v>22</v>
+      </c>
+      <c r="T40" s="39" t="n">
+        <v>49.2</v>
+      </c>
+      <c r="U40" s="39" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="V40" s="39" t="n">
+        <v>79.2</v>
+      </c>
+      <c r="W40" s="39" t="n">
+        <v>86.90000000000001</v>
+      </c>
+      <c r="X40" s="39" t="n">
         <v>74.7</v>
       </c>
-      <c r="P40" s="39" t="n">
-        <v>40.8</v>
-      </c>
-      <c r="Q40" s="39" t="n">
-        <v>79</v>
-      </c>
-      <c r="R40" s="39" t="n">
-        <v>69.90000000000001</v>
-      </c>
-      <c r="S40" s="39" t="n">
-        <v>86</v>
-      </c>
-      <c r="T40" s="39" t="n">
-        <v>52.4</v>
-      </c>
-      <c r="U40" s="39" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="V40" s="39" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="W40" s="39" t="n">
-        <v>65.7</v>
-      </c>
-      <c r="X40" s="39" t="n">
-        <v>79.7</v>
-      </c>
       <c r="Y40" s="39" t="inlineStr">
         <is>
-          <t>红利低波ETF</t>
+          <t>黄金ETF</t>
         </is>
       </c>
     </row>
@@ -15263,79 +15261,79 @@
         <v>39</v>
       </c>
       <c r="B41" s="39" t="n">
-        <v>515230</v>
+        <v>512170</v>
       </c>
       <c r="C41" s="39" t="inlineStr">
         <is>
-          <t>软件ETF</t>
+          <t>医疗ETF</t>
         </is>
       </c>
       <c r="D41" s="39" t="n">
-        <v>13.99</v>
+        <v>260.6</v>
       </c>
       <c r="E41" s="39" t="n">
-        <v>1.3</v>
+        <v>16.6</v>
       </c>
       <c r="F41" s="39" t="n">
-        <v>53.7</v>
+        <v>23.8</v>
       </c>
       <c r="G41" s="39" t="n">
-        <v>63.7</v>
+        <v>62.5</v>
       </c>
       <c r="H41" s="39" t="n">
-        <v>75.7</v>
+        <v>62.5</v>
       </c>
       <c r="I41" s="39" t="n">
-        <v>79.09999999999999</v>
+        <v>72</v>
       </c>
       <c r="J41" s="39" t="n">
-        <v>34.8</v>
+        <v>35.8</v>
       </c>
       <c r="K41" s="39" t="n">
-        <v>17.4</v>
+        <v>11.9</v>
       </c>
       <c r="L41" s="39" t="n">
-        <v>61.1</v>
+        <v>33.9</v>
       </c>
       <c r="M41" s="39" t="n">
-        <v>61.1</v>
+        <v>22.6</v>
       </c>
       <c r="N41" s="39" t="n">
-        <v>92.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="O41" s="39" t="n">
-        <v>51.2</v>
+        <v>74.2</v>
       </c>
       <c r="P41" s="39" t="n">
-        <v>59.3</v>
+        <v>74.2</v>
       </c>
       <c r="Q41" s="39" t="n">
-        <v>17</v>
+        <v>74.2</v>
       </c>
       <c r="R41" s="39" t="n">
-        <v>55.3</v>
+        <v>94.3</v>
       </c>
       <c r="S41" s="39" t="n">
-        <v>34.2</v>
+        <v>16.6</v>
       </c>
       <c r="T41" s="39" t="n">
-        <v>56.4</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="U41" s="39" t="n">
-        <v>90.40000000000001</v>
+        <v>84.5</v>
       </c>
       <c r="V41" s="39" t="n">
-        <v>96.90000000000001</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="W41" s="39" t="n">
-        <v>72.40000000000001</v>
+        <v>74.8</v>
       </c>
       <c r="X41" s="39" t="n">
-        <v>79.7</v>
+        <v>74.8</v>
       </c>
       <c r="Y41" s="39" t="inlineStr">
         <is>
-          <t>软件ETF</t>
+          <t>医疗ETF</t>
         </is>
       </c>
     </row>
@@ -15344,79 +15342,79 @@
         <v>40</v>
       </c>
       <c r="B42" s="39" t="n">
-        <v>516110</v>
+        <v>513050</v>
       </c>
       <c r="C42" s="39" t="inlineStr">
         <is>
-          <t>汽车ETF</t>
+          <t>中概互联网ETF</t>
         </is>
       </c>
       <c r="D42" s="39" t="n">
-        <v>4.4</v>
+        <v>356.85</v>
       </c>
       <c r="E42" s="39" t="n">
-        <v>5.5</v>
+        <v>0.9</v>
       </c>
       <c r="F42" s="39" t="n">
-        <v>26.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="G42" s="39" t="n">
-        <v>71</v>
+        <v>56.6</v>
       </c>
       <c r="H42" s="39" t="n">
-        <v>85.3</v>
+        <v>45</v>
       </c>
       <c r="I42" s="39" t="n">
-        <v>89.7</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="J42" s="39" t="n">
-        <v>70.3</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="K42" s="39" t="n">
-        <v>42.6</v>
+        <v>23.7</v>
       </c>
       <c r="L42" s="39" t="n">
-        <v>18.4</v>
+        <v>56.2</v>
       </c>
       <c r="M42" s="39" t="n">
-        <v>29.1</v>
+        <v>39.4</v>
       </c>
       <c r="N42" s="39" t="n">
-        <v>79</v>
+        <v>60.4</v>
       </c>
       <c r="O42" s="39" t="n">
-        <v>64</v>
+        <v>79.7</v>
       </c>
       <c r="P42" s="39" t="n">
-        <v>93</v>
+        <v>96.3</v>
       </c>
       <c r="Q42" s="39" t="n">
-        <v>60.5</v>
+        <v>52.1</v>
       </c>
       <c r="R42" s="39" t="n">
-        <v>75.90000000000001</v>
+        <v>75.5</v>
       </c>
       <c r="S42" s="39" t="n">
-        <v>31.6</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="T42" s="39" t="n">
-        <v>29.7</v>
+        <v>44.3</v>
       </c>
       <c r="U42" s="39" t="n">
-        <v>78.8</v>
+        <v>73.3</v>
       </c>
       <c r="V42" s="39" t="n">
-        <v>90.59999999999999</v>
+        <v>95</v>
       </c>
       <c r="W42" s="39" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="X42" s="39" t="n">
         <v>75.7</v>
       </c>
-      <c r="X42" s="39" t="n">
-        <v>80.09999999999999</v>
-      </c>
       <c r="Y42" s="39" t="inlineStr">
         <is>
-          <t>汽车ETF</t>
+          <t>中概互联网ETF</t>
         </is>
       </c>
     </row>
@@ -15425,79 +15423,79 @@
         <v>41</v>
       </c>
       <c r="B43" s="39" t="n">
-        <v>515220</v>
+        <v>517090</v>
       </c>
       <c r="C43" s="39" t="inlineStr">
         <is>
-          <t>煤炭ETF</t>
+          <t>央企共赢ETF</t>
         </is>
       </c>
       <c r="D43" s="39" t="n">
-        <v>34.96</v>
+        <v>3.81</v>
       </c>
       <c r="E43" s="39" t="n">
-        <v>42.7</v>
+        <v>59.4</v>
       </c>
       <c r="F43" s="39" t="n">
-        <v>44.1</v>
+        <v>50</v>
       </c>
       <c r="G43" s="39" t="n">
-        <v>56.4</v>
+        <v>55.6</v>
       </c>
       <c r="H43" s="39" t="n">
-        <v>39.1</v>
+        <v>45.4</v>
       </c>
       <c r="I43" s="39" t="n">
-        <v>82.40000000000001</v>
+        <v>64.8</v>
       </c>
       <c r="J43" s="39" t="n">
-        <v>77.8</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="K43" s="39" t="n">
-        <v>77.8</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="L43" s="39" t="n">
-        <v>63.6</v>
+        <v>91.2</v>
       </c>
       <c r="M43" s="39" t="n">
-        <v>22.5</v>
+        <v>94</v>
       </c>
       <c r="N43" s="39" t="n">
-        <v>38.4</v>
+        <v>32.1</v>
       </c>
       <c r="O43" s="39" t="n">
-        <v>21.1</v>
+        <v>68.7</v>
       </c>
       <c r="P43" s="39" t="n">
-        <v>14.5</v>
+        <v>41</v>
       </c>
       <c r="Q43" s="39" t="n">
-        <v>61.9</v>
+        <v>41</v>
       </c>
       <c r="R43" s="39" t="n">
-        <v>29.4</v>
+        <v>17.9</v>
       </c>
       <c r="S43" s="39" t="n">
-        <v>4</v>
+        <v>76.8</v>
       </c>
       <c r="T43" s="39" t="n">
-        <v>1.9</v>
+        <v>26.4</v>
       </c>
       <c r="U43" s="39" t="n">
-        <v>1.1</v>
+        <v>17</v>
       </c>
       <c r="V43" s="39" t="n">
-        <v>62</v>
+        <v>51.4</v>
       </c>
       <c r="W43" s="39" t="n">
-        <v>78.2</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="X43" s="39" t="n">
-        <v>80.90000000000001</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="Y43" s="39" t="inlineStr">
         <is>
-          <t>煤炭ETF</t>
+          <t>央企共赢ETF</t>
         </is>
       </c>
     </row>
@@ -15514,7 +15512,7 @@
         </is>
       </c>
       <c r="D44" s="39" t="n">
-        <v>28.56</v>
+        <v>28.46</v>
       </c>
       <c r="E44" s="39" t="n">
         <v>1.8</v>
@@ -15574,7 +15572,7 @@
         <v>70.7</v>
       </c>
       <c r="X44" s="39" t="n">
-        <v>81.2</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="Y44" s="39" t="inlineStr">
         <is>
@@ -15587,79 +15585,79 @@
         <v>43</v>
       </c>
       <c r="B45" s="39" t="n">
-        <v>159732</v>
+        <v>159611</v>
       </c>
       <c r="C45" s="39" t="inlineStr">
         <is>
-          <t>消费电子ETF</t>
+          <t>电力ETF</t>
         </is>
       </c>
       <c r="D45" s="39" t="n">
-        <v>17.11</v>
+        <v>35.7</v>
       </c>
       <c r="E45" s="39" t="n">
-        <v>0.2</v>
+        <v>47.3</v>
       </c>
       <c r="F45" s="39" t="n">
-        <v>24.4</v>
+        <v>55.1</v>
       </c>
       <c r="G45" s="39" t="n">
-        <v>61.7</v>
+        <v>65.3</v>
       </c>
       <c r="H45" s="39" t="n">
-        <v>80.7</v>
+        <v>38.8</v>
       </c>
       <c r="I45" s="39" t="n">
-        <v>82.09999999999999</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="J45" s="39" t="n">
-        <v>54.8</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K45" s="39" t="n">
-        <v>29.6</v>
+        <v>86.8</v>
       </c>
       <c r="L45" s="39" t="n">
-        <v>29.6</v>
+        <v>86.8</v>
       </c>
       <c r="M45" s="39" t="n">
-        <v>68.40000000000001</v>
+        <v>26.1</v>
       </c>
       <c r="N45" s="39" t="n">
-        <v>90.09999999999999</v>
+        <v>59.8</v>
       </c>
       <c r="O45" s="39" t="n">
-        <v>37.9</v>
+        <v>45.9</v>
       </c>
       <c r="P45" s="39" t="n">
-        <v>71.2</v>
+        <v>19.1</v>
       </c>
       <c r="Q45" s="39" t="n">
-        <v>41.5</v>
+        <v>80.3</v>
       </c>
       <c r="R45" s="39" t="n">
-        <v>55.5</v>
+        <v>94.3</v>
       </c>
       <c r="S45" s="39" t="n">
-        <v>30.9</v>
+        <v>97</v>
       </c>
       <c r="T45" s="39" t="n">
-        <v>66.5</v>
+        <v>29.1</v>
       </c>
       <c r="U45" s="39" t="n">
-        <v>89.59999999999999</v>
+        <v>22.7</v>
       </c>
       <c r="V45" s="39" t="n">
-        <v>96.59999999999999</v>
+        <v>53.3</v>
       </c>
       <c r="W45" s="39" t="n">
-        <v>64.7</v>
+        <v>63.1</v>
       </c>
       <c r="X45" s="39" t="n">
-        <v>81.8</v>
+        <v>77.3</v>
       </c>
       <c r="Y45" s="39" t="inlineStr">
         <is>
-          <t>消费电子ETF</t>
+          <t>电力ETF</t>
         </is>
       </c>
     </row>
@@ -15668,79 +15666,79 @@
         <v>44</v>
       </c>
       <c r="B46" s="39" t="n">
-        <v>513050</v>
+        <v>159732</v>
       </c>
       <c r="C46" s="39" t="inlineStr">
         <is>
-          <t>中概互联网ETF</t>
+          <t>消费电子ETF</t>
         </is>
       </c>
       <c r="D46" s="39" t="n">
-        <v>359.14</v>
+        <v>17.01</v>
       </c>
       <c r="E46" s="39" t="n">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="F46" s="39" t="n">
-        <v>8.300000000000001</v>
+        <v>24.4</v>
       </c>
       <c r="G46" s="39" t="n">
-        <v>56.6</v>
+        <v>61.7</v>
       </c>
       <c r="H46" s="39" t="n">
-        <v>45</v>
+        <v>80.7</v>
       </c>
       <c r="I46" s="39" t="n">
-        <v>68.09999999999999</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="J46" s="39" t="n">
-        <v>79.09999999999999</v>
+        <v>54.8</v>
       </c>
       <c r="K46" s="39" t="n">
-        <v>23.7</v>
+        <v>29.6</v>
       </c>
       <c r="L46" s="39" t="n">
-        <v>56.2</v>
+        <v>29.6</v>
       </c>
       <c r="M46" s="39" t="n">
-        <v>39.4</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="N46" s="39" t="n">
-        <v>60.4</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="O46" s="39" t="n">
-        <v>79.7</v>
+        <v>37.9</v>
       </c>
       <c r="P46" s="39" t="n">
-        <v>96.3</v>
+        <v>71.2</v>
       </c>
       <c r="Q46" s="39" t="n">
-        <v>52.1</v>
+        <v>41.5</v>
       </c>
       <c r="R46" s="39" t="n">
-        <v>75.5</v>
+        <v>55.5</v>
       </c>
       <c r="S46" s="39" t="n">
-        <v>77.09999999999999</v>
+        <v>30.9</v>
       </c>
       <c r="T46" s="39" t="n">
-        <v>44.3</v>
+        <v>66.5</v>
       </c>
       <c r="U46" s="39" t="n">
-        <v>73.3</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="V46" s="39" t="n">
-        <v>95</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="W46" s="39" t="n">
-        <v>72.59999999999999</v>
+        <v>64.7</v>
       </c>
       <c r="X46" s="39" t="n">
-        <v>82.40000000000001</v>
+        <v>77.5</v>
       </c>
       <c r="Y46" s="39" t="inlineStr">
         <is>
-          <t>中概互联网ETF</t>
+          <t>消费电子ETF</t>
         </is>
       </c>
     </row>
@@ -15749,79 +15747,79 @@
         <v>45</v>
       </c>
       <c r="B47" s="39" t="n">
-        <v>515210</v>
+        <v>159998</v>
       </c>
       <c r="C47" s="39" t="inlineStr">
         <is>
-          <t>钢铁ETF</t>
+          <t>计算机ETF</t>
         </is>
       </c>
       <c r="D47" s="39" t="n">
-        <v>19.4</v>
+        <v>30.63</v>
       </c>
       <c r="E47" s="39" t="n">
-        <v>15.3</v>
+        <v>1.1</v>
       </c>
       <c r="F47" s="39" t="n">
-        <v>35.5</v>
+        <v>57.8</v>
       </c>
       <c r="G47" s="39" t="n">
-        <v>65.59999999999999</v>
+        <v>67</v>
       </c>
       <c r="H47" s="39" t="n">
-        <v>65.59999999999999</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="I47" s="39" t="n">
-        <v>85.40000000000001</v>
+        <v>81.3</v>
       </c>
       <c r="J47" s="39" t="n">
-        <v>44.1</v>
+        <v>46.7</v>
       </c>
       <c r="K47" s="39" t="n">
-        <v>27.7</v>
+        <v>20.5</v>
       </c>
       <c r="L47" s="39" t="n">
-        <v>43.5</v>
+        <v>36.4</v>
       </c>
       <c r="M47" s="39" t="n">
-        <v>67.3</v>
+        <v>30.3</v>
       </c>
       <c r="N47" s="39" t="n">
-        <v>89.8</v>
+        <v>90.5</v>
       </c>
       <c r="O47" s="39" t="n">
-        <v>74.09999999999999</v>
+        <v>41.5</v>
       </c>
       <c r="P47" s="39" t="n">
-        <v>89.2</v>
+        <v>58.7</v>
       </c>
       <c r="Q47" s="39" t="n">
-        <v>51.6</v>
+        <v>17.5</v>
       </c>
       <c r="R47" s="39" t="n">
-        <v>84.8</v>
+        <v>47.2</v>
       </c>
       <c r="S47" s="39" t="n">
-        <v>93</v>
+        <v>34.7</v>
       </c>
       <c r="T47" s="39" t="n">
-        <v>93</v>
+        <v>60.7</v>
       </c>
       <c r="U47" s="39" t="n">
-        <v>22.5</v>
+        <v>90.2</v>
       </c>
       <c r="V47" s="39" t="n">
-        <v>78.2</v>
+        <v>97</v>
       </c>
       <c r="W47" s="39" t="n">
-        <v>84.09999999999999</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="X47" s="39" t="n">
-        <v>84.09999999999999</v>
+        <v>79.5</v>
       </c>
       <c r="Y47" s="39" t="inlineStr">
         <is>
-          <t>钢铁ETF</t>
+          <t>计算机ETF</t>
         </is>
       </c>
     </row>
@@ -15830,79 +15828,79 @@
         <v>46</v>
       </c>
       <c r="B48" s="39" t="n">
-        <v>159866</v>
+        <v>513180</v>
       </c>
       <c r="C48" s="39" t="inlineStr">
         <is>
-          <t>日经ETF</t>
+          <t>恒生科技指数ETF</t>
         </is>
       </c>
       <c r="D48" s="39" t="n">
-        <v>6.73</v>
+        <v>275.91</v>
       </c>
       <c r="E48" s="39" t="n">
-        <v>47.4</v>
+        <v>0.8</v>
       </c>
       <c r="F48" s="39" t="n">
-        <v>37.6</v>
+        <v>31.7</v>
       </c>
       <c r="G48" s="39" t="n">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="H48" s="39" t="n">
-        <v>60.9</v>
+        <v>76.5</v>
       </c>
       <c r="I48" s="39" t="n">
-        <v>76.7</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="J48" s="39" t="n">
-        <v>76.7</v>
+        <v>64.3</v>
       </c>
       <c r="K48" s="39" t="n">
-        <v>52.5</v>
+        <v>19.4</v>
       </c>
       <c r="L48" s="39" t="n">
-        <v>78</v>
+        <v>45.9</v>
       </c>
       <c r="M48" s="39" t="n">
-        <v>87.59999999999999</v>
+        <v>31.2</v>
       </c>
       <c r="N48" s="39" t="n">
-        <v>52.9</v>
+        <v>63.7</v>
       </c>
       <c r="O48" s="39" t="n">
-        <v>77.09999999999999</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="P48" s="39" t="n">
-        <v>87.90000000000001</v>
+        <v>94.8</v>
       </c>
       <c r="Q48" s="39" t="n">
-        <v>48.5</v>
+        <v>45.4</v>
       </c>
       <c r="R48" s="39" t="n">
-        <v>83.40000000000001</v>
+        <v>65.8</v>
       </c>
       <c r="S48" s="39" t="n">
-        <v>90.09999999999999</v>
+        <v>60.1</v>
       </c>
       <c r="T48" s="39" t="n">
-        <v>94.5</v>
+        <v>51.4</v>
       </c>
       <c r="U48" s="39" t="n">
-        <v>95.09999999999999</v>
+        <v>84</v>
       </c>
       <c r="V48" s="39" t="n">
-        <v>98.59999999999999</v>
+        <v>97</v>
       </c>
       <c r="W48" s="39" t="n">
-        <v>78.3</v>
+        <v>80</v>
       </c>
       <c r="X48" s="39" t="n">
-        <v>84.59999999999999</v>
+        <v>80</v>
       </c>
       <c r="Y48" s="39" t="inlineStr">
         <is>
-          <t>日经ETF</t>
+          <t>恒生科技指数ETF</t>
         </is>
       </c>
     </row>
@@ -15910,82 +15908,80 @@
       <c r="A49" s="39" t="n">
         <v>47</v>
       </c>
-      <c r="B49" s="39" t="inlineStr">
-        <is>
-          <t>515070</t>
-        </is>
+      <c r="B49" s="39" t="n">
+        <v>515220</v>
       </c>
       <c r="C49" s="39" t="inlineStr">
         <is>
-          <t>人工智能AIETF</t>
+          <t>煤炭ETF</t>
         </is>
       </c>
       <c r="D49" s="39" t="n">
-        <v>52.54</v>
+        <v>34.89</v>
       </c>
       <c r="E49" s="39" t="n">
-        <v>0.5</v>
+        <v>42.7</v>
       </c>
       <c r="F49" s="39" t="n">
-        <v>43.8</v>
+        <v>44.1</v>
       </c>
       <c r="G49" s="39" t="n">
-        <v>63.5</v>
+        <v>56.4</v>
       </c>
       <c r="H49" s="39" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="I49" s="39" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="J49" s="39" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="K49" s="39" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="L49" s="39" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="M49" s="39" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="N49" s="39" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="O49" s="39" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="P49" s="39" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Q49" s="39" t="n">
+        <v>61.9</v>
+      </c>
+      <c r="R49" s="39" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="S49" s="39" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" s="39" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U49" s="39" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="V49" s="39" t="n">
+        <v>62</v>
+      </c>
+      <c r="W49" s="39" t="n">
         <v>78.2</v>
       </c>
-      <c r="I49" s="39" t="n">
-        <v>83.59999999999999</v>
-      </c>
-      <c r="J49" s="39" t="n">
-        <v>53.9</v>
-      </c>
-      <c r="K49" s="39" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="L49" s="39" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="M49" s="39" t="n">
-        <v>63.9</v>
-      </c>
-      <c r="N49" s="39" t="n">
-        <v>93</v>
-      </c>
-      <c r="O49" s="39" t="n">
-        <v>44.8</v>
-      </c>
-      <c r="P49" s="39" t="n">
-        <v>70.8</v>
-      </c>
-      <c r="Q49" s="39" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="R49" s="39" t="n">
-        <v>55</v>
-      </c>
-      <c r="S49" s="39" t="n">
-        <v>47.8</v>
-      </c>
-      <c r="T49" s="39" t="n">
-        <v>70.8</v>
-      </c>
-      <c r="U49" s="39" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="V49" s="39" t="n">
-        <v>97.90000000000001</v>
-      </c>
-      <c r="W49" s="39" t="n">
-        <v>75.8</v>
-      </c>
       <c r="X49" s="39" t="n">
-        <v>85.3</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="Y49" s="39" t="inlineStr">
         <is>
-          <t>人工智能AIETF</t>
+          <t>煤炭ETF</t>
         </is>
       </c>
     </row>
@@ -15993,80 +15989,82 @@
       <c r="A50" s="39" t="n">
         <v>48</v>
       </c>
-      <c r="B50" s="39" t="n">
-        <v>512800</v>
+      <c r="B50" s="39" t="inlineStr">
+        <is>
+          <t>512890</t>
+        </is>
       </c>
       <c r="C50" s="39" t="inlineStr">
         <is>
-          <t>银行ETF</t>
+          <t>红利低波ETF</t>
         </is>
       </c>
       <c r="D50" s="39" t="n">
-        <v>77.58</v>
+        <v>161.22</v>
       </c>
       <c r="E50" s="39" t="n">
-        <v>11.2</v>
+        <v>46</v>
       </c>
       <c r="F50" s="39" t="n">
-        <v>5.8</v>
+        <v>41.5</v>
       </c>
       <c r="G50" s="39" t="n">
-        <v>50.2</v>
+        <v>55.7</v>
       </c>
       <c r="H50" s="39" t="n">
-        <v>62.1</v>
+        <v>43.2</v>
       </c>
       <c r="I50" s="39" t="n">
-        <v>80.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="J50" s="39" t="n">
-        <v>94.7</v>
+        <v>89.7</v>
       </c>
       <c r="K50" s="39" t="n">
-        <v>97.3</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="L50" s="39" t="n">
-        <v>97.5</v>
+        <v>95.5</v>
       </c>
       <c r="M50" s="39" t="n">
-        <v>99.09999999999999</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="N50" s="39" t="n">
-        <v>36</v>
+        <v>39.7</v>
       </c>
       <c r="O50" s="39" t="n">
-        <v>65</v>
+        <v>74.7</v>
       </c>
       <c r="P50" s="39" t="n">
-        <v>41.7</v>
+        <v>40.8</v>
       </c>
       <c r="Q50" s="39" t="n">
-        <v>76.90000000000001</v>
+        <v>79</v>
       </c>
       <c r="R50" s="39" t="n">
-        <v>56.7</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="S50" s="39" t="n">
-        <v>81.7</v>
+        <v>86</v>
       </c>
       <c r="T50" s="39" t="n">
-        <v>60.3</v>
+        <v>52.4</v>
       </c>
       <c r="U50" s="39" t="n">
-        <v>11.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="V50" s="39" t="n">
-        <v>10.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="W50" s="39" t="n">
-        <v>71.2</v>
+        <v>65.7</v>
       </c>
       <c r="X50" s="39" t="n">
-        <v>85.59999999999999</v>
+        <v>81.3</v>
       </c>
       <c r="Y50" s="39" t="inlineStr">
         <is>
-          <t>银行ETF</t>
+          <t>红利低波ETF</t>
         </is>
       </c>
     </row>
@@ -16075,79 +16073,79 @@
         <v>49</v>
       </c>
       <c r="B51" s="39" t="n">
-        <v>515980</v>
+        <v>159866</v>
       </c>
       <c r="C51" s="39" t="inlineStr">
         <is>
-          <t>人工智能ETF</t>
+          <t>日经ETF</t>
         </is>
       </c>
       <c r="D51" s="39" t="n">
-        <v>36.24</v>
+        <v>6.72</v>
       </c>
       <c r="E51" s="39" t="n">
-        <v>0.3</v>
+        <v>47.4</v>
       </c>
       <c r="F51" s="39" t="n">
-        <v>42</v>
+        <v>37.6</v>
       </c>
       <c r="G51" s="39" t="n">
-        <v>62.1</v>
+        <v>77</v>
       </c>
       <c r="H51" s="39" t="n">
-        <v>76.59999999999999</v>
+        <v>60.9</v>
       </c>
       <c r="I51" s="39" t="n">
-        <v>82.8</v>
+        <v>76.7</v>
       </c>
       <c r="J51" s="39" t="n">
-        <v>54.1</v>
+        <v>76.7</v>
       </c>
       <c r="K51" s="39" t="n">
-        <v>32</v>
+        <v>52.5</v>
       </c>
       <c r="L51" s="39" t="n">
-        <v>57.9</v>
+        <v>78</v>
       </c>
       <c r="M51" s="39" t="n">
-        <v>66.40000000000001</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="N51" s="39" t="n">
-        <v>92.8</v>
+        <v>52.9</v>
       </c>
       <c r="O51" s="39" t="n">
-        <v>43.5</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="P51" s="39" t="n">
-        <v>72.59999999999999</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="Q51" s="39" t="n">
-        <v>28.1</v>
+        <v>48.5</v>
       </c>
       <c r="R51" s="39" t="n">
-        <v>57.1</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="S51" s="39" t="n">
-        <v>41.8</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="T51" s="39" t="n">
-        <v>64.59999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="U51" s="39" t="n">
-        <v>91.40000000000001</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="V51" s="39" t="n">
-        <v>96.8</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="W51" s="39" t="n">
-        <v>75.59999999999999</v>
+        <v>78.3</v>
       </c>
       <c r="X51" s="39" t="n">
-        <v>85.90000000000001</v>
+        <v>82</v>
       </c>
       <c r="Y51" s="39" t="inlineStr">
         <is>
-          <t>人工智能ETF</t>
+          <t>日经ETF</t>
         </is>
       </c>
     </row>
@@ -16156,79 +16154,79 @@
         <v>50</v>
       </c>
       <c r="B52" s="39" t="n">
-        <v>516780</v>
+        <v>159850</v>
       </c>
       <c r="C52" s="39" t="inlineStr">
         <is>
-          <t>稀土ETF</t>
+          <t>恒生国企ETF</t>
         </is>
       </c>
       <c r="D52" s="39" t="n">
-        <v>9.19</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="E52" s="39" t="n">
-        <v>25.7</v>
+        <v>0.7</v>
       </c>
       <c r="F52" s="39" t="n">
-        <v>48.8</v>
+        <v>26.1</v>
       </c>
       <c r="G52" s="39" t="n">
-        <v>64.5</v>
+        <v>62.6</v>
       </c>
       <c r="H52" s="39" t="n">
-        <v>64.5</v>
+        <v>72.5</v>
       </c>
       <c r="I52" s="39" t="n">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="J52" s="39" t="n">
+        <v>90</v>
+      </c>
+      <c r="K52" s="39" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="L52" s="39" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="M52" s="39" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="N52" s="39" t="n">
+        <v>73.90000000000001</v>
+      </c>
+      <c r="O52" s="39" t="n">
+        <v>81.09999999999999</v>
+      </c>
+      <c r="P52" s="39" t="n">
+        <v>97</v>
+      </c>
+      <c r="Q52" s="39" t="n">
+        <v>54</v>
+      </c>
+      <c r="R52" s="39" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="S52" s="39" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="T52" s="39" t="n">
         <v>27.6</v>
       </c>
-      <c r="K52" s="39" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="L52" s="39" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="M52" s="39" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="N52" s="39" t="n">
-        <v>69.3</v>
-      </c>
-      <c r="O52" s="39" t="n">
-        <v>35.8</v>
-      </c>
-      <c r="P52" s="39" t="n">
-        <v>77.40000000000001</v>
-      </c>
-      <c r="Q52" s="39" t="n">
-        <v>43</v>
-      </c>
-      <c r="R52" s="39" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="S52" s="39" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="T52" s="39" t="n">
-        <v>49.8</v>
-      </c>
       <c r="U52" s="39" t="n">
-        <v>90.59999999999999</v>
+        <v>36.6</v>
       </c>
       <c r="V52" s="39" t="n">
-        <v>99</v>
+        <v>90.2</v>
       </c>
       <c r="W52" s="39" t="n">
-        <v>80.90000000000001</v>
+        <v>73.3</v>
       </c>
       <c r="X52" s="39" t="n">
-        <v>86</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="Y52" s="39" t="inlineStr">
         <is>
-          <t>稀土ETF</t>
+          <t>恒生国企ETF</t>
         </is>
       </c>
     </row>
@@ -16236,80 +16234,82 @@
       <c r="A53" s="39" t="n">
         <v>51</v>
       </c>
-      <c r="B53" s="39" t="n">
-        <v>159745</v>
+      <c r="B53" s="39" t="inlineStr">
+        <is>
+          <t>510210</t>
+        </is>
       </c>
       <c r="C53" s="39" t="inlineStr">
         <is>
-          <t>建材ETF</t>
+          <t>上证指数ETF</t>
         </is>
       </c>
       <c r="D53" s="39" t="n">
-        <v>5.87</v>
+        <v>47.81</v>
       </c>
       <c r="E53" s="39" t="n">
-        <v>50.3</v>
+        <v>24.8</v>
       </c>
       <c r="F53" s="39" t="n">
-        <v>69.59999999999999</v>
+        <v>43.7</v>
       </c>
       <c r="G53" s="39" t="n">
-        <v>74.8</v>
+        <v>64.2</v>
       </c>
       <c r="H53" s="39" t="n">
-        <v>59.5</v>
+        <v>73.7</v>
       </c>
       <c r="I53" s="39" t="n">
-        <v>46.7</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="J53" s="39" t="n">
-        <v>25.2</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="K53" s="39" t="n">
-        <v>14.9</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="L53" s="39" t="n">
-        <v>75.40000000000001</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="M53" s="39" t="n">
-        <v>78.7</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="N53" s="39" t="n">
-        <v>33.3</v>
+        <v>99</v>
       </c>
       <c r="O53" s="39" t="n">
-        <v>72</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="P53" s="39" t="n">
-        <v>40.6</v>
+        <v>64</v>
       </c>
       <c r="Q53" s="39" t="n">
-        <v>21.7</v>
+        <v>73.5</v>
       </c>
       <c r="R53" s="39" t="n">
-        <v>17.6</v>
+        <v>73.5</v>
       </c>
       <c r="S53" s="39" t="n">
-        <v>4</v>
+        <v>23.7</v>
       </c>
       <c r="T53" s="39" t="n">
-        <v>3</v>
+        <v>14.1</v>
       </c>
       <c r="U53" s="39" t="n">
-        <v>1.7</v>
+        <v>14.1</v>
       </c>
       <c r="V53" s="39" t="n">
-        <v>64.09999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="W53" s="39" t="n">
-        <v>80.5</v>
+        <v>97.8</v>
       </c>
       <c r="X53" s="39" t="n">
-        <v>86.7</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="Y53" s="39" t="inlineStr">
         <is>
-          <t>建材ETF</t>
+          <t>上证指数ETF</t>
         </is>
       </c>
     </row>
@@ -16318,79 +16318,79 @@
         <v>52</v>
       </c>
       <c r="B54" s="39" t="n">
-        <v>516970</v>
+        <v>516780</v>
       </c>
       <c r="C54" s="39" t="inlineStr">
         <is>
-          <t>基建50ETF</t>
+          <t>稀土ETF</t>
         </is>
       </c>
       <c r="D54" s="39" t="n">
-        <v>24.75</v>
+        <v>9.16</v>
       </c>
       <c r="E54" s="39" t="n">
-        <v>46.2</v>
+        <v>25.7</v>
       </c>
       <c r="F54" s="39" t="n">
-        <v>65.3</v>
+        <v>48.8</v>
       </c>
       <c r="G54" s="39" t="n">
-        <v>69.09999999999999</v>
+        <v>64.5</v>
       </c>
       <c r="H54" s="39" t="n">
-        <v>49.9</v>
+        <v>64.5</v>
       </c>
       <c r="I54" s="39" t="n">
-        <v>66.09999999999999</v>
+        <v>78</v>
       </c>
       <c r="J54" s="39" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="K54" s="39" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="L54" s="39" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="M54" s="39" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="N54" s="39" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="O54" s="39" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="P54" s="39" t="n">
+        <v>77.40000000000001</v>
+      </c>
+      <c r="Q54" s="39" t="n">
         <v>43</v>
       </c>
-      <c r="K54" s="39" t="n">
-        <v>50</v>
-      </c>
-      <c r="L54" s="39" t="n">
-        <v>71.2</v>
-      </c>
-      <c r="M54" s="39" t="n">
-        <v>90.3</v>
-      </c>
-      <c r="N54" s="39" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="O54" s="39" t="n">
-        <v>88.2</v>
-      </c>
-      <c r="P54" s="39" t="n">
-        <v>88.2</v>
-      </c>
-      <c r="Q54" s="39" t="n">
-        <v>41.4</v>
-      </c>
       <c r="R54" s="39" t="n">
-        <v>81.2</v>
+        <v>49.8</v>
       </c>
       <c r="S54" s="39" t="n">
-        <v>21.8</v>
+        <v>49.8</v>
       </c>
       <c r="T54" s="39" t="n">
-        <v>17.6</v>
+        <v>49.8</v>
       </c>
       <c r="U54" s="39" t="n">
-        <v>8.9</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="V54" s="39" t="n">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="W54" s="39" t="n">
-        <v>81.59999999999999</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="X54" s="39" t="n">
-        <v>87.59999999999999</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="Y54" s="39" t="inlineStr">
         <is>
-          <t>基建50ETF</t>
+          <t>稀土ETF</t>
         </is>
       </c>
     </row>
@@ -16399,79 +16399,79 @@
         <v>53</v>
       </c>
       <c r="B55" s="39" t="n">
-        <v>159850</v>
+        <v>516970</v>
       </c>
       <c r="C55" s="39" t="inlineStr">
         <is>
-          <t>恒生国企ETF</t>
+          <t>基建50ETF</t>
         </is>
       </c>
       <c r="D55" s="39" t="n">
-        <v>9.02</v>
+        <v>24.7</v>
       </c>
       <c r="E55" s="39" t="n">
-        <v>0.7</v>
+        <v>46.2</v>
       </c>
       <c r="F55" s="39" t="n">
-        <v>26.1</v>
+        <v>65.3</v>
       </c>
       <c r="G55" s="39" t="n">
-        <v>62.6</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="H55" s="39" t="n">
-        <v>72.5</v>
+        <v>49.9</v>
       </c>
       <c r="I55" s="39" t="n">
-        <v>88</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="J55" s="39" t="n">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="K55" s="39" t="n">
-        <v>31.2</v>
+        <v>50</v>
       </c>
       <c r="L55" s="39" t="n">
-        <v>55.3</v>
+        <v>71.2</v>
       </c>
       <c r="M55" s="39" t="n">
-        <v>50.3</v>
+        <v>90.3</v>
       </c>
       <c r="N55" s="39" t="n">
-        <v>73.90000000000001</v>
+        <v>65.5</v>
       </c>
       <c r="O55" s="39" t="n">
-        <v>81.09999999999999</v>
+        <v>88.2</v>
       </c>
       <c r="P55" s="39" t="n">
-        <v>97</v>
+        <v>88.2</v>
       </c>
       <c r="Q55" s="39" t="n">
-        <v>54</v>
+        <v>41.4</v>
       </c>
       <c r="R55" s="39" t="n">
-        <v>74.3</v>
+        <v>81.2</v>
       </c>
       <c r="S55" s="39" t="n">
-        <v>76.8</v>
+        <v>21.8</v>
       </c>
       <c r="T55" s="39" t="n">
-        <v>27.6</v>
+        <v>17.6</v>
       </c>
       <c r="U55" s="39" t="n">
-        <v>36.6</v>
+        <v>8.9</v>
       </c>
       <c r="V55" s="39" t="n">
-        <v>90.2</v>
+        <v>73</v>
       </c>
       <c r="W55" s="39" t="n">
-        <v>73.3</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="X55" s="39" t="n">
-        <v>88.09999999999999</v>
+        <v>84.2</v>
       </c>
       <c r="Y55" s="39" t="inlineStr">
         <is>
-          <t>恒生国企ETF</t>
+          <t>基建50ETF</t>
         </is>
       </c>
     </row>
@@ -16479,80 +16479,82 @@
       <c r="A56" s="39" t="n">
         <v>54</v>
       </c>
-      <c r="B56" s="39" t="n">
-        <v>513180</v>
+      <c r="B56" s="39" t="inlineStr">
+        <is>
+          <t>515070</t>
+        </is>
       </c>
       <c r="C56" s="39" t="inlineStr">
         <is>
-          <t>恒生科技指数ETF</t>
+          <t>人工智能AIETF</t>
         </is>
       </c>
       <c r="D56" s="39" t="n">
-        <v>277.83</v>
+        <v>52.5</v>
       </c>
       <c r="E56" s="39" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F56" s="39" t="n">
-        <v>31.7</v>
+        <v>43.8</v>
       </c>
       <c r="G56" s="39" t="n">
-        <v>64</v>
+        <v>63.5</v>
       </c>
       <c r="H56" s="39" t="n">
-        <v>76.5</v>
+        <v>78.2</v>
       </c>
       <c r="I56" s="39" t="n">
         <v>83.59999999999999</v>
       </c>
       <c r="J56" s="39" t="n">
-        <v>64.3</v>
+        <v>53.9</v>
       </c>
       <c r="K56" s="39" t="n">
-        <v>19.4</v>
+        <v>34.4</v>
       </c>
       <c r="L56" s="39" t="n">
-        <v>45.9</v>
+        <v>54.8</v>
       </c>
       <c r="M56" s="39" t="n">
-        <v>31.2</v>
+        <v>63.9</v>
       </c>
       <c r="N56" s="39" t="n">
-        <v>63.7</v>
+        <v>93</v>
       </c>
       <c r="O56" s="39" t="n">
-        <v>71.40000000000001</v>
+        <v>44.8</v>
       </c>
       <c r="P56" s="39" t="n">
-        <v>94.8</v>
+        <v>70.8</v>
       </c>
       <c r="Q56" s="39" t="n">
-        <v>45.4</v>
+        <v>27.6</v>
       </c>
       <c r="R56" s="39" t="n">
-        <v>65.8</v>
+        <v>55</v>
       </c>
       <c r="S56" s="39" t="n">
-        <v>60.1</v>
+        <v>47.8</v>
       </c>
       <c r="T56" s="39" t="n">
-        <v>51.4</v>
+        <v>70.8</v>
       </c>
       <c r="U56" s="39" t="n">
-        <v>84</v>
+        <v>94.5</v>
       </c>
       <c r="V56" s="39" t="n">
-        <v>97</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="W56" s="39" t="n">
-        <v>80</v>
+        <v>75.8</v>
       </c>
       <c r="X56" s="39" t="n">
-        <v>88.3</v>
+        <v>84.7</v>
       </c>
       <c r="Y56" s="39" t="inlineStr">
         <is>
-          <t>恒生科技指数ETF</t>
+          <t>人工智能AIETF</t>
         </is>
       </c>
     </row>
@@ -16561,79 +16563,79 @@
         <v>55</v>
       </c>
       <c r="B57" s="39" t="n">
-        <v>159647</v>
+        <v>515980</v>
       </c>
       <c r="C57" s="39" t="inlineStr">
         <is>
-          <t>中药ETF</t>
+          <t>人工智能ETF</t>
         </is>
       </c>
       <c r="D57" s="39" t="n">
-        <v>7.81</v>
+        <v>36.17</v>
       </c>
       <c r="E57" s="39" t="n">
-        <v>40.7</v>
+        <v>0.3</v>
       </c>
       <c r="F57" s="39" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="G57" s="39" t="n">
-        <v>71.8</v>
+        <v>62.1</v>
       </c>
       <c r="H57" s="39" t="n">
-        <v>56.9</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="I57" s="39" t="n">
-        <v>60.9</v>
+        <v>82.8</v>
       </c>
       <c r="J57" s="39" t="n">
-        <v>87.3</v>
+        <v>54.1</v>
       </c>
       <c r="K57" s="39" t="n">
-        <v>50.3</v>
+        <v>32</v>
       </c>
       <c r="L57" s="39" t="n">
-        <v>44.1</v>
+        <v>57.9</v>
       </c>
       <c r="M57" s="39" t="n">
-        <v>29.5</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="N57" s="39" t="n">
-        <v>47</v>
+        <v>92.8</v>
       </c>
       <c r="O57" s="39" t="n">
-        <v>91.09999999999999</v>
+        <v>43.5</v>
       </c>
       <c r="P57" s="39" t="n">
-        <v>30.4</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="Q57" s="39" t="n">
-        <v>51.8</v>
+        <v>28.1</v>
       </c>
       <c r="R57" s="39" t="n">
-        <v>26.9</v>
+        <v>57.1</v>
       </c>
       <c r="S57" s="39" t="n">
-        <v>9.800000000000001</v>
+        <v>41.8</v>
       </c>
       <c r="T57" s="39" t="n">
-        <v>7.9</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="U57" s="39" t="n">
-        <v>41.2</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="V57" s="39" t="n">
-        <v>73.3</v>
+        <v>96.8</v>
       </c>
       <c r="W57" s="39" t="n">
-        <v>85.7</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="X57" s="39" t="n">
-        <v>88.40000000000001</v>
+        <v>85.3</v>
       </c>
       <c r="Y57" s="39" t="inlineStr">
         <is>
-          <t>中药ETF</t>
+          <t>人工智能ETF</t>
         </is>
       </c>
     </row>
@@ -16642,79 +16644,79 @@
         <v>56</v>
       </c>
       <c r="B58" s="39" t="n">
-        <v>517090</v>
+        <v>512800</v>
       </c>
       <c r="C58" s="39" t="inlineStr">
         <is>
-          <t>央企共赢ETF</t>
+          <t>银行ETF</t>
         </is>
       </c>
       <c r="D58" s="39" t="n">
-        <v>3.83</v>
+        <v>77.53</v>
       </c>
       <c r="E58" s="39" t="n">
-        <v>59.4</v>
+        <v>11.2</v>
       </c>
       <c r="F58" s="39" t="n">
-        <v>50</v>
+        <v>5.8</v>
       </c>
       <c r="G58" s="39" t="n">
-        <v>55.6</v>
+        <v>50.2</v>
       </c>
       <c r="H58" s="39" t="n">
-        <v>45.4</v>
+        <v>62.1</v>
       </c>
       <c r="I58" s="39" t="n">
-        <v>64.8</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="J58" s="39" t="n">
-        <v>76.09999999999999</v>
+        <v>94.7</v>
       </c>
       <c r="K58" s="39" t="n">
-        <v>90.40000000000001</v>
+        <v>97.3</v>
       </c>
       <c r="L58" s="39" t="n">
-        <v>91.2</v>
+        <v>97.5</v>
       </c>
       <c r="M58" s="39" t="n">
-        <v>94</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="N58" s="39" t="n">
-        <v>32.1</v>
+        <v>36</v>
       </c>
       <c r="O58" s="39" t="n">
-        <v>68.7</v>
+        <v>65</v>
       </c>
       <c r="P58" s="39" t="n">
-        <v>41</v>
+        <v>41.7</v>
       </c>
       <c r="Q58" s="39" t="n">
-        <v>41</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="R58" s="39" t="n">
-        <v>17.9</v>
+        <v>56.7</v>
       </c>
       <c r="S58" s="39" t="n">
-        <v>76.8</v>
+        <v>81.7</v>
       </c>
       <c r="T58" s="39" t="n">
-        <v>26.4</v>
+        <v>60.3</v>
       </c>
       <c r="U58" s="39" t="n">
-        <v>17</v>
+        <v>11.1</v>
       </c>
       <c r="V58" s="39" t="n">
-        <v>51.4</v>
+        <v>10.6</v>
       </c>
       <c r="W58" s="39" t="n">
-        <v>84.59999999999999</v>
+        <v>71.2</v>
       </c>
       <c r="X58" s="39" t="n">
-        <v>89.2</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="Y58" s="39" t="inlineStr">
         <is>
-          <t>央企共赢ETF</t>
+          <t>银行ETF</t>
         </is>
       </c>
     </row>
@@ -16723,79 +16725,79 @@
         <v>57</v>
       </c>
       <c r="B59" s="39" t="n">
-        <v>518880</v>
+        <v>562800</v>
       </c>
       <c r="C59" s="39" t="inlineStr">
         <is>
-          <t>黄金ETF</t>
+          <t>稀有金属ETF</t>
         </is>
       </c>
       <c r="D59" s="39" t="n">
-        <v>620.85</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="E59" s="39" t="n">
-        <v>39</v>
+        <v>20.4</v>
       </c>
       <c r="F59" s="39" t="n">
-        <v>68.7</v>
+        <v>47.7</v>
       </c>
       <c r="G59" s="39" t="n">
-        <v>88.40000000000001</v>
+        <v>69</v>
       </c>
       <c r="H59" s="39" t="n">
-        <v>93.90000000000001</v>
+        <v>69</v>
       </c>
       <c r="I59" s="39" t="n">
-        <v>95.90000000000001</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="J59" s="39" t="n">
-        <v>93.59999999999999</v>
+        <v>52.7</v>
       </c>
       <c r="K59" s="39" t="n">
-        <v>98.8</v>
+        <v>21</v>
       </c>
       <c r="L59" s="39" t="n">
-        <v>99.2</v>
+        <v>17.5</v>
       </c>
       <c r="M59" s="39" t="n">
-        <v>99.3</v>
+        <v>13.1</v>
       </c>
       <c r="N59" s="39" t="n">
-        <v>99.8</v>
+        <v>84.2</v>
       </c>
       <c r="O59" s="39" t="n">
-        <v>100</v>
+        <v>71.3</v>
       </c>
       <c r="P59" s="39" t="n">
-        <v>26.9</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="Q59" s="39" t="n">
-        <v>41.4</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="R59" s="39" t="n">
-        <v>33.1</v>
+        <v>32.7</v>
       </c>
       <c r="S59" s="39" t="n">
-        <v>22</v>
+        <v>13.2</v>
       </c>
       <c r="T59" s="39" t="n">
-        <v>49.2</v>
+        <v>13.2</v>
       </c>
       <c r="U59" s="39" t="n">
-        <v>30.4</v>
+        <v>13.2</v>
       </c>
       <c r="V59" s="39" t="n">
-        <v>79.2</v>
+        <v>96.7</v>
       </c>
       <c r="W59" s="39" t="n">
-        <v>86.90000000000001</v>
+        <v>86.3</v>
       </c>
       <c r="X59" s="39" t="n">
-        <v>89.90000000000001</v>
+        <v>86.3</v>
       </c>
       <c r="Y59" s="39" t="inlineStr">
         <is>
-          <t>黄金ETF</t>
+          <t>稀有金属ETF</t>
         </is>
       </c>
     </row>
@@ -16804,79 +16806,79 @@
         <v>58</v>
       </c>
       <c r="B60" s="39" t="n">
-        <v>562800</v>
+        <v>159745</v>
       </c>
       <c r="C60" s="39" t="inlineStr">
         <is>
-          <t>稀有金属ETF</t>
+          <t>建材ETF</t>
         </is>
       </c>
       <c r="D60" s="39" t="n">
-        <v>9</v>
+        <v>5.87</v>
       </c>
       <c r="E60" s="39" t="n">
-        <v>20.4</v>
+        <v>50.3</v>
       </c>
       <c r="F60" s="39" t="n">
-        <v>47.7</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="G60" s="39" t="n">
-        <v>69</v>
+        <v>74.8</v>
       </c>
       <c r="H60" s="39" t="n">
-        <v>69</v>
+        <v>59.5</v>
       </c>
       <c r="I60" s="39" t="n">
-        <v>84.59999999999999</v>
+        <v>46.7</v>
       </c>
       <c r="J60" s="39" t="n">
-        <v>52.7</v>
+        <v>25.2</v>
       </c>
       <c r="K60" s="39" t="n">
-        <v>21</v>
+        <v>14.9</v>
       </c>
       <c r="L60" s="39" t="n">
-        <v>17.5</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="M60" s="39" t="n">
-        <v>13.1</v>
+        <v>78.7</v>
       </c>
       <c r="N60" s="39" t="n">
-        <v>84.2</v>
+        <v>33.3</v>
       </c>
       <c r="O60" s="39" t="n">
-        <v>71.3</v>
+        <v>72</v>
       </c>
       <c r="P60" s="39" t="n">
-        <v>85.09999999999999</v>
+        <v>40.6</v>
       </c>
       <c r="Q60" s="39" t="n">
-        <v>64.40000000000001</v>
+        <v>21.7</v>
       </c>
       <c r="R60" s="39" t="n">
-        <v>32.7</v>
+        <v>17.6</v>
       </c>
       <c r="S60" s="39" t="n">
-        <v>13.2</v>
+        <v>4</v>
       </c>
       <c r="T60" s="39" t="n">
-        <v>13.2</v>
+        <v>3</v>
       </c>
       <c r="U60" s="39" t="n">
-        <v>13.2</v>
+        <v>1.7</v>
       </c>
       <c r="V60" s="39" t="n">
-        <v>96.7</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="W60" s="39" t="n">
-        <v>86.3</v>
+        <v>80.5</v>
       </c>
       <c r="X60" s="39" t="n">
-        <v>90.40000000000001</v>
+        <v>86.7</v>
       </c>
       <c r="Y60" s="39" t="inlineStr">
         <is>
-          <t>稀有金属ETF</t>
+          <t>建材ETF</t>
         </is>
       </c>
     </row>
@@ -16884,82 +16886,80 @@
       <c r="A61" s="39" t="n">
         <v>59</v>
       </c>
-      <c r="B61" s="39" t="inlineStr">
-        <is>
-          <t>512040</t>
-        </is>
+      <c r="B61" s="39" t="n">
+        <v>159647</v>
       </c>
       <c r="C61" s="39" t="inlineStr">
         <is>
-          <t>价值100ETF</t>
+          <t>中药ETF</t>
         </is>
       </c>
       <c r="D61" s="39" t="n">
-        <v>18.86</v>
+        <v>7.81</v>
       </c>
       <c r="E61" s="39" t="n">
-        <v>24.3</v>
+        <v>40.7</v>
       </c>
       <c r="F61" s="39" t="n">
-        <v>31.6</v>
+        <v>60</v>
       </c>
       <c r="G61" s="39" t="n">
-        <v>67.3</v>
+        <v>71.8</v>
       </c>
       <c r="H61" s="39" t="n">
-        <v>59.9</v>
+        <v>56.9</v>
       </c>
       <c r="I61" s="39" t="n">
-        <v>75.8</v>
+        <v>60.9</v>
       </c>
       <c r="J61" s="39" t="n">
-        <v>84.2</v>
+        <v>87.3</v>
       </c>
       <c r="K61" s="39" t="n">
-        <v>49.8</v>
+        <v>50.3</v>
       </c>
       <c r="L61" s="39" t="n">
-        <v>58.3</v>
+        <v>44.1</v>
       </c>
       <c r="M61" s="39" t="n">
-        <v>58.3</v>
+        <v>29.5</v>
       </c>
       <c r="N61" s="39" t="n">
-        <v>90.5</v>
+        <v>47</v>
       </c>
       <c r="O61" s="39" t="n">
-        <v>94.09999999999999</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="P61" s="39" t="n">
-        <v>98</v>
+        <v>30.4</v>
       </c>
       <c r="Q61" s="39" t="n">
-        <v>98</v>
+        <v>51.8</v>
       </c>
       <c r="R61" s="39" t="n">
-        <v>98</v>
+        <v>26.9</v>
       </c>
       <c r="S61" s="39" t="n">
-        <v>13.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="T61" s="39" t="n">
-        <v>10.4</v>
+        <v>7.9</v>
       </c>
       <c r="U61" s="39" t="n">
-        <v>3.2</v>
+        <v>41.2</v>
       </c>
       <c r="V61" s="39" t="n">
-        <v>63.6</v>
+        <v>73.3</v>
       </c>
       <c r="W61" s="39" t="n">
-        <v>83.8</v>
+        <v>85.7</v>
       </c>
       <c r="X61" s="39" t="n">
-        <v>90.7</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="Y61" s="39" t="inlineStr">
         <is>
-          <t>价值100ETF</t>
+          <t>中药ETF</t>
         </is>
       </c>
     </row>
@@ -16976,7 +16976,7 @@
         </is>
       </c>
       <c r="D62" s="39" t="n">
-        <v>43.83</v>
+        <v>43.58</v>
       </c>
       <c r="E62" s="39" t="n">
         <v>0.3</v>
@@ -17036,7 +17036,7 @@
         <v>79.59999999999999</v>
       </c>
       <c r="X62" s="39" t="n">
-        <v>91.7</v>
+        <v>89.2</v>
       </c>
       <c r="Y62" s="39" t="inlineStr">
         <is>
@@ -17048,80 +17048,82 @@
       <c r="A63" s="39" t="n">
         <v>61</v>
       </c>
-      <c r="B63" s="39" t="n">
-        <v>510230</v>
+      <c r="B63" s="39" t="inlineStr">
+        <is>
+          <t>512040</t>
+        </is>
       </c>
       <c r="C63" s="39" t="inlineStr">
         <is>
-          <t>金融ETF</t>
+          <t>价值100ETF</t>
         </is>
       </c>
       <c r="D63" s="39" t="n">
-        <v>46.59</v>
+        <v>18.82</v>
       </c>
       <c r="E63" s="39" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="F63" s="39" t="n">
-        <v>21.3</v>
+        <v>31.6</v>
       </c>
       <c r="G63" s="39" t="n">
-        <v>62.7</v>
+        <v>67.3</v>
       </c>
       <c r="H63" s="39" t="n">
-        <v>67.5</v>
+        <v>59.9</v>
       </c>
       <c r="I63" s="39" t="n">
-        <v>81.8</v>
+        <v>75.8</v>
       </c>
       <c r="J63" s="39" t="n">
-        <v>93.40000000000001</v>
+        <v>84.2</v>
       </c>
       <c r="K63" s="39" t="n">
-        <v>96.40000000000001</v>
+        <v>49.8</v>
       </c>
       <c r="L63" s="39" t="n">
-        <v>96.40000000000001</v>
+        <v>58.3</v>
       </c>
       <c r="M63" s="39" t="n">
-        <v>99</v>
+        <v>58.3</v>
       </c>
       <c r="N63" s="39" t="n">
-        <v>51.8</v>
+        <v>90.5</v>
       </c>
       <c r="O63" s="39" t="n">
-        <v>65.8</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="P63" s="39" t="n">
-        <v>47.4</v>
+        <v>98</v>
       </c>
       <c r="Q63" s="39" t="n">
-        <v>86.09999999999999</v>
+        <v>98</v>
       </c>
       <c r="R63" s="39" t="n">
-        <v>59.7</v>
+        <v>98</v>
       </c>
       <c r="S63" s="39" t="n">
-        <v>80.09999999999999</v>
+        <v>13.4</v>
       </c>
       <c r="T63" s="39" t="n">
-        <v>36.2</v>
+        <v>10.4</v>
       </c>
       <c r="U63" s="39" t="n">
-        <v>9.699999999999999</v>
+        <v>3.2</v>
       </c>
       <c r="V63" s="39" t="n">
-        <v>35.1</v>
+        <v>63.6</v>
       </c>
       <c r="W63" s="39" t="n">
-        <v>75.8</v>
+        <v>83.8</v>
       </c>
       <c r="X63" s="39" t="n">
-        <v>92.40000000000001</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="Y63" s="39" t="inlineStr">
         <is>
-          <t>金融ETF</t>
+          <t>价值100ETF</t>
         </is>
       </c>
     </row>
@@ -17130,79 +17132,79 @@
         <v>62</v>
       </c>
       <c r="B64" s="39" t="n">
-        <v>513030</v>
+        <v>510230</v>
       </c>
       <c r="C64" s="39" t="inlineStr">
         <is>
-          <t>德国ETF</t>
+          <t>金融ETF</t>
         </is>
       </c>
       <c r="D64" s="39" t="n">
-        <v>13.52</v>
+        <v>46.48</v>
       </c>
       <c r="E64" s="39" t="n">
-        <v>30.7</v>
+        <v>24.2</v>
       </c>
       <c r="F64" s="39" t="n">
-        <v>19.6</v>
+        <v>21.3</v>
       </c>
       <c r="G64" s="39" t="n">
-        <v>74.90000000000001</v>
+        <v>62.7</v>
       </c>
       <c r="H64" s="39" t="n">
-        <v>64.90000000000001</v>
+        <v>67.5</v>
       </c>
       <c r="I64" s="39" t="n">
-        <v>76.09999999999999</v>
+        <v>81.8</v>
       </c>
       <c r="J64" s="39" t="n">
-        <v>86.8</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="K64" s="39" t="n">
-        <v>84.2</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="L64" s="39" t="n">
-        <v>94</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="M64" s="39" t="n">
-        <v>73.7</v>
+        <v>99</v>
       </c>
       <c r="N64" s="39" t="n">
-        <v>73.7</v>
+        <v>51.8</v>
       </c>
       <c r="O64" s="39" t="n">
-        <v>83.3</v>
+        <v>65.8</v>
       </c>
       <c r="P64" s="39" t="n">
-        <v>98.09999999999999</v>
+        <v>47.4</v>
       </c>
       <c r="Q64" s="39" t="n">
-        <v>83.90000000000001</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="R64" s="39" t="n">
-        <v>93.2</v>
+        <v>59.7</v>
       </c>
       <c r="S64" s="39" t="n">
-        <v>94.3</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="T64" s="39" t="n">
-        <v>97</v>
+        <v>36.2</v>
       </c>
       <c r="U64" s="39" t="n">
-        <v>98.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="V64" s="39" t="n">
-        <v>99.8</v>
+        <v>35.1</v>
       </c>
       <c r="W64" s="39" t="n">
-        <v>89.7</v>
+        <v>75.8</v>
       </c>
       <c r="X64" s="39" t="n">
-        <v>92.7</v>
+        <v>91.3</v>
       </c>
       <c r="Y64" s="39" t="inlineStr">
         <is>
-          <t>德国ETF</t>
+          <t>金融ETF</t>
         </is>
       </c>
     </row>
@@ -17210,80 +17212,82 @@
       <c r="A65" s="39" t="n">
         <v>63</v>
       </c>
-      <c r="B65" s="39" t="n">
-        <v>512950</v>
+      <c r="B65" s="39" t="inlineStr">
+        <is>
+          <t>159736</t>
+        </is>
       </c>
       <c r="C65" s="39" t="inlineStr">
         <is>
-          <t>央企改革ETF</t>
+          <t>饮食ETF</t>
         </is>
       </c>
       <c r="D65" s="39" t="n">
-        <v>55.35</v>
+        <v>48.55</v>
       </c>
       <c r="E65" s="39" t="n">
-        <v>49.5</v>
+        <v>59.9</v>
       </c>
       <c r="F65" s="39" t="n">
-        <v>69</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="G65" s="39" t="n">
-        <v>69.90000000000001</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="H65" s="39" t="n">
-        <v>59.9</v>
+        <v>50.1</v>
       </c>
       <c r="I65" s="39" t="n">
-        <v>72.8</v>
+        <v>46</v>
       </c>
       <c r="J65" s="39" t="n">
-        <v>48</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="K65" s="39" t="n">
-        <v>76.3</v>
+        <v>78.2</v>
       </c>
       <c r="L65" s="39" t="n">
-        <v>58.2</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="M65" s="39" t="n">
-        <v>71.59999999999999</v>
+        <v>34.9</v>
       </c>
       <c r="N65" s="39" t="n">
-        <v>43.6</v>
+        <v>18.6</v>
       </c>
       <c r="O65" s="39" t="n">
-        <v>24.5</v>
+        <v>18.6</v>
       </c>
       <c r="P65" s="39" t="n">
-        <v>6.7</v>
+        <v>7.4</v>
       </c>
       <c r="Q65" s="39" t="n">
-        <v>3.4</v>
+        <v>4.7</v>
       </c>
       <c r="R65" s="39" t="n">
         <v>3.4</v>
       </c>
       <c r="S65" s="39" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="T65" s="39" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="U65" s="39" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="V65" s="39" t="n">
-        <v>76.2</v>
+        <v>75.8</v>
       </c>
       <c r="W65" s="39" t="n">
-        <v>89.7</v>
+        <v>75.8</v>
       </c>
       <c r="X65" s="39" t="n">
-        <v>93</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="Y65" s="39" t="inlineStr">
         <is>
-          <t>央企改革ETF</t>
+          <t>饮食ETF</t>
         </is>
       </c>
     </row>
@@ -17292,79 +17296,79 @@
         <v>64</v>
       </c>
       <c r="B66" s="39" t="n">
-        <v>515900</v>
+        <v>159928</v>
       </c>
       <c r="C66" s="39" t="inlineStr">
         <is>
-          <t>央企创新驱动ETF</t>
+          <t>消费ETF</t>
         </is>
       </c>
       <c r="D66" s="39" t="n">
-        <v>33.17</v>
+        <v>149.51</v>
       </c>
       <c r="E66" s="39" t="n">
-        <v>45.8</v>
+        <v>70.7</v>
       </c>
       <c r="F66" s="39" t="n">
-        <v>62.3</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="G66" s="39" t="n">
-        <v>68.09999999999999</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="H66" s="39" t="n">
-        <v>54.2</v>
+        <v>41.6</v>
       </c>
       <c r="I66" s="39" t="n">
-        <v>69.3</v>
+        <v>29</v>
       </c>
       <c r="J66" s="39" t="n">
-        <v>44.7</v>
+        <v>38.4</v>
       </c>
       <c r="K66" s="39" t="n">
-        <v>51.6</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="L66" s="39" t="n">
-        <v>41.3</v>
+        <v>84.2</v>
       </c>
       <c r="M66" s="39" t="n">
-        <v>86</v>
+        <v>32.1</v>
       </c>
       <c r="N66" s="39" t="n">
-        <v>62.3</v>
+        <v>15.8</v>
       </c>
       <c r="O66" s="39" t="n">
-        <v>48.8</v>
+        <v>40.1</v>
       </c>
       <c r="P66" s="39" t="n">
-        <v>34.1</v>
+        <v>14.7</v>
       </c>
       <c r="Q66" s="39" t="n">
-        <v>6.5</v>
+        <v>12.1</v>
       </c>
       <c r="R66" s="39" t="n">
-        <v>24.1</v>
+        <v>7.1</v>
       </c>
       <c r="S66" s="39" t="n">
-        <v>24.1</v>
+        <v>3.2</v>
       </c>
       <c r="T66" s="39" t="n">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="U66" s="39" t="n">
-        <v>1.7</v>
+        <v>46.9</v>
       </c>
       <c r="V66" s="39" t="n">
-        <v>80.09999999999999</v>
+        <v>72.3</v>
       </c>
       <c r="W66" s="39" t="n">
-        <v>89.59999999999999</v>
+        <v>81.3</v>
       </c>
       <c r="X66" s="39" t="n">
-        <v>93.90000000000001</v>
+        <v>91.8</v>
       </c>
       <c r="Y66" s="39" t="inlineStr">
         <is>
-          <t>央企创新驱动ETF</t>
+          <t>消费ETF</t>
         </is>
       </c>
     </row>
@@ -17381,7 +17385,7 @@
         </is>
       </c>
       <c r="D67" s="39" t="n">
-        <v>115.2</v>
+        <v>114.82</v>
       </c>
       <c r="E67" s="39" t="n">
         <v>59</v>
@@ -17441,7 +17445,7 @@
         <v>76</v>
       </c>
       <c r="X67" s="39" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Y67" s="39" t="inlineStr">
         <is>
@@ -17454,79 +17458,79 @@
         <v>66</v>
       </c>
       <c r="B68" s="39" t="n">
-        <v>562500</v>
+        <v>512950</v>
       </c>
       <c r="C68" s="39" t="inlineStr">
         <is>
-          <t>机器人ETF</t>
+          <t>央企改革ETF</t>
         </is>
       </c>
       <c r="D68" s="39" t="n">
-        <v>145.61</v>
+        <v>55.22</v>
       </c>
       <c r="E68" s="39" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="F68" s="39" t="n">
+        <v>69</v>
+      </c>
+      <c r="G68" s="39" t="n">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="H68" s="39" t="n">
+        <v>59.9</v>
+      </c>
+      <c r="I68" s="39" t="n">
+        <v>72.8</v>
+      </c>
+      <c r="J68" s="39" t="n">
+        <v>48</v>
+      </c>
+      <c r="K68" s="39" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L68" s="39" t="n">
+        <v>58.2</v>
+      </c>
+      <c r="M68" s="39" t="n">
+        <v>71.59999999999999</v>
+      </c>
+      <c r="N68" s="39" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="O68" s="39" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="P68" s="39" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="Q68" s="39" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R68" s="39" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="S68" s="39" t="n">
         <v>1.4</v>
       </c>
-      <c r="F68" s="39" t="n">
-        <v>31</v>
-      </c>
-      <c r="G68" s="39" t="n">
-        <v>59.8</v>
-      </c>
-      <c r="H68" s="39" t="n">
-        <v>73.59999999999999</v>
-      </c>
-      <c r="I68" s="39" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="J68" s="39" t="n">
-        <v>53.4</v>
-      </c>
-      <c r="K68" s="39" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="L68" s="39" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="M68" s="39" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="N68" s="39" t="n">
-        <v>90.09999999999999</v>
-      </c>
-      <c r="O68" s="39" t="n">
-        <v>56.9</v>
-      </c>
-      <c r="P68" s="39" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="Q68" s="39" t="n">
-        <v>58.7</v>
-      </c>
-      <c r="R68" s="39" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="S68" s="39" t="n">
-        <v>28.6</v>
-      </c>
       <c r="T68" s="39" t="n">
-        <v>67</v>
+        <v>0.4</v>
       </c>
       <c r="U68" s="39" t="n">
-        <v>90.09999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="V68" s="39" t="n">
-        <v>95.2</v>
+        <v>76.2</v>
       </c>
       <c r="W68" s="39" t="n">
-        <v>90.5</v>
+        <v>89.7</v>
       </c>
       <c r="X68" s="39" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Y68" s="39" t="inlineStr">
         <is>
-          <t>机器人ETF</t>
+          <t>央企改革ETF</t>
         </is>
       </c>
     </row>
@@ -17534,82 +17538,80 @@
       <c r="A69" s="39" t="n">
         <v>67</v>
       </c>
-      <c r="B69" s="39" t="inlineStr">
-        <is>
-          <t>159736</t>
-        </is>
+      <c r="B69" s="39" t="n">
+        <v>510050</v>
       </c>
       <c r="C69" s="39" t="inlineStr">
         <is>
-          <t>饮食ETF</t>
+          <t>上证50ETF</t>
         </is>
       </c>
       <c r="D69" s="39" t="n">
-        <v>48.76</v>
+        <v>1638.46</v>
       </c>
       <c r="E69" s="39" t="n">
-        <v>59.9</v>
+        <v>43.3</v>
       </c>
       <c r="F69" s="39" t="n">
-        <v>74.40000000000001</v>
+        <v>56.3</v>
       </c>
       <c r="G69" s="39" t="n">
-        <v>84.09999999999999</v>
+        <v>71.8</v>
       </c>
       <c r="H69" s="39" t="n">
-        <v>50.1</v>
+        <v>75.5</v>
       </c>
       <c r="I69" s="39" t="n">
-        <v>46</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="J69" s="39" t="n">
-        <v>70.40000000000001</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="K69" s="39" t="n">
-        <v>78.2</v>
+        <v>96.5</v>
       </c>
       <c r="L69" s="39" t="n">
-        <v>90.59999999999999</v>
+        <v>97</v>
       </c>
       <c r="M69" s="39" t="n">
-        <v>34.9</v>
+        <v>97.5</v>
       </c>
       <c r="N69" s="39" t="n">
-        <v>18.6</v>
+        <v>38.9</v>
       </c>
       <c r="O69" s="39" t="n">
-        <v>18.6</v>
+        <v>63.4</v>
       </c>
       <c r="P69" s="39" t="n">
-        <v>7.4</v>
+        <v>27.8</v>
       </c>
       <c r="Q69" s="39" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="R69" s="39" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="S69" s="39" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="T69" s="39" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="U69" s="39" t="n">
         <v>4.7</v>
       </c>
-      <c r="R69" s="39" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="S69" s="39" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="T69" s="39" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="U69" s="39" t="n">
-        <v>0.5</v>
-      </c>
       <c r="V69" s="39" t="n">
-        <v>75.8</v>
+        <v>63.7</v>
       </c>
       <c r="W69" s="39" t="n">
-        <v>75.8</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="X69" s="39" t="n">
-        <v>94</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="Y69" s="39" t="inlineStr">
         <is>
-          <t>饮食ETF</t>
+          <t>上证50ETF</t>
         </is>
       </c>
     </row>
@@ -17617,82 +17619,80 @@
       <c r="A70" s="39" t="n">
         <v>68</v>
       </c>
-      <c r="B70" s="39" t="inlineStr">
-        <is>
-          <t>512010</t>
-        </is>
+      <c r="B70" s="39" t="n">
+        <v>562500</v>
       </c>
       <c r="C70" s="39" t="inlineStr">
         <is>
-          <t>医药ETF</t>
+          <t>机器人ETF</t>
         </is>
       </c>
       <c r="D70" s="39" t="n">
-        <v>221.87</v>
+        <v>145.12</v>
       </c>
       <c r="E70" s="39" t="n">
-        <v>17.2</v>
+        <v>1.4</v>
       </c>
       <c r="F70" s="39" t="n">
-        <v>15.3</v>
+        <v>31</v>
       </c>
       <c r="G70" s="39" t="n">
-        <v>59.5</v>
+        <v>59.8</v>
       </c>
       <c r="H70" s="39" t="n">
-        <v>66.5</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="I70" s="39" t="n">
-        <v>75.09999999999999</v>
+        <v>75.8</v>
       </c>
       <c r="J70" s="39" t="n">
-        <v>29.6</v>
+        <v>53.4</v>
       </c>
       <c r="K70" s="39" t="n">
-        <v>49.8</v>
+        <v>25.9</v>
       </c>
       <c r="L70" s="39" t="n">
-        <v>49.8</v>
+        <v>19.3</v>
       </c>
       <c r="M70" s="39" t="n">
-        <v>23.2</v>
+        <v>19.3</v>
       </c>
       <c r="N70" s="39" t="n">
-        <v>62.9</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="O70" s="39" t="n">
-        <v>92.8</v>
+        <v>56.9</v>
       </c>
       <c r="P70" s="39" t="n">
-        <v>66.09999999999999</v>
+        <v>88.5</v>
       </c>
       <c r="Q70" s="39" t="n">
-        <v>78.5</v>
+        <v>58.7</v>
       </c>
       <c r="R70" s="39" t="n">
-        <v>45.4</v>
+        <v>68.2</v>
       </c>
       <c r="S70" s="39" t="n">
-        <v>16.9</v>
+        <v>28.6</v>
       </c>
       <c r="T70" s="39" t="n">
-        <v>48.9</v>
+        <v>67</v>
       </c>
       <c r="U70" s="39" t="n">
-        <v>87.5</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="V70" s="39" t="n">
-        <v>94.09999999999999</v>
+        <v>95.2</v>
       </c>
       <c r="W70" s="39" t="n">
-        <v>94.09999999999999</v>
+        <v>90.5</v>
       </c>
       <c r="X70" s="39" t="n">
-        <v>94.09999999999999</v>
+        <v>92.7</v>
       </c>
       <c r="Y70" s="39" t="inlineStr">
         <is>
-          <t>医药ETF</t>
+          <t>机器人ETF</t>
         </is>
       </c>
     </row>
@@ -17700,80 +17700,82 @@
       <c r="A71" s="39" t="n">
         <v>69</v>
       </c>
-      <c r="B71" s="39" t="n">
-        <v>510050</v>
+      <c r="B71" s="39" t="inlineStr">
+        <is>
+          <t>560050</t>
+        </is>
       </c>
       <c r="C71" s="39" t="inlineStr">
         <is>
-          <t>上证50ETF</t>
+          <t>MSCI中国A50ETF</t>
         </is>
       </c>
       <c r="D71" s="39" t="n">
-        <v>1644.44</v>
+        <v>47.74</v>
       </c>
       <c r="E71" s="39" t="n">
-        <v>43.3</v>
+        <v>30.2</v>
       </c>
       <c r="F71" s="39" t="n">
-        <v>56.3</v>
+        <v>40.4</v>
       </c>
       <c r="G71" s="39" t="n">
-        <v>71.8</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="H71" s="39" t="n">
-        <v>75.5</v>
+        <v>80.5</v>
       </c>
       <c r="I71" s="39" t="n">
-        <v>82.59999999999999</v>
+        <v>86.8</v>
       </c>
       <c r="J71" s="39" t="n">
-        <v>87.90000000000001</v>
+        <v>88.3</v>
       </c>
       <c r="K71" s="39" t="n">
-        <v>96.5</v>
+        <v>90.5</v>
       </c>
       <c r="L71" s="39" t="n">
-        <v>97</v>
+        <v>95.5</v>
       </c>
       <c r="M71" s="39" t="n">
-        <v>97.5</v>
+        <v>56</v>
       </c>
       <c r="N71" s="39" t="n">
-        <v>38.9</v>
+        <v>85.7</v>
       </c>
       <c r="O71" s="39" t="n">
-        <v>63.4</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="P71" s="39" t="n">
-        <v>27.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="Q71" s="39" t="n">
-        <v>63.6</v>
+        <v>95.8</v>
       </c>
       <c r="R71" s="39" t="n">
-        <v>37.2</v>
+        <v>58.8</v>
       </c>
       <c r="S71" s="39" t="n">
-        <v>46.2</v>
+        <v>33.2</v>
       </c>
       <c r="T71" s="39" t="n">
-        <v>19.1</v>
+        <v>7.4</v>
       </c>
       <c r="U71" s="39" t="n">
-        <v>4.7</v>
+        <v>3.4</v>
       </c>
       <c r="V71" s="39" t="n">
-        <v>63.7</v>
+        <v>72.5</v>
       </c>
       <c r="W71" s="39" t="n">
-        <v>88.40000000000001</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="X71" s="39" t="n">
-        <v>94.5</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="Y71" s="39" t="inlineStr">
         <is>
-          <t>上证50ETF</t>
+          <t>MSCI中国A50ETF</t>
         </is>
       </c>
     </row>
@@ -17781,82 +17783,80 @@
       <c r="A72" s="39" t="n">
         <v>70</v>
       </c>
-      <c r="B72" s="39" t="inlineStr">
-        <is>
-          <t>560050</t>
-        </is>
+      <c r="B72" s="39" t="n">
+        <v>515900</v>
       </c>
       <c r="C72" s="39" t="inlineStr">
         <is>
-          <t>MSCI中国A50ETF</t>
+          <t>央企创新驱动ETF</t>
         </is>
       </c>
       <c r="D72" s="39" t="n">
-        <v>47.85</v>
+        <v>33.12</v>
       </c>
       <c r="E72" s="39" t="n">
-        <v>30.2</v>
+        <v>45.8</v>
       </c>
       <c r="F72" s="39" t="n">
-        <v>40.4</v>
+        <v>62.3</v>
       </c>
       <c r="G72" s="39" t="n">
-        <v>70.59999999999999</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="H72" s="39" t="n">
-        <v>80.5</v>
+        <v>54.2</v>
       </c>
       <c r="I72" s="39" t="n">
-        <v>86.8</v>
+        <v>69.3</v>
       </c>
       <c r="J72" s="39" t="n">
-        <v>88.3</v>
+        <v>44.7</v>
       </c>
       <c r="K72" s="39" t="n">
-        <v>90.5</v>
+        <v>51.6</v>
       </c>
       <c r="L72" s="39" t="n">
-        <v>95.5</v>
+        <v>41.3</v>
       </c>
       <c r="M72" s="39" t="n">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="N72" s="39" t="n">
-        <v>85.7</v>
+        <v>62.3</v>
       </c>
       <c r="O72" s="39" t="n">
-        <v>92.09999999999999</v>
+        <v>48.8</v>
       </c>
       <c r="P72" s="39" t="n">
-        <v>93.90000000000001</v>
+        <v>34.1</v>
       </c>
       <c r="Q72" s="39" t="n">
-        <v>95.8</v>
+        <v>6.5</v>
       </c>
       <c r="R72" s="39" t="n">
-        <v>58.8</v>
+        <v>24.1</v>
       </c>
       <c r="S72" s="39" t="n">
-        <v>33.2</v>
+        <v>24.1</v>
       </c>
       <c r="T72" s="39" t="n">
-        <v>7.4</v>
+        <v>3.4</v>
       </c>
       <c r="U72" s="39" t="n">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="V72" s="39" t="n">
-        <v>72.5</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="W72" s="39" t="n">
-        <v>87.59999999999999</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="X72" s="39" t="n">
-        <v>94.59999999999999</v>
+        <v>93.2</v>
       </c>
       <c r="Y72" s="39" t="inlineStr">
         <is>
-          <t>MSCI中国A50ETF</t>
+          <t>央企创新驱动ETF</t>
         </is>
       </c>
     </row>
@@ -17865,79 +17865,79 @@
         <v>71</v>
       </c>
       <c r="B73" s="39" t="n">
-        <v>159928</v>
+        <v>513030</v>
       </c>
       <c r="C73" s="39" t="inlineStr">
         <is>
-          <t>消费ETF</t>
+          <t>德国ETF</t>
         </is>
       </c>
       <c r="D73" s="39" t="n">
-        <v>149.87</v>
+        <v>13.54</v>
       </c>
       <c r="E73" s="39" t="n">
-        <v>70.7</v>
+        <v>30.7</v>
       </c>
       <c r="F73" s="39" t="n">
-        <v>80.59999999999999</v>
+        <v>19.6</v>
       </c>
       <c r="G73" s="39" t="n">
-        <v>81.59999999999999</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="H73" s="39" t="n">
-        <v>41.6</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="I73" s="39" t="n">
-        <v>29</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="J73" s="39" t="n">
-        <v>38.4</v>
+        <v>86.8</v>
       </c>
       <c r="K73" s="39" t="n">
-        <v>65.59999999999999</v>
+        <v>84.2</v>
       </c>
       <c r="L73" s="39" t="n">
-        <v>84.2</v>
+        <v>94</v>
       </c>
       <c r="M73" s="39" t="n">
-        <v>32.1</v>
+        <v>73.7</v>
       </c>
       <c r="N73" s="39" t="n">
-        <v>15.8</v>
+        <v>73.7</v>
       </c>
       <c r="O73" s="39" t="n">
-        <v>40.1</v>
+        <v>83.3</v>
       </c>
       <c r="P73" s="39" t="n">
-        <v>14.7</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="Q73" s="39" t="n">
-        <v>12.1</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="R73" s="39" t="n">
-        <v>7.1</v>
+        <v>93.2</v>
       </c>
       <c r="S73" s="39" t="n">
-        <v>3.2</v>
+        <v>94.3</v>
       </c>
       <c r="T73" s="39" t="n">
-        <v>1.8</v>
+        <v>97</v>
       </c>
       <c r="U73" s="39" t="n">
-        <v>46.9</v>
+        <v>98.5</v>
       </c>
       <c r="V73" s="39" t="n">
-        <v>72.3</v>
+        <v>99.8</v>
       </c>
       <c r="W73" s="39" t="n">
-        <v>81.3</v>
+        <v>89.7</v>
       </c>
       <c r="X73" s="39" t="n">
-        <v>94.8</v>
+        <v>93.2</v>
       </c>
       <c r="Y73" s="39" t="inlineStr">
         <is>
-          <t>消费ETF</t>
+          <t>德国ETF</t>
         </is>
       </c>
     </row>
@@ -17945,80 +17945,82 @@
       <c r="A74" s="39" t="n">
         <v>72</v>
       </c>
-      <c r="B74" s="39" t="n">
-        <v>515050</v>
+      <c r="B74" s="39" t="inlineStr">
+        <is>
+          <t>512010</t>
+        </is>
       </c>
       <c r="C74" s="39" t="inlineStr">
         <is>
-          <t>5G通信ETF</t>
+          <t>医药ETF</t>
         </is>
       </c>
       <c r="D74" s="39" t="n">
-        <v>63.31</v>
+        <v>221.87</v>
       </c>
       <c r="E74" s="39" t="n">
-        <v>0.5</v>
+        <v>17.2</v>
       </c>
       <c r="F74" s="39" t="n">
-        <v>17.2</v>
+        <v>15.3</v>
       </c>
       <c r="G74" s="39" t="n">
-        <v>60.4</v>
+        <v>59.5</v>
       </c>
       <c r="H74" s="39" t="n">
-        <v>74.7</v>
+        <v>66.5</v>
       </c>
       <c r="I74" s="39" t="n">
-        <v>78.40000000000001</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="J74" s="39" t="n">
-        <v>44.5</v>
+        <v>29.6</v>
       </c>
       <c r="K74" s="39" t="n">
-        <v>19.1</v>
+        <v>49.8</v>
       </c>
       <c r="L74" s="39" t="n">
-        <v>18.1</v>
+        <v>49.8</v>
       </c>
       <c r="M74" s="39" t="n">
-        <v>64.3</v>
+        <v>23.2</v>
       </c>
       <c r="N74" s="39" t="n">
-        <v>86.8</v>
+        <v>62.9</v>
       </c>
       <c r="O74" s="39" t="n">
-        <v>49.1</v>
+        <v>92.8</v>
       </c>
       <c r="P74" s="39" t="n">
-        <v>82.40000000000001</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="Q74" s="39" t="n">
-        <v>42.8</v>
+        <v>78.5</v>
       </c>
       <c r="R74" s="39" t="n">
-        <v>71.59999999999999</v>
+        <v>45.4</v>
       </c>
       <c r="S74" s="39" t="n">
-        <v>41.4</v>
+        <v>16.9</v>
       </c>
       <c r="T74" s="39" t="n">
-        <v>48.2</v>
+        <v>48.9</v>
       </c>
       <c r="U74" s="39" t="n">
-        <v>80.09999999999999</v>
+        <v>87.5</v>
       </c>
       <c r="V74" s="39" t="n">
-        <v>94.7</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="W74" s="39" t="n">
-        <v>86.5</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="X74" s="39" t="n">
-        <v>95.8</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="Y74" s="39" t="inlineStr">
         <is>
-          <t>5G通信ETF</t>
+          <t>医药ETF</t>
         </is>
       </c>
     </row>
@@ -18026,80 +18028,82 @@
       <c r="A75" s="39" t="n">
         <v>73</v>
       </c>
-      <c r="B75" s="39" t="n">
-        <v>159883</v>
+      <c r="B75" s="39" t="inlineStr">
+        <is>
+          <t>563000</t>
+        </is>
       </c>
       <c r="C75" s="39" t="inlineStr">
         <is>
-          <t>医疗器械ETF</t>
+          <t>中国A50ETF</t>
         </is>
       </c>
       <c r="D75" s="39" t="n">
-        <v>16.5</v>
+        <v>40.27</v>
       </c>
       <c r="E75" s="39" t="n">
-        <v>31.1</v>
+        <v>23.2</v>
       </c>
       <c r="F75" s="39" t="n">
-        <v>43.1</v>
+        <v>43.5</v>
       </c>
       <c r="G75" s="39" t="n">
-        <v>66.40000000000001</v>
+        <v>69.2</v>
       </c>
       <c r="H75" s="39" t="n">
-        <v>69.59999999999999</v>
+        <v>80.5</v>
       </c>
       <c r="I75" s="39" t="n">
-        <v>77.8</v>
+        <v>87.2</v>
       </c>
       <c r="J75" s="39" t="n">
-        <v>77.8</v>
+        <v>88.7</v>
       </c>
       <c r="K75" s="39" t="n">
-        <v>18.3</v>
+        <v>93.5</v>
       </c>
       <c r="L75" s="39" t="n">
-        <v>45.9</v>
+        <v>95.8</v>
       </c>
       <c r="M75" s="39" t="n">
-        <v>19.5</v>
+        <v>95.8</v>
       </c>
       <c r="N75" s="39" t="n">
-        <v>70.5</v>
+        <v>98.7</v>
       </c>
       <c r="O75" s="39" t="n">
-        <v>75.59999999999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="P75" s="39" t="n">
-        <v>56.1</v>
+        <v>71.8</v>
       </c>
       <c r="Q75" s="39" t="n">
-        <v>18.3</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="R75" s="39" t="n">
-        <v>13.7</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="S75" s="39" t="n">
-        <v>3.9</v>
+        <v>33.7</v>
       </c>
       <c r="T75" s="39" t="n">
-        <v>38.9</v>
+        <v>5.9</v>
       </c>
       <c r="U75" s="39" t="n">
-        <v>75.09999999999999</v>
+        <v>3.2</v>
       </c>
       <c r="V75" s="39" t="n">
-        <v>91.90000000000001</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="W75" s="39" t="n">
-        <v>93.2</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="X75" s="39" t="n">
-        <v>95.90000000000001</v>
+        <v>94.7</v>
       </c>
       <c r="Y75" s="39" t="inlineStr">
         <is>
-          <t>医疗器械ETF</t>
+          <t>中国A50ETF</t>
         </is>
       </c>
     </row>
@@ -18107,82 +18111,80 @@
       <c r="A76" s="39" t="n">
         <v>74</v>
       </c>
-      <c r="B76" s="39" t="inlineStr">
-        <is>
-          <t>563000</t>
-        </is>
+      <c r="B76" s="39" t="n">
+        <v>159883</v>
       </c>
       <c r="C76" s="39" t="inlineStr">
         <is>
-          <t>中国A50ETF</t>
+          <t>医疗器械ETF</t>
         </is>
       </c>
       <c r="D76" s="39" t="n">
-        <v>40.41</v>
+        <v>16.47</v>
       </c>
       <c r="E76" s="39" t="n">
-        <v>23.2</v>
+        <v>31.1</v>
       </c>
       <c r="F76" s="39" t="n">
-        <v>43.5</v>
+        <v>43.1</v>
       </c>
       <c r="G76" s="39" t="n">
-        <v>69.2</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="H76" s="39" t="n">
-        <v>80.5</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="I76" s="39" t="n">
-        <v>87.2</v>
+        <v>77.8</v>
       </c>
       <c r="J76" s="39" t="n">
-        <v>88.7</v>
+        <v>77.8</v>
       </c>
       <c r="K76" s="39" t="n">
-        <v>93.5</v>
+        <v>18.3</v>
       </c>
       <c r="L76" s="39" t="n">
-        <v>95.8</v>
+        <v>45.9</v>
       </c>
       <c r="M76" s="39" t="n">
-        <v>95.8</v>
+        <v>19.5</v>
       </c>
       <c r="N76" s="39" t="n">
-        <v>98.7</v>
+        <v>70.5</v>
       </c>
       <c r="O76" s="39" t="n">
-        <v>99.40000000000001</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="P76" s="39" t="n">
-        <v>71.8</v>
+        <v>56.1</v>
       </c>
       <c r="Q76" s="39" t="n">
-        <v>81.90000000000001</v>
+        <v>18.3</v>
       </c>
       <c r="R76" s="39" t="n">
-        <v>81.90000000000001</v>
+        <v>13.7</v>
       </c>
       <c r="S76" s="39" t="n">
-        <v>33.7</v>
+        <v>3.9</v>
       </c>
       <c r="T76" s="39" t="n">
-        <v>5.9</v>
+        <v>38.9</v>
       </c>
       <c r="U76" s="39" t="n">
-        <v>3.2</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="V76" s="39" t="n">
-        <v>73.90000000000001</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="W76" s="39" t="n">
-        <v>89.40000000000001</v>
+        <v>93.2</v>
       </c>
       <c r="X76" s="39" t="n">
-        <v>95.90000000000001</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="Y76" s="39" t="inlineStr">
         <is>
-          <t>中国A50ETF</t>
+          <t>医疗器械ETF</t>
         </is>
       </c>
     </row>
@@ -18190,82 +18192,80 @@
       <c r="A77" s="39" t="n">
         <v>75</v>
       </c>
-      <c r="B77" s="39" t="inlineStr">
-        <is>
-          <t>159509</t>
-        </is>
+      <c r="B77" s="39" t="n">
+        <v>159920</v>
       </c>
       <c r="C77" s="39" t="inlineStr">
         <is>
-          <t>纳指科技ETF</t>
+          <t>恒生ETF</t>
         </is>
       </c>
       <c r="D77" s="39" t="n">
-        <v>90.68000000000001</v>
+        <v>158.9</v>
       </c>
       <c r="E77" s="39" t="n">
-        <v>27.4</v>
+        <v>1</v>
       </c>
       <c r="F77" s="39" t="n">
-        <v>24.8</v>
+        <v>0.9</v>
       </c>
       <c r="G77" s="39" t="n">
-        <v>85.09999999999999</v>
+        <v>61.3</v>
       </c>
       <c r="H77" s="39" t="n">
-        <v>71.40000000000001</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="I77" s="39" t="n">
-        <v>83.90000000000001</v>
+        <v>86.8</v>
       </c>
       <c r="J77" s="39" t="n">
-        <v>52.2</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="K77" s="39" t="n">
-        <v>23.6</v>
+        <v>34.5</v>
       </c>
       <c r="L77" s="39" t="n">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="M77" s="39" t="n">
-        <v>24.4</v>
+        <v>62</v>
       </c>
       <c r="N77" s="39" t="n">
-        <v>17.8</v>
+        <v>81.3</v>
       </c>
       <c r="O77" s="39" t="n">
-        <v>23.7</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="P77" s="39" t="n">
-        <v>90.7</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="Q77" s="39" t="n">
-        <v>47.9</v>
+        <v>56.7</v>
       </c>
       <c r="R77" s="39" t="n">
-        <v>81.3</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="S77" s="39" t="n">
-        <v>83.40000000000001</v>
+        <v>70</v>
       </c>
       <c r="T77" s="39" t="n">
-        <v>76.40000000000001</v>
+        <v>28.7</v>
       </c>
       <c r="U77" s="39" t="n">
-        <v>57</v>
+        <v>61.6</v>
       </c>
       <c r="V77" s="39" t="n">
-        <v>88.59999999999999</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="W77" s="39" t="n">
-        <v>91.5</v>
+        <v>93.8</v>
       </c>
       <c r="X77" s="39" t="n">
-        <v>96.09999999999999</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="Y77" s="39" t="inlineStr">
         <is>
-          <t>纳指科技ETF</t>
+          <t>恒生ETF</t>
         </is>
       </c>
     </row>
@@ -18282,7 +18282,7 @@
         </is>
       </c>
       <c r="D78" s="39" t="n">
-        <v>286.76</v>
+        <v>285.95</v>
       </c>
       <c r="E78" s="39" t="n">
         <v>20.9</v>
@@ -18342,7 +18342,7 @@
         <v>94.3</v>
       </c>
       <c r="X78" s="39" t="n">
-        <v>96.09999999999999</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="Y78" s="39" t="inlineStr">
         <is>
@@ -18355,79 +18355,79 @@
         <v>77</v>
       </c>
       <c r="B79" s="39" t="n">
-        <v>159920</v>
+        <v>159905</v>
       </c>
       <c r="C79" s="39" t="inlineStr">
         <is>
-          <t>恒生ETF</t>
+          <t>深红利ETF</t>
         </is>
       </c>
       <c r="D79" s="39" t="n">
-        <v>159.69</v>
+        <v>31.89</v>
       </c>
       <c r="E79" s="39" t="n">
-        <v>1</v>
+        <v>42.7</v>
       </c>
       <c r="F79" s="39" t="n">
-        <v>0.9</v>
+        <v>53.6</v>
       </c>
       <c r="G79" s="39" t="n">
-        <v>61.3</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="H79" s="39" t="n">
-        <v>74.40000000000001</v>
+        <v>57.6</v>
       </c>
       <c r="I79" s="39" t="n">
-        <v>86.8</v>
+        <v>49.7</v>
       </c>
       <c r="J79" s="39" t="n">
-        <v>89.09999999999999</v>
+        <v>73.7</v>
       </c>
       <c r="K79" s="39" t="n">
-        <v>34.5</v>
+        <v>78</v>
       </c>
       <c r="L79" s="39" t="n">
-        <v>62</v>
+        <v>52.6</v>
       </c>
       <c r="M79" s="39" t="n">
-        <v>62</v>
+        <v>61.1</v>
       </c>
       <c r="N79" s="39" t="n">
-        <v>81.3</v>
+        <v>86</v>
       </c>
       <c r="O79" s="39" t="n">
-        <v>88.59999999999999</v>
+        <v>86</v>
       </c>
       <c r="P79" s="39" t="n">
-        <v>98.09999999999999</v>
+        <v>24.1</v>
       </c>
       <c r="Q79" s="39" t="n">
-        <v>56.7</v>
+        <v>18.8</v>
       </c>
       <c r="R79" s="39" t="n">
-        <v>74.90000000000001</v>
+        <v>5.8</v>
       </c>
       <c r="S79" s="39" t="n">
-        <v>70</v>
+        <v>48.5</v>
       </c>
       <c r="T79" s="39" t="n">
-        <v>28.7</v>
+        <v>25.4</v>
       </c>
       <c r="U79" s="39" t="n">
-        <v>61.6</v>
+        <v>19.3</v>
       </c>
       <c r="V79" s="39" t="n">
-        <v>92.40000000000001</v>
+        <v>90.2</v>
       </c>
       <c r="W79" s="39" t="n">
-        <v>93.8</v>
+        <v>93.3</v>
       </c>
       <c r="X79" s="39" t="n">
-        <v>96.3</v>
+        <v>95.5</v>
       </c>
       <c r="Y79" s="39" t="inlineStr">
         <is>
-          <t>恒生ETF</t>
+          <t>深红利ETF</t>
         </is>
       </c>
     </row>
@@ -18436,79 +18436,79 @@
         <v>78</v>
       </c>
       <c r="B80" s="39" t="n">
-        <v>159905</v>
+        <v>515050</v>
       </c>
       <c r="C80" s="39" t="inlineStr">
         <is>
-          <t>深红利ETF</t>
+          <t>5G通信ETF</t>
         </is>
       </c>
       <c r="D80" s="39" t="n">
-        <v>31.95</v>
+        <v>63.25</v>
       </c>
       <c r="E80" s="39" t="n">
-        <v>42.7</v>
+        <v>0.5</v>
       </c>
       <c r="F80" s="39" t="n">
-        <v>53.6</v>
+        <v>17.2</v>
       </c>
       <c r="G80" s="39" t="n">
-        <v>73.09999999999999</v>
+        <v>60.4</v>
       </c>
       <c r="H80" s="39" t="n">
-        <v>57.6</v>
+        <v>74.7</v>
       </c>
       <c r="I80" s="39" t="n">
-        <v>49.7</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="J80" s="39" t="n">
-        <v>73.7</v>
+        <v>44.5</v>
       </c>
       <c r="K80" s="39" t="n">
-        <v>78</v>
+        <v>19.1</v>
       </c>
       <c r="L80" s="39" t="n">
-        <v>52.6</v>
+        <v>18.1</v>
       </c>
       <c r="M80" s="39" t="n">
-        <v>61.1</v>
+        <v>64.3</v>
       </c>
       <c r="N80" s="39" t="n">
-        <v>86</v>
+        <v>86.8</v>
       </c>
       <c r="O80" s="39" t="n">
-        <v>86</v>
+        <v>49.1</v>
       </c>
       <c r="P80" s="39" t="n">
-        <v>24.1</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="Q80" s="39" t="n">
-        <v>18.8</v>
+        <v>42.8</v>
       </c>
       <c r="R80" s="39" t="n">
-        <v>5.8</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="S80" s="39" t="n">
-        <v>48.5</v>
+        <v>41.4</v>
       </c>
       <c r="T80" s="39" t="n">
-        <v>25.4</v>
+        <v>48.2</v>
       </c>
       <c r="U80" s="39" t="n">
-        <v>19.3</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="V80" s="39" t="n">
-        <v>90.2</v>
+        <v>94.7</v>
       </c>
       <c r="W80" s="39" t="n">
-        <v>93.3</v>
+        <v>86.5</v>
       </c>
       <c r="X80" s="39" t="n">
-        <v>96.59999999999999</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="Y80" s="39" t="inlineStr">
         <is>
-          <t>深红利ETF</t>
+          <t>5G通信ETF</t>
         </is>
       </c>
     </row>
@@ -18516,80 +18516,82 @@
       <c r="A81" s="39" t="n">
         <v>79</v>
       </c>
-      <c r="B81" s="39" t="n">
-        <v>512070</v>
+      <c r="B81" s="39" t="inlineStr">
+        <is>
+          <t>159509</t>
+        </is>
       </c>
       <c r="C81" s="39" t="inlineStr">
         <is>
-          <t>证券保险ETF</t>
+          <t>纳指科技ETF</t>
         </is>
       </c>
       <c r="D81" s="39" t="n">
-        <v>65.79000000000001</v>
+        <v>90.68000000000001</v>
       </c>
       <c r="E81" s="39" t="n">
-        <v>28.2</v>
+        <v>27.4</v>
       </c>
       <c r="F81" s="39" t="n">
-        <v>48.4</v>
+        <v>24.8</v>
       </c>
       <c r="G81" s="39" t="n">
-        <v>67</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="H81" s="39" t="n">
-        <v>67</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="I81" s="39" t="n">
-        <v>71.09999999999999</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="J81" s="39" t="n">
-        <v>77</v>
+        <v>52.2</v>
       </c>
       <c r="K81" s="39" t="n">
-        <v>54.9</v>
+        <v>23.6</v>
       </c>
       <c r="L81" s="39" t="n">
-        <v>71.3</v>
+        <v>40</v>
       </c>
       <c r="M81" s="39" t="n">
-        <v>93.8</v>
+        <v>24.4</v>
       </c>
       <c r="N81" s="39" t="n">
-        <v>96.2</v>
+        <v>17.8</v>
       </c>
       <c r="O81" s="39" t="n">
-        <v>97.3</v>
+        <v>23.7</v>
       </c>
       <c r="P81" s="39" t="n">
-        <v>98.7</v>
+        <v>90.7</v>
       </c>
       <c r="Q81" s="39" t="n">
-        <v>64.59999999999999</v>
+        <v>47.9</v>
       </c>
       <c r="R81" s="39" t="n">
-        <v>85.09999999999999</v>
+        <v>81.3</v>
       </c>
       <c r="S81" s="39" t="n">
-        <v>31.1</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="T81" s="39" t="n">
-        <v>11.5</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="U81" s="39" t="n">
-        <v>45.7</v>
+        <v>57</v>
       </c>
       <c r="V81" s="39" t="n">
-        <v>85.3</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="W81" s="39" t="n">
-        <v>94</v>
+        <v>91.5</v>
       </c>
       <c r="X81" s="39" t="n">
-        <v>97</v>
+        <v>96.3</v>
       </c>
       <c r="Y81" s="39" t="inlineStr">
         <is>
-          <t>证券保险ETF</t>
+          <t>纳指科技ETF</t>
         </is>
       </c>
     </row>
@@ -18606,7 +18608,7 @@
         </is>
       </c>
       <c r="D82" s="39" t="n">
-        <v>73.7</v>
+        <v>73.17</v>
       </c>
       <c r="E82" s="39" t="n">
         <v>1.6</v>
@@ -18666,7 +18668,7 @@
         <v>96</v>
       </c>
       <c r="X82" s="39" t="n">
-        <v>97.40000000000001</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="Y82" s="39" t="inlineStr">
         <is>
@@ -18678,82 +18680,80 @@
       <c r="A83" s="39" t="n">
         <v>81</v>
       </c>
-      <c r="B83" s="39" t="inlineStr">
-        <is>
-          <t>512580</t>
-        </is>
+      <c r="B83" s="39" t="n">
+        <v>512070</v>
       </c>
       <c r="C83" s="39" t="inlineStr">
         <is>
-          <t>环保ETF</t>
+          <t>证券保险ETF</t>
         </is>
       </c>
       <c r="D83" s="39" t="n">
-        <v>11.98</v>
+        <v>65.7</v>
       </c>
       <c r="E83" s="39" t="n">
-        <v>19.9</v>
+        <v>28.2</v>
       </c>
       <c r="F83" s="39" t="n">
-        <v>34.6</v>
+        <v>48.4</v>
       </c>
       <c r="G83" s="39" t="n">
-        <v>61.2</v>
+        <v>67</v>
       </c>
       <c r="H83" s="39" t="n">
-        <v>68.90000000000001</v>
+        <v>67</v>
       </c>
       <c r="I83" s="39" t="n">
-        <v>79.3</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="J83" s="39" t="n">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="K83" s="39" t="n">
-        <v>36</v>
+        <v>54.9</v>
       </c>
       <c r="L83" s="39" t="n">
-        <v>20.9</v>
+        <v>71.3</v>
       </c>
       <c r="M83" s="39" t="n">
-        <v>57</v>
+        <v>93.8</v>
       </c>
       <c r="N83" s="39" t="n">
-        <v>86.3</v>
+        <v>96.2</v>
       </c>
       <c r="O83" s="39" t="n">
-        <v>54.5</v>
+        <v>97.3</v>
       </c>
       <c r="P83" s="39" t="n">
-        <v>79.59999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="Q83" s="39" t="n">
-        <v>47.9</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="R83" s="39" t="n">
-        <v>74.7</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="S83" s="39" t="n">
-        <v>83.3</v>
+        <v>31.1</v>
       </c>
       <c r="T83" s="39" t="n">
-        <v>24.7</v>
+        <v>11.5</v>
       </c>
       <c r="U83" s="39" t="n">
-        <v>24.7</v>
+        <v>45.7</v>
       </c>
       <c r="V83" s="39" t="n">
-        <v>86.09999999999999</v>
+        <v>85.3</v>
       </c>
       <c r="W83" s="39" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="X83" s="39" t="n">
-        <v>97.5</v>
+        <v>96.8</v>
       </c>
       <c r="Y83" s="39" t="inlineStr">
         <is>
-          <t>环保ETF</t>
+          <t>证券保险ETF</t>
         </is>
       </c>
     </row>
@@ -18761,80 +18761,82 @@
       <c r="A84" s="39" t="n">
         <v>82</v>
       </c>
-      <c r="B84" s="39" t="n">
-        <v>159752</v>
+      <c r="B84" s="39" t="inlineStr">
+        <is>
+          <t>512580</t>
+        </is>
       </c>
       <c r="C84" s="39" t="inlineStr">
         <is>
-          <t>新能源龙头ETF</t>
+          <t>环保ETF</t>
         </is>
       </c>
       <c r="D84" s="39" t="n">
-        <v>3.03</v>
+        <v>11.92</v>
       </c>
       <c r="E84" s="39" t="n">
-        <v>1.1</v>
+        <v>19.9</v>
       </c>
       <c r="F84" s="39" t="n">
-        <v>7.5</v>
+        <v>34.6</v>
       </c>
       <c r="G84" s="39" t="n">
-        <v>57.3</v>
+        <v>61.2</v>
       </c>
       <c r="H84" s="39" t="n">
-        <v>65.59999999999999</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="I84" s="39" t="n">
-        <v>78.2</v>
+        <v>79.3</v>
       </c>
       <c r="J84" s="39" t="n">
-        <v>78.2</v>
+        <v>70</v>
       </c>
       <c r="K84" s="39" t="n">
-        <v>26.4</v>
+        <v>36</v>
       </c>
       <c r="L84" s="39" t="n">
-        <v>19.9</v>
+        <v>20.9</v>
       </c>
       <c r="M84" s="39" t="n">
-        <v>46.5</v>
+        <v>57</v>
       </c>
       <c r="N84" s="39" t="n">
-        <v>89.3</v>
+        <v>86.3</v>
       </c>
       <c r="O84" s="39" t="n">
-        <v>70.5</v>
+        <v>54.5</v>
       </c>
       <c r="P84" s="39" t="n">
-        <v>90.5</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="Q84" s="39" t="n">
-        <v>71.2</v>
+        <v>47.9</v>
       </c>
       <c r="R84" s="39" t="n">
-        <v>87.40000000000001</v>
+        <v>74.7</v>
       </c>
       <c r="S84" s="39" t="n">
-        <v>90.8</v>
+        <v>83.3</v>
       </c>
       <c r="T84" s="39" t="n">
-        <v>28.6</v>
+        <v>24.7</v>
       </c>
       <c r="U84" s="39" t="n">
-        <v>28.6</v>
+        <v>24.7</v>
       </c>
       <c r="V84" s="39" t="n">
-        <v>87.7</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="W84" s="39" t="n">
-        <v>91.59999999999999</v>
+        <v>92</v>
       </c>
       <c r="X84" s="39" t="n">
-        <v>97.7</v>
+        <v>97</v>
       </c>
       <c r="Y84" s="39" t="inlineStr">
         <is>
-          <t>新能源龙头ETF</t>
+          <t>环保ETF</t>
         </is>
       </c>
     </row>
@@ -18851,7 +18853,7 @@
         </is>
       </c>
       <c r="D85" s="39" t="n">
-        <v>654.89</v>
+        <v>651.97</v>
       </c>
       <c r="E85" s="39" t="n">
         <v>1.2</v>
@@ -18911,7 +18913,7 @@
         <v>95.3</v>
       </c>
       <c r="X85" s="39" t="n">
-        <v>97.8</v>
+        <v>97.2</v>
       </c>
       <c r="Y85" s="39" t="inlineStr">
         <is>
@@ -18924,79 +18926,79 @@
         <v>84</v>
       </c>
       <c r="B86" s="39" t="n">
-        <v>159667</v>
+        <v>159752</v>
       </c>
       <c r="C86" s="39" t="inlineStr">
         <is>
-          <t>工业母机ETF</t>
+          <t>新能源龙头ETF</t>
         </is>
       </c>
       <c r="D86" s="39" t="n">
-        <v>5.09</v>
+        <v>3.02</v>
       </c>
       <c r="E86" s="39" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="F86" s="39" t="n">
-        <v>26.1</v>
+        <v>7.5</v>
       </c>
       <c r="G86" s="39" t="n">
-        <v>61.2</v>
+        <v>57.3</v>
       </c>
       <c r="H86" s="39" t="n">
-        <v>74.5</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="I86" s="39" t="n">
-        <v>83.2</v>
+        <v>78.2</v>
       </c>
       <c r="J86" s="39" t="n">
-        <v>67.8</v>
+        <v>78.2</v>
       </c>
       <c r="K86" s="39" t="n">
-        <v>23.1</v>
+        <v>26.4</v>
       </c>
       <c r="L86" s="39" t="n">
-        <v>31.6</v>
+        <v>19.9</v>
       </c>
       <c r="M86" s="39" t="n">
-        <v>38.5</v>
+        <v>46.5</v>
       </c>
       <c r="N86" s="39" t="n">
-        <v>90.40000000000001</v>
+        <v>89.3</v>
       </c>
       <c r="O86" s="39" t="n">
-        <v>60.3</v>
+        <v>70.5</v>
       </c>
       <c r="P86" s="39" t="n">
-        <v>87.09999999999999</v>
+        <v>90.5</v>
       </c>
       <c r="Q86" s="39" t="n">
-        <v>68.59999999999999</v>
+        <v>71.2</v>
       </c>
       <c r="R86" s="39" t="n">
-        <v>75</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="S86" s="39" t="n">
-        <v>23.7</v>
+        <v>90.8</v>
       </c>
       <c r="T86" s="39" t="n">
-        <v>60.7</v>
+        <v>28.6</v>
       </c>
       <c r="U86" s="39" t="n">
-        <v>84.8</v>
+        <v>28.6</v>
       </c>
       <c r="V86" s="39" t="n">
-        <v>95.40000000000001</v>
+        <v>87.7</v>
       </c>
       <c r="W86" s="39" t="n">
-        <v>96.7</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="X86" s="39" t="n">
-        <v>97.90000000000001</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="Y86" s="39" t="inlineStr">
         <is>
-          <t>工业母机ETF</t>
+          <t>新能源龙头ETF</t>
         </is>
       </c>
     </row>
@@ -19005,79 +19007,79 @@
         <v>85</v>
       </c>
       <c r="B87" s="39" t="n">
-        <v>510300</v>
+        <v>159667</v>
       </c>
       <c r="C87" s="39" t="inlineStr">
         <is>
-          <t>沪深300ETF</t>
+          <t>工业母机ETF</t>
         </is>
       </c>
       <c r="D87" s="39" t="n">
-        <v>3801.35</v>
+        <v>5.08</v>
       </c>
       <c r="E87" s="39" t="n">
-        <v>20.2</v>
+        <v>1.6</v>
       </c>
       <c r="F87" s="39" t="n">
-        <v>43.6</v>
+        <v>26.1</v>
       </c>
       <c r="G87" s="39" t="n">
-        <v>72.09999999999999</v>
+        <v>61.2</v>
       </c>
       <c r="H87" s="39" t="n">
-        <v>76.3</v>
+        <v>74.5</v>
       </c>
       <c r="I87" s="39" t="n">
-        <v>80.59999999999999</v>
+        <v>83.2</v>
       </c>
       <c r="J87" s="39" t="n">
-        <v>82.90000000000001</v>
+        <v>67.8</v>
       </c>
       <c r="K87" s="39" t="n">
-        <v>90</v>
+        <v>23.1</v>
       </c>
       <c r="L87" s="39" t="n">
-        <v>92.2</v>
+        <v>31.6</v>
       </c>
       <c r="M87" s="39" t="n">
-        <v>96.8</v>
+        <v>38.5</v>
       </c>
       <c r="N87" s="39" t="n">
-        <v>97.40000000000001</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="O87" s="39" t="n">
-        <v>98.40000000000001</v>
+        <v>60.3</v>
       </c>
       <c r="P87" s="39" t="n">
-        <v>99.2</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="Q87" s="39" t="n">
-        <v>99.2</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="R87" s="39" t="n">
-        <v>99.2</v>
+        <v>75</v>
       </c>
       <c r="S87" s="39" t="n">
-        <v>14.3</v>
+        <v>23.7</v>
       </c>
       <c r="T87" s="39" t="n">
-        <v>4.8</v>
+        <v>60.7</v>
       </c>
       <c r="U87" s="39" t="n">
-        <v>3</v>
+        <v>84.8</v>
       </c>
       <c r="V87" s="39" t="n">
-        <v>90.3</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="W87" s="39" t="n">
-        <v>95.5</v>
+        <v>96.7</v>
       </c>
       <c r="X87" s="39" t="n">
-        <v>98.09999999999999</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="Y87" s="39" t="inlineStr">
         <is>
-          <t>沪深300ETF</t>
+          <t>工业母机ETF</t>
         </is>
       </c>
     </row>
@@ -19085,82 +19087,80 @@
       <c r="A88" s="39" t="n">
         <v>86</v>
       </c>
-      <c r="B88" s="39" t="inlineStr">
-        <is>
-          <t>510210</t>
-        </is>
+      <c r="B88" s="39" t="n">
+        <v>510300</v>
       </c>
       <c r="C88" s="39" t="inlineStr">
         <is>
-          <t>上证指数ETF</t>
+          <t>沪深300ETF</t>
         </is>
       </c>
       <c r="D88" s="39" t="n">
-        <v>47.87</v>
+        <v>3788.86</v>
       </c>
       <c r="E88" s="39" t="n">
-        <v>24.8</v>
+        <v>20.2</v>
       </c>
       <c r="F88" s="39" t="n">
-        <v>43.7</v>
+        <v>43.6</v>
       </c>
       <c r="G88" s="39" t="n">
-        <v>64.2</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="H88" s="39" t="n">
-        <v>73.7</v>
+        <v>76.3</v>
       </c>
       <c r="I88" s="39" t="n">
-        <v>86.40000000000001</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="J88" s="39" t="n">
-        <v>88.09999999999999</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K88" s="39" t="n">
-        <v>90.40000000000001</v>
+        <v>90</v>
       </c>
       <c r="L88" s="39" t="n">
-        <v>93.09999999999999</v>
+        <v>92.2</v>
       </c>
       <c r="M88" s="39" t="n">
+        <v>96.8</v>
+      </c>
+      <c r="N88" s="39" t="n">
         <v>97.40000000000001</v>
       </c>
-      <c r="N88" s="39" t="n">
-        <v>99</v>
-      </c>
       <c r="O88" s="39" t="n">
-        <v>99.59999999999999</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="P88" s="39" t="n">
-        <v>64</v>
+        <v>99.2</v>
       </c>
       <c r="Q88" s="39" t="n">
-        <v>73.5</v>
+        <v>99.2</v>
       </c>
       <c r="R88" s="39" t="n">
-        <v>73.5</v>
+        <v>99.2</v>
       </c>
       <c r="S88" s="39" t="n">
-        <v>23.7</v>
+        <v>14.3</v>
       </c>
       <c r="T88" s="39" t="n">
-        <v>14.1</v>
+        <v>4.8</v>
       </c>
       <c r="U88" s="39" t="n">
-        <v>14.1</v>
+        <v>3</v>
       </c>
       <c r="V88" s="39" t="n">
-        <v>94.5</v>
+        <v>90.3</v>
       </c>
       <c r="W88" s="39" t="n">
-        <v>97.8</v>
+        <v>95.5</v>
       </c>
       <c r="X88" s="39" t="n">
-        <v>98.09999999999999</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="Y88" s="39" t="inlineStr">
         <is>
-          <t>上证指数ETF</t>
+          <t>沪深300ETF</t>
         </is>
       </c>
     </row>
@@ -19168,82 +19168,80 @@
       <c r="A89" s="39" t="n">
         <v>87</v>
       </c>
-      <c r="B89" s="39" t="inlineStr">
-        <is>
-          <t>517160</t>
-        </is>
+      <c r="B89" s="39" t="n">
+        <v>510500</v>
       </c>
       <c r="C89" s="39" t="inlineStr">
         <is>
-          <t>长江保护主题ETF</t>
+          <t>中证500ETF</t>
         </is>
       </c>
       <c r="D89" s="39" t="n">
-        <v>13.24</v>
+        <v>1116.02</v>
       </c>
       <c r="E89" s="39" t="n">
-        <v>27.3</v>
+        <v>10.8</v>
       </c>
       <c r="F89" s="39" t="n">
-        <v>46.2</v>
+        <v>47.3</v>
       </c>
       <c r="G89" s="39" t="n">
-        <v>68.2</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="H89" s="39" t="n">
-        <v>60</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="I89" s="39" t="n">
-        <v>79.59999999999999</v>
+        <v>85.2</v>
       </c>
       <c r="J89" s="39" t="n">
-        <v>58.2</v>
+        <v>62.2</v>
       </c>
       <c r="K89" s="39" t="n">
-        <v>30.7</v>
+        <v>29</v>
       </c>
       <c r="L89" s="39" t="n">
-        <v>55.8</v>
+        <v>33.4</v>
       </c>
       <c r="M89" s="39" t="n">
-        <v>55.8</v>
+        <v>38.4</v>
       </c>
       <c r="N89" s="39" t="n">
-        <v>84.90000000000001</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="O89" s="39" t="n">
-        <v>88.59999999999999</v>
+        <v>69.5</v>
       </c>
       <c r="P89" s="39" t="n">
-        <v>97.09999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="Q89" s="39" t="n">
-        <v>64.8</v>
+        <v>37.1</v>
       </c>
       <c r="R89" s="39" t="n">
-        <v>73.59999999999999</v>
+        <v>63.5</v>
       </c>
       <c r="S89" s="39" t="n">
-        <v>82.40000000000001</v>
+        <v>26.9</v>
       </c>
       <c r="T89" s="39" t="n">
-        <v>35.3</v>
+        <v>35.5</v>
       </c>
       <c r="U89" s="39" t="n">
-        <v>58.8</v>
+        <v>79.8</v>
       </c>
       <c r="V89" s="39" t="n">
-        <v>95</v>
+        <v>96.8</v>
       </c>
       <c r="W89" s="39" t="n">
-        <v>96.3</v>
+        <v>97.2</v>
       </c>
       <c r="X89" s="39" t="n">
-        <v>98.2</v>
+        <v>97.8</v>
       </c>
       <c r="Y89" s="39" t="inlineStr">
         <is>
-          <t>长江保护主题ETF</t>
+          <t>中证500ETF</t>
         </is>
       </c>
     </row>
@@ -19252,79 +19250,79 @@
         <v>88</v>
       </c>
       <c r="B90" s="39" t="n">
-        <v>510500</v>
+        <v>516160</v>
       </c>
       <c r="C90" s="39" t="inlineStr">
         <is>
-          <t>中证500ETF</t>
+          <t>新能源ETF</t>
         </is>
       </c>
       <c r="D90" s="39" t="n">
-        <v>1119.71</v>
+        <v>45.26</v>
       </c>
       <c r="E90" s="39" t="n">
-        <v>10.8</v>
+        <v>0.5</v>
       </c>
       <c r="F90" s="39" t="n">
-        <v>47.3</v>
+        <v>5.8</v>
       </c>
       <c r="G90" s="39" t="n">
-        <v>70.09999999999999</v>
+        <v>57.4</v>
       </c>
       <c r="H90" s="39" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="I90" s="39" t="n">
+        <v>80.5</v>
+      </c>
+      <c r="J90" s="39" t="n">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="K90" s="39" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L90" s="39" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="M90" s="39" t="n">
+        <v>51.6</v>
+      </c>
+      <c r="N90" s="39" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="O90" s="39" t="n">
+        <v>61.9</v>
+      </c>
+      <c r="P90" s="39" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="Q90" s="39" t="n">
+        <v>50.1</v>
+      </c>
+      <c r="R90" s="39" t="n">
         <v>77.09999999999999</v>
       </c>
-      <c r="I90" s="39" t="n">
-        <v>85.2</v>
-      </c>
-      <c r="J90" s="39" t="n">
-        <v>62.2</v>
-      </c>
-      <c r="K90" s="39" t="n">
-        <v>29</v>
-      </c>
-      <c r="L90" s="39" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="M90" s="39" t="n">
-        <v>38.4</v>
-      </c>
-      <c r="N90" s="39" t="n">
-        <v>91.40000000000001</v>
-      </c>
-      <c r="O90" s="39" t="n">
-        <v>69.5</v>
-      </c>
-      <c r="P90" s="39" t="n">
-        <v>77.5</v>
-      </c>
-      <c r="Q90" s="39" t="n">
-        <v>37.1</v>
-      </c>
-      <c r="R90" s="39" t="n">
-        <v>63.5</v>
-      </c>
       <c r="S90" s="39" t="n">
-        <v>26.9</v>
+        <v>52.1</v>
       </c>
       <c r="T90" s="39" t="n">
-        <v>35.5</v>
+        <v>22.7</v>
       </c>
       <c r="U90" s="39" t="n">
-        <v>79.8</v>
+        <v>39.7</v>
       </c>
       <c r="V90" s="39" t="n">
-        <v>96.8</v>
+        <v>92.5</v>
       </c>
       <c r="W90" s="39" t="n">
-        <v>97.2</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="X90" s="39" t="n">
-        <v>98.40000000000001</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="Y90" s="39" t="inlineStr">
         <is>
-          <t>中证500ETF</t>
+          <t>新能源ETF</t>
         </is>
       </c>
     </row>
@@ -19332,80 +19330,82 @@
       <c r="A91" s="39" t="n">
         <v>89</v>
       </c>
-      <c r="B91" s="39" t="n">
-        <v>516160</v>
+      <c r="B91" s="39" t="inlineStr">
+        <is>
+          <t>517160</t>
+        </is>
       </c>
       <c r="C91" s="39" t="inlineStr">
         <is>
-          <t>新能源ETF</t>
+          <t>长江保护主题ETF</t>
         </is>
       </c>
       <c r="D91" s="39" t="n">
-        <v>45.49</v>
+        <v>13.24</v>
       </c>
       <c r="E91" s="39" t="n">
-        <v>0.5</v>
+        <v>27.3</v>
       </c>
       <c r="F91" s="39" t="n">
-        <v>5.8</v>
+        <v>46.2</v>
       </c>
       <c r="G91" s="39" t="n">
-        <v>57.4</v>
+        <v>68.2</v>
       </c>
       <c r="H91" s="39" t="n">
-        <v>68.5</v>
+        <v>60</v>
       </c>
       <c r="I91" s="39" t="n">
-        <v>80.5</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="J91" s="39" t="n">
-        <v>76.09999999999999</v>
+        <v>58.2</v>
       </c>
       <c r="K91" s="39" t="n">
-        <v>26.3</v>
+        <v>30.7</v>
       </c>
       <c r="L91" s="39" t="n">
-        <v>21.4</v>
+        <v>55.8</v>
       </c>
       <c r="M91" s="39" t="n">
-        <v>51.6</v>
+        <v>55.8</v>
       </c>
       <c r="N91" s="39" t="n">
-        <v>87.2</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="O91" s="39" t="n">
-        <v>61.9</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="P91" s="39" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="Q91" s="39" t="n">
+        <v>64.8</v>
+      </c>
+      <c r="R91" s="39" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="S91" s="39" t="n">
         <v>82.40000000000001</v>
       </c>
-      <c r="Q91" s="39" t="n">
-        <v>50.1</v>
-      </c>
-      <c r="R91" s="39" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="S91" s="39" t="n">
-        <v>52.1</v>
-      </c>
       <c r="T91" s="39" t="n">
-        <v>22.7</v>
+        <v>35.3</v>
       </c>
       <c r="U91" s="39" t="n">
-        <v>39.7</v>
+        <v>58.8</v>
       </c>
       <c r="V91" s="39" t="n">
-        <v>92.5</v>
+        <v>95</v>
       </c>
       <c r="W91" s="39" t="n">
-        <v>94.09999999999999</v>
+        <v>96.3</v>
       </c>
       <c r="X91" s="39" t="n">
-        <v>98.40000000000001</v>
+        <v>98.2</v>
       </c>
       <c r="Y91" s="39" t="inlineStr">
         <is>
-          <t>新能源ETF</t>
+          <t>长江保护主题ETF</t>
         </is>
       </c>
     </row>
@@ -19414,79 +19414,79 @@
         <v>90</v>
       </c>
       <c r="B92" s="39" t="n">
-        <v>513500</v>
+        <v>159915</v>
       </c>
       <c r="C92" s="39" t="inlineStr">
         <is>
-          <t>标普500ETF</t>
+          <t>创业板ETF</t>
         </is>
       </c>
       <c r="D92" s="39" t="n">
-        <v>179.66</v>
+        <v>878.48</v>
       </c>
       <c r="E92" s="39" t="n">
-        <v>39.8</v>
+        <v>17.7</v>
       </c>
       <c r="F92" s="39" t="n">
-        <v>24.8</v>
+        <v>33</v>
       </c>
       <c r="G92" s="39" t="n">
-        <v>77.2</v>
+        <v>62.5</v>
       </c>
       <c r="H92" s="39" t="n">
-        <v>55.8</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="I92" s="39" t="n">
-        <v>68</v>
+        <v>78.8</v>
       </c>
       <c r="J92" s="39" t="n">
-        <v>60.5</v>
+        <v>71.7</v>
       </c>
       <c r="K92" s="39" t="n">
-        <v>35</v>
+        <v>23.3</v>
       </c>
       <c r="L92" s="39" t="n">
-        <v>27.9</v>
+        <v>34.8</v>
       </c>
       <c r="M92" s="39" t="n">
-        <v>20.6</v>
+        <v>56.5</v>
       </c>
       <c r="N92" s="39" t="n">
-        <v>6.9</v>
+        <v>91.3</v>
       </c>
       <c r="O92" s="39" t="n">
-        <v>5.9</v>
+        <v>61.7</v>
       </c>
       <c r="P92" s="39" t="n">
-        <v>84.59999999999999</v>
+        <v>84.3</v>
       </c>
       <c r="Q92" s="39" t="n">
-        <v>65.59999999999999</v>
+        <v>49.3</v>
       </c>
       <c r="R92" s="39" t="n">
-        <v>90</v>
+        <v>73.3</v>
       </c>
       <c r="S92" s="39" t="n">
-        <v>91.5</v>
+        <v>36.3</v>
       </c>
       <c r="T92" s="39" t="n">
-        <v>76.40000000000001</v>
+        <v>29.9</v>
       </c>
       <c r="U92" s="39" t="n">
-        <v>81.09999999999999</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="V92" s="39" t="n">
-        <v>94.40000000000001</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="W92" s="39" t="n">
         <v>95.7</v>
       </c>
       <c r="X92" s="39" t="n">
-        <v>98.5</v>
+        <v>98.3</v>
       </c>
       <c r="Y92" s="39" t="inlineStr">
         <is>
-          <t>标普500ETF</t>
+          <t>创业板ETF</t>
         </is>
       </c>
     </row>
@@ -19494,80 +19494,82 @@
       <c r="A93" s="39" t="n">
         <v>91</v>
       </c>
-      <c r="B93" s="39" t="n">
-        <v>159915</v>
+      <c r="B93" s="39" t="inlineStr">
+        <is>
+          <t>159949</t>
+        </is>
       </c>
       <c r="C93" s="39" t="inlineStr">
         <is>
-          <t>创业板ETF</t>
+          <t>创业板50ETF</t>
         </is>
       </c>
       <c r="D93" s="39" t="n">
-        <v>881.5700000000001</v>
+        <v>263.25</v>
       </c>
       <c r="E93" s="39" t="n">
-        <v>17.7</v>
+        <v>11.4</v>
       </c>
       <c r="F93" s="39" t="n">
-        <v>33</v>
+        <v>22.1</v>
       </c>
       <c r="G93" s="39" t="n">
-        <v>62.5</v>
+        <v>58.2</v>
       </c>
       <c r="H93" s="39" t="n">
-        <v>77.09999999999999</v>
+        <v>75</v>
       </c>
       <c r="I93" s="39" t="n">
-        <v>78.8</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="J93" s="39" t="n">
-        <v>71.7</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="K93" s="39" t="n">
-        <v>23.3</v>
+        <v>25.6</v>
       </c>
       <c r="L93" s="39" t="n">
-        <v>34.8</v>
+        <v>34.4</v>
       </c>
       <c r="M93" s="39" t="n">
-        <v>56.5</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="N93" s="39" t="n">
-        <v>91.3</v>
+        <v>91.7</v>
       </c>
       <c r="O93" s="39" t="n">
-        <v>61.7</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="P93" s="39" t="n">
-        <v>84.3</v>
+        <v>92.2</v>
       </c>
       <c r="Q93" s="39" t="n">
-        <v>49.3</v>
+        <v>50.7</v>
       </c>
       <c r="R93" s="39" t="n">
-        <v>73.3</v>
+        <v>75.7</v>
       </c>
       <c r="S93" s="39" t="n">
-        <v>36.3</v>
+        <v>43</v>
       </c>
       <c r="T93" s="39" t="n">
-        <v>29.9</v>
+        <v>33.4</v>
       </c>
       <c r="U93" s="39" t="n">
-        <v>77.59999999999999</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="V93" s="39" t="n">
-        <v>94.09999999999999</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="W93" s="39" t="n">
-        <v>95.7</v>
+        <v>95.5</v>
       </c>
       <c r="X93" s="39" t="n">
         <v>98.5</v>
       </c>
       <c r="Y93" s="39" t="inlineStr">
         <is>
-          <t>创业板ETF</t>
+          <t>创业板50ETF</t>
         </is>
       </c>
     </row>
@@ -19575,82 +19577,80 @@
       <c r="A94" s="39" t="n">
         <v>92</v>
       </c>
-      <c r="B94" s="39" t="inlineStr">
-        <is>
-          <t>159949</t>
-        </is>
+      <c r="B94" s="39" t="n">
+        <v>513500</v>
       </c>
       <c r="C94" s="39" t="inlineStr">
         <is>
-          <t>创业板50ETF</t>
+          <t>标普500ETF</t>
         </is>
       </c>
       <c r="D94" s="39" t="n">
-        <v>264.43</v>
+        <v>179.66</v>
       </c>
       <c r="E94" s="39" t="n">
-        <v>11.4</v>
+        <v>39.8</v>
       </c>
       <c r="F94" s="39" t="n">
-        <v>22.1</v>
+        <v>24.8</v>
       </c>
       <c r="G94" s="39" t="n">
-        <v>58.2</v>
+        <v>77.2</v>
       </c>
       <c r="H94" s="39" t="n">
-        <v>75</v>
+        <v>55.8</v>
       </c>
       <c r="I94" s="39" t="n">
-        <v>78.90000000000001</v>
+        <v>68</v>
       </c>
       <c r="J94" s="39" t="n">
-        <v>78.90000000000001</v>
+        <v>60.5</v>
       </c>
       <c r="K94" s="39" t="n">
-        <v>25.6</v>
+        <v>35</v>
       </c>
       <c r="L94" s="39" t="n">
-        <v>34.4</v>
+        <v>27.9</v>
       </c>
       <c r="M94" s="39" t="n">
-        <v>70.09999999999999</v>
+        <v>20.6</v>
       </c>
       <c r="N94" s="39" t="n">
-        <v>91.7</v>
+        <v>6.9</v>
       </c>
       <c r="O94" s="39" t="n">
-        <v>73.90000000000001</v>
+        <v>5.9</v>
       </c>
       <c r="P94" s="39" t="n">
-        <v>92.2</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="Q94" s="39" t="n">
-        <v>50.7</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="R94" s="39" t="n">
-        <v>75.7</v>
+        <v>90</v>
       </c>
       <c r="S94" s="39" t="n">
-        <v>43</v>
+        <v>91.5</v>
       </c>
       <c r="T94" s="39" t="n">
-        <v>33.4</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="U94" s="39" t="n">
-        <v>76.09999999999999</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="V94" s="39" t="n">
-        <v>93.59999999999999</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="W94" s="39" t="n">
-        <v>95.5</v>
+        <v>95.7</v>
       </c>
       <c r="X94" s="39" t="n">
-        <v>98.7</v>
+        <v>98.5</v>
       </c>
       <c r="Y94" s="39" t="inlineStr">
         <is>
-          <t>创业板50ETF</t>
+          <t>标普500ETF</t>
         </is>
       </c>
     </row>
@@ -19659,79 +19659,79 @@
         <v>93</v>
       </c>
       <c r="B95" s="39" t="n">
-        <v>512660</v>
+        <v>515790</v>
       </c>
       <c r="C95" s="39" t="inlineStr">
         <is>
-          <t>军工ETF</t>
+          <t>光伏ETF</t>
         </is>
       </c>
       <c r="D95" s="39" t="n">
-        <v>139.24</v>
+        <v>91.03</v>
       </c>
       <c r="E95" s="39" t="n">
-        <v>28.6</v>
+        <v>1.2</v>
       </c>
       <c r="F95" s="39" t="n">
-        <v>71.8</v>
+        <v>17.1</v>
       </c>
       <c r="G95" s="39" t="n">
-        <v>77.40000000000001</v>
+        <v>60.5</v>
       </c>
       <c r="H95" s="39" t="n">
-        <v>83.90000000000001</v>
+        <v>64.8</v>
       </c>
       <c r="I95" s="39" t="n">
-        <v>85.40000000000001</v>
+        <v>75.5</v>
       </c>
       <c r="J95" s="39" t="n">
-        <v>31.7</v>
+        <v>51.8</v>
       </c>
       <c r="K95" s="39" t="n">
-        <v>23.5</v>
+        <v>23</v>
       </c>
       <c r="L95" s="39" t="n">
-        <v>30.6</v>
+        <v>19.4</v>
       </c>
       <c r="M95" s="39" t="n">
-        <v>14.4</v>
+        <v>11.9</v>
       </c>
       <c r="N95" s="39" t="n">
-        <v>78.59999999999999</v>
+        <v>59.1</v>
       </c>
       <c r="O95" s="39" t="n">
-        <v>51.4</v>
+        <v>34.5</v>
       </c>
       <c r="P95" s="39" t="n">
-        <v>46.1</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="Q95" s="39" t="n">
-        <v>15</v>
+        <v>19.7</v>
       </c>
       <c r="R95" s="39" t="n">
-        <v>39.5</v>
+        <v>56</v>
       </c>
       <c r="S95" s="39" t="n">
-        <v>16.8</v>
+        <v>56</v>
       </c>
       <c r="T95" s="39" t="n">
-        <v>16.8</v>
+        <v>29.4</v>
       </c>
       <c r="U95" s="39" t="n">
-        <v>74.8</v>
+        <v>52.1</v>
       </c>
       <c r="V95" s="39" t="n">
-        <v>94</v>
+        <v>95.8</v>
       </c>
       <c r="W95" s="39" t="n">
+        <v>95.8</v>
+      </c>
+      <c r="X95" s="39" t="n">
         <v>98.7</v>
       </c>
-      <c r="X95" s="39" t="n">
-        <v>98.8</v>
-      </c>
       <c r="Y95" s="39" t="inlineStr">
         <is>
-          <t>军工ETF</t>
+          <t>光伏ETF</t>
         </is>
       </c>
     </row>
@@ -19740,79 +19740,79 @@
         <v>94</v>
       </c>
       <c r="B96" s="39" t="n">
-        <v>159941</v>
+        <v>512660</v>
       </c>
       <c r="C96" s="39" t="inlineStr">
         <is>
-          <t>纳指ETF</t>
+          <t>军工ETF</t>
         </is>
       </c>
       <c r="D96" s="39" t="n">
-        <v>243.11</v>
+        <v>139.24</v>
       </c>
       <c r="E96" s="39" t="n">
-        <v>37.8</v>
+        <v>28.6</v>
       </c>
       <c r="F96" s="39" t="n">
-        <v>34.3</v>
+        <v>71.8</v>
       </c>
       <c r="G96" s="39" t="n">
-        <v>85</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="H96" s="39" t="n">
-        <v>70.59999999999999</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="I96" s="39" t="n">
-        <v>78.90000000000001</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="J96" s="39" t="n">
-        <v>49.1</v>
+        <v>31.7</v>
       </c>
       <c r="K96" s="39" t="n">
-        <v>22.3</v>
+        <v>23.5</v>
       </c>
       <c r="L96" s="39" t="n">
-        <v>48.2</v>
+        <v>30.6</v>
       </c>
       <c r="M96" s="39" t="n">
-        <v>31.2</v>
+        <v>14.4</v>
       </c>
       <c r="N96" s="39" t="n">
-        <v>21.2</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="O96" s="39" t="n">
-        <v>19.2</v>
+        <v>51.4</v>
       </c>
       <c r="P96" s="39" t="n">
-        <v>89.59999999999999</v>
+        <v>46.1</v>
       </c>
       <c r="Q96" s="39" t="n">
-        <v>52.8</v>
+        <v>15</v>
       </c>
       <c r="R96" s="39" t="n">
-        <v>83.2</v>
+        <v>39.5</v>
       </c>
       <c r="S96" s="39" t="n">
-        <v>85.59999999999999</v>
+        <v>16.8</v>
       </c>
       <c r="T96" s="39" t="n">
-        <v>79.90000000000001</v>
+        <v>16.8</v>
       </c>
       <c r="U96" s="39" t="n">
-        <v>82.3</v>
+        <v>74.8</v>
       </c>
       <c r="V96" s="39" t="n">
-        <v>93.3</v>
+        <v>94</v>
       </c>
       <c r="W96" s="39" t="n">
-        <v>95.59999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="X96" s="39" t="n">
         <v>98.8</v>
       </c>
       <c r="Y96" s="39" t="inlineStr">
         <is>
-          <t>纳指ETF</t>
+          <t>军工ETF</t>
         </is>
       </c>
     </row>
@@ -19821,79 +19821,79 @@
         <v>95</v>
       </c>
       <c r="B97" s="39" t="n">
-        <v>515790</v>
+        <v>159941</v>
       </c>
       <c r="C97" s="39" t="inlineStr">
         <is>
-          <t>光伏ETF</t>
+          <t>纳指ETF</t>
         </is>
       </c>
       <c r="D97" s="39" t="n">
-        <v>91.3</v>
+        <v>243.11</v>
       </c>
       <c r="E97" s="39" t="n">
-        <v>1.2</v>
+        <v>37.8</v>
       </c>
       <c r="F97" s="39" t="n">
-        <v>17.1</v>
+        <v>34.3</v>
       </c>
       <c r="G97" s="39" t="n">
-        <v>60.5</v>
+        <v>85</v>
       </c>
       <c r="H97" s="39" t="n">
-        <v>64.8</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="I97" s="39" t="n">
-        <v>75.5</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="J97" s="39" t="n">
-        <v>51.8</v>
+        <v>49.1</v>
       </c>
       <c r="K97" s="39" t="n">
-        <v>23</v>
+        <v>22.3</v>
       </c>
       <c r="L97" s="39" t="n">
-        <v>19.4</v>
+        <v>48.2</v>
       </c>
       <c r="M97" s="39" t="n">
-        <v>11.9</v>
+        <v>31.2</v>
       </c>
       <c r="N97" s="39" t="n">
-        <v>59.1</v>
+        <v>21.2</v>
       </c>
       <c r="O97" s="39" t="n">
-        <v>34.5</v>
+        <v>19.2</v>
       </c>
       <c r="P97" s="39" t="n">
-        <v>70.90000000000001</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="Q97" s="39" t="n">
-        <v>19.7</v>
+        <v>52.8</v>
       </c>
       <c r="R97" s="39" t="n">
-        <v>56</v>
+        <v>83.2</v>
       </c>
       <c r="S97" s="39" t="n">
-        <v>56</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="T97" s="39" t="n">
-        <v>29.4</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="U97" s="39" t="n">
-        <v>52.1</v>
+        <v>82.3</v>
       </c>
       <c r="V97" s="39" t="n">
-        <v>95.8</v>
+        <v>93.3</v>
       </c>
       <c r="W97" s="39" t="n">
-        <v>95.8</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="X97" s="39" t="n">
-        <v>98.90000000000001</v>
+        <v>98.8</v>
       </c>
       <c r="Y97" s="39" t="inlineStr">
         <is>
-          <t>光伏ETF</t>
+          <t>纳指ETF</t>
         </is>
       </c>
     </row>
@@ -19910,7 +19910,7 @@
         </is>
       </c>
       <c r="D98" s="39" t="n">
-        <v>2.91</v>
+        <v>2.9</v>
       </c>
       <c r="E98" s="39" t="n">
         <v>0.4</v>
@@ -19970,7 +19970,7 @@
         <v>98.8</v>
       </c>
       <c r="X98" s="39" t="n">
-        <v>99</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="Y98" s="39" t="inlineStr">
         <is>
@@ -20074,7 +20074,7 @@
         </is>
       </c>
       <c r="D100" s="39" t="n">
-        <v>15.23</v>
+        <v>15.21</v>
       </c>
       <c r="E100" s="39" t="n">
         <v>1</v>
@@ -20134,7 +20134,7 @@
         <v>98.7</v>
       </c>
       <c r="X100" s="39" t="n">
-        <v>99.40000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="Y100" s="39" t="inlineStr">
         <is>

--- a/fund_list.xlsx
+++ b/fund_list.xlsx
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="D2" s="39" t="n">
-        <v>3467.46</v>
+        <v>4127.5</v>
       </c>
       <c r="E2" s="41" t="n">
         <v>1.31</v>
@@ -1602,7 +1602,7 @@
         <v>0.28</v>
       </c>
       <c r="X2" s="42" t="n">
-        <v>-0.1</v>
+        <v>-0.24</v>
       </c>
       <c r="Y2" s="39" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         </is>
       </c>
       <c r="D3" s="39" t="n">
-        <v>173.88</v>
+        <v>209.87</v>
       </c>
       <c r="E3" s="41" t="n">
         <v>4.31</v>
@@ -1685,7 +1685,7 @@
         <v>-0.36</v>
       </c>
       <c r="X3" s="40" t="n">
-        <v>-1.41</v>
+        <v>-1.82</v>
       </c>
       <c r="Y3" s="39" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="D4" s="39" t="n">
-        <v>5447.64</v>
+        <v>6446.9</v>
       </c>
       <c r="E4" s="40" t="n">
         <v>1.22</v>
@@ -1768,7 +1768,7 @@
         <v>0.93</v>
       </c>
       <c r="X4" s="41" t="n">
-        <v>-0.5600000000000001</v>
+        <v>-0.61</v>
       </c>
       <c r="Y4" s="39" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         </is>
       </c>
       <c r="D5" s="39" t="n">
-        <v>2543.06</v>
+        <v>2976.07</v>
       </c>
       <c r="E5" s="40" t="n">
         <v>0.98</v>
@@ -1851,7 +1851,7 @@
         <v>1.65</v>
       </c>
       <c r="X5" s="42" t="n">
-        <v>-0.71</v>
+        <v>-0.7</v>
       </c>
       <c r="Y5" s="39" t="inlineStr">
         <is>
@@ -1874,7 +1874,7 @@
         </is>
       </c>
       <c r="D6" s="39" t="n">
-        <v>442.86</v>
+        <v>538.6900000000001</v>
       </c>
       <c r="E6" s="41" t="n">
         <v>0.88</v>
@@ -1933,8 +1933,8 @@
       <c r="W6" s="42" t="n">
         <v>0.33</v>
       </c>
-      <c r="X6" s="44" t="n">
-        <v>0.33</v>
+      <c r="X6" s="42" t="n">
+        <v>0.26</v>
       </c>
       <c r="Y6" s="39" t="inlineStr">
         <is>
@@ -1957,7 +1957,7 @@
         </is>
       </c>
       <c r="D7" s="39" t="n">
-        <v>1571.87</v>
+        <v>1912.61</v>
       </c>
       <c r="E7" s="41" t="n">
         <v>0.99</v>
@@ -2017,7 +2017,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="X7" s="42" t="n">
-        <v>-0.06</v>
+        <v>-0.11</v>
       </c>
       <c r="Y7" s="39" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         </is>
       </c>
       <c r="D8" s="39" t="n">
-        <v>1355.41</v>
+        <v>1591.11</v>
       </c>
       <c r="E8" s="41" t="n">
         <v>2.12</v>
@@ -2100,7 +2100,7 @@
         <v>0.41</v>
       </c>
       <c r="X8" s="41" t="n">
-        <v>-0.6</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="Y8" s="39" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         </is>
       </c>
       <c r="D9" s="39" t="n">
-        <v>2927.77</v>
+        <v>3504.21</v>
       </c>
       <c r="E9" s="41" t="n">
         <v>1.28</v>
@@ -2183,7 +2183,7 @@
         <v>0.52</v>
       </c>
       <c r="X9" s="42" t="n">
-        <v>-0.2</v>
+        <v>-0.29</v>
       </c>
       <c r="Y9" s="39" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         </is>
       </c>
       <c r="D10" s="39" t="n">
-        <v>1834.92</v>
+        <v>2154.28</v>
       </c>
       <c r="E10" s="41" t="n">
         <v>2.21</v>
@@ -2266,7 +2266,7 @@
         <v>0.76</v>
       </c>
       <c r="X10" s="41" t="n">
-        <v>-0.98</v>
+        <v>-1.16</v>
       </c>
       <c r="Y10" s="39" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         </is>
       </c>
       <c r="D12" s="39" t="n">
-        <v>8.83</v>
+        <v>8.85</v>
       </c>
       <c r="E12" s="40" t="n">
         <v>-2.22</v>
@@ -2432,7 +2432,7 @@
         <v>-0.55</v>
       </c>
       <c r="X12" s="41" t="n">
-        <v>0.43</v>
+        <v>0.61</v>
       </c>
       <c r="Y12" s="39" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         </is>
       </c>
       <c r="D13" s="39" t="n">
-        <v>13.62</v>
+        <v>13.66</v>
       </c>
       <c r="E13" s="40" t="n">
         <v>-2.43</v>
@@ -2514,8 +2514,8 @@
       <c r="W13" s="41" t="n">
         <v>0.22</v>
       </c>
-      <c r="X13" s="48" t="n">
-        <v>1.03</v>
+      <c r="X13" s="44" t="n">
+        <v>1.35</v>
       </c>
       <c r="Y13" s="39" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
         </is>
       </c>
       <c r="D14" s="39" t="n">
-        <v>243.78</v>
+        <v>244.22</v>
       </c>
       <c r="E14" s="40" t="n">
         <v>-0.5</v>
@@ -2597,8 +2597,8 @@
       <c r="W14" s="44" t="n">
         <v>1.36</v>
       </c>
-      <c r="X14" s="41" t="n">
-        <v>-0.09</v>
+      <c r="X14" s="48" t="n">
+        <v>0</v>
       </c>
       <c r="Y14" s="39" t="inlineStr">
         <is>
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="D15" s="39" t="n">
-        <v>22.21</v>
+        <v>22.27</v>
       </c>
       <c r="E15" s="40" t="n">
         <v>-0.79</v>
@@ -2681,7 +2681,7 @@
         <v>0.27</v>
       </c>
       <c r="X15" s="40" t="n">
-        <v>-1.87</v>
+        <v>-1.67</v>
       </c>
       <c r="Y15" s="39" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="X16" s="48" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="Y16" s="39" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
         </is>
       </c>
       <c r="D17" s="39" t="n">
-        <v>12.02</v>
+        <v>12.03</v>
       </c>
       <c r="E17" s="40" t="n">
         <v>-4.42</v>
@@ -2847,7 +2847,7 @@
         <v>0.19</v>
       </c>
       <c r="X17" s="40" t="n">
-        <v>-0.66</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="Y17" s="39" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="D18" s="39" t="n">
-        <v>355.32</v>
+        <v>355.06</v>
       </c>
       <c r="E18" s="40" t="n">
         <v>0.4</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="X18" s="41" t="n">
-        <v>-0.22</v>
+        <v>-0.14</v>
       </c>
       <c r="Y18" s="39" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         </is>
       </c>
       <c r="D19" s="39" t="n">
-        <v>90.89</v>
+        <v>91.01000000000001</v>
       </c>
       <c r="E19" s="40" t="n">
         <v>-0.48</v>
@@ -3013,7 +3013,7 @@
         <v>1.48</v>
       </c>
       <c r="X19" s="41" t="n">
-        <v>-0.42</v>
+        <v>-0.28</v>
       </c>
       <c r="Y19" s="39" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
         </is>
       </c>
       <c r="D20" s="39" t="n">
-        <v>747.83</v>
+        <v>747.84</v>
       </c>
       <c r="E20" s="41" t="n">
         <v>0</v>
@@ -3119,7 +3119,7 @@
         </is>
       </c>
       <c r="D21" s="39" t="n">
-        <v>608.51</v>
+        <v>609.89</v>
       </c>
       <c r="E21" s="41" t="n">
         <v>1.26</v>
@@ -3179,7 +3179,7 @@
         <v>-1.49</v>
       </c>
       <c r="X21" s="40" t="n">
-        <v>-0.67</v>
+        <v>-0.46</v>
       </c>
       <c r="Y21" s="39" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D23" s="39" t="n">
-        <v>3797</v>
+        <v>3795.08</v>
       </c>
       <c r="E23" s="41" t="n">
         <v>0.97</v>
@@ -3345,7 +3345,7 @@
         <v>0.59</v>
       </c>
       <c r="X23" s="42" t="n">
-        <v>-0.08</v>
+        <v>-0.13</v>
       </c>
       <c r="Y23" s="39" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         </is>
       </c>
       <c r="D24" s="39" t="n">
-        <v>1657.38</v>
+        <v>1656.18</v>
       </c>
       <c r="E24" s="41" t="n">
         <v>0.76</v>
@@ -3428,7 +3428,7 @@
         <v>0.4</v>
       </c>
       <c r="X24" s="42" t="n">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="Y24" s="39" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         </is>
       </c>
       <c r="D25" s="39" t="n">
-        <v>47.52</v>
+        <v>47.46</v>
       </c>
       <c r="E25" s="40" t="n">
         <v>0.92</v>
@@ -3510,8 +3510,8 @@
       <c r="W25" s="44" t="n">
         <v>0</v>
       </c>
-      <c r="X25" s="44" t="n">
-        <v>0.12</v>
+      <c r="X25" s="41" t="n">
+        <v>-0.12</v>
       </c>
       <c r="Y25" s="39" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
         </is>
       </c>
       <c r="D28" s="39" t="n">
-        <v>648.14</v>
+        <v>647.08</v>
       </c>
       <c r="E28" s="40" t="n">
         <v>1.76</v>
@@ -3760,7 +3760,7 @@
         <v>0.9</v>
       </c>
       <c r="X28" s="41" t="n">
-        <v>-1.01</v>
+        <v>-1.22</v>
       </c>
       <c r="Y28" s="39" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         </is>
       </c>
       <c r="D29" s="39" t="n">
-        <v>1112.33</v>
+        <v>1110.97</v>
       </c>
       <c r="E29" s="41" t="n">
         <v>2.16</v>
@@ -3843,7 +3843,7 @@
         <v>0.42</v>
       </c>
       <c r="X29" s="41" t="n">
-        <v>-0.66</v>
+        <v>-0.78</v>
       </c>
       <c r="Y29" s="39" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         </is>
       </c>
       <c r="D30" s="39" t="n">
-        <v>781.28</v>
+        <v>778.33</v>
       </c>
       <c r="E30" s="41" t="n">
         <v>4.26</v>
@@ -3926,7 +3926,7 @@
         <v>-0.37</v>
       </c>
       <c r="X30" s="40" t="n">
-        <v>-1.49</v>
+        <v>-1.76</v>
       </c>
       <c r="Y30" s="39" t="inlineStr">
         <is>
@@ -3949,7 +3949,7 @@
         </is>
       </c>
       <c r="D31" s="39" t="n">
-        <v>857.59</v>
+        <v>858.45</v>
       </c>
       <c r="E31" s="40" t="n">
         <v>1.05</v>
@@ -4009,7 +4009,7 @@
         <v>1.73</v>
       </c>
       <c r="X31" s="42" t="n">
-        <v>-0.8</v>
+        <v>-0.7</v>
       </c>
       <c r="Y31" s="39" t="inlineStr">
         <is>
@@ -4032,7 +4032,7 @@
         </is>
       </c>
       <c r="D32" s="39" t="n">
-        <v>259.29</v>
+        <v>259</v>
       </c>
       <c r="E32" s="40" t="n">
         <v>0.63</v>
@@ -4092,7 +4092,7 @@
         <v>2.28</v>
       </c>
       <c r="X32" s="42" t="n">
-        <v>-0.78</v>
+        <v>-0.67</v>
       </c>
       <c r="Y32" s="39" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         </is>
       </c>
       <c r="D33" s="39" t="n">
-        <v>55.26</v>
+        <v>55.13</v>
       </c>
       <c r="E33" s="41" t="n">
         <v>2.13</v>
@@ -4175,7 +4175,7 @@
         <v>0.54</v>
       </c>
       <c r="X33" s="42" t="n">
-        <v>-0.46</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="Y33" s="39" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         </is>
       </c>
       <c r="D34" s="39" t="n">
-        <v>33.05</v>
+        <v>33</v>
       </c>
       <c r="E34" s="41" t="n">
         <v>1.44</v>
@@ -4258,7 +4258,7 @@
         <v>0.63</v>
       </c>
       <c r="X34" s="42" t="n">
-        <v>-0.49</v>
+        <v>-0.63</v>
       </c>
       <c r="Y34" s="39" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         <v>0</v>
       </c>
       <c r="X35" s="42" t="n">
-        <v>0.14</v>
+        <v>0.21</v>
       </c>
       <c r="Y35" s="39" t="inlineStr">
         <is>
@@ -4364,7 +4364,7 @@
         </is>
       </c>
       <c r="D36" s="39" t="n">
-        <v>249.29</v>
+        <v>248.31</v>
       </c>
       <c r="E36" s="41" t="n">
         <v>5.09</v>
@@ -4424,7 +4424,7 @@
         <v>-0.6899999999999999</v>
       </c>
       <c r="X36" s="40" t="n">
-        <v>-2.35</v>
+        <v>-2.66</v>
       </c>
       <c r="Y36" s="39" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         </is>
       </c>
       <c r="D37" s="39" t="n">
-        <v>210.06</v>
+        <v>209.85</v>
       </c>
       <c r="E37" s="41" t="n">
         <v>4.97</v>
@@ -4507,7 +4507,7 @@
         <v>-0.37</v>
       </c>
       <c r="X37" s="40" t="n">
-        <v>-2.06</v>
+        <v>-2.25</v>
       </c>
       <c r="Y37" s="39" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         </is>
       </c>
       <c r="D38" s="39" t="n">
-        <v>239.03</v>
+        <v>238.45</v>
       </c>
       <c r="E38" s="41" t="n">
         <v>5.31</v>
@@ -4590,7 +4590,7 @@
         <v>-0.63</v>
       </c>
       <c r="X38" s="40" t="n">
-        <v>-1.74</v>
+        <v>-1.9</v>
       </c>
       <c r="Y38" s="39" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         </is>
       </c>
       <c r="D39" s="39" t="n">
-        <v>283.42</v>
+        <v>282.87</v>
       </c>
       <c r="E39" s="41" t="n">
         <v>2.11</v>
@@ -4673,7 +4673,7 @@
         <v>0.38</v>
       </c>
       <c r="X39" s="41" t="n">
-        <v>-1.04</v>
+        <v>-1.23</v>
       </c>
       <c r="Y39" s="39" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="D40" s="39" t="n">
-        <v>64.77</v>
+        <v>64.68000000000001</v>
       </c>
       <c r="E40" s="41" t="n">
         <v>1.42</v>
@@ -4756,7 +4756,7 @@
         <v>0.67</v>
       </c>
       <c r="X40" s="41" t="n">
-        <v>-0.66</v>
+        <v>-0.8</v>
       </c>
       <c r="Y40" s="39" t="inlineStr">
         <is>
@@ -4779,7 +4779,7 @@
         </is>
       </c>
       <c r="D41" s="39" t="n">
-        <v>46.84</v>
+        <v>46.73</v>
       </c>
       <c r="E41" s="40" t="n">
         <v>-0.24</v>
@@ -4838,8 +4838,8 @@
       <c r="W41" s="42" t="n">
         <v>1.23</v>
       </c>
-      <c r="X41" s="44" t="n">
-        <v>0.83</v>
+      <c r="X41" s="42" t="n">
+        <v>0.61</v>
       </c>
       <c r="Y41" s="39" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         </is>
       </c>
       <c r="D42" s="39" t="n">
-        <v>78.04000000000001</v>
+        <v>78.09</v>
       </c>
       <c r="E42" s="40" t="n">
         <v>-0.88</v>
@@ -4945,7 +4945,7 @@
         </is>
       </c>
       <c r="D43" s="39" t="n">
-        <v>113.9</v>
+        <v>113.59</v>
       </c>
       <c r="E43" s="40" t="n">
         <v>-1.01</v>
@@ -5005,7 +5005,7 @@
         <v>0</v>
       </c>
       <c r="X43" s="41" t="n">
-        <v>0.55</v>
+        <v>0.27</v>
       </c>
       <c r="Y43" s="39" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         </is>
       </c>
       <c r="D44" s="39" t="n">
-        <v>16.42</v>
+        <v>16.39</v>
       </c>
       <c r="E44" s="40" t="n">
         <v>0.89</v>
@@ -5277,7 +5277,7 @@
         </is>
       </c>
       <c r="D47" s="39" t="n">
-        <v>223</v>
+        <v>222.38</v>
       </c>
       <c r="E47" s="40" t="n">
         <v>-0.29</v>
@@ -5337,7 +5337,7 @@
         <v>0</v>
       </c>
       <c r="X47" s="44" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.28</v>
       </c>
       <c r="Y47" s="39" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         </is>
       </c>
       <c r="D48" s="39" t="n">
-        <v>21.57</v>
+        <v>21.54</v>
       </c>
       <c r="E48" s="42" t="n">
         <v>-0.5600000000000001</v>
@@ -5420,7 +5420,7 @@
         <v>-0.43</v>
       </c>
       <c r="X48" s="40" t="n">
-        <v>-0.44</v>
+        <v>-0.58</v>
       </c>
       <c r="Y48" s="39" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         </is>
       </c>
       <c r="D49" s="39" t="n">
-        <v>32.2</v>
+        <v>32.09</v>
       </c>
       <c r="E49" s="42" t="n">
         <v>-0.33</v>
@@ -5503,7 +5503,7 @@
         <v>-0.17</v>
       </c>
       <c r="X49" s="41" t="n">
-        <v>-0.17</v>
+        <v>-0.34</v>
       </c>
       <c r="Y49" s="39" t="inlineStr">
         <is>
@@ -5526,7 +5526,7 @@
         </is>
       </c>
       <c r="D50" s="39" t="n">
-        <v>4.41</v>
+        <v>4.42</v>
       </c>
       <c r="E50" s="40" t="n">
         <v>0.95</v>
@@ -5586,7 +5586,7 @@
         <v>0.16</v>
       </c>
       <c r="X50" s="41" t="n">
-        <v>-0.39</v>
+        <v>-0.16</v>
       </c>
       <c r="Y50" s="39" t="inlineStr">
         <is>
@@ -5609,7 +5609,7 @@
         </is>
       </c>
       <c r="D51" s="39" t="n">
-        <v>140.93</v>
+        <v>140.13</v>
       </c>
       <c r="E51" s="41" t="n">
         <v>5.6</v>
@@ -5669,7 +5669,7 @@
         <v>2</v>
       </c>
       <c r="X51" s="42" t="n">
-        <v>-1.59</v>
+        <v>-2.05</v>
       </c>
       <c r="Y51" s="39" t="inlineStr">
         <is>
@@ -5692,7 +5692,7 @@
         </is>
       </c>
       <c r="D52" s="39" t="n">
-        <v>5.22</v>
+        <v>5.21</v>
       </c>
       <c r="E52" s="40" t="n">
         <v>1.65</v>
@@ -5752,7 +5752,7 @@
         <v>1.07</v>
       </c>
       <c r="X52" s="41" t="n">
-        <v>-0.71</v>
+        <v>-0.8</v>
       </c>
       <c r="Y52" s="39" t="inlineStr">
         <is>
@@ -5858,7 +5858,7 @@
         </is>
       </c>
       <c r="D54" s="39" t="n">
-        <v>35.75</v>
+        <v>35.72</v>
       </c>
       <c r="E54" s="41" t="n">
         <v>3.45</v>
@@ -5918,7 +5918,7 @@
         <v>1.31</v>
       </c>
       <c r="X54" s="41" t="n">
-        <v>-1.39</v>
+        <v>-1.59</v>
       </c>
       <c r="Y54" s="39" t="inlineStr">
         <is>
@@ -5941,7 +5941,7 @@
         </is>
       </c>
       <c r="D55" s="39" t="n">
-        <v>2.91</v>
+        <v>2.9</v>
       </c>
       <c r="E55" s="41" t="n">
         <v>3.14</v>
@@ -6001,7 +6001,7 @@
         <v>0.26</v>
       </c>
       <c r="X55" s="41" t="n">
-        <v>-1.31</v>
+        <v>-1.58</v>
       </c>
       <c r="Y55" s="39" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         </is>
       </c>
       <c r="D56" s="39" t="n">
-        <v>51.95</v>
+        <v>51.87</v>
       </c>
       <c r="E56" s="41" t="n">
         <v>3.55</v>
@@ -6084,7 +6084,7 @@
         <v>1.01</v>
       </c>
       <c r="X56" s="41" t="n">
-        <v>-1.25</v>
+        <v>-1.33</v>
       </c>
       <c r="Y56" s="39" t="inlineStr">
         <is>
@@ -6107,7 +6107,7 @@
         </is>
       </c>
       <c r="D57" s="39" t="n">
-        <v>139.85</v>
+        <v>139.69</v>
       </c>
       <c r="E57" s="40" t="n">
         <v>2.66</v>
@@ -6167,7 +6167,7 @@
         <v>0.91</v>
       </c>
       <c r="X57" s="41" t="n">
-        <v>-1.47</v>
+        <v>-1.58</v>
       </c>
       <c r="Y57" s="39" t="inlineStr">
         <is>
@@ -6190,7 +6190,7 @@
         </is>
       </c>
       <c r="D58" s="39" t="n">
-        <v>30.39</v>
+        <v>30.32</v>
       </c>
       <c r="E58" s="41" t="n">
         <v>4.03</v>
@@ -6250,7 +6250,7 @@
         <v>0.45</v>
       </c>
       <c r="X58" s="41" t="n">
-        <v>-1.22</v>
+        <v>-1.44</v>
       </c>
       <c r="Y58" s="39" t="inlineStr">
         <is>
@@ -6273,7 +6273,7 @@
         </is>
       </c>
       <c r="D59" s="39" t="n">
-        <v>7.5</v>
+        <v>7.49</v>
       </c>
       <c r="E59" s="41" t="n">
         <v>3.79</v>
@@ -6332,8 +6332,8 @@
       <c r="W59" s="42" t="n">
         <v>-0.26</v>
       </c>
-      <c r="X59" s="41" t="n">
-        <v>-1.41</v>
+      <c r="X59" s="40" t="n">
+        <v>-1.54</v>
       </c>
       <c r="Y59" s="39" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         </is>
       </c>
       <c r="D60" s="39" t="n">
-        <v>16.83</v>
+        <v>16.81</v>
       </c>
       <c r="E60" s="40" t="n">
         <v>1.88</v>
@@ -6416,7 +6416,7 @@
         <v>1.03</v>
       </c>
       <c r="X60" s="41" t="n">
-        <v>-1.27</v>
+        <v>-1.52</v>
       </c>
       <c r="Y60" s="39" t="inlineStr">
         <is>
@@ -6522,7 +6522,7 @@
         </is>
       </c>
       <c r="D62" s="39" t="n">
-        <v>62.37</v>
+        <v>62.25</v>
       </c>
       <c r="E62" s="40" t="n">
         <v>1.33</v>
@@ -6582,7 +6582,7 @@
         <v>3.13</v>
       </c>
       <c r="X62" s="41" t="n">
-        <v>-1.52</v>
+        <v>-1.8</v>
       </c>
       <c r="Y62" s="39" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         </is>
       </c>
       <c r="D64" s="39" t="n">
-        <v>13.93</v>
+        <v>13.86</v>
       </c>
       <c r="E64" s="41" t="n">
         <v>3.63</v>
@@ -6748,7 +6748,7 @@
         <v>0.48</v>
       </c>
       <c r="X64" s="41" t="n">
-        <v>-1.45</v>
+        <v>-1.69</v>
       </c>
       <c r="Y64" s="39" t="inlineStr">
         <is>
@@ -6854,7 +6854,7 @@
         </is>
       </c>
       <c r="D66" s="39" t="n">
-        <v>64.3</v>
+        <v>64.16</v>
       </c>
       <c r="E66" s="41" t="n">
         <v>5</v>
@@ -6914,7 +6914,7 @@
         <v>-0.14</v>
       </c>
       <c r="X66" s="40" t="n">
-        <v>-1.66</v>
+        <v>-1.81</v>
       </c>
       <c r="Y66" s="39" t="inlineStr">
         <is>
@@ -6937,7 +6937,7 @@
         </is>
       </c>
       <c r="D67" s="39" t="n">
-        <v>14.27</v>
+        <v>14.24</v>
       </c>
       <c r="E67" s="40" t="n">
         <v>0.19</v>
@@ -6997,7 +6997,7 @@
         <v>-0.35</v>
       </c>
       <c r="X67" s="41" t="n">
-        <v>-0.53</v>
+        <v>-0.71</v>
       </c>
       <c r="Y67" s="39" t="inlineStr">
         <is>
@@ -7080,7 +7080,7 @@
         <v>0.9</v>
       </c>
       <c r="X68" s="44" t="n">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Y68" s="39" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         </is>
       </c>
       <c r="D69" s="39" t="n">
-        <v>149.45</v>
+        <v>149.26</v>
       </c>
       <c r="E69" s="42" t="n">
         <v>1.45</v>
@@ -7162,8 +7162,8 @@
       <c r="W69" s="42" t="n">
         <v>0.24</v>
       </c>
-      <c r="X69" s="44" t="n">
-        <v>0.36</v>
+      <c r="X69" s="42" t="n">
+        <v>0.12</v>
       </c>
       <c r="Y69" s="39" t="inlineStr">
         <is>
@@ -7245,8 +7245,8 @@
       <c r="W70" s="41" t="n">
         <v>0.5</v>
       </c>
-      <c r="X70" s="41" t="n">
-        <v>0.17</v>
+      <c r="X70" s="42" t="n">
+        <v>0.33</v>
       </c>
       <c r="Y70" s="39" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         </is>
       </c>
       <c r="D71" s="39" t="n">
-        <v>31.89</v>
+        <v>31.91</v>
       </c>
       <c r="E71" s="41" t="n">
         <v>0.82</v>
@@ -7329,7 +7329,7 @@
         <v>0.24</v>
       </c>
       <c r="X71" s="44" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="Y71" s="39" t="inlineStr">
         <is>
@@ -7412,7 +7412,7 @@
         <v>0</v>
       </c>
       <c r="X72" s="41" t="n">
-        <v>-0.6</v>
+        <v>-0.89</v>
       </c>
       <c r="Y72" s="39" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="D73" s="39" t="n">
-        <v>6.32</v>
+        <v>6.31</v>
       </c>
       <c r="E73" s="43" t="n">
         <v>0.22</v>
@@ -7495,7 +7495,7 @@
         <v>-0.2</v>
       </c>
       <c r="X73" s="41" t="n">
-        <v>-0.59</v>
+        <v>-0.79</v>
       </c>
       <c r="Y73" s="39" t="inlineStr">
         <is>
@@ -7518,7 +7518,7 @@
         </is>
       </c>
       <c r="D74" s="39" t="n">
-        <v>217.72</v>
+        <v>217.44</v>
       </c>
       <c r="E74" s="40" t="n">
         <v>0.13</v>
@@ -7578,7 +7578,7 @@
         <v>0.13</v>
       </c>
       <c r="X74" s="42" t="n">
-        <v>0.66</v>
+        <v>0.59</v>
       </c>
       <c r="Y74" s="39" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         </is>
       </c>
       <c r="D76" s="39" t="n">
-        <v>45.55</v>
+        <v>45.59</v>
       </c>
       <c r="E76" s="40" t="n">
         <v>1.25</v>
@@ -7744,7 +7744,7 @@
         <v>-0.75</v>
       </c>
       <c r="X76" s="41" t="n">
-        <v>-0.48</v>
+        <v>-0.19</v>
       </c>
       <c r="Y76" s="39" t="inlineStr">
         <is>
@@ -7850,7 +7850,7 @@
         </is>
       </c>
       <c r="D78" s="39" t="n">
-        <v>9.27</v>
+        <v>9.26</v>
       </c>
       <c r="E78" s="41" t="n">
         <v>1.41</v>
@@ -7933,7 +7933,7 @@
         </is>
       </c>
       <c r="D79" s="39" t="n">
-        <v>19.23</v>
+        <v>19.2</v>
       </c>
       <c r="E79" s="40" t="n">
         <v>1.05</v>
@@ -7993,7 +7993,7 @@
         <v>-0.32</v>
       </c>
       <c r="X79" s="41" t="n">
-        <v>-0.65</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="Y79" s="39" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>-0.11</v>
       </c>
       <c r="X80" s="42" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="Y80" s="39" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>-0.59</v>
       </c>
       <c r="X81" s="41" t="n">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="Y81" s="39" t="inlineStr">
         <is>
@@ -8242,7 +8242,7 @@
         <v>0.1</v>
       </c>
       <c r="X82" s="41" t="n">
-        <v>-0.41</v>
+        <v>-0.31</v>
       </c>
       <c r="Y82" s="39" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         <v>0.21</v>
       </c>
       <c r="X83" s="42" t="n">
-        <v>0.21</v>
+        <v>0.1</v>
       </c>
       <c r="Y83" s="39" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         </is>
       </c>
       <c r="D84" s="39" t="n">
-        <v>24.4</v>
+        <v>24.38</v>
       </c>
       <c r="E84" s="41" t="n">
         <v>2.28</v>
@@ -8408,7 +8408,7 @@
         <v>0.29</v>
       </c>
       <c r="X84" s="41" t="n">
-        <v>-0.48</v>
+        <v>-0.57</v>
       </c>
       <c r="Y84" s="39" t="inlineStr">
         <is>
@@ -8431,7 +8431,7 @@
         </is>
       </c>
       <c r="D85" s="39" t="n">
-        <v>43.41</v>
+        <v>43.48</v>
       </c>
       <c r="E85" s="40" t="n">
         <v>0.54</v>
@@ -8491,7 +8491,7 @@
         <v>1.07</v>
       </c>
       <c r="X85" s="41" t="n">
-        <v>-0.65</v>
+        <v>-0.49</v>
       </c>
       <c r="Y85" s="39" t="inlineStr">
         <is>
@@ -8574,7 +8574,7 @@
         <v>1.83</v>
       </c>
       <c r="X86" s="42" t="n">
-        <v>-0.67</v>
+        <v>-0.45</v>
       </c>
       <c r="Y86" s="39" t="inlineStr">
         <is>
@@ -8597,7 +8597,7 @@
         </is>
       </c>
       <c r="D87" s="39" t="n">
-        <v>44.79</v>
+        <v>44.81</v>
       </c>
       <c r="E87" s="40" t="n">
         <v>0.18</v>
@@ -8657,7 +8657,7 @@
         <v>1.68</v>
       </c>
       <c r="X87" s="42" t="n">
-        <v>-0.77</v>
+        <v>-0.83</v>
       </c>
       <c r="Y87" s="39" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         </is>
       </c>
       <c r="D88" s="39" t="n">
-        <v>90.06</v>
+        <v>89.92</v>
       </c>
       <c r="E88" s="40" t="n">
         <v>0.8</v>
@@ -8740,7 +8740,7 @@
         <v>1.82</v>
       </c>
       <c r="X88" s="41" t="n">
-        <v>-1.49</v>
+        <v>-1.79</v>
       </c>
       <c r="Y88" s="39" t="inlineStr">
         <is>
@@ -8763,7 +8763,7 @@
         </is>
       </c>
       <c r="D89" s="39" t="n">
-        <v>36.01</v>
+        <v>35.97</v>
       </c>
       <c r="E89" s="40" t="n">
         <v>0.43</v>
@@ -8823,7 +8823,7 @@
         <v>0.31</v>
       </c>
       <c r="X89" s="42" t="n">
-        <v>0.62</v>
+        <v>0.52</v>
       </c>
       <c r="Y89" s="39" t="inlineStr">
         <is>
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="D90" s="39" t="n">
-        <v>17.86</v>
+        <v>17.85</v>
       </c>
       <c r="E90" s="40" t="n">
         <v>0.34</v>
@@ -9012,7 +9012,7 @@
         </is>
       </c>
       <c r="D92" s="39" t="n">
-        <v>11.89</v>
+        <v>11.88</v>
       </c>
       <c r="E92" s="40" t="n">
         <v>0.82</v>
@@ -9072,7 +9072,7 @@
         <v>1.33</v>
       </c>
       <c r="X92" s="42" t="n">
-        <v>-0.44</v>
+        <v>-0.55</v>
       </c>
       <c r="Y92" s="39" t="inlineStr">
         <is>
@@ -9095,7 +9095,7 @@
         </is>
       </c>
       <c r="D93" s="39" t="n">
-        <v>158.16</v>
+        <v>158.05</v>
       </c>
       <c r="E93" s="43" t="n">
         <v>-0.32</v>
@@ -9178,7 +9178,7 @@
         </is>
       </c>
       <c r="D94" s="39" t="n">
-        <v>241.12</v>
+        <v>240.61</v>
       </c>
       <c r="E94" s="40" t="n">
         <v>1.15</v>
@@ -9238,7 +9238,7 @@
         <v>-0.42</v>
       </c>
       <c r="X94" s="41" t="n">
-        <v>-0.84</v>
+        <v>-1.04</v>
       </c>
       <c r="Y94" s="39" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         </is>
       </c>
       <c r="D98" s="39" t="n">
-        <v>488.04</v>
+        <v>487.46</v>
       </c>
       <c r="E98" s="40" t="n">
         <v>2.85</v>
@@ -9593,7 +9593,7 @@
         </is>
       </c>
       <c r="D99" s="39" t="n">
-        <v>18</v>
+        <v>18.02</v>
       </c>
       <c r="E99" s="40" t="n">
         <v>0.72</v>
@@ -9653,7 +9653,7 @@
         <v>-0.76</v>
       </c>
       <c r="X99" s="41" t="n">
-        <v>0.77</v>
+        <v>0.66</v>
       </c>
       <c r="Y99" s="39" t="inlineStr">
         <is>
@@ -9676,7 +9676,7 @@
         </is>
       </c>
       <c r="D100" s="39" t="n">
-        <v>72.56</v>
+        <v>72.51000000000001</v>
       </c>
       <c r="E100" s="40" t="n">
         <v>1.83</v>
@@ -9736,7 +9736,7 @@
         <v>0.2</v>
       </c>
       <c r="X100" s="41" t="n">
-        <v>-0.93</v>
+        <v>-1</v>
       </c>
       <c r="Y100" s="39" t="inlineStr">
         <is>
@@ -12092,7 +12092,7 @@
         </is>
       </c>
       <c r="D2" s="39" t="n">
-        <v>173.88</v>
+        <v>209.87</v>
       </c>
       <c r="E2" s="39" t="n">
         <v>66.59999999999999</v>
@@ -12152,7 +12152,7 @@
         <v>62.6</v>
       </c>
       <c r="X2" s="39" t="n">
-        <v>16.5</v>
+        <v>13.7</v>
       </c>
       <c r="Y2" s="39" t="inlineStr">
         <is>
@@ -12166,80 +12166,80 @@
       </c>
       <c r="B3" s="39" t="inlineStr">
         <is>
-          <t>sh000852</t>
+          <t>sh000905</t>
         </is>
       </c>
       <c r="C3" s="39" t="inlineStr">
         <is>
-          <t>中证1000</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="D3" s="39" t="n">
-        <v>1834.92</v>
+        <v>1591.11</v>
       </c>
       <c r="E3" s="39" t="n">
-        <v>43</v>
+        <v>47.6</v>
       </c>
       <c r="F3" s="39" t="n">
-        <v>68.40000000000001</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="G3" s="39" t="n">
-        <v>79.3</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="H3" s="39" t="n">
-        <v>87.59999999999999</v>
+        <v>85.3</v>
       </c>
       <c r="I3" s="39" t="n">
-        <v>69.59999999999999</v>
+        <v>61.3</v>
       </c>
       <c r="J3" s="39" t="n">
         <v>30</v>
       </c>
       <c r="K3" s="39" t="n">
-        <v>34</v>
+        <v>30.2</v>
       </c>
       <c r="L3" s="39" t="n">
-        <v>28</v>
+        <v>40.1</v>
       </c>
       <c r="M3" s="39" t="n">
-        <v>88.8</v>
+        <v>91.7</v>
       </c>
       <c r="N3" s="39" t="n">
-        <v>84.90000000000001</v>
+        <v>66.3</v>
       </c>
       <c r="O3" s="39" t="n">
-        <v>92.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="P3" s="39" t="n">
-        <v>33.4</v>
+        <v>31.9</v>
       </c>
       <c r="Q3" s="39" t="n">
-        <v>51.7</v>
+        <v>63</v>
       </c>
       <c r="R3" s="39" t="n">
-        <v>18.4</v>
+        <v>28.2</v>
       </c>
       <c r="S3" s="39" t="n">
-        <v>47.1</v>
+        <v>42.7</v>
       </c>
       <c r="T3" s="39" t="n">
-        <v>76.5</v>
+        <v>78.3</v>
       </c>
       <c r="U3" s="39" t="n">
-        <v>94.90000000000001</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="V3" s="39" t="n">
-        <v>95.3</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="W3" s="39" t="n">
-        <v>97.5</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="X3" s="39" t="n">
-        <v>44.1</v>
+        <v>38.6</v>
       </c>
       <c r="Y3" s="39" t="inlineStr">
         <is>
-          <t>中证1000</t>
+          <t>中证500</t>
         </is>
       </c>
     </row>
@@ -12249,80 +12249,80 @@
       </c>
       <c r="B4" s="39" t="inlineStr">
         <is>
-          <t>sh000905</t>
+          <t>sh000852</t>
         </is>
       </c>
       <c r="C4" s="39" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>中证1000</t>
         </is>
       </c>
       <c r="D4" s="39" t="n">
-        <v>1355.41</v>
+        <v>2154.28</v>
       </c>
       <c r="E4" s="39" t="n">
-        <v>47.6</v>
+        <v>43</v>
       </c>
       <c r="F4" s="39" t="n">
-        <v>69.90000000000001</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="G4" s="39" t="n">
-        <v>76.90000000000001</v>
+        <v>79.3</v>
       </c>
       <c r="H4" s="39" t="n">
-        <v>85.3</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="I4" s="39" t="n">
-        <v>61.3</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="J4" s="39" t="n">
         <v>30</v>
       </c>
       <c r="K4" s="39" t="n">
-        <v>30.2</v>
+        <v>34</v>
       </c>
       <c r="L4" s="39" t="n">
-        <v>40.1</v>
+        <v>28</v>
       </c>
       <c r="M4" s="39" t="n">
-        <v>91.7</v>
+        <v>88.8</v>
       </c>
       <c r="N4" s="39" t="n">
-        <v>66.3</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="O4" s="39" t="n">
-        <v>74.59999999999999</v>
+        <v>92.2</v>
       </c>
       <c r="P4" s="39" t="n">
-        <v>31.9</v>
+        <v>33.4</v>
       </c>
       <c r="Q4" s="39" t="n">
-        <v>63</v>
+        <v>51.7</v>
       </c>
       <c r="R4" s="39" t="n">
-        <v>28.2</v>
+        <v>18.4</v>
       </c>
       <c r="S4" s="39" t="n">
-        <v>42.7</v>
+        <v>47.1</v>
       </c>
       <c r="T4" s="39" t="n">
-        <v>78.3</v>
+        <v>76.5</v>
       </c>
       <c r="U4" s="39" t="n">
-        <v>96.40000000000001</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="V4" s="39" t="n">
-        <v>96.90000000000001</v>
+        <v>95.3</v>
       </c>
       <c r="W4" s="39" t="n">
-        <v>98.09999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="X4" s="39" t="n">
-        <v>46.1</v>
+        <v>40</v>
       </c>
       <c r="Y4" s="39" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>中证1000</t>
         </is>
       </c>
     </row>
@@ -12341,7 +12341,7 @@
         </is>
       </c>
       <c r="D5" s="39" t="n">
-        <v>5447.64</v>
+        <v>6446.9</v>
       </c>
       <c r="E5" s="39" t="n">
         <v>35</v>
@@ -12401,7 +12401,7 @@
         <v>98.2</v>
       </c>
       <c r="X5" s="39" t="n">
-        <v>57.2</v>
+        <v>55.1</v>
       </c>
       <c r="Y5" s="39" t="inlineStr">
         <is>
@@ -12424,7 +12424,7 @@
         </is>
       </c>
       <c r="D6" s="39" t="n">
-        <v>2543.06</v>
+        <v>2976.07</v>
       </c>
       <c r="E6" s="39" t="n">
         <v>33.2</v>
@@ -12484,7 +12484,7 @@
         <v>98.59999999999999</v>
       </c>
       <c r="X6" s="39" t="n">
-        <v>63</v>
+        <v>63.1</v>
       </c>
       <c r="Y6" s="39" t="inlineStr">
         <is>
@@ -12507,7 +12507,7 @@
         </is>
       </c>
       <c r="D7" s="39" t="n">
-        <v>2927.77</v>
+        <v>3504.21</v>
       </c>
       <c r="E7" s="39" t="n">
         <v>48</v>
@@ -12567,7 +12567,7 @@
         <v>98.59999999999999</v>
       </c>
       <c r="X7" s="39" t="n">
-        <v>71.90000000000001</v>
+        <v>64.3</v>
       </c>
       <c r="Y7" s="39" t="inlineStr">
         <is>
@@ -12590,7 +12590,7 @@
         </is>
       </c>
       <c r="D8" s="39" t="n">
-        <v>3467.46</v>
+        <v>4127.5</v>
       </c>
       <c r="E8" s="39" t="n">
         <v>51.3</v>
@@ -12650,7 +12650,7 @@
         <v>96</v>
       </c>
       <c r="X8" s="39" t="n">
-        <v>80.40000000000001</v>
+        <v>64.7</v>
       </c>
       <c r="Y8" s="39" t="inlineStr">
         <is>
@@ -12673,7 +12673,7 @@
         </is>
       </c>
       <c r="D9" s="39" t="n">
-        <v>1571.87</v>
+        <v>1912.61</v>
       </c>
       <c r="E9" s="39" t="n">
         <v>48.2</v>
@@ -12733,7 +12733,7 @@
         <v>97.3</v>
       </c>
       <c r="X9" s="39" t="n">
-        <v>88.40000000000001</v>
+        <v>81.7</v>
       </c>
       <c r="Y9" s="39" t="inlineStr">
         <is>
@@ -12756,7 +12756,7 @@
         </is>
       </c>
       <c r="D10" s="39" t="n">
-        <v>442.86</v>
+        <v>538.6900000000001</v>
       </c>
       <c r="E10" s="39" t="n">
         <v>58.4</v>
@@ -12816,7 +12816,7 @@
         <v>92.2</v>
       </c>
       <c r="X10" s="39" t="n">
-        <v>95.3</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="Y10" s="39" t="inlineStr">
         <is>
@@ -12828,82 +12828,80 @@
       <c r="A11" s="39" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="39" t="inlineStr">
-        <is>
-          <t>164824</t>
-        </is>
+      <c r="B11" s="39" t="n">
+        <v>588200</v>
       </c>
       <c r="C11" s="39" t="inlineStr">
         <is>
-          <t>印度基金LOF</t>
+          <t>科创芯片ETF</t>
         </is>
       </c>
       <c r="D11" s="39" t="n">
-        <v>22.21</v>
+        <v>248.31</v>
       </c>
       <c r="E11" s="39" t="n">
-        <v>49.4</v>
+        <v>65.8</v>
       </c>
       <c r="F11" s="39" t="n">
-        <v>80</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="G11" s="39" t="n">
-        <v>65</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="H11" s="39" t="n">
-        <v>76.7</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="I11" s="39" t="n">
-        <v>82.5</v>
+        <v>57.9</v>
       </c>
       <c r="J11" s="39" t="n">
-        <v>48.9</v>
+        <v>72.8</v>
       </c>
       <c r="K11" s="39" t="n">
-        <v>81.09999999999999</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="L11" s="39" t="n">
-        <v>90.5</v>
+        <v>44.7</v>
       </c>
       <c r="M11" s="39" t="n">
-        <v>96.2</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="N11" s="39" t="n">
-        <v>66.59999999999999</v>
+        <v>44.8</v>
       </c>
       <c r="O11" s="39" t="n">
-        <v>66.59999999999999</v>
+        <v>53.3</v>
       </c>
       <c r="P11" s="39" t="n">
-        <v>41.3</v>
+        <v>14.7</v>
       </c>
       <c r="Q11" s="39" t="n">
-        <v>9.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="R11" s="39" t="n">
-        <v>78.09999999999999</v>
+        <v>37.8</v>
       </c>
       <c r="S11" s="39" t="n">
-        <v>60.9</v>
+        <v>72.3</v>
       </c>
       <c r="T11" s="39" t="n">
-        <v>52.3</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="U11" s="39" t="n">
-        <v>40.8</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="V11" s="39" t="n">
-        <v>11.6</v>
+        <v>86.2</v>
       </c>
       <c r="W11" s="39" t="n">
-        <v>33.9</v>
+        <v>38.8</v>
       </c>
       <c r="X11" s="39" t="n">
         <v>7.5</v>
       </c>
       <c r="Y11" s="39" t="inlineStr">
         <is>
-          <t>印度基金LOF</t>
+          <t>科创芯片ETF</t>
         </is>
       </c>
     </row>
@@ -12911,80 +12909,82 @@
       <c r="A12" s="39" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="39" t="n">
-        <v>588200</v>
+      <c r="B12" s="39" t="inlineStr">
+        <is>
+          <t>164824</t>
+        </is>
       </c>
       <c r="C12" s="39" t="inlineStr">
         <is>
-          <t>科创芯片ETF</t>
+          <t>印度基金LOF</t>
         </is>
       </c>
       <c r="D12" s="39" t="n">
-        <v>249.29</v>
+        <v>22.27</v>
       </c>
       <c r="E12" s="39" t="n">
-        <v>65.8</v>
+        <v>49.4</v>
       </c>
       <c r="F12" s="39" t="n">
-        <v>74.90000000000001</v>
+        <v>80</v>
       </c>
       <c r="G12" s="39" t="n">
-        <v>91.09999999999999</v>
+        <v>65</v>
       </c>
       <c r="H12" s="39" t="n">
-        <v>91.09999999999999</v>
+        <v>76.7</v>
       </c>
       <c r="I12" s="39" t="n">
-        <v>57.9</v>
+        <v>82.5</v>
       </c>
       <c r="J12" s="39" t="n">
-        <v>72.8</v>
+        <v>48.9</v>
       </c>
       <c r="K12" s="39" t="n">
-        <v>85.09999999999999</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="L12" s="39" t="n">
-        <v>44.7</v>
+        <v>90.5</v>
       </c>
       <c r="M12" s="39" t="n">
-        <v>70.59999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="N12" s="39" t="n">
-        <v>44.8</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="O12" s="39" t="n">
-        <v>53.3</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="P12" s="39" t="n">
-        <v>14.7</v>
+        <v>41.3</v>
       </c>
       <c r="Q12" s="39" t="n">
-        <v>9.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="R12" s="39" t="n">
-        <v>37.8</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="S12" s="39" t="n">
-        <v>72.3</v>
+        <v>60.9</v>
       </c>
       <c r="T12" s="39" t="n">
-        <v>92.40000000000001</v>
+        <v>52.3</v>
       </c>
       <c r="U12" s="39" t="n">
-        <v>96.90000000000001</v>
+        <v>40.8</v>
       </c>
       <c r="V12" s="39" t="n">
-        <v>86.2</v>
+        <v>11.6</v>
       </c>
       <c r="W12" s="39" t="n">
-        <v>38.8</v>
+        <v>33.9</v>
       </c>
       <c r="X12" s="39" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y12" s="39" t="inlineStr">
         <is>
-          <t>科创芯片ETF</t>
+          <t>印度基金LOF</t>
         </is>
       </c>
     </row>
@@ -13001,7 +13001,7 @@
         </is>
       </c>
       <c r="D13" s="39" t="n">
-        <v>12.02</v>
+        <v>12.03</v>
       </c>
       <c r="E13" s="39" t="n">
         <v>23</v>
@@ -13061,7 +13061,7 @@
         <v>13.4</v>
       </c>
       <c r="X13" s="39" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y13" s="39" t="inlineStr">
         <is>
@@ -13082,7 +13082,7 @@
         </is>
       </c>
       <c r="D14" s="39" t="n">
-        <v>239.03</v>
+        <v>238.45</v>
       </c>
       <c r="E14" s="39" t="n">
         <v>68.8</v>
@@ -13142,7 +13142,7 @@
         <v>42.8</v>
       </c>
       <c r="X14" s="39" t="n">
-        <v>11.4</v>
+        <v>10.7</v>
       </c>
       <c r="Y14" s="39" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         </is>
       </c>
       <c r="D15" s="39" t="n">
-        <v>210.06</v>
+        <v>209.85</v>
       </c>
       <c r="E15" s="39" t="n">
         <v>65.5</v>
@@ -13223,7 +13223,7 @@
         <v>48.7</v>
       </c>
       <c r="X15" s="39" t="n">
-        <v>11.7</v>
+        <v>11</v>
       </c>
       <c r="Y15" s="39" t="inlineStr">
         <is>
@@ -13236,79 +13236,79 @@
         <v>14</v>
       </c>
       <c r="B16" s="39" t="n">
-        <v>588000</v>
+        <v>159766</v>
       </c>
       <c r="C16" s="39" t="inlineStr">
         <is>
-          <t>科创50ETF</t>
+          <t>旅游ETF</t>
         </is>
       </c>
       <c r="D16" s="39" t="n">
-        <v>781.28</v>
+        <v>29.84</v>
       </c>
       <c r="E16" s="39" t="n">
-        <v>66.2</v>
+        <v>80.8</v>
       </c>
       <c r="F16" s="39" t="n">
-        <v>75.3</v>
+        <v>85.3</v>
       </c>
       <c r="G16" s="39" t="n">
-        <v>85.8</v>
+        <v>64.3</v>
       </c>
       <c r="H16" s="39" t="n">
-        <v>87.40000000000001</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="I16" s="39" t="n">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="J16" s="39" t="n">
-        <v>68.40000000000001</v>
+        <v>73.7</v>
       </c>
       <c r="K16" s="39" t="n">
-        <v>79.59999999999999</v>
+        <v>84.3</v>
       </c>
       <c r="L16" s="39" t="n">
+        <v>29</v>
+      </c>
+      <c r="M16" s="39" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="N16" s="39" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="O16" s="39" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="P16" s="39" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="Q16" s="39" t="n">
         <v>40</v>
       </c>
-      <c r="M16" s="39" t="n">
-        <v>76.59999999999999</v>
-      </c>
-      <c r="N16" s="39" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="O16" s="39" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="P16" s="39" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q16" s="39" t="n">
-        <v>29</v>
-      </c>
       <c r="R16" s="39" t="n">
-        <v>18</v>
+        <v>11.6</v>
       </c>
       <c r="S16" s="39" t="n">
-        <v>45.5</v>
+        <v>6.8</v>
       </c>
       <c r="T16" s="39" t="n">
-        <v>86.40000000000001</v>
+        <v>4.5</v>
       </c>
       <c r="U16" s="39" t="n">
-        <v>96.3</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="V16" s="39" t="n">
-        <v>97.09999999999999</v>
+        <v>42.8</v>
       </c>
       <c r="W16" s="39" t="n">
-        <v>61.8</v>
+        <v>42.8</v>
       </c>
       <c r="X16" s="39" t="n">
-        <v>15.8</v>
+        <v>13.2</v>
       </c>
       <c r="Y16" s="39" t="inlineStr">
         <is>
-          <t>科创50ETF</t>
+          <t>旅游ETF</t>
         </is>
       </c>
     </row>
@@ -13317,79 +13317,79 @@
         <v>15</v>
       </c>
       <c r="B17" s="39" t="n">
-        <v>159766</v>
+        <v>588000</v>
       </c>
       <c r="C17" s="39" t="inlineStr">
         <is>
-          <t>旅游ETF</t>
+          <t>科创50ETF</t>
         </is>
       </c>
       <c r="D17" s="39" t="n">
-        <v>29.84</v>
+        <v>778.33</v>
       </c>
       <c r="E17" s="39" t="n">
-        <v>80.8</v>
+        <v>66.2</v>
       </c>
       <c r="F17" s="39" t="n">
-        <v>85.3</v>
+        <v>75.3</v>
       </c>
       <c r="G17" s="39" t="n">
-        <v>64.3</v>
+        <v>85.8</v>
       </c>
       <c r="H17" s="39" t="n">
-        <v>73.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="I17" s="39" t="n">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="J17" s="39" t="n">
-        <v>73.7</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="K17" s="39" t="n">
-        <v>84.3</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="L17" s="39" t="n">
+        <v>40</v>
+      </c>
+      <c r="M17" s="39" t="n">
+        <v>76.59999999999999</v>
+      </c>
+      <c r="N17" s="39" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="O17" s="39" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="P17" s="39" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q17" s="39" t="n">
         <v>29</v>
       </c>
-      <c r="M17" s="39" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="N17" s="39" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="O17" s="39" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="P17" s="39" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="Q17" s="39" t="n">
-        <v>40</v>
-      </c>
       <c r="R17" s="39" t="n">
-        <v>11.6</v>
+        <v>18</v>
       </c>
       <c r="S17" s="39" t="n">
-        <v>6.8</v>
+        <v>45.5</v>
       </c>
       <c r="T17" s="39" t="n">
-        <v>4.5</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="U17" s="39" t="n">
-        <v>68.09999999999999</v>
+        <v>96.3</v>
       </c>
       <c r="V17" s="39" t="n">
-        <v>42.8</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="W17" s="39" t="n">
-        <v>42.8</v>
+        <v>61.8</v>
       </c>
       <c r="X17" s="39" t="n">
-        <v>17.2</v>
+        <v>13.9</v>
       </c>
       <c r="Y17" s="39" t="inlineStr">
         <is>
-          <t>旅游ETF</t>
+          <t>科创50ETF</t>
         </is>
       </c>
     </row>
@@ -13406,7 +13406,7 @@
         </is>
       </c>
       <c r="D18" s="39" t="n">
-        <v>64.3</v>
+        <v>64.16</v>
       </c>
       <c r="E18" s="39" t="n">
         <v>71.8</v>
@@ -13466,7 +13466,7 @@
         <v>74.09999999999999</v>
       </c>
       <c r="X18" s="39" t="n">
-        <v>18.1</v>
+        <v>17</v>
       </c>
       <c r="Y18" s="39" t="inlineStr">
         <is>
@@ -13487,7 +13487,7 @@
         </is>
       </c>
       <c r="D19" s="39" t="n">
-        <v>7.5</v>
+        <v>7.49</v>
       </c>
       <c r="E19" s="39" t="n">
         <v>61.5</v>
@@ -13547,7 +13547,7 @@
         <v>59.2</v>
       </c>
       <c r="X19" s="39" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y19" s="39" t="inlineStr">
         <is>
@@ -13560,79 +13560,79 @@
         <v>18</v>
       </c>
       <c r="B20" s="39" t="n">
-        <v>518880</v>
+        <v>159825</v>
       </c>
       <c r="C20" s="39" t="inlineStr">
         <is>
-          <t>黄金ETF</t>
+          <t>农业ETF</t>
         </is>
       </c>
       <c r="D20" s="39" t="n">
-        <v>608.51</v>
+        <v>21.54</v>
       </c>
       <c r="E20" s="39" t="n">
-        <v>68.7</v>
+        <v>77</v>
       </c>
       <c r="F20" s="39" t="n">
-        <v>88.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="G20" s="39" t="n">
-        <v>93.90000000000001</v>
+        <v>31.2</v>
       </c>
       <c r="H20" s="39" t="n">
-        <v>95.90000000000001</v>
+        <v>45.4</v>
       </c>
       <c r="I20" s="39" t="n">
-        <v>93.59999999999999</v>
+        <v>28</v>
       </c>
       <c r="J20" s="39" t="n">
-        <v>98.8</v>
+        <v>22.3</v>
       </c>
       <c r="K20" s="39" t="n">
-        <v>99.2</v>
+        <v>18.5</v>
       </c>
       <c r="L20" s="39" t="n">
-        <v>99.3</v>
+        <v>5.5</v>
       </c>
       <c r="M20" s="39" t="n">
-        <v>99.8</v>
+        <v>41</v>
       </c>
       <c r="N20" s="39" t="n">
-        <v>100</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="O20" s="39" t="n">
-        <v>26.9</v>
+        <v>27.9</v>
       </c>
       <c r="P20" s="39" t="n">
-        <v>41.4</v>
+        <v>52.4</v>
       </c>
       <c r="Q20" s="39" t="n">
-        <v>33.1</v>
+        <v>39.1</v>
       </c>
       <c r="R20" s="39" t="n">
-        <v>22</v>
+        <v>15.5</v>
       </c>
       <c r="S20" s="39" t="n">
-        <v>49.2</v>
+        <v>39.7</v>
       </c>
       <c r="T20" s="39" t="n">
-        <v>30.4</v>
+        <v>25.3</v>
       </c>
       <c r="U20" s="39" t="n">
-        <v>79.2</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="V20" s="39" t="n">
-        <v>86.90000000000001</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="W20" s="39" t="n">
-        <v>35.8</v>
+        <v>47.5</v>
       </c>
       <c r="X20" s="39" t="n">
-        <v>23.4</v>
+        <v>21.6</v>
       </c>
       <c r="Y20" s="39" t="inlineStr">
         <is>
-          <t>黄金ETF</t>
+          <t>农业ETF</t>
         </is>
       </c>
     </row>
@@ -13641,79 +13641,79 @@
         <v>19</v>
       </c>
       <c r="B21" s="39" t="n">
-        <v>159825</v>
+        <v>159865</v>
       </c>
       <c r="C21" s="39" t="inlineStr">
         <is>
-          <t>农业ETF</t>
+          <t>养殖ETF</t>
         </is>
       </c>
       <c r="D21" s="39" t="n">
-        <v>21.57</v>
+        <v>32.09</v>
       </c>
       <c r="E21" s="39" t="n">
-        <v>77</v>
+        <v>81.8</v>
       </c>
       <c r="F21" s="39" t="n">
-        <v>81.90000000000001</v>
+        <v>84.8</v>
       </c>
       <c r="G21" s="39" t="n">
-        <v>31.2</v>
+        <v>28.9</v>
       </c>
       <c r="H21" s="39" t="n">
-        <v>45.4</v>
+        <v>41.7</v>
       </c>
       <c r="I21" s="39" t="n">
-        <v>28</v>
+        <v>37.2</v>
       </c>
       <c r="J21" s="39" t="n">
-        <v>22.3</v>
+        <v>18</v>
       </c>
       <c r="K21" s="39" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="L21" s="39" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="M21" s="39" t="n">
-        <v>41</v>
+        <v>35.7</v>
       </c>
       <c r="N21" s="39" t="n">
-        <v>78.59999999999999</v>
+        <v>80.3</v>
       </c>
       <c r="O21" s="39" t="n">
-        <v>27.9</v>
+        <v>23.8</v>
       </c>
       <c r="P21" s="39" t="n">
-        <v>52.4</v>
+        <v>52</v>
       </c>
       <c r="Q21" s="39" t="n">
-        <v>39.1</v>
+        <v>36</v>
       </c>
       <c r="R21" s="39" t="n">
-        <v>15.5</v>
+        <v>17.8</v>
       </c>
       <c r="S21" s="39" t="n">
-        <v>39.7</v>
+        <v>48.8</v>
       </c>
       <c r="T21" s="39" t="n">
-        <v>25.3</v>
+        <v>32.5</v>
       </c>
       <c r="U21" s="39" t="n">
-        <v>76.59999999999999</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="V21" s="39" t="n">
-        <v>86.09999999999999</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="W21" s="39" t="n">
-        <v>47.5</v>
+        <v>53.7</v>
       </c>
       <c r="X21" s="39" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y21" s="39" t="inlineStr">
         <is>
-          <t>农业ETF</t>
+          <t>养殖ETF</t>
         </is>
       </c>
     </row>
@@ -13722,79 +13722,79 @@
         <v>20</v>
       </c>
       <c r="B22" s="39" t="n">
-        <v>513180</v>
+        <v>159869</v>
       </c>
       <c r="C22" s="39" t="inlineStr">
         <is>
-          <t>恒生科技指数ETF</t>
+          <t>游戏ETF</t>
         </is>
       </c>
       <c r="D22" s="39" t="n">
-        <v>272.08</v>
+        <v>67.65000000000001</v>
       </c>
       <c r="E22" s="39" t="n">
-        <v>31.7</v>
+        <v>42.5</v>
       </c>
       <c r="F22" s="39" t="n">
-        <v>64</v>
+        <v>62.4</v>
       </c>
       <c r="G22" s="39" t="n">
-        <v>76.5</v>
+        <v>60.3</v>
       </c>
       <c r="H22" s="39" t="n">
-        <v>83.59999999999999</v>
+        <v>80.8</v>
       </c>
       <c r="I22" s="39" t="n">
-        <v>64.3</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="J22" s="39" t="n">
-        <v>19.4</v>
+        <v>42.6</v>
       </c>
       <c r="K22" s="39" t="n">
-        <v>45.9</v>
+        <v>50.5</v>
       </c>
       <c r="L22" s="39" t="n">
-        <v>31.2</v>
+        <v>83</v>
       </c>
       <c r="M22" s="39" t="n">
-        <v>63.7</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="N22" s="39" t="n">
-        <v>71.40000000000001</v>
+        <v>51.4</v>
       </c>
       <c r="O22" s="39" t="n">
-        <v>94.8</v>
+        <v>60.1</v>
       </c>
       <c r="P22" s="39" t="n">
-        <v>45.4</v>
+        <v>20.9</v>
       </c>
       <c r="Q22" s="39" t="n">
-        <v>65.8</v>
+        <v>36.6</v>
       </c>
       <c r="R22" s="39" t="n">
-        <v>60.1</v>
+        <v>73.5</v>
       </c>
       <c r="S22" s="39" t="n">
-        <v>51.4</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="T22" s="39" t="n">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="U22" s="39" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="V22" s="39" t="n">
-        <v>80</v>
+        <v>57.7</v>
       </c>
       <c r="W22" s="39" t="n">
-        <v>80</v>
+        <v>71.2</v>
       </c>
       <c r="X22" s="39" t="n">
         <v>25.8</v>
       </c>
       <c r="Y22" s="39" t="inlineStr">
         <is>
-          <t>恒生科技指数ETF</t>
+          <t>游戏ETF</t>
         </is>
       </c>
     </row>
@@ -13803,79 +13803,79 @@
         <v>21</v>
       </c>
       <c r="B23" s="39" t="n">
-        <v>159869</v>
+        <v>513180</v>
       </c>
       <c r="C23" s="39" t="inlineStr">
         <is>
-          <t>游戏ETF</t>
+          <t>恒生科技指数ETF</t>
         </is>
       </c>
       <c r="D23" s="39" t="n">
-        <v>67.65000000000001</v>
+        <v>272.08</v>
       </c>
       <c r="E23" s="39" t="n">
-        <v>42.5</v>
+        <v>31.7</v>
       </c>
       <c r="F23" s="39" t="n">
-        <v>62.4</v>
+        <v>64</v>
       </c>
       <c r="G23" s="39" t="n">
-        <v>60.3</v>
+        <v>76.5</v>
       </c>
       <c r="H23" s="39" t="n">
-        <v>80.8</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="I23" s="39" t="n">
-        <v>87.90000000000001</v>
+        <v>64.3</v>
       </c>
       <c r="J23" s="39" t="n">
-        <v>42.6</v>
+        <v>19.4</v>
       </c>
       <c r="K23" s="39" t="n">
-        <v>50.5</v>
+        <v>45.9</v>
       </c>
       <c r="L23" s="39" t="n">
-        <v>83</v>
+        <v>31.2</v>
       </c>
       <c r="M23" s="39" t="n">
-        <v>95.40000000000001</v>
+        <v>63.7</v>
       </c>
       <c r="N23" s="39" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="O23" s="39" t="n">
+        <v>94.8</v>
+      </c>
+      <c r="P23" s="39" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="Q23" s="39" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="R23" s="39" t="n">
+        <v>60.1</v>
+      </c>
+      <c r="S23" s="39" t="n">
         <v>51.4</v>
       </c>
-      <c r="O23" s="39" t="n">
-        <v>60.1</v>
-      </c>
-      <c r="P23" s="39" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="Q23" s="39" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="R23" s="39" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="S23" s="39" t="n">
-        <v>84.09999999999999</v>
-      </c>
       <c r="T23" s="39" t="n">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="U23" s="39" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="V23" s="39" t="n">
-        <v>57.7</v>
+        <v>80</v>
       </c>
       <c r="W23" s="39" t="n">
-        <v>71.2</v>
+        <v>80</v>
       </c>
       <c r="X23" s="39" t="n">
         <v>25.8</v>
       </c>
       <c r="Y23" s="39" t="inlineStr">
         <is>
-          <t>游戏ETF</t>
+          <t>恒生科技指数ETF</t>
         </is>
       </c>
     </row>
@@ -13965,79 +13965,79 @@
         <v>23</v>
       </c>
       <c r="B25" s="39" t="n">
-        <v>512400</v>
+        <v>518880</v>
       </c>
       <c r="C25" s="39" t="inlineStr">
         <is>
-          <t>有色金属ETF</t>
+          <t>黄金ETF</t>
         </is>
       </c>
       <c r="D25" s="39" t="n">
-        <v>45.55</v>
+        <v>609.89</v>
       </c>
       <c r="E25" s="39" t="n">
-        <v>39</v>
+        <v>68.7</v>
       </c>
       <c r="F25" s="39" t="n">
-        <v>76.09999999999999</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="G25" s="39" t="n">
-        <v>81</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="H25" s="39" t="n">
-        <v>91.8</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="I25" s="39" t="n">
-        <v>67.40000000000001</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="J25" s="39" t="n">
-        <v>63.2</v>
+        <v>98.8</v>
       </c>
       <c r="K25" s="39" t="n">
-        <v>38.9</v>
+        <v>99.2</v>
       </c>
       <c r="L25" s="39" t="n">
-        <v>26.7</v>
+        <v>99.3</v>
       </c>
       <c r="M25" s="39" t="n">
-        <v>92</v>
+        <v>99.8</v>
       </c>
       <c r="N25" s="39" t="n">
-        <v>74.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="O25" s="39" t="n">
-        <v>35.4</v>
+        <v>26.9</v>
       </c>
       <c r="P25" s="39" t="n">
-        <v>23.7</v>
+        <v>41.4</v>
       </c>
       <c r="Q25" s="39" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="R25" s="39" t="n">
+        <v>22</v>
+      </c>
+      <c r="S25" s="39" t="n">
+        <v>49.2</v>
+      </c>
+      <c r="T25" s="39" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="U25" s="39" t="n">
+        <v>79.2</v>
+      </c>
+      <c r="V25" s="39" t="n">
+        <v>86.90000000000001</v>
+      </c>
+      <c r="W25" s="39" t="n">
         <v>35.8</v>
       </c>
-      <c r="R25" s="39" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="S25" s="39" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="T25" s="39" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="U25" s="39" t="n">
-        <v>91</v>
-      </c>
-      <c r="V25" s="39" t="n">
-        <v>92.59999999999999</v>
-      </c>
-      <c r="W25" s="39" t="n">
-        <v>47.6</v>
-      </c>
       <c r="X25" s="39" t="n">
-        <v>29.6</v>
+        <v>26.3</v>
       </c>
       <c r="Y25" s="39" t="inlineStr">
         <is>
-          <t>有色金属ETF</t>
+          <t>黄金ETF</t>
         </is>
       </c>
     </row>
@@ -14046,79 +14046,79 @@
         <v>24</v>
       </c>
       <c r="B26" s="39" t="n">
-        <v>513330</v>
+        <v>513360</v>
       </c>
       <c r="C26" s="39" t="inlineStr">
         <is>
-          <t>恒生互联网ETF</t>
+          <t>教育ETF</t>
         </is>
       </c>
       <c r="D26" s="39" t="n">
-        <v>241.12</v>
+        <v>6.31</v>
       </c>
       <c r="E26" s="39" t="n">
-        <v>20.2</v>
+        <v>4.4</v>
       </c>
       <c r="F26" s="39" t="n">
-        <v>60.7</v>
+        <v>43.1</v>
       </c>
       <c r="G26" s="39" t="n">
-        <v>69.59999999999999</v>
+        <v>62.3</v>
       </c>
       <c r="H26" s="39" t="n">
-        <v>81.8</v>
+        <v>70.3</v>
       </c>
       <c r="I26" s="39" t="n">
-        <v>84</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="J26" s="39" t="n">
-        <v>18.4</v>
+        <v>31.8</v>
       </c>
       <c r="K26" s="39" t="n">
-        <v>42.4</v>
+        <v>72</v>
       </c>
       <c r="L26" s="39" t="n">
-        <v>29.4</v>
+        <v>60.2</v>
       </c>
       <c r="M26" s="39" t="n">
-        <v>61.1</v>
+        <v>89</v>
       </c>
       <c r="N26" s="39" t="n">
-        <v>42.2</v>
+        <v>90.7</v>
       </c>
       <c r="O26" s="39" t="n">
-        <v>88.5</v>
+        <v>98.2</v>
       </c>
       <c r="P26" s="39" t="n">
-        <v>39.6</v>
+        <v>54.2</v>
       </c>
       <c r="Q26" s="39" t="n">
-        <v>66</v>
+        <v>22.5</v>
       </c>
       <c r="R26" s="39" t="n">
-        <v>66</v>
+        <v>41.3</v>
       </c>
       <c r="S26" s="39" t="n">
-        <v>66</v>
+        <v>64.3</v>
       </c>
       <c r="T26" s="39" t="n">
-        <v>91.5</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="U26" s="39" t="n">
-        <v>98.40000000000001</v>
+        <v>94.3</v>
       </c>
       <c r="V26" s="39" t="n">
-        <v>72.2</v>
+        <v>75.5</v>
       </c>
       <c r="W26" s="39" t="n">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="X26" s="39" t="n">
-        <v>30.9</v>
+        <v>27</v>
       </c>
       <c r="Y26" s="39" t="inlineStr">
         <is>
-          <t>恒生互联网ETF</t>
+          <t>教育ETF</t>
         </is>
       </c>
     </row>
@@ -14127,79 +14127,79 @@
         <v>25</v>
       </c>
       <c r="B27" s="39" t="n">
-        <v>513360</v>
+        <v>513330</v>
       </c>
       <c r="C27" s="39" t="inlineStr">
         <is>
-          <t>教育ETF</t>
+          <t>恒生互联网ETF</t>
         </is>
       </c>
       <c r="D27" s="39" t="n">
-        <v>6.32</v>
+        <v>240.61</v>
       </c>
       <c r="E27" s="39" t="n">
-        <v>4.4</v>
+        <v>20.2</v>
       </c>
       <c r="F27" s="39" t="n">
-        <v>43.1</v>
+        <v>60.7</v>
       </c>
       <c r="G27" s="39" t="n">
-        <v>62.3</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="H27" s="39" t="n">
-        <v>70.3</v>
+        <v>81.8</v>
       </c>
       <c r="I27" s="39" t="n">
-        <v>79.09999999999999</v>
+        <v>84</v>
       </c>
       <c r="J27" s="39" t="n">
-        <v>31.8</v>
+        <v>18.4</v>
       </c>
       <c r="K27" s="39" t="n">
-        <v>72</v>
+        <v>42.4</v>
       </c>
       <c r="L27" s="39" t="n">
-        <v>60.2</v>
+        <v>29.4</v>
       </c>
       <c r="M27" s="39" t="n">
-        <v>89</v>
+        <v>61.1</v>
       </c>
       <c r="N27" s="39" t="n">
-        <v>90.7</v>
+        <v>42.2</v>
       </c>
       <c r="O27" s="39" t="n">
-        <v>98.2</v>
+        <v>88.5</v>
       </c>
       <c r="P27" s="39" t="n">
-        <v>54.2</v>
+        <v>39.6</v>
       </c>
       <c r="Q27" s="39" t="n">
-        <v>22.5</v>
+        <v>66</v>
       </c>
       <c r="R27" s="39" t="n">
-        <v>41.3</v>
+        <v>66</v>
       </c>
       <c r="S27" s="39" t="n">
-        <v>64.3</v>
+        <v>66</v>
       </c>
       <c r="T27" s="39" t="n">
-        <v>87.09999999999999</v>
+        <v>91.5</v>
       </c>
       <c r="U27" s="39" t="n">
-        <v>94.3</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="V27" s="39" t="n">
-        <v>75.5</v>
+        <v>72.2</v>
       </c>
       <c r="W27" s="39" t="n">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="X27" s="39" t="n">
-        <v>31.5</v>
+        <v>27.8</v>
       </c>
       <c r="Y27" s="39" t="inlineStr">
         <is>
-          <t>教育ETF</t>
+          <t>恒生互联网ETF</t>
         </is>
       </c>
     </row>
@@ -14216,7 +14216,7 @@
         </is>
       </c>
       <c r="D28" s="39" t="n">
-        <v>19.23</v>
+        <v>19.2</v>
       </c>
       <c r="E28" s="39" t="n">
         <v>35.5</v>
@@ -14276,7 +14276,7 @@
         <v>64.2</v>
       </c>
       <c r="X28" s="39" t="n">
-        <v>33</v>
+        <v>29.4</v>
       </c>
       <c r="Y28" s="39" t="inlineStr">
         <is>
@@ -14289,79 +14289,79 @@
         <v>27</v>
       </c>
       <c r="B29" s="39" t="n">
-        <v>159865</v>
+        <v>517800</v>
       </c>
       <c r="C29" s="39" t="inlineStr">
         <is>
-          <t>养殖ETF</t>
+          <t>人工智能50ETF</t>
         </is>
       </c>
       <c r="D29" s="39" t="n">
-        <v>32.2</v>
+        <v>2.9</v>
       </c>
       <c r="E29" s="39" t="n">
-        <v>81.8</v>
+        <v>42.5</v>
       </c>
       <c r="F29" s="39" t="n">
-        <v>84.8</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="G29" s="39" t="n">
-        <v>28.9</v>
+        <v>72.5</v>
       </c>
       <c r="H29" s="39" t="n">
-        <v>41.7</v>
+        <v>83.7</v>
       </c>
       <c r="I29" s="39" t="n">
-        <v>37.2</v>
+        <v>61.4</v>
       </c>
       <c r="J29" s="39" t="n">
-        <v>18</v>
+        <v>26.3</v>
       </c>
       <c r="K29" s="39" t="n">
-        <v>18</v>
+        <v>56.3</v>
       </c>
       <c r="L29" s="39" t="n">
-        <v>5.2</v>
+        <v>61.5</v>
       </c>
       <c r="M29" s="39" t="n">
-        <v>35.7</v>
+        <v>86.8</v>
       </c>
       <c r="N29" s="39" t="n">
-        <v>80.3</v>
+        <v>40.4</v>
       </c>
       <c r="O29" s="39" t="n">
-        <v>23.8</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="P29" s="39" t="n">
-        <v>52</v>
+        <v>32.8</v>
       </c>
       <c r="Q29" s="39" t="n">
-        <v>36</v>
+        <v>55.8</v>
       </c>
       <c r="R29" s="39" t="n">
-        <v>17.8</v>
+        <v>65.3</v>
       </c>
       <c r="S29" s="39" t="n">
-        <v>48.8</v>
+        <v>65.3</v>
       </c>
       <c r="T29" s="39" t="n">
-        <v>32.5</v>
+        <v>95.3</v>
       </c>
       <c r="U29" s="39" t="n">
-        <v>71.09999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="V29" s="39" t="n">
-        <v>77.59999999999999</v>
+        <v>98.8</v>
       </c>
       <c r="W29" s="39" t="n">
-        <v>53.7</v>
+        <v>99</v>
       </c>
       <c r="X29" s="39" t="n">
-        <v>33.2</v>
+        <v>29.5</v>
       </c>
       <c r="Y29" s="39" t="inlineStr">
         <is>
-          <t>养殖ETF</t>
+          <t>人工智能50ETF</t>
         </is>
       </c>
     </row>
@@ -14370,79 +14370,79 @@
         <v>28</v>
       </c>
       <c r="B30" s="39" t="n">
-        <v>517800</v>
+        <v>159870</v>
       </c>
       <c r="C30" s="39" t="inlineStr">
         <is>
-          <t>人工智能50ETF</t>
+          <t>化工ETF</t>
         </is>
       </c>
       <c r="D30" s="39" t="n">
-        <v>2.91</v>
+        <v>14.24</v>
       </c>
       <c r="E30" s="39" t="n">
-        <v>42.5</v>
+        <v>34.4</v>
       </c>
       <c r="F30" s="39" t="n">
-        <v>65.90000000000001</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="G30" s="39" t="n">
-        <v>72.5</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="H30" s="39" t="n">
-        <v>83.7</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="I30" s="39" t="n">
-        <v>61.4</v>
+        <v>33.5</v>
       </c>
       <c r="J30" s="39" t="n">
-        <v>26.3</v>
+        <v>15.9</v>
       </c>
       <c r="K30" s="39" t="n">
-        <v>56.3</v>
+        <v>30.5</v>
       </c>
       <c r="L30" s="39" t="n">
-        <v>61.5</v>
+        <v>30.5</v>
       </c>
       <c r="M30" s="39" t="n">
-        <v>86.8</v>
+        <v>84.5</v>
       </c>
       <c r="N30" s="39" t="n">
-        <v>40.4</v>
+        <v>88.2</v>
       </c>
       <c r="O30" s="39" t="n">
-        <v>76.40000000000001</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="P30" s="39" t="n">
-        <v>32.8</v>
+        <v>72.3</v>
       </c>
       <c r="Q30" s="39" t="n">
-        <v>55.8</v>
+        <v>92</v>
       </c>
       <c r="R30" s="39" t="n">
-        <v>65.3</v>
+        <v>38</v>
       </c>
       <c r="S30" s="39" t="n">
-        <v>65.3</v>
+        <v>49.8</v>
       </c>
       <c r="T30" s="39" t="n">
-        <v>95.3</v>
+        <v>71.5</v>
       </c>
       <c r="U30" s="39" t="n">
-        <v>98.7</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="V30" s="39" t="n">
-        <v>98.8</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="W30" s="39" t="n">
-        <v>99</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="X30" s="39" t="n">
-        <v>33.4</v>
+        <v>30.3</v>
       </c>
       <c r="Y30" s="39" t="inlineStr">
         <is>
-          <t>人工智能50ETF</t>
+          <t>化工ETF</t>
         </is>
       </c>
     </row>
@@ -14459,7 +14459,7 @@
         </is>
       </c>
       <c r="D31" s="39" t="n">
-        <v>13.93</v>
+        <v>13.86</v>
       </c>
       <c r="E31" s="39" t="n">
         <v>53.7</v>
@@ -14519,7 +14519,7 @@
         <v>78.59999999999999</v>
       </c>
       <c r="X31" s="39" t="n">
-        <v>33.5</v>
+        <v>30.6</v>
       </c>
       <c r="Y31" s="39" t="inlineStr">
         <is>
@@ -14540,7 +14540,7 @@
         </is>
       </c>
       <c r="D32" s="39" t="n">
-        <v>283.42</v>
+        <v>282.87</v>
       </c>
       <c r="E32" s="39" t="n">
         <v>50.6</v>
@@ -14600,7 +14600,7 @@
         <v>96.09999999999999</v>
       </c>
       <c r="X32" s="39" t="n">
-        <v>34.4</v>
+        <v>30.8</v>
       </c>
       <c r="Y32" s="39" t="inlineStr">
         <is>
@@ -14613,79 +14613,79 @@
         <v>31</v>
       </c>
       <c r="B33" s="39" t="n">
-        <v>159792</v>
+        <v>159998</v>
       </c>
       <c r="C33" s="39" t="inlineStr">
         <is>
-          <t>港股通互联网ETF</t>
+          <t>计算机ETF</t>
         </is>
       </c>
       <c r="D33" s="39" t="n">
-        <v>488.04</v>
+        <v>30.32</v>
       </c>
       <c r="E33" s="39" t="n">
-        <v>35.1</v>
+        <v>57.8</v>
       </c>
       <c r="F33" s="39" t="n">
-        <v>66.90000000000001</v>
+        <v>67</v>
       </c>
       <c r="G33" s="39" t="n">
-        <v>72.5</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="H33" s="39" t="n">
-        <v>76.5</v>
+        <v>81.3</v>
       </c>
       <c r="I33" s="39" t="n">
-        <v>64.09999999999999</v>
+        <v>46.7</v>
       </c>
       <c r="J33" s="39" t="n">
-        <v>11.6</v>
+        <v>20.5</v>
       </c>
       <c r="K33" s="39" t="n">
-        <v>34.6</v>
+        <v>36.4</v>
       </c>
       <c r="L33" s="39" t="n">
-        <v>29.5</v>
+        <v>30.3</v>
       </c>
       <c r="M33" s="39" t="n">
-        <v>65.3</v>
+        <v>90.5</v>
       </c>
       <c r="N33" s="39" t="n">
-        <v>85.90000000000001</v>
+        <v>41.5</v>
       </c>
       <c r="O33" s="39" t="n">
-        <v>96.7</v>
+        <v>58.7</v>
       </c>
       <c r="P33" s="39" t="n">
-        <v>56.4</v>
+        <v>17.5</v>
       </c>
       <c r="Q33" s="39" t="n">
-        <v>71.2</v>
+        <v>47.2</v>
       </c>
       <c r="R33" s="39" t="n">
-        <v>77</v>
+        <v>34.7</v>
       </c>
       <c r="S33" s="39" t="n">
-        <v>50</v>
+        <v>60.7</v>
       </c>
       <c r="T33" s="39" t="n">
-        <v>89.3</v>
+        <v>90.2</v>
       </c>
       <c r="U33" s="39" t="n">
-        <v>96.90000000000001</v>
+        <v>97</v>
       </c>
       <c r="V33" s="39" t="n">
-        <v>63.3</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="W33" s="39" t="n">
-        <v>63.3</v>
+        <v>80.7</v>
       </c>
       <c r="X33" s="39" t="n">
-        <v>35</v>
+        <v>32.1</v>
       </c>
       <c r="Y33" s="39" t="inlineStr">
         <is>
-          <t>港股通互联网ETF</t>
+          <t>计算机ETF</t>
         </is>
       </c>
     </row>
@@ -14694,79 +14694,79 @@
         <v>32</v>
       </c>
       <c r="B34" s="39" t="n">
-        <v>159870</v>
+        <v>159732</v>
       </c>
       <c r="C34" s="39" t="inlineStr">
         <is>
-          <t>化工ETF</t>
+          <t>消费电子ETF</t>
         </is>
       </c>
       <c r="D34" s="39" t="n">
-        <v>14.27</v>
+        <v>16.81</v>
       </c>
       <c r="E34" s="39" t="n">
-        <v>34.4</v>
+        <v>24.4</v>
       </c>
       <c r="F34" s="39" t="n">
-        <v>64.40000000000001</v>
+        <v>61.7</v>
       </c>
       <c r="G34" s="39" t="n">
-        <v>67.40000000000001</v>
+        <v>80.7</v>
       </c>
       <c r="H34" s="39" t="n">
-        <v>75.59999999999999</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="I34" s="39" t="n">
-        <v>33.5</v>
+        <v>54.8</v>
       </c>
       <c r="J34" s="39" t="n">
-        <v>15.9</v>
+        <v>29.6</v>
       </c>
       <c r="K34" s="39" t="n">
-        <v>30.5</v>
+        <v>29.6</v>
       </c>
       <c r="L34" s="39" t="n">
-        <v>30.5</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="M34" s="39" t="n">
-        <v>84.5</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="N34" s="39" t="n">
-        <v>88.2</v>
+        <v>37.9</v>
       </c>
       <c r="O34" s="39" t="n">
-        <v>95.90000000000001</v>
+        <v>71.2</v>
       </c>
       <c r="P34" s="39" t="n">
-        <v>72.3</v>
+        <v>41.5</v>
       </c>
       <c r="Q34" s="39" t="n">
-        <v>92</v>
+        <v>55.5</v>
       </c>
       <c r="R34" s="39" t="n">
-        <v>38</v>
+        <v>30.9</v>
       </c>
       <c r="S34" s="39" t="n">
-        <v>49.8</v>
+        <v>66.5</v>
       </c>
       <c r="T34" s="39" t="n">
-        <v>71.5</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="U34" s="39" t="n">
-        <v>93.59999999999999</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="V34" s="39" t="n">
-        <v>96.40000000000001</v>
+        <v>64.7</v>
       </c>
       <c r="W34" s="39" t="n">
-        <v>67.09999999999999</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="X34" s="39" t="n">
-        <v>35.1</v>
+        <v>34.9</v>
       </c>
       <c r="Y34" s="39" t="inlineStr">
         <is>
-          <t>化工ETF</t>
+          <t>消费电子ETF</t>
         </is>
       </c>
     </row>
@@ -14775,79 +14775,79 @@
         <v>33</v>
       </c>
       <c r="B35" s="39" t="n">
-        <v>159998</v>
+        <v>159792</v>
       </c>
       <c r="C35" s="39" t="inlineStr">
         <is>
-          <t>计算机ETF</t>
+          <t>港股通互联网ETF</t>
         </is>
       </c>
       <c r="D35" s="39" t="n">
-        <v>30.39</v>
+        <v>487.46</v>
       </c>
       <c r="E35" s="39" t="n">
-        <v>57.8</v>
+        <v>35.1</v>
       </c>
       <c r="F35" s="39" t="n">
-        <v>67</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="G35" s="39" t="n">
-        <v>78.59999999999999</v>
+        <v>72.5</v>
       </c>
       <c r="H35" s="39" t="n">
-        <v>81.3</v>
+        <v>76.5</v>
       </c>
       <c r="I35" s="39" t="n">
-        <v>46.7</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="J35" s="39" t="n">
-        <v>20.5</v>
+        <v>11.6</v>
       </c>
       <c r="K35" s="39" t="n">
-        <v>36.4</v>
+        <v>34.6</v>
       </c>
       <c r="L35" s="39" t="n">
-        <v>30.3</v>
+        <v>29.5</v>
       </c>
       <c r="M35" s="39" t="n">
-        <v>90.5</v>
+        <v>65.3</v>
       </c>
       <c r="N35" s="39" t="n">
-        <v>41.5</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="O35" s="39" t="n">
-        <v>58.7</v>
+        <v>96.7</v>
       </c>
       <c r="P35" s="39" t="n">
-        <v>17.5</v>
+        <v>56.4</v>
       </c>
       <c r="Q35" s="39" t="n">
-        <v>47.2</v>
+        <v>71.2</v>
       </c>
       <c r="R35" s="39" t="n">
-        <v>34.7</v>
+        <v>77</v>
       </c>
       <c r="S35" s="39" t="n">
-        <v>60.7</v>
+        <v>50</v>
       </c>
       <c r="T35" s="39" t="n">
-        <v>90.2</v>
+        <v>89.3</v>
       </c>
       <c r="U35" s="39" t="n">
-        <v>97</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="V35" s="39" t="n">
-        <v>74.90000000000001</v>
+        <v>63.3</v>
       </c>
       <c r="W35" s="39" t="n">
-        <v>80.7</v>
+        <v>63.3</v>
       </c>
       <c r="X35" s="39" t="n">
-        <v>35.4</v>
+        <v>35</v>
       </c>
       <c r="Y35" s="39" t="inlineStr">
         <is>
-          <t>计算机ETF</t>
+          <t>港股通互联网ETF</t>
         </is>
       </c>
     </row>
@@ -14856,79 +14856,79 @@
         <v>34</v>
       </c>
       <c r="B36" s="39" t="n">
-        <v>512170</v>
+        <v>562500</v>
       </c>
       <c r="C36" s="39" t="inlineStr">
         <is>
-          <t>医疗ETF</t>
+          <t>机器人ETF</t>
         </is>
       </c>
       <c r="D36" s="39" t="n">
-        <v>258.89</v>
+        <v>139.69</v>
       </c>
       <c r="E36" s="39" t="n">
-        <v>23.8</v>
+        <v>31</v>
       </c>
       <c r="F36" s="39" t="n">
-        <v>62.5</v>
+        <v>59.8</v>
       </c>
       <c r="G36" s="39" t="n">
-        <v>62.5</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="H36" s="39" t="n">
-        <v>72</v>
+        <v>75.8</v>
       </c>
       <c r="I36" s="39" t="n">
-        <v>35.8</v>
+        <v>53.4</v>
       </c>
       <c r="J36" s="39" t="n">
-        <v>11.9</v>
+        <v>25.9</v>
       </c>
       <c r="K36" s="39" t="n">
-        <v>33.9</v>
+        <v>19.3</v>
       </c>
       <c r="L36" s="39" t="n">
-        <v>22.6</v>
+        <v>19.3</v>
       </c>
       <c r="M36" s="39" t="n">
-        <v>74.2</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="N36" s="39" t="n">
-        <v>74.2</v>
+        <v>56.9</v>
       </c>
       <c r="O36" s="39" t="n">
-        <v>74.2</v>
+        <v>88.5</v>
       </c>
       <c r="P36" s="39" t="n">
-        <v>74.2</v>
+        <v>58.7</v>
       </c>
       <c r="Q36" s="39" t="n">
-        <v>94.3</v>
+        <v>68.2</v>
       </c>
       <c r="R36" s="39" t="n">
-        <v>16.6</v>
+        <v>28.6</v>
       </c>
       <c r="S36" s="39" t="n">
-        <v>73.90000000000001</v>
+        <v>67</v>
       </c>
       <c r="T36" s="39" t="n">
-        <v>84.5</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="U36" s="39" t="n">
-        <v>94.90000000000001</v>
+        <v>95.2</v>
       </c>
       <c r="V36" s="39" t="n">
-        <v>74.8</v>
+        <v>90.5</v>
       </c>
       <c r="W36" s="39" t="n">
-        <v>82.3</v>
+        <v>94.7</v>
       </c>
       <c r="X36" s="39" t="n">
-        <v>37.6</v>
+        <v>37.2</v>
       </c>
       <c r="Y36" s="39" t="inlineStr">
         <is>
-          <t>医疗ETF</t>
+          <t>机器人ETF</t>
         </is>
       </c>
     </row>
@@ -14937,79 +14937,79 @@
         <v>35</v>
       </c>
       <c r="B37" s="39" t="n">
-        <v>159732</v>
+        <v>512170</v>
       </c>
       <c r="C37" s="39" t="inlineStr">
         <is>
-          <t>消费电子ETF</t>
+          <t>医疗ETF</t>
         </is>
       </c>
       <c r="D37" s="39" t="n">
-        <v>16.83</v>
+        <v>258.89</v>
       </c>
       <c r="E37" s="39" t="n">
-        <v>24.4</v>
+        <v>23.8</v>
       </c>
       <c r="F37" s="39" t="n">
-        <v>61.7</v>
+        <v>62.5</v>
       </c>
       <c r="G37" s="39" t="n">
-        <v>80.7</v>
+        <v>62.5</v>
       </c>
       <c r="H37" s="39" t="n">
-        <v>82.09999999999999</v>
+        <v>72</v>
       </c>
       <c r="I37" s="39" t="n">
-        <v>54.8</v>
+        <v>35.8</v>
       </c>
       <c r="J37" s="39" t="n">
-        <v>29.6</v>
+        <v>11.9</v>
       </c>
       <c r="K37" s="39" t="n">
-        <v>29.6</v>
+        <v>33.9</v>
       </c>
       <c r="L37" s="39" t="n">
-        <v>68.40000000000001</v>
+        <v>22.6</v>
       </c>
       <c r="M37" s="39" t="n">
-        <v>90.09999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="N37" s="39" t="n">
-        <v>37.9</v>
+        <v>74.2</v>
       </c>
       <c r="O37" s="39" t="n">
-        <v>71.2</v>
+        <v>74.2</v>
       </c>
       <c r="P37" s="39" t="n">
-        <v>41.5</v>
+        <v>74.2</v>
       </c>
       <c r="Q37" s="39" t="n">
-        <v>55.5</v>
+        <v>94.3</v>
       </c>
       <c r="R37" s="39" t="n">
-        <v>30.9</v>
+        <v>16.6</v>
       </c>
       <c r="S37" s="39" t="n">
-        <v>66.5</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="T37" s="39" t="n">
-        <v>89.59999999999999</v>
+        <v>84.5</v>
       </c>
       <c r="U37" s="39" t="n">
-        <v>96.59999999999999</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="V37" s="39" t="n">
-        <v>64.7</v>
+        <v>74.8</v>
       </c>
       <c r="W37" s="39" t="n">
-        <v>79.90000000000001</v>
+        <v>82.3</v>
       </c>
       <c r="X37" s="39" t="n">
-        <v>38.5</v>
+        <v>37.6</v>
       </c>
       <c r="Y37" s="39" t="inlineStr">
         <is>
-          <t>消费电子ETF</t>
+          <t>医疗ETF</t>
         </is>
       </c>
     </row>
@@ -15018,79 +15018,79 @@
         <v>36</v>
       </c>
       <c r="B38" s="39" t="n">
-        <v>562500</v>
+        <v>512400</v>
       </c>
       <c r="C38" s="39" t="inlineStr">
         <is>
-          <t>机器人ETF</t>
+          <t>有色金属ETF</t>
         </is>
       </c>
       <c r="D38" s="39" t="n">
-        <v>139.85</v>
+        <v>45.59</v>
       </c>
       <c r="E38" s="39" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F38" s="39" t="n">
-        <v>59.8</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="G38" s="39" t="n">
-        <v>73.59999999999999</v>
+        <v>81</v>
       </c>
       <c r="H38" s="39" t="n">
-        <v>75.8</v>
+        <v>91.8</v>
       </c>
       <c r="I38" s="39" t="n">
-        <v>53.4</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="J38" s="39" t="n">
-        <v>25.9</v>
+        <v>63.2</v>
       </c>
       <c r="K38" s="39" t="n">
-        <v>19.3</v>
+        <v>38.9</v>
       </c>
       <c r="L38" s="39" t="n">
-        <v>19.3</v>
+        <v>26.7</v>
       </c>
       <c r="M38" s="39" t="n">
-        <v>90.09999999999999</v>
+        <v>92</v>
       </c>
       <c r="N38" s="39" t="n">
-        <v>56.9</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="O38" s="39" t="n">
-        <v>88.5</v>
+        <v>35.4</v>
       </c>
       <c r="P38" s="39" t="n">
-        <v>58.7</v>
+        <v>23.7</v>
       </c>
       <c r="Q38" s="39" t="n">
-        <v>68.2</v>
+        <v>35.8</v>
       </c>
       <c r="R38" s="39" t="n">
-        <v>28.6</v>
+        <v>21.9</v>
       </c>
       <c r="S38" s="39" t="n">
-        <v>67</v>
+        <v>15.8</v>
       </c>
       <c r="T38" s="39" t="n">
-        <v>90.09999999999999</v>
+        <v>10.1</v>
       </c>
       <c r="U38" s="39" t="n">
-        <v>95.2</v>
+        <v>91</v>
       </c>
       <c r="V38" s="39" t="n">
-        <v>90.5</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="W38" s="39" t="n">
-        <v>94.7</v>
+        <v>47.6</v>
       </c>
       <c r="X38" s="39" t="n">
-        <v>38.9</v>
+        <v>38.2</v>
       </c>
       <c r="Y38" s="39" t="inlineStr">
         <is>
-          <t>机器人ETF</t>
+          <t>有色金属ETF</t>
         </is>
       </c>
     </row>
@@ -15099,79 +15099,79 @@
         <v>37</v>
       </c>
       <c r="B39" s="39" t="n">
-        <v>515220</v>
+        <v>516970</v>
       </c>
       <c r="C39" s="39" t="inlineStr">
         <is>
-          <t>煤炭ETF</t>
+          <t>基建50ETF</t>
         </is>
       </c>
       <c r="D39" s="39" t="n">
-        <v>34.9</v>
+        <v>24.38</v>
       </c>
       <c r="E39" s="39" t="n">
-        <v>44.1</v>
+        <v>65.3</v>
       </c>
       <c r="F39" s="39" t="n">
-        <v>56.4</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="G39" s="39" t="n">
-        <v>39.1</v>
+        <v>49.9</v>
       </c>
       <c r="H39" s="39" t="n">
-        <v>82.40000000000001</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="I39" s="39" t="n">
-        <v>77.8</v>
+        <v>43</v>
       </c>
       <c r="J39" s="39" t="n">
-        <v>77.8</v>
+        <v>50</v>
       </c>
       <c r="K39" s="39" t="n">
-        <v>63.6</v>
+        <v>71.2</v>
       </c>
       <c r="L39" s="39" t="n">
-        <v>22.5</v>
+        <v>90.3</v>
       </c>
       <c r="M39" s="39" t="n">
-        <v>38.4</v>
+        <v>65.5</v>
       </c>
       <c r="N39" s="39" t="n">
-        <v>21.1</v>
+        <v>88.2</v>
       </c>
       <c r="O39" s="39" t="n">
-        <v>14.5</v>
+        <v>88.2</v>
       </c>
       <c r="P39" s="39" t="n">
-        <v>61.9</v>
+        <v>41.4</v>
       </c>
       <c r="Q39" s="39" t="n">
-        <v>29.4</v>
+        <v>81.2</v>
       </c>
       <c r="R39" s="39" t="n">
-        <v>4</v>
+        <v>21.8</v>
       </c>
       <c r="S39" s="39" t="n">
-        <v>1.9</v>
+        <v>17.6</v>
       </c>
       <c r="T39" s="39" t="n">
-        <v>1.1</v>
+        <v>8.9</v>
       </c>
       <c r="U39" s="39" t="n">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="V39" s="39" t="n">
-        <v>78.2</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="W39" s="39" t="n">
-        <v>80.90000000000001</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="X39" s="39" t="n">
-        <v>40.6</v>
+        <v>38.2</v>
       </c>
       <c r="Y39" s="39" t="inlineStr">
         <is>
-          <t>煤炭ETF</t>
+          <t>基建50ETF</t>
         </is>
       </c>
     </row>
@@ -15179,82 +15179,80 @@
       <c r="A40" s="39" t="n">
         <v>38</v>
       </c>
-      <c r="B40" s="39" t="inlineStr">
-        <is>
-          <t>515070</t>
-        </is>
+      <c r="B40" s="39" t="n">
+        <v>510500</v>
       </c>
       <c r="C40" s="39" t="inlineStr">
         <is>
-          <t>人工智能AIETF</t>
+          <t>中证500ETF</t>
         </is>
       </c>
       <c r="D40" s="39" t="n">
-        <v>51.95</v>
+        <v>1110.97</v>
       </c>
       <c r="E40" s="39" t="n">
-        <v>43.8</v>
+        <v>47.3</v>
       </c>
       <c r="F40" s="39" t="n">
+        <v>70.09999999999999</v>
+      </c>
+      <c r="G40" s="39" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="H40" s="39" t="n">
+        <v>85.2</v>
+      </c>
+      <c r="I40" s="39" t="n">
+        <v>62.2</v>
+      </c>
+      <c r="J40" s="39" t="n">
+        <v>29</v>
+      </c>
+      <c r="K40" s="39" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="L40" s="39" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="M40" s="39" t="n">
+        <v>91.40000000000001</v>
+      </c>
+      <c r="N40" s="39" t="n">
+        <v>69.5</v>
+      </c>
+      <c r="O40" s="39" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="P40" s="39" t="n">
+        <v>37.1</v>
+      </c>
+      <c r="Q40" s="39" t="n">
         <v>63.5</v>
       </c>
-      <c r="G40" s="39" t="n">
-        <v>78.2</v>
-      </c>
-      <c r="H40" s="39" t="n">
-        <v>83.59999999999999</v>
-      </c>
-      <c r="I40" s="39" t="n">
-        <v>53.9</v>
-      </c>
-      <c r="J40" s="39" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="K40" s="39" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="L40" s="39" t="n">
-        <v>63.9</v>
-      </c>
-      <c r="M40" s="39" t="n">
-        <v>93</v>
-      </c>
-      <c r="N40" s="39" t="n">
-        <v>44.8</v>
-      </c>
-      <c r="O40" s="39" t="n">
-        <v>70.8</v>
-      </c>
-      <c r="P40" s="39" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="Q40" s="39" t="n">
-        <v>55</v>
-      </c>
       <c r="R40" s="39" t="n">
-        <v>47.8</v>
+        <v>26.9</v>
       </c>
       <c r="S40" s="39" t="n">
-        <v>70.8</v>
+        <v>35.5</v>
       </c>
       <c r="T40" s="39" t="n">
-        <v>94.5</v>
+        <v>79.8</v>
       </c>
       <c r="U40" s="39" t="n">
-        <v>97.90000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="V40" s="39" t="n">
-        <v>75.8</v>
+        <v>97.2</v>
       </c>
       <c r="W40" s="39" t="n">
-        <v>86.40000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="X40" s="39" t="n">
-        <v>41.3</v>
+        <v>39.7</v>
       </c>
       <c r="Y40" s="39" t="inlineStr">
         <is>
-          <t>人工智能AIETF</t>
+          <t>中证500ETF</t>
         </is>
       </c>
     </row>
@@ -15263,79 +15261,79 @@
         <v>39</v>
       </c>
       <c r="B41" s="39" t="n">
-        <v>516970</v>
+        <v>515980</v>
       </c>
       <c r="C41" s="39" t="inlineStr">
         <is>
-          <t>基建50ETF</t>
+          <t>人工智能ETF</t>
         </is>
       </c>
       <c r="D41" s="39" t="n">
-        <v>24.4</v>
+        <v>35.72</v>
       </c>
       <c r="E41" s="39" t="n">
-        <v>65.3</v>
+        <v>42</v>
       </c>
       <c r="F41" s="39" t="n">
-        <v>69.09999999999999</v>
+        <v>62.1</v>
       </c>
       <c r="G41" s="39" t="n">
-        <v>49.9</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="H41" s="39" t="n">
-        <v>66.09999999999999</v>
+        <v>82.8</v>
       </c>
       <c r="I41" s="39" t="n">
-        <v>43</v>
+        <v>54.1</v>
       </c>
       <c r="J41" s="39" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="K41" s="39" t="n">
-        <v>71.2</v>
+        <v>57.9</v>
       </c>
       <c r="L41" s="39" t="n">
-        <v>90.3</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="M41" s="39" t="n">
-        <v>65.5</v>
+        <v>92.8</v>
       </c>
       <c r="N41" s="39" t="n">
-        <v>88.2</v>
+        <v>43.5</v>
       </c>
       <c r="O41" s="39" t="n">
-        <v>88.2</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="P41" s="39" t="n">
-        <v>41.4</v>
+        <v>28.1</v>
       </c>
       <c r="Q41" s="39" t="n">
-        <v>81.2</v>
+        <v>57.1</v>
       </c>
       <c r="R41" s="39" t="n">
-        <v>21.8</v>
+        <v>41.8</v>
       </c>
       <c r="S41" s="39" t="n">
-        <v>17.6</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="T41" s="39" t="n">
-        <v>8.9</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="U41" s="39" t="n">
-        <v>73</v>
+        <v>96.8</v>
       </c>
       <c r="V41" s="39" t="n">
-        <v>81.59999999999999</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="W41" s="39" t="n">
-        <v>87.59999999999999</v>
+        <v>87.5</v>
       </c>
       <c r="X41" s="39" t="n">
-        <v>42.1</v>
+        <v>39.8</v>
       </c>
       <c r="Y41" s="39" t="inlineStr">
         <is>
-          <t>基建50ETF</t>
+          <t>人工智能ETF</t>
         </is>
       </c>
     </row>
@@ -15343,80 +15341,82 @@
       <c r="A42" s="39" t="n">
         <v>40</v>
       </c>
-      <c r="B42" s="39" t="n">
-        <v>516110</v>
+      <c r="B42" s="39" t="inlineStr">
+        <is>
+          <t>515070</t>
+        </is>
       </c>
       <c r="C42" s="39" t="inlineStr">
         <is>
-          <t>汽车ETF</t>
+          <t>人工智能AIETF</t>
         </is>
       </c>
       <c r="D42" s="39" t="n">
-        <v>4.41</v>
+        <v>51.87</v>
       </c>
       <c r="E42" s="39" t="n">
-        <v>26.9</v>
+        <v>43.8</v>
       </c>
       <c r="F42" s="39" t="n">
-        <v>71</v>
+        <v>63.5</v>
       </c>
       <c r="G42" s="39" t="n">
-        <v>85.3</v>
+        <v>78.2</v>
       </c>
       <c r="H42" s="39" t="n">
-        <v>89.7</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="I42" s="39" t="n">
-        <v>70.3</v>
+        <v>53.9</v>
       </c>
       <c r="J42" s="39" t="n">
-        <v>42.6</v>
+        <v>34.4</v>
       </c>
       <c r="K42" s="39" t="n">
-        <v>18.4</v>
+        <v>54.8</v>
       </c>
       <c r="L42" s="39" t="n">
-        <v>29.1</v>
+        <v>63.9</v>
       </c>
       <c r="M42" s="39" t="n">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="N42" s="39" t="n">
-        <v>64</v>
+        <v>44.8</v>
       </c>
       <c r="O42" s="39" t="n">
-        <v>93</v>
+        <v>70.8</v>
       </c>
       <c r="P42" s="39" t="n">
-        <v>60.5</v>
+        <v>27.6</v>
       </c>
       <c r="Q42" s="39" t="n">
-        <v>75.90000000000001</v>
+        <v>55</v>
       </c>
       <c r="R42" s="39" t="n">
-        <v>31.6</v>
+        <v>47.8</v>
       </c>
       <c r="S42" s="39" t="n">
-        <v>29.7</v>
+        <v>70.8</v>
       </c>
       <c r="T42" s="39" t="n">
-        <v>78.8</v>
+        <v>94.5</v>
       </c>
       <c r="U42" s="39" t="n">
-        <v>90.59999999999999</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="V42" s="39" t="n">
-        <v>75.7</v>
+        <v>75.8</v>
       </c>
       <c r="W42" s="39" t="n">
-        <v>80.09999999999999</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="X42" s="39" t="n">
-        <v>42.2</v>
+        <v>39.9</v>
       </c>
       <c r="Y42" s="39" t="inlineStr">
         <is>
-          <t>汽车ETF</t>
+          <t>人工智能AIETF</t>
         </is>
       </c>
     </row>
@@ -15425,79 +15425,79 @@
         <v>41</v>
       </c>
       <c r="B43" s="39" t="n">
-        <v>515980</v>
+        <v>515790</v>
       </c>
       <c r="C43" s="39" t="inlineStr">
         <is>
-          <t>人工智能ETF</t>
+          <t>光伏ETF</t>
         </is>
       </c>
       <c r="D43" s="39" t="n">
-        <v>35.75</v>
+        <v>89.92</v>
       </c>
       <c r="E43" s="39" t="n">
-        <v>42</v>
+        <v>17.1</v>
       </c>
       <c r="F43" s="39" t="n">
-        <v>62.1</v>
+        <v>60.5</v>
       </c>
       <c r="G43" s="39" t="n">
-        <v>76.59999999999999</v>
+        <v>64.8</v>
       </c>
       <c r="H43" s="39" t="n">
-        <v>82.8</v>
+        <v>75.5</v>
       </c>
       <c r="I43" s="39" t="n">
-        <v>54.1</v>
+        <v>51.8</v>
       </c>
       <c r="J43" s="39" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="K43" s="39" t="n">
-        <v>57.9</v>
+        <v>19.4</v>
       </c>
       <c r="L43" s="39" t="n">
-        <v>66.40000000000001</v>
+        <v>11.9</v>
       </c>
       <c r="M43" s="39" t="n">
-        <v>92.8</v>
+        <v>59.1</v>
       </c>
       <c r="N43" s="39" t="n">
-        <v>43.5</v>
+        <v>34.5</v>
       </c>
       <c r="O43" s="39" t="n">
-        <v>72.59999999999999</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="P43" s="39" t="n">
-        <v>28.1</v>
+        <v>19.7</v>
       </c>
       <c r="Q43" s="39" t="n">
-        <v>57.1</v>
+        <v>56</v>
       </c>
       <c r="R43" s="39" t="n">
-        <v>41.8</v>
+        <v>56</v>
       </c>
       <c r="S43" s="39" t="n">
-        <v>64.59999999999999</v>
+        <v>29.4</v>
       </c>
       <c r="T43" s="39" t="n">
-        <v>91.40000000000001</v>
+        <v>52.1</v>
       </c>
       <c r="U43" s="39" t="n">
-        <v>96.8</v>
+        <v>95.8</v>
       </c>
       <c r="V43" s="39" t="n">
-        <v>75.59999999999999</v>
+        <v>95.8</v>
       </c>
       <c r="W43" s="39" t="n">
-        <v>87.5</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="X43" s="39" t="n">
-        <v>42.7</v>
+        <v>40.1</v>
       </c>
       <c r="Y43" s="39" t="inlineStr">
         <is>
-          <t>人工智能ETF</t>
+          <t>光伏ETF</t>
         </is>
       </c>
     </row>
@@ -15506,79 +15506,79 @@
         <v>42</v>
       </c>
       <c r="B44" s="39" t="n">
-        <v>510500</v>
+        <v>512100</v>
       </c>
       <c r="C44" s="39" t="inlineStr">
         <is>
-          <t>中证500ETF</t>
+          <t>中证1000ETF</t>
         </is>
       </c>
       <c r="D44" s="39" t="n">
-        <v>1112.33</v>
+        <v>647.08</v>
       </c>
       <c r="E44" s="39" t="n">
-        <v>47.3</v>
+        <v>35.1</v>
       </c>
       <c r="F44" s="39" t="n">
-        <v>70.09999999999999</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="G44" s="39" t="n">
-        <v>77.09999999999999</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="H44" s="39" t="n">
-        <v>85.2</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="I44" s="39" t="n">
-        <v>62.2</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="J44" s="39" t="n">
-        <v>29</v>
+        <v>30.5</v>
       </c>
       <c r="K44" s="39" t="n">
-        <v>33.4</v>
+        <v>33.1</v>
       </c>
       <c r="L44" s="39" t="n">
-        <v>38.4</v>
+        <v>25.6</v>
       </c>
       <c r="M44" s="39" t="n">
-        <v>91.40000000000001</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="N44" s="39" t="n">
-        <v>69.5</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="O44" s="39" t="n">
-        <v>77.5</v>
+        <v>94.2</v>
       </c>
       <c r="P44" s="39" t="n">
-        <v>37.1</v>
+        <v>35.8</v>
       </c>
       <c r="Q44" s="39" t="n">
-        <v>63.5</v>
+        <v>49.4</v>
       </c>
       <c r="R44" s="39" t="n">
-        <v>26.9</v>
+        <v>15.8</v>
       </c>
       <c r="S44" s="39" t="n">
-        <v>35.5</v>
+        <v>49.1</v>
       </c>
       <c r="T44" s="39" t="n">
-        <v>79.8</v>
+        <v>76.7</v>
       </c>
       <c r="U44" s="39" t="n">
-        <v>96.8</v>
+        <v>95</v>
       </c>
       <c r="V44" s="39" t="n">
-        <v>97.2</v>
+        <v>95.3</v>
       </c>
       <c r="W44" s="39" t="n">
-        <v>98.3</v>
+        <v>97.7</v>
       </c>
       <c r="X44" s="39" t="n">
-        <v>43.7</v>
+        <v>40.5</v>
       </c>
       <c r="Y44" s="39" t="inlineStr">
         <is>
-          <t>中证500ETF</t>
+          <t>中证1000ETF</t>
         </is>
       </c>
     </row>
@@ -15587,79 +15587,79 @@
         <v>43</v>
       </c>
       <c r="B45" s="39" t="n">
-        <v>515790</v>
+        <v>516910</v>
       </c>
       <c r="C45" s="39" t="inlineStr">
         <is>
-          <t>光伏ETF</t>
+          <t>物流ETF</t>
         </is>
       </c>
       <c r="D45" s="39" t="n">
-        <v>90.06</v>
+        <v>0.55</v>
       </c>
       <c r="E45" s="39" t="n">
-        <v>17.1</v>
+        <v>57.5</v>
       </c>
       <c r="F45" s="39" t="n">
-        <v>60.5</v>
+        <v>80</v>
       </c>
       <c r="G45" s="39" t="n">
-        <v>64.8</v>
+        <v>61.4</v>
       </c>
       <c r="H45" s="39" t="n">
-        <v>75.5</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="I45" s="39" t="n">
-        <v>51.8</v>
+        <v>55.2</v>
       </c>
       <c r="J45" s="39" t="n">
-        <v>23</v>
+        <v>73.8</v>
       </c>
       <c r="K45" s="39" t="n">
-        <v>19.4</v>
+        <v>80.3</v>
       </c>
       <c r="L45" s="39" t="n">
-        <v>11.9</v>
+        <v>64.3</v>
       </c>
       <c r="M45" s="39" t="n">
-        <v>59.1</v>
+        <v>35.8</v>
       </c>
       <c r="N45" s="39" t="n">
-        <v>34.5</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="O45" s="39" t="n">
-        <v>70.90000000000001</v>
+        <v>55.5</v>
       </c>
       <c r="P45" s="39" t="n">
-        <v>19.7</v>
+        <v>40.4</v>
       </c>
       <c r="Q45" s="39" t="n">
-        <v>56</v>
+        <v>61.4</v>
       </c>
       <c r="R45" s="39" t="n">
-        <v>56</v>
+        <v>22.2</v>
       </c>
       <c r="S45" s="39" t="n">
-        <v>29.4</v>
+        <v>38</v>
       </c>
       <c r="T45" s="39" t="n">
-        <v>52.1</v>
+        <v>12.5</v>
       </c>
       <c r="U45" s="39" t="n">
-        <v>95.8</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="V45" s="39" t="n">
-        <v>95.8</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="W45" s="39" t="n">
-        <v>98.90000000000001</v>
+        <v>55.1</v>
       </c>
       <c r="X45" s="39" t="n">
-        <v>44.5</v>
+        <v>43.6</v>
       </c>
       <c r="Y45" s="39" t="inlineStr">
         <is>
-          <t>光伏ETF</t>
+          <t>物流ETF</t>
         </is>
       </c>
     </row>
@@ -15668,79 +15668,79 @@
         <v>44</v>
       </c>
       <c r="B46" s="39" t="n">
-        <v>513060</v>
+        <v>513090</v>
       </c>
       <c r="C46" s="39" t="inlineStr">
         <is>
-          <t>恒生医疗ETF</t>
+          <t>香港证券ETF</t>
         </is>
       </c>
       <c r="D46" s="39" t="n">
-        <v>99.55</v>
+        <v>72.51000000000001</v>
       </c>
       <c r="E46" s="39" t="n">
-        <v>15.4</v>
+        <v>24.6</v>
       </c>
       <c r="F46" s="39" t="n">
-        <v>56.9</v>
+        <v>58.1</v>
       </c>
       <c r="G46" s="39" t="n">
-        <v>77.5</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="H46" s="39" t="n">
-        <v>90.8</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="I46" s="39" t="n">
-        <v>67.90000000000001</v>
+        <v>80.2</v>
       </c>
       <c r="J46" s="39" t="n">
-        <v>32.5</v>
+        <v>33.6</v>
       </c>
       <c r="K46" s="39" t="n">
-        <v>37.5</v>
+        <v>44.4</v>
       </c>
       <c r="L46" s="39" t="n">
-        <v>37.5</v>
+        <v>48.5</v>
       </c>
       <c r="M46" s="39" t="n">
-        <v>77.5</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="N46" s="39" t="n">
-        <v>95.7</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="O46" s="39" t="n">
-        <v>97.3</v>
+        <v>96.7</v>
       </c>
       <c r="P46" s="39" t="n">
-        <v>98.2</v>
+        <v>40.2</v>
       </c>
       <c r="Q46" s="39" t="n">
-        <v>98.40000000000001</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="R46" s="39" t="n">
-        <v>33.7</v>
+        <v>52.6</v>
       </c>
       <c r="S46" s="39" t="n">
-        <v>66.59999999999999</v>
+        <v>35.4</v>
       </c>
       <c r="T46" s="39" t="n">
-        <v>77.7</v>
+        <v>40.9</v>
       </c>
       <c r="U46" s="39" t="n">
-        <v>88.2</v>
+        <v>92.3</v>
       </c>
       <c r="V46" s="39" t="n">
-        <v>21.8</v>
+        <v>96</v>
       </c>
       <c r="W46" s="39" t="n">
-        <v>16.1</v>
+        <v>96.5</v>
       </c>
       <c r="X46" s="39" t="n">
-        <v>44.7</v>
+        <v>43.6</v>
       </c>
       <c r="Y46" s="39" t="inlineStr">
         <is>
-          <t>恒生医疗ETF</t>
+          <t>香港证券ETF</t>
         </is>
       </c>
     </row>
@@ -15749,79 +15749,79 @@
         <v>45</v>
       </c>
       <c r="B47" s="39" t="n">
-        <v>512100</v>
+        <v>513060</v>
       </c>
       <c r="C47" s="39" t="inlineStr">
         <is>
-          <t>中证1000ETF</t>
+          <t>恒生医疗ETF</t>
         </is>
       </c>
       <c r="D47" s="39" t="n">
-        <v>648.14</v>
+        <v>99.55</v>
       </c>
       <c r="E47" s="39" t="n">
-        <v>35.1</v>
+        <v>15.4</v>
       </c>
       <c r="F47" s="39" t="n">
-        <v>67.09999999999999</v>
+        <v>56.9</v>
       </c>
       <c r="G47" s="39" t="n">
-        <v>78.59999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="H47" s="39" t="n">
-        <v>87.59999999999999</v>
+        <v>90.8</v>
       </c>
       <c r="I47" s="39" t="n">
-        <v>70.40000000000001</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="J47" s="39" t="n">
-        <v>30.5</v>
+        <v>32.5</v>
       </c>
       <c r="K47" s="39" t="n">
-        <v>33.1</v>
+        <v>37.5</v>
       </c>
       <c r="L47" s="39" t="n">
-        <v>25.6</v>
+        <v>37.5</v>
       </c>
       <c r="M47" s="39" t="n">
-        <v>88.40000000000001</v>
+        <v>77.5</v>
       </c>
       <c r="N47" s="39" t="n">
-        <v>88.40000000000001</v>
+        <v>95.7</v>
       </c>
       <c r="O47" s="39" t="n">
-        <v>94.2</v>
+        <v>97.3</v>
       </c>
       <c r="P47" s="39" t="n">
-        <v>35.8</v>
+        <v>98.2</v>
       </c>
       <c r="Q47" s="39" t="n">
-        <v>49.4</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="R47" s="39" t="n">
-        <v>15.8</v>
+        <v>33.7</v>
       </c>
       <c r="S47" s="39" t="n">
-        <v>49.1</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="T47" s="39" t="n">
-        <v>76.7</v>
+        <v>77.7</v>
       </c>
       <c r="U47" s="39" t="n">
-        <v>95</v>
+        <v>88.2</v>
       </c>
       <c r="V47" s="39" t="n">
-        <v>95.3</v>
+        <v>21.8</v>
       </c>
       <c r="W47" s="39" t="n">
-        <v>97.7</v>
+        <v>16.1</v>
       </c>
       <c r="X47" s="39" t="n">
-        <v>44.8</v>
+        <v>44.7</v>
       </c>
       <c r="Y47" s="39" t="inlineStr">
         <is>
-          <t>中证1000ETF</t>
+          <t>恒生医疗ETF</t>
         </is>
       </c>
     </row>
@@ -15830,79 +15830,79 @@
         <v>46</v>
       </c>
       <c r="B48" s="39" t="n">
-        <v>513090</v>
+        <v>159745</v>
       </c>
       <c r="C48" s="39" t="inlineStr">
         <is>
-          <t>香港证券ETF</t>
+          <t>建材ETF</t>
         </is>
       </c>
       <c r="D48" s="39" t="n">
-        <v>72.56</v>
+        <v>5.86</v>
       </c>
       <c r="E48" s="39" t="n">
-        <v>24.6</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="F48" s="39" t="n">
-        <v>58.1</v>
+        <v>74.8</v>
       </c>
       <c r="G48" s="39" t="n">
-        <v>75.90000000000001</v>
+        <v>59.5</v>
       </c>
       <c r="H48" s="39" t="n">
-        <v>85.09999999999999</v>
+        <v>46.7</v>
       </c>
       <c r="I48" s="39" t="n">
-        <v>80.2</v>
+        <v>25.2</v>
       </c>
       <c r="J48" s="39" t="n">
-        <v>33.6</v>
+        <v>14.9</v>
       </c>
       <c r="K48" s="39" t="n">
-        <v>44.4</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="L48" s="39" t="n">
-        <v>48.5</v>
+        <v>78.7</v>
       </c>
       <c r="M48" s="39" t="n">
-        <v>72.90000000000001</v>
+        <v>33.3</v>
       </c>
       <c r="N48" s="39" t="n">
-        <v>91.09999999999999</v>
+        <v>72</v>
       </c>
       <c r="O48" s="39" t="n">
-        <v>96.7</v>
+        <v>40.6</v>
       </c>
       <c r="P48" s="39" t="n">
-        <v>40.2</v>
+        <v>21.7</v>
       </c>
       <c r="Q48" s="39" t="n">
-        <v>76.59999999999999</v>
+        <v>17.6</v>
       </c>
       <c r="R48" s="39" t="n">
-        <v>52.6</v>
+        <v>4</v>
       </c>
       <c r="S48" s="39" t="n">
-        <v>35.4</v>
+        <v>3</v>
       </c>
       <c r="T48" s="39" t="n">
-        <v>40.9</v>
+        <v>1.7</v>
       </c>
       <c r="U48" s="39" t="n">
-        <v>92.3</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="V48" s="39" t="n">
-        <v>96</v>
+        <v>80.5</v>
       </c>
       <c r="W48" s="39" t="n">
-        <v>96.5</v>
+        <v>89.8</v>
       </c>
       <c r="X48" s="39" t="n">
-        <v>45.2</v>
+        <v>45.9</v>
       </c>
       <c r="Y48" s="39" t="inlineStr">
         <is>
-          <t>香港证券ETF</t>
+          <t>建材ETF</t>
         </is>
       </c>
     </row>
@@ -15911,79 +15911,79 @@
         <v>47</v>
       </c>
       <c r="B49" s="39" t="n">
-        <v>159745</v>
+        <v>512070</v>
       </c>
       <c r="C49" s="39" t="inlineStr">
         <is>
-          <t>建材ETF</t>
+          <t>证券保险ETF</t>
         </is>
       </c>
       <c r="D49" s="39" t="n">
-        <v>5.86</v>
+        <v>64.68000000000001</v>
       </c>
       <c r="E49" s="39" t="n">
-        <v>69.59999999999999</v>
+        <v>48.4</v>
       </c>
       <c r="F49" s="39" t="n">
-        <v>74.8</v>
+        <v>67</v>
       </c>
       <c r="G49" s="39" t="n">
-        <v>59.5</v>
+        <v>67</v>
       </c>
       <c r="H49" s="39" t="n">
-        <v>46.7</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="I49" s="39" t="n">
-        <v>25.2</v>
+        <v>77</v>
       </c>
       <c r="J49" s="39" t="n">
-        <v>14.9</v>
+        <v>54.9</v>
       </c>
       <c r="K49" s="39" t="n">
-        <v>75.40000000000001</v>
+        <v>71.3</v>
       </c>
       <c r="L49" s="39" t="n">
-        <v>78.7</v>
+        <v>93.8</v>
       </c>
       <c r="M49" s="39" t="n">
-        <v>33.3</v>
+        <v>96.2</v>
       </c>
       <c r="N49" s="39" t="n">
-        <v>72</v>
+        <v>97.3</v>
       </c>
       <c r="O49" s="39" t="n">
-        <v>40.6</v>
+        <v>98.7</v>
       </c>
       <c r="P49" s="39" t="n">
-        <v>21.7</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="Q49" s="39" t="n">
-        <v>17.6</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="R49" s="39" t="n">
-        <v>4</v>
+        <v>31.1</v>
       </c>
       <c r="S49" s="39" t="n">
-        <v>3</v>
+        <v>11.5</v>
       </c>
       <c r="T49" s="39" t="n">
-        <v>1.7</v>
+        <v>45.7</v>
       </c>
       <c r="U49" s="39" t="n">
-        <v>64.09999999999999</v>
+        <v>85.3</v>
       </c>
       <c r="V49" s="39" t="n">
-        <v>80.5</v>
+        <v>94</v>
       </c>
       <c r="W49" s="39" t="n">
-        <v>89.8</v>
+        <v>96.8</v>
       </c>
       <c r="X49" s="39" t="n">
-        <v>45.9</v>
+        <v>46.1</v>
       </c>
       <c r="Y49" s="39" t="inlineStr">
         <is>
-          <t>建材ETF</t>
+          <t>证券保险ETF</t>
         </is>
       </c>
     </row>
@@ -15992,79 +15992,79 @@
         <v>48</v>
       </c>
       <c r="B50" s="39" t="n">
-        <v>513120</v>
+        <v>515220</v>
       </c>
       <c r="C50" s="39" t="inlineStr">
         <is>
-          <t>港股创新药ETF</t>
+          <t>煤炭ETF</t>
         </is>
       </c>
       <c r="D50" s="39" t="n">
-        <v>107.1</v>
+        <v>34.9</v>
       </c>
       <c r="E50" s="39" t="n">
-        <v>9</v>
+        <v>44.1</v>
       </c>
       <c r="F50" s="39" t="n">
-        <v>55.4</v>
+        <v>56.4</v>
       </c>
       <c r="G50" s="39" t="n">
-        <v>78.3</v>
+        <v>39.1</v>
       </c>
       <c r="H50" s="39" t="n">
-        <v>89.09999999999999</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="I50" s="39" t="n">
-        <v>65</v>
+        <v>77.8</v>
       </c>
       <c r="J50" s="39" t="n">
-        <v>33.9</v>
+        <v>77.8</v>
       </c>
       <c r="K50" s="39" t="n">
-        <v>33.9</v>
+        <v>63.6</v>
       </c>
       <c r="L50" s="39" t="n">
-        <v>28.9</v>
+        <v>22.5</v>
       </c>
       <c r="M50" s="39" t="n">
-        <v>82.09999999999999</v>
+        <v>38.4</v>
       </c>
       <c r="N50" s="39" t="n">
-        <v>95.59999999999999</v>
+        <v>21.1</v>
       </c>
       <c r="O50" s="39" t="n">
-        <v>97.09999999999999</v>
+        <v>14.5</v>
       </c>
       <c r="P50" s="39" t="n">
-        <v>98.09999999999999</v>
+        <v>61.9</v>
       </c>
       <c r="Q50" s="39" t="n">
-        <v>98.40000000000001</v>
+        <v>29.4</v>
       </c>
       <c r="R50" s="39" t="n">
-        <v>32.6</v>
+        <v>4</v>
       </c>
       <c r="S50" s="39" t="n">
-        <v>54.8</v>
+        <v>1.9</v>
       </c>
       <c r="T50" s="39" t="n">
-        <v>58.7</v>
+        <v>1.1</v>
       </c>
       <c r="U50" s="39" t="n">
-        <v>64.8</v>
+        <v>62</v>
       </c>
       <c r="V50" s="39" t="n">
-        <v>5.7</v>
+        <v>78.2</v>
       </c>
       <c r="W50" s="39" t="n">
-        <v>4.7</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="X50" s="39" t="n">
         <v>46.4</v>
       </c>
       <c r="Y50" s="39" t="inlineStr">
         <is>
-          <t>港股创新药ETF</t>
+          <t>煤炭ETF</t>
         </is>
       </c>
     </row>
@@ -16073,79 +16073,79 @@
         <v>49</v>
       </c>
       <c r="B51" s="39" t="n">
-        <v>516910</v>
+        <v>513120</v>
       </c>
       <c r="C51" s="39" t="inlineStr">
         <is>
-          <t>物流ETF</t>
+          <t>港股创新药ETF</t>
         </is>
       </c>
       <c r="D51" s="39" t="n">
-        <v>0.55</v>
+        <v>107.1</v>
       </c>
       <c r="E51" s="39" t="n">
-        <v>57.5</v>
+        <v>9</v>
       </c>
       <c r="F51" s="39" t="n">
-        <v>80</v>
+        <v>55.4</v>
       </c>
       <c r="G51" s="39" t="n">
-        <v>61.4</v>
+        <v>78.3</v>
       </c>
       <c r="H51" s="39" t="n">
-        <v>70.09999999999999</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="I51" s="39" t="n">
-        <v>55.2</v>
+        <v>65</v>
       </c>
       <c r="J51" s="39" t="n">
-        <v>73.8</v>
+        <v>33.9</v>
       </c>
       <c r="K51" s="39" t="n">
-        <v>80.3</v>
+        <v>33.9</v>
       </c>
       <c r="L51" s="39" t="n">
-        <v>64.3</v>
+        <v>28.9</v>
       </c>
       <c r="M51" s="39" t="n">
-        <v>35.8</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="N51" s="39" t="n">
-        <v>89.09999999999999</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="O51" s="39" t="n">
-        <v>55.5</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="P51" s="39" t="n">
-        <v>40.4</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="Q51" s="39" t="n">
-        <v>61.4</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="R51" s="39" t="n">
-        <v>22.2</v>
+        <v>32.6</v>
       </c>
       <c r="S51" s="39" t="n">
-        <v>38</v>
+        <v>54.8</v>
       </c>
       <c r="T51" s="39" t="n">
-        <v>12.5</v>
+        <v>58.7</v>
       </c>
       <c r="U51" s="39" t="n">
-        <v>82.59999999999999</v>
+        <v>64.8</v>
       </c>
       <c r="V51" s="39" t="n">
-        <v>91.09999999999999</v>
+        <v>5.7</v>
       </c>
       <c r="W51" s="39" t="n">
-        <v>55.1</v>
+        <v>4.7</v>
       </c>
       <c r="X51" s="39" t="n">
-        <v>48.7</v>
+        <v>46.4</v>
       </c>
       <c r="Y51" s="39" t="inlineStr">
         <is>
-          <t>物流ETF</t>
+          <t>港股创新药ETF</t>
         </is>
       </c>
     </row>
@@ -16154,79 +16154,79 @@
         <v>50</v>
       </c>
       <c r="B52" s="39" t="n">
-        <v>512070</v>
+        <v>512950</v>
       </c>
       <c r="C52" s="39" t="inlineStr">
         <is>
-          <t>证券保险ETF</t>
+          <t>央企改革ETF</t>
         </is>
       </c>
       <c r="D52" s="39" t="n">
-        <v>64.77</v>
+        <v>55.13</v>
       </c>
       <c r="E52" s="39" t="n">
-        <v>48.4</v>
+        <v>69</v>
       </c>
       <c r="F52" s="39" t="n">
-        <v>67</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="G52" s="39" t="n">
-        <v>67</v>
+        <v>59.9</v>
       </c>
       <c r="H52" s="39" t="n">
-        <v>71.09999999999999</v>
+        <v>72.8</v>
       </c>
       <c r="I52" s="39" t="n">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="J52" s="39" t="n">
-        <v>54.9</v>
+        <v>76.3</v>
       </c>
       <c r="K52" s="39" t="n">
-        <v>71.3</v>
+        <v>58.2</v>
       </c>
       <c r="L52" s="39" t="n">
+        <v>71.59999999999999</v>
+      </c>
+      <c r="M52" s="39" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="N52" s="39" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="O52" s="39" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="P52" s="39" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q52" s="39" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R52" s="39" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S52" s="39" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="T52" s="39" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="U52" s="39" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="V52" s="39" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="W52" s="39" t="n">
         <v>93.8</v>
       </c>
-      <c r="M52" s="39" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="N52" s="39" t="n">
-        <v>97.3</v>
-      </c>
-      <c r="O52" s="39" t="n">
-        <v>98.7</v>
-      </c>
-      <c r="P52" s="39" t="n">
-        <v>64.59999999999999</v>
-      </c>
-      <c r="Q52" s="39" t="n">
-        <v>85.09999999999999</v>
-      </c>
-      <c r="R52" s="39" t="n">
-        <v>31.1</v>
-      </c>
-      <c r="S52" s="39" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="T52" s="39" t="n">
-        <v>45.7</v>
-      </c>
-      <c r="U52" s="39" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="V52" s="39" t="n">
-        <v>94</v>
-      </c>
-      <c r="W52" s="39" t="n">
-        <v>96.8</v>
-      </c>
       <c r="X52" s="39" t="n">
-        <v>50.5</v>
+        <v>46.4</v>
       </c>
       <c r="Y52" s="39" t="inlineStr">
         <is>
-          <t>证券保险ETF</t>
+          <t>央企改革ETF</t>
         </is>
       </c>
     </row>
@@ -16235,79 +16235,79 @@
         <v>51</v>
       </c>
       <c r="B53" s="39" t="n">
-        <v>516780</v>
+        <v>512660</v>
       </c>
       <c r="C53" s="39" t="inlineStr">
         <is>
-          <t>稀土ETF</t>
+          <t>军工ETF</t>
         </is>
       </c>
       <c r="D53" s="39" t="n">
-        <v>9.27</v>
+        <v>140.13</v>
       </c>
       <c r="E53" s="39" t="n">
-        <v>48.8</v>
+        <v>71.8</v>
       </c>
       <c r="F53" s="39" t="n">
-        <v>64.5</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="G53" s="39" t="n">
-        <v>64.5</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="H53" s="39" t="n">
-        <v>78</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="I53" s="39" t="n">
-        <v>27.6</v>
+        <v>31.7</v>
       </c>
       <c r="J53" s="39" t="n">
-        <v>15.7</v>
+        <v>23.5</v>
       </c>
       <c r="K53" s="39" t="n">
-        <v>10.6</v>
+        <v>30.6</v>
       </c>
       <c r="L53" s="39" t="n">
-        <v>4.2</v>
+        <v>14.4</v>
       </c>
       <c r="M53" s="39" t="n">
-        <v>69.3</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="N53" s="39" t="n">
-        <v>35.8</v>
+        <v>51.4</v>
       </c>
       <c r="O53" s="39" t="n">
-        <v>77.40000000000001</v>
+        <v>46.1</v>
       </c>
       <c r="P53" s="39" t="n">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="Q53" s="39" t="n">
-        <v>49.8</v>
+        <v>39.5</v>
       </c>
       <c r="R53" s="39" t="n">
-        <v>49.8</v>
+        <v>16.8</v>
       </c>
       <c r="S53" s="39" t="n">
-        <v>49.8</v>
+        <v>16.8</v>
       </c>
       <c r="T53" s="39" t="n">
-        <v>90.59999999999999</v>
+        <v>74.8</v>
       </c>
       <c r="U53" s="39" t="n">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="V53" s="39" t="n">
-        <v>80.90000000000001</v>
+        <v>98.7</v>
       </c>
       <c r="W53" s="39" t="n">
-        <v>86.59999999999999</v>
+        <v>99.3</v>
       </c>
       <c r="X53" s="39" t="n">
-        <v>51.4</v>
+        <v>50.1</v>
       </c>
       <c r="Y53" s="39" t="inlineStr">
         <is>
-          <t>稀土ETF</t>
+          <t>军工ETF</t>
         </is>
       </c>
     </row>
@@ -16315,82 +16315,80 @@
       <c r="A54" s="39" t="n">
         <v>52</v>
       </c>
-      <c r="B54" s="39" t="inlineStr">
-        <is>
-          <t>517160</t>
-        </is>
+      <c r="B54" s="39" t="n">
+        <v>515900</v>
       </c>
       <c r="C54" s="39" t="inlineStr">
         <is>
-          <t>长江保护主题ETF</t>
+          <t>央企创新驱动ETF</t>
         </is>
       </c>
       <c r="D54" s="39" t="n">
-        <v>13.17</v>
+        <v>33</v>
       </c>
       <c r="E54" s="39" t="n">
-        <v>46.2</v>
+        <v>62.3</v>
       </c>
       <c r="F54" s="39" t="n">
-        <v>68.2</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="G54" s="39" t="n">
-        <v>60</v>
+        <v>54.2</v>
       </c>
       <c r="H54" s="39" t="n">
-        <v>79.59999999999999</v>
+        <v>69.3</v>
       </c>
       <c r="I54" s="39" t="n">
-        <v>58.2</v>
+        <v>44.7</v>
       </c>
       <c r="J54" s="39" t="n">
-        <v>30.7</v>
+        <v>51.6</v>
       </c>
       <c r="K54" s="39" t="n">
-        <v>55.8</v>
+        <v>41.3</v>
       </c>
       <c r="L54" s="39" t="n">
-        <v>55.8</v>
+        <v>86</v>
       </c>
       <c r="M54" s="39" t="n">
-        <v>84.90000000000001</v>
+        <v>62.3</v>
       </c>
       <c r="N54" s="39" t="n">
-        <v>88.59999999999999</v>
+        <v>48.8</v>
       </c>
       <c r="O54" s="39" t="n">
-        <v>97.09999999999999</v>
+        <v>34.1</v>
       </c>
       <c r="P54" s="39" t="n">
-        <v>64.8</v>
+        <v>6.5</v>
       </c>
       <c r="Q54" s="39" t="n">
-        <v>73.59999999999999</v>
+        <v>24.1</v>
       </c>
       <c r="R54" s="39" t="n">
-        <v>82.40000000000001</v>
+        <v>24.1</v>
       </c>
       <c r="S54" s="39" t="n">
-        <v>35.3</v>
+        <v>3.4</v>
       </c>
       <c r="T54" s="39" t="n">
-        <v>58.8</v>
+        <v>1.7</v>
       </c>
       <c r="U54" s="39" t="n">
-        <v>95</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="V54" s="39" t="n">
-        <v>96.3</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="W54" s="39" t="n">
-        <v>97.90000000000001</v>
+        <v>94.2</v>
       </c>
       <c r="X54" s="39" t="n">
-        <v>52.2</v>
+        <v>50.1</v>
       </c>
       <c r="Y54" s="39" t="inlineStr">
         <is>
-          <t>长江保护主题ETF</t>
+          <t>央企创新驱动ETF</t>
         </is>
       </c>
     </row>
@@ -16399,79 +16397,79 @@
         <v>53</v>
       </c>
       <c r="B55" s="39" t="n">
-        <v>515030</v>
+        <v>516780</v>
       </c>
       <c r="C55" s="39" t="inlineStr">
         <is>
-          <t>新能源车ETF</t>
+          <t>稀土ETF</t>
         </is>
       </c>
       <c r="D55" s="39" t="n">
-        <v>43.41</v>
+        <v>9.26</v>
       </c>
       <c r="E55" s="39" t="n">
-        <v>12.1</v>
+        <v>48.8</v>
       </c>
       <c r="F55" s="39" t="n">
-        <v>59</v>
+        <v>64.5</v>
       </c>
       <c r="G55" s="39" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="H55" s="39" t="n">
+        <v>78</v>
+      </c>
+      <c r="I55" s="39" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="J55" s="39" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="K55" s="39" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="L55" s="39" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="M55" s="39" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="N55" s="39" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="O55" s="39" t="n">
         <v>77.40000000000001</v>
       </c>
-      <c r="H55" s="39" t="n">
-        <v>80.5</v>
-      </c>
-      <c r="I55" s="39" t="n">
-        <v>83.90000000000001</v>
-      </c>
-      <c r="J55" s="39" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K55" s="39" t="n">
-        <v>22.2</v>
-      </c>
-      <c r="L55" s="39" t="n">
-        <v>51.8</v>
-      </c>
-      <c r="M55" s="39" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="N55" s="39" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="O55" s="39" t="n">
-        <v>90</v>
-      </c>
       <c r="P55" s="39" t="n">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="Q55" s="39" t="n">
-        <v>80.09999999999999</v>
+        <v>49.8</v>
       </c>
       <c r="R55" s="39" t="n">
-        <v>26.4</v>
+        <v>49.8</v>
       </c>
       <c r="S55" s="39" t="n">
-        <v>40.5</v>
+        <v>49.8</v>
       </c>
       <c r="T55" s="39" t="n">
-        <v>81.90000000000001</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="U55" s="39" t="n">
-        <v>93.3</v>
+        <v>99</v>
       </c>
       <c r="V55" s="39" t="n">
-        <v>79.59999999999999</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="W55" s="39" t="n">
-        <v>91</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="X55" s="39" t="n">
-        <v>53.9</v>
+        <v>51.4</v>
       </c>
       <c r="Y55" s="39" t="inlineStr">
         <is>
-          <t>新能源车ETF</t>
+          <t>稀土ETF</t>
         </is>
       </c>
     </row>
@@ -16488,7 +16486,7 @@
         </is>
       </c>
       <c r="D56" s="39" t="n">
-        <v>62.37</v>
+        <v>62.25</v>
       </c>
       <c r="E56" s="39" t="n">
         <v>17.2</v>
@@ -16548,7 +16546,7 @@
         <v>96.40000000000001</v>
       </c>
       <c r="X56" s="39" t="n">
-        <v>55.6</v>
+        <v>51.5</v>
       </c>
       <c r="Y56" s="39" t="inlineStr">
         <is>
@@ -16560,80 +16558,82 @@
       <c r="A57" s="39" t="n">
         <v>55</v>
       </c>
-      <c r="B57" s="39" t="n">
-        <v>512950</v>
+      <c r="B57" s="39" t="inlineStr">
+        <is>
+          <t>517160</t>
+        </is>
       </c>
       <c r="C57" s="39" t="inlineStr">
         <is>
-          <t>央企改革ETF</t>
+          <t>长江保护主题ETF</t>
         </is>
       </c>
       <c r="D57" s="39" t="n">
-        <v>55.26</v>
+        <v>13.17</v>
       </c>
       <c r="E57" s="39" t="n">
-        <v>69</v>
+        <v>46.2</v>
       </c>
       <c r="F57" s="39" t="n">
-        <v>69.90000000000001</v>
+        <v>68.2</v>
       </c>
       <c r="G57" s="39" t="n">
-        <v>59.9</v>
+        <v>60</v>
       </c>
       <c r="H57" s="39" t="n">
-        <v>72.8</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="I57" s="39" t="n">
-        <v>48</v>
+        <v>58.2</v>
       </c>
       <c r="J57" s="39" t="n">
-        <v>76.3</v>
+        <v>30.7</v>
       </c>
       <c r="K57" s="39" t="n">
-        <v>58.2</v>
+        <v>55.8</v>
       </c>
       <c r="L57" s="39" t="n">
-        <v>71.59999999999999</v>
+        <v>55.8</v>
       </c>
       <c r="M57" s="39" t="n">
-        <v>43.6</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="N57" s="39" t="n">
-        <v>24.5</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="O57" s="39" t="n">
-        <v>6.7</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="P57" s="39" t="n">
-        <v>3.4</v>
+        <v>64.8</v>
       </c>
       <c r="Q57" s="39" t="n">
-        <v>3.4</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="R57" s="39" t="n">
-        <v>1.4</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="S57" s="39" t="n">
-        <v>0.4</v>
+        <v>35.3</v>
       </c>
       <c r="T57" s="39" t="n">
-        <v>0.2</v>
+        <v>58.8</v>
       </c>
       <c r="U57" s="39" t="n">
-        <v>76.2</v>
+        <v>95</v>
       </c>
       <c r="V57" s="39" t="n">
-        <v>89.7</v>
+        <v>96.3</v>
       </c>
       <c r="W57" s="39" t="n">
-        <v>93.8</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="X57" s="39" t="n">
-        <v>55.8</v>
+        <v>52.2</v>
       </c>
       <c r="Y57" s="39" t="inlineStr">
         <is>
-          <t>央企改革ETF</t>
+          <t>长江保护主题ETF</t>
         </is>
       </c>
     </row>
@@ -16642,79 +16642,79 @@
         <v>56</v>
       </c>
       <c r="B58" s="39" t="n">
-        <v>515900</v>
+        <v>562800</v>
       </c>
       <c r="C58" s="39" t="inlineStr">
         <is>
-          <t>央企创新驱动ETF</t>
+          <t>稀有金属ETF</t>
         </is>
       </c>
       <c r="D58" s="39" t="n">
-        <v>33.05</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="E58" s="39" t="n">
-        <v>62.3</v>
+        <v>47.7</v>
       </c>
       <c r="F58" s="39" t="n">
-        <v>68.09999999999999</v>
+        <v>69</v>
       </c>
       <c r="G58" s="39" t="n">
-        <v>54.2</v>
+        <v>69</v>
       </c>
       <c r="H58" s="39" t="n">
-        <v>69.3</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="I58" s="39" t="n">
-        <v>44.7</v>
+        <v>52.7</v>
       </c>
       <c r="J58" s="39" t="n">
-        <v>51.6</v>
+        <v>21</v>
       </c>
       <c r="K58" s="39" t="n">
-        <v>41.3</v>
+        <v>17.5</v>
       </c>
       <c r="L58" s="39" t="n">
-        <v>86</v>
+        <v>13.1</v>
       </c>
       <c r="M58" s="39" t="n">
-        <v>62.3</v>
+        <v>84.2</v>
       </c>
       <c r="N58" s="39" t="n">
-        <v>48.8</v>
+        <v>71.3</v>
       </c>
       <c r="O58" s="39" t="n">
-        <v>34.1</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="P58" s="39" t="n">
-        <v>6.5</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="Q58" s="39" t="n">
-        <v>24.1</v>
+        <v>32.7</v>
       </c>
       <c r="R58" s="39" t="n">
-        <v>24.1</v>
+        <v>13.2</v>
       </c>
       <c r="S58" s="39" t="n">
-        <v>3.4</v>
+        <v>13.2</v>
       </c>
       <c r="T58" s="39" t="n">
-        <v>1.7</v>
+        <v>13.2</v>
       </c>
       <c r="U58" s="39" t="n">
-        <v>80.09999999999999</v>
+        <v>96.7</v>
       </c>
       <c r="V58" s="39" t="n">
-        <v>89.59999999999999</v>
+        <v>86.3</v>
       </c>
       <c r="W58" s="39" t="n">
-        <v>94.2</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="X58" s="39" t="n">
-        <v>55.9</v>
+        <v>56.5</v>
       </c>
       <c r="Y58" s="39" t="inlineStr">
         <is>
-          <t>央企创新驱动ETF</t>
+          <t>稀有金属ETF</t>
         </is>
       </c>
     </row>
@@ -16723,79 +16723,79 @@
         <v>57</v>
       </c>
       <c r="B59" s="39" t="n">
-        <v>512660</v>
+        <v>159992</v>
       </c>
       <c r="C59" s="39" t="inlineStr">
         <is>
-          <t>军工ETF</t>
+          <t>创新药ETF</t>
         </is>
       </c>
       <c r="D59" s="39" t="n">
-        <v>140.93</v>
+        <v>113.59</v>
       </c>
       <c r="E59" s="39" t="n">
-        <v>71.8</v>
+        <v>17.2</v>
       </c>
       <c r="F59" s="39" t="n">
-        <v>77.40000000000001</v>
+        <v>60.8</v>
       </c>
       <c r="G59" s="39" t="n">
-        <v>83.90000000000001</v>
+        <v>71</v>
       </c>
       <c r="H59" s="39" t="n">
-        <v>85.40000000000001</v>
+        <v>83.7</v>
       </c>
       <c r="I59" s="39" t="n">
-        <v>31.7</v>
+        <v>60.2</v>
       </c>
       <c r="J59" s="39" t="n">
-        <v>23.5</v>
+        <v>32.7</v>
       </c>
       <c r="K59" s="39" t="n">
-        <v>30.6</v>
+        <v>22.5</v>
       </c>
       <c r="L59" s="39" t="n">
-        <v>14.4</v>
+        <v>22.5</v>
       </c>
       <c r="M59" s="39" t="n">
-        <v>78.59999999999999</v>
+        <v>86.2</v>
       </c>
       <c r="N59" s="39" t="n">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="O59" s="39" t="n">
         <v>51.4</v>
       </c>
-      <c r="O59" s="39" t="n">
-        <v>46.1</v>
-      </c>
       <c r="P59" s="39" t="n">
-        <v>15</v>
+        <v>72.7</v>
       </c>
       <c r="Q59" s="39" t="n">
-        <v>39.5</v>
+        <v>38.7</v>
       </c>
       <c r="R59" s="39" t="n">
-        <v>16.8</v>
+        <v>38.7</v>
       </c>
       <c r="S59" s="39" t="n">
-        <v>16.8</v>
+        <v>72.7</v>
       </c>
       <c r="T59" s="39" t="n">
-        <v>74.8</v>
+        <v>90.7</v>
       </c>
       <c r="U59" s="39" t="n">
-        <v>94</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="V59" s="39" t="n">
-        <v>98.7</v>
+        <v>34.5</v>
       </c>
       <c r="W59" s="39" t="n">
-        <v>99.3</v>
+        <v>34.5</v>
       </c>
       <c r="X59" s="39" t="n">
-        <v>56.4</v>
+        <v>56.7</v>
       </c>
       <c r="Y59" s="39" t="inlineStr">
         <is>
-          <t>军工ETF</t>
+          <t>创新药ETF</t>
         </is>
       </c>
     </row>
@@ -16804,79 +16804,79 @@
         <v>58</v>
       </c>
       <c r="B60" s="39" t="n">
-        <v>562800</v>
+        <v>516160</v>
       </c>
       <c r="C60" s="39" t="inlineStr">
         <is>
-          <t>稀有金属ETF</t>
+          <t>新能源ETF</t>
         </is>
       </c>
       <c r="D60" s="39" t="n">
-        <v>8.949999999999999</v>
+        <v>44.81</v>
       </c>
       <c r="E60" s="39" t="n">
-        <v>47.7</v>
+        <v>5.8</v>
       </c>
       <c r="F60" s="39" t="n">
-        <v>69</v>
+        <v>57.4</v>
       </c>
       <c r="G60" s="39" t="n">
-        <v>69</v>
+        <v>68.5</v>
       </c>
       <c r="H60" s="39" t="n">
-        <v>84.59999999999999</v>
+        <v>80.5</v>
       </c>
       <c r="I60" s="39" t="n">
-        <v>52.7</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="J60" s="39" t="n">
-        <v>21</v>
+        <v>26.3</v>
       </c>
       <c r="K60" s="39" t="n">
-        <v>17.5</v>
+        <v>21.4</v>
       </c>
       <c r="L60" s="39" t="n">
-        <v>13.1</v>
+        <v>51.6</v>
       </c>
       <c r="M60" s="39" t="n">
-        <v>84.2</v>
+        <v>87.2</v>
       </c>
       <c r="N60" s="39" t="n">
-        <v>71.3</v>
+        <v>61.9</v>
       </c>
       <c r="O60" s="39" t="n">
-        <v>85.09999999999999</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="P60" s="39" t="n">
-        <v>64.40000000000001</v>
+        <v>50.1</v>
       </c>
       <c r="Q60" s="39" t="n">
-        <v>32.7</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="R60" s="39" t="n">
-        <v>13.2</v>
+        <v>52.1</v>
       </c>
       <c r="S60" s="39" t="n">
-        <v>13.2</v>
+        <v>22.7</v>
       </c>
       <c r="T60" s="39" t="n">
-        <v>13.2</v>
+        <v>39.7</v>
       </c>
       <c r="U60" s="39" t="n">
-        <v>96.7</v>
+        <v>92.5</v>
       </c>
       <c r="V60" s="39" t="n">
-        <v>86.3</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="W60" s="39" t="n">
-        <v>90.40000000000001</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="X60" s="39" t="n">
-        <v>56.5</v>
+        <v>57.2</v>
       </c>
       <c r="Y60" s="39" t="inlineStr">
         <is>
-          <t>稀有金属ETF</t>
+          <t>新能源ETF</t>
         </is>
       </c>
     </row>
@@ -16885,79 +16885,79 @@
         <v>59</v>
       </c>
       <c r="B61" s="39" t="n">
-        <v>513050</v>
+        <v>516110</v>
       </c>
       <c r="C61" s="39" t="inlineStr">
         <is>
-          <t>中概互联网ETF</t>
+          <t>汽车ETF</t>
         </is>
       </c>
       <c r="D61" s="39" t="n">
-        <v>355.32</v>
+        <v>4.42</v>
       </c>
       <c r="E61" s="39" t="n">
-        <v>8.300000000000001</v>
+        <v>26.9</v>
       </c>
       <c r="F61" s="39" t="n">
-        <v>56.6</v>
+        <v>71</v>
       </c>
       <c r="G61" s="39" t="n">
-        <v>45</v>
+        <v>85.3</v>
       </c>
       <c r="H61" s="39" t="n">
-        <v>68.09999999999999</v>
+        <v>89.7</v>
       </c>
       <c r="I61" s="39" t="n">
-        <v>79.09999999999999</v>
+        <v>70.3</v>
       </c>
       <c r="J61" s="39" t="n">
-        <v>23.7</v>
+        <v>42.6</v>
       </c>
       <c r="K61" s="39" t="n">
-        <v>56.2</v>
+        <v>18.4</v>
       </c>
       <c r="L61" s="39" t="n">
-        <v>39.4</v>
+        <v>29.1</v>
       </c>
       <c r="M61" s="39" t="n">
-        <v>60.4</v>
+        <v>79</v>
       </c>
       <c r="N61" s="39" t="n">
-        <v>79.7</v>
+        <v>64</v>
       </c>
       <c r="O61" s="39" t="n">
-        <v>96.3</v>
+        <v>93</v>
       </c>
       <c r="P61" s="39" t="n">
-        <v>52.1</v>
+        <v>60.5</v>
       </c>
       <c r="Q61" s="39" t="n">
-        <v>75.5</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="R61" s="39" t="n">
-        <v>77.09999999999999</v>
+        <v>31.6</v>
       </c>
       <c r="S61" s="39" t="n">
-        <v>44.3</v>
+        <v>29.7</v>
       </c>
       <c r="T61" s="39" t="n">
-        <v>73.3</v>
+        <v>78.8</v>
       </c>
       <c r="U61" s="39" t="n">
-        <v>95</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="V61" s="39" t="n">
-        <v>72.59999999999999</v>
+        <v>75.7</v>
       </c>
       <c r="W61" s="39" t="n">
-        <v>72.59999999999999</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="X61" s="39" t="n">
-        <v>57.8</v>
+        <v>58.9</v>
       </c>
       <c r="Y61" s="39" t="inlineStr">
         <is>
-          <t>中概互联网ETF</t>
+          <t>汽车ETF</t>
         </is>
       </c>
     </row>
@@ -16966,79 +16966,79 @@
         <v>60</v>
       </c>
       <c r="B62" s="39" t="n">
-        <v>516160</v>
+        <v>159859</v>
       </c>
       <c r="C62" s="39" t="inlineStr">
         <is>
-          <t>新能源ETF</t>
+          <t>生物医药ETF</t>
         </is>
       </c>
       <c r="D62" s="39" t="n">
-        <v>44.79</v>
+        <v>35.04</v>
       </c>
       <c r="E62" s="39" t="n">
-        <v>5.8</v>
+        <v>25.1</v>
       </c>
       <c r="F62" s="39" t="n">
-        <v>57.4</v>
+        <v>63.1</v>
       </c>
       <c r="G62" s="39" t="n">
-        <v>68.5</v>
+        <v>53.9</v>
       </c>
       <c r="H62" s="39" t="n">
-        <v>80.5</v>
+        <v>70.8</v>
       </c>
       <c r="I62" s="39" t="n">
-        <v>76.09999999999999</v>
+        <v>40.9</v>
       </c>
       <c r="J62" s="39" t="n">
-        <v>26.3</v>
+        <v>10.3</v>
       </c>
       <c r="K62" s="39" t="n">
-        <v>21.4</v>
+        <v>10.3</v>
       </c>
       <c r="L62" s="39" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="M62" s="39" t="n">
         <v>51.6</v>
       </c>
-      <c r="M62" s="39" t="n">
-        <v>87.2</v>
-      </c>
       <c r="N62" s="39" t="n">
-        <v>61.9</v>
+        <v>18.2</v>
       </c>
       <c r="O62" s="39" t="n">
-        <v>82.40000000000001</v>
+        <v>18.2</v>
       </c>
       <c r="P62" s="39" t="n">
-        <v>50.1</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="Q62" s="39" t="n">
-        <v>77.09999999999999</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="R62" s="39" t="n">
-        <v>52.1</v>
+        <v>52.6</v>
       </c>
       <c r="S62" s="39" t="n">
-        <v>22.7</v>
+        <v>82</v>
       </c>
       <c r="T62" s="39" t="n">
-        <v>39.7</v>
+        <v>50.6</v>
       </c>
       <c r="U62" s="39" t="n">
-        <v>92.5</v>
+        <v>89.8</v>
       </c>
       <c r="V62" s="39" t="n">
-        <v>94.09999999999999</v>
+        <v>46</v>
       </c>
       <c r="W62" s="39" t="n">
-        <v>98.40000000000001</v>
+        <v>59.2</v>
       </c>
       <c r="X62" s="39" t="n">
-        <v>58.8</v>
+        <v>59.2</v>
       </c>
       <c r="Y62" s="39" t="inlineStr">
         <is>
-          <t>新能源ETF</t>
+          <t>生物医药ETF</t>
         </is>
       </c>
     </row>
@@ -17047,79 +17047,79 @@
         <v>61</v>
       </c>
       <c r="B63" s="39" t="n">
-        <v>159859</v>
+        <v>515030</v>
       </c>
       <c r="C63" s="39" t="inlineStr">
         <is>
-          <t>生物医药ETF</t>
+          <t>新能源车ETF</t>
         </is>
       </c>
       <c r="D63" s="39" t="n">
-        <v>35.04</v>
+        <v>43.48</v>
       </c>
       <c r="E63" s="39" t="n">
-        <v>25.1</v>
+        <v>12.1</v>
       </c>
       <c r="F63" s="39" t="n">
-        <v>63.1</v>
+        <v>59</v>
       </c>
       <c r="G63" s="39" t="n">
-        <v>53.9</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="H63" s="39" t="n">
-        <v>70.8</v>
+        <v>80.5</v>
       </c>
       <c r="I63" s="39" t="n">
-        <v>40.9</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="J63" s="39" t="n">
-        <v>10.3</v>
+        <v>27.2</v>
       </c>
       <c r="K63" s="39" t="n">
-        <v>10.3</v>
+        <v>22.2</v>
       </c>
       <c r="L63" s="39" t="n">
-        <v>10.3</v>
+        <v>51.8</v>
       </c>
       <c r="M63" s="39" t="n">
-        <v>51.6</v>
+        <v>89.3</v>
       </c>
       <c r="N63" s="39" t="n">
-        <v>18.2</v>
+        <v>66.7</v>
       </c>
       <c r="O63" s="39" t="n">
-        <v>18.2</v>
+        <v>90</v>
       </c>
       <c r="P63" s="39" t="n">
-        <v>64.40000000000001</v>
+        <v>69</v>
       </c>
       <c r="Q63" s="39" t="n">
-        <v>89.09999999999999</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="R63" s="39" t="n">
-        <v>52.6</v>
+        <v>26.4</v>
       </c>
       <c r="S63" s="39" t="n">
-        <v>82</v>
+        <v>40.5</v>
       </c>
       <c r="T63" s="39" t="n">
-        <v>50.6</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="U63" s="39" t="n">
-        <v>89.8</v>
+        <v>93.3</v>
       </c>
       <c r="V63" s="39" t="n">
-        <v>46</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="W63" s="39" t="n">
-        <v>59.2</v>
+        <v>91</v>
       </c>
       <c r="X63" s="39" t="n">
-        <v>59.2</v>
+        <v>60</v>
       </c>
       <c r="Y63" s="39" t="inlineStr">
         <is>
-          <t>生物医药ETF</t>
+          <t>新能源车ETF</t>
         </is>
       </c>
     </row>
@@ -17128,79 +17128,79 @@
         <v>62</v>
       </c>
       <c r="B64" s="39" t="n">
-        <v>159915</v>
+        <v>159667</v>
       </c>
       <c r="C64" s="39" t="inlineStr">
         <is>
-          <t>创业板ETF</t>
+          <t>工业母机ETF</t>
         </is>
       </c>
       <c r="D64" s="39" t="n">
-        <v>857.59</v>
+        <v>5.21</v>
       </c>
       <c r="E64" s="39" t="n">
-        <v>33</v>
+        <v>26.1</v>
       </c>
       <c r="F64" s="39" t="n">
-        <v>62.5</v>
+        <v>61.2</v>
       </c>
       <c r="G64" s="39" t="n">
-        <v>77.09999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="H64" s="39" t="n">
-        <v>78.8</v>
+        <v>83.2</v>
       </c>
       <c r="I64" s="39" t="n">
-        <v>71.7</v>
+        <v>67.8</v>
       </c>
       <c r="J64" s="39" t="n">
-        <v>23.3</v>
+        <v>23.1</v>
       </c>
       <c r="K64" s="39" t="n">
-        <v>34.8</v>
+        <v>31.6</v>
       </c>
       <c r="L64" s="39" t="n">
-        <v>56.5</v>
+        <v>38.5</v>
       </c>
       <c r="M64" s="39" t="n">
-        <v>91.3</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="N64" s="39" t="n">
-        <v>61.7</v>
+        <v>60.3</v>
       </c>
       <c r="O64" s="39" t="n">
-        <v>84.3</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="P64" s="39" t="n">
-        <v>49.3</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="Q64" s="39" t="n">
-        <v>73.3</v>
+        <v>75</v>
       </c>
       <c r="R64" s="39" t="n">
-        <v>36.3</v>
+        <v>23.7</v>
       </c>
       <c r="S64" s="39" t="n">
-        <v>29.9</v>
+        <v>60.7</v>
       </c>
       <c r="T64" s="39" t="n">
-        <v>77.59999999999999</v>
+        <v>84.8</v>
       </c>
       <c r="U64" s="39" t="n">
-        <v>94.09999999999999</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="V64" s="39" t="n">
-        <v>95.7</v>
+        <v>96.7</v>
       </c>
       <c r="W64" s="39" t="n">
-        <v>98.59999999999999</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="X64" s="39" t="n">
-        <v>60.6</v>
+        <v>60.2</v>
       </c>
       <c r="Y64" s="39" t="inlineStr">
         <is>
-          <t>创业板ETF</t>
+          <t>工业母机ETF</t>
         </is>
       </c>
     </row>
@@ -17209,79 +17209,79 @@
         <v>63</v>
       </c>
       <c r="B65" s="39" t="n">
-        <v>159667</v>
+        <v>513050</v>
       </c>
       <c r="C65" s="39" t="inlineStr">
         <is>
-          <t>工业母机ETF</t>
+          <t>中概互联网ETF</t>
         </is>
       </c>
       <c r="D65" s="39" t="n">
-        <v>5.22</v>
+        <v>355.06</v>
       </c>
       <c r="E65" s="39" t="n">
-        <v>26.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="F65" s="39" t="n">
-        <v>61.2</v>
+        <v>56.6</v>
       </c>
       <c r="G65" s="39" t="n">
-        <v>74.5</v>
+        <v>45</v>
       </c>
       <c r="H65" s="39" t="n">
-        <v>83.2</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="I65" s="39" t="n">
-        <v>67.8</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="J65" s="39" t="n">
-        <v>23.1</v>
+        <v>23.7</v>
       </c>
       <c r="K65" s="39" t="n">
-        <v>31.6</v>
+        <v>56.2</v>
       </c>
       <c r="L65" s="39" t="n">
-        <v>38.5</v>
+        <v>39.4</v>
       </c>
       <c r="M65" s="39" t="n">
-        <v>90.40000000000001</v>
+        <v>60.4</v>
       </c>
       <c r="N65" s="39" t="n">
-        <v>60.3</v>
+        <v>79.7</v>
       </c>
       <c r="O65" s="39" t="n">
-        <v>87.09999999999999</v>
+        <v>96.3</v>
       </c>
       <c r="P65" s="39" t="n">
-        <v>68.59999999999999</v>
+        <v>52.1</v>
       </c>
       <c r="Q65" s="39" t="n">
-        <v>75</v>
+        <v>75.5</v>
       </c>
       <c r="R65" s="39" t="n">
-        <v>23.7</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="S65" s="39" t="n">
-        <v>60.7</v>
+        <v>44.3</v>
       </c>
       <c r="T65" s="39" t="n">
-        <v>84.8</v>
+        <v>73.3</v>
       </c>
       <c r="U65" s="39" t="n">
-        <v>95.40000000000001</v>
+        <v>95</v>
       </c>
       <c r="V65" s="39" t="n">
-        <v>96.7</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="W65" s="39" t="n">
-        <v>98.09999999999999</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="X65" s="39" t="n">
-        <v>62.9</v>
+        <v>62</v>
       </c>
       <c r="Y65" s="39" t="inlineStr">
         <is>
-          <t>工业母机ETF</t>
+          <t>中概互联网ETF</t>
         </is>
       </c>
     </row>
@@ -17289,80 +17289,82 @@
       <c r="A66" s="39" t="n">
         <v>64</v>
       </c>
-      <c r="B66" s="39" t="n">
-        <v>159752</v>
+      <c r="B66" s="39" t="inlineStr">
+        <is>
+          <t>512580</t>
+        </is>
       </c>
       <c r="C66" s="39" t="inlineStr">
         <is>
-          <t>新能源龙头ETF</t>
+          <t>环保ETF</t>
         </is>
       </c>
       <c r="D66" s="39" t="n">
-        <v>2.97</v>
+        <v>11.88</v>
       </c>
       <c r="E66" s="39" t="n">
-        <v>7.5</v>
+        <v>34.6</v>
       </c>
       <c r="F66" s="39" t="n">
-        <v>57.3</v>
+        <v>61.2</v>
       </c>
       <c r="G66" s="39" t="n">
-        <v>65.59999999999999</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="H66" s="39" t="n">
-        <v>78.2</v>
+        <v>79.3</v>
       </c>
       <c r="I66" s="39" t="n">
-        <v>78.2</v>
+        <v>70</v>
       </c>
       <c r="J66" s="39" t="n">
-        <v>26.4</v>
+        <v>36</v>
       </c>
       <c r="K66" s="39" t="n">
-        <v>19.9</v>
+        <v>20.9</v>
       </c>
       <c r="L66" s="39" t="n">
-        <v>46.5</v>
+        <v>57</v>
       </c>
       <c r="M66" s="39" t="n">
-        <v>89.3</v>
+        <v>86.3</v>
       </c>
       <c r="N66" s="39" t="n">
-        <v>70.5</v>
+        <v>54.5</v>
       </c>
       <c r="O66" s="39" t="n">
-        <v>90.5</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="P66" s="39" t="n">
-        <v>71.2</v>
+        <v>47.9</v>
       </c>
       <c r="Q66" s="39" t="n">
-        <v>87.40000000000001</v>
+        <v>74.7</v>
       </c>
       <c r="R66" s="39" t="n">
-        <v>90.8</v>
+        <v>83.3</v>
       </c>
       <c r="S66" s="39" t="n">
-        <v>28.6</v>
+        <v>24.7</v>
       </c>
       <c r="T66" s="39" t="n">
-        <v>28.6</v>
+        <v>24.7</v>
       </c>
       <c r="U66" s="39" t="n">
-        <v>87.7</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="V66" s="39" t="n">
-        <v>91.59999999999999</v>
+        <v>92</v>
       </c>
       <c r="W66" s="39" t="n">
-        <v>97.7</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="X66" s="39" t="n">
-        <v>63.4</v>
+        <v>62.4</v>
       </c>
       <c r="Y66" s="39" t="inlineStr">
         <is>
-          <t>新能源龙头ETF</t>
+          <t>环保ETF</t>
         </is>
       </c>
     </row>
@@ -17371,79 +17373,79 @@
         <v>65</v>
       </c>
       <c r="B67" s="39" t="n">
-        <v>513080</v>
+        <v>513970</v>
       </c>
       <c r="C67" s="39" t="inlineStr">
         <is>
-          <t>法国CAC40ETF</t>
+          <t>恒生消费ETF</t>
         </is>
       </c>
       <c r="D67" s="39" t="n">
-        <v>8.83</v>
+        <v>18.02</v>
       </c>
       <c r="E67" s="39" t="n">
-        <v>19.7</v>
+        <v>28.7</v>
       </c>
       <c r="F67" s="39" t="n">
-        <v>75.90000000000001</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="G67" s="39" t="n">
-        <v>61.6</v>
+        <v>76.7</v>
       </c>
       <c r="H67" s="39" t="n">
-        <v>77.3</v>
+        <v>86.5</v>
       </c>
       <c r="I67" s="39" t="n">
-        <v>55.3</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="J67" s="39" t="n">
-        <v>66.2</v>
+        <v>37.1</v>
       </c>
       <c r="K67" s="39" t="n">
-        <v>78</v>
+        <v>59.3</v>
       </c>
       <c r="L67" s="39" t="n">
-        <v>79.40000000000001</v>
+        <v>37.3</v>
       </c>
       <c r="M67" s="39" t="n">
-        <v>70.2</v>
+        <v>73.2</v>
       </c>
       <c r="N67" s="39" t="n">
-        <v>91.59999999999999</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="O67" s="39" t="n">
-        <v>97.40000000000001</v>
+        <v>95.8</v>
       </c>
       <c r="P67" s="39" t="n">
-        <v>73.5</v>
+        <v>64.7</v>
       </c>
       <c r="Q67" s="39" t="n">
-        <v>93.90000000000001</v>
+        <v>75.3</v>
       </c>
       <c r="R67" s="39" t="n">
-        <v>94.8</v>
+        <v>86</v>
       </c>
       <c r="S67" s="39" t="n">
-        <v>94.8</v>
+        <v>63.9</v>
       </c>
       <c r="T67" s="39" t="n">
-        <v>96.2</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="U67" s="39" t="n">
-        <v>99.40000000000001</v>
+        <v>94.3</v>
       </c>
       <c r="V67" s="39" t="n">
-        <v>70.7</v>
+        <v>63.7</v>
       </c>
       <c r="W67" s="39" t="n">
-        <v>34.6</v>
+        <v>25.3</v>
       </c>
       <c r="X67" s="39" t="n">
-        <v>63.6</v>
+        <v>63.3</v>
       </c>
       <c r="Y67" s="39" t="inlineStr">
         <is>
-          <t>法国CAC40ETF</t>
+          <t>恒生消费ETF</t>
         </is>
       </c>
     </row>
@@ -17452,79 +17454,79 @@
         <v>66</v>
       </c>
       <c r="B68" s="39" t="n">
-        <v>159883</v>
+        <v>159915</v>
       </c>
       <c r="C68" s="39" t="inlineStr">
         <is>
-          <t>医疗器械ETF</t>
+          <t>创业板ETF</t>
         </is>
       </c>
       <c r="D68" s="39" t="n">
-        <v>16.42</v>
+        <v>858.45</v>
       </c>
       <c r="E68" s="39" t="n">
-        <v>43.1</v>
+        <v>33</v>
       </c>
       <c r="F68" s="39" t="n">
-        <v>66.40000000000001</v>
+        <v>62.5</v>
       </c>
       <c r="G68" s="39" t="n">
-        <v>69.59999999999999</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="H68" s="39" t="n">
-        <v>77.8</v>
+        <v>78.8</v>
       </c>
       <c r="I68" s="39" t="n">
-        <v>77.8</v>
+        <v>71.7</v>
       </c>
       <c r="J68" s="39" t="n">
-        <v>18.3</v>
+        <v>23.3</v>
       </c>
       <c r="K68" s="39" t="n">
-        <v>45.9</v>
+        <v>34.8</v>
       </c>
       <c r="L68" s="39" t="n">
-        <v>19.5</v>
+        <v>56.5</v>
       </c>
       <c r="M68" s="39" t="n">
-        <v>70.5</v>
+        <v>91.3</v>
       </c>
       <c r="N68" s="39" t="n">
-        <v>75.59999999999999</v>
+        <v>61.7</v>
       </c>
       <c r="O68" s="39" t="n">
-        <v>56.1</v>
+        <v>84.3</v>
       </c>
       <c r="P68" s="39" t="n">
-        <v>18.3</v>
+        <v>49.3</v>
       </c>
       <c r="Q68" s="39" t="n">
-        <v>13.7</v>
+        <v>73.3</v>
       </c>
       <c r="R68" s="39" t="n">
-        <v>3.9</v>
+        <v>36.3</v>
       </c>
       <c r="S68" s="39" t="n">
-        <v>38.9</v>
+        <v>29.9</v>
       </c>
       <c r="T68" s="39" t="n">
-        <v>75.09999999999999</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="U68" s="39" t="n">
-        <v>91.90000000000001</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="V68" s="39" t="n">
-        <v>93.2</v>
+        <v>95.7</v>
       </c>
       <c r="W68" s="39" t="n">
-        <v>94.90000000000001</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="X68" s="39" t="n">
-        <v>63.7</v>
+        <v>63.6</v>
       </c>
       <c r="Y68" s="39" t="inlineStr">
         <is>
-          <t>医疗器械ETF</t>
+          <t>创业板ETF</t>
         </is>
       </c>
     </row>
@@ -17532,82 +17534,80 @@
       <c r="A69" s="39" t="n">
         <v>67</v>
       </c>
-      <c r="B69" s="39" t="inlineStr">
-        <is>
-          <t>159949</t>
-        </is>
+      <c r="B69" s="39" t="n">
+        <v>159883</v>
       </c>
       <c r="C69" s="39" t="inlineStr">
         <is>
-          <t>创业板50ETF</t>
+          <t>医疗器械ETF</t>
         </is>
       </c>
       <c r="D69" s="39" t="n">
-        <v>259.29</v>
+        <v>16.39</v>
       </c>
       <c r="E69" s="39" t="n">
-        <v>22.1</v>
+        <v>43.1</v>
       </c>
       <c r="F69" s="39" t="n">
-        <v>58.2</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="G69" s="39" t="n">
-        <v>75</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="H69" s="39" t="n">
-        <v>78.90000000000001</v>
+        <v>77.8</v>
       </c>
       <c r="I69" s="39" t="n">
-        <v>78.90000000000001</v>
+        <v>77.8</v>
       </c>
       <c r="J69" s="39" t="n">
-        <v>25.6</v>
+        <v>18.3</v>
       </c>
       <c r="K69" s="39" t="n">
-        <v>34.4</v>
+        <v>45.9</v>
       </c>
       <c r="L69" s="39" t="n">
-        <v>70.09999999999999</v>
+        <v>19.5</v>
       </c>
       <c r="M69" s="39" t="n">
-        <v>91.7</v>
+        <v>70.5</v>
       </c>
       <c r="N69" s="39" t="n">
-        <v>73.90000000000001</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="O69" s="39" t="n">
-        <v>92.2</v>
+        <v>56.1</v>
       </c>
       <c r="P69" s="39" t="n">
-        <v>50.7</v>
+        <v>18.3</v>
       </c>
       <c r="Q69" s="39" t="n">
-        <v>75.7</v>
+        <v>13.7</v>
       </c>
       <c r="R69" s="39" t="n">
-        <v>43</v>
+        <v>3.9</v>
       </c>
       <c r="S69" s="39" t="n">
-        <v>33.4</v>
+        <v>38.9</v>
       </c>
       <c r="T69" s="39" t="n">
-        <v>76.09999999999999</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="U69" s="39" t="n">
-        <v>93.59999999999999</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="V69" s="39" t="n">
-        <v>95.5</v>
+        <v>93.2</v>
       </c>
       <c r="W69" s="39" t="n">
-        <v>98.7</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="X69" s="39" t="n">
-        <v>66</v>
+        <v>63.7</v>
       </c>
       <c r="Y69" s="39" t="inlineStr">
         <is>
-          <t>创业板50ETF</t>
+          <t>医疗器械ETF</t>
         </is>
       </c>
     </row>
@@ -17616,79 +17616,79 @@
         <v>68</v>
       </c>
       <c r="B70" s="39" t="n">
-        <v>513970</v>
+        <v>561320</v>
       </c>
       <c r="C70" s="39" t="inlineStr">
         <is>
-          <t>恒生消费ETF</t>
+          <t>交运ETF</t>
         </is>
       </c>
       <c r="D70" s="39" t="n">
-        <v>18</v>
+        <v>0.65</v>
       </c>
       <c r="E70" s="39" t="n">
-        <v>28.7</v>
+        <v>64.2</v>
       </c>
       <c r="F70" s="39" t="n">
-        <v>74.90000000000001</v>
+        <v>77</v>
       </c>
       <c r="G70" s="39" t="n">
-        <v>76.7</v>
+        <v>57.9</v>
       </c>
       <c r="H70" s="39" t="n">
-        <v>86.5</v>
+        <v>57.9</v>
       </c>
       <c r="I70" s="39" t="n">
-        <v>91.09999999999999</v>
+        <v>49.6</v>
       </c>
       <c r="J70" s="39" t="n">
-        <v>37.1</v>
+        <v>89.3</v>
       </c>
       <c r="K70" s="39" t="n">
-        <v>59.3</v>
+        <v>89.3</v>
       </c>
       <c r="L70" s="39" t="n">
-        <v>37.3</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="M70" s="39" t="n">
-        <v>73.2</v>
+        <v>21.5</v>
       </c>
       <c r="N70" s="39" t="n">
-        <v>78.59999999999999</v>
+        <v>46.5</v>
       </c>
       <c r="O70" s="39" t="n">
-        <v>95.8</v>
+        <v>23.8</v>
       </c>
       <c r="P70" s="39" t="n">
-        <v>64.7</v>
+        <v>61.4</v>
       </c>
       <c r="Q70" s="39" t="n">
-        <v>75.3</v>
+        <v>61.4</v>
       </c>
       <c r="R70" s="39" t="n">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="S70" s="39" t="n">
-        <v>63.9</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="T70" s="39" t="n">
-        <v>79.59999999999999</v>
+        <v>17.7</v>
       </c>
       <c r="U70" s="39" t="n">
-        <v>94.3</v>
+        <v>70</v>
       </c>
       <c r="V70" s="39" t="n">
-        <v>63.7</v>
+        <v>77.7</v>
       </c>
       <c r="W70" s="39" t="n">
-        <v>25.3</v>
+        <v>66.3</v>
       </c>
       <c r="X70" s="39" t="n">
-        <v>66.09999999999999</v>
+        <v>66.3</v>
       </c>
       <c r="Y70" s="39" t="inlineStr">
         <is>
-          <t>恒生消费ETF</t>
+          <t>交运ETF</t>
         </is>
       </c>
     </row>
@@ -17698,80 +17698,80 @@
       </c>
       <c r="B71" s="39" t="inlineStr">
         <is>
-          <t>512580</t>
+          <t>159949</t>
         </is>
       </c>
       <c r="C71" s="39" t="inlineStr">
         <is>
-          <t>环保ETF</t>
+          <t>创业板50ETF</t>
         </is>
       </c>
       <c r="D71" s="39" t="n">
-        <v>11.89</v>
+        <v>259</v>
       </c>
       <c r="E71" s="39" t="n">
-        <v>34.6</v>
+        <v>22.1</v>
       </c>
       <c r="F71" s="39" t="n">
-        <v>61.2</v>
+        <v>58.2</v>
       </c>
       <c r="G71" s="39" t="n">
-        <v>68.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="H71" s="39" t="n">
-        <v>79.3</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="I71" s="39" t="n">
-        <v>70</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="J71" s="39" t="n">
-        <v>36</v>
+        <v>25.6</v>
       </c>
       <c r="K71" s="39" t="n">
-        <v>20.9</v>
+        <v>34.4</v>
       </c>
       <c r="L71" s="39" t="n">
-        <v>57</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="M71" s="39" t="n">
-        <v>86.3</v>
+        <v>91.7</v>
       </c>
       <c r="N71" s="39" t="n">
-        <v>54.5</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="O71" s="39" t="n">
-        <v>79.59999999999999</v>
+        <v>92.2</v>
       </c>
       <c r="P71" s="39" t="n">
-        <v>47.9</v>
+        <v>50.7</v>
       </c>
       <c r="Q71" s="39" t="n">
-        <v>74.7</v>
+        <v>75.7</v>
       </c>
       <c r="R71" s="39" t="n">
-        <v>83.3</v>
+        <v>43</v>
       </c>
       <c r="S71" s="39" t="n">
-        <v>24.7</v>
+        <v>33.4</v>
       </c>
       <c r="T71" s="39" t="n">
-        <v>24.7</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="U71" s="39" t="n">
-        <v>86.09999999999999</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="V71" s="39" t="n">
-        <v>92</v>
+        <v>95.5</v>
       </c>
       <c r="W71" s="39" t="n">
-        <v>97.40000000000001</v>
+        <v>98.7</v>
       </c>
       <c r="X71" s="39" t="n">
-        <v>67.3</v>
+        <v>69.3</v>
       </c>
       <c r="Y71" s="39" t="inlineStr">
         <is>
-          <t>环保ETF</t>
+          <t>创业板50ETF</t>
         </is>
       </c>
     </row>
@@ -17780,79 +17780,79 @@
         <v>70</v>
       </c>
       <c r="B72" s="39" t="n">
-        <v>159992</v>
+        <v>513080</v>
       </c>
       <c r="C72" s="39" t="inlineStr">
         <is>
-          <t>创新药ETF</t>
+          <t>法国CAC40ETF</t>
         </is>
       </c>
       <c r="D72" s="39" t="n">
-        <v>113.9</v>
+        <v>8.85</v>
       </c>
       <c r="E72" s="39" t="n">
-        <v>17.2</v>
+        <v>19.7</v>
       </c>
       <c r="F72" s="39" t="n">
-        <v>60.8</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="G72" s="39" t="n">
-        <v>71</v>
+        <v>61.6</v>
       </c>
       <c r="H72" s="39" t="n">
-        <v>83.7</v>
+        <v>77.3</v>
       </c>
       <c r="I72" s="39" t="n">
-        <v>60.2</v>
+        <v>55.3</v>
       </c>
       <c r="J72" s="39" t="n">
-        <v>32.7</v>
+        <v>66.2</v>
       </c>
       <c r="K72" s="39" t="n">
-        <v>22.5</v>
+        <v>78</v>
       </c>
       <c r="L72" s="39" t="n">
-        <v>22.5</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="M72" s="39" t="n">
-        <v>86.2</v>
+        <v>70.2</v>
       </c>
       <c r="N72" s="39" t="n">
-        <v>94.40000000000001</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="O72" s="39" t="n">
-        <v>51.4</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="P72" s="39" t="n">
-        <v>72.7</v>
+        <v>73.5</v>
       </c>
       <c r="Q72" s="39" t="n">
-        <v>38.7</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="R72" s="39" t="n">
-        <v>38.7</v>
+        <v>94.8</v>
       </c>
       <c r="S72" s="39" t="n">
-        <v>72.7</v>
+        <v>94.8</v>
       </c>
       <c r="T72" s="39" t="n">
-        <v>90.7</v>
+        <v>96.2</v>
       </c>
       <c r="U72" s="39" t="n">
-        <v>95.59999999999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="V72" s="39" t="n">
-        <v>34.5</v>
+        <v>70.7</v>
       </c>
       <c r="W72" s="39" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="X72" s="39" t="n">
-        <v>67.59999999999999</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="Y72" s="39" t="inlineStr">
         <is>
-          <t>创新药ETF</t>
+          <t>法国CAC40ETF</t>
         </is>
       </c>
     </row>
@@ -17860,82 +17860,80 @@
       <c r="A73" s="39" t="n">
         <v>71</v>
       </c>
-      <c r="B73" s="39" t="inlineStr">
-        <is>
-          <t>159509</t>
-        </is>
+      <c r="B73" s="39" t="n">
+        <v>159850</v>
       </c>
       <c r="C73" s="39" t="inlineStr">
         <is>
-          <t>纳指科技ETF</t>
+          <t>恒生国企ETF</t>
         </is>
       </c>
       <c r="D73" s="39" t="n">
-        <v>90.89</v>
+        <v>8.94</v>
       </c>
       <c r="E73" s="39" t="n">
-        <v>24.8</v>
+        <v>26.1</v>
       </c>
       <c r="F73" s="39" t="n">
-        <v>85.09999999999999</v>
+        <v>62.6</v>
       </c>
       <c r="G73" s="39" t="n">
-        <v>71.40000000000001</v>
+        <v>72.5</v>
       </c>
       <c r="H73" s="39" t="n">
-        <v>83.90000000000001</v>
+        <v>88</v>
       </c>
       <c r="I73" s="39" t="n">
-        <v>52.2</v>
+        <v>90</v>
       </c>
       <c r="J73" s="39" t="n">
-        <v>23.6</v>
+        <v>31.2</v>
       </c>
       <c r="K73" s="39" t="n">
-        <v>40</v>
+        <v>55.3</v>
       </c>
       <c r="L73" s="39" t="n">
-        <v>24.4</v>
+        <v>50.3</v>
       </c>
       <c r="M73" s="39" t="n">
-        <v>17.8</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="N73" s="39" t="n">
-        <v>23.7</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="O73" s="39" t="n">
-        <v>90.7</v>
+        <v>97</v>
       </c>
       <c r="P73" s="39" t="n">
-        <v>47.9</v>
+        <v>54</v>
       </c>
       <c r="Q73" s="39" t="n">
-        <v>81.3</v>
+        <v>74.3</v>
       </c>
       <c r="R73" s="39" t="n">
-        <v>83.40000000000001</v>
+        <v>76.8</v>
       </c>
       <c r="S73" s="39" t="n">
-        <v>76.40000000000001</v>
+        <v>27.6</v>
       </c>
       <c r="T73" s="39" t="n">
-        <v>57</v>
+        <v>36.6</v>
       </c>
       <c r="U73" s="39" t="n">
-        <v>88.59999999999999</v>
+        <v>90.2</v>
       </c>
       <c r="V73" s="39" t="n">
-        <v>91.5</v>
+        <v>73.3</v>
       </c>
       <c r="W73" s="39" t="n">
-        <v>97.3</v>
+        <v>82.2</v>
       </c>
       <c r="X73" s="39" t="n">
-        <v>70.09999999999999</v>
+        <v>70.5</v>
       </c>
       <c r="Y73" s="39" t="inlineStr">
         <is>
-          <t>纳指科技ETF</t>
+          <t>恒生国企ETF</t>
         </is>
       </c>
     </row>
@@ -17944,79 +17942,79 @@
         <v>72</v>
       </c>
       <c r="B74" s="39" t="n">
-        <v>159850</v>
+        <v>159752</v>
       </c>
       <c r="C74" s="39" t="inlineStr">
         <is>
-          <t>恒生国企ETF</t>
+          <t>新能源龙头ETF</t>
         </is>
       </c>
       <c r="D74" s="39" t="n">
-        <v>8.94</v>
+        <v>2.97</v>
       </c>
       <c r="E74" s="39" t="n">
-        <v>26.1</v>
+        <v>7.5</v>
       </c>
       <c r="F74" s="39" t="n">
-        <v>62.6</v>
+        <v>57.3</v>
       </c>
       <c r="G74" s="39" t="n">
-        <v>72.5</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="H74" s="39" t="n">
-        <v>88</v>
+        <v>78.2</v>
       </c>
       <c r="I74" s="39" t="n">
-        <v>90</v>
+        <v>78.2</v>
       </c>
       <c r="J74" s="39" t="n">
-        <v>31.2</v>
+        <v>26.4</v>
       </c>
       <c r="K74" s="39" t="n">
-        <v>55.3</v>
+        <v>19.9</v>
       </c>
       <c r="L74" s="39" t="n">
-        <v>50.3</v>
+        <v>46.5</v>
       </c>
       <c r="M74" s="39" t="n">
-        <v>73.90000000000001</v>
+        <v>89.3</v>
       </c>
       <c r="N74" s="39" t="n">
-        <v>81.09999999999999</v>
+        <v>70.5</v>
       </c>
       <c r="O74" s="39" t="n">
-        <v>97</v>
+        <v>90.5</v>
       </c>
       <c r="P74" s="39" t="n">
-        <v>54</v>
+        <v>71.2</v>
       </c>
       <c r="Q74" s="39" t="n">
-        <v>74.3</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="R74" s="39" t="n">
-        <v>76.8</v>
+        <v>90.8</v>
       </c>
       <c r="S74" s="39" t="n">
-        <v>27.6</v>
+        <v>28.6</v>
       </c>
       <c r="T74" s="39" t="n">
-        <v>36.6</v>
+        <v>28.6</v>
       </c>
       <c r="U74" s="39" t="n">
-        <v>90.2</v>
+        <v>87.7</v>
       </c>
       <c r="V74" s="39" t="n">
-        <v>73.3</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="W74" s="39" t="n">
-        <v>82.2</v>
+        <v>97.7</v>
       </c>
       <c r="X74" s="39" t="n">
-        <v>70.5</v>
+        <v>71.8</v>
       </c>
       <c r="Y74" s="39" t="inlineStr">
         <is>
-          <t>恒生国企ETF</t>
+          <t>新能源龙头ETF</t>
         </is>
       </c>
     </row>
@@ -18024,80 +18022,82 @@
       <c r="A75" s="39" t="n">
         <v>73</v>
       </c>
-      <c r="B75" s="39" t="n">
-        <v>561320</v>
+      <c r="B75" s="39" t="inlineStr">
+        <is>
+          <t>510210</t>
+        </is>
       </c>
       <c r="C75" s="39" t="inlineStr">
         <is>
-          <t>交运ETF</t>
+          <t>上证指数ETF</t>
         </is>
       </c>
       <c r="D75" s="39" t="n">
-        <v>0.65</v>
+        <v>47.46</v>
       </c>
       <c r="E75" s="39" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="F75" s="39" t="n">
         <v>64.2</v>
       </c>
-      <c r="F75" s="39" t="n">
-        <v>77</v>
-      </c>
       <c r="G75" s="39" t="n">
-        <v>57.9</v>
+        <v>73.7</v>
       </c>
       <c r="H75" s="39" t="n">
-        <v>57.9</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="I75" s="39" t="n">
-        <v>49.6</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="J75" s="39" t="n">
-        <v>89.3</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="K75" s="39" t="n">
-        <v>89.3</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="L75" s="39" t="n">
-        <v>71.90000000000001</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="M75" s="39" t="n">
-        <v>21.5</v>
+        <v>99</v>
       </c>
       <c r="N75" s="39" t="n">
-        <v>46.5</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="O75" s="39" t="n">
-        <v>23.8</v>
+        <v>64</v>
       </c>
       <c r="P75" s="39" t="n">
-        <v>61.4</v>
+        <v>73.5</v>
       </c>
       <c r="Q75" s="39" t="n">
-        <v>61.4</v>
+        <v>73.5</v>
       </c>
       <c r="R75" s="39" t="n">
-        <v>37</v>
+        <v>23.7</v>
       </c>
       <c r="S75" s="39" t="n">
-        <v>84.90000000000001</v>
+        <v>14.1</v>
       </c>
       <c r="T75" s="39" t="n">
-        <v>17.7</v>
+        <v>14.1</v>
       </c>
       <c r="U75" s="39" t="n">
-        <v>70</v>
+        <v>94.5</v>
       </c>
       <c r="V75" s="39" t="n">
-        <v>77.7</v>
+        <v>97.8</v>
       </c>
       <c r="W75" s="39" t="n">
-        <v>66.3</v>
+        <v>97.8</v>
       </c>
       <c r="X75" s="39" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y75" s="39" t="inlineStr">
         <is>
-          <t>交运ETF</t>
+          <t>上证指数ETF</t>
         </is>
       </c>
     </row>
@@ -18105,80 +18105,82 @@
       <c r="A76" s="39" t="n">
         <v>74</v>
       </c>
-      <c r="B76" s="39" t="n">
-        <v>510300</v>
+      <c r="B76" s="39" t="inlineStr">
+        <is>
+          <t>159509</t>
+        </is>
       </c>
       <c r="C76" s="39" t="inlineStr">
         <is>
-          <t>沪深300ETF</t>
+          <t>纳指科技ETF</t>
         </is>
       </c>
       <c r="D76" s="39" t="n">
-        <v>3797</v>
+        <v>91.01000000000001</v>
       </c>
       <c r="E76" s="39" t="n">
-        <v>43.6</v>
+        <v>24.8</v>
       </c>
       <c r="F76" s="39" t="n">
-        <v>72.09999999999999</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="G76" s="39" t="n">
-        <v>76.3</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="H76" s="39" t="n">
-        <v>80.59999999999999</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="I76" s="39" t="n">
-        <v>82.90000000000001</v>
+        <v>52.2</v>
       </c>
       <c r="J76" s="39" t="n">
-        <v>90</v>
+        <v>23.6</v>
       </c>
       <c r="K76" s="39" t="n">
-        <v>92.2</v>
+        <v>40</v>
       </c>
       <c r="L76" s="39" t="n">
-        <v>96.8</v>
+        <v>24.4</v>
       </c>
       <c r="M76" s="39" t="n">
-        <v>97.40000000000001</v>
+        <v>17.8</v>
       </c>
       <c r="N76" s="39" t="n">
-        <v>98.40000000000001</v>
+        <v>23.7</v>
       </c>
       <c r="O76" s="39" t="n">
-        <v>99.2</v>
+        <v>90.7</v>
       </c>
       <c r="P76" s="39" t="n">
-        <v>99.2</v>
+        <v>47.9</v>
       </c>
       <c r="Q76" s="39" t="n">
-        <v>99.2</v>
+        <v>81.3</v>
       </c>
       <c r="R76" s="39" t="n">
-        <v>14.3</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="S76" s="39" t="n">
-        <v>4.8</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="T76" s="39" t="n">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="U76" s="39" t="n">
-        <v>90.3</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="V76" s="39" t="n">
-        <v>95.5</v>
+        <v>91.5</v>
       </c>
       <c r="W76" s="39" t="n">
-        <v>97.8</v>
+        <v>97.3</v>
       </c>
       <c r="X76" s="39" t="n">
-        <v>86.3</v>
+        <v>77.3</v>
       </c>
       <c r="Y76" s="39" t="inlineStr">
         <is>
-          <t>沪深300ETF</t>
+          <t>纳指科技ETF</t>
         </is>
       </c>
     </row>
@@ -18187,79 +18189,79 @@
         <v>75</v>
       </c>
       <c r="B77" s="39" t="n">
-        <v>517090</v>
+        <v>510300</v>
       </c>
       <c r="C77" s="39" t="inlineStr">
         <is>
-          <t>央企共赢ETF</t>
+          <t>沪深300ETF</t>
         </is>
       </c>
       <c r="D77" s="39" t="n">
-        <v>3.51</v>
+        <v>3795.08</v>
       </c>
       <c r="E77" s="39" t="n">
-        <v>50</v>
+        <v>43.6</v>
       </c>
       <c r="F77" s="39" t="n">
-        <v>55.6</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="G77" s="39" t="n">
-        <v>45.4</v>
+        <v>76.3</v>
       </c>
       <c r="H77" s="39" t="n">
-        <v>64.8</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="I77" s="39" t="n">
-        <v>76.09999999999999</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="J77" s="39" t="n">
-        <v>90.40000000000001</v>
+        <v>90</v>
       </c>
       <c r="K77" s="39" t="n">
-        <v>91.2</v>
+        <v>92.2</v>
       </c>
       <c r="L77" s="39" t="n">
-        <v>94</v>
+        <v>96.8</v>
       </c>
       <c r="M77" s="39" t="n">
-        <v>32.1</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="N77" s="39" t="n">
-        <v>68.7</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="O77" s="39" t="n">
-        <v>41</v>
+        <v>99.2</v>
       </c>
       <c r="P77" s="39" t="n">
-        <v>41</v>
+        <v>99.2</v>
       </c>
       <c r="Q77" s="39" t="n">
-        <v>17.9</v>
+        <v>99.2</v>
       </c>
       <c r="R77" s="39" t="n">
-        <v>76.8</v>
+        <v>14.3</v>
       </c>
       <c r="S77" s="39" t="n">
-        <v>26.4</v>
+        <v>4.8</v>
       </c>
       <c r="T77" s="39" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="U77" s="39" t="n">
-        <v>51.4</v>
+        <v>90.3</v>
       </c>
       <c r="V77" s="39" t="n">
-        <v>84.59999999999999</v>
+        <v>95.5</v>
       </c>
       <c r="W77" s="39" t="n">
-        <v>84.59999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="X77" s="39" t="n">
-        <v>89.2</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="Y77" s="39" t="inlineStr">
         <is>
-          <t>央企共赢ETF</t>
+          <t>沪深300ETF</t>
         </is>
       </c>
     </row>
@@ -18268,79 +18270,79 @@
         <v>76</v>
       </c>
       <c r="B78" s="39" t="n">
-        <v>159941</v>
+        <v>510880</v>
       </c>
       <c r="C78" s="39" t="inlineStr">
         <is>
-          <t>纳指ETF</t>
+          <t>红利ETF</t>
         </is>
       </c>
       <c r="D78" s="39" t="n">
-        <v>243.78</v>
+        <v>217.44</v>
       </c>
       <c r="E78" s="39" t="n">
-        <v>34.3</v>
+        <v>46.3</v>
       </c>
       <c r="F78" s="39" t="n">
-        <v>85</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="G78" s="39" t="n">
-        <v>70.59999999999999</v>
+        <v>49</v>
       </c>
       <c r="H78" s="39" t="n">
-        <v>78.90000000000001</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="I78" s="39" t="n">
-        <v>49.1</v>
+        <v>84.3</v>
       </c>
       <c r="J78" s="39" t="n">
-        <v>22.3</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="K78" s="39" t="n">
-        <v>48.2</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="L78" s="39" t="n">
-        <v>31.2</v>
+        <v>70.7</v>
       </c>
       <c r="M78" s="39" t="n">
-        <v>21.2</v>
+        <v>30</v>
       </c>
       <c r="N78" s="39" t="n">
-        <v>19.2</v>
+        <v>67.5</v>
       </c>
       <c r="O78" s="39" t="n">
-        <v>89.59999999999999</v>
+        <v>24.9</v>
       </c>
       <c r="P78" s="39" t="n">
-        <v>52.8</v>
+        <v>62.9</v>
       </c>
       <c r="Q78" s="39" t="n">
-        <v>83.2</v>
+        <v>51</v>
       </c>
       <c r="R78" s="39" t="n">
-        <v>85.59999999999999</v>
+        <v>64.5</v>
       </c>
       <c r="S78" s="39" t="n">
-        <v>79.90000000000001</v>
+        <v>20.2</v>
       </c>
       <c r="T78" s="39" t="n">
-        <v>82.3</v>
+        <v>5.4</v>
       </c>
       <c r="U78" s="39" t="n">
-        <v>93.3</v>
+        <v>3.6</v>
       </c>
       <c r="V78" s="39" t="n">
-        <v>95.59999999999999</v>
+        <v>62.3</v>
       </c>
       <c r="W78" s="39" t="n">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="X78" s="39" t="n">
-        <v>89.7</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="Y78" s="39" t="inlineStr">
         <is>
-          <t>纳指ETF</t>
+          <t>红利ETF</t>
         </is>
       </c>
     </row>
@@ -18349,79 +18351,79 @@
         <v>77</v>
       </c>
       <c r="B79" s="39" t="n">
-        <v>510880</v>
+        <v>159611</v>
       </c>
       <c r="C79" s="39" t="inlineStr">
         <is>
-          <t>红利ETF</t>
+          <t>电力ETF</t>
         </is>
       </c>
       <c r="D79" s="39" t="n">
-        <v>217.72</v>
+        <v>35.97</v>
       </c>
       <c r="E79" s="39" t="n">
-        <v>46.3</v>
+        <v>55.1</v>
       </c>
       <c r="F79" s="39" t="n">
-        <v>69.09999999999999</v>
+        <v>65.3</v>
       </c>
       <c r="G79" s="39" t="n">
-        <v>49</v>
+        <v>38.8</v>
       </c>
       <c r="H79" s="39" t="n">
-        <v>75.59999999999999</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="I79" s="39" t="n">
-        <v>84.3</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="J79" s="39" t="n">
-        <v>91.09999999999999</v>
+        <v>86.8</v>
       </c>
       <c r="K79" s="39" t="n">
-        <v>66.09999999999999</v>
+        <v>86.8</v>
       </c>
       <c r="L79" s="39" t="n">
-        <v>70.7</v>
+        <v>26.1</v>
       </c>
       <c r="M79" s="39" t="n">
-        <v>30</v>
+        <v>59.8</v>
       </c>
       <c r="N79" s="39" t="n">
-        <v>67.5</v>
+        <v>45.9</v>
       </c>
       <c r="O79" s="39" t="n">
-        <v>24.9</v>
+        <v>19.1</v>
       </c>
       <c r="P79" s="39" t="n">
-        <v>62.9</v>
+        <v>80.3</v>
       </c>
       <c r="Q79" s="39" t="n">
-        <v>51</v>
+        <v>94.3</v>
       </c>
       <c r="R79" s="39" t="n">
-        <v>64.5</v>
+        <v>97</v>
       </c>
       <c r="S79" s="39" t="n">
-        <v>20.2</v>
+        <v>29.1</v>
       </c>
       <c r="T79" s="39" t="n">
-        <v>5.4</v>
+        <v>22.7</v>
       </c>
       <c r="U79" s="39" t="n">
-        <v>3.6</v>
+        <v>53.3</v>
       </c>
       <c r="V79" s="39" t="n">
-        <v>62.3</v>
+        <v>63.1</v>
       </c>
       <c r="W79" s="39" t="n">
-        <v>70</v>
+        <v>77.3</v>
       </c>
       <c r="X79" s="39" t="n">
         <v>90.09999999999999</v>
       </c>
       <c r="Y79" s="39" t="inlineStr">
         <is>
-          <t>红利ETF</t>
+          <t>电力ETF</t>
         </is>
       </c>
     </row>
@@ -18511,79 +18513,79 @@
         <v>79</v>
       </c>
       <c r="B81" s="39" t="n">
-        <v>159611</v>
+        <v>517090</v>
       </c>
       <c r="C81" s="39" t="inlineStr">
         <is>
-          <t>电力ETF</t>
+          <t>央企共赢ETF</t>
         </is>
       </c>
       <c r="D81" s="39" t="n">
-        <v>36.01</v>
+        <v>3.51</v>
       </c>
       <c r="E81" s="39" t="n">
-        <v>55.1</v>
+        <v>50</v>
       </c>
       <c r="F81" s="39" t="n">
-        <v>65.3</v>
+        <v>55.6</v>
       </c>
       <c r="G81" s="39" t="n">
-        <v>38.8</v>
+        <v>45.4</v>
       </c>
       <c r="H81" s="39" t="n">
-        <v>75.40000000000001</v>
+        <v>64.8</v>
       </c>
       <c r="I81" s="39" t="n">
-        <v>82.90000000000001</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="J81" s="39" t="n">
-        <v>86.8</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="K81" s="39" t="n">
-        <v>86.8</v>
+        <v>91.2</v>
       </c>
       <c r="L81" s="39" t="n">
-        <v>26.1</v>
+        <v>94</v>
       </c>
       <c r="M81" s="39" t="n">
-        <v>59.8</v>
+        <v>32.1</v>
       </c>
       <c r="N81" s="39" t="n">
-        <v>45.9</v>
+        <v>68.7</v>
       </c>
       <c r="O81" s="39" t="n">
-        <v>19.1</v>
+        <v>41</v>
       </c>
       <c r="P81" s="39" t="n">
-        <v>80.3</v>
+        <v>41</v>
       </c>
       <c r="Q81" s="39" t="n">
-        <v>94.3</v>
+        <v>17.9</v>
       </c>
       <c r="R81" s="39" t="n">
-        <v>97</v>
+        <v>76.8</v>
       </c>
       <c r="S81" s="39" t="n">
-        <v>29.1</v>
+        <v>26.4</v>
       </c>
       <c r="T81" s="39" t="n">
-        <v>22.7</v>
+        <v>17</v>
       </c>
       <c r="U81" s="39" t="n">
-        <v>53.3</v>
+        <v>51.4</v>
       </c>
       <c r="V81" s="39" t="n">
-        <v>63.1</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="W81" s="39" t="n">
-        <v>77.3</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="X81" s="39" t="n">
-        <v>91.09999999999999</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="Y81" s="39" t="inlineStr">
         <is>
-          <t>电力ETF</t>
+          <t>央企共赢ETF</t>
         </is>
       </c>
     </row>
@@ -18674,82 +18676,80 @@
       <c r="A83" s="39" t="n">
         <v>81</v>
       </c>
-      <c r="B83" s="39" t="inlineStr">
-        <is>
-          <t>512040</t>
-        </is>
+      <c r="B83" s="39" t="n">
+        <v>159647</v>
       </c>
       <c r="C83" s="39" t="inlineStr">
         <is>
-          <t>价值100ETF</t>
+          <t>中药ETF</t>
         </is>
       </c>
       <c r="D83" s="39" t="n">
-        <v>17.86</v>
+        <v>7.9</v>
       </c>
       <c r="E83" s="39" t="n">
-        <v>31.6</v>
+        <v>60</v>
       </c>
       <c r="F83" s="39" t="n">
-        <v>67.3</v>
+        <v>71.8</v>
       </c>
       <c r="G83" s="39" t="n">
-        <v>59.9</v>
+        <v>56.9</v>
       </c>
       <c r="H83" s="39" t="n">
-        <v>75.8</v>
+        <v>60.9</v>
       </c>
       <c r="I83" s="39" t="n">
-        <v>84.2</v>
+        <v>87.3</v>
       </c>
       <c r="J83" s="39" t="n">
-        <v>49.8</v>
+        <v>50.3</v>
       </c>
       <c r="K83" s="39" t="n">
-        <v>58.3</v>
+        <v>44.1</v>
       </c>
       <c r="L83" s="39" t="n">
-        <v>58.3</v>
+        <v>29.5</v>
       </c>
       <c r="M83" s="39" t="n">
-        <v>90.5</v>
+        <v>47</v>
       </c>
       <c r="N83" s="39" t="n">
-        <v>94.09999999999999</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="O83" s="39" t="n">
-        <v>98</v>
+        <v>30.4</v>
       </c>
       <c r="P83" s="39" t="n">
-        <v>98</v>
+        <v>51.8</v>
       </c>
       <c r="Q83" s="39" t="n">
-        <v>98</v>
+        <v>26.9</v>
       </c>
       <c r="R83" s="39" t="n">
-        <v>13.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S83" s="39" t="n">
-        <v>10.4</v>
+        <v>7.9</v>
       </c>
       <c r="T83" s="39" t="n">
-        <v>3.2</v>
+        <v>41.2</v>
       </c>
       <c r="U83" s="39" t="n">
-        <v>63.6</v>
+        <v>73.3</v>
       </c>
       <c r="V83" s="39" t="n">
-        <v>83.8</v>
+        <v>85.7</v>
       </c>
       <c r="W83" s="39" t="n">
-        <v>89.59999999999999</v>
+        <v>90.3</v>
       </c>
       <c r="X83" s="39" t="n">
-        <v>92.90000000000001</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="Y83" s="39" t="inlineStr">
         <is>
-          <t>价值100ETF</t>
+          <t>中药ETF</t>
         </is>
       </c>
     </row>
@@ -18757,80 +18757,82 @@
       <c r="A84" s="39" t="n">
         <v>82</v>
       </c>
-      <c r="B84" s="39" t="n">
-        <v>512690</v>
+      <c r="B84" s="39" t="inlineStr">
+        <is>
+          <t>512040</t>
+        </is>
       </c>
       <c r="C84" s="39" t="inlineStr">
         <is>
-          <t>酒ETF</t>
+          <t>价值100ETF</t>
         </is>
       </c>
       <c r="D84" s="39" t="n">
-        <v>114.69</v>
+        <v>17.85</v>
       </c>
       <c r="E84" s="39" t="n">
-        <v>71.3</v>
+        <v>31.6</v>
       </c>
       <c r="F84" s="39" t="n">
-        <v>76.5</v>
+        <v>67.3</v>
       </c>
       <c r="G84" s="39" t="n">
-        <v>41.3</v>
+        <v>59.9</v>
       </c>
       <c r="H84" s="39" t="n">
-        <v>23</v>
+        <v>75.8</v>
       </c>
       <c r="I84" s="39" t="n">
-        <v>23</v>
+        <v>84.2</v>
       </c>
       <c r="J84" s="39" t="n">
-        <v>51.6</v>
+        <v>49.8</v>
       </c>
       <c r="K84" s="39" t="n">
-        <v>85</v>
+        <v>58.3</v>
       </c>
       <c r="L84" s="39" t="n">
-        <v>35.7</v>
+        <v>58.3</v>
       </c>
       <c r="M84" s="39" t="n">
-        <v>16.5</v>
+        <v>90.5</v>
       </c>
       <c r="N84" s="39" t="n">
-        <v>14</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="O84" s="39" t="n">
-        <v>8.699999999999999</v>
+        <v>98</v>
       </c>
       <c r="P84" s="39" t="n">
-        <v>4.1</v>
+        <v>98</v>
       </c>
       <c r="Q84" s="39" t="n">
-        <v>29.2</v>
+        <v>98</v>
       </c>
       <c r="R84" s="39" t="n">
-        <v>14.3</v>
+        <v>13.4</v>
       </c>
       <c r="S84" s="39" t="n">
-        <v>3.5</v>
+        <v>10.4</v>
       </c>
       <c r="T84" s="39" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="U84" s="39" t="n">
-        <v>51.9</v>
+        <v>63.6</v>
       </c>
       <c r="V84" s="39" t="n">
-        <v>76</v>
+        <v>83.8</v>
       </c>
       <c r="W84" s="39" t="n">
-        <v>90.40000000000001</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="X84" s="39" t="n">
-        <v>93.09999999999999</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="Y84" s="39" t="inlineStr">
         <is>
-          <t>酒ETF</t>
+          <t>价值100ETF</t>
         </is>
       </c>
     </row>
@@ -18847,7 +18849,7 @@
         </is>
       </c>
       <c r="D85" s="39" t="n">
-        <v>78.04000000000001</v>
+        <v>78.09</v>
       </c>
       <c r="E85" s="39" t="n">
         <v>5.8</v>
@@ -19003,79 +19005,79 @@
         <v>85</v>
       </c>
       <c r="B87" s="39" t="n">
-        <v>159647</v>
+        <v>510230</v>
       </c>
       <c r="C87" s="39" t="inlineStr">
         <is>
-          <t>中药ETF</t>
+          <t>金融ETF</t>
         </is>
       </c>
       <c r="D87" s="39" t="n">
-        <v>7.9</v>
+        <v>46.73</v>
       </c>
       <c r="E87" s="39" t="n">
-        <v>60</v>
+        <v>21.3</v>
       </c>
       <c r="F87" s="39" t="n">
-        <v>71.8</v>
+        <v>62.7</v>
       </c>
       <c r="G87" s="39" t="n">
-        <v>56.9</v>
+        <v>67.5</v>
       </c>
       <c r="H87" s="39" t="n">
-        <v>60.9</v>
+        <v>81.8</v>
       </c>
       <c r="I87" s="39" t="n">
-        <v>87.3</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="J87" s="39" t="n">
-        <v>50.3</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="K87" s="39" t="n">
-        <v>44.1</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="L87" s="39" t="n">
-        <v>29.5</v>
+        <v>99</v>
       </c>
       <c r="M87" s="39" t="n">
-        <v>47</v>
+        <v>51.8</v>
       </c>
       <c r="N87" s="39" t="n">
-        <v>91.09999999999999</v>
+        <v>65.8</v>
       </c>
       <c r="O87" s="39" t="n">
-        <v>30.4</v>
+        <v>47.4</v>
       </c>
       <c r="P87" s="39" t="n">
-        <v>51.8</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="Q87" s="39" t="n">
-        <v>26.9</v>
+        <v>59.7</v>
       </c>
       <c r="R87" s="39" t="n">
-        <v>9.800000000000001</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="S87" s="39" t="n">
-        <v>7.9</v>
+        <v>36.2</v>
       </c>
       <c r="T87" s="39" t="n">
-        <v>41.2</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="U87" s="39" t="n">
-        <v>73.3</v>
+        <v>35.1</v>
       </c>
       <c r="V87" s="39" t="n">
-        <v>85.7</v>
+        <v>75.8</v>
       </c>
       <c r="W87" s="39" t="n">
-        <v>90.3</v>
+        <v>91</v>
       </c>
       <c r="X87" s="39" t="n">
-        <v>94.09999999999999</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="Y87" s="39" t="inlineStr">
         <is>
-          <t>中药ETF</t>
+          <t>金融ETF</t>
         </is>
       </c>
     </row>
@@ -19092,7 +19094,7 @@
         </is>
       </c>
       <c r="D88" s="39" t="n">
-        <v>1657.38</v>
+        <v>1656.18</v>
       </c>
       <c r="E88" s="39" t="n">
         <v>56.3</v>
@@ -19152,7 +19154,7 @@
         <v>92.8</v>
       </c>
       <c r="X88" s="39" t="n">
-        <v>94.7</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="Y88" s="39" t="inlineStr">
         <is>
@@ -19164,82 +19166,80 @@
       <c r="A89" s="39" t="n">
         <v>87</v>
       </c>
-      <c r="B89" s="39" t="inlineStr">
-        <is>
-          <t>159736</t>
-        </is>
+      <c r="B89" s="39" t="n">
+        <v>512690</v>
       </c>
       <c r="C89" s="39" t="inlineStr">
         <is>
-          <t>饮食ETF</t>
+          <t>酒ETF</t>
         </is>
       </c>
       <c r="D89" s="39" t="n">
-        <v>48.76</v>
+        <v>114.69</v>
       </c>
       <c r="E89" s="39" t="n">
-        <v>74.40000000000001</v>
+        <v>71.3</v>
       </c>
       <c r="F89" s="39" t="n">
-        <v>84.09999999999999</v>
+        <v>76.5</v>
       </c>
       <c r="G89" s="39" t="n">
-        <v>50.1</v>
+        <v>41.3</v>
       </c>
       <c r="H89" s="39" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="I89" s="39" t="n">
-        <v>70.40000000000001</v>
+        <v>23</v>
       </c>
       <c r="J89" s="39" t="n">
-        <v>78.2</v>
+        <v>51.6</v>
       </c>
       <c r="K89" s="39" t="n">
-        <v>90.59999999999999</v>
+        <v>85</v>
       </c>
       <c r="L89" s="39" t="n">
-        <v>34.9</v>
+        <v>35.7</v>
       </c>
       <c r="M89" s="39" t="n">
-        <v>18.6</v>
+        <v>16.5</v>
       </c>
       <c r="N89" s="39" t="n">
-        <v>18.6</v>
+        <v>14</v>
       </c>
       <c r="O89" s="39" t="n">
-        <v>7.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="P89" s="39" t="n">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="Q89" s="39" t="n">
-        <v>3.4</v>
+        <v>29.2</v>
       </c>
       <c r="R89" s="39" t="n">
-        <v>0.9</v>
+        <v>14.3</v>
       </c>
       <c r="S89" s="39" t="n">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="T89" s="39" t="n">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="U89" s="39" t="n">
-        <v>75.8</v>
+        <v>51.9</v>
       </c>
       <c r="V89" s="39" t="n">
-        <v>75.8</v>
+        <v>76</v>
       </c>
       <c r="W89" s="39" t="n">
-        <v>92.90000000000001</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="X89" s="39" t="n">
-        <v>94.8</v>
+        <v>94.7</v>
       </c>
       <c r="Y89" s="39" t="inlineStr">
         <is>
-          <t>饮食ETF</t>
+          <t>酒ETF</t>
         </is>
       </c>
     </row>
@@ -19248,79 +19248,79 @@
         <v>88</v>
       </c>
       <c r="B90" s="39" t="n">
-        <v>510230</v>
+        <v>159928</v>
       </c>
       <c r="C90" s="39" t="inlineStr">
         <is>
-          <t>金融ETF</t>
+          <t>消费ETF</t>
         </is>
       </c>
       <c r="D90" s="39" t="n">
-        <v>46.84</v>
+        <v>149.26</v>
       </c>
       <c r="E90" s="39" t="n">
-        <v>21.3</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="F90" s="39" t="n">
-        <v>62.7</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="G90" s="39" t="n">
-        <v>67.5</v>
+        <v>41.6</v>
       </c>
       <c r="H90" s="39" t="n">
-        <v>81.8</v>
+        <v>29</v>
       </c>
       <c r="I90" s="39" t="n">
-        <v>93.40000000000001</v>
+        <v>38.4</v>
       </c>
       <c r="J90" s="39" t="n">
-        <v>96.40000000000001</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="K90" s="39" t="n">
-        <v>96.40000000000001</v>
+        <v>84.2</v>
       </c>
       <c r="L90" s="39" t="n">
-        <v>99</v>
+        <v>32.1</v>
       </c>
       <c r="M90" s="39" t="n">
-        <v>51.8</v>
+        <v>15.8</v>
       </c>
       <c r="N90" s="39" t="n">
-        <v>65.8</v>
+        <v>40.1</v>
       </c>
       <c r="O90" s="39" t="n">
-        <v>47.4</v>
+        <v>14.7</v>
       </c>
       <c r="P90" s="39" t="n">
-        <v>86.09999999999999</v>
+        <v>12.1</v>
       </c>
       <c r="Q90" s="39" t="n">
-        <v>59.7</v>
+        <v>7.1</v>
       </c>
       <c r="R90" s="39" t="n">
-        <v>80.09999999999999</v>
+        <v>3.2</v>
       </c>
       <c r="S90" s="39" t="n">
-        <v>36.2</v>
+        <v>1.8</v>
       </c>
       <c r="T90" s="39" t="n">
-        <v>9.699999999999999</v>
+        <v>46.9</v>
       </c>
       <c r="U90" s="39" t="n">
-        <v>35.1</v>
+        <v>72.3</v>
       </c>
       <c r="V90" s="39" t="n">
-        <v>75.8</v>
+        <v>81.3</v>
       </c>
       <c r="W90" s="39" t="n">
-        <v>91</v>
+        <v>91.8</v>
       </c>
       <c r="X90" s="39" t="n">
-        <v>95.09999999999999</v>
+        <v>94.8</v>
       </c>
       <c r="Y90" s="39" t="inlineStr">
         <is>
-          <t>金融ETF</t>
+          <t>消费ETF</t>
         </is>
       </c>
     </row>
@@ -19328,80 +19328,82 @@
       <c r="A91" s="39" t="n">
         <v>89</v>
       </c>
-      <c r="B91" s="39" t="n">
-        <v>159920</v>
+      <c r="B91" s="39" t="inlineStr">
+        <is>
+          <t>159736</t>
+        </is>
       </c>
       <c r="C91" s="39" t="inlineStr">
         <is>
-          <t>恒生ETF</t>
+          <t>饮食ETF</t>
         </is>
       </c>
       <c r="D91" s="39" t="n">
-        <v>158.16</v>
+        <v>48.76</v>
       </c>
       <c r="E91" s="39" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="F91" s="39" t="n">
+        <v>84.09999999999999</v>
+      </c>
+      <c r="G91" s="39" t="n">
+        <v>50.1</v>
+      </c>
+      <c r="H91" s="39" t="n">
+        <v>46</v>
+      </c>
+      <c r="I91" s="39" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="J91" s="39" t="n">
+        <v>78.2</v>
+      </c>
+      <c r="K91" s="39" t="n">
+        <v>90.59999999999999</v>
+      </c>
+      <c r="L91" s="39" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="M91" s="39" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="N91" s="39" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="O91" s="39" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="P91" s="39" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="Q91" s="39" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R91" s="39" t="n">
         <v>0.9</v>
       </c>
-      <c r="F91" s="39" t="n">
-        <v>61.3</v>
-      </c>
-      <c r="G91" s="39" t="n">
-        <v>74.40000000000001</v>
-      </c>
-      <c r="H91" s="39" t="n">
-        <v>86.8</v>
-      </c>
-      <c r="I91" s="39" t="n">
-        <v>89.09999999999999</v>
-      </c>
-      <c r="J91" s="39" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="K91" s="39" t="n">
-        <v>62</v>
-      </c>
-      <c r="L91" s="39" t="n">
-        <v>62</v>
-      </c>
-      <c r="M91" s="39" t="n">
-        <v>81.3</v>
-      </c>
-      <c r="N91" s="39" t="n">
-        <v>88.59999999999999</v>
-      </c>
-      <c r="O91" s="39" t="n">
-        <v>98.09999999999999</v>
-      </c>
-      <c r="P91" s="39" t="n">
-        <v>56.7</v>
-      </c>
-      <c r="Q91" s="39" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="R91" s="39" t="n">
-        <v>70</v>
-      </c>
       <c r="S91" s="39" t="n">
-        <v>28.7</v>
+        <v>0.5</v>
       </c>
       <c r="T91" s="39" t="n">
-        <v>61.6</v>
+        <v>0.5</v>
       </c>
       <c r="U91" s="39" t="n">
-        <v>92.40000000000001</v>
+        <v>75.8</v>
       </c>
       <c r="V91" s="39" t="n">
-        <v>93.8</v>
+        <v>75.8</v>
       </c>
       <c r="W91" s="39" t="n">
-        <v>93.8</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="X91" s="39" t="n">
-        <v>95.7</v>
+        <v>94.8</v>
       </c>
       <c r="Y91" s="39" t="inlineStr">
         <is>
-          <t>恒生ETF</t>
+          <t>饮食ETF</t>
         </is>
       </c>
     </row>
@@ -19409,82 +19411,80 @@
       <c r="A92" s="39" t="n">
         <v>90</v>
       </c>
-      <c r="B92" s="39" t="inlineStr">
-        <is>
-          <t>563000</t>
-        </is>
+      <c r="B92" s="39" t="n">
+        <v>159920</v>
       </c>
       <c r="C92" s="39" t="inlineStr">
         <is>
-          <t>中国A50ETF</t>
+          <t>恒生ETF</t>
         </is>
       </c>
       <c r="D92" s="39" t="n">
-        <v>40.36</v>
+        <v>158.05</v>
       </c>
       <c r="E92" s="39" t="n">
-        <v>43.5</v>
+        <v>0.9</v>
       </c>
       <c r="F92" s="39" t="n">
-        <v>69.2</v>
+        <v>61.3</v>
       </c>
       <c r="G92" s="39" t="n">
-        <v>80.5</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="H92" s="39" t="n">
-        <v>87.2</v>
+        <v>86.8</v>
       </c>
       <c r="I92" s="39" t="n">
-        <v>88.7</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="J92" s="39" t="n">
-        <v>93.5</v>
+        <v>34.5</v>
       </c>
       <c r="K92" s="39" t="n">
-        <v>95.8</v>
+        <v>62</v>
       </c>
       <c r="L92" s="39" t="n">
-        <v>95.8</v>
+        <v>62</v>
       </c>
       <c r="M92" s="39" t="n">
-        <v>98.7</v>
+        <v>81.3</v>
       </c>
       <c r="N92" s="39" t="n">
-        <v>99.40000000000001</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="O92" s="39" t="n">
-        <v>71.8</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="P92" s="39" t="n">
-        <v>81.90000000000001</v>
+        <v>56.7</v>
       </c>
       <c r="Q92" s="39" t="n">
-        <v>81.90000000000001</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="R92" s="39" t="n">
-        <v>33.7</v>
+        <v>70</v>
       </c>
       <c r="S92" s="39" t="n">
-        <v>5.9</v>
+        <v>28.7</v>
       </c>
       <c r="T92" s="39" t="n">
-        <v>3.2</v>
+        <v>61.6</v>
       </c>
       <c r="U92" s="39" t="n">
-        <v>73.90000000000001</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="V92" s="39" t="n">
-        <v>89.40000000000001</v>
+        <v>93.8</v>
       </c>
       <c r="W92" s="39" t="n">
-        <v>94.7</v>
+        <v>93.8</v>
       </c>
       <c r="X92" s="39" t="n">
-        <v>96.2</v>
+        <v>95.7</v>
       </c>
       <c r="Y92" s="39" t="inlineStr">
         <is>
-          <t>中国A50ETF</t>
+          <t>恒生ETF</t>
         </is>
       </c>
     </row>
@@ -19501,7 +19501,7 @@
         </is>
       </c>
       <c r="D93" s="39" t="n">
-        <v>31.89</v>
+        <v>31.91</v>
       </c>
       <c r="E93" s="39" t="n">
         <v>53.6</v>
@@ -19561,7 +19561,7 @@
         <v>95.90000000000001</v>
       </c>
       <c r="X93" s="39" t="n">
-        <v>96.59999999999999</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="Y93" s="39" t="inlineStr">
         <is>
@@ -19573,80 +19573,82 @@
       <c r="A94" s="39" t="n">
         <v>92</v>
       </c>
-      <c r="B94" s="39" t="n">
-        <v>513030</v>
+      <c r="B94" s="39" t="inlineStr">
+        <is>
+          <t>563000</t>
+        </is>
       </c>
       <c r="C94" s="39" t="inlineStr">
         <is>
-          <t>德国ETF</t>
+          <t>中国A50ETF</t>
         </is>
       </c>
       <c r="D94" s="39" t="n">
-        <v>13.62</v>
+        <v>40.36</v>
       </c>
       <c r="E94" s="39" t="n">
-        <v>19.6</v>
+        <v>43.5</v>
       </c>
       <c r="F94" s="39" t="n">
-        <v>74.90000000000001</v>
+        <v>69.2</v>
       </c>
       <c r="G94" s="39" t="n">
-        <v>64.90000000000001</v>
+        <v>80.5</v>
       </c>
       <c r="H94" s="39" t="n">
-        <v>76.09999999999999</v>
+        <v>87.2</v>
       </c>
       <c r="I94" s="39" t="n">
-        <v>86.8</v>
+        <v>88.7</v>
       </c>
       <c r="J94" s="39" t="n">
-        <v>84.2</v>
+        <v>93.5</v>
       </c>
       <c r="K94" s="39" t="n">
-        <v>94</v>
+        <v>95.8</v>
       </c>
       <c r="L94" s="39" t="n">
-        <v>73.7</v>
+        <v>95.8</v>
       </c>
       <c r="M94" s="39" t="n">
-        <v>73.7</v>
+        <v>98.7</v>
       </c>
       <c r="N94" s="39" t="n">
-        <v>83.3</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="O94" s="39" t="n">
-        <v>98.09999999999999</v>
+        <v>71.8</v>
       </c>
       <c r="P94" s="39" t="n">
-        <v>83.90000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="Q94" s="39" t="n">
-        <v>93.2</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="R94" s="39" t="n">
-        <v>94.3</v>
+        <v>33.7</v>
       </c>
       <c r="S94" s="39" t="n">
-        <v>97</v>
+        <v>5.9</v>
       </c>
       <c r="T94" s="39" t="n">
-        <v>98.5</v>
+        <v>3.2</v>
       </c>
       <c r="U94" s="39" t="n">
-        <v>99.8</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="V94" s="39" t="n">
-        <v>89.7</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="W94" s="39" t="n">
-        <v>91.40000000000001</v>
+        <v>94.7</v>
       </c>
       <c r="X94" s="39" t="n">
-        <v>96.7</v>
+        <v>96.2</v>
       </c>
       <c r="Y94" s="39" t="inlineStr">
         <is>
-          <t>德国ETF</t>
+          <t>中国A50ETF</t>
         </is>
       </c>
     </row>
@@ -19655,79 +19657,79 @@
         <v>93</v>
       </c>
       <c r="B95" s="39" t="n">
-        <v>159928</v>
+        <v>513030</v>
       </c>
       <c r="C95" s="39" t="inlineStr">
         <is>
-          <t>消费ETF</t>
+          <t>德国ETF</t>
         </is>
       </c>
       <c r="D95" s="39" t="n">
-        <v>149.45</v>
+        <v>13.66</v>
       </c>
       <c r="E95" s="39" t="n">
-        <v>80.59999999999999</v>
+        <v>19.6</v>
       </c>
       <c r="F95" s="39" t="n">
-        <v>81.59999999999999</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="G95" s="39" t="n">
-        <v>41.6</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="H95" s="39" t="n">
-        <v>29</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="I95" s="39" t="n">
-        <v>38.4</v>
+        <v>86.8</v>
       </c>
       <c r="J95" s="39" t="n">
-        <v>65.59999999999999</v>
+        <v>84.2</v>
       </c>
       <c r="K95" s="39" t="n">
-        <v>84.2</v>
+        <v>94</v>
       </c>
       <c r="L95" s="39" t="n">
-        <v>32.1</v>
+        <v>73.7</v>
       </c>
       <c r="M95" s="39" t="n">
-        <v>15.8</v>
+        <v>73.7</v>
       </c>
       <c r="N95" s="39" t="n">
-        <v>40.1</v>
+        <v>83.3</v>
       </c>
       <c r="O95" s="39" t="n">
-        <v>14.7</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="P95" s="39" t="n">
-        <v>12.1</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="Q95" s="39" t="n">
-        <v>7.1</v>
+        <v>93.2</v>
       </c>
       <c r="R95" s="39" t="n">
-        <v>3.2</v>
+        <v>94.3</v>
       </c>
       <c r="S95" s="39" t="n">
-        <v>1.8</v>
+        <v>97</v>
       </c>
       <c r="T95" s="39" t="n">
-        <v>46.9</v>
+        <v>98.5</v>
       </c>
       <c r="U95" s="39" t="n">
-        <v>72.3</v>
+        <v>99.8</v>
       </c>
       <c r="V95" s="39" t="n">
-        <v>81.3</v>
+        <v>89.7</v>
       </c>
       <c r="W95" s="39" t="n">
-        <v>91.8</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="X95" s="39" t="n">
-        <v>97</v>
+        <v>97.2</v>
       </c>
       <c r="Y95" s="39" t="inlineStr">
         <is>
-          <t>消费ETF</t>
+          <t>德国ETF</t>
         </is>
       </c>
     </row>
@@ -19737,80 +19739,80 @@
       </c>
       <c r="B96" s="39" t="inlineStr">
         <is>
-          <t>510210</t>
+          <t>512010</t>
         </is>
       </c>
       <c r="C96" s="39" t="inlineStr">
         <is>
-          <t>上证指数ETF</t>
+          <t>医药ETF</t>
         </is>
       </c>
       <c r="D96" s="39" t="n">
-        <v>47.52</v>
+        <v>222.38</v>
       </c>
       <c r="E96" s="39" t="n">
-        <v>43.7</v>
+        <v>15.3</v>
       </c>
       <c r="F96" s="39" t="n">
-        <v>64.2</v>
+        <v>59.5</v>
       </c>
       <c r="G96" s="39" t="n">
-        <v>73.7</v>
+        <v>66.5</v>
       </c>
       <c r="H96" s="39" t="n">
-        <v>86.40000000000001</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="I96" s="39" t="n">
-        <v>88.09999999999999</v>
+        <v>29.6</v>
       </c>
       <c r="J96" s="39" t="n">
-        <v>90.40000000000001</v>
+        <v>49.8</v>
       </c>
       <c r="K96" s="39" t="n">
-        <v>93.09999999999999</v>
+        <v>49.8</v>
       </c>
       <c r="L96" s="39" t="n">
-        <v>97.40000000000001</v>
+        <v>23.2</v>
       </c>
       <c r="M96" s="39" t="n">
-        <v>99</v>
+        <v>62.9</v>
       </c>
       <c r="N96" s="39" t="n">
-        <v>99.59999999999999</v>
+        <v>92.8</v>
       </c>
       <c r="O96" s="39" t="n">
-        <v>64</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="P96" s="39" t="n">
-        <v>73.5</v>
+        <v>78.5</v>
       </c>
       <c r="Q96" s="39" t="n">
-        <v>73.5</v>
+        <v>45.4</v>
       </c>
       <c r="R96" s="39" t="n">
-        <v>23.7</v>
+        <v>16.9</v>
       </c>
       <c r="S96" s="39" t="n">
-        <v>14.1</v>
+        <v>48.9</v>
       </c>
       <c r="T96" s="39" t="n">
-        <v>14.1</v>
+        <v>87.5</v>
       </c>
       <c r="U96" s="39" t="n">
-        <v>94.5</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="V96" s="39" t="n">
-        <v>97.8</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="W96" s="39" t="n">
-        <v>97.8</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="X96" s="39" t="n">
-        <v>98.3</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="Y96" s="39" t="inlineStr">
         <is>
-          <t>上证指数ETF</t>
+          <t>医药ETF</t>
         </is>
       </c>
     </row>
@@ -19818,82 +19820,80 @@
       <c r="A97" s="39" t="n">
         <v>95</v>
       </c>
-      <c r="B97" s="39" t="inlineStr">
-        <is>
-          <t>512010</t>
-        </is>
+      <c r="B97" s="39" t="n">
+        <v>513500</v>
       </c>
       <c r="C97" s="39" t="inlineStr">
         <is>
-          <t>医药ETF</t>
+          <t>标普500ETF</t>
         </is>
       </c>
       <c r="D97" s="39" t="n">
-        <v>223</v>
+        <v>179.46</v>
       </c>
       <c r="E97" s="39" t="n">
-        <v>15.3</v>
+        <v>24.8</v>
       </c>
       <c r="F97" s="39" t="n">
-        <v>59.5</v>
+        <v>77.2</v>
       </c>
       <c r="G97" s="39" t="n">
-        <v>66.5</v>
+        <v>55.8</v>
       </c>
       <c r="H97" s="39" t="n">
-        <v>75.09999999999999</v>
+        <v>68</v>
       </c>
       <c r="I97" s="39" t="n">
-        <v>29.6</v>
+        <v>60.5</v>
       </c>
       <c r="J97" s="39" t="n">
-        <v>49.8</v>
+        <v>35</v>
       </c>
       <c r="K97" s="39" t="n">
-        <v>49.8</v>
+        <v>27.9</v>
       </c>
       <c r="L97" s="39" t="n">
-        <v>23.2</v>
+        <v>20.6</v>
       </c>
       <c r="M97" s="39" t="n">
-        <v>62.9</v>
+        <v>6.9</v>
       </c>
       <c r="N97" s="39" t="n">
-        <v>92.8</v>
+        <v>5.9</v>
       </c>
       <c r="O97" s="39" t="n">
-        <v>66.09999999999999</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="P97" s="39" t="n">
-        <v>78.5</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="Q97" s="39" t="n">
-        <v>45.4</v>
+        <v>90</v>
       </c>
       <c r="R97" s="39" t="n">
-        <v>16.9</v>
+        <v>91.5</v>
       </c>
       <c r="S97" s="39" t="n">
-        <v>48.9</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="T97" s="39" t="n">
-        <v>87.5</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="U97" s="39" t="n">
-        <v>94.09999999999999</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="V97" s="39" t="n">
-        <v>94.09999999999999</v>
+        <v>95.7</v>
       </c>
       <c r="W97" s="39" t="n">
-        <v>94.09999999999999</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="X97" s="39" t="n">
-        <v>98.5</v>
+        <v>98.7</v>
       </c>
       <c r="Y97" s="39" t="inlineStr">
         <is>
-          <t>医药ETF</t>
+          <t>标普500ETF</t>
         </is>
       </c>
     </row>
@@ -19902,79 +19902,79 @@
         <v>96</v>
       </c>
       <c r="B98" s="39" t="n">
-        <v>513500</v>
+        <v>159941</v>
       </c>
       <c r="C98" s="39" t="inlineStr">
         <is>
-          <t>标普500ETF</t>
+          <t>纳指ETF</t>
         </is>
       </c>
       <c r="D98" s="39" t="n">
-        <v>179.46</v>
+        <v>244.22</v>
       </c>
       <c r="E98" s="39" t="n">
-        <v>24.8</v>
+        <v>34.3</v>
       </c>
       <c r="F98" s="39" t="n">
-        <v>77.2</v>
+        <v>85</v>
       </c>
       <c r="G98" s="39" t="n">
-        <v>55.8</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="H98" s="39" t="n">
-        <v>68</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="I98" s="39" t="n">
-        <v>60.5</v>
+        <v>49.1</v>
       </c>
       <c r="J98" s="39" t="n">
-        <v>35</v>
+        <v>22.3</v>
       </c>
       <c r="K98" s="39" t="n">
-        <v>27.9</v>
+        <v>48.2</v>
       </c>
       <c r="L98" s="39" t="n">
-        <v>20.6</v>
+        <v>31.2</v>
       </c>
       <c r="M98" s="39" t="n">
-        <v>6.9</v>
+        <v>21.2</v>
       </c>
       <c r="N98" s="39" t="n">
-        <v>5.9</v>
+        <v>19.2</v>
       </c>
       <c r="O98" s="39" t="n">
-        <v>84.59999999999999</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="P98" s="39" t="n">
-        <v>65.59999999999999</v>
+        <v>52.8</v>
       </c>
       <c r="Q98" s="39" t="n">
-        <v>90</v>
+        <v>83.2</v>
       </c>
       <c r="R98" s="39" t="n">
-        <v>91.5</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="S98" s="39" t="n">
-        <v>76.40000000000001</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="T98" s="39" t="n">
-        <v>81.09999999999999</v>
+        <v>82.3</v>
       </c>
       <c r="U98" s="39" t="n">
-        <v>94.40000000000001</v>
+        <v>93.3</v>
       </c>
       <c r="V98" s="39" t="n">
-        <v>95.7</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="W98" s="39" t="n">
-        <v>98.59999999999999</v>
+        <v>99</v>
       </c>
       <c r="X98" s="39" t="n">
-        <v>98.8</v>
+        <v>99</v>
       </c>
       <c r="Y98" s="39" t="inlineStr">
         <is>
-          <t>标普500ETF</t>
+          <t>纳指ETF</t>
         </is>
       </c>
     </row>
@@ -20051,7 +20051,7 @@
         <v>99.40000000000001</v>
       </c>
       <c r="X99" s="39" t="n">
-        <v>99.40000000000001</v>
+        <v>99.5</v>
       </c>
       <c r="Y99" s="39" t="inlineStr">
         <is>
@@ -20074,7 +20074,7 @@
         </is>
       </c>
       <c r="D100" s="39" t="n">
-        <v>747.83</v>
+        <v>747.84</v>
       </c>
       <c r="E100" s="39" t="n">
         <v>82.3</v>

--- a/fund_list.xlsx
+++ b/fund_list.xlsx
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="D2" s="39" t="n">
-        <v>3348.93</v>
+        <v>3825.97</v>
       </c>
       <c r="E2" s="41" t="n">
         <v>1.16</v>
@@ -1602,7 +1602,7 @@
         <v>-0.3</v>
       </c>
       <c r="X2" s="42" t="n">
-        <v>0.37</v>
+        <v>0.54</v>
       </c>
       <c r="Y2" s="39" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         </is>
       </c>
       <c r="D3" s="39" t="n">
-        <v>168.18</v>
+        <v>189.16</v>
       </c>
       <c r="E3" s="41" t="n">
         <v>1.09</v>
@@ -1685,7 +1685,7 @@
         <v>-1.96</v>
       </c>
       <c r="X3" s="40" t="n">
-        <v>-0.01</v>
+        <v>0.15</v>
       </c>
       <c r="Y3" s="39" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="D4" s="39" t="n">
-        <v>5083.02</v>
+        <v>5770.04</v>
       </c>
       <c r="E4" s="41" t="n">
         <v>2.25</v>
@@ -1768,7 +1768,7 @@
         <v>-0.6899999999999999</v>
       </c>
       <c r="X4" s="42" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="Y4" s="39" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         </is>
       </c>
       <c r="D5" s="39" t="n">
-        <v>2394.66</v>
+        <v>2708.83</v>
       </c>
       <c r="E5" s="41" t="n">
         <v>2.27</v>
@@ -1851,7 +1851,7 @@
         <v>-0.87</v>
       </c>
       <c r="X5" s="42" t="n">
-        <v>1.72</v>
+        <v>2.02</v>
       </c>
       <c r="Y5" s="39" t="inlineStr">
         <is>
@@ -1874,7 +1874,7 @@
         </is>
       </c>
       <c r="D6" s="39" t="n">
-        <v>502.53</v>
+        <v>573.9</v>
       </c>
       <c r="E6" s="41" t="n">
         <v>0.6</v>
@@ -1934,7 +1934,7 @@
         <v>0.17</v>
       </c>
       <c r="X6" s="44" t="n">
-        <v>0.36</v>
+        <v>0.51</v>
       </c>
       <c r="Y6" s="39" t="inlineStr">
         <is>
@@ -1957,7 +1957,7 @@
         </is>
       </c>
       <c r="D7" s="39" t="n">
-        <v>1855.17</v>
+        <v>2109.48</v>
       </c>
       <c r="E7" s="41" t="n">
         <v>1.31</v>
@@ -2017,7 +2017,7 @@
         <v>-0.17</v>
       </c>
       <c r="X7" s="42" t="n">
-        <v>0.61</v>
+        <v>0.8</v>
       </c>
       <c r="Y7" s="39" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         </is>
       </c>
       <c r="D8" s="39" t="n">
-        <v>1306.43</v>
+        <v>1475.04</v>
       </c>
       <c r="E8" s="41" t="n">
         <v>1.92</v>
@@ -2100,7 +2100,7 @@
         <v>-0.9</v>
       </c>
       <c r="X8" s="42" t="n">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="Y8" s="39" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         </is>
       </c>
       <c r="D9" s="39" t="n">
-        <v>3161.6</v>
+        <v>3584.83</v>
       </c>
       <c r="E9" s="41" t="n">
         <v>1.47</v>
@@ -2183,7 +2183,7 @@
         <v>-0.36</v>
       </c>
       <c r="X9" s="42" t="n">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="Y9" s="39" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         </is>
       </c>
       <c r="D10" s="39" t="n">
-        <v>1713.91</v>
+        <v>1946.36</v>
       </c>
       <c r="E10" s="41" t="n">
         <v>2.34</v>
@@ -2266,7 +2266,7 @@
         <v>-1.23</v>
       </c>
       <c r="X10" s="41" t="n">
-        <v>0.84</v>
+        <v>0.91</v>
       </c>
       <c r="Y10" s="39" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         </is>
       </c>
       <c r="D11" s="39" t="n">
-        <v>6.72</v>
+        <v>6.74</v>
       </c>
       <c r="E11" s="42" t="n">
         <v>6.43</v>
@@ -2349,7 +2349,7 @@
         <v>0.28</v>
       </c>
       <c r="X11" s="41" t="n">
-        <v>-0.37</v>
+        <v>-0.09</v>
       </c>
       <c r="Y11" s="39" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         </is>
       </c>
       <c r="D12" s="39" t="n">
-        <v>8.890000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="E12" s="41" t="n">
         <v>7.44</v>
@@ -2432,7 +2432,7 @@
         <v>0.49</v>
       </c>
       <c r="X12" s="41" t="n">
-        <v>0.61</v>
+        <v>0.73</v>
       </c>
       <c r="Y12" s="39" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
         </is>
       </c>
       <c r="D14" s="39" t="n">
-        <v>247.72</v>
+        <v>248.16</v>
       </c>
       <c r="E14" s="42" t="n">
         <v>9.199999999999999</v>
@@ -2598,7 +2598,7 @@
         <v>-0.09</v>
       </c>
       <c r="X14" s="44" t="n">
-        <v>1.61</v>
+        <v>1.79</v>
       </c>
       <c r="Y14" s="39" t="inlineStr">
         <is>
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="D15" s="39" t="n">
-        <v>22.69</v>
+        <v>22.96</v>
       </c>
       <c r="E15" s="42" t="n">
         <v>4.56</v>
@@ -2681,7 +2681,7 @@
         <v>-1.61</v>
       </c>
       <c r="X15" s="42" t="n">
-        <v>1.9</v>
+        <v>3.06</v>
       </c>
       <c r="Y15" s="39" t="inlineStr">
         <is>
@@ -2704,7 +2704,7 @@
         </is>
       </c>
       <c r="D16" s="39" t="n">
-        <v>181.7</v>
+        <v>181.8</v>
       </c>
       <c r="E16" s="42" t="n">
         <v>9.52</v>
@@ -2764,7 +2764,7 @@
         <v>0.1</v>
       </c>
       <c r="X16" s="44" t="n">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="Y16" s="39" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
         </is>
       </c>
       <c r="D17" s="39" t="n">
-        <v>11.84</v>
+        <v>11.82</v>
       </c>
       <c r="E17" s="41" t="n">
         <v>5.63</v>
@@ -2847,7 +2847,7 @@
         <v>-0.5600000000000001</v>
       </c>
       <c r="X17" s="43" t="n">
-        <v>-1.6</v>
+        <v>-1.79</v>
       </c>
       <c r="Y17" s="39" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="D18" s="39" t="n">
-        <v>359.65</v>
+        <v>361.44</v>
       </c>
       <c r="E18" s="41" t="n">
         <v>2.97</v>
@@ -2930,7 +2930,7 @@
         <v>-0.36</v>
       </c>
       <c r="X18" s="42" t="n">
-        <v>1.44</v>
+        <v>1.94</v>
       </c>
       <c r="Y18" s="39" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         </is>
       </c>
       <c r="D19" s="39" t="n">
-        <v>92.42</v>
+        <v>92.67</v>
       </c>
       <c r="E19" s="42" t="n">
         <v>10</v>
@@ -3013,7 +3013,7 @@
         <v>-0.49</v>
       </c>
       <c r="X19" s="42" t="n">
-        <v>1.74</v>
+        <v>2.02</v>
       </c>
       <c r="Y19" s="39" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
         </is>
       </c>
       <c r="D21" s="39" t="n">
-        <v>603.13</v>
+        <v>602.15</v>
       </c>
       <c r="E21" s="42" t="n">
         <v>2.17</v>
@@ -3179,7 +3179,7 @@
         <v>-0.34</v>
       </c>
       <c r="X21" s="40" t="n">
-        <v>-1.78</v>
+        <v>-1.95</v>
       </c>
       <c r="Y21" s="39" t="inlineStr">
         <is>
@@ -3202,7 +3202,7 @@
         </is>
       </c>
       <c r="D22" s="39" t="n">
-        <v>40.5</v>
+        <v>40.6</v>
       </c>
       <c r="E22" s="41" t="n">
         <v>1.42</v>
@@ -3262,7 +3262,7 @@
         <v>0.24</v>
       </c>
       <c r="X22" s="44" t="n">
-        <v>0.24</v>
+        <v>0.49</v>
       </c>
       <c r="Y22" s="39" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D23" s="39" t="n">
-        <v>3803.64</v>
+        <v>3810.35</v>
       </c>
       <c r="E23" s="41" t="n">
         <v>1.67</v>
@@ -3345,7 +3345,7 @@
         <v>-0.13</v>
       </c>
       <c r="X23" s="42" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="Y23" s="39" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         </is>
       </c>
       <c r="D24" s="39" t="n">
-        <v>1656.23</v>
+        <v>1657.43</v>
       </c>
       <c r="E24" s="41" t="n">
         <v>0.91</v>
@@ -3428,7 +3428,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="X24" s="44" t="n">
-        <v>0.44</v>
+        <v>0.51</v>
       </c>
       <c r="Y24" s="39" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         </is>
       </c>
       <c r="D25" s="39" t="n">
-        <v>47.69</v>
+        <v>47.75</v>
       </c>
       <c r="E25" s="41" t="n">
         <v>1.04</v>
@@ -3511,7 +3511,7 @@
         <v>-0.24</v>
       </c>
       <c r="X25" s="42" t="n">
-        <v>0.61</v>
+        <v>0.86</v>
       </c>
       <c r="Y25" s="39" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         </is>
       </c>
       <c r="D26" s="39" t="n">
-        <v>276.3</v>
+        <v>277.83</v>
       </c>
       <c r="E26" s="41" t="n">
         <v>3.55</v>
@@ -3594,7 +3594,7 @@
         <v>-1.39</v>
       </c>
       <c r="X26" s="42" t="n">
-        <v>1.69</v>
+        <v>2.12</v>
       </c>
       <c r="Y26" s="39" t="inlineStr">
         <is>
@@ -3617,7 +3617,7 @@
         </is>
       </c>
       <c r="D27" s="39" t="n">
-        <v>47.83</v>
+        <v>47.94</v>
       </c>
       <c r="E27" s="41" t="n">
         <v>1.82</v>
@@ -3677,7 +3677,7 @@
         <v>0</v>
       </c>
       <c r="X27" s="44" t="n">
-        <v>0.37</v>
+        <v>0.61</v>
       </c>
       <c r="Y27" s="39" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
         </is>
       </c>
       <c r="D28" s="39" t="n">
-        <v>651.46</v>
+        <v>651.72</v>
       </c>
       <c r="E28" s="41" t="n">
         <v>2.44</v>
@@ -3760,7 +3760,7 @@
         <v>-1.18</v>
       </c>
       <c r="X28" s="41" t="n">
-        <v>0.78</v>
+        <v>0.82</v>
       </c>
       <c r="Y28" s="39" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         </is>
       </c>
       <c r="D29" s="39" t="n">
-        <v>1116.62</v>
+        <v>1117</v>
       </c>
       <c r="E29" s="41" t="n">
         <v>1.97</v>
@@ -3843,7 +3843,7 @@
         <v>-0.8100000000000001</v>
       </c>
       <c r="X29" s="42" t="n">
-        <v>0.73</v>
+        <v>0.77</v>
       </c>
       <c r="Y29" s="39" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         </is>
       </c>
       <c r="D30" s="39" t="n">
-        <v>786.33</v>
+        <v>787.0700000000001</v>
       </c>
       <c r="E30" s="41" t="n">
         <v>1.36</v>
@@ -3949,7 +3949,7 @@
         </is>
       </c>
       <c r="D31" s="39" t="n">
-        <v>872.92</v>
+        <v>875.51</v>
       </c>
       <c r="E31" s="41" t="n">
         <v>2.19</v>
@@ -4009,7 +4009,7 @@
         <v>-0.85</v>
       </c>
       <c r="X31" s="42" t="n">
-        <v>1.61</v>
+        <v>1.86</v>
       </c>
       <c r="Y31" s="39" t="inlineStr">
         <is>
@@ -4032,7 +4032,7 @@
         </is>
       </c>
       <c r="D32" s="39" t="n">
-        <v>263.65</v>
+        <v>264.53</v>
       </c>
       <c r="E32" s="41" t="n">
         <v>2.25</v>
@@ -4092,7 +4092,7 @@
         <v>-0.78</v>
       </c>
       <c r="X32" s="42" t="n">
-        <v>2.02</v>
+        <v>2.36</v>
       </c>
       <c r="Y32" s="39" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         </is>
       </c>
       <c r="D33" s="39" t="n">
-        <v>55.54</v>
+        <v>55.58</v>
       </c>
       <c r="E33" s="41" t="n">
         <v>0.08</v>
@@ -4175,7 +4175,7 @@
         <v>-0.61</v>
       </c>
       <c r="X33" s="42" t="n">
-        <v>0.62</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Y33" s="39" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         </is>
       </c>
       <c r="D34" s="39" t="n">
-        <v>33.3</v>
+        <v>33.32</v>
       </c>
       <c r="E34" s="41" t="n">
         <v>0.43</v>
@@ -4258,7 +4258,7 @@
         <v>-0.5600000000000001</v>
       </c>
       <c r="X34" s="42" t="n">
-        <v>0.84</v>
+        <v>0.91</v>
       </c>
       <c r="Y34" s="39" t="inlineStr">
         <is>
@@ -4281,7 +4281,7 @@
         </is>
       </c>
       <c r="D35" s="39" t="n">
-        <v>2.99</v>
+        <v>3</v>
       </c>
       <c r="E35" s="41" t="n">
         <v>0.43</v>
@@ -4341,7 +4341,7 @@
         <v>-0.07000000000000001</v>
       </c>
       <c r="X35" s="42" t="n">
-        <v>0.21</v>
+        <v>0.63</v>
       </c>
       <c r="Y35" s="39" t="inlineStr">
         <is>
@@ -4364,7 +4364,7 @@
         </is>
       </c>
       <c r="D36" s="39" t="n">
-        <v>249.6</v>
+        <v>249.93</v>
       </c>
       <c r="E36" s="41" t="n">
         <v>1.43</v>
@@ -4424,7 +4424,7 @@
         <v>-2.79</v>
       </c>
       <c r="X36" s="40" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="Y36" s="39" t="inlineStr">
         <is>
@@ -4507,7 +4507,7 @@
         <v>-2.34</v>
       </c>
       <c r="X37" s="40" t="n">
-        <v>0.29</v>
+        <v>0.19</v>
       </c>
       <c r="Y37" s="39" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         </is>
       </c>
       <c r="D39" s="39" t="n">
-        <v>286.88</v>
+        <v>287.42</v>
       </c>
       <c r="E39" s="41" t="n">
         <v>1.28</v>
@@ -4673,7 +4673,7 @@
         <v>-1.23</v>
       </c>
       <c r="X39" s="42" t="n">
-        <v>1.34</v>
+        <v>1.53</v>
       </c>
       <c r="Y39" s="39" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="D40" s="39" t="n">
-        <v>65.17</v>
+        <v>65.34999999999999</v>
       </c>
       <c r="E40" s="41" t="n">
         <v>1.4</v>
@@ -4756,7 +4756,7 @@
         <v>-0.8</v>
       </c>
       <c r="X40" s="42" t="n">
-        <v>1.34</v>
+        <v>1.47</v>
       </c>
       <c r="Y40" s="39" t="inlineStr">
         <is>
@@ -4779,7 +4779,7 @@
         </is>
       </c>
       <c r="D41" s="39" t="n">
-        <v>46.99</v>
+        <v>47.14</v>
       </c>
       <c r="E41" s="41" t="n">
         <v>1.12</v>
@@ -4839,7 +4839,7 @@
         <v>0.53</v>
       </c>
       <c r="X41" s="44" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="Y41" s="39" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         </is>
       </c>
       <c r="D42" s="39" t="n">
-        <v>78.06999999999999</v>
+        <v>78.31</v>
       </c>
       <c r="E42" s="41" t="n">
         <v>0.82</v>
@@ -4921,8 +4921,8 @@
       <c r="W42" s="42" t="n">
         <v>1.22</v>
       </c>
-      <c r="X42" s="42" t="n">
-        <v>0.19</v>
+      <c r="X42" s="44" t="n">
+        <v>0.57</v>
       </c>
       <c r="Y42" s="39" t="inlineStr">
         <is>
@@ -4945,7 +4945,7 @@
         </is>
       </c>
       <c r="D43" s="39" t="n">
-        <v>110.52</v>
+        <v>110.36</v>
       </c>
       <c r="E43" s="41" t="n">
         <v>2.62</v>
@@ -5005,7 +5005,7 @@
         <v>0.27</v>
       </c>
       <c r="X43" s="40" t="n">
-        <v>-1.78</v>
+        <v>-1.92</v>
       </c>
       <c r="Y43" s="39" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         </is>
       </c>
       <c r="D44" s="39" t="n">
-        <v>16.37</v>
+        <v>16.41</v>
       </c>
       <c r="E44" s="41" t="n">
         <v>1.76</v>
@@ -5088,7 +5088,7 @@
         <v>-0.43</v>
       </c>
       <c r="X44" s="42" t="n">
-        <v>0.64</v>
+        <v>0.86</v>
       </c>
       <c r="Y44" s="39" t="inlineStr">
         <is>
@@ -5111,7 +5111,7 @@
         </is>
       </c>
       <c r="D45" s="39" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="E45" s="41" t="n">
         <v>1.76</v>
@@ -5171,7 +5171,7 @@
         <v>-0.29</v>
       </c>
       <c r="X45" s="40" t="n">
-        <v>0</v>
+        <v>-0.29</v>
       </c>
       <c r="Y45" s="39" t="inlineStr">
         <is>
@@ -5194,7 +5194,7 @@
         </is>
       </c>
       <c r="D46" s="39" t="n">
-        <v>259.64</v>
+        <v>258.83</v>
       </c>
       <c r="E46" s="41" t="n">
         <v>1.94</v>
@@ -5277,7 +5277,7 @@
         </is>
       </c>
       <c r="D47" s="39" t="n">
-        <v>220.26</v>
+        <v>219.64</v>
       </c>
       <c r="E47" s="41" t="n">
         <v>1.46</v>
@@ -5337,7 +5337,7 @@
         <v>0.28</v>
       </c>
       <c r="X47" s="41" t="n">
-        <v>-0.5600000000000001</v>
+        <v>-0.84</v>
       </c>
       <c r="Y47" s="39" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         </is>
       </c>
       <c r="D48" s="39" t="n">
-        <v>21.4</v>
+        <v>21.37</v>
       </c>
       <c r="E48" s="42" t="n">
         <v>0.7</v>
@@ -5420,7 +5420,7 @@
         <v>-0.44</v>
       </c>
       <c r="X48" s="40" t="n">
-        <v>-0.15</v>
+        <v>-0.29</v>
       </c>
       <c r="Y48" s="39" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         </is>
       </c>
       <c r="D49" s="39" t="n">
-        <v>32.38</v>
+        <v>32.33</v>
       </c>
       <c r="E49" s="42" t="n">
         <v>0.49</v>
@@ -5502,8 +5502,8 @@
       <c r="W49" s="40" t="n">
         <v>-0.51</v>
       </c>
-      <c r="X49" s="41" t="n">
-        <v>0</v>
+      <c r="X49" s="40" t="n">
+        <v>-0.34</v>
       </c>
       <c r="Y49" s="39" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         <v>-0.31</v>
       </c>
       <c r="X50" s="41" t="n">
-        <v>0.86</v>
+        <v>0.78</v>
       </c>
       <c r="Y50" s="39" t="inlineStr">
         <is>
@@ -5609,7 +5609,7 @@
         </is>
       </c>
       <c r="D51" s="39" t="n">
-        <v>142.87</v>
+        <v>142.61</v>
       </c>
       <c r="E51" s="41" t="n">
         <v>1.1</v>
@@ -5669,7 +5669,7 @@
         <v>-2.33</v>
       </c>
       <c r="X51" s="42" t="n">
-        <v>4.3</v>
+        <v>4.01</v>
       </c>
       <c r="Y51" s="39" t="inlineStr">
         <is>
@@ -5692,7 +5692,7 @@
         </is>
       </c>
       <c r="D52" s="39" t="n">
-        <v>5.32</v>
+        <v>5.33</v>
       </c>
       <c r="E52" s="41" t="n">
         <v>2.94</v>
@@ -5752,7 +5752,7 @@
         <v>-0.97</v>
       </c>
       <c r="X52" s="42" t="n">
-        <v>2.23</v>
+        <v>2.41</v>
       </c>
       <c r="Y52" s="39" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         </is>
       </c>
       <c r="D53" s="39" t="n">
-        <v>27.44</v>
+        <v>27.41</v>
       </c>
       <c r="E53" s="41" t="n">
         <v>3.07</v>
@@ -5835,7 +5835,7 @@
         <v>-1.96</v>
       </c>
       <c r="X53" s="41" t="n">
-        <v>0.75</v>
+        <v>0.62</v>
       </c>
       <c r="Y53" s="39" t="inlineStr">
         <is>
@@ -5858,7 +5858,7 @@
         </is>
       </c>
       <c r="D54" s="39" t="n">
-        <v>35.59</v>
+        <v>35.66</v>
       </c>
       <c r="E54" s="41" t="n">
         <v>2.11</v>
@@ -5918,7 +5918,7 @@
         <v>-1.59</v>
       </c>
       <c r="X54" s="41" t="n">
-        <v>0.4</v>
+        <v>0.51</v>
       </c>
       <c r="Y54" s="39" t="inlineStr">
         <is>
@@ -6107,7 +6107,7 @@
         </is>
       </c>
       <c r="D57" s="39" t="n">
-        <v>141.76</v>
+        <v>142.08</v>
       </c>
       <c r="E57" s="41" t="n">
         <v>3.1</v>
@@ -6166,8 +6166,8 @@
       <c r="W57" s="41" t="n">
         <v>-1.58</v>
       </c>
-      <c r="X57" s="41" t="n">
-        <v>1.95</v>
+      <c r="X57" s="42" t="n">
+        <v>2.18</v>
       </c>
       <c r="Y57" s="39" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         </is>
       </c>
       <c r="D60" s="39" t="n">
-        <v>16.89</v>
+        <v>16.93</v>
       </c>
       <c r="E60" s="41" t="n">
         <v>3.7</v>
@@ -6416,7 +6416,7 @@
         <v>-1.52</v>
       </c>
       <c r="X60" s="42" t="n">
-        <v>1.8</v>
+        <v>2.06</v>
       </c>
       <c r="Y60" s="39" t="inlineStr">
         <is>
@@ -6522,7 +6522,7 @@
         </is>
       </c>
       <c r="D62" s="39" t="n">
-        <v>62.98</v>
+        <v>63.1</v>
       </c>
       <c r="E62" s="41" t="n">
         <v>4.26</v>
@@ -6582,7 +6582,7 @@
         <v>-1.71</v>
       </c>
       <c r="X62" s="42" t="n">
-        <v>1.54</v>
+        <v>1.83</v>
       </c>
       <c r="Y62" s="39" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>-0.6899999999999999</v>
       </c>
       <c r="X65" s="41" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="Y65" s="39" t="inlineStr">
         <is>
@@ -6937,7 +6937,7 @@
         </is>
       </c>
       <c r="D67" s="39" t="n">
-        <v>14.28</v>
+        <v>14.31</v>
       </c>
       <c r="E67" s="41" t="n">
         <v>1.86</v>
@@ -6996,8 +6996,8 @@
       <c r="W67" s="41" t="n">
         <v>-0.89</v>
       </c>
-      <c r="X67" s="41" t="n">
-        <v>0.9</v>
+      <c r="X67" s="42" t="n">
+        <v>1.08</v>
       </c>
       <c r="Y67" s="39" t="inlineStr">
         <is>
@@ -7020,7 +7020,7 @@
         </is>
       </c>
       <c r="D68" s="39" t="n">
-        <v>15.27</v>
+        <v>15.32</v>
       </c>
       <c r="E68" s="41" t="n">
         <v>3.33</v>
@@ -7080,7 +7080,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="X68" s="44" t="n">
-        <v>0.97</v>
+        <v>1.19</v>
       </c>
       <c r="Y68" s="39" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         </is>
       </c>
       <c r="D69" s="39" t="n">
-        <v>147.95</v>
+        <v>147.77</v>
       </c>
       <c r="E69" s="42" t="n">
         <v>0.12</v>
@@ -7162,8 +7162,8 @@
       <c r="W69" s="42" t="n">
         <v>0.12</v>
       </c>
-      <c r="X69" s="42" t="n">
-        <v>0</v>
+      <c r="X69" s="41" t="n">
+        <v>-0.12</v>
       </c>
       <c r="Y69" s="39" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         </is>
       </c>
       <c r="D71" s="39" t="n">
-        <v>31.86</v>
+        <v>31.88</v>
       </c>
       <c r="E71" s="41" t="n">
         <v>1.56</v>
@@ -7329,7 +7329,7 @@
         <v>-0.06</v>
       </c>
       <c r="X71" s="42" t="n">
-        <v>0.24</v>
+        <v>0.31</v>
       </c>
       <c r="Y71" s="39" t="inlineStr">
         <is>
@@ -7352,7 +7352,7 @@
         </is>
       </c>
       <c r="D72" s="39" t="n">
-        <v>29.79</v>
+        <v>29.88</v>
       </c>
       <c r="E72" s="42" t="n">
         <v>1.43</v>
@@ -7412,7 +7412,7 @@
         <v>-0.89</v>
       </c>
       <c r="X72" s="41" t="n">
-        <v>0.45</v>
+        <v>0.75</v>
       </c>
       <c r="Y72" s="39" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>-0.98</v>
       </c>
       <c r="X73" s="41" t="n">
-        <v>0.99</v>
+        <v>0.8</v>
       </c>
       <c r="Y73" s="39" t="inlineStr">
         <is>
@@ -7518,7 +7518,7 @@
         </is>
       </c>
       <c r="D74" s="39" t="n">
-        <v>215.22</v>
+        <v>215.57</v>
       </c>
       <c r="E74" s="41" t="n">
         <v>1.03</v>
@@ -7578,7 +7578,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="X74" s="42" t="n">
-        <v>0.13</v>
+        <v>0.29</v>
       </c>
       <c r="Y74" s="39" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         </is>
       </c>
       <c r="D75" s="39" t="n">
-        <v>161.43</v>
+        <v>161.71</v>
       </c>
       <c r="E75" s="41" t="n">
         <v>0.46</v>
@@ -7661,7 +7661,7 @@
         <v>0.71</v>
       </c>
       <c r="X75" s="42" t="n">
-        <v>-0.09</v>
+        <v>0.27</v>
       </c>
       <c r="Y75" s="39" t="inlineStr">
         <is>
@@ -7827,7 +7827,7 @@
         <v>-0.6</v>
       </c>
       <c r="X77" s="42" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="Y77" s="39" t="inlineStr">
         <is>
@@ -7850,7 +7850,7 @@
         </is>
       </c>
       <c r="D78" s="39" t="n">
-        <v>9.460000000000001</v>
+        <v>9.44</v>
       </c>
       <c r="E78" s="41" t="n">
         <v>0.99</v>
@@ -7910,7 +7910,7 @@
         <v>-0.85</v>
       </c>
       <c r="X78" s="42" t="n">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="Y78" s="39" t="inlineStr">
         <is>
@@ -7933,7 +7933,7 @@
         </is>
       </c>
       <c r="D79" s="39" t="n">
-        <v>19.2</v>
+        <v>19.22</v>
       </c>
       <c r="E79" s="41" t="n">
         <v>1.9</v>
@@ -7993,7 +7993,7 @@
         <v>-0.73</v>
       </c>
       <c r="X79" s="41" t="n">
-        <v>0.16</v>
+        <v>0.25</v>
       </c>
       <c r="Y79" s="39" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="X80" s="42" t="n">
-        <v>0.21</v>
+        <v>0.53</v>
       </c>
       <c r="Y80" s="39" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>0</v>
       </c>
       <c r="X81" s="42" t="n">
-        <v>0.3</v>
+        <v>0.49</v>
       </c>
       <c r="Y81" s="39" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         </is>
       </c>
       <c r="D84" s="39" t="n">
-        <v>24.3</v>
+        <v>24.35</v>
       </c>
       <c r="E84" s="41" t="n">
         <v>0.39</v>
@@ -8408,7 +8408,7 @@
         <v>-0.48</v>
       </c>
       <c r="X84" s="42" t="n">
-        <v>0.38</v>
+        <v>0.58</v>
       </c>
       <c r="Y84" s="39" t="inlineStr">
         <is>
@@ -8431,7 +8431,7 @@
         </is>
       </c>
       <c r="D85" s="39" t="n">
-        <v>43.73</v>
+        <v>43.84</v>
       </c>
       <c r="E85" s="41" t="n">
         <v>2.61</v>
@@ -8491,7 +8491,7 @@
         <v>-0.41</v>
       </c>
       <c r="X85" s="42" t="n">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="Y85" s="39" t="inlineStr">
         <is>
@@ -8514,7 +8514,7 @@
         </is>
       </c>
       <c r="D86" s="39" t="n">
-        <v>3.01</v>
+        <v>3.02</v>
       </c>
       <c r="E86" s="41" t="n">
         <v>2.2</v>
@@ -8574,7 +8574,7 @@
         <v>-0.45</v>
       </c>
       <c r="X86" s="42" t="n">
-        <v>1.35</v>
+        <v>1.8</v>
       </c>
       <c r="Y86" s="39" t="inlineStr">
         <is>
@@ -8597,7 +8597,7 @@
         </is>
       </c>
       <c r="D87" s="39" t="n">
-        <v>45.61</v>
+        <v>45.66</v>
       </c>
       <c r="E87" s="41" t="n">
         <v>2.02</v>
@@ -8657,7 +8657,7 @@
         <v>-0.72</v>
       </c>
       <c r="X87" s="42" t="n">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="Y87" s="39" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         </is>
       </c>
       <c r="D88" s="39" t="n">
-        <v>91.77</v>
+        <v>92.04000000000001</v>
       </c>
       <c r="E88" s="41" t="n">
         <v>2.69</v>
@@ -8740,7 +8740,7 @@
         <v>-1.64</v>
       </c>
       <c r="X88" s="42" t="n">
-        <v>1.52</v>
+        <v>1.82</v>
       </c>
       <c r="Y88" s="39" t="inlineStr">
         <is>
@@ -8763,7 +8763,7 @@
         </is>
       </c>
       <c r="D89" s="39" t="n">
-        <v>35.29</v>
+        <v>35.36</v>
       </c>
       <c r="E89" s="42" t="n">
         <v>0.42</v>
@@ -8823,7 +8823,7 @@
         <v>0.52</v>
       </c>
       <c r="X89" s="41" t="n">
-        <v>-0.51</v>
+        <v>-0.31</v>
       </c>
       <c r="Y89" s="39" t="inlineStr">
         <is>
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="D90" s="39" t="n">
-        <v>17.63</v>
+        <v>17.67</v>
       </c>
       <c r="E90" s="41" t="n">
         <v>1.9</v>
@@ -8906,7 +8906,7 @@
         <v>0.11</v>
       </c>
       <c r="X90" s="44" t="n">
-        <v>0.32</v>
+        <v>0.54</v>
       </c>
       <c r="Y90" s="39" t="inlineStr">
         <is>
@@ -9012,7 +9012,7 @@
         </is>
       </c>
       <c r="D92" s="39" t="n">
-        <v>12.03</v>
+        <v>12.07</v>
       </c>
       <c r="E92" s="41" t="n">
         <v>1.5</v>
@@ -9072,7 +9072,7 @@
         <v>-0.55</v>
       </c>
       <c r="X92" s="42" t="n">
-        <v>1.32</v>
+        <v>1.65</v>
       </c>
       <c r="Y92" s="39" t="inlineStr">
         <is>
@@ -9095,7 +9095,7 @@
         </is>
       </c>
       <c r="D93" s="39" t="n">
-        <v>158.6</v>
+        <v>159.16</v>
       </c>
       <c r="E93" s="41" t="n">
         <v>3.02</v>
@@ -9155,7 +9155,7 @@
         <v>0.14</v>
       </c>
       <c r="X93" s="44" t="n">
-        <v>0.71</v>
+        <v>0.99</v>
       </c>
       <c r="Y93" s="39" t="inlineStr">
         <is>
@@ -9178,7 +9178,7 @@
         </is>
       </c>
       <c r="D94" s="39" t="n">
-        <v>244.67</v>
+        <v>245.69</v>
       </c>
       <c r="E94" s="41" t="n">
         <v>3.2</v>
@@ -9238,7 +9238,7 @@
         <v>-1.04</v>
       </c>
       <c r="X94" s="42" t="n">
-        <v>1.69</v>
+        <v>2.11</v>
       </c>
       <c r="Y94" s="39" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D95" s="39" t="n">
-        <v>97.17</v>
+        <v>96.95999999999999</v>
       </c>
       <c r="E95" s="41" t="n">
         <v>3.61</v>
@@ -9321,7 +9321,7 @@
         <v>0.63</v>
       </c>
       <c r="X95" s="40" t="n">
-        <v>-2.3</v>
+        <v>-2.72</v>
       </c>
       <c r="Y95" s="39" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         </is>
       </c>
       <c r="D96" s="39" t="n">
-        <v>8.970000000000001</v>
+        <v>9</v>
       </c>
       <c r="E96" s="41" t="n">
         <v>2.45</v>
@@ -9403,8 +9403,8 @@
       <c r="W96" s="41" t="n">
         <v>-0.35</v>
       </c>
-      <c r="X96" s="41" t="n">
-        <v>0.71</v>
+      <c r="X96" s="42" t="n">
+        <v>0.9399999999999999</v>
       </c>
       <c r="Y96" s="39" t="inlineStr">
         <is>
@@ -9427,7 +9427,7 @@
         </is>
       </c>
       <c r="D97" s="39" t="n">
-        <v>103.64</v>
+        <v>103.05</v>
       </c>
       <c r="E97" s="40" t="n">
         <v>4.45</v>
@@ -9487,7 +9487,7 @@
         <v>1.12</v>
       </c>
       <c r="X97" s="40" t="n">
-        <v>-3.31</v>
+        <v>-3.87</v>
       </c>
       <c r="Y97" s="39" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         </is>
       </c>
       <c r="D98" s="39" t="n">
-        <v>489.19</v>
+        <v>490.92</v>
       </c>
       <c r="E98" s="41" t="n">
         <v>3.82</v>
@@ -9570,7 +9570,7 @@
         <v>-0.9399999999999999</v>
       </c>
       <c r="X98" s="41" t="n">
-        <v>0.59</v>
+        <v>0.95</v>
       </c>
       <c r="Y98" s="39" t="inlineStr">
         <is>
@@ -9593,7 +9593,7 @@
         </is>
       </c>
       <c r="D99" s="39" t="n">
-        <v>18.05</v>
+        <v>18.09</v>
       </c>
       <c r="E99" s="41" t="n">
         <v>3.95</v>
@@ -9653,7 +9653,7 @@
         <v>0.77</v>
       </c>
       <c r="X99" s="41" t="n">
-        <v>0.22</v>
+        <v>0.44</v>
       </c>
       <c r="Y99" s="39" t="inlineStr">
         <is>
@@ -9676,7 +9676,7 @@
         </is>
       </c>
       <c r="D100" s="39" t="n">
-        <v>73.68000000000001</v>
+        <v>73.83</v>
       </c>
       <c r="E100" s="41" t="n">
         <v>3.06</v>
@@ -9736,7 +9736,7 @@
         <v>-1.06</v>
       </c>
       <c r="X100" s="42" t="n">
-        <v>1.74</v>
+        <v>1.88</v>
       </c>
       <c r="Y100" s="39" t="inlineStr">
         <is>
@@ -12092,7 +12092,7 @@
         </is>
       </c>
       <c r="D2" s="39" t="n">
-        <v>168.18</v>
+        <v>189.16</v>
       </c>
       <c r="E2" s="39" t="n">
         <v>74.09999999999999</v>
@@ -12152,7 +12152,7 @@
         <v>12.9</v>
       </c>
       <c r="X2" s="39" t="n">
-        <v>12.7</v>
+        <v>22.3</v>
       </c>
       <c r="Y2" s="39" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         </is>
       </c>
       <c r="D3" s="39" t="n">
-        <v>1713.91</v>
+        <v>1946.36</v>
       </c>
       <c r="E3" s="39" t="n">
         <v>68.40000000000001</v>
@@ -12235,7 +12235,7 @@
         <v>38.6</v>
       </c>
       <c r="X3" s="39" t="n">
-        <v>66.09999999999999</v>
+        <v>67.3</v>
       </c>
       <c r="Y3" s="39" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         </is>
       </c>
       <c r="D4" s="39" t="n">
-        <v>1306.43</v>
+        <v>1475.04</v>
       </c>
       <c r="E4" s="39" t="n">
         <v>69.90000000000001</v>
@@ -12318,7 +12318,7 @@
         <v>36.2</v>
       </c>
       <c r="X4" s="39" t="n">
-        <v>70.3</v>
+        <v>69.8</v>
       </c>
       <c r="Y4" s="39" t="inlineStr">
         <is>
@@ -12332,80 +12332,80 @@
       </c>
       <c r="B5" s="39" t="inlineStr">
         <is>
-          <t>sh000001</t>
+          <t>sz399001</t>
         </is>
       </c>
       <c r="C5" s="39" t="inlineStr">
         <is>
-          <t>上证指数</t>
+          <t>深证成指</t>
         </is>
       </c>
       <c r="D5" s="39" t="n">
-        <v>3348.93</v>
+        <v>5770.04</v>
       </c>
       <c r="E5" s="39" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F5" s="39" t="n">
-        <v>75.90000000000001</v>
+        <v>76.8</v>
       </c>
       <c r="G5" s="39" t="n">
-        <v>86.3</v>
+        <v>82.7</v>
       </c>
       <c r="H5" s="39" t="n">
-        <v>88.3</v>
+        <v>65.2</v>
       </c>
       <c r="I5" s="39" t="n">
-        <v>92.2</v>
+        <v>27.8</v>
       </c>
       <c r="J5" s="39" t="n">
-        <v>94.2</v>
+        <v>22.9</v>
       </c>
       <c r="K5" s="39" t="n">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="L5" s="39" t="n">
-        <v>90.09999999999999</v>
+        <v>89.2</v>
       </c>
       <c r="M5" s="39" t="n">
-        <v>94.5</v>
+        <v>61.4</v>
       </c>
       <c r="N5" s="39" t="n">
-        <v>69.3</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="O5" s="39" t="n">
-        <v>73.2</v>
+        <v>42.4</v>
       </c>
       <c r="P5" s="39" t="n">
-        <v>45.5</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="Q5" s="39" t="n">
-        <v>13.9</v>
+        <v>28.8</v>
       </c>
       <c r="R5" s="39" t="n">
-        <v>10.2</v>
+        <v>26.3</v>
       </c>
       <c r="S5" s="39" t="n">
-        <v>3.1</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="T5" s="39" t="n">
-        <v>87.59999999999999</v>
+        <v>95</v>
       </c>
       <c r="U5" s="39" t="n">
-        <v>94.5</v>
+        <v>95.8</v>
       </c>
       <c r="V5" s="39" t="n">
-        <v>96</v>
+        <v>98.2</v>
       </c>
       <c r="W5" s="39" t="n">
-        <v>60</v>
+        <v>52.1</v>
       </c>
       <c r="X5" s="39" t="n">
-        <v>79.40000000000001</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="Y5" s="39" t="inlineStr">
         <is>
-          <t>上证指数</t>
+          <t>深证成指</t>
         </is>
       </c>
     </row>
@@ -12415,80 +12415,80 @@
       </c>
       <c r="B6" s="39" t="inlineStr">
         <is>
-          <t>sz399001</t>
+          <t>sh000001</t>
         </is>
       </c>
       <c r="C6" s="39" t="inlineStr">
         <is>
-          <t>深证成指</t>
+          <t>上证指数</t>
         </is>
       </c>
       <c r="D6" s="39" t="n">
-        <v>5083.02</v>
+        <v>3825.97</v>
       </c>
       <c r="E6" s="39" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F6" s="39" t="n">
-        <v>76.8</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="G6" s="39" t="n">
-        <v>82.7</v>
+        <v>86.3</v>
       </c>
       <c r="H6" s="39" t="n">
-        <v>65.2</v>
+        <v>88.3</v>
       </c>
       <c r="I6" s="39" t="n">
-        <v>27.8</v>
+        <v>92.2</v>
       </c>
       <c r="J6" s="39" t="n">
-        <v>22.9</v>
+        <v>94.2</v>
       </c>
       <c r="K6" s="39" t="n">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="L6" s="39" t="n">
-        <v>89.2</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="M6" s="39" t="n">
-        <v>61.4</v>
+        <v>94.5</v>
       </c>
       <c r="N6" s="39" t="n">
-        <v>82.09999999999999</v>
+        <v>69.3</v>
       </c>
       <c r="O6" s="39" t="n">
-        <v>42.4</v>
+        <v>73.2</v>
       </c>
       <c r="P6" s="39" t="n">
-        <v>65.09999999999999</v>
+        <v>45.5</v>
       </c>
       <c r="Q6" s="39" t="n">
-        <v>28.8</v>
+        <v>13.9</v>
       </c>
       <c r="R6" s="39" t="n">
-        <v>26.3</v>
+        <v>10.2</v>
       </c>
       <c r="S6" s="39" t="n">
-        <v>72.09999999999999</v>
+        <v>3.1</v>
       </c>
       <c r="T6" s="39" t="n">
-        <v>95</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="U6" s="39" t="n">
-        <v>95.8</v>
+        <v>94.5</v>
       </c>
       <c r="V6" s="39" t="n">
-        <v>98.2</v>
+        <v>96</v>
       </c>
       <c r="W6" s="39" t="n">
-        <v>52.1</v>
+        <v>60</v>
       </c>
       <c r="X6" s="39" t="n">
-        <v>80.2</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="Y6" s="39" t="inlineStr">
         <is>
-          <t>深证成指</t>
+          <t>上证指数</t>
         </is>
       </c>
     </row>
@@ -12507,7 +12507,7 @@
         </is>
       </c>
       <c r="D7" s="39" t="n">
-        <v>3161.6</v>
+        <v>3584.83</v>
       </c>
       <c r="E7" s="39" t="n">
         <v>69.59999999999999</v>
@@ -12567,7 +12567,7 @@
         <v>59.1</v>
       </c>
       <c r="X7" s="39" t="n">
-        <v>83.40000000000001</v>
+        <v>85.2</v>
       </c>
       <c r="Y7" s="39" t="inlineStr">
         <is>
@@ -12590,7 +12590,7 @@
         </is>
       </c>
       <c r="D8" s="39" t="n">
-        <v>2394.66</v>
+        <v>2708.83</v>
       </c>
       <c r="E8" s="39" t="n">
         <v>63</v>
@@ -12650,7 +12650,7 @@
         <v>58</v>
       </c>
       <c r="X8" s="39" t="n">
-        <v>83.90000000000001</v>
+        <v>85.5</v>
       </c>
       <c r="Y8" s="39" t="inlineStr">
         <is>
@@ -12673,7 +12673,7 @@
         </is>
       </c>
       <c r="D9" s="39" t="n">
-        <v>1855.17</v>
+        <v>2109.48</v>
       </c>
       <c r="E9" s="39" t="n">
         <v>69.5</v>
@@ -12733,7 +12733,7 @@
         <v>74.3</v>
       </c>
       <c r="X9" s="39" t="n">
-        <v>90.3</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="Y9" s="39" t="inlineStr">
         <is>
@@ -12756,7 +12756,7 @@
         </is>
       </c>
       <c r="D10" s="39" t="n">
-        <v>502.53</v>
+        <v>573.9</v>
       </c>
       <c r="E10" s="39" t="n">
         <v>69.2</v>
@@ -12816,7 +12816,7 @@
         <v>94.2</v>
       </c>
       <c r="X10" s="39" t="n">
-        <v>97.2</v>
+        <v>97.7</v>
       </c>
       <c r="Y10" s="39" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
         </is>
       </c>
       <c r="D11" s="39" t="n">
-        <v>11.84</v>
+        <v>11.82</v>
       </c>
       <c r="E11" s="39" t="n">
         <v>64.5</v>
@@ -12897,7 +12897,7 @@
         <v>9.5</v>
       </c>
       <c r="X11" s="39" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="Y11" s="39" t="inlineStr">
         <is>
@@ -12918,7 +12918,7 @@
         </is>
       </c>
       <c r="D12" s="39" t="n">
-        <v>603.13</v>
+        <v>602.15</v>
       </c>
       <c r="E12" s="39" t="n">
         <v>88.40000000000001</v>
@@ -12978,7 +12978,7 @@
         <v>28.2</v>
       </c>
       <c r="X12" s="39" t="n">
-        <v>8.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="Y12" s="39" t="inlineStr">
         <is>
@@ -12999,7 +12999,7 @@
         </is>
       </c>
       <c r="D13" s="39" t="n">
-        <v>110.52</v>
+        <v>110.36</v>
       </c>
       <c r="E13" s="39" t="n">
         <v>60.8</v>
@@ -13059,7 +13059,7 @@
         <v>56.7</v>
       </c>
       <c r="X13" s="39" t="n">
-        <v>10.5</v>
+        <v>9.9</v>
       </c>
       <c r="Y13" s="39" t="inlineStr">
         <is>
@@ -13072,79 +13072,79 @@
         <v>12</v>
       </c>
       <c r="B14" s="39" t="n">
-        <v>588200</v>
+        <v>159865</v>
       </c>
       <c r="C14" s="39" t="inlineStr">
         <is>
-          <t>科创芯片ETF</t>
+          <t>养殖ETF</t>
         </is>
       </c>
       <c r="D14" s="39" t="n">
-        <v>249.6</v>
+        <v>32.33</v>
       </c>
       <c r="E14" s="39" t="n">
-        <v>74.90000000000001</v>
+        <v>84.8</v>
       </c>
       <c r="F14" s="39" t="n">
-        <v>91.09999999999999</v>
+        <v>28.9</v>
       </c>
       <c r="G14" s="39" t="n">
-        <v>91.09999999999999</v>
+        <v>41.7</v>
       </c>
       <c r="H14" s="39" t="n">
-        <v>57.9</v>
+        <v>37.2</v>
       </c>
       <c r="I14" s="39" t="n">
-        <v>72.8</v>
+        <v>18</v>
       </c>
       <c r="J14" s="39" t="n">
-        <v>85.09999999999999</v>
+        <v>18</v>
       </c>
       <c r="K14" s="39" t="n">
-        <v>44.7</v>
+        <v>5.2</v>
       </c>
       <c r="L14" s="39" t="n">
-        <v>70.59999999999999</v>
+        <v>35.7</v>
       </c>
       <c r="M14" s="39" t="n">
-        <v>44.8</v>
+        <v>80.3</v>
       </c>
       <c r="N14" s="39" t="n">
-        <v>53.3</v>
+        <v>23.8</v>
       </c>
       <c r="O14" s="39" t="n">
-        <v>14.7</v>
+        <v>52</v>
       </c>
       <c r="P14" s="39" t="n">
-        <v>9.699999999999999</v>
+        <v>36</v>
       </c>
       <c r="Q14" s="39" t="n">
-        <v>37.8</v>
+        <v>17.8</v>
       </c>
       <c r="R14" s="39" t="n">
-        <v>72.3</v>
+        <v>48.8</v>
       </c>
       <c r="S14" s="39" t="n">
-        <v>92.40000000000001</v>
+        <v>32.5</v>
       </c>
       <c r="T14" s="39" t="n">
-        <v>96.90000000000001</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="U14" s="39" t="n">
-        <v>86.2</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="V14" s="39" t="n">
-        <v>38.8</v>
+        <v>53.7</v>
       </c>
       <c r="W14" s="39" t="n">
-        <v>7.2</v>
+        <v>18.8</v>
       </c>
       <c r="X14" s="39" t="n">
-        <v>10.5</v>
+        <v>10.1</v>
       </c>
       <c r="Y14" s="39" t="inlineStr">
         <is>
-          <t>科创芯片ETF</t>
+          <t>养殖ETF</t>
         </is>
       </c>
     </row>
@@ -13161,7 +13161,7 @@
         </is>
       </c>
       <c r="D15" s="39" t="n">
-        <v>97.17</v>
+        <v>96.95999999999999</v>
       </c>
       <c r="E15" s="39" t="n">
         <v>56.9</v>
@@ -13221,7 +13221,7 @@
         <v>44.7</v>
       </c>
       <c r="X15" s="39" t="n">
-        <v>12.8</v>
+        <v>11.3</v>
       </c>
       <c r="Y15" s="39" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         </is>
       </c>
       <c r="D16" s="39" t="n">
-        <v>103.64</v>
+        <v>103.05</v>
       </c>
       <c r="E16" s="39" t="n">
         <v>55.4</v>
@@ -13302,7 +13302,7 @@
         <v>48.8</v>
       </c>
       <c r="X16" s="39" t="n">
-        <v>12.9</v>
+        <v>11.5</v>
       </c>
       <c r="Y16" s="39" t="inlineStr">
         <is>
@@ -13315,79 +13315,79 @@
         <v>15</v>
       </c>
       <c r="B17" s="39" t="n">
-        <v>159995</v>
+        <v>588200</v>
       </c>
       <c r="C17" s="39" t="inlineStr">
         <is>
-          <t>芯片ETF</t>
+          <t>科创芯片ETF</t>
         </is>
       </c>
       <c r="D17" s="39" t="n">
-        <v>239.67</v>
+        <v>249.93</v>
       </c>
       <c r="E17" s="39" t="n">
-        <v>74.40000000000001</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="F17" s="39" t="n">
-        <v>91</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="G17" s="39" t="n">
-        <v>88.7</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="H17" s="39" t="n">
-        <v>46.9</v>
+        <v>57.9</v>
       </c>
       <c r="I17" s="39" t="n">
-        <v>71.09999999999999</v>
+        <v>72.8</v>
       </c>
       <c r="J17" s="39" t="n">
-        <v>75.3</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="K17" s="39" t="n">
-        <v>38.2</v>
+        <v>44.7</v>
       </c>
       <c r="L17" s="39" t="n">
-        <v>71.7</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="M17" s="39" t="n">
-        <v>60.7</v>
+        <v>44.8</v>
       </c>
       <c r="N17" s="39" t="n">
-        <v>37.7</v>
+        <v>53.3</v>
       </c>
       <c r="O17" s="39" t="n">
-        <v>10.3</v>
+        <v>14.7</v>
       </c>
       <c r="P17" s="39" t="n">
-        <v>8.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="Q17" s="39" t="n">
-        <v>50.8</v>
+        <v>37.8</v>
       </c>
       <c r="R17" s="39" t="n">
-        <v>83.8</v>
+        <v>72.3</v>
       </c>
       <c r="S17" s="39" t="n">
-        <v>92.7</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="T17" s="39" t="n">
-        <v>97.59999999999999</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="U17" s="39" t="n">
-        <v>85.5</v>
+        <v>86.2</v>
       </c>
       <c r="V17" s="39" t="n">
-        <v>42.8</v>
+        <v>38.8</v>
       </c>
       <c r="W17" s="39" t="n">
-        <v>10.1</v>
+        <v>7.2</v>
       </c>
       <c r="X17" s="39" t="n">
-        <v>15.1</v>
+        <v>13.6</v>
       </c>
       <c r="Y17" s="39" t="inlineStr">
         <is>
-          <t>芯片ETF</t>
+          <t>科创芯片ETF</t>
         </is>
       </c>
     </row>
@@ -13396,79 +13396,79 @@
         <v>16</v>
       </c>
       <c r="B18" s="39" t="n">
-        <v>159865</v>
+        <v>159995</v>
       </c>
       <c r="C18" s="39" t="inlineStr">
         <is>
-          <t>养殖ETF</t>
+          <t>芯片ETF</t>
         </is>
       </c>
       <c r="D18" s="39" t="n">
-        <v>32.38</v>
+        <v>239.67</v>
       </c>
       <c r="E18" s="39" t="n">
-        <v>84.8</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="F18" s="39" t="n">
-        <v>28.9</v>
+        <v>91</v>
       </c>
       <c r="G18" s="39" t="n">
-        <v>41.7</v>
+        <v>88.7</v>
       </c>
       <c r="H18" s="39" t="n">
-        <v>37.2</v>
+        <v>46.9</v>
       </c>
       <c r="I18" s="39" t="n">
-        <v>18</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="J18" s="39" t="n">
-        <v>18</v>
+        <v>75.3</v>
       </c>
       <c r="K18" s="39" t="n">
-        <v>5.2</v>
+        <v>38.2</v>
       </c>
       <c r="L18" s="39" t="n">
-        <v>35.7</v>
+        <v>71.7</v>
       </c>
       <c r="M18" s="39" t="n">
-        <v>80.3</v>
+        <v>60.7</v>
       </c>
       <c r="N18" s="39" t="n">
-        <v>23.8</v>
+        <v>37.7</v>
       </c>
       <c r="O18" s="39" t="n">
-        <v>52</v>
+        <v>10.3</v>
       </c>
       <c r="P18" s="39" t="n">
-        <v>36</v>
+        <v>8.5</v>
       </c>
       <c r="Q18" s="39" t="n">
-        <v>17.8</v>
+        <v>50.8</v>
       </c>
       <c r="R18" s="39" t="n">
-        <v>48.8</v>
+        <v>83.8</v>
       </c>
       <c r="S18" s="39" t="n">
-        <v>32.5</v>
+        <v>92.7</v>
       </c>
       <c r="T18" s="39" t="n">
-        <v>71.09999999999999</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="U18" s="39" t="n">
-        <v>77.59999999999999</v>
+        <v>85.5</v>
       </c>
       <c r="V18" s="39" t="n">
-        <v>53.7</v>
+        <v>42.8</v>
       </c>
       <c r="W18" s="39" t="n">
-        <v>18.8</v>
+        <v>10.1</v>
       </c>
       <c r="X18" s="39" t="n">
-        <v>18.8</v>
+        <v>15.1</v>
       </c>
       <c r="Y18" s="39" t="inlineStr">
         <is>
-          <t>养殖ETF</t>
+          <t>芯片ETF</t>
         </is>
       </c>
     </row>
@@ -13477,79 +13477,79 @@
         <v>17</v>
       </c>
       <c r="B19" s="39" t="n">
-        <v>588000</v>
+        <v>159825</v>
       </c>
       <c r="C19" s="39" t="inlineStr">
         <is>
-          <t>科创50ETF</t>
+          <t>农业ETF</t>
         </is>
       </c>
       <c r="D19" s="39" t="n">
-        <v>786.33</v>
+        <v>21.37</v>
       </c>
       <c r="E19" s="39" t="n">
-        <v>75.3</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F19" s="39" t="n">
-        <v>85.8</v>
+        <v>31.2</v>
       </c>
       <c r="G19" s="39" t="n">
-        <v>87.40000000000001</v>
+        <v>45.4</v>
       </c>
       <c r="H19" s="39" t="n">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="I19" s="39" t="n">
-        <v>68.40000000000001</v>
+        <v>22.3</v>
       </c>
       <c r="J19" s="39" t="n">
-        <v>79.59999999999999</v>
+        <v>18.5</v>
       </c>
       <c r="K19" s="39" t="n">
-        <v>40</v>
+        <v>5.5</v>
       </c>
       <c r="L19" s="39" t="n">
+        <v>41</v>
+      </c>
+      <c r="M19" s="39" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="N19" s="39" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="O19" s="39" t="n">
+        <v>52.4</v>
+      </c>
+      <c r="P19" s="39" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="Q19" s="39" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="R19" s="39" t="n">
+        <v>39.7</v>
+      </c>
+      <c r="S19" s="39" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="T19" s="39" t="n">
         <v>76.59999999999999</v>
       </c>
-      <c r="M19" s="39" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="N19" s="39" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="O19" s="39" t="n">
-        <v>11</v>
-      </c>
-      <c r="P19" s="39" t="n">
-        <v>29</v>
-      </c>
-      <c r="Q19" s="39" t="n">
-        <v>18</v>
-      </c>
-      <c r="R19" s="39" t="n">
-        <v>45.5</v>
-      </c>
-      <c r="S19" s="39" t="n">
-        <v>86.40000000000001</v>
-      </c>
-      <c r="T19" s="39" t="n">
-        <v>96.3</v>
-      </c>
       <c r="U19" s="39" t="n">
-        <v>97.09999999999999</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="V19" s="39" t="n">
-        <v>61.8</v>
+        <v>47.5</v>
       </c>
       <c r="W19" s="39" t="n">
-        <v>12.8</v>
+        <v>25</v>
       </c>
       <c r="X19" s="39" t="n">
-        <v>18.9</v>
+        <v>15.3</v>
       </c>
       <c r="Y19" s="39" t="inlineStr">
         <is>
-          <t>科创50ETF</t>
+          <t>农业ETF</t>
         </is>
       </c>
     </row>
@@ -13558,79 +13558,79 @@
         <v>18</v>
       </c>
       <c r="B20" s="39" t="n">
-        <v>159825</v>
+        <v>588000</v>
       </c>
       <c r="C20" s="39" t="inlineStr">
         <is>
-          <t>农业ETF</t>
+          <t>科创50ETF</t>
         </is>
       </c>
       <c r="D20" s="39" t="n">
-        <v>21.4</v>
+        <v>787.0700000000001</v>
       </c>
       <c r="E20" s="39" t="n">
-        <v>81.90000000000001</v>
+        <v>75.3</v>
       </c>
       <c r="F20" s="39" t="n">
-        <v>31.2</v>
+        <v>85.8</v>
       </c>
       <c r="G20" s="39" t="n">
-        <v>45.4</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="H20" s="39" t="n">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="I20" s="39" t="n">
-        <v>22.3</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="J20" s="39" t="n">
-        <v>18.5</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="K20" s="39" t="n">
-        <v>5.5</v>
+        <v>40</v>
       </c>
       <c r="L20" s="39" t="n">
-        <v>41</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="M20" s="39" t="n">
-        <v>78.59999999999999</v>
+        <v>53.1</v>
       </c>
       <c r="N20" s="39" t="n">
-        <v>27.9</v>
+        <v>36.3</v>
       </c>
       <c r="O20" s="39" t="n">
-        <v>52.4</v>
+        <v>11</v>
       </c>
       <c r="P20" s="39" t="n">
-        <v>39.1</v>
+        <v>29</v>
       </c>
       <c r="Q20" s="39" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="R20" s="39" t="n">
-        <v>39.7</v>
+        <v>45.5</v>
       </c>
       <c r="S20" s="39" t="n">
-        <v>25.3</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="T20" s="39" t="n">
-        <v>76.59999999999999</v>
+        <v>96.3</v>
       </c>
       <c r="U20" s="39" t="n">
-        <v>86.09999999999999</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="V20" s="39" t="n">
-        <v>47.5</v>
+        <v>61.8</v>
       </c>
       <c r="W20" s="39" t="n">
-        <v>25</v>
+        <v>12.8</v>
       </c>
       <c r="X20" s="39" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="Y20" s="39" t="inlineStr">
         <is>
-          <t>农业ETF</t>
+          <t>科创50ETF</t>
         </is>
       </c>
     </row>
@@ -13707,7 +13707,7 @@
         <v>10.6</v>
       </c>
       <c r="X21" s="39" t="n">
-        <v>24.7</v>
+        <v>20.6</v>
       </c>
       <c r="Y21" s="39" t="inlineStr">
         <is>
@@ -13719,80 +13719,82 @@
       <c r="A22" s="39" t="n">
         <v>20</v>
       </c>
-      <c r="B22" s="39" t="n">
-        <v>512200</v>
+      <c r="B22" s="39" t="inlineStr">
+        <is>
+          <t>512010</t>
+        </is>
       </c>
       <c r="C22" s="39" t="inlineStr">
         <is>
-          <t>房地产ETF</t>
+          <t>医药ETF</t>
         </is>
       </c>
       <c r="D22" s="39" t="n">
-        <v>64.36</v>
+        <v>219.64</v>
       </c>
       <c r="E22" s="39" t="n">
-        <v>81.8</v>
+        <v>59.5</v>
       </c>
       <c r="F22" s="39" t="n">
-        <v>64.2</v>
+        <v>66.5</v>
       </c>
       <c r="G22" s="39" t="n">
-        <v>64.2</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="H22" s="39" t="n">
-        <v>30</v>
+        <v>29.6</v>
       </c>
       <c r="I22" s="39" t="n">
-        <v>54.3</v>
+        <v>49.8</v>
       </c>
       <c r="J22" s="39" t="n">
-        <v>87.59999999999999</v>
+        <v>49.8</v>
       </c>
       <c r="K22" s="39" t="n">
-        <v>93.90000000000001</v>
+        <v>23.2</v>
       </c>
       <c r="L22" s="39" t="n">
-        <v>82.5</v>
+        <v>62.9</v>
       </c>
       <c r="M22" s="39" t="n">
-        <v>89.40000000000001</v>
+        <v>92.8</v>
       </c>
       <c r="N22" s="39" t="n">
-        <v>27.4</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="O22" s="39" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="P22" s="39" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="Q22" s="39" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="R22" s="39" t="n">
         <v>48.9</v>
       </c>
-      <c r="P22" s="39" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="Q22" s="39" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="R22" s="39" t="n">
-        <v>7.6</v>
-      </c>
       <c r="S22" s="39" t="n">
-        <v>35.6</v>
+        <v>87.5</v>
       </c>
       <c r="T22" s="39" t="n">
-        <v>68.40000000000001</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="U22" s="39" t="n">
-        <v>85.59999999999999</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="V22" s="39" t="n">
-        <v>74.09999999999999</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="W22" s="39" t="n">
-        <v>17.5</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="X22" s="39" t="n">
-        <v>26.8</v>
+        <v>21.6</v>
       </c>
       <c r="Y22" s="39" t="inlineStr">
         <is>
-          <t>房地产ETF</t>
+          <t>医药ETF</t>
         </is>
       </c>
     </row>
@@ -13800,82 +13802,80 @@
       <c r="A23" s="39" t="n">
         <v>21</v>
       </c>
-      <c r="B23" s="39" t="inlineStr">
-        <is>
-          <t>512010</t>
-        </is>
+      <c r="B23" s="39" t="n">
+        <v>159859</v>
       </c>
       <c r="C23" s="39" t="inlineStr">
         <is>
-          <t>医药ETF</t>
+          <t>生物医药ETF</t>
         </is>
       </c>
       <c r="D23" s="39" t="n">
-        <v>220.26</v>
+        <v>34.7</v>
       </c>
       <c r="E23" s="39" t="n">
-        <v>59.5</v>
+        <v>63.1</v>
       </c>
       <c r="F23" s="39" t="n">
-        <v>66.5</v>
+        <v>53.9</v>
       </c>
       <c r="G23" s="39" t="n">
-        <v>75.09999999999999</v>
+        <v>70.8</v>
       </c>
       <c r="H23" s="39" t="n">
-        <v>29.6</v>
+        <v>40.9</v>
       </c>
       <c r="I23" s="39" t="n">
-        <v>49.8</v>
+        <v>10.3</v>
       </c>
       <c r="J23" s="39" t="n">
-        <v>49.8</v>
+        <v>10.3</v>
       </c>
       <c r="K23" s="39" t="n">
-        <v>23.2</v>
+        <v>10.3</v>
       </c>
       <c r="L23" s="39" t="n">
-        <v>62.9</v>
+        <v>51.6</v>
       </c>
       <c r="M23" s="39" t="n">
-        <v>92.8</v>
+        <v>18.2</v>
       </c>
       <c r="N23" s="39" t="n">
-        <v>66.09999999999999</v>
+        <v>18.2</v>
       </c>
       <c r="O23" s="39" t="n">
-        <v>78.5</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="P23" s="39" t="n">
-        <v>45.4</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="Q23" s="39" t="n">
-        <v>16.9</v>
+        <v>52.6</v>
       </c>
       <c r="R23" s="39" t="n">
-        <v>48.9</v>
+        <v>82</v>
       </c>
       <c r="S23" s="39" t="n">
-        <v>87.5</v>
+        <v>50.6</v>
       </c>
       <c r="T23" s="39" t="n">
-        <v>94.09999999999999</v>
+        <v>89.8</v>
       </c>
       <c r="U23" s="39" t="n">
-        <v>94.09999999999999</v>
+        <v>46</v>
       </c>
       <c r="V23" s="39" t="n">
-        <v>94.09999999999999</v>
+        <v>59.2</v>
       </c>
       <c r="W23" s="39" t="n">
-        <v>97.59999999999999</v>
+        <v>39.7</v>
       </c>
       <c r="X23" s="39" t="n">
-        <v>29.2</v>
+        <v>24</v>
       </c>
       <c r="Y23" s="39" t="inlineStr">
         <is>
-          <t>医药ETF</t>
+          <t>生物医药ETF</t>
         </is>
       </c>
     </row>
@@ -13884,79 +13884,79 @@
         <v>22</v>
       </c>
       <c r="B24" s="39" t="n">
-        <v>515220</v>
+        <v>512200</v>
       </c>
       <c r="C24" s="39" t="inlineStr">
         <is>
-          <t>煤炭ETF</t>
+          <t>房地产ETF</t>
         </is>
       </c>
       <c r="D24" s="39" t="n">
-        <v>34.86</v>
+        <v>64.36</v>
       </c>
       <c r="E24" s="39" t="n">
-        <v>56.4</v>
+        <v>81.8</v>
       </c>
       <c r="F24" s="39" t="n">
-        <v>39.1</v>
+        <v>64.2</v>
       </c>
       <c r="G24" s="39" t="n">
-        <v>82.40000000000001</v>
+        <v>64.2</v>
       </c>
       <c r="H24" s="39" t="n">
-        <v>77.8</v>
+        <v>30</v>
       </c>
       <c r="I24" s="39" t="n">
-        <v>77.8</v>
+        <v>54.3</v>
       </c>
       <c r="J24" s="39" t="n">
-        <v>63.6</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="K24" s="39" t="n">
-        <v>22.5</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="L24" s="39" t="n">
-        <v>38.4</v>
+        <v>82.5</v>
       </c>
       <c r="M24" s="39" t="n">
-        <v>21.1</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="N24" s="39" t="n">
-        <v>14.5</v>
+        <v>27.4</v>
       </c>
       <c r="O24" s="39" t="n">
-        <v>61.9</v>
+        <v>48.9</v>
       </c>
       <c r="P24" s="39" t="n">
-        <v>29.4</v>
+        <v>21.5</v>
       </c>
       <c r="Q24" s="39" t="n">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="R24" s="39" t="n">
-        <v>1.9</v>
+        <v>7.6</v>
       </c>
       <c r="S24" s="39" t="n">
-        <v>1.1</v>
+        <v>35.6</v>
       </c>
       <c r="T24" s="39" t="n">
-        <v>62</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="U24" s="39" t="n">
-        <v>78.2</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="V24" s="39" t="n">
-        <v>80.90000000000001</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="W24" s="39" t="n">
-        <v>40.6</v>
+        <v>17.5</v>
       </c>
       <c r="X24" s="39" t="n">
-        <v>32.5</v>
+        <v>26.8</v>
       </c>
       <c r="Y24" s="39" t="inlineStr">
         <is>
-          <t>煤炭ETF</t>
+          <t>房地产ETF</t>
         </is>
       </c>
     </row>
@@ -13965,79 +13965,79 @@
         <v>23</v>
       </c>
       <c r="B25" s="39" t="n">
-        <v>159866</v>
+        <v>515220</v>
       </c>
       <c r="C25" s="39" t="inlineStr">
         <is>
-          <t>日经ETF</t>
+          <t>煤炭ETF</t>
         </is>
       </c>
       <c r="D25" s="39" t="n">
-        <v>6.72</v>
+        <v>34.86</v>
       </c>
       <c r="E25" s="39" t="n">
-        <v>77</v>
+        <v>56.4</v>
       </c>
       <c r="F25" s="39" t="n">
-        <v>60.9</v>
+        <v>39.1</v>
       </c>
       <c r="G25" s="39" t="n">
-        <v>76.7</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="H25" s="39" t="n">
-        <v>76.7</v>
+        <v>77.8</v>
       </c>
       <c r="I25" s="39" t="n">
-        <v>52.5</v>
+        <v>77.8</v>
       </c>
       <c r="J25" s="39" t="n">
-        <v>78</v>
+        <v>63.6</v>
       </c>
       <c r="K25" s="39" t="n">
-        <v>87.59999999999999</v>
+        <v>22.5</v>
       </c>
       <c r="L25" s="39" t="n">
-        <v>52.9</v>
+        <v>38.4</v>
       </c>
       <c r="M25" s="39" t="n">
-        <v>77.09999999999999</v>
+        <v>21.1</v>
       </c>
       <c r="N25" s="39" t="n">
-        <v>87.90000000000001</v>
+        <v>14.5</v>
       </c>
       <c r="O25" s="39" t="n">
-        <v>48.5</v>
+        <v>61.9</v>
       </c>
       <c r="P25" s="39" t="n">
-        <v>83.40000000000001</v>
+        <v>29.4</v>
       </c>
       <c r="Q25" s="39" t="n">
-        <v>90.09999999999999</v>
+        <v>4</v>
       </c>
       <c r="R25" s="39" t="n">
-        <v>94.5</v>
+        <v>1.9</v>
       </c>
       <c r="S25" s="39" t="n">
-        <v>95.09999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="T25" s="39" t="n">
-        <v>98.59999999999999</v>
+        <v>62</v>
       </c>
       <c r="U25" s="39" t="n">
-        <v>78.3</v>
+        <v>78.2</v>
       </c>
       <c r="V25" s="39" t="n">
-        <v>78.3</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="W25" s="39" t="n">
-        <v>90.3</v>
+        <v>40.6</v>
       </c>
       <c r="X25" s="39" t="n">
-        <v>36.5</v>
+        <v>32.5</v>
       </c>
       <c r="Y25" s="39" t="inlineStr">
         <is>
-          <t>日经ETF</t>
+          <t>煤炭ETF</t>
         </is>
       </c>
     </row>
@@ -14046,79 +14046,79 @@
         <v>24</v>
       </c>
       <c r="B26" s="39" t="n">
-        <v>159859</v>
+        <v>560800</v>
       </c>
       <c r="C26" s="39" t="inlineStr">
         <is>
-          <t>生物医药ETF</t>
+          <t>数字经济ETF</t>
         </is>
       </c>
       <c r="D26" s="39" t="n">
-        <v>34.8</v>
+        <v>7.56</v>
       </c>
       <c r="E26" s="39" t="n">
-        <v>63.1</v>
+        <v>71.8</v>
       </c>
       <c r="F26" s="39" t="n">
-        <v>53.9</v>
+        <v>85.5</v>
       </c>
       <c r="G26" s="39" t="n">
-        <v>70.8</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="H26" s="39" t="n">
-        <v>40.9</v>
+        <v>44</v>
       </c>
       <c r="I26" s="39" t="n">
-        <v>10.3</v>
+        <v>61.1</v>
       </c>
       <c r="J26" s="39" t="n">
-        <v>10.3</v>
+        <v>53</v>
       </c>
       <c r="K26" s="39" t="n">
-        <v>10.3</v>
+        <v>41.9</v>
       </c>
       <c r="L26" s="39" t="n">
-        <v>51.6</v>
+        <v>88.8</v>
       </c>
       <c r="M26" s="39" t="n">
-        <v>18.2</v>
+        <v>38.8</v>
       </c>
       <c r="N26" s="39" t="n">
-        <v>18.2</v>
+        <v>52.2</v>
       </c>
       <c r="O26" s="39" t="n">
-        <v>64.40000000000001</v>
+        <v>16.3</v>
       </c>
       <c r="P26" s="39" t="n">
-        <v>89.09999999999999</v>
+        <v>26.4</v>
       </c>
       <c r="Q26" s="39" t="n">
-        <v>52.6</v>
+        <v>40.8</v>
       </c>
       <c r="R26" s="39" t="n">
-        <v>82</v>
+        <v>76.8</v>
       </c>
       <c r="S26" s="39" t="n">
-        <v>50.6</v>
+        <v>94.7</v>
       </c>
       <c r="T26" s="39" t="n">
-        <v>89.8</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="U26" s="39" t="n">
-        <v>46</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="V26" s="39" t="n">
         <v>59.2</v>
       </c>
       <c r="W26" s="39" t="n">
-        <v>39.7</v>
+        <v>15.6</v>
       </c>
       <c r="X26" s="39" t="n">
-        <v>39.7</v>
+        <v>40.6</v>
       </c>
       <c r="Y26" s="39" t="inlineStr">
         <is>
-          <t>生物医药ETF</t>
+          <t>数字经济ETF</t>
         </is>
       </c>
     </row>
@@ -14127,79 +14127,79 @@
         <v>25</v>
       </c>
       <c r="B27" s="39" t="n">
-        <v>560800</v>
+        <v>159745</v>
       </c>
       <c r="C27" s="39" t="inlineStr">
         <is>
-          <t>数字经济ETF</t>
+          <t>建材ETF</t>
         </is>
       </c>
       <c r="D27" s="39" t="n">
-        <v>7.56</v>
+        <v>5.86</v>
       </c>
       <c r="E27" s="39" t="n">
-        <v>71.8</v>
+        <v>74.8</v>
       </c>
       <c r="F27" s="39" t="n">
-        <v>85.5</v>
+        <v>59.5</v>
       </c>
       <c r="G27" s="39" t="n">
-        <v>87.09999999999999</v>
+        <v>46.7</v>
       </c>
       <c r="H27" s="39" t="n">
-        <v>44</v>
+        <v>25.2</v>
       </c>
       <c r="I27" s="39" t="n">
-        <v>61.1</v>
+        <v>14.9</v>
       </c>
       <c r="J27" s="39" t="n">
-        <v>53</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="K27" s="39" t="n">
-        <v>41.9</v>
+        <v>78.7</v>
       </c>
       <c r="L27" s="39" t="n">
-        <v>88.8</v>
+        <v>33.3</v>
       </c>
       <c r="M27" s="39" t="n">
-        <v>38.8</v>
+        <v>72</v>
       </c>
       <c r="N27" s="39" t="n">
-        <v>52.2</v>
+        <v>40.6</v>
       </c>
       <c r="O27" s="39" t="n">
-        <v>16.3</v>
+        <v>21.7</v>
       </c>
       <c r="P27" s="39" t="n">
-        <v>26.4</v>
+        <v>17.6</v>
       </c>
       <c r="Q27" s="39" t="n">
-        <v>40.8</v>
+        <v>4</v>
       </c>
       <c r="R27" s="39" t="n">
-        <v>76.8</v>
+        <v>3</v>
       </c>
       <c r="S27" s="39" t="n">
-        <v>94.7</v>
+        <v>1.7</v>
       </c>
       <c r="T27" s="39" t="n">
-        <v>98.40000000000001</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="U27" s="39" t="n">
-        <v>73.90000000000001</v>
+        <v>80.5</v>
       </c>
       <c r="V27" s="39" t="n">
-        <v>59.2</v>
+        <v>89.8</v>
       </c>
       <c r="W27" s="39" t="n">
-        <v>15.6</v>
+        <v>45.9</v>
       </c>
       <c r="X27" s="39" t="n">
-        <v>40.6</v>
+        <v>45.9</v>
       </c>
       <c r="Y27" s="39" t="inlineStr">
         <is>
-          <t>数字经济ETF</t>
+          <t>建材ETF</t>
         </is>
       </c>
     </row>
@@ -14208,79 +14208,79 @@
         <v>26</v>
       </c>
       <c r="B28" s="39" t="n">
-        <v>159611</v>
+        <v>159647</v>
       </c>
       <c r="C28" s="39" t="inlineStr">
         <is>
-          <t>电力ETF</t>
+          <t>中药ETF</t>
         </is>
       </c>
       <c r="D28" s="39" t="n">
-        <v>35.29</v>
+        <v>7.88</v>
       </c>
       <c r="E28" s="39" t="n">
-        <v>65.3</v>
+        <v>71.8</v>
       </c>
       <c r="F28" s="39" t="n">
-        <v>38.8</v>
+        <v>56.9</v>
       </c>
       <c r="G28" s="39" t="n">
-        <v>75.40000000000001</v>
+        <v>60.9</v>
       </c>
       <c r="H28" s="39" t="n">
-        <v>82.90000000000001</v>
+        <v>87.3</v>
       </c>
       <c r="I28" s="39" t="n">
-        <v>86.8</v>
+        <v>50.3</v>
       </c>
       <c r="J28" s="39" t="n">
-        <v>86.8</v>
+        <v>44.1</v>
       </c>
       <c r="K28" s="39" t="n">
-        <v>26.1</v>
+        <v>29.5</v>
       </c>
       <c r="L28" s="39" t="n">
-        <v>59.8</v>
+        <v>47</v>
       </c>
       <c r="M28" s="39" t="n">
-        <v>45.9</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="N28" s="39" t="n">
-        <v>19.1</v>
+        <v>30.4</v>
       </c>
       <c r="O28" s="39" t="n">
-        <v>80.3</v>
+        <v>51.8</v>
       </c>
       <c r="P28" s="39" t="n">
-        <v>94.3</v>
+        <v>26.9</v>
       </c>
       <c r="Q28" s="39" t="n">
-        <v>97</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="R28" s="39" t="n">
-        <v>29.1</v>
+        <v>7.9</v>
       </c>
       <c r="S28" s="39" t="n">
-        <v>22.7</v>
+        <v>41.2</v>
       </c>
       <c r="T28" s="39" t="n">
-        <v>53.3</v>
+        <v>73.3</v>
       </c>
       <c r="U28" s="39" t="n">
-        <v>63.1</v>
+        <v>85.7</v>
       </c>
       <c r="V28" s="39" t="n">
-        <v>77.3</v>
+        <v>90.3</v>
       </c>
       <c r="W28" s="39" t="n">
-        <v>90.09999999999999</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="X28" s="39" t="n">
-        <v>42.4</v>
+        <v>47.1</v>
       </c>
       <c r="Y28" s="39" t="inlineStr">
         <is>
-          <t>电力ETF</t>
+          <t>中药ETF</t>
         </is>
       </c>
     </row>
@@ -14289,79 +14289,79 @@
         <v>27</v>
       </c>
       <c r="B29" s="39" t="n">
-        <v>515210</v>
+        <v>159869</v>
       </c>
       <c r="C29" s="39" t="inlineStr">
         <is>
-          <t>钢铁ETF</t>
+          <t>游戏ETF</t>
         </is>
       </c>
       <c r="D29" s="39" t="n">
-        <v>19.2</v>
+        <v>67.09</v>
       </c>
       <c r="E29" s="39" t="n">
-        <v>65.59999999999999</v>
+        <v>62.4</v>
       </c>
       <c r="F29" s="39" t="n">
-        <v>65.59999999999999</v>
+        <v>60.3</v>
       </c>
       <c r="G29" s="39" t="n">
-        <v>85.40000000000001</v>
+        <v>80.8</v>
       </c>
       <c r="H29" s="39" t="n">
-        <v>44.1</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="I29" s="39" t="n">
-        <v>27.7</v>
+        <v>42.6</v>
       </c>
       <c r="J29" s="39" t="n">
-        <v>43.5</v>
+        <v>50.5</v>
       </c>
       <c r="K29" s="39" t="n">
-        <v>67.3</v>
+        <v>83</v>
       </c>
       <c r="L29" s="39" t="n">
-        <v>89.8</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="M29" s="39" t="n">
-        <v>74.09999999999999</v>
+        <v>51.4</v>
       </c>
       <c r="N29" s="39" t="n">
-        <v>89.2</v>
+        <v>60.1</v>
       </c>
       <c r="O29" s="39" t="n">
-        <v>51.6</v>
+        <v>20.9</v>
       </c>
       <c r="P29" s="39" t="n">
-        <v>84.8</v>
+        <v>36.6</v>
       </c>
       <c r="Q29" s="39" t="n">
-        <v>93</v>
+        <v>73.5</v>
       </c>
       <c r="R29" s="39" t="n">
-        <v>93</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="S29" s="39" t="n">
-        <v>22.5</v>
+        <v>92</v>
       </c>
       <c r="T29" s="39" t="n">
-        <v>78.2</v>
+        <v>98</v>
       </c>
       <c r="U29" s="39" t="n">
-        <v>84.09999999999999</v>
+        <v>57.7</v>
       </c>
       <c r="V29" s="39" t="n">
-        <v>64.2</v>
+        <v>71.2</v>
       </c>
       <c r="W29" s="39" t="n">
-        <v>31.1</v>
+        <v>25.8</v>
       </c>
       <c r="X29" s="39" t="n">
-        <v>43.9</v>
+        <v>47.2</v>
       </c>
       <c r="Y29" s="39" t="inlineStr">
         <is>
-          <t>钢铁ETF</t>
+          <t>游戏ETF</t>
         </is>
       </c>
     </row>
@@ -14370,79 +14370,79 @@
         <v>28</v>
       </c>
       <c r="B30" s="39" t="n">
-        <v>159647</v>
+        <v>512980</v>
       </c>
       <c r="C30" s="39" t="inlineStr">
         <is>
-          <t>中药ETF</t>
+          <t>传媒ETF</t>
         </is>
       </c>
       <c r="D30" s="39" t="n">
-        <v>7.88</v>
+        <v>27.41</v>
       </c>
       <c r="E30" s="39" t="n">
-        <v>71.8</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="F30" s="39" t="n">
-        <v>56.9</v>
+        <v>65.2</v>
       </c>
       <c r="G30" s="39" t="n">
-        <v>60.9</v>
+        <v>78.8</v>
       </c>
       <c r="H30" s="39" t="n">
-        <v>87.3</v>
+        <v>84.7</v>
       </c>
       <c r="I30" s="39" t="n">
-        <v>50.3</v>
+        <v>59.6</v>
       </c>
       <c r="J30" s="39" t="n">
-        <v>44.1</v>
+        <v>33.3</v>
       </c>
       <c r="K30" s="39" t="n">
-        <v>29.5</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="L30" s="39" t="n">
-        <v>47</v>
+        <v>93.2</v>
       </c>
       <c r="M30" s="39" t="n">
-        <v>91.09999999999999</v>
+        <v>51.5</v>
       </c>
       <c r="N30" s="39" t="n">
-        <v>30.4</v>
+        <v>39.7</v>
       </c>
       <c r="O30" s="39" t="n">
-        <v>51.8</v>
+        <v>13.3</v>
       </c>
       <c r="P30" s="39" t="n">
-        <v>26.9</v>
+        <v>33.7</v>
       </c>
       <c r="Q30" s="39" t="n">
-        <v>9.800000000000001</v>
+        <v>33.7</v>
       </c>
       <c r="R30" s="39" t="n">
-        <v>7.9</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="S30" s="39" t="n">
-        <v>41.2</v>
+        <v>93.2</v>
       </c>
       <c r="T30" s="39" t="n">
-        <v>73.3</v>
+        <v>98.3</v>
       </c>
       <c r="U30" s="39" t="n">
-        <v>85.7</v>
+        <v>70.7</v>
       </c>
       <c r="V30" s="39" t="n">
-        <v>90.3</v>
+        <v>78.7</v>
       </c>
       <c r="W30" s="39" t="n">
-        <v>92.59999999999999</v>
+        <v>24.8</v>
       </c>
       <c r="X30" s="39" t="n">
-        <v>47.1</v>
+        <v>47.3</v>
       </c>
       <c r="Y30" s="39" t="inlineStr">
         <is>
-          <t>中药ETF</t>
+          <t>传媒ETF</t>
         </is>
       </c>
     </row>
@@ -14451,79 +14451,79 @@
         <v>29</v>
       </c>
       <c r="B31" s="39" t="n">
-        <v>159869</v>
+        <v>515210</v>
       </c>
       <c r="C31" s="39" t="inlineStr">
         <is>
-          <t>游戏ETF</t>
+          <t>钢铁ETF</t>
         </is>
       </c>
       <c r="D31" s="39" t="n">
-        <v>67.09</v>
+        <v>19.22</v>
       </c>
       <c r="E31" s="39" t="n">
-        <v>62.4</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="F31" s="39" t="n">
-        <v>60.3</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="G31" s="39" t="n">
-        <v>80.8</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="H31" s="39" t="n">
-        <v>87.90000000000001</v>
+        <v>44.1</v>
       </c>
       <c r="I31" s="39" t="n">
-        <v>42.6</v>
+        <v>27.7</v>
       </c>
       <c r="J31" s="39" t="n">
-        <v>50.5</v>
+        <v>43.5</v>
       </c>
       <c r="K31" s="39" t="n">
-        <v>83</v>
+        <v>67.3</v>
       </c>
       <c r="L31" s="39" t="n">
-        <v>95.40000000000001</v>
+        <v>89.8</v>
       </c>
       <c r="M31" s="39" t="n">
-        <v>51.4</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="N31" s="39" t="n">
-        <v>60.1</v>
+        <v>89.2</v>
       </c>
       <c r="O31" s="39" t="n">
-        <v>20.9</v>
+        <v>51.6</v>
       </c>
       <c r="P31" s="39" t="n">
-        <v>36.6</v>
+        <v>84.8</v>
       </c>
       <c r="Q31" s="39" t="n">
-        <v>73.5</v>
+        <v>93</v>
       </c>
       <c r="R31" s="39" t="n">
+        <v>93</v>
+      </c>
+      <c r="S31" s="39" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="T31" s="39" t="n">
+        <v>78.2</v>
+      </c>
+      <c r="U31" s="39" t="n">
         <v>84.09999999999999</v>
       </c>
-      <c r="S31" s="39" t="n">
-        <v>92</v>
-      </c>
-      <c r="T31" s="39" t="n">
-        <v>98</v>
-      </c>
-      <c r="U31" s="39" t="n">
-        <v>57.7</v>
-      </c>
       <c r="V31" s="39" t="n">
-        <v>71.2</v>
+        <v>64.2</v>
       </c>
       <c r="W31" s="39" t="n">
-        <v>25.8</v>
+        <v>31.1</v>
       </c>
       <c r="X31" s="39" t="n">
-        <v>47.2</v>
+        <v>48.7</v>
       </c>
       <c r="Y31" s="39" t="inlineStr">
         <is>
-          <t>游戏ETF</t>
+          <t>钢铁ETF</t>
         </is>
       </c>
     </row>
@@ -14532,79 +14532,79 @@
         <v>30</v>
       </c>
       <c r="B32" s="39" t="n">
-        <v>159766</v>
+        <v>515230</v>
       </c>
       <c r="C32" s="39" t="inlineStr">
         <is>
-          <t>旅游ETF</t>
+          <t>软件ETF</t>
         </is>
       </c>
       <c r="D32" s="39" t="n">
-        <v>29.79</v>
+        <v>13.73</v>
       </c>
       <c r="E32" s="39" t="n">
-        <v>85.3</v>
+        <v>63.7</v>
       </c>
       <c r="F32" s="39" t="n">
-        <v>64.3</v>
+        <v>75.7</v>
       </c>
       <c r="G32" s="39" t="n">
-        <v>73.59999999999999</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="H32" s="39" t="n">
-        <v>36</v>
+        <v>34.8</v>
       </c>
       <c r="I32" s="39" t="n">
-        <v>73.7</v>
+        <v>17.4</v>
       </c>
       <c r="J32" s="39" t="n">
-        <v>84.3</v>
+        <v>61.1</v>
       </c>
       <c r="K32" s="39" t="n">
-        <v>29</v>
+        <v>61.1</v>
       </c>
       <c r="L32" s="39" t="n">
-        <v>22.7</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="M32" s="39" t="n">
-        <v>15.8</v>
+        <v>51.2</v>
       </c>
       <c r="N32" s="39" t="n">
-        <v>6.3</v>
+        <v>59.3</v>
       </c>
       <c r="O32" s="39" t="n">
-        <v>5.1</v>
+        <v>17</v>
       </c>
       <c r="P32" s="39" t="n">
-        <v>40</v>
+        <v>55.3</v>
       </c>
       <c r="Q32" s="39" t="n">
-        <v>11.6</v>
+        <v>34.2</v>
       </c>
       <c r="R32" s="39" t="n">
-        <v>6.8</v>
+        <v>56.4</v>
       </c>
       <c r="S32" s="39" t="n">
-        <v>4.5</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="T32" s="39" t="n">
-        <v>68.09999999999999</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="U32" s="39" t="n">
-        <v>42.8</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="V32" s="39" t="n">
-        <v>42.8</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="W32" s="39" t="n">
-        <v>13.2</v>
+        <v>28.2</v>
       </c>
       <c r="X32" s="39" t="n">
-        <v>48.7</v>
+        <v>51.5</v>
       </c>
       <c r="Y32" s="39" t="inlineStr">
         <is>
-          <t>旅游ETF</t>
+          <t>软件ETF</t>
         </is>
       </c>
     </row>
@@ -14612,80 +14612,82 @@
       <c r="A33" s="39" t="n">
         <v>31</v>
       </c>
-      <c r="B33" s="39" t="n">
-        <v>512980</v>
+      <c r="B33" s="39" t="inlineStr">
+        <is>
+          <t>517160</t>
+        </is>
       </c>
       <c r="C33" s="39" t="inlineStr">
         <is>
-          <t>传媒ETF</t>
+          <t>长江保护主题ETF</t>
         </is>
       </c>
       <c r="D33" s="39" t="n">
-        <v>27.44</v>
+        <v>13.17</v>
       </c>
       <c r="E33" s="39" t="n">
-        <v>74.09999999999999</v>
+        <v>68.2</v>
       </c>
       <c r="F33" s="39" t="n">
-        <v>65.2</v>
+        <v>60</v>
       </c>
       <c r="G33" s="39" t="n">
-        <v>78.8</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="H33" s="39" t="n">
-        <v>84.7</v>
+        <v>58.2</v>
       </c>
       <c r="I33" s="39" t="n">
-        <v>59.6</v>
+        <v>30.7</v>
       </c>
       <c r="J33" s="39" t="n">
-        <v>33.3</v>
+        <v>55.8</v>
       </c>
       <c r="K33" s="39" t="n">
-        <v>75.90000000000001</v>
+        <v>55.8</v>
       </c>
       <c r="L33" s="39" t="n">
-        <v>93.2</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="M33" s="39" t="n">
-        <v>51.5</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="N33" s="39" t="n">
-        <v>39.7</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="O33" s="39" t="n">
-        <v>13.3</v>
+        <v>64.8</v>
       </c>
       <c r="P33" s="39" t="n">
-        <v>33.7</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="Q33" s="39" t="n">
-        <v>33.7</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="R33" s="39" t="n">
-        <v>83.90000000000001</v>
+        <v>35.3</v>
       </c>
       <c r="S33" s="39" t="n">
-        <v>93.2</v>
+        <v>58.8</v>
       </c>
       <c r="T33" s="39" t="n">
-        <v>98.3</v>
+        <v>95</v>
       </c>
       <c r="U33" s="39" t="n">
-        <v>70.7</v>
+        <v>96.3</v>
       </c>
       <c r="V33" s="39" t="n">
-        <v>78.7</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="W33" s="39" t="n">
-        <v>24.8</v>
+        <v>52.2</v>
       </c>
       <c r="X33" s="39" t="n">
-        <v>50.3</v>
+        <v>52.2</v>
       </c>
       <c r="Y33" s="39" t="inlineStr">
         <is>
-          <t>传媒ETF</t>
+          <t>长江保护主题ETF</t>
         </is>
       </c>
     </row>
@@ -14694,79 +14696,79 @@
         <v>32</v>
       </c>
       <c r="B34" s="39" t="n">
-        <v>515230</v>
+        <v>159611</v>
       </c>
       <c r="C34" s="39" t="inlineStr">
         <is>
-          <t>软件ETF</t>
+          <t>电力ETF</t>
         </is>
       </c>
       <c r="D34" s="39" t="n">
-        <v>13.73</v>
+        <v>35.36</v>
       </c>
       <c r="E34" s="39" t="n">
-        <v>63.7</v>
+        <v>65.3</v>
       </c>
       <c r="F34" s="39" t="n">
-        <v>75.7</v>
+        <v>38.8</v>
       </c>
       <c r="G34" s="39" t="n">
-        <v>79.09999999999999</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="H34" s="39" t="n">
-        <v>34.8</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="I34" s="39" t="n">
-        <v>17.4</v>
+        <v>86.8</v>
       </c>
       <c r="J34" s="39" t="n">
-        <v>61.1</v>
+        <v>86.8</v>
       </c>
       <c r="K34" s="39" t="n">
-        <v>61.1</v>
+        <v>26.1</v>
       </c>
       <c r="L34" s="39" t="n">
-        <v>92.59999999999999</v>
+        <v>59.8</v>
       </c>
       <c r="M34" s="39" t="n">
-        <v>51.2</v>
+        <v>45.9</v>
       </c>
       <c r="N34" s="39" t="n">
-        <v>59.3</v>
+        <v>19.1</v>
       </c>
       <c r="O34" s="39" t="n">
-        <v>17</v>
+        <v>80.3</v>
       </c>
       <c r="P34" s="39" t="n">
-        <v>55.3</v>
+        <v>94.3</v>
       </c>
       <c r="Q34" s="39" t="n">
-        <v>34.2</v>
+        <v>97</v>
       </c>
       <c r="R34" s="39" t="n">
-        <v>56.4</v>
+        <v>29.1</v>
       </c>
       <c r="S34" s="39" t="n">
-        <v>90.40000000000001</v>
+        <v>22.7</v>
       </c>
       <c r="T34" s="39" t="n">
-        <v>96.90000000000001</v>
+        <v>53.3</v>
       </c>
       <c r="U34" s="39" t="n">
-        <v>72.40000000000001</v>
+        <v>63.1</v>
       </c>
       <c r="V34" s="39" t="n">
-        <v>78.59999999999999</v>
+        <v>77.3</v>
       </c>
       <c r="W34" s="39" t="n">
-        <v>28.2</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="X34" s="39" t="n">
-        <v>51.5</v>
+        <v>53.8</v>
       </c>
       <c r="Y34" s="39" t="inlineStr">
         <is>
-          <t>软件ETF</t>
+          <t>电力ETF</t>
         </is>
       </c>
     </row>
@@ -14776,80 +14778,80 @@
       </c>
       <c r="B35" s="39" t="inlineStr">
         <is>
-          <t>517160</t>
+          <t>515070</t>
         </is>
       </c>
       <c r="C35" s="39" t="inlineStr">
         <is>
-          <t>长江保护主题ETF</t>
+          <t>人工智能AIETF</t>
         </is>
       </c>
       <c r="D35" s="39" t="n">
-        <v>13.17</v>
+        <v>52.14</v>
       </c>
       <c r="E35" s="39" t="n">
-        <v>68.2</v>
+        <v>63.5</v>
       </c>
       <c r="F35" s="39" t="n">
-        <v>60</v>
+        <v>78.2</v>
       </c>
       <c r="G35" s="39" t="n">
-        <v>79.59999999999999</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="H35" s="39" t="n">
-        <v>58.2</v>
+        <v>53.9</v>
       </c>
       <c r="I35" s="39" t="n">
-        <v>30.7</v>
+        <v>34.4</v>
       </c>
       <c r="J35" s="39" t="n">
-        <v>55.8</v>
+        <v>54.8</v>
       </c>
       <c r="K35" s="39" t="n">
-        <v>55.8</v>
+        <v>63.9</v>
       </c>
       <c r="L35" s="39" t="n">
-        <v>84.90000000000001</v>
+        <v>93</v>
       </c>
       <c r="M35" s="39" t="n">
-        <v>88.59999999999999</v>
+        <v>44.8</v>
       </c>
       <c r="N35" s="39" t="n">
-        <v>97.09999999999999</v>
+        <v>70.8</v>
       </c>
       <c r="O35" s="39" t="n">
-        <v>64.8</v>
+        <v>27.6</v>
       </c>
       <c r="P35" s="39" t="n">
-        <v>73.59999999999999</v>
+        <v>55</v>
       </c>
       <c r="Q35" s="39" t="n">
-        <v>82.40000000000001</v>
+        <v>47.8</v>
       </c>
       <c r="R35" s="39" t="n">
-        <v>35.3</v>
+        <v>70.8</v>
       </c>
       <c r="S35" s="39" t="n">
-        <v>58.8</v>
+        <v>94.5</v>
       </c>
       <c r="T35" s="39" t="n">
-        <v>95</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="U35" s="39" t="n">
-        <v>96.3</v>
+        <v>75.8</v>
       </c>
       <c r="V35" s="39" t="n">
-        <v>97.90000000000001</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="W35" s="39" t="n">
-        <v>52.2</v>
+        <v>37.4</v>
       </c>
       <c r="X35" s="39" t="n">
-        <v>52.2</v>
+        <v>54.6</v>
       </c>
       <c r="Y35" s="39" t="inlineStr">
         <is>
-          <t>长江保护主题ETF</t>
+          <t>人工智能AIETF</t>
         </is>
       </c>
     </row>
@@ -14866,7 +14868,7 @@
         </is>
       </c>
       <c r="D36" s="39" t="n">
-        <v>35.59</v>
+        <v>35.66</v>
       </c>
       <c r="E36" s="39" t="n">
         <v>62.1</v>
@@ -14926,7 +14928,7 @@
         <v>39.8</v>
       </c>
       <c r="X36" s="39" t="n">
-        <v>52.7</v>
+        <v>55.1</v>
       </c>
       <c r="Y36" s="39" t="inlineStr">
         <is>
@@ -14938,82 +14940,80 @@
       <c r="A37" s="39" t="n">
         <v>35</v>
       </c>
-      <c r="B37" s="39" t="inlineStr">
-        <is>
-          <t>515070</t>
-        </is>
+      <c r="B37" s="39" t="n">
+        <v>159928</v>
       </c>
       <c r="C37" s="39" t="inlineStr">
         <is>
-          <t>人工智能AIETF</t>
+          <t>消费ETF</t>
         </is>
       </c>
       <c r="D37" s="39" t="n">
-        <v>52.14</v>
+        <v>147.77</v>
       </c>
       <c r="E37" s="39" t="n">
-        <v>63.5</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="F37" s="39" t="n">
-        <v>78.2</v>
+        <v>41.6</v>
       </c>
       <c r="G37" s="39" t="n">
-        <v>83.59999999999999</v>
+        <v>29</v>
       </c>
       <c r="H37" s="39" t="n">
-        <v>53.9</v>
+        <v>38.4</v>
       </c>
       <c r="I37" s="39" t="n">
-        <v>34.4</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="J37" s="39" t="n">
-        <v>54.8</v>
+        <v>84.2</v>
       </c>
       <c r="K37" s="39" t="n">
-        <v>63.9</v>
+        <v>32.1</v>
       </c>
       <c r="L37" s="39" t="n">
-        <v>93</v>
+        <v>15.8</v>
       </c>
       <c r="M37" s="39" t="n">
-        <v>44.8</v>
+        <v>40.1</v>
       </c>
       <c r="N37" s="39" t="n">
-        <v>70.8</v>
+        <v>14.7</v>
       </c>
       <c r="O37" s="39" t="n">
-        <v>27.6</v>
+        <v>12.1</v>
       </c>
       <c r="P37" s="39" t="n">
-        <v>55</v>
+        <v>7.1</v>
       </c>
       <c r="Q37" s="39" t="n">
-        <v>47.8</v>
+        <v>3.2</v>
       </c>
       <c r="R37" s="39" t="n">
-        <v>70.8</v>
+        <v>1.8</v>
       </c>
       <c r="S37" s="39" t="n">
-        <v>94.5</v>
+        <v>46.9</v>
       </c>
       <c r="T37" s="39" t="n">
-        <v>97.90000000000001</v>
+        <v>72.3</v>
       </c>
       <c r="U37" s="39" t="n">
-        <v>75.8</v>
+        <v>81.3</v>
       </c>
       <c r="V37" s="39" t="n">
-        <v>86.40000000000001</v>
+        <v>91.8</v>
       </c>
       <c r="W37" s="39" t="n">
-        <v>37.4</v>
+        <v>94.8</v>
       </c>
       <c r="X37" s="39" t="n">
-        <v>54.6</v>
+        <v>55.1</v>
       </c>
       <c r="Y37" s="39" t="inlineStr">
         <is>
-          <t>人工智能AIETF</t>
+          <t>消费ETF</t>
         </is>
       </c>
     </row>
@@ -15022,79 +15022,79 @@
         <v>36</v>
       </c>
       <c r="B38" s="39" t="n">
-        <v>159745</v>
+        <v>159998</v>
       </c>
       <c r="C38" s="39" t="inlineStr">
         <is>
-          <t>建材ETF</t>
+          <t>计算机ETF</t>
         </is>
       </c>
       <c r="D38" s="39" t="n">
-        <v>5.86</v>
+        <v>30.47</v>
       </c>
       <c r="E38" s="39" t="n">
-        <v>74.8</v>
+        <v>67</v>
       </c>
       <c r="F38" s="39" t="n">
-        <v>59.5</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="G38" s="39" t="n">
+        <v>81.3</v>
+      </c>
+      <c r="H38" s="39" t="n">
         <v>46.7</v>
       </c>
-      <c r="H38" s="39" t="n">
-        <v>25.2</v>
-      </c>
       <c r="I38" s="39" t="n">
-        <v>14.9</v>
+        <v>20.5</v>
       </c>
       <c r="J38" s="39" t="n">
-        <v>75.40000000000001</v>
+        <v>36.4</v>
       </c>
       <c r="K38" s="39" t="n">
-        <v>78.7</v>
+        <v>30.3</v>
       </c>
       <c r="L38" s="39" t="n">
-        <v>33.3</v>
+        <v>90.5</v>
       </c>
       <c r="M38" s="39" t="n">
-        <v>72</v>
+        <v>41.5</v>
       </c>
       <c r="N38" s="39" t="n">
-        <v>40.6</v>
+        <v>58.7</v>
       </c>
       <c r="O38" s="39" t="n">
-        <v>21.7</v>
+        <v>17.5</v>
       </c>
       <c r="P38" s="39" t="n">
-        <v>17.6</v>
+        <v>47.2</v>
       </c>
       <c r="Q38" s="39" t="n">
-        <v>4</v>
+        <v>34.7</v>
       </c>
       <c r="R38" s="39" t="n">
-        <v>3</v>
+        <v>60.7</v>
       </c>
       <c r="S38" s="39" t="n">
-        <v>1.7</v>
+        <v>90.2</v>
       </c>
       <c r="T38" s="39" t="n">
-        <v>64.09999999999999</v>
+        <v>97</v>
       </c>
       <c r="U38" s="39" t="n">
-        <v>80.5</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="V38" s="39" t="n">
-        <v>89.8</v>
+        <v>80.7</v>
       </c>
       <c r="W38" s="39" t="n">
-        <v>45.9</v>
+        <v>30.7</v>
       </c>
       <c r="X38" s="39" t="n">
-        <v>56.5</v>
+        <v>59.4</v>
       </c>
       <c r="Y38" s="39" t="inlineStr">
         <is>
-          <t>建材ETF</t>
+          <t>计算机ETF</t>
         </is>
       </c>
     </row>
@@ -15103,79 +15103,79 @@
         <v>37</v>
       </c>
       <c r="B39" s="39" t="n">
-        <v>159792</v>
+        <v>512170</v>
       </c>
       <c r="C39" s="39" t="inlineStr">
         <is>
-          <t>港股通互联网ETF</t>
+          <t>医疗ETF</t>
         </is>
       </c>
       <c r="D39" s="39" t="n">
-        <v>489.19</v>
+        <v>258.83</v>
       </c>
       <c r="E39" s="39" t="n">
-        <v>66.90000000000001</v>
+        <v>62.5</v>
       </c>
       <c r="F39" s="39" t="n">
-        <v>72.5</v>
+        <v>62.5</v>
       </c>
       <c r="G39" s="39" t="n">
-        <v>76.5</v>
+        <v>72</v>
       </c>
       <c r="H39" s="39" t="n">
-        <v>64.09999999999999</v>
+        <v>35.8</v>
       </c>
       <c r="I39" s="39" t="n">
-        <v>11.6</v>
+        <v>11.9</v>
       </c>
       <c r="J39" s="39" t="n">
-        <v>34.6</v>
+        <v>33.9</v>
       </c>
       <c r="K39" s="39" t="n">
-        <v>29.5</v>
+        <v>22.6</v>
       </c>
       <c r="L39" s="39" t="n">
-        <v>65.3</v>
+        <v>74.2</v>
       </c>
       <c r="M39" s="39" t="n">
-        <v>85.90000000000001</v>
+        <v>74.2</v>
       </c>
       <c r="N39" s="39" t="n">
-        <v>96.7</v>
+        <v>74.2</v>
       </c>
       <c r="O39" s="39" t="n">
-        <v>56.4</v>
+        <v>74.2</v>
       </c>
       <c r="P39" s="39" t="n">
-        <v>71.2</v>
+        <v>94.3</v>
       </c>
       <c r="Q39" s="39" t="n">
-        <v>77</v>
+        <v>16.6</v>
       </c>
       <c r="R39" s="39" t="n">
-        <v>50</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="S39" s="39" t="n">
-        <v>89.3</v>
+        <v>84.5</v>
       </c>
       <c r="T39" s="39" t="n">
-        <v>96.90000000000001</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="U39" s="39" t="n">
-        <v>63.3</v>
+        <v>74.8</v>
       </c>
       <c r="V39" s="39" t="n">
-        <v>63.3</v>
+        <v>82.3</v>
       </c>
       <c r="W39" s="39" t="n">
-        <v>32.9</v>
+        <v>37.6</v>
       </c>
       <c r="X39" s="39" t="n">
-        <v>58.1</v>
+        <v>59.6</v>
       </c>
       <c r="Y39" s="39" t="inlineStr">
         <is>
-          <t>港股通互联网ETF</t>
+          <t>医疗ETF</t>
         </is>
       </c>
     </row>
@@ -15184,79 +15184,79 @@
         <v>38</v>
       </c>
       <c r="B40" s="39" t="n">
-        <v>159998</v>
+        <v>159766</v>
       </c>
       <c r="C40" s="39" t="inlineStr">
         <is>
-          <t>计算机ETF</t>
+          <t>旅游ETF</t>
         </is>
       </c>
       <c r="D40" s="39" t="n">
-        <v>30.47</v>
+        <v>29.88</v>
       </c>
       <c r="E40" s="39" t="n">
-        <v>67</v>
+        <v>85.3</v>
       </c>
       <c r="F40" s="39" t="n">
-        <v>78.59999999999999</v>
+        <v>64.3</v>
       </c>
       <c r="G40" s="39" t="n">
-        <v>81.3</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="H40" s="39" t="n">
-        <v>46.7</v>
+        <v>36</v>
       </c>
       <c r="I40" s="39" t="n">
-        <v>20.5</v>
+        <v>73.7</v>
       </c>
       <c r="J40" s="39" t="n">
-        <v>36.4</v>
+        <v>84.3</v>
       </c>
       <c r="K40" s="39" t="n">
-        <v>30.3</v>
+        <v>29</v>
       </c>
       <c r="L40" s="39" t="n">
-        <v>90.5</v>
+        <v>22.7</v>
       </c>
       <c r="M40" s="39" t="n">
-        <v>41.5</v>
+        <v>15.8</v>
       </c>
       <c r="N40" s="39" t="n">
-        <v>58.7</v>
+        <v>6.3</v>
       </c>
       <c r="O40" s="39" t="n">
-        <v>17.5</v>
+        <v>5.1</v>
       </c>
       <c r="P40" s="39" t="n">
-        <v>47.2</v>
+        <v>40</v>
       </c>
       <c r="Q40" s="39" t="n">
-        <v>34.7</v>
+        <v>11.6</v>
       </c>
       <c r="R40" s="39" t="n">
-        <v>60.7</v>
+        <v>6.8</v>
       </c>
       <c r="S40" s="39" t="n">
-        <v>90.2</v>
+        <v>4.5</v>
       </c>
       <c r="T40" s="39" t="n">
-        <v>97</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="U40" s="39" t="n">
-        <v>74.90000000000001</v>
+        <v>42.8</v>
       </c>
       <c r="V40" s="39" t="n">
-        <v>80.7</v>
+        <v>42.8</v>
       </c>
       <c r="W40" s="39" t="n">
-        <v>30.7</v>
+        <v>13.2</v>
       </c>
       <c r="X40" s="39" t="n">
-        <v>59.4</v>
+        <v>59.7</v>
       </c>
       <c r="Y40" s="39" t="inlineStr">
         <is>
-          <t>计算机ETF</t>
+          <t>旅游ETF</t>
         </is>
       </c>
     </row>
@@ -15265,79 +15265,79 @@
         <v>39</v>
       </c>
       <c r="B41" s="39" t="n">
-        <v>512170</v>
+        <v>517800</v>
       </c>
       <c r="C41" s="39" t="inlineStr">
         <is>
-          <t>医疗ETF</t>
+          <t>人工智能50ETF</t>
         </is>
       </c>
       <c r="D41" s="39" t="n">
-        <v>259.64</v>
+        <v>2.93</v>
       </c>
       <c r="E41" s="39" t="n">
-        <v>62.5</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="F41" s="39" t="n">
-        <v>62.5</v>
+        <v>72.5</v>
       </c>
       <c r="G41" s="39" t="n">
-        <v>72</v>
+        <v>83.7</v>
       </c>
       <c r="H41" s="39" t="n">
-        <v>35.8</v>
+        <v>61.4</v>
       </c>
       <c r="I41" s="39" t="n">
-        <v>11.9</v>
+        <v>26.3</v>
       </c>
       <c r="J41" s="39" t="n">
-        <v>33.9</v>
+        <v>56.3</v>
       </c>
       <c r="K41" s="39" t="n">
-        <v>22.6</v>
+        <v>61.5</v>
       </c>
       <c r="L41" s="39" t="n">
-        <v>74.2</v>
+        <v>86.8</v>
       </c>
       <c r="M41" s="39" t="n">
-        <v>74.2</v>
+        <v>40.4</v>
       </c>
       <c r="N41" s="39" t="n">
-        <v>74.2</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="O41" s="39" t="n">
-        <v>74.2</v>
+        <v>32.8</v>
       </c>
       <c r="P41" s="39" t="n">
-        <v>94.3</v>
+        <v>55.8</v>
       </c>
       <c r="Q41" s="39" t="n">
-        <v>16.6</v>
+        <v>65.3</v>
       </c>
       <c r="R41" s="39" t="n">
-        <v>73.90000000000001</v>
+        <v>65.3</v>
       </c>
       <c r="S41" s="39" t="n">
-        <v>84.5</v>
+        <v>95.3</v>
       </c>
       <c r="T41" s="39" t="n">
-        <v>94.90000000000001</v>
+        <v>98.7</v>
       </c>
       <c r="U41" s="39" t="n">
-        <v>74.8</v>
+        <v>98.8</v>
       </c>
       <c r="V41" s="39" t="n">
-        <v>82.3</v>
+        <v>99</v>
       </c>
       <c r="W41" s="39" t="n">
-        <v>37.6</v>
+        <v>26.4</v>
       </c>
       <c r="X41" s="39" t="n">
-        <v>59.6</v>
+        <v>60</v>
       </c>
       <c r="Y41" s="39" t="inlineStr">
         <is>
-          <t>医疗ETF</t>
+          <t>人工智能50ETF</t>
         </is>
       </c>
     </row>
@@ -15346,79 +15346,79 @@
         <v>40</v>
       </c>
       <c r="B42" s="39" t="n">
-        <v>517800</v>
+        <v>513360</v>
       </c>
       <c r="C42" s="39" t="inlineStr">
         <is>
-          <t>人工智能50ETF</t>
+          <t>教育ETF</t>
         </is>
       </c>
       <c r="D42" s="39" t="n">
-        <v>2.93</v>
+        <v>6.37</v>
       </c>
       <c r="E42" s="39" t="n">
-        <v>65.90000000000001</v>
+        <v>43.1</v>
       </c>
       <c r="F42" s="39" t="n">
-        <v>72.5</v>
+        <v>62.3</v>
       </c>
       <c r="G42" s="39" t="n">
-        <v>83.7</v>
+        <v>70.3</v>
       </c>
       <c r="H42" s="39" t="n">
-        <v>61.4</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="I42" s="39" t="n">
-        <v>26.3</v>
+        <v>31.8</v>
       </c>
       <c r="J42" s="39" t="n">
-        <v>56.3</v>
+        <v>72</v>
       </c>
       <c r="K42" s="39" t="n">
-        <v>61.5</v>
+        <v>60.2</v>
       </c>
       <c r="L42" s="39" t="n">
-        <v>86.8</v>
+        <v>89</v>
       </c>
       <c r="M42" s="39" t="n">
-        <v>40.4</v>
+        <v>90.7</v>
       </c>
       <c r="N42" s="39" t="n">
-        <v>76.40000000000001</v>
+        <v>98.2</v>
       </c>
       <c r="O42" s="39" t="n">
-        <v>32.8</v>
+        <v>54.2</v>
       </c>
       <c r="P42" s="39" t="n">
-        <v>55.8</v>
+        <v>22.5</v>
       </c>
       <c r="Q42" s="39" t="n">
-        <v>65.3</v>
+        <v>41.3</v>
       </c>
       <c r="R42" s="39" t="n">
-        <v>65.3</v>
+        <v>64.3</v>
       </c>
       <c r="S42" s="39" t="n">
-        <v>95.3</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="T42" s="39" t="n">
-        <v>98.7</v>
+        <v>94.3</v>
       </c>
       <c r="U42" s="39" t="n">
-        <v>98.8</v>
+        <v>75.5</v>
       </c>
       <c r="V42" s="39" t="n">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="W42" s="39" t="n">
-        <v>26.4</v>
+        <v>23.6</v>
       </c>
       <c r="X42" s="39" t="n">
-        <v>60</v>
+        <v>61.8</v>
       </c>
       <c r="Y42" s="39" t="inlineStr">
         <is>
-          <t>人工智能50ETF</t>
+          <t>教育ETF</t>
         </is>
       </c>
     </row>
@@ -15508,79 +15508,79 @@
         <v>42</v>
       </c>
       <c r="B44" s="39" t="n">
-        <v>513360</v>
+        <v>159792</v>
       </c>
       <c r="C44" s="39" t="inlineStr">
         <is>
-          <t>教育ETF</t>
+          <t>港股通互联网ETF</t>
         </is>
       </c>
       <c r="D44" s="39" t="n">
-        <v>6.37</v>
+        <v>490.92</v>
       </c>
       <c r="E44" s="39" t="n">
-        <v>43.1</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="F44" s="39" t="n">
-        <v>62.3</v>
+        <v>72.5</v>
       </c>
       <c r="G44" s="39" t="n">
-        <v>70.3</v>
+        <v>76.5</v>
       </c>
       <c r="H44" s="39" t="n">
-        <v>79.09999999999999</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="I44" s="39" t="n">
-        <v>31.8</v>
+        <v>11.6</v>
       </c>
       <c r="J44" s="39" t="n">
-        <v>72</v>
+        <v>34.6</v>
       </c>
       <c r="K44" s="39" t="n">
-        <v>60.2</v>
+        <v>29.5</v>
       </c>
       <c r="L44" s="39" t="n">
-        <v>89</v>
+        <v>65.3</v>
       </c>
       <c r="M44" s="39" t="n">
-        <v>90.7</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="N44" s="39" t="n">
-        <v>98.2</v>
+        <v>96.7</v>
       </c>
       <c r="O44" s="39" t="n">
-        <v>54.2</v>
+        <v>56.4</v>
       </c>
       <c r="P44" s="39" t="n">
-        <v>22.5</v>
+        <v>71.2</v>
       </c>
       <c r="Q44" s="39" t="n">
-        <v>41.3</v>
+        <v>77</v>
       </c>
       <c r="R44" s="39" t="n">
-        <v>64.3</v>
+        <v>50</v>
       </c>
       <c r="S44" s="39" t="n">
-        <v>87.09999999999999</v>
+        <v>89.3</v>
       </c>
       <c r="T44" s="39" t="n">
-        <v>94.3</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="U44" s="39" t="n">
-        <v>75.5</v>
+        <v>63.3</v>
       </c>
       <c r="V44" s="39" t="n">
-        <v>63</v>
+        <v>63.3</v>
       </c>
       <c r="W44" s="39" t="n">
-        <v>23.6</v>
+        <v>32.9</v>
       </c>
       <c r="X44" s="39" t="n">
-        <v>66</v>
+        <v>65.8</v>
       </c>
       <c r="Y44" s="39" t="inlineStr">
         <is>
-          <t>教育ETF</t>
+          <t>港股通互联网ETF</t>
         </is>
       </c>
     </row>
@@ -15589,79 +15589,79 @@
         <v>43</v>
       </c>
       <c r="B45" s="39" t="n">
-        <v>512100</v>
+        <v>159866</v>
       </c>
       <c r="C45" s="39" t="inlineStr">
         <is>
-          <t>中证1000ETF</t>
+          <t>日经ETF</t>
         </is>
       </c>
       <c r="D45" s="39" t="n">
-        <v>651.46</v>
+        <v>6.74</v>
       </c>
       <c r="E45" s="39" t="n">
-        <v>67.09999999999999</v>
+        <v>77</v>
       </c>
       <c r="F45" s="39" t="n">
-        <v>78.59999999999999</v>
+        <v>60.9</v>
       </c>
       <c r="G45" s="39" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="H45" s="39" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="I45" s="39" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="J45" s="39" t="n">
+        <v>78</v>
+      </c>
+      <c r="K45" s="39" t="n">
         <v>87.59999999999999</v>
       </c>
-      <c r="H45" s="39" t="n">
-        <v>70.40000000000001</v>
-      </c>
-      <c r="I45" s="39" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="J45" s="39" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="K45" s="39" t="n">
-        <v>25.6</v>
-      </c>
       <c r="L45" s="39" t="n">
-        <v>88.40000000000001</v>
+        <v>52.9</v>
       </c>
       <c r="M45" s="39" t="n">
-        <v>88.40000000000001</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="N45" s="39" t="n">
-        <v>94.2</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="O45" s="39" t="n">
-        <v>35.8</v>
+        <v>48.5</v>
       </c>
       <c r="P45" s="39" t="n">
-        <v>49.4</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="Q45" s="39" t="n">
-        <v>15.8</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="R45" s="39" t="n">
-        <v>49.1</v>
+        <v>94.5</v>
       </c>
       <c r="S45" s="39" t="n">
-        <v>76.7</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="T45" s="39" t="n">
-        <v>95</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="U45" s="39" t="n">
-        <v>95.3</v>
+        <v>78.3</v>
       </c>
       <c r="V45" s="39" t="n">
-        <v>97.7</v>
+        <v>78.3</v>
       </c>
       <c r="W45" s="39" t="n">
-        <v>41.3</v>
+        <v>90.3</v>
       </c>
       <c r="X45" s="39" t="n">
-        <v>66.59999999999999</v>
+        <v>66</v>
       </c>
       <c r="Y45" s="39" t="inlineStr">
         <is>
-          <t>中证1000ETF</t>
+          <t>日经ETF</t>
         </is>
       </c>
     </row>
@@ -15669,82 +15669,80 @@
       <c r="A46" s="39" t="n">
         <v>44</v>
       </c>
-      <c r="B46" s="39" t="inlineStr">
-        <is>
-          <t>164824</t>
-        </is>
+      <c r="B46" s="39" t="n">
+        <v>512100</v>
       </c>
       <c r="C46" s="39" t="inlineStr">
         <is>
-          <t>印度基金LOF</t>
+          <t>中证1000ETF</t>
         </is>
       </c>
       <c r="D46" s="39" t="n">
-        <v>22.69</v>
+        <v>651.72</v>
       </c>
       <c r="E46" s="39" t="n">
-        <v>80</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="F46" s="39" t="n">
-        <v>65</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="G46" s="39" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="H46" s="39" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="I46" s="39" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="J46" s="39" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="K46" s="39" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="L46" s="39" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="M46" s="39" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="N46" s="39" t="n">
+        <v>94.2</v>
+      </c>
+      <c r="O46" s="39" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="P46" s="39" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="Q46" s="39" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="R46" s="39" t="n">
+        <v>49.1</v>
+      </c>
+      <c r="S46" s="39" t="n">
         <v>76.7</v>
       </c>
-      <c r="H46" s="39" t="n">
-        <v>82.5</v>
-      </c>
-      <c r="I46" s="39" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="J46" s="39" t="n">
-        <v>81.09999999999999</v>
-      </c>
-      <c r="K46" s="39" t="n">
-        <v>90.5</v>
-      </c>
-      <c r="L46" s="39" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="M46" s="39" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="N46" s="39" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="O46" s="39" t="n">
+      <c r="T46" s="39" t="n">
+        <v>95</v>
+      </c>
+      <c r="U46" s="39" t="n">
+        <v>95.3</v>
+      </c>
+      <c r="V46" s="39" t="n">
+        <v>97.7</v>
+      </c>
+      <c r="W46" s="39" t="n">
         <v>41.3</v>
       </c>
-      <c r="P46" s="39" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="Q46" s="39" t="n">
-        <v>78.09999999999999</v>
-      </c>
-      <c r="R46" s="39" t="n">
-        <v>60.9</v>
-      </c>
-      <c r="S46" s="39" t="n">
-        <v>52.3</v>
-      </c>
-      <c r="T46" s="39" t="n">
-        <v>40.8</v>
-      </c>
-      <c r="U46" s="39" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="V46" s="39" t="n">
-        <v>33.9</v>
-      </c>
-      <c r="W46" s="39" t="n">
-        <v>8.4</v>
-      </c>
       <c r="X46" s="39" t="n">
-        <v>66.7</v>
+        <v>67.3</v>
       </c>
       <c r="Y46" s="39" t="inlineStr">
         <is>
-          <t>印度基金LOF</t>
+          <t>中证1000ETF</t>
         </is>
       </c>
     </row>
@@ -15752,80 +15750,82 @@
       <c r="A47" s="39" t="n">
         <v>45</v>
       </c>
-      <c r="B47" s="39" t="n">
-        <v>159870</v>
+      <c r="B47" s="39" t="inlineStr">
+        <is>
+          <t>159736</t>
+        </is>
       </c>
       <c r="C47" s="39" t="inlineStr">
         <is>
-          <t>化工ETF</t>
+          <t>食品饮料ETF天弘</t>
         </is>
       </c>
       <c r="D47" s="39" t="n">
-        <v>14.28</v>
+        <v>48.62</v>
       </c>
       <c r="E47" s="39" t="n">
-        <v>64.40000000000001</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="F47" s="39" t="n">
-        <v>67.40000000000001</v>
+        <v>50.1</v>
       </c>
       <c r="G47" s="39" t="n">
-        <v>75.59999999999999</v>
+        <v>46</v>
       </c>
       <c r="H47" s="39" t="n">
-        <v>33.5</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="I47" s="39" t="n">
-        <v>15.9</v>
+        <v>78.2</v>
       </c>
       <c r="J47" s="39" t="n">
-        <v>30.5</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="K47" s="39" t="n">
-        <v>30.5</v>
+        <v>34.9</v>
       </c>
       <c r="L47" s="39" t="n">
-        <v>84.5</v>
+        <v>18.6</v>
       </c>
       <c r="M47" s="39" t="n">
-        <v>88.2</v>
+        <v>18.6</v>
       </c>
       <c r="N47" s="39" t="n">
-        <v>95.90000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="O47" s="39" t="n">
-        <v>72.3</v>
+        <v>4.7</v>
       </c>
       <c r="P47" s="39" t="n">
-        <v>92</v>
+        <v>3.4</v>
       </c>
       <c r="Q47" s="39" t="n">
-        <v>38</v>
+        <v>0.9</v>
       </c>
       <c r="R47" s="39" t="n">
-        <v>49.8</v>
+        <v>0.5</v>
       </c>
       <c r="S47" s="39" t="n">
-        <v>71.5</v>
+        <v>0.5</v>
       </c>
       <c r="T47" s="39" t="n">
-        <v>93.59999999999999</v>
+        <v>75.8</v>
       </c>
       <c r="U47" s="39" t="n">
-        <v>96.40000000000001</v>
+        <v>75.8</v>
       </c>
       <c r="V47" s="39" t="n">
-        <v>67.09999999999999</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="W47" s="39" t="n">
-        <v>26.6</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="X47" s="39" t="n">
-        <v>66.7</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="Y47" s="39" t="inlineStr">
         <is>
-          <t>化工ETF</t>
+          <t>食品饮料ETF天弘</t>
         </is>
       </c>
     </row>
@@ -15834,79 +15834,79 @@
         <v>46</v>
       </c>
       <c r="B48" s="39" t="n">
-        <v>516970</v>
+        <v>159870</v>
       </c>
       <c r="C48" s="39" t="inlineStr">
         <is>
-          <t>基建50ETF</t>
+          <t>化工ETF</t>
         </is>
       </c>
       <c r="D48" s="39" t="n">
-        <v>24.3</v>
+        <v>14.31</v>
       </c>
       <c r="E48" s="39" t="n">
-        <v>69.09999999999999</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="F48" s="39" t="n">
-        <v>49.9</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="G48" s="39" t="n">
-        <v>66.09999999999999</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="H48" s="39" t="n">
-        <v>43</v>
+        <v>33.5</v>
       </c>
       <c r="I48" s="39" t="n">
-        <v>50</v>
+        <v>15.9</v>
       </c>
       <c r="J48" s="39" t="n">
-        <v>71.2</v>
+        <v>30.5</v>
       </c>
       <c r="K48" s="39" t="n">
-        <v>90.3</v>
+        <v>30.5</v>
       </c>
       <c r="L48" s="39" t="n">
-        <v>65.5</v>
+        <v>84.5</v>
       </c>
       <c r="M48" s="39" t="n">
         <v>88.2</v>
       </c>
       <c r="N48" s="39" t="n">
-        <v>88.2</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="O48" s="39" t="n">
-        <v>41.4</v>
+        <v>72.3</v>
       </c>
       <c r="P48" s="39" t="n">
-        <v>81.2</v>
+        <v>92</v>
       </c>
       <c r="Q48" s="39" t="n">
-        <v>21.8</v>
+        <v>38</v>
       </c>
       <c r="R48" s="39" t="n">
-        <v>17.6</v>
+        <v>49.8</v>
       </c>
       <c r="S48" s="39" t="n">
-        <v>8.9</v>
+        <v>71.5</v>
       </c>
       <c r="T48" s="39" t="n">
-        <v>73</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="U48" s="39" t="n">
-        <v>81.59999999999999</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="V48" s="39" t="n">
-        <v>87.59999999999999</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="W48" s="39" t="n">
-        <v>42.1</v>
+        <v>26.6</v>
       </c>
       <c r="X48" s="39" t="n">
-        <v>68.40000000000001</v>
+        <v>70</v>
       </c>
       <c r="Y48" s="39" t="inlineStr">
         <is>
-          <t>基建50ETF</t>
+          <t>化工ETF</t>
         </is>
       </c>
     </row>
@@ -15914,82 +15914,80 @@
       <c r="A49" s="39" t="n">
         <v>47</v>
       </c>
-      <c r="B49" s="39" t="inlineStr">
-        <is>
-          <t>159736</t>
-        </is>
+      <c r="B49" s="39" t="n">
+        <v>510500</v>
       </c>
       <c r="C49" s="39" t="inlineStr">
         <is>
-          <t>食品饮料ETF天弘</t>
+          <t>中证500ETF</t>
         </is>
       </c>
       <c r="D49" s="39" t="n">
-        <v>48.62</v>
+        <v>1117</v>
       </c>
       <c r="E49" s="39" t="n">
-        <v>84.09999999999999</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="F49" s="39" t="n">
-        <v>50.1</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="G49" s="39" t="n">
-        <v>46</v>
+        <v>85.2</v>
       </c>
       <c r="H49" s="39" t="n">
-        <v>70.40000000000001</v>
+        <v>62.2</v>
       </c>
       <c r="I49" s="39" t="n">
-        <v>78.2</v>
+        <v>29</v>
       </c>
       <c r="J49" s="39" t="n">
-        <v>90.59999999999999</v>
+        <v>33.4</v>
       </c>
       <c r="K49" s="39" t="n">
-        <v>34.9</v>
+        <v>38.4</v>
       </c>
       <c r="L49" s="39" t="n">
-        <v>18.6</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="M49" s="39" t="n">
-        <v>18.6</